--- a/gcc/scattered erasure.xlsx
+++ b/gcc/scattered erasure.xlsx
@@ -7680,13 +7680,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.488083</v>
+        <v>0.29348</v>
       </c>
       <c r="C2" t="n">
-        <v>0.364531</v>
+        <v>0.308803</v>
       </c>
       <c r="D2" t="n">
-        <v>0.264769</v>
+        <v>0.226916</v>
       </c>
     </row>
     <row r="3">
@@ -7694,13 +7694,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.439096</v>
+        <v>0.243916</v>
       </c>
       <c r="C3" t="n">
-        <v>0.372054</v>
+        <v>0.311437</v>
       </c>
       <c r="D3" t="n">
-        <v>0.273558</v>
+        <v>0.230654</v>
       </c>
     </row>
     <row r="4">
@@ -7708,13 +7708,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.44216</v>
+        <v>0.246647</v>
       </c>
       <c r="C4" t="n">
-        <v>0.377025</v>
+        <v>0.315277</v>
       </c>
       <c r="D4" t="n">
-        <v>0.277509</v>
+        <v>0.235317</v>
       </c>
     </row>
     <row r="5">
@@ -7722,13 +7722,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.445738</v>
+        <v>0.251397</v>
       </c>
       <c r="C5" t="n">
-        <v>0.379515</v>
+        <v>0.318192</v>
       </c>
       <c r="D5" t="n">
-        <v>0.283211</v>
+        <v>0.240643</v>
       </c>
     </row>
     <row r="6">
@@ -7736,13 +7736,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.450943</v>
+        <v>0.253301</v>
       </c>
       <c r="C6" t="n">
-        <v>0.381473</v>
+        <v>0.321349</v>
       </c>
       <c r="D6" t="n">
-        <v>0.287131</v>
+        <v>0.243501</v>
       </c>
     </row>
     <row r="7">
@@ -7750,13 +7750,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.454482</v>
+        <v>0.258655</v>
       </c>
       <c r="C7" t="n">
-        <v>0.363069</v>
+        <v>0.298555</v>
       </c>
       <c r="D7" t="n">
-        <v>0.254677</v>
+        <v>0.207662</v>
       </c>
     </row>
     <row r="8">
@@ -7764,13 +7764,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.462873</v>
+        <v>0.263232</v>
       </c>
       <c r="C8" t="n">
-        <v>0.36977</v>
+        <v>0.301314</v>
       </c>
       <c r="D8" t="n">
-        <v>0.260566</v>
+        <v>0.210295</v>
       </c>
     </row>
     <row r="9">
@@ -7778,13 +7778,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.469598</v>
+        <v>0.267546</v>
       </c>
       <c r="C9" t="n">
-        <v>0.37426</v>
+        <v>0.303977</v>
       </c>
       <c r="D9" t="n">
-        <v>0.262906</v>
+        <v>0.213873</v>
       </c>
     </row>
     <row r="10">
@@ -7792,13 +7792,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.472374</v>
+        <v>0.272158</v>
       </c>
       <c r="C10" t="n">
-        <v>0.378066</v>
+        <v>0.305717</v>
       </c>
       <c r="D10" t="n">
-        <v>0.268504</v>
+        <v>0.216716</v>
       </c>
     </row>
     <row r="11">
@@ -7806,13 +7806,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.476199</v>
+        <v>0.277597</v>
       </c>
       <c r="C11" t="n">
-        <v>0.382264</v>
+        <v>0.307133</v>
       </c>
       <c r="D11" t="n">
-        <v>0.271393</v>
+        <v>0.21907</v>
       </c>
     </row>
     <row r="12">
@@ -7820,13 +7820,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.48418</v>
+        <v>0.283248</v>
       </c>
       <c r="C12" t="n">
-        <v>0.384742</v>
+        <v>0.311187</v>
       </c>
       <c r="D12" t="n">
-        <v>0.275</v>
+        <v>0.222208</v>
       </c>
     </row>
     <row r="13">
@@ -7834,13 +7834,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.487028</v>
+        <v>0.287479</v>
       </c>
       <c r="C13" t="n">
-        <v>0.390484</v>
+        <v>0.31352</v>
       </c>
       <c r="D13" t="n">
-        <v>0.277442</v>
+        <v>0.226364</v>
       </c>
     </row>
     <row r="14">
@@ -7848,13 +7848,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.493151</v>
+        <v>0.292816</v>
       </c>
       <c r="C14" t="n">
-        <v>0.395085</v>
+        <v>0.316831</v>
       </c>
       <c r="D14" t="n">
-        <v>0.284852</v>
+        <v>0.230214</v>
       </c>
     </row>
     <row r="15">
@@ -7862,13 +7862,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.500622</v>
+        <v>0.299994</v>
       </c>
       <c r="C15" t="n">
-        <v>0.399782</v>
+        <v>0.322724</v>
       </c>
       <c r="D15" t="n">
-        <v>0.287433</v>
+        <v>0.233421</v>
       </c>
     </row>
     <row r="16">
@@ -7876,13 +7876,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.507181</v>
+        <v>0.305816</v>
       </c>
       <c r="C16" t="n">
-        <v>0.405767</v>
+        <v>0.325206</v>
       </c>
       <c r="D16" t="n">
-        <v>0.295347</v>
+        <v>0.238815</v>
       </c>
     </row>
     <row r="17">
@@ -7890,13 +7890,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.518097</v>
+        <v>0.313104</v>
       </c>
       <c r="C17" t="n">
-        <v>0.411947</v>
+        <v>0.331252</v>
       </c>
       <c r="D17" t="n">
-        <v>0.302505</v>
+        <v>0.241301</v>
       </c>
     </row>
     <row r="18">
@@ -7904,13 +7904,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.479922</v>
+        <v>0.258177</v>
       </c>
       <c r="C18" t="n">
-        <v>0.416941</v>
+        <v>0.338475</v>
       </c>
       <c r="D18" t="n">
-        <v>0.303853</v>
+        <v>0.243644</v>
       </c>
     </row>
     <row r="19">
@@ -7918,13 +7918,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.487008</v>
+        <v>0.265649</v>
       </c>
       <c r="C19" t="n">
-        <v>0.424176</v>
+        <v>0.343136</v>
       </c>
       <c r="D19" t="n">
-        <v>0.315444</v>
+        <v>0.251139</v>
       </c>
     </row>
     <row r="20">
@@ -7932,13 +7932,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.496157</v>
+        <v>0.273608</v>
       </c>
       <c r="C20" t="n">
-        <v>0.431651</v>
+        <v>0.348626</v>
       </c>
       <c r="D20" t="n">
-        <v>0.320647</v>
+        <v>0.25791</v>
       </c>
     </row>
     <row r="21">
@@ -7946,13 +7946,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.504027</v>
+        <v>0.281319</v>
       </c>
       <c r="C21" t="n">
-        <v>0.419728</v>
+        <v>0.335044</v>
       </c>
       <c r="D21" t="n">
-        <v>0.308329</v>
+        <v>0.229596</v>
       </c>
     </row>
     <row r="22">
@@ -7960,13 +7960,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.5151829999999999</v>
+        <v>0.284804</v>
       </c>
       <c r="C22" t="n">
-        <v>0.421511</v>
+        <v>0.336961</v>
       </c>
       <c r="D22" t="n">
-        <v>0.314552</v>
+        <v>0.23417</v>
       </c>
     </row>
     <row r="23">
@@ -7974,13 +7974,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.516441</v>
+        <v>0.292273</v>
       </c>
       <c r="C23" t="n">
-        <v>0.424898</v>
+        <v>0.339723</v>
       </c>
       <c r="D23" t="n">
-        <v>0.320249</v>
+        <v>0.238487</v>
       </c>
     </row>
     <row r="24">
@@ -7988,13 +7988,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.527848</v>
+        <v>0.298629</v>
       </c>
       <c r="C24" t="n">
-        <v>0.431761</v>
+        <v>0.34406</v>
       </c>
       <c r="D24" t="n">
-        <v>0.331115</v>
+        <v>0.244248</v>
       </c>
     </row>
     <row r="25">
@@ -8002,13 +8002,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.542871</v>
+        <v>0.30908</v>
       </c>
       <c r="C25" t="n">
-        <v>0.435694</v>
+        <v>0.345861</v>
       </c>
       <c r="D25" t="n">
-        <v>0.337154</v>
+        <v>0.250057</v>
       </c>
     </row>
     <row r="26">
@@ -8016,13 +8016,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.552797</v>
+        <v>0.316404</v>
       </c>
       <c r="C26" t="n">
-        <v>0.440494</v>
+        <v>0.350603</v>
       </c>
       <c r="D26" t="n">
-        <v>0.343733</v>
+        <v>0.255784</v>
       </c>
     </row>
     <row r="27">
@@ -8030,13 +8030,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.561067</v>
+        <v>0.325715</v>
       </c>
       <c r="C27" t="n">
-        <v>0.444383</v>
+        <v>0.355643</v>
       </c>
       <c r="D27" t="n">
-        <v>0.351504</v>
+        <v>0.26179</v>
       </c>
     </row>
     <row r="28">
@@ -8044,13 +8044,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.568271</v>
+        <v>0.332918</v>
       </c>
       <c r="C28" t="n">
-        <v>0.449192</v>
+        <v>0.358263</v>
       </c>
       <c r="D28" t="n">
-        <v>0.357521</v>
+        <v>0.268089</v>
       </c>
     </row>
     <row r="29">
@@ -8058,13 +8058,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.5812619999999999</v>
+        <v>0.343079</v>
       </c>
       <c r="C29" t="n">
-        <v>0.454944</v>
+        <v>0.362251</v>
       </c>
       <c r="D29" t="n">
-        <v>0.365132</v>
+        <v>0.273705</v>
       </c>
     </row>
     <row r="30">
@@ -8072,13 +8072,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.591001</v>
+        <v>0.350545</v>
       </c>
       <c r="C30" t="n">
-        <v>0.458308</v>
+        <v>0.365944</v>
       </c>
       <c r="D30" t="n">
-        <v>0.370479</v>
+        <v>0.278665</v>
       </c>
     </row>
     <row r="31">
@@ -8086,13 +8086,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.601859</v>
+        <v>0.35982</v>
       </c>
       <c r="C31" t="n">
-        <v>0.463071</v>
+        <v>0.370031</v>
       </c>
       <c r="D31" t="n">
-        <v>0.377286</v>
+        <v>0.28523</v>
       </c>
     </row>
     <row r="32">
@@ -8100,13 +8100,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.578622</v>
+        <v>0.327365</v>
       </c>
       <c r="C32" t="n">
-        <v>0.468641</v>
+        <v>0.374339</v>
       </c>
       <c r="D32" t="n">
-        <v>0.384456</v>
+        <v>0.289826</v>
       </c>
     </row>
     <row r="33">
@@ -8114,13 +8114,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.583303</v>
+        <v>0.333214</v>
       </c>
       <c r="C33" t="n">
-        <v>0.473472</v>
+        <v>0.379303</v>
       </c>
       <c r="D33" t="n">
-        <v>0.390707</v>
+        <v>0.29653</v>
       </c>
     </row>
     <row r="34">
@@ -8128,13 +8128,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.590403</v>
+        <v>0.339362</v>
       </c>
       <c r="C34" t="n">
-        <v>0.477972</v>
+        <v>0.383963</v>
       </c>
       <c r="D34" t="n">
-        <v>0.396128</v>
+        <v>0.302213</v>
       </c>
     </row>
     <row r="35">
@@ -8142,13 +8142,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.596257</v>
+        <v>0.345547</v>
       </c>
       <c r="C35" t="n">
-        <v>0.459428</v>
+        <v>0.363216</v>
       </c>
       <c r="D35" t="n">
-        <v>0.376645</v>
+        <v>0.27583</v>
       </c>
     </row>
     <row r="36">
@@ -8156,13 +8156,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.602021</v>
+        <v>0.350179</v>
       </c>
       <c r="C36" t="n">
-        <v>0.461355</v>
+        <v>0.365431</v>
       </c>
       <c r="D36" t="n">
-        <v>0.382497</v>
+        <v>0.279538</v>
       </c>
     </row>
     <row r="37">
@@ -8170,13 +8170,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.610152</v>
+        <v>0.357134</v>
       </c>
       <c r="C37" t="n">
-        <v>0.468057</v>
+        <v>0.368632</v>
       </c>
       <c r="D37" t="n">
-        <v>0.38703</v>
+        <v>0.283416</v>
       </c>
     </row>
     <row r="38">
@@ -8184,13 +8184,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.6180020000000001</v>
+        <v>0.362367</v>
       </c>
       <c r="C38" t="n">
-        <v>0.469897</v>
+        <v>0.370604</v>
       </c>
       <c r="D38" t="n">
-        <v>0.392207</v>
+        <v>0.28795</v>
       </c>
     </row>
     <row r="39">
@@ -8198,13 +8198,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.626239</v>
+        <v>0.369117</v>
       </c>
       <c r="C39" t="n">
-        <v>0.475796</v>
+        <v>0.374081</v>
       </c>
       <c r="D39" t="n">
-        <v>0.397788</v>
+        <v>0.29169</v>
       </c>
     </row>
     <row r="40">
@@ -8212,13 +8212,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.63665</v>
+        <v>0.375245</v>
       </c>
       <c r="C40" t="n">
-        <v>0.480357</v>
+        <v>0.376533</v>
       </c>
       <c r="D40" t="n">
-        <v>0.404418</v>
+        <v>0.295763</v>
       </c>
     </row>
     <row r="41">
@@ -8226,13 +8226,13 @@
         <v>66357</v>
       </c>
       <c r="B41" t="n">
-        <v>0.643456</v>
+        <v>0.382587</v>
       </c>
       <c r="C41" t="n">
-        <v>0.487168</v>
+        <v>0.380042</v>
       </c>
       <c r="D41" t="n">
-        <v>0.407471</v>
+        <v>0.300589</v>
       </c>
     </row>
     <row r="42">
@@ -8240,13 +8240,13 @@
         <v>69656</v>
       </c>
       <c r="B42" t="n">
-        <v>0.652164</v>
+        <v>0.390042</v>
       </c>
       <c r="C42" t="n">
-        <v>0.4878</v>
+        <v>0.38212</v>
       </c>
       <c r="D42" t="n">
-        <v>0.413836</v>
+        <v>0.304624</v>
       </c>
     </row>
     <row r="43">
@@ -8254,13 +8254,13 @@
         <v>73119</v>
       </c>
       <c r="B43" t="n">
-        <v>0.663817</v>
+        <v>0.398067</v>
       </c>
       <c r="C43" t="n">
-        <v>0.495404</v>
+        <v>0.38549</v>
       </c>
       <c r="D43" t="n">
-        <v>0.421559</v>
+        <v>0.309072</v>
       </c>
     </row>
     <row r="44">
@@ -8268,13 +8268,13 @@
         <v>76755</v>
       </c>
       <c r="B44" t="n">
-        <v>0.674086</v>
+        <v>0.404738</v>
       </c>
       <c r="C44" t="n">
-        <v>0.499953</v>
+        <v>0.389749</v>
       </c>
       <c r="D44" t="n">
-        <v>0.420623</v>
+        <v>0.313027</v>
       </c>
     </row>
     <row r="45">
@@ -8282,13 +8282,13 @@
         <v>80572</v>
       </c>
       <c r="B45" t="n">
-        <v>0.67611</v>
+        <v>0.412721</v>
       </c>
       <c r="C45" t="n">
-        <v>0.501891</v>
+        <v>0.39345</v>
       </c>
       <c r="D45" t="n">
-        <v>0.425714</v>
+        <v>0.317734</v>
       </c>
     </row>
     <row r="46">
@@ -8296,13 +8296,13 @@
         <v>84579</v>
       </c>
       <c r="B46" t="n">
-        <v>0.68243</v>
+        <v>0.420692</v>
       </c>
       <c r="C46" t="n">
-        <v>0.507405</v>
+        <v>0.397174</v>
       </c>
       <c r="D46" t="n">
-        <v>0.433468</v>
+        <v>0.322015</v>
       </c>
     </row>
     <row r="47">
@@ -8310,13 +8310,13 @@
         <v>88786</v>
       </c>
       <c r="B47" t="n">
-        <v>0.658476</v>
+        <v>0.377359</v>
       </c>
       <c r="C47" t="n">
-        <v>0.521435</v>
+        <v>0.402099</v>
       </c>
       <c r="D47" t="n">
-        <v>0.43989</v>
+        <v>0.326527</v>
       </c>
     </row>
     <row r="48">
@@ -8324,13 +8324,13 @@
         <v>93203</v>
       </c>
       <c r="B48" t="n">
-        <v>0.664339</v>
+        <v>0.381112</v>
       </c>
       <c r="C48" t="n">
-        <v>0.5320009999999999</v>
+        <v>0.405185</v>
       </c>
       <c r="D48" t="n">
-        <v>0.446593</v>
+        <v>0.329997</v>
       </c>
     </row>
     <row r="49">
@@ -8338,13 +8338,13 @@
         <v>97840</v>
       </c>
       <c r="B49" t="n">
-        <v>0.659618</v>
+        <v>0.381547</v>
       </c>
       <c r="C49" t="n">
-        <v>0.523185</v>
+        <v>0.409624</v>
       </c>
       <c r="D49" t="n">
-        <v>0.446021</v>
+        <v>0.334124</v>
       </c>
     </row>
     <row r="50">
@@ -8352,13 +8352,13 @@
         <v>102706</v>
       </c>
       <c r="B50" t="n">
-        <v>0.665067</v>
+        <v>0.385711</v>
       </c>
       <c r="C50" t="n">
-        <v>0.506664</v>
+        <v>0.38468</v>
       </c>
       <c r="D50" t="n">
-        <v>0.423953</v>
+        <v>0.303414</v>
       </c>
     </row>
     <row r="51">
@@ -8366,13 +8366,13 @@
         <v>107816</v>
       </c>
       <c r="B51" t="n">
-        <v>0.675628</v>
+        <v>0.39626</v>
       </c>
       <c r="C51" t="n">
-        <v>0.512184</v>
+        <v>0.38697</v>
       </c>
       <c r="D51" t="n">
-        <v>0.427415</v>
+        <v>0.306719</v>
       </c>
     </row>
     <row r="52">
@@ -8380,13 +8380,13 @@
         <v>113182</v>
       </c>
       <c r="B52" t="n">
-        <v>0.683984</v>
+        <v>0.401146</v>
       </c>
       <c r="C52" t="n">
-        <v>0.521638</v>
+        <v>0.389002</v>
       </c>
       <c r="D52" t="n">
-        <v>0.43539</v>
+        <v>0.308926</v>
       </c>
     </row>
     <row r="53">
@@ -8394,13 +8394,13 @@
         <v>118816</v>
       </c>
       <c r="B53" t="n">
-        <v>0.697048</v>
+        <v>0.406129</v>
       </c>
       <c r="C53" t="n">
-        <v>0.538034</v>
+        <v>0.3918</v>
       </c>
       <c r="D53" t="n">
-        <v>0.440682</v>
+        <v>0.304695</v>
       </c>
     </row>
     <row r="54">
@@ -8408,13 +8408,13 @@
         <v>124731</v>
       </c>
       <c r="B54" t="n">
-        <v>0.703745</v>
+        <v>0.392228</v>
       </c>
       <c r="C54" t="n">
-        <v>0.526211</v>
+        <v>0.392485</v>
       </c>
       <c r="D54" t="n">
-        <v>0.442702</v>
+        <v>0.315781</v>
       </c>
     </row>
     <row r="55">
@@ -8422,13 +8422,13 @@
         <v>130941</v>
       </c>
       <c r="B55" t="n">
-        <v>0.7076710000000001</v>
+        <v>0.417518</v>
       </c>
       <c r="C55" t="n">
-        <v>0.557963</v>
+        <v>0.393267</v>
       </c>
       <c r="D55" t="n">
-        <v>0.458895</v>
+        <v>0.318329</v>
       </c>
     </row>
     <row r="56">
@@ -8436,13 +8436,13 @@
         <v>137461</v>
       </c>
       <c r="B56" t="n">
-        <v>0.735009</v>
+        <v>0.424267</v>
       </c>
       <c r="C56" t="n">
-        <v>0.554406</v>
+        <v>0.399511</v>
       </c>
       <c r="D56" t="n">
-        <v>0.458335</v>
+        <v>0.322462</v>
       </c>
     </row>
     <row r="57">
@@ -8450,13 +8450,13 @@
         <v>144307</v>
       </c>
       <c r="B57" t="n">
-        <v>0.732118</v>
+        <v>0.430211</v>
       </c>
       <c r="C57" t="n">
-        <v>0.5763740000000001</v>
+        <v>0.406125</v>
       </c>
       <c r="D57" t="n">
-        <v>0.479236</v>
+        <v>0.3256</v>
       </c>
     </row>
     <row r="58">
@@ -8464,13 +8464,13 @@
         <v>151495</v>
       </c>
       <c r="B58" t="n">
-        <v>0.760228</v>
+        <v>0.437111</v>
       </c>
       <c r="C58" t="n">
-        <v>0.593244</v>
+        <v>0.407972</v>
       </c>
       <c r="D58" t="n">
-        <v>0.5033570000000001</v>
+        <v>0.329303</v>
       </c>
     </row>
     <row r="59">
@@ -8478,13 +8478,13 @@
         <v>159042</v>
       </c>
       <c r="B59" t="n">
-        <v>0.7863869999999999</v>
+        <v>0.445085</v>
       </c>
       <c r="C59" t="n">
-        <v>0.651255</v>
+        <v>0.412923</v>
       </c>
       <c r="D59" t="n">
-        <v>0.571895</v>
+        <v>0.33306</v>
       </c>
     </row>
     <row r="60">
@@ -8492,13 +8492,13 @@
         <v>166965</v>
       </c>
       <c r="B60" t="n">
-        <v>0.849645</v>
+        <v>0.452103</v>
       </c>
       <c r="C60" t="n">
-        <v>0.719927</v>
+        <v>0.416753</v>
       </c>
       <c r="D60" t="n">
-        <v>0.602168</v>
+        <v>0.337344</v>
       </c>
     </row>
     <row r="61">
@@ -8506,13 +8506,13 @@
         <v>175284</v>
       </c>
       <c r="B61" t="n">
-        <v>0.886066</v>
+        <v>0.397947</v>
       </c>
       <c r="C61" t="n">
-        <v>0.664594</v>
+        <v>0.42285</v>
       </c>
       <c r="D61" t="n">
-        <v>0.651199</v>
+        <v>0.342898</v>
       </c>
     </row>
     <row r="62">
@@ -8520,13 +8520,13 @@
         <v>184019</v>
       </c>
       <c r="B62" t="n">
-        <v>0.937725</v>
+        <v>0.402699</v>
       </c>
       <c r="C62" t="n">
-        <v>0.695306</v>
+        <v>0.430555</v>
       </c>
       <c r="D62" t="n">
-        <v>0.693075</v>
+        <v>0.350385</v>
       </c>
     </row>
     <row r="63">
@@ -8534,13 +8534,13 @@
         <v>193190</v>
       </c>
       <c r="B63" t="n">
-        <v>0.839805</v>
+        <v>0.41039</v>
       </c>
       <c r="C63" t="n">
-        <v>0.753484</v>
+        <v>0.433086</v>
       </c>
       <c r="D63" t="n">
-        <v>0.667544</v>
+        <v>0.351152</v>
       </c>
     </row>
     <row r="64">
@@ -8548,13 +8548,13 @@
         <v>202820</v>
       </c>
       <c r="B64" t="n">
-        <v>0.972058</v>
+        <v>0.4412</v>
       </c>
       <c r="C64" t="n">
-        <v>0.80783</v>
+        <v>0.400362</v>
       </c>
       <c r="D64" t="n">
-        <v>1.07246</v>
+        <v>0.318883</v>
       </c>
     </row>
     <row r="65">
@@ -8562,13 +8562,13 @@
         <v>212931</v>
       </c>
       <c r="B65" t="n">
-        <v>1.30717</v>
+        <v>0.445274</v>
       </c>
       <c r="C65" t="n">
-        <v>0.931653</v>
+        <v>0.403911</v>
       </c>
       <c r="D65" t="n">
-        <v>1.55887</v>
+        <v>0.327796</v>
       </c>
     </row>
     <row r="66">
@@ -8576,13 +8576,13 @@
         <v>223547</v>
       </c>
       <c r="B66" t="n">
-        <v>1.8578</v>
+        <v>0.465831</v>
       </c>
       <c r="C66" t="n">
-        <v>1.28541</v>
+        <v>0.433279</v>
       </c>
       <c r="D66" t="n">
-        <v>1.77614</v>
+        <v>0.337917</v>
       </c>
     </row>
     <row r="67">
@@ -8590,13 +8590,13 @@
         <v>234692</v>
       </c>
       <c r="B67" t="n">
-        <v>1.9885</v>
+        <v>0.476279</v>
       </c>
       <c r="C67" t="n">
-        <v>1.41986</v>
+        <v>0.415172</v>
       </c>
       <c r="D67" t="n">
-        <v>1.92959</v>
+        <v>0.344511</v>
       </c>
     </row>
     <row r="68">
@@ -8604,13 +8604,13 @@
         <v>246395</v>
       </c>
       <c r="B68" t="n">
-        <v>1.5637</v>
+        <v>0.448257</v>
       </c>
       <c r="C68" t="n">
-        <v>1.11011</v>
+        <v>0.419175</v>
       </c>
       <c r="D68" t="n">
-        <v>1.51442</v>
+        <v>0.352667</v>
       </c>
     </row>
     <row r="69">
@@ -8618,13 +8618,13 @@
         <v>258683</v>
       </c>
       <c r="B69" t="n">
-        <v>1.5564</v>
+        <v>0.459234</v>
       </c>
       <c r="C69" t="n">
-        <v>1.30176</v>
+        <v>0.423267</v>
       </c>
       <c r="D69" t="n">
-        <v>1.61039</v>
+        <v>0.359843</v>
       </c>
     </row>
     <row r="70">
@@ -8632,13 +8632,13 @@
         <v>271585</v>
       </c>
       <c r="B70" t="n">
-        <v>1.56306</v>
+        <v>0.468095</v>
       </c>
       <c r="C70" t="n">
-        <v>1.21494</v>
+        <v>0.429209</v>
       </c>
       <c r="D70" t="n">
-        <v>1.71548</v>
+        <v>0.370725</v>
       </c>
     </row>
     <row r="71">
@@ -8646,13 +8646,13 @@
         <v>285132</v>
       </c>
       <c r="B71" t="n">
-        <v>1.79933</v>
+        <v>0.479908</v>
       </c>
       <c r="C71" t="n">
-        <v>1.34624</v>
+        <v>0.4383</v>
       </c>
       <c r="D71" t="n">
-        <v>1.73728</v>
+        <v>0.404613</v>
       </c>
     </row>
     <row r="72">
@@ -8660,13 +8660,13 @@
         <v>299354</v>
       </c>
       <c r="B72" t="n">
-        <v>1.67495</v>
+        <v>0.521824</v>
       </c>
       <c r="C72" t="n">
-        <v>1.24751</v>
+        <v>0.439707</v>
       </c>
       <c r="D72" t="n">
-        <v>1.66329</v>
+        <v>0.382725</v>
       </c>
     </row>
     <row r="73">
@@ -8674,13 +8674,13 @@
         <v>314289</v>
       </c>
       <c r="B73" t="n">
-        <v>1.96195</v>
+        <v>0.499278</v>
       </c>
       <c r="C73" t="n">
-        <v>1.21728</v>
+        <v>0.445679</v>
       </c>
       <c r="D73" t="n">
-        <v>1.77643</v>
+        <v>0.391328</v>
       </c>
     </row>
     <row r="74">
@@ -8688,13 +8688,13 @@
         <v>329969</v>
       </c>
       <c r="B74" t="n">
-        <v>1.76231</v>
+        <v>0.515472</v>
       </c>
       <c r="C74" t="n">
-        <v>1.3189</v>
+        <v>0.446187</v>
       </c>
       <c r="D74" t="n">
-        <v>1.80109</v>
+        <v>0.387077</v>
       </c>
     </row>
     <row r="75">
@@ -8702,13 +8702,13 @@
         <v>346432</v>
       </c>
       <c r="B75" t="n">
-        <v>1.86536</v>
+        <v>0.538272</v>
       </c>
       <c r="C75" t="n">
-        <v>1.3831</v>
+        <v>0.451461</v>
       </c>
       <c r="D75" t="n">
-        <v>1.87537</v>
+        <v>0.397141</v>
       </c>
     </row>
     <row r="76">
@@ -8716,13 +8716,13 @@
         <v>363719</v>
       </c>
       <c r="B76" t="n">
-        <v>2.09542</v>
+        <v>0.480394</v>
       </c>
       <c r="C76" t="n">
-        <v>1.42128</v>
+        <v>0.460708</v>
       </c>
       <c r="D76" t="n">
-        <v>2.18278</v>
+        <v>0.4019</v>
       </c>
     </row>
     <row r="77">
@@ -8730,13 +8730,13 @@
         <v>381870</v>
       </c>
       <c r="B77" t="n">
-        <v>2.27419</v>
+        <v>0.472693</v>
       </c>
       <c r="C77" t="n">
-        <v>1.52249</v>
+        <v>0.471199</v>
       </c>
       <c r="D77" t="n">
-        <v>2.25573</v>
+        <v>0.404002</v>
       </c>
     </row>
     <row r="78">
@@ -8744,13 +8744,13 @@
         <v>400928</v>
       </c>
       <c r="B78" t="n">
-        <v>2.44202</v>
+        <v>0.490972</v>
       </c>
       <c r="C78" t="n">
-        <v>1.51674</v>
+        <v>0.456234</v>
       </c>
       <c r="D78" t="n">
-        <v>2.5878</v>
+        <v>0.397852</v>
       </c>
     </row>
     <row r="79">
@@ -8758,13 +8758,13 @@
         <v>420937</v>
       </c>
       <c r="B79" t="n">
-        <v>2.36335</v>
+        <v>0.473256</v>
       </c>
       <c r="C79" t="n">
-        <v>1.65385</v>
+        <v>0.457679</v>
       </c>
       <c r="D79" t="n">
-        <v>2.75354</v>
+        <v>0.396139</v>
       </c>
     </row>
     <row r="80">
@@ -8772,13 +8772,13 @@
         <v>441947</v>
       </c>
       <c r="B80" t="n">
-        <v>2.31512</v>
+        <v>0.479772</v>
       </c>
       <c r="C80" t="n">
-        <v>1.63641</v>
+        <v>0.456351</v>
       </c>
       <c r="D80" t="n">
-        <v>2.483</v>
+        <v>0.390582</v>
       </c>
     </row>
     <row r="81">
@@ -8786,13 +8786,13 @@
         <v>464005</v>
       </c>
       <c r="B81" t="n">
-        <v>2.73808</v>
+        <v>0.505145</v>
       </c>
       <c r="C81" t="n">
-        <v>1.70732</v>
+        <v>0.488555</v>
       </c>
       <c r="D81" t="n">
-        <v>2.88048</v>
+        <v>0.439449</v>
       </c>
     </row>
     <row r="82">
@@ -8800,13 +8800,13 @@
         <v>487165</v>
       </c>
       <c r="B82" t="n">
-        <v>2.75268</v>
+        <v>0.525474</v>
       </c>
       <c r="C82" t="n">
-        <v>1.73813</v>
+        <v>0.488045</v>
       </c>
       <c r="D82" t="n">
-        <v>2.96112</v>
+        <v>0.422792</v>
       </c>
     </row>
     <row r="83">
@@ -8814,13 +8814,13 @@
         <v>511485</v>
       </c>
       <c r="B83" t="n">
-        <v>2.70803</v>
+        <v>0.529907</v>
       </c>
       <c r="C83" t="n">
-        <v>1.8213</v>
+        <v>0.507233</v>
       </c>
       <c r="D83" t="n">
-        <v>2.94455</v>
+        <v>0.432662</v>
       </c>
     </row>
     <row r="84">
@@ -8828,13 +8828,13 @@
         <v>537019</v>
       </c>
       <c r="B84" t="n">
-        <v>2.78424</v>
+        <v>0.546898</v>
       </c>
       <c r="C84" t="n">
-        <v>1.82081</v>
+        <v>0.526918</v>
       </c>
       <c r="D84" t="n">
-        <v>2.94568</v>
+        <v>0.418266</v>
       </c>
     </row>
     <row r="85">
@@ -8842,13 +8842,13 @@
         <v>563827</v>
       </c>
       <c r="B85" t="n">
-        <v>2.79555</v>
+        <v>0.530297</v>
       </c>
       <c r="C85" t="n">
-        <v>1.86126</v>
+        <v>0.523162</v>
       </c>
       <c r="D85" t="n">
-        <v>2.87737</v>
+        <v>0.413439</v>
       </c>
     </row>
     <row r="86">
@@ -8856,13 +8856,13 @@
         <v>591977</v>
       </c>
       <c r="B86" t="n">
-        <v>2.77496</v>
+        <v>0.5288580000000001</v>
       </c>
       <c r="C86" t="n">
-        <v>1.8315</v>
+        <v>0.536487</v>
       </c>
       <c r="D86" t="n">
-        <v>3.01586</v>
+        <v>0.451524</v>
       </c>
     </row>
     <row r="87">
@@ -8870,13 +8870,13 @@
         <v>621532</v>
       </c>
       <c r="B87" t="n">
-        <v>2.96065</v>
+        <v>0.556514</v>
       </c>
       <c r="C87" t="n">
-        <v>1.96209</v>
+        <v>0.567967</v>
       </c>
       <c r="D87" t="n">
-        <v>3.00892</v>
+        <v>0.476499</v>
       </c>
     </row>
     <row r="88">
@@ -8884,13 +8884,13 @@
         <v>652567</v>
       </c>
       <c r="B88" t="n">
-        <v>2.94652</v>
+        <v>0.617049</v>
       </c>
       <c r="C88" t="n">
-        <v>1.96616</v>
+        <v>0.669255</v>
       </c>
       <c r="D88" t="n">
-        <v>3.12216</v>
+        <v>0.480463</v>
       </c>
     </row>
     <row r="89">
@@ -8898,13 +8898,13 @@
         <v>685151</v>
       </c>
       <c r="B89" t="n">
-        <v>2.98386</v>
+        <v>0.506948</v>
       </c>
       <c r="C89" t="n">
-        <v>2.03799</v>
+        <v>0.549365</v>
       </c>
       <c r="D89" t="n">
-        <v>3.17645</v>
+        <v>0.416399</v>
       </c>
     </row>
     <row r="90">
@@ -8912,13 +8912,13 @@
         <v>719359</v>
       </c>
       <c r="B90" t="n">
-        <v>3.22091</v>
+        <v>0.59803</v>
       </c>
       <c r="C90" t="n">
-        <v>2.01595</v>
+        <v>0.65624</v>
       </c>
       <c r="D90" t="n">
-        <v>3.24575</v>
+        <v>0.469878</v>
       </c>
     </row>
     <row r="91">
@@ -8926,13 +8926,13 @@
         <v>755280</v>
       </c>
       <c r="B91" t="n">
-        <v>3.27858</v>
+        <v>0.623872</v>
       </c>
       <c r="C91" t="n">
-        <v>2.08308</v>
+        <v>0.65771</v>
       </c>
       <c r="D91" t="n">
-        <v>3.16242</v>
+        <v>0.508966</v>
       </c>
     </row>
     <row r="92">
@@ -8940,13 +8940,13 @@
         <v>792997</v>
       </c>
       <c r="B92" t="n">
-        <v>3.22457</v>
+        <v>0.663281</v>
       </c>
       <c r="C92" t="n">
-        <v>1.96893</v>
+        <v>0.732321</v>
       </c>
       <c r="D92" t="n">
-        <v>3.28016</v>
+        <v>0.563908</v>
       </c>
     </row>
     <row r="93">
@@ -8954,13 +8954,13 @@
         <v>832595</v>
       </c>
       <c r="B93" t="n">
-        <v>3.13315</v>
+        <v>0.721351</v>
       </c>
       <c r="C93" t="n">
-        <v>2.01922</v>
+        <v>0.768675</v>
       </c>
       <c r="D93" t="n">
-        <v>3.43234</v>
+        <v>0.609322</v>
       </c>
     </row>
     <row r="94">
@@ -8968,13 +8968,13 @@
         <v>874177</v>
       </c>
       <c r="B94" t="n">
-        <v>3.17295</v>
+        <v>0.745949</v>
       </c>
       <c r="C94" t="n">
-        <v>1.99275</v>
+        <v>0.733895</v>
       </c>
       <c r="D94" t="n">
-        <v>3.52447</v>
+        <v>0.53612</v>
       </c>
     </row>
     <row r="95">
@@ -8982,13 +8982,13 @@
         <v>917832</v>
       </c>
       <c r="B95" t="n">
-        <v>3.1118</v>
+        <v>0.708753</v>
       </c>
       <c r="C95" t="n">
-        <v>2.0775</v>
+        <v>0.762416</v>
       </c>
       <c r="D95" t="n">
-        <v>3.33947</v>
+        <v>0.565999</v>
       </c>
     </row>
     <row r="96">
@@ -8996,13 +8996,13 @@
         <v>963677</v>
       </c>
       <c r="B96" t="n">
-        <v>3.1263</v>
+        <v>0.718034</v>
       </c>
       <c r="C96" t="n">
-        <v>2.10441</v>
+        <v>0.79498</v>
       </c>
       <c r="D96" t="n">
-        <v>3.48164</v>
+        <v>0.585045</v>
       </c>
     </row>
     <row r="97">
@@ -9010,13 +9010,13 @@
         <v>1011813</v>
       </c>
       <c r="B97" t="n">
-        <v>3.30624</v>
+        <v>0.750423</v>
       </c>
       <c r="C97" t="n">
-        <v>2.21046</v>
+        <v>0.795417</v>
       </c>
       <c r="D97" t="n">
-        <v>3.57487</v>
+        <v>0.590581</v>
       </c>
     </row>
     <row r="98">
@@ -9024,13 +9024,13 @@
         <v>1062351</v>
       </c>
       <c r="B98" t="n">
-        <v>3.32574</v>
+        <v>0.767443</v>
       </c>
       <c r="C98" t="n">
-        <v>2.16021</v>
+        <v>0.765636</v>
       </c>
       <c r="D98" t="n">
-        <v>3.43122</v>
+        <v>0.60347</v>
       </c>
     </row>
     <row r="99">
@@ -9038,13 +9038,13 @@
         <v>1115422</v>
       </c>
       <c r="B99" t="n">
-        <v>3.25163</v>
+        <v>0.733896</v>
       </c>
       <c r="C99" t="n">
-        <v>2.15035</v>
+        <v>0.773408</v>
       </c>
       <c r="D99" t="n">
-        <v>3.33953</v>
+        <v>0.612225</v>
       </c>
     </row>
     <row r="100">
@@ -9052,13 +9052,13 @@
         <v>1171143</v>
       </c>
       <c r="B100" t="n">
-        <v>3.22457</v>
+        <v>0.763287</v>
       </c>
       <c r="C100" t="n">
-        <v>2.17515</v>
+        <v>0.7960159999999999</v>
       </c>
       <c r="D100" t="n">
-        <v>3.3961</v>
+        <v>0.647801</v>
       </c>
     </row>
     <row r="101">
@@ -9066,13 +9066,13 @@
         <v>1229634</v>
       </c>
       <c r="B101" t="n">
-        <v>3.294</v>
+        <v>0.861206</v>
       </c>
       <c r="C101" t="n">
-        <v>2.13688</v>
+        <v>0.840123</v>
       </c>
       <c r="D101" t="n">
-        <v>3.33614</v>
+        <v>0.6662940000000001</v>
       </c>
     </row>
     <row r="102">
@@ -9080,13 +9080,13 @@
         <v>1291062</v>
       </c>
       <c r="B102" t="n">
-        <v>3.1173</v>
+        <v>0.85085</v>
       </c>
       <c r="C102" t="n">
-        <v>2.18718</v>
+        <v>0.80698</v>
       </c>
       <c r="D102" t="n">
-        <v>3.24871</v>
+        <v>0.680247</v>
       </c>
     </row>
     <row r="103">
@@ -9094,13 +9094,13 @@
         <v>1355554</v>
       </c>
       <c r="B103" t="n">
-        <v>3.26377</v>
+        <v>0.828301</v>
       </c>
       <c r="C103" t="n">
-        <v>2.24084</v>
+        <v>0.815057</v>
       </c>
       <c r="D103" t="n">
-        <v>3.40843</v>
+        <v>0.651019</v>
       </c>
     </row>
     <row r="104">
@@ -9108,13 +9108,13 @@
         <v>1423274</v>
       </c>
       <c r="B104" t="n">
-        <v>3.21207</v>
+        <v>0.8667820000000001</v>
       </c>
       <c r="C104" t="n">
-        <v>2.18417</v>
+        <v>0.818397</v>
       </c>
       <c r="D104" t="n">
-        <v>3.27841</v>
+        <v>0.721399</v>
       </c>
     </row>
     <row r="105">
@@ -9122,13 +9122,13 @@
         <v>1494380</v>
       </c>
       <c r="B105" t="n">
-        <v>3.33574</v>
+        <v>0.892719</v>
       </c>
       <c r="C105" t="n">
-        <v>2.15816</v>
+        <v>0.82531</v>
       </c>
       <c r="D105" t="n">
-        <v>3.27941</v>
+        <v>0.677168</v>
       </c>
     </row>
     <row r="106">
@@ -9136,13 +9136,13 @@
         <v>1569031</v>
       </c>
       <c r="B106" t="n">
-        <v>3.32283</v>
+        <v>0.90526</v>
       </c>
       <c r="C106" t="n">
-        <v>2.25708</v>
+        <v>0.821047</v>
       </c>
       <c r="D106" t="n">
-        <v>3.29921</v>
+        <v>0.656958</v>
       </c>
     </row>
     <row r="107">
@@ -9150,13 +9150,13 @@
         <v>1647417</v>
       </c>
       <c r="B107" t="n">
-        <v>3.33698</v>
+        <v>0.85659</v>
       </c>
       <c r="C107" t="n">
-        <v>2.21686</v>
+        <v>0.849765</v>
       </c>
       <c r="D107" t="n">
-        <v>3.71498</v>
+        <v>0.697113</v>
       </c>
     </row>
     <row r="108">
@@ -9164,13 +9164,13 @@
         <v>1729734</v>
       </c>
       <c r="B108" t="n">
-        <v>3.3975</v>
+        <v>0.909424</v>
       </c>
       <c r="C108" t="n">
-        <v>2.19045</v>
+        <v>0.836541</v>
       </c>
       <c r="D108" t="n">
-        <v>3.63342</v>
+        <v>0.71596</v>
       </c>
     </row>
     <row r="109">
@@ -9178,13 +9178,13 @@
         <v>1816153</v>
       </c>
       <c r="B109" t="n">
-        <v>3.394</v>
+        <v>0.90974</v>
       </c>
       <c r="C109" t="n">
-        <v>2.22183</v>
+        <v>0.8568480000000001</v>
       </c>
       <c r="D109" t="n">
-        <v>3.5795</v>
+        <v>0.735021</v>
       </c>
     </row>
     <row r="110">
@@ -9192,13 +9192,13 @@
         <v>1906885</v>
       </c>
       <c r="B110" t="n">
-        <v>3.20056</v>
+        <v>0.912569</v>
       </c>
       <c r="C110" t="n">
-        <v>2.18129</v>
+        <v>0.892271</v>
       </c>
       <c r="D110" t="n">
-        <v>3.50139</v>
+        <v>0.77988</v>
       </c>
     </row>
     <row r="111">
@@ -9206,13 +9206,13 @@
         <v>2002164</v>
       </c>
       <c r="B111" t="n">
-        <v>3.38258</v>
+        <v>0.982271</v>
       </c>
       <c r="C111" t="n">
-        <v>2.2637</v>
+        <v>0.968338</v>
       </c>
       <c r="D111" t="n">
-        <v>3.57923</v>
+        <v>0.788783</v>
       </c>
     </row>
     <row r="112">
@@ -9220,13 +9220,13 @@
         <v>2102198</v>
       </c>
       <c r="B112" t="n">
-        <v>3.30969</v>
+        <v>0.991309</v>
       </c>
       <c r="C112" t="n">
-        <v>2.24237</v>
+        <v>0.920913</v>
       </c>
       <c r="D112" t="n">
-        <v>3.54711</v>
+        <v>0.800562</v>
       </c>
     </row>
     <row r="113">
@@ -9234,13 +9234,13 @@
         <v>2207233</v>
       </c>
       <c r="B113" t="n">
-        <v>3.31043</v>
+        <v>1.00011</v>
       </c>
       <c r="C113" t="n">
-        <v>2.27118</v>
+        <v>0.888967</v>
       </c>
       <c r="D113" t="n">
-        <v>3.39312</v>
+        <v>0.784166</v>
       </c>
     </row>
     <row r="114">
@@ -9248,13 +9248,13 @@
         <v>2317508</v>
       </c>
       <c r="B114" t="n">
-        <v>3.12577</v>
+        <v>0.953522</v>
       </c>
       <c r="C114" t="n">
-        <v>2.32521</v>
+        <v>0.912293</v>
       </c>
       <c r="D114" t="n">
-        <v>3.54111</v>
+        <v>0.785455</v>
       </c>
     </row>
     <row r="115">
@@ -9262,13 +9262,13 @@
         <v>2433290</v>
       </c>
       <c r="B115" t="n">
-        <v>3.39645</v>
+        <v>1.00091</v>
       </c>
       <c r="C115" t="n">
-        <v>2.34709</v>
+        <v>0.919563</v>
       </c>
       <c r="D115" t="n">
-        <v>3.60445</v>
+        <v>0.77373</v>
       </c>
     </row>
     <row r="116">
@@ -9276,13 +9276,13 @@
         <v>2554854</v>
       </c>
       <c r="B116" t="n">
-        <v>3.32397</v>
+        <v>1.00268</v>
       </c>
       <c r="C116" t="n">
-        <v>2.3522</v>
+        <v>0.910828</v>
       </c>
       <c r="D116" t="n">
-        <v>3.50465</v>
+        <v>0.7902400000000001</v>
       </c>
     </row>
     <row r="117">
@@ -9290,13 +9290,13 @@
         <v>2682511</v>
       </c>
       <c r="B117" t="n">
-        <v>3.40678</v>
+        <v>1.03075</v>
       </c>
       <c r="C117" t="n">
-        <v>2.31802</v>
+        <v>0.928528</v>
       </c>
       <c r="D117" t="n">
-        <v>3.56301</v>
+        <v>0.790502</v>
       </c>
     </row>
     <row r="118">
@@ -9304,13 +9304,13 @@
         <v>2816546</v>
       </c>
       <c r="B118" t="n">
-        <v>3.5266</v>
+        <v>1.05953</v>
       </c>
       <c r="C118" t="n">
-        <v>2.53556</v>
+        <v>0.94277</v>
       </c>
       <c r="D118" t="n">
-        <v>3.56998</v>
+        <v>0.803858</v>
       </c>
     </row>
     <row r="119">
@@ -9318,13 +9318,13 @@
         <v>2957287</v>
       </c>
       <c r="B119" t="n">
-        <v>3.62195</v>
+        <v>1.07129</v>
       </c>
       <c r="C119" t="n">
-        <v>2.45055</v>
+        <v>0.983994</v>
       </c>
       <c r="D119" t="n">
-        <v>3.57346</v>
+        <v>0.865331</v>
       </c>
     </row>
   </sheetData>
@@ -9372,13 +9372,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.77818</v>
+        <v>0.829533</v>
       </c>
       <c r="C2" t="n">
-        <v>0.59792</v>
+        <v>0.635471</v>
       </c>
       <c r="D2" t="n">
-        <v>0.469375</v>
+        <v>0.474543</v>
       </c>
     </row>
     <row r="3">
@@ -9386,13 +9386,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.776583</v>
+        <v>0.821752</v>
       </c>
       <c r="C3" t="n">
-        <v>0.602379</v>
+        <v>0.655115</v>
       </c>
       <c r="D3" t="n">
-        <v>0.471929</v>
+        <v>0.475415</v>
       </c>
     </row>
     <row r="4">
@@ -9400,13 +9400,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.781834</v>
+        <v>0.835413</v>
       </c>
       <c r="C4" t="n">
-        <v>0.607055</v>
+        <v>0.656187</v>
       </c>
       <c r="D4" t="n">
-        <v>0.474087</v>
+        <v>0.477482</v>
       </c>
     </row>
     <row r="5">
@@ -9414,13 +9414,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.786059</v>
+        <v>0.86247</v>
       </c>
       <c r="C5" t="n">
-        <v>0.609162</v>
+        <v>0.676185</v>
       </c>
       <c r="D5" t="n">
-        <v>0.476534</v>
+        <v>0.480631</v>
       </c>
     </row>
     <row r="6">
@@ -9428,13 +9428,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.786774</v>
+        <v>0.874171</v>
       </c>
       <c r="C6" t="n">
-        <v>0.615415</v>
+        <v>0.6872239999999999</v>
       </c>
       <c r="D6" t="n">
-        <v>0.479281</v>
+        <v>0.484422</v>
       </c>
     </row>
     <row r="7">
@@ -9442,13 +9442,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.792374</v>
+        <v>0.891485</v>
       </c>
       <c r="C7" t="n">
-        <v>0.621871</v>
+        <v>0.698247</v>
       </c>
       <c r="D7" t="n">
-        <v>0.483284</v>
+        <v>0.506594</v>
       </c>
     </row>
     <row r="8">
@@ -9456,13 +9456,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.794055</v>
+        <v>0.906084</v>
       </c>
       <c r="C8" t="n">
-        <v>0.625671</v>
+        <v>0.72324</v>
       </c>
       <c r="D8" t="n">
-        <v>0.481289</v>
+        <v>0.5127699999999999</v>
       </c>
     </row>
     <row r="9">
@@ -9470,13 +9470,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.796751</v>
+        <v>0.8891019999999999</v>
       </c>
       <c r="C9" t="n">
-        <v>0.638758</v>
+        <v>0.715735</v>
       </c>
       <c r="D9" t="n">
-        <v>0.48537</v>
+        <v>0.498631</v>
       </c>
     </row>
     <row r="10">
@@ -9484,13 +9484,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.809615</v>
+        <v>0.930194</v>
       </c>
       <c r="C10" t="n">
-        <v>0.635899</v>
+        <v>0.7088100000000001</v>
       </c>
       <c r="D10" t="n">
-        <v>0.488518</v>
+        <v>0.516771</v>
       </c>
     </row>
     <row r="11">
@@ -9498,13 +9498,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.806378</v>
+        <v>0.960629</v>
       </c>
       <c r="C11" t="n">
-        <v>0.63795</v>
+        <v>0.733367</v>
       </c>
       <c r="D11" t="n">
-        <v>0.49229</v>
+        <v>0.531442</v>
       </c>
     </row>
     <row r="12">
@@ -9512,13 +9512,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.818617</v>
+        <v>0.96889</v>
       </c>
       <c r="C12" t="n">
-        <v>0.6460630000000001</v>
+        <v>0.739601</v>
       </c>
       <c r="D12" t="n">
-        <v>0.493442</v>
+        <v>0.533666</v>
       </c>
     </row>
     <row r="13">
@@ -9526,13 +9526,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.817994</v>
+        <v>0.986154</v>
       </c>
       <c r="C13" t="n">
-        <v>0.650527</v>
+        <v>0.741984</v>
       </c>
       <c r="D13" t="n">
-        <v>0.49431</v>
+        <v>0.5345220000000001</v>
       </c>
     </row>
     <row r="14">
@@ -9540,13 +9540,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.818235</v>
+        <v>1.00839</v>
       </c>
       <c r="C14" t="n">
-        <v>0.651049</v>
+        <v>0.741584</v>
       </c>
       <c r="D14" t="n">
-        <v>0.496861</v>
+        <v>0.536301</v>
       </c>
     </row>
     <row r="15">
@@ -9554,13 +9554,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.823056</v>
+        <v>0.993713</v>
       </c>
       <c r="C15" t="n">
-        <v>0.656718</v>
+        <v>0.737475</v>
       </c>
       <c r="D15" t="n">
-        <v>0.50356</v>
+        <v>0.544094</v>
       </c>
     </row>
     <row r="16">
@@ -9568,13 +9568,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.8349569999999999</v>
+        <v>1.01085</v>
       </c>
       <c r="C16" t="n">
-        <v>0.664625</v>
+        <v>0.747341</v>
       </c>
       <c r="D16" t="n">
-        <v>0.504111</v>
+        <v>0.545785</v>
       </c>
     </row>
     <row r="17">
@@ -9582,13 +9582,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.836436</v>
+        <v>1.02054</v>
       </c>
       <c r="C17" t="n">
-        <v>0.670202</v>
+        <v>0.757047</v>
       </c>
       <c r="D17" t="n">
-        <v>0.507082</v>
+        <v>0.5574789999999999</v>
       </c>
     </row>
     <row r="18">
@@ -9596,13 +9596,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.848918</v>
+        <v>1.02327</v>
       </c>
       <c r="C18" t="n">
-        <v>0.674327</v>
+        <v>0.749522</v>
       </c>
       <c r="D18" t="n">
-        <v>0.510286</v>
+        <v>0.547535</v>
       </c>
     </row>
     <row r="19">
@@ -9610,13 +9610,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.854043</v>
+        <v>1.04871</v>
       </c>
       <c r="C19" t="n">
-        <v>0.677336</v>
+        <v>0.790048</v>
       </c>
       <c r="D19" t="n">
-        <v>0.521406</v>
+        <v>0.553646</v>
       </c>
     </row>
     <row r="20">
@@ -9624,13 +9624,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.875194</v>
+        <v>1.04332</v>
       </c>
       <c r="C20" t="n">
-        <v>0.695147</v>
+        <v>0.779152</v>
       </c>
       <c r="D20" t="n">
-        <v>0.528112</v>
+        <v>0.563907</v>
       </c>
     </row>
     <row r="21">
@@ -9638,13 +9638,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.884324</v>
+        <v>1.06923</v>
       </c>
       <c r="C21" t="n">
-        <v>0.700194</v>
+        <v>0.783918</v>
       </c>
       <c r="D21" t="n">
-        <v>0.526764</v>
+        <v>0.5641080000000001</v>
       </c>
     </row>
     <row r="22">
@@ -9652,13 +9652,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.879553</v>
+        <v>1.08109</v>
       </c>
       <c r="C22" t="n">
-        <v>0.708727</v>
+        <v>0.804262</v>
       </c>
       <c r="D22" t="n">
-        <v>0.531729</v>
+        <v>0.572735</v>
       </c>
     </row>
     <row r="23">
@@ -9666,13 +9666,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.887989</v>
+        <v>1.07475</v>
       </c>
       <c r="C23" t="n">
-        <v>0.7146940000000001</v>
+        <v>0.810558</v>
       </c>
       <c r="D23" t="n">
-        <v>0.537971</v>
+        <v>0.568343</v>
       </c>
     </row>
     <row r="24">
@@ -9680,13 +9680,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.895219</v>
+        <v>1.08494</v>
       </c>
       <c r="C24" t="n">
-        <v>0.719194</v>
+        <v>0.813768</v>
       </c>
       <c r="D24" t="n">
-        <v>0.547357</v>
+        <v>0.588464</v>
       </c>
     </row>
     <row r="25">
@@ -9694,13 +9694,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.906479</v>
+        <v>1.08559</v>
       </c>
       <c r="C25" t="n">
-        <v>0.734729</v>
+        <v>0.822975</v>
       </c>
       <c r="D25" t="n">
-        <v>0.549621</v>
+        <v>0.5837909999999999</v>
       </c>
     </row>
     <row r="26">
@@ -9708,13 +9708,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.916274</v>
+        <v>1.10945</v>
       </c>
       <c r="C26" t="n">
-        <v>0.7292149999999999</v>
+        <v>0.831099</v>
       </c>
       <c r="D26" t="n">
-        <v>0.554509</v>
+        <v>0.585299</v>
       </c>
     </row>
     <row r="27">
@@ -9722,13 +9722,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.928549</v>
+        <v>1.12791</v>
       </c>
       <c r="C27" t="n">
-        <v>0.739915</v>
+        <v>0.842477</v>
       </c>
       <c r="D27" t="n">
-        <v>0.562347</v>
+        <v>0.59366</v>
       </c>
     </row>
     <row r="28">
@@ -9736,13 +9736,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.944597</v>
+        <v>1.09596</v>
       </c>
       <c r="C28" t="n">
-        <v>0.751625</v>
+        <v>0.844127</v>
       </c>
       <c r="D28" t="n">
-        <v>0.569599</v>
+        <v>0.595233</v>
       </c>
     </row>
     <row r="29">
@@ -9750,13 +9750,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.968735</v>
+        <v>1.14401</v>
       </c>
       <c r="C29" t="n">
-        <v>0.756448</v>
+        <v>0.860523</v>
       </c>
       <c r="D29" t="n">
-        <v>0.577568</v>
+        <v>0.588082</v>
       </c>
     </row>
     <row r="30">
@@ -9764,13 +9764,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.972545</v>
+        <v>1.12342</v>
       </c>
       <c r="C30" t="n">
-        <v>0.761833</v>
+        <v>0.862518</v>
       </c>
       <c r="D30" t="n">
-        <v>0.583805</v>
+        <v>0.605146</v>
       </c>
     </row>
     <row r="31">
@@ -9778,13 +9778,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.984375</v>
+        <v>1.13521</v>
       </c>
       <c r="C31" t="n">
-        <v>0.765808</v>
+        <v>0.846021</v>
       </c>
       <c r="D31" t="n">
-        <v>0.589089</v>
+        <v>0.603625</v>
       </c>
     </row>
     <row r="32">
@@ -9792,13 +9792,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.987511</v>
+        <v>1.12311</v>
       </c>
       <c r="C32" t="n">
-        <v>0.772539</v>
+        <v>0.858895</v>
       </c>
       <c r="D32" t="n">
-        <v>0.593859</v>
+        <v>0.588021</v>
       </c>
     </row>
     <row r="33">
@@ -9806,13 +9806,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.998615</v>
+        <v>1.10912</v>
       </c>
       <c r="C33" t="n">
-        <v>0.782689</v>
+        <v>0.860411</v>
       </c>
       <c r="D33" t="n">
-        <v>0.60241</v>
+        <v>0.596441</v>
       </c>
     </row>
     <row r="34">
@@ -9820,13 +9820,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>1.0183</v>
+        <v>1.14362</v>
       </c>
       <c r="C34" t="n">
-        <v>0.79092</v>
+        <v>0.881637</v>
       </c>
       <c r="D34" t="n">
-        <v>0.606606</v>
+        <v>0.609881</v>
       </c>
     </row>
     <row r="35">
@@ -9834,13 +9834,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>1.02264</v>
+        <v>1.12402</v>
       </c>
       <c r="C35" t="n">
-        <v>0.7856030000000001</v>
+        <v>0.852231</v>
       </c>
       <c r="D35" t="n">
-        <v>0.6144770000000001</v>
+        <v>0.595938</v>
       </c>
     </row>
     <row r="36">
@@ -9848,13 +9848,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>1.03494</v>
+        <v>1.14338</v>
       </c>
       <c r="C36" t="n">
-        <v>0.7925680000000001</v>
+        <v>0.853305</v>
       </c>
       <c r="D36" t="n">
-        <v>0.6206660000000001</v>
+        <v>0.606476</v>
       </c>
     </row>
     <row r="37">
@@ -9862,13 +9862,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>1.04609</v>
+        <v>1.17865</v>
       </c>
       <c r="C37" t="n">
-        <v>0.7962939999999999</v>
+        <v>0.847869</v>
       </c>
       <c r="D37" t="n">
-        <v>0.622821</v>
+        <v>0.591229</v>
       </c>
     </row>
     <row r="38">
@@ -9876,13 +9876,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>1.0552</v>
+        <v>1.15218</v>
       </c>
       <c r="C38" t="n">
-        <v>0.801721</v>
+        <v>0.834952</v>
       </c>
       <c r="D38" t="n">
-        <v>0.6304419999999999</v>
+        <v>0.607908</v>
       </c>
     </row>
     <row r="39">
@@ -9890,13 +9890,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>1.06517</v>
+        <v>1.17833</v>
       </c>
       <c r="C39" t="n">
-        <v>0.806419</v>
+        <v>0.857728</v>
       </c>
       <c r="D39" t="n">
-        <v>0.635902</v>
+        <v>0.613669</v>
       </c>
     </row>
     <row r="40">
@@ -9904,13 +9904,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>1.05782</v>
+        <v>1.21444</v>
       </c>
       <c r="C40" t="n">
-        <v>0.805141</v>
+        <v>0.873268</v>
       </c>
       <c r="D40" t="n">
-        <v>0.63162</v>
+        <v>0.615923</v>
       </c>
     </row>
     <row r="41">
@@ -9918,13 +9918,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>1.06824</v>
+        <v>1.19125</v>
       </c>
       <c r="C41" t="n">
-        <v>0.8097490000000001</v>
+        <v>0.87479</v>
       </c>
       <c r="D41" t="n">
-        <v>0.636005</v>
+        <v>0.605476</v>
       </c>
     </row>
     <row r="42">
@@ -9932,13 +9932,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>1.08158</v>
+        <v>1.20891</v>
       </c>
       <c r="C42" t="n">
-        <v>0.813083</v>
+        <v>0.86488</v>
       </c>
       <c r="D42" t="n">
-        <v>0.644589</v>
+        <v>0.613271</v>
       </c>
     </row>
     <row r="43">
@@ -9946,13 +9946,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>1.09957</v>
+        <v>1.2032</v>
       </c>
       <c r="C43" t="n">
-        <v>0.817343</v>
+        <v>0.875421</v>
       </c>
       <c r="D43" t="n">
-        <v>0.649574</v>
+        <v>0.609583</v>
       </c>
     </row>
     <row r="44">
@@ -9960,13 +9960,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>1.10703</v>
+        <v>1.1721</v>
       </c>
       <c r="C44" t="n">
-        <v>0.823281</v>
+        <v>0.900348</v>
       </c>
       <c r="D44" t="n">
-        <v>0.652765</v>
+        <v>0.607966</v>
       </c>
     </row>
     <row r="45">
@@ -9974,13 +9974,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>1.12138</v>
+        <v>1.19012</v>
       </c>
       <c r="C45" t="n">
-        <v>0.826901</v>
+        <v>0.879156</v>
       </c>
       <c r="D45" t="n">
-        <v>0.657065</v>
+        <v>0.62425</v>
       </c>
     </row>
     <row r="46">
@@ -9988,13 +9988,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>1.12304</v>
+        <v>1.21776</v>
       </c>
       <c r="C46" t="n">
-        <v>0.832493</v>
+        <v>0.868302</v>
       </c>
       <c r="D46" t="n">
-        <v>0.661714</v>
+        <v>0.622521</v>
       </c>
     </row>
     <row r="47">
@@ -10002,13 +10002,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>1.10366</v>
+        <v>1.17439</v>
       </c>
       <c r="C47" t="n">
-        <v>0.835185</v>
+        <v>0.868378</v>
       </c>
       <c r="D47" t="n">
-        <v>0.664492</v>
+        <v>0.611997</v>
       </c>
     </row>
     <row r="48">
@@ -10016,13 +10016,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>1.11517</v>
+        <v>1.11992</v>
       </c>
       <c r="C48" t="n">
-        <v>0.845167</v>
+        <v>0.880034</v>
       </c>
       <c r="D48" t="n">
-        <v>0.668746</v>
+        <v>0.617567</v>
       </c>
     </row>
     <row r="49">
@@ -10030,13 +10030,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>1.11919</v>
+        <v>1.15039</v>
       </c>
       <c r="C49" t="n">
-        <v>0.8490529999999999</v>
+        <v>0.893717</v>
       </c>
       <c r="D49" t="n">
-        <v>0.6720660000000001</v>
+        <v>0.612236</v>
       </c>
     </row>
     <row r="50">
@@ -10044,13 +10044,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>1.12724</v>
+        <v>1.07948</v>
       </c>
       <c r="C50" t="n">
-        <v>0.8618130000000001</v>
+        <v>0.886406</v>
       </c>
       <c r="D50" t="n">
-        <v>0.678169</v>
+        <v>0.623737</v>
       </c>
     </row>
     <row r="51">
@@ -10058,13 +10058,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>1.13526</v>
+        <v>1.19288</v>
       </c>
       <c r="C51" t="n">
-        <v>0.864779</v>
+        <v>0.879039</v>
       </c>
       <c r="D51" t="n">
-        <v>0.682905</v>
+        <v>0.620499</v>
       </c>
     </row>
     <row r="52">
@@ -10072,13 +10072,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>1.13864</v>
+        <v>1.15008</v>
       </c>
       <c r="C52" t="n">
-        <v>0.871385</v>
+        <v>0.874155</v>
       </c>
       <c r="D52" t="n">
-        <v>0.68621</v>
+        <v>0.613837</v>
       </c>
     </row>
     <row r="53">
@@ -10086,13 +10086,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>1.15194</v>
+        <v>1.16074</v>
       </c>
       <c r="C53" t="n">
-        <v>0.876349</v>
+        <v>0.884955</v>
       </c>
       <c r="D53" t="n">
-        <v>0.690087</v>
+        <v>0.619517</v>
       </c>
     </row>
     <row r="54">
@@ -10100,13 +10100,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>1.1568</v>
+        <v>1.15881</v>
       </c>
       <c r="C54" t="n">
-        <v>0.882584</v>
+        <v>0.897504</v>
       </c>
       <c r="D54" t="n">
-        <v>0.6940269999999999</v>
+        <v>0.626691</v>
       </c>
     </row>
     <row r="55">
@@ -10114,13 +10114,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>1.16873</v>
+        <v>1.19555</v>
       </c>
       <c r="C55" t="n">
-        <v>0.89033</v>
+        <v>0.894842</v>
       </c>
       <c r="D55" t="n">
-        <v>0.7000729999999999</v>
+        <v>0.640035</v>
       </c>
     </row>
     <row r="56">
@@ -10128,13 +10128,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>1.17608</v>
+        <v>1.1901</v>
       </c>
       <c r="C56" t="n">
-        <v>0.886816</v>
+        <v>0.899463</v>
       </c>
       <c r="D56" t="n">
-        <v>0.703641</v>
+        <v>0.635825</v>
       </c>
     </row>
     <row r="57">
@@ -10142,13 +10142,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>1.19036</v>
+        <v>1.24742</v>
       </c>
       <c r="C57" t="n">
-        <v>0.899192</v>
+        <v>0.927094</v>
       </c>
       <c r="D57" t="n">
-        <v>0.7085129999999999</v>
+        <v>0.644321</v>
       </c>
     </row>
     <row r="58">
@@ -10156,13 +10156,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>1.19482</v>
+        <v>1.20883</v>
       </c>
       <c r="C58" t="n">
-        <v>0.936859</v>
+        <v>0.969004</v>
       </c>
       <c r="D58" t="n">
-        <v>0.732994</v>
+        <v>0.672384</v>
       </c>
     </row>
     <row r="59">
@@ -10170,13 +10170,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>1.24042</v>
+        <v>1.28751</v>
       </c>
       <c r="C59" t="n">
-        <v>0.963592</v>
+        <v>1.00559</v>
       </c>
       <c r="D59" t="n">
-        <v>0.763051</v>
+        <v>0.709279</v>
       </c>
     </row>
     <row r="60">
@@ -10184,13 +10184,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>1.28851</v>
+        <v>1.31361</v>
       </c>
       <c r="C60" t="n">
-        <v>0.985517</v>
+        <v>0.998783</v>
       </c>
       <c r="D60" t="n">
-        <v>0.791907</v>
+        <v>0.742295</v>
       </c>
     </row>
     <row r="61">
@@ -10198,13 +10198,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>1.41928</v>
+        <v>1.49425</v>
       </c>
       <c r="C61" t="n">
-        <v>1.01822</v>
+        <v>1.04681</v>
       </c>
       <c r="D61" t="n">
-        <v>0.818759</v>
+        <v>0.78054</v>
       </c>
     </row>
     <row r="62">
@@ -10212,13 +10212,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>1.37932</v>
+        <v>1.27252</v>
       </c>
       <c r="C62" t="n">
-        <v>1.03201</v>
+        <v>1.06996</v>
       </c>
       <c r="D62" t="n">
-        <v>0.845481</v>
+        <v>0.820852</v>
       </c>
     </row>
     <row r="63">
@@ -10226,13 +10226,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>1.41018</v>
+        <v>1.52973</v>
       </c>
       <c r="C63" t="n">
-        <v>1.05071</v>
+        <v>1.10438</v>
       </c>
       <c r="D63" t="n">
-        <v>0.873538</v>
+        <v>0.859103</v>
       </c>
     </row>
     <row r="64">
@@ -10240,13 +10240,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>1.44625</v>
+        <v>1.57983</v>
       </c>
       <c r="C64" t="n">
-        <v>1.17696</v>
+        <v>1.18522</v>
       </c>
       <c r="D64" t="n">
-        <v>0.970197</v>
+        <v>0.935324</v>
       </c>
     </row>
     <row r="65">
@@ -10254,13 +10254,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>1.54204</v>
+        <v>1.61393</v>
       </c>
       <c r="C65" t="n">
-        <v>1.19804</v>
+        <v>1.23656</v>
       </c>
       <c r="D65" t="n">
-        <v>0.999762</v>
+        <v>0.9761</v>
       </c>
     </row>
     <row r="66">
@@ -10268,13 +10268,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>1.56909</v>
+        <v>1.58889</v>
       </c>
       <c r="C66" t="n">
-        <v>1.21719</v>
+        <v>1.21829</v>
       </c>
       <c r="D66" t="n">
-        <v>1.02231</v>
+        <v>1.00946</v>
       </c>
     </row>
     <row r="67">
@@ -10282,13 +10282,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>1.4292</v>
+        <v>1.70704</v>
       </c>
       <c r="C67" t="n">
-        <v>1.23796</v>
+        <v>1.27588</v>
       </c>
       <c r="D67" t="n">
-        <v>1.05743</v>
+        <v>1.0478</v>
       </c>
     </row>
     <row r="68">
@@ -10296,13 +10296,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>1.64394</v>
+        <v>1.72893</v>
       </c>
       <c r="C68" t="n">
-        <v>1.27123</v>
+        <v>1.29214</v>
       </c>
       <c r="D68" t="n">
-        <v>1.07947</v>
+        <v>1.07701</v>
       </c>
     </row>
     <row r="69">
@@ -10310,13 +10310,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>1.67499</v>
+        <v>1.77656</v>
       </c>
       <c r="C69" t="n">
-        <v>1.28255</v>
+        <v>1.31085</v>
       </c>
       <c r="D69" t="n">
-        <v>1.10611</v>
+        <v>1.13543</v>
       </c>
     </row>
     <row r="70">
@@ -10324,13 +10324,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>1.73407</v>
+        <v>1.82377</v>
       </c>
       <c r="C70" t="n">
-        <v>1.37512</v>
+        <v>1.31161</v>
       </c>
       <c r="D70" t="n">
-        <v>1.14356</v>
+        <v>1.17139</v>
       </c>
     </row>
     <row r="71">
@@ -10338,13 +10338,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>1.8024</v>
+        <v>1.6312</v>
       </c>
       <c r="C71" t="n">
-        <v>1.39154</v>
+        <v>1.3217</v>
       </c>
       <c r="D71" t="n">
-        <v>1.16196</v>
+        <v>1.18801</v>
       </c>
     </row>
     <row r="72">
@@ -10352,13 +10352,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>1.78831</v>
+        <v>1.85576</v>
       </c>
       <c r="C72" t="n">
-        <v>1.3556</v>
+        <v>1.31042</v>
       </c>
       <c r="D72" t="n">
-        <v>1.18375</v>
+        <v>1.19925</v>
       </c>
     </row>
     <row r="73">
@@ -10366,13 +10366,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>1.82186</v>
+        <v>1.82368</v>
       </c>
       <c r="C73" t="n">
-        <v>1.40871</v>
+        <v>1.42171</v>
       </c>
       <c r="D73" t="n">
-        <v>1.23599</v>
+        <v>1.21806</v>
       </c>
     </row>
     <row r="74">
@@ -10380,13 +10380,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>1.68691</v>
+        <v>1.92401</v>
       </c>
       <c r="C74" t="n">
-        <v>1.52615</v>
+        <v>1.38659</v>
       </c>
       <c r="D74" t="n">
-        <v>1.26261</v>
+        <v>1.29015</v>
       </c>
     </row>
     <row r="75">
@@ -10394,13 +10394,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>1.95943</v>
+        <v>2.04962</v>
       </c>
       <c r="C75" t="n">
-        <v>1.5127</v>
+        <v>1.48956</v>
       </c>
       <c r="D75" t="n">
-        <v>1.28221</v>
+        <v>1.30155</v>
       </c>
     </row>
     <row r="76">
@@ -10408,13 +10408,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>1.87912</v>
+        <v>2.08175</v>
       </c>
       <c r="C76" t="n">
-        <v>1.57377</v>
+        <v>1.44437</v>
       </c>
       <c r="D76" t="n">
-        <v>1.43945</v>
+        <v>1.30228</v>
       </c>
     </row>
     <row r="77">
@@ -10422,13 +10422,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>2.00795</v>
+        <v>1.8338</v>
       </c>
       <c r="C77" t="n">
-        <v>1.70659</v>
+        <v>1.43463</v>
       </c>
       <c r="D77" t="n">
-        <v>1.35175</v>
+        <v>1.18357</v>
       </c>
     </row>
     <row r="78">
@@ -10436,13 +10436,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>1.98894</v>
+        <v>1.91543</v>
       </c>
       <c r="C78" t="n">
-        <v>1.51654</v>
+        <v>1.3028</v>
       </c>
       <c r="D78" t="n">
-        <v>1.21514</v>
+        <v>1.13682</v>
       </c>
     </row>
     <row r="79">
@@ -10450,13 +10450,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>1.9904</v>
+        <v>1.76609</v>
       </c>
       <c r="C79" t="n">
-        <v>1.53379</v>
+        <v>1.29324</v>
       </c>
       <c r="D79" t="n">
-        <v>1.33611</v>
+        <v>1.33099</v>
       </c>
     </row>
     <row r="80">
@@ -10464,13 +10464,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>1.92278</v>
+        <v>1.97846</v>
       </c>
       <c r="C80" t="n">
-        <v>1.55419</v>
+        <v>1.34298</v>
       </c>
       <c r="D80" t="n">
-        <v>1.36181</v>
+        <v>1.32422</v>
       </c>
     </row>
     <row r="81">
@@ -10478,13 +10478,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>2.09873</v>
+        <v>2.00111</v>
       </c>
       <c r="C81" t="n">
-        <v>1.59258</v>
+        <v>1.34724</v>
       </c>
       <c r="D81" t="n">
-        <v>1.30627</v>
+        <v>1.18765</v>
       </c>
     </row>
     <row r="82">
@@ -10492,13 +10492,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>2.07808</v>
+        <v>1.83968</v>
       </c>
       <c r="C82" t="n">
-        <v>1.68175</v>
+        <v>1.39788</v>
       </c>
       <c r="D82" t="n">
-        <v>1.55029</v>
+        <v>1.38119</v>
       </c>
     </row>
     <row r="83">
@@ -10506,13 +10506,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>2.22568</v>
+        <v>2.01019</v>
       </c>
       <c r="C83" t="n">
-        <v>1.68192</v>
+        <v>1.36691</v>
       </c>
       <c r="D83" t="n">
-        <v>1.36799</v>
+        <v>1.04658</v>
       </c>
     </row>
     <row r="84">
@@ -10520,13 +10520,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>2.24855</v>
+        <v>1.81477</v>
       </c>
       <c r="C84" t="n">
-        <v>1.80626</v>
+        <v>1.44144</v>
       </c>
       <c r="D84" t="n">
-        <v>1.3471</v>
+        <v>1.21731</v>
       </c>
     </row>
     <row r="85">
@@ -10534,13 +10534,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>2.17324</v>
+        <v>1.88914</v>
       </c>
       <c r="C85" t="n">
-        <v>1.7433</v>
+        <v>1.50564</v>
       </c>
       <c r="D85" t="n">
-        <v>1.52197</v>
+        <v>1.23423</v>
       </c>
     </row>
     <row r="86">
@@ -10548,13 +10548,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>2.32117</v>
+        <v>2.2371</v>
       </c>
       <c r="C86" t="n">
-        <v>1.96796</v>
+        <v>1.7606</v>
       </c>
       <c r="D86" t="n">
-        <v>1.52197</v>
+        <v>1.50611</v>
       </c>
     </row>
     <row r="87">
@@ -10562,13 +10562,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>2.26653</v>
+        <v>2.3092</v>
       </c>
       <c r="C87" t="n">
-        <v>1.81797</v>
+        <v>1.72334</v>
       </c>
       <c r="D87" t="n">
-        <v>1.59004</v>
+        <v>1.39656</v>
       </c>
     </row>
     <row r="88">
@@ -10576,13 +10576,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>2.36344</v>
+        <v>2.20764</v>
       </c>
       <c r="C88" t="n">
-        <v>1.86187</v>
+        <v>1.64068</v>
       </c>
       <c r="D88" t="n">
-        <v>1.56591</v>
+        <v>1.46499</v>
       </c>
     </row>
     <row r="89">
@@ -10590,13 +10590,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>2.56737</v>
+        <v>2.49254</v>
       </c>
       <c r="C89" t="n">
-        <v>1.97852</v>
+        <v>1.81941</v>
       </c>
       <c r="D89" t="n">
-        <v>1.72083</v>
+        <v>1.40852</v>
       </c>
     </row>
     <row r="90">
@@ -10604,13 +10604,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>2.2689</v>
+        <v>1.90678</v>
       </c>
       <c r="C90" t="n">
-        <v>1.9191</v>
+        <v>1.7444</v>
       </c>
       <c r="D90" t="n">
-        <v>1.64908</v>
+        <v>1.4223</v>
       </c>
     </row>
     <row r="91">
@@ -10618,13 +10618,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>2.51929</v>
+        <v>2.24177</v>
       </c>
       <c r="C91" t="n">
-        <v>1.77605</v>
+        <v>1.84291</v>
       </c>
       <c r="D91" t="n">
-        <v>1.19322</v>
+        <v>1.50481</v>
       </c>
     </row>
     <row r="92">
@@ -10632,13 +10632,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>1.76387</v>
+        <v>2.36779</v>
       </c>
       <c r="C92" t="n">
-        <v>1.70229</v>
+        <v>1.87543</v>
       </c>
       <c r="D92" t="n">
-        <v>1.41181</v>
+        <v>1.4511</v>
       </c>
     </row>
     <row r="93">
@@ -10646,13 +10646,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>2.11391</v>
+        <v>2.61993</v>
       </c>
       <c r="C93" t="n">
-        <v>1.8229</v>
+        <v>1.91018</v>
       </c>
       <c r="D93" t="n">
-        <v>1.43336</v>
+        <v>1.53683</v>
       </c>
     </row>
     <row r="94">
@@ -10660,13 +10660,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>2.2363</v>
+        <v>2.52809</v>
       </c>
       <c r="C94" t="n">
-        <v>1.88697</v>
+        <v>1.9024</v>
       </c>
       <c r="D94" t="n">
-        <v>1.48344</v>
+        <v>1.46488</v>
       </c>
     </row>
     <row r="95">
@@ -10674,13 +10674,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>2.3602</v>
+        <v>2.41346</v>
       </c>
       <c r="C95" t="n">
-        <v>1.87773</v>
+        <v>1.91934</v>
       </c>
       <c r="D95" t="n">
-        <v>1.46172</v>
+        <v>1.42848</v>
       </c>
     </row>
     <row r="96">
@@ -10688,13 +10688,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>2.22705</v>
+        <v>2.28763</v>
       </c>
       <c r="C96" t="n">
-        <v>1.8241</v>
+        <v>2.06075</v>
       </c>
       <c r="D96" t="n">
-        <v>1.52215</v>
+        <v>1.7222</v>
       </c>
     </row>
     <row r="97">
@@ -10702,13 +10702,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>2.43923</v>
+        <v>2.49259</v>
       </c>
       <c r="C97" t="n">
-        <v>1.94898</v>
+        <v>2.11735</v>
       </c>
       <c r="D97" t="n">
-        <v>1.69572</v>
+        <v>1.77983</v>
       </c>
     </row>
     <row r="98">
@@ -10716,13 +10716,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>2.68207</v>
+        <v>2.76071</v>
       </c>
       <c r="C98" t="n">
-        <v>2.30886</v>
+        <v>2.19648</v>
       </c>
       <c r="D98" t="n">
-        <v>1.82932</v>
+        <v>1.90105</v>
       </c>
     </row>
     <row r="99">
@@ -10730,13 +10730,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>2.82973</v>
+        <v>2.98771</v>
       </c>
       <c r="C99" t="n">
-        <v>2.06438</v>
+        <v>2.24541</v>
       </c>
       <c r="D99" t="n">
-        <v>1.61631</v>
+        <v>1.53727</v>
       </c>
     </row>
     <row r="100">
@@ -10744,13 +10744,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>2.46491</v>
+        <v>2.59153</v>
       </c>
       <c r="C100" t="n">
-        <v>1.90489</v>
+        <v>2.06138</v>
       </c>
       <c r="D100" t="n">
-        <v>1.59694</v>
+        <v>1.6032</v>
       </c>
     </row>
     <row r="101">
@@ -10758,13 +10758,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>2.60613</v>
+        <v>2.63469</v>
       </c>
       <c r="C101" t="n">
-        <v>1.98967</v>
+        <v>1.96067</v>
       </c>
       <c r="D101" t="n">
-        <v>1.6488</v>
+        <v>1.67143</v>
       </c>
     </row>
     <row r="102">
@@ -10772,13 +10772,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>2.68144</v>
+        <v>2.81108</v>
       </c>
       <c r="C102" t="n">
-        <v>2.14164</v>
+        <v>2.21398</v>
       </c>
       <c r="D102" t="n">
-        <v>1.92085</v>
+        <v>1.91878</v>
       </c>
     </row>
     <row r="103">
@@ -10786,13 +10786,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>2.98106</v>
+        <v>2.88358</v>
       </c>
       <c r="C103" t="n">
-        <v>2.2833</v>
+        <v>2.30394</v>
       </c>
       <c r="D103" t="n">
-        <v>2.04495</v>
+        <v>1.70697</v>
       </c>
     </row>
     <row r="104">
@@ -10800,13 +10800,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>3.05282</v>
+        <v>2.99918</v>
       </c>
       <c r="C104" t="n">
-        <v>2.31651</v>
+        <v>2.33227</v>
       </c>
       <c r="D104" t="n">
-        <v>2.07567</v>
+        <v>1.96846</v>
       </c>
     </row>
     <row r="105">
@@ -10814,13 +10814,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>3.06332</v>
+        <v>2.90686</v>
       </c>
       <c r="C105" t="n">
-        <v>2.41036</v>
+        <v>2.17344</v>
       </c>
       <c r="D105" t="n">
-        <v>2.28367</v>
+        <v>1.53481</v>
       </c>
     </row>
     <row r="106">
@@ -10828,13 +10828,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>3.19289</v>
+        <v>2.51803</v>
       </c>
       <c r="C106" t="n">
-        <v>2.46405</v>
+        <v>1.80991</v>
       </c>
       <c r="D106" t="n">
-        <v>2.24312</v>
+        <v>1.12397</v>
       </c>
     </row>
     <row r="107">
@@ -10842,13 +10842,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>3.12461</v>
+        <v>2.27253</v>
       </c>
       <c r="C107" t="n">
-        <v>2.36161</v>
+        <v>1.88619</v>
       </c>
       <c r="D107" t="n">
-        <v>2.30642</v>
+        <v>1.21854</v>
       </c>
     </row>
     <row r="108">
@@ -10856,13 +10856,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>3.1227</v>
+        <v>2.74088</v>
       </c>
       <c r="C108" t="n">
-        <v>2.31452</v>
+        <v>2.10142</v>
       </c>
       <c r="D108" t="n">
-        <v>2.1378</v>
+        <v>1.45581</v>
       </c>
     </row>
     <row r="109">
@@ -10870,13 +10870,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>3.16448</v>
+        <v>2.77153</v>
       </c>
       <c r="C109" t="n">
-        <v>2.35269</v>
+        <v>2.05555</v>
       </c>
       <c r="D109" t="n">
-        <v>2.13717</v>
+        <v>1.39136</v>
       </c>
     </row>
     <row r="110">
@@ -10884,13 +10884,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>3.1181</v>
+        <v>2.89569</v>
       </c>
       <c r="C110" t="n">
-        <v>2.33295</v>
+        <v>2.20619</v>
       </c>
       <c r="D110" t="n">
-        <v>2.10511</v>
+        <v>1.65355</v>
       </c>
     </row>
     <row r="111">
@@ -10898,13 +10898,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>3.37705</v>
+        <v>3.067</v>
       </c>
       <c r="C111" t="n">
-        <v>2.59381</v>
+        <v>2.40486</v>
       </c>
       <c r="D111" t="n">
-        <v>2.21944</v>
+        <v>1.69998</v>
       </c>
     </row>
     <row r="112">
@@ -10912,13 +10912,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>3.55429</v>
+        <v>3.55383</v>
       </c>
       <c r="C112" t="n">
-        <v>2.54717</v>
+        <v>2.58785</v>
       </c>
       <c r="D112" t="n">
-        <v>2.24236</v>
+        <v>2.1526</v>
       </c>
     </row>
     <row r="113">
@@ -10926,13 +10926,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>3.53632</v>
+        <v>3.58633</v>
       </c>
       <c r="C113" t="n">
-        <v>2.68429</v>
+        <v>2.64293</v>
       </c>
       <c r="D113" t="n">
-        <v>2.12041</v>
+        <v>2.09687</v>
       </c>
     </row>
     <row r="114">
@@ -10940,13 +10940,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>3.52669</v>
+        <v>3.68401</v>
       </c>
       <c r="C114" t="n">
-        <v>2.58497</v>
+        <v>2.67923</v>
       </c>
       <c r="D114" t="n">
-        <v>2.15921</v>
+        <v>2.01316</v>
       </c>
     </row>
     <row r="115">
@@ -10954,13 +10954,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>3.74106</v>
+        <v>4.02995</v>
       </c>
       <c r="C115" t="n">
-        <v>2.82524</v>
+        <v>2.80246</v>
       </c>
       <c r="D115" t="n">
-        <v>2.27487</v>
+        <v>2.28079</v>
       </c>
     </row>
     <row r="116">
@@ -10968,13 +10968,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>3.16341</v>
+        <v>3.43745</v>
       </c>
       <c r="C116" t="n">
-        <v>2.33213</v>
+        <v>2.74864</v>
       </c>
       <c r="D116" t="n">
-        <v>2.16837</v>
+        <v>2.23792</v>
       </c>
     </row>
     <row r="117">
@@ -10982,13 +10982,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>3.79959</v>
+        <v>3.89648</v>
       </c>
       <c r="C117" t="n">
-        <v>2.7762</v>
+        <v>2.91997</v>
       </c>
       <c r="D117" t="n">
-        <v>2.50238</v>
+        <v>2.4888</v>
       </c>
     </row>
     <row r="118">
@@ -10996,13 +10996,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>3.36847</v>
+        <v>3.97427</v>
       </c>
       <c r="C118" t="n">
-        <v>2.93488</v>
+        <v>2.85109</v>
       </c>
       <c r="D118" t="n">
-        <v>2.73591</v>
+        <v>2.4151</v>
       </c>
     </row>
     <row r="119">
@@ -11010,13 +11010,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>3.47436</v>
+        <v>3.76258</v>
       </c>
       <c r="C119" t="n">
-        <v>2.99274</v>
+        <v>2.87082</v>
       </c>
       <c r="D119" t="n">
-        <v>2.38304</v>
+        <v>2.35241</v>
       </c>
     </row>
   </sheetData>
@@ -11064,13 +11064,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.824877</v>
+        <v>0.84184</v>
       </c>
       <c r="C2" t="n">
-        <v>0.61693</v>
+        <v>0.610602</v>
       </c>
       <c r="D2" t="n">
-        <v>0.479708</v>
+        <v>0.428297</v>
       </c>
     </row>
     <row r="3">
@@ -11078,13 +11078,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.829832</v>
+        <v>0.8280650000000001</v>
       </c>
       <c r="C3" t="n">
-        <v>0.623718</v>
+        <v>0.633278</v>
       </c>
       <c r="D3" t="n">
-        <v>0.48358</v>
+        <v>0.446615</v>
       </c>
     </row>
     <row r="4">
@@ -11092,13 +11092,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.834896</v>
+        <v>0.865682</v>
       </c>
       <c r="C4" t="n">
-        <v>0.63019</v>
+        <v>0.636978</v>
       </c>
       <c r="D4" t="n">
-        <v>0.485832</v>
+        <v>0.452315</v>
       </c>
     </row>
     <row r="5">
@@ -11106,13 +11106,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.84437</v>
+        <v>0.913026</v>
       </c>
       <c r="C5" t="n">
-        <v>0.633723</v>
+        <v>0.698386</v>
       </c>
       <c r="D5" t="n">
-        <v>0.489511</v>
+        <v>0.460551</v>
       </c>
     </row>
     <row r="6">
@@ -11120,13 +11120,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.853693</v>
+        <v>0.884565</v>
       </c>
       <c r="C6" t="n">
-        <v>0.638978</v>
+        <v>0.683446</v>
       </c>
       <c r="D6" t="n">
-        <v>0.490264</v>
+        <v>0.496542</v>
       </c>
     </row>
     <row r="7">
@@ -11134,13 +11134,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.859955</v>
+        <v>0.986011</v>
       </c>
       <c r="C7" t="n">
-        <v>0.643712</v>
+        <v>0.72886</v>
       </c>
       <c r="D7" t="n">
-        <v>0.494734</v>
+        <v>0.474531</v>
       </c>
     </row>
     <row r="8">
@@ -11148,13 +11148,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.863026</v>
+        <v>0.986488</v>
       </c>
       <c r="C8" t="n">
-        <v>0.648102</v>
+        <v>0.705609</v>
       </c>
       <c r="D8" t="n">
-        <v>0.496494</v>
+        <v>0.482743</v>
       </c>
     </row>
     <row r="9">
@@ -11162,13 +11162,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.876903</v>
+        <v>0.980954</v>
       </c>
       <c r="C9" t="n">
-        <v>0.661139</v>
+        <v>0.703458</v>
       </c>
       <c r="D9" t="n">
-        <v>0.500597</v>
+        <v>0.488828</v>
       </c>
     </row>
     <row r="10">
@@ -11176,13 +11176,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.886401</v>
+        <v>1.01296</v>
       </c>
       <c r="C10" t="n">
-        <v>0.669439</v>
+        <v>0.737776</v>
       </c>
       <c r="D10" t="n">
-        <v>0.5030480000000001</v>
+        <v>0.504934</v>
       </c>
     </row>
     <row r="11">
@@ -11190,13 +11190,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.894346</v>
+        <v>1.08226</v>
       </c>
       <c r="C11" t="n">
-        <v>0.647671</v>
+        <v>0.7489209999999999</v>
       </c>
       <c r="D11" t="n">
-        <v>0.49822</v>
+        <v>0.516537</v>
       </c>
     </row>
     <row r="12">
@@ -11204,13 +11204,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.860523</v>
+        <v>1.00887</v>
       </c>
       <c r="C12" t="n">
-        <v>0.651509</v>
+        <v>0.742885</v>
       </c>
       <c r="D12" t="n">
-        <v>0.500368</v>
+        <v>0.51754</v>
       </c>
     </row>
     <row r="13">
@@ -11218,13 +11218,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.863329</v>
+        <v>1.03224</v>
       </c>
       <c r="C13" t="n">
-        <v>0.658548</v>
+        <v>0.753701</v>
       </c>
       <c r="D13" t="n">
-        <v>0.501309</v>
+        <v>0.528993</v>
       </c>
     </row>
     <row r="14">
@@ -11232,13 +11232,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.872041</v>
+        <v>1.05037</v>
       </c>
       <c r="C14" t="n">
-        <v>0.672608</v>
+        <v>0.774828</v>
       </c>
       <c r="D14" t="n">
-        <v>0.504937</v>
+        <v>0.533769</v>
       </c>
     </row>
     <row r="15">
@@ -11246,13 +11246,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.879467</v>
+        <v>1.0561</v>
       </c>
       <c r="C15" t="n">
-        <v>0.683826</v>
+        <v>0.790372</v>
       </c>
       <c r="D15" t="n">
-        <v>0.507544</v>
+        <v>0.547224</v>
       </c>
     </row>
     <row r="16">
@@ -11260,13 +11260,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.8879359999999999</v>
+        <v>1.12797</v>
       </c>
       <c r="C16" t="n">
-        <v>0.69003</v>
+        <v>0.800329</v>
       </c>
       <c r="D16" t="n">
-        <v>0.509595</v>
+        <v>0.542085</v>
       </c>
     </row>
     <row r="17">
@@ -11274,13 +11274,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.895321</v>
+        <v>1.09475</v>
       </c>
       <c r="C17" t="n">
-        <v>0.700472</v>
+        <v>0.80362</v>
       </c>
       <c r="D17" t="n">
-        <v>0.514991</v>
+        <v>0.534396</v>
       </c>
     </row>
     <row r="18">
@@ -11288,13 +11288,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.910547</v>
+        <v>1.1697</v>
       </c>
       <c r="C18" t="n">
-        <v>0.7039299999999999</v>
+        <v>0.8103050000000001</v>
       </c>
       <c r="D18" t="n">
-        <v>0.520957</v>
+        <v>0.551078</v>
       </c>
     </row>
     <row r="19">
@@ -11302,13 +11302,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.916961</v>
+        <v>1.15219</v>
       </c>
       <c r="C19" t="n">
-        <v>0.726618</v>
+        <v>0.832889</v>
       </c>
       <c r="D19" t="n">
-        <v>0.522288</v>
+        <v>0.547507</v>
       </c>
     </row>
     <row r="20">
@@ -11316,13 +11316,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.936384</v>
+        <v>1.16857</v>
       </c>
       <c r="C20" t="n">
-        <v>0.733636</v>
+        <v>0.84467</v>
       </c>
       <c r="D20" t="n">
-        <v>0.52858</v>
+        <v>0.553695</v>
       </c>
     </row>
     <row r="21">
@@ -11330,13 +11330,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.941446</v>
+        <v>1.19215</v>
       </c>
       <c r="C21" t="n">
-        <v>0.747696</v>
+        <v>0.869131</v>
       </c>
       <c r="D21" t="n">
-        <v>0.532377</v>
+        <v>0.575895</v>
       </c>
     </row>
     <row r="22">
@@ -11344,13 +11344,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.956162</v>
+        <v>1.21572</v>
       </c>
       <c r="C22" t="n">
-        <v>0.756444</v>
+        <v>0.861823</v>
       </c>
       <c r="D22" t="n">
-        <v>0.538046</v>
+        <v>0.562772</v>
       </c>
     </row>
     <row r="23">
@@ -11358,13 +11358,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.973265</v>
+        <v>1.23868</v>
       </c>
       <c r="C23" t="n">
-        <v>0.77182</v>
+        <v>0.897821</v>
       </c>
       <c r="D23" t="n">
-        <v>0.543797</v>
+        <v>0.558159</v>
       </c>
     </row>
     <row r="24">
@@ -11372,13 +11372,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.985718</v>
+        <v>1.26894</v>
       </c>
       <c r="C24" t="n">
-        <v>0.777735</v>
+        <v>0.899406</v>
       </c>
       <c r="D24" t="n">
-        <v>0.547983</v>
+        <v>0.577236</v>
       </c>
     </row>
     <row r="25">
@@ -11386,13 +11386,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>1.00506</v>
+        <v>1.30527</v>
       </c>
       <c r="C25" t="n">
-        <v>0.798364</v>
+        <v>0.929599</v>
       </c>
       <c r="D25" t="n">
-        <v>0.5543670000000001</v>
+        <v>0.58224</v>
       </c>
     </row>
     <row r="26">
@@ -11400,13 +11400,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>1.02926</v>
+        <v>1.30594</v>
       </c>
       <c r="C26" t="n">
-        <v>0.743111</v>
+        <v>0.87282</v>
       </c>
       <c r="D26" t="n">
-        <v>0.555308</v>
+        <v>0.591703</v>
       </c>
     </row>
     <row r="27">
@@ -11414,13 +11414,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.974844</v>
+        <v>1.20152</v>
       </c>
       <c r="C27" t="n">
-        <v>0.748404</v>
+        <v>0.836495</v>
       </c>
       <c r="D27" t="n">
-        <v>0.559469</v>
+        <v>0.578253</v>
       </c>
     </row>
     <row r="28">
@@ -11428,13 +11428,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.993969</v>
+        <v>1.21487</v>
       </c>
       <c r="C28" t="n">
-        <v>0.755427</v>
+        <v>0.865698</v>
       </c>
       <c r="D28" t="n">
-        <v>0.566781</v>
+        <v>0.571261</v>
       </c>
     </row>
     <row r="29">
@@ -11442,13 +11442,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>1.00599</v>
+        <v>1.21637</v>
       </c>
       <c r="C29" t="n">
-        <v>0.761034</v>
+        <v>0.867424</v>
       </c>
       <c r="D29" t="n">
-        <v>0.576112</v>
+        <v>0.574522</v>
       </c>
     </row>
     <row r="30">
@@ -11456,13 +11456,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>1.02001</v>
+        <v>1.21008</v>
       </c>
       <c r="C30" t="n">
-        <v>0.7730320000000001</v>
+        <v>0.860654</v>
       </c>
       <c r="D30" t="n">
-        <v>0.580639</v>
+        <v>0.593886</v>
       </c>
     </row>
     <row r="31">
@@ -11470,13 +11470,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>1.03504</v>
+        <v>1.27932</v>
       </c>
       <c r="C31" t="n">
-        <v>0.782009</v>
+        <v>0.895844</v>
       </c>
       <c r="D31" t="n">
-        <v>0.58575</v>
+        <v>0.598427</v>
       </c>
     </row>
     <row r="32">
@@ -11484,13 +11484,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>1.06288</v>
+        <v>1.28589</v>
       </c>
       <c r="C32" t="n">
-        <v>0.7944870000000001</v>
+        <v>0.904707</v>
       </c>
       <c r="D32" t="n">
-        <v>0.58782</v>
+        <v>0.59978</v>
       </c>
     </row>
     <row r="33">
@@ -11498,13 +11498,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>1.06819</v>
+        <v>1.29478</v>
       </c>
       <c r="C33" t="n">
-        <v>0.798713</v>
+        <v>0.926808</v>
       </c>
       <c r="D33" t="n">
-        <v>0.595409</v>
+        <v>0.6035199999999999</v>
       </c>
     </row>
     <row r="34">
@@ -11512,13 +11512,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>1.0917</v>
+        <v>1.2997</v>
       </c>
       <c r="C34" t="n">
-        <v>0.818323</v>
+        <v>0.933893</v>
       </c>
       <c r="D34" t="n">
-        <v>0.604838</v>
+        <v>0.603893</v>
       </c>
     </row>
     <row r="35">
@@ -11526,13 +11526,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>1.11355</v>
+        <v>1.32921</v>
       </c>
       <c r="C35" t="n">
-        <v>0.827939</v>
+        <v>0.934303</v>
       </c>
       <c r="D35" t="n">
-        <v>0.610698</v>
+        <v>0.596703</v>
       </c>
     </row>
     <row r="36">
@@ -11540,13 +11540,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>1.1348</v>
+        <v>1.36133</v>
       </c>
       <c r="C36" t="n">
-        <v>0.842556</v>
+        <v>0.94776</v>
       </c>
       <c r="D36" t="n">
-        <v>0.61633</v>
+        <v>0.59793</v>
       </c>
     </row>
     <row r="37">
@@ -11554,13 +11554,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>1.14685</v>
+        <v>1.33826</v>
       </c>
       <c r="C37" t="n">
-        <v>0.855386</v>
+        <v>0.946945</v>
       </c>
       <c r="D37" t="n">
-        <v>0.622592</v>
+        <v>0.583167</v>
       </c>
     </row>
     <row r="38">
@@ -11568,13 +11568,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>1.16776</v>
+        <v>1.33372</v>
       </c>
       <c r="C38" t="n">
-        <v>0.8717200000000001</v>
+        <v>0.9844850000000001</v>
       </c>
       <c r="D38" t="n">
-        <v>0.628546</v>
+        <v>0.592507</v>
       </c>
     </row>
     <row r="39">
@@ -11582,13 +11582,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>1.20684</v>
+        <v>1.3586</v>
       </c>
       <c r="C39" t="n">
-        <v>0.884042</v>
+        <v>0.979143</v>
       </c>
       <c r="D39" t="n">
-        <v>0.633896</v>
+        <v>0.596542</v>
       </c>
     </row>
     <row r="40">
@@ -11596,13 +11596,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>1.21093</v>
+        <v>1.37357</v>
       </c>
       <c r="C40" t="n">
-        <v>0.840911</v>
+        <v>0.8969510000000001</v>
       </c>
       <c r="D40" t="n">
-        <v>0.636845</v>
+        <v>0.588046</v>
       </c>
     </row>
     <row r="41">
@@ -11610,13 +11610,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>1.15988</v>
+        <v>1.29122</v>
       </c>
       <c r="C41" t="n">
-        <v>0.855203</v>
+        <v>0.881371</v>
       </c>
       <c r="D41" t="n">
-        <v>0.640151</v>
+        <v>0.595507</v>
       </c>
     </row>
     <row r="42">
@@ -11624,13 +11624,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>1.17324</v>
+        <v>1.3011</v>
       </c>
       <c r="C42" t="n">
-        <v>0.861156</v>
+        <v>0.884538</v>
       </c>
       <c r="D42" t="n">
-        <v>0.65003</v>
+        <v>0.585107</v>
       </c>
     </row>
     <row r="43">
@@ -11638,13 +11638,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>1.18567</v>
+        <v>1.25323</v>
       </c>
       <c r="C43" t="n">
-        <v>0.86751</v>
+        <v>0.904419</v>
       </c>
       <c r="D43" t="n">
-        <v>0.6549</v>
+        <v>0.591953</v>
       </c>
     </row>
     <row r="44">
@@ -11652,13 +11652,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>1.20193</v>
+        <v>1.26995</v>
       </c>
       <c r="C44" t="n">
-        <v>0.890768</v>
+        <v>0.906316</v>
       </c>
       <c r="D44" t="n">
-        <v>0.658056</v>
+        <v>0.584602</v>
       </c>
     </row>
     <row r="45">
@@ -11666,13 +11666,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>1.2287</v>
+        <v>1.28867</v>
       </c>
       <c r="C45" t="n">
-        <v>0.894434</v>
+        <v>0.9152979999999999</v>
       </c>
       <c r="D45" t="n">
-        <v>0.660793</v>
+        <v>0.589787</v>
       </c>
     </row>
     <row r="46">
@@ -11680,13 +11680,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>1.23774</v>
+        <v>1.28445</v>
       </c>
       <c r="C46" t="n">
-        <v>0.91144</v>
+        <v>0.944952</v>
       </c>
       <c r="D46" t="n">
-        <v>0.6656300000000001</v>
+        <v>0.573518</v>
       </c>
     </row>
     <row r="47">
@@ -11694,13 +11694,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>1.26176</v>
+        <v>1.33098</v>
       </c>
       <c r="C47" t="n">
-        <v>0.92133</v>
+        <v>0.9500729999999999</v>
       </c>
       <c r="D47" t="n">
-        <v>0.673768</v>
+        <v>0.597935</v>
       </c>
     </row>
     <row r="48">
@@ -11708,13 +11708,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>1.28032</v>
+        <v>1.36646</v>
       </c>
       <c r="C48" t="n">
-        <v>0.93575</v>
+        <v>0.947026</v>
       </c>
       <c r="D48" t="n">
-        <v>0.675239</v>
+        <v>0.577508</v>
       </c>
     </row>
     <row r="49">
@@ -11722,13 +11722,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>1.29196</v>
+        <v>1.33008</v>
       </c>
       <c r="C49" t="n">
-        <v>0.951147</v>
+        <v>0.94294</v>
       </c>
       <c r="D49" t="n">
-        <v>0.683403</v>
+        <v>0.580516</v>
       </c>
     </row>
     <row r="50">
@@ -11736,13 +11736,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>1.32124</v>
+        <v>1.3512</v>
       </c>
       <c r="C50" t="n">
-        <v>0.963747</v>
+        <v>1.00631</v>
       </c>
       <c r="D50" t="n">
-        <v>0.689766</v>
+        <v>0.595356</v>
       </c>
     </row>
     <row r="51">
@@ -11750,13 +11750,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>1.34033</v>
+        <v>1.34471</v>
       </c>
       <c r="C51" t="n">
-        <v>0.981613</v>
+        <v>1.01952</v>
       </c>
       <c r="D51" t="n">
-        <v>0.694016</v>
+        <v>0.591842</v>
       </c>
     </row>
     <row r="52">
@@ -11764,13 +11764,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>1.36582</v>
+        <v>1.38653</v>
       </c>
       <c r="C52" t="n">
-        <v>0.9985540000000001</v>
+        <v>1.00459</v>
       </c>
       <c r="D52" t="n">
-        <v>0.693497</v>
+        <v>0.586896</v>
       </c>
     </row>
     <row r="53">
@@ -11778,13 +11778,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>1.38051</v>
+        <v>1.39772</v>
       </c>
       <c r="C53" t="n">
-        <v>1.01441</v>
+        <v>1.04177</v>
       </c>
       <c r="D53" t="n">
-        <v>0.700482</v>
+        <v>0.588423</v>
       </c>
     </row>
     <row r="54">
@@ -11792,13 +11792,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>1.408</v>
+        <v>1.4365</v>
       </c>
       <c r="C54" t="n">
-        <v>0.945224</v>
+        <v>0.910936</v>
       </c>
       <c r="D54" t="n">
-        <v>0.7026790000000001</v>
+        <v>0.585965</v>
       </c>
     </row>
     <row r="55">
@@ -11806,13 +11806,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>1.43183</v>
+        <v>1.43563</v>
       </c>
       <c r="C55" t="n">
-        <v>0.953454</v>
+        <v>0.9741919999999999</v>
       </c>
       <c r="D55" t="n">
-        <v>0.701691</v>
+        <v>0.594889</v>
       </c>
     </row>
     <row r="56">
@@ -11820,13 +11820,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>1.29854</v>
+        <v>1.24011</v>
       </c>
       <c r="C56" t="n">
-        <v>0.9669489999999999</v>
+        <v>0.9272359999999999</v>
       </c>
       <c r="D56" t="n">
-        <v>0.67932</v>
+        <v>0.587937</v>
       </c>
     </row>
     <row r="57">
@@ -11834,13 +11834,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>1.21113</v>
+        <v>1.28929</v>
       </c>
       <c r="C57" t="n">
-        <v>0.891846</v>
+        <v>0.9317</v>
       </c>
       <c r="D57" t="n">
-        <v>0.653745</v>
+        <v>0.606999</v>
       </c>
     </row>
     <row r="58">
@@ -11848,13 +11848,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>1.23211</v>
+        <v>1.28554</v>
       </c>
       <c r="C58" t="n">
-        <v>0.902653</v>
+        <v>0.967301</v>
       </c>
       <c r="D58" t="n">
-        <v>0.65638</v>
+        <v>0.582175</v>
       </c>
     </row>
     <row r="59">
@@ -11862,13 +11862,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>1.24429</v>
+        <v>1.31497</v>
       </c>
       <c r="C59" t="n">
-        <v>0.910639</v>
+        <v>0.958175</v>
       </c>
       <c r="D59" t="n">
-        <v>0.658604</v>
+        <v>0.591841</v>
       </c>
     </row>
     <row r="60">
@@ -11876,13 +11876,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>1.24945</v>
+        <v>1.3123</v>
       </c>
       <c r="C60" t="n">
-        <v>0.919945</v>
+        <v>0.960811</v>
       </c>
       <c r="D60" t="n">
-        <v>0.666231</v>
+        <v>0.592353</v>
       </c>
     </row>
     <row r="61">
@@ -11890,13 +11890,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>1.26693</v>
+        <v>1.3577</v>
       </c>
       <c r="C61" t="n">
-        <v>0.933692</v>
+        <v>0.9893110000000001</v>
       </c>
       <c r="D61" t="n">
-        <v>0.669066</v>
+        <v>0.600546</v>
       </c>
     </row>
     <row r="62">
@@ -11904,13 +11904,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>1.28483</v>
+        <v>1.36561</v>
       </c>
       <c r="C62" t="n">
-        <v>0.946311</v>
+        <v>0.990698</v>
       </c>
       <c r="D62" t="n">
-        <v>0.67034</v>
+        <v>0.592965</v>
       </c>
     </row>
     <row r="63">
@@ -11918,13 +11918,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>1.29626</v>
+        <v>1.36158</v>
       </c>
       <c r="C63" t="n">
-        <v>0.96807</v>
+        <v>0.9900139999999999</v>
       </c>
       <c r="D63" t="n">
-        <v>0.6742899999999999</v>
+        <v>0.607611</v>
       </c>
     </row>
     <row r="64">
@@ -11932,13 +11932,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>1.31696</v>
+        <v>1.43704</v>
       </c>
       <c r="C64" t="n">
-        <v>0.970874</v>
+        <v>1.05518</v>
       </c>
       <c r="D64" t="n">
-        <v>0.672908</v>
+        <v>0.589602</v>
       </c>
     </row>
     <row r="65">
@@ -11946,13 +11946,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>1.3445</v>
+        <v>1.39391</v>
       </c>
       <c r="C65" t="n">
-        <v>0.990268</v>
+        <v>1.0451</v>
       </c>
       <c r="D65" t="n">
-        <v>0.680708</v>
+        <v>0.587364</v>
       </c>
     </row>
     <row r="66">
@@ -11960,13 +11960,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>1.37377</v>
+        <v>1.44079</v>
       </c>
       <c r="C66" t="n">
-        <v>1.01017</v>
+        <v>1.05074</v>
       </c>
       <c r="D66" t="n">
-        <v>0.681519</v>
+        <v>0.596816</v>
       </c>
     </row>
     <row r="67">
@@ -11974,13 +11974,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>1.39595</v>
+        <v>1.42646</v>
       </c>
       <c r="C67" t="n">
-        <v>1.03496</v>
+        <v>1.08338</v>
       </c>
       <c r="D67" t="n">
-        <v>0.689949</v>
+        <v>0.589476</v>
       </c>
     </row>
     <row r="68">
@@ -11988,13 +11988,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>1.41378</v>
+        <v>1.43374</v>
       </c>
       <c r="C68" t="n">
-        <v>0.946305</v>
+        <v>0.9214869999999999</v>
       </c>
       <c r="D68" t="n">
-        <v>0.697846</v>
+        <v>0.5952539999999999</v>
       </c>
     </row>
     <row r="69">
@@ -12002,13 +12002,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>1.44862</v>
+        <v>1.47717</v>
       </c>
       <c r="C69" t="n">
-        <v>0.95546</v>
+        <v>0.943036</v>
       </c>
       <c r="D69" t="n">
-        <v>0.699466</v>
+        <v>0.59145</v>
       </c>
     </row>
     <row r="70">
@@ -12016,13 +12016,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>1.31465</v>
+        <v>1.30449</v>
       </c>
       <c r="C70" t="n">
-        <v>0.971486</v>
+        <v>0.972858</v>
       </c>
       <c r="D70" t="n">
-        <v>0.6993549999999999</v>
+        <v>0.606502</v>
       </c>
     </row>
     <row r="71">
@@ -12030,13 +12030,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>1.33542</v>
+        <v>1.28337</v>
       </c>
       <c r="C71" t="n">
-        <v>0.982132</v>
+        <v>0.995292</v>
       </c>
       <c r="D71" t="n">
-        <v>0.705025</v>
+        <v>0.604935</v>
       </c>
     </row>
     <row r="72">
@@ -12044,13 +12044,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>1.35087</v>
+        <v>1.36064</v>
       </c>
       <c r="C72" t="n">
-        <v>1.00897</v>
+        <v>0.993367</v>
       </c>
       <c r="D72" t="n">
-        <v>0.710352</v>
+        <v>0.587129</v>
       </c>
     </row>
     <row r="73">
@@ -12058,13 +12058,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>1.37673</v>
+        <v>1.3245</v>
       </c>
       <c r="C73" t="n">
-        <v>1.04575</v>
+        <v>0.98328</v>
       </c>
       <c r="D73" t="n">
-        <v>0.724263</v>
+        <v>0.606654</v>
       </c>
     </row>
     <row r="74">
@@ -12072,13 +12072,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>1.38974</v>
+        <v>1.33021</v>
       </c>
       <c r="C74" t="n">
-        <v>1.05564</v>
+        <v>0.977928</v>
       </c>
       <c r="D74" t="n">
-        <v>0.726788</v>
+        <v>0.581476</v>
       </c>
     </row>
     <row r="75">
@@ -12086,13 +12086,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>1.44582</v>
+        <v>1.37859</v>
       </c>
       <c r="C75" t="n">
-        <v>1.11145</v>
+        <v>0.979113</v>
       </c>
       <c r="D75" t="n">
-        <v>0.7359019999999999</v>
+        <v>0.596046</v>
       </c>
     </row>
     <row r="76">
@@ -12100,13 +12100,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>1.49348</v>
+        <v>1.39522</v>
       </c>
       <c r="C76" t="n">
-        <v>1.12662</v>
+        <v>1.02493</v>
       </c>
       <c r="D76" t="n">
-        <v>0.743816</v>
+        <v>0.613935</v>
       </c>
     </row>
     <row r="77">
@@ -12114,13 +12114,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>1.539</v>
+        <v>1.35818</v>
       </c>
       <c r="C77" t="n">
-        <v>1.22047</v>
+        <v>1.02075</v>
       </c>
       <c r="D77" t="n">
-        <v>0.784917</v>
+        <v>0.599785</v>
       </c>
     </row>
     <row r="78">
@@ -12128,13 +12128,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>1.65218</v>
+        <v>1.35558</v>
       </c>
       <c r="C78" t="n">
-        <v>1.24717</v>
+        <v>1.01418</v>
       </c>
       <c r="D78" t="n">
-        <v>0.853204</v>
+        <v>0.613628</v>
       </c>
     </row>
     <row r="79">
@@ -12142,13 +12142,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>1.77831</v>
+        <v>1.45503</v>
       </c>
       <c r="C79" t="n">
-        <v>1.33509</v>
+        <v>1.0342</v>
       </c>
       <c r="D79" t="n">
-        <v>0.87602</v>
+        <v>0.595504</v>
       </c>
     </row>
     <row r="80">
@@ -12156,13 +12156,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>1.79389</v>
+        <v>1.43431</v>
       </c>
       <c r="C80" t="n">
-        <v>1.39483</v>
+        <v>1.09089</v>
       </c>
       <c r="D80" t="n">
-        <v>0.913304</v>
+        <v>0.600797</v>
       </c>
     </row>
     <row r="81">
@@ -12170,13 +12170,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>1.83944</v>
+        <v>1.46587</v>
       </c>
       <c r="C81" t="n">
-        <v>1.44199</v>
+        <v>1.12255</v>
       </c>
       <c r="D81" t="n">
-        <v>0.948812</v>
+        <v>0.6021339999999999</v>
       </c>
     </row>
     <row r="82">
@@ -12184,13 +12184,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>1.99859</v>
+        <v>1.47364</v>
       </c>
       <c r="C82" t="n">
-        <v>1.57761</v>
+        <v>1.07446</v>
       </c>
       <c r="D82" t="n">
-        <v>1.01178</v>
+        <v>0.602399</v>
       </c>
     </row>
     <row r="83">
@@ -12198,13 +12198,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>2.17215</v>
+        <v>1.57715</v>
       </c>
       <c r="C83" t="n">
-        <v>1.57921</v>
+        <v>0.98226</v>
       </c>
       <c r="D83" t="n">
-        <v>1.09155</v>
+        <v>0.607797</v>
       </c>
     </row>
     <row r="84">
@@ -12212,13 +12212,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>2.1978</v>
+        <v>1.52801</v>
       </c>
       <c r="C84" t="n">
-        <v>1.63467</v>
+        <v>1.02585</v>
       </c>
       <c r="D84" t="n">
-        <v>1.1278</v>
+        <v>0.609845</v>
       </c>
     </row>
     <row r="85">
@@ -12226,13 +12226,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>2.15066</v>
+        <v>1.36628</v>
       </c>
       <c r="C85" t="n">
-        <v>1.67506</v>
+        <v>1.01872</v>
       </c>
       <c r="D85" t="n">
-        <v>1.23468</v>
+        <v>0.618981</v>
       </c>
     </row>
     <row r="86">
@@ -12240,13 +12240,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>2.2539</v>
+        <v>1.34454</v>
       </c>
       <c r="C86" t="n">
-        <v>1.82577</v>
+        <v>1.12149</v>
       </c>
       <c r="D86" t="n">
-        <v>1.26915</v>
+        <v>0.604526</v>
       </c>
     </row>
     <row r="87">
@@ -12254,13 +12254,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>2.23131</v>
+        <v>1.45956</v>
       </c>
       <c r="C87" t="n">
-        <v>1.96833</v>
+        <v>1.11581</v>
       </c>
       <c r="D87" t="n">
-        <v>1.52496</v>
+        <v>0.618187</v>
       </c>
     </row>
     <row r="88">
@@ -12268,13 +12268,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>2.65229</v>
+        <v>1.41997</v>
       </c>
       <c r="C88" t="n">
-        <v>2.12019</v>
+        <v>1.11731</v>
       </c>
       <c r="D88" t="n">
-        <v>1.42423</v>
+        <v>0.626988</v>
       </c>
     </row>
     <row r="89">
@@ -12282,13 +12282,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>2.64418</v>
+        <v>1.45018</v>
       </c>
       <c r="C89" t="n">
-        <v>2.07633</v>
+        <v>1.21009</v>
       </c>
       <c r="D89" t="n">
-        <v>1.46197</v>
+        <v>0.633565</v>
       </c>
     </row>
     <row r="90">
@@ -12296,13 +12296,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>2.6764</v>
+        <v>1.52116</v>
       </c>
       <c r="C90" t="n">
-        <v>2.2165</v>
+        <v>1.27327</v>
       </c>
       <c r="D90" t="n">
-        <v>1.51507</v>
+        <v>0.619175</v>
       </c>
     </row>
     <row r="91">
@@ -12310,13 +12310,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>2.88006</v>
+        <v>1.59536</v>
       </c>
       <c r="C91" t="n">
-        <v>2.19523</v>
+        <v>1.34604</v>
       </c>
       <c r="D91" t="n">
-        <v>1.56777</v>
+        <v>0.633223</v>
       </c>
     </row>
     <row r="92">
@@ -12324,13 +12324,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>2.85148</v>
+        <v>1.62911</v>
       </c>
       <c r="C92" t="n">
-        <v>2.54657</v>
+        <v>1.40228</v>
       </c>
       <c r="D92" t="n">
-        <v>1.61267</v>
+        <v>0.682969</v>
       </c>
     </row>
     <row r="93">
@@ -12338,13 +12338,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>3.06716</v>
+        <v>1.56433</v>
       </c>
       <c r="C93" t="n">
-        <v>2.42543</v>
+        <v>1.4924</v>
       </c>
       <c r="D93" t="n">
-        <v>1.7625</v>
+        <v>0.632171</v>
       </c>
     </row>
     <row r="94">
@@ -12352,13 +12352,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>3.13251</v>
+        <v>1.74442</v>
       </c>
       <c r="C94" t="n">
-        <v>2.52264</v>
+        <v>1.5051</v>
       </c>
       <c r="D94" t="n">
-        <v>1.7535</v>
+        <v>0.66352</v>
       </c>
     </row>
     <row r="95">
@@ -12366,13 +12366,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>3.27268</v>
+        <v>1.73614</v>
       </c>
       <c r="C95" t="n">
-        <v>2.73888</v>
+        <v>1.51155</v>
       </c>
       <c r="D95" t="n">
-        <v>1.88565</v>
+        <v>0.689549</v>
       </c>
     </row>
     <row r="96">
@@ -12380,13 +12380,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>3.59804</v>
+        <v>1.73152</v>
       </c>
       <c r="C96" t="n">
-        <v>2.78021</v>
+        <v>1.57912</v>
       </c>
       <c r="D96" t="n">
-        <v>2.00091</v>
+        <v>0.743915</v>
       </c>
     </row>
     <row r="97">
@@ -12394,13 +12394,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>3.62622</v>
+        <v>1.88199</v>
       </c>
       <c r="C97" t="n">
-        <v>2.6895</v>
+        <v>1.43792</v>
       </c>
       <c r="D97" t="n">
-        <v>2.12359</v>
+        <v>0.720531</v>
       </c>
     </row>
     <row r="98">
@@ -12408,13 +12408,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>3.89994</v>
+        <v>1.97869</v>
       </c>
       <c r="C98" t="n">
-        <v>2.72769</v>
+        <v>1.50374</v>
       </c>
       <c r="D98" t="n">
-        <v>2.17814</v>
+        <v>0.747641</v>
       </c>
     </row>
     <row r="99">
@@ -12422,13 +12422,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>3.66706</v>
+        <v>1.92394</v>
       </c>
       <c r="C99" t="n">
-        <v>2.90412</v>
+        <v>1.59986</v>
       </c>
       <c r="D99" t="n">
-        <v>2.29667</v>
+        <v>0.772962</v>
       </c>
     </row>
     <row r="100">
@@ -12436,13 +12436,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>3.70616</v>
+        <v>2.06592</v>
       </c>
       <c r="C100" t="n">
-        <v>2.93171</v>
+        <v>1.68696</v>
       </c>
       <c r="D100" t="n">
-        <v>2.27838</v>
+        <v>0.806428</v>
       </c>
     </row>
     <row r="101">
@@ -12450,13 +12450,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>3.73424</v>
+        <v>2.0608</v>
       </c>
       <c r="C101" t="n">
-        <v>2.87461</v>
+        <v>1.67657</v>
       </c>
       <c r="D101" t="n">
-        <v>2.32629</v>
+        <v>0.821785</v>
       </c>
     </row>
     <row r="102">
@@ -12464,13 +12464,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>3.86116</v>
+        <v>2.15716</v>
       </c>
       <c r="C102" t="n">
-        <v>2.93437</v>
+        <v>1.67587</v>
       </c>
       <c r="D102" t="n">
-        <v>2.43879</v>
+        <v>0.869516</v>
       </c>
     </row>
     <row r="103">
@@ -12478,13 +12478,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>3.88111</v>
+        <v>2.2786</v>
       </c>
       <c r="C103" t="n">
-        <v>2.42521</v>
+        <v>1.72679</v>
       </c>
       <c r="D103" t="n">
-        <v>1.41776</v>
+        <v>0.910152</v>
       </c>
     </row>
     <row r="104">
@@ -12492,13 +12492,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>2.52032</v>
+        <v>2.4903</v>
       </c>
       <c r="C104" t="n">
-        <v>2.69872</v>
+        <v>1.80396</v>
       </c>
       <c r="D104" t="n">
-        <v>2.22998</v>
+        <v>0.961398</v>
       </c>
     </row>
     <row r="105">
@@ -12506,13 +12506,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>3.90262</v>
+        <v>2.38681</v>
       </c>
       <c r="C105" t="n">
-        <v>2.82067</v>
+        <v>1.76274</v>
       </c>
       <c r="D105" t="n">
-        <v>2.25119</v>
+        <v>0.9717209999999999</v>
       </c>
     </row>
     <row r="106">
@@ -12520,13 +12520,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>3.91433</v>
+        <v>2.52035</v>
       </c>
       <c r="C106" t="n">
-        <v>2.88983</v>
+        <v>1.81372</v>
       </c>
       <c r="D106" t="n">
-        <v>2.2663</v>
+        <v>1.00505</v>
       </c>
     </row>
     <row r="107">
@@ -12534,13 +12534,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>3.92599</v>
+        <v>2.71414</v>
       </c>
       <c r="C107" t="n">
-        <v>2.8917</v>
+        <v>2.04792</v>
       </c>
       <c r="D107" t="n">
-        <v>2.23695</v>
+        <v>1.05299</v>
       </c>
     </row>
     <row r="108">
@@ -12548,13 +12548,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>4.03351</v>
+        <v>2.66855</v>
       </c>
       <c r="C108" t="n">
-        <v>2.88597</v>
+        <v>2.03707</v>
       </c>
       <c r="D108" t="n">
-        <v>2.21542</v>
+        <v>1.09905</v>
       </c>
     </row>
     <row r="109">
@@ -12562,13 +12562,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>4.01133</v>
+        <v>2.9395</v>
       </c>
       <c r="C109" t="n">
-        <v>2.89269</v>
+        <v>2.00186</v>
       </c>
       <c r="D109" t="n">
-        <v>2.18602</v>
+        <v>1.12265</v>
       </c>
     </row>
     <row r="110">
@@ -12576,13 +12576,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>4.02383</v>
+        <v>2.90215</v>
       </c>
       <c r="C110" t="n">
-        <v>3.18372</v>
+        <v>2.12233</v>
       </c>
       <c r="D110" t="n">
-        <v>2.25469</v>
+        <v>1.23126</v>
       </c>
     </row>
     <row r="111">
@@ -12590,13 +12590,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>4.21194</v>
+        <v>3.02151</v>
       </c>
       <c r="C111" t="n">
-        <v>2.89101</v>
+        <v>2.13719</v>
       </c>
       <c r="D111" t="n">
-        <v>2.35636</v>
+        <v>1.27365</v>
       </c>
     </row>
     <row r="112">
@@ -12604,13 +12604,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>4.66935</v>
+        <v>3.11966</v>
       </c>
       <c r="C112" t="n">
-        <v>3.32944</v>
+        <v>2.16849</v>
       </c>
       <c r="D112" t="n">
-        <v>2.69334</v>
+        <v>1.27708</v>
       </c>
     </row>
     <row r="113">
@@ -12618,13 +12618,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>4.7981</v>
+        <v>3.2973</v>
       </c>
       <c r="C113" t="n">
-        <v>3.24066</v>
+        <v>2.21755</v>
       </c>
       <c r="D113" t="n">
-        <v>2.65735</v>
+        <v>1.382</v>
       </c>
     </row>
     <row r="114">
@@ -12632,13 +12632,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>4.07445</v>
+        <v>3.2713</v>
       </c>
       <c r="C114" t="n">
-        <v>3.2613</v>
+        <v>2.56235</v>
       </c>
       <c r="D114" t="n">
-        <v>2.69382</v>
+        <v>2.18878</v>
       </c>
     </row>
     <row r="115">
@@ -12646,13 +12646,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>4.23643</v>
+        <v>3.9484</v>
       </c>
       <c r="C115" t="n">
-        <v>3.27162</v>
+        <v>2.87749</v>
       </c>
       <c r="D115" t="n">
-        <v>2.6318</v>
+        <v>2.16531</v>
       </c>
     </row>
     <row r="116">
@@ -12660,13 +12660,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>4.24726</v>
+        <v>4.12141</v>
       </c>
       <c r="C116" t="n">
-        <v>3.21715</v>
+        <v>3.05725</v>
       </c>
       <c r="D116" t="n">
-        <v>2.62188</v>
+        <v>2.16248</v>
       </c>
     </row>
     <row r="117">
@@ -12674,13 +12674,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>4.28013</v>
+        <v>4.24348</v>
       </c>
       <c r="C117" t="n">
-        <v>3.32539</v>
+        <v>2.94808</v>
       </c>
       <c r="D117" t="n">
-        <v>2.65379</v>
+        <v>2.22774</v>
       </c>
     </row>
     <row r="118">
@@ -12688,13 +12688,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>4.39349</v>
+        <v>4.33324</v>
       </c>
       <c r="C118" t="n">
-        <v>3.597</v>
+        <v>3.38528</v>
       </c>
       <c r="D118" t="n">
-        <v>2.98559</v>
+        <v>2.49354</v>
       </c>
     </row>
     <row r="119">
@@ -12702,13 +12702,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>4.7763</v>
+        <v>4.4969</v>
       </c>
       <c r="C119" t="n">
-        <v>3.69445</v>
+        <v>2.59031</v>
       </c>
       <c r="D119" t="n">
-        <v>2.99209</v>
+        <v>1.43698</v>
       </c>
     </row>
   </sheetData>

--- a/gcc/scattered erasure.xlsx
+++ b/gcc/scattered erasure.xlsx
@@ -7680,13 +7680,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.29348</v>
+        <v>0.303168</v>
       </c>
       <c r="C2" t="n">
-        <v>0.308803</v>
+        <v>0.283479</v>
       </c>
       <c r="D2" t="n">
-        <v>0.226916</v>
+        <v>0.220108</v>
       </c>
     </row>
     <row r="3">
@@ -7694,13 +7694,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.243916</v>
+        <v>0.292831</v>
       </c>
       <c r="C3" t="n">
-        <v>0.311437</v>
+        <v>0.286075</v>
       </c>
       <c r="D3" t="n">
-        <v>0.230654</v>
+        <v>0.22764</v>
       </c>
     </row>
     <row r="4">
@@ -7708,13 +7708,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.246647</v>
+        <v>0.29401</v>
       </c>
       <c r="C4" t="n">
-        <v>0.315277</v>
+        <v>0.290932</v>
       </c>
       <c r="D4" t="n">
-        <v>0.235317</v>
+        <v>0.23688</v>
       </c>
     </row>
     <row r="5">
@@ -7722,13 +7722,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.251397</v>
+        <v>0.301984</v>
       </c>
       <c r="C5" t="n">
-        <v>0.318192</v>
+        <v>0.293845</v>
       </c>
       <c r="D5" t="n">
-        <v>0.240643</v>
+        <v>0.23929</v>
       </c>
     </row>
     <row r="6">
@@ -7736,13 +7736,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.253301</v>
+        <v>0.309367</v>
       </c>
       <c r="C6" t="n">
-        <v>0.321349</v>
+        <v>0.296241</v>
       </c>
       <c r="D6" t="n">
-        <v>0.243501</v>
+        <v>0.247333</v>
       </c>
     </row>
     <row r="7">
@@ -7750,13 +7750,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.258655</v>
+        <v>0.314449</v>
       </c>
       <c r="C7" t="n">
-        <v>0.298555</v>
+        <v>0.286859</v>
       </c>
       <c r="D7" t="n">
-        <v>0.207662</v>
+        <v>0.26196</v>
       </c>
     </row>
     <row r="8">
@@ -7764,13 +7764,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.263232</v>
+        <v>0.32406</v>
       </c>
       <c r="C8" t="n">
-        <v>0.301314</v>
+        <v>0.289699</v>
       </c>
       <c r="D8" t="n">
-        <v>0.210295</v>
+        <v>0.267899</v>
       </c>
     </row>
     <row r="9">
@@ -7778,13 +7778,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.267546</v>
+        <v>0.32982</v>
       </c>
       <c r="C9" t="n">
-        <v>0.303977</v>
+        <v>0.29072</v>
       </c>
       <c r="D9" t="n">
-        <v>0.213873</v>
+        <v>0.275559</v>
       </c>
     </row>
     <row r="10">
@@ -7792,13 +7792,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.272158</v>
+        <v>0.336513</v>
       </c>
       <c r="C10" t="n">
-        <v>0.305717</v>
+        <v>0.292636</v>
       </c>
       <c r="D10" t="n">
-        <v>0.216716</v>
+        <v>0.280627</v>
       </c>
     </row>
     <row r="11">
@@ -7806,13 +7806,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.277597</v>
+        <v>0.343734</v>
       </c>
       <c r="C11" t="n">
-        <v>0.307133</v>
+        <v>0.292961</v>
       </c>
       <c r="D11" t="n">
-        <v>0.21907</v>
+        <v>0.287298</v>
       </c>
     </row>
     <row r="12">
@@ -7820,13 +7820,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.283248</v>
+        <v>0.352042</v>
       </c>
       <c r="C12" t="n">
-        <v>0.311187</v>
+        <v>0.296141</v>
       </c>
       <c r="D12" t="n">
-        <v>0.222208</v>
+        <v>0.294615</v>
       </c>
     </row>
     <row r="13">
@@ -7834,13 +7834,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.287479</v>
+        <v>0.359706</v>
       </c>
       <c r="C13" t="n">
-        <v>0.31352</v>
+        <v>0.298456</v>
       </c>
       <c r="D13" t="n">
-        <v>0.226364</v>
+        <v>0.30135</v>
       </c>
     </row>
     <row r="14">
@@ -7848,13 +7848,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.292816</v>
+        <v>0.367521</v>
       </c>
       <c r="C14" t="n">
-        <v>0.316831</v>
+        <v>0.301068</v>
       </c>
       <c r="D14" t="n">
-        <v>0.230214</v>
+        <v>0.306371</v>
       </c>
     </row>
     <row r="15">
@@ -7862,13 +7862,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.299994</v>
+        <v>0.376961</v>
       </c>
       <c r="C15" t="n">
-        <v>0.322724</v>
+        <v>0.305096</v>
       </c>
       <c r="D15" t="n">
-        <v>0.233421</v>
+        <v>0.314339</v>
       </c>
     </row>
     <row r="16">
@@ -7876,13 +7876,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.305816</v>
+        <v>0.384689</v>
       </c>
       <c r="C16" t="n">
-        <v>0.325206</v>
+        <v>0.307056</v>
       </c>
       <c r="D16" t="n">
-        <v>0.238815</v>
+        <v>0.319774</v>
       </c>
     </row>
     <row r="17">
@@ -7890,13 +7890,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.313104</v>
+        <v>0.391201</v>
       </c>
       <c r="C17" t="n">
-        <v>0.331252</v>
+        <v>0.310545</v>
       </c>
       <c r="D17" t="n">
-        <v>0.241301</v>
+        <v>0.326968</v>
       </c>
     </row>
     <row r="18">
@@ -7904,13 +7904,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.258177</v>
+        <v>0.378067</v>
       </c>
       <c r="C18" t="n">
-        <v>0.338475</v>
+        <v>0.314153</v>
       </c>
       <c r="D18" t="n">
-        <v>0.243644</v>
+        <v>0.332534</v>
       </c>
     </row>
     <row r="19">
@@ -7918,13 +7918,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.265649</v>
+        <v>0.383025</v>
       </c>
       <c r="C19" t="n">
-        <v>0.343136</v>
+        <v>0.31743</v>
       </c>
       <c r="D19" t="n">
-        <v>0.251139</v>
+        <v>0.339463</v>
       </c>
     </row>
     <row r="20">
@@ -7932,13 +7932,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.273608</v>
+        <v>0.389749</v>
       </c>
       <c r="C20" t="n">
-        <v>0.348626</v>
+        <v>0.320886</v>
       </c>
       <c r="D20" t="n">
-        <v>0.25791</v>
+        <v>0.344611</v>
       </c>
     </row>
     <row r="21">
@@ -7946,13 +7946,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.281319</v>
+        <v>0.393977</v>
       </c>
       <c r="C21" t="n">
-        <v>0.335044</v>
+        <v>0.301831</v>
       </c>
       <c r="D21" t="n">
-        <v>0.229596</v>
+        <v>0.351352</v>
       </c>
     </row>
     <row r="22">
@@ -7960,13 +7960,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.284804</v>
+        <v>0.40056</v>
       </c>
       <c r="C22" t="n">
-        <v>0.336961</v>
+        <v>0.304143</v>
       </c>
       <c r="D22" t="n">
-        <v>0.23417</v>
+        <v>0.356046</v>
       </c>
     </row>
     <row r="23">
@@ -7974,13 +7974,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.292273</v>
+        <v>0.406253</v>
       </c>
       <c r="C23" t="n">
-        <v>0.339723</v>
+        <v>0.305273</v>
       </c>
       <c r="D23" t="n">
-        <v>0.238487</v>
+        <v>0.360277</v>
       </c>
     </row>
     <row r="24">
@@ -7988,13 +7988,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.298629</v>
+        <v>0.41164</v>
       </c>
       <c r="C24" t="n">
-        <v>0.34406</v>
+        <v>0.308595</v>
       </c>
       <c r="D24" t="n">
-        <v>0.244248</v>
+        <v>0.364186</v>
       </c>
     </row>
     <row r="25">
@@ -8002,13 +8002,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.30908</v>
+        <v>0.417355</v>
       </c>
       <c r="C25" t="n">
-        <v>0.345861</v>
+        <v>0.309582</v>
       </c>
       <c r="D25" t="n">
-        <v>0.250057</v>
+        <v>0.368633</v>
       </c>
     </row>
     <row r="26">
@@ -8016,13 +8016,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.316404</v>
+        <v>0.424104</v>
       </c>
       <c r="C26" t="n">
-        <v>0.350603</v>
+        <v>0.313258</v>
       </c>
       <c r="D26" t="n">
-        <v>0.255784</v>
+        <v>0.371985</v>
       </c>
     </row>
     <row r="27">
@@ -8030,13 +8030,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.325715</v>
+        <v>0.429313</v>
       </c>
       <c r="C27" t="n">
-        <v>0.355643</v>
+        <v>0.316555</v>
       </c>
       <c r="D27" t="n">
-        <v>0.26179</v>
+        <v>0.375882</v>
       </c>
     </row>
     <row r="28">
@@ -8044,13 +8044,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.332918</v>
+        <v>0.435388</v>
       </c>
       <c r="C28" t="n">
-        <v>0.358263</v>
+        <v>0.318483</v>
       </c>
       <c r="D28" t="n">
-        <v>0.268089</v>
+        <v>0.37929</v>
       </c>
     </row>
     <row r="29">
@@ -8058,13 +8058,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.343079</v>
+        <v>0.441835</v>
       </c>
       <c r="C29" t="n">
-        <v>0.362251</v>
+        <v>0.321436</v>
       </c>
       <c r="D29" t="n">
-        <v>0.273705</v>
+        <v>0.383956</v>
       </c>
     </row>
     <row r="30">
@@ -8072,13 +8072,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.350545</v>
+        <v>0.447033</v>
       </c>
       <c r="C30" t="n">
-        <v>0.365944</v>
+        <v>0.324131</v>
       </c>
       <c r="D30" t="n">
-        <v>0.278665</v>
+        <v>0.387167</v>
       </c>
     </row>
     <row r="31">
@@ -8086,13 +8086,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.35982</v>
+        <v>0.454965</v>
       </c>
       <c r="C31" t="n">
-        <v>0.370031</v>
+        <v>0.327379</v>
       </c>
       <c r="D31" t="n">
-        <v>0.28523</v>
+        <v>0.390892</v>
       </c>
     </row>
     <row r="32">
@@ -8100,13 +8100,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.327365</v>
+        <v>0.424814</v>
       </c>
       <c r="C32" t="n">
-        <v>0.374339</v>
+        <v>0.330611</v>
       </c>
       <c r="D32" t="n">
-        <v>0.289826</v>
+        <v>0.394194</v>
       </c>
     </row>
     <row r="33">
@@ -8114,13 +8114,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.333214</v>
+        <v>0.429425</v>
       </c>
       <c r="C33" t="n">
-        <v>0.379303</v>
+        <v>0.333572</v>
       </c>
       <c r="D33" t="n">
-        <v>0.29653</v>
+        <v>0.398253</v>
       </c>
     </row>
     <row r="34">
@@ -8128,13 +8128,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.339362</v>
+        <v>0.433015</v>
       </c>
       <c r="C34" t="n">
-        <v>0.383963</v>
+        <v>0.33713</v>
       </c>
       <c r="D34" t="n">
-        <v>0.302213</v>
+        <v>0.40133</v>
       </c>
     </row>
     <row r="35">
@@ -8142,13 +8142,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.345547</v>
+        <v>0.437408</v>
       </c>
       <c r="C35" t="n">
-        <v>0.363216</v>
+        <v>0.313904</v>
       </c>
       <c r="D35" t="n">
-        <v>0.27583</v>
+        <v>0.401048</v>
       </c>
     </row>
     <row r="36">
@@ -8156,13 +8156,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.350179</v>
+        <v>0.441107</v>
       </c>
       <c r="C36" t="n">
-        <v>0.365431</v>
+        <v>0.3163</v>
       </c>
       <c r="D36" t="n">
-        <v>0.279538</v>
+        <v>0.403063</v>
       </c>
     </row>
     <row r="37">
@@ -8170,13 +8170,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.357134</v>
+        <v>0.445109</v>
       </c>
       <c r="C37" t="n">
-        <v>0.368632</v>
+        <v>0.318492</v>
       </c>
       <c r="D37" t="n">
-        <v>0.283416</v>
+        <v>0.405165</v>
       </c>
     </row>
     <row r="38">
@@ -8184,13 +8184,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.362367</v>
+        <v>0.449642</v>
       </c>
       <c r="C38" t="n">
-        <v>0.370604</v>
+        <v>0.320059</v>
       </c>
       <c r="D38" t="n">
-        <v>0.28795</v>
+        <v>0.407453</v>
       </c>
     </row>
     <row r="39">
@@ -8198,13 +8198,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.369117</v>
+        <v>0.454711</v>
       </c>
       <c r="C39" t="n">
-        <v>0.374081</v>
+        <v>0.323665</v>
       </c>
       <c r="D39" t="n">
-        <v>0.29169</v>
+        <v>0.409704</v>
       </c>
     </row>
     <row r="40">
@@ -8212,13 +8212,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.375245</v>
+        <v>0.458142</v>
       </c>
       <c r="C40" t="n">
-        <v>0.376533</v>
+        <v>0.324926</v>
       </c>
       <c r="D40" t="n">
-        <v>0.295763</v>
+        <v>0.41148</v>
       </c>
     </row>
     <row r="41">
@@ -8226,13 +8226,13 @@
         <v>66357</v>
       </c>
       <c r="B41" t="n">
-        <v>0.382587</v>
+        <v>0.463652</v>
       </c>
       <c r="C41" t="n">
-        <v>0.380042</v>
+        <v>0.32734</v>
       </c>
       <c r="D41" t="n">
-        <v>0.300589</v>
+        <v>0.413999</v>
       </c>
     </row>
     <row r="42">
@@ -8240,13 +8240,13 @@
         <v>69656</v>
       </c>
       <c r="B42" t="n">
-        <v>0.390042</v>
+        <v>0.468271</v>
       </c>
       <c r="C42" t="n">
-        <v>0.38212</v>
+        <v>0.328549</v>
       </c>
       <c r="D42" t="n">
-        <v>0.304624</v>
+        <v>0.416092</v>
       </c>
     </row>
     <row r="43">
@@ -8254,13 +8254,13 @@
         <v>73119</v>
       </c>
       <c r="B43" t="n">
-        <v>0.398067</v>
+        <v>0.47224</v>
       </c>
       <c r="C43" t="n">
-        <v>0.38549</v>
+        <v>0.330587</v>
       </c>
       <c r="D43" t="n">
-        <v>0.309072</v>
+        <v>0.418227</v>
       </c>
     </row>
     <row r="44">
@@ -8268,13 +8268,13 @@
         <v>76755</v>
       </c>
       <c r="B44" t="n">
-        <v>0.404738</v>
+        <v>0.477198</v>
       </c>
       <c r="C44" t="n">
-        <v>0.389749</v>
+        <v>0.334404</v>
       </c>
       <c r="D44" t="n">
-        <v>0.313027</v>
+        <v>0.420786</v>
       </c>
     </row>
     <row r="45">
@@ -8282,13 +8282,13 @@
         <v>80572</v>
       </c>
       <c r="B45" t="n">
-        <v>0.412721</v>
+        <v>0.48261</v>
       </c>
       <c r="C45" t="n">
-        <v>0.39345</v>
+        <v>0.337493</v>
       </c>
       <c r="D45" t="n">
-        <v>0.317734</v>
+        <v>0.422919</v>
       </c>
     </row>
     <row r="46">
@@ -8296,13 +8296,13 @@
         <v>84579</v>
       </c>
       <c r="B46" t="n">
-        <v>0.420692</v>
+        <v>0.487525</v>
       </c>
       <c r="C46" t="n">
-        <v>0.397174</v>
+        <v>0.340317</v>
       </c>
       <c r="D46" t="n">
-        <v>0.322015</v>
+        <v>0.42502</v>
       </c>
     </row>
     <row r="47">
@@ -8310,13 +8310,13 @@
         <v>88786</v>
       </c>
       <c r="B47" t="n">
-        <v>0.377359</v>
+        <v>0.451102</v>
       </c>
       <c r="C47" t="n">
-        <v>0.402099</v>
+        <v>0.343718</v>
       </c>
       <c r="D47" t="n">
-        <v>0.326527</v>
+        <v>0.427857</v>
       </c>
     </row>
     <row r="48">
@@ -8324,13 +8324,13 @@
         <v>93203</v>
       </c>
       <c r="B48" t="n">
-        <v>0.381112</v>
+        <v>0.454316</v>
       </c>
       <c r="C48" t="n">
-        <v>0.405185</v>
+        <v>0.34724</v>
       </c>
       <c r="D48" t="n">
-        <v>0.329997</v>
+        <v>0.429549</v>
       </c>
     </row>
     <row r="49">
@@ -8338,13 +8338,13 @@
         <v>97840</v>
       </c>
       <c r="B49" t="n">
-        <v>0.381547</v>
+        <v>0.457516</v>
       </c>
       <c r="C49" t="n">
-        <v>0.409624</v>
+        <v>0.35056</v>
       </c>
       <c r="D49" t="n">
-        <v>0.334124</v>
+        <v>0.431577</v>
       </c>
     </row>
     <row r="50">
@@ -8352,13 +8352,13 @@
         <v>102706</v>
       </c>
       <c r="B50" t="n">
-        <v>0.385711</v>
+        <v>0.460816</v>
       </c>
       <c r="C50" t="n">
-        <v>0.38468</v>
+        <v>0.330703</v>
       </c>
       <c r="D50" t="n">
-        <v>0.303414</v>
+        <v>0.427567</v>
       </c>
     </row>
     <row r="51">
@@ -8366,13 +8366,13 @@
         <v>107816</v>
       </c>
       <c r="B51" t="n">
-        <v>0.39626</v>
+        <v>0.465051</v>
       </c>
       <c r="C51" t="n">
-        <v>0.38697</v>
+        <v>0.332788</v>
       </c>
       <c r="D51" t="n">
-        <v>0.306719</v>
+        <v>0.428965</v>
       </c>
     </row>
     <row r="52">
@@ -8380,13 +8380,13 @@
         <v>113182</v>
       </c>
       <c r="B52" t="n">
-        <v>0.401146</v>
+        <v>0.468646</v>
       </c>
       <c r="C52" t="n">
-        <v>0.389002</v>
+        <v>0.334362</v>
       </c>
       <c r="D52" t="n">
-        <v>0.308926</v>
+        <v>0.429851</v>
       </c>
     </row>
     <row r="53">
@@ -8394,13 +8394,13 @@
         <v>118816</v>
       </c>
       <c r="B53" t="n">
-        <v>0.406129</v>
+        <v>0.471784</v>
       </c>
       <c r="C53" t="n">
-        <v>0.3918</v>
+        <v>0.335925</v>
       </c>
       <c r="D53" t="n">
-        <v>0.304695</v>
+        <v>0.431242</v>
       </c>
     </row>
     <row r="54">
@@ -8408,13 +8408,13 @@
         <v>124731</v>
       </c>
       <c r="B54" t="n">
-        <v>0.392228</v>
+        <v>0.475777</v>
       </c>
       <c r="C54" t="n">
-        <v>0.392485</v>
+        <v>0.339994</v>
       </c>
       <c r="D54" t="n">
-        <v>0.315781</v>
+        <v>0.432516</v>
       </c>
     </row>
     <row r="55">
@@ -8422,13 +8422,13 @@
         <v>130941</v>
       </c>
       <c r="B55" t="n">
-        <v>0.417518</v>
+        <v>0.479733</v>
       </c>
       <c r="C55" t="n">
-        <v>0.393267</v>
+        <v>0.342717</v>
       </c>
       <c r="D55" t="n">
-        <v>0.318329</v>
+        <v>0.43383</v>
       </c>
     </row>
     <row r="56">
@@ -8436,13 +8436,13 @@
         <v>137461</v>
       </c>
       <c r="B56" t="n">
-        <v>0.424267</v>
+        <v>0.484086</v>
       </c>
       <c r="C56" t="n">
-        <v>0.399511</v>
+        <v>0.342856</v>
       </c>
       <c r="D56" t="n">
-        <v>0.322462</v>
+        <v>0.435858</v>
       </c>
     </row>
     <row r="57">
@@ -8450,13 +8450,13 @@
         <v>144307</v>
       </c>
       <c r="B57" t="n">
-        <v>0.430211</v>
+        <v>0.48831</v>
       </c>
       <c r="C57" t="n">
-        <v>0.406125</v>
+        <v>0.347835</v>
       </c>
       <c r="D57" t="n">
-        <v>0.3256</v>
+        <v>0.437008</v>
       </c>
     </row>
     <row r="58">
@@ -8464,13 +8464,13 @@
         <v>151495</v>
       </c>
       <c r="B58" t="n">
-        <v>0.437111</v>
+        <v>0.49241</v>
       </c>
       <c r="C58" t="n">
-        <v>0.407972</v>
+        <v>0.354329</v>
       </c>
       <c r="D58" t="n">
-        <v>0.329303</v>
+        <v>0.440972</v>
       </c>
     </row>
     <row r="59">
@@ -8478,13 +8478,13 @@
         <v>159042</v>
       </c>
       <c r="B59" t="n">
-        <v>0.445085</v>
+        <v>0.500296</v>
       </c>
       <c r="C59" t="n">
-        <v>0.412923</v>
+        <v>0.361738</v>
       </c>
       <c r="D59" t="n">
-        <v>0.33306</v>
+        <v>0.441099</v>
       </c>
     </row>
     <row r="60">
@@ -8492,13 +8492,13 @@
         <v>166965</v>
       </c>
       <c r="B60" t="n">
-        <v>0.452103</v>
+        <v>0.502363</v>
       </c>
       <c r="C60" t="n">
-        <v>0.416753</v>
+        <v>0.372133</v>
       </c>
       <c r="D60" t="n">
-        <v>0.337344</v>
+        <v>0.443429</v>
       </c>
     </row>
     <row r="61">
@@ -8506,13 +8506,13 @@
         <v>175284</v>
       </c>
       <c r="B61" t="n">
-        <v>0.397947</v>
+        <v>0.484228</v>
       </c>
       <c r="C61" t="n">
-        <v>0.42285</v>
+        <v>0.379153</v>
       </c>
       <c r="D61" t="n">
-        <v>0.342898</v>
+        <v>0.44594</v>
       </c>
     </row>
     <row r="62">
@@ -8520,13 +8520,13 @@
         <v>184019</v>
       </c>
       <c r="B62" t="n">
-        <v>0.402699</v>
+        <v>0.49432</v>
       </c>
       <c r="C62" t="n">
-        <v>0.430555</v>
+        <v>0.38945</v>
       </c>
       <c r="D62" t="n">
-        <v>0.350385</v>
+        <v>0.447974</v>
       </c>
     </row>
     <row r="63">
@@ -8534,13 +8534,13 @@
         <v>193190</v>
       </c>
       <c r="B63" t="n">
-        <v>0.41039</v>
+        <v>0.501283</v>
       </c>
       <c r="C63" t="n">
-        <v>0.433086</v>
+        <v>0.393493</v>
       </c>
       <c r="D63" t="n">
-        <v>0.351152</v>
+        <v>0.450446</v>
       </c>
     </row>
     <row r="64">
@@ -8548,13 +8548,13 @@
         <v>202820</v>
       </c>
       <c r="B64" t="n">
-        <v>0.4412</v>
+        <v>0.510931</v>
       </c>
       <c r="C64" t="n">
-        <v>0.400362</v>
+        <v>0.445642</v>
       </c>
       <c r="D64" t="n">
-        <v>0.318883</v>
+        <v>0.486377</v>
       </c>
     </row>
     <row r="65">
@@ -8562,13 +8562,13 @@
         <v>212931</v>
       </c>
       <c r="B65" t="n">
-        <v>0.445274</v>
+        <v>0.5230629999999999</v>
       </c>
       <c r="C65" t="n">
-        <v>0.403911</v>
+        <v>0.452718</v>
       </c>
       <c r="D65" t="n">
-        <v>0.327796</v>
+        <v>0.484592</v>
       </c>
     </row>
     <row r="66">
@@ -8576,13 +8576,13 @@
         <v>223547</v>
       </c>
       <c r="B66" t="n">
-        <v>0.465831</v>
+        <v>0.541354</v>
       </c>
       <c r="C66" t="n">
-        <v>0.433279</v>
+        <v>0.476029</v>
       </c>
       <c r="D66" t="n">
-        <v>0.337917</v>
+        <v>0.508942</v>
       </c>
     </row>
     <row r="67">
@@ -8590,13 +8590,13 @@
         <v>234692</v>
       </c>
       <c r="B67" t="n">
-        <v>0.476279</v>
+        <v>0.556081</v>
       </c>
       <c r="C67" t="n">
-        <v>0.415172</v>
+        <v>0.492148</v>
       </c>
       <c r="D67" t="n">
-        <v>0.344511</v>
+        <v>0.498202</v>
       </c>
     </row>
     <row r="68">
@@ -8604,13 +8604,13 @@
         <v>246395</v>
       </c>
       <c r="B68" t="n">
-        <v>0.448257</v>
+        <v>0.545841</v>
       </c>
       <c r="C68" t="n">
-        <v>0.419175</v>
+        <v>0.506338</v>
       </c>
       <c r="D68" t="n">
-        <v>0.352667</v>
+        <v>0.518561</v>
       </c>
     </row>
     <row r="69">
@@ -8618,13 +8618,13 @@
         <v>258683</v>
       </c>
       <c r="B69" t="n">
-        <v>0.459234</v>
+        <v>0.576488</v>
       </c>
       <c r="C69" t="n">
-        <v>0.423267</v>
+        <v>0.535425</v>
       </c>
       <c r="D69" t="n">
-        <v>0.359843</v>
+        <v>0.543921</v>
       </c>
     </row>
     <row r="70">
@@ -8632,13 +8632,13 @@
         <v>271585</v>
       </c>
       <c r="B70" t="n">
-        <v>0.468095</v>
+        <v>0.6056319999999999</v>
       </c>
       <c r="C70" t="n">
-        <v>0.429209</v>
+        <v>0.552084</v>
       </c>
       <c r="D70" t="n">
-        <v>0.370725</v>
+        <v>0.554498</v>
       </c>
     </row>
     <row r="71">
@@ -8646,13 +8646,13 @@
         <v>285132</v>
       </c>
       <c r="B71" t="n">
-        <v>0.479908</v>
+        <v>0.622288</v>
       </c>
       <c r="C71" t="n">
-        <v>0.4383</v>
+        <v>0.573736</v>
       </c>
       <c r="D71" t="n">
-        <v>0.404613</v>
+        <v>0.5868679999999999</v>
       </c>
     </row>
     <row r="72">
@@ -8660,13 +8660,13 @@
         <v>299354</v>
       </c>
       <c r="B72" t="n">
-        <v>0.521824</v>
+        <v>0.65686</v>
       </c>
       <c r="C72" t="n">
-        <v>0.439707</v>
+        <v>0.602589</v>
       </c>
       <c r="D72" t="n">
-        <v>0.382725</v>
+        <v>0.596276</v>
       </c>
     </row>
     <row r="73">
@@ -8674,13 +8674,13 @@
         <v>314289</v>
       </c>
       <c r="B73" t="n">
-        <v>0.499278</v>
+        <v>0.672675</v>
       </c>
       <c r="C73" t="n">
-        <v>0.445679</v>
+        <v>0.6204190000000001</v>
       </c>
       <c r="D73" t="n">
-        <v>0.391328</v>
+        <v>0.6230019999999999</v>
       </c>
     </row>
     <row r="74">
@@ -8688,13 +8688,13 @@
         <v>329969</v>
       </c>
       <c r="B74" t="n">
-        <v>0.515472</v>
+        <v>0.69874</v>
       </c>
       <c r="C74" t="n">
-        <v>0.446187</v>
+        <v>0.64591</v>
       </c>
       <c r="D74" t="n">
-        <v>0.387077</v>
+        <v>0.649118</v>
       </c>
     </row>
     <row r="75">
@@ -8702,13 +8702,13 @@
         <v>346432</v>
       </c>
       <c r="B75" t="n">
-        <v>0.538272</v>
+        <v>0.752852</v>
       </c>
       <c r="C75" t="n">
-        <v>0.451461</v>
+        <v>0.671272</v>
       </c>
       <c r="D75" t="n">
-        <v>0.397141</v>
+        <v>0.694335</v>
       </c>
     </row>
     <row r="76">
@@ -8716,13 +8716,13 @@
         <v>363719</v>
       </c>
       <c r="B76" t="n">
-        <v>0.480394</v>
+        <v>0.9602619999999999</v>
       </c>
       <c r="C76" t="n">
-        <v>0.460708</v>
+        <v>0.69334</v>
       </c>
       <c r="D76" t="n">
-        <v>0.4019</v>
+        <v>0.732171</v>
       </c>
     </row>
     <row r="77">
@@ -8730,13 +8730,13 @@
         <v>381870</v>
       </c>
       <c r="B77" t="n">
-        <v>0.472693</v>
+        <v>1.0029</v>
       </c>
       <c r="C77" t="n">
-        <v>0.471199</v>
+        <v>0.716931</v>
       </c>
       <c r="D77" t="n">
-        <v>0.404002</v>
+        <v>0.770407</v>
       </c>
     </row>
     <row r="78">
@@ -8744,13 +8744,13 @@
         <v>400928</v>
       </c>
       <c r="B78" t="n">
-        <v>0.490972</v>
+        <v>1.04977</v>
       </c>
       <c r="C78" t="n">
-        <v>0.456234</v>
+        <v>0.835075</v>
       </c>
       <c r="D78" t="n">
-        <v>0.397852</v>
+        <v>1.02002</v>
       </c>
     </row>
     <row r="79">
@@ -8758,13 +8758,13 @@
         <v>420937</v>
       </c>
       <c r="B79" t="n">
-        <v>0.473256</v>
+        <v>1.09304</v>
       </c>
       <c r="C79" t="n">
-        <v>0.457679</v>
+        <v>0.845296</v>
       </c>
       <c r="D79" t="n">
-        <v>0.396139</v>
+        <v>1.05126</v>
       </c>
     </row>
     <row r="80">
@@ -8772,13 +8772,13 @@
         <v>441947</v>
       </c>
       <c r="B80" t="n">
-        <v>0.479772</v>
+        <v>1.14456</v>
       </c>
       <c r="C80" t="n">
-        <v>0.456351</v>
+        <v>0.858284</v>
       </c>
       <c r="D80" t="n">
-        <v>0.390582</v>
+        <v>1.11662</v>
       </c>
     </row>
     <row r="81">
@@ -8786,13 +8786,13 @@
         <v>464005</v>
       </c>
       <c r="B81" t="n">
-        <v>0.505145</v>
+        <v>1.19976</v>
       </c>
       <c r="C81" t="n">
-        <v>0.488555</v>
+        <v>0.875383</v>
       </c>
       <c r="D81" t="n">
-        <v>0.439449</v>
+        <v>1.16069</v>
       </c>
     </row>
     <row r="82">
@@ -8800,13 +8800,13 @@
         <v>487165</v>
       </c>
       <c r="B82" t="n">
-        <v>0.525474</v>
+        <v>1.25378</v>
       </c>
       <c r="C82" t="n">
-        <v>0.488045</v>
+        <v>0.888979</v>
       </c>
       <c r="D82" t="n">
-        <v>0.422792</v>
+        <v>1.2214</v>
       </c>
     </row>
     <row r="83">
@@ -8814,13 +8814,13 @@
         <v>511485</v>
       </c>
       <c r="B83" t="n">
-        <v>0.529907</v>
+        <v>1.30665</v>
       </c>
       <c r="C83" t="n">
-        <v>0.507233</v>
+        <v>0.89995</v>
       </c>
       <c r="D83" t="n">
-        <v>0.432662</v>
+        <v>1.2719</v>
       </c>
     </row>
     <row r="84">
@@ -8828,13 +8828,13 @@
         <v>537019</v>
       </c>
       <c r="B84" t="n">
-        <v>0.546898</v>
+        <v>1.36132</v>
       </c>
       <c r="C84" t="n">
-        <v>0.526918</v>
+        <v>0.915697</v>
       </c>
       <c r="D84" t="n">
-        <v>0.418266</v>
+        <v>1.31711</v>
       </c>
     </row>
     <row r="85">
@@ -8842,13 +8842,13 @@
         <v>563827</v>
       </c>
       <c r="B85" t="n">
-        <v>0.530297</v>
+        <v>1.40491</v>
       </c>
       <c r="C85" t="n">
-        <v>0.523162</v>
+        <v>0.928042</v>
       </c>
       <c r="D85" t="n">
-        <v>0.413439</v>
+        <v>1.36667</v>
       </c>
     </row>
     <row r="86">
@@ -8856,13 +8856,13 @@
         <v>591977</v>
       </c>
       <c r="B86" t="n">
-        <v>0.5288580000000001</v>
+        <v>1.46206</v>
       </c>
       <c r="C86" t="n">
-        <v>0.536487</v>
+        <v>0.941431</v>
       </c>
       <c r="D86" t="n">
-        <v>0.451524</v>
+        <v>1.41163</v>
       </c>
     </row>
     <row r="87">
@@ -8870,13 +8870,13 @@
         <v>621532</v>
       </c>
       <c r="B87" t="n">
-        <v>0.556514</v>
+        <v>1.50489</v>
       </c>
       <c r="C87" t="n">
-        <v>0.567967</v>
+        <v>0.953494</v>
       </c>
       <c r="D87" t="n">
-        <v>0.476499</v>
+        <v>1.45488</v>
       </c>
     </row>
     <row r="88">
@@ -8884,13 +8884,13 @@
         <v>652567</v>
       </c>
       <c r="B88" t="n">
-        <v>0.617049</v>
+        <v>1.55266</v>
       </c>
       <c r="C88" t="n">
-        <v>0.669255</v>
+        <v>0.967328</v>
       </c>
       <c r="D88" t="n">
-        <v>0.480463</v>
+        <v>1.50247</v>
       </c>
     </row>
     <row r="89">
@@ -8898,13 +8898,13 @@
         <v>685151</v>
       </c>
       <c r="B89" t="n">
-        <v>0.506948</v>
+        <v>1.60023</v>
       </c>
       <c r="C89" t="n">
-        <v>0.549365</v>
+        <v>0.978779</v>
       </c>
       <c r="D89" t="n">
-        <v>0.416399</v>
+        <v>1.54212</v>
       </c>
     </row>
     <row r="90">
@@ -8912,13 +8912,13 @@
         <v>719359</v>
       </c>
       <c r="B90" t="n">
-        <v>0.59803</v>
+        <v>1.82708</v>
       </c>
       <c r="C90" t="n">
-        <v>0.65624</v>
+        <v>0.993103</v>
       </c>
       <c r="D90" t="n">
-        <v>0.469878</v>
+        <v>1.58417</v>
       </c>
     </row>
     <row r="91">
@@ -8926,13 +8926,13 @@
         <v>755280</v>
       </c>
       <c r="B91" t="n">
-        <v>0.623872</v>
+        <v>1.86237</v>
       </c>
       <c r="C91" t="n">
-        <v>0.65771</v>
+        <v>1.00889</v>
       </c>
       <c r="D91" t="n">
-        <v>0.508966</v>
+        <v>1.62905</v>
       </c>
     </row>
     <row r="92">
@@ -8940,13 +8940,13 @@
         <v>792997</v>
       </c>
       <c r="B92" t="n">
-        <v>0.663281</v>
+        <v>1.89606</v>
       </c>
       <c r="C92" t="n">
-        <v>0.732321</v>
+        <v>1.06709</v>
       </c>
       <c r="D92" t="n">
-        <v>0.563908</v>
+        <v>1.84211</v>
       </c>
     </row>
     <row r="93">
@@ -8954,13 +8954,13 @@
         <v>832595</v>
       </c>
       <c r="B93" t="n">
-        <v>0.721351</v>
+        <v>1.92838</v>
       </c>
       <c r="C93" t="n">
-        <v>0.768675</v>
+        <v>1.07499</v>
       </c>
       <c r="D93" t="n">
-        <v>0.609322</v>
+        <v>1.87468</v>
       </c>
     </row>
     <row r="94">
@@ -8968,13 +8968,13 @@
         <v>874177</v>
       </c>
       <c r="B94" t="n">
-        <v>0.745949</v>
+        <v>1.96312</v>
       </c>
       <c r="C94" t="n">
-        <v>0.733895</v>
+        <v>1.08375</v>
       </c>
       <c r="D94" t="n">
-        <v>0.53612</v>
+        <v>1.90496</v>
       </c>
     </row>
     <row r="95">
@@ -8982,13 +8982,13 @@
         <v>917832</v>
       </c>
       <c r="B95" t="n">
-        <v>0.708753</v>
+        <v>1.99507</v>
       </c>
       <c r="C95" t="n">
-        <v>0.762416</v>
+        <v>1.08575</v>
       </c>
       <c r="D95" t="n">
-        <v>0.565999</v>
+        <v>1.93159</v>
       </c>
     </row>
     <row r="96">
@@ -8996,13 +8996,13 @@
         <v>963677</v>
       </c>
       <c r="B96" t="n">
-        <v>0.718034</v>
+        <v>2.02806</v>
       </c>
       <c r="C96" t="n">
-        <v>0.79498</v>
+        <v>1.09666</v>
       </c>
       <c r="D96" t="n">
-        <v>0.585045</v>
+        <v>1.96798</v>
       </c>
     </row>
     <row r="97">
@@ -9010,13 +9010,13 @@
         <v>1011813</v>
       </c>
       <c r="B97" t="n">
-        <v>0.750423</v>
+        <v>2.0562</v>
       </c>
       <c r="C97" t="n">
-        <v>0.795417</v>
+        <v>1.10375</v>
       </c>
       <c r="D97" t="n">
-        <v>0.590581</v>
+        <v>1.98867</v>
       </c>
     </row>
     <row r="98">
@@ -9024,13 +9024,13 @@
         <v>1062351</v>
       </c>
       <c r="B98" t="n">
-        <v>0.767443</v>
+        <v>2.09046</v>
       </c>
       <c r="C98" t="n">
-        <v>0.765636</v>
+        <v>1.11677</v>
       </c>
       <c r="D98" t="n">
-        <v>0.60347</v>
+        <v>2.01866</v>
       </c>
     </row>
     <row r="99">
@@ -9038,13 +9038,13 @@
         <v>1115422</v>
       </c>
       <c r="B99" t="n">
-        <v>0.733896</v>
+        <v>2.11387</v>
       </c>
       <c r="C99" t="n">
-        <v>0.773408</v>
+        <v>1.11973</v>
       </c>
       <c r="D99" t="n">
-        <v>0.612225</v>
+        <v>2.04255</v>
       </c>
     </row>
     <row r="100">
@@ -9052,13 +9052,13 @@
         <v>1171143</v>
       </c>
       <c r="B100" t="n">
-        <v>0.763287</v>
+        <v>2.15227</v>
       </c>
       <c r="C100" t="n">
-        <v>0.7960159999999999</v>
+        <v>1.13345</v>
       </c>
       <c r="D100" t="n">
-        <v>0.647801</v>
+        <v>2.06624</v>
       </c>
     </row>
     <row r="101">
@@ -9066,13 +9066,13 @@
         <v>1229634</v>
       </c>
       <c r="B101" t="n">
-        <v>0.861206</v>
+        <v>2.175</v>
       </c>
       <c r="C101" t="n">
-        <v>0.840123</v>
+        <v>1.14255</v>
       </c>
       <c r="D101" t="n">
-        <v>0.6662940000000001</v>
+        <v>2.08969</v>
       </c>
     </row>
     <row r="102">
@@ -9080,13 +9080,13 @@
         <v>1291062</v>
       </c>
       <c r="B102" t="n">
-        <v>0.85085</v>
+        <v>2.2029</v>
       </c>
       <c r="C102" t="n">
-        <v>0.80698</v>
+        <v>1.14882</v>
       </c>
       <c r="D102" t="n">
-        <v>0.680247</v>
+        <v>2.11157</v>
       </c>
     </row>
     <row r="103">
@@ -9094,13 +9094,13 @@
         <v>1355554</v>
       </c>
       <c r="B103" t="n">
-        <v>0.828301</v>
+        <v>2.22549</v>
       </c>
       <c r="C103" t="n">
-        <v>0.815057</v>
+        <v>1.16398</v>
       </c>
       <c r="D103" t="n">
-        <v>0.651019</v>
+        <v>2.1343</v>
       </c>
     </row>
     <row r="104">
@@ -9108,13 +9108,13 @@
         <v>1423274</v>
       </c>
       <c r="B104" t="n">
-        <v>0.8667820000000001</v>
+        <v>2.25226</v>
       </c>
       <c r="C104" t="n">
-        <v>0.818397</v>
+        <v>1.17316</v>
       </c>
       <c r="D104" t="n">
-        <v>0.721399</v>
+        <v>2.14943</v>
       </c>
     </row>
     <row r="105">
@@ -9122,13 +9122,13 @@
         <v>1494380</v>
       </c>
       <c r="B105" t="n">
-        <v>0.892719</v>
+        <v>2.3392</v>
       </c>
       <c r="C105" t="n">
-        <v>0.82531</v>
+        <v>1.18913</v>
       </c>
       <c r="D105" t="n">
-        <v>0.677168</v>
+        <v>2.17499</v>
       </c>
     </row>
     <row r="106">
@@ -9136,13 +9136,13 @@
         <v>1569031</v>
       </c>
       <c r="B106" t="n">
-        <v>0.90526</v>
+        <v>2.35861</v>
       </c>
       <c r="C106" t="n">
-        <v>0.821047</v>
+        <v>1.20387</v>
       </c>
       <c r="D106" t="n">
-        <v>0.656958</v>
+        <v>2.20184</v>
       </c>
     </row>
     <row r="107">
@@ -9150,13 +9150,13 @@
         <v>1647417</v>
       </c>
       <c r="B107" t="n">
-        <v>0.85659</v>
+        <v>2.38001</v>
       </c>
       <c r="C107" t="n">
-        <v>0.849765</v>
+        <v>1.207</v>
       </c>
       <c r="D107" t="n">
-        <v>0.697113</v>
+        <v>2.29952</v>
       </c>
     </row>
     <row r="108">
@@ -9164,13 +9164,13 @@
         <v>1729734</v>
       </c>
       <c r="B108" t="n">
-        <v>0.909424</v>
+        <v>2.39653</v>
       </c>
       <c r="C108" t="n">
-        <v>0.836541</v>
+        <v>1.21813</v>
       </c>
       <c r="D108" t="n">
-        <v>0.71596</v>
+        <v>2.29941</v>
       </c>
     </row>
     <row r="109">
@@ -9178,13 +9178,13 @@
         <v>1816153</v>
       </c>
       <c r="B109" t="n">
-        <v>0.90974</v>
+        <v>2.42106</v>
       </c>
       <c r="C109" t="n">
-        <v>0.8568480000000001</v>
+        <v>1.2223</v>
       </c>
       <c r="D109" t="n">
-        <v>0.735021</v>
+        <v>2.3417</v>
       </c>
     </row>
     <row r="110">
@@ -9192,13 +9192,13 @@
         <v>1906885</v>
       </c>
       <c r="B110" t="n">
-        <v>0.912569</v>
+        <v>2.44357</v>
       </c>
       <c r="C110" t="n">
-        <v>0.892271</v>
+        <v>1.22992</v>
       </c>
       <c r="D110" t="n">
-        <v>0.77988</v>
+        <v>2.3557</v>
       </c>
     </row>
     <row r="111">
@@ -9206,13 +9206,13 @@
         <v>2002164</v>
       </c>
       <c r="B111" t="n">
-        <v>0.982271</v>
+        <v>2.46047</v>
       </c>
       <c r="C111" t="n">
-        <v>0.968338</v>
+        <v>1.23778</v>
       </c>
       <c r="D111" t="n">
-        <v>0.788783</v>
+        <v>2.35945</v>
       </c>
     </row>
     <row r="112">
@@ -9220,13 +9220,13 @@
         <v>2102198</v>
       </c>
       <c r="B112" t="n">
-        <v>0.991309</v>
+        <v>2.47885</v>
       </c>
       <c r="C112" t="n">
-        <v>0.920913</v>
+        <v>1.24441</v>
       </c>
       <c r="D112" t="n">
-        <v>0.800562</v>
+        <v>2.38395</v>
       </c>
     </row>
     <row r="113">
@@ -9234,13 +9234,13 @@
         <v>2207233</v>
       </c>
       <c r="B113" t="n">
-        <v>1.00011</v>
+        <v>2.49827</v>
       </c>
       <c r="C113" t="n">
-        <v>0.888967</v>
+        <v>1.25301</v>
       </c>
       <c r="D113" t="n">
-        <v>0.784166</v>
+        <v>2.38584</v>
       </c>
     </row>
     <row r="114">
@@ -9248,13 +9248,13 @@
         <v>2317508</v>
       </c>
       <c r="B114" t="n">
-        <v>0.953522</v>
+        <v>2.51414</v>
       </c>
       <c r="C114" t="n">
-        <v>0.912293</v>
+        <v>1.26096</v>
       </c>
       <c r="D114" t="n">
-        <v>0.785455</v>
+        <v>2.40037</v>
       </c>
     </row>
     <row r="115">
@@ -9262,13 +9262,13 @@
         <v>2433290</v>
       </c>
       <c r="B115" t="n">
-        <v>1.00091</v>
+        <v>2.53669</v>
       </c>
       <c r="C115" t="n">
-        <v>0.919563</v>
+        <v>1.26887</v>
       </c>
       <c r="D115" t="n">
-        <v>0.77373</v>
+        <v>2.42188</v>
       </c>
     </row>
     <row r="116">
@@ -9276,13 +9276,13 @@
         <v>2554854</v>
       </c>
       <c r="B116" t="n">
-        <v>1.00268</v>
+        <v>2.55087</v>
       </c>
       <c r="C116" t="n">
-        <v>0.910828</v>
+        <v>1.28147</v>
       </c>
       <c r="D116" t="n">
-        <v>0.7902400000000001</v>
+        <v>2.43407</v>
       </c>
     </row>
     <row r="117">
@@ -9290,13 +9290,13 @@
         <v>2682511</v>
       </c>
       <c r="B117" t="n">
-        <v>1.03075</v>
+        <v>2.5745</v>
       </c>
       <c r="C117" t="n">
-        <v>0.928528</v>
+        <v>1.29333</v>
       </c>
       <c r="D117" t="n">
-        <v>0.790502</v>
+        <v>2.44667</v>
       </c>
     </row>
     <row r="118">
@@ -9304,13 +9304,13 @@
         <v>2816546</v>
       </c>
       <c r="B118" t="n">
-        <v>1.05953</v>
+        <v>2.58786</v>
       </c>
       <c r="C118" t="n">
-        <v>0.94277</v>
+        <v>1.30081</v>
       </c>
       <c r="D118" t="n">
-        <v>0.803858</v>
+        <v>2.45534</v>
       </c>
     </row>
     <row r="119">
@@ -9318,13 +9318,13 @@
         <v>2957287</v>
       </c>
       <c r="B119" t="n">
-        <v>1.07129</v>
+        <v>2.61308</v>
       </c>
       <c r="C119" t="n">
-        <v>0.983994</v>
+        <v>1.31662</v>
       </c>
       <c r="D119" t="n">
-        <v>0.865331</v>
+        <v>2.46067</v>
       </c>
     </row>
   </sheetData>
@@ -9372,13 +9372,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.829533</v>
+        <v>0.512967</v>
       </c>
       <c r="C2" t="n">
-        <v>0.635471</v>
+        <v>0.453074</v>
       </c>
       <c r="D2" t="n">
-        <v>0.474543</v>
+        <v>0.354642</v>
       </c>
     </row>
     <row r="3">
@@ -9386,13 +9386,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.821752</v>
+        <v>0.519841</v>
       </c>
       <c r="C3" t="n">
-        <v>0.655115</v>
+        <v>0.458805</v>
       </c>
       <c r="D3" t="n">
-        <v>0.475415</v>
+        <v>0.35886</v>
       </c>
     </row>
     <row r="4">
@@ -9400,13 +9400,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.835413</v>
+        <v>0.521962</v>
       </c>
       <c r="C4" t="n">
-        <v>0.656187</v>
+        <v>0.466967</v>
       </c>
       <c r="D4" t="n">
-        <v>0.477482</v>
+        <v>0.359397</v>
       </c>
     </row>
     <row r="5">
@@ -9414,13 +9414,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.86247</v>
+        <v>0.531571</v>
       </c>
       <c r="C5" t="n">
-        <v>0.676185</v>
+        <v>0.469889</v>
       </c>
       <c r="D5" t="n">
-        <v>0.480631</v>
+        <v>0.365605</v>
       </c>
     </row>
     <row r="6">
@@ -9428,13 +9428,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.874171</v>
+        <v>0.543313</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6872239999999999</v>
+        <v>0.470783</v>
       </c>
       <c r="D6" t="n">
-        <v>0.484422</v>
+        <v>0.370537</v>
       </c>
     </row>
     <row r="7">
@@ -9442,13 +9442,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.891485</v>
+        <v>0.550289</v>
       </c>
       <c r="C7" t="n">
-        <v>0.698247</v>
+        <v>0.491566</v>
       </c>
       <c r="D7" t="n">
-        <v>0.506594</v>
+        <v>0.381807</v>
       </c>
     </row>
     <row r="8">
@@ -9456,13 +9456,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.906084</v>
+        <v>0.5589190000000001</v>
       </c>
       <c r="C8" t="n">
-        <v>0.72324</v>
+        <v>0.495771</v>
       </c>
       <c r="D8" t="n">
-        <v>0.5127699999999999</v>
+        <v>0.382095</v>
       </c>
     </row>
     <row r="9">
@@ -9470,13 +9470,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.8891019999999999</v>
+        <v>0.554084</v>
       </c>
       <c r="C9" t="n">
-        <v>0.715735</v>
+        <v>0.503621</v>
       </c>
       <c r="D9" t="n">
-        <v>0.498631</v>
+        <v>0.391356</v>
       </c>
     </row>
     <row r="10">
@@ -9484,13 +9484,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.930194</v>
+        <v>0.5682700000000001</v>
       </c>
       <c r="C10" t="n">
-        <v>0.7088100000000001</v>
+        <v>0.505549</v>
       </c>
       <c r="D10" t="n">
-        <v>0.516771</v>
+        <v>0.392332</v>
       </c>
     </row>
     <row r="11">
@@ -9498,13 +9498,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.960629</v>
+        <v>0.572296</v>
       </c>
       <c r="C11" t="n">
-        <v>0.733367</v>
+        <v>0.5013570000000001</v>
       </c>
       <c r="D11" t="n">
-        <v>0.531442</v>
+        <v>0.395567</v>
       </c>
     </row>
     <row r="12">
@@ -9512,13 +9512,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.96889</v>
+        <v>0.581471</v>
       </c>
       <c r="C12" t="n">
-        <v>0.739601</v>
+        <v>0.507826</v>
       </c>
       <c r="D12" t="n">
-        <v>0.533666</v>
+        <v>0.403242</v>
       </c>
     </row>
     <row r="13">
@@ -9526,13 +9526,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.986154</v>
+        <v>0.5935</v>
       </c>
       <c r="C13" t="n">
-        <v>0.741984</v>
+        <v>0.511356</v>
       </c>
       <c r="D13" t="n">
-        <v>0.5345220000000001</v>
+        <v>0.403287</v>
       </c>
     </row>
     <row r="14">
@@ -9540,13 +9540,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>1.00839</v>
+        <v>0.594262</v>
       </c>
       <c r="C14" t="n">
-        <v>0.741584</v>
+        <v>0.513652</v>
       </c>
       <c r="D14" t="n">
-        <v>0.536301</v>
+        <v>0.410348</v>
       </c>
     </row>
     <row r="15">
@@ -9554,13 +9554,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.993713</v>
+        <v>0.604824</v>
       </c>
       <c r="C15" t="n">
-        <v>0.737475</v>
+        <v>0.514495</v>
       </c>
       <c r="D15" t="n">
-        <v>0.544094</v>
+        <v>0.417199</v>
       </c>
     </row>
     <row r="16">
@@ -9568,13 +9568,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>1.01085</v>
+        <v>0.615783</v>
       </c>
       <c r="C16" t="n">
-        <v>0.747341</v>
+        <v>0.521153</v>
       </c>
       <c r="D16" t="n">
-        <v>0.545785</v>
+        <v>0.419746</v>
       </c>
     </row>
     <row r="17">
@@ -9582,13 +9582,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>1.02054</v>
+        <v>0.626619</v>
       </c>
       <c r="C17" t="n">
-        <v>0.757047</v>
+        <v>0.527501</v>
       </c>
       <c r="D17" t="n">
-        <v>0.5574789999999999</v>
+        <v>0.425522</v>
       </c>
     </row>
     <row r="18">
@@ -9596,13 +9596,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>1.02327</v>
+        <v>0.643597</v>
       </c>
       <c r="C18" t="n">
-        <v>0.749522</v>
+        <v>0.527739</v>
       </c>
       <c r="D18" t="n">
-        <v>0.547535</v>
+        <v>0.433089</v>
       </c>
     </row>
     <row r="19">
@@ -9610,13 +9610,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>1.04871</v>
+        <v>0.654447</v>
       </c>
       <c r="C19" t="n">
-        <v>0.790048</v>
+        <v>0.529128</v>
       </c>
       <c r="D19" t="n">
-        <v>0.553646</v>
+        <v>0.436093</v>
       </c>
     </row>
     <row r="20">
@@ -9624,13 +9624,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>1.04332</v>
+        <v>0.664737</v>
       </c>
       <c r="C20" t="n">
-        <v>0.779152</v>
+        <v>0.54172</v>
       </c>
       <c r="D20" t="n">
-        <v>0.563907</v>
+        <v>0.442509</v>
       </c>
     </row>
     <row r="21">
@@ -9638,13 +9638,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>1.06923</v>
+        <v>0.675143</v>
       </c>
       <c r="C21" t="n">
-        <v>0.783918</v>
+        <v>0.553607</v>
       </c>
       <c r="D21" t="n">
-        <v>0.5641080000000001</v>
+        <v>0.448913</v>
       </c>
     </row>
     <row r="22">
@@ -9652,13 +9652,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>1.08109</v>
+        <v>0.681844</v>
       </c>
       <c r="C22" t="n">
-        <v>0.804262</v>
+        <v>0.55947</v>
       </c>
       <c r="D22" t="n">
-        <v>0.572735</v>
+        <v>0.453879</v>
       </c>
     </row>
     <row r="23">
@@ -9666,13 +9666,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>1.07475</v>
+        <v>0.689053</v>
       </c>
       <c r="C23" t="n">
-        <v>0.810558</v>
+        <v>0.558361</v>
       </c>
       <c r="D23" t="n">
-        <v>0.568343</v>
+        <v>0.459804</v>
       </c>
     </row>
     <row r="24">
@@ -9680,13 +9680,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>1.08494</v>
+        <v>0.6932970000000001</v>
       </c>
       <c r="C24" t="n">
-        <v>0.813768</v>
+        <v>0.563217</v>
       </c>
       <c r="D24" t="n">
-        <v>0.588464</v>
+        <v>0.465453</v>
       </c>
     </row>
     <row r="25">
@@ -9694,13 +9694,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>1.08559</v>
+        <v>0.703576</v>
       </c>
       <c r="C25" t="n">
-        <v>0.822975</v>
+        <v>0.572695</v>
       </c>
       <c r="D25" t="n">
-        <v>0.5837909999999999</v>
+        <v>0.46929</v>
       </c>
     </row>
     <row r="26">
@@ -9708,13 +9708,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>1.10945</v>
+        <v>0.7098139999999999</v>
       </c>
       <c r="C26" t="n">
-        <v>0.831099</v>
+        <v>0.566976</v>
       </c>
       <c r="D26" t="n">
-        <v>0.585299</v>
+        <v>0.47286</v>
       </c>
     </row>
     <row r="27">
@@ -9722,13 +9722,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>1.12791</v>
+        <v>0.720868</v>
       </c>
       <c r="C27" t="n">
-        <v>0.842477</v>
+        <v>0.576639</v>
       </c>
       <c r="D27" t="n">
-        <v>0.59366</v>
+        <v>0.476356</v>
       </c>
     </row>
     <row r="28">
@@ -9736,13 +9736,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>1.09596</v>
+        <v>0.722615</v>
       </c>
       <c r="C28" t="n">
-        <v>0.844127</v>
+        <v>0.580995</v>
       </c>
       <c r="D28" t="n">
-        <v>0.595233</v>
+        <v>0.481021</v>
       </c>
     </row>
     <row r="29">
@@ -9750,13 +9750,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>1.14401</v>
+        <v>0.7367899999999999</v>
       </c>
       <c r="C29" t="n">
-        <v>0.860523</v>
+        <v>0.583747</v>
       </c>
       <c r="D29" t="n">
-        <v>0.588082</v>
+        <v>0.485406</v>
       </c>
     </row>
     <row r="30">
@@ -9764,13 +9764,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>1.12342</v>
+        <v>0.73866</v>
       </c>
       <c r="C30" t="n">
-        <v>0.862518</v>
+        <v>0.587818</v>
       </c>
       <c r="D30" t="n">
-        <v>0.605146</v>
+        <v>0.489245</v>
       </c>
     </row>
     <row r="31">
@@ -9778,13 +9778,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>1.13521</v>
+        <v>0.748726</v>
       </c>
       <c r="C31" t="n">
-        <v>0.846021</v>
+        <v>0.587342</v>
       </c>
       <c r="D31" t="n">
-        <v>0.603625</v>
+        <v>0.49424</v>
       </c>
     </row>
     <row r="32">
@@ -9792,13 +9792,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>1.12311</v>
+        <v>0.741999</v>
       </c>
       <c r="C32" t="n">
-        <v>0.858895</v>
+        <v>0.590925</v>
       </c>
       <c r="D32" t="n">
-        <v>0.588021</v>
+        <v>0.494506</v>
       </c>
     </row>
     <row r="33">
@@ -9806,13 +9806,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>1.10912</v>
+        <v>0.7466120000000001</v>
       </c>
       <c r="C33" t="n">
-        <v>0.860411</v>
+        <v>0.594737</v>
       </c>
       <c r="D33" t="n">
-        <v>0.596441</v>
+        <v>0.499818</v>
       </c>
     </row>
     <row r="34">
@@ -9820,13 +9820,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>1.14362</v>
+        <v>0.759013</v>
       </c>
       <c r="C34" t="n">
-        <v>0.881637</v>
+        <v>0.602104</v>
       </c>
       <c r="D34" t="n">
-        <v>0.609881</v>
+        <v>0.501758</v>
       </c>
     </row>
     <row r="35">
@@ -9834,13 +9834,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>1.12402</v>
+        <v>0.761747</v>
       </c>
       <c r="C35" t="n">
-        <v>0.852231</v>
+        <v>0.593113</v>
       </c>
       <c r="D35" t="n">
-        <v>0.595938</v>
+        <v>0.506125</v>
       </c>
     </row>
     <row r="36">
@@ -9848,13 +9848,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>1.14338</v>
+        <v>0.770826</v>
       </c>
       <c r="C36" t="n">
-        <v>0.853305</v>
+        <v>0.594774</v>
       </c>
       <c r="D36" t="n">
-        <v>0.606476</v>
+        <v>0.509832</v>
       </c>
     </row>
     <row r="37">
@@ -9862,13 +9862,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>1.17865</v>
+        <v>0.774071</v>
       </c>
       <c r="C37" t="n">
-        <v>0.847869</v>
+        <v>0.598974</v>
       </c>
       <c r="D37" t="n">
-        <v>0.591229</v>
+        <v>0.5116849999999999</v>
       </c>
     </row>
     <row r="38">
@@ -9876,13 +9876,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>1.15218</v>
+        <v>0.777541</v>
       </c>
       <c r="C38" t="n">
-        <v>0.834952</v>
+        <v>0.598947</v>
       </c>
       <c r="D38" t="n">
-        <v>0.607908</v>
+        <v>0.515602</v>
       </c>
     </row>
     <row r="39">
@@ -9890,13 +9890,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>1.17833</v>
+        <v>0.7820780000000001</v>
       </c>
       <c r="C39" t="n">
-        <v>0.857728</v>
+        <v>0.602116</v>
       </c>
       <c r="D39" t="n">
-        <v>0.613669</v>
+        <v>0.51894</v>
       </c>
     </row>
     <row r="40">
@@ -9904,13 +9904,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>1.21444</v>
+        <v>0.7878309999999999</v>
       </c>
       <c r="C40" t="n">
-        <v>0.873268</v>
+        <v>0.604617</v>
       </c>
       <c r="D40" t="n">
-        <v>0.615923</v>
+        <v>0.5200129999999999</v>
       </c>
     </row>
     <row r="41">
@@ -9918,13 +9918,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>1.19125</v>
+        <v>0.795351</v>
       </c>
       <c r="C41" t="n">
-        <v>0.87479</v>
+        <v>0.605293</v>
       </c>
       <c r="D41" t="n">
-        <v>0.605476</v>
+        <v>0.521674</v>
       </c>
     </row>
     <row r="42">
@@ -9932,13 +9932,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>1.20891</v>
+        <v>0.799908</v>
       </c>
       <c r="C42" t="n">
-        <v>0.86488</v>
+        <v>0.604275</v>
       </c>
       <c r="D42" t="n">
-        <v>0.613271</v>
+        <v>0.525127</v>
       </c>
     </row>
     <row r="43">
@@ -9946,13 +9946,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>1.2032</v>
+        <v>0.806364</v>
       </c>
       <c r="C43" t="n">
-        <v>0.875421</v>
+        <v>0.606263</v>
       </c>
       <c r="D43" t="n">
-        <v>0.609583</v>
+        <v>0.528133</v>
       </c>
     </row>
     <row r="44">
@@ -9960,13 +9960,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>1.1721</v>
+        <v>0.805377</v>
       </c>
       <c r="C44" t="n">
-        <v>0.900348</v>
+        <v>0.608254</v>
       </c>
       <c r="D44" t="n">
-        <v>0.607966</v>
+        <v>0.528357</v>
       </c>
     </row>
     <row r="45">
@@ -9974,13 +9974,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>1.19012</v>
+        <v>0.812897</v>
       </c>
       <c r="C45" t="n">
-        <v>0.879156</v>
+        <v>0.60984</v>
       </c>
       <c r="D45" t="n">
-        <v>0.62425</v>
+        <v>0.530548</v>
       </c>
     </row>
     <row r="46">
@@ -9988,13 +9988,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>1.21776</v>
+        <v>0.815161</v>
       </c>
       <c r="C46" t="n">
-        <v>0.868302</v>
+        <v>0.611567</v>
       </c>
       <c r="D46" t="n">
-        <v>0.622521</v>
+        <v>0.533212</v>
       </c>
     </row>
     <row r="47">
@@ -10002,13 +10002,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>1.17439</v>
+        <v>0.794387</v>
       </c>
       <c r="C47" t="n">
-        <v>0.868378</v>
+        <v>0.610476</v>
       </c>
       <c r="D47" t="n">
-        <v>0.611997</v>
+        <v>0.5345490000000001</v>
       </c>
     </row>
     <row r="48">
@@ -10016,13 +10016,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>1.11992</v>
+        <v>0.800022</v>
       </c>
       <c r="C48" t="n">
-        <v>0.880034</v>
+        <v>0.617041</v>
       </c>
       <c r="D48" t="n">
-        <v>0.617567</v>
+        <v>0.5367150000000001</v>
       </c>
     </row>
     <row r="49">
@@ -10030,13 +10030,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>1.15039</v>
+        <v>0.802836</v>
       </c>
       <c r="C49" t="n">
-        <v>0.893717</v>
+        <v>0.61894</v>
       </c>
       <c r="D49" t="n">
-        <v>0.612236</v>
+        <v>0.538333</v>
       </c>
     </row>
     <row r="50">
@@ -10044,13 +10044,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>1.07948</v>
+        <v>0.807441</v>
       </c>
       <c r="C50" t="n">
-        <v>0.886406</v>
+        <v>0.616967</v>
       </c>
       <c r="D50" t="n">
-        <v>0.623737</v>
+        <v>0.537527</v>
       </c>
     </row>
     <row r="51">
@@ -10058,13 +10058,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>1.19288</v>
+        <v>0.80892</v>
       </c>
       <c r="C51" t="n">
-        <v>0.879039</v>
+        <v>0.616768</v>
       </c>
       <c r="D51" t="n">
-        <v>0.620499</v>
+        <v>0.53683</v>
       </c>
     </row>
     <row r="52">
@@ -10072,13 +10072,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>1.15008</v>
+        <v>0.812011</v>
       </c>
       <c r="C52" t="n">
-        <v>0.874155</v>
+        <v>0.623321</v>
       </c>
       <c r="D52" t="n">
-        <v>0.613837</v>
+        <v>0.5412940000000001</v>
       </c>
     </row>
     <row r="53">
@@ -10086,13 +10086,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>1.16074</v>
+        <v>0.817014</v>
       </c>
       <c r="C53" t="n">
-        <v>0.884955</v>
+        <v>0.626687</v>
       </c>
       <c r="D53" t="n">
-        <v>0.619517</v>
+        <v>0.544077</v>
       </c>
     </row>
     <row r="54">
@@ -10100,13 +10100,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>1.15881</v>
+        <v>0.820021</v>
       </c>
       <c r="C54" t="n">
-        <v>0.897504</v>
+        <v>0.625628</v>
       </c>
       <c r="D54" t="n">
-        <v>0.626691</v>
+        <v>0.545378</v>
       </c>
     </row>
     <row r="55">
@@ -10114,13 +10114,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>1.19555</v>
+        <v>0.823342</v>
       </c>
       <c r="C55" t="n">
-        <v>0.894842</v>
+        <v>0.627043</v>
       </c>
       <c r="D55" t="n">
-        <v>0.640035</v>
+        <v>0.54573</v>
       </c>
     </row>
     <row r="56">
@@ -10128,13 +10128,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>1.1901</v>
+        <v>0.827745</v>
       </c>
       <c r="C56" t="n">
-        <v>0.899463</v>
+        <v>0.628003</v>
       </c>
       <c r="D56" t="n">
-        <v>0.635825</v>
+        <v>0.5464909999999999</v>
       </c>
     </row>
     <row r="57">
@@ -10142,13 +10142,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>1.24742</v>
+        <v>0.833193</v>
       </c>
       <c r="C57" t="n">
-        <v>0.927094</v>
+        <v>0.638392</v>
       </c>
       <c r="D57" t="n">
-        <v>0.644321</v>
+        <v>0.54932</v>
       </c>
     </row>
     <row r="58">
@@ -10156,13 +10156,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>1.20883</v>
+        <v>0.832989</v>
       </c>
       <c r="C58" t="n">
-        <v>0.969004</v>
+        <v>0.642134</v>
       </c>
       <c r="D58" t="n">
-        <v>0.672384</v>
+        <v>0.550488</v>
       </c>
     </row>
     <row r="59">
@@ -10170,13 +10170,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>1.28751</v>
+        <v>0.837731</v>
       </c>
       <c r="C59" t="n">
-        <v>1.00559</v>
+        <v>0.645358</v>
       </c>
       <c r="D59" t="n">
-        <v>0.709279</v>
+        <v>0.5524019999999999</v>
       </c>
     </row>
     <row r="60">
@@ -10184,13 +10184,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>1.31361</v>
+        <v>0.843868</v>
       </c>
       <c r="C60" t="n">
-        <v>0.998783</v>
+        <v>0.652228</v>
       </c>
       <c r="D60" t="n">
-        <v>0.742295</v>
+        <v>0.554482</v>
       </c>
     </row>
     <row r="61">
@@ -10198,13 +10198,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>1.49425</v>
+        <v>0.841049</v>
       </c>
       <c r="C61" t="n">
-        <v>1.04681</v>
+        <v>0.6560049999999999</v>
       </c>
       <c r="D61" t="n">
-        <v>0.78054</v>
+        <v>0.5576179999999999</v>
       </c>
     </row>
     <row r="62">
@@ -10212,13 +10212,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>1.27252</v>
+        <v>0.85188</v>
       </c>
       <c r="C62" t="n">
-        <v>1.06996</v>
+        <v>0.664417</v>
       </c>
       <c r="D62" t="n">
-        <v>0.820852</v>
+        <v>0.558678</v>
       </c>
     </row>
     <row r="63">
@@ -10226,13 +10226,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>1.52973</v>
+        <v>0.863688</v>
       </c>
       <c r="C63" t="n">
-        <v>1.10438</v>
+        <v>0.673251</v>
       </c>
       <c r="D63" t="n">
-        <v>0.859103</v>
+        <v>0.561094</v>
       </c>
     </row>
     <row r="64">
@@ -10240,13 +10240,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>1.57983</v>
+        <v>0.8743379999999999</v>
       </c>
       <c r="C64" t="n">
-        <v>1.18522</v>
+        <v>0.742773</v>
       </c>
       <c r="D64" t="n">
-        <v>0.935324</v>
+        <v>0.602104</v>
       </c>
     </row>
     <row r="65">
@@ -10254,13 +10254,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>1.61393</v>
+        <v>0.893973</v>
       </c>
       <c r="C65" t="n">
-        <v>1.23656</v>
+        <v>0.751171</v>
       </c>
       <c r="D65" t="n">
-        <v>0.9761</v>
+        <v>0.605761</v>
       </c>
     </row>
     <row r="66">
@@ -10268,13 +10268,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>1.58889</v>
+        <v>0.906166</v>
       </c>
       <c r="C66" t="n">
-        <v>1.21829</v>
+        <v>0.779184</v>
       </c>
       <c r="D66" t="n">
-        <v>1.00946</v>
+        <v>0.614168</v>
       </c>
     </row>
     <row r="67">
@@ -10282,13 +10282,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>1.70704</v>
+        <v>0.924817</v>
       </c>
       <c r="C67" t="n">
-        <v>1.27588</v>
+        <v>0.798988</v>
       </c>
       <c r="D67" t="n">
-        <v>1.0478</v>
+        <v>0.624542</v>
       </c>
     </row>
     <row r="68">
@@ -10296,13 +10296,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>1.72893</v>
+        <v>0.9453819999999999</v>
       </c>
       <c r="C68" t="n">
-        <v>1.29214</v>
+        <v>0.8226869999999999</v>
       </c>
       <c r="D68" t="n">
-        <v>1.07701</v>
+        <v>0.633649</v>
       </c>
     </row>
     <row r="69">
@@ -10310,13 +10310,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>1.77656</v>
+        <v>0.96543</v>
       </c>
       <c r="C69" t="n">
-        <v>1.31085</v>
+        <v>0.838309</v>
       </c>
       <c r="D69" t="n">
-        <v>1.13543</v>
+        <v>0.643868</v>
       </c>
     </row>
     <row r="70">
@@ -10324,13 +10324,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>1.82377</v>
+        <v>0.9805739999999999</v>
       </c>
       <c r="C70" t="n">
-        <v>1.31161</v>
+        <v>0.856989</v>
       </c>
       <c r="D70" t="n">
-        <v>1.17139</v>
+        <v>0.666501</v>
       </c>
     </row>
     <row r="71">
@@ -10338,13 +10338,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>1.6312</v>
+        <v>1.01594</v>
       </c>
       <c r="C71" t="n">
-        <v>1.3217</v>
+        <v>0.902014</v>
       </c>
       <c r="D71" t="n">
-        <v>1.18801</v>
+        <v>0.6759579999999999</v>
       </c>
     </row>
     <row r="72">
@@ -10352,13 +10352,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>1.85576</v>
+        <v>1.035</v>
       </c>
       <c r="C72" t="n">
-        <v>1.31042</v>
+        <v>0.946749</v>
       </c>
       <c r="D72" t="n">
-        <v>1.19925</v>
+        <v>0.731077</v>
       </c>
     </row>
     <row r="73">
@@ -10366,13 +10366,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>1.82368</v>
+        <v>1.11516</v>
       </c>
       <c r="C73" t="n">
-        <v>1.42171</v>
+        <v>0.967188</v>
       </c>
       <c r="D73" t="n">
-        <v>1.21806</v>
+        <v>0.721106</v>
       </c>
     </row>
     <row r="74">
@@ -10380,13 +10380,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>1.92401</v>
+        <v>1.10605</v>
       </c>
       <c r="C74" t="n">
-        <v>1.38659</v>
+        <v>1.00774</v>
       </c>
       <c r="D74" t="n">
-        <v>1.29015</v>
+        <v>0.757374</v>
       </c>
     </row>
     <row r="75">
@@ -10394,13 +10394,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>2.04962</v>
+        <v>1.15857</v>
       </c>
       <c r="C75" t="n">
-        <v>1.48956</v>
+        <v>1.03416</v>
       </c>
       <c r="D75" t="n">
-        <v>1.30155</v>
+        <v>0.8339</v>
       </c>
     </row>
     <row r="76">
@@ -10408,13 +10408,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>2.08175</v>
+        <v>1.38092</v>
       </c>
       <c r="C76" t="n">
-        <v>1.44437</v>
+        <v>1.0866</v>
       </c>
       <c r="D76" t="n">
-        <v>1.30228</v>
+        <v>0.844067</v>
       </c>
     </row>
     <row r="77">
@@ -10422,13 +10422,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>1.8338</v>
+        <v>1.42281</v>
       </c>
       <c r="C77" t="n">
-        <v>1.43463</v>
+        <v>1.12551</v>
       </c>
       <c r="D77" t="n">
-        <v>1.18357</v>
+        <v>0.866847</v>
       </c>
     </row>
     <row r="78">
@@ -10436,13 +10436,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>1.91543</v>
+        <v>1.49269</v>
       </c>
       <c r="C78" t="n">
-        <v>1.3028</v>
+        <v>1.33331</v>
       </c>
       <c r="D78" t="n">
-        <v>1.13682</v>
+        <v>1.01385</v>
       </c>
     </row>
     <row r="79">
@@ -10450,13 +10450,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>1.76609</v>
+        <v>1.55375</v>
       </c>
       <c r="C79" t="n">
-        <v>1.29324</v>
+        <v>1.37122</v>
       </c>
       <c r="D79" t="n">
-        <v>1.33099</v>
+        <v>1.07305</v>
       </c>
     </row>
     <row r="80">
@@ -10464,13 +10464,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>1.97846</v>
+        <v>1.63965</v>
       </c>
       <c r="C80" t="n">
-        <v>1.34298</v>
+        <v>1.40702</v>
       </c>
       <c r="D80" t="n">
-        <v>1.32422</v>
+        <v>1.09992</v>
       </c>
     </row>
     <row r="81">
@@ -10478,13 +10478,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>2.00111</v>
+        <v>1.70454</v>
       </c>
       <c r="C81" t="n">
-        <v>1.34724</v>
+        <v>1.45024</v>
       </c>
       <c r="D81" t="n">
-        <v>1.18765</v>
+        <v>1.16382</v>
       </c>
     </row>
     <row r="82">
@@ -10492,13 +10492,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>1.83968</v>
+        <v>1.81902</v>
       </c>
       <c r="C82" t="n">
-        <v>1.39788</v>
+        <v>1.48928</v>
       </c>
       <c r="D82" t="n">
-        <v>1.38119</v>
+        <v>1.22703</v>
       </c>
     </row>
     <row r="83">
@@ -10506,13 +10506,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>2.01019</v>
+        <v>1.8815</v>
       </c>
       <c r="C83" t="n">
-        <v>1.36691</v>
+        <v>1.53727</v>
       </c>
       <c r="D83" t="n">
-        <v>1.04658</v>
+        <v>1.28442</v>
       </c>
     </row>
     <row r="84">
@@ -10520,13 +10520,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>1.81477</v>
+        <v>2.01467</v>
       </c>
       <c r="C84" t="n">
-        <v>1.44144</v>
+        <v>1.57362</v>
       </c>
       <c r="D84" t="n">
-        <v>1.21731</v>
+        <v>1.33205</v>
       </c>
     </row>
     <row r="85">
@@ -10534,13 +10534,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>1.88914</v>
+        <v>2.09306</v>
       </c>
       <c r="C85" t="n">
-        <v>1.50564</v>
+        <v>1.6123</v>
       </c>
       <c r="D85" t="n">
-        <v>1.23423</v>
+        <v>1.39256</v>
       </c>
     </row>
     <row r="86">
@@ -10548,13 +10548,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>2.2371</v>
+        <v>2.20195</v>
       </c>
       <c r="C86" t="n">
-        <v>1.7606</v>
+        <v>1.65805</v>
       </c>
       <c r="D86" t="n">
-        <v>1.50611</v>
+        <v>1.45194</v>
       </c>
     </row>
     <row r="87">
@@ -10562,13 +10562,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>2.3092</v>
+        <v>2.29267</v>
       </c>
       <c r="C87" t="n">
-        <v>1.72334</v>
+        <v>1.70315</v>
       </c>
       <c r="D87" t="n">
-        <v>1.39656</v>
+        <v>1.50814</v>
       </c>
     </row>
     <row r="88">
@@ -10576,13 +10576,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>2.20764</v>
+        <v>2.37307</v>
       </c>
       <c r="C88" t="n">
-        <v>1.64068</v>
+        <v>1.73266</v>
       </c>
       <c r="D88" t="n">
-        <v>1.46499</v>
+        <v>1.56177</v>
       </c>
     </row>
     <row r="89">
@@ -10590,13 +10590,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>2.49254</v>
+        <v>2.47162</v>
       </c>
       <c r="C89" t="n">
-        <v>1.81941</v>
+        <v>1.77418</v>
       </c>
       <c r="D89" t="n">
-        <v>1.40852</v>
+        <v>1.62163</v>
       </c>
     </row>
     <row r="90">
@@ -10604,13 +10604,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>1.90678</v>
+        <v>2.67035</v>
       </c>
       <c r="C90" t="n">
-        <v>1.7444</v>
+        <v>1.81588</v>
       </c>
       <c r="D90" t="n">
-        <v>1.4223</v>
+        <v>1.67715</v>
       </c>
     </row>
     <row r="91">
@@ -10618,13 +10618,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>2.24177</v>
+        <v>2.75012</v>
       </c>
       <c r="C91" t="n">
-        <v>1.84291</v>
+        <v>1.8644</v>
       </c>
       <c r="D91" t="n">
-        <v>1.50481</v>
+        <v>1.73279</v>
       </c>
     </row>
     <row r="92">
@@ -10632,13 +10632,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>2.36779</v>
+        <v>2.83912</v>
       </c>
       <c r="C92" t="n">
-        <v>1.87543</v>
+        <v>2.04475</v>
       </c>
       <c r="D92" t="n">
-        <v>1.4511</v>
+        <v>1.85355</v>
       </c>
     </row>
     <row r="93">
@@ -10646,13 +10646,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>2.61993</v>
+        <v>2.91154</v>
       </c>
       <c r="C93" t="n">
-        <v>1.91018</v>
+        <v>2.05502</v>
       </c>
       <c r="D93" t="n">
-        <v>1.53683</v>
+        <v>1.89906</v>
       </c>
     </row>
     <row r="94">
@@ -10660,13 +10660,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>2.52809</v>
+        <v>2.99672</v>
       </c>
       <c r="C94" t="n">
-        <v>1.9024</v>
+        <v>2.0833</v>
       </c>
       <c r="D94" t="n">
-        <v>1.46488</v>
+        <v>1.94778</v>
       </c>
     </row>
     <row r="95">
@@ -10674,13 +10674,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>2.41346</v>
+        <v>3.07813</v>
       </c>
       <c r="C95" t="n">
-        <v>1.91934</v>
+        <v>2.1395</v>
       </c>
       <c r="D95" t="n">
-        <v>1.42848</v>
+        <v>1.99301</v>
       </c>
     </row>
     <row r="96">
@@ -10688,13 +10688,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>2.28763</v>
+        <v>3.15442</v>
       </c>
       <c r="C96" t="n">
-        <v>2.06075</v>
+        <v>2.16105</v>
       </c>
       <c r="D96" t="n">
-        <v>1.7222</v>
+        <v>2.03584</v>
       </c>
     </row>
     <row r="97">
@@ -10702,13 +10702,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>2.49259</v>
+        <v>3.19864</v>
       </c>
       <c r="C97" t="n">
-        <v>2.11735</v>
+        <v>2.18621</v>
       </c>
       <c r="D97" t="n">
-        <v>1.77983</v>
+        <v>2.10092</v>
       </c>
     </row>
     <row r="98">
@@ -10716,13 +10716,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>2.76071</v>
+        <v>3.31047</v>
       </c>
       <c r="C98" t="n">
-        <v>2.19648</v>
+        <v>2.23193</v>
       </c>
       <c r="D98" t="n">
-        <v>1.90105</v>
+        <v>2.14064</v>
       </c>
     </row>
     <row r="99">
@@ -10730,13 +10730,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>2.98771</v>
+        <v>3.3775</v>
       </c>
       <c r="C99" t="n">
-        <v>2.24541</v>
+        <v>2.25567</v>
       </c>
       <c r="D99" t="n">
-        <v>1.53727</v>
+        <v>2.17309</v>
       </c>
     </row>
     <row r="100">
@@ -10744,13 +10744,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>2.59153</v>
+        <v>3.44327</v>
       </c>
       <c r="C100" t="n">
-        <v>2.06138</v>
+        <v>2.29678</v>
       </c>
       <c r="D100" t="n">
-        <v>1.6032</v>
+        <v>2.20626</v>
       </c>
     </row>
     <row r="101">
@@ -10758,13 +10758,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>2.63469</v>
+        <v>3.49518</v>
       </c>
       <c r="C101" t="n">
-        <v>1.96067</v>
+        <v>2.31656</v>
       </c>
       <c r="D101" t="n">
-        <v>1.67143</v>
+        <v>2.24389</v>
       </c>
     </row>
     <row r="102">
@@ -10772,13 +10772,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>2.81108</v>
+        <v>3.56401</v>
       </c>
       <c r="C102" t="n">
-        <v>2.21398</v>
+        <v>2.34091</v>
       </c>
       <c r="D102" t="n">
-        <v>1.91878</v>
+        <v>2.28081</v>
       </c>
     </row>
     <row r="103">
@@ -10786,13 +10786,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>2.88358</v>
+        <v>3.61999</v>
       </c>
       <c r="C103" t="n">
-        <v>2.30394</v>
+        <v>2.37398</v>
       </c>
       <c r="D103" t="n">
-        <v>1.70697</v>
+        <v>2.31715</v>
       </c>
     </row>
     <row r="104">
@@ -10800,13 +10800,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>2.99918</v>
+        <v>3.69434</v>
       </c>
       <c r="C104" t="n">
-        <v>2.33227</v>
+        <v>2.40833</v>
       </c>
       <c r="D104" t="n">
-        <v>1.96846</v>
+        <v>2.3436</v>
       </c>
     </row>
     <row r="105">
@@ -10814,13 +10814,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>2.90686</v>
+        <v>3.71089</v>
       </c>
       <c r="C105" t="n">
-        <v>2.17344</v>
+        <v>2.42603</v>
       </c>
       <c r="D105" t="n">
-        <v>1.53481</v>
+        <v>2.3773</v>
       </c>
     </row>
     <row r="106">
@@ -10828,13 +10828,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>2.51803</v>
+        <v>3.77428</v>
       </c>
       <c r="C106" t="n">
-        <v>1.80991</v>
+        <v>2.46328</v>
       </c>
       <c r="D106" t="n">
-        <v>1.12397</v>
+        <v>2.40856</v>
       </c>
     </row>
     <row r="107">
@@ -10842,13 +10842,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>2.27253</v>
+        <v>3.82135</v>
       </c>
       <c r="C107" t="n">
-        <v>1.88619</v>
+        <v>2.54685</v>
       </c>
       <c r="D107" t="n">
-        <v>1.21854</v>
+        <v>2.48306</v>
       </c>
     </row>
     <row r="108">
@@ -10856,13 +10856,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>2.74088</v>
+        <v>3.86165</v>
       </c>
       <c r="C108" t="n">
-        <v>2.10142</v>
+        <v>2.5382</v>
       </c>
       <c r="D108" t="n">
-        <v>1.45581</v>
+        <v>2.49794</v>
       </c>
     </row>
     <row r="109">
@@ -10870,13 +10870,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>2.77153</v>
+        <v>3.91731</v>
       </c>
       <c r="C109" t="n">
-        <v>2.05555</v>
+        <v>2.59206</v>
       </c>
       <c r="D109" t="n">
-        <v>1.39136</v>
+        <v>2.5436</v>
       </c>
     </row>
     <row r="110">
@@ -10884,13 +10884,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>2.89569</v>
+        <v>3.96855</v>
       </c>
       <c r="C110" t="n">
-        <v>2.20619</v>
+        <v>2.61495</v>
       </c>
       <c r="D110" t="n">
-        <v>1.65355</v>
+        <v>2.56365</v>
       </c>
     </row>
     <row r="111">
@@ -10898,13 +10898,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>3.067</v>
+        <v>4.00808</v>
       </c>
       <c r="C111" t="n">
-        <v>2.40486</v>
+        <v>2.62871</v>
       </c>
       <c r="D111" t="n">
-        <v>1.69998</v>
+        <v>2.58652</v>
       </c>
     </row>
     <row r="112">
@@ -10912,13 +10912,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>3.55383</v>
+        <v>4.04643</v>
       </c>
       <c r="C112" t="n">
-        <v>2.58785</v>
+        <v>2.66649</v>
       </c>
       <c r="D112" t="n">
-        <v>2.1526</v>
+        <v>2.62478</v>
       </c>
     </row>
     <row r="113">
@@ -10926,13 +10926,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>3.58633</v>
+        <v>4.11093</v>
       </c>
       <c r="C113" t="n">
-        <v>2.64293</v>
+        <v>2.68332</v>
       </c>
       <c r="D113" t="n">
-        <v>2.09687</v>
+        <v>2.65274</v>
       </c>
     </row>
     <row r="114">
@@ -10940,13 +10940,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>3.68401</v>
+        <v>4.16988</v>
       </c>
       <c r="C114" t="n">
-        <v>2.67923</v>
+        <v>2.70642</v>
       </c>
       <c r="D114" t="n">
-        <v>2.01316</v>
+        <v>2.67181</v>
       </c>
     </row>
     <row r="115">
@@ -10954,13 +10954,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>4.02995</v>
+        <v>4.20112</v>
       </c>
       <c r="C115" t="n">
-        <v>2.80246</v>
+        <v>2.72041</v>
       </c>
       <c r="D115" t="n">
-        <v>2.28079</v>
+        <v>2.69649</v>
       </c>
     </row>
     <row r="116">
@@ -10968,13 +10968,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>3.43745</v>
+        <v>4.25204</v>
       </c>
       <c r="C116" t="n">
-        <v>2.74864</v>
+        <v>2.75849</v>
       </c>
       <c r="D116" t="n">
-        <v>2.23792</v>
+        <v>2.71883</v>
       </c>
     </row>
     <row r="117">
@@ -10982,13 +10982,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>3.89648</v>
+        <v>4.30372</v>
       </c>
       <c r="C117" t="n">
-        <v>2.91997</v>
+        <v>2.78479</v>
       </c>
       <c r="D117" t="n">
-        <v>2.4888</v>
+        <v>2.73953</v>
       </c>
     </row>
     <row r="118">
@@ -10996,13 +10996,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>3.97427</v>
+        <v>4.34106</v>
       </c>
       <c r="C118" t="n">
-        <v>2.85109</v>
+        <v>2.80843</v>
       </c>
       <c r="D118" t="n">
-        <v>2.4151</v>
+        <v>2.76352</v>
       </c>
     </row>
     <row r="119">
@@ -11010,13 +11010,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>3.76258</v>
+        <v>4.282</v>
       </c>
       <c r="C119" t="n">
-        <v>2.87082</v>
+        <v>2.82546</v>
       </c>
       <c r="D119" t="n">
-        <v>2.35241</v>
+        <v>2.77604</v>
       </c>
     </row>
   </sheetData>
@@ -11064,13 +11064,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.84184</v>
+        <v>0.537643</v>
       </c>
       <c r="C2" t="n">
-        <v>0.610602</v>
+        <v>0.457595</v>
       </c>
       <c r="D2" t="n">
-        <v>0.428297</v>
+        <v>0.34784</v>
       </c>
     </row>
     <row r="3">
@@ -11078,13 +11078,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.8280650000000001</v>
+        <v>0.548478</v>
       </c>
       <c r="C3" t="n">
-        <v>0.633278</v>
+        <v>0.465617</v>
       </c>
       <c r="D3" t="n">
-        <v>0.446615</v>
+        <v>0.35277</v>
       </c>
     </row>
     <row r="4">
@@ -11092,13 +11092,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.865682</v>
+        <v>0.551682</v>
       </c>
       <c r="C4" t="n">
-        <v>0.636978</v>
+        <v>0.47309</v>
       </c>
       <c r="D4" t="n">
-        <v>0.452315</v>
+        <v>0.354574</v>
       </c>
     </row>
     <row r="5">
@@ -11106,13 +11106,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.913026</v>
+        <v>0.5617799999999999</v>
       </c>
       <c r="C5" t="n">
-        <v>0.698386</v>
+        <v>0.474875</v>
       </c>
       <c r="D5" t="n">
-        <v>0.460551</v>
+        <v>0.357502</v>
       </c>
     </row>
     <row r="6">
@@ -11120,13 +11120,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.884565</v>
+        <v>0.570563</v>
       </c>
       <c r="C6" t="n">
-        <v>0.683446</v>
+        <v>0.478084</v>
       </c>
       <c r="D6" t="n">
-        <v>0.496542</v>
+        <v>0.360069</v>
       </c>
     </row>
     <row r="7">
@@ -11134,13 +11134,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.986011</v>
+        <v>0.581559</v>
       </c>
       <c r="C7" t="n">
-        <v>0.72886</v>
+        <v>0.490261</v>
       </c>
       <c r="D7" t="n">
-        <v>0.474531</v>
+        <v>0.368348</v>
       </c>
     </row>
     <row r="8">
@@ -11148,13 +11148,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.986488</v>
+        <v>0.590242</v>
       </c>
       <c r="C8" t="n">
-        <v>0.705609</v>
+        <v>0.492771</v>
       </c>
       <c r="D8" t="n">
-        <v>0.482743</v>
+        <v>0.370385</v>
       </c>
     </row>
     <row r="9">
@@ -11162,13 +11162,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.980954</v>
+        <v>0.59935</v>
       </c>
       <c r="C9" t="n">
-        <v>0.703458</v>
+        <v>0.503342</v>
       </c>
       <c r="D9" t="n">
-        <v>0.488828</v>
+        <v>0.374367</v>
       </c>
     </row>
     <row r="10">
@@ -11176,13 +11176,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>1.01296</v>
+        <v>0.611553</v>
       </c>
       <c r="C10" t="n">
-        <v>0.737776</v>
+        <v>0.513107</v>
       </c>
       <c r="D10" t="n">
-        <v>0.504934</v>
+        <v>0.377444</v>
       </c>
     </row>
     <row r="11">
@@ -11190,13 +11190,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>1.08226</v>
+        <v>0.620663</v>
       </c>
       <c r="C11" t="n">
-        <v>0.7489209999999999</v>
+        <v>0.505928</v>
       </c>
       <c r="D11" t="n">
-        <v>0.516537</v>
+        <v>0.383407</v>
       </c>
     </row>
     <row r="12">
@@ -11204,13 +11204,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>1.00887</v>
+        <v>0.601459</v>
       </c>
       <c r="C12" t="n">
-        <v>0.742885</v>
+        <v>0.507997</v>
       </c>
       <c r="D12" t="n">
-        <v>0.51754</v>
+        <v>0.389696</v>
       </c>
     </row>
     <row r="13">
@@ -11218,13 +11218,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>1.03224</v>
+        <v>0.611495</v>
       </c>
       <c r="C13" t="n">
-        <v>0.753701</v>
+        <v>0.512642</v>
       </c>
       <c r="D13" t="n">
-        <v>0.528993</v>
+        <v>0.391498</v>
       </c>
     </row>
     <row r="14">
@@ -11232,13 +11232,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>1.05037</v>
+        <v>0.622126</v>
       </c>
       <c r="C14" t="n">
-        <v>0.774828</v>
+        <v>0.522777</v>
       </c>
       <c r="D14" t="n">
-        <v>0.533769</v>
+        <v>0.397216</v>
       </c>
     </row>
     <row r="15">
@@ -11246,13 +11246,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>1.0561</v>
+        <v>0.635783</v>
       </c>
       <c r="C15" t="n">
-        <v>0.790372</v>
+        <v>0.527774</v>
       </c>
       <c r="D15" t="n">
-        <v>0.547224</v>
+        <v>0.403097</v>
       </c>
     </row>
     <row r="16">
@@ -11260,13 +11260,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>1.12797</v>
+        <v>0.64706</v>
       </c>
       <c r="C16" t="n">
-        <v>0.800329</v>
+        <v>0.534012</v>
       </c>
       <c r="D16" t="n">
-        <v>0.542085</v>
+        <v>0.408245</v>
       </c>
     </row>
     <row r="17">
@@ -11274,13 +11274,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>1.09475</v>
+        <v>0.658049</v>
       </c>
       <c r="C17" t="n">
-        <v>0.80362</v>
+        <v>0.542591</v>
       </c>
       <c r="D17" t="n">
-        <v>0.534396</v>
+        <v>0.413676</v>
       </c>
     </row>
     <row r="18">
@@ -11288,13 +11288,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>1.1697</v>
+        <v>0.673323</v>
       </c>
       <c r="C18" t="n">
-        <v>0.8103050000000001</v>
+        <v>0.543781</v>
       </c>
       <c r="D18" t="n">
-        <v>0.551078</v>
+        <v>0.421094</v>
       </c>
     </row>
     <row r="19">
@@ -11302,13 +11302,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>1.15219</v>
+        <v>0.687346</v>
       </c>
       <c r="C19" t="n">
-        <v>0.832889</v>
+        <v>0.563237</v>
       </c>
       <c r="D19" t="n">
-        <v>0.547507</v>
+        <v>0.42553</v>
       </c>
     </row>
     <row r="20">
@@ -11316,13 +11316,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>1.16857</v>
+        <v>0.7007409999999999</v>
       </c>
       <c r="C20" t="n">
-        <v>0.84467</v>
+        <v>0.565728</v>
       </c>
       <c r="D20" t="n">
-        <v>0.553695</v>
+        <v>0.431728</v>
       </c>
     </row>
     <row r="21">
@@ -11330,13 +11330,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>1.19215</v>
+        <v>0.712979</v>
       </c>
       <c r="C21" t="n">
-        <v>0.869131</v>
+        <v>0.5807909999999999</v>
       </c>
       <c r="D21" t="n">
-        <v>0.575895</v>
+        <v>0.437745</v>
       </c>
     </row>
     <row r="22">
@@ -11344,13 +11344,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>1.21572</v>
+        <v>0.721591</v>
       </c>
       <c r="C22" t="n">
-        <v>0.861823</v>
+        <v>0.586493</v>
       </c>
       <c r="D22" t="n">
-        <v>0.562772</v>
+        <v>0.442989</v>
       </c>
     </row>
     <row r="23">
@@ -11358,13 +11358,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>1.23868</v>
+        <v>0.743297</v>
       </c>
       <c r="C23" t="n">
-        <v>0.897821</v>
+        <v>0.5991880000000001</v>
       </c>
       <c r="D23" t="n">
-        <v>0.558159</v>
+        <v>0.447777</v>
       </c>
     </row>
     <row r="24">
@@ -11372,13 +11372,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>1.26894</v>
+        <v>0.756054</v>
       </c>
       <c r="C24" t="n">
-        <v>0.899406</v>
+        <v>0.603963</v>
       </c>
       <c r="D24" t="n">
-        <v>0.577236</v>
+        <v>0.453331</v>
       </c>
     </row>
     <row r="25">
@@ -11386,13 +11386,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>1.30527</v>
+        <v>0.775227</v>
       </c>
       <c r="C25" t="n">
-        <v>0.929599</v>
+        <v>0.621868</v>
       </c>
       <c r="D25" t="n">
-        <v>0.58224</v>
+        <v>0.458872</v>
       </c>
     </row>
     <row r="26">
@@ -11400,13 +11400,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>1.30594</v>
+        <v>0.793015</v>
       </c>
       <c r="C26" t="n">
-        <v>0.87282</v>
+        <v>0.5741540000000001</v>
       </c>
       <c r="D26" t="n">
-        <v>0.591703</v>
+        <v>0.465944</v>
       </c>
     </row>
     <row r="27">
@@ -11414,13 +11414,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>1.20152</v>
+        <v>0.7490520000000001</v>
       </c>
       <c r="C27" t="n">
-        <v>0.836495</v>
+        <v>0.576037</v>
       </c>
       <c r="D27" t="n">
-        <v>0.578253</v>
+        <v>0.468868</v>
       </c>
     </row>
     <row r="28">
@@ -11428,13 +11428,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>1.21487</v>
+        <v>0.759334</v>
       </c>
       <c r="C28" t="n">
-        <v>0.865698</v>
+        <v>0.5838100000000001</v>
       </c>
       <c r="D28" t="n">
-        <v>0.571261</v>
+        <v>0.475625</v>
       </c>
     </row>
     <row r="29">
@@ -11442,13 +11442,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>1.21637</v>
+        <v>0.768306</v>
       </c>
       <c r="C29" t="n">
-        <v>0.867424</v>
+        <v>0.588332</v>
       </c>
       <c r="D29" t="n">
-        <v>0.574522</v>
+        <v>0.479692</v>
       </c>
     </row>
     <row r="30">
@@ -11456,13 +11456,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>1.21008</v>
+        <v>0.780378</v>
       </c>
       <c r="C30" t="n">
-        <v>0.860654</v>
+        <v>0.596044</v>
       </c>
       <c r="D30" t="n">
-        <v>0.593886</v>
+        <v>0.484032</v>
       </c>
     </row>
     <row r="31">
@@ -11470,13 +11470,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>1.27932</v>
+        <v>0.793262</v>
       </c>
       <c r="C31" t="n">
-        <v>0.895844</v>
+        <v>0.603319</v>
       </c>
       <c r="D31" t="n">
-        <v>0.598427</v>
+        <v>0.487487</v>
       </c>
     </row>
     <row r="32">
@@ -11484,13 +11484,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>1.28589</v>
+        <v>0.807948</v>
       </c>
       <c r="C32" t="n">
-        <v>0.904707</v>
+        <v>0.609392</v>
       </c>
       <c r="D32" t="n">
-        <v>0.59978</v>
+        <v>0.489324</v>
       </c>
     </row>
     <row r="33">
@@ -11498,13 +11498,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>1.29478</v>
+        <v>0.819258</v>
       </c>
       <c r="C33" t="n">
-        <v>0.926808</v>
+        <v>0.617583</v>
       </c>
       <c r="D33" t="n">
-        <v>0.6035199999999999</v>
+        <v>0.493028</v>
       </c>
     </row>
     <row r="34">
@@ -11512,13 +11512,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>1.2997</v>
+        <v>0.831247</v>
       </c>
       <c r="C34" t="n">
-        <v>0.933893</v>
+        <v>0.628067</v>
       </c>
       <c r="D34" t="n">
-        <v>0.603893</v>
+        <v>0.49717</v>
       </c>
     </row>
     <row r="35">
@@ -11526,13 +11526,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>1.32921</v>
+        <v>0.8455589999999999</v>
       </c>
       <c r="C35" t="n">
-        <v>0.934303</v>
+        <v>0.636922</v>
       </c>
       <c r="D35" t="n">
-        <v>0.596703</v>
+        <v>0.501906</v>
       </c>
     </row>
     <row r="36">
@@ -11540,13 +11540,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>1.36133</v>
+        <v>0.857403</v>
       </c>
       <c r="C36" t="n">
-        <v>0.94776</v>
+        <v>0.646138</v>
       </c>
       <c r="D36" t="n">
-        <v>0.59793</v>
+        <v>0.504466</v>
       </c>
     </row>
     <row r="37">
@@ -11554,13 +11554,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>1.33826</v>
+        <v>0.864878</v>
       </c>
       <c r="C37" t="n">
-        <v>0.946945</v>
+        <v>0.656351</v>
       </c>
       <c r="D37" t="n">
-        <v>0.583167</v>
+        <v>0.507257</v>
       </c>
     </row>
     <row r="38">
@@ -11568,13 +11568,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>1.33372</v>
+        <v>0.878519</v>
       </c>
       <c r="C38" t="n">
-        <v>0.9844850000000001</v>
+        <v>0.667414</v>
       </c>
       <c r="D38" t="n">
-        <v>0.592507</v>
+        <v>0.511096</v>
       </c>
     </row>
     <row r="39">
@@ -11582,13 +11582,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>1.3586</v>
+        <v>0.896575</v>
       </c>
       <c r="C39" t="n">
-        <v>0.979143</v>
+        <v>0.67664</v>
       </c>
       <c r="D39" t="n">
-        <v>0.596542</v>
+        <v>0.512666</v>
       </c>
     </row>
     <row r="40">
@@ -11596,13 +11596,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>1.37357</v>
+        <v>0.902874</v>
       </c>
       <c r="C40" t="n">
-        <v>0.8969510000000001</v>
+        <v>0.637145</v>
       </c>
       <c r="D40" t="n">
-        <v>0.588046</v>
+        <v>0.517768</v>
       </c>
     </row>
     <row r="41">
@@ -11610,13 +11610,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>1.29122</v>
+        <v>0.858336</v>
       </c>
       <c r="C41" t="n">
-        <v>0.881371</v>
+        <v>0.6426230000000001</v>
       </c>
       <c r="D41" t="n">
-        <v>0.595507</v>
+        <v>0.520219</v>
       </c>
     </row>
     <row r="42">
@@ -11624,13 +11624,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>1.3011</v>
+        <v>0.866166</v>
       </c>
       <c r="C42" t="n">
-        <v>0.884538</v>
+        <v>0.649362</v>
       </c>
       <c r="D42" t="n">
-        <v>0.585107</v>
+        <v>0.523058</v>
       </c>
     </row>
     <row r="43">
@@ -11638,13 +11638,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>1.25323</v>
+        <v>0.872383</v>
       </c>
       <c r="C43" t="n">
-        <v>0.904419</v>
+        <v>0.653089</v>
       </c>
       <c r="D43" t="n">
-        <v>0.591953</v>
+        <v>0.52616</v>
       </c>
     </row>
     <row r="44">
@@ -11652,13 +11652,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>1.26995</v>
+        <v>0.878399</v>
       </c>
       <c r="C44" t="n">
-        <v>0.906316</v>
+        <v>0.66632</v>
       </c>
       <c r="D44" t="n">
-        <v>0.584602</v>
+        <v>0.5282559999999999</v>
       </c>
     </row>
     <row r="45">
@@ -11666,13 +11666,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>1.28867</v>
+        <v>0.893128</v>
       </c>
       <c r="C45" t="n">
-        <v>0.9152979999999999</v>
+        <v>0.668681</v>
       </c>
       <c r="D45" t="n">
-        <v>0.589787</v>
+        <v>0.5293679999999999</v>
       </c>
     </row>
     <row r="46">
@@ -11680,13 +11680,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>1.28445</v>
+        <v>0.900356</v>
       </c>
       <c r="C46" t="n">
-        <v>0.944952</v>
+        <v>0.678849</v>
       </c>
       <c r="D46" t="n">
-        <v>0.573518</v>
+        <v>0.533573</v>
       </c>
     </row>
     <row r="47">
@@ -11694,13 +11694,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>1.33098</v>
+        <v>0.9110279999999999</v>
       </c>
       <c r="C47" t="n">
-        <v>0.9500729999999999</v>
+        <v>0.686073</v>
       </c>
       <c r="D47" t="n">
-        <v>0.597935</v>
+        <v>0.534894</v>
       </c>
     </row>
     <row r="48">
@@ -11708,13 +11708,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>1.36646</v>
+        <v>0.9206299999999999</v>
       </c>
       <c r="C48" t="n">
-        <v>0.947026</v>
+        <v>0.69229</v>
       </c>
       <c r="D48" t="n">
-        <v>0.577508</v>
+        <v>0.536559</v>
       </c>
     </row>
     <row r="49">
@@ -11722,13 +11722,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>1.33008</v>
+        <v>0.928665</v>
       </c>
       <c r="C49" t="n">
-        <v>0.94294</v>
+        <v>0.701982</v>
       </c>
       <c r="D49" t="n">
-        <v>0.580516</v>
+        <v>0.54036</v>
       </c>
     </row>
     <row r="50">
@@ -11736,13 +11736,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>1.3512</v>
+        <v>0.942846</v>
       </c>
       <c r="C50" t="n">
-        <v>1.00631</v>
+        <v>0.709081</v>
       </c>
       <c r="D50" t="n">
-        <v>0.595356</v>
+        <v>0.542165</v>
       </c>
     </row>
     <row r="51">
@@ -11750,13 +11750,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>1.34471</v>
+        <v>0.952126</v>
       </c>
       <c r="C51" t="n">
-        <v>1.01952</v>
+        <v>0.718432</v>
       </c>
       <c r="D51" t="n">
-        <v>0.591842</v>
+        <v>0.543737</v>
       </c>
     </row>
     <row r="52">
@@ -11764,13 +11764,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>1.38653</v>
+        <v>0.964548</v>
       </c>
       <c r="C52" t="n">
-        <v>1.00459</v>
+        <v>0.730338</v>
       </c>
       <c r="D52" t="n">
-        <v>0.586896</v>
+        <v>0.545229</v>
       </c>
     </row>
     <row r="53">
@@ -11778,13 +11778,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>1.39772</v>
+        <v>0.973647</v>
       </c>
       <c r="C53" t="n">
-        <v>1.04177</v>
+        <v>0.73882</v>
       </c>
       <c r="D53" t="n">
-        <v>0.588423</v>
+        <v>0.547741</v>
       </c>
     </row>
     <row r="54">
@@ -11792,13 +11792,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>1.4365</v>
+        <v>0.985236</v>
       </c>
       <c r="C54" t="n">
-        <v>0.910936</v>
+        <v>0.6789770000000001</v>
       </c>
       <c r="D54" t="n">
-        <v>0.585965</v>
+        <v>0.548266</v>
       </c>
     </row>
     <row r="55">
@@ -11806,13 +11806,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>1.43563</v>
+        <v>1.00065</v>
       </c>
       <c r="C55" t="n">
-        <v>0.9741919999999999</v>
+        <v>0.68679</v>
       </c>
       <c r="D55" t="n">
-        <v>0.594889</v>
+        <v>0.548623</v>
       </c>
     </row>
     <row r="56">
@@ -11820,13 +11820,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>1.24011</v>
+        <v>0.917357</v>
       </c>
       <c r="C56" t="n">
-        <v>0.9272359999999999</v>
+        <v>0.6928339999999999</v>
       </c>
       <c r="D56" t="n">
-        <v>0.587937</v>
+        <v>0.550053</v>
       </c>
     </row>
     <row r="57">
@@ -11834,13 +11834,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>1.28929</v>
+        <v>0.925637</v>
       </c>
       <c r="C57" t="n">
-        <v>0.9317</v>
+        <v>0.700327</v>
       </c>
       <c r="D57" t="n">
-        <v>0.606999</v>
+        <v>0.5521740000000001</v>
       </c>
     </row>
     <row r="58">
@@ -11848,13 +11848,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>1.28554</v>
+        <v>0.933983</v>
       </c>
       <c r="C58" t="n">
-        <v>0.967301</v>
+        <v>0.705941</v>
       </c>
       <c r="D58" t="n">
-        <v>0.582175</v>
+        <v>0.553474</v>
       </c>
     </row>
     <row r="59">
@@ -11862,13 +11862,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>1.31497</v>
+        <v>0.941536</v>
       </c>
       <c r="C59" t="n">
-        <v>0.958175</v>
+        <v>0.71252</v>
       </c>
       <c r="D59" t="n">
-        <v>0.591841</v>
+        <v>0.5553709999999999</v>
       </c>
     </row>
     <row r="60">
@@ -11876,13 +11876,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>1.3123</v>
+        <v>0.94775</v>
       </c>
       <c r="C60" t="n">
-        <v>0.960811</v>
+        <v>0.725288</v>
       </c>
       <c r="D60" t="n">
-        <v>0.592353</v>
+        <v>0.556705</v>
       </c>
     </row>
     <row r="61">
@@ -11890,13 +11890,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>1.3577</v>
+        <v>0.955415</v>
       </c>
       <c r="C61" t="n">
-        <v>0.9893110000000001</v>
+        <v>0.732397</v>
       </c>
       <c r="D61" t="n">
-        <v>0.600546</v>
+        <v>0.560185</v>
       </c>
     </row>
     <row r="62">
@@ -11904,13 +11904,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>1.36561</v>
+        <v>0.9612270000000001</v>
       </c>
       <c r="C62" t="n">
-        <v>0.990698</v>
+        <v>0.742723</v>
       </c>
       <c r="D62" t="n">
-        <v>0.592965</v>
+        <v>0.559377</v>
       </c>
     </row>
     <row r="63">
@@ -11918,13 +11918,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>1.36158</v>
+        <v>0.975399</v>
       </c>
       <c r="C63" t="n">
-        <v>0.9900139999999999</v>
+        <v>0.754761</v>
       </c>
       <c r="D63" t="n">
-        <v>0.607611</v>
+        <v>0.562601</v>
       </c>
     </row>
     <row r="64">
@@ -11932,13 +11932,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>1.43704</v>
+        <v>0.98214</v>
       </c>
       <c r="C64" t="n">
-        <v>1.05518</v>
+        <v>0.767588</v>
       </c>
       <c r="D64" t="n">
-        <v>0.589602</v>
+        <v>0.562067</v>
       </c>
     </row>
     <row r="65">
@@ -11946,13 +11946,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>1.39391</v>
+        <v>0.995093</v>
       </c>
       <c r="C65" t="n">
-        <v>1.0451</v>
+        <v>0.783392</v>
       </c>
       <c r="D65" t="n">
-        <v>0.587364</v>
+        <v>0.565357</v>
       </c>
     </row>
     <row r="66">
@@ -11960,13 +11960,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>1.44079</v>
+        <v>1.0097</v>
       </c>
       <c r="C66" t="n">
-        <v>1.05074</v>
+        <v>0.795445</v>
       </c>
       <c r="D66" t="n">
-        <v>0.596816</v>
+        <v>0.565994</v>
       </c>
     </row>
     <row r="67">
@@ -11974,13 +11974,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>1.42646</v>
+        <v>1.0209</v>
       </c>
       <c r="C67" t="n">
-        <v>1.08338</v>
+        <v>0.815204</v>
       </c>
       <c r="D67" t="n">
-        <v>0.589476</v>
+        <v>0.569855</v>
       </c>
     </row>
     <row r="68">
@@ -11988,13 +11988,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>1.43374</v>
+        <v>1.03547</v>
       </c>
       <c r="C68" t="n">
-        <v>0.9214869999999999</v>
+        <v>0.7585190000000001</v>
       </c>
       <c r="D68" t="n">
-        <v>0.5952539999999999</v>
+        <v>0.586661</v>
       </c>
     </row>
     <row r="69">
@@ -12002,13 +12002,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>1.47717</v>
+        <v>1.06867</v>
       </c>
       <c r="C69" t="n">
-        <v>0.943036</v>
+        <v>0.781794</v>
       </c>
       <c r="D69" t="n">
-        <v>0.59145</v>
+        <v>0.596186</v>
       </c>
     </row>
     <row r="70">
@@ -12016,13 +12016,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>1.30449</v>
+        <v>1.01301</v>
       </c>
       <c r="C70" t="n">
-        <v>0.972858</v>
+        <v>0.812708</v>
       </c>
       <c r="D70" t="n">
-        <v>0.606502</v>
+        <v>0.612413</v>
       </c>
     </row>
     <row r="71">
@@ -12030,13 +12030,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>1.28337</v>
+        <v>1.04235</v>
       </c>
       <c r="C71" t="n">
-        <v>0.995292</v>
+        <v>0.84122</v>
       </c>
       <c r="D71" t="n">
-        <v>0.604935</v>
+        <v>0.628953</v>
       </c>
     </row>
     <row r="72">
@@ -12044,13 +12044,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>1.36064</v>
+        <v>1.07366</v>
       </c>
       <c r="C72" t="n">
-        <v>0.993367</v>
+        <v>0.872167</v>
       </c>
       <c r="D72" t="n">
-        <v>0.587129</v>
+        <v>0.642669</v>
       </c>
     </row>
     <row r="73">
@@ -12058,13 +12058,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>1.3245</v>
+        <v>1.11104</v>
       </c>
       <c r="C73" t="n">
-        <v>0.98328</v>
+        <v>0.91168</v>
       </c>
       <c r="D73" t="n">
-        <v>0.606654</v>
+        <v>0.662942</v>
       </c>
     </row>
     <row r="74">
@@ -12072,13 +12072,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>1.33021</v>
+        <v>1.14642</v>
       </c>
       <c r="C74" t="n">
-        <v>0.977928</v>
+        <v>0.9489649999999999</v>
       </c>
       <c r="D74" t="n">
-        <v>0.581476</v>
+        <v>0.681797</v>
       </c>
     </row>
     <row r="75">
@@ -12086,13 +12086,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>1.37859</v>
+        <v>1.1886</v>
       </c>
       <c r="C75" t="n">
-        <v>0.979113</v>
+        <v>0.993487</v>
       </c>
       <c r="D75" t="n">
-        <v>0.596046</v>
+        <v>0.703308</v>
       </c>
     </row>
     <row r="76">
@@ -12100,13 +12100,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>1.39522</v>
+        <v>1.2343</v>
       </c>
       <c r="C76" t="n">
-        <v>1.02493</v>
+        <v>1.03883</v>
       </c>
       <c r="D76" t="n">
-        <v>0.613935</v>
+        <v>0.727754</v>
       </c>
     </row>
     <row r="77">
@@ -12114,13 +12114,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>1.35818</v>
+        <v>1.28556</v>
       </c>
       <c r="C77" t="n">
-        <v>1.02075</v>
+        <v>1.08452</v>
       </c>
       <c r="D77" t="n">
-        <v>0.599785</v>
+        <v>0.7574650000000001</v>
       </c>
     </row>
     <row r="78">
@@ -12128,13 +12128,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>1.35558</v>
+        <v>1.34673</v>
       </c>
       <c r="C78" t="n">
-        <v>1.01418</v>
+        <v>1.13844</v>
       </c>
       <c r="D78" t="n">
-        <v>0.613628</v>
+        <v>0.792471</v>
       </c>
     </row>
     <row r="79">
@@ -12142,13 +12142,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>1.45503</v>
+        <v>1.41106</v>
       </c>
       <c r="C79" t="n">
-        <v>1.0342</v>
+        <v>1.18853</v>
       </c>
       <c r="D79" t="n">
-        <v>0.595504</v>
+        <v>0.82439</v>
       </c>
     </row>
     <row r="80">
@@ -12156,13 +12156,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>1.43431</v>
+        <v>1.48755</v>
       </c>
       <c r="C80" t="n">
-        <v>1.09089</v>
+        <v>1.24554</v>
       </c>
       <c r="D80" t="n">
-        <v>0.600797</v>
+        <v>0.866178</v>
       </c>
     </row>
     <row r="81">
@@ -12170,13 +12170,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>1.46587</v>
+        <v>1.56904</v>
       </c>
       <c r="C81" t="n">
-        <v>1.12255</v>
+        <v>1.30504</v>
       </c>
       <c r="D81" t="n">
-        <v>0.6021339999999999</v>
+        <v>0.906909</v>
       </c>
     </row>
     <row r="82">
@@ -12184,13 +12184,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>1.47364</v>
+        <v>1.64842</v>
       </c>
       <c r="C82" t="n">
-        <v>1.07446</v>
+        <v>1.3639</v>
       </c>
       <c r="D82" t="n">
-        <v>0.602399</v>
+        <v>0.950197</v>
       </c>
     </row>
     <row r="83">
@@ -12198,13 +12198,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>1.57715</v>
+        <v>1.7531</v>
       </c>
       <c r="C83" t="n">
-        <v>0.98226</v>
+        <v>1.35922</v>
       </c>
       <c r="D83" t="n">
-        <v>0.607797</v>
+        <v>1.06527</v>
       </c>
     </row>
     <row r="84">
@@ -12212,13 +12212,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>1.52801</v>
+        <v>1.86506</v>
       </c>
       <c r="C84" t="n">
-        <v>1.02585</v>
+        <v>1.4186</v>
       </c>
       <c r="D84" t="n">
-        <v>0.609845</v>
+        <v>1.12479</v>
       </c>
     </row>
     <row r="85">
@@ -12226,13 +12226,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>1.36628</v>
+        <v>1.90116</v>
       </c>
       <c r="C85" t="n">
-        <v>1.01872</v>
+        <v>1.47415</v>
       </c>
       <c r="D85" t="n">
-        <v>0.618981</v>
+        <v>1.18199</v>
       </c>
     </row>
     <row r="86">
@@ -12240,13 +12240,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>1.34454</v>
+        <v>2.0039</v>
       </c>
       <c r="C86" t="n">
-        <v>1.12149</v>
+        <v>1.54028</v>
       </c>
       <c r="D86" t="n">
-        <v>0.604526</v>
+        <v>1.23893</v>
       </c>
     </row>
     <row r="87">
@@ -12254,13 +12254,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>1.45956</v>
+        <v>2.10879</v>
       </c>
       <c r="C87" t="n">
-        <v>1.11581</v>
+        <v>1.603</v>
       </c>
       <c r="D87" t="n">
-        <v>0.618187</v>
+        <v>1.30036</v>
       </c>
     </row>
     <row r="88">
@@ -12268,13 +12268,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>1.41997</v>
+        <v>2.21848</v>
       </c>
       <c r="C88" t="n">
-        <v>1.11731</v>
+        <v>1.67848</v>
       </c>
       <c r="D88" t="n">
-        <v>0.626988</v>
+        <v>1.35642</v>
       </c>
     </row>
     <row r="89">
@@ -12282,13 +12282,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>1.45018</v>
+        <v>2.34101</v>
       </c>
       <c r="C89" t="n">
-        <v>1.21009</v>
+        <v>1.74905</v>
       </c>
       <c r="D89" t="n">
-        <v>0.633565</v>
+        <v>1.41004</v>
       </c>
     </row>
     <row r="90">
@@ -12296,13 +12296,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>1.52116</v>
+        <v>2.45239</v>
       </c>
       <c r="C90" t="n">
-        <v>1.27327</v>
+        <v>1.8261</v>
       </c>
       <c r="D90" t="n">
-        <v>0.619175</v>
+        <v>1.47403</v>
       </c>
     </row>
     <row r="91">
@@ -12310,13 +12310,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>1.59536</v>
+        <v>2.5765</v>
       </c>
       <c r="C91" t="n">
-        <v>1.34604</v>
+        <v>1.91176</v>
       </c>
       <c r="D91" t="n">
-        <v>0.633223</v>
+        <v>1.53378</v>
       </c>
     </row>
     <row r="92">
@@ -12324,13 +12324,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>1.62911</v>
+        <v>2.72049</v>
       </c>
       <c r="C92" t="n">
-        <v>1.40228</v>
+        <v>1.99177</v>
       </c>
       <c r="D92" t="n">
-        <v>0.682969</v>
+        <v>1.58825</v>
       </c>
     </row>
     <row r="93">
@@ -12338,13 +12338,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>1.56433</v>
+        <v>2.86592</v>
       </c>
       <c r="C93" t="n">
-        <v>1.4924</v>
+        <v>2.08019</v>
       </c>
       <c r="D93" t="n">
-        <v>0.632171</v>
+        <v>1.64495</v>
       </c>
     </row>
     <row r="94">
@@ -12352,13 +12352,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>1.74442</v>
+        <v>2.99343</v>
       </c>
       <c r="C94" t="n">
-        <v>1.5051</v>
+        <v>2.17102</v>
       </c>
       <c r="D94" t="n">
-        <v>0.66352</v>
+        <v>1.69431</v>
       </c>
     </row>
     <row r="95">
@@ -12366,13 +12366,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>1.73614</v>
+        <v>3.09888</v>
       </c>
       <c r="C95" t="n">
-        <v>1.51155</v>
+        <v>2.25376</v>
       </c>
       <c r="D95" t="n">
-        <v>0.689549</v>
+        <v>1.74285</v>
       </c>
     </row>
     <row r="96">
@@ -12380,13 +12380,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>1.73152</v>
+        <v>3.27937</v>
       </c>
       <c r="C96" t="n">
-        <v>1.57912</v>
+        <v>2.3622</v>
       </c>
       <c r="D96" t="n">
-        <v>0.743915</v>
+        <v>1.79216</v>
       </c>
     </row>
     <row r="97">
@@ -12394,13 +12394,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>1.88199</v>
+        <v>3.40584</v>
       </c>
       <c r="C97" t="n">
-        <v>1.43792</v>
+        <v>2.15613</v>
       </c>
       <c r="D97" t="n">
-        <v>0.720531</v>
+        <v>1.934</v>
       </c>
     </row>
     <row r="98">
@@ -12408,13 +12408,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>1.97869</v>
+        <v>3.5399</v>
       </c>
       <c r="C98" t="n">
-        <v>1.50374</v>
+        <v>2.22588</v>
       </c>
       <c r="D98" t="n">
-        <v>0.747641</v>
+        <v>1.99237</v>
       </c>
     </row>
     <row r="99">
@@ -12422,13 +12422,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>1.92394</v>
+        <v>3.40185</v>
       </c>
       <c r="C99" t="n">
-        <v>1.59986</v>
+        <v>2.28092</v>
       </c>
       <c r="D99" t="n">
-        <v>0.772962</v>
+        <v>2.02267</v>
       </c>
     </row>
     <row r="100">
@@ -12436,13 +12436,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>2.06592</v>
+        <v>3.51947</v>
       </c>
       <c r="C100" t="n">
-        <v>1.68696</v>
+        <v>2.34122</v>
       </c>
       <c r="D100" t="n">
-        <v>0.806428</v>
+        <v>2.07487</v>
       </c>
     </row>
     <row r="101">
@@ -12450,13 +12450,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>2.0608</v>
+        <v>3.62156</v>
       </c>
       <c r="C101" t="n">
-        <v>1.67657</v>
+        <v>2.40829</v>
       </c>
       <c r="D101" t="n">
-        <v>0.821785</v>
+        <v>2.10268</v>
       </c>
     </row>
     <row r="102">
@@ -12464,13 +12464,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>2.15716</v>
+        <v>3.73609</v>
       </c>
       <c r="C102" t="n">
-        <v>1.67587</v>
+        <v>2.47916</v>
       </c>
       <c r="D102" t="n">
-        <v>0.869516</v>
+        <v>2.13809</v>
       </c>
     </row>
     <row r="103">
@@ -12478,13 +12478,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>2.2786</v>
+        <v>3.83483</v>
       </c>
       <c r="C103" t="n">
-        <v>1.72679</v>
+        <v>2.55152</v>
       </c>
       <c r="D103" t="n">
-        <v>0.910152</v>
+        <v>2.18874</v>
       </c>
     </row>
     <row r="104">
@@ -12492,13 +12492,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>2.4903</v>
+        <v>3.95085</v>
       </c>
       <c r="C104" t="n">
-        <v>1.80396</v>
+        <v>2.61505</v>
       </c>
       <c r="D104" t="n">
-        <v>0.961398</v>
+        <v>2.20521</v>
       </c>
     </row>
     <row r="105">
@@ -12506,13 +12506,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>2.38681</v>
+        <v>4.02807</v>
       </c>
       <c r="C105" t="n">
-        <v>1.76274</v>
+        <v>2.68262</v>
       </c>
       <c r="D105" t="n">
-        <v>0.9717209999999999</v>
+        <v>2.2371</v>
       </c>
     </row>
     <row r="106">
@@ -12520,13 +12520,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>2.52035</v>
+        <v>4.12756</v>
       </c>
       <c r="C106" t="n">
-        <v>1.81372</v>
+        <v>2.76256</v>
       </c>
       <c r="D106" t="n">
-        <v>1.00505</v>
+        <v>2.27421</v>
       </c>
     </row>
     <row r="107">
@@ -12534,13 +12534,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>2.71414</v>
+        <v>4.21475</v>
       </c>
       <c r="C107" t="n">
-        <v>2.04792</v>
+        <v>2.84112</v>
       </c>
       <c r="D107" t="n">
-        <v>1.05299</v>
+        <v>2.30275</v>
       </c>
     </row>
     <row r="108">
@@ -12548,13 +12548,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>2.66855</v>
+        <v>4.36018</v>
       </c>
       <c r="C108" t="n">
-        <v>2.03707</v>
+        <v>2.91056</v>
       </c>
       <c r="D108" t="n">
-        <v>1.09905</v>
+        <v>2.33561</v>
       </c>
     </row>
     <row r="109">
@@ -12562,13 +12562,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>2.9395</v>
+        <v>4.47241</v>
       </c>
       <c r="C109" t="n">
-        <v>2.00186</v>
+        <v>3.00265</v>
       </c>
       <c r="D109" t="n">
-        <v>1.12265</v>
+        <v>2.3636</v>
       </c>
     </row>
     <row r="110">
@@ -12576,13 +12576,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>2.90215</v>
+        <v>4.51213</v>
       </c>
       <c r="C110" t="n">
-        <v>2.12233</v>
+        <v>3.0888</v>
       </c>
       <c r="D110" t="n">
-        <v>1.23126</v>
+        <v>2.39345</v>
       </c>
     </row>
     <row r="111">
@@ -12590,13 +12590,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>3.02151</v>
+        <v>4.68522</v>
       </c>
       <c r="C111" t="n">
-        <v>2.13719</v>
+        <v>2.75735</v>
       </c>
       <c r="D111" t="n">
-        <v>1.27365</v>
+        <v>2.50227</v>
       </c>
     </row>
     <row r="112">
@@ -12604,13 +12604,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>3.11966</v>
+        <v>4.76299</v>
       </c>
       <c r="C112" t="n">
-        <v>2.16849</v>
+        <v>2.82336</v>
       </c>
       <c r="D112" t="n">
-        <v>1.27708</v>
+        <v>2.53759</v>
       </c>
     </row>
     <row r="113">
@@ -12618,13 +12618,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>3.2973</v>
+        <v>4.89314</v>
       </c>
       <c r="C113" t="n">
-        <v>2.21755</v>
+        <v>2.88022</v>
       </c>
       <c r="D113" t="n">
-        <v>1.382</v>
+        <v>2.57343</v>
       </c>
     </row>
     <row r="114">
@@ -12632,13 +12632,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>3.2713</v>
+        <v>4.50187</v>
       </c>
       <c r="C114" t="n">
-        <v>2.56235</v>
+        <v>2.94227</v>
       </c>
       <c r="D114" t="n">
-        <v>2.18878</v>
+        <v>2.58215</v>
       </c>
     </row>
     <row r="115">
@@ -12646,13 +12646,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>3.9484</v>
+        <v>4.59635</v>
       </c>
       <c r="C115" t="n">
-        <v>2.87749</v>
+        <v>2.99325</v>
       </c>
       <c r="D115" t="n">
-        <v>2.16531</v>
+        <v>2.60434</v>
       </c>
     </row>
     <row r="116">
@@ -12660,13 +12660,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>4.12141</v>
+        <v>4.70699</v>
       </c>
       <c r="C116" t="n">
-        <v>3.05725</v>
+        <v>3.06147</v>
       </c>
       <c r="D116" t="n">
-        <v>2.16248</v>
+        <v>2.63257</v>
       </c>
     </row>
     <row r="117">
@@ -12674,13 +12674,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>4.24348</v>
+        <v>4.73778</v>
       </c>
       <c r="C117" t="n">
-        <v>2.94808</v>
+        <v>3.12682</v>
       </c>
       <c r="D117" t="n">
-        <v>2.22774</v>
+        <v>2.65682</v>
       </c>
     </row>
     <row r="118">
@@ -12688,13 +12688,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>4.33324</v>
+        <v>4.78105</v>
       </c>
       <c r="C118" t="n">
-        <v>3.38528</v>
+        <v>3.1997</v>
       </c>
       <c r="D118" t="n">
-        <v>2.49354</v>
+        <v>2.67062</v>
       </c>
     </row>
     <row r="119">
@@ -12702,13 +12702,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>4.4969</v>
+        <v>4.94194</v>
       </c>
       <c r="C119" t="n">
-        <v>2.59031</v>
+        <v>3.27584</v>
       </c>
       <c r="D119" t="n">
-        <v>1.43698</v>
+        <v>2.70268</v>
       </c>
     </row>
   </sheetData>

--- a/gcc/scattered erasure.xlsx
+++ b/gcc/scattered erasure.xlsx
@@ -7680,13 +7680,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.303168</v>
+        <v>0.328871</v>
       </c>
       <c r="C2" t="n">
-        <v>0.283479</v>
+        <v>0.293146</v>
       </c>
       <c r="D2" t="n">
-        <v>0.220108</v>
+        <v>0.248896</v>
       </c>
     </row>
     <row r="3">
@@ -7694,13 +7694,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.292831</v>
+        <v>0.29974</v>
       </c>
       <c r="C3" t="n">
-        <v>0.286075</v>
+        <v>0.297229</v>
       </c>
       <c r="D3" t="n">
-        <v>0.22764</v>
+        <v>0.245381</v>
       </c>
     </row>
     <row r="4">
@@ -7708,13 +7708,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.29401</v>
+        <v>0.305167</v>
       </c>
       <c r="C4" t="n">
-        <v>0.290932</v>
+        <v>0.299586</v>
       </c>
       <c r="D4" t="n">
-        <v>0.23688</v>
+        <v>0.25937</v>
       </c>
     </row>
     <row r="5">
@@ -7722,13 +7722,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.301984</v>
+        <v>0.312308</v>
       </c>
       <c r="C5" t="n">
-        <v>0.293845</v>
+        <v>0.303964</v>
       </c>
       <c r="D5" t="n">
-        <v>0.23929</v>
+        <v>0.254888</v>
       </c>
     </row>
     <row r="6">
@@ -7736,13 +7736,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.309367</v>
+        <v>0.31228</v>
       </c>
       <c r="C6" t="n">
-        <v>0.296241</v>
+        <v>0.305159</v>
       </c>
       <c r="D6" t="n">
-        <v>0.247333</v>
+        <v>0.261326</v>
       </c>
     </row>
     <row r="7">
@@ -7750,13 +7750,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.314449</v>
+        <v>0.325017</v>
       </c>
       <c r="C7" t="n">
-        <v>0.286859</v>
+        <v>0.294195</v>
       </c>
       <c r="D7" t="n">
-        <v>0.26196</v>
+        <v>0.270566</v>
       </c>
     </row>
     <row r="8">
@@ -7764,13 +7764,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.32406</v>
+        <v>0.332235</v>
       </c>
       <c r="C8" t="n">
-        <v>0.289699</v>
+        <v>0.297876</v>
       </c>
       <c r="D8" t="n">
-        <v>0.267899</v>
+        <v>0.276611</v>
       </c>
     </row>
     <row r="9">
@@ -7778,13 +7778,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.32982</v>
+        <v>0.336411</v>
       </c>
       <c r="C9" t="n">
-        <v>0.29072</v>
+        <v>0.300045</v>
       </c>
       <c r="D9" t="n">
-        <v>0.275559</v>
+        <v>0.287009</v>
       </c>
     </row>
     <row r="10">
@@ -7792,13 +7792,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.336513</v>
+        <v>0.347119</v>
       </c>
       <c r="C10" t="n">
-        <v>0.292636</v>
+        <v>0.302726</v>
       </c>
       <c r="D10" t="n">
-        <v>0.280627</v>
+        <v>0.288827</v>
       </c>
     </row>
     <row r="11">
@@ -7806,13 +7806,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.343734</v>
+        <v>0.352342</v>
       </c>
       <c r="C11" t="n">
-        <v>0.292961</v>
+        <v>0.304001</v>
       </c>
       <c r="D11" t="n">
-        <v>0.287298</v>
+        <v>0.292568</v>
       </c>
     </row>
     <row r="12">
@@ -7820,13 +7820,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.352042</v>
+        <v>0.358097</v>
       </c>
       <c r="C12" t="n">
-        <v>0.296141</v>
+        <v>0.306971</v>
       </c>
       <c r="D12" t="n">
-        <v>0.294615</v>
+        <v>0.302173</v>
       </c>
     </row>
     <row r="13">
@@ -7834,13 +7834,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.359706</v>
+        <v>0.368251</v>
       </c>
       <c r="C13" t="n">
-        <v>0.298456</v>
+        <v>0.309054</v>
       </c>
       <c r="D13" t="n">
-        <v>0.30135</v>
+        <v>0.303479</v>
       </c>
     </row>
     <row r="14">
@@ -7848,13 +7848,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.367521</v>
+        <v>0.370475</v>
       </c>
       <c r="C14" t="n">
-        <v>0.301068</v>
+        <v>0.311555</v>
       </c>
       <c r="D14" t="n">
-        <v>0.306371</v>
+        <v>0.309732</v>
       </c>
     </row>
     <row r="15">
@@ -7862,13 +7862,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.376961</v>
+        <v>0.378237</v>
       </c>
       <c r="C15" t="n">
-        <v>0.305096</v>
+        <v>0.314161</v>
       </c>
       <c r="D15" t="n">
-        <v>0.314339</v>
+        <v>0.317727</v>
       </c>
     </row>
     <row r="16">
@@ -7876,13 +7876,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.384689</v>
+        <v>0.38858</v>
       </c>
       <c r="C16" t="n">
-        <v>0.307056</v>
+        <v>0.31714</v>
       </c>
       <c r="D16" t="n">
-        <v>0.319774</v>
+        <v>0.32235</v>
       </c>
     </row>
     <row r="17">
@@ -7890,13 +7890,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.391201</v>
+        <v>0.394071</v>
       </c>
       <c r="C17" t="n">
-        <v>0.310545</v>
+        <v>0.320355</v>
       </c>
       <c r="D17" t="n">
-        <v>0.326968</v>
+        <v>0.326971</v>
       </c>
     </row>
     <row r="18">
@@ -7904,13 +7904,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.378067</v>
+        <v>0.379057</v>
       </c>
       <c r="C18" t="n">
-        <v>0.314153</v>
+        <v>0.322098</v>
       </c>
       <c r="D18" t="n">
-        <v>0.332534</v>
+        <v>0.331225</v>
       </c>
     </row>
     <row r="19">
@@ -7918,13 +7918,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.383025</v>
+        <v>0.384347</v>
       </c>
       <c r="C19" t="n">
-        <v>0.31743</v>
+        <v>0.327369</v>
       </c>
       <c r="D19" t="n">
-        <v>0.339463</v>
+        <v>0.338348</v>
       </c>
     </row>
     <row r="20">
@@ -7932,13 +7932,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.389749</v>
+        <v>0.390946</v>
       </c>
       <c r="C20" t="n">
-        <v>0.320886</v>
+        <v>0.330324</v>
       </c>
       <c r="D20" t="n">
-        <v>0.344611</v>
+        <v>0.34355</v>
       </c>
     </row>
     <row r="21">
@@ -7946,13 +7946,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.393977</v>
+        <v>0.396812</v>
       </c>
       <c r="C21" t="n">
-        <v>0.301831</v>
+        <v>0.315402</v>
       </c>
       <c r="D21" t="n">
-        <v>0.351352</v>
+        <v>0.351183</v>
       </c>
     </row>
     <row r="22">
@@ -7960,13 +7960,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.40056</v>
+        <v>0.399856</v>
       </c>
       <c r="C22" t="n">
-        <v>0.304143</v>
+        <v>0.317791</v>
       </c>
       <c r="D22" t="n">
-        <v>0.356046</v>
+        <v>0.354332</v>
       </c>
     </row>
     <row r="23">
@@ -7974,13 +7974,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.406253</v>
+        <v>0.407077</v>
       </c>
       <c r="C23" t="n">
-        <v>0.305273</v>
+        <v>0.319086</v>
       </c>
       <c r="D23" t="n">
-        <v>0.360277</v>
+        <v>0.359981</v>
       </c>
     </row>
     <row r="24">
@@ -7988,13 +7988,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.41164</v>
+        <v>0.413443</v>
       </c>
       <c r="C24" t="n">
-        <v>0.308595</v>
+        <v>0.321552</v>
       </c>
       <c r="D24" t="n">
-        <v>0.364186</v>
+        <v>0.3639</v>
       </c>
     </row>
     <row r="25">
@@ -8002,13 +8002,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.417355</v>
+        <v>0.420356</v>
       </c>
       <c r="C25" t="n">
-        <v>0.309582</v>
+        <v>0.324121</v>
       </c>
       <c r="D25" t="n">
-        <v>0.368633</v>
+        <v>0.366663</v>
       </c>
     </row>
     <row r="26">
@@ -8016,13 +8016,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.424104</v>
+        <v>0.426215</v>
       </c>
       <c r="C26" t="n">
-        <v>0.313258</v>
+        <v>0.325968</v>
       </c>
       <c r="D26" t="n">
-        <v>0.371985</v>
+        <v>0.371274</v>
       </c>
     </row>
     <row r="27">
@@ -8030,13 +8030,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.429313</v>
+        <v>0.431443</v>
       </c>
       <c r="C27" t="n">
-        <v>0.316555</v>
+        <v>0.327858</v>
       </c>
       <c r="D27" t="n">
-        <v>0.375882</v>
+        <v>0.375536</v>
       </c>
     </row>
     <row r="28">
@@ -8044,13 +8044,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.435388</v>
+        <v>0.438835</v>
       </c>
       <c r="C28" t="n">
-        <v>0.318483</v>
+        <v>0.333464</v>
       </c>
       <c r="D28" t="n">
-        <v>0.37929</v>
+        <v>0.379421</v>
       </c>
     </row>
     <row r="29">
@@ -8058,13 +8058,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.441835</v>
+        <v>0.443483</v>
       </c>
       <c r="C29" t="n">
-        <v>0.321436</v>
+        <v>0.33435</v>
       </c>
       <c r="D29" t="n">
-        <v>0.383956</v>
+        <v>0.382854</v>
       </c>
     </row>
     <row r="30">
@@ -8072,13 +8072,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.447033</v>
+        <v>0.449941</v>
       </c>
       <c r="C30" t="n">
-        <v>0.324131</v>
+        <v>0.336649</v>
       </c>
       <c r="D30" t="n">
-        <v>0.387167</v>
+        <v>0.387171</v>
       </c>
     </row>
     <row r="31">
@@ -8086,13 +8086,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.454965</v>
+        <v>0.455577</v>
       </c>
       <c r="C31" t="n">
-        <v>0.327379</v>
+        <v>0.340845</v>
       </c>
       <c r="D31" t="n">
-        <v>0.390892</v>
+        <v>0.390222</v>
       </c>
     </row>
     <row r="32">
@@ -8100,13 +8100,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.424814</v>
+        <v>0.427447</v>
       </c>
       <c r="C32" t="n">
-        <v>0.330611</v>
+        <v>0.344241</v>
       </c>
       <c r="D32" t="n">
-        <v>0.394194</v>
+        <v>0.393527</v>
       </c>
     </row>
     <row r="33">
@@ -8114,13 +8114,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.429425</v>
+        <v>0.430625</v>
       </c>
       <c r="C33" t="n">
-        <v>0.333572</v>
+        <v>0.346106</v>
       </c>
       <c r="D33" t="n">
-        <v>0.398253</v>
+        <v>0.397632</v>
       </c>
     </row>
     <row r="34">
@@ -8128,13 +8128,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.433015</v>
+        <v>0.435943</v>
       </c>
       <c r="C34" t="n">
-        <v>0.33713</v>
+        <v>0.349734</v>
       </c>
       <c r="D34" t="n">
-        <v>0.40133</v>
+        <v>0.400734</v>
       </c>
     </row>
     <row r="35">
@@ -8142,13 +8142,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.437408</v>
+        <v>0.437871</v>
       </c>
       <c r="C35" t="n">
-        <v>0.313904</v>
+        <v>0.327553</v>
       </c>
       <c r="D35" t="n">
-        <v>0.401048</v>
+        <v>0.400017</v>
       </c>
     </row>
     <row r="36">
@@ -8156,13 +8156,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.441107</v>
+        <v>0.443876</v>
       </c>
       <c r="C36" t="n">
-        <v>0.3163</v>
+        <v>0.327672</v>
       </c>
       <c r="D36" t="n">
-        <v>0.403063</v>
+        <v>0.401747</v>
       </c>
     </row>
     <row r="37">
@@ -8170,13 +8170,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.445109</v>
+        <v>0.447908</v>
       </c>
       <c r="C37" t="n">
-        <v>0.318492</v>
+        <v>0.331392</v>
       </c>
       <c r="D37" t="n">
-        <v>0.405165</v>
+        <v>0.404129</v>
       </c>
     </row>
     <row r="38">
@@ -8184,13 +8184,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.449642</v>
+        <v>0.452114</v>
       </c>
       <c r="C38" t="n">
-        <v>0.320059</v>
+        <v>0.332918</v>
       </c>
       <c r="D38" t="n">
-        <v>0.407453</v>
+        <v>0.406646</v>
       </c>
     </row>
     <row r="39">
@@ -8198,13 +8198,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.454711</v>
+        <v>0.455194</v>
       </c>
       <c r="C39" t="n">
-        <v>0.323665</v>
+        <v>0.335172</v>
       </c>
       <c r="D39" t="n">
-        <v>0.409704</v>
+        <v>0.408899</v>
       </c>
     </row>
     <row r="40">
@@ -8212,13 +8212,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.458142</v>
+        <v>0.460418</v>
       </c>
       <c r="C40" t="n">
-        <v>0.324926</v>
+        <v>0.338307</v>
       </c>
       <c r="D40" t="n">
-        <v>0.41148</v>
+        <v>0.410787</v>
       </c>
     </row>
     <row r="41">
@@ -8226,13 +8226,13 @@
         <v>66357</v>
       </c>
       <c r="B41" t="n">
-        <v>0.463652</v>
+        <v>0.46379</v>
       </c>
       <c r="C41" t="n">
-        <v>0.32734</v>
+        <v>0.340174</v>
       </c>
       <c r="D41" t="n">
-        <v>0.413999</v>
+        <v>0.413263</v>
       </c>
     </row>
     <row r="42">
@@ -8240,13 +8240,13 @@
         <v>69656</v>
       </c>
       <c r="B42" t="n">
-        <v>0.468271</v>
+        <v>0.468519</v>
       </c>
       <c r="C42" t="n">
-        <v>0.328549</v>
+        <v>0.340206</v>
       </c>
       <c r="D42" t="n">
-        <v>0.416092</v>
+        <v>0.415442</v>
       </c>
     </row>
     <row r="43">
@@ -8254,13 +8254,13 @@
         <v>73119</v>
       </c>
       <c r="B43" t="n">
-        <v>0.47224</v>
+        <v>0.472841</v>
       </c>
       <c r="C43" t="n">
-        <v>0.330587</v>
+        <v>0.343572</v>
       </c>
       <c r="D43" t="n">
-        <v>0.418227</v>
+        <v>0.41662</v>
       </c>
     </row>
     <row r="44">
@@ -8268,13 +8268,13 @@
         <v>76755</v>
       </c>
       <c r="B44" t="n">
-        <v>0.477198</v>
+        <v>0.476715</v>
       </c>
       <c r="C44" t="n">
-        <v>0.334404</v>
+        <v>0.347782</v>
       </c>
       <c r="D44" t="n">
-        <v>0.420786</v>
+        <v>0.420146</v>
       </c>
     </row>
     <row r="45">
@@ -8282,13 +8282,13 @@
         <v>80572</v>
       </c>
       <c r="B45" t="n">
-        <v>0.48261</v>
+        <v>0.482598</v>
       </c>
       <c r="C45" t="n">
-        <v>0.337493</v>
+        <v>0.350651</v>
       </c>
       <c r="D45" t="n">
-        <v>0.422919</v>
+        <v>0.422314</v>
       </c>
     </row>
     <row r="46">
@@ -8296,13 +8296,13 @@
         <v>84579</v>
       </c>
       <c r="B46" t="n">
-        <v>0.487525</v>
+        <v>0.487269</v>
       </c>
       <c r="C46" t="n">
-        <v>0.340317</v>
+        <v>0.353528</v>
       </c>
       <c r="D46" t="n">
-        <v>0.42502</v>
+        <v>0.424624</v>
       </c>
     </row>
     <row r="47">
@@ -8310,13 +8310,13 @@
         <v>88786</v>
       </c>
       <c r="B47" t="n">
-        <v>0.451102</v>
+        <v>0.452217</v>
       </c>
       <c r="C47" t="n">
-        <v>0.343718</v>
+        <v>0.357204</v>
       </c>
       <c r="D47" t="n">
-        <v>0.427857</v>
+        <v>0.427166</v>
       </c>
     </row>
     <row r="48">
@@ -8324,13 +8324,13 @@
         <v>93203</v>
       </c>
       <c r="B48" t="n">
-        <v>0.454316</v>
+        <v>0.455331</v>
       </c>
       <c r="C48" t="n">
-        <v>0.34724</v>
+        <v>0.361076</v>
       </c>
       <c r="D48" t="n">
-        <v>0.429549</v>
+        <v>0.429324</v>
       </c>
     </row>
     <row r="49">
@@ -8338,13 +8338,13 @@
         <v>97840</v>
       </c>
       <c r="B49" t="n">
-        <v>0.457516</v>
+        <v>0.459269</v>
       </c>
       <c r="C49" t="n">
-        <v>0.35056</v>
+        <v>0.364388</v>
       </c>
       <c r="D49" t="n">
-        <v>0.431577</v>
+        <v>0.431593</v>
       </c>
     </row>
     <row r="50">
@@ -8352,13 +8352,13 @@
         <v>102706</v>
       </c>
       <c r="B50" t="n">
-        <v>0.460816</v>
+        <v>0.462274</v>
       </c>
       <c r="C50" t="n">
-        <v>0.330703</v>
+        <v>0.342807</v>
       </c>
       <c r="D50" t="n">
-        <v>0.427567</v>
+        <v>0.427192</v>
       </c>
     </row>
     <row r="51">
@@ -8366,13 +8366,13 @@
         <v>107816</v>
       </c>
       <c r="B51" t="n">
-        <v>0.465051</v>
+        <v>0.465764</v>
       </c>
       <c r="C51" t="n">
-        <v>0.332788</v>
+        <v>0.345689</v>
       </c>
       <c r="D51" t="n">
-        <v>0.428965</v>
+        <v>0.428343</v>
       </c>
     </row>
     <row r="52">
@@ -8380,13 +8380,13 @@
         <v>113182</v>
       </c>
       <c r="B52" t="n">
-        <v>0.468646</v>
+        <v>0.469063</v>
       </c>
       <c r="C52" t="n">
-        <v>0.334362</v>
+        <v>0.348481</v>
       </c>
       <c r="D52" t="n">
-        <v>0.429851</v>
+        <v>0.429519</v>
       </c>
     </row>
     <row r="53">
@@ -8394,13 +8394,13 @@
         <v>118816</v>
       </c>
       <c r="B53" t="n">
-        <v>0.471784</v>
+        <v>0.472787</v>
       </c>
       <c r="C53" t="n">
-        <v>0.335925</v>
+        <v>0.347767</v>
       </c>
       <c r="D53" t="n">
-        <v>0.431242</v>
+        <v>0.430209</v>
       </c>
     </row>
     <row r="54">
@@ -8408,13 +8408,13 @@
         <v>124731</v>
       </c>
       <c r="B54" t="n">
-        <v>0.475777</v>
+        <v>0.476131</v>
       </c>
       <c r="C54" t="n">
-        <v>0.339994</v>
+        <v>0.351841</v>
       </c>
       <c r="D54" t="n">
-        <v>0.432516</v>
+        <v>0.432374</v>
       </c>
     </row>
     <row r="55">
@@ -8422,13 +8422,13 @@
         <v>130941</v>
       </c>
       <c r="B55" t="n">
-        <v>0.479733</v>
+        <v>0.480094</v>
       </c>
       <c r="C55" t="n">
-        <v>0.342717</v>
+        <v>0.355574</v>
       </c>
       <c r="D55" t="n">
-        <v>0.43383</v>
+        <v>0.433717</v>
       </c>
     </row>
     <row r="56">
@@ -8436,13 +8436,13 @@
         <v>137461</v>
       </c>
       <c r="B56" t="n">
-        <v>0.484086</v>
+        <v>0.483714</v>
       </c>
       <c r="C56" t="n">
-        <v>0.342856</v>
+        <v>0.359415</v>
       </c>
       <c r="D56" t="n">
-        <v>0.435858</v>
+        <v>0.434606</v>
       </c>
     </row>
     <row r="57">
@@ -8450,13 +8450,13 @@
         <v>144307</v>
       </c>
       <c r="B57" t="n">
-        <v>0.48831</v>
+        <v>0.487937</v>
       </c>
       <c r="C57" t="n">
-        <v>0.347835</v>
+        <v>0.368887</v>
       </c>
       <c r="D57" t="n">
-        <v>0.437008</v>
+        <v>0.437911</v>
       </c>
     </row>
     <row r="58">
@@ -8464,13 +8464,13 @@
         <v>151495</v>
       </c>
       <c r="B58" t="n">
-        <v>0.49241</v>
+        <v>0.493201</v>
       </c>
       <c r="C58" t="n">
-        <v>0.354329</v>
+        <v>0.376038</v>
       </c>
       <c r="D58" t="n">
-        <v>0.440972</v>
+        <v>0.439733</v>
       </c>
     </row>
     <row r="59">
@@ -8478,13 +8478,13 @@
         <v>159042</v>
       </c>
       <c r="B59" t="n">
-        <v>0.500296</v>
+        <v>0.497725</v>
       </c>
       <c r="C59" t="n">
-        <v>0.361738</v>
+        <v>0.384266</v>
       </c>
       <c r="D59" t="n">
-        <v>0.441099</v>
+        <v>0.442675</v>
       </c>
     </row>
     <row r="60">
@@ -8492,13 +8492,13 @@
         <v>166965</v>
       </c>
       <c r="B60" t="n">
-        <v>0.502363</v>
+        <v>0.504262</v>
       </c>
       <c r="C60" t="n">
-        <v>0.372133</v>
+        <v>0.391506</v>
       </c>
       <c r="D60" t="n">
-        <v>0.443429</v>
+        <v>0.444555</v>
       </c>
     </row>
     <row r="61">
@@ -8506,13 +8506,13 @@
         <v>175284</v>
       </c>
       <c r="B61" t="n">
-        <v>0.484228</v>
+        <v>0.479456</v>
       </c>
       <c r="C61" t="n">
-        <v>0.379153</v>
+        <v>0.399392</v>
       </c>
       <c r="D61" t="n">
-        <v>0.44594</v>
+        <v>0.446695</v>
       </c>
     </row>
     <row r="62">
@@ -8520,13 +8520,13 @@
         <v>184019</v>
       </c>
       <c r="B62" t="n">
-        <v>0.49432</v>
+        <v>0.4861</v>
       </c>
       <c r="C62" t="n">
-        <v>0.38945</v>
+        <v>0.406037</v>
       </c>
       <c r="D62" t="n">
-        <v>0.447974</v>
+        <v>0.44947</v>
       </c>
     </row>
     <row r="63">
@@ -8534,13 +8534,13 @@
         <v>193190</v>
       </c>
       <c r="B63" t="n">
-        <v>0.501283</v>
+        <v>0.500131</v>
       </c>
       <c r="C63" t="n">
-        <v>0.393493</v>
+        <v>0.418605</v>
       </c>
       <c r="D63" t="n">
-        <v>0.450446</v>
+        <v>0.453857</v>
       </c>
     </row>
     <row r="64">
@@ -8548,13 +8548,13 @@
         <v>202820</v>
       </c>
       <c r="B64" t="n">
-        <v>0.510931</v>
+        <v>0.5044149999999999</v>
       </c>
       <c r="C64" t="n">
-        <v>0.445642</v>
+        <v>0.47895</v>
       </c>
       <c r="D64" t="n">
-        <v>0.486377</v>
+        <v>0.48371</v>
       </c>
     </row>
     <row r="65">
@@ -8562,13 +8562,13 @@
         <v>212931</v>
       </c>
       <c r="B65" t="n">
-        <v>0.5230629999999999</v>
+        <v>0.5237889999999999</v>
       </c>
       <c r="C65" t="n">
-        <v>0.452718</v>
+        <v>0.505543</v>
       </c>
       <c r="D65" t="n">
-        <v>0.484592</v>
+        <v>0.489428</v>
       </c>
     </row>
     <row r="66">
@@ -8576,13 +8576,13 @@
         <v>223547</v>
       </c>
       <c r="B66" t="n">
-        <v>0.541354</v>
+        <v>0.515695</v>
       </c>
       <c r="C66" t="n">
-        <v>0.476029</v>
+        <v>0.524308</v>
       </c>
       <c r="D66" t="n">
-        <v>0.508942</v>
+        <v>0.486015</v>
       </c>
     </row>
     <row r="67">
@@ -8590,13 +8590,13 @@
         <v>234692</v>
       </c>
       <c r="B67" t="n">
-        <v>0.556081</v>
+        <v>0.539896</v>
       </c>
       <c r="C67" t="n">
-        <v>0.492148</v>
+        <v>0.552374</v>
       </c>
       <c r="D67" t="n">
-        <v>0.498202</v>
+        <v>0.513665</v>
       </c>
     </row>
     <row r="68">
@@ -8604,13 +8604,13 @@
         <v>246395</v>
       </c>
       <c r="B68" t="n">
-        <v>0.545841</v>
+        <v>0.553108</v>
       </c>
       <c r="C68" t="n">
-        <v>0.506338</v>
+        <v>0.57637</v>
       </c>
       <c r="D68" t="n">
-        <v>0.518561</v>
+        <v>0.513413</v>
       </c>
     </row>
     <row r="69">
@@ -8618,13 +8618,13 @@
         <v>258683</v>
       </c>
       <c r="B69" t="n">
-        <v>0.576488</v>
+        <v>0.570107</v>
       </c>
       <c r="C69" t="n">
-        <v>0.535425</v>
+        <v>0.602844</v>
       </c>
       <c r="D69" t="n">
-        <v>0.543921</v>
+        <v>0.536168</v>
       </c>
     </row>
     <row r="70">
@@ -8632,13 +8632,13 @@
         <v>271585</v>
       </c>
       <c r="B70" t="n">
-        <v>0.6056319999999999</v>
+        <v>0.600741</v>
       </c>
       <c r="C70" t="n">
-        <v>0.552084</v>
+        <v>0.637997</v>
       </c>
       <c r="D70" t="n">
-        <v>0.554498</v>
+        <v>0.55679</v>
       </c>
     </row>
     <row r="71">
@@ -8646,13 +8646,13 @@
         <v>285132</v>
       </c>
       <c r="B71" t="n">
-        <v>0.622288</v>
+        <v>0.627451</v>
       </c>
       <c r="C71" t="n">
-        <v>0.573736</v>
+        <v>0.657772</v>
       </c>
       <c r="D71" t="n">
-        <v>0.5868679999999999</v>
+        <v>0.577746</v>
       </c>
     </row>
     <row r="72">
@@ -8660,13 +8660,13 @@
         <v>299354</v>
       </c>
       <c r="B72" t="n">
-        <v>0.65686</v>
+        <v>0.640031</v>
       </c>
       <c r="C72" t="n">
-        <v>0.602589</v>
+        <v>0.678766</v>
       </c>
       <c r="D72" t="n">
-        <v>0.596276</v>
+        <v>0.581601</v>
       </c>
     </row>
     <row r="73">
@@ -8674,13 +8674,13 @@
         <v>314289</v>
       </c>
       <c r="B73" t="n">
-        <v>0.672675</v>
+        <v>0.654453</v>
       </c>
       <c r="C73" t="n">
-        <v>0.6204190000000001</v>
+        <v>0.711094</v>
       </c>
       <c r="D73" t="n">
-        <v>0.6230019999999999</v>
+        <v>0.607075</v>
       </c>
     </row>
     <row r="74">
@@ -8688,13 +8688,13 @@
         <v>329969</v>
       </c>
       <c r="B74" t="n">
-        <v>0.69874</v>
+        <v>0.686962</v>
       </c>
       <c r="C74" t="n">
-        <v>0.64591</v>
+        <v>0.737334</v>
       </c>
       <c r="D74" t="n">
-        <v>0.649118</v>
+        <v>0.635668</v>
       </c>
     </row>
     <row r="75">
@@ -8702,13 +8702,13 @@
         <v>346432</v>
       </c>
       <c r="B75" t="n">
-        <v>0.752852</v>
+        <v>0.720537</v>
       </c>
       <c r="C75" t="n">
-        <v>0.671272</v>
+        <v>0.76384</v>
       </c>
       <c r="D75" t="n">
-        <v>0.694335</v>
+        <v>0.66062</v>
       </c>
     </row>
     <row r="76">
@@ -8716,13 +8716,13 @@
         <v>363719</v>
       </c>
       <c r="B76" t="n">
-        <v>0.9602619999999999</v>
+        <v>0.927082</v>
       </c>
       <c r="C76" t="n">
-        <v>0.69334</v>
+        <v>0.78657</v>
       </c>
       <c r="D76" t="n">
-        <v>0.732171</v>
+        <v>0.694279</v>
       </c>
     </row>
     <row r="77">
@@ -8730,13 +8730,13 @@
         <v>381870</v>
       </c>
       <c r="B77" t="n">
-        <v>1.0029</v>
+        <v>0.975216</v>
       </c>
       <c r="C77" t="n">
-        <v>0.716931</v>
+        <v>0.816844</v>
       </c>
       <c r="D77" t="n">
-        <v>0.770407</v>
+        <v>0.733032</v>
       </c>
     </row>
     <row r="78">
@@ -8744,13 +8744,13 @@
         <v>400928</v>
       </c>
       <c r="B78" t="n">
-        <v>1.04977</v>
+        <v>1.02552</v>
       </c>
       <c r="C78" t="n">
-        <v>0.835075</v>
+        <v>0.987298</v>
       </c>
       <c r="D78" t="n">
-        <v>1.02002</v>
+        <v>0.984058</v>
       </c>
     </row>
     <row r="79">
@@ -8758,13 +8758,13 @@
         <v>420937</v>
       </c>
       <c r="B79" t="n">
-        <v>1.09304</v>
+        <v>1.08092</v>
       </c>
       <c r="C79" t="n">
-        <v>0.845296</v>
+        <v>1.00433</v>
       </c>
       <c r="D79" t="n">
-        <v>1.05126</v>
+        <v>1.04355</v>
       </c>
     </row>
     <row r="80">
@@ -8772,13 +8772,13 @@
         <v>441947</v>
       </c>
       <c r="B80" t="n">
-        <v>1.14456</v>
+        <v>1.12718</v>
       </c>
       <c r="C80" t="n">
-        <v>0.858284</v>
+        <v>1.02677</v>
       </c>
       <c r="D80" t="n">
-        <v>1.11662</v>
+        <v>1.09365</v>
       </c>
     </row>
     <row r="81">
@@ -8786,13 +8786,13 @@
         <v>464005</v>
       </c>
       <c r="B81" t="n">
-        <v>1.19976</v>
+        <v>1.18612</v>
       </c>
       <c r="C81" t="n">
-        <v>0.875383</v>
+        <v>1.04651</v>
       </c>
       <c r="D81" t="n">
-        <v>1.16069</v>
+        <v>1.14057</v>
       </c>
     </row>
     <row r="82">
@@ -8800,13 +8800,13 @@
         <v>487165</v>
       </c>
       <c r="B82" t="n">
-        <v>1.25378</v>
+        <v>1.23698</v>
       </c>
       <c r="C82" t="n">
-        <v>0.888979</v>
+        <v>1.06549</v>
       </c>
       <c r="D82" t="n">
-        <v>1.2214</v>
+        <v>1.18819</v>
       </c>
     </row>
     <row r="83">
@@ -8814,13 +8814,13 @@
         <v>511485</v>
       </c>
       <c r="B83" t="n">
-        <v>1.30665</v>
+        <v>1.29235</v>
       </c>
       <c r="C83" t="n">
-        <v>0.89995</v>
+        <v>1.08378</v>
       </c>
       <c r="D83" t="n">
-        <v>1.2719</v>
+        <v>1.237</v>
       </c>
     </row>
     <row r="84">
@@ -8828,13 +8828,13 @@
         <v>537019</v>
       </c>
       <c r="B84" t="n">
-        <v>1.36132</v>
+        <v>1.34245</v>
       </c>
       <c r="C84" t="n">
-        <v>0.915697</v>
+        <v>1.10187</v>
       </c>
       <c r="D84" t="n">
-        <v>1.31711</v>
+        <v>1.28333</v>
       </c>
     </row>
     <row r="85">
@@ -8842,13 +8842,13 @@
         <v>563827</v>
       </c>
       <c r="B85" t="n">
-        <v>1.40491</v>
+        <v>1.39209</v>
       </c>
       <c r="C85" t="n">
-        <v>0.928042</v>
+        <v>1.12048</v>
       </c>
       <c r="D85" t="n">
-        <v>1.36667</v>
+        <v>1.33168</v>
       </c>
     </row>
     <row r="86">
@@ -8856,13 +8856,13 @@
         <v>591977</v>
       </c>
       <c r="B86" t="n">
-        <v>1.46206</v>
+        <v>1.4443</v>
       </c>
       <c r="C86" t="n">
-        <v>0.941431</v>
+        <v>1.13773</v>
       </c>
       <c r="D86" t="n">
-        <v>1.41163</v>
+        <v>1.37481</v>
       </c>
     </row>
     <row r="87">
@@ -8870,13 +8870,13 @@
         <v>621532</v>
       </c>
       <c r="B87" t="n">
-        <v>1.50489</v>
+        <v>1.49509</v>
       </c>
       <c r="C87" t="n">
-        <v>0.953494</v>
+        <v>1.15282</v>
       </c>
       <c r="D87" t="n">
-        <v>1.45488</v>
+        <v>1.4187</v>
       </c>
     </row>
     <row r="88">
@@ -8884,13 +8884,13 @@
         <v>652567</v>
       </c>
       <c r="B88" t="n">
-        <v>1.55266</v>
+        <v>1.54009</v>
       </c>
       <c r="C88" t="n">
-        <v>0.967328</v>
+        <v>1.17121</v>
       </c>
       <c r="D88" t="n">
-        <v>1.50247</v>
+        <v>1.46267</v>
       </c>
     </row>
     <row r="89">
@@ -8898,13 +8898,13 @@
         <v>685151</v>
       </c>
       <c r="B89" t="n">
-        <v>1.60023</v>
+        <v>1.58121</v>
       </c>
       <c r="C89" t="n">
-        <v>0.978779</v>
+        <v>1.18916</v>
       </c>
       <c r="D89" t="n">
-        <v>1.54212</v>
+        <v>1.50441</v>
       </c>
     </row>
     <row r="90">
@@ -8912,13 +8912,13 @@
         <v>719359</v>
       </c>
       <c r="B90" t="n">
-        <v>1.82708</v>
+        <v>1.78638</v>
       </c>
       <c r="C90" t="n">
-        <v>0.993103</v>
+        <v>1.20345</v>
       </c>
       <c r="D90" t="n">
-        <v>1.58417</v>
+        <v>1.54629</v>
       </c>
     </row>
     <row r="91">
@@ -8926,13 +8926,13 @@
         <v>755280</v>
       </c>
       <c r="B91" t="n">
-        <v>1.86237</v>
+        <v>1.82847</v>
       </c>
       <c r="C91" t="n">
-        <v>1.00889</v>
+        <v>1.21948</v>
       </c>
       <c r="D91" t="n">
-        <v>1.62905</v>
+        <v>1.58563</v>
       </c>
     </row>
     <row r="92">
@@ -8940,13 +8940,13 @@
         <v>792997</v>
       </c>
       <c r="B92" t="n">
-        <v>1.89606</v>
+        <v>1.85954</v>
       </c>
       <c r="C92" t="n">
-        <v>1.06709</v>
+        <v>1.31639</v>
       </c>
       <c r="D92" t="n">
-        <v>1.84211</v>
+        <v>1.79224</v>
       </c>
     </row>
     <row r="93">
@@ -8954,13 +8954,13 @@
         <v>832595</v>
       </c>
       <c r="B93" t="n">
-        <v>1.92838</v>
+        <v>1.90871</v>
       </c>
       <c r="C93" t="n">
-        <v>1.07499</v>
+        <v>1.31814</v>
       </c>
       <c r="D93" t="n">
-        <v>1.87468</v>
+        <v>1.82677</v>
       </c>
     </row>
     <row r="94">
@@ -8968,13 +8968,13 @@
         <v>874177</v>
       </c>
       <c r="B94" t="n">
-        <v>1.96312</v>
+        <v>1.94437</v>
       </c>
       <c r="C94" t="n">
-        <v>1.08375</v>
+        <v>1.32943</v>
       </c>
       <c r="D94" t="n">
-        <v>1.90496</v>
+        <v>1.85627</v>
       </c>
     </row>
     <row r="95">
@@ -8982,13 +8982,13 @@
         <v>917832</v>
       </c>
       <c r="B95" t="n">
-        <v>1.99507</v>
+        <v>1.9781</v>
       </c>
       <c r="C95" t="n">
-        <v>1.08575</v>
+        <v>1.34075</v>
       </c>
       <c r="D95" t="n">
-        <v>1.93159</v>
+        <v>1.88512</v>
       </c>
     </row>
     <row r="96">
@@ -8996,13 +8996,13 @@
         <v>963677</v>
       </c>
       <c r="B96" t="n">
-        <v>2.02806</v>
+        <v>2.00654</v>
       </c>
       <c r="C96" t="n">
-        <v>1.09666</v>
+        <v>1.35215</v>
       </c>
       <c r="D96" t="n">
-        <v>1.96798</v>
+        <v>1.9131</v>
       </c>
     </row>
     <row r="97">
@@ -9010,13 +9010,13 @@
         <v>1011813</v>
       </c>
       <c r="B97" t="n">
-        <v>2.0562</v>
+        <v>2.03641</v>
       </c>
       <c r="C97" t="n">
-        <v>1.10375</v>
+        <v>1.36307</v>
       </c>
       <c r="D97" t="n">
-        <v>1.98867</v>
+        <v>1.94064</v>
       </c>
     </row>
     <row r="98">
@@ -9024,13 +9024,13 @@
         <v>1062351</v>
       </c>
       <c r="B98" t="n">
-        <v>2.09046</v>
+        <v>2.05985</v>
       </c>
       <c r="C98" t="n">
-        <v>1.11677</v>
+        <v>1.37632</v>
       </c>
       <c r="D98" t="n">
-        <v>2.01866</v>
+        <v>1.9684</v>
       </c>
     </row>
     <row r="99">
@@ -9038,13 +9038,13 @@
         <v>1115422</v>
       </c>
       <c r="B99" t="n">
-        <v>2.11387</v>
+        <v>2.09387</v>
       </c>
       <c r="C99" t="n">
-        <v>1.11973</v>
+        <v>1.38725</v>
       </c>
       <c r="D99" t="n">
-        <v>2.04255</v>
+        <v>1.99348</v>
       </c>
     </row>
     <row r="100">
@@ -9052,13 +9052,13 @@
         <v>1171143</v>
       </c>
       <c r="B100" t="n">
-        <v>2.15227</v>
+        <v>2.12514</v>
       </c>
       <c r="C100" t="n">
-        <v>1.13345</v>
+        <v>1.39675</v>
       </c>
       <c r="D100" t="n">
-        <v>2.06624</v>
+        <v>2.01721</v>
       </c>
     </row>
     <row r="101">
@@ -9066,13 +9066,13 @@
         <v>1229634</v>
       </c>
       <c r="B101" t="n">
-        <v>2.175</v>
+        <v>2.15275</v>
       </c>
       <c r="C101" t="n">
-        <v>1.14255</v>
+        <v>1.40982</v>
       </c>
       <c r="D101" t="n">
-        <v>2.08969</v>
+        <v>2.04239</v>
       </c>
     </row>
     <row r="102">
@@ -9080,13 +9080,13 @@
         <v>1291062</v>
       </c>
       <c r="B102" t="n">
-        <v>2.2029</v>
+        <v>2.18138</v>
       </c>
       <c r="C102" t="n">
-        <v>1.14882</v>
+        <v>1.41854</v>
       </c>
       <c r="D102" t="n">
-        <v>2.11157</v>
+        <v>2.06521</v>
       </c>
     </row>
     <row r="103">
@@ -9094,13 +9094,13 @@
         <v>1355554</v>
       </c>
       <c r="B103" t="n">
-        <v>2.22549</v>
+        <v>2.21207</v>
       </c>
       <c r="C103" t="n">
-        <v>1.16398</v>
+        <v>1.43526</v>
       </c>
       <c r="D103" t="n">
-        <v>2.1343</v>
+        <v>2.08974</v>
       </c>
     </row>
     <row r="104">
@@ -9108,13 +9108,13 @@
         <v>1423274</v>
       </c>
       <c r="B104" t="n">
-        <v>2.25226</v>
+        <v>2.24053</v>
       </c>
       <c r="C104" t="n">
-        <v>1.17316</v>
+        <v>1.44463</v>
       </c>
       <c r="D104" t="n">
-        <v>2.14943</v>
+        <v>2.11257</v>
       </c>
     </row>
     <row r="105">
@@ -9122,13 +9122,13 @@
         <v>1494380</v>
       </c>
       <c r="B105" t="n">
-        <v>2.3392</v>
+        <v>2.3183</v>
       </c>
       <c r="C105" t="n">
-        <v>1.18913</v>
+        <v>1.46011</v>
       </c>
       <c r="D105" t="n">
-        <v>2.17499</v>
+        <v>2.13608</v>
       </c>
     </row>
     <row r="106">
@@ -9136,13 +9136,13 @@
         <v>1569031</v>
       </c>
       <c r="B106" t="n">
-        <v>2.35861</v>
+        <v>2.34005</v>
       </c>
       <c r="C106" t="n">
-        <v>1.20387</v>
+        <v>1.46631</v>
       </c>
       <c r="D106" t="n">
-        <v>2.20184</v>
+        <v>2.16964</v>
       </c>
     </row>
     <row r="107">
@@ -9150,13 +9150,13 @@
         <v>1647417</v>
       </c>
       <c r="B107" t="n">
-        <v>2.38001</v>
+        <v>2.36226</v>
       </c>
       <c r="C107" t="n">
-        <v>1.207</v>
+        <v>1.47953</v>
       </c>
       <c r="D107" t="n">
-        <v>2.29952</v>
+        <v>2.27849</v>
       </c>
     </row>
     <row r="108">
@@ -9164,13 +9164,13 @@
         <v>1729734</v>
       </c>
       <c r="B108" t="n">
-        <v>2.39653</v>
+        <v>2.40527</v>
       </c>
       <c r="C108" t="n">
-        <v>1.21813</v>
+        <v>1.50363</v>
       </c>
       <c r="D108" t="n">
-        <v>2.29941</v>
+        <v>2.29607</v>
       </c>
     </row>
     <row r="109">
@@ -9178,13 +9178,13 @@
         <v>1816153</v>
       </c>
       <c r="B109" t="n">
-        <v>2.42106</v>
+        <v>2.42381</v>
       </c>
       <c r="C109" t="n">
-        <v>1.2223</v>
+        <v>1.50718</v>
       </c>
       <c r="D109" t="n">
-        <v>2.3417</v>
+        <v>2.30999</v>
       </c>
     </row>
     <row r="110">
@@ -9192,13 +9192,13 @@
         <v>1906885</v>
       </c>
       <c r="B110" t="n">
-        <v>2.44357</v>
+        <v>2.4224</v>
       </c>
       <c r="C110" t="n">
-        <v>1.22992</v>
+        <v>1.50264</v>
       </c>
       <c r="D110" t="n">
-        <v>2.3557</v>
+        <v>2.31459</v>
       </c>
     </row>
     <row r="111">
@@ -9206,13 +9206,13 @@
         <v>2002164</v>
       </c>
       <c r="B111" t="n">
-        <v>2.46047</v>
+        <v>2.45875</v>
       </c>
       <c r="C111" t="n">
-        <v>1.23778</v>
+        <v>1.53063</v>
       </c>
       <c r="D111" t="n">
-        <v>2.35945</v>
+        <v>2.34183</v>
       </c>
     </row>
     <row r="112">
@@ -9220,13 +9220,13 @@
         <v>2102198</v>
       </c>
       <c r="B112" t="n">
-        <v>2.47885</v>
+        <v>2.48299</v>
       </c>
       <c r="C112" t="n">
-        <v>1.24441</v>
+        <v>1.53366</v>
       </c>
       <c r="D112" t="n">
-        <v>2.38395</v>
+        <v>2.35822</v>
       </c>
     </row>
     <row r="113">
@@ -9234,13 +9234,13 @@
         <v>2207233</v>
       </c>
       <c r="B113" t="n">
-        <v>2.49827</v>
+        <v>2.50229</v>
       </c>
       <c r="C113" t="n">
-        <v>1.25301</v>
+        <v>1.54081</v>
       </c>
       <c r="D113" t="n">
-        <v>2.38584</v>
+        <v>2.38714</v>
       </c>
     </row>
     <row r="114">
@@ -9248,13 +9248,13 @@
         <v>2317508</v>
       </c>
       <c r="B114" t="n">
-        <v>2.51414</v>
+        <v>2.52044</v>
       </c>
       <c r="C114" t="n">
-        <v>1.26096</v>
+        <v>1.55655</v>
       </c>
       <c r="D114" t="n">
-        <v>2.40037</v>
+        <v>2.3905</v>
       </c>
     </row>
     <row r="115">
@@ -9262,13 +9262,13 @@
         <v>2433290</v>
       </c>
       <c r="B115" t="n">
-        <v>2.53669</v>
+        <v>2.53926</v>
       </c>
       <c r="C115" t="n">
-        <v>1.26887</v>
+        <v>1.56695</v>
       </c>
       <c r="D115" t="n">
-        <v>2.42188</v>
+        <v>2.39673</v>
       </c>
     </row>
     <row r="116">
@@ -9276,13 +9276,13 @@
         <v>2554854</v>
       </c>
       <c r="B116" t="n">
-        <v>2.55087</v>
+        <v>2.53784</v>
       </c>
       <c r="C116" t="n">
-        <v>1.28147</v>
+        <v>1.57037</v>
       </c>
       <c r="D116" t="n">
-        <v>2.43407</v>
+        <v>2.41111</v>
       </c>
     </row>
     <row r="117">
@@ -9290,13 +9290,13 @@
         <v>2682511</v>
       </c>
       <c r="B117" t="n">
-        <v>2.5745</v>
+        <v>2.56602</v>
       </c>
       <c r="C117" t="n">
-        <v>1.29333</v>
+        <v>1.57824</v>
       </c>
       <c r="D117" t="n">
-        <v>2.44667</v>
+        <v>2.43276</v>
       </c>
     </row>
     <row r="118">
@@ -9304,13 +9304,13 @@
         <v>2816546</v>
       </c>
       <c r="B118" t="n">
-        <v>2.58786</v>
+        <v>2.59781</v>
       </c>
       <c r="C118" t="n">
-        <v>1.30081</v>
+        <v>1.59915</v>
       </c>
       <c r="D118" t="n">
-        <v>2.45534</v>
+        <v>2.44719</v>
       </c>
     </row>
     <row r="119">
@@ -9318,13 +9318,13 @@
         <v>2957287</v>
       </c>
       <c r="B119" t="n">
-        <v>2.61308</v>
+        <v>2.60814</v>
       </c>
       <c r="C119" t="n">
-        <v>1.31662</v>
+        <v>1.59367</v>
       </c>
       <c r="D119" t="n">
-        <v>2.46067</v>
+        <v>2.45652</v>
       </c>
     </row>
   </sheetData>
@@ -9372,13 +9372,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.512967</v>
+        <v>0.506293</v>
       </c>
       <c r="C2" t="n">
-        <v>0.453074</v>
+        <v>0.371519</v>
       </c>
       <c r="D2" t="n">
-        <v>0.354642</v>
+        <v>0.345914</v>
       </c>
     </row>
     <row r="3">
@@ -9386,13 +9386,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.519841</v>
+        <v>0.5075809999999999</v>
       </c>
       <c r="C3" t="n">
-        <v>0.458805</v>
+        <v>0.375816</v>
       </c>
       <c r="D3" t="n">
-        <v>0.35886</v>
+        <v>0.352129</v>
       </c>
     </row>
     <row r="4">
@@ -9400,13 +9400,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.521962</v>
+        <v>0.51318</v>
       </c>
       <c r="C4" t="n">
-        <v>0.466967</v>
+        <v>0.380364</v>
       </c>
       <c r="D4" t="n">
-        <v>0.359397</v>
+        <v>0.354873</v>
       </c>
     </row>
     <row r="5">
@@ -9414,13 +9414,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.531571</v>
+        <v>0.526719</v>
       </c>
       <c r="C5" t="n">
-        <v>0.469889</v>
+        <v>0.384042</v>
       </c>
       <c r="D5" t="n">
-        <v>0.365605</v>
+        <v>0.358797</v>
       </c>
     </row>
     <row r="6">
@@ -9428,13 +9428,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.543313</v>
+        <v>0.532442</v>
       </c>
       <c r="C6" t="n">
-        <v>0.470783</v>
+        <v>0.386654</v>
       </c>
       <c r="D6" t="n">
-        <v>0.370537</v>
+        <v>0.366297</v>
       </c>
     </row>
     <row r="7">
@@ -9442,13 +9442,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.550289</v>
+        <v>0.544668</v>
       </c>
       <c r="C7" t="n">
-        <v>0.491566</v>
+        <v>0.401036</v>
       </c>
       <c r="D7" t="n">
-        <v>0.381807</v>
+        <v>0.376842</v>
       </c>
     </row>
     <row r="8">
@@ -9456,13 +9456,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.5589190000000001</v>
+        <v>0.548979</v>
       </c>
       <c r="C8" t="n">
-        <v>0.495771</v>
+        <v>0.405596</v>
       </c>
       <c r="D8" t="n">
-        <v>0.382095</v>
+        <v>0.378821</v>
       </c>
     </row>
     <row r="9">
@@ -9470,13 +9470,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.554084</v>
+        <v>0.551493</v>
       </c>
       <c r="C9" t="n">
-        <v>0.503621</v>
+        <v>0.415236</v>
       </c>
       <c r="D9" t="n">
-        <v>0.391356</v>
+        <v>0.384117</v>
       </c>
     </row>
     <row r="10">
@@ -9484,13 +9484,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.5682700000000001</v>
+        <v>0.56714</v>
       </c>
       <c r="C10" t="n">
-        <v>0.505549</v>
+        <v>0.415644</v>
       </c>
       <c r="D10" t="n">
-        <v>0.392332</v>
+        <v>0.389808</v>
       </c>
     </row>
     <row r="11">
@@ -9498,13 +9498,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.572296</v>
+        <v>0.572086</v>
       </c>
       <c r="C11" t="n">
-        <v>0.5013570000000001</v>
+        <v>0.415902</v>
       </c>
       <c r="D11" t="n">
-        <v>0.395567</v>
+        <v>0.395105</v>
       </c>
     </row>
     <row r="12">
@@ -9512,13 +9512,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.581471</v>
+        <v>0.5835630000000001</v>
       </c>
       <c r="C12" t="n">
-        <v>0.507826</v>
+        <v>0.422141</v>
       </c>
       <c r="D12" t="n">
-        <v>0.403242</v>
+        <v>0.404068</v>
       </c>
     </row>
     <row r="13">
@@ -9526,13 +9526,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.5935</v>
+        <v>0.5958329999999999</v>
       </c>
       <c r="C13" t="n">
-        <v>0.511356</v>
+        <v>0.423701</v>
       </c>
       <c r="D13" t="n">
-        <v>0.403287</v>
+        <v>0.406505</v>
       </c>
     </row>
     <row r="14">
@@ -9540,13 +9540,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.594262</v>
+        <v>0.596714</v>
       </c>
       <c r="C14" t="n">
-        <v>0.513652</v>
+        <v>0.424099</v>
       </c>
       <c r="D14" t="n">
-        <v>0.410348</v>
+        <v>0.412864</v>
       </c>
     </row>
     <row r="15">
@@ -9554,13 +9554,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.604824</v>
+        <v>0.604007</v>
       </c>
       <c r="C15" t="n">
-        <v>0.514495</v>
+        <v>0.42662</v>
       </c>
       <c r="D15" t="n">
-        <v>0.417199</v>
+        <v>0.41927</v>
       </c>
     </row>
     <row r="16">
@@ -9568,13 +9568,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.615783</v>
+        <v>0.616795</v>
       </c>
       <c r="C16" t="n">
-        <v>0.521153</v>
+        <v>0.430899</v>
       </c>
       <c r="D16" t="n">
-        <v>0.419746</v>
+        <v>0.42242</v>
       </c>
     </row>
     <row r="17">
@@ -9582,13 +9582,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.626619</v>
+        <v>0.6242180000000001</v>
       </c>
       <c r="C17" t="n">
-        <v>0.527501</v>
+        <v>0.43556</v>
       </c>
       <c r="D17" t="n">
-        <v>0.425522</v>
+        <v>0.427053</v>
       </c>
     </row>
     <row r="18">
@@ -9596,13 +9596,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.643597</v>
+        <v>0.622583</v>
       </c>
       <c r="C18" t="n">
-        <v>0.527739</v>
+        <v>0.43677</v>
       </c>
       <c r="D18" t="n">
-        <v>0.433089</v>
+        <v>0.432542</v>
       </c>
     </row>
     <row r="19">
@@ -9610,13 +9610,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.654447</v>
+        <v>0.652994</v>
       </c>
       <c r="C19" t="n">
-        <v>0.529128</v>
+        <v>0.443002</v>
       </c>
       <c r="D19" t="n">
-        <v>0.436093</v>
+        <v>0.438582</v>
       </c>
     </row>
     <row r="20">
@@ -9624,13 +9624,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.664737</v>
+        <v>0.66156</v>
       </c>
       <c r="C20" t="n">
-        <v>0.54172</v>
+        <v>0.453286</v>
       </c>
       <c r="D20" t="n">
-        <v>0.442509</v>
+        <v>0.444464</v>
       </c>
     </row>
     <row r="21">
@@ -9638,13 +9638,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.675143</v>
+        <v>0.671965</v>
       </c>
       <c r="C21" t="n">
-        <v>0.553607</v>
+        <v>0.460599</v>
       </c>
       <c r="D21" t="n">
-        <v>0.448913</v>
+        <v>0.452949</v>
       </c>
     </row>
     <row r="22">
@@ -9652,13 +9652,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.681844</v>
+        <v>0.6775600000000001</v>
       </c>
       <c r="C22" t="n">
-        <v>0.55947</v>
+        <v>0.465723</v>
       </c>
       <c r="D22" t="n">
-        <v>0.453879</v>
+        <v>0.457298</v>
       </c>
     </row>
     <row r="23">
@@ -9666,13 +9666,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.689053</v>
+        <v>0.686902</v>
       </c>
       <c r="C23" t="n">
-        <v>0.558361</v>
+        <v>0.466225</v>
       </c>
       <c r="D23" t="n">
-        <v>0.459804</v>
+        <v>0.461586</v>
       </c>
     </row>
     <row r="24">
@@ -9680,13 +9680,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.6932970000000001</v>
+        <v>0.690374</v>
       </c>
       <c r="C24" t="n">
-        <v>0.563217</v>
+        <v>0.471495</v>
       </c>
       <c r="D24" t="n">
-        <v>0.465453</v>
+        <v>0.466699</v>
       </c>
     </row>
     <row r="25">
@@ -9694,13 +9694,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.703576</v>
+        <v>0.69959</v>
       </c>
       <c r="C25" t="n">
-        <v>0.572695</v>
+        <v>0.479442</v>
       </c>
       <c r="D25" t="n">
-        <v>0.46929</v>
+        <v>0.471056</v>
       </c>
     </row>
     <row r="26">
@@ -9708,13 +9708,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.7098139999999999</v>
+        <v>0.706896</v>
       </c>
       <c r="C26" t="n">
-        <v>0.566976</v>
+        <v>0.47536</v>
       </c>
       <c r="D26" t="n">
-        <v>0.47286</v>
+        <v>0.475307</v>
       </c>
     </row>
     <row r="27">
@@ -9722,13 +9722,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.720868</v>
+        <v>0.717062</v>
       </c>
       <c r="C27" t="n">
-        <v>0.576639</v>
+        <v>0.481716</v>
       </c>
       <c r="D27" t="n">
-        <v>0.476356</v>
+        <v>0.478754</v>
       </c>
     </row>
     <row r="28">
@@ -9736,13 +9736,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.722615</v>
+        <v>0.7201610000000001</v>
       </c>
       <c r="C28" t="n">
-        <v>0.580995</v>
+        <v>0.486961</v>
       </c>
       <c r="D28" t="n">
-        <v>0.481021</v>
+        <v>0.483574</v>
       </c>
     </row>
     <row r="29">
@@ -9750,13 +9750,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.7367899999999999</v>
+        <v>0.731765</v>
       </c>
       <c r="C29" t="n">
-        <v>0.583747</v>
+        <v>0.49036</v>
       </c>
       <c r="D29" t="n">
-        <v>0.485406</v>
+        <v>0.488726</v>
       </c>
     </row>
     <row r="30">
@@ -9764,13 +9764,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.73866</v>
+        <v>0.734986</v>
       </c>
       <c r="C30" t="n">
-        <v>0.587818</v>
+        <v>0.492704</v>
       </c>
       <c r="D30" t="n">
-        <v>0.489245</v>
+        <v>0.491503</v>
       </c>
     </row>
     <row r="31">
@@ -9778,13 +9778,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.748726</v>
+        <v>0.741573</v>
       </c>
       <c r="C31" t="n">
-        <v>0.587342</v>
+        <v>0.494409</v>
       </c>
       <c r="D31" t="n">
-        <v>0.49424</v>
+        <v>0.49713</v>
       </c>
     </row>
     <row r="32">
@@ -9792,13 +9792,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.741999</v>
+        <v>0.737787</v>
       </c>
       <c r="C32" t="n">
-        <v>0.590925</v>
+        <v>0.498286</v>
       </c>
       <c r="D32" t="n">
-        <v>0.494506</v>
+        <v>0.498039</v>
       </c>
     </row>
     <row r="33">
@@ -9806,13 +9806,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.7466120000000001</v>
+        <v>0.744353</v>
       </c>
       <c r="C33" t="n">
-        <v>0.594737</v>
+        <v>0.503295</v>
       </c>
       <c r="D33" t="n">
-        <v>0.499818</v>
+        <v>0.502646</v>
       </c>
     </row>
     <row r="34">
@@ -9820,13 +9820,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.759013</v>
+        <v>0.755441</v>
       </c>
       <c r="C34" t="n">
-        <v>0.602104</v>
+        <v>0.509124</v>
       </c>
       <c r="D34" t="n">
-        <v>0.501758</v>
+        <v>0.505018</v>
       </c>
     </row>
     <row r="35">
@@ -9834,13 +9834,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.761747</v>
+        <v>0.756168</v>
       </c>
       <c r="C35" t="n">
-        <v>0.593113</v>
+        <v>0.49218</v>
       </c>
       <c r="D35" t="n">
-        <v>0.506125</v>
+        <v>0.508732</v>
       </c>
     </row>
     <row r="36">
@@ -9848,13 +9848,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.770826</v>
+        <v>0.76024</v>
       </c>
       <c r="C36" t="n">
-        <v>0.594774</v>
+        <v>0.496095</v>
       </c>
       <c r="D36" t="n">
-        <v>0.509832</v>
+        <v>0.512633</v>
       </c>
     </row>
     <row r="37">
@@ -9862,13 +9862,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.774071</v>
+        <v>0.769091</v>
       </c>
       <c r="C37" t="n">
-        <v>0.598974</v>
+        <v>0.49908</v>
       </c>
       <c r="D37" t="n">
-        <v>0.5116849999999999</v>
+        <v>0.514263</v>
       </c>
     </row>
     <row r="38">
@@ -9876,13 +9876,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.777541</v>
+        <v>0.771072</v>
       </c>
       <c r="C38" t="n">
-        <v>0.598947</v>
+        <v>0.498089</v>
       </c>
       <c r="D38" t="n">
-        <v>0.515602</v>
+        <v>0.518474</v>
       </c>
     </row>
     <row r="39">
@@ -9890,13 +9890,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.7820780000000001</v>
+        <v>0.747807</v>
       </c>
       <c r="C39" t="n">
-        <v>0.602116</v>
+        <v>0.50349</v>
       </c>
       <c r="D39" t="n">
-        <v>0.51894</v>
+        <v>0.519801</v>
       </c>
     </row>
     <row r="40">
@@ -9904,13 +9904,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.7878309999999999</v>
+        <v>0.784756</v>
       </c>
       <c r="C40" t="n">
-        <v>0.604617</v>
+        <v>0.505729</v>
       </c>
       <c r="D40" t="n">
-        <v>0.5200129999999999</v>
+        <v>0.52341</v>
       </c>
     </row>
     <row r="41">
@@ -9918,13 +9918,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.795351</v>
+        <v>0.791911</v>
       </c>
       <c r="C41" t="n">
-        <v>0.605293</v>
+        <v>0.507696</v>
       </c>
       <c r="D41" t="n">
-        <v>0.521674</v>
+        <v>0.524737</v>
       </c>
     </row>
     <row r="42">
@@ -9932,13 +9932,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.799908</v>
+        <v>0.7985719999999999</v>
       </c>
       <c r="C42" t="n">
-        <v>0.604275</v>
+        <v>0.507887</v>
       </c>
       <c r="D42" t="n">
-        <v>0.525127</v>
+        <v>0.528182</v>
       </c>
     </row>
     <row r="43">
@@ -9946,13 +9946,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.806364</v>
+        <v>0.802091</v>
       </c>
       <c r="C43" t="n">
-        <v>0.606263</v>
+        <v>0.509502</v>
       </c>
       <c r="D43" t="n">
-        <v>0.528133</v>
+        <v>0.530502</v>
       </c>
     </row>
     <row r="44">
@@ -9960,13 +9960,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.805377</v>
+        <v>0.804599</v>
       </c>
       <c r="C44" t="n">
-        <v>0.608254</v>
+        <v>0.511726</v>
       </c>
       <c r="D44" t="n">
-        <v>0.528357</v>
+        <v>0.531597</v>
       </c>
     </row>
     <row r="45">
@@ -9974,13 +9974,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.812897</v>
+        <v>0.812416</v>
       </c>
       <c r="C45" t="n">
-        <v>0.60984</v>
+        <v>0.51341</v>
       </c>
       <c r="D45" t="n">
-        <v>0.530548</v>
+        <v>0.533299</v>
       </c>
     </row>
     <row r="46">
@@ -9988,13 +9988,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.815161</v>
+        <v>0.8129</v>
       </c>
       <c r="C46" t="n">
-        <v>0.611567</v>
+        <v>0.514983</v>
       </c>
       <c r="D46" t="n">
-        <v>0.533212</v>
+        <v>0.535668</v>
       </c>
     </row>
     <row r="47">
@@ -10002,13 +10002,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.794387</v>
+        <v>0.7915759999999999</v>
       </c>
       <c r="C47" t="n">
-        <v>0.610476</v>
+        <v>0.514594</v>
       </c>
       <c r="D47" t="n">
-        <v>0.5345490000000001</v>
+        <v>0.5385720000000001</v>
       </c>
     </row>
     <row r="48">
@@ -10016,13 +10016,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.800022</v>
+        <v>0.799813</v>
       </c>
       <c r="C48" t="n">
-        <v>0.617041</v>
+        <v>0.521474</v>
       </c>
       <c r="D48" t="n">
-        <v>0.5367150000000001</v>
+        <v>0.539574</v>
       </c>
     </row>
     <row r="49">
@@ -10030,13 +10030,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.802836</v>
+        <v>0.799323</v>
       </c>
       <c r="C49" t="n">
-        <v>0.61894</v>
+        <v>0.523415</v>
       </c>
       <c r="D49" t="n">
-        <v>0.538333</v>
+        <v>0.5413210000000001</v>
       </c>
     </row>
     <row r="50">
@@ -10044,13 +10044,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.807441</v>
+        <v>0.8035330000000001</v>
       </c>
       <c r="C50" t="n">
-        <v>0.616967</v>
+        <v>0.521888</v>
       </c>
       <c r="D50" t="n">
-        <v>0.537527</v>
+        <v>0.542127</v>
       </c>
     </row>
     <row r="51">
@@ -10058,13 +10058,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.80892</v>
+        <v>0.805378</v>
       </c>
       <c r="C51" t="n">
-        <v>0.616768</v>
+        <v>0.521906</v>
       </c>
       <c r="D51" t="n">
-        <v>0.53683</v>
+        <v>0.544019</v>
       </c>
     </row>
     <row r="52">
@@ -10072,13 +10072,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.812011</v>
+        <v>0.808669</v>
       </c>
       <c r="C52" t="n">
-        <v>0.623321</v>
+        <v>0.527458</v>
       </c>
       <c r="D52" t="n">
-        <v>0.5412940000000001</v>
+        <v>0.544619</v>
       </c>
     </row>
     <row r="53">
@@ -10086,13 +10086,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.817014</v>
+        <v>0.813483</v>
       </c>
       <c r="C53" t="n">
-        <v>0.626687</v>
+        <v>0.528886</v>
       </c>
       <c r="D53" t="n">
-        <v>0.544077</v>
+        <v>0.54776</v>
       </c>
     </row>
     <row r="54">
@@ -10100,13 +10100,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.820021</v>
+        <v>0.81759</v>
       </c>
       <c r="C54" t="n">
-        <v>0.625628</v>
+        <v>0.532629</v>
       </c>
       <c r="D54" t="n">
-        <v>0.545378</v>
+        <v>0.548594</v>
       </c>
     </row>
     <row r="55">
@@ -10114,13 +10114,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.823342</v>
+        <v>0.821491</v>
       </c>
       <c r="C55" t="n">
-        <v>0.627043</v>
+        <v>0.536909</v>
       </c>
       <c r="D55" t="n">
-        <v>0.54573</v>
+        <v>0.551617</v>
       </c>
     </row>
     <row r="56">
@@ -10128,13 +10128,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.827745</v>
+        <v>0.825755</v>
       </c>
       <c r="C56" t="n">
-        <v>0.628003</v>
+        <v>0.538582</v>
       </c>
       <c r="D56" t="n">
-        <v>0.5464909999999999</v>
+        <v>0.551664</v>
       </c>
     </row>
     <row r="57">
@@ -10142,13 +10142,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.833193</v>
+        <v>0.831409</v>
       </c>
       <c r="C57" t="n">
-        <v>0.638392</v>
+        <v>0.545868</v>
       </c>
       <c r="D57" t="n">
-        <v>0.54932</v>
+        <v>0.552621</v>
       </c>
     </row>
     <row r="58">
@@ -10156,13 +10156,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.832989</v>
+        <v>0.829724</v>
       </c>
       <c r="C58" t="n">
-        <v>0.642134</v>
+        <v>0.553916</v>
       </c>
       <c r="D58" t="n">
-        <v>0.550488</v>
+        <v>0.554961</v>
       </c>
     </row>
     <row r="59">
@@ -10170,13 +10170,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.837731</v>
+        <v>0.835394</v>
       </c>
       <c r="C59" t="n">
-        <v>0.645358</v>
+        <v>0.563352</v>
       </c>
       <c r="D59" t="n">
-        <v>0.5524019999999999</v>
+        <v>0.555607</v>
       </c>
     </row>
     <row r="60">
@@ -10184,13 +10184,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.843868</v>
+        <v>0.841509</v>
       </c>
       <c r="C60" t="n">
-        <v>0.652228</v>
+        <v>0.569733</v>
       </c>
       <c r="D60" t="n">
-        <v>0.554482</v>
+        <v>0.557833</v>
       </c>
     </row>
     <row r="61">
@@ -10198,13 +10198,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.841049</v>
+        <v>0.842409</v>
       </c>
       <c r="C61" t="n">
-        <v>0.6560049999999999</v>
+        <v>0.5780149999999999</v>
       </c>
       <c r="D61" t="n">
-        <v>0.5576179999999999</v>
+        <v>0.55972</v>
       </c>
     </row>
     <row r="62">
@@ -10212,13 +10212,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.85188</v>
+        <v>0.854247</v>
       </c>
       <c r="C62" t="n">
-        <v>0.664417</v>
+        <v>0.588534</v>
       </c>
       <c r="D62" t="n">
-        <v>0.558678</v>
+        <v>0.5609730000000001</v>
       </c>
     </row>
     <row r="63">
@@ -10226,13 +10226,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.863688</v>
+        <v>0.863089</v>
       </c>
       <c r="C63" t="n">
-        <v>0.673251</v>
+        <v>0.595242</v>
       </c>
       <c r="D63" t="n">
-        <v>0.561094</v>
+        <v>0.564562</v>
       </c>
     </row>
     <row r="64">
@@ -10240,13 +10240,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.8743379999999999</v>
+        <v>0.873954</v>
       </c>
       <c r="C64" t="n">
-        <v>0.742773</v>
+        <v>0.652467</v>
       </c>
       <c r="D64" t="n">
-        <v>0.602104</v>
+        <v>0.604607</v>
       </c>
     </row>
     <row r="65">
@@ -10254,13 +10254,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.893973</v>
+        <v>0.892887</v>
       </c>
       <c r="C65" t="n">
-        <v>0.751171</v>
+        <v>0.681343</v>
       </c>
       <c r="D65" t="n">
-        <v>0.605761</v>
+        <v>0.600322</v>
       </c>
     </row>
     <row r="66">
@@ -10268,13 +10268,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.906166</v>
+        <v>0.903989</v>
       </c>
       <c r="C66" t="n">
-        <v>0.779184</v>
+        <v>0.706893</v>
       </c>
       <c r="D66" t="n">
-        <v>0.614168</v>
+        <v>0.614107</v>
       </c>
     </row>
     <row r="67">
@@ -10282,13 +10282,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.924817</v>
+        <v>0.880881</v>
       </c>
       <c r="C67" t="n">
-        <v>0.798988</v>
+        <v>0.720797</v>
       </c>
       <c r="D67" t="n">
-        <v>0.624542</v>
+        <v>0.629356</v>
       </c>
     </row>
     <row r="68">
@@ -10296,13 +10296,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.9453819999999999</v>
+        <v>0.941673</v>
       </c>
       <c r="C68" t="n">
-        <v>0.8226869999999999</v>
+        <v>0.751941</v>
       </c>
       <c r="D68" t="n">
-        <v>0.633649</v>
+        <v>0.6377119999999999</v>
       </c>
     </row>
     <row r="69">
@@ -10310,13 +10310,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.96543</v>
+        <v>0.964027</v>
       </c>
       <c r="C69" t="n">
-        <v>0.838309</v>
+        <v>0.781057</v>
       </c>
       <c r="D69" t="n">
-        <v>0.643868</v>
+        <v>0.654083</v>
       </c>
     </row>
     <row r="70">
@@ -10324,13 +10324,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.9805739999999999</v>
+        <v>0.985348</v>
       </c>
       <c r="C70" t="n">
-        <v>0.856989</v>
+        <v>0.811168</v>
       </c>
       <c r="D70" t="n">
-        <v>0.666501</v>
+        <v>0.669784</v>
       </c>
     </row>
     <row r="71">
@@ -10338,13 +10338,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>1.01594</v>
+        <v>1.01271</v>
       </c>
       <c r="C71" t="n">
-        <v>0.902014</v>
+        <v>0.84053</v>
       </c>
       <c r="D71" t="n">
-        <v>0.6759579999999999</v>
+        <v>0.680184</v>
       </c>
     </row>
     <row r="72">
@@ -10352,13 +10352,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>1.035</v>
+        <v>1.03087</v>
       </c>
       <c r="C72" t="n">
-        <v>0.946749</v>
+        <v>0.865796</v>
       </c>
       <c r="D72" t="n">
-        <v>0.731077</v>
+        <v>0.697138</v>
       </c>
     </row>
     <row r="73">
@@ -10366,13 +10366,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>1.11516</v>
+        <v>1.06124</v>
       </c>
       <c r="C73" t="n">
-        <v>0.967188</v>
+        <v>0.899666</v>
       </c>
       <c r="D73" t="n">
-        <v>0.721106</v>
+        <v>0.716475</v>
       </c>
     </row>
     <row r="74">
@@ -10380,13 +10380,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>1.10605</v>
+        <v>1.09543</v>
       </c>
       <c r="C74" t="n">
-        <v>1.00774</v>
+        <v>0.930693</v>
       </c>
       <c r="D74" t="n">
-        <v>0.757374</v>
+        <v>0.746772</v>
       </c>
     </row>
     <row r="75">
@@ -10394,13 +10394,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>1.15857</v>
+        <v>1.14245</v>
       </c>
       <c r="C75" t="n">
-        <v>1.03416</v>
+        <v>0.96395</v>
       </c>
       <c r="D75" t="n">
-        <v>0.8339</v>
+        <v>0.773069</v>
       </c>
     </row>
     <row r="76">
@@ -10408,13 +10408,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>1.38092</v>
+        <v>1.30973</v>
       </c>
       <c r="C76" t="n">
-        <v>1.0866</v>
+        <v>1.0038</v>
       </c>
       <c r="D76" t="n">
-        <v>0.844067</v>
+        <v>0.808714</v>
       </c>
     </row>
     <row r="77">
@@ -10422,13 +10422,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>1.42281</v>
+        <v>1.36917</v>
       </c>
       <c r="C77" t="n">
-        <v>1.12551</v>
+        <v>1.03523</v>
       </c>
       <c r="D77" t="n">
-        <v>0.866847</v>
+        <v>0.839524</v>
       </c>
     </row>
     <row r="78">
@@ -10436,13 +10436,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>1.49269</v>
+        <v>1.43872</v>
       </c>
       <c r="C78" t="n">
-        <v>1.33331</v>
+        <v>1.19332</v>
       </c>
       <c r="D78" t="n">
-        <v>1.01385</v>
+        <v>1.00223</v>
       </c>
     </row>
     <row r="79">
@@ -10450,13 +10450,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>1.55375</v>
+        <v>1.53433</v>
       </c>
       <c r="C79" t="n">
-        <v>1.37122</v>
+        <v>1.26954</v>
       </c>
       <c r="D79" t="n">
-        <v>1.07305</v>
+        <v>1.05792</v>
       </c>
     </row>
     <row r="80">
@@ -10464,13 +10464,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>1.63965</v>
+        <v>1.61603</v>
       </c>
       <c r="C80" t="n">
-        <v>1.40702</v>
+        <v>1.29675</v>
       </c>
       <c r="D80" t="n">
-        <v>1.09992</v>
+        <v>1.10114</v>
       </c>
     </row>
     <row r="81">
@@ -10478,13 +10478,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>1.70454</v>
+        <v>1.70099</v>
       </c>
       <c r="C81" t="n">
-        <v>1.45024</v>
+        <v>1.33077</v>
       </c>
       <c r="D81" t="n">
-        <v>1.16382</v>
+        <v>1.15656</v>
       </c>
     </row>
     <row r="82">
@@ -10492,13 +10492,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>1.81902</v>
+        <v>1.78951</v>
       </c>
       <c r="C82" t="n">
-        <v>1.48928</v>
+        <v>1.36477</v>
       </c>
       <c r="D82" t="n">
-        <v>1.22703</v>
+        <v>1.21535</v>
       </c>
     </row>
     <row r="83">
@@ -10506,13 +10506,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>1.8815</v>
+        <v>1.87556</v>
       </c>
       <c r="C83" t="n">
-        <v>1.53727</v>
+        <v>1.39693</v>
       </c>
       <c r="D83" t="n">
-        <v>1.28442</v>
+        <v>1.26967</v>
       </c>
     </row>
     <row r="84">
@@ -10520,13 +10520,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>2.01467</v>
+        <v>1.97571</v>
       </c>
       <c r="C84" t="n">
-        <v>1.57362</v>
+        <v>1.43528</v>
       </c>
       <c r="D84" t="n">
-        <v>1.33205</v>
+        <v>1.32983</v>
       </c>
     </row>
     <row r="85">
@@ -10534,13 +10534,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>2.09306</v>
+        <v>2.07078</v>
       </c>
       <c r="C85" t="n">
-        <v>1.6123</v>
+        <v>1.47476</v>
       </c>
       <c r="D85" t="n">
-        <v>1.39256</v>
+        <v>1.39308</v>
       </c>
     </row>
     <row r="86">
@@ -10548,13 +10548,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>2.20195</v>
+        <v>2.05607</v>
       </c>
       <c r="C86" t="n">
-        <v>1.65805</v>
+        <v>1.51182</v>
       </c>
       <c r="D86" t="n">
-        <v>1.45194</v>
+        <v>1.45658</v>
       </c>
     </row>
     <row r="87">
@@ -10562,13 +10562,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>2.29267</v>
+        <v>2.2683</v>
       </c>
       <c r="C87" t="n">
-        <v>1.70315</v>
+        <v>1.55514</v>
       </c>
       <c r="D87" t="n">
-        <v>1.50814</v>
+        <v>1.52028</v>
       </c>
     </row>
     <row r="88">
@@ -10576,13 +10576,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>2.37307</v>
+        <v>2.35876</v>
       </c>
       <c r="C88" t="n">
-        <v>1.73266</v>
+        <v>1.58469</v>
       </c>
       <c r="D88" t="n">
-        <v>1.56177</v>
+        <v>1.57364</v>
       </c>
     </row>
     <row r="89">
@@ -10590,13 +10590,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>2.47162</v>
+        <v>2.44777</v>
       </c>
       <c r="C89" t="n">
-        <v>1.77418</v>
+        <v>1.62902</v>
       </c>
       <c r="D89" t="n">
-        <v>1.62163</v>
+        <v>1.6269</v>
       </c>
     </row>
     <row r="90">
@@ -10604,13 +10604,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>2.67035</v>
+        <v>2.49554</v>
       </c>
       <c r="C90" t="n">
-        <v>1.81588</v>
+        <v>1.66259</v>
       </c>
       <c r="D90" t="n">
-        <v>1.67715</v>
+        <v>1.68331</v>
       </c>
     </row>
     <row r="91">
@@ -10618,13 +10618,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>2.75012</v>
+        <v>2.72385</v>
       </c>
       <c r="C91" t="n">
-        <v>1.8644</v>
+        <v>1.70846</v>
       </c>
       <c r="D91" t="n">
-        <v>1.73279</v>
+        <v>1.73976</v>
       </c>
     </row>
     <row r="92">
@@ -10632,13 +10632,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>2.83912</v>
+        <v>2.65157</v>
       </c>
       <c r="C92" t="n">
-        <v>2.04475</v>
+        <v>1.86509</v>
       </c>
       <c r="D92" t="n">
-        <v>1.85355</v>
+        <v>1.85951</v>
       </c>
     </row>
     <row r="93">
@@ -10646,13 +10646,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>2.91154</v>
+        <v>2.88795</v>
       </c>
       <c r="C93" t="n">
-        <v>2.05502</v>
+        <v>1.89421</v>
       </c>
       <c r="D93" t="n">
-        <v>1.89906</v>
+        <v>1.90242</v>
       </c>
     </row>
     <row r="94">
@@ -10660,13 +10660,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>2.99672</v>
+        <v>2.94864</v>
       </c>
       <c r="C94" t="n">
-        <v>2.0833</v>
+        <v>1.91226</v>
       </c>
       <c r="D94" t="n">
-        <v>1.94778</v>
+        <v>1.95212</v>
       </c>
     </row>
     <row r="95">
@@ -10674,13 +10674,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>3.07813</v>
+        <v>2.97174</v>
       </c>
       <c r="C95" t="n">
-        <v>2.1395</v>
+        <v>1.94147</v>
       </c>
       <c r="D95" t="n">
-        <v>1.99301</v>
+        <v>1.99882</v>
       </c>
     </row>
     <row r="96">
@@ -10688,13 +10688,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>3.15442</v>
+        <v>2.91443</v>
       </c>
       <c r="C96" t="n">
-        <v>2.16105</v>
+        <v>1.97056</v>
       </c>
       <c r="D96" t="n">
-        <v>2.03584</v>
+        <v>2.04627</v>
       </c>
     </row>
     <row r="97">
@@ -10702,13 +10702,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>3.19864</v>
+        <v>3.17353</v>
       </c>
       <c r="C97" t="n">
-        <v>2.18621</v>
+        <v>2.00934</v>
       </c>
       <c r="D97" t="n">
-        <v>2.10092</v>
+        <v>2.10397</v>
       </c>
     </row>
     <row r="98">
@@ -10716,13 +10716,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>3.31047</v>
+        <v>3.08103</v>
       </c>
       <c r="C98" t="n">
-        <v>2.23193</v>
+        <v>2.05088</v>
       </c>
       <c r="D98" t="n">
-        <v>2.14064</v>
+        <v>2.13805</v>
       </c>
     </row>
     <row r="99">
@@ -10730,13 +10730,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>3.3775</v>
+        <v>3.33397</v>
       </c>
       <c r="C99" t="n">
-        <v>2.25567</v>
+        <v>2.08107</v>
       </c>
       <c r="D99" t="n">
-        <v>2.17309</v>
+        <v>2.17756</v>
       </c>
     </row>
     <row r="100">
@@ -10744,13 +10744,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>3.44327</v>
+        <v>3.40543</v>
       </c>
       <c r="C100" t="n">
-        <v>2.29678</v>
+        <v>2.10879</v>
       </c>
       <c r="D100" t="n">
-        <v>2.20626</v>
+        <v>2.21719</v>
       </c>
     </row>
     <row r="101">
@@ -10758,13 +10758,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>3.49518</v>
+        <v>3.47426</v>
       </c>
       <c r="C101" t="n">
-        <v>2.31656</v>
+        <v>2.14566</v>
       </c>
       <c r="D101" t="n">
-        <v>2.24389</v>
+        <v>2.25383</v>
       </c>
     </row>
     <row r="102">
@@ -10772,13 +10772,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>3.56401</v>
+        <v>3.54336</v>
       </c>
       <c r="C102" t="n">
-        <v>2.34091</v>
+        <v>2.17393</v>
       </c>
       <c r="D102" t="n">
-        <v>2.28081</v>
+        <v>2.28838</v>
       </c>
     </row>
     <row r="103">
@@ -10786,13 +10786,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>3.61999</v>
+        <v>3.58196</v>
       </c>
       <c r="C103" t="n">
-        <v>2.37398</v>
+        <v>2.20729</v>
       </c>
       <c r="D103" t="n">
-        <v>2.31715</v>
+        <v>2.31509</v>
       </c>
     </row>
     <row r="104">
@@ -10800,13 +10800,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>3.69434</v>
+        <v>3.67688</v>
       </c>
       <c r="C104" t="n">
-        <v>2.40833</v>
+        <v>2.22782</v>
       </c>
       <c r="D104" t="n">
-        <v>2.3436</v>
+        <v>2.34616</v>
       </c>
     </row>
     <row r="105">
@@ -10814,13 +10814,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>3.71089</v>
+        <v>3.71673</v>
       </c>
       <c r="C105" t="n">
-        <v>2.42603</v>
+        <v>2.27606</v>
       </c>
       <c r="D105" t="n">
-        <v>2.3773</v>
+        <v>2.39156</v>
       </c>
     </row>
     <row r="106">
@@ -10828,13 +10828,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>3.77428</v>
+        <v>3.77921</v>
       </c>
       <c r="C106" t="n">
-        <v>2.46328</v>
+        <v>2.30318</v>
       </c>
       <c r="D106" t="n">
-        <v>2.40856</v>
+        <v>2.42193</v>
       </c>
     </row>
     <row r="107">
@@ -10842,13 +10842,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>3.82135</v>
+        <v>3.83004</v>
       </c>
       <c r="C107" t="n">
-        <v>2.54685</v>
+        <v>2.35453</v>
       </c>
       <c r="D107" t="n">
-        <v>2.48306</v>
+        <v>2.46537</v>
       </c>
     </row>
     <row r="108">
@@ -10856,13 +10856,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>3.86165</v>
+        <v>3.84504</v>
       </c>
       <c r="C108" t="n">
-        <v>2.5382</v>
+        <v>2.3692</v>
       </c>
       <c r="D108" t="n">
-        <v>2.49794</v>
+        <v>2.51225</v>
       </c>
     </row>
     <row r="109">
@@ -10870,13 +10870,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>3.91731</v>
+        <v>3.89472</v>
       </c>
       <c r="C109" t="n">
-        <v>2.59206</v>
+        <v>2.39574</v>
       </c>
       <c r="D109" t="n">
-        <v>2.5436</v>
+        <v>2.53941</v>
       </c>
     </row>
     <row r="110">
@@ -10884,13 +10884,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>3.96855</v>
+        <v>3.92527</v>
       </c>
       <c r="C110" t="n">
-        <v>2.61495</v>
+        <v>2.4143</v>
       </c>
       <c r="D110" t="n">
-        <v>2.56365</v>
+        <v>2.55449</v>
       </c>
     </row>
     <row r="111">
@@ -10898,13 +10898,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>4.00808</v>
+        <v>3.95669</v>
       </c>
       <c r="C111" t="n">
-        <v>2.62871</v>
+        <v>2.42194</v>
       </c>
       <c r="D111" t="n">
-        <v>2.58652</v>
+        <v>2.59461</v>
       </c>
     </row>
     <row r="112">
@@ -10912,13 +10912,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>4.04643</v>
+        <v>3.81623</v>
       </c>
       <c r="C112" t="n">
-        <v>2.66649</v>
+        <v>2.46268</v>
       </c>
       <c r="D112" t="n">
-        <v>2.62478</v>
+        <v>2.61463</v>
       </c>
     </row>
     <row r="113">
@@ -10926,13 +10926,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>4.11093</v>
+        <v>4.0912</v>
       </c>
       <c r="C113" t="n">
-        <v>2.68332</v>
+        <v>2.48574</v>
       </c>
       <c r="D113" t="n">
-        <v>2.65274</v>
+        <v>2.63757</v>
       </c>
     </row>
     <row r="114">
@@ -10940,13 +10940,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>4.16988</v>
+        <v>4.11515</v>
       </c>
       <c r="C114" t="n">
-        <v>2.70642</v>
+        <v>2.4969</v>
       </c>
       <c r="D114" t="n">
-        <v>2.67181</v>
+        <v>2.66438</v>
       </c>
     </row>
     <row r="115">
@@ -10954,13 +10954,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>4.20112</v>
+        <v>4.17828</v>
       </c>
       <c r="C115" t="n">
-        <v>2.72041</v>
+        <v>2.52958</v>
       </c>
       <c r="D115" t="n">
-        <v>2.69649</v>
+        <v>2.68192</v>
       </c>
     </row>
     <row r="116">
@@ -10968,13 +10968,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>4.25204</v>
+        <v>4.21604</v>
       </c>
       <c r="C116" t="n">
-        <v>2.75849</v>
+        <v>2.5453</v>
       </c>
       <c r="D116" t="n">
-        <v>2.71883</v>
+        <v>2.70525</v>
       </c>
     </row>
     <row r="117">
@@ -10982,13 +10982,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>4.30372</v>
+        <v>4.26207</v>
       </c>
       <c r="C117" t="n">
-        <v>2.78479</v>
+        <v>2.5779</v>
       </c>
       <c r="D117" t="n">
-        <v>2.73953</v>
+        <v>2.72751</v>
       </c>
     </row>
     <row r="118">
@@ -10996,13 +10996,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>4.34106</v>
+        <v>4.30815</v>
       </c>
       <c r="C118" t="n">
-        <v>2.80843</v>
+        <v>2.61782</v>
       </c>
       <c r="D118" t="n">
-        <v>2.76352</v>
+        <v>2.75019</v>
       </c>
     </row>
     <row r="119">
@@ -11010,13 +11010,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>4.282</v>
+        <v>4.28549</v>
       </c>
       <c r="C119" t="n">
-        <v>2.82546</v>
+        <v>2.62947</v>
       </c>
       <c r="D119" t="n">
-        <v>2.77604</v>
+        <v>2.76435</v>
       </c>
     </row>
   </sheetData>
@@ -11064,13 +11064,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.537643</v>
+        <v>0.534518</v>
       </c>
       <c r="C2" t="n">
-        <v>0.457595</v>
+        <v>0.380431</v>
       </c>
       <c r="D2" t="n">
-        <v>0.34784</v>
+        <v>0.345098</v>
       </c>
     </row>
     <row r="3">
@@ -11078,13 +11078,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.548478</v>
+        <v>0.540338</v>
       </c>
       <c r="C3" t="n">
-        <v>0.465617</v>
+        <v>0.388359</v>
       </c>
       <c r="D3" t="n">
-        <v>0.35277</v>
+        <v>0.346959</v>
       </c>
     </row>
     <row r="4">
@@ -11092,13 +11092,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.551682</v>
+        <v>0.542673</v>
       </c>
       <c r="C4" t="n">
-        <v>0.47309</v>
+        <v>0.390829</v>
       </c>
       <c r="D4" t="n">
-        <v>0.354574</v>
+        <v>0.3485</v>
       </c>
     </row>
     <row r="5">
@@ -11106,13 +11106,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.5617799999999999</v>
+        <v>0.554133</v>
       </c>
       <c r="C5" t="n">
-        <v>0.474875</v>
+        <v>0.395463</v>
       </c>
       <c r="D5" t="n">
-        <v>0.357502</v>
+        <v>0.353999</v>
       </c>
     </row>
     <row r="6">
@@ -11120,13 +11120,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.570563</v>
+        <v>0.5641119999999999</v>
       </c>
       <c r="C6" t="n">
-        <v>0.478084</v>
+        <v>0.403208</v>
       </c>
       <c r="D6" t="n">
-        <v>0.360069</v>
+        <v>0.355307</v>
       </c>
     </row>
     <row r="7">
@@ -11134,13 +11134,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.581559</v>
+        <v>0.574909</v>
       </c>
       <c r="C7" t="n">
-        <v>0.490261</v>
+        <v>0.411853</v>
       </c>
       <c r="D7" t="n">
-        <v>0.368348</v>
+        <v>0.364311</v>
       </c>
     </row>
     <row r="8">
@@ -11148,13 +11148,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.590242</v>
+        <v>0.580862</v>
       </c>
       <c r="C8" t="n">
-        <v>0.492771</v>
+        <v>0.416607</v>
       </c>
       <c r="D8" t="n">
-        <v>0.370385</v>
+        <v>0.366477</v>
       </c>
     </row>
     <row r="9">
@@ -11162,13 +11162,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.59935</v>
+        <v>0.591093</v>
       </c>
       <c r="C9" t="n">
-        <v>0.503342</v>
+        <v>0.426882</v>
       </c>
       <c r="D9" t="n">
-        <v>0.374367</v>
+        <v>0.370581</v>
       </c>
     </row>
     <row r="10">
@@ -11176,13 +11176,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.611553</v>
+        <v>0.605104</v>
       </c>
       <c r="C10" t="n">
-        <v>0.513107</v>
+        <v>0.439372</v>
       </c>
       <c r="D10" t="n">
-        <v>0.377444</v>
+        <v>0.376339</v>
       </c>
     </row>
     <row r="11">
@@ -11190,13 +11190,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.620663</v>
+        <v>0.61387</v>
       </c>
       <c r="C11" t="n">
-        <v>0.505928</v>
+        <v>0.41991</v>
       </c>
       <c r="D11" t="n">
-        <v>0.383407</v>
+        <v>0.382556</v>
       </c>
     </row>
     <row r="12">
@@ -11204,13 +11204,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.601459</v>
+        <v>0.599066</v>
       </c>
       <c r="C12" t="n">
-        <v>0.507997</v>
+        <v>0.424659</v>
       </c>
       <c r="D12" t="n">
-        <v>0.389696</v>
+        <v>0.388385</v>
       </c>
     </row>
     <row r="13">
@@ -11218,13 +11218,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.611495</v>
+        <v>0.609654</v>
       </c>
       <c r="C13" t="n">
-        <v>0.512642</v>
+        <v>0.431525</v>
       </c>
       <c r="D13" t="n">
-        <v>0.391498</v>
+        <v>0.391916</v>
       </c>
     </row>
     <row r="14">
@@ -11232,13 +11232,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.622126</v>
+        <v>0.620461</v>
       </c>
       <c r="C14" t="n">
-        <v>0.522777</v>
+        <v>0.440016</v>
       </c>
       <c r="D14" t="n">
-        <v>0.397216</v>
+        <v>0.3983</v>
       </c>
     </row>
     <row r="15">
@@ -11246,13 +11246,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.635783</v>
+        <v>0.634481</v>
       </c>
       <c r="C15" t="n">
-        <v>0.527774</v>
+        <v>0.448584</v>
       </c>
       <c r="D15" t="n">
-        <v>0.403097</v>
+        <v>0.404088</v>
       </c>
     </row>
     <row r="16">
@@ -11260,13 +11260,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.64706</v>
+        <v>0.64606</v>
       </c>
       <c r="C16" t="n">
-        <v>0.534012</v>
+        <v>0.456453</v>
       </c>
       <c r="D16" t="n">
-        <v>0.408245</v>
+        <v>0.409998</v>
       </c>
     </row>
     <row r="17">
@@ -11274,13 +11274,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.658049</v>
+        <v>0.657034</v>
       </c>
       <c r="C17" t="n">
-        <v>0.542591</v>
+        <v>0.464814</v>
       </c>
       <c r="D17" t="n">
-        <v>0.413676</v>
+        <v>0.416388</v>
       </c>
     </row>
     <row r="18">
@@ -11288,13 +11288,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.673323</v>
+        <v>0.6598619999999999</v>
       </c>
       <c r="C18" t="n">
-        <v>0.543781</v>
+        <v>0.467898</v>
       </c>
       <c r="D18" t="n">
-        <v>0.421094</v>
+        <v>0.424323</v>
       </c>
     </row>
     <row r="19">
@@ -11302,13 +11302,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.687346</v>
+        <v>0.685218</v>
       </c>
       <c r="C19" t="n">
-        <v>0.563237</v>
+        <v>0.484669</v>
       </c>
       <c r="D19" t="n">
-        <v>0.42553</v>
+        <v>0.427652</v>
       </c>
     </row>
     <row r="20">
@@ -11316,13 +11316,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.7007409999999999</v>
+        <v>0.699751</v>
       </c>
       <c r="C20" t="n">
-        <v>0.565728</v>
+        <v>0.491759</v>
       </c>
       <c r="D20" t="n">
-        <v>0.431728</v>
+        <v>0.435336</v>
       </c>
     </row>
     <row r="21">
@@ -11330,13 +11330,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.712979</v>
+        <v>0.7098370000000001</v>
       </c>
       <c r="C21" t="n">
-        <v>0.5807909999999999</v>
+        <v>0.505995</v>
       </c>
       <c r="D21" t="n">
-        <v>0.437745</v>
+        <v>0.439983</v>
       </c>
     </row>
     <row r="22">
@@ -11344,13 +11344,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.721591</v>
+        <v>0.721955</v>
       </c>
       <c r="C22" t="n">
-        <v>0.586493</v>
+        <v>0.510408</v>
       </c>
       <c r="D22" t="n">
-        <v>0.442989</v>
+        <v>0.446108</v>
       </c>
     </row>
     <row r="23">
@@ -11358,13 +11358,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.743297</v>
+        <v>0.741802</v>
       </c>
       <c r="C23" t="n">
-        <v>0.5991880000000001</v>
+        <v>0.524611</v>
       </c>
       <c r="D23" t="n">
-        <v>0.447777</v>
+        <v>0.450977</v>
       </c>
     </row>
     <row r="24">
@@ -11372,13 +11372,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.756054</v>
+        <v>0.753424</v>
       </c>
       <c r="C24" t="n">
-        <v>0.603963</v>
+        <v>0.529788</v>
       </c>
       <c r="D24" t="n">
-        <v>0.453331</v>
+        <v>0.455698</v>
       </c>
     </row>
     <row r="25">
@@ -11386,13 +11386,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.775227</v>
+        <v>0.772796</v>
       </c>
       <c r="C25" t="n">
-        <v>0.621868</v>
+        <v>0.54855</v>
       </c>
       <c r="D25" t="n">
-        <v>0.458872</v>
+        <v>0.462709</v>
       </c>
     </row>
     <row r="26">
@@ -11400,13 +11400,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.793015</v>
+        <v>0.791551</v>
       </c>
       <c r="C26" t="n">
-        <v>0.5741540000000001</v>
+        <v>0.490989</v>
       </c>
       <c r="D26" t="n">
-        <v>0.465944</v>
+        <v>0.468635</v>
       </c>
     </row>
     <row r="27">
@@ -11414,13 +11414,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.7490520000000001</v>
+        <v>0.746299</v>
       </c>
       <c r="C27" t="n">
-        <v>0.576037</v>
+        <v>0.495266</v>
       </c>
       <c r="D27" t="n">
-        <v>0.468868</v>
+        <v>0.473216</v>
       </c>
     </row>
     <row r="28">
@@ -11428,13 +11428,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.759334</v>
+        <v>0.756691</v>
       </c>
       <c r="C28" t="n">
-        <v>0.5838100000000001</v>
+        <v>0.501872</v>
       </c>
       <c r="D28" t="n">
-        <v>0.475625</v>
+        <v>0.479186</v>
       </c>
     </row>
     <row r="29">
@@ -11442,13 +11442,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.768306</v>
+        <v>0.766409</v>
       </c>
       <c r="C29" t="n">
-        <v>0.588332</v>
+        <v>0.506417</v>
       </c>
       <c r="D29" t="n">
-        <v>0.479692</v>
+        <v>0.481094</v>
       </c>
     </row>
     <row r="30">
@@ -11456,13 +11456,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.780378</v>
+        <v>0.777231</v>
       </c>
       <c r="C30" t="n">
-        <v>0.596044</v>
+        <v>0.515027</v>
       </c>
       <c r="D30" t="n">
-        <v>0.484032</v>
+        <v>0.487007</v>
       </c>
     </row>
     <row r="31">
@@ -11470,13 +11470,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.793262</v>
+        <v>0.7899659999999999</v>
       </c>
       <c r="C31" t="n">
-        <v>0.603319</v>
+        <v>0.523934</v>
       </c>
       <c r="D31" t="n">
-        <v>0.487487</v>
+        <v>0.488997</v>
       </c>
     </row>
     <row r="32">
@@ -11484,13 +11484,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.807948</v>
+        <v>0.802411</v>
       </c>
       <c r="C32" t="n">
-        <v>0.609392</v>
+        <v>0.52982</v>
       </c>
       <c r="D32" t="n">
-        <v>0.489324</v>
+        <v>0.495245</v>
       </c>
     </row>
     <row r="33">
@@ -11498,13 +11498,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.819258</v>
+        <v>0.813675</v>
       </c>
       <c r="C33" t="n">
-        <v>0.617583</v>
+        <v>0.537639</v>
       </c>
       <c r="D33" t="n">
-        <v>0.493028</v>
+        <v>0.498699</v>
       </c>
     </row>
     <row r="34">
@@ -11512,13 +11512,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.831247</v>
+        <v>0.826189</v>
       </c>
       <c r="C34" t="n">
-        <v>0.628067</v>
+        <v>0.550422</v>
       </c>
       <c r="D34" t="n">
-        <v>0.49717</v>
+        <v>0.501648</v>
       </c>
     </row>
     <row r="35">
@@ -11526,13 +11526,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.8455589999999999</v>
+        <v>0.8382810000000001</v>
       </c>
       <c r="C35" t="n">
-        <v>0.636922</v>
+        <v>0.559239</v>
       </c>
       <c r="D35" t="n">
-        <v>0.501906</v>
+        <v>0.505729</v>
       </c>
     </row>
     <row r="36">
@@ -11540,13 +11540,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.857403</v>
+        <v>0.851446</v>
       </c>
       <c r="C36" t="n">
-        <v>0.646138</v>
+        <v>0.568572</v>
       </c>
       <c r="D36" t="n">
-        <v>0.504466</v>
+        <v>0.510159</v>
       </c>
     </row>
     <row r="37">
@@ -11554,13 +11554,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.864878</v>
+        <v>0.861769</v>
       </c>
       <c r="C37" t="n">
-        <v>0.656351</v>
+        <v>0.579461</v>
       </c>
       <c r="D37" t="n">
-        <v>0.507257</v>
+        <v>0.511636</v>
       </c>
     </row>
     <row r="38">
@@ -11568,13 +11568,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.878519</v>
+        <v>0.871892</v>
       </c>
       <c r="C38" t="n">
-        <v>0.667414</v>
+        <v>0.59171</v>
       </c>
       <c r="D38" t="n">
-        <v>0.511096</v>
+        <v>0.5178970000000001</v>
       </c>
     </row>
     <row r="39">
@@ -11582,13 +11582,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.896575</v>
+        <v>0.8930709999999999</v>
       </c>
       <c r="C39" t="n">
-        <v>0.67664</v>
+        <v>0.600714</v>
       </c>
       <c r="D39" t="n">
-        <v>0.512666</v>
+        <v>0.519023</v>
       </c>
     </row>
     <row r="40">
@@ -11596,13 +11596,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.902874</v>
+        <v>0.897004</v>
       </c>
       <c r="C40" t="n">
-        <v>0.637145</v>
+        <v>0.554924</v>
       </c>
       <c r="D40" t="n">
-        <v>0.517768</v>
+        <v>0.523787</v>
       </c>
     </row>
     <row r="41">
@@ -11610,13 +11610,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.858336</v>
+        <v>0.83938</v>
       </c>
       <c r="C41" t="n">
-        <v>0.6426230000000001</v>
+        <v>0.5600619999999999</v>
       </c>
       <c r="D41" t="n">
-        <v>0.520219</v>
+        <v>0.526301</v>
       </c>
     </row>
     <row r="42">
@@ -11624,13 +11624,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.866166</v>
+        <v>0.860538</v>
       </c>
       <c r="C42" t="n">
-        <v>0.649362</v>
+        <v>0.56738</v>
       </c>
       <c r="D42" t="n">
-        <v>0.523058</v>
+        <v>0.527251</v>
       </c>
     </row>
     <row r="43">
@@ -11638,13 +11638,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.872383</v>
+        <v>0.866306</v>
       </c>
       <c r="C43" t="n">
-        <v>0.653089</v>
+        <v>0.572126</v>
       </c>
       <c r="D43" t="n">
-        <v>0.52616</v>
+        <v>0.5303020000000001</v>
       </c>
     </row>
     <row r="44">
@@ -11652,13 +11652,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.878399</v>
+        <v>0.873293</v>
       </c>
       <c r="C44" t="n">
-        <v>0.66632</v>
+        <v>0.58388</v>
       </c>
       <c r="D44" t="n">
-        <v>0.5282559999999999</v>
+        <v>0.534755</v>
       </c>
     </row>
     <row r="45">
@@ -11666,13 +11666,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.893128</v>
+        <v>0.890327</v>
       </c>
       <c r="C45" t="n">
-        <v>0.668681</v>
+        <v>0.588321</v>
       </c>
       <c r="D45" t="n">
-        <v>0.5293679999999999</v>
+        <v>0.535734</v>
       </c>
     </row>
     <row r="46">
@@ -11680,13 +11680,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.900356</v>
+        <v>0.895745</v>
       </c>
       <c r="C46" t="n">
-        <v>0.678849</v>
+        <v>0.59836</v>
       </c>
       <c r="D46" t="n">
-        <v>0.533573</v>
+        <v>0.539268</v>
       </c>
     </row>
     <row r="47">
@@ -11694,13 +11694,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.9110279999999999</v>
+        <v>0.90755</v>
       </c>
       <c r="C47" t="n">
-        <v>0.686073</v>
+        <v>0.6056049999999999</v>
       </c>
       <c r="D47" t="n">
-        <v>0.534894</v>
+        <v>0.540223</v>
       </c>
     </row>
     <row r="48">
@@ -11708,13 +11708,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.9206299999999999</v>
+        <v>0.914917</v>
       </c>
       <c r="C48" t="n">
-        <v>0.69229</v>
+        <v>0.613693</v>
       </c>
       <c r="D48" t="n">
-        <v>0.536559</v>
+        <v>0.5423519999999999</v>
       </c>
     </row>
     <row r="49">
@@ -11722,13 +11722,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.928665</v>
+        <v>0.923889</v>
       </c>
       <c r="C49" t="n">
-        <v>0.701982</v>
+        <v>0.622434</v>
       </c>
       <c r="D49" t="n">
-        <v>0.54036</v>
+        <v>0.544795</v>
       </c>
     </row>
     <row r="50">
@@ -11736,13 +11736,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.942846</v>
+        <v>0.937659</v>
       </c>
       <c r="C50" t="n">
-        <v>0.709081</v>
+        <v>0.62903</v>
       </c>
       <c r="D50" t="n">
-        <v>0.542165</v>
+        <v>0.54633</v>
       </c>
     </row>
     <row r="51">
@@ -11750,13 +11750,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.952126</v>
+        <v>0.9465479999999999</v>
       </c>
       <c r="C51" t="n">
-        <v>0.718432</v>
+        <v>0.63871</v>
       </c>
       <c r="D51" t="n">
-        <v>0.543737</v>
+        <v>0.547444</v>
       </c>
     </row>
     <row r="52">
@@ -11764,13 +11764,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.964548</v>
+        <v>0.9595399999999999</v>
       </c>
       <c r="C52" t="n">
-        <v>0.730338</v>
+        <v>0.652288</v>
       </c>
       <c r="D52" t="n">
-        <v>0.545229</v>
+        <v>0.551244</v>
       </c>
     </row>
     <row r="53">
@@ -11778,13 +11778,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.973647</v>
+        <v>0.970372</v>
       </c>
       <c r="C53" t="n">
-        <v>0.73882</v>
+        <v>0.661145</v>
       </c>
       <c r="D53" t="n">
-        <v>0.547741</v>
+        <v>0.553002</v>
       </c>
     </row>
     <row r="54">
@@ -11792,13 +11792,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.985236</v>
+        <v>0.981931</v>
       </c>
       <c r="C54" t="n">
-        <v>0.6789770000000001</v>
+        <v>0.594684</v>
       </c>
       <c r="D54" t="n">
-        <v>0.548266</v>
+        <v>0.551581</v>
       </c>
     </row>
     <row r="55">
@@ -11806,13 +11806,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>1.00065</v>
+        <v>0.994918</v>
       </c>
       <c r="C55" t="n">
-        <v>0.68679</v>
+        <v>0.601845</v>
       </c>
       <c r="D55" t="n">
-        <v>0.548623</v>
+        <v>0.553744</v>
       </c>
     </row>
     <row r="56">
@@ -11820,13 +11820,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.917357</v>
+        <v>0.916775</v>
       </c>
       <c r="C56" t="n">
-        <v>0.6928339999999999</v>
+        <v>0.610181</v>
       </c>
       <c r="D56" t="n">
-        <v>0.550053</v>
+        <v>0.554191</v>
       </c>
     </row>
     <row r="57">
@@ -11834,13 +11834,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.925637</v>
+        <v>0.920392</v>
       </c>
       <c r="C57" t="n">
-        <v>0.700327</v>
+        <v>0.617847</v>
       </c>
       <c r="D57" t="n">
-        <v>0.5521740000000001</v>
+        <v>0.556385</v>
       </c>
     </row>
     <row r="58">
@@ -11848,13 +11848,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.933983</v>
+        <v>0.930133</v>
       </c>
       <c r="C58" t="n">
-        <v>0.705941</v>
+        <v>0.627545</v>
       </c>
       <c r="D58" t="n">
-        <v>0.553474</v>
+        <v>0.558965</v>
       </c>
     </row>
     <row r="59">
@@ -11862,13 +11862,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.941536</v>
+        <v>0.937437</v>
       </c>
       <c r="C59" t="n">
-        <v>0.71252</v>
+        <v>0.633723</v>
       </c>
       <c r="D59" t="n">
-        <v>0.5553709999999999</v>
+        <v>0.56032</v>
       </c>
     </row>
     <row r="60">
@@ -11876,13 +11876,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.94775</v>
+        <v>0.945245</v>
       </c>
       <c r="C60" t="n">
-        <v>0.725288</v>
+        <v>0.643235</v>
       </c>
       <c r="D60" t="n">
-        <v>0.556705</v>
+        <v>0.559503</v>
       </c>
     </row>
     <row r="61">
@@ -11890,13 +11890,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.955415</v>
+        <v>0.951166</v>
       </c>
       <c r="C61" t="n">
-        <v>0.732397</v>
+        <v>0.652304</v>
       </c>
       <c r="D61" t="n">
-        <v>0.560185</v>
+        <v>0.562853</v>
       </c>
     </row>
     <row r="62">
@@ -11904,13 +11904,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.9612270000000001</v>
+        <v>0.961347</v>
       </c>
       <c r="C62" t="n">
-        <v>0.742723</v>
+        <v>0.66618</v>
       </c>
       <c r="D62" t="n">
-        <v>0.559377</v>
+        <v>0.563886</v>
       </c>
     </row>
     <row r="63">
@@ -11918,13 +11918,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.975399</v>
+        <v>0.970452</v>
       </c>
       <c r="C63" t="n">
-        <v>0.754761</v>
+        <v>0.678357</v>
       </c>
       <c r="D63" t="n">
-        <v>0.562601</v>
+        <v>0.563515</v>
       </c>
     </row>
     <row r="64">
@@ -11932,13 +11932,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.98214</v>
+        <v>0.978119</v>
       </c>
       <c r="C64" t="n">
-        <v>0.767588</v>
+        <v>0.694654</v>
       </c>
       <c r="D64" t="n">
-        <v>0.562067</v>
+        <v>0.5658260000000001</v>
       </c>
     </row>
     <row r="65">
@@ -11946,13 +11946,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.995093</v>
+        <v>0.993475</v>
       </c>
       <c r="C65" t="n">
-        <v>0.783392</v>
+        <v>0.712466</v>
       </c>
       <c r="D65" t="n">
-        <v>0.565357</v>
+        <v>0.567881</v>
       </c>
     </row>
     <row r="66">
@@ -11960,13 +11960,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>1.0097</v>
+        <v>1.00603</v>
       </c>
       <c r="C66" t="n">
-        <v>0.795445</v>
+        <v>0.729808</v>
       </c>
       <c r="D66" t="n">
-        <v>0.565994</v>
+        <v>0.569499</v>
       </c>
     </row>
     <row r="67">
@@ -11974,13 +11974,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>1.0209</v>
+        <v>1.01875</v>
       </c>
       <c r="C67" t="n">
-        <v>0.815204</v>
+        <v>0.755588</v>
       </c>
       <c r="D67" t="n">
-        <v>0.569855</v>
+        <v>0.5726329999999999</v>
       </c>
     </row>
     <row r="68">
@@ -11988,13 +11988,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>1.03547</v>
+        <v>1.04282</v>
       </c>
       <c r="C68" t="n">
-        <v>0.7585190000000001</v>
+        <v>0.701836</v>
       </c>
       <c r="D68" t="n">
-        <v>0.586661</v>
+        <v>0.593316</v>
       </c>
     </row>
     <row r="69">
@@ -12002,13 +12002,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>1.06867</v>
+        <v>1.07891</v>
       </c>
       <c r="C69" t="n">
-        <v>0.781794</v>
+        <v>0.730301</v>
       </c>
       <c r="D69" t="n">
-        <v>0.596186</v>
+        <v>0.598203</v>
       </c>
     </row>
     <row r="70">
@@ -12016,13 +12016,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>1.01301</v>
+        <v>0.98912</v>
       </c>
       <c r="C70" t="n">
-        <v>0.812708</v>
+        <v>0.7569669999999999</v>
       </c>
       <c r="D70" t="n">
-        <v>0.612413</v>
+        <v>0.60307</v>
       </c>
     </row>
     <row r="71">
@@ -12030,13 +12030,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>1.04235</v>
+        <v>1.00282</v>
       </c>
       <c r="C71" t="n">
-        <v>0.84122</v>
+        <v>0.783824</v>
       </c>
       <c r="D71" t="n">
-        <v>0.628953</v>
+        <v>0.611107</v>
       </c>
     </row>
     <row r="72">
@@ -12044,13 +12044,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>1.07366</v>
+        <v>1.03799</v>
       </c>
       <c r="C72" t="n">
-        <v>0.872167</v>
+        <v>0.8196909999999999</v>
       </c>
       <c r="D72" t="n">
-        <v>0.642669</v>
+        <v>0.626006</v>
       </c>
     </row>
     <row r="73">
@@ -12058,13 +12058,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>1.11104</v>
+        <v>1.0689</v>
       </c>
       <c r="C73" t="n">
-        <v>0.91168</v>
+        <v>0.857823</v>
       </c>
       <c r="D73" t="n">
-        <v>0.662942</v>
+        <v>0.642726</v>
       </c>
     </row>
     <row r="74">
@@ -12072,13 +12072,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>1.14642</v>
+        <v>1.10851</v>
       </c>
       <c r="C74" t="n">
-        <v>0.9489649999999999</v>
+        <v>0.8990629999999999</v>
       </c>
       <c r="D74" t="n">
-        <v>0.681797</v>
+        <v>0.663519</v>
       </c>
     </row>
     <row r="75">
@@ -12086,13 +12086,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>1.1886</v>
+        <v>1.14259</v>
       </c>
       <c r="C75" t="n">
-        <v>0.993487</v>
+        <v>0.938889</v>
       </c>
       <c r="D75" t="n">
-        <v>0.703308</v>
+        <v>0.682854</v>
       </c>
     </row>
     <row r="76">
@@ -12100,13 +12100,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>1.2343</v>
+        <v>1.18669</v>
       </c>
       <c r="C76" t="n">
-        <v>1.03883</v>
+        <v>0.983226</v>
       </c>
       <c r="D76" t="n">
-        <v>0.727754</v>
+        <v>0.706739</v>
       </c>
     </row>
     <row r="77">
@@ -12114,13 +12114,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>1.28556</v>
+        <v>1.23555</v>
       </c>
       <c r="C77" t="n">
-        <v>1.08452</v>
+        <v>1.02688</v>
       </c>
       <c r="D77" t="n">
-        <v>0.7574650000000001</v>
+        <v>0.730396</v>
       </c>
     </row>
     <row r="78">
@@ -12128,13 +12128,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>1.34673</v>
+        <v>1.29984</v>
       </c>
       <c r="C78" t="n">
-        <v>1.13844</v>
+        <v>1.06858</v>
       </c>
       <c r="D78" t="n">
-        <v>0.792471</v>
+        <v>0.767225</v>
       </c>
     </row>
     <row r="79">
@@ -12142,13 +12142,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>1.41106</v>
+        <v>1.36046</v>
       </c>
       <c r="C79" t="n">
-        <v>1.18853</v>
+        <v>1.11845</v>
       </c>
       <c r="D79" t="n">
-        <v>0.82439</v>
+        <v>0.803626</v>
       </c>
     </row>
     <row r="80">
@@ -12156,13 +12156,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>1.48755</v>
+        <v>1.42902</v>
       </c>
       <c r="C80" t="n">
-        <v>1.24554</v>
+        <v>1.165</v>
       </c>
       <c r="D80" t="n">
-        <v>0.866178</v>
+        <v>0.837658</v>
       </c>
     </row>
     <row r="81">
@@ -12170,13 +12170,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>1.56904</v>
+        <v>1.52269</v>
       </c>
       <c r="C81" t="n">
-        <v>1.30504</v>
+        <v>1.22762</v>
       </c>
       <c r="D81" t="n">
-        <v>0.906909</v>
+        <v>0.890468</v>
       </c>
     </row>
     <row r="82">
@@ -12184,13 +12184,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>1.64842</v>
+        <v>1.61048</v>
       </c>
       <c r="C82" t="n">
-        <v>1.3639</v>
+        <v>1.28445</v>
       </c>
       <c r="D82" t="n">
-        <v>0.950197</v>
+        <v>0.939784</v>
       </c>
     </row>
     <row r="83">
@@ -12198,13 +12198,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>1.7531</v>
+        <v>1.72152</v>
       </c>
       <c r="C83" t="n">
-        <v>1.35922</v>
+        <v>1.2639</v>
       </c>
       <c r="D83" t="n">
-        <v>1.06527</v>
+        <v>1.06435</v>
       </c>
     </row>
     <row r="84">
@@ -12212,13 +12212,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>1.86506</v>
+        <v>1.83277</v>
       </c>
       <c r="C84" t="n">
-        <v>1.4186</v>
+        <v>1.31824</v>
       </c>
       <c r="D84" t="n">
-        <v>1.12479</v>
+        <v>1.11874</v>
       </c>
     </row>
     <row r="85">
@@ -12226,13 +12226,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>1.90116</v>
+        <v>1.85565</v>
       </c>
       <c r="C85" t="n">
-        <v>1.47415</v>
+        <v>1.37384</v>
       </c>
       <c r="D85" t="n">
-        <v>1.18199</v>
+        <v>1.18256</v>
       </c>
     </row>
     <row r="86">
@@ -12240,13 +12240,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>2.0039</v>
+        <v>1.87622</v>
       </c>
       <c r="C86" t="n">
-        <v>1.54028</v>
+        <v>1.44398</v>
       </c>
       <c r="D86" t="n">
-        <v>1.23893</v>
+        <v>1.24308</v>
       </c>
     </row>
     <row r="87">
@@ -12254,13 +12254,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>2.10879</v>
+        <v>2.07367</v>
       </c>
       <c r="C87" t="n">
-        <v>1.603</v>
+        <v>1.50745</v>
       </c>
       <c r="D87" t="n">
-        <v>1.30036</v>
+        <v>1.308</v>
       </c>
     </row>
     <row r="88">
@@ -12268,13 +12268,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>2.21848</v>
+        <v>2.19724</v>
       </c>
       <c r="C88" t="n">
-        <v>1.67848</v>
+        <v>1.57763</v>
       </c>
       <c r="D88" t="n">
-        <v>1.35642</v>
+        <v>1.3683</v>
       </c>
     </row>
     <row r="89">
@@ -12282,13 +12282,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>2.34101</v>
+        <v>2.29516</v>
       </c>
       <c r="C89" t="n">
-        <v>1.74905</v>
+        <v>1.64761</v>
       </c>
       <c r="D89" t="n">
-        <v>1.41004</v>
+        <v>1.42749</v>
       </c>
     </row>
     <row r="90">
@@ -12296,13 +12296,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>2.45239</v>
+        <v>2.33115</v>
       </c>
       <c r="C90" t="n">
-        <v>1.8261</v>
+        <v>1.72417</v>
       </c>
       <c r="D90" t="n">
-        <v>1.47403</v>
+        <v>1.48822</v>
       </c>
     </row>
     <row r="91">
@@ -12310,13 +12310,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>2.5765</v>
+        <v>2.5554</v>
       </c>
       <c r="C91" t="n">
-        <v>1.91176</v>
+        <v>1.8092</v>
       </c>
       <c r="D91" t="n">
-        <v>1.53378</v>
+        <v>1.54846</v>
       </c>
     </row>
     <row r="92">
@@ -12324,13 +12324,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>2.72049</v>
+        <v>2.56953</v>
       </c>
       <c r="C92" t="n">
-        <v>1.99177</v>
+        <v>1.88776</v>
       </c>
       <c r="D92" t="n">
-        <v>1.58825</v>
+        <v>1.6046</v>
       </c>
     </row>
     <row r="93">
@@ -12338,13 +12338,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>2.86592</v>
+        <v>2.81367</v>
       </c>
       <c r="C93" t="n">
-        <v>2.08019</v>
+        <v>1.97228</v>
       </c>
       <c r="D93" t="n">
-        <v>1.64495</v>
+        <v>1.66106</v>
       </c>
     </row>
     <row r="94">
@@ -12352,13 +12352,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>2.99343</v>
+        <v>2.938</v>
       </c>
       <c r="C94" t="n">
-        <v>2.17102</v>
+        <v>2.06269</v>
       </c>
       <c r="D94" t="n">
-        <v>1.69431</v>
+        <v>1.71391</v>
       </c>
     </row>
     <row r="95">
@@ -12366,13 +12366,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>3.09888</v>
+        <v>3.08045</v>
       </c>
       <c r="C95" t="n">
-        <v>2.25376</v>
+        <v>2.14967</v>
       </c>
       <c r="D95" t="n">
-        <v>1.74285</v>
+        <v>1.76411</v>
       </c>
     </row>
     <row r="96">
@@ -12380,13 +12380,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>3.27937</v>
+        <v>3.21856</v>
       </c>
       <c r="C96" t="n">
-        <v>2.3622</v>
+        <v>2.25276</v>
       </c>
       <c r="D96" t="n">
-        <v>1.79216</v>
+        <v>1.81342</v>
       </c>
     </row>
     <row r="97">
@@ -12394,13 +12394,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>3.40584</v>
+        <v>3.35229</v>
       </c>
       <c r="C97" t="n">
-        <v>2.15613</v>
+        <v>2.01995</v>
       </c>
       <c r="D97" t="n">
-        <v>1.934</v>
+        <v>1.95403</v>
       </c>
     </row>
     <row r="98">
@@ -12408,13 +12408,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>3.5399</v>
+        <v>3.36126</v>
       </c>
       <c r="C98" t="n">
-        <v>2.22588</v>
+        <v>2.092</v>
       </c>
       <c r="D98" t="n">
-        <v>1.99237</v>
+        <v>1.99827</v>
       </c>
     </row>
     <row r="99">
@@ -12422,13 +12422,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>3.40185</v>
+        <v>3.39424</v>
       </c>
       <c r="C99" t="n">
-        <v>2.28092</v>
+        <v>2.14938</v>
       </c>
       <c r="D99" t="n">
-        <v>2.02267</v>
+        <v>2.04029</v>
       </c>
     </row>
     <row r="100">
@@ -12436,13 +12436,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>3.51947</v>
+        <v>3.47489</v>
       </c>
       <c r="C100" t="n">
-        <v>2.34122</v>
+        <v>2.2032</v>
       </c>
       <c r="D100" t="n">
-        <v>2.07487</v>
+        <v>2.08208</v>
       </c>
     </row>
     <row r="101">
@@ -12450,13 +12450,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>3.62156</v>
+        <v>3.56635</v>
       </c>
       <c r="C101" t="n">
-        <v>2.40829</v>
+        <v>2.27703</v>
       </c>
       <c r="D101" t="n">
-        <v>2.10268</v>
+        <v>2.12156</v>
       </c>
     </row>
     <row r="102">
@@ -12464,13 +12464,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>3.73609</v>
+        <v>3.66446</v>
       </c>
       <c r="C102" t="n">
-        <v>2.47916</v>
+        <v>2.34233</v>
       </c>
       <c r="D102" t="n">
-        <v>2.13809</v>
+        <v>2.15818</v>
       </c>
     </row>
     <row r="103">
@@ -12478,13 +12478,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>3.83483</v>
+        <v>3.77489</v>
       </c>
       <c r="C103" t="n">
-        <v>2.55152</v>
+        <v>2.41323</v>
       </c>
       <c r="D103" t="n">
-        <v>2.18874</v>
+        <v>2.19231</v>
       </c>
     </row>
     <row r="104">
@@ -12492,13 +12492,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>3.95085</v>
+        <v>3.87511</v>
       </c>
       <c r="C104" t="n">
-        <v>2.61505</v>
+        <v>2.48153</v>
       </c>
       <c r="D104" t="n">
-        <v>2.20521</v>
+        <v>2.22588</v>
       </c>
     </row>
     <row r="105">
@@ -12506,13 +12506,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>4.02807</v>
+        <v>3.9664</v>
       </c>
       <c r="C105" t="n">
-        <v>2.68262</v>
+        <v>2.55237</v>
       </c>
       <c r="D105" t="n">
-        <v>2.2371</v>
+        <v>2.25541</v>
       </c>
     </row>
     <row r="106">
@@ -12520,13 +12520,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>4.12756</v>
+        <v>4.07463</v>
       </c>
       <c r="C106" t="n">
-        <v>2.76256</v>
+        <v>2.63424</v>
       </c>
       <c r="D106" t="n">
-        <v>2.27421</v>
+        <v>2.28767</v>
       </c>
     </row>
     <row r="107">
@@ -12534,13 +12534,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>4.21475</v>
+        <v>4.17762</v>
       </c>
       <c r="C107" t="n">
-        <v>2.84112</v>
+        <v>2.70508</v>
       </c>
       <c r="D107" t="n">
-        <v>2.30275</v>
+        <v>2.31707</v>
       </c>
     </row>
     <row r="108">
@@ -12548,13 +12548,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>4.36018</v>
+        <v>4.25622</v>
       </c>
       <c r="C108" t="n">
-        <v>2.91056</v>
+        <v>2.78627</v>
       </c>
       <c r="D108" t="n">
-        <v>2.33561</v>
+        <v>2.34629</v>
       </c>
     </row>
     <row r="109">
@@ -12562,13 +12562,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>4.47241</v>
+        <v>4.3698</v>
       </c>
       <c r="C109" t="n">
-        <v>3.00265</v>
+        <v>2.88833</v>
       </c>
       <c r="D109" t="n">
-        <v>2.3636</v>
+        <v>2.37672</v>
       </c>
     </row>
     <row r="110">
@@ -12576,13 +12576,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>4.51213</v>
+        <v>4.4938</v>
       </c>
       <c r="C110" t="n">
-        <v>3.0888</v>
+        <v>2.97019</v>
       </c>
       <c r="D110" t="n">
-        <v>2.39345</v>
+        <v>2.40261</v>
       </c>
     </row>
     <row r="111">
@@ -12590,13 +12590,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>4.68522</v>
+        <v>4.58385</v>
       </c>
       <c r="C111" t="n">
-        <v>2.75735</v>
+        <v>2.62001</v>
       </c>
       <c r="D111" t="n">
-        <v>2.50227</v>
+        <v>2.51206</v>
       </c>
     </row>
     <row r="112">
@@ -12604,13 +12604,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>4.76299</v>
+        <v>4.65043</v>
       </c>
       <c r="C112" t="n">
-        <v>2.82336</v>
+        <v>2.67335</v>
       </c>
       <c r="D112" t="n">
-        <v>2.53759</v>
+        <v>2.53902</v>
       </c>
     </row>
     <row r="113">
@@ -12618,13 +12618,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>4.89314</v>
+        <v>4.81724</v>
       </c>
       <c r="C113" t="n">
-        <v>2.88022</v>
+        <v>2.72591</v>
       </c>
       <c r="D113" t="n">
-        <v>2.57343</v>
+        <v>2.55958</v>
       </c>
     </row>
     <row r="114">
@@ -12632,13 +12632,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>4.50187</v>
+        <v>4.43437</v>
       </c>
       <c r="C114" t="n">
-        <v>2.94227</v>
+        <v>2.78669</v>
       </c>
       <c r="D114" t="n">
-        <v>2.58215</v>
+        <v>2.58211</v>
       </c>
     </row>
     <row r="115">
@@ -12646,13 +12646,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>4.59635</v>
+        <v>4.51966</v>
       </c>
       <c r="C115" t="n">
-        <v>2.99325</v>
+        <v>2.83276</v>
       </c>
       <c r="D115" t="n">
-        <v>2.60434</v>
+        <v>2.6038</v>
       </c>
     </row>
     <row r="116">
@@ -12660,13 +12660,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>4.70699</v>
+        <v>4.55773</v>
       </c>
       <c r="C116" t="n">
-        <v>3.06147</v>
+        <v>2.89749</v>
       </c>
       <c r="D116" t="n">
-        <v>2.63257</v>
+        <v>2.62925</v>
       </c>
     </row>
     <row r="117">
@@ -12674,13 +12674,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>4.73778</v>
+        <v>4.67162</v>
       </c>
       <c r="C117" t="n">
-        <v>3.12682</v>
+        <v>2.96765</v>
       </c>
       <c r="D117" t="n">
-        <v>2.65682</v>
+        <v>2.65063</v>
       </c>
     </row>
     <row r="118">
@@ -12688,13 +12688,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>4.78105</v>
+        <v>4.78121</v>
       </c>
       <c r="C118" t="n">
-        <v>3.1997</v>
+        <v>3.05314</v>
       </c>
       <c r="D118" t="n">
-        <v>2.67062</v>
+        <v>2.66928</v>
       </c>
     </row>
     <row r="119">
@@ -12702,13 +12702,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>4.94194</v>
+        <v>4.79768</v>
       </c>
       <c r="C119" t="n">
-        <v>3.27584</v>
+        <v>3.09058</v>
       </c>
       <c r="D119" t="n">
-        <v>2.70268</v>
+        <v>2.69636</v>
       </c>
     </row>
   </sheetData>

--- a/gcc/scattered erasure.xlsx
+++ b/gcc/scattered erasure.xlsx
@@ -7680,13 +7680,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.328871</v>
+        <v>0.312721</v>
       </c>
       <c r="C2" t="n">
-        <v>0.293146</v>
+        <v>0.28664</v>
       </c>
       <c r="D2" t="n">
-        <v>0.248896</v>
+        <v>0.238611</v>
       </c>
     </row>
     <row r="3">
@@ -7694,13 +7694,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.29974</v>
+        <v>0.290462</v>
       </c>
       <c r="C3" t="n">
-        <v>0.297229</v>
+        <v>0.287698</v>
       </c>
       <c r="D3" t="n">
-        <v>0.245381</v>
+        <v>0.244792</v>
       </c>
     </row>
     <row r="4">
@@ -7708,13 +7708,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.305167</v>
+        <v>0.300835</v>
       </c>
       <c r="C4" t="n">
-        <v>0.299586</v>
+        <v>0.292979</v>
       </c>
       <c r="D4" t="n">
-        <v>0.25937</v>
+        <v>0.247818</v>
       </c>
     </row>
     <row r="5">
@@ -7722,13 +7722,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.312308</v>
+        <v>0.309277</v>
       </c>
       <c r="C5" t="n">
-        <v>0.303964</v>
+        <v>0.295276</v>
       </c>
       <c r="D5" t="n">
-        <v>0.254888</v>
+        <v>0.258979</v>
       </c>
     </row>
     <row r="6">
@@ -7736,13 +7736,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.31228</v>
+        <v>0.316325</v>
       </c>
       <c r="C6" t="n">
-        <v>0.305159</v>
+        <v>0.299117</v>
       </c>
       <c r="D6" t="n">
-        <v>0.261326</v>
+        <v>0.266173</v>
       </c>
     </row>
     <row r="7">
@@ -7750,13 +7750,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.325017</v>
+        <v>0.326405</v>
       </c>
       <c r="C7" t="n">
-        <v>0.294195</v>
+        <v>0.283395</v>
       </c>
       <c r="D7" t="n">
-        <v>0.270566</v>
+        <v>0.270595</v>
       </c>
     </row>
     <row r="8">
@@ -7764,13 +7764,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.332235</v>
+        <v>0.326981</v>
       </c>
       <c r="C8" t="n">
-        <v>0.297876</v>
+        <v>0.285596</v>
       </c>
       <c r="D8" t="n">
-        <v>0.276611</v>
+        <v>0.27649</v>
       </c>
     </row>
     <row r="9">
@@ -7778,13 +7778,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.336411</v>
+        <v>0.336406</v>
       </c>
       <c r="C9" t="n">
-        <v>0.300045</v>
+        <v>0.287409</v>
       </c>
       <c r="D9" t="n">
-        <v>0.287009</v>
+        <v>0.283352</v>
       </c>
     </row>
     <row r="10">
@@ -7792,13 +7792,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.347119</v>
+        <v>0.342181</v>
       </c>
       <c r="C10" t="n">
-        <v>0.302726</v>
+        <v>0.28989</v>
       </c>
       <c r="D10" t="n">
-        <v>0.288827</v>
+        <v>0.291274</v>
       </c>
     </row>
     <row r="11">
@@ -7806,13 +7806,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.352342</v>
+        <v>0.35133</v>
       </c>
       <c r="C11" t="n">
-        <v>0.304001</v>
+        <v>0.290173</v>
       </c>
       <c r="D11" t="n">
-        <v>0.292568</v>
+        <v>0.29733</v>
       </c>
     </row>
     <row r="12">
@@ -7820,13 +7820,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.358097</v>
+        <v>0.35888</v>
       </c>
       <c r="C12" t="n">
-        <v>0.306971</v>
+        <v>0.293173</v>
       </c>
       <c r="D12" t="n">
-        <v>0.302173</v>
+        <v>0.302908</v>
       </c>
     </row>
     <row r="13">
@@ -7834,13 +7834,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.368251</v>
+        <v>0.364115</v>
       </c>
       <c r="C13" t="n">
-        <v>0.309054</v>
+        <v>0.295261</v>
       </c>
       <c r="D13" t="n">
-        <v>0.303479</v>
+        <v>0.307572</v>
       </c>
     </row>
     <row r="14">
@@ -7848,13 +7848,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.370475</v>
+        <v>0.372783</v>
       </c>
       <c r="C14" t="n">
-        <v>0.311555</v>
+        <v>0.297771</v>
       </c>
       <c r="D14" t="n">
-        <v>0.309732</v>
+        <v>0.311503</v>
       </c>
     </row>
     <row r="15">
@@ -7862,13 +7862,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.378237</v>
+        <v>0.378634</v>
       </c>
       <c r="C15" t="n">
-        <v>0.314161</v>
+        <v>0.300948</v>
       </c>
       <c r="D15" t="n">
-        <v>0.317727</v>
+        <v>0.317676</v>
       </c>
     </row>
     <row r="16">
@@ -7876,13 +7876,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.38858</v>
+        <v>0.384478</v>
       </c>
       <c r="C16" t="n">
-        <v>0.31714</v>
+        <v>0.30283</v>
       </c>
       <c r="D16" t="n">
-        <v>0.32235</v>
+        <v>0.324615</v>
       </c>
     </row>
     <row r="17">
@@ -7890,13 +7890,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.394071</v>
+        <v>0.394789</v>
       </c>
       <c r="C17" t="n">
-        <v>0.320355</v>
+        <v>0.306201</v>
       </c>
       <c r="D17" t="n">
-        <v>0.326971</v>
+        <v>0.331963</v>
       </c>
     </row>
     <row r="18">
@@ -7904,13 +7904,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.379057</v>
+        <v>0.378836</v>
       </c>
       <c r="C18" t="n">
-        <v>0.322098</v>
+        <v>0.308706</v>
       </c>
       <c r="D18" t="n">
-        <v>0.331225</v>
+        <v>0.334153</v>
       </c>
     </row>
     <row r="19">
@@ -7918,13 +7918,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.384347</v>
+        <v>0.384475</v>
       </c>
       <c r="C19" t="n">
-        <v>0.327369</v>
+        <v>0.31308</v>
       </c>
       <c r="D19" t="n">
-        <v>0.338348</v>
+        <v>0.340037</v>
       </c>
     </row>
     <row r="20">
@@ -7932,13 +7932,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.390946</v>
+        <v>0.39046</v>
       </c>
       <c r="C20" t="n">
-        <v>0.330324</v>
+        <v>0.316284</v>
       </c>
       <c r="D20" t="n">
-        <v>0.34355</v>
+        <v>0.347249</v>
       </c>
     </row>
     <row r="21">
@@ -7946,13 +7946,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.396812</v>
+        <v>0.395903</v>
       </c>
       <c r="C21" t="n">
-        <v>0.315402</v>
+        <v>0.297225</v>
       </c>
       <c r="D21" t="n">
-        <v>0.351183</v>
+        <v>0.353055</v>
       </c>
     </row>
     <row r="22">
@@ -7960,13 +7960,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.399856</v>
+        <v>0.402496</v>
       </c>
       <c r="C22" t="n">
-        <v>0.317791</v>
+        <v>0.300683</v>
       </c>
       <c r="D22" t="n">
-        <v>0.354332</v>
+        <v>0.357664</v>
       </c>
     </row>
     <row r="23">
@@ -7974,13 +7974,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.407077</v>
+        <v>0.404423</v>
       </c>
       <c r="C23" t="n">
-        <v>0.319086</v>
+        <v>0.300463</v>
       </c>
       <c r="D23" t="n">
-        <v>0.359981</v>
+        <v>0.362411</v>
       </c>
     </row>
     <row r="24">
@@ -7988,13 +7988,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.413443</v>
+        <v>0.411395</v>
       </c>
       <c r="C24" t="n">
-        <v>0.321552</v>
+        <v>0.303186</v>
       </c>
       <c r="D24" t="n">
-        <v>0.3639</v>
+        <v>0.366169</v>
       </c>
     </row>
     <row r="25">
@@ -8002,13 +8002,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.420356</v>
+        <v>0.416666</v>
       </c>
       <c r="C25" t="n">
-        <v>0.324121</v>
+        <v>0.305517</v>
       </c>
       <c r="D25" t="n">
-        <v>0.366663</v>
+        <v>0.369495</v>
       </c>
     </row>
     <row r="26">
@@ -8016,13 +8016,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.426215</v>
+        <v>0.424944</v>
       </c>
       <c r="C26" t="n">
-        <v>0.325968</v>
+        <v>0.307747</v>
       </c>
       <c r="D26" t="n">
-        <v>0.371274</v>
+        <v>0.37383</v>
       </c>
     </row>
     <row r="27">
@@ -8030,13 +8030,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.431443</v>
+        <v>0.430885</v>
       </c>
       <c r="C27" t="n">
-        <v>0.327858</v>
+        <v>0.309872</v>
       </c>
       <c r="D27" t="n">
-        <v>0.375536</v>
+        <v>0.377087</v>
       </c>
     </row>
     <row r="28">
@@ -8044,13 +8044,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.438835</v>
+        <v>0.436335</v>
       </c>
       <c r="C28" t="n">
-        <v>0.333464</v>
+        <v>0.313587</v>
       </c>
       <c r="D28" t="n">
-        <v>0.379421</v>
+        <v>0.381034</v>
       </c>
     </row>
     <row r="29">
@@ -8058,13 +8058,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.443483</v>
+        <v>0.442491</v>
       </c>
       <c r="C29" t="n">
-        <v>0.33435</v>
+        <v>0.315337</v>
       </c>
       <c r="D29" t="n">
-        <v>0.382854</v>
+        <v>0.385069</v>
       </c>
     </row>
     <row r="30">
@@ -8072,13 +8072,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.449941</v>
+        <v>0.448622</v>
       </c>
       <c r="C30" t="n">
-        <v>0.336649</v>
+        <v>0.319024</v>
       </c>
       <c r="D30" t="n">
-        <v>0.387171</v>
+        <v>0.387677</v>
       </c>
     </row>
     <row r="31">
@@ -8086,13 +8086,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.455577</v>
+        <v>0.454275</v>
       </c>
       <c r="C31" t="n">
-        <v>0.340845</v>
+        <v>0.321566</v>
       </c>
       <c r="D31" t="n">
-        <v>0.390222</v>
+        <v>0.391853</v>
       </c>
     </row>
     <row r="32">
@@ -8100,13 +8100,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.427447</v>
+        <v>0.424932</v>
       </c>
       <c r="C32" t="n">
-        <v>0.344241</v>
+        <v>0.325825</v>
       </c>
       <c r="D32" t="n">
-        <v>0.393527</v>
+        <v>0.395741</v>
       </c>
     </row>
     <row r="33">
@@ -8114,13 +8114,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.430625</v>
+        <v>0.429016</v>
       </c>
       <c r="C33" t="n">
-        <v>0.346106</v>
+        <v>0.327715</v>
       </c>
       <c r="D33" t="n">
-        <v>0.397632</v>
+        <v>0.398883</v>
       </c>
     </row>
     <row r="34">
@@ -8128,13 +8128,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.435943</v>
+        <v>0.433393</v>
       </c>
       <c r="C34" t="n">
-        <v>0.349734</v>
+        <v>0.331214</v>
       </c>
       <c r="D34" t="n">
-        <v>0.400734</v>
+        <v>0.402005</v>
       </c>
     </row>
     <row r="35">
@@ -8142,13 +8142,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.437871</v>
+        <v>0.436869</v>
       </c>
       <c r="C35" t="n">
-        <v>0.327553</v>
+        <v>0.314698</v>
       </c>
       <c r="D35" t="n">
-        <v>0.400017</v>
+        <v>0.401721</v>
       </c>
     </row>
     <row r="36">
@@ -8156,13 +8156,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.443876</v>
+        <v>0.440704</v>
       </c>
       <c r="C36" t="n">
-        <v>0.327672</v>
+        <v>0.312975</v>
       </c>
       <c r="D36" t="n">
-        <v>0.401747</v>
+        <v>0.404</v>
       </c>
     </row>
     <row r="37">
@@ -8170,13 +8170,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.447908</v>
+        <v>0.445057</v>
       </c>
       <c r="C37" t="n">
-        <v>0.331392</v>
+        <v>0.315074</v>
       </c>
       <c r="D37" t="n">
-        <v>0.404129</v>
+        <v>0.405122</v>
       </c>
     </row>
     <row r="38">
@@ -8184,13 +8184,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.452114</v>
+        <v>0.44977</v>
       </c>
       <c r="C38" t="n">
-        <v>0.332918</v>
+        <v>0.31701</v>
       </c>
       <c r="D38" t="n">
-        <v>0.406646</v>
+        <v>0.407832</v>
       </c>
     </row>
     <row r="39">
@@ -8198,13 +8198,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.455194</v>
+        <v>0.453782</v>
       </c>
       <c r="C39" t="n">
-        <v>0.335172</v>
+        <v>0.319631</v>
       </c>
       <c r="D39" t="n">
-        <v>0.408899</v>
+        <v>0.410274</v>
       </c>
     </row>
     <row r="40">
@@ -8212,13 +8212,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.460418</v>
+        <v>0.459048</v>
       </c>
       <c r="C40" t="n">
-        <v>0.338307</v>
+        <v>0.320908</v>
       </c>
       <c r="D40" t="n">
-        <v>0.410787</v>
+        <v>0.412015</v>
       </c>
     </row>
     <row r="41">
@@ -8226,13 +8226,13 @@
         <v>66357</v>
       </c>
       <c r="B41" t="n">
-        <v>0.46379</v>
+        <v>0.462782</v>
       </c>
       <c r="C41" t="n">
-        <v>0.340174</v>
+        <v>0.322461</v>
       </c>
       <c r="D41" t="n">
-        <v>0.413263</v>
+        <v>0.413868</v>
       </c>
     </row>
     <row r="42">
@@ -8240,13 +8240,13 @@
         <v>69656</v>
       </c>
       <c r="B42" t="n">
-        <v>0.468519</v>
+        <v>0.468072</v>
       </c>
       <c r="C42" t="n">
-        <v>0.340206</v>
+        <v>0.325432</v>
       </c>
       <c r="D42" t="n">
-        <v>0.415442</v>
+        <v>0.416326</v>
       </c>
     </row>
     <row r="43">
@@ -8254,13 +8254,13 @@
         <v>73119</v>
       </c>
       <c r="B43" t="n">
-        <v>0.472841</v>
+        <v>0.472779</v>
       </c>
       <c r="C43" t="n">
-        <v>0.343572</v>
+        <v>0.327809</v>
       </c>
       <c r="D43" t="n">
-        <v>0.41662</v>
+        <v>0.418844</v>
       </c>
     </row>
     <row r="44">
@@ -8268,13 +8268,13 @@
         <v>76755</v>
       </c>
       <c r="B44" t="n">
-        <v>0.476715</v>
+        <v>0.477463</v>
       </c>
       <c r="C44" t="n">
-        <v>0.347782</v>
+        <v>0.331912</v>
       </c>
       <c r="D44" t="n">
-        <v>0.420146</v>
+        <v>0.421122</v>
       </c>
     </row>
     <row r="45">
@@ -8282,13 +8282,13 @@
         <v>80572</v>
       </c>
       <c r="B45" t="n">
-        <v>0.482598</v>
+        <v>0.483192</v>
       </c>
       <c r="C45" t="n">
-        <v>0.350651</v>
+        <v>0.335985</v>
       </c>
       <c r="D45" t="n">
-        <v>0.422314</v>
+        <v>0.423437</v>
       </c>
     </row>
     <row r="46">
@@ -8296,13 +8296,13 @@
         <v>84579</v>
       </c>
       <c r="B46" t="n">
-        <v>0.487269</v>
+        <v>0.48754</v>
       </c>
       <c r="C46" t="n">
-        <v>0.353528</v>
+        <v>0.338222</v>
       </c>
       <c r="D46" t="n">
-        <v>0.424624</v>
+        <v>0.42576</v>
       </c>
     </row>
     <row r="47">
@@ -8310,13 +8310,13 @@
         <v>88786</v>
       </c>
       <c r="B47" t="n">
-        <v>0.452217</v>
+        <v>0.449026</v>
       </c>
       <c r="C47" t="n">
-        <v>0.357204</v>
+        <v>0.340753</v>
       </c>
       <c r="D47" t="n">
-        <v>0.427166</v>
+        <v>0.428149</v>
       </c>
     </row>
     <row r="48">
@@ -8324,13 +8324,13 @@
         <v>93203</v>
       </c>
       <c r="B48" t="n">
-        <v>0.455331</v>
+        <v>0.454142</v>
       </c>
       <c r="C48" t="n">
-        <v>0.361076</v>
+        <v>0.346749</v>
       </c>
       <c r="D48" t="n">
-        <v>0.429324</v>
+        <v>0.430223</v>
       </c>
     </row>
     <row r="49">
@@ -8338,13 +8338,13 @@
         <v>97840</v>
       </c>
       <c r="B49" t="n">
-        <v>0.459269</v>
+        <v>0.457873</v>
       </c>
       <c r="C49" t="n">
-        <v>0.364388</v>
+        <v>0.349455</v>
       </c>
       <c r="D49" t="n">
-        <v>0.431593</v>
+        <v>0.432603</v>
       </c>
     </row>
     <row r="50">
@@ -8352,13 +8352,13 @@
         <v>102706</v>
       </c>
       <c r="B50" t="n">
-        <v>0.462274</v>
+        <v>0.460927</v>
       </c>
       <c r="C50" t="n">
-        <v>0.342807</v>
+        <v>0.330398</v>
       </c>
       <c r="D50" t="n">
-        <v>0.427192</v>
+        <v>0.427437</v>
       </c>
     </row>
     <row r="51">
@@ -8366,13 +8366,13 @@
         <v>107816</v>
       </c>
       <c r="B51" t="n">
-        <v>0.465764</v>
+        <v>0.464506</v>
       </c>
       <c r="C51" t="n">
-        <v>0.345689</v>
+        <v>0.333631</v>
       </c>
       <c r="D51" t="n">
-        <v>0.428343</v>
+        <v>0.429339</v>
       </c>
     </row>
     <row r="52">
@@ -8380,13 +8380,13 @@
         <v>113182</v>
       </c>
       <c r="B52" t="n">
-        <v>0.469063</v>
+        <v>0.468771</v>
       </c>
       <c r="C52" t="n">
-        <v>0.348481</v>
+        <v>0.339387</v>
       </c>
       <c r="D52" t="n">
-        <v>0.429519</v>
+        <v>0.429244</v>
       </c>
     </row>
     <row r="53">
@@ -8394,13 +8394,13 @@
         <v>118816</v>
       </c>
       <c r="B53" t="n">
-        <v>0.472787</v>
+        <v>0.470315</v>
       </c>
       <c r="C53" t="n">
-        <v>0.347767</v>
+        <v>0.33905</v>
       </c>
       <c r="D53" t="n">
-        <v>0.430209</v>
+        <v>0.431443</v>
       </c>
     </row>
     <row r="54">
@@ -8408,13 +8408,13 @@
         <v>124731</v>
       </c>
       <c r="B54" t="n">
-        <v>0.476131</v>
+        <v>0.472278</v>
       </c>
       <c r="C54" t="n">
-        <v>0.351841</v>
+        <v>0.339937</v>
       </c>
       <c r="D54" t="n">
-        <v>0.432374</v>
+        <v>0.432353</v>
       </c>
     </row>
     <row r="55">
@@ -8422,13 +8422,13 @@
         <v>130941</v>
       </c>
       <c r="B55" t="n">
-        <v>0.480094</v>
+        <v>0.479062</v>
       </c>
       <c r="C55" t="n">
-        <v>0.355574</v>
+        <v>0.343132</v>
       </c>
       <c r="D55" t="n">
-        <v>0.433717</v>
+        <v>0.433787</v>
       </c>
     </row>
     <row r="56">
@@ -8436,13 +8436,13 @@
         <v>137461</v>
       </c>
       <c r="B56" t="n">
-        <v>0.483714</v>
+        <v>0.483711</v>
       </c>
       <c r="C56" t="n">
-        <v>0.359415</v>
+        <v>0.345587</v>
       </c>
       <c r="D56" t="n">
-        <v>0.434606</v>
+        <v>0.43543</v>
       </c>
     </row>
     <row r="57">
@@ -8450,13 +8450,13 @@
         <v>144307</v>
       </c>
       <c r="B57" t="n">
-        <v>0.487937</v>
+        <v>0.488104</v>
       </c>
       <c r="C57" t="n">
-        <v>0.368887</v>
+        <v>0.353825</v>
       </c>
       <c r="D57" t="n">
-        <v>0.437911</v>
+        <v>0.436657</v>
       </c>
     </row>
     <row r="58">
@@ -8464,13 +8464,13 @@
         <v>151495</v>
       </c>
       <c r="B58" t="n">
-        <v>0.493201</v>
+        <v>0.492154</v>
       </c>
       <c r="C58" t="n">
-        <v>0.376038</v>
+        <v>0.359675</v>
       </c>
       <c r="D58" t="n">
-        <v>0.439733</v>
+        <v>0.439855</v>
       </c>
     </row>
     <row r="59">
@@ -8478,13 +8478,13 @@
         <v>159042</v>
       </c>
       <c r="B59" t="n">
-        <v>0.497725</v>
+        <v>0.50001</v>
       </c>
       <c r="C59" t="n">
-        <v>0.384266</v>
+        <v>0.366412</v>
       </c>
       <c r="D59" t="n">
-        <v>0.442675</v>
+        <v>0.440468</v>
       </c>
     </row>
     <row r="60">
@@ -8492,13 +8492,13 @@
         <v>166965</v>
       </c>
       <c r="B60" t="n">
-        <v>0.504262</v>
+        <v>0.502027</v>
       </c>
       <c r="C60" t="n">
-        <v>0.391506</v>
+        <v>0.371102</v>
       </c>
       <c r="D60" t="n">
-        <v>0.444555</v>
+        <v>0.442815</v>
       </c>
     </row>
     <row r="61">
@@ -8506,13 +8506,13 @@
         <v>175284</v>
       </c>
       <c r="B61" t="n">
-        <v>0.479456</v>
+        <v>0.48775</v>
       </c>
       <c r="C61" t="n">
-        <v>0.399392</v>
+        <v>0.377866</v>
       </c>
       <c r="D61" t="n">
-        <v>0.446695</v>
+        <v>0.44571</v>
       </c>
     </row>
     <row r="62">
@@ -8520,13 +8520,13 @@
         <v>184019</v>
       </c>
       <c r="B62" t="n">
-        <v>0.4861</v>
+        <v>0.499604</v>
       </c>
       <c r="C62" t="n">
-        <v>0.406037</v>
+        <v>0.382841</v>
       </c>
       <c r="D62" t="n">
-        <v>0.44947</v>
+        <v>0.448384</v>
       </c>
     </row>
     <row r="63">
@@ -8534,13 +8534,13 @@
         <v>193190</v>
       </c>
       <c r="B63" t="n">
-        <v>0.500131</v>
+        <v>0.508006</v>
       </c>
       <c r="C63" t="n">
-        <v>0.418605</v>
+        <v>0.396668</v>
       </c>
       <c r="D63" t="n">
-        <v>0.453857</v>
+        <v>0.45316</v>
       </c>
     </row>
     <row r="64">
@@ -8548,13 +8548,13 @@
         <v>202820</v>
       </c>
       <c r="B64" t="n">
-        <v>0.5044149999999999</v>
+        <v>0.51005</v>
       </c>
       <c r="C64" t="n">
-        <v>0.47895</v>
+        <v>0.440478</v>
       </c>
       <c r="D64" t="n">
-        <v>0.48371</v>
+        <v>0.485865</v>
       </c>
     </row>
     <row r="65">
@@ -8562,13 +8562,13 @@
         <v>212931</v>
       </c>
       <c r="B65" t="n">
-        <v>0.5237889999999999</v>
+        <v>0.533984</v>
       </c>
       <c r="C65" t="n">
-        <v>0.505543</v>
+        <v>0.45532</v>
       </c>
       <c r="D65" t="n">
-        <v>0.489428</v>
+        <v>0.503814</v>
       </c>
     </row>
     <row r="66">
@@ -8576,13 +8576,13 @@
         <v>223547</v>
       </c>
       <c r="B66" t="n">
-        <v>0.515695</v>
+        <v>0.533509</v>
       </c>
       <c r="C66" t="n">
-        <v>0.524308</v>
+        <v>0.46357</v>
       </c>
       <c r="D66" t="n">
-        <v>0.486015</v>
+        <v>0.520416</v>
       </c>
     </row>
     <row r="67">
@@ -8590,13 +8590,13 @@
         <v>234692</v>
       </c>
       <c r="B67" t="n">
-        <v>0.539896</v>
+        <v>0.567841</v>
       </c>
       <c r="C67" t="n">
-        <v>0.552374</v>
+        <v>0.492868</v>
       </c>
       <c r="D67" t="n">
-        <v>0.513665</v>
+        <v>0.5372130000000001</v>
       </c>
     </row>
     <row r="68">
@@ -8604,13 +8604,13 @@
         <v>246395</v>
       </c>
       <c r="B68" t="n">
-        <v>0.553108</v>
+        <v>0.593271</v>
       </c>
       <c r="C68" t="n">
-        <v>0.57637</v>
+        <v>0.514652</v>
       </c>
       <c r="D68" t="n">
-        <v>0.513413</v>
+        <v>0.532906</v>
       </c>
     </row>
     <row r="69">
@@ -8618,13 +8618,13 @@
         <v>258683</v>
       </c>
       <c r="B69" t="n">
-        <v>0.570107</v>
+        <v>0.590217</v>
       </c>
       <c r="C69" t="n">
-        <v>0.602844</v>
+        <v>0.52612</v>
       </c>
       <c r="D69" t="n">
-        <v>0.536168</v>
+        <v>0.5487570000000001</v>
       </c>
     </row>
     <row r="70">
@@ -8632,13 +8632,13 @@
         <v>271585</v>
       </c>
       <c r="B70" t="n">
-        <v>0.600741</v>
+        <v>0.609159</v>
       </c>
       <c r="C70" t="n">
-        <v>0.637997</v>
+        <v>0.536807</v>
       </c>
       <c r="D70" t="n">
-        <v>0.55679</v>
+        <v>0.535369</v>
       </c>
     </row>
     <row r="71">
@@ -8646,13 +8646,13 @@
         <v>285132</v>
       </c>
       <c r="B71" t="n">
-        <v>0.627451</v>
+        <v>0.624378</v>
       </c>
       <c r="C71" t="n">
-        <v>0.657772</v>
+        <v>0.566842</v>
       </c>
       <c r="D71" t="n">
-        <v>0.577746</v>
+        <v>0.568652</v>
       </c>
     </row>
     <row r="72">
@@ -8660,13 +8660,13 @@
         <v>299354</v>
       </c>
       <c r="B72" t="n">
-        <v>0.640031</v>
+        <v>0.652851</v>
       </c>
       <c r="C72" t="n">
-        <v>0.678766</v>
+        <v>0.590948</v>
       </c>
       <c r="D72" t="n">
-        <v>0.581601</v>
+        <v>0.603186</v>
       </c>
     </row>
     <row r="73">
@@ -8674,13 +8674,13 @@
         <v>314289</v>
       </c>
       <c r="B73" t="n">
-        <v>0.654453</v>
+        <v>0.675491</v>
       </c>
       <c r="C73" t="n">
-        <v>0.711094</v>
+        <v>0.614246</v>
       </c>
       <c r="D73" t="n">
-        <v>0.607075</v>
+        <v>0.61463</v>
       </c>
     </row>
     <row r="74">
@@ -8688,13 +8688,13 @@
         <v>329969</v>
       </c>
       <c r="B74" t="n">
-        <v>0.686962</v>
+        <v>0.690218</v>
       </c>
       <c r="C74" t="n">
-        <v>0.737334</v>
+        <v>0.630517</v>
       </c>
       <c r="D74" t="n">
-        <v>0.635668</v>
+        <v>0.63696</v>
       </c>
     </row>
     <row r="75">
@@ -8702,13 +8702,13 @@
         <v>346432</v>
       </c>
       <c r="B75" t="n">
-        <v>0.720537</v>
+        <v>0.724831</v>
       </c>
       <c r="C75" t="n">
-        <v>0.76384</v>
+        <v>0.653794</v>
       </c>
       <c r="D75" t="n">
-        <v>0.66062</v>
+        <v>0.665457</v>
       </c>
     </row>
     <row r="76">
@@ -8716,13 +8716,13 @@
         <v>363719</v>
       </c>
       <c r="B76" t="n">
-        <v>0.927082</v>
+        <v>0.933133</v>
       </c>
       <c r="C76" t="n">
-        <v>0.78657</v>
+        <v>0.6747379999999999</v>
       </c>
       <c r="D76" t="n">
-        <v>0.694279</v>
+        <v>0.697476</v>
       </c>
     </row>
     <row r="77">
@@ -8730,13 +8730,13 @@
         <v>381870</v>
       </c>
       <c r="B77" t="n">
-        <v>0.975216</v>
+        <v>0.9799020000000001</v>
       </c>
       <c r="C77" t="n">
-        <v>0.816844</v>
+        <v>0.696693</v>
       </c>
       <c r="D77" t="n">
-        <v>0.733032</v>
+        <v>0.732725</v>
       </c>
     </row>
     <row r="78">
@@ -8744,13 +8744,13 @@
         <v>400928</v>
       </c>
       <c r="B78" t="n">
-        <v>1.02552</v>
+        <v>1.02896</v>
       </c>
       <c r="C78" t="n">
-        <v>0.987298</v>
+        <v>0.8056680000000001</v>
       </c>
       <c r="D78" t="n">
-        <v>0.984058</v>
+        <v>1.00295</v>
       </c>
     </row>
     <row r="79">
@@ -8758,13 +8758,13 @@
         <v>420937</v>
       </c>
       <c r="B79" t="n">
-        <v>1.08092</v>
+        <v>1.0896</v>
       </c>
       <c r="C79" t="n">
-        <v>1.00433</v>
+        <v>0.818736</v>
       </c>
       <c r="D79" t="n">
-        <v>1.04355</v>
+        <v>1.06127</v>
       </c>
     </row>
     <row r="80">
@@ -8772,13 +8772,13 @@
         <v>441947</v>
       </c>
       <c r="B80" t="n">
-        <v>1.12718</v>
+        <v>1.14239</v>
       </c>
       <c r="C80" t="n">
-        <v>1.02677</v>
+        <v>0.828215</v>
       </c>
       <c r="D80" t="n">
-        <v>1.09365</v>
+        <v>1.11409</v>
       </c>
     </row>
     <row r="81">
@@ -8786,13 +8786,13 @@
         <v>464005</v>
       </c>
       <c r="B81" t="n">
-        <v>1.18612</v>
+        <v>1.19744</v>
       </c>
       <c r="C81" t="n">
-        <v>1.04651</v>
+        <v>0.8376130000000001</v>
       </c>
       <c r="D81" t="n">
-        <v>1.14057</v>
+        <v>1.15327</v>
       </c>
     </row>
     <row r="82">
@@ -8800,13 +8800,13 @@
         <v>487165</v>
       </c>
       <c r="B82" t="n">
-        <v>1.23698</v>
+        <v>1.23835</v>
       </c>
       <c r="C82" t="n">
-        <v>1.06549</v>
+        <v>0.852121</v>
       </c>
       <c r="D82" t="n">
-        <v>1.18819</v>
+        <v>1.20624</v>
       </c>
     </row>
     <row r="83">
@@ -8814,13 +8814,13 @@
         <v>511485</v>
       </c>
       <c r="B83" t="n">
-        <v>1.29235</v>
+        <v>1.2849</v>
       </c>
       <c r="C83" t="n">
-        <v>1.08378</v>
+        <v>0.8607050000000001</v>
       </c>
       <c r="D83" t="n">
-        <v>1.237</v>
+        <v>1.25052</v>
       </c>
     </row>
     <row r="84">
@@ -8828,13 +8828,13 @@
         <v>537019</v>
       </c>
       <c r="B84" t="n">
-        <v>1.34245</v>
+        <v>1.33989</v>
       </c>
       <c r="C84" t="n">
-        <v>1.10187</v>
+        <v>0.874271</v>
       </c>
       <c r="D84" t="n">
-        <v>1.28333</v>
+        <v>1.31343</v>
       </c>
     </row>
     <row r="85">
@@ -8842,13 +8842,13 @@
         <v>563827</v>
       </c>
       <c r="B85" t="n">
-        <v>1.39209</v>
+        <v>1.39939</v>
       </c>
       <c r="C85" t="n">
-        <v>1.12048</v>
+        <v>0.885484</v>
       </c>
       <c r="D85" t="n">
-        <v>1.33168</v>
+        <v>1.35504</v>
       </c>
     </row>
     <row r="86">
@@ -8856,13 +8856,13 @@
         <v>591977</v>
       </c>
       <c r="B86" t="n">
-        <v>1.4443</v>
+        <v>1.45196</v>
       </c>
       <c r="C86" t="n">
-        <v>1.13773</v>
+        <v>0.897082</v>
       </c>
       <c r="D86" t="n">
-        <v>1.37481</v>
+        <v>1.40705</v>
       </c>
     </row>
     <row r="87">
@@ -8870,13 +8870,13 @@
         <v>621532</v>
       </c>
       <c r="B87" t="n">
-        <v>1.49509</v>
+        <v>1.49941</v>
       </c>
       <c r="C87" t="n">
-        <v>1.15282</v>
+        <v>0.906027</v>
       </c>
       <c r="D87" t="n">
-        <v>1.4187</v>
+        <v>1.45488</v>
       </c>
     </row>
     <row r="88">
@@ -8884,13 +8884,13 @@
         <v>652567</v>
       </c>
       <c r="B88" t="n">
-        <v>1.54009</v>
+        <v>1.55181</v>
       </c>
       <c r="C88" t="n">
-        <v>1.17121</v>
+        <v>0.917933</v>
       </c>
       <c r="D88" t="n">
-        <v>1.46267</v>
+        <v>1.49845</v>
       </c>
     </row>
     <row r="89">
@@ -8898,13 +8898,13 @@
         <v>685151</v>
       </c>
       <c r="B89" t="n">
-        <v>1.58121</v>
+        <v>1.59736</v>
       </c>
       <c r="C89" t="n">
-        <v>1.18916</v>
+        <v>0.928809</v>
       </c>
       <c r="D89" t="n">
-        <v>1.50441</v>
+        <v>1.54389</v>
       </c>
     </row>
     <row r="90">
@@ -8912,13 +8912,13 @@
         <v>719359</v>
       </c>
       <c r="B90" t="n">
-        <v>1.78638</v>
+        <v>1.83075</v>
       </c>
       <c r="C90" t="n">
-        <v>1.20345</v>
+        <v>0.941856</v>
       </c>
       <c r="D90" t="n">
-        <v>1.54629</v>
+        <v>1.58953</v>
       </c>
     </row>
     <row r="91">
@@ -8926,13 +8926,13 @@
         <v>755280</v>
       </c>
       <c r="B91" t="n">
-        <v>1.82847</v>
+        <v>1.86093</v>
       </c>
       <c r="C91" t="n">
-        <v>1.21948</v>
+        <v>0.9549530000000001</v>
       </c>
       <c r="D91" t="n">
-        <v>1.58563</v>
+        <v>1.62784</v>
       </c>
     </row>
     <row r="92">
@@ -8940,13 +8940,13 @@
         <v>792997</v>
       </c>
       <c r="B92" t="n">
-        <v>1.85954</v>
+        <v>1.87444</v>
       </c>
       <c r="C92" t="n">
-        <v>1.31639</v>
+        <v>1.0337</v>
       </c>
       <c r="D92" t="n">
-        <v>1.79224</v>
+        <v>1.83821</v>
       </c>
     </row>
     <row r="93">
@@ -8954,13 +8954,13 @@
         <v>832595</v>
       </c>
       <c r="B93" t="n">
-        <v>1.90871</v>
+        <v>1.93083</v>
       </c>
       <c r="C93" t="n">
-        <v>1.31814</v>
+        <v>1.04621</v>
       </c>
       <c r="D93" t="n">
-        <v>1.82677</v>
+        <v>1.87439</v>
       </c>
     </row>
     <row r="94">
@@ -8968,13 +8968,13 @@
         <v>874177</v>
       </c>
       <c r="B94" t="n">
-        <v>1.94437</v>
+        <v>1.96279</v>
       </c>
       <c r="C94" t="n">
-        <v>1.32943</v>
+        <v>1.04938</v>
       </c>
       <c r="D94" t="n">
-        <v>1.85627</v>
+        <v>1.90447</v>
       </c>
     </row>
     <row r="95">
@@ -8982,13 +8982,13 @@
         <v>917832</v>
       </c>
       <c r="B95" t="n">
-        <v>1.9781</v>
+        <v>1.98765</v>
       </c>
       <c r="C95" t="n">
-        <v>1.34075</v>
+        <v>1.05133</v>
       </c>
       <c r="D95" t="n">
-        <v>1.88512</v>
+        <v>1.91506</v>
       </c>
     </row>
     <row r="96">
@@ -8996,13 +8996,13 @@
         <v>963677</v>
       </c>
       <c r="B96" t="n">
-        <v>2.00654</v>
+        <v>1.99926</v>
       </c>
       <c r="C96" t="n">
-        <v>1.35215</v>
+        <v>1.04943</v>
       </c>
       <c r="D96" t="n">
-        <v>1.9131</v>
+        <v>1.95887</v>
       </c>
     </row>
     <row r="97">
@@ -9010,13 +9010,13 @@
         <v>1011813</v>
       </c>
       <c r="B97" t="n">
-        <v>2.03641</v>
+        <v>2.05045</v>
       </c>
       <c r="C97" t="n">
-        <v>1.36307</v>
+        <v>1.06911</v>
       </c>
       <c r="D97" t="n">
-        <v>1.94064</v>
+        <v>1.98553</v>
       </c>
     </row>
     <row r="98">
@@ -9024,13 +9024,13 @@
         <v>1062351</v>
       </c>
       <c r="B98" t="n">
-        <v>2.05985</v>
+        <v>2.08837</v>
       </c>
       <c r="C98" t="n">
-        <v>1.37632</v>
+        <v>1.07704</v>
       </c>
       <c r="D98" t="n">
-        <v>1.9684</v>
+        <v>2.01934</v>
       </c>
     </row>
     <row r="99">
@@ -9038,13 +9038,13 @@
         <v>1115422</v>
       </c>
       <c r="B99" t="n">
-        <v>2.09387</v>
+        <v>2.1186</v>
       </c>
       <c r="C99" t="n">
-        <v>1.38725</v>
+        <v>1.08154</v>
       </c>
       <c r="D99" t="n">
-        <v>1.99348</v>
+        <v>2.03316</v>
       </c>
     </row>
     <row r="100">
@@ -9052,13 +9052,13 @@
         <v>1171143</v>
       </c>
       <c r="B100" t="n">
-        <v>2.12514</v>
+        <v>2.12783</v>
       </c>
       <c r="C100" t="n">
-        <v>1.39675</v>
+        <v>1.07687</v>
       </c>
       <c r="D100" t="n">
-        <v>2.01721</v>
+        <v>2.05311</v>
       </c>
     </row>
     <row r="101">
@@ -9066,13 +9066,13 @@
         <v>1229634</v>
       </c>
       <c r="B101" t="n">
-        <v>2.15275</v>
+        <v>2.15983</v>
       </c>
       <c r="C101" t="n">
-        <v>1.40982</v>
+        <v>1.08819</v>
       </c>
       <c r="D101" t="n">
-        <v>2.04239</v>
+        <v>2.07482</v>
       </c>
     </row>
     <row r="102">
@@ -9080,13 +9080,13 @@
         <v>1291062</v>
       </c>
       <c r="B102" t="n">
-        <v>2.18138</v>
+        <v>2.20107</v>
       </c>
       <c r="C102" t="n">
-        <v>1.41854</v>
+        <v>1.1066</v>
       </c>
       <c r="D102" t="n">
-        <v>2.06521</v>
+        <v>2.11452</v>
       </c>
     </row>
     <row r="103">
@@ -9094,13 +9094,13 @@
         <v>1355554</v>
       </c>
       <c r="B103" t="n">
-        <v>2.21207</v>
+        <v>2.22574</v>
       </c>
       <c r="C103" t="n">
-        <v>1.43526</v>
+        <v>1.11484</v>
       </c>
       <c r="D103" t="n">
-        <v>2.08974</v>
+        <v>2.13684</v>
       </c>
     </row>
     <row r="104">
@@ -9108,13 +9108,13 @@
         <v>1423274</v>
       </c>
       <c r="B104" t="n">
-        <v>2.24053</v>
+        <v>2.25669</v>
       </c>
       <c r="C104" t="n">
-        <v>1.44463</v>
+        <v>1.12565</v>
       </c>
       <c r="D104" t="n">
-        <v>2.11257</v>
+        <v>2.15936</v>
       </c>
     </row>
     <row r="105">
@@ -9122,13 +9122,13 @@
         <v>1494380</v>
       </c>
       <c r="B105" t="n">
-        <v>2.3183</v>
+        <v>2.34133</v>
       </c>
       <c r="C105" t="n">
-        <v>1.46011</v>
+        <v>1.13436</v>
       </c>
       <c r="D105" t="n">
-        <v>2.13608</v>
+        <v>2.18202</v>
       </c>
     </row>
     <row r="106">
@@ -9136,13 +9136,13 @@
         <v>1569031</v>
       </c>
       <c r="B106" t="n">
-        <v>2.34005</v>
+        <v>2.3619</v>
       </c>
       <c r="C106" t="n">
-        <v>1.46631</v>
+        <v>1.14679</v>
       </c>
       <c r="D106" t="n">
-        <v>2.16964</v>
+        <v>2.20271</v>
       </c>
     </row>
     <row r="107">
@@ -9150,13 +9150,13 @@
         <v>1647417</v>
       </c>
       <c r="B107" t="n">
-        <v>2.36226</v>
+        <v>2.38081</v>
       </c>
       <c r="C107" t="n">
-        <v>1.47953</v>
+        <v>1.25957</v>
       </c>
       <c r="D107" t="n">
-        <v>2.27849</v>
+        <v>2.31202</v>
       </c>
     </row>
     <row r="108">
@@ -9164,13 +9164,13 @@
         <v>1729734</v>
       </c>
       <c r="B108" t="n">
-        <v>2.40527</v>
+        <v>2.3937</v>
       </c>
       <c r="C108" t="n">
-        <v>1.50363</v>
+        <v>1.24738</v>
       </c>
       <c r="D108" t="n">
-        <v>2.29607</v>
+        <v>2.31677</v>
       </c>
     </row>
     <row r="109">
@@ -9178,13 +9178,13 @@
         <v>1816153</v>
       </c>
       <c r="B109" t="n">
-        <v>2.42381</v>
+        <v>2.40458</v>
       </c>
       <c r="C109" t="n">
-        <v>1.50718</v>
+        <v>1.2541</v>
       </c>
       <c r="D109" t="n">
-        <v>2.30999</v>
+        <v>2.3404</v>
       </c>
     </row>
     <row r="110">
@@ -9192,13 +9192,13 @@
         <v>1906885</v>
       </c>
       <c r="B110" t="n">
-        <v>2.4224</v>
+        <v>2.44085</v>
       </c>
       <c r="C110" t="n">
-        <v>1.50264</v>
+        <v>1.2706</v>
       </c>
       <c r="D110" t="n">
-        <v>2.31459</v>
+        <v>2.35511</v>
       </c>
     </row>
     <row r="111">
@@ -9206,13 +9206,13 @@
         <v>2002164</v>
       </c>
       <c r="B111" t="n">
-        <v>2.45875</v>
+        <v>2.45702</v>
       </c>
       <c r="C111" t="n">
-        <v>1.53063</v>
+        <v>1.27633</v>
       </c>
       <c r="D111" t="n">
-        <v>2.34183</v>
+        <v>2.36676</v>
       </c>
     </row>
     <row r="112">
@@ -9220,13 +9220,13 @@
         <v>2102198</v>
       </c>
       <c r="B112" t="n">
-        <v>2.48299</v>
+        <v>2.46639</v>
       </c>
       <c r="C112" t="n">
-        <v>1.53366</v>
+        <v>1.2718</v>
       </c>
       <c r="D112" t="n">
-        <v>2.35822</v>
+        <v>2.37928</v>
       </c>
     </row>
     <row r="113">
@@ -9234,13 +9234,13 @@
         <v>2207233</v>
       </c>
       <c r="B113" t="n">
-        <v>2.50229</v>
+        <v>2.4994</v>
       </c>
       <c r="C113" t="n">
-        <v>1.54081</v>
+        <v>1.28796</v>
       </c>
       <c r="D113" t="n">
-        <v>2.38714</v>
+        <v>2.39652</v>
       </c>
     </row>
     <row r="114">
@@ -9248,13 +9248,13 @@
         <v>2317508</v>
       </c>
       <c r="B114" t="n">
-        <v>2.52044</v>
+        <v>2.51491</v>
       </c>
       <c r="C114" t="n">
-        <v>1.55655</v>
+        <v>1.29183</v>
       </c>
       <c r="D114" t="n">
-        <v>2.3905</v>
+        <v>2.41168</v>
       </c>
     </row>
     <row r="115">
@@ -9262,13 +9262,13 @@
         <v>2433290</v>
       </c>
       <c r="B115" t="n">
-        <v>2.53926</v>
+        <v>2.53793</v>
       </c>
       <c r="C115" t="n">
-        <v>1.56695</v>
+        <v>1.30498</v>
       </c>
       <c r="D115" t="n">
-        <v>2.39673</v>
+        <v>2.42466</v>
       </c>
     </row>
     <row r="116">
@@ -9276,13 +9276,13 @@
         <v>2554854</v>
       </c>
       <c r="B116" t="n">
-        <v>2.53784</v>
+        <v>2.55846</v>
       </c>
       <c r="C116" t="n">
-        <v>1.57037</v>
+        <v>1.3013</v>
       </c>
       <c r="D116" t="n">
-        <v>2.41111</v>
+        <v>2.42928</v>
       </c>
     </row>
     <row r="117">
@@ -9290,13 +9290,13 @@
         <v>2682511</v>
       </c>
       <c r="B117" t="n">
-        <v>2.56602</v>
+        <v>2.576</v>
       </c>
       <c r="C117" t="n">
-        <v>1.57824</v>
+        <v>1.31446</v>
       </c>
       <c r="D117" t="n">
-        <v>2.43276</v>
+        <v>2.44001</v>
       </c>
     </row>
     <row r="118">
@@ -9304,13 +9304,13 @@
         <v>2816546</v>
       </c>
       <c r="B118" t="n">
-        <v>2.59781</v>
+        <v>2.58718</v>
       </c>
       <c r="C118" t="n">
-        <v>1.59915</v>
+        <v>1.32439</v>
       </c>
       <c r="D118" t="n">
-        <v>2.44719</v>
+        <v>2.45312</v>
       </c>
     </row>
     <row r="119">
@@ -9318,13 +9318,13 @@
         <v>2957287</v>
       </c>
       <c r="B119" t="n">
-        <v>2.60814</v>
+        <v>2.60547</v>
       </c>
       <c r="C119" t="n">
-        <v>1.59367</v>
+        <v>1.32417</v>
       </c>
       <c r="D119" t="n">
-        <v>2.45652</v>
+        <v>2.46678</v>
       </c>
     </row>
   </sheetData>
@@ -9372,13 +9372,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.506293</v>
+        <v>0.478254</v>
       </c>
       <c r="C2" t="n">
-        <v>0.371519</v>
+        <v>0.439368</v>
       </c>
       <c r="D2" t="n">
-        <v>0.345914</v>
+        <v>0.324642</v>
       </c>
     </row>
     <row r="3">
@@ -9386,13 +9386,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.5075809999999999</v>
+        <v>0.493229</v>
       </c>
       <c r="C3" t="n">
-        <v>0.375816</v>
+        <v>0.442949</v>
       </c>
       <c r="D3" t="n">
-        <v>0.352129</v>
+        <v>0.330207</v>
       </c>
     </row>
     <row r="4">
@@ -9400,13 +9400,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.51318</v>
+        <v>0.498458</v>
       </c>
       <c r="C4" t="n">
-        <v>0.380364</v>
+        <v>0.445933</v>
       </c>
       <c r="D4" t="n">
-        <v>0.354873</v>
+        <v>0.337054</v>
       </c>
     </row>
     <row r="5">
@@ -9414,13 +9414,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.526719</v>
+        <v>0.502281</v>
       </c>
       <c r="C5" t="n">
-        <v>0.384042</v>
+        <v>0.450318</v>
       </c>
       <c r="D5" t="n">
-        <v>0.358797</v>
+        <v>0.339842</v>
       </c>
     </row>
     <row r="6">
@@ -9428,13 +9428,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.532442</v>
+        <v>0.513243</v>
       </c>
       <c r="C6" t="n">
-        <v>0.386654</v>
+        <v>0.453829</v>
       </c>
       <c r="D6" t="n">
-        <v>0.366297</v>
+        <v>0.349784</v>
       </c>
     </row>
     <row r="7">
@@ -9442,13 +9442,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.544668</v>
+        <v>0.5214800000000001</v>
       </c>
       <c r="C7" t="n">
-        <v>0.401036</v>
+        <v>0.476296</v>
       </c>
       <c r="D7" t="n">
-        <v>0.376842</v>
+        <v>0.362846</v>
       </c>
     </row>
     <row r="8">
@@ -9456,13 +9456,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.548979</v>
+        <v>0.526048</v>
       </c>
       <c r="C8" t="n">
-        <v>0.405596</v>
+        <v>0.481188</v>
       </c>
       <c r="D8" t="n">
-        <v>0.378821</v>
+        <v>0.361978</v>
       </c>
     </row>
     <row r="9">
@@ -9470,13 +9470,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.551493</v>
+        <v>0.532153</v>
       </c>
       <c r="C9" t="n">
-        <v>0.415236</v>
+        <v>0.490175</v>
       </c>
       <c r="D9" t="n">
-        <v>0.384117</v>
+        <v>0.367771</v>
       </c>
     </row>
     <row r="10">
@@ -9484,13 +9484,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.56714</v>
+        <v>0.547134</v>
       </c>
       <c r="C10" t="n">
-        <v>0.415644</v>
+        <v>0.488048</v>
       </c>
       <c r="D10" t="n">
-        <v>0.389808</v>
+        <v>0.374068</v>
       </c>
     </row>
     <row r="11">
@@ -9498,13 +9498,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.572086</v>
+        <v>0.554364</v>
       </c>
       <c r="C11" t="n">
-        <v>0.415902</v>
+        <v>0.489261</v>
       </c>
       <c r="D11" t="n">
-        <v>0.395105</v>
+        <v>0.383495</v>
       </c>
     </row>
     <row r="12">
@@ -9512,13 +9512,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.5835630000000001</v>
+        <v>0.569289</v>
       </c>
       <c r="C12" t="n">
-        <v>0.422141</v>
+        <v>0.497199</v>
       </c>
       <c r="D12" t="n">
-        <v>0.404068</v>
+        <v>0.392109</v>
       </c>
     </row>
     <row r="13">
@@ -9526,13 +9526,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.5958329999999999</v>
+        <v>0.577986</v>
       </c>
       <c r="C13" t="n">
-        <v>0.423701</v>
+        <v>0.500378</v>
       </c>
       <c r="D13" t="n">
-        <v>0.406505</v>
+        <v>0.393416</v>
       </c>
     </row>
     <row r="14">
@@ -9540,13 +9540,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.596714</v>
+        <v>0.58449</v>
       </c>
       <c r="C14" t="n">
-        <v>0.424099</v>
+        <v>0.501682</v>
       </c>
       <c r="D14" t="n">
-        <v>0.412864</v>
+        <v>0.402524</v>
       </c>
     </row>
     <row r="15">
@@ -9554,13 +9554,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.604007</v>
+        <v>0.599239</v>
       </c>
       <c r="C15" t="n">
-        <v>0.42662</v>
+        <v>0.506073</v>
       </c>
       <c r="D15" t="n">
-        <v>0.41927</v>
+        <v>0.409901</v>
       </c>
     </row>
     <row r="16">
@@ -9568,13 +9568,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.616795</v>
+        <v>0.605838</v>
       </c>
       <c r="C16" t="n">
-        <v>0.430899</v>
+        <v>0.5118470000000001</v>
       </c>
       <c r="D16" t="n">
-        <v>0.42242</v>
+        <v>0.411444</v>
       </c>
     </row>
     <row r="17">
@@ -9582,13 +9582,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.6242180000000001</v>
+        <v>0.620613</v>
       </c>
       <c r="C17" t="n">
-        <v>0.43556</v>
+        <v>0.51622</v>
       </c>
       <c r="D17" t="n">
-        <v>0.427053</v>
+        <v>0.421181</v>
       </c>
     </row>
     <row r="18">
@@ -9596,13 +9596,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.622583</v>
+        <v>0.635378</v>
       </c>
       <c r="C18" t="n">
-        <v>0.43677</v>
+        <v>0.518312</v>
       </c>
       <c r="D18" t="n">
-        <v>0.432542</v>
+        <v>0.42492</v>
       </c>
     </row>
     <row r="19">
@@ -9610,13 +9610,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.652994</v>
+        <v>0.64902</v>
       </c>
       <c r="C19" t="n">
-        <v>0.443002</v>
+        <v>0.521512</v>
       </c>
       <c r="D19" t="n">
-        <v>0.438582</v>
+        <v>0.432304</v>
       </c>
     </row>
     <row r="20">
@@ -9624,13 +9624,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.66156</v>
+        <v>0.657882</v>
       </c>
       <c r="C20" t="n">
-        <v>0.453286</v>
+        <v>0.530701</v>
       </c>
       <c r="D20" t="n">
-        <v>0.444464</v>
+        <v>0.440257</v>
       </c>
     </row>
     <row r="21">
@@ -9638,13 +9638,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.671965</v>
+        <v>0.667979</v>
       </c>
       <c r="C21" t="n">
-        <v>0.460599</v>
+        <v>0.544776</v>
       </c>
       <c r="D21" t="n">
-        <v>0.452949</v>
+        <v>0.446615</v>
       </c>
     </row>
     <row r="22">
@@ -9652,13 +9652,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.6775600000000001</v>
+        <v>0.674652</v>
       </c>
       <c r="C22" t="n">
-        <v>0.465723</v>
+        <v>0.548894</v>
       </c>
       <c r="D22" t="n">
-        <v>0.457298</v>
+        <v>0.451574</v>
       </c>
     </row>
     <row r="23">
@@ -9666,13 +9666,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.686902</v>
+        <v>0.684716</v>
       </c>
       <c r="C23" t="n">
-        <v>0.466225</v>
+        <v>0.550823</v>
       </c>
       <c r="D23" t="n">
-        <v>0.461586</v>
+        <v>0.457524</v>
       </c>
     </row>
     <row r="24">
@@ -9680,13 +9680,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.690374</v>
+        <v>0.687592</v>
       </c>
       <c r="C24" t="n">
-        <v>0.471495</v>
+        <v>0.555017</v>
       </c>
       <c r="D24" t="n">
-        <v>0.466699</v>
+        <v>0.463402</v>
       </c>
     </row>
     <row r="25">
@@ -9694,13 +9694,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.69959</v>
+        <v>0.696387</v>
       </c>
       <c r="C25" t="n">
-        <v>0.479442</v>
+        <v>0.565038</v>
       </c>
       <c r="D25" t="n">
-        <v>0.471056</v>
+        <v>0.465614</v>
       </c>
     </row>
     <row r="26">
@@ -9708,13 +9708,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.706896</v>
+        <v>0.705992</v>
       </c>
       <c r="C26" t="n">
-        <v>0.47536</v>
+        <v>0.560167</v>
       </c>
       <c r="D26" t="n">
-        <v>0.475307</v>
+        <v>0.471696</v>
       </c>
     </row>
     <row r="27">
@@ -9722,13 +9722,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.717062</v>
+        <v>0.7155049999999999</v>
       </c>
       <c r="C27" t="n">
-        <v>0.481716</v>
+        <v>0.566434</v>
       </c>
       <c r="D27" t="n">
-        <v>0.478754</v>
+        <v>0.476141</v>
       </c>
     </row>
     <row r="28">
@@ -9736,13 +9736,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.7201610000000001</v>
+        <v>0.71961</v>
       </c>
       <c r="C28" t="n">
-        <v>0.486961</v>
+        <v>0.57219</v>
       </c>
       <c r="D28" t="n">
-        <v>0.483574</v>
+        <v>0.481392</v>
       </c>
     </row>
     <row r="29">
@@ -9750,13 +9750,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.731765</v>
+        <v>0.733533</v>
       </c>
       <c r="C29" t="n">
-        <v>0.49036</v>
+        <v>0.57614</v>
       </c>
       <c r="D29" t="n">
-        <v>0.488726</v>
+        <v>0.486711</v>
       </c>
     </row>
     <row r="30">
@@ -9764,13 +9764,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.734986</v>
+        <v>0.734714</v>
       </c>
       <c r="C30" t="n">
-        <v>0.492704</v>
+        <v>0.579148</v>
       </c>
       <c r="D30" t="n">
-        <v>0.491503</v>
+        <v>0.488472</v>
       </c>
     </row>
     <row r="31">
@@ -9778,13 +9778,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.741573</v>
+        <v>0.742306</v>
       </c>
       <c r="C31" t="n">
-        <v>0.494409</v>
+        <v>0.580394</v>
       </c>
       <c r="D31" t="n">
-        <v>0.49713</v>
+        <v>0.495784</v>
       </c>
     </row>
     <row r="32">
@@ -9792,13 +9792,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.737787</v>
+        <v>0.732426</v>
       </c>
       <c r="C32" t="n">
-        <v>0.498286</v>
+        <v>0.584365</v>
       </c>
       <c r="D32" t="n">
-        <v>0.498039</v>
+        <v>0.496634</v>
       </c>
     </row>
     <row r="33">
@@ -9806,13 +9806,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.744353</v>
+        <v>0.743088</v>
       </c>
       <c r="C33" t="n">
-        <v>0.503295</v>
+        <v>0.588741</v>
       </c>
       <c r="D33" t="n">
-        <v>0.502646</v>
+        <v>0.500657</v>
       </c>
     </row>
     <row r="34">
@@ -9820,13 +9820,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.755441</v>
+        <v>0.75118</v>
       </c>
       <c r="C34" t="n">
-        <v>0.509124</v>
+        <v>0.594531</v>
       </c>
       <c r="D34" t="n">
-        <v>0.505018</v>
+        <v>0.503762</v>
       </c>
     </row>
     <row r="35">
@@ -9834,13 +9834,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.756168</v>
+        <v>0.756702</v>
       </c>
       <c r="C35" t="n">
-        <v>0.49218</v>
+        <v>0.583068</v>
       </c>
       <c r="D35" t="n">
-        <v>0.508732</v>
+        <v>0.507648</v>
       </c>
     </row>
     <row r="36">
@@ -9848,13 +9848,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.76024</v>
+        <v>0.763846</v>
       </c>
       <c r="C36" t="n">
-        <v>0.496095</v>
+        <v>0.588525</v>
       </c>
       <c r="D36" t="n">
-        <v>0.512633</v>
+        <v>0.511108</v>
       </c>
     </row>
     <row r="37">
@@ -9862,13 +9862,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.769091</v>
+        <v>0.769336</v>
       </c>
       <c r="C37" t="n">
-        <v>0.49908</v>
+        <v>0.59023</v>
       </c>
       <c r="D37" t="n">
-        <v>0.514263</v>
+        <v>0.513002</v>
       </c>
     </row>
     <row r="38">
@@ -9876,13 +9876,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.771072</v>
+        <v>0.774386</v>
       </c>
       <c r="C38" t="n">
-        <v>0.498089</v>
+        <v>0.589026</v>
       </c>
       <c r="D38" t="n">
-        <v>0.518474</v>
+        <v>0.51672</v>
       </c>
     </row>
     <row r="39">
@@ -9890,13 +9890,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.747807</v>
+        <v>0.7787190000000001</v>
       </c>
       <c r="C39" t="n">
-        <v>0.50349</v>
+        <v>0.5945279999999999</v>
       </c>
       <c r="D39" t="n">
-        <v>0.519801</v>
+        <v>0.518417</v>
       </c>
     </row>
     <row r="40">
@@ -9904,13 +9904,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.784756</v>
+        <v>0.786257</v>
       </c>
       <c r="C40" t="n">
-        <v>0.505729</v>
+        <v>0.597788</v>
       </c>
       <c r="D40" t="n">
-        <v>0.52341</v>
+        <v>0.521445</v>
       </c>
     </row>
     <row r="41">
@@ -9918,13 +9918,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.791911</v>
+        <v>0.7940739999999999</v>
       </c>
       <c r="C41" t="n">
-        <v>0.507696</v>
+        <v>0.599503</v>
       </c>
       <c r="D41" t="n">
-        <v>0.524737</v>
+        <v>0.523609</v>
       </c>
     </row>
     <row r="42">
@@ -9932,13 +9932,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.7985719999999999</v>
+        <v>0.800208</v>
       </c>
       <c r="C42" t="n">
-        <v>0.507887</v>
+        <v>0.599861</v>
       </c>
       <c r="D42" t="n">
-        <v>0.528182</v>
+        <v>0.527759</v>
       </c>
     </row>
     <row r="43">
@@ -9946,13 +9946,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.802091</v>
+        <v>0.804157</v>
       </c>
       <c r="C43" t="n">
-        <v>0.509502</v>
+        <v>0.601668</v>
       </c>
       <c r="D43" t="n">
-        <v>0.530502</v>
+        <v>0.53072</v>
       </c>
     </row>
     <row r="44">
@@ -9960,13 +9960,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.804599</v>
+        <v>0.80625</v>
       </c>
       <c r="C44" t="n">
-        <v>0.511726</v>
+        <v>0.60382</v>
       </c>
       <c r="D44" t="n">
-        <v>0.531597</v>
+        <v>0.531426</v>
       </c>
     </row>
     <row r="45">
@@ -9974,13 +9974,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.812416</v>
+        <v>0.813887</v>
       </c>
       <c r="C45" t="n">
-        <v>0.51341</v>
+        <v>0.604626</v>
       </c>
       <c r="D45" t="n">
-        <v>0.533299</v>
+        <v>0.5332</v>
       </c>
     </row>
     <row r="46">
@@ -9988,13 +9988,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.8129</v>
+        <v>0.81413</v>
       </c>
       <c r="C46" t="n">
-        <v>0.514983</v>
+        <v>0.606048</v>
       </c>
       <c r="D46" t="n">
-        <v>0.535668</v>
+        <v>0.535806</v>
       </c>
     </row>
     <row r="47">
@@ -10002,13 +10002,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.7915759999999999</v>
+        <v>0.793856</v>
       </c>
       <c r="C47" t="n">
-        <v>0.514594</v>
+        <v>0.60786</v>
       </c>
       <c r="D47" t="n">
-        <v>0.5385720000000001</v>
+        <v>0.537817</v>
       </c>
     </row>
     <row r="48">
@@ -10016,13 +10016,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.799813</v>
+        <v>0.8022359999999999</v>
       </c>
       <c r="C48" t="n">
-        <v>0.521474</v>
+        <v>0.613277</v>
       </c>
       <c r="D48" t="n">
-        <v>0.539574</v>
+        <v>0.5388230000000001</v>
       </c>
     </row>
     <row r="49">
@@ -10030,13 +10030,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.799323</v>
+        <v>0.80127</v>
       </c>
       <c r="C49" t="n">
-        <v>0.523415</v>
+        <v>0.61456</v>
       </c>
       <c r="D49" t="n">
-        <v>0.5413210000000001</v>
+        <v>0.541261</v>
       </c>
     </row>
     <row r="50">
@@ -10044,13 +10044,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.8035330000000001</v>
+        <v>0.806687</v>
       </c>
       <c r="C50" t="n">
-        <v>0.521888</v>
+        <v>0.615313</v>
       </c>
       <c r="D50" t="n">
-        <v>0.542127</v>
+        <v>0.540982</v>
       </c>
     </row>
     <row r="51">
@@ -10058,13 +10058,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.805378</v>
+        <v>0.808447</v>
       </c>
       <c r="C51" t="n">
-        <v>0.521906</v>
+        <v>0.617488</v>
       </c>
       <c r="D51" t="n">
-        <v>0.544019</v>
+        <v>0.544675</v>
       </c>
     </row>
     <row r="52">
@@ -10072,13 +10072,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.808669</v>
+        <v>0.812109</v>
       </c>
       <c r="C52" t="n">
-        <v>0.527458</v>
+        <v>0.621185</v>
       </c>
       <c r="D52" t="n">
-        <v>0.544619</v>
+        <v>0.545526</v>
       </c>
     </row>
     <row r="53">
@@ -10086,13 +10086,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.813483</v>
+        <v>0.815161</v>
       </c>
       <c r="C53" t="n">
-        <v>0.528886</v>
+        <v>0.62259</v>
       </c>
       <c r="D53" t="n">
-        <v>0.54776</v>
+        <v>0.547051</v>
       </c>
     </row>
     <row r="54">
@@ -10100,13 +10100,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.81759</v>
+        <v>0.819187</v>
       </c>
       <c r="C54" t="n">
-        <v>0.532629</v>
+        <v>0.6257200000000001</v>
       </c>
       <c r="D54" t="n">
-        <v>0.548594</v>
+        <v>0.5482939999999999</v>
       </c>
     </row>
     <row r="55">
@@ -10114,13 +10114,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.821491</v>
+        <v>0.823585</v>
       </c>
       <c r="C55" t="n">
-        <v>0.536909</v>
+        <v>0.626922</v>
       </c>
       <c r="D55" t="n">
-        <v>0.551617</v>
+        <v>0.550934</v>
       </c>
     </row>
     <row r="56">
@@ -10128,13 +10128,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.825755</v>
+        <v>0.82711</v>
       </c>
       <c r="C56" t="n">
-        <v>0.538582</v>
+        <v>0.629559</v>
       </c>
       <c r="D56" t="n">
-        <v>0.551664</v>
+        <v>0.550975</v>
       </c>
     </row>
     <row r="57">
@@ -10142,13 +10142,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.831409</v>
+        <v>0.833508</v>
       </c>
       <c r="C57" t="n">
-        <v>0.545868</v>
+        <v>0.635083</v>
       </c>
       <c r="D57" t="n">
-        <v>0.552621</v>
+        <v>0.553913</v>
       </c>
     </row>
     <row r="58">
@@ -10156,13 +10156,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.829724</v>
+        <v>0.83594</v>
       </c>
       <c r="C58" t="n">
-        <v>0.553916</v>
+        <v>0.638118</v>
       </c>
       <c r="D58" t="n">
-        <v>0.554961</v>
+        <v>0.555554</v>
       </c>
     </row>
     <row r="59">
@@ -10170,13 +10170,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.835394</v>
+        <v>0.839096</v>
       </c>
       <c r="C59" t="n">
-        <v>0.563352</v>
+        <v>0.643945</v>
       </c>
       <c r="D59" t="n">
-        <v>0.555607</v>
+        <v>0.555588</v>
       </c>
     </row>
     <row r="60">
@@ -10184,13 +10184,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.841509</v>
+        <v>0.845007</v>
       </c>
       <c r="C60" t="n">
-        <v>0.569733</v>
+        <v>0.646414</v>
       </c>
       <c r="D60" t="n">
-        <v>0.557833</v>
+        <v>0.559386</v>
       </c>
     </row>
     <row r="61">
@@ -10198,13 +10198,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.842409</v>
+        <v>0.8345050000000001</v>
       </c>
       <c r="C61" t="n">
-        <v>0.5780149999999999</v>
+        <v>0.656298</v>
       </c>
       <c r="D61" t="n">
-        <v>0.55972</v>
+        <v>0.5674439999999999</v>
       </c>
     </row>
     <row r="62">
@@ -10212,13 +10212,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.854247</v>
+        <v>0.84801</v>
       </c>
       <c r="C62" t="n">
-        <v>0.588534</v>
+        <v>0.668748</v>
       </c>
       <c r="D62" t="n">
-        <v>0.5609730000000001</v>
+        <v>0.568838</v>
       </c>
     </row>
     <row r="63">
@@ -10226,13 +10226,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.863089</v>
+        <v>0.85461</v>
       </c>
       <c r="C63" t="n">
-        <v>0.595242</v>
+        <v>0.671476</v>
       </c>
       <c r="D63" t="n">
-        <v>0.564562</v>
+        <v>0.570615</v>
       </c>
     </row>
     <row r="64">
@@ -10240,13 +10240,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.873954</v>
+        <v>0.868491</v>
       </c>
       <c r="C64" t="n">
-        <v>0.652467</v>
+        <v>0.734134</v>
       </c>
       <c r="D64" t="n">
-        <v>0.604607</v>
+        <v>0.611816</v>
       </c>
     </row>
     <row r="65">
@@ -10254,13 +10254,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.892887</v>
+        <v>0.883143</v>
       </c>
       <c r="C65" t="n">
-        <v>0.681343</v>
+        <v>0.731722</v>
       </c>
       <c r="D65" t="n">
-        <v>0.600322</v>
+        <v>0.6051800000000001</v>
       </c>
     </row>
     <row r="66">
@@ -10268,13 +10268,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.903989</v>
+        <v>0.89584</v>
       </c>
       <c r="C66" t="n">
-        <v>0.706893</v>
+        <v>0.771894</v>
       </c>
       <c r="D66" t="n">
-        <v>0.614107</v>
+        <v>0.605432</v>
       </c>
     </row>
     <row r="67">
@@ -10282,13 +10282,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.880881</v>
+        <v>0.89633</v>
       </c>
       <c r="C67" t="n">
-        <v>0.720797</v>
+        <v>0.780741</v>
       </c>
       <c r="D67" t="n">
-        <v>0.629356</v>
+        <v>0.6132</v>
       </c>
     </row>
     <row r="68">
@@ -10296,13 +10296,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.941673</v>
+        <v>0.9215449999999999</v>
       </c>
       <c r="C68" t="n">
-        <v>0.751941</v>
+        <v>0.802339</v>
       </c>
       <c r="D68" t="n">
-        <v>0.6377119999999999</v>
+        <v>0.624367</v>
       </c>
     </row>
     <row r="69">
@@ -10310,13 +10310,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.964027</v>
+        <v>0.9463009999999999</v>
       </c>
       <c r="C69" t="n">
-        <v>0.781057</v>
+        <v>0.836108</v>
       </c>
       <c r="D69" t="n">
-        <v>0.654083</v>
+        <v>0.656127</v>
       </c>
     </row>
     <row r="70">
@@ -10324,13 +10324,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.985348</v>
+        <v>0.993527</v>
       </c>
       <c r="C70" t="n">
-        <v>0.811168</v>
+        <v>0.868573</v>
       </c>
       <c r="D70" t="n">
-        <v>0.669784</v>
+        <v>0.671883</v>
       </c>
     </row>
     <row r="71">
@@ -10338,13 +10338,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>1.01271</v>
+        <v>1.02125</v>
       </c>
       <c r="C71" t="n">
-        <v>0.84053</v>
+        <v>0.893392</v>
       </c>
       <c r="D71" t="n">
-        <v>0.680184</v>
+        <v>0.684048</v>
       </c>
     </row>
     <row r="72">
@@ -10352,13 +10352,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>1.03087</v>
+        <v>1.03641</v>
       </c>
       <c r="C72" t="n">
-        <v>0.865796</v>
+        <v>0.922668</v>
       </c>
       <c r="D72" t="n">
-        <v>0.697138</v>
+        <v>0.708541</v>
       </c>
     </row>
     <row r="73">
@@ -10366,13 +10366,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>1.06124</v>
+        <v>1.08087</v>
       </c>
       <c r="C73" t="n">
-        <v>0.899666</v>
+        <v>0.964112</v>
       </c>
       <c r="D73" t="n">
-        <v>0.716475</v>
+        <v>0.7522990000000001</v>
       </c>
     </row>
     <row r="74">
@@ -10380,13 +10380,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>1.09543</v>
+        <v>1.14163</v>
       </c>
       <c r="C74" t="n">
-        <v>0.930693</v>
+        <v>0.998771</v>
       </c>
       <c r="D74" t="n">
-        <v>0.746772</v>
+        <v>0.767374</v>
       </c>
     </row>
     <row r="75">
@@ -10394,13 +10394,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>1.14245</v>
+        <v>1.17719</v>
       </c>
       <c r="C75" t="n">
-        <v>0.96395</v>
+        <v>1.03156</v>
       </c>
       <c r="D75" t="n">
-        <v>0.773069</v>
+        <v>0.7969540000000001</v>
       </c>
     </row>
     <row r="76">
@@ -10408,13 +10408,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>1.30973</v>
+        <v>1.36113</v>
       </c>
       <c r="C76" t="n">
-        <v>1.0038</v>
+        <v>1.07467</v>
       </c>
       <c r="D76" t="n">
-        <v>0.808714</v>
+        <v>0.826518</v>
       </c>
     </row>
     <row r="77">
@@ -10422,13 +10422,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>1.36917</v>
+        <v>1.42287</v>
       </c>
       <c r="C77" t="n">
-        <v>1.03523</v>
+        <v>1.11246</v>
       </c>
       <c r="D77" t="n">
-        <v>0.839524</v>
+        <v>0.869182</v>
       </c>
     </row>
     <row r="78">
@@ -10436,13 +10436,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>1.43872</v>
+        <v>1.47974</v>
       </c>
       <c r="C78" t="n">
-        <v>1.19332</v>
+        <v>1.33258</v>
       </c>
       <c r="D78" t="n">
-        <v>1.00223</v>
+        <v>1.00726</v>
       </c>
     </row>
     <row r="79">
@@ -10450,13 +10450,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>1.53433</v>
+        <v>1.56288</v>
       </c>
       <c r="C79" t="n">
-        <v>1.26954</v>
+        <v>1.37724</v>
       </c>
       <c r="D79" t="n">
-        <v>1.05792</v>
+        <v>1.06519</v>
       </c>
     </row>
     <row r="80">
@@ -10464,13 +10464,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>1.61603</v>
+        <v>1.64913</v>
       </c>
       <c r="C80" t="n">
-        <v>1.29675</v>
+        <v>1.40924</v>
       </c>
       <c r="D80" t="n">
-        <v>1.10114</v>
+        <v>1.12478</v>
       </c>
     </row>
     <row r="81">
@@ -10478,13 +10478,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>1.70099</v>
+        <v>1.71082</v>
       </c>
       <c r="C81" t="n">
-        <v>1.33077</v>
+        <v>1.4438</v>
       </c>
       <c r="D81" t="n">
-        <v>1.15656</v>
+        <v>1.17802</v>
       </c>
     </row>
     <row r="82">
@@ -10492,13 +10492,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>1.78951</v>
+        <v>1.81261</v>
       </c>
       <c r="C82" t="n">
-        <v>1.36477</v>
+        <v>1.4814</v>
       </c>
       <c r="D82" t="n">
-        <v>1.21535</v>
+        <v>1.23324</v>
       </c>
     </row>
     <row r="83">
@@ -10506,13 +10506,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>1.87556</v>
+        <v>1.90444</v>
       </c>
       <c r="C83" t="n">
-        <v>1.39693</v>
+        <v>1.51751</v>
       </c>
       <c r="D83" t="n">
-        <v>1.26967</v>
+        <v>1.28195</v>
       </c>
     </row>
     <row r="84">
@@ -10520,13 +10520,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>1.97571</v>
+        <v>2.00955</v>
       </c>
       <c r="C84" t="n">
-        <v>1.43528</v>
+        <v>1.55604</v>
       </c>
       <c r="D84" t="n">
-        <v>1.32983</v>
+        <v>1.34027</v>
       </c>
     </row>
     <row r="85">
@@ -10534,13 +10534,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>2.07078</v>
+        <v>2.08305</v>
       </c>
       <c r="C85" t="n">
-        <v>1.47476</v>
+        <v>1.59412</v>
       </c>
       <c r="D85" t="n">
-        <v>1.39308</v>
+        <v>1.39754</v>
       </c>
     </row>
     <row r="86">
@@ -10548,13 +10548,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>2.05607</v>
+        <v>2.17282</v>
       </c>
       <c r="C86" t="n">
-        <v>1.51182</v>
+        <v>1.63246</v>
       </c>
       <c r="D86" t="n">
-        <v>1.45658</v>
+        <v>1.4604</v>
       </c>
     </row>
     <row r="87">
@@ -10562,13 +10562,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>2.2683</v>
+        <v>2.2712</v>
       </c>
       <c r="C87" t="n">
-        <v>1.55514</v>
+        <v>1.67114</v>
       </c>
       <c r="D87" t="n">
-        <v>1.52028</v>
+        <v>1.52325</v>
       </c>
     </row>
     <row r="88">
@@ -10576,13 +10576,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>2.35876</v>
+        <v>2.37205</v>
       </c>
       <c r="C88" t="n">
-        <v>1.58469</v>
+        <v>1.70396</v>
       </c>
       <c r="D88" t="n">
-        <v>1.57364</v>
+        <v>1.5737</v>
       </c>
     </row>
     <row r="89">
@@ -10590,13 +10590,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>2.44777</v>
+        <v>2.47469</v>
       </c>
       <c r="C89" t="n">
-        <v>1.62902</v>
+        <v>1.7408</v>
       </c>
       <c r="D89" t="n">
-        <v>1.6269</v>
+        <v>1.6343</v>
       </c>
     </row>
     <row r="90">
@@ -10604,13 +10604,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>2.49554</v>
+        <v>2.65793</v>
       </c>
       <c r="C90" t="n">
-        <v>1.66259</v>
+        <v>1.77832</v>
       </c>
       <c r="D90" t="n">
-        <v>1.68331</v>
+        <v>1.68939</v>
       </c>
     </row>
     <row r="91">
@@ -10618,13 +10618,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>2.72385</v>
+        <v>2.74299</v>
       </c>
       <c r="C91" t="n">
-        <v>1.70846</v>
+        <v>1.81912</v>
       </c>
       <c r="D91" t="n">
-        <v>1.73976</v>
+        <v>1.74365</v>
       </c>
     </row>
     <row r="92">
@@ -10632,13 +10632,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>2.65157</v>
+        <v>2.81713</v>
       </c>
       <c r="C92" t="n">
-        <v>1.86509</v>
+        <v>2.04394</v>
       </c>
       <c r="D92" t="n">
-        <v>1.85951</v>
+        <v>1.86583</v>
       </c>
     </row>
     <row r="93">
@@ -10646,13 +10646,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>2.88795</v>
+        <v>2.89193</v>
       </c>
       <c r="C93" t="n">
-        <v>1.89421</v>
+        <v>2.06219</v>
       </c>
       <c r="D93" t="n">
-        <v>1.90242</v>
+        <v>1.91723</v>
       </c>
     </row>
     <row r="94">
@@ -10660,13 +10660,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>2.94864</v>
+        <v>2.98758</v>
       </c>
       <c r="C94" t="n">
-        <v>1.91226</v>
+        <v>2.10001</v>
       </c>
       <c r="D94" t="n">
-        <v>1.95212</v>
+        <v>1.95965</v>
       </c>
     </row>
     <row r="95">
@@ -10674,13 +10674,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>2.97174</v>
+        <v>3.0558</v>
       </c>
       <c r="C95" t="n">
-        <v>1.94147</v>
+        <v>2.12027</v>
       </c>
       <c r="D95" t="n">
-        <v>1.99882</v>
+        <v>2.00762</v>
       </c>
     </row>
     <row r="96">
@@ -10688,13 +10688,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>2.91443</v>
+        <v>3.12415</v>
       </c>
       <c r="C96" t="n">
-        <v>1.97056</v>
+        <v>2.14595</v>
       </c>
       <c r="D96" t="n">
-        <v>2.04627</v>
+        <v>2.05517</v>
       </c>
     </row>
     <row r="97">
@@ -10702,13 +10702,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>3.17353</v>
+        <v>3.20657</v>
       </c>
       <c r="C97" t="n">
-        <v>2.00934</v>
+        <v>2.17364</v>
       </c>
       <c r="D97" t="n">
-        <v>2.10397</v>
+        <v>2.1023</v>
       </c>
     </row>
     <row r="98">
@@ -10716,13 +10716,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>3.08103</v>
+        <v>3.28668</v>
       </c>
       <c r="C98" t="n">
-        <v>2.05088</v>
+        <v>2.19334</v>
       </c>
       <c r="D98" t="n">
-        <v>2.13805</v>
+        <v>2.14615</v>
       </c>
     </row>
     <row r="99">
@@ -10730,13 +10730,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>3.33397</v>
+        <v>3.34486</v>
       </c>
       <c r="C99" t="n">
-        <v>2.08107</v>
+        <v>2.24149</v>
       </c>
       <c r="D99" t="n">
-        <v>2.17756</v>
+        <v>2.17703</v>
       </c>
     </row>
     <row r="100">
@@ -10744,13 +10744,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>3.40543</v>
+        <v>3.40707</v>
       </c>
       <c r="C100" t="n">
-        <v>2.10879</v>
+        <v>2.2537</v>
       </c>
       <c r="D100" t="n">
-        <v>2.21719</v>
+        <v>2.22382</v>
       </c>
     </row>
     <row r="101">
@@ -10758,13 +10758,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>3.47426</v>
+        <v>3.4678</v>
       </c>
       <c r="C101" t="n">
-        <v>2.14566</v>
+        <v>2.28273</v>
       </c>
       <c r="D101" t="n">
-        <v>2.25383</v>
+        <v>2.2596</v>
       </c>
     </row>
     <row r="102">
@@ -10772,13 +10772,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>3.54336</v>
+        <v>3.55535</v>
       </c>
       <c r="C102" t="n">
-        <v>2.17393</v>
+        <v>2.32177</v>
       </c>
       <c r="D102" t="n">
-        <v>2.28838</v>
+        <v>2.29088</v>
       </c>
     </row>
     <row r="103">
@@ -10786,13 +10786,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>3.58196</v>
+        <v>3.59894</v>
       </c>
       <c r="C103" t="n">
-        <v>2.20729</v>
+        <v>2.34227</v>
       </c>
       <c r="D103" t="n">
-        <v>2.31509</v>
+        <v>2.32345</v>
       </c>
     </row>
     <row r="104">
@@ -10800,13 +10800,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>3.67688</v>
+        <v>3.64229</v>
       </c>
       <c r="C104" t="n">
-        <v>2.22782</v>
+        <v>2.3834</v>
       </c>
       <c r="D104" t="n">
-        <v>2.34616</v>
+        <v>2.35477</v>
       </c>
     </row>
     <row r="105">
@@ -10814,13 +10814,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>3.71673</v>
+        <v>3.69565</v>
       </c>
       <c r="C105" t="n">
-        <v>2.27606</v>
+        <v>2.40904</v>
       </c>
       <c r="D105" t="n">
-        <v>2.39156</v>
+        <v>2.38329</v>
       </c>
     </row>
     <row r="106">
@@ -10828,13 +10828,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>3.77921</v>
+        <v>3.74704</v>
       </c>
       <c r="C106" t="n">
-        <v>2.30318</v>
+        <v>2.43963</v>
       </c>
       <c r="D106" t="n">
-        <v>2.42193</v>
+        <v>2.41214</v>
       </c>
     </row>
     <row r="107">
@@ -10842,13 +10842,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>3.83004</v>
+        <v>3.80582</v>
       </c>
       <c r="C107" t="n">
-        <v>2.35453</v>
+        <v>2.5517</v>
       </c>
       <c r="D107" t="n">
-        <v>2.46537</v>
+        <v>2.46896</v>
       </c>
     </row>
     <row r="108">
@@ -10856,13 +10856,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>3.84504</v>
+        <v>3.84078</v>
       </c>
       <c r="C108" t="n">
-        <v>2.3692</v>
+        <v>2.57162</v>
       </c>
       <c r="D108" t="n">
-        <v>2.51225</v>
+        <v>2.49766</v>
       </c>
     </row>
     <row r="109">
@@ -10870,13 +10870,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>3.89472</v>
+        <v>3.87382</v>
       </c>
       <c r="C109" t="n">
-        <v>2.39574</v>
+        <v>2.56572</v>
       </c>
       <c r="D109" t="n">
-        <v>2.53941</v>
+        <v>2.53634</v>
       </c>
     </row>
     <row r="110">
@@ -10884,13 +10884,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>3.92527</v>
+        <v>3.93721</v>
       </c>
       <c r="C110" t="n">
-        <v>2.4143</v>
+        <v>2.61873</v>
       </c>
       <c r="D110" t="n">
-        <v>2.55449</v>
+        <v>2.56903</v>
       </c>
     </row>
     <row r="111">
@@ -10898,13 +10898,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>3.95669</v>
+        <v>3.96038</v>
       </c>
       <c r="C111" t="n">
-        <v>2.42194</v>
+        <v>2.60509</v>
       </c>
       <c r="D111" t="n">
-        <v>2.59461</v>
+        <v>2.58748</v>
       </c>
     </row>
     <row r="112">
@@ -10912,13 +10912,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>3.81623</v>
+        <v>4.01521</v>
       </c>
       <c r="C112" t="n">
-        <v>2.46268</v>
+        <v>2.65189</v>
       </c>
       <c r="D112" t="n">
-        <v>2.61463</v>
+        <v>2.62478</v>
       </c>
     </row>
     <row r="113">
@@ -10926,13 +10926,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>4.0912</v>
+        <v>4.07183</v>
       </c>
       <c r="C113" t="n">
-        <v>2.48574</v>
+        <v>2.64851</v>
       </c>
       <c r="D113" t="n">
-        <v>2.63757</v>
+        <v>2.64396</v>
       </c>
     </row>
     <row r="114">
@@ -10940,13 +10940,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>4.11515</v>
+        <v>4.11691</v>
       </c>
       <c r="C114" t="n">
-        <v>2.4969</v>
+        <v>2.68278</v>
       </c>
       <c r="D114" t="n">
-        <v>2.66438</v>
+        <v>2.66275</v>
       </c>
     </row>
     <row r="115">
@@ -10954,13 +10954,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>4.17828</v>
+        <v>4.15065</v>
       </c>
       <c r="C115" t="n">
-        <v>2.52958</v>
+        <v>2.69636</v>
       </c>
       <c r="D115" t="n">
-        <v>2.68192</v>
+        <v>2.69277</v>
       </c>
     </row>
     <row r="116">
@@ -10968,13 +10968,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>4.21604</v>
+        <v>4.20749</v>
       </c>
       <c r="C116" t="n">
-        <v>2.5453</v>
+        <v>2.71935</v>
       </c>
       <c r="D116" t="n">
-        <v>2.70525</v>
+        <v>2.70698</v>
       </c>
     </row>
     <row r="117">
@@ -10982,13 +10982,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>4.26207</v>
+        <v>4.23913</v>
       </c>
       <c r="C117" t="n">
-        <v>2.5779</v>
+        <v>2.74391</v>
       </c>
       <c r="D117" t="n">
-        <v>2.72751</v>
+        <v>2.71663</v>
       </c>
     </row>
     <row r="118">
@@ -10996,13 +10996,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>4.30815</v>
+        <v>4.284</v>
       </c>
       <c r="C118" t="n">
-        <v>2.61782</v>
+        <v>2.77971</v>
       </c>
       <c r="D118" t="n">
-        <v>2.75019</v>
+        <v>2.73174</v>
       </c>
     </row>
     <row r="119">
@@ -11010,13 +11010,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>4.28549</v>
+        <v>4.23538</v>
       </c>
       <c r="C119" t="n">
-        <v>2.62947</v>
+        <v>2.79658</v>
       </c>
       <c r="D119" t="n">
-        <v>2.76435</v>
+        <v>2.7708</v>
       </c>
     </row>
   </sheetData>
@@ -11064,13 +11064,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.534518</v>
+        <v>0.497734</v>
       </c>
       <c r="C2" t="n">
-        <v>0.380431</v>
+        <v>0.431967</v>
       </c>
       <c r="D2" t="n">
-        <v>0.345098</v>
+        <v>0.321463</v>
       </c>
     </row>
     <row r="3">
@@ -11078,13 +11078,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.540338</v>
+        <v>0.504783</v>
       </c>
       <c r="C3" t="n">
-        <v>0.388359</v>
+        <v>0.437047</v>
       </c>
       <c r="D3" t="n">
-        <v>0.346959</v>
+        <v>0.323674</v>
       </c>
     </row>
     <row r="4">
@@ -11092,13 +11092,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.542673</v>
+        <v>0.510002</v>
       </c>
       <c r="C4" t="n">
-        <v>0.390829</v>
+        <v>0.441109</v>
       </c>
       <c r="D4" t="n">
-        <v>0.3485</v>
+        <v>0.32775</v>
       </c>
     </row>
     <row r="5">
@@ -11106,13 +11106,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.554133</v>
+        <v>0.519587</v>
       </c>
       <c r="C5" t="n">
-        <v>0.395463</v>
+        <v>0.447679</v>
       </c>
       <c r="D5" t="n">
-        <v>0.353999</v>
+        <v>0.331919</v>
       </c>
     </row>
     <row r="6">
@@ -11120,13 +11120,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.5641119999999999</v>
+        <v>0.531271</v>
       </c>
       <c r="C6" t="n">
-        <v>0.403208</v>
+        <v>0.454545</v>
       </c>
       <c r="D6" t="n">
-        <v>0.355307</v>
+        <v>0.334787</v>
       </c>
     </row>
     <row r="7">
@@ -11134,13 +11134,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.574909</v>
+        <v>0.543108</v>
       </c>
       <c r="C7" t="n">
-        <v>0.411853</v>
+        <v>0.462581</v>
       </c>
       <c r="D7" t="n">
-        <v>0.364311</v>
+        <v>0.343597</v>
       </c>
     </row>
     <row r="8">
@@ -11148,13 +11148,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.580862</v>
+        <v>0.555305</v>
       </c>
       <c r="C8" t="n">
-        <v>0.416607</v>
+        <v>0.469932</v>
       </c>
       <c r="D8" t="n">
-        <v>0.366477</v>
+        <v>0.347884</v>
       </c>
     </row>
     <row r="9">
@@ -11162,13 +11162,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.591093</v>
+        <v>0.566693</v>
       </c>
       <c r="C9" t="n">
-        <v>0.426882</v>
+        <v>0.480424</v>
       </c>
       <c r="D9" t="n">
-        <v>0.370581</v>
+        <v>0.354842</v>
       </c>
     </row>
     <row r="10">
@@ -11176,13 +11176,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.605104</v>
+        <v>0.582763</v>
       </c>
       <c r="C10" t="n">
-        <v>0.439372</v>
+        <v>0.491403</v>
       </c>
       <c r="D10" t="n">
-        <v>0.376339</v>
+        <v>0.360561</v>
       </c>
     </row>
     <row r="11">
@@ -11190,13 +11190,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.61387</v>
+        <v>0.594979</v>
       </c>
       <c r="C11" t="n">
-        <v>0.41991</v>
+        <v>0.485643</v>
       </c>
       <c r="D11" t="n">
-        <v>0.382556</v>
+        <v>0.372454</v>
       </c>
     </row>
     <row r="12">
@@ -11204,13 +11204,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.599066</v>
+        <v>0.590145</v>
       </c>
       <c r="C12" t="n">
-        <v>0.424659</v>
+        <v>0.489018</v>
       </c>
       <c r="D12" t="n">
-        <v>0.388385</v>
+        <v>0.378722</v>
       </c>
     </row>
     <row r="13">
@@ -11218,13 +11218,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.609654</v>
+        <v>0.598807</v>
       </c>
       <c r="C13" t="n">
-        <v>0.431525</v>
+        <v>0.497935</v>
       </c>
       <c r="D13" t="n">
-        <v>0.391916</v>
+        <v>0.383853</v>
       </c>
     </row>
     <row r="14">
@@ -11232,13 +11232,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.620461</v>
+        <v>0.613364</v>
       </c>
       <c r="C14" t="n">
-        <v>0.440016</v>
+        <v>0.508001</v>
       </c>
       <c r="D14" t="n">
-        <v>0.3983</v>
+        <v>0.392669</v>
       </c>
     </row>
     <row r="15">
@@ -11246,13 +11246,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.634481</v>
+        <v>0.626552</v>
       </c>
       <c r="C15" t="n">
-        <v>0.448584</v>
+        <v>0.516815</v>
       </c>
       <c r="D15" t="n">
-        <v>0.404088</v>
+        <v>0.39817</v>
       </c>
     </row>
     <row r="16">
@@ -11260,13 +11260,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.64606</v>
+        <v>0.640849</v>
       </c>
       <c r="C16" t="n">
-        <v>0.456453</v>
+        <v>0.523616</v>
       </c>
       <c r="D16" t="n">
-        <v>0.409998</v>
+        <v>0.404409</v>
       </c>
     </row>
     <row r="17">
@@ -11274,13 +11274,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.657034</v>
+        <v>0.649172</v>
       </c>
       <c r="C17" t="n">
-        <v>0.464814</v>
+        <v>0.532066</v>
       </c>
       <c r="D17" t="n">
-        <v>0.416388</v>
+        <v>0.410545</v>
       </c>
     </row>
     <row r="18">
@@ -11288,13 +11288,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.6598619999999999</v>
+        <v>0.667115</v>
       </c>
       <c r="C18" t="n">
-        <v>0.467898</v>
+        <v>0.536013</v>
       </c>
       <c r="D18" t="n">
-        <v>0.424323</v>
+        <v>0.418627</v>
       </c>
     </row>
     <row r="19">
@@ -11302,13 +11302,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.685218</v>
+        <v>0.680078</v>
       </c>
       <c r="C19" t="n">
-        <v>0.484669</v>
+        <v>0.553639</v>
       </c>
       <c r="D19" t="n">
-        <v>0.427652</v>
+        <v>0.422229</v>
       </c>
     </row>
     <row r="20">
@@ -11316,13 +11316,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.699751</v>
+        <v>0.698592</v>
       </c>
       <c r="C20" t="n">
-        <v>0.491759</v>
+        <v>0.556988</v>
       </c>
       <c r="D20" t="n">
-        <v>0.435336</v>
+        <v>0.429216</v>
       </c>
     </row>
     <row r="21">
@@ -11330,13 +11330,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.7098370000000001</v>
+        <v>0.705346</v>
       </c>
       <c r="C21" t="n">
-        <v>0.505995</v>
+        <v>0.5704050000000001</v>
       </c>
       <c r="D21" t="n">
-        <v>0.439983</v>
+        <v>0.437532</v>
       </c>
     </row>
     <row r="22">
@@ -11344,13 +11344,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.721955</v>
+        <v>0.7192</v>
       </c>
       <c r="C22" t="n">
-        <v>0.510408</v>
+        <v>0.576296</v>
       </c>
       <c r="D22" t="n">
-        <v>0.446108</v>
+        <v>0.441426</v>
       </c>
     </row>
     <row r="23">
@@ -11358,13 +11358,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.741802</v>
+        <v>0.737318</v>
       </c>
       <c r="C23" t="n">
-        <v>0.524611</v>
+        <v>0.592776</v>
       </c>
       <c r="D23" t="n">
-        <v>0.450977</v>
+        <v>0.44562</v>
       </c>
     </row>
     <row r="24">
@@ -11372,13 +11372,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.753424</v>
+        <v>0.752797</v>
       </c>
       <c r="C24" t="n">
-        <v>0.529788</v>
+        <v>0.597253</v>
       </c>
       <c r="D24" t="n">
-        <v>0.455698</v>
+        <v>0.451892</v>
       </c>
     </row>
     <row r="25">
@@ -11386,13 +11386,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.772796</v>
+        <v>0.768975</v>
       </c>
       <c r="C25" t="n">
-        <v>0.54855</v>
+        <v>0.613915</v>
       </c>
       <c r="D25" t="n">
-        <v>0.462709</v>
+        <v>0.456993</v>
       </c>
     </row>
     <row r="26">
@@ -11400,13 +11400,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.791551</v>
+        <v>0.781034</v>
       </c>
       <c r="C26" t="n">
-        <v>0.490989</v>
+        <v>0.562345</v>
       </c>
       <c r="D26" t="n">
-        <v>0.468635</v>
+        <v>0.464839</v>
       </c>
     </row>
     <row r="27">
@@ -11414,13 +11414,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.746299</v>
+        <v>0.745216</v>
       </c>
       <c r="C27" t="n">
-        <v>0.495266</v>
+        <v>0.56829</v>
       </c>
       <c r="D27" t="n">
-        <v>0.473216</v>
+        <v>0.469486</v>
       </c>
     </row>
     <row r="28">
@@ -11428,13 +11428,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.756691</v>
+        <v>0.760449</v>
       </c>
       <c r="C28" t="n">
-        <v>0.501872</v>
+        <v>0.573943</v>
       </c>
       <c r="D28" t="n">
-        <v>0.479186</v>
+        <v>0.476073</v>
       </c>
     </row>
     <row r="29">
@@ -11442,13 +11442,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.766409</v>
+        <v>0.772173</v>
       </c>
       <c r="C29" t="n">
-        <v>0.506417</v>
+        <v>0.578234</v>
       </c>
       <c r="D29" t="n">
-        <v>0.481094</v>
+        <v>0.475809</v>
       </c>
     </row>
     <row r="30">
@@ -11456,13 +11456,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.777231</v>
+        <v>0.773626</v>
       </c>
       <c r="C30" t="n">
-        <v>0.515027</v>
+        <v>0.586939</v>
       </c>
       <c r="D30" t="n">
-        <v>0.487007</v>
+        <v>0.483759</v>
       </c>
     </row>
     <row r="31">
@@ -11470,13 +11470,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.7899659999999999</v>
+        <v>0.785782</v>
       </c>
       <c r="C31" t="n">
-        <v>0.523934</v>
+        <v>0.595167</v>
       </c>
       <c r="D31" t="n">
-        <v>0.488997</v>
+        <v>0.487125</v>
       </c>
     </row>
     <row r="32">
@@ -11484,13 +11484,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.802411</v>
+        <v>0.799655</v>
       </c>
       <c r="C32" t="n">
-        <v>0.52982</v>
+        <v>0.6004080000000001</v>
       </c>
       <c r="D32" t="n">
-        <v>0.495245</v>
+        <v>0.491623</v>
       </c>
     </row>
     <row r="33">
@@ -11498,13 +11498,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.813675</v>
+        <v>0.8106449999999999</v>
       </c>
       <c r="C33" t="n">
-        <v>0.537639</v>
+        <v>0.607734</v>
       </c>
       <c r="D33" t="n">
-        <v>0.498699</v>
+        <v>0.495567</v>
       </c>
     </row>
     <row r="34">
@@ -11512,13 +11512,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.826189</v>
+        <v>0.824034</v>
       </c>
       <c r="C34" t="n">
-        <v>0.550422</v>
+        <v>0.620123</v>
       </c>
       <c r="D34" t="n">
-        <v>0.501648</v>
+        <v>0.498598</v>
       </c>
     </row>
     <row r="35">
@@ -11526,13 +11526,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.8382810000000001</v>
+        <v>0.8390300000000001</v>
       </c>
       <c r="C35" t="n">
-        <v>0.559239</v>
+        <v>0.629924</v>
       </c>
       <c r="D35" t="n">
-        <v>0.505729</v>
+        <v>0.502879</v>
       </c>
     </row>
     <row r="36">
@@ -11540,13 +11540,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.851446</v>
+        <v>0.849222</v>
       </c>
       <c r="C36" t="n">
-        <v>0.568572</v>
+        <v>0.638588</v>
       </c>
       <c r="D36" t="n">
-        <v>0.510159</v>
+        <v>0.507429</v>
       </c>
     </row>
     <row r="37">
@@ -11554,13 +11554,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.861769</v>
+        <v>0.860119</v>
       </c>
       <c r="C37" t="n">
-        <v>0.579461</v>
+        <v>0.6487000000000001</v>
       </c>
       <c r="D37" t="n">
-        <v>0.511636</v>
+        <v>0.508829</v>
       </c>
     </row>
     <row r="38">
@@ -11568,13 +11568,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.871892</v>
+        <v>0.869688</v>
       </c>
       <c r="C38" t="n">
-        <v>0.59171</v>
+        <v>0.660237</v>
       </c>
       <c r="D38" t="n">
-        <v>0.5178970000000001</v>
+        <v>0.515115</v>
       </c>
     </row>
     <row r="39">
@@ -11582,13 +11582,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.8930709999999999</v>
+        <v>0.891635</v>
       </c>
       <c r="C39" t="n">
-        <v>0.600714</v>
+        <v>0.668929</v>
       </c>
       <c r="D39" t="n">
-        <v>0.519023</v>
+        <v>0.516106</v>
       </c>
     </row>
     <row r="40">
@@ -11596,13 +11596,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.897004</v>
+        <v>0.895719</v>
       </c>
       <c r="C40" t="n">
-        <v>0.554924</v>
+        <v>0.626412</v>
       </c>
       <c r="D40" t="n">
-        <v>0.523787</v>
+        <v>0.521165</v>
       </c>
     </row>
     <row r="41">
@@ -11610,13 +11610,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.83938</v>
+        <v>0.852764</v>
       </c>
       <c r="C41" t="n">
-        <v>0.5600619999999999</v>
+        <v>0.632274</v>
       </c>
       <c r="D41" t="n">
-        <v>0.526301</v>
+        <v>0.5238</v>
       </c>
     </row>
     <row r="42">
@@ -11624,13 +11624,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.860538</v>
+        <v>0.861447</v>
       </c>
       <c r="C42" t="n">
-        <v>0.56738</v>
+        <v>0.639478</v>
       </c>
       <c r="D42" t="n">
-        <v>0.527251</v>
+        <v>0.5251479999999999</v>
       </c>
     </row>
     <row r="43">
@@ -11638,13 +11638,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.866306</v>
+        <v>0.866763</v>
       </c>
       <c r="C43" t="n">
-        <v>0.572126</v>
+        <v>0.642995</v>
       </c>
       <c r="D43" t="n">
-        <v>0.5303020000000001</v>
+        <v>0.528037</v>
       </c>
     </row>
     <row r="44">
@@ -11652,13 +11652,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.873293</v>
+        <v>0.871698</v>
       </c>
       <c r="C44" t="n">
-        <v>0.58388</v>
+        <v>0.654837</v>
       </c>
       <c r="D44" t="n">
-        <v>0.534755</v>
+        <v>0.531846</v>
       </c>
     </row>
     <row r="45">
@@ -11666,13 +11666,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.890327</v>
+        <v>0.891119</v>
       </c>
       <c r="C45" t="n">
-        <v>0.588321</v>
+        <v>0.657919</v>
       </c>
       <c r="D45" t="n">
-        <v>0.535734</v>
+        <v>0.533917</v>
       </c>
     </row>
     <row r="46">
@@ -11680,13 +11680,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.895745</v>
+        <v>0.89447</v>
       </c>
       <c r="C46" t="n">
-        <v>0.59836</v>
+        <v>0.66819</v>
       </c>
       <c r="D46" t="n">
-        <v>0.539268</v>
+        <v>0.5367499999999999</v>
       </c>
     </row>
     <row r="47">
@@ -11694,13 +11694,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.90755</v>
+        <v>0.906548</v>
       </c>
       <c r="C47" t="n">
-        <v>0.6056049999999999</v>
+        <v>0.675935</v>
       </c>
       <c r="D47" t="n">
-        <v>0.540223</v>
+        <v>0.537631</v>
       </c>
     </row>
     <row r="48">
@@ -11708,13 +11708,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.914917</v>
+        <v>0.9143250000000001</v>
       </c>
       <c r="C48" t="n">
-        <v>0.613693</v>
+        <v>0.682141</v>
       </c>
       <c r="D48" t="n">
-        <v>0.5423519999999999</v>
+        <v>0.54023</v>
       </c>
     </row>
     <row r="49">
@@ -11722,13 +11722,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.923889</v>
+        <v>0.922868</v>
       </c>
       <c r="C49" t="n">
-        <v>0.622434</v>
+        <v>0.691936</v>
       </c>
       <c r="D49" t="n">
-        <v>0.544795</v>
+        <v>0.5421319999999999</v>
       </c>
     </row>
     <row r="50">
@@ -11736,13 +11736,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.937659</v>
+        <v>0.9360810000000001</v>
       </c>
       <c r="C50" t="n">
-        <v>0.62903</v>
+        <v>0.698835</v>
       </c>
       <c r="D50" t="n">
-        <v>0.54633</v>
+        <v>0.542896</v>
       </c>
     </row>
     <row r="51">
@@ -11750,13 +11750,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.9465479999999999</v>
+        <v>0.945631</v>
       </c>
       <c r="C51" t="n">
-        <v>0.63871</v>
+        <v>0.7085399999999999</v>
       </c>
       <c r="D51" t="n">
-        <v>0.547444</v>
+        <v>0.545333</v>
       </c>
     </row>
     <row r="52">
@@ -11764,13 +11764,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.9595399999999999</v>
+        <v>0.959667</v>
       </c>
       <c r="C52" t="n">
-        <v>0.652288</v>
+        <v>0.7204660000000001</v>
       </c>
       <c r="D52" t="n">
-        <v>0.551244</v>
+        <v>0.5485989999999999</v>
       </c>
     </row>
     <row r="53">
@@ -11778,13 +11778,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.970372</v>
+        <v>0.966426</v>
       </c>
       <c r="C53" t="n">
-        <v>0.661145</v>
+        <v>0.729135</v>
       </c>
       <c r="D53" t="n">
-        <v>0.553002</v>
+        <v>0.549264</v>
       </c>
     </row>
     <row r="54">
@@ -11792,13 +11792,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.981931</v>
+        <v>0.978827</v>
       </c>
       <c r="C54" t="n">
-        <v>0.594684</v>
+        <v>0.67196</v>
       </c>
       <c r="D54" t="n">
-        <v>0.551581</v>
+        <v>0.549486</v>
       </c>
     </row>
     <row r="55">
@@ -11806,13 +11806,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.994918</v>
+        <v>0.99382</v>
       </c>
       <c r="C55" t="n">
-        <v>0.601845</v>
+        <v>0.678156</v>
       </c>
       <c r="D55" t="n">
-        <v>0.553744</v>
+        <v>0.5507300000000001</v>
       </c>
     </row>
     <row r="56">
@@ -11820,13 +11820,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.916775</v>
+        <v>0.91613</v>
       </c>
       <c r="C56" t="n">
-        <v>0.610181</v>
+        <v>0.684808</v>
       </c>
       <c r="D56" t="n">
-        <v>0.554191</v>
+        <v>0.552962</v>
       </c>
     </row>
     <row r="57">
@@ -11834,13 +11834,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.920392</v>
+        <v>0.918289</v>
       </c>
       <c r="C57" t="n">
-        <v>0.617847</v>
+        <v>0.69051</v>
       </c>
       <c r="D57" t="n">
-        <v>0.556385</v>
+        <v>0.554662</v>
       </c>
     </row>
     <row r="58">
@@ -11848,13 +11848,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.930133</v>
+        <v>0.929698</v>
       </c>
       <c r="C58" t="n">
-        <v>0.627545</v>
+        <v>0.697671</v>
       </c>
       <c r="D58" t="n">
-        <v>0.558965</v>
+        <v>0.557007</v>
       </c>
     </row>
     <row r="59">
@@ -11862,13 +11862,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.937437</v>
+        <v>0.937567</v>
       </c>
       <c r="C59" t="n">
-        <v>0.633723</v>
+        <v>0.702708</v>
       </c>
       <c r="D59" t="n">
-        <v>0.56032</v>
+        <v>0.559484</v>
       </c>
     </row>
     <row r="60">
@@ -11876,13 +11876,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.945245</v>
+        <v>0.947643</v>
       </c>
       <c r="C60" t="n">
-        <v>0.643235</v>
+        <v>0.714208</v>
       </c>
       <c r="D60" t="n">
-        <v>0.559503</v>
+        <v>0.558728</v>
       </c>
     </row>
     <row r="61">
@@ -11890,13 +11890,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.951166</v>
+        <v>0.953591</v>
       </c>
       <c r="C61" t="n">
-        <v>0.652304</v>
+        <v>0.723144</v>
       </c>
       <c r="D61" t="n">
-        <v>0.562853</v>
+        <v>0.561741</v>
       </c>
     </row>
     <row r="62">
@@ -11904,13 +11904,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.961347</v>
+        <v>0.963094</v>
       </c>
       <c r="C62" t="n">
-        <v>0.66618</v>
+        <v>0.733078</v>
       </c>
       <c r="D62" t="n">
-        <v>0.563886</v>
+        <v>0.562758</v>
       </c>
     </row>
     <row r="63">
@@ -11918,13 +11918,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.970452</v>
+        <v>0.979149</v>
       </c>
       <c r="C63" t="n">
-        <v>0.678357</v>
+        <v>0.749094</v>
       </c>
       <c r="D63" t="n">
-        <v>0.563515</v>
+        <v>0.566184</v>
       </c>
     </row>
     <row r="64">
@@ -11932,13 +11932,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.978119</v>
+        <v>0.990402</v>
       </c>
       <c r="C64" t="n">
-        <v>0.694654</v>
+        <v>0.765331</v>
       </c>
       <c r="D64" t="n">
-        <v>0.5658260000000001</v>
+        <v>0.572198</v>
       </c>
     </row>
     <row r="65">
@@ -11946,13 +11946,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.993475</v>
+        <v>1.00613</v>
       </c>
       <c r="C65" t="n">
-        <v>0.712466</v>
+        <v>0.781674</v>
       </c>
       <c r="D65" t="n">
-        <v>0.567881</v>
+        <v>0.573388</v>
       </c>
     </row>
     <row r="66">
@@ -11960,13 +11960,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>1.00603</v>
+        <v>1.01959</v>
       </c>
       <c r="C66" t="n">
-        <v>0.729808</v>
+        <v>0.794864</v>
       </c>
       <c r="D66" t="n">
-        <v>0.569499</v>
+        <v>0.574696</v>
       </c>
     </row>
     <row r="67">
@@ -11974,13 +11974,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>1.01875</v>
+        <v>1.02703</v>
       </c>
       <c r="C67" t="n">
-        <v>0.755588</v>
+        <v>0.811719</v>
       </c>
       <c r="D67" t="n">
-        <v>0.5726329999999999</v>
+        <v>0.575842</v>
       </c>
     </row>
     <row r="68">
@@ -11988,13 +11988,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>1.04282</v>
+        <v>1.04131</v>
       </c>
       <c r="C68" t="n">
-        <v>0.701836</v>
+        <v>0.749421</v>
       </c>
       <c r="D68" t="n">
-        <v>0.593316</v>
+        <v>0.581901</v>
       </c>
     </row>
     <row r="69">
@@ -12002,13 +12002,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>1.07891</v>
+        <v>1.0587</v>
       </c>
       <c r="C69" t="n">
-        <v>0.730301</v>
+        <v>0.769588</v>
       </c>
       <c r="D69" t="n">
-        <v>0.598203</v>
+        <v>0.589903</v>
       </c>
     </row>
     <row r="70">
@@ -12016,13 +12016,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.98912</v>
+        <v>0.99984</v>
       </c>
       <c r="C70" t="n">
-        <v>0.7569669999999999</v>
+        <v>0.798075</v>
       </c>
       <c r="D70" t="n">
-        <v>0.60307</v>
+        <v>0.605349</v>
       </c>
     </row>
     <row r="71">
@@ -12030,13 +12030,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>1.00282</v>
+        <v>1.02502</v>
       </c>
       <c r="C71" t="n">
-        <v>0.783824</v>
+        <v>0.830294</v>
       </c>
       <c r="D71" t="n">
-        <v>0.611107</v>
+        <v>0.6203109999999999</v>
       </c>
     </row>
     <row r="72">
@@ -12044,13 +12044,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>1.03799</v>
+        <v>1.06515</v>
       </c>
       <c r="C72" t="n">
-        <v>0.8196909999999999</v>
+        <v>0.868687</v>
       </c>
       <c r="D72" t="n">
-        <v>0.626006</v>
+        <v>0.637279</v>
       </c>
     </row>
     <row r="73">
@@ -12058,13 +12058,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>1.0689</v>
+        <v>1.1023</v>
       </c>
       <c r="C73" t="n">
-        <v>0.857823</v>
+        <v>0.908378</v>
       </c>
       <c r="D73" t="n">
-        <v>0.642726</v>
+        <v>0.657371</v>
       </c>
     </row>
     <row r="74">
@@ -12072,13 +12072,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>1.10851</v>
+        <v>1.13006</v>
       </c>
       <c r="C74" t="n">
-        <v>0.8990629999999999</v>
+        <v>0.94059</v>
       </c>
       <c r="D74" t="n">
-        <v>0.663519</v>
+        <v>0.674078</v>
       </c>
     </row>
     <row r="75">
@@ -12086,13 +12086,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>1.14259</v>
+        <v>1.17438</v>
       </c>
       <c r="C75" t="n">
-        <v>0.938889</v>
+        <v>0.986159</v>
       </c>
       <c r="D75" t="n">
-        <v>0.682854</v>
+        <v>0.700373</v>
       </c>
     </row>
     <row r="76">
@@ -12100,13 +12100,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>1.18669</v>
+        <v>1.22049</v>
       </c>
       <c r="C76" t="n">
-        <v>0.983226</v>
+        <v>1.03288</v>
       </c>
       <c r="D76" t="n">
-        <v>0.706739</v>
+        <v>0.729388</v>
       </c>
     </row>
     <row r="77">
@@ -12114,13 +12114,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>1.23555</v>
+        <v>1.27762</v>
       </c>
       <c r="C77" t="n">
-        <v>1.02688</v>
+        <v>1.08044</v>
       </c>
       <c r="D77" t="n">
-        <v>0.730396</v>
+        <v>0.756612</v>
       </c>
     </row>
     <row r="78">
@@ -12128,13 +12128,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>1.29984</v>
+        <v>1.332</v>
       </c>
       <c r="C78" t="n">
-        <v>1.06858</v>
+        <v>1.12724</v>
       </c>
       <c r="D78" t="n">
-        <v>0.767225</v>
+        <v>0.78322</v>
       </c>
     </row>
     <row r="79">
@@ -12142,13 +12142,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>1.36046</v>
+        <v>1.39862</v>
       </c>
       <c r="C79" t="n">
-        <v>1.11845</v>
+        <v>1.17665</v>
       </c>
       <c r="D79" t="n">
-        <v>0.803626</v>
+        <v>0.823833</v>
       </c>
     </row>
     <row r="80">
@@ -12156,13 +12156,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>1.42902</v>
+        <v>1.4745</v>
       </c>
       <c r="C80" t="n">
-        <v>1.165</v>
+        <v>1.23562</v>
       </c>
       <c r="D80" t="n">
-        <v>0.837658</v>
+        <v>0.861483</v>
       </c>
     </row>
     <row r="81">
@@ -12170,13 +12170,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>1.52269</v>
+        <v>1.55004</v>
       </c>
       <c r="C81" t="n">
-        <v>1.22762</v>
+        <v>1.29956</v>
       </c>
       <c r="D81" t="n">
-        <v>0.890468</v>
+        <v>0.908648</v>
       </c>
     </row>
     <row r="82">
@@ -12184,13 +12184,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>1.61048</v>
+        <v>1.63932</v>
       </c>
       <c r="C82" t="n">
-        <v>1.28445</v>
+        <v>1.35669</v>
       </c>
       <c r="D82" t="n">
-        <v>0.939784</v>
+        <v>0.951488</v>
       </c>
     </row>
     <row r="83">
@@ -12198,13 +12198,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>1.72152</v>
+        <v>1.74774</v>
       </c>
       <c r="C83" t="n">
-        <v>1.2639</v>
+        <v>1.35015</v>
       </c>
       <c r="D83" t="n">
-        <v>1.06435</v>
+        <v>1.08179</v>
       </c>
     </row>
     <row r="84">
@@ -12212,13 +12212,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>1.83277</v>
+        <v>1.86113</v>
       </c>
       <c r="C84" t="n">
-        <v>1.31824</v>
+        <v>1.40753</v>
       </c>
       <c r="D84" t="n">
-        <v>1.11874</v>
+        <v>1.13571</v>
       </c>
     </row>
     <row r="85">
@@ -12226,13 +12226,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>1.85565</v>
+        <v>1.8663</v>
       </c>
       <c r="C85" t="n">
-        <v>1.37384</v>
+        <v>1.45585</v>
       </c>
       <c r="D85" t="n">
-        <v>1.18256</v>
+        <v>1.18513</v>
       </c>
     </row>
     <row r="86">
@@ -12240,13 +12240,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>1.87622</v>
+        <v>1.98027</v>
       </c>
       <c r="C86" t="n">
-        <v>1.44398</v>
+        <v>1.52369</v>
       </c>
       <c r="D86" t="n">
-        <v>1.24308</v>
+        <v>1.25265</v>
       </c>
     </row>
     <row r="87">
@@ -12254,13 +12254,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>2.07367</v>
+        <v>2.09764</v>
       </c>
       <c r="C87" t="n">
-        <v>1.50745</v>
+        <v>1.58783</v>
       </c>
       <c r="D87" t="n">
-        <v>1.308</v>
+        <v>1.31075</v>
       </c>
     </row>
     <row r="88">
@@ -12268,13 +12268,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>2.19724</v>
+        <v>2.20574</v>
       </c>
       <c r="C88" t="n">
-        <v>1.57763</v>
+        <v>1.66075</v>
       </c>
       <c r="D88" t="n">
-        <v>1.3683</v>
+        <v>1.37294</v>
       </c>
     </row>
     <row r="89">
@@ -12282,13 +12282,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>2.29516</v>
+        <v>2.31868</v>
       </c>
       <c r="C89" t="n">
-        <v>1.64761</v>
+        <v>1.7348</v>
       </c>
       <c r="D89" t="n">
-        <v>1.42749</v>
+        <v>1.43101</v>
       </c>
     </row>
     <row r="90">
@@ -12296,13 +12296,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>2.33115</v>
+        <v>2.44244</v>
       </c>
       <c r="C90" t="n">
-        <v>1.72417</v>
+        <v>1.80812</v>
       </c>
       <c r="D90" t="n">
-        <v>1.48822</v>
+        <v>1.4927</v>
       </c>
     </row>
     <row r="91">
@@ -12310,13 +12310,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>2.5554</v>
+        <v>2.56804</v>
       </c>
       <c r="C91" t="n">
-        <v>1.8092</v>
+        <v>1.89443</v>
       </c>
       <c r="D91" t="n">
-        <v>1.54846</v>
+        <v>1.53968</v>
       </c>
     </row>
     <row r="92">
@@ -12324,13 +12324,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>2.56953</v>
+        <v>2.71402</v>
       </c>
       <c r="C92" t="n">
-        <v>1.88776</v>
+        <v>1.9714</v>
       </c>
       <c r="D92" t="n">
-        <v>1.6046</v>
+        <v>1.60807</v>
       </c>
     </row>
     <row r="93">
@@ -12338,13 +12338,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>2.81367</v>
+        <v>2.80815</v>
       </c>
       <c r="C93" t="n">
-        <v>1.97228</v>
+        <v>2.05791</v>
       </c>
       <c r="D93" t="n">
-        <v>1.66106</v>
+        <v>1.66506</v>
       </c>
     </row>
     <row r="94">
@@ -12352,13 +12352,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>2.938</v>
+        <v>2.96701</v>
       </c>
       <c r="C94" t="n">
-        <v>2.06269</v>
+        <v>2.14612</v>
       </c>
       <c r="D94" t="n">
-        <v>1.71391</v>
+        <v>1.71579</v>
       </c>
     </row>
     <row r="95">
@@ -12366,13 +12366,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>3.08045</v>
+        <v>3.06322</v>
       </c>
       <c r="C95" t="n">
-        <v>2.14967</v>
+        <v>2.22373</v>
       </c>
       <c r="D95" t="n">
-        <v>1.76411</v>
+        <v>1.76259</v>
       </c>
     </row>
     <row r="96">
@@ -12380,13 +12380,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>3.21856</v>
+        <v>3.19425</v>
       </c>
       <c r="C96" t="n">
-        <v>2.25276</v>
+        <v>2.32668</v>
       </c>
       <c r="D96" t="n">
-        <v>1.81342</v>
+        <v>1.8128</v>
       </c>
     </row>
     <row r="97">
@@ -12394,13 +12394,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>3.35229</v>
+        <v>3.34763</v>
       </c>
       <c r="C97" t="n">
-        <v>2.01995</v>
+        <v>2.08779</v>
       </c>
       <c r="D97" t="n">
-        <v>1.95403</v>
+        <v>1.94914</v>
       </c>
     </row>
     <row r="98">
@@ -12408,13 +12408,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>3.36126</v>
+        <v>3.48485</v>
       </c>
       <c r="C98" t="n">
-        <v>2.092</v>
+        <v>2.15243</v>
       </c>
       <c r="D98" t="n">
-        <v>1.99827</v>
+        <v>1.99313</v>
       </c>
     </row>
     <row r="99">
@@ -12422,13 +12422,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>3.39424</v>
+        <v>3.36477</v>
       </c>
       <c r="C99" t="n">
-        <v>2.14938</v>
+        <v>2.21197</v>
       </c>
       <c r="D99" t="n">
-        <v>2.04029</v>
+        <v>2.03648</v>
       </c>
     </row>
     <row r="100">
@@ -12436,13 +12436,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>3.47489</v>
+        <v>3.46475</v>
       </c>
       <c r="C100" t="n">
-        <v>2.2032</v>
+        <v>2.27113</v>
       </c>
       <c r="D100" t="n">
-        <v>2.08208</v>
+        <v>2.07969</v>
       </c>
     </row>
     <row r="101">
@@ -12450,13 +12450,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>3.56635</v>
+        <v>3.5756</v>
       </c>
       <c r="C101" t="n">
-        <v>2.27703</v>
+        <v>2.34972</v>
       </c>
       <c r="D101" t="n">
-        <v>2.12156</v>
+        <v>2.12086</v>
       </c>
     </row>
     <row r="102">
@@ -12464,13 +12464,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>3.66446</v>
+        <v>3.6879</v>
       </c>
       <c r="C102" t="n">
-        <v>2.34233</v>
+        <v>2.41276</v>
       </c>
       <c r="D102" t="n">
-        <v>2.15818</v>
+        <v>2.15806</v>
       </c>
     </row>
     <row r="103">
@@ -12478,13 +12478,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>3.77489</v>
+        <v>3.75717</v>
       </c>
       <c r="C103" t="n">
-        <v>2.41323</v>
+        <v>2.48979</v>
       </c>
       <c r="D103" t="n">
-        <v>2.19231</v>
+        <v>2.19238</v>
       </c>
     </row>
     <row r="104">
@@ -12492,13 +12492,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>3.87511</v>
+        <v>3.89016</v>
       </c>
       <c r="C104" t="n">
-        <v>2.48153</v>
+        <v>2.56691</v>
       </c>
       <c r="D104" t="n">
-        <v>2.22588</v>
+        <v>2.2347</v>
       </c>
     </row>
     <row r="105">
@@ -12506,13 +12506,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>3.9664</v>
+        <v>3.93881</v>
       </c>
       <c r="C105" t="n">
-        <v>2.55237</v>
+        <v>2.64217</v>
       </c>
       <c r="D105" t="n">
-        <v>2.25541</v>
+        <v>2.26266</v>
       </c>
     </row>
     <row r="106">
@@ -12520,13 +12520,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>4.07463</v>
+        <v>4.05264</v>
       </c>
       <c r="C106" t="n">
-        <v>2.63424</v>
+        <v>2.72006</v>
       </c>
       <c r="D106" t="n">
-        <v>2.28767</v>
+        <v>2.2944</v>
       </c>
     </row>
     <row r="107">
@@ -12534,13 +12534,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>4.17762</v>
+        <v>4.15186</v>
       </c>
       <c r="C107" t="n">
-        <v>2.70508</v>
+        <v>2.79899</v>
       </c>
       <c r="D107" t="n">
-        <v>2.31707</v>
+        <v>2.32394</v>
       </c>
     </row>
     <row r="108">
@@ -12548,13 +12548,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>4.25622</v>
+        <v>4.21731</v>
       </c>
       <c r="C108" t="n">
-        <v>2.78627</v>
+        <v>2.86321</v>
       </c>
       <c r="D108" t="n">
-        <v>2.34629</v>
+        <v>2.3546</v>
       </c>
     </row>
     <row r="109">
@@ -12562,13 +12562,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>4.3698</v>
+        <v>4.34104</v>
       </c>
       <c r="C109" t="n">
-        <v>2.88833</v>
+        <v>2.9585</v>
       </c>
       <c r="D109" t="n">
-        <v>2.37672</v>
+        <v>2.38332</v>
       </c>
     </row>
     <row r="110">
@@ -12576,13 +12576,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>4.4938</v>
+        <v>4.46634</v>
       </c>
       <c r="C110" t="n">
-        <v>2.97019</v>
+        <v>3.04501</v>
       </c>
       <c r="D110" t="n">
-        <v>2.40261</v>
+        <v>2.40823</v>
       </c>
     </row>
     <row r="111">
@@ -12590,13 +12590,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>4.58385</v>
+        <v>4.59284</v>
       </c>
       <c r="C111" t="n">
-        <v>2.62001</v>
+        <v>2.69726</v>
       </c>
       <c r="D111" t="n">
-        <v>2.51206</v>
+        <v>2.51322</v>
       </c>
     </row>
     <row r="112">
@@ -12604,13 +12604,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>4.65043</v>
+        <v>4.67432</v>
       </c>
       <c r="C112" t="n">
-        <v>2.67335</v>
+        <v>2.75611</v>
       </c>
       <c r="D112" t="n">
-        <v>2.53902</v>
+        <v>2.53822</v>
       </c>
     </row>
     <row r="113">
@@ -12618,13 +12618,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>4.81724</v>
+        <v>4.76518</v>
       </c>
       <c r="C113" t="n">
-        <v>2.72591</v>
+        <v>2.79565</v>
       </c>
       <c r="D113" t="n">
-        <v>2.55958</v>
+        <v>2.56327</v>
       </c>
     </row>
     <row r="114">
@@ -12632,13 +12632,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>4.43437</v>
+        <v>4.41827</v>
       </c>
       <c r="C114" t="n">
-        <v>2.78669</v>
+        <v>2.85053</v>
       </c>
       <c r="D114" t="n">
-        <v>2.58211</v>
+        <v>2.59078</v>
       </c>
     </row>
     <row r="115">
@@ -12646,13 +12646,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>4.51966</v>
+        <v>4.51775</v>
       </c>
       <c r="C115" t="n">
-        <v>2.83276</v>
+        <v>2.9068</v>
       </c>
       <c r="D115" t="n">
-        <v>2.6038</v>
+        <v>2.61236</v>
       </c>
     </row>
     <row r="116">
@@ -12660,13 +12660,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>4.55773</v>
+        <v>4.5657</v>
       </c>
       <c r="C116" t="n">
-        <v>2.89749</v>
+        <v>2.97189</v>
       </c>
       <c r="D116" t="n">
-        <v>2.62925</v>
+        <v>2.63609</v>
       </c>
     </row>
     <row r="117">
@@ -12674,13 +12674,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>4.67162</v>
+        <v>4.66476</v>
       </c>
       <c r="C117" t="n">
-        <v>2.96765</v>
+        <v>3.03653</v>
       </c>
       <c r="D117" t="n">
-        <v>2.65063</v>
+        <v>2.65641</v>
       </c>
     </row>
     <row r="118">
@@ -12688,13 +12688,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>4.78121</v>
+        <v>4.80486</v>
       </c>
       <c r="C118" t="n">
-        <v>3.05314</v>
+        <v>3.12831</v>
       </c>
       <c r="D118" t="n">
-        <v>2.66928</v>
+        <v>2.67763</v>
       </c>
     </row>
     <row r="119">
@@ -12702,13 +12702,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>4.79768</v>
+        <v>4.85738</v>
       </c>
       <c r="C119" t="n">
-        <v>3.09058</v>
+        <v>3.19129</v>
       </c>
       <c r="D119" t="n">
-        <v>2.69636</v>
+        <v>2.69782</v>
       </c>
     </row>
   </sheetData>

--- a/gcc/scattered erasure.xlsx
+++ b/gcc/scattered erasure.xlsx
@@ -7680,13 +7680,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.303168</v>
+        <v>0.337074</v>
       </c>
       <c r="C2" t="n">
-        <v>0.283479</v>
+        <v>0.288091</v>
       </c>
       <c r="D2" t="n">
-        <v>0.220108</v>
+        <v>0.25384</v>
       </c>
     </row>
     <row r="3">
@@ -7694,13 +7694,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.292831</v>
+        <v>0.310076</v>
       </c>
       <c r="C3" t="n">
-        <v>0.286075</v>
+        <v>0.290951</v>
       </c>
       <c r="D3" t="n">
-        <v>0.22764</v>
+        <v>0.250345</v>
       </c>
     </row>
     <row r="4">
@@ -7708,13 +7708,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.29401</v>
+        <v>0.304914</v>
       </c>
       <c r="C4" t="n">
-        <v>0.290932</v>
+        <v>0.292628</v>
       </c>
       <c r="D4" t="n">
-        <v>0.23688</v>
+        <v>0.252146</v>
       </c>
     </row>
     <row r="5">
@@ -7722,13 +7722,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.301984</v>
+        <v>0.316202</v>
       </c>
       <c r="C5" t="n">
-        <v>0.293845</v>
+        <v>0.297584</v>
       </c>
       <c r="D5" t="n">
-        <v>0.23929</v>
+        <v>0.263261</v>
       </c>
     </row>
     <row r="6">
@@ -7736,13 +7736,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.309367</v>
+        <v>0.322641</v>
       </c>
       <c r="C6" t="n">
-        <v>0.296241</v>
+        <v>0.300985</v>
       </c>
       <c r="D6" t="n">
-        <v>0.247333</v>
+        <v>0.268357</v>
       </c>
     </row>
     <row r="7">
@@ -7750,13 +7750,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.314449</v>
+        <v>0.331295</v>
       </c>
       <c r="C7" t="n">
-        <v>0.286859</v>
+        <v>0.284099</v>
       </c>
       <c r="D7" t="n">
-        <v>0.26196</v>
+        <v>0.271464</v>
       </c>
     </row>
     <row r="8">
@@ -7764,13 +7764,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.32406</v>
+        <v>0.333562</v>
       </c>
       <c r="C8" t="n">
-        <v>0.289699</v>
+        <v>0.286661</v>
       </c>
       <c r="D8" t="n">
-        <v>0.267899</v>
+        <v>0.278483</v>
       </c>
     </row>
     <row r="9">
@@ -7778,13 +7778,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.32982</v>
+        <v>0.337022</v>
       </c>
       <c r="C9" t="n">
-        <v>0.29072</v>
+        <v>0.288859</v>
       </c>
       <c r="D9" t="n">
-        <v>0.275559</v>
+        <v>0.284317</v>
       </c>
     </row>
     <row r="10">
@@ -7792,13 +7792,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.336513</v>
+        <v>0.34272</v>
       </c>
       <c r="C10" t="n">
-        <v>0.292636</v>
+        <v>0.290192</v>
       </c>
       <c r="D10" t="n">
-        <v>0.280627</v>
+        <v>0.285707</v>
       </c>
     </row>
     <row r="11">
@@ -7806,13 +7806,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.343734</v>
+        <v>0.350161</v>
       </c>
       <c r="C11" t="n">
-        <v>0.292961</v>
+        <v>0.292018</v>
       </c>
       <c r="D11" t="n">
-        <v>0.287298</v>
+        <v>0.291543</v>
       </c>
     </row>
     <row r="12">
@@ -7820,13 +7820,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.352042</v>
+        <v>0.355434</v>
       </c>
       <c r="C12" t="n">
-        <v>0.296141</v>
+        <v>0.295044</v>
       </c>
       <c r="D12" t="n">
-        <v>0.294615</v>
+        <v>0.298865</v>
       </c>
     </row>
     <row r="13">
@@ -7834,13 +7834,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.359706</v>
+        <v>0.364249</v>
       </c>
       <c r="C13" t="n">
-        <v>0.298456</v>
+        <v>0.297075</v>
       </c>
       <c r="D13" t="n">
-        <v>0.30135</v>
+        <v>0.303115</v>
       </c>
     </row>
     <row r="14">
@@ -7848,13 +7848,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.367521</v>
+        <v>0.367693</v>
       </c>
       <c r="C14" t="n">
-        <v>0.301068</v>
+        <v>0.300524</v>
       </c>
       <c r="D14" t="n">
-        <v>0.306371</v>
+        <v>0.310569</v>
       </c>
     </row>
     <row r="15">
@@ -7862,13 +7862,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.376961</v>
+        <v>0.380013</v>
       </c>
       <c r="C15" t="n">
-        <v>0.305096</v>
+        <v>0.304156</v>
       </c>
       <c r="D15" t="n">
-        <v>0.314339</v>
+        <v>0.31497</v>
       </c>
     </row>
     <row r="16">
@@ -7876,13 +7876,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.384689</v>
+        <v>0.38454</v>
       </c>
       <c r="C16" t="n">
-        <v>0.307056</v>
+        <v>0.307462</v>
       </c>
       <c r="D16" t="n">
-        <v>0.319774</v>
+        <v>0.324291</v>
       </c>
     </row>
     <row r="17">
@@ -7890,13 +7890,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.391201</v>
+        <v>0.395386</v>
       </c>
       <c r="C17" t="n">
-        <v>0.310545</v>
+        <v>0.311821</v>
       </c>
       <c r="D17" t="n">
-        <v>0.326968</v>
+        <v>0.329346</v>
       </c>
     </row>
     <row r="18">
@@ -7904,13 +7904,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.378067</v>
+        <v>0.37882</v>
       </c>
       <c r="C18" t="n">
-        <v>0.314153</v>
+        <v>0.316016</v>
       </c>
       <c r="D18" t="n">
-        <v>0.332534</v>
+        <v>0.333865</v>
       </c>
     </row>
     <row r="19">
@@ -7918,13 +7918,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.383025</v>
+        <v>0.384832</v>
       </c>
       <c r="C19" t="n">
-        <v>0.31743</v>
+        <v>0.319434</v>
       </c>
       <c r="D19" t="n">
-        <v>0.339463</v>
+        <v>0.339437</v>
       </c>
     </row>
     <row r="20">
@@ -7932,13 +7932,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.389749</v>
+        <v>0.390085</v>
       </c>
       <c r="C20" t="n">
-        <v>0.320886</v>
+        <v>0.322321</v>
       </c>
       <c r="D20" t="n">
-        <v>0.344611</v>
+        <v>0.346152</v>
       </c>
     </row>
     <row r="21">
@@ -7946,13 +7946,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.393977</v>
+        <v>0.396846</v>
       </c>
       <c r="C21" t="n">
-        <v>0.301831</v>
+        <v>0.298637</v>
       </c>
       <c r="D21" t="n">
-        <v>0.351352</v>
+        <v>0.352647</v>
       </c>
     </row>
     <row r="22">
@@ -7960,13 +7960,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.40056</v>
+        <v>0.401226</v>
       </c>
       <c r="C22" t="n">
-        <v>0.304143</v>
+        <v>0.301553</v>
       </c>
       <c r="D22" t="n">
-        <v>0.356046</v>
+        <v>0.35743</v>
       </c>
     </row>
     <row r="23">
@@ -7974,13 +7974,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.406253</v>
+        <v>0.407023</v>
       </c>
       <c r="C23" t="n">
-        <v>0.305273</v>
+        <v>0.303089</v>
       </c>
       <c r="D23" t="n">
-        <v>0.360277</v>
+        <v>0.361729</v>
       </c>
     </row>
     <row r="24">
@@ -7988,13 +7988,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.41164</v>
+        <v>0.412762</v>
       </c>
       <c r="C24" t="n">
-        <v>0.308595</v>
+        <v>0.306489</v>
       </c>
       <c r="D24" t="n">
-        <v>0.364186</v>
+        <v>0.365737</v>
       </c>
     </row>
     <row r="25">
@@ -8002,13 +8002,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.417355</v>
+        <v>0.418821</v>
       </c>
       <c r="C25" t="n">
-        <v>0.309582</v>
+        <v>0.308749</v>
       </c>
       <c r="D25" t="n">
-        <v>0.368633</v>
+        <v>0.369208</v>
       </c>
     </row>
     <row r="26">
@@ -8016,13 +8016,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.424104</v>
+        <v>0.424273</v>
       </c>
       <c r="C26" t="n">
-        <v>0.313258</v>
+        <v>0.311482</v>
       </c>
       <c r="D26" t="n">
-        <v>0.371985</v>
+        <v>0.372766</v>
       </c>
     </row>
     <row r="27">
@@ -8030,13 +8030,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.429313</v>
+        <v>0.430068</v>
       </c>
       <c r="C27" t="n">
-        <v>0.316555</v>
+        <v>0.314158</v>
       </c>
       <c r="D27" t="n">
-        <v>0.375882</v>
+        <v>0.376138</v>
       </c>
     </row>
     <row r="28">
@@ -8044,13 +8044,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.435388</v>
+        <v>0.435941</v>
       </c>
       <c r="C28" t="n">
-        <v>0.318483</v>
+        <v>0.317769</v>
       </c>
       <c r="D28" t="n">
-        <v>0.37929</v>
+        <v>0.380168</v>
       </c>
     </row>
     <row r="29">
@@ -8058,13 +8058,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.441835</v>
+        <v>0.441889</v>
       </c>
       <c r="C29" t="n">
-        <v>0.321436</v>
+        <v>0.319758</v>
       </c>
       <c r="D29" t="n">
-        <v>0.383956</v>
+        <v>0.384179</v>
       </c>
     </row>
     <row r="30">
@@ -8072,13 +8072,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.447033</v>
+        <v>0.447274</v>
       </c>
       <c r="C30" t="n">
-        <v>0.324131</v>
+        <v>0.323952</v>
       </c>
       <c r="D30" t="n">
-        <v>0.387167</v>
+        <v>0.38724</v>
       </c>
     </row>
     <row r="31">
@@ -8086,13 +8086,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.454965</v>
+        <v>0.454675</v>
       </c>
       <c r="C31" t="n">
-        <v>0.327379</v>
+        <v>0.326996</v>
       </c>
       <c r="D31" t="n">
-        <v>0.390892</v>
+        <v>0.390981</v>
       </c>
     </row>
     <row r="32">
@@ -8100,13 +8100,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.424814</v>
+        <v>0.425702</v>
       </c>
       <c r="C32" t="n">
-        <v>0.330611</v>
+        <v>0.331332</v>
       </c>
       <c r="D32" t="n">
-        <v>0.394194</v>
+        <v>0.394642</v>
       </c>
     </row>
     <row r="33">
@@ -8114,13 +8114,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.429425</v>
+        <v>0.429585</v>
       </c>
       <c r="C33" t="n">
-        <v>0.333572</v>
+        <v>0.334166</v>
       </c>
       <c r="D33" t="n">
-        <v>0.398253</v>
+        <v>0.398214</v>
       </c>
     </row>
     <row r="34">
@@ -8128,13 +8128,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.433015</v>
+        <v>0.432197</v>
       </c>
       <c r="C34" t="n">
-        <v>0.33713</v>
+        <v>0.339549</v>
       </c>
       <c r="D34" t="n">
-        <v>0.40133</v>
+        <v>0.40138</v>
       </c>
     </row>
     <row r="35">
@@ -8142,13 +8142,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.437408</v>
+        <v>0.438151</v>
       </c>
       <c r="C35" t="n">
-        <v>0.313904</v>
+        <v>0.309219</v>
       </c>
       <c r="D35" t="n">
-        <v>0.401048</v>
+        <v>0.401814</v>
       </c>
     </row>
     <row r="36">
@@ -8156,13 +8156,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.441107</v>
+        <v>0.440867</v>
       </c>
       <c r="C36" t="n">
-        <v>0.3163</v>
+        <v>0.312523</v>
       </c>
       <c r="D36" t="n">
-        <v>0.403063</v>
+        <v>0.40345</v>
       </c>
     </row>
     <row r="37">
@@ -8170,13 +8170,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.445109</v>
+        <v>0.445299</v>
       </c>
       <c r="C37" t="n">
-        <v>0.318492</v>
+        <v>0.313696</v>
       </c>
       <c r="D37" t="n">
-        <v>0.405165</v>
+        <v>0.405951</v>
       </c>
     </row>
     <row r="38">
@@ -8184,13 +8184,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.449642</v>
+        <v>0.448947</v>
       </c>
       <c r="C38" t="n">
-        <v>0.320059</v>
+        <v>0.316207</v>
       </c>
       <c r="D38" t="n">
-        <v>0.407453</v>
+        <v>0.407961</v>
       </c>
     </row>
     <row r="39">
@@ -8198,13 +8198,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.454711</v>
+        <v>0.453809</v>
       </c>
       <c r="C39" t="n">
-        <v>0.323665</v>
+        <v>0.319679</v>
       </c>
       <c r="D39" t="n">
-        <v>0.409704</v>
+        <v>0.410653</v>
       </c>
     </row>
     <row r="40">
@@ -8212,13 +8212,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.458142</v>
+        <v>0.457684</v>
       </c>
       <c r="C40" t="n">
-        <v>0.324926</v>
+        <v>0.322122</v>
       </c>
       <c r="D40" t="n">
-        <v>0.41148</v>
+        <v>0.412105</v>
       </c>
     </row>
     <row r="41">
@@ -8226,13 +8226,13 @@
         <v>66357</v>
       </c>
       <c r="B41" t="n">
-        <v>0.463652</v>
+        <v>0.463443</v>
       </c>
       <c r="C41" t="n">
-        <v>0.32734</v>
+        <v>0.323463</v>
       </c>
       <c r="D41" t="n">
-        <v>0.413999</v>
+        <v>0.415089</v>
       </c>
     </row>
     <row r="42">
@@ -8240,13 +8240,13 @@
         <v>69656</v>
       </c>
       <c r="B42" t="n">
-        <v>0.468271</v>
+        <v>0.468288</v>
       </c>
       <c r="C42" t="n">
-        <v>0.328549</v>
+        <v>0.327112</v>
       </c>
       <c r="D42" t="n">
-        <v>0.416092</v>
+        <v>0.416981</v>
       </c>
     </row>
     <row r="43">
@@ -8254,13 +8254,13 @@
         <v>73119</v>
       </c>
       <c r="B43" t="n">
-        <v>0.47224</v>
+        <v>0.472772</v>
       </c>
       <c r="C43" t="n">
-        <v>0.330587</v>
+        <v>0.330431</v>
       </c>
       <c r="D43" t="n">
-        <v>0.418227</v>
+        <v>0.419107</v>
       </c>
     </row>
     <row r="44">
@@ -8268,13 +8268,13 @@
         <v>76755</v>
       </c>
       <c r="B44" t="n">
-        <v>0.477198</v>
+        <v>0.476944</v>
       </c>
       <c r="C44" t="n">
-        <v>0.334404</v>
+        <v>0.334601</v>
       </c>
       <c r="D44" t="n">
-        <v>0.420786</v>
+        <v>0.421372</v>
       </c>
     </row>
     <row r="45">
@@ -8282,13 +8282,13 @@
         <v>80572</v>
       </c>
       <c r="B45" t="n">
-        <v>0.48261</v>
+        <v>0.482301</v>
       </c>
       <c r="C45" t="n">
-        <v>0.337493</v>
+        <v>0.337011</v>
       </c>
       <c r="D45" t="n">
-        <v>0.422919</v>
+        <v>0.423865</v>
       </c>
     </row>
     <row r="46">
@@ -8296,13 +8296,13 @@
         <v>84579</v>
       </c>
       <c r="B46" t="n">
-        <v>0.487525</v>
+        <v>0.487041</v>
       </c>
       <c r="C46" t="n">
-        <v>0.340317</v>
+        <v>0.340769</v>
       </c>
       <c r="D46" t="n">
-        <v>0.42502</v>
+        <v>0.426252</v>
       </c>
     </row>
     <row r="47">
@@ -8310,13 +8310,13 @@
         <v>88786</v>
       </c>
       <c r="B47" t="n">
-        <v>0.451102</v>
+        <v>0.44849</v>
       </c>
       <c r="C47" t="n">
-        <v>0.343718</v>
+        <v>0.345408</v>
       </c>
       <c r="D47" t="n">
-        <v>0.427857</v>
+        <v>0.428359</v>
       </c>
     </row>
     <row r="48">
@@ -8324,13 +8324,13 @@
         <v>93203</v>
       </c>
       <c r="B48" t="n">
-        <v>0.454316</v>
+        <v>0.453306</v>
       </c>
       <c r="C48" t="n">
-        <v>0.34724</v>
+        <v>0.34819</v>
       </c>
       <c r="D48" t="n">
-        <v>0.429549</v>
+        <v>0.430391</v>
       </c>
     </row>
     <row r="49">
@@ -8338,13 +8338,13 @@
         <v>97840</v>
       </c>
       <c r="B49" t="n">
-        <v>0.457516</v>
+        <v>0.457007</v>
       </c>
       <c r="C49" t="n">
-        <v>0.35056</v>
+        <v>0.353229</v>
       </c>
       <c r="D49" t="n">
-        <v>0.431577</v>
+        <v>0.433013</v>
       </c>
     </row>
     <row r="50">
@@ -8352,13 +8352,13 @@
         <v>102706</v>
       </c>
       <c r="B50" t="n">
-        <v>0.460816</v>
+        <v>0.460785</v>
       </c>
       <c r="C50" t="n">
-        <v>0.330703</v>
+        <v>0.324613</v>
       </c>
       <c r="D50" t="n">
-        <v>0.427567</v>
+        <v>0.428643</v>
       </c>
     </row>
     <row r="51">
@@ -8366,13 +8366,13 @@
         <v>107816</v>
       </c>
       <c r="B51" t="n">
-        <v>0.465051</v>
+        <v>0.463982</v>
       </c>
       <c r="C51" t="n">
-        <v>0.332788</v>
+        <v>0.32907</v>
       </c>
       <c r="D51" t="n">
-        <v>0.428965</v>
+        <v>0.428796</v>
       </c>
     </row>
     <row r="52">
@@ -8380,13 +8380,13 @@
         <v>113182</v>
       </c>
       <c r="B52" t="n">
-        <v>0.468646</v>
+        <v>0.467508</v>
       </c>
       <c r="C52" t="n">
-        <v>0.334362</v>
+        <v>0.335116</v>
       </c>
       <c r="D52" t="n">
-        <v>0.429851</v>
+        <v>0.430989</v>
       </c>
     </row>
     <row r="53">
@@ -8394,13 +8394,13 @@
         <v>118816</v>
       </c>
       <c r="B53" t="n">
-        <v>0.471784</v>
+        <v>0.471095</v>
       </c>
       <c r="C53" t="n">
-        <v>0.335925</v>
+        <v>0.33721</v>
       </c>
       <c r="D53" t="n">
-        <v>0.431242</v>
+        <v>0.431614</v>
       </c>
     </row>
     <row r="54">
@@ -8408,13 +8408,13 @@
         <v>124731</v>
       </c>
       <c r="B54" t="n">
-        <v>0.475777</v>
+        <v>0.474731</v>
       </c>
       <c r="C54" t="n">
-        <v>0.339994</v>
+        <v>0.33804</v>
       </c>
       <c r="D54" t="n">
-        <v>0.432516</v>
+        <v>0.433594</v>
       </c>
     </row>
     <row r="55">
@@ -8422,13 +8422,13 @@
         <v>130941</v>
       </c>
       <c r="B55" t="n">
-        <v>0.479733</v>
+        <v>0.478136</v>
       </c>
       <c r="C55" t="n">
-        <v>0.342717</v>
+        <v>0.341151</v>
       </c>
       <c r="D55" t="n">
-        <v>0.43383</v>
+        <v>0.434263</v>
       </c>
     </row>
     <row r="56">
@@ -8436,13 +8436,13 @@
         <v>137461</v>
       </c>
       <c r="B56" t="n">
-        <v>0.484086</v>
+        <v>0.482971</v>
       </c>
       <c r="C56" t="n">
-        <v>0.342856</v>
+        <v>0.345194</v>
       </c>
       <c r="D56" t="n">
-        <v>0.435858</v>
+        <v>0.435958</v>
       </c>
     </row>
     <row r="57">
@@ -8450,13 +8450,13 @@
         <v>144307</v>
       </c>
       <c r="B57" t="n">
-        <v>0.48831</v>
+        <v>0.48724</v>
       </c>
       <c r="C57" t="n">
-        <v>0.347835</v>
+        <v>0.351192</v>
       </c>
       <c r="D57" t="n">
-        <v>0.437008</v>
+        <v>0.436977</v>
       </c>
     </row>
     <row r="58">
@@ -8464,13 +8464,13 @@
         <v>151495</v>
       </c>
       <c r="B58" t="n">
-        <v>0.49241</v>
+        <v>0.491292</v>
       </c>
       <c r="C58" t="n">
-        <v>0.354329</v>
+        <v>0.35362</v>
       </c>
       <c r="D58" t="n">
-        <v>0.440972</v>
+        <v>0.438977</v>
       </c>
     </row>
     <row r="59">
@@ -8478,13 +8478,13 @@
         <v>159042</v>
       </c>
       <c r="B59" t="n">
-        <v>0.500296</v>
+        <v>0.49611</v>
       </c>
       <c r="C59" t="n">
-        <v>0.361738</v>
+        <v>0.35706</v>
       </c>
       <c r="D59" t="n">
-        <v>0.441099</v>
+        <v>0.441518</v>
       </c>
     </row>
     <row r="60">
@@ -8492,13 +8492,13 @@
         <v>166965</v>
       </c>
       <c r="B60" t="n">
-        <v>0.502363</v>
+        <v>0.501749</v>
       </c>
       <c r="C60" t="n">
-        <v>0.372133</v>
+        <v>0.365126</v>
       </c>
       <c r="D60" t="n">
-        <v>0.443429</v>
+        <v>0.444334</v>
       </c>
     </row>
     <row r="61">
@@ -8506,13 +8506,13 @@
         <v>175284</v>
       </c>
       <c r="B61" t="n">
-        <v>0.484228</v>
+        <v>0.480884</v>
       </c>
       <c r="C61" t="n">
-        <v>0.379153</v>
+        <v>0.37385</v>
       </c>
       <c r="D61" t="n">
-        <v>0.44594</v>
+        <v>0.44618</v>
       </c>
     </row>
     <row r="62">
@@ -8520,13 +8520,13 @@
         <v>184019</v>
       </c>
       <c r="B62" t="n">
-        <v>0.49432</v>
+        <v>0.490336</v>
       </c>
       <c r="C62" t="n">
-        <v>0.38945</v>
+        <v>0.381834</v>
       </c>
       <c r="D62" t="n">
-        <v>0.447974</v>
+        <v>0.448449</v>
       </c>
     </row>
     <row r="63">
@@ -8534,13 +8534,13 @@
         <v>193190</v>
       </c>
       <c r="B63" t="n">
-        <v>0.501283</v>
+        <v>0.493567</v>
       </c>
       <c r="C63" t="n">
-        <v>0.393493</v>
+        <v>0.391401</v>
       </c>
       <c r="D63" t="n">
-        <v>0.450446</v>
+        <v>0.450679</v>
       </c>
     </row>
     <row r="64">
@@ -8548,13 +8548,13 @@
         <v>202820</v>
       </c>
       <c r="B64" t="n">
-        <v>0.510931</v>
+        <v>0.500786</v>
       </c>
       <c r="C64" t="n">
-        <v>0.445642</v>
+        <v>0.445826</v>
       </c>
       <c r="D64" t="n">
-        <v>0.486377</v>
+        <v>0.473796</v>
       </c>
     </row>
     <row r="65">
@@ -8562,13 +8562,13 @@
         <v>212931</v>
       </c>
       <c r="B65" t="n">
-        <v>0.5230629999999999</v>
+        <v>0.517827</v>
       </c>
       <c r="C65" t="n">
-        <v>0.452718</v>
+        <v>0.455746</v>
       </c>
       <c r="D65" t="n">
-        <v>0.484592</v>
+        <v>0.489013</v>
       </c>
     </row>
     <row r="66">
@@ -8576,13 +8576,13 @@
         <v>223547</v>
       </c>
       <c r="B66" t="n">
-        <v>0.541354</v>
+        <v>0.529189</v>
       </c>
       <c r="C66" t="n">
-        <v>0.476029</v>
+        <v>0.462955</v>
       </c>
       <c r="D66" t="n">
-        <v>0.508942</v>
+        <v>0.500352</v>
       </c>
     </row>
     <row r="67">
@@ -8590,13 +8590,13 @@
         <v>234692</v>
       </c>
       <c r="B67" t="n">
-        <v>0.556081</v>
+        <v>0.555774</v>
       </c>
       <c r="C67" t="n">
-        <v>0.492148</v>
+        <v>0.486483</v>
       </c>
       <c r="D67" t="n">
-        <v>0.498202</v>
+        <v>0.517915</v>
       </c>
     </row>
     <row r="68">
@@ -8604,13 +8604,13 @@
         <v>246395</v>
       </c>
       <c r="B68" t="n">
-        <v>0.545841</v>
+        <v>0.571915</v>
       </c>
       <c r="C68" t="n">
-        <v>0.506338</v>
+        <v>0.507172</v>
       </c>
       <c r="D68" t="n">
-        <v>0.518561</v>
+        <v>0.521635</v>
       </c>
     </row>
     <row r="69">
@@ -8618,13 +8618,13 @@
         <v>258683</v>
       </c>
       <c r="B69" t="n">
-        <v>0.576488</v>
+        <v>0.576501</v>
       </c>
       <c r="C69" t="n">
-        <v>0.535425</v>
+        <v>0.51736</v>
       </c>
       <c r="D69" t="n">
-        <v>0.543921</v>
+        <v>0.5258930000000001</v>
       </c>
     </row>
     <row r="70">
@@ -8632,13 +8632,13 @@
         <v>271585</v>
       </c>
       <c r="B70" t="n">
-        <v>0.6056319999999999</v>
+        <v>0.583378</v>
       </c>
       <c r="C70" t="n">
-        <v>0.552084</v>
+        <v>0.5436839999999999</v>
       </c>
       <c r="D70" t="n">
-        <v>0.554498</v>
+        <v>0.558109</v>
       </c>
     </row>
     <row r="71">
@@ -8646,13 +8646,13 @@
         <v>285132</v>
       </c>
       <c r="B71" t="n">
-        <v>0.622288</v>
+        <v>0.618336</v>
       </c>
       <c r="C71" t="n">
-        <v>0.573736</v>
+        <v>0.565378</v>
       </c>
       <c r="D71" t="n">
-        <v>0.5868679999999999</v>
+        <v>0.579929</v>
       </c>
     </row>
     <row r="72">
@@ -8660,13 +8660,13 @@
         <v>299354</v>
       </c>
       <c r="B72" t="n">
-        <v>0.65686</v>
+        <v>0.646826</v>
       </c>
       <c r="C72" t="n">
-        <v>0.602589</v>
+        <v>0.589979</v>
       </c>
       <c r="D72" t="n">
-        <v>0.596276</v>
+        <v>0.602703</v>
       </c>
     </row>
     <row r="73">
@@ -8674,13 +8674,13 @@
         <v>314289</v>
       </c>
       <c r="B73" t="n">
-        <v>0.672675</v>
+        <v>0.675521</v>
       </c>
       <c r="C73" t="n">
-        <v>0.6204190000000001</v>
+        <v>0.611631</v>
       </c>
       <c r="D73" t="n">
-        <v>0.6230019999999999</v>
+        <v>0.630708</v>
       </c>
     </row>
     <row r="74">
@@ -8688,13 +8688,13 @@
         <v>329969</v>
       </c>
       <c r="B74" t="n">
-        <v>0.69874</v>
+        <v>0.7120069999999999</v>
       </c>
       <c r="C74" t="n">
-        <v>0.64591</v>
+        <v>0.634269</v>
       </c>
       <c r="D74" t="n">
-        <v>0.649118</v>
+        <v>0.642818</v>
       </c>
     </row>
     <row r="75">
@@ -8702,13 +8702,13 @@
         <v>346432</v>
       </c>
       <c r="B75" t="n">
-        <v>0.752852</v>
+        <v>0.730474</v>
       </c>
       <c r="C75" t="n">
-        <v>0.671272</v>
+        <v>0.654262</v>
       </c>
       <c r="D75" t="n">
-        <v>0.694335</v>
+        <v>0.690324</v>
       </c>
     </row>
     <row r="76">
@@ -8716,13 +8716,13 @@
         <v>363719</v>
       </c>
       <c r="B76" t="n">
-        <v>0.9602619999999999</v>
+        <v>0.9506790000000001</v>
       </c>
       <c r="C76" t="n">
-        <v>0.69334</v>
+        <v>0.680248</v>
       </c>
       <c r="D76" t="n">
-        <v>0.732171</v>
+        <v>0.722928</v>
       </c>
     </row>
     <row r="77">
@@ -8730,13 +8730,13 @@
         <v>381870</v>
       </c>
       <c r="B77" t="n">
-        <v>1.0029</v>
+        <v>1.00063</v>
       </c>
       <c r="C77" t="n">
-        <v>0.716931</v>
+        <v>0.70486</v>
       </c>
       <c r="D77" t="n">
-        <v>0.770407</v>
+        <v>0.762606</v>
       </c>
     </row>
     <row r="78">
@@ -8744,13 +8744,13 @@
         <v>400928</v>
       </c>
       <c r="B78" t="n">
-        <v>1.04977</v>
+        <v>1.04831</v>
       </c>
       <c r="C78" t="n">
-        <v>0.835075</v>
+        <v>0.823725</v>
       </c>
       <c r="D78" t="n">
-        <v>1.02002</v>
+        <v>1.01284</v>
       </c>
     </row>
     <row r="79">
@@ -8758,13 +8758,13 @@
         <v>420937</v>
       </c>
       <c r="B79" t="n">
-        <v>1.09304</v>
+        <v>1.08358</v>
       </c>
       <c r="C79" t="n">
-        <v>0.845296</v>
+        <v>0.836417</v>
       </c>
       <c r="D79" t="n">
-        <v>1.05126</v>
+        <v>1.04322</v>
       </c>
     </row>
     <row r="80">
@@ -8772,13 +8772,13 @@
         <v>441947</v>
       </c>
       <c r="B80" t="n">
-        <v>1.14456</v>
+        <v>1.15169</v>
       </c>
       <c r="C80" t="n">
-        <v>0.858284</v>
+        <v>0.855542</v>
       </c>
       <c r="D80" t="n">
-        <v>1.11662</v>
+        <v>1.11525</v>
       </c>
     </row>
     <row r="81">
@@ -8786,13 +8786,13 @@
         <v>464005</v>
       </c>
       <c r="B81" t="n">
-        <v>1.19976</v>
+        <v>1.19648</v>
       </c>
       <c r="C81" t="n">
-        <v>0.875383</v>
+        <v>0.870996</v>
       </c>
       <c r="D81" t="n">
-        <v>1.16069</v>
+        <v>1.16315</v>
       </c>
     </row>
     <row r="82">
@@ -8800,13 +8800,13 @@
         <v>487165</v>
       </c>
       <c r="B82" t="n">
-        <v>1.25378</v>
+        <v>1.24776</v>
       </c>
       <c r="C82" t="n">
-        <v>0.888979</v>
+        <v>0.887422</v>
       </c>
       <c r="D82" t="n">
-        <v>1.2214</v>
+        <v>1.21679</v>
       </c>
     </row>
     <row r="83">
@@ -8814,13 +8814,13 @@
         <v>511485</v>
       </c>
       <c r="B83" t="n">
-        <v>1.30665</v>
+        <v>1.30629</v>
       </c>
       <c r="C83" t="n">
-        <v>0.89995</v>
+        <v>0.902156</v>
       </c>
       <c r="D83" t="n">
-        <v>1.2719</v>
+        <v>1.26905</v>
       </c>
     </row>
     <row r="84">
@@ -8828,13 +8828,13 @@
         <v>537019</v>
       </c>
       <c r="B84" t="n">
-        <v>1.36132</v>
+        <v>1.35689</v>
       </c>
       <c r="C84" t="n">
-        <v>0.915697</v>
+        <v>0.919556</v>
       </c>
       <c r="D84" t="n">
-        <v>1.31711</v>
+        <v>1.30157</v>
       </c>
     </row>
     <row r="85">
@@ -8842,13 +8842,13 @@
         <v>563827</v>
       </c>
       <c r="B85" t="n">
-        <v>1.40491</v>
+        <v>1.39447</v>
       </c>
       <c r="C85" t="n">
-        <v>0.928042</v>
+        <v>0.933527</v>
       </c>
       <c r="D85" t="n">
-        <v>1.36667</v>
+        <v>1.36146</v>
       </c>
     </row>
     <row r="86">
@@ -8856,13 +8856,13 @@
         <v>591977</v>
       </c>
       <c r="B86" t="n">
-        <v>1.46206</v>
+        <v>1.45541</v>
       </c>
       <c r="C86" t="n">
-        <v>0.941431</v>
+        <v>0.95168</v>
       </c>
       <c r="D86" t="n">
-        <v>1.41163</v>
+        <v>1.40917</v>
       </c>
     </row>
     <row r="87">
@@ -8870,13 +8870,13 @@
         <v>621532</v>
       </c>
       <c r="B87" t="n">
-        <v>1.50489</v>
+        <v>1.50278</v>
       </c>
       <c r="C87" t="n">
-        <v>0.953494</v>
+        <v>0.965994</v>
       </c>
       <c r="D87" t="n">
-        <v>1.45488</v>
+        <v>1.45322</v>
       </c>
     </row>
     <row r="88">
@@ -8884,13 +8884,13 @@
         <v>652567</v>
       </c>
       <c r="B88" t="n">
-        <v>1.55266</v>
+        <v>1.55004</v>
       </c>
       <c r="C88" t="n">
-        <v>0.967328</v>
+        <v>0.981255</v>
       </c>
       <c r="D88" t="n">
-        <v>1.50247</v>
+        <v>1.50333</v>
       </c>
     </row>
     <row r="89">
@@ -8898,13 +8898,13 @@
         <v>685151</v>
       </c>
       <c r="B89" t="n">
-        <v>1.60023</v>
+        <v>1.60615</v>
       </c>
       <c r="C89" t="n">
-        <v>0.978779</v>
+        <v>0.999165</v>
       </c>
       <c r="D89" t="n">
-        <v>1.54212</v>
+        <v>1.54769</v>
       </c>
     </row>
     <row r="90">
@@ -8912,13 +8912,13 @@
         <v>719359</v>
       </c>
       <c r="B90" t="n">
-        <v>1.82708</v>
+        <v>1.81303</v>
       </c>
       <c r="C90" t="n">
-        <v>0.993103</v>
+        <v>1.01588</v>
       </c>
       <c r="D90" t="n">
-        <v>1.58417</v>
+        <v>1.58844</v>
       </c>
     </row>
     <row r="91">
@@ -8926,13 +8926,13 @@
         <v>755280</v>
       </c>
       <c r="B91" t="n">
-        <v>1.86237</v>
+        <v>1.85478</v>
       </c>
       <c r="C91" t="n">
-        <v>1.00889</v>
+        <v>1.0325</v>
       </c>
       <c r="D91" t="n">
-        <v>1.62905</v>
+        <v>1.62768</v>
       </c>
     </row>
     <row r="92">
@@ -8940,13 +8940,13 @@
         <v>792997</v>
       </c>
       <c r="B92" t="n">
-        <v>1.89606</v>
+        <v>1.89768</v>
       </c>
       <c r="C92" t="n">
-        <v>1.06709</v>
+        <v>1.06252</v>
       </c>
       <c r="D92" t="n">
-        <v>1.84211</v>
+        <v>1.83857</v>
       </c>
     </row>
     <row r="93">
@@ -8954,13 +8954,13 @@
         <v>832595</v>
       </c>
       <c r="B93" t="n">
-        <v>1.92838</v>
+        <v>1.92342</v>
       </c>
       <c r="C93" t="n">
-        <v>1.07499</v>
+        <v>1.07272</v>
       </c>
       <c r="D93" t="n">
-        <v>1.87468</v>
+        <v>1.88057</v>
       </c>
     </row>
     <row r="94">
@@ -8968,13 +8968,13 @@
         <v>874177</v>
       </c>
       <c r="B94" t="n">
-        <v>1.96312</v>
+        <v>1.96645</v>
       </c>
       <c r="C94" t="n">
-        <v>1.08375</v>
+        <v>1.08128</v>
       </c>
       <c r="D94" t="n">
-        <v>1.90496</v>
+        <v>1.91233</v>
       </c>
     </row>
     <row r="95">
@@ -8982,13 +8982,13 @@
         <v>917832</v>
       </c>
       <c r="B95" t="n">
-        <v>1.99507</v>
+        <v>1.99491</v>
       </c>
       <c r="C95" t="n">
-        <v>1.08575</v>
+        <v>1.09241</v>
       </c>
       <c r="D95" t="n">
-        <v>1.93159</v>
+        <v>1.92835</v>
       </c>
     </row>
     <row r="96">
@@ -8996,13 +8996,13 @@
         <v>963677</v>
       </c>
       <c r="B96" t="n">
-        <v>2.02806</v>
+        <v>2.01809</v>
       </c>
       <c r="C96" t="n">
-        <v>1.09666</v>
+        <v>1.10234</v>
       </c>
       <c r="D96" t="n">
-        <v>1.96798</v>
+        <v>1.96618</v>
       </c>
     </row>
     <row r="97">
@@ -9010,13 +9010,13 @@
         <v>1011813</v>
       </c>
       <c r="B97" t="n">
-        <v>2.0562</v>
+        <v>2.05484</v>
       </c>
       <c r="C97" t="n">
-        <v>1.10375</v>
+        <v>1.11319</v>
       </c>
       <c r="D97" t="n">
-        <v>1.98867</v>
+        <v>1.99124</v>
       </c>
     </row>
     <row r="98">
@@ -9024,13 +9024,13 @@
         <v>1062351</v>
       </c>
       <c r="B98" t="n">
-        <v>2.09046</v>
+        <v>2.08145</v>
       </c>
       <c r="C98" t="n">
-        <v>1.11677</v>
+        <v>1.11952</v>
       </c>
       <c r="D98" t="n">
-        <v>2.01866</v>
+        <v>2.00979</v>
       </c>
     </row>
     <row r="99">
@@ -9038,13 +9038,13 @@
         <v>1115422</v>
       </c>
       <c r="B99" t="n">
-        <v>2.11387</v>
+        <v>2.10923</v>
       </c>
       <c r="C99" t="n">
-        <v>1.11973</v>
+        <v>1.13168</v>
       </c>
       <c r="D99" t="n">
-        <v>2.04255</v>
+        <v>2.04719</v>
       </c>
     </row>
     <row r="100">
@@ -9052,13 +9052,13 @@
         <v>1171143</v>
       </c>
       <c r="B100" t="n">
-        <v>2.15227</v>
+        <v>2.14817</v>
       </c>
       <c r="C100" t="n">
-        <v>1.13345</v>
+        <v>1.14602</v>
       </c>
       <c r="D100" t="n">
-        <v>2.06624</v>
+        <v>2.06016</v>
       </c>
     </row>
     <row r="101">
@@ -9066,13 +9066,13 @@
         <v>1229634</v>
       </c>
       <c r="B101" t="n">
-        <v>2.175</v>
+        <v>2.17448</v>
       </c>
       <c r="C101" t="n">
-        <v>1.14255</v>
+        <v>1.15777</v>
       </c>
       <c r="D101" t="n">
-        <v>2.08969</v>
+        <v>2.09465</v>
       </c>
     </row>
     <row r="102">
@@ -9080,13 +9080,13 @@
         <v>1291062</v>
       </c>
       <c r="B102" t="n">
-        <v>2.2029</v>
+        <v>2.20128</v>
       </c>
       <c r="C102" t="n">
-        <v>1.14882</v>
+        <v>1.17064</v>
       </c>
       <c r="D102" t="n">
-        <v>2.11157</v>
+        <v>2.09542</v>
       </c>
     </row>
     <row r="103">
@@ -9094,13 +9094,13 @@
         <v>1355554</v>
       </c>
       <c r="B103" t="n">
-        <v>2.22549</v>
+        <v>2.22782</v>
       </c>
       <c r="C103" t="n">
-        <v>1.16398</v>
+        <v>1.18464</v>
       </c>
       <c r="D103" t="n">
-        <v>2.1343</v>
+        <v>2.12696</v>
       </c>
     </row>
     <row r="104">
@@ -9108,13 +9108,13 @@
         <v>1423274</v>
       </c>
       <c r="B104" t="n">
-        <v>2.25226</v>
+        <v>2.25502</v>
       </c>
       <c r="C104" t="n">
-        <v>1.17316</v>
+        <v>1.19742</v>
       </c>
       <c r="D104" t="n">
-        <v>2.14943</v>
+        <v>2.1609</v>
       </c>
     </row>
     <row r="105">
@@ -9122,13 +9122,13 @@
         <v>1494380</v>
       </c>
       <c r="B105" t="n">
-        <v>2.3392</v>
+        <v>2.33247</v>
       </c>
       <c r="C105" t="n">
-        <v>1.18913</v>
+        <v>1.20952</v>
       </c>
       <c r="D105" t="n">
-        <v>2.17499</v>
+        <v>2.18033</v>
       </c>
     </row>
     <row r="106">
@@ -9136,13 +9136,13 @@
         <v>1569031</v>
       </c>
       <c r="B106" t="n">
-        <v>2.35861</v>
+        <v>2.35276</v>
       </c>
       <c r="C106" t="n">
-        <v>1.20387</v>
+        <v>1.22774</v>
       </c>
       <c r="D106" t="n">
-        <v>2.20184</v>
+        <v>2.20635</v>
       </c>
     </row>
     <row r="107">
@@ -9150,13 +9150,13 @@
         <v>1647417</v>
       </c>
       <c r="B107" t="n">
-        <v>2.38001</v>
+        <v>2.37333</v>
       </c>
       <c r="C107" t="n">
-        <v>1.207</v>
+        <v>1.18781</v>
       </c>
       <c r="D107" t="n">
-        <v>2.29952</v>
+        <v>2.30666</v>
       </c>
     </row>
     <row r="108">
@@ -9164,13 +9164,13 @@
         <v>1729734</v>
       </c>
       <c r="B108" t="n">
-        <v>2.39653</v>
+        <v>2.40322</v>
       </c>
       <c r="C108" t="n">
-        <v>1.21813</v>
+        <v>1.2003</v>
       </c>
       <c r="D108" t="n">
-        <v>2.29941</v>
+        <v>2.31837</v>
       </c>
     </row>
     <row r="109">
@@ -9178,13 +9178,13 @@
         <v>1816153</v>
       </c>
       <c r="B109" t="n">
-        <v>2.42106</v>
+        <v>2.4268</v>
       </c>
       <c r="C109" t="n">
-        <v>1.2223</v>
+        <v>1.21077</v>
       </c>
       <c r="D109" t="n">
-        <v>2.3417</v>
+        <v>2.34207</v>
       </c>
     </row>
     <row r="110">
@@ -9192,13 +9192,13 @@
         <v>1906885</v>
       </c>
       <c r="B110" t="n">
-        <v>2.44357</v>
+        <v>2.44272</v>
       </c>
       <c r="C110" t="n">
-        <v>1.22992</v>
+        <v>1.21986</v>
       </c>
       <c r="D110" t="n">
-        <v>2.3557</v>
+        <v>2.35194</v>
       </c>
     </row>
     <row r="111">
@@ -9206,13 +9206,13 @@
         <v>2002164</v>
       </c>
       <c r="B111" t="n">
-        <v>2.46047</v>
+        <v>2.46363</v>
       </c>
       <c r="C111" t="n">
-        <v>1.23778</v>
+        <v>1.22985</v>
       </c>
       <c r="D111" t="n">
-        <v>2.35945</v>
+        <v>2.36436</v>
       </c>
     </row>
     <row r="112">
@@ -9220,13 +9220,13 @@
         <v>2102198</v>
       </c>
       <c r="B112" t="n">
-        <v>2.47885</v>
+        <v>2.48191</v>
       </c>
       <c r="C112" t="n">
-        <v>1.24441</v>
+        <v>1.23712</v>
       </c>
       <c r="D112" t="n">
-        <v>2.38395</v>
+        <v>2.38243</v>
       </c>
     </row>
     <row r="113">
@@ -9234,13 +9234,13 @@
         <v>2207233</v>
       </c>
       <c r="B113" t="n">
-        <v>2.49827</v>
+        <v>2.50204</v>
       </c>
       <c r="C113" t="n">
-        <v>1.25301</v>
+        <v>1.24803</v>
       </c>
       <c r="D113" t="n">
-        <v>2.38584</v>
+        <v>2.3947</v>
       </c>
     </row>
     <row r="114">
@@ -9248,13 +9248,13 @@
         <v>2317508</v>
       </c>
       <c r="B114" t="n">
-        <v>2.51414</v>
+        <v>2.51844</v>
       </c>
       <c r="C114" t="n">
-        <v>1.26096</v>
+        <v>1.251</v>
       </c>
       <c r="D114" t="n">
-        <v>2.40037</v>
+        <v>2.40919</v>
       </c>
     </row>
     <row r="115">
@@ -9262,13 +9262,13 @@
         <v>2433290</v>
       </c>
       <c r="B115" t="n">
-        <v>2.53669</v>
+        <v>2.53215</v>
       </c>
       <c r="C115" t="n">
-        <v>1.26887</v>
+        <v>1.26953</v>
       </c>
       <c r="D115" t="n">
-        <v>2.42188</v>
+        <v>2.42514</v>
       </c>
     </row>
     <row r="116">
@@ -9276,13 +9276,13 @@
         <v>2554854</v>
       </c>
       <c r="B116" t="n">
-        <v>2.55087</v>
+        <v>2.55971</v>
       </c>
       <c r="C116" t="n">
-        <v>1.28147</v>
+        <v>1.28092</v>
       </c>
       <c r="D116" t="n">
-        <v>2.43407</v>
+        <v>2.43977</v>
       </c>
     </row>
     <row r="117">
@@ -9290,13 +9290,13 @@
         <v>2682511</v>
       </c>
       <c r="B117" t="n">
-        <v>2.5745</v>
+        <v>2.56783</v>
       </c>
       <c r="C117" t="n">
-        <v>1.29333</v>
+        <v>1.28392</v>
       </c>
       <c r="D117" t="n">
-        <v>2.44667</v>
+        <v>2.44926</v>
       </c>
     </row>
     <row r="118">
@@ -9304,13 +9304,13 @@
         <v>2816546</v>
       </c>
       <c r="B118" t="n">
-        <v>2.58786</v>
+        <v>2.59563</v>
       </c>
       <c r="C118" t="n">
-        <v>1.30081</v>
+        <v>1.30135</v>
       </c>
       <c r="D118" t="n">
-        <v>2.45534</v>
+        <v>2.46469</v>
       </c>
     </row>
     <row r="119">
@@ -9318,13 +9318,13 @@
         <v>2957287</v>
       </c>
       <c r="B119" t="n">
-        <v>2.61308</v>
+        <v>2.61489</v>
       </c>
       <c r="C119" t="n">
-        <v>1.31662</v>
+        <v>1.31388</v>
       </c>
       <c r="D119" t="n">
-        <v>2.46067</v>
+        <v>2.47038</v>
       </c>
     </row>
   </sheetData>
@@ -9372,13 +9372,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.512967</v>
+        <v>0.477261</v>
       </c>
       <c r="C2" t="n">
-        <v>0.453074</v>
+        <v>0.364389</v>
       </c>
       <c r="D2" t="n">
-        <v>0.354642</v>
+        <v>0.339344</v>
       </c>
     </row>
     <row r="3">
@@ -9386,13 +9386,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.519841</v>
+        <v>0.502949</v>
       </c>
       <c r="C3" t="n">
-        <v>0.458805</v>
+        <v>0.373067</v>
       </c>
       <c r="D3" t="n">
-        <v>0.35886</v>
+        <v>0.339591</v>
       </c>
     </row>
     <row r="4">
@@ -9400,13 +9400,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.521962</v>
+        <v>0.502154</v>
       </c>
       <c r="C4" t="n">
-        <v>0.466967</v>
+        <v>0.375643</v>
       </c>
       <c r="D4" t="n">
-        <v>0.359397</v>
+        <v>0.341795</v>
       </c>
     </row>
     <row r="5">
@@ -9414,13 +9414,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.531571</v>
+        <v>0.517566</v>
       </c>
       <c r="C5" t="n">
-        <v>0.469889</v>
+        <v>0.382204</v>
       </c>
       <c r="D5" t="n">
-        <v>0.365605</v>
+        <v>0.34656</v>
       </c>
     </row>
     <row r="6">
@@ -9428,13 +9428,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.543313</v>
+        <v>0.525335</v>
       </c>
       <c r="C6" t="n">
-        <v>0.470783</v>
+        <v>0.388837</v>
       </c>
       <c r="D6" t="n">
-        <v>0.370537</v>
+        <v>0.353586</v>
       </c>
     </row>
     <row r="7">
@@ -9442,13 +9442,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.550289</v>
+        <v>0.534415</v>
       </c>
       <c r="C7" t="n">
-        <v>0.491566</v>
+        <v>0.399353</v>
       </c>
       <c r="D7" t="n">
-        <v>0.381807</v>
+        <v>0.364683</v>
       </c>
     </row>
     <row r="8">
@@ -9456,13 +9456,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.5589190000000001</v>
+        <v>0.53289</v>
       </c>
       <c r="C8" t="n">
-        <v>0.495771</v>
+        <v>0.405366</v>
       </c>
       <c r="D8" t="n">
-        <v>0.382095</v>
+        <v>0.365696</v>
       </c>
     </row>
     <row r="9">
@@ -9470,13 +9470,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.554084</v>
+        <v>0.537882</v>
       </c>
       <c r="C9" t="n">
-        <v>0.503621</v>
+        <v>0.41474</v>
       </c>
       <c r="D9" t="n">
-        <v>0.391356</v>
+        <v>0.375609</v>
       </c>
     </row>
     <row r="10">
@@ -9484,13 +9484,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.5682700000000001</v>
+        <v>0.558438</v>
       </c>
       <c r="C10" t="n">
-        <v>0.505549</v>
+        <v>0.41567</v>
       </c>
       <c r="D10" t="n">
-        <v>0.392332</v>
+        <v>0.380197</v>
       </c>
     </row>
     <row r="11">
@@ -9498,13 +9498,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.572296</v>
+        <v>0.564518</v>
       </c>
       <c r="C11" t="n">
-        <v>0.5013570000000001</v>
+        <v>0.414829</v>
       </c>
       <c r="D11" t="n">
-        <v>0.395567</v>
+        <v>0.381945</v>
       </c>
     </row>
     <row r="12">
@@ -9512,13 +9512,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.581471</v>
+        <v>0.573573</v>
       </c>
       <c r="C12" t="n">
-        <v>0.507826</v>
+        <v>0.422054</v>
       </c>
       <c r="D12" t="n">
-        <v>0.403242</v>
+        <v>0.392011</v>
       </c>
     </row>
     <row r="13">
@@ -9526,13 +9526,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.5935</v>
+        <v>0.586294</v>
       </c>
       <c r="C13" t="n">
-        <v>0.511356</v>
+        <v>0.426624</v>
       </c>
       <c r="D13" t="n">
-        <v>0.403287</v>
+        <v>0.396185</v>
       </c>
     </row>
     <row r="14">
@@ -9540,13 +9540,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.594262</v>
+        <v>0.590597</v>
       </c>
       <c r="C14" t="n">
-        <v>0.513652</v>
+        <v>0.427667</v>
       </c>
       <c r="D14" t="n">
-        <v>0.410348</v>
+        <v>0.400319</v>
       </c>
     </row>
     <row r="15">
@@ -9554,13 +9554,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.604824</v>
+        <v>0.600498</v>
       </c>
       <c r="C15" t="n">
-        <v>0.514495</v>
+        <v>0.431702</v>
       </c>
       <c r="D15" t="n">
-        <v>0.417199</v>
+        <v>0.407174</v>
       </c>
     </row>
     <row r="16">
@@ -9568,13 +9568,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.615783</v>
+        <v>0.6125660000000001</v>
       </c>
       <c r="C16" t="n">
-        <v>0.521153</v>
+        <v>0.438198</v>
       </c>
       <c r="D16" t="n">
-        <v>0.419746</v>
+        <v>0.409709</v>
       </c>
     </row>
     <row r="17">
@@ -9582,13 +9582,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.626619</v>
+        <v>0.618575</v>
       </c>
       <c r="C17" t="n">
-        <v>0.527501</v>
+        <v>0.443128</v>
       </c>
       <c r="D17" t="n">
-        <v>0.425522</v>
+        <v>0.417689</v>
       </c>
     </row>
     <row r="18">
@@ -9596,13 +9596,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.643597</v>
+        <v>0.632522</v>
       </c>
       <c r="C18" t="n">
-        <v>0.527739</v>
+        <v>0.444269</v>
       </c>
       <c r="D18" t="n">
-        <v>0.433089</v>
+        <v>0.422378</v>
       </c>
     </row>
     <row r="19">
@@ -9610,13 +9610,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.654447</v>
+        <v>0.647949</v>
       </c>
       <c r="C19" t="n">
-        <v>0.529128</v>
+        <v>0.451093</v>
       </c>
       <c r="D19" t="n">
-        <v>0.436093</v>
+        <v>0.427896</v>
       </c>
     </row>
     <row r="20">
@@ -9624,13 +9624,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.664737</v>
+        <v>0.657577</v>
       </c>
       <c r="C20" t="n">
-        <v>0.54172</v>
+        <v>0.45967</v>
       </c>
       <c r="D20" t="n">
-        <v>0.442509</v>
+        <v>0.435413</v>
       </c>
     </row>
     <row r="21">
@@ -9638,13 +9638,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.675143</v>
+        <v>0.669965</v>
       </c>
       <c r="C21" t="n">
-        <v>0.553607</v>
+        <v>0.465079</v>
       </c>
       <c r="D21" t="n">
-        <v>0.448913</v>
+        <v>0.442218</v>
       </c>
     </row>
     <row r="22">
@@ -9652,13 +9652,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.681844</v>
+        <v>0.678155</v>
       </c>
       <c r="C22" t="n">
-        <v>0.55947</v>
+        <v>0.471969</v>
       </c>
       <c r="D22" t="n">
-        <v>0.453879</v>
+        <v>0.446793</v>
       </c>
     </row>
     <row r="23">
@@ -9666,13 +9666,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.689053</v>
+        <v>0.685423</v>
       </c>
       <c r="C23" t="n">
-        <v>0.558361</v>
+        <v>0.472814</v>
       </c>
       <c r="D23" t="n">
-        <v>0.459804</v>
+        <v>0.449303</v>
       </c>
     </row>
     <row r="24">
@@ -9680,13 +9680,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.6932970000000001</v>
+        <v>0.687294</v>
       </c>
       <c r="C24" t="n">
-        <v>0.563217</v>
+        <v>0.476747</v>
       </c>
       <c r="D24" t="n">
-        <v>0.465453</v>
+        <v>0.457186</v>
       </c>
     </row>
     <row r="25">
@@ -9694,13 +9694,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.703576</v>
+        <v>0.695466</v>
       </c>
       <c r="C25" t="n">
-        <v>0.572695</v>
+        <v>0.487426</v>
       </c>
       <c r="D25" t="n">
-        <v>0.46929</v>
+        <v>0.462775</v>
       </c>
     </row>
     <row r="26">
@@ -9708,13 +9708,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.7098139999999999</v>
+        <v>0.701476</v>
       </c>
       <c r="C26" t="n">
-        <v>0.566976</v>
+        <v>0.4848</v>
       </c>
       <c r="D26" t="n">
-        <v>0.47286</v>
+        <v>0.464887</v>
       </c>
     </row>
     <row r="27">
@@ -9722,13 +9722,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.720868</v>
+        <v>0.71465</v>
       </c>
       <c r="C27" t="n">
-        <v>0.576639</v>
+        <v>0.491586</v>
       </c>
       <c r="D27" t="n">
-        <v>0.476356</v>
+        <v>0.469228</v>
       </c>
     </row>
     <row r="28">
@@ -9736,13 +9736,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.722615</v>
+        <v>0.7191</v>
       </c>
       <c r="C28" t="n">
-        <v>0.580995</v>
+        <v>0.497741</v>
       </c>
       <c r="D28" t="n">
-        <v>0.481021</v>
+        <v>0.476221</v>
       </c>
     </row>
     <row r="29">
@@ -9750,13 +9750,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.7367899999999999</v>
+        <v>0.731712</v>
       </c>
       <c r="C29" t="n">
-        <v>0.583747</v>
+        <v>0.5018010000000001</v>
       </c>
       <c r="D29" t="n">
-        <v>0.485406</v>
+        <v>0.480144</v>
       </c>
     </row>
     <row r="30">
@@ -9764,13 +9764,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.73866</v>
+        <v>0.736227</v>
       </c>
       <c r="C30" t="n">
-        <v>0.587818</v>
+        <v>0.504513</v>
       </c>
       <c r="D30" t="n">
-        <v>0.489245</v>
+        <v>0.48344</v>
       </c>
     </row>
     <row r="31">
@@ -9778,13 +9778,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.748726</v>
+        <v>0.743262</v>
       </c>
       <c r="C31" t="n">
-        <v>0.587342</v>
+        <v>0.5072990000000001</v>
       </c>
       <c r="D31" t="n">
-        <v>0.49424</v>
+        <v>0.489165</v>
       </c>
     </row>
     <row r="32">
@@ -9792,13 +9792,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.741999</v>
+        <v>0.735354</v>
       </c>
       <c r="C32" t="n">
-        <v>0.590925</v>
+        <v>0.511697</v>
       </c>
       <c r="D32" t="n">
-        <v>0.494506</v>
+        <v>0.491142</v>
       </c>
     </row>
     <row r="33">
@@ -9806,13 +9806,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.7466120000000001</v>
+        <v>0.742846</v>
       </c>
       <c r="C33" t="n">
-        <v>0.594737</v>
+        <v>0.517213</v>
       </c>
       <c r="D33" t="n">
-        <v>0.499818</v>
+        <v>0.495795</v>
       </c>
     </row>
     <row r="34">
@@ -9820,13 +9820,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.759013</v>
+        <v>0.7517470000000001</v>
       </c>
       <c r="C34" t="n">
-        <v>0.602104</v>
+        <v>0.5229780000000001</v>
       </c>
       <c r="D34" t="n">
-        <v>0.501758</v>
+        <v>0.498792</v>
       </c>
     </row>
     <row r="35">
@@ -9834,13 +9834,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.761747</v>
+        <v>0.755516</v>
       </c>
       <c r="C35" t="n">
-        <v>0.593113</v>
+        <v>0.504836</v>
       </c>
       <c r="D35" t="n">
-        <v>0.506125</v>
+        <v>0.500494</v>
       </c>
     </row>
     <row r="36">
@@ -9848,13 +9848,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.770826</v>
+        <v>0.7608470000000001</v>
       </c>
       <c r="C36" t="n">
-        <v>0.594774</v>
+        <v>0.507904</v>
       </c>
       <c r="D36" t="n">
-        <v>0.509832</v>
+        <v>0.503999</v>
       </c>
     </row>
     <row r="37">
@@ -9862,13 +9862,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.774071</v>
+        <v>0.769149</v>
       </c>
       <c r="C37" t="n">
-        <v>0.598974</v>
+        <v>0.510562</v>
       </c>
       <c r="D37" t="n">
-        <v>0.5116849999999999</v>
+        <v>0.504652</v>
       </c>
     </row>
     <row r="38">
@@ -9876,13 +9876,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.777541</v>
+        <v>0.771962</v>
       </c>
       <c r="C38" t="n">
-        <v>0.598947</v>
+        <v>0.509862</v>
       </c>
       <c r="D38" t="n">
-        <v>0.515602</v>
+        <v>0.5096540000000001</v>
       </c>
     </row>
     <row r="39">
@@ -9890,13 +9890,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.7820780000000001</v>
+        <v>0.777605</v>
       </c>
       <c r="C39" t="n">
-        <v>0.602116</v>
+        <v>0.5165149999999999</v>
       </c>
       <c r="D39" t="n">
-        <v>0.51894</v>
+        <v>0.5140749999999999</v>
       </c>
     </row>
     <row r="40">
@@ -9904,13 +9904,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.7878309999999999</v>
+        <v>0.7841360000000001</v>
       </c>
       <c r="C40" t="n">
-        <v>0.604617</v>
+        <v>0.519103</v>
       </c>
       <c r="D40" t="n">
-        <v>0.5200129999999999</v>
+        <v>0.515664</v>
       </c>
     </row>
     <row r="41">
@@ -9918,13 +9918,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.795351</v>
+        <v>0.79149</v>
       </c>
       <c r="C41" t="n">
-        <v>0.605293</v>
+        <v>0.521855</v>
       </c>
       <c r="D41" t="n">
-        <v>0.521674</v>
+        <v>0.517526</v>
       </c>
     </row>
     <row r="42">
@@ -9932,13 +9932,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.799908</v>
+        <v>0.798277</v>
       </c>
       <c r="C42" t="n">
-        <v>0.604275</v>
+        <v>0.522228</v>
       </c>
       <c r="D42" t="n">
-        <v>0.525127</v>
+        <v>0.522115</v>
       </c>
     </row>
     <row r="43">
@@ -9946,13 +9946,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.806364</v>
+        <v>0.803154</v>
       </c>
       <c r="C43" t="n">
-        <v>0.606263</v>
+        <v>0.523746</v>
       </c>
       <c r="D43" t="n">
-        <v>0.528133</v>
+        <v>0.52474</v>
       </c>
     </row>
     <row r="44">
@@ -9960,13 +9960,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.805377</v>
+        <v>0.802934</v>
       </c>
       <c r="C44" t="n">
-        <v>0.608254</v>
+        <v>0.526688</v>
       </c>
       <c r="D44" t="n">
-        <v>0.528357</v>
+        <v>0.524415</v>
       </c>
     </row>
     <row r="45">
@@ -9974,13 +9974,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.812897</v>
+        <v>0.809812</v>
       </c>
       <c r="C45" t="n">
-        <v>0.60984</v>
+        <v>0.529243</v>
       </c>
       <c r="D45" t="n">
-        <v>0.530548</v>
+        <v>0.52755</v>
       </c>
     </row>
     <row r="46">
@@ -9988,13 +9988,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.815161</v>
+        <v>0.812692</v>
       </c>
       <c r="C46" t="n">
-        <v>0.611567</v>
+        <v>0.530631</v>
       </c>
       <c r="D46" t="n">
-        <v>0.533212</v>
+        <v>0.5306070000000001</v>
       </c>
     </row>
     <row r="47">
@@ -10002,13 +10002,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.794387</v>
+        <v>0.790438</v>
       </c>
       <c r="C47" t="n">
-        <v>0.610476</v>
+        <v>0.5291</v>
       </c>
       <c r="D47" t="n">
-        <v>0.5345490000000001</v>
+        <v>0.532331</v>
       </c>
     </row>
     <row r="48">
@@ -10016,13 +10016,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.800022</v>
+        <v>0.797394</v>
       </c>
       <c r="C48" t="n">
-        <v>0.617041</v>
+        <v>0.538259</v>
       </c>
       <c r="D48" t="n">
-        <v>0.5367150000000001</v>
+        <v>0.534331</v>
       </c>
     </row>
     <row r="49">
@@ -10030,13 +10030,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.802836</v>
+        <v>0.79889</v>
       </c>
       <c r="C49" t="n">
-        <v>0.61894</v>
+        <v>0.540934</v>
       </c>
       <c r="D49" t="n">
-        <v>0.538333</v>
+        <v>0.535297</v>
       </c>
     </row>
     <row r="50">
@@ -10044,13 +10044,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.807441</v>
+        <v>0.8036140000000001</v>
       </c>
       <c r="C50" t="n">
-        <v>0.616967</v>
+        <v>0.53379</v>
       </c>
       <c r="D50" t="n">
-        <v>0.537527</v>
+        <v>0.535006</v>
       </c>
     </row>
     <row r="51">
@@ -10058,13 +10058,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.80892</v>
+        <v>0.806107</v>
       </c>
       <c r="C51" t="n">
-        <v>0.616768</v>
+        <v>0.533482</v>
       </c>
       <c r="D51" t="n">
-        <v>0.53683</v>
+        <v>0.536717</v>
       </c>
     </row>
     <row r="52">
@@ -10072,13 +10072,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.812011</v>
+        <v>0.8081930000000001</v>
       </c>
       <c r="C52" t="n">
-        <v>0.623321</v>
+        <v>0.538521</v>
       </c>
       <c r="D52" t="n">
-        <v>0.5412940000000001</v>
+        <v>0.539114</v>
       </c>
     </row>
     <row r="53">
@@ -10086,13 +10086,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.817014</v>
+        <v>0.8133359999999999</v>
       </c>
       <c r="C53" t="n">
-        <v>0.626687</v>
+        <v>0.539848</v>
       </c>
       <c r="D53" t="n">
-        <v>0.544077</v>
+        <v>0.542161</v>
       </c>
     </row>
     <row r="54">
@@ -10100,13 +10100,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.820021</v>
+        <v>0.817203</v>
       </c>
       <c r="C54" t="n">
-        <v>0.625628</v>
+        <v>0.546436</v>
       </c>
       <c r="D54" t="n">
-        <v>0.545378</v>
+        <v>0.543893</v>
       </c>
     </row>
     <row r="55">
@@ -10114,13 +10114,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.823342</v>
+        <v>0.821227</v>
       </c>
       <c r="C55" t="n">
-        <v>0.627043</v>
+        <v>0.548706</v>
       </c>
       <c r="D55" t="n">
-        <v>0.54573</v>
+        <v>0.545264</v>
       </c>
     </row>
     <row r="56">
@@ -10128,13 +10128,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.827745</v>
+        <v>0.821422</v>
       </c>
       <c r="C56" t="n">
-        <v>0.628003</v>
+        <v>0.5489270000000001</v>
       </c>
       <c r="D56" t="n">
-        <v>0.5464909999999999</v>
+        <v>0.546906</v>
       </c>
     </row>
     <row r="57">
@@ -10142,13 +10142,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.833193</v>
+        <v>0.829549</v>
       </c>
       <c r="C57" t="n">
-        <v>0.638392</v>
+        <v>0.5559500000000001</v>
       </c>
       <c r="D57" t="n">
-        <v>0.54932</v>
+        <v>0.548094</v>
       </c>
     </row>
     <row r="58">
@@ -10156,13 +10156,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.832989</v>
+        <v>0.8278450000000001</v>
       </c>
       <c r="C58" t="n">
-        <v>0.642134</v>
+        <v>0.56115</v>
       </c>
       <c r="D58" t="n">
-        <v>0.550488</v>
+        <v>0.5497339999999999</v>
       </c>
     </row>
     <row r="59">
@@ -10170,13 +10170,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.837731</v>
+        <v>0.835877</v>
       </c>
       <c r="C59" t="n">
-        <v>0.645358</v>
+        <v>0.5663899999999999</v>
       </c>
       <c r="D59" t="n">
-        <v>0.5524019999999999</v>
+        <v>0.551026</v>
       </c>
     </row>
     <row r="60">
@@ -10184,13 +10184,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.843868</v>
+        <v>0.839712</v>
       </c>
       <c r="C60" t="n">
-        <v>0.652228</v>
+        <v>0.57642</v>
       </c>
       <c r="D60" t="n">
-        <v>0.554482</v>
+        <v>0.552664</v>
       </c>
     </row>
     <row r="61">
@@ -10198,13 +10198,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.841049</v>
+        <v>0.834636</v>
       </c>
       <c r="C61" t="n">
-        <v>0.6560049999999999</v>
+        <v>0.585288</v>
       </c>
       <c r="D61" t="n">
-        <v>0.5576179999999999</v>
+        <v>0.559831</v>
       </c>
     </row>
     <row r="62">
@@ -10212,13 +10212,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.85188</v>
+        <v>0.842001</v>
       </c>
       <c r="C62" t="n">
-        <v>0.664417</v>
+        <v>0.589821</v>
       </c>
       <c r="D62" t="n">
-        <v>0.558678</v>
+        <v>0.557779</v>
       </c>
     </row>
     <row r="63">
@@ -10226,13 +10226,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.863688</v>
+        <v>0.852976</v>
       </c>
       <c r="C63" t="n">
-        <v>0.673251</v>
+        <v>0.595792</v>
       </c>
       <c r="D63" t="n">
-        <v>0.561094</v>
+        <v>0.560752</v>
       </c>
     </row>
     <row r="64">
@@ -10240,13 +10240,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.8743379999999999</v>
+        <v>0.8643459999999999</v>
       </c>
       <c r="C64" t="n">
-        <v>0.742773</v>
+        <v>0.6493679999999999</v>
       </c>
       <c r="D64" t="n">
-        <v>0.602104</v>
+        <v>0.604694</v>
       </c>
     </row>
     <row r="65">
@@ -10254,13 +10254,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.893973</v>
+        <v>0.887007</v>
       </c>
       <c r="C65" t="n">
-        <v>0.751171</v>
+        <v>0.650176</v>
       </c>
       <c r="D65" t="n">
-        <v>0.605761</v>
+        <v>0.595093</v>
       </c>
     </row>
     <row r="66">
@@ -10268,13 +10268,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.906166</v>
+        <v>0.8961</v>
       </c>
       <c r="C66" t="n">
-        <v>0.779184</v>
+        <v>0.666207</v>
       </c>
       <c r="D66" t="n">
-        <v>0.614168</v>
+        <v>0.6104850000000001</v>
       </c>
     </row>
     <row r="67">
@@ -10282,13 +10282,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.924817</v>
+        <v>0.920979</v>
       </c>
       <c r="C67" t="n">
-        <v>0.798988</v>
+        <v>0.712697</v>
       </c>
       <c r="D67" t="n">
-        <v>0.624542</v>
+        <v>0.630325</v>
       </c>
     </row>
     <row r="68">
@@ -10296,13 +10296,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.9453819999999999</v>
+        <v>0.9545129999999999</v>
       </c>
       <c r="C68" t="n">
-        <v>0.8226869999999999</v>
+        <v>0.729012</v>
       </c>
       <c r="D68" t="n">
-        <v>0.633649</v>
+        <v>0.631278</v>
       </c>
     </row>
     <row r="69">
@@ -10310,13 +10310,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.96543</v>
+        <v>0.962672</v>
       </c>
       <c r="C69" t="n">
-        <v>0.838309</v>
+        <v>0.752538</v>
       </c>
       <c r="D69" t="n">
-        <v>0.643868</v>
+        <v>0.6513330000000001</v>
       </c>
     </row>
     <row r="70">
@@ -10324,13 +10324,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.9805739999999999</v>
+        <v>0.985024</v>
       </c>
       <c r="C70" t="n">
-        <v>0.856989</v>
+        <v>0.766003</v>
       </c>
       <c r="D70" t="n">
-        <v>0.666501</v>
+        <v>0.659368</v>
       </c>
     </row>
     <row r="71">
@@ -10338,13 +10338,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>1.01594</v>
+        <v>1.00752</v>
       </c>
       <c r="C71" t="n">
-        <v>0.902014</v>
+        <v>0.8075020000000001</v>
       </c>
       <c r="D71" t="n">
-        <v>0.6759579999999999</v>
+        <v>0.678701</v>
       </c>
     </row>
     <row r="72">
@@ -10352,13 +10352,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>1.035</v>
+        <v>1.03636</v>
       </c>
       <c r="C72" t="n">
-        <v>0.946749</v>
+        <v>0.848644</v>
       </c>
       <c r="D72" t="n">
-        <v>0.731077</v>
+        <v>0.726881</v>
       </c>
     </row>
     <row r="73">
@@ -10366,13 +10366,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>1.11516</v>
+        <v>1.10777</v>
       </c>
       <c r="C73" t="n">
-        <v>0.967188</v>
+        <v>0.881769</v>
       </c>
       <c r="D73" t="n">
-        <v>0.721106</v>
+        <v>0.746888</v>
       </c>
     </row>
     <row r="74">
@@ -10380,13 +10380,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>1.10605</v>
+        <v>1.13918</v>
       </c>
       <c r="C74" t="n">
-        <v>1.00774</v>
+        <v>0.922138</v>
       </c>
       <c r="D74" t="n">
-        <v>0.757374</v>
+        <v>0.770679</v>
       </c>
     </row>
     <row r="75">
@@ -10394,13 +10394,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>1.15857</v>
+        <v>1.17872</v>
       </c>
       <c r="C75" t="n">
-        <v>1.03416</v>
+        <v>0.955492</v>
       </c>
       <c r="D75" t="n">
-        <v>0.8339</v>
+        <v>0.782672</v>
       </c>
     </row>
     <row r="76">
@@ -10408,13 +10408,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>1.38092</v>
+        <v>1.32822</v>
       </c>
       <c r="C76" t="n">
-        <v>1.0866</v>
+        <v>0.989569</v>
       </c>
       <c r="D76" t="n">
-        <v>0.844067</v>
+        <v>0.8219689999999999</v>
       </c>
     </row>
     <row r="77">
@@ -10422,13 +10422,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>1.42281</v>
+        <v>1.37585</v>
       </c>
       <c r="C77" t="n">
-        <v>1.12551</v>
+        <v>1.03279</v>
       </c>
       <c r="D77" t="n">
-        <v>0.866847</v>
+        <v>0.8557360000000001</v>
       </c>
     </row>
     <row r="78">
@@ -10436,13 +10436,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>1.49269</v>
+        <v>1.45359</v>
       </c>
       <c r="C78" t="n">
-        <v>1.33331</v>
+        <v>1.22552</v>
       </c>
       <c r="D78" t="n">
-        <v>1.01385</v>
+        <v>0.99764</v>
       </c>
     </row>
     <row r="79">
@@ -10450,13 +10450,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>1.55375</v>
+        <v>1.55605</v>
       </c>
       <c r="C79" t="n">
-        <v>1.37122</v>
+        <v>1.274</v>
       </c>
       <c r="D79" t="n">
-        <v>1.07305</v>
+        <v>1.04872</v>
       </c>
     </row>
     <row r="80">
@@ -10464,13 +10464,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>1.63965</v>
+        <v>1.62816</v>
       </c>
       <c r="C80" t="n">
-        <v>1.40702</v>
+        <v>1.32215</v>
       </c>
       <c r="D80" t="n">
-        <v>1.09992</v>
+        <v>1.10313</v>
       </c>
     </row>
     <row r="81">
@@ -10478,13 +10478,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>1.70454</v>
+        <v>1.71615</v>
       </c>
       <c r="C81" t="n">
-        <v>1.45024</v>
+        <v>1.3649</v>
       </c>
       <c r="D81" t="n">
-        <v>1.16382</v>
+        <v>1.14973</v>
       </c>
     </row>
     <row r="82">
@@ -10492,13 +10492,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>1.81902</v>
+        <v>1.78759</v>
       </c>
       <c r="C82" t="n">
-        <v>1.48928</v>
+        <v>1.41097</v>
       </c>
       <c r="D82" t="n">
-        <v>1.22703</v>
+        <v>1.21122</v>
       </c>
     </row>
     <row r="83">
@@ -10506,13 +10506,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>1.8815</v>
+        <v>1.89201</v>
       </c>
       <c r="C83" t="n">
-        <v>1.53727</v>
+        <v>1.45442</v>
       </c>
       <c r="D83" t="n">
-        <v>1.28442</v>
+        <v>1.27384</v>
       </c>
     </row>
     <row r="84">
@@ -10520,13 +10520,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>2.01467</v>
+        <v>1.99512</v>
       </c>
       <c r="C84" t="n">
-        <v>1.57362</v>
+        <v>1.50887</v>
       </c>
       <c r="D84" t="n">
-        <v>1.33205</v>
+        <v>1.33345</v>
       </c>
     </row>
     <row r="85">
@@ -10534,13 +10534,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>2.09306</v>
+        <v>2.08641</v>
       </c>
       <c r="C85" t="n">
-        <v>1.6123</v>
+        <v>1.55242</v>
       </c>
       <c r="D85" t="n">
-        <v>1.39256</v>
+        <v>1.39547</v>
       </c>
     </row>
     <row r="86">
@@ -10548,13 +10548,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>2.20195</v>
+        <v>2.1606</v>
       </c>
       <c r="C86" t="n">
-        <v>1.65805</v>
+        <v>1.58504</v>
       </c>
       <c r="D86" t="n">
-        <v>1.45194</v>
+        <v>1.43139</v>
       </c>
     </row>
     <row r="87">
@@ -10562,13 +10562,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>2.29267</v>
+        <v>2.25582</v>
       </c>
       <c r="C87" t="n">
-        <v>1.70315</v>
+        <v>1.63577</v>
       </c>
       <c r="D87" t="n">
-        <v>1.50814</v>
+        <v>1.49778</v>
       </c>
     </row>
     <row r="88">
@@ -10576,13 +10576,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>2.37307</v>
+        <v>2.36296</v>
       </c>
       <c r="C88" t="n">
-        <v>1.73266</v>
+        <v>1.68125</v>
       </c>
       <c r="D88" t="n">
-        <v>1.56177</v>
+        <v>1.55784</v>
       </c>
     </row>
     <row r="89">
@@ -10590,13 +10590,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>2.47162</v>
+        <v>2.46364</v>
       </c>
       <c r="C89" t="n">
-        <v>1.77418</v>
+        <v>1.72104</v>
       </c>
       <c r="D89" t="n">
-        <v>1.62163</v>
+        <v>1.60755</v>
       </c>
     </row>
     <row r="90">
@@ -10604,13 +10604,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>2.67035</v>
+        <v>2.63528</v>
       </c>
       <c r="C90" t="n">
-        <v>1.81588</v>
+        <v>1.76877</v>
       </c>
       <c r="D90" t="n">
-        <v>1.67715</v>
+        <v>1.66378</v>
       </c>
     </row>
     <row r="91">
@@ -10618,13 +10618,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>2.75012</v>
+        <v>2.7244</v>
       </c>
       <c r="C91" t="n">
-        <v>1.8644</v>
+        <v>1.81595</v>
       </c>
       <c r="D91" t="n">
-        <v>1.73279</v>
+        <v>1.71471</v>
       </c>
     </row>
     <row r="92">
@@ -10632,13 +10632,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>2.83912</v>
+        <v>2.81361</v>
       </c>
       <c r="C92" t="n">
-        <v>2.04475</v>
+        <v>1.95196</v>
       </c>
       <c r="D92" t="n">
-        <v>1.85355</v>
+        <v>1.84148</v>
       </c>
     </row>
     <row r="93">
@@ -10646,13 +10646,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>2.91154</v>
+        <v>2.91192</v>
       </c>
       <c r="C93" t="n">
-        <v>2.05502</v>
+        <v>2.00806</v>
       </c>
       <c r="D93" t="n">
-        <v>1.89906</v>
+        <v>1.89098</v>
       </c>
     </row>
     <row r="94">
@@ -10660,13 +10660,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>2.99672</v>
+        <v>2.9932</v>
       </c>
       <c r="C94" t="n">
-        <v>2.0833</v>
+        <v>2.03063</v>
       </c>
       <c r="D94" t="n">
-        <v>1.94778</v>
+        <v>1.93419</v>
       </c>
     </row>
     <row r="95">
@@ -10674,13 +10674,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>3.07813</v>
+        <v>3.06399</v>
       </c>
       <c r="C95" t="n">
-        <v>2.1395</v>
+        <v>2.07875</v>
       </c>
       <c r="D95" t="n">
-        <v>1.99301</v>
+        <v>1.97752</v>
       </c>
     </row>
     <row r="96">
@@ -10688,13 +10688,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>3.15442</v>
+        <v>3.13546</v>
       </c>
       <c r="C96" t="n">
-        <v>2.16105</v>
+        <v>2.11262</v>
       </c>
       <c r="D96" t="n">
-        <v>2.03584</v>
+        <v>2.02865</v>
       </c>
     </row>
     <row r="97">
@@ -10702,13 +10702,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>3.19864</v>
+        <v>3.2131</v>
       </c>
       <c r="C97" t="n">
-        <v>2.18621</v>
+        <v>2.15074</v>
       </c>
       <c r="D97" t="n">
-        <v>2.10092</v>
+        <v>2.06923</v>
       </c>
     </row>
     <row r="98">
@@ -10716,13 +10716,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>3.31047</v>
+        <v>3.29347</v>
       </c>
       <c r="C98" t="n">
-        <v>2.23193</v>
+        <v>2.18828</v>
       </c>
       <c r="D98" t="n">
-        <v>2.14064</v>
+        <v>2.13172</v>
       </c>
     </row>
     <row r="99">
@@ -10730,13 +10730,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>3.3775</v>
+        <v>3.35313</v>
       </c>
       <c r="C99" t="n">
-        <v>2.25567</v>
+        <v>2.21816</v>
       </c>
       <c r="D99" t="n">
-        <v>2.17309</v>
+        <v>2.14037</v>
       </c>
     </row>
     <row r="100">
@@ -10744,13 +10744,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>3.44327</v>
+        <v>3.39567</v>
       </c>
       <c r="C100" t="n">
-        <v>2.29678</v>
+        <v>2.24197</v>
       </c>
       <c r="D100" t="n">
-        <v>2.20626</v>
+        <v>2.1792</v>
       </c>
     </row>
     <row r="101">
@@ -10758,13 +10758,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>3.49518</v>
+        <v>3.47743</v>
       </c>
       <c r="C101" t="n">
-        <v>2.31656</v>
+        <v>2.27765</v>
       </c>
       <c r="D101" t="n">
-        <v>2.24389</v>
+        <v>2.21398</v>
       </c>
     </row>
     <row r="102">
@@ -10772,13 +10772,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>3.56401</v>
+        <v>3.53162</v>
       </c>
       <c r="C102" t="n">
-        <v>2.34091</v>
+        <v>2.31224</v>
       </c>
       <c r="D102" t="n">
-        <v>2.28081</v>
+        <v>2.24242</v>
       </c>
     </row>
     <row r="103">
@@ -10786,13 +10786,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>3.61999</v>
+        <v>3.58647</v>
       </c>
       <c r="C103" t="n">
-        <v>2.37398</v>
+        <v>2.33734</v>
       </c>
       <c r="D103" t="n">
-        <v>2.31715</v>
+        <v>2.27907</v>
       </c>
     </row>
     <row r="104">
@@ -10800,13 +10800,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>3.69434</v>
+        <v>3.64551</v>
       </c>
       <c r="C104" t="n">
-        <v>2.40833</v>
+        <v>2.3748</v>
       </c>
       <c r="D104" t="n">
-        <v>2.3436</v>
+        <v>2.30576</v>
       </c>
     </row>
     <row r="105">
@@ -10814,13 +10814,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>3.71089</v>
+        <v>3.67491</v>
       </c>
       <c r="C105" t="n">
-        <v>2.42603</v>
+        <v>2.40266</v>
       </c>
       <c r="D105" t="n">
-        <v>2.3773</v>
+        <v>2.34724</v>
       </c>
     </row>
     <row r="106">
@@ -10828,13 +10828,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>3.77428</v>
+        <v>3.74419</v>
       </c>
       <c r="C106" t="n">
-        <v>2.46328</v>
+        <v>2.45424</v>
       </c>
       <c r="D106" t="n">
-        <v>2.40856</v>
+        <v>2.38962</v>
       </c>
     </row>
     <row r="107">
@@ -10842,13 +10842,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>3.82135</v>
+        <v>3.78197</v>
       </c>
       <c r="C107" t="n">
-        <v>2.54685</v>
+        <v>2.49827</v>
       </c>
       <c r="D107" t="n">
-        <v>2.48306</v>
+        <v>2.4693</v>
       </c>
     </row>
     <row r="108">
@@ -10856,13 +10856,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>3.86165</v>
+        <v>3.83313</v>
       </c>
       <c r="C108" t="n">
-        <v>2.5382</v>
+        <v>2.52025</v>
       </c>
       <c r="D108" t="n">
-        <v>2.49794</v>
+        <v>2.501</v>
       </c>
     </row>
     <row r="109">
@@ -10870,13 +10870,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>3.91731</v>
+        <v>3.87594</v>
       </c>
       <c r="C109" t="n">
-        <v>2.59206</v>
+        <v>2.5426</v>
       </c>
       <c r="D109" t="n">
-        <v>2.5436</v>
+        <v>2.53057</v>
       </c>
     </row>
     <row r="110">
@@ -10884,13 +10884,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>3.96855</v>
+        <v>3.9359</v>
       </c>
       <c r="C110" t="n">
-        <v>2.61495</v>
+        <v>2.55767</v>
       </c>
       <c r="D110" t="n">
-        <v>2.56365</v>
+        <v>2.53704</v>
       </c>
     </row>
     <row r="111">
@@ -10898,13 +10898,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>4.00808</v>
+        <v>3.9768</v>
       </c>
       <c r="C111" t="n">
-        <v>2.62871</v>
+        <v>2.58111</v>
       </c>
       <c r="D111" t="n">
-        <v>2.58652</v>
+        <v>2.56379</v>
       </c>
     </row>
     <row r="112">
@@ -10912,13 +10912,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>4.04643</v>
+        <v>4.02006</v>
       </c>
       <c r="C112" t="n">
-        <v>2.66649</v>
+        <v>2.60207</v>
       </c>
       <c r="D112" t="n">
-        <v>2.62478</v>
+        <v>2.59873</v>
       </c>
     </row>
     <row r="113">
@@ -10926,13 +10926,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>4.11093</v>
+        <v>4.04018</v>
       </c>
       <c r="C113" t="n">
-        <v>2.68332</v>
+        <v>2.61633</v>
       </c>
       <c r="D113" t="n">
-        <v>2.65274</v>
+        <v>2.62943</v>
       </c>
     </row>
     <row r="114">
@@ -10940,13 +10940,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>4.16988</v>
+        <v>4.1216</v>
       </c>
       <c r="C114" t="n">
-        <v>2.70642</v>
+        <v>2.65577</v>
       </c>
       <c r="D114" t="n">
-        <v>2.67181</v>
+        <v>2.65166</v>
       </c>
     </row>
     <row r="115">
@@ -10954,13 +10954,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>4.20112</v>
+        <v>4.16722</v>
       </c>
       <c r="C115" t="n">
-        <v>2.72041</v>
+        <v>2.69208</v>
       </c>
       <c r="D115" t="n">
-        <v>2.69649</v>
+        <v>2.68144</v>
       </c>
     </row>
     <row r="116">
@@ -10968,13 +10968,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>4.25204</v>
+        <v>4.22274</v>
       </c>
       <c r="C116" t="n">
-        <v>2.75849</v>
+        <v>2.71754</v>
       </c>
       <c r="D116" t="n">
-        <v>2.71883</v>
+        <v>2.70219</v>
       </c>
     </row>
     <row r="117">
@@ -10982,13 +10982,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>4.30372</v>
+        <v>4.27003</v>
       </c>
       <c r="C117" t="n">
-        <v>2.78479</v>
+        <v>2.73807</v>
       </c>
       <c r="D117" t="n">
-        <v>2.73953</v>
+        <v>2.72445</v>
       </c>
     </row>
     <row r="118">
@@ -10996,13 +10996,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>4.34106</v>
+        <v>4.31331</v>
       </c>
       <c r="C118" t="n">
-        <v>2.80843</v>
+        <v>2.75777</v>
       </c>
       <c r="D118" t="n">
-        <v>2.76352</v>
+        <v>2.73954</v>
       </c>
     </row>
     <row r="119">
@@ -11010,13 +11010,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>4.282</v>
+        <v>4.25695</v>
       </c>
       <c r="C119" t="n">
-        <v>2.82546</v>
+        <v>2.79147</v>
       </c>
       <c r="D119" t="n">
-        <v>2.77604</v>
+        <v>2.76074</v>
       </c>
     </row>
   </sheetData>
@@ -11064,13 +11064,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.537643</v>
+        <v>0.514222</v>
       </c>
       <c r="C2" t="n">
-        <v>0.457595</v>
+        <v>0.379711</v>
       </c>
       <c r="D2" t="n">
-        <v>0.34784</v>
+        <v>0.330506</v>
       </c>
     </row>
     <row r="3">
@@ -11078,13 +11078,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.548478</v>
+        <v>0.525524</v>
       </c>
       <c r="C3" t="n">
-        <v>0.465617</v>
+        <v>0.387493</v>
       </c>
       <c r="D3" t="n">
-        <v>0.35277</v>
+        <v>0.336405</v>
       </c>
     </row>
     <row r="4">
@@ -11092,13 +11092,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.551682</v>
+        <v>0.5313059999999999</v>
       </c>
       <c r="C4" t="n">
-        <v>0.47309</v>
+        <v>0.395713</v>
       </c>
       <c r="D4" t="n">
-        <v>0.354574</v>
+        <v>0.33947</v>
       </c>
     </row>
     <row r="5">
@@ -11106,13 +11106,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.5617799999999999</v>
+        <v>0.545238</v>
       </c>
       <c r="C5" t="n">
-        <v>0.474875</v>
+        <v>0.403702</v>
       </c>
       <c r="D5" t="n">
-        <v>0.357502</v>
+        <v>0.345589</v>
       </c>
     </row>
     <row r="6">
@@ -11120,13 +11120,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.570563</v>
+        <v>0.554246</v>
       </c>
       <c r="C6" t="n">
-        <v>0.478084</v>
+        <v>0.409543</v>
       </c>
       <c r="D6" t="n">
-        <v>0.360069</v>
+        <v>0.348339</v>
       </c>
     </row>
     <row r="7">
@@ -11134,13 +11134,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.581559</v>
+        <v>0.564167</v>
       </c>
       <c r="C7" t="n">
-        <v>0.490261</v>
+        <v>0.415897</v>
       </c>
       <c r="D7" t="n">
-        <v>0.368348</v>
+        <v>0.3553</v>
       </c>
     </row>
     <row r="8">
@@ -11148,13 +11148,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.590242</v>
+        <v>0.574335</v>
       </c>
       <c r="C8" t="n">
-        <v>0.492771</v>
+        <v>0.426035</v>
       </c>
       <c r="D8" t="n">
-        <v>0.370385</v>
+        <v>0.359775</v>
       </c>
     </row>
     <row r="9">
@@ -11162,13 +11162,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.59935</v>
+        <v>0.587962</v>
       </c>
       <c r="C9" t="n">
-        <v>0.503342</v>
+        <v>0.436858</v>
       </c>
       <c r="D9" t="n">
-        <v>0.374367</v>
+        <v>0.36605</v>
       </c>
     </row>
     <row r="10">
@@ -11176,13 +11176,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.611553</v>
+        <v>0.597599</v>
       </c>
       <c r="C10" t="n">
-        <v>0.513107</v>
+        <v>0.447648</v>
       </c>
       <c r="D10" t="n">
-        <v>0.377444</v>
+        <v>0.369175</v>
       </c>
     </row>
     <row r="11">
@@ -11190,13 +11190,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.620663</v>
+        <v>0.6100989999999999</v>
       </c>
       <c r="C11" t="n">
-        <v>0.505928</v>
+        <v>0.428879</v>
       </c>
       <c r="D11" t="n">
-        <v>0.383407</v>
+        <v>0.374674</v>
       </c>
     </row>
     <row r="12">
@@ -11204,13 +11204,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.601459</v>
+        <v>0.596274</v>
       </c>
       <c r="C12" t="n">
-        <v>0.507997</v>
+        <v>0.433038</v>
       </c>
       <c r="D12" t="n">
-        <v>0.389696</v>
+        <v>0.381788</v>
       </c>
     </row>
     <row r="13">
@@ -11218,13 +11218,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.611495</v>
+        <v>0.607479</v>
       </c>
       <c r="C13" t="n">
-        <v>0.512642</v>
+        <v>0.443244</v>
       </c>
       <c r="D13" t="n">
-        <v>0.391498</v>
+        <v>0.385109</v>
       </c>
     </row>
     <row r="14">
@@ -11232,13 +11232,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.622126</v>
+        <v>0.6201719999999999</v>
       </c>
       <c r="C14" t="n">
-        <v>0.522777</v>
+        <v>0.452158</v>
       </c>
       <c r="D14" t="n">
-        <v>0.397216</v>
+        <v>0.392736</v>
       </c>
     </row>
     <row r="15">
@@ -11246,13 +11246,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.635783</v>
+        <v>0.631468</v>
       </c>
       <c r="C15" t="n">
-        <v>0.527774</v>
+        <v>0.460068</v>
       </c>
       <c r="D15" t="n">
-        <v>0.403097</v>
+        <v>0.396172</v>
       </c>
     </row>
     <row r="16">
@@ -11260,13 +11260,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.64706</v>
+        <v>0.6425110000000001</v>
       </c>
       <c r="C16" t="n">
-        <v>0.534012</v>
+        <v>0.46922</v>
       </c>
       <c r="D16" t="n">
-        <v>0.408245</v>
+        <v>0.40218</v>
       </c>
     </row>
     <row r="17">
@@ -11274,13 +11274,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.658049</v>
+        <v>0.652659</v>
       </c>
       <c r="C17" t="n">
-        <v>0.542591</v>
+        <v>0.477479</v>
       </c>
       <c r="D17" t="n">
-        <v>0.413676</v>
+        <v>0.406208</v>
       </c>
     </row>
     <row r="18">
@@ -11288,13 +11288,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.673323</v>
+        <v>0.665532</v>
       </c>
       <c r="C18" t="n">
-        <v>0.543781</v>
+        <v>0.481533</v>
       </c>
       <c r="D18" t="n">
-        <v>0.421094</v>
+        <v>0.41478</v>
       </c>
     </row>
     <row r="19">
@@ -11302,13 +11302,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.687346</v>
+        <v>0.684261</v>
       </c>
       <c r="C19" t="n">
-        <v>0.563237</v>
+        <v>0.5004150000000001</v>
       </c>
       <c r="D19" t="n">
-        <v>0.42553</v>
+        <v>0.418959</v>
       </c>
     </row>
     <row r="20">
@@ -11316,13 +11316,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.7007409999999999</v>
+        <v>0.696336</v>
       </c>
       <c r="C20" t="n">
-        <v>0.565728</v>
+        <v>0.506515</v>
       </c>
       <c r="D20" t="n">
-        <v>0.431728</v>
+        <v>0.426032</v>
       </c>
     </row>
     <row r="21">
@@ -11330,13 +11330,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.712979</v>
+        <v>0.707334</v>
       </c>
       <c r="C21" t="n">
-        <v>0.5807909999999999</v>
+        <v>0.52185</v>
       </c>
       <c r="D21" t="n">
-        <v>0.437745</v>
+        <v>0.432569</v>
       </c>
     </row>
     <row r="22">
@@ -11344,13 +11344,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.721591</v>
+        <v>0.720576</v>
       </c>
       <c r="C22" t="n">
-        <v>0.586493</v>
+        <v>0.528423</v>
       </c>
       <c r="D22" t="n">
-        <v>0.442989</v>
+        <v>0.437451</v>
       </c>
     </row>
     <row r="23">
@@ -11358,13 +11358,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.743297</v>
+        <v>0.733698</v>
       </c>
       <c r="C23" t="n">
-        <v>0.5991880000000001</v>
+        <v>0.54373</v>
       </c>
       <c r="D23" t="n">
-        <v>0.447777</v>
+        <v>0.441632</v>
       </c>
     </row>
     <row r="24">
@@ -11372,13 +11372,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.756054</v>
+        <v>0.750349</v>
       </c>
       <c r="C24" t="n">
-        <v>0.603963</v>
+        <v>0.550874</v>
       </c>
       <c r="D24" t="n">
-        <v>0.453331</v>
+        <v>0.447488</v>
       </c>
     </row>
     <row r="25">
@@ -11386,13 +11386,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.775227</v>
+        <v>0.771918</v>
       </c>
       <c r="C25" t="n">
-        <v>0.621868</v>
+        <v>0.5674979999999999</v>
       </c>
       <c r="D25" t="n">
-        <v>0.458872</v>
+        <v>0.454287</v>
       </c>
     </row>
     <row r="26">
@@ -11400,13 +11400,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.793015</v>
+        <v>0.7879620000000001</v>
       </c>
       <c r="C26" t="n">
-        <v>0.5741540000000001</v>
+        <v>0.5075539999999999</v>
       </c>
       <c r="D26" t="n">
-        <v>0.465944</v>
+        <v>0.460556</v>
       </c>
     </row>
     <row r="27">
@@ -11414,13 +11414,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.7490520000000001</v>
+        <v>0.745036</v>
       </c>
       <c r="C27" t="n">
-        <v>0.576037</v>
+        <v>0.512734</v>
       </c>
       <c r="D27" t="n">
-        <v>0.468868</v>
+        <v>0.463446</v>
       </c>
     </row>
     <row r="28">
@@ -11428,13 +11428,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.759334</v>
+        <v>0.756259</v>
       </c>
       <c r="C28" t="n">
-        <v>0.5838100000000001</v>
+        <v>0.521069</v>
       </c>
       <c r="D28" t="n">
-        <v>0.475625</v>
+        <v>0.470434</v>
       </c>
     </row>
     <row r="29">
@@ -11442,13 +11442,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.768306</v>
+        <v>0.766763</v>
       </c>
       <c r="C29" t="n">
-        <v>0.588332</v>
+        <v>0.524927</v>
       </c>
       <c r="D29" t="n">
-        <v>0.479692</v>
+        <v>0.473138</v>
       </c>
     </row>
     <row r="30">
@@ -11456,13 +11456,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.780378</v>
+        <v>0.779241</v>
       </c>
       <c r="C30" t="n">
-        <v>0.596044</v>
+        <v>0.533203</v>
       </c>
       <c r="D30" t="n">
-        <v>0.484032</v>
+        <v>0.479105</v>
       </c>
     </row>
     <row r="31">
@@ -11470,13 +11470,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.793262</v>
+        <v>0.791778</v>
       </c>
       <c r="C31" t="n">
-        <v>0.603319</v>
+        <v>0.5416299999999999</v>
       </c>
       <c r="D31" t="n">
-        <v>0.487487</v>
+        <v>0.482523</v>
       </c>
     </row>
     <row r="32">
@@ -11484,13 +11484,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.807948</v>
+        <v>0.804531</v>
       </c>
       <c r="C32" t="n">
-        <v>0.609392</v>
+        <v>0.550959</v>
       </c>
       <c r="D32" t="n">
-        <v>0.489324</v>
+        <v>0.484453</v>
       </c>
     </row>
     <row r="33">
@@ -11498,13 +11498,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.819258</v>
+        <v>0.817224</v>
       </c>
       <c r="C33" t="n">
-        <v>0.617583</v>
+        <v>0.556447</v>
       </c>
       <c r="D33" t="n">
-        <v>0.493028</v>
+        <v>0.488293</v>
       </c>
     </row>
     <row r="34">
@@ -11512,13 +11512,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.831247</v>
+        <v>0.828199</v>
       </c>
       <c r="C34" t="n">
-        <v>0.628067</v>
+        <v>0.571406</v>
       </c>
       <c r="D34" t="n">
-        <v>0.49717</v>
+        <v>0.493087</v>
       </c>
     </row>
     <row r="35">
@@ -11526,13 +11526,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.8455589999999999</v>
+        <v>0.837264</v>
       </c>
       <c r="C35" t="n">
-        <v>0.636922</v>
+        <v>0.580201</v>
       </c>
       <c r="D35" t="n">
-        <v>0.501906</v>
+        <v>0.498519</v>
       </c>
     </row>
     <row r="36">
@@ -11540,13 +11540,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.857403</v>
+        <v>0.853813</v>
       </c>
       <c r="C36" t="n">
-        <v>0.646138</v>
+        <v>0.593255</v>
       </c>
       <c r="D36" t="n">
-        <v>0.504466</v>
+        <v>0.501765</v>
       </c>
     </row>
     <row r="37">
@@ -11554,13 +11554,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.864878</v>
+        <v>0.862563</v>
       </c>
       <c r="C37" t="n">
-        <v>0.656351</v>
+        <v>0.602669</v>
       </c>
       <c r="D37" t="n">
-        <v>0.507257</v>
+        <v>0.503431</v>
       </c>
     </row>
     <row r="38">
@@ -11568,13 +11568,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.878519</v>
+        <v>0.872548</v>
       </c>
       <c r="C38" t="n">
-        <v>0.667414</v>
+        <v>0.614507</v>
       </c>
       <c r="D38" t="n">
-        <v>0.511096</v>
+        <v>0.507979</v>
       </c>
     </row>
     <row r="39">
@@ -11582,13 +11582,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.896575</v>
+        <v>0.892916</v>
       </c>
       <c r="C39" t="n">
-        <v>0.67664</v>
+        <v>0.626067</v>
       </c>
       <c r="D39" t="n">
-        <v>0.512666</v>
+        <v>0.510421</v>
       </c>
     </row>
     <row r="40">
@@ -11596,13 +11596,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.902874</v>
+        <v>0.899702</v>
       </c>
       <c r="C40" t="n">
-        <v>0.637145</v>
+        <v>0.5715440000000001</v>
       </c>
       <c r="D40" t="n">
-        <v>0.517768</v>
+        <v>0.515439</v>
       </c>
     </row>
     <row r="41">
@@ -11610,13 +11610,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.858336</v>
+        <v>0.847979</v>
       </c>
       <c r="C41" t="n">
-        <v>0.6426230000000001</v>
+        <v>0.576646</v>
       </c>
       <c r="D41" t="n">
-        <v>0.520219</v>
+        <v>0.517401</v>
       </c>
     </row>
     <row r="42">
@@ -11624,13 +11624,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.866166</v>
+        <v>0.860528</v>
       </c>
       <c r="C42" t="n">
-        <v>0.649362</v>
+        <v>0.585203</v>
       </c>
       <c r="D42" t="n">
-        <v>0.523058</v>
+        <v>0.520072</v>
       </c>
     </row>
     <row r="43">
@@ -11638,13 +11638,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.872383</v>
+        <v>0.86602</v>
       </c>
       <c r="C43" t="n">
-        <v>0.653089</v>
+        <v>0.590637</v>
       </c>
       <c r="D43" t="n">
-        <v>0.52616</v>
+        <v>0.523773</v>
       </c>
     </row>
     <row r="44">
@@ -11652,13 +11652,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.878399</v>
+        <v>0.874677</v>
       </c>
       <c r="C44" t="n">
-        <v>0.66632</v>
+        <v>0.603394</v>
       </c>
       <c r="D44" t="n">
-        <v>0.5282559999999999</v>
+        <v>0.525674</v>
       </c>
     </row>
     <row r="45">
@@ -11666,13 +11666,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.893128</v>
+        <v>0.887096</v>
       </c>
       <c r="C45" t="n">
-        <v>0.668681</v>
+        <v>0.607252</v>
       </c>
       <c r="D45" t="n">
-        <v>0.5293679999999999</v>
+        <v>0.527331</v>
       </c>
     </row>
     <row r="46">
@@ -11680,13 +11680,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.900356</v>
+        <v>0.896506</v>
       </c>
       <c r="C46" t="n">
-        <v>0.678849</v>
+        <v>0.618746</v>
       </c>
       <c r="D46" t="n">
-        <v>0.533573</v>
+        <v>0.530734</v>
       </c>
     </row>
     <row r="47">
@@ -11694,13 +11694,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.9110279999999999</v>
+        <v>0.908061</v>
       </c>
       <c r="C47" t="n">
-        <v>0.686073</v>
+        <v>0.628198</v>
       </c>
       <c r="D47" t="n">
-        <v>0.534894</v>
+        <v>0.53221</v>
       </c>
     </row>
     <row r="48">
@@ -11708,13 +11708,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.9206299999999999</v>
+        <v>0.914679</v>
       </c>
       <c r="C48" t="n">
-        <v>0.69229</v>
+        <v>0.634956</v>
       </c>
       <c r="D48" t="n">
-        <v>0.536559</v>
+        <v>0.534937</v>
       </c>
     </row>
     <row r="49">
@@ -11722,13 +11722,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.928665</v>
+        <v>0.924848</v>
       </c>
       <c r="C49" t="n">
-        <v>0.701982</v>
+        <v>0.645842</v>
       </c>
       <c r="D49" t="n">
-        <v>0.54036</v>
+        <v>0.538778</v>
       </c>
     </row>
     <row r="50">
@@ -11736,13 +11736,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.942846</v>
+        <v>0.937565</v>
       </c>
       <c r="C50" t="n">
-        <v>0.709081</v>
+        <v>0.653513</v>
       </c>
       <c r="D50" t="n">
-        <v>0.542165</v>
+        <v>0.540091</v>
       </c>
     </row>
     <row r="51">
@@ -11750,13 +11750,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.952126</v>
+        <v>0.947278</v>
       </c>
       <c r="C51" t="n">
-        <v>0.718432</v>
+        <v>0.6632400000000001</v>
       </c>
       <c r="D51" t="n">
-        <v>0.543737</v>
+        <v>0.5419119999999999</v>
       </c>
     </row>
     <row r="52">
@@ -11764,13 +11764,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.964548</v>
+        <v>0.9545979999999999</v>
       </c>
       <c r="C52" t="n">
-        <v>0.730338</v>
+        <v>0.677291</v>
       </c>
       <c r="D52" t="n">
-        <v>0.545229</v>
+        <v>0.543237</v>
       </c>
     </row>
     <row r="53">
@@ -11778,13 +11778,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.973647</v>
+        <v>0.968109</v>
       </c>
       <c r="C53" t="n">
-        <v>0.73882</v>
+        <v>0.687126</v>
       </c>
       <c r="D53" t="n">
-        <v>0.547741</v>
+        <v>0.5466220000000001</v>
       </c>
     </row>
     <row r="54">
@@ -11792,13 +11792,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.985236</v>
+        <v>0.982127</v>
       </c>
       <c r="C54" t="n">
-        <v>0.6789770000000001</v>
+        <v>0.61774</v>
       </c>
       <c r="D54" t="n">
-        <v>0.548266</v>
+        <v>0.546349</v>
       </c>
     </row>
     <row r="55">
@@ -11806,13 +11806,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>1.00065</v>
+        <v>0.994225</v>
       </c>
       <c r="C55" t="n">
-        <v>0.68679</v>
+        <v>0.625182</v>
       </c>
       <c r="D55" t="n">
-        <v>0.548623</v>
+        <v>0.548088</v>
       </c>
     </row>
     <row r="56">
@@ -11820,13 +11820,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.917357</v>
+        <v>0.913498</v>
       </c>
       <c r="C56" t="n">
-        <v>0.6928339999999999</v>
+        <v>0.633615</v>
       </c>
       <c r="D56" t="n">
-        <v>0.550053</v>
+        <v>0.548405</v>
       </c>
     </row>
     <row r="57">
@@ -11834,13 +11834,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.925637</v>
+        <v>0.922459</v>
       </c>
       <c r="C57" t="n">
-        <v>0.700327</v>
+        <v>0.638499</v>
       </c>
       <c r="D57" t="n">
-        <v>0.5521740000000001</v>
+        <v>0.551287</v>
       </c>
     </row>
     <row r="58">
@@ -11848,13 +11848,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.933983</v>
+        <v>0.930531</v>
       </c>
       <c r="C58" t="n">
-        <v>0.705941</v>
+        <v>0.64603</v>
       </c>
       <c r="D58" t="n">
-        <v>0.553474</v>
+        <v>0.554227</v>
       </c>
     </row>
     <row r="59">
@@ -11862,13 +11862,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.941536</v>
+        <v>0.939801</v>
       </c>
       <c r="C59" t="n">
-        <v>0.71252</v>
+        <v>0.655058</v>
       </c>
       <c r="D59" t="n">
-        <v>0.5553709999999999</v>
+        <v>0.554199</v>
       </c>
     </row>
     <row r="60">
@@ -11876,13 +11876,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.94775</v>
+        <v>0.943796</v>
       </c>
       <c r="C60" t="n">
-        <v>0.725288</v>
+        <v>0.669102</v>
       </c>
       <c r="D60" t="n">
-        <v>0.556705</v>
+        <v>0.55572</v>
       </c>
     </row>
     <row r="61">
@@ -11890,13 +11890,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.955415</v>
+        <v>0.950569</v>
       </c>
       <c r="C61" t="n">
-        <v>0.732397</v>
+        <v>0.677181</v>
       </c>
       <c r="D61" t="n">
-        <v>0.560185</v>
+        <v>0.558925</v>
       </c>
     </row>
     <row r="62">
@@ -11904,13 +11904,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.9612270000000001</v>
+        <v>0.959912</v>
       </c>
       <c r="C62" t="n">
-        <v>0.742723</v>
+        <v>0.6899</v>
       </c>
       <c r="D62" t="n">
-        <v>0.559377</v>
+        <v>0.558312</v>
       </c>
     </row>
     <row r="63">
@@ -11918,13 +11918,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.975399</v>
+        <v>0.972224</v>
       </c>
       <c r="C63" t="n">
-        <v>0.754761</v>
+        <v>0.7017</v>
       </c>
       <c r="D63" t="n">
-        <v>0.562601</v>
+        <v>0.560961</v>
       </c>
     </row>
     <row r="64">
@@ -11932,13 +11932,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.98214</v>
+        <v>0.9840179999999999</v>
       </c>
       <c r="C64" t="n">
-        <v>0.767588</v>
+        <v>0.715803</v>
       </c>
       <c r="D64" t="n">
-        <v>0.562067</v>
+        <v>0.562896</v>
       </c>
     </row>
     <row r="65">
@@ -11946,13 +11946,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.995093</v>
+        <v>0.9958399999999999</v>
       </c>
       <c r="C65" t="n">
-        <v>0.783392</v>
+        <v>0.731776</v>
       </c>
       <c r="D65" t="n">
-        <v>0.565357</v>
+        <v>0.565375</v>
       </c>
     </row>
     <row r="66">
@@ -11960,13 +11960,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>1.0097</v>
+        <v>1.0086</v>
       </c>
       <c r="C66" t="n">
-        <v>0.795445</v>
+        <v>0.747561</v>
       </c>
       <c r="D66" t="n">
-        <v>0.565994</v>
+        <v>0.567405</v>
       </c>
     </row>
     <row r="67">
@@ -11974,13 +11974,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>1.0209</v>
+        <v>1.02166</v>
       </c>
       <c r="C67" t="n">
-        <v>0.815204</v>
+        <v>0.763472</v>
       </c>
       <c r="D67" t="n">
-        <v>0.569855</v>
+        <v>0.571789</v>
       </c>
     </row>
     <row r="68">
@@ -11988,13 +11988,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>1.03547</v>
+        <v>1.03566</v>
       </c>
       <c r="C68" t="n">
-        <v>0.7585190000000001</v>
+        <v>0.693589</v>
       </c>
       <c r="D68" t="n">
-        <v>0.586661</v>
+        <v>0.587908</v>
       </c>
     </row>
     <row r="69">
@@ -12002,13 +12002,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>1.06867</v>
+        <v>1.07051</v>
       </c>
       <c r="C69" t="n">
-        <v>0.781794</v>
+        <v>0.716659</v>
       </c>
       <c r="D69" t="n">
-        <v>0.596186</v>
+        <v>0.598363</v>
       </c>
     </row>
     <row r="70">
@@ -12016,13 +12016,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>1.01301</v>
+        <v>1.00386</v>
       </c>
       <c r="C70" t="n">
-        <v>0.812708</v>
+        <v>0.747287</v>
       </c>
       <c r="D70" t="n">
-        <v>0.612413</v>
+        <v>0.614749</v>
       </c>
     </row>
     <row r="71">
@@ -12030,13 +12030,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>1.04235</v>
+        <v>1.0313</v>
       </c>
       <c r="C71" t="n">
-        <v>0.84122</v>
+        <v>0.771251</v>
       </c>
       <c r="D71" t="n">
-        <v>0.628953</v>
+        <v>0.6241409999999999</v>
       </c>
     </row>
     <row r="72">
@@ -12044,13 +12044,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>1.07366</v>
+        <v>1.06107</v>
       </c>
       <c r="C72" t="n">
-        <v>0.872167</v>
+        <v>0.802905</v>
       </c>
       <c r="D72" t="n">
-        <v>0.642669</v>
+        <v>0.6390980000000001</v>
       </c>
     </row>
     <row r="73">
@@ -12058,13 +12058,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>1.11104</v>
+        <v>1.08211</v>
       </c>
       <c r="C73" t="n">
-        <v>0.91168</v>
+        <v>0.834195</v>
       </c>
       <c r="D73" t="n">
-        <v>0.662942</v>
+        <v>0.657273</v>
       </c>
     </row>
     <row r="74">
@@ -12072,13 +12072,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>1.14642</v>
+        <v>1.11009</v>
       </c>
       <c r="C74" t="n">
-        <v>0.9489649999999999</v>
+        <v>0.863571</v>
       </c>
       <c r="D74" t="n">
-        <v>0.681797</v>
+        <v>0.667927</v>
       </c>
     </row>
     <row r="75">
@@ -12086,13 +12086,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>1.1886</v>
+        <v>1.14333</v>
       </c>
       <c r="C75" t="n">
-        <v>0.993487</v>
+        <v>0.900885</v>
       </c>
       <c r="D75" t="n">
-        <v>0.703308</v>
+        <v>0.686152</v>
       </c>
     </row>
     <row r="76">
@@ -12100,13 +12100,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>1.2343</v>
+        <v>1.18892</v>
       </c>
       <c r="C76" t="n">
-        <v>1.03883</v>
+        <v>0.94915</v>
       </c>
       <c r="D76" t="n">
-        <v>0.727754</v>
+        <v>0.709435</v>
       </c>
     </row>
     <row r="77">
@@ -12114,13 +12114,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>1.28556</v>
+        <v>1.24538</v>
       </c>
       <c r="C77" t="n">
-        <v>1.08452</v>
+        <v>1.00059</v>
       </c>
       <c r="D77" t="n">
-        <v>0.7574650000000001</v>
+        <v>0.7408130000000001</v>
       </c>
     </row>
     <row r="78">
@@ -12128,13 +12128,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>1.34673</v>
+        <v>1.30389</v>
       </c>
       <c r="C78" t="n">
-        <v>1.13844</v>
+        <v>1.04432</v>
       </c>
       <c r="D78" t="n">
-        <v>0.792471</v>
+        <v>0.76915</v>
       </c>
     </row>
     <row r="79">
@@ -12142,13 +12142,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>1.41106</v>
+        <v>1.36596</v>
       </c>
       <c r="C79" t="n">
-        <v>1.18853</v>
+        <v>1.09876</v>
       </c>
       <c r="D79" t="n">
-        <v>0.82439</v>
+        <v>0.8066680000000001</v>
       </c>
     </row>
     <row r="80">
@@ -12156,13 +12156,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>1.48755</v>
+        <v>1.42818</v>
       </c>
       <c r="C80" t="n">
-        <v>1.24554</v>
+        <v>1.14944</v>
       </c>
       <c r="D80" t="n">
-        <v>0.866178</v>
+        <v>0.842428</v>
       </c>
     </row>
     <row r="81">
@@ -12170,13 +12170,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>1.56904</v>
+        <v>1.50441</v>
       </c>
       <c r="C81" t="n">
-        <v>1.30504</v>
+        <v>1.21028</v>
       </c>
       <c r="D81" t="n">
-        <v>0.906909</v>
+        <v>0.8761139999999999</v>
       </c>
     </row>
     <row r="82">
@@ -12184,13 +12184,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>1.64842</v>
+        <v>1.59885</v>
       </c>
       <c r="C82" t="n">
-        <v>1.3639</v>
+        <v>1.27793</v>
       </c>
       <c r="D82" t="n">
-        <v>0.950197</v>
+        <v>0.926109</v>
       </c>
     </row>
     <row r="83">
@@ -12198,13 +12198,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>1.7531</v>
+        <v>1.7078</v>
       </c>
       <c r="C83" t="n">
-        <v>1.35922</v>
+        <v>1.27116</v>
       </c>
       <c r="D83" t="n">
-        <v>1.06527</v>
+        <v>1.04033</v>
       </c>
     </row>
     <row r="84">
@@ -12212,13 +12212,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>1.86506</v>
+        <v>1.81068</v>
       </c>
       <c r="C84" t="n">
-        <v>1.4186</v>
+        <v>1.33846</v>
       </c>
       <c r="D84" t="n">
-        <v>1.12479</v>
+        <v>1.09616</v>
       </c>
     </row>
     <row r="85">
@@ -12226,13 +12226,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>1.90116</v>
+        <v>1.84542</v>
       </c>
       <c r="C85" t="n">
-        <v>1.47415</v>
+        <v>1.39972</v>
       </c>
       <c r="D85" t="n">
-        <v>1.18199</v>
+        <v>1.15419</v>
       </c>
     </row>
     <row r="86">
@@ -12240,13 +12240,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>2.0039</v>
+        <v>1.95195</v>
       </c>
       <c r="C86" t="n">
-        <v>1.54028</v>
+        <v>1.47392</v>
       </c>
       <c r="D86" t="n">
-        <v>1.23893</v>
+        <v>1.21446</v>
       </c>
     </row>
     <row r="87">
@@ -12254,13 +12254,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>2.10879</v>
+        <v>2.06838</v>
       </c>
       <c r="C87" t="n">
-        <v>1.603</v>
+        <v>1.54833</v>
       </c>
       <c r="D87" t="n">
-        <v>1.30036</v>
+        <v>1.27617</v>
       </c>
     </row>
     <row r="88">
@@ -12268,13 +12268,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>2.21848</v>
+        <v>2.17623</v>
       </c>
       <c r="C88" t="n">
-        <v>1.67848</v>
+        <v>1.63187</v>
       </c>
       <c r="D88" t="n">
-        <v>1.35642</v>
+        <v>1.33506</v>
       </c>
     </row>
     <row r="89">
@@ -12282,13 +12282,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>2.34101</v>
+        <v>2.29991</v>
       </c>
       <c r="C89" t="n">
-        <v>1.74905</v>
+        <v>1.70872</v>
       </c>
       <c r="D89" t="n">
-        <v>1.41004</v>
+        <v>1.39606</v>
       </c>
     </row>
     <row r="90">
@@ -12296,13 +12296,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>2.45239</v>
+        <v>2.42841</v>
       </c>
       <c r="C90" t="n">
-        <v>1.8261</v>
+        <v>1.79284</v>
       </c>
       <c r="D90" t="n">
-        <v>1.47403</v>
+        <v>1.45751</v>
       </c>
     </row>
     <row r="91">
@@ -12310,13 +12310,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>2.5765</v>
+        <v>2.54916</v>
       </c>
       <c r="C91" t="n">
-        <v>1.91176</v>
+        <v>1.88082</v>
       </c>
       <c r="D91" t="n">
-        <v>1.53378</v>
+        <v>1.5141</v>
       </c>
     </row>
     <row r="92">
@@ -12324,13 +12324,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>2.72049</v>
+        <v>2.6746</v>
       </c>
       <c r="C92" t="n">
-        <v>1.99177</v>
+        <v>1.96497</v>
       </c>
       <c r="D92" t="n">
-        <v>1.58825</v>
+        <v>1.56833</v>
       </c>
     </row>
     <row r="93">
@@ -12338,13 +12338,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>2.86592</v>
+        <v>2.83249</v>
       </c>
       <c r="C93" t="n">
-        <v>2.08019</v>
+        <v>2.06835</v>
       </c>
       <c r="D93" t="n">
-        <v>1.64495</v>
+        <v>1.62302</v>
       </c>
     </row>
     <row r="94">
@@ -12352,13 +12352,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>2.99343</v>
+        <v>2.97429</v>
       </c>
       <c r="C94" t="n">
-        <v>2.17102</v>
+        <v>2.15874</v>
       </c>
       <c r="D94" t="n">
-        <v>1.69431</v>
+        <v>1.67778</v>
       </c>
     </row>
     <row r="95">
@@ -12366,13 +12366,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>3.09888</v>
+        <v>3.07514</v>
       </c>
       <c r="C95" t="n">
-        <v>2.25376</v>
+        <v>2.25246</v>
       </c>
       <c r="D95" t="n">
-        <v>1.74285</v>
+        <v>1.72383</v>
       </c>
     </row>
     <row r="96">
@@ -12380,13 +12380,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>3.27937</v>
+        <v>3.22108</v>
       </c>
       <c r="C96" t="n">
-        <v>2.3622</v>
+        <v>2.3629</v>
       </c>
       <c r="D96" t="n">
-        <v>1.79216</v>
+        <v>1.77706</v>
       </c>
     </row>
     <row r="97">
@@ -12394,13 +12394,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>3.40584</v>
+        <v>3.3784</v>
       </c>
       <c r="C97" t="n">
-        <v>2.15613</v>
+        <v>2.15601</v>
       </c>
       <c r="D97" t="n">
-        <v>1.934</v>
+        <v>1.91534</v>
       </c>
     </row>
     <row r="98">
@@ -12408,13 +12408,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>3.5399</v>
+        <v>3.49359</v>
       </c>
       <c r="C98" t="n">
-        <v>2.22588</v>
+        <v>2.22089</v>
       </c>
       <c r="D98" t="n">
-        <v>1.99237</v>
+        <v>1.9662</v>
       </c>
     </row>
     <row r="99">
@@ -12422,13 +12422,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>3.40185</v>
+        <v>3.42245</v>
       </c>
       <c r="C99" t="n">
-        <v>2.28092</v>
+        <v>2.28298</v>
       </c>
       <c r="D99" t="n">
-        <v>2.02267</v>
+        <v>2.00301</v>
       </c>
     </row>
     <row r="100">
@@ -12436,13 +12436,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>3.51947</v>
+        <v>3.51108</v>
       </c>
       <c r="C100" t="n">
-        <v>2.34122</v>
+        <v>2.35825</v>
       </c>
       <c r="D100" t="n">
-        <v>2.07487</v>
+        <v>2.05451</v>
       </c>
     </row>
     <row r="101">
@@ -12450,13 +12450,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>3.62156</v>
+        <v>3.62027</v>
       </c>
       <c r="C101" t="n">
-        <v>2.40829</v>
+        <v>2.42992</v>
       </c>
       <c r="D101" t="n">
-        <v>2.10268</v>
+        <v>2.08673</v>
       </c>
     </row>
     <row r="102">
@@ -12464,13 +12464,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>3.73609</v>
+        <v>3.7238</v>
       </c>
       <c r="C102" t="n">
-        <v>2.47916</v>
+        <v>2.50637</v>
       </c>
       <c r="D102" t="n">
-        <v>2.13809</v>
+        <v>2.12353</v>
       </c>
     </row>
     <row r="103">
@@ -12478,13 +12478,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>3.83483</v>
+        <v>3.79157</v>
       </c>
       <c r="C103" t="n">
-        <v>2.55152</v>
+        <v>2.57575</v>
       </c>
       <c r="D103" t="n">
-        <v>2.18874</v>
+        <v>2.16021</v>
       </c>
     </row>
     <row r="104">
@@ -12492,13 +12492,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>3.95085</v>
+        <v>3.88353</v>
       </c>
       <c r="C104" t="n">
-        <v>2.61505</v>
+        <v>2.65437</v>
       </c>
       <c r="D104" t="n">
-        <v>2.20521</v>
+        <v>2.20275</v>
       </c>
     </row>
     <row r="105">
@@ -12506,13 +12506,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>4.02807</v>
+        <v>4.00374</v>
       </c>
       <c r="C105" t="n">
-        <v>2.68262</v>
+        <v>2.72611</v>
       </c>
       <c r="D105" t="n">
-        <v>2.2371</v>
+        <v>2.22163</v>
       </c>
     </row>
     <row r="106">
@@ -12520,13 +12520,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>4.12756</v>
+        <v>4.11345</v>
       </c>
       <c r="C106" t="n">
-        <v>2.76256</v>
+        <v>2.8055</v>
       </c>
       <c r="D106" t="n">
-        <v>2.27421</v>
+        <v>2.2755</v>
       </c>
     </row>
     <row r="107">
@@ -12534,13 +12534,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>4.21475</v>
+        <v>4.19258</v>
       </c>
       <c r="C107" t="n">
-        <v>2.84112</v>
+        <v>2.89422</v>
       </c>
       <c r="D107" t="n">
-        <v>2.30275</v>
+        <v>2.29166</v>
       </c>
     </row>
     <row r="108">
@@ -12548,13 +12548,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>4.36018</v>
+        <v>4.3121</v>
       </c>
       <c r="C108" t="n">
-        <v>2.91056</v>
+        <v>2.97507</v>
       </c>
       <c r="D108" t="n">
-        <v>2.33561</v>
+        <v>2.31728</v>
       </c>
     </row>
     <row r="109">
@@ -12562,13 +12562,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>4.47241</v>
+        <v>4.39495</v>
       </c>
       <c r="C109" t="n">
-        <v>3.00265</v>
+        <v>3.06483</v>
       </c>
       <c r="D109" t="n">
-        <v>2.3636</v>
+        <v>2.35136</v>
       </c>
     </row>
     <row r="110">
@@ -12576,13 +12576,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>4.51213</v>
+        <v>4.48374</v>
       </c>
       <c r="C110" t="n">
-        <v>3.0888</v>
+        <v>3.14551</v>
       </c>
       <c r="D110" t="n">
-        <v>2.39345</v>
+        <v>2.37595</v>
       </c>
     </row>
     <row r="111">
@@ -12590,13 +12590,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>4.68522</v>
+        <v>4.58021</v>
       </c>
       <c r="C111" t="n">
-        <v>2.75735</v>
+        <v>2.79714</v>
       </c>
       <c r="D111" t="n">
-        <v>2.50227</v>
+        <v>2.48465</v>
       </c>
     </row>
     <row r="112">
@@ -12604,13 +12604,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>4.76299</v>
+        <v>4.71384</v>
       </c>
       <c r="C112" t="n">
-        <v>2.82336</v>
+        <v>2.86306</v>
       </c>
       <c r="D112" t="n">
-        <v>2.53759</v>
+        <v>2.51313</v>
       </c>
     </row>
     <row r="113">
@@ -12618,13 +12618,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>4.89314</v>
+        <v>4.84872</v>
       </c>
       <c r="C113" t="n">
-        <v>2.88022</v>
+        <v>2.91455</v>
       </c>
       <c r="D113" t="n">
-        <v>2.57343</v>
+        <v>2.54678</v>
       </c>
     </row>
     <row r="114">
@@ -12632,13 +12632,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>4.50187</v>
+        <v>4.48523</v>
       </c>
       <c r="C114" t="n">
-        <v>2.94227</v>
+        <v>2.98118</v>
       </c>
       <c r="D114" t="n">
-        <v>2.58215</v>
+        <v>2.56773</v>
       </c>
     </row>
     <row r="115">
@@ -12646,13 +12646,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>4.59635</v>
+        <v>4.5536</v>
       </c>
       <c r="C115" t="n">
-        <v>2.99325</v>
+        <v>3.04394</v>
       </c>
       <c r="D115" t="n">
-        <v>2.60434</v>
+        <v>2.58595</v>
       </c>
     </row>
     <row r="116">
@@ -12660,13 +12660,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>4.70699</v>
+        <v>4.6518</v>
       </c>
       <c r="C116" t="n">
-        <v>3.06147</v>
+        <v>3.10863</v>
       </c>
       <c r="D116" t="n">
-        <v>2.63257</v>
+        <v>2.60871</v>
       </c>
     </row>
     <row r="117">
@@ -12674,13 +12674,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>4.73778</v>
+        <v>4.71795</v>
       </c>
       <c r="C117" t="n">
-        <v>3.12682</v>
+        <v>3.1627</v>
       </c>
       <c r="D117" t="n">
-        <v>2.65682</v>
+        <v>2.63505</v>
       </c>
     </row>
     <row r="118">
@@ -12688,13 +12688,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>4.78105</v>
+        <v>4.7633</v>
       </c>
       <c r="C118" t="n">
-        <v>3.1997</v>
+        <v>3.22939</v>
       </c>
       <c r="D118" t="n">
-        <v>2.67062</v>
+        <v>2.65106</v>
       </c>
     </row>
     <row r="119">
@@ -12702,13 +12702,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>4.94194</v>
+        <v>4.91228</v>
       </c>
       <c r="C119" t="n">
-        <v>3.27584</v>
+        <v>3.30856</v>
       </c>
       <c r="D119" t="n">
-        <v>2.70268</v>
+        <v>2.6759</v>
       </c>
     </row>
   </sheetData>

--- a/gcc/scattered erasure.xlsx
+++ b/gcc/scattered erasure.xlsx
@@ -7680,13 +7680,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.337074</v>
+        <v>0.300849</v>
       </c>
       <c r="C2" t="n">
-        <v>0.288091</v>
+        <v>0.282819</v>
       </c>
       <c r="D2" t="n">
-        <v>0.25384</v>
+        <v>0.23349</v>
       </c>
     </row>
     <row r="3">
@@ -7694,13 +7694,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.310076</v>
+        <v>0.295294</v>
       </c>
       <c r="C3" t="n">
-        <v>0.290951</v>
+        <v>0.287567</v>
       </c>
       <c r="D3" t="n">
-        <v>0.250345</v>
+        <v>0.232866</v>
       </c>
     </row>
     <row r="4">
@@ -7708,13 +7708,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.304914</v>
+        <v>0.298802</v>
       </c>
       <c r="C4" t="n">
-        <v>0.292628</v>
+        <v>0.290926</v>
       </c>
       <c r="D4" t="n">
-        <v>0.252146</v>
+        <v>0.242676</v>
       </c>
     </row>
     <row r="5">
@@ -7722,13 +7722,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.316202</v>
+        <v>0.304963</v>
       </c>
       <c r="C5" t="n">
-        <v>0.297584</v>
+        <v>0.295049</v>
       </c>
       <c r="D5" t="n">
-        <v>0.263261</v>
+        <v>0.249797</v>
       </c>
     </row>
     <row r="6">
@@ -7736,13 +7736,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.322641</v>
+        <v>0.314829</v>
       </c>
       <c r="C6" t="n">
-        <v>0.300985</v>
+        <v>0.298405</v>
       </c>
       <c r="D6" t="n">
-        <v>0.268357</v>
+        <v>0.259269</v>
       </c>
     </row>
     <row r="7">
@@ -7750,13 +7750,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.331295</v>
+        <v>0.323882</v>
       </c>
       <c r="C7" t="n">
-        <v>0.284099</v>
+        <v>0.284049</v>
       </c>
       <c r="D7" t="n">
-        <v>0.271464</v>
+        <v>0.271453</v>
       </c>
     </row>
     <row r="8">
@@ -7764,13 +7764,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.333562</v>
+        <v>0.327816</v>
       </c>
       <c r="C8" t="n">
-        <v>0.286661</v>
+        <v>0.284996</v>
       </c>
       <c r="D8" t="n">
-        <v>0.278483</v>
+        <v>0.281135</v>
       </c>
     </row>
     <row r="9">
@@ -7778,13 +7778,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.337022</v>
+        <v>0.338324</v>
       </c>
       <c r="C9" t="n">
-        <v>0.288859</v>
+        <v>0.287354</v>
       </c>
       <c r="D9" t="n">
-        <v>0.284317</v>
+        <v>0.283187</v>
       </c>
     </row>
     <row r="10">
@@ -7792,13 +7792,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.34272</v>
+        <v>0.344084</v>
       </c>
       <c r="C10" t="n">
-        <v>0.290192</v>
+        <v>0.289872</v>
       </c>
       <c r="D10" t="n">
-        <v>0.285707</v>
+        <v>0.286217</v>
       </c>
     </row>
     <row r="11">
@@ -7806,13 +7806,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.350161</v>
+        <v>0.351856</v>
       </c>
       <c r="C11" t="n">
-        <v>0.292018</v>
+        <v>0.292199</v>
       </c>
       <c r="D11" t="n">
-        <v>0.291543</v>
+        <v>0.29132</v>
       </c>
     </row>
     <row r="12">
@@ -7820,13 +7820,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.355434</v>
+        <v>0.355744</v>
       </c>
       <c r="C12" t="n">
-        <v>0.295044</v>
+        <v>0.294348</v>
       </c>
       <c r="D12" t="n">
-        <v>0.298865</v>
+        <v>0.297864</v>
       </c>
     </row>
     <row r="13">
@@ -7834,13 +7834,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.364249</v>
+        <v>0.36188</v>
       </c>
       <c r="C13" t="n">
-        <v>0.297075</v>
+        <v>0.296947</v>
       </c>
       <c r="D13" t="n">
-        <v>0.303115</v>
+        <v>0.306406</v>
       </c>
     </row>
     <row r="14">
@@ -7848,13 +7848,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.367693</v>
+        <v>0.373887</v>
       </c>
       <c r="C14" t="n">
-        <v>0.300524</v>
+        <v>0.299893</v>
       </c>
       <c r="D14" t="n">
-        <v>0.310569</v>
+        <v>0.307364</v>
       </c>
     </row>
     <row r="15">
@@ -7862,13 +7862,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.380013</v>
+        <v>0.378608</v>
       </c>
       <c r="C15" t="n">
-        <v>0.304156</v>
+        <v>0.303335</v>
       </c>
       <c r="D15" t="n">
-        <v>0.31497</v>
+        <v>0.314807</v>
       </c>
     </row>
     <row r="16">
@@ -7876,13 +7876,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.38454</v>
+        <v>0.385978</v>
       </c>
       <c r="C16" t="n">
-        <v>0.307462</v>
+        <v>0.306737</v>
       </c>
       <c r="D16" t="n">
-        <v>0.324291</v>
+        <v>0.321333</v>
       </c>
     </row>
     <row r="17">
@@ -7890,13 +7890,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.395386</v>
+        <v>0.39315</v>
       </c>
       <c r="C17" t="n">
-        <v>0.311821</v>
+        <v>0.310923</v>
       </c>
       <c r="D17" t="n">
-        <v>0.329346</v>
+        <v>0.327004</v>
       </c>
     </row>
     <row r="18">
@@ -7904,13 +7904,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.37882</v>
+        <v>0.378464</v>
       </c>
       <c r="C18" t="n">
-        <v>0.316016</v>
+        <v>0.314858</v>
       </c>
       <c r="D18" t="n">
-        <v>0.333865</v>
+        <v>0.332875</v>
       </c>
     </row>
     <row r="19">
@@ -7918,13 +7918,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.384832</v>
+        <v>0.382644</v>
       </c>
       <c r="C19" t="n">
-        <v>0.319434</v>
+        <v>0.318158</v>
       </c>
       <c r="D19" t="n">
-        <v>0.339437</v>
+        <v>0.340594</v>
       </c>
     </row>
     <row r="20">
@@ -7932,13 +7932,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.390085</v>
+        <v>0.389807</v>
       </c>
       <c r="C20" t="n">
-        <v>0.322321</v>
+        <v>0.321785</v>
       </c>
       <c r="D20" t="n">
-        <v>0.346152</v>
+        <v>0.343165</v>
       </c>
     </row>
     <row r="21">
@@ -7946,13 +7946,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.396846</v>
+        <v>0.393739</v>
       </c>
       <c r="C21" t="n">
-        <v>0.298637</v>
+        <v>0.298126</v>
       </c>
       <c r="D21" t="n">
-        <v>0.352647</v>
+        <v>0.353148</v>
       </c>
     </row>
     <row r="22">
@@ -7960,13 +7960,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.401226</v>
+        <v>0.402327</v>
       </c>
       <c r="C22" t="n">
-        <v>0.301553</v>
+        <v>0.301706</v>
       </c>
       <c r="D22" t="n">
-        <v>0.35743</v>
+        <v>0.357841</v>
       </c>
     </row>
     <row r="23">
@@ -7974,13 +7974,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.407023</v>
+        <v>0.407765</v>
       </c>
       <c r="C23" t="n">
-        <v>0.303089</v>
+        <v>0.303069</v>
       </c>
       <c r="D23" t="n">
-        <v>0.361729</v>
+        <v>0.36139</v>
       </c>
     </row>
     <row r="24">
@@ -7988,13 +7988,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.412762</v>
+        <v>0.412704</v>
       </c>
       <c r="C24" t="n">
-        <v>0.306489</v>
+        <v>0.305651</v>
       </c>
       <c r="D24" t="n">
-        <v>0.365737</v>
+        <v>0.365549</v>
       </c>
     </row>
     <row r="25">
@@ -8002,13 +8002,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.418821</v>
+        <v>0.419161</v>
       </c>
       <c r="C25" t="n">
-        <v>0.308749</v>
+        <v>0.307867</v>
       </c>
       <c r="D25" t="n">
-        <v>0.369208</v>
+        <v>0.369276</v>
       </c>
     </row>
     <row r="26">
@@ -8016,13 +8016,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.424273</v>
+        <v>0.423793</v>
       </c>
       <c r="C26" t="n">
-        <v>0.311482</v>
+        <v>0.31103</v>
       </c>
       <c r="D26" t="n">
-        <v>0.372766</v>
+        <v>0.37315</v>
       </c>
     </row>
     <row r="27">
@@ -8030,13 +8030,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.430068</v>
+        <v>0.430792</v>
       </c>
       <c r="C27" t="n">
-        <v>0.314158</v>
+        <v>0.313533</v>
       </c>
       <c r="D27" t="n">
-        <v>0.376138</v>
+        <v>0.377231</v>
       </c>
     </row>
     <row r="28">
@@ -8044,13 +8044,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.435941</v>
+        <v>0.433338</v>
       </c>
       <c r="C28" t="n">
-        <v>0.317769</v>
+        <v>0.316923</v>
       </c>
       <c r="D28" t="n">
-        <v>0.380168</v>
+        <v>0.381574</v>
       </c>
     </row>
     <row r="29">
@@ -8058,13 +8058,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.441889</v>
+        <v>0.442463</v>
       </c>
       <c r="C29" t="n">
-        <v>0.319758</v>
+        <v>0.319325</v>
       </c>
       <c r="D29" t="n">
-        <v>0.384179</v>
+        <v>0.384874</v>
       </c>
     </row>
     <row r="30">
@@ -8072,13 +8072,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.447274</v>
+        <v>0.447833</v>
       </c>
       <c r="C30" t="n">
-        <v>0.323952</v>
+        <v>0.32271</v>
       </c>
       <c r="D30" t="n">
-        <v>0.38724</v>
+        <v>0.3878</v>
       </c>
     </row>
     <row r="31">
@@ -8086,13 +8086,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.454675</v>
+        <v>0.454578</v>
       </c>
       <c r="C31" t="n">
-        <v>0.326996</v>
+        <v>0.326848</v>
       </c>
       <c r="D31" t="n">
-        <v>0.390981</v>
+        <v>0.391812</v>
       </c>
     </row>
     <row r="32">
@@ -8100,13 +8100,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.425702</v>
+        <v>0.425064</v>
       </c>
       <c r="C32" t="n">
-        <v>0.331332</v>
+        <v>0.330537</v>
       </c>
       <c r="D32" t="n">
-        <v>0.394642</v>
+        <v>0.394938</v>
       </c>
     </row>
     <row r="33">
@@ -8114,13 +8114,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.429585</v>
+        <v>0.426669</v>
       </c>
       <c r="C33" t="n">
-        <v>0.334166</v>
+        <v>0.334484</v>
       </c>
       <c r="D33" t="n">
-        <v>0.398214</v>
+        <v>0.399417</v>
       </c>
     </row>
     <row r="34">
@@ -8128,13 +8128,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.432197</v>
+        <v>0.433976</v>
       </c>
       <c r="C34" t="n">
-        <v>0.339549</v>
+        <v>0.338864</v>
       </c>
       <c r="D34" t="n">
-        <v>0.40138</v>
+        <v>0.402865</v>
       </c>
     </row>
     <row r="35">
@@ -8142,13 +8142,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.438151</v>
+        <v>0.43993</v>
       </c>
       <c r="C35" t="n">
-        <v>0.309219</v>
+        <v>0.308812</v>
       </c>
       <c r="D35" t="n">
-        <v>0.401814</v>
+        <v>0.402794</v>
       </c>
     </row>
     <row r="36">
@@ -8156,13 +8156,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.440867</v>
+        <v>0.442206</v>
       </c>
       <c r="C36" t="n">
-        <v>0.312523</v>
+        <v>0.312135</v>
       </c>
       <c r="D36" t="n">
-        <v>0.40345</v>
+        <v>0.40476</v>
       </c>
     </row>
     <row r="37">
@@ -8170,13 +8170,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.445299</v>
+        <v>0.44334</v>
       </c>
       <c r="C37" t="n">
-        <v>0.313696</v>
+        <v>0.314139</v>
       </c>
       <c r="D37" t="n">
-        <v>0.405951</v>
+        <v>0.40624</v>
       </c>
     </row>
     <row r="38">
@@ -8184,13 +8184,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.448947</v>
+        <v>0.449868</v>
       </c>
       <c r="C38" t="n">
-        <v>0.316207</v>
+        <v>0.315497</v>
       </c>
       <c r="D38" t="n">
-        <v>0.407961</v>
+        <v>0.40875</v>
       </c>
     </row>
     <row r="39">
@@ -8198,13 +8198,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.453809</v>
+        <v>0.454727</v>
       </c>
       <c r="C39" t="n">
-        <v>0.319679</v>
+        <v>0.318872</v>
       </c>
       <c r="D39" t="n">
-        <v>0.410653</v>
+        <v>0.410703</v>
       </c>
     </row>
     <row r="40">
@@ -8212,13 +8212,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.457684</v>
+        <v>0.458889</v>
       </c>
       <c r="C40" t="n">
-        <v>0.322122</v>
+        <v>0.32116</v>
       </c>
       <c r="D40" t="n">
-        <v>0.412105</v>
+        <v>0.413212</v>
       </c>
     </row>
     <row r="41">
@@ -8226,13 +8226,13 @@
         <v>66357</v>
       </c>
       <c r="B41" t="n">
-        <v>0.463443</v>
+        <v>0.464153</v>
       </c>
       <c r="C41" t="n">
-        <v>0.323463</v>
+        <v>0.32315</v>
       </c>
       <c r="D41" t="n">
-        <v>0.415089</v>
+        <v>0.414627</v>
       </c>
     </row>
     <row r="42">
@@ -8240,13 +8240,13 @@
         <v>69656</v>
       </c>
       <c r="B42" t="n">
-        <v>0.468288</v>
+        <v>0.468508</v>
       </c>
       <c r="C42" t="n">
-        <v>0.327112</v>
+        <v>0.326696</v>
       </c>
       <c r="D42" t="n">
-        <v>0.416981</v>
+        <v>0.417797</v>
       </c>
     </row>
     <row r="43">
@@ -8254,13 +8254,13 @@
         <v>73119</v>
       </c>
       <c r="B43" t="n">
-        <v>0.472772</v>
+        <v>0.473852</v>
       </c>
       <c r="C43" t="n">
-        <v>0.330431</v>
+        <v>0.329685</v>
       </c>
       <c r="D43" t="n">
-        <v>0.419107</v>
+        <v>0.419851</v>
       </c>
     </row>
     <row r="44">
@@ -8268,13 +8268,13 @@
         <v>76755</v>
       </c>
       <c r="B44" t="n">
-        <v>0.476944</v>
+        <v>0.478222</v>
       </c>
       <c r="C44" t="n">
-        <v>0.334601</v>
+        <v>0.334074</v>
       </c>
       <c r="D44" t="n">
-        <v>0.421372</v>
+        <v>0.422358</v>
       </c>
     </row>
     <row r="45">
@@ -8282,13 +8282,13 @@
         <v>80572</v>
       </c>
       <c r="B45" t="n">
-        <v>0.482301</v>
+        <v>0.483568</v>
       </c>
       <c r="C45" t="n">
-        <v>0.337011</v>
+        <v>0.338328</v>
       </c>
       <c r="D45" t="n">
-        <v>0.423865</v>
+        <v>0.424322</v>
       </c>
     </row>
     <row r="46">
@@ -8296,13 +8296,13 @@
         <v>84579</v>
       </c>
       <c r="B46" t="n">
-        <v>0.487041</v>
+        <v>0.488649</v>
       </c>
       <c r="C46" t="n">
-        <v>0.340769</v>
+        <v>0.340206</v>
       </c>
       <c r="D46" t="n">
-        <v>0.426252</v>
+        <v>0.425672</v>
       </c>
     </row>
     <row r="47">
@@ -8310,13 +8310,13 @@
         <v>88786</v>
       </c>
       <c r="B47" t="n">
-        <v>0.44849</v>
+        <v>0.451692</v>
       </c>
       <c r="C47" t="n">
-        <v>0.345408</v>
+        <v>0.345832</v>
       </c>
       <c r="D47" t="n">
-        <v>0.428359</v>
+        <v>0.429088</v>
       </c>
     </row>
     <row r="48">
@@ -8324,13 +8324,13 @@
         <v>93203</v>
       </c>
       <c r="B48" t="n">
-        <v>0.453306</v>
+        <v>0.455245</v>
       </c>
       <c r="C48" t="n">
-        <v>0.34819</v>
+        <v>0.348235</v>
       </c>
       <c r="D48" t="n">
-        <v>0.430391</v>
+        <v>0.430987</v>
       </c>
     </row>
     <row r="49">
@@ -8338,13 +8338,13 @@
         <v>97840</v>
       </c>
       <c r="B49" t="n">
-        <v>0.457007</v>
+        <v>0.457976</v>
       </c>
       <c r="C49" t="n">
-        <v>0.353229</v>
+        <v>0.352282</v>
       </c>
       <c r="D49" t="n">
-        <v>0.433013</v>
+        <v>0.432984</v>
       </c>
     </row>
     <row r="50">
@@ -8352,13 +8352,13 @@
         <v>102706</v>
       </c>
       <c r="B50" t="n">
-        <v>0.460785</v>
+        <v>0.461393</v>
       </c>
       <c r="C50" t="n">
-        <v>0.324613</v>
+        <v>0.327201</v>
       </c>
       <c r="D50" t="n">
-        <v>0.428643</v>
+        <v>0.428675</v>
       </c>
     </row>
     <row r="51">
@@ -8366,13 +8366,13 @@
         <v>107816</v>
       </c>
       <c r="B51" t="n">
-        <v>0.463982</v>
+        <v>0.465063</v>
       </c>
       <c r="C51" t="n">
-        <v>0.32907</v>
+        <v>0.329675</v>
       </c>
       <c r="D51" t="n">
-        <v>0.428796</v>
+        <v>0.430141</v>
       </c>
     </row>
     <row r="52">
@@ -8380,13 +8380,13 @@
         <v>113182</v>
       </c>
       <c r="B52" t="n">
-        <v>0.467508</v>
+        <v>0.468487</v>
       </c>
       <c r="C52" t="n">
-        <v>0.335116</v>
+        <v>0.33064</v>
       </c>
       <c r="D52" t="n">
-        <v>0.430989</v>
+        <v>0.430424</v>
       </c>
     </row>
     <row r="53">
@@ -8394,13 +8394,13 @@
         <v>118816</v>
       </c>
       <c r="B53" t="n">
-        <v>0.471095</v>
+        <v>0.471325</v>
       </c>
       <c r="C53" t="n">
-        <v>0.33721</v>
+        <v>0.331541</v>
       </c>
       <c r="D53" t="n">
-        <v>0.431614</v>
+        <v>0.431851</v>
       </c>
     </row>
     <row r="54">
@@ -8408,13 +8408,13 @@
         <v>124731</v>
       </c>
       <c r="B54" t="n">
-        <v>0.474731</v>
+        <v>0.47546</v>
       </c>
       <c r="C54" t="n">
-        <v>0.33804</v>
+        <v>0.336063</v>
       </c>
       <c r="D54" t="n">
-        <v>0.433594</v>
+        <v>0.433422</v>
       </c>
     </row>
     <row r="55">
@@ -8422,13 +8422,13 @@
         <v>130941</v>
       </c>
       <c r="B55" t="n">
-        <v>0.478136</v>
+        <v>0.479028</v>
       </c>
       <c r="C55" t="n">
-        <v>0.341151</v>
+        <v>0.340365</v>
       </c>
       <c r="D55" t="n">
-        <v>0.434263</v>
+        <v>0.434854</v>
       </c>
     </row>
     <row r="56">
@@ -8436,13 +8436,13 @@
         <v>137461</v>
       </c>
       <c r="B56" t="n">
-        <v>0.482971</v>
+        <v>0.483721</v>
       </c>
       <c r="C56" t="n">
-        <v>0.345194</v>
+        <v>0.346639</v>
       </c>
       <c r="D56" t="n">
-        <v>0.435958</v>
+        <v>0.436149</v>
       </c>
     </row>
     <row r="57">
@@ -8450,13 +8450,13 @@
         <v>144307</v>
       </c>
       <c r="B57" t="n">
-        <v>0.48724</v>
+        <v>0.487538</v>
       </c>
       <c r="C57" t="n">
-        <v>0.351192</v>
+        <v>0.353142</v>
       </c>
       <c r="D57" t="n">
-        <v>0.436977</v>
+        <v>0.437893</v>
       </c>
     </row>
     <row r="58">
@@ -8464,13 +8464,13 @@
         <v>151495</v>
       </c>
       <c r="B58" t="n">
-        <v>0.491292</v>
+        <v>0.492558</v>
       </c>
       <c r="C58" t="n">
-        <v>0.35362</v>
+        <v>0.356487</v>
       </c>
       <c r="D58" t="n">
-        <v>0.438977</v>
+        <v>0.439913</v>
       </c>
     </row>
     <row r="59">
@@ -8478,13 +8478,13 @@
         <v>159042</v>
       </c>
       <c r="B59" t="n">
-        <v>0.49611</v>
+        <v>0.497034</v>
       </c>
       <c r="C59" t="n">
-        <v>0.35706</v>
+        <v>0.358935</v>
       </c>
       <c r="D59" t="n">
-        <v>0.441518</v>
+        <v>0.441251</v>
       </c>
     </row>
     <row r="60">
@@ -8492,13 +8492,13 @@
         <v>166965</v>
       </c>
       <c r="B60" t="n">
-        <v>0.501749</v>
+        <v>0.502198</v>
       </c>
       <c r="C60" t="n">
-        <v>0.365126</v>
+        <v>0.369569</v>
       </c>
       <c r="D60" t="n">
-        <v>0.444334</v>
+        <v>0.445175</v>
       </c>
     </row>
     <row r="61">
@@ -8506,13 +8506,13 @@
         <v>175284</v>
       </c>
       <c r="B61" t="n">
-        <v>0.480884</v>
+        <v>0.482459</v>
       </c>
       <c r="C61" t="n">
-        <v>0.37385</v>
+        <v>0.378613</v>
       </c>
       <c r="D61" t="n">
-        <v>0.44618</v>
+        <v>0.447446</v>
       </c>
     </row>
     <row r="62">
@@ -8520,13 +8520,13 @@
         <v>184019</v>
       </c>
       <c r="B62" t="n">
-        <v>0.490336</v>
+        <v>0.494332</v>
       </c>
       <c r="C62" t="n">
-        <v>0.381834</v>
+        <v>0.388376</v>
       </c>
       <c r="D62" t="n">
-        <v>0.448449</v>
+        <v>0.450521</v>
       </c>
     </row>
     <row r="63">
@@ -8534,13 +8534,13 @@
         <v>193190</v>
       </c>
       <c r="B63" t="n">
-        <v>0.493567</v>
+        <v>0.501921</v>
       </c>
       <c r="C63" t="n">
-        <v>0.391401</v>
+        <v>0.3927</v>
       </c>
       <c r="D63" t="n">
-        <v>0.450679</v>
+        <v>0.452755</v>
       </c>
     </row>
     <row r="64">
@@ -8548,13 +8548,13 @@
         <v>202820</v>
       </c>
       <c r="B64" t="n">
-        <v>0.500786</v>
+        <v>0.51327</v>
       </c>
       <c r="C64" t="n">
-        <v>0.445826</v>
+        <v>0.432498</v>
       </c>
       <c r="D64" t="n">
-        <v>0.473796</v>
+        <v>0.473385</v>
       </c>
     </row>
     <row r="65">
@@ -8562,13 +8562,13 @@
         <v>212931</v>
       </c>
       <c r="B65" t="n">
-        <v>0.517827</v>
+        <v>0.511139</v>
       </c>
       <c r="C65" t="n">
-        <v>0.455746</v>
+        <v>0.437126</v>
       </c>
       <c r="D65" t="n">
-        <v>0.489013</v>
+        <v>0.485711</v>
       </c>
     </row>
     <row r="66">
@@ -8576,13 +8576,13 @@
         <v>223547</v>
       </c>
       <c r="B66" t="n">
-        <v>0.529189</v>
+        <v>0.522756</v>
       </c>
       <c r="C66" t="n">
-        <v>0.462955</v>
+        <v>0.456376</v>
       </c>
       <c r="D66" t="n">
-        <v>0.500352</v>
+        <v>0.491842</v>
       </c>
     </row>
     <row r="67">
@@ -8590,13 +8590,13 @@
         <v>234692</v>
       </c>
       <c r="B67" t="n">
-        <v>0.555774</v>
+        <v>0.536841</v>
       </c>
       <c r="C67" t="n">
-        <v>0.486483</v>
+        <v>0.479153</v>
       </c>
       <c r="D67" t="n">
-        <v>0.517915</v>
+        <v>0.5047779999999999</v>
       </c>
     </row>
     <row r="68">
@@ -8604,13 +8604,13 @@
         <v>246395</v>
       </c>
       <c r="B68" t="n">
-        <v>0.571915</v>
+        <v>0.559183</v>
       </c>
       <c r="C68" t="n">
-        <v>0.507172</v>
+        <v>0.496002</v>
       </c>
       <c r="D68" t="n">
-        <v>0.521635</v>
+        <v>0.518362</v>
       </c>
     </row>
     <row r="69">
@@ -8618,13 +8618,13 @@
         <v>258683</v>
       </c>
       <c r="B69" t="n">
-        <v>0.576501</v>
+        <v>0.574245</v>
       </c>
       <c r="C69" t="n">
-        <v>0.51736</v>
+        <v>0.51928</v>
       </c>
       <c r="D69" t="n">
-        <v>0.5258930000000001</v>
+        <v>0.527</v>
       </c>
     </row>
     <row r="70">
@@ -8632,13 +8632,13 @@
         <v>271585</v>
       </c>
       <c r="B70" t="n">
-        <v>0.583378</v>
+        <v>0.587707</v>
       </c>
       <c r="C70" t="n">
-        <v>0.5436839999999999</v>
+        <v>0.544087</v>
       </c>
       <c r="D70" t="n">
-        <v>0.558109</v>
+        <v>0.54745</v>
       </c>
     </row>
     <row r="71">
@@ -8646,13 +8646,13 @@
         <v>285132</v>
       </c>
       <c r="B71" t="n">
-        <v>0.618336</v>
+        <v>0.617528</v>
       </c>
       <c r="C71" t="n">
-        <v>0.565378</v>
+        <v>0.567501</v>
       </c>
       <c r="D71" t="n">
-        <v>0.579929</v>
+        <v>0.550665</v>
       </c>
     </row>
     <row r="72">
@@ -8660,13 +8660,13 @@
         <v>299354</v>
       </c>
       <c r="B72" t="n">
-        <v>0.646826</v>
+        <v>0.615695</v>
       </c>
       <c r="C72" t="n">
-        <v>0.589979</v>
+        <v>0.576236</v>
       </c>
       <c r="D72" t="n">
-        <v>0.602703</v>
+        <v>0.570603</v>
       </c>
     </row>
     <row r="73">
@@ -8674,13 +8674,13 @@
         <v>314289</v>
       </c>
       <c r="B73" t="n">
-        <v>0.675521</v>
+        <v>0.643743</v>
       </c>
       <c r="C73" t="n">
-        <v>0.611631</v>
+        <v>0.6048829999999999</v>
       </c>
       <c r="D73" t="n">
-        <v>0.630708</v>
+        <v>0.611273</v>
       </c>
     </row>
     <row r="74">
@@ -8688,13 +8688,13 @@
         <v>329969</v>
       </c>
       <c r="B74" t="n">
-        <v>0.7120069999999999</v>
+        <v>0.692686</v>
       </c>
       <c r="C74" t="n">
-        <v>0.634269</v>
+        <v>0.631982</v>
       </c>
       <c r="D74" t="n">
-        <v>0.642818</v>
+        <v>0.647251</v>
       </c>
     </row>
     <row r="75">
@@ -8702,13 +8702,13 @@
         <v>346432</v>
       </c>
       <c r="B75" t="n">
-        <v>0.730474</v>
+        <v>0.727945</v>
       </c>
       <c r="C75" t="n">
-        <v>0.654262</v>
+        <v>0.663535</v>
       </c>
       <c r="D75" t="n">
-        <v>0.690324</v>
+        <v>0.696513</v>
       </c>
     </row>
     <row r="76">
@@ -8716,13 +8716,13 @@
         <v>363719</v>
       </c>
       <c r="B76" t="n">
-        <v>0.9506790000000001</v>
+        <v>0.965355</v>
       </c>
       <c r="C76" t="n">
-        <v>0.680248</v>
+        <v>0.689275</v>
       </c>
       <c r="D76" t="n">
-        <v>0.722928</v>
+        <v>0.731923</v>
       </c>
     </row>
     <row r="77">
@@ -8730,13 +8730,13 @@
         <v>381870</v>
       </c>
       <c r="B77" t="n">
-        <v>1.00063</v>
+        <v>1.01403</v>
       </c>
       <c r="C77" t="n">
-        <v>0.70486</v>
+        <v>0.715523</v>
       </c>
       <c r="D77" t="n">
-        <v>0.762606</v>
+        <v>0.771613</v>
       </c>
     </row>
     <row r="78">
@@ -8744,13 +8744,13 @@
         <v>400928</v>
       </c>
       <c r="B78" t="n">
-        <v>1.04831</v>
+        <v>1.06325</v>
       </c>
       <c r="C78" t="n">
-        <v>0.823725</v>
+        <v>0.830797</v>
       </c>
       <c r="D78" t="n">
-        <v>1.01284</v>
+        <v>1.03709</v>
       </c>
     </row>
     <row r="79">
@@ -8758,13 +8758,13 @@
         <v>420937</v>
       </c>
       <c r="B79" t="n">
-        <v>1.08358</v>
+        <v>1.12986</v>
       </c>
       <c r="C79" t="n">
-        <v>0.836417</v>
+        <v>0.858807</v>
       </c>
       <c r="D79" t="n">
-        <v>1.04322</v>
+        <v>1.09695</v>
       </c>
     </row>
     <row r="80">
@@ -8772,13 +8772,13 @@
         <v>441947</v>
       </c>
       <c r="B80" t="n">
-        <v>1.15169</v>
+        <v>1.17247</v>
       </c>
       <c r="C80" t="n">
-        <v>0.855542</v>
+        <v>0.870858</v>
       </c>
       <c r="D80" t="n">
-        <v>1.11525</v>
+        <v>1.13995</v>
       </c>
     </row>
     <row r="81">
@@ -8786,13 +8786,13 @@
         <v>464005</v>
       </c>
       <c r="B81" t="n">
-        <v>1.19648</v>
+        <v>1.22886</v>
       </c>
       <c r="C81" t="n">
-        <v>0.870996</v>
+        <v>0.891665</v>
       </c>
       <c r="D81" t="n">
-        <v>1.16315</v>
+        <v>1.18638</v>
       </c>
     </row>
     <row r="82">
@@ -8800,13 +8800,13 @@
         <v>487165</v>
       </c>
       <c r="B82" t="n">
-        <v>1.24776</v>
+        <v>1.26284</v>
       </c>
       <c r="C82" t="n">
-        <v>0.887422</v>
+        <v>0.901065</v>
       </c>
       <c r="D82" t="n">
-        <v>1.21679</v>
+        <v>1.2223</v>
       </c>
     </row>
     <row r="83">
@@ -8814,13 +8814,13 @@
         <v>511485</v>
       </c>
       <c r="B83" t="n">
-        <v>1.30629</v>
+        <v>1.31939</v>
       </c>
       <c r="C83" t="n">
-        <v>0.902156</v>
+        <v>0.917579</v>
       </c>
       <c r="D83" t="n">
-        <v>1.26905</v>
+        <v>1.28298</v>
       </c>
     </row>
     <row r="84">
@@ -8828,13 +8828,13 @@
         <v>537019</v>
       </c>
       <c r="B84" t="n">
-        <v>1.35689</v>
+        <v>1.38151</v>
       </c>
       <c r="C84" t="n">
-        <v>0.919556</v>
+        <v>0.937645</v>
       </c>
       <c r="D84" t="n">
-        <v>1.30157</v>
+        <v>1.3354</v>
       </c>
     </row>
     <row r="85">
@@ -8842,13 +8842,13 @@
         <v>563827</v>
       </c>
       <c r="B85" t="n">
-        <v>1.39447</v>
+        <v>1.42337</v>
       </c>
       <c r="C85" t="n">
-        <v>0.933527</v>
+        <v>0.948793</v>
       </c>
       <c r="D85" t="n">
-        <v>1.36146</v>
+        <v>1.37863</v>
       </c>
     </row>
     <row r="86">
@@ -8856,13 +8856,13 @@
         <v>591977</v>
       </c>
       <c r="B86" t="n">
-        <v>1.45541</v>
+        <v>1.46769</v>
       </c>
       <c r="C86" t="n">
-        <v>0.95168</v>
+        <v>0.962053</v>
       </c>
       <c r="D86" t="n">
-        <v>1.40917</v>
+        <v>1.42759</v>
       </c>
     </row>
     <row r="87">
@@ -8870,13 +8870,13 @@
         <v>621532</v>
       </c>
       <c r="B87" t="n">
-        <v>1.50278</v>
+        <v>1.52767</v>
       </c>
       <c r="C87" t="n">
-        <v>0.965994</v>
+        <v>0.982444</v>
       </c>
       <c r="D87" t="n">
-        <v>1.45322</v>
+        <v>1.47771</v>
       </c>
     </row>
     <row r="88">
@@ -8884,13 +8884,13 @@
         <v>652567</v>
       </c>
       <c r="B88" t="n">
-        <v>1.55004</v>
+        <v>1.57519</v>
       </c>
       <c r="C88" t="n">
-        <v>0.981255</v>
+        <v>0.999431</v>
       </c>
       <c r="D88" t="n">
-        <v>1.50333</v>
+        <v>1.52564</v>
       </c>
     </row>
     <row r="89">
@@ -8898,13 +8898,13 @@
         <v>685151</v>
       </c>
       <c r="B89" t="n">
-        <v>1.60615</v>
+        <v>1.62289</v>
       </c>
       <c r="C89" t="n">
-        <v>0.999165</v>
+        <v>1.019</v>
       </c>
       <c r="D89" t="n">
-        <v>1.54769</v>
+        <v>1.57589</v>
       </c>
     </row>
     <row r="90">
@@ -8912,13 +8912,13 @@
         <v>719359</v>
       </c>
       <c r="B90" t="n">
-        <v>1.81303</v>
+        <v>1.84155</v>
       </c>
       <c r="C90" t="n">
-        <v>1.01588</v>
+        <v>1.03738</v>
       </c>
       <c r="D90" t="n">
-        <v>1.58844</v>
+        <v>1.61743</v>
       </c>
     </row>
     <row r="91">
@@ -8926,13 +8926,13 @@
         <v>755280</v>
       </c>
       <c r="B91" t="n">
-        <v>1.85478</v>
+        <v>1.88031</v>
       </c>
       <c r="C91" t="n">
-        <v>1.0325</v>
+        <v>1.05082</v>
       </c>
       <c r="D91" t="n">
-        <v>1.62768</v>
+        <v>1.64456</v>
       </c>
     </row>
     <row r="92">
@@ -8940,13 +8940,13 @@
         <v>792997</v>
       </c>
       <c r="B92" t="n">
-        <v>1.89768</v>
+        <v>1.90751</v>
       </c>
       <c r="C92" t="n">
-        <v>1.06252</v>
+        <v>1.06718</v>
       </c>
       <c r="D92" t="n">
-        <v>1.83857</v>
+        <v>1.84992</v>
       </c>
     </row>
     <row r="93">
@@ -8954,13 +8954,13 @@
         <v>832595</v>
       </c>
       <c r="B93" t="n">
-        <v>1.92342</v>
+        <v>1.93837</v>
       </c>
       <c r="C93" t="n">
-        <v>1.07272</v>
+        <v>1.07761</v>
       </c>
       <c r="D93" t="n">
-        <v>1.88057</v>
+        <v>1.88336</v>
       </c>
     </row>
     <row r="94">
@@ -8968,13 +8968,13 @@
         <v>874177</v>
       </c>
       <c r="B94" t="n">
-        <v>1.96645</v>
+        <v>1.96985</v>
       </c>
       <c r="C94" t="n">
-        <v>1.08128</v>
+        <v>1.08434</v>
       </c>
       <c r="D94" t="n">
-        <v>1.91233</v>
+        <v>1.91537</v>
       </c>
     </row>
     <row r="95">
@@ -8982,13 +8982,13 @@
         <v>917832</v>
       </c>
       <c r="B95" t="n">
-        <v>1.99491</v>
+        <v>2.00431</v>
       </c>
       <c r="C95" t="n">
-        <v>1.09241</v>
+        <v>1.09466</v>
       </c>
       <c r="D95" t="n">
-        <v>1.92835</v>
+        <v>1.94311</v>
       </c>
     </row>
     <row r="96">
@@ -8996,13 +8996,13 @@
         <v>963677</v>
       </c>
       <c r="B96" t="n">
-        <v>2.01809</v>
+        <v>2.03178</v>
       </c>
       <c r="C96" t="n">
-        <v>1.10234</v>
+        <v>1.10457</v>
       </c>
       <c r="D96" t="n">
-        <v>1.96618</v>
+        <v>1.97079</v>
       </c>
     </row>
     <row r="97">
@@ -9010,13 +9010,13 @@
         <v>1011813</v>
       </c>
       <c r="B97" t="n">
-        <v>2.05484</v>
+        <v>2.06161</v>
       </c>
       <c r="C97" t="n">
-        <v>1.11319</v>
+        <v>1.11542</v>
       </c>
       <c r="D97" t="n">
-        <v>1.99124</v>
+        <v>1.99952</v>
       </c>
     </row>
     <row r="98">
@@ -9024,13 +9024,13 @@
         <v>1062351</v>
       </c>
       <c r="B98" t="n">
-        <v>2.08145</v>
+        <v>2.09285</v>
       </c>
       <c r="C98" t="n">
-        <v>1.11952</v>
+        <v>1.12645</v>
       </c>
       <c r="D98" t="n">
-        <v>2.00979</v>
+        <v>2.02532</v>
       </c>
     </row>
     <row r="99">
@@ -9038,13 +9038,13 @@
         <v>1115422</v>
       </c>
       <c r="B99" t="n">
-        <v>2.10923</v>
+        <v>2.12204</v>
       </c>
       <c r="C99" t="n">
-        <v>1.13168</v>
+        <v>1.13632</v>
       </c>
       <c r="D99" t="n">
-        <v>2.04719</v>
+        <v>2.05107</v>
       </c>
     </row>
     <row r="100">
@@ -9052,13 +9052,13 @@
         <v>1171143</v>
       </c>
       <c r="B100" t="n">
-        <v>2.14817</v>
+        <v>2.14868</v>
       </c>
       <c r="C100" t="n">
-        <v>1.14602</v>
+        <v>1.14772</v>
       </c>
       <c r="D100" t="n">
-        <v>2.06016</v>
+        <v>2.07535</v>
       </c>
     </row>
     <row r="101">
@@ -9066,13 +9066,13 @@
         <v>1229634</v>
       </c>
       <c r="B101" t="n">
-        <v>2.17448</v>
+        <v>2.17596</v>
       </c>
       <c r="C101" t="n">
-        <v>1.15777</v>
+        <v>1.15951</v>
       </c>
       <c r="D101" t="n">
-        <v>2.09465</v>
+        <v>2.09528</v>
       </c>
     </row>
     <row r="102">
@@ -9080,13 +9080,13 @@
         <v>1291062</v>
       </c>
       <c r="B102" t="n">
-        <v>2.20128</v>
+        <v>2.20289</v>
       </c>
       <c r="C102" t="n">
-        <v>1.17064</v>
+        <v>1.17271</v>
       </c>
       <c r="D102" t="n">
-        <v>2.09542</v>
+        <v>2.1023</v>
       </c>
     </row>
     <row r="103">
@@ -9094,13 +9094,13 @@
         <v>1355554</v>
       </c>
       <c r="B103" t="n">
-        <v>2.22782</v>
+        <v>2.23344</v>
       </c>
       <c r="C103" t="n">
-        <v>1.18464</v>
+        <v>1.18594</v>
       </c>
       <c r="D103" t="n">
-        <v>2.12696</v>
+        <v>2.14427</v>
       </c>
     </row>
     <row r="104">
@@ -9108,13 +9108,13 @@
         <v>1423274</v>
       </c>
       <c r="B104" t="n">
-        <v>2.25502</v>
+        <v>2.2606</v>
       </c>
       <c r="C104" t="n">
-        <v>1.19742</v>
+        <v>1.19642</v>
       </c>
       <c r="D104" t="n">
-        <v>2.1609</v>
+        <v>2.16316</v>
       </c>
     </row>
     <row r="105">
@@ -9122,13 +9122,13 @@
         <v>1494380</v>
       </c>
       <c r="B105" t="n">
-        <v>2.33247</v>
+        <v>2.34488</v>
       </c>
       <c r="C105" t="n">
-        <v>1.20952</v>
+        <v>1.20977</v>
       </c>
       <c r="D105" t="n">
-        <v>2.18033</v>
+        <v>2.18756</v>
       </c>
     </row>
     <row r="106">
@@ -9136,13 +9136,13 @@
         <v>1569031</v>
       </c>
       <c r="B106" t="n">
-        <v>2.35276</v>
+        <v>2.36739</v>
       </c>
       <c r="C106" t="n">
-        <v>1.22774</v>
+        <v>1.22501</v>
       </c>
       <c r="D106" t="n">
-        <v>2.20635</v>
+        <v>2.20955</v>
       </c>
     </row>
     <row r="107">
@@ -9150,13 +9150,13 @@
         <v>1647417</v>
       </c>
       <c r="B107" t="n">
-        <v>2.37333</v>
+        <v>2.38541</v>
       </c>
       <c r="C107" t="n">
-        <v>1.18781</v>
+        <v>1.19268</v>
       </c>
       <c r="D107" t="n">
-        <v>2.30666</v>
+        <v>2.31723</v>
       </c>
     </row>
     <row r="108">
@@ -9164,13 +9164,13 @@
         <v>1729734</v>
       </c>
       <c r="B108" t="n">
-        <v>2.40322</v>
+        <v>2.40789</v>
       </c>
       <c r="C108" t="n">
-        <v>1.2003</v>
+        <v>1.20196</v>
       </c>
       <c r="D108" t="n">
-        <v>2.31837</v>
+        <v>2.32446</v>
       </c>
     </row>
     <row r="109">
@@ -9178,13 +9178,13 @@
         <v>1816153</v>
       </c>
       <c r="B109" t="n">
-        <v>2.4268</v>
+        <v>2.42657</v>
       </c>
       <c r="C109" t="n">
-        <v>1.21077</v>
+        <v>1.20857</v>
       </c>
       <c r="D109" t="n">
-        <v>2.34207</v>
+        <v>2.34479</v>
       </c>
     </row>
     <row r="110">
@@ -9192,13 +9192,13 @@
         <v>1906885</v>
       </c>
       <c r="B110" t="n">
-        <v>2.44272</v>
+        <v>2.44747</v>
       </c>
       <c r="C110" t="n">
         <v>1.21986</v>
       </c>
       <c r="D110" t="n">
-        <v>2.35194</v>
+        <v>2.35605</v>
       </c>
     </row>
     <row r="111">
@@ -9206,13 +9206,13 @@
         <v>2002164</v>
       </c>
       <c r="B111" t="n">
-        <v>2.46363</v>
+        <v>2.46484</v>
       </c>
       <c r="C111" t="n">
-        <v>1.22985</v>
+        <v>1.22903</v>
       </c>
       <c r="D111" t="n">
-        <v>2.36436</v>
+        <v>2.36377</v>
       </c>
     </row>
     <row r="112">
@@ -9220,13 +9220,13 @@
         <v>2102198</v>
       </c>
       <c r="B112" t="n">
-        <v>2.48191</v>
+        <v>2.48133</v>
       </c>
       <c r="C112" t="n">
-        <v>1.23712</v>
+        <v>1.2367</v>
       </c>
       <c r="D112" t="n">
-        <v>2.38243</v>
+        <v>2.38858</v>
       </c>
     </row>
     <row r="113">
@@ -9234,13 +9234,13 @@
         <v>2207233</v>
       </c>
       <c r="B113" t="n">
-        <v>2.50204</v>
+        <v>2.50226</v>
       </c>
       <c r="C113" t="n">
-        <v>1.24803</v>
+        <v>1.24741</v>
       </c>
       <c r="D113" t="n">
-        <v>2.3947</v>
+        <v>2.39887</v>
       </c>
     </row>
     <row r="114">
@@ -9248,13 +9248,13 @@
         <v>2317508</v>
       </c>
       <c r="B114" t="n">
-        <v>2.51844</v>
+        <v>2.52193</v>
       </c>
       <c r="C114" t="n">
-        <v>1.251</v>
+        <v>1.26118</v>
       </c>
       <c r="D114" t="n">
-        <v>2.40919</v>
+        <v>2.41488</v>
       </c>
     </row>
     <row r="115">
@@ -9262,13 +9262,13 @@
         <v>2433290</v>
       </c>
       <c r="B115" t="n">
-        <v>2.53215</v>
+        <v>2.53624</v>
       </c>
       <c r="C115" t="n">
-        <v>1.26953</v>
+        <v>1.26596</v>
       </c>
       <c r="D115" t="n">
-        <v>2.42514</v>
+        <v>2.42803</v>
       </c>
     </row>
     <row r="116">
@@ -9276,13 +9276,13 @@
         <v>2554854</v>
       </c>
       <c r="B116" t="n">
-        <v>2.55971</v>
+        <v>2.56035</v>
       </c>
       <c r="C116" t="n">
-        <v>1.28092</v>
+        <v>1.28162</v>
       </c>
       <c r="D116" t="n">
-        <v>2.43977</v>
+        <v>2.43924</v>
       </c>
     </row>
     <row r="117">
@@ -9290,13 +9290,13 @@
         <v>2682511</v>
       </c>
       <c r="B117" t="n">
-        <v>2.56783</v>
+        <v>2.57996</v>
       </c>
       <c r="C117" t="n">
-        <v>1.28392</v>
+        <v>1.29029</v>
       </c>
       <c r="D117" t="n">
-        <v>2.44926</v>
+        <v>2.44574</v>
       </c>
     </row>
     <row r="118">
@@ -9304,13 +9304,13 @@
         <v>2816546</v>
       </c>
       <c r="B118" t="n">
-        <v>2.59563</v>
+        <v>2.59693</v>
       </c>
       <c r="C118" t="n">
-        <v>1.30135</v>
+        <v>1.30343</v>
       </c>
       <c r="D118" t="n">
-        <v>2.46469</v>
+        <v>2.46285</v>
       </c>
     </row>
     <row r="119">
@@ -9318,13 +9318,13 @@
         <v>2957287</v>
       </c>
       <c r="B119" t="n">
-        <v>2.61489</v>
+        <v>2.61807</v>
       </c>
       <c r="C119" t="n">
-        <v>1.31388</v>
+        <v>1.31889</v>
       </c>
       <c r="D119" t="n">
-        <v>2.47038</v>
+        <v>2.46848</v>
       </c>
     </row>
   </sheetData>
@@ -9372,13 +9372,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.477261</v>
+        <v>0.489815</v>
       </c>
       <c r="C2" t="n">
-        <v>0.364389</v>
+        <v>0.367712</v>
       </c>
       <c r="D2" t="n">
-        <v>0.339344</v>
+        <v>0.338199</v>
       </c>
     </row>
     <row r="3">
@@ -9386,13 +9386,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.502949</v>
+        <v>0.501517</v>
       </c>
       <c r="C3" t="n">
-        <v>0.373067</v>
+        <v>0.378558</v>
       </c>
       <c r="D3" t="n">
-        <v>0.339591</v>
+        <v>0.337508</v>
       </c>
     </row>
     <row r="4">
@@ -9400,13 +9400,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.502154</v>
+        <v>0.504437</v>
       </c>
       <c r="C4" t="n">
-        <v>0.375643</v>
+        <v>0.381578</v>
       </c>
       <c r="D4" t="n">
-        <v>0.341795</v>
+        <v>0.341912</v>
       </c>
     </row>
     <row r="5">
@@ -9414,13 +9414,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.517566</v>
+        <v>0.511876</v>
       </c>
       <c r="C5" t="n">
-        <v>0.382204</v>
+        <v>0.384885</v>
       </c>
       <c r="D5" t="n">
-        <v>0.34656</v>
+        <v>0.351355</v>
       </c>
     </row>
     <row r="6">
@@ -9428,13 +9428,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.525335</v>
+        <v>0.526582</v>
       </c>
       <c r="C6" t="n">
-        <v>0.388837</v>
+        <v>0.391281</v>
       </c>
       <c r="D6" t="n">
-        <v>0.353586</v>
+        <v>0.354917</v>
       </c>
     </row>
     <row r="7">
@@ -9442,13 +9442,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.534415</v>
+        <v>0.531075</v>
       </c>
       <c r="C7" t="n">
-        <v>0.399353</v>
+        <v>0.403636</v>
       </c>
       <c r="D7" t="n">
-        <v>0.364683</v>
+        <v>0.369501</v>
       </c>
     </row>
     <row r="8">
@@ -9456,13 +9456,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.53289</v>
+        <v>0.5397149999999999</v>
       </c>
       <c r="C8" t="n">
-        <v>0.405366</v>
+        <v>0.409731</v>
       </c>
       <c r="D8" t="n">
-        <v>0.365696</v>
+        <v>0.36916</v>
       </c>
     </row>
     <row r="9">
@@ -9470,13 +9470,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.537882</v>
+        <v>0.547829</v>
       </c>
       <c r="C9" t="n">
-        <v>0.41474</v>
+        <v>0.420556</v>
       </c>
       <c r="D9" t="n">
-        <v>0.375609</v>
+        <v>0.374571</v>
       </c>
     </row>
     <row r="10">
@@ -9484,13 +9484,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.558438</v>
+        <v>0.557024</v>
       </c>
       <c r="C10" t="n">
-        <v>0.41567</v>
+        <v>0.418849</v>
       </c>
       <c r="D10" t="n">
-        <v>0.380197</v>
+        <v>0.382232</v>
       </c>
     </row>
     <row r="11">
@@ -9498,13 +9498,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.564518</v>
+        <v>0.563748</v>
       </c>
       <c r="C11" t="n">
-        <v>0.414829</v>
+        <v>0.420477</v>
       </c>
       <c r="D11" t="n">
-        <v>0.381945</v>
+        <v>0.391238</v>
       </c>
     </row>
     <row r="12">
@@ -9512,13 +9512,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.573573</v>
+        <v>0.579564</v>
       </c>
       <c r="C12" t="n">
-        <v>0.422054</v>
+        <v>0.428603</v>
       </c>
       <c r="D12" t="n">
-        <v>0.392011</v>
+        <v>0.396776</v>
       </c>
     </row>
     <row r="13">
@@ -9526,13 +9526,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.586294</v>
+        <v>0.588645</v>
       </c>
       <c r="C13" t="n">
-        <v>0.426624</v>
+        <v>0.431259</v>
       </c>
       <c r="D13" t="n">
-        <v>0.396185</v>
+        <v>0.398971</v>
       </c>
     </row>
     <row r="14">
@@ -9540,13 +9540,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.590597</v>
+        <v>0.588298</v>
       </c>
       <c r="C14" t="n">
-        <v>0.427667</v>
+        <v>0.433018</v>
       </c>
       <c r="D14" t="n">
-        <v>0.400319</v>
+        <v>0.406546</v>
       </c>
     </row>
     <row r="15">
@@ -9554,13 +9554,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.600498</v>
+        <v>0.6039369999999999</v>
       </c>
       <c r="C15" t="n">
-        <v>0.431702</v>
+        <v>0.437138</v>
       </c>
       <c r="D15" t="n">
-        <v>0.407174</v>
+        <v>0.411368</v>
       </c>
     </row>
     <row r="16">
@@ -9568,13 +9568,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.6125660000000001</v>
+        <v>0.611128</v>
       </c>
       <c r="C16" t="n">
-        <v>0.438198</v>
+        <v>0.442691</v>
       </c>
       <c r="D16" t="n">
-        <v>0.409709</v>
+        <v>0.412636</v>
       </c>
     </row>
     <row r="17">
@@ -9582,13 +9582,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.618575</v>
+        <v>0.624876</v>
       </c>
       <c r="C17" t="n">
-        <v>0.443128</v>
+        <v>0.448174</v>
       </c>
       <c r="D17" t="n">
-        <v>0.417689</v>
+        <v>0.422361</v>
       </c>
     </row>
     <row r="18">
@@ -9596,13 +9596,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.632522</v>
+        <v>0.634383</v>
       </c>
       <c r="C18" t="n">
-        <v>0.444269</v>
+        <v>0.450173</v>
       </c>
       <c r="D18" t="n">
-        <v>0.422378</v>
+        <v>0.429243</v>
       </c>
     </row>
     <row r="19">
@@ -9610,13 +9610,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.647949</v>
+        <v>0.6494259999999999</v>
       </c>
       <c r="C19" t="n">
-        <v>0.451093</v>
+        <v>0.454164</v>
       </c>
       <c r="D19" t="n">
-        <v>0.427896</v>
+        <v>0.43418</v>
       </c>
     </row>
     <row r="20">
@@ -9624,13 +9624,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.657577</v>
+        <v>0.658945</v>
       </c>
       <c r="C20" t="n">
-        <v>0.45967</v>
+        <v>0.462764</v>
       </c>
       <c r="D20" t="n">
-        <v>0.435413</v>
+        <v>0.44034</v>
       </c>
     </row>
     <row r="21">
@@ -9638,13 +9638,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.669965</v>
+        <v>0.6717030000000001</v>
       </c>
       <c r="C21" t="n">
-        <v>0.465079</v>
+        <v>0.469102</v>
       </c>
       <c r="D21" t="n">
-        <v>0.442218</v>
+        <v>0.446928</v>
       </c>
     </row>
     <row r="22">
@@ -9652,13 +9652,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.678155</v>
+        <v>0.676353</v>
       </c>
       <c r="C22" t="n">
-        <v>0.471969</v>
+        <v>0.475025</v>
       </c>
       <c r="D22" t="n">
-        <v>0.446793</v>
+        <v>0.452415</v>
       </c>
     </row>
     <row r="23">
@@ -9666,13 +9666,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.685423</v>
+        <v>0.684416</v>
       </c>
       <c r="C23" t="n">
-        <v>0.472814</v>
+        <v>0.476578</v>
       </c>
       <c r="D23" t="n">
-        <v>0.449303</v>
+        <v>0.458196</v>
       </c>
     </row>
     <row r="24">
@@ -9680,13 +9680,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.687294</v>
+        <v>0.689044</v>
       </c>
       <c r="C24" t="n">
-        <v>0.476747</v>
+        <v>0.481553</v>
       </c>
       <c r="D24" t="n">
-        <v>0.457186</v>
+        <v>0.464295</v>
       </c>
     </row>
     <row r="25">
@@ -9694,13 +9694,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.695466</v>
+        <v>0.699022</v>
       </c>
       <c r="C25" t="n">
-        <v>0.487426</v>
+        <v>0.491519</v>
       </c>
       <c r="D25" t="n">
-        <v>0.462775</v>
+        <v>0.467042</v>
       </c>
     </row>
     <row r="26">
@@ -9708,13 +9708,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.701476</v>
+        <v>0.704006</v>
       </c>
       <c r="C26" t="n">
-        <v>0.4848</v>
+        <v>0.487309</v>
       </c>
       <c r="D26" t="n">
-        <v>0.464887</v>
+        <v>0.471551</v>
       </c>
     </row>
     <row r="27">
@@ -9722,13 +9722,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.71465</v>
+        <v>0.715371</v>
       </c>
       <c r="C27" t="n">
-        <v>0.491586</v>
+        <v>0.494666</v>
       </c>
       <c r="D27" t="n">
-        <v>0.469228</v>
+        <v>0.475849</v>
       </c>
     </row>
     <row r="28">
@@ -9736,13 +9736,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.7191</v>
+        <v>0.718756</v>
       </c>
       <c r="C28" t="n">
-        <v>0.497741</v>
+        <v>0.500903</v>
       </c>
       <c r="D28" t="n">
-        <v>0.476221</v>
+        <v>0.479435</v>
       </c>
     </row>
     <row r="29">
@@ -9750,13 +9750,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.731712</v>
+        <v>0.73019</v>
       </c>
       <c r="C29" t="n">
-        <v>0.5018010000000001</v>
+        <v>0.505213</v>
       </c>
       <c r="D29" t="n">
-        <v>0.480144</v>
+        <v>0.485827</v>
       </c>
     </row>
     <row r="30">
@@ -9764,13 +9764,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.736227</v>
+        <v>0.735517</v>
       </c>
       <c r="C30" t="n">
-        <v>0.504513</v>
+        <v>0.509484</v>
       </c>
       <c r="D30" t="n">
-        <v>0.48344</v>
+        <v>0.488872</v>
       </c>
     </row>
     <row r="31">
@@ -9778,13 +9778,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.743262</v>
+        <v>0.742009</v>
       </c>
       <c r="C31" t="n">
-        <v>0.5072990000000001</v>
+        <v>0.511218</v>
       </c>
       <c r="D31" t="n">
-        <v>0.489165</v>
+        <v>0.493848</v>
       </c>
     </row>
     <row r="32">
@@ -9792,13 +9792,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.735354</v>
+        <v>0.736773</v>
       </c>
       <c r="C32" t="n">
-        <v>0.511697</v>
+        <v>0.515722</v>
       </c>
       <c r="D32" t="n">
-        <v>0.491142</v>
+        <v>0.496162</v>
       </c>
     </row>
     <row r="33">
@@ -9806,13 +9806,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.742846</v>
+        <v>0.7429829999999999</v>
       </c>
       <c r="C33" t="n">
-        <v>0.517213</v>
+        <v>0.5205</v>
       </c>
       <c r="D33" t="n">
-        <v>0.495795</v>
+        <v>0.500898</v>
       </c>
     </row>
     <row r="34">
@@ -9820,13 +9820,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.7517470000000001</v>
+        <v>0.753336</v>
       </c>
       <c r="C34" t="n">
-        <v>0.5229780000000001</v>
+        <v>0.526512</v>
       </c>
       <c r="D34" t="n">
-        <v>0.498792</v>
+        <v>0.502732</v>
       </c>
     </row>
     <row r="35">
@@ -9834,13 +9834,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.755516</v>
+        <v>0.75476</v>
       </c>
       <c r="C35" t="n">
-        <v>0.504836</v>
+        <v>0.507869</v>
       </c>
       <c r="D35" t="n">
-        <v>0.500494</v>
+        <v>0.506121</v>
       </c>
     </row>
     <row r="36">
@@ -9848,13 +9848,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.7608470000000001</v>
+        <v>0.761496</v>
       </c>
       <c r="C36" t="n">
-        <v>0.507904</v>
+        <v>0.511315</v>
       </c>
       <c r="D36" t="n">
-        <v>0.503999</v>
+        <v>0.510595</v>
       </c>
     </row>
     <row r="37">
@@ -9862,13 +9862,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.769149</v>
+        <v>0.7695149999999999</v>
       </c>
       <c r="C37" t="n">
-        <v>0.510562</v>
+        <v>0.5156579999999999</v>
       </c>
       <c r="D37" t="n">
-        <v>0.504652</v>
+        <v>0.512091</v>
       </c>
     </row>
     <row r="38">
@@ -9876,13 +9876,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.771962</v>
+        <v>0.775007</v>
       </c>
       <c r="C38" t="n">
-        <v>0.509862</v>
+        <v>0.514962</v>
       </c>
       <c r="D38" t="n">
-        <v>0.5096540000000001</v>
+        <v>0.516146</v>
       </c>
     </row>
     <row r="39">
@@ -9890,13 +9890,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.777605</v>
+        <v>0.775664</v>
       </c>
       <c r="C39" t="n">
-        <v>0.5165149999999999</v>
+        <v>0.519989</v>
       </c>
       <c r="D39" t="n">
-        <v>0.5140749999999999</v>
+        <v>0.517846</v>
       </c>
     </row>
     <row r="40">
@@ -9904,13 +9904,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.7841360000000001</v>
+        <v>0.785534</v>
       </c>
       <c r="C40" t="n">
-        <v>0.519103</v>
+        <v>0.523311</v>
       </c>
       <c r="D40" t="n">
-        <v>0.515664</v>
+        <v>0.520299</v>
       </c>
     </row>
     <row r="41">
@@ -9918,13 +9918,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.79149</v>
+        <v>0.79144</v>
       </c>
       <c r="C41" t="n">
-        <v>0.521855</v>
+        <v>0.524379</v>
       </c>
       <c r="D41" t="n">
-        <v>0.517526</v>
+        <v>0.521904</v>
       </c>
     </row>
     <row r="42">
@@ -9932,13 +9932,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.798277</v>
+        <v>0.796905</v>
       </c>
       <c r="C42" t="n">
-        <v>0.522228</v>
+        <v>0.525799</v>
       </c>
       <c r="D42" t="n">
-        <v>0.522115</v>
+        <v>0.524891</v>
       </c>
     </row>
     <row r="43">
@@ -9946,13 +9946,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.803154</v>
+        <v>0.8015099999999999</v>
       </c>
       <c r="C43" t="n">
-        <v>0.523746</v>
+        <v>0.52776</v>
       </c>
       <c r="D43" t="n">
-        <v>0.52474</v>
+        <v>0.52751</v>
       </c>
     </row>
     <row r="44">
@@ -9960,13 +9960,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.802934</v>
+        <v>0.803138</v>
       </c>
       <c r="C44" t="n">
-        <v>0.526688</v>
+        <v>0.5296149999999999</v>
       </c>
       <c r="D44" t="n">
-        <v>0.524415</v>
+        <v>0.529193</v>
       </c>
     </row>
     <row r="45">
@@ -9974,13 +9974,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.809812</v>
+        <v>0.81076</v>
       </c>
       <c r="C45" t="n">
-        <v>0.529243</v>
+        <v>0.532122</v>
       </c>
       <c r="D45" t="n">
-        <v>0.52755</v>
+        <v>0.53128</v>
       </c>
     </row>
     <row r="46">
@@ -9988,13 +9988,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.812692</v>
+        <v>0.811987</v>
       </c>
       <c r="C46" t="n">
-        <v>0.530631</v>
+        <v>0.5335029999999999</v>
       </c>
       <c r="D46" t="n">
-        <v>0.5306070000000001</v>
+        <v>0.533749</v>
       </c>
     </row>
     <row r="47">
@@ -10002,13 +10002,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.790438</v>
+        <v>0.79098</v>
       </c>
       <c r="C47" t="n">
-        <v>0.5291</v>
+        <v>0.534147</v>
       </c>
       <c r="D47" t="n">
-        <v>0.532331</v>
+        <v>0.536121</v>
       </c>
     </row>
     <row r="48">
@@ -10016,13 +10016,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.797394</v>
+        <v>0.799181</v>
       </c>
       <c r="C48" t="n">
-        <v>0.538259</v>
+        <v>0.540458</v>
       </c>
       <c r="D48" t="n">
-        <v>0.534331</v>
+        <v>0.537673</v>
       </c>
     </row>
     <row r="49">
@@ -10030,13 +10030,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.79889</v>
+        <v>0.798959</v>
       </c>
       <c r="C49" t="n">
-        <v>0.540934</v>
+        <v>0.542232</v>
       </c>
       <c r="D49" t="n">
-        <v>0.535297</v>
+        <v>0.538647</v>
       </c>
     </row>
     <row r="50">
@@ -10044,13 +10044,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.8036140000000001</v>
+        <v>0.8032820000000001</v>
       </c>
       <c r="C50" t="n">
-        <v>0.53379</v>
+        <v>0.537524</v>
       </c>
       <c r="D50" t="n">
-        <v>0.535006</v>
+        <v>0.539453</v>
       </c>
     </row>
     <row r="51">
@@ -10058,13 +10058,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.806107</v>
+        <v>0.806797</v>
       </c>
       <c r="C51" t="n">
-        <v>0.533482</v>
+        <v>0.538134</v>
       </c>
       <c r="D51" t="n">
-        <v>0.536717</v>
+        <v>0.542776</v>
       </c>
     </row>
     <row r="52">
@@ -10072,13 +10072,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.8081930000000001</v>
+        <v>0.808542</v>
       </c>
       <c r="C52" t="n">
-        <v>0.538521</v>
+        <v>0.542826</v>
       </c>
       <c r="D52" t="n">
-        <v>0.539114</v>
+        <v>0.544183</v>
       </c>
     </row>
     <row r="53">
@@ -10086,13 +10086,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.8133359999999999</v>
+        <v>0.813446</v>
       </c>
       <c r="C53" t="n">
-        <v>0.539848</v>
+        <v>0.5462320000000001</v>
       </c>
       <c r="D53" t="n">
-        <v>0.542161</v>
+        <v>0.545333</v>
       </c>
     </row>
     <row r="54">
@@ -10100,13 +10100,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.817203</v>
+        <v>0.8161350000000001</v>
       </c>
       <c r="C54" t="n">
-        <v>0.546436</v>
+        <v>0.546875</v>
       </c>
       <c r="D54" t="n">
-        <v>0.543893</v>
+        <v>0.54675</v>
       </c>
     </row>
     <row r="55">
@@ -10114,13 +10114,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.821227</v>
+        <v>0.820304</v>
       </c>
       <c r="C55" t="n">
-        <v>0.548706</v>
+        <v>0.553215</v>
       </c>
       <c r="D55" t="n">
-        <v>0.545264</v>
+        <v>0.549078</v>
       </c>
     </row>
     <row r="56">
@@ -10128,13 +10128,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.821422</v>
+        <v>0.82437</v>
       </c>
       <c r="C56" t="n">
-        <v>0.5489270000000001</v>
+        <v>0.5535369999999999</v>
       </c>
       <c r="D56" t="n">
-        <v>0.546906</v>
+        <v>0.549549</v>
       </c>
     </row>
     <row r="57">
@@ -10142,13 +10142,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.829549</v>
+        <v>0.830084</v>
       </c>
       <c r="C57" t="n">
-        <v>0.5559500000000001</v>
+        <v>0.558548</v>
       </c>
       <c r="D57" t="n">
-        <v>0.548094</v>
+        <v>0.5506490000000001</v>
       </c>
     </row>
     <row r="58">
@@ -10156,13 +10156,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.8278450000000001</v>
+        <v>0.829454</v>
       </c>
       <c r="C58" t="n">
-        <v>0.56115</v>
+        <v>0.566639</v>
       </c>
       <c r="D58" t="n">
-        <v>0.5497339999999999</v>
+        <v>0.552462</v>
       </c>
     </row>
     <row r="59">
@@ -10170,13 +10170,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.835877</v>
+        <v>0.835492</v>
       </c>
       <c r="C59" t="n">
-        <v>0.5663899999999999</v>
+        <v>0.573946</v>
       </c>
       <c r="D59" t="n">
-        <v>0.551026</v>
+        <v>0.553834</v>
       </c>
     </row>
     <row r="60">
@@ -10184,13 +10184,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.839712</v>
+        <v>0.839274</v>
       </c>
       <c r="C60" t="n">
-        <v>0.57642</v>
+        <v>0.57703</v>
       </c>
       <c r="D60" t="n">
-        <v>0.552664</v>
+        <v>0.556675</v>
       </c>
     </row>
     <row r="61">
@@ -10198,13 +10198,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.834636</v>
+        <v>0.836105</v>
       </c>
       <c r="C61" t="n">
-        <v>0.585288</v>
+        <v>0.583888</v>
       </c>
       <c r="D61" t="n">
-        <v>0.559831</v>
+        <v>0.55844</v>
       </c>
     </row>
     <row r="62">
@@ -10212,13 +10212,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.842001</v>
+        <v>0.849747</v>
       </c>
       <c r="C62" t="n">
-        <v>0.589821</v>
+        <v>0.5908600000000001</v>
       </c>
       <c r="D62" t="n">
-        <v>0.557779</v>
+        <v>0.5602200000000001</v>
       </c>
     </row>
     <row r="63">
@@ -10226,13 +10226,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.852976</v>
+        <v>0.856339</v>
       </c>
       <c r="C63" t="n">
-        <v>0.595792</v>
+        <v>0.597499</v>
       </c>
       <c r="D63" t="n">
-        <v>0.560752</v>
+        <v>0.564069</v>
       </c>
     </row>
     <row r="64">
@@ -10240,13 +10240,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.8643459999999999</v>
+        <v>0.8683070000000001</v>
       </c>
       <c r="C64" t="n">
-        <v>0.6493679999999999</v>
+        <v>0.648197</v>
       </c>
       <c r="D64" t="n">
-        <v>0.604694</v>
+        <v>0.600294</v>
       </c>
     </row>
     <row r="65">
@@ -10254,13 +10254,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.887007</v>
+        <v>0.8841290000000001</v>
       </c>
       <c r="C65" t="n">
-        <v>0.650176</v>
+        <v>0.661245</v>
       </c>
       <c r="D65" t="n">
-        <v>0.595093</v>
+        <v>0.594313</v>
       </c>
     </row>
     <row r="66">
@@ -10268,13 +10268,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.8961</v>
+        <v>0.884145</v>
       </c>
       <c r="C66" t="n">
-        <v>0.666207</v>
+        <v>0.679569</v>
       </c>
       <c r="D66" t="n">
-        <v>0.6104850000000001</v>
+        <v>0.616556</v>
       </c>
     </row>
     <row r="67">
@@ -10282,13 +10282,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.920979</v>
+        <v>0.9317800000000001</v>
       </c>
       <c r="C67" t="n">
-        <v>0.712697</v>
+        <v>0.710806</v>
       </c>
       <c r="D67" t="n">
-        <v>0.630325</v>
+        <v>0.6164809999999999</v>
       </c>
     </row>
     <row r="68">
@@ -10296,13 +10296,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.9545129999999999</v>
+        <v>0.920397</v>
       </c>
       <c r="C68" t="n">
-        <v>0.729012</v>
+        <v>0.724232</v>
       </c>
       <c r="D68" t="n">
-        <v>0.631278</v>
+        <v>0.651636</v>
       </c>
     </row>
     <row r="69">
@@ -10310,13 +10310,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.962672</v>
+        <v>0.975945</v>
       </c>
       <c r="C69" t="n">
-        <v>0.752538</v>
+        <v>0.752224</v>
       </c>
       <c r="D69" t="n">
-        <v>0.6513330000000001</v>
+        <v>0.656765</v>
       </c>
     </row>
     <row r="70">
@@ -10324,13 +10324,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.985024</v>
+        <v>0.98937</v>
       </c>
       <c r="C70" t="n">
-        <v>0.766003</v>
+        <v>0.776832</v>
       </c>
       <c r="D70" t="n">
-        <v>0.659368</v>
+        <v>0.668495</v>
       </c>
     </row>
     <row r="71">
@@ -10338,13 +10338,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>1.00752</v>
+        <v>1.00117</v>
       </c>
       <c r="C71" t="n">
-        <v>0.8075020000000001</v>
+        <v>0.805998</v>
       </c>
       <c r="D71" t="n">
-        <v>0.678701</v>
+        <v>0.686954</v>
       </c>
     </row>
     <row r="72">
@@ -10352,13 +10352,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>1.03636</v>
+        <v>1.04051</v>
       </c>
       <c r="C72" t="n">
-        <v>0.848644</v>
+        <v>0.847301</v>
       </c>
       <c r="D72" t="n">
-        <v>0.726881</v>
+        <v>0.689752</v>
       </c>
     </row>
     <row r="73">
@@ -10366,13 +10366,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>1.10777</v>
+        <v>1.04892</v>
       </c>
       <c r="C73" t="n">
-        <v>0.881769</v>
+        <v>0.872035</v>
       </c>
       <c r="D73" t="n">
-        <v>0.746888</v>
+        <v>0.7333229999999999</v>
       </c>
     </row>
     <row r="74">
@@ -10380,13 +10380,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>1.13918</v>
+        <v>1.11599</v>
       </c>
       <c r="C74" t="n">
-        <v>0.922138</v>
+        <v>0.909998</v>
       </c>
       <c r="D74" t="n">
-        <v>0.770679</v>
+        <v>0.761053</v>
       </c>
     </row>
     <row r="75">
@@ -10394,13 +10394,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>1.17872</v>
+        <v>1.15973</v>
       </c>
       <c r="C75" t="n">
-        <v>0.955492</v>
+        <v>0.951184</v>
       </c>
       <c r="D75" t="n">
-        <v>0.782672</v>
+        <v>0.811989</v>
       </c>
     </row>
     <row r="76">
@@ -10408,13 +10408,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>1.32822</v>
+        <v>1.34114</v>
       </c>
       <c r="C76" t="n">
-        <v>0.989569</v>
+        <v>1.00028</v>
       </c>
       <c r="D76" t="n">
-        <v>0.8219689999999999</v>
+        <v>0.833579</v>
       </c>
     </row>
     <row r="77">
@@ -10422,13 +10422,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>1.37585</v>
+        <v>1.41798</v>
       </c>
       <c r="C77" t="n">
-        <v>1.03279</v>
+        <v>1.04054</v>
       </c>
       <c r="D77" t="n">
-        <v>0.8557360000000001</v>
+        <v>0.8672800000000001</v>
       </c>
     </row>
     <row r="78">
@@ -10436,13 +10436,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>1.45359</v>
+        <v>1.47906</v>
       </c>
       <c r="C78" t="n">
-        <v>1.22552</v>
+        <v>1.23453</v>
       </c>
       <c r="D78" t="n">
-        <v>0.99764</v>
+        <v>0.999796</v>
       </c>
     </row>
     <row r="79">
@@ -10450,13 +10450,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>1.55605</v>
+        <v>1.53885</v>
       </c>
       <c r="C79" t="n">
-        <v>1.274</v>
+        <v>1.26677</v>
       </c>
       <c r="D79" t="n">
-        <v>1.04872</v>
+        <v>1.05092</v>
       </c>
     </row>
     <row r="80">
@@ -10464,13 +10464,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>1.62816</v>
+        <v>1.62526</v>
       </c>
       <c r="C80" t="n">
-        <v>1.32215</v>
+        <v>1.3228</v>
       </c>
       <c r="D80" t="n">
-        <v>1.10313</v>
+        <v>1.10214</v>
       </c>
     </row>
     <row r="81">
@@ -10478,13 +10478,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>1.71615</v>
+        <v>1.70789</v>
       </c>
       <c r="C81" t="n">
-        <v>1.3649</v>
+        <v>1.3593</v>
       </c>
       <c r="D81" t="n">
-        <v>1.14973</v>
+        <v>1.15451</v>
       </c>
     </row>
     <row r="82">
@@ -10492,13 +10492,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>1.78759</v>
+        <v>1.78528</v>
       </c>
       <c r="C82" t="n">
-        <v>1.41097</v>
+        <v>1.41069</v>
       </c>
       <c r="D82" t="n">
-        <v>1.21122</v>
+        <v>1.21463</v>
       </c>
     </row>
     <row r="83">
@@ -10506,13 +10506,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>1.89201</v>
+        <v>1.88005</v>
       </c>
       <c r="C83" t="n">
-        <v>1.45442</v>
+        <v>1.4601</v>
       </c>
       <c r="D83" t="n">
-        <v>1.27384</v>
+        <v>1.2806</v>
       </c>
     </row>
     <row r="84">
@@ -10520,13 +10520,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>1.99512</v>
+        <v>1.99397</v>
       </c>
       <c r="C84" t="n">
-        <v>1.50887</v>
+        <v>1.50145</v>
       </c>
       <c r="D84" t="n">
-        <v>1.33345</v>
+        <v>1.3311</v>
       </c>
     </row>
     <row r="85">
@@ -10534,13 +10534,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>2.08641</v>
+        <v>2.08304</v>
       </c>
       <c r="C85" t="n">
-        <v>1.55242</v>
+        <v>1.54789</v>
       </c>
       <c r="D85" t="n">
-        <v>1.39547</v>
+        <v>1.39194</v>
       </c>
     </row>
     <row r="86">
@@ -10548,13 +10548,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>2.1606</v>
+        <v>2.18</v>
       </c>
       <c r="C86" t="n">
-        <v>1.58504</v>
+        <v>1.59111</v>
       </c>
       <c r="D86" t="n">
-        <v>1.43139</v>
+        <v>1.45755</v>
       </c>
     </row>
     <row r="87">
@@ -10562,13 +10562,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>2.25582</v>
+        <v>2.26658</v>
       </c>
       <c r="C87" t="n">
-        <v>1.63577</v>
+        <v>1.63957</v>
       </c>
       <c r="D87" t="n">
-        <v>1.49778</v>
+        <v>1.51605</v>
       </c>
     </row>
     <row r="88">
@@ -10576,13 +10576,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>2.36296</v>
+        <v>2.36272</v>
       </c>
       <c r="C88" t="n">
-        <v>1.68125</v>
+        <v>1.68206</v>
       </c>
       <c r="D88" t="n">
-        <v>1.55784</v>
+        <v>1.57798</v>
       </c>
     </row>
     <row r="89">
@@ -10590,13 +10590,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>2.46364</v>
+        <v>2.46214</v>
       </c>
       <c r="C89" t="n">
-        <v>1.72104</v>
+        <v>1.73014</v>
       </c>
       <c r="D89" t="n">
-        <v>1.60755</v>
+        <v>1.63231</v>
       </c>
     </row>
     <row r="90">
@@ -10604,13 +10604,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>2.63528</v>
+        <v>2.65379</v>
       </c>
       <c r="C90" t="n">
-        <v>1.76877</v>
+        <v>1.77572</v>
       </c>
       <c r="D90" t="n">
-        <v>1.66378</v>
+        <v>1.68832</v>
       </c>
     </row>
     <row r="91">
@@ -10618,13 +10618,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>2.7244</v>
+        <v>2.73506</v>
       </c>
       <c r="C91" t="n">
-        <v>1.81595</v>
+        <v>1.82317</v>
       </c>
       <c r="D91" t="n">
-        <v>1.71471</v>
+        <v>1.7421</v>
       </c>
     </row>
     <row r="92">
@@ -10632,13 +10632,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>2.81361</v>
+        <v>2.81237</v>
       </c>
       <c r="C92" t="n">
-        <v>1.95196</v>
+        <v>1.974</v>
       </c>
       <c r="D92" t="n">
-        <v>1.84148</v>
+        <v>1.86067</v>
       </c>
     </row>
     <row r="93">
@@ -10646,13 +10646,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>2.91192</v>
+        <v>2.90057</v>
       </c>
       <c r="C93" t="n">
-        <v>2.00806</v>
+        <v>2.00669</v>
       </c>
       <c r="D93" t="n">
-        <v>1.89098</v>
+        <v>1.9158</v>
       </c>
     </row>
     <row r="94">
@@ -10660,13 +10660,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>2.9932</v>
+        <v>2.98574</v>
       </c>
       <c r="C94" t="n">
-        <v>2.03063</v>
+        <v>2.0484</v>
       </c>
       <c r="D94" t="n">
-        <v>1.93419</v>
+        <v>1.94731</v>
       </c>
     </row>
     <row r="95">
@@ -10674,13 +10674,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>3.06399</v>
+        <v>3.04047</v>
       </c>
       <c r="C95" t="n">
-        <v>2.07875</v>
+        <v>2.07383</v>
       </c>
       <c r="D95" t="n">
-        <v>1.97752</v>
+        <v>1.99765</v>
       </c>
     </row>
     <row r="96">
@@ -10688,13 +10688,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>3.13546</v>
+        <v>3.10125</v>
       </c>
       <c r="C96" t="n">
-        <v>2.11262</v>
+        <v>2.09808</v>
       </c>
       <c r="D96" t="n">
-        <v>2.02865</v>
+        <v>2.05011</v>
       </c>
     </row>
     <row r="97">
@@ -10702,13 +10702,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>3.2131</v>
+        <v>3.18286</v>
       </c>
       <c r="C97" t="n">
-        <v>2.15074</v>
+        <v>2.13836</v>
       </c>
       <c r="D97" t="n">
-        <v>2.06923</v>
+        <v>2.10205</v>
       </c>
     </row>
     <row r="98">
@@ -10716,13 +10716,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>3.29347</v>
+        <v>3.28164</v>
       </c>
       <c r="C98" t="n">
-        <v>2.18828</v>
+        <v>2.18324</v>
       </c>
       <c r="D98" t="n">
-        <v>2.13172</v>
+        <v>2.14167</v>
       </c>
     </row>
     <row r="99">
@@ -10730,13 +10730,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>3.35313</v>
+        <v>3.34673</v>
       </c>
       <c r="C99" t="n">
-        <v>2.21816</v>
+        <v>2.2183</v>
       </c>
       <c r="D99" t="n">
-        <v>2.14037</v>
+        <v>2.18611</v>
       </c>
     </row>
     <row r="100">
@@ -10744,13 +10744,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>3.39567</v>
+        <v>3.43026</v>
       </c>
       <c r="C100" t="n">
-        <v>2.24197</v>
+        <v>2.25344</v>
       </c>
       <c r="D100" t="n">
-        <v>2.1792</v>
+        <v>2.20753</v>
       </c>
     </row>
     <row r="101">
@@ -10758,13 +10758,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>3.47743</v>
+        <v>3.45929</v>
       </c>
       <c r="C101" t="n">
-        <v>2.27765</v>
+        <v>2.28057</v>
       </c>
       <c r="D101" t="n">
-        <v>2.21398</v>
+        <v>2.2464</v>
       </c>
     </row>
     <row r="102">
@@ -10772,13 +10772,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>3.53162</v>
+        <v>3.53487</v>
       </c>
       <c r="C102" t="n">
-        <v>2.31224</v>
+        <v>2.321</v>
       </c>
       <c r="D102" t="n">
-        <v>2.24242</v>
+        <v>2.28764</v>
       </c>
     </row>
     <row r="103">
@@ -10786,13 +10786,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>3.58647</v>
+        <v>3.60181</v>
       </c>
       <c r="C103" t="n">
-        <v>2.33734</v>
+        <v>2.35407</v>
       </c>
       <c r="D103" t="n">
-        <v>2.27907</v>
+        <v>2.3082</v>
       </c>
     </row>
     <row r="104">
@@ -10800,13 +10800,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>3.64551</v>
+        <v>3.65958</v>
       </c>
       <c r="C104" t="n">
-        <v>2.3748</v>
+        <v>2.39039</v>
       </c>
       <c r="D104" t="n">
-        <v>2.30576</v>
+        <v>2.35913</v>
       </c>
     </row>
     <row r="105">
@@ -10814,13 +10814,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>3.67491</v>
+        <v>3.68227</v>
       </c>
       <c r="C105" t="n">
-        <v>2.40266</v>
+        <v>2.42547</v>
       </c>
       <c r="D105" t="n">
-        <v>2.34724</v>
+        <v>2.3889</v>
       </c>
     </row>
     <row r="106">
@@ -10828,13 +10828,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>3.74419</v>
+        <v>3.70009</v>
       </c>
       <c r="C106" t="n">
-        <v>2.45424</v>
+        <v>2.44433</v>
       </c>
       <c r="D106" t="n">
-        <v>2.38962</v>
+        <v>2.39698</v>
       </c>
     </row>
     <row r="107">
@@ -10842,13 +10842,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>3.78197</v>
+        <v>3.77655</v>
       </c>
       <c r="C107" t="n">
-        <v>2.49827</v>
+        <v>2.47235</v>
       </c>
       <c r="D107" t="n">
-        <v>2.4693</v>
+        <v>2.48223</v>
       </c>
     </row>
     <row r="108">
@@ -10856,13 +10856,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>3.83313</v>
+        <v>3.84497</v>
       </c>
       <c r="C108" t="n">
-        <v>2.52025</v>
+        <v>2.4975</v>
       </c>
       <c r="D108" t="n">
-        <v>2.501</v>
+        <v>2.49961</v>
       </c>
     </row>
     <row r="109">
@@ -10870,13 +10870,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>3.87594</v>
+        <v>3.87748</v>
       </c>
       <c r="C109" t="n">
-        <v>2.5426</v>
+        <v>2.54676</v>
       </c>
       <c r="D109" t="n">
-        <v>2.53057</v>
+        <v>2.52943</v>
       </c>
     </row>
     <row r="110">
@@ -10884,13 +10884,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>3.9359</v>
+        <v>3.9319</v>
       </c>
       <c r="C110" t="n">
-        <v>2.55767</v>
+        <v>2.57643</v>
       </c>
       <c r="D110" t="n">
-        <v>2.53704</v>
+        <v>2.56682</v>
       </c>
     </row>
     <row r="111">
@@ -10898,13 +10898,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>3.9768</v>
+        <v>3.9908</v>
       </c>
       <c r="C111" t="n">
-        <v>2.58111</v>
+        <v>2.58895</v>
       </c>
       <c r="D111" t="n">
-        <v>2.56379</v>
+        <v>2.59047</v>
       </c>
     </row>
     <row r="112">
@@ -10912,13 +10912,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>4.02006</v>
+        <v>4.01677</v>
       </c>
       <c r="C112" t="n">
-        <v>2.60207</v>
+        <v>2.62242</v>
       </c>
       <c r="D112" t="n">
-        <v>2.59873</v>
+        <v>2.61479</v>
       </c>
     </row>
     <row r="113">
@@ -10926,13 +10926,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>4.04018</v>
+        <v>4.05765</v>
       </c>
       <c r="C113" t="n">
-        <v>2.61633</v>
+        <v>2.64334</v>
       </c>
       <c r="D113" t="n">
-        <v>2.62943</v>
+        <v>2.63766</v>
       </c>
     </row>
     <row r="114">
@@ -10940,13 +10940,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>4.1216</v>
+        <v>4.08335</v>
       </c>
       <c r="C114" t="n">
-        <v>2.65577</v>
+        <v>2.65282</v>
       </c>
       <c r="D114" t="n">
-        <v>2.65166</v>
+        <v>2.66304</v>
       </c>
     </row>
     <row r="115">
@@ -10954,13 +10954,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>4.16722</v>
+        <v>4.15361</v>
       </c>
       <c r="C115" t="n">
-        <v>2.69208</v>
+        <v>2.69303</v>
       </c>
       <c r="D115" t="n">
-        <v>2.68144</v>
+        <v>2.68375</v>
       </c>
     </row>
     <row r="116">
@@ -10968,13 +10968,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>4.22274</v>
+        <v>4.20322</v>
       </c>
       <c r="C116" t="n">
-        <v>2.71754</v>
+        <v>2.71073</v>
       </c>
       <c r="D116" t="n">
-        <v>2.70219</v>
+        <v>2.7042</v>
       </c>
     </row>
     <row r="117">
@@ -10982,13 +10982,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>4.27003</v>
+        <v>4.23325</v>
       </c>
       <c r="C117" t="n">
-        <v>2.73807</v>
+        <v>2.74271</v>
       </c>
       <c r="D117" t="n">
-        <v>2.72445</v>
+        <v>2.72363</v>
       </c>
     </row>
     <row r="118">
@@ -10996,13 +10996,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>4.31331</v>
+        <v>4.29725</v>
       </c>
       <c r="C118" t="n">
-        <v>2.75777</v>
+        <v>2.776</v>
       </c>
       <c r="D118" t="n">
-        <v>2.73954</v>
+        <v>2.73394</v>
       </c>
     </row>
     <row r="119">
@@ -11010,10 +11010,10 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>4.25695</v>
+        <v>4.24686</v>
       </c>
       <c r="C119" t="n">
-        <v>2.79147</v>
+        <v>2.7964</v>
       </c>
       <c r="D119" t="n">
         <v>2.76074</v>
@@ -11064,13 +11064,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.514222</v>
+        <v>0.522058</v>
       </c>
       <c r="C2" t="n">
-        <v>0.379711</v>
+        <v>0.384594</v>
       </c>
       <c r="D2" t="n">
-        <v>0.330506</v>
+        <v>0.334226</v>
       </c>
     </row>
     <row r="3">
@@ -11078,13 +11078,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.525524</v>
+        <v>0.530146</v>
       </c>
       <c r="C3" t="n">
-        <v>0.387493</v>
+        <v>0.393626</v>
       </c>
       <c r="D3" t="n">
-        <v>0.336405</v>
+        <v>0.336854</v>
       </c>
     </row>
     <row r="4">
@@ -11092,13 +11092,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.5313059999999999</v>
+        <v>0.535433</v>
       </c>
       <c r="C4" t="n">
-        <v>0.395713</v>
+        <v>0.401112</v>
       </c>
       <c r="D4" t="n">
-        <v>0.33947</v>
+        <v>0.340772</v>
       </c>
     </row>
     <row r="5">
@@ -11106,13 +11106,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.545238</v>
+        <v>0.546171</v>
       </c>
       <c r="C5" t="n">
-        <v>0.403702</v>
+        <v>0.409633</v>
       </c>
       <c r="D5" t="n">
-        <v>0.345589</v>
+        <v>0.347362</v>
       </c>
     </row>
     <row r="6">
@@ -11120,13 +11120,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.554246</v>
+        <v>0.558013</v>
       </c>
       <c r="C6" t="n">
-        <v>0.409543</v>
+        <v>0.414759</v>
       </c>
       <c r="D6" t="n">
-        <v>0.348339</v>
+        <v>0.349971</v>
       </c>
     </row>
     <row r="7">
@@ -11134,13 +11134,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.564167</v>
+        <v>0.568601</v>
       </c>
       <c r="C7" t="n">
-        <v>0.415897</v>
+        <v>0.421651</v>
       </c>
       <c r="D7" t="n">
-        <v>0.3553</v>
+        <v>0.358269</v>
       </c>
     </row>
     <row r="8">
@@ -11148,13 +11148,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.574335</v>
+        <v>0.578039</v>
       </c>
       <c r="C8" t="n">
-        <v>0.426035</v>
+        <v>0.431204</v>
       </c>
       <c r="D8" t="n">
-        <v>0.359775</v>
+        <v>0.362246</v>
       </c>
     </row>
     <row r="9">
@@ -11162,13 +11162,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.587962</v>
+        <v>0.591102</v>
       </c>
       <c r="C9" t="n">
-        <v>0.436858</v>
+        <v>0.441999</v>
       </c>
       <c r="D9" t="n">
-        <v>0.36605</v>
+        <v>0.368023</v>
       </c>
     </row>
     <row r="10">
@@ -11176,13 +11176,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.597599</v>
+        <v>0.601351</v>
       </c>
       <c r="C10" t="n">
-        <v>0.447648</v>
+        <v>0.453249</v>
       </c>
       <c r="D10" t="n">
-        <v>0.369175</v>
+        <v>0.372513</v>
       </c>
     </row>
     <row r="11">
@@ -11190,13 +11190,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.6100989999999999</v>
+        <v>0.611856</v>
       </c>
       <c r="C11" t="n">
-        <v>0.428879</v>
+        <v>0.436384</v>
       </c>
       <c r="D11" t="n">
-        <v>0.374674</v>
+        <v>0.38116</v>
       </c>
     </row>
     <row r="12">
@@ -11204,13 +11204,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.596274</v>
+        <v>0.600191</v>
       </c>
       <c r="C12" t="n">
-        <v>0.433038</v>
+        <v>0.44075</v>
       </c>
       <c r="D12" t="n">
-        <v>0.381788</v>
+        <v>0.387697</v>
       </c>
     </row>
     <row r="13">
@@ -11218,13 +11218,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.607479</v>
+        <v>0.609524</v>
       </c>
       <c r="C13" t="n">
-        <v>0.443244</v>
+        <v>0.448351</v>
       </c>
       <c r="D13" t="n">
-        <v>0.385109</v>
+        <v>0.389929</v>
       </c>
     </row>
     <row r="14">
@@ -11232,13 +11232,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.6201719999999999</v>
+        <v>0.619076</v>
       </c>
       <c r="C14" t="n">
-        <v>0.452158</v>
+        <v>0.455056</v>
       </c>
       <c r="D14" t="n">
-        <v>0.392736</v>
+        <v>0.395008</v>
       </c>
     </row>
     <row r="15">
@@ -11246,13 +11246,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.631468</v>
+        <v>0.630811</v>
       </c>
       <c r="C15" t="n">
-        <v>0.460068</v>
+        <v>0.464515</v>
       </c>
       <c r="D15" t="n">
-        <v>0.396172</v>
+        <v>0.400803</v>
       </c>
     </row>
     <row r="16">
@@ -11260,13 +11260,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.6425110000000001</v>
+        <v>0.642663</v>
       </c>
       <c r="C16" t="n">
-        <v>0.46922</v>
+        <v>0.473354</v>
       </c>
       <c r="D16" t="n">
-        <v>0.40218</v>
+        <v>0.405852</v>
       </c>
     </row>
     <row r="17">
@@ -11274,13 +11274,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.652659</v>
+        <v>0.653335</v>
       </c>
       <c r="C17" t="n">
-        <v>0.477479</v>
+        <v>0.480975</v>
       </c>
       <c r="D17" t="n">
-        <v>0.406208</v>
+        <v>0.41063</v>
       </c>
     </row>
     <row r="18">
@@ -11288,13 +11288,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.665532</v>
+        <v>0.666111</v>
       </c>
       <c r="C18" t="n">
-        <v>0.481533</v>
+        <v>0.485186</v>
       </c>
       <c r="D18" t="n">
-        <v>0.41478</v>
+        <v>0.41882</v>
       </c>
     </row>
     <row r="19">
@@ -11302,13 +11302,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.684261</v>
+        <v>0.684373</v>
       </c>
       <c r="C19" t="n">
-        <v>0.5004150000000001</v>
+        <v>0.503405</v>
       </c>
       <c r="D19" t="n">
-        <v>0.418959</v>
+        <v>0.423061</v>
       </c>
     </row>
     <row r="20">
@@ -11316,13 +11316,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.696336</v>
+        <v>0.698915</v>
       </c>
       <c r="C20" t="n">
-        <v>0.506515</v>
+        <v>0.510771</v>
       </c>
       <c r="D20" t="n">
-        <v>0.426032</v>
+        <v>0.430809</v>
       </c>
     </row>
     <row r="21">
@@ -11330,13 +11330,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.707334</v>
+        <v>0.708232</v>
       </c>
       <c r="C21" t="n">
-        <v>0.52185</v>
+        <v>0.525231</v>
       </c>
       <c r="D21" t="n">
-        <v>0.432569</v>
+        <v>0.433923</v>
       </c>
     </row>
     <row r="22">
@@ -11344,13 +11344,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.720576</v>
+        <v>0.719481</v>
       </c>
       <c r="C22" t="n">
-        <v>0.528423</v>
+        <v>0.531227</v>
       </c>
       <c r="D22" t="n">
-        <v>0.437451</v>
+        <v>0.441749</v>
       </c>
     </row>
     <row r="23">
@@ -11358,13 +11358,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.733698</v>
+        <v>0.7363189999999999</v>
       </c>
       <c r="C23" t="n">
-        <v>0.54373</v>
+        <v>0.545482</v>
       </c>
       <c r="D23" t="n">
-        <v>0.441632</v>
+        <v>0.445715</v>
       </c>
     </row>
     <row r="24">
@@ -11372,13 +11372,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.750349</v>
+        <v>0.752499</v>
       </c>
       <c r="C24" t="n">
-        <v>0.550874</v>
+        <v>0.553736</v>
       </c>
       <c r="D24" t="n">
-        <v>0.447488</v>
+        <v>0.451601</v>
       </c>
     </row>
     <row r="25">
@@ -11386,13 +11386,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.771918</v>
+        <v>0.770436</v>
       </c>
       <c r="C25" t="n">
-        <v>0.5674979999999999</v>
+        <v>0.571174</v>
       </c>
       <c r="D25" t="n">
-        <v>0.454287</v>
+        <v>0.458331</v>
       </c>
     </row>
     <row r="26">
@@ -11400,13 +11400,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.7879620000000001</v>
+        <v>0.786718</v>
       </c>
       <c r="C26" t="n">
-        <v>0.5075539999999999</v>
+        <v>0.511614</v>
       </c>
       <c r="D26" t="n">
-        <v>0.460556</v>
+        <v>0.465277</v>
       </c>
     </row>
     <row r="27">
@@ -11414,13 +11414,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.745036</v>
+        <v>0.745592</v>
       </c>
       <c r="C27" t="n">
-        <v>0.512734</v>
+        <v>0.517075</v>
       </c>
       <c r="D27" t="n">
-        <v>0.463446</v>
+        <v>0.469012</v>
       </c>
     </row>
     <row r="28">
@@ -11428,13 +11428,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.756259</v>
+        <v>0.757749</v>
       </c>
       <c r="C28" t="n">
-        <v>0.521069</v>
+        <v>0.524954</v>
       </c>
       <c r="D28" t="n">
-        <v>0.470434</v>
+        <v>0.476021</v>
       </c>
     </row>
     <row r="29">
@@ -11442,13 +11442,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.766763</v>
+        <v>0.767976</v>
       </c>
       <c r="C29" t="n">
-        <v>0.524927</v>
+        <v>0.529416</v>
       </c>
       <c r="D29" t="n">
-        <v>0.473138</v>
+        <v>0.476146</v>
       </c>
     </row>
     <row r="30">
@@ -11456,13 +11456,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.779241</v>
+        <v>0.776235</v>
       </c>
       <c r="C30" t="n">
-        <v>0.533203</v>
+        <v>0.537829</v>
       </c>
       <c r="D30" t="n">
-        <v>0.479105</v>
+        <v>0.48405</v>
       </c>
     </row>
     <row r="31">
@@ -11470,13 +11470,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.791778</v>
+        <v>0.789008</v>
       </c>
       <c r="C31" t="n">
-        <v>0.5416299999999999</v>
+        <v>0.544461</v>
       </c>
       <c r="D31" t="n">
-        <v>0.482523</v>
+        <v>0.48663</v>
       </c>
     </row>
     <row r="32">
@@ -11484,13 +11484,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.804531</v>
+        <v>0.799828</v>
       </c>
       <c r="C32" t="n">
-        <v>0.550959</v>
+        <v>0.555092</v>
       </c>
       <c r="D32" t="n">
-        <v>0.484453</v>
+        <v>0.491306</v>
       </c>
     </row>
     <row r="33">
@@ -11498,13 +11498,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.817224</v>
+        <v>0.812564</v>
       </c>
       <c r="C33" t="n">
-        <v>0.556447</v>
+        <v>0.559676</v>
       </c>
       <c r="D33" t="n">
-        <v>0.488293</v>
+        <v>0.495259</v>
       </c>
     </row>
     <row r="34">
@@ -11512,13 +11512,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.828199</v>
+        <v>0.824715</v>
       </c>
       <c r="C34" t="n">
-        <v>0.571406</v>
+        <v>0.573101</v>
       </c>
       <c r="D34" t="n">
-        <v>0.493087</v>
+        <v>0.497793</v>
       </c>
     </row>
     <row r="35">
@@ -11526,13 +11526,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.837264</v>
+        <v>0.842584</v>
       </c>
       <c r="C35" t="n">
-        <v>0.580201</v>
+        <v>0.582646</v>
       </c>
       <c r="D35" t="n">
-        <v>0.498519</v>
+        <v>0.5021640000000001</v>
       </c>
     </row>
     <row r="36">
@@ -11540,13 +11540,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.853813</v>
+        <v>0.8492459999999999</v>
       </c>
       <c r="C36" t="n">
-        <v>0.593255</v>
+        <v>0.5945</v>
       </c>
       <c r="D36" t="n">
-        <v>0.501765</v>
+        <v>0.506841</v>
       </c>
     </row>
     <row r="37">
@@ -11554,13 +11554,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.862563</v>
+        <v>0.857976</v>
       </c>
       <c r="C37" t="n">
-        <v>0.602669</v>
+        <v>0.603492</v>
       </c>
       <c r="D37" t="n">
-        <v>0.503431</v>
+        <v>0.507198</v>
       </c>
     </row>
     <row r="38">
@@ -11568,13 +11568,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.872548</v>
+        <v>0.868271</v>
       </c>
       <c r="C38" t="n">
-        <v>0.614507</v>
+        <v>0.6142609999999999</v>
       </c>
       <c r="D38" t="n">
-        <v>0.507979</v>
+        <v>0.512981</v>
       </c>
     </row>
     <row r="39">
@@ -11582,13 +11582,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.892916</v>
+        <v>0.888077</v>
       </c>
       <c r="C39" t="n">
-        <v>0.626067</v>
+        <v>0.625328</v>
       </c>
       <c r="D39" t="n">
-        <v>0.510421</v>
+        <v>0.51283</v>
       </c>
     </row>
     <row r="40">
@@ -11596,13 +11596,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.899702</v>
+        <v>0.891836</v>
       </c>
       <c r="C40" t="n">
-        <v>0.5715440000000001</v>
+        <v>0.572241</v>
       </c>
       <c r="D40" t="n">
-        <v>0.515439</v>
+        <v>0.518428</v>
       </c>
     </row>
     <row r="41">
@@ -11610,13 +11610,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.847979</v>
+        <v>0.845863</v>
       </c>
       <c r="C41" t="n">
-        <v>0.576646</v>
+        <v>0.577673</v>
       </c>
       <c r="D41" t="n">
-        <v>0.517401</v>
+        <v>0.520404</v>
       </c>
     </row>
     <row r="42">
@@ -11624,13 +11624,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.860528</v>
+        <v>0.857507</v>
       </c>
       <c r="C42" t="n">
-        <v>0.585203</v>
+        <v>0.58584</v>
       </c>
       <c r="D42" t="n">
-        <v>0.520072</v>
+        <v>0.522324</v>
       </c>
     </row>
     <row r="43">
@@ -11638,13 +11638,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.86602</v>
+        <v>0.862718</v>
       </c>
       <c r="C43" t="n">
-        <v>0.590637</v>
+        <v>0.59179</v>
       </c>
       <c r="D43" t="n">
-        <v>0.523773</v>
+        <v>0.525235</v>
       </c>
     </row>
     <row r="44">
@@ -11652,13 +11652,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.874677</v>
+        <v>0.8709710000000001</v>
       </c>
       <c r="C44" t="n">
-        <v>0.603394</v>
+        <v>0.604707</v>
       </c>
       <c r="D44" t="n">
-        <v>0.525674</v>
+        <v>0.529041</v>
       </c>
     </row>
     <row r="45">
@@ -11666,13 +11666,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.887096</v>
+        <v>0.887581</v>
       </c>
       <c r="C45" t="n">
-        <v>0.607252</v>
+        <v>0.608738</v>
       </c>
       <c r="D45" t="n">
-        <v>0.527331</v>
+        <v>0.53087</v>
       </c>
     </row>
     <row r="46">
@@ -11680,13 +11680,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.896506</v>
+        <v>0.886873</v>
       </c>
       <c r="C46" t="n">
-        <v>0.618746</v>
+        <v>0.619748</v>
       </c>
       <c r="D46" t="n">
-        <v>0.530734</v>
+        <v>0.533893</v>
       </c>
     </row>
     <row r="47">
@@ -11694,13 +11694,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.908061</v>
+        <v>0.904342</v>
       </c>
       <c r="C47" t="n">
-        <v>0.628198</v>
+        <v>0.628627</v>
       </c>
       <c r="D47" t="n">
-        <v>0.53221</v>
+        <v>0.534341</v>
       </c>
     </row>
     <row r="48">
@@ -11708,13 +11708,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.914679</v>
+        <v>0.910829</v>
       </c>
       <c r="C48" t="n">
-        <v>0.634956</v>
+        <v>0.635108</v>
       </c>
       <c r="D48" t="n">
-        <v>0.534937</v>
+        <v>0.537307</v>
       </c>
     </row>
     <row r="49">
@@ -11722,13 +11722,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.924848</v>
+        <v>0.919526</v>
       </c>
       <c r="C49" t="n">
-        <v>0.645842</v>
+        <v>0.645414</v>
       </c>
       <c r="D49" t="n">
-        <v>0.538778</v>
+        <v>0.5398810000000001</v>
       </c>
     </row>
     <row r="50">
@@ -11736,13 +11736,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.937565</v>
+        <v>0.9351739999999999</v>
       </c>
       <c r="C50" t="n">
-        <v>0.653513</v>
+        <v>0.653672</v>
       </c>
       <c r="D50" t="n">
-        <v>0.540091</v>
+        <v>0.541196</v>
       </c>
     </row>
     <row r="51">
@@ -11750,13 +11750,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.947278</v>
+        <v>0.9411119999999999</v>
       </c>
       <c r="C51" t="n">
-        <v>0.6632400000000001</v>
+        <v>0.66343</v>
       </c>
       <c r="D51" t="n">
-        <v>0.5419119999999999</v>
+        <v>0.54299</v>
       </c>
     </row>
     <row r="52">
@@ -11764,13 +11764,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.9545979999999999</v>
+        <v>0.955079</v>
       </c>
       <c r="C52" t="n">
-        <v>0.677291</v>
+        <v>0.67698</v>
       </c>
       <c r="D52" t="n">
-        <v>0.543237</v>
+        <v>0.546952</v>
       </c>
     </row>
     <row r="53">
@@ -11778,13 +11778,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.968109</v>
+        <v>0.963828</v>
       </c>
       <c r="C53" t="n">
-        <v>0.687126</v>
+        <v>0.687084</v>
       </c>
       <c r="D53" t="n">
-        <v>0.5466220000000001</v>
+        <v>0.5475950000000001</v>
       </c>
     </row>
     <row r="54">
@@ -11792,13 +11792,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.982127</v>
+        <v>0.976599</v>
       </c>
       <c r="C54" t="n">
-        <v>0.61774</v>
+        <v>0.616202</v>
       </c>
       <c r="D54" t="n">
-        <v>0.546349</v>
+        <v>0.547422</v>
       </c>
     </row>
     <row r="55">
@@ -11806,13 +11806,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.994225</v>
+        <v>0.991779</v>
       </c>
       <c r="C55" t="n">
-        <v>0.625182</v>
+        <v>0.623115</v>
       </c>
       <c r="D55" t="n">
-        <v>0.548088</v>
+        <v>0.549528</v>
       </c>
     </row>
     <row r="56">
@@ -11820,13 +11820,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.913498</v>
+        <v>0.9114679999999999</v>
       </c>
       <c r="C56" t="n">
-        <v>0.633615</v>
+        <v>0.63093</v>
       </c>
       <c r="D56" t="n">
-        <v>0.548405</v>
+        <v>0.5504790000000001</v>
       </c>
     </row>
     <row r="57">
@@ -11834,13 +11834,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.922459</v>
+        <v>0.916331</v>
       </c>
       <c r="C57" t="n">
-        <v>0.638499</v>
+        <v>0.638466</v>
       </c>
       <c r="D57" t="n">
-        <v>0.551287</v>
+        <v>0.552346</v>
       </c>
     </row>
     <row r="58">
@@ -11848,13 +11848,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.930531</v>
+        <v>0.9272860000000001</v>
       </c>
       <c r="C58" t="n">
-        <v>0.64603</v>
+        <v>0.646248</v>
       </c>
       <c r="D58" t="n">
-        <v>0.554227</v>
+        <v>0.554378</v>
       </c>
     </row>
     <row r="59">
@@ -11862,13 +11862,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.939801</v>
+        <v>0.934342</v>
       </c>
       <c r="C59" t="n">
-        <v>0.655058</v>
+        <v>0.655483</v>
       </c>
       <c r="D59" t="n">
-        <v>0.554199</v>
+        <v>0.556492</v>
       </c>
     </row>
     <row r="60">
@@ -11876,13 +11876,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.943796</v>
+        <v>0.941376</v>
       </c>
       <c r="C60" t="n">
-        <v>0.669102</v>
+        <v>0.665501</v>
       </c>
       <c r="D60" t="n">
-        <v>0.55572</v>
+        <v>0.556829</v>
       </c>
     </row>
     <row r="61">
@@ -11890,13 +11890,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.950569</v>
+        <v>0.948836</v>
       </c>
       <c r="C61" t="n">
-        <v>0.677181</v>
+        <v>0.675891</v>
       </c>
       <c r="D61" t="n">
-        <v>0.558925</v>
+        <v>0.558936</v>
       </c>
     </row>
     <row r="62">
@@ -11904,13 +11904,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.959912</v>
+        <v>0.959196</v>
       </c>
       <c r="C62" t="n">
-        <v>0.6899</v>
+        <v>0.685844</v>
       </c>
       <c r="D62" t="n">
-        <v>0.558312</v>
+        <v>0.560106</v>
       </c>
     </row>
     <row r="63">
@@ -11918,13 +11918,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.972224</v>
+        <v>0.969827</v>
       </c>
       <c r="C63" t="n">
-        <v>0.7017</v>
+        <v>0.699139</v>
       </c>
       <c r="D63" t="n">
-        <v>0.560961</v>
+        <v>0.561376</v>
       </c>
     </row>
     <row r="64">
@@ -11932,13 +11932,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.9840179999999999</v>
+        <v>0.9786899999999999</v>
       </c>
       <c r="C64" t="n">
-        <v>0.715803</v>
+        <v>0.713684</v>
       </c>
       <c r="D64" t="n">
-        <v>0.562896</v>
+        <v>0.563501</v>
       </c>
     </row>
     <row r="65">
@@ -11946,13 +11946,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.9958399999999999</v>
+        <v>0.991325</v>
       </c>
       <c r="C65" t="n">
-        <v>0.731776</v>
+        <v>0.729335</v>
       </c>
       <c r="D65" t="n">
-        <v>0.565375</v>
+        <v>0.565546</v>
       </c>
     </row>
     <row r="66">
@@ -11960,13 +11960,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>1.0086</v>
+        <v>1.00499</v>
       </c>
       <c r="C66" t="n">
-        <v>0.747561</v>
+        <v>0.743169</v>
       </c>
       <c r="D66" t="n">
-        <v>0.567405</v>
+        <v>0.5684360000000001</v>
       </c>
     </row>
     <row r="67">
@@ -11974,13 +11974,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>1.02166</v>
+        <v>1.01742</v>
       </c>
       <c r="C67" t="n">
-        <v>0.763472</v>
+        <v>0.759575</v>
       </c>
       <c r="D67" t="n">
-        <v>0.571789</v>
+        <v>0.570561</v>
       </c>
     </row>
     <row r="68">
@@ -11988,13 +11988,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>1.03566</v>
+        <v>1.03359</v>
       </c>
       <c r="C68" t="n">
-        <v>0.693589</v>
+        <v>0.687948</v>
       </c>
       <c r="D68" t="n">
-        <v>0.587908</v>
+        <v>0.588534</v>
       </c>
     </row>
     <row r="69">
@@ -12002,13 +12002,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>1.07051</v>
+        <v>1.07056</v>
       </c>
       <c r="C69" t="n">
-        <v>0.716659</v>
+        <v>0.71175</v>
       </c>
       <c r="D69" t="n">
-        <v>0.598363</v>
+        <v>0.5966630000000001</v>
       </c>
     </row>
     <row r="70">
@@ -12016,13 +12016,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>1.00386</v>
+        <v>1.00494</v>
       </c>
       <c r="C70" t="n">
-        <v>0.747287</v>
+        <v>0.740518</v>
       </c>
       <c r="D70" t="n">
-        <v>0.614749</v>
+        <v>0.610278</v>
       </c>
     </row>
     <row r="71">
@@ -12030,13 +12030,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>1.0313</v>
+        <v>1.03398</v>
       </c>
       <c r="C71" t="n">
-        <v>0.771251</v>
+        <v>0.768437</v>
       </c>
       <c r="D71" t="n">
-        <v>0.6241409999999999</v>
+        <v>0.624896</v>
       </c>
     </row>
     <row r="72">
@@ -12044,13 +12044,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>1.06107</v>
+        <v>1.06889</v>
       </c>
       <c r="C72" t="n">
-        <v>0.802905</v>
+        <v>0.802547</v>
       </c>
       <c r="D72" t="n">
-        <v>0.6390980000000001</v>
+        <v>0.645643</v>
       </c>
     </row>
     <row r="73">
@@ -12058,13 +12058,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>1.08211</v>
+        <v>1.1013</v>
       </c>
       <c r="C73" t="n">
-        <v>0.834195</v>
+        <v>0.836889</v>
       </c>
       <c r="D73" t="n">
-        <v>0.657273</v>
+        <v>0.6603560000000001</v>
       </c>
     </row>
     <row r="74">
@@ -12072,13 +12072,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>1.11009</v>
+        <v>1.13506</v>
       </c>
       <c r="C74" t="n">
-        <v>0.863571</v>
+        <v>0.876834</v>
       </c>
       <c r="D74" t="n">
-        <v>0.667927</v>
+        <v>0.681118</v>
       </c>
     </row>
     <row r="75">
@@ -12086,13 +12086,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>1.14333</v>
+        <v>1.17767</v>
       </c>
       <c r="C75" t="n">
-        <v>0.900885</v>
+        <v>0.921826</v>
       </c>
       <c r="D75" t="n">
-        <v>0.686152</v>
+        <v>0.703923</v>
       </c>
     </row>
     <row r="76">
@@ -12100,13 +12100,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>1.18892</v>
+        <v>1.22543</v>
       </c>
       <c r="C76" t="n">
-        <v>0.94915</v>
+        <v>0.9692269999999999</v>
       </c>
       <c r="D76" t="n">
-        <v>0.709435</v>
+        <v>0.730147</v>
       </c>
     </row>
     <row r="77">
@@ -12114,13 +12114,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>1.24538</v>
+        <v>1.2739</v>
       </c>
       <c r="C77" t="n">
-        <v>1.00059</v>
+        <v>1.01434</v>
       </c>
       <c r="D77" t="n">
-        <v>0.7408130000000001</v>
+        <v>0.755964</v>
       </c>
     </row>
     <row r="78">
@@ -12128,13 +12128,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>1.30389</v>
+        <v>1.32891</v>
       </c>
       <c r="C78" t="n">
-        <v>1.04432</v>
+        <v>1.06386</v>
       </c>
       <c r="D78" t="n">
-        <v>0.76915</v>
+        <v>0.786378</v>
       </c>
     </row>
     <row r="79">
@@ -12142,13 +12142,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>1.36596</v>
+        <v>1.39232</v>
       </c>
       <c r="C79" t="n">
-        <v>1.09876</v>
+        <v>1.11597</v>
       </c>
       <c r="D79" t="n">
-        <v>0.8066680000000001</v>
+        <v>0.819191</v>
       </c>
     </row>
     <row r="80">
@@ -12156,13 +12156,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>1.42818</v>
+        <v>1.45832</v>
       </c>
       <c r="C80" t="n">
-        <v>1.14944</v>
+        <v>1.16815</v>
       </c>
       <c r="D80" t="n">
-        <v>0.842428</v>
+        <v>0.850853</v>
       </c>
     </row>
     <row r="81">
@@ -12170,13 +12170,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>1.50441</v>
+        <v>1.54019</v>
       </c>
       <c r="C81" t="n">
-        <v>1.21028</v>
+        <v>1.23199</v>
       </c>
       <c r="D81" t="n">
-        <v>0.8761139999999999</v>
+        <v>0.898168</v>
       </c>
     </row>
     <row r="82">
@@ -12184,13 +12184,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>1.59885</v>
+        <v>1.63095</v>
       </c>
       <c r="C82" t="n">
-        <v>1.27793</v>
+        <v>1.29821</v>
       </c>
       <c r="D82" t="n">
-        <v>0.926109</v>
+        <v>0.945949</v>
       </c>
     </row>
     <row r="83">
@@ -12198,13 +12198,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>1.7078</v>
+        <v>1.73321</v>
       </c>
       <c r="C83" t="n">
-        <v>1.27116</v>
+        <v>1.30196</v>
       </c>
       <c r="D83" t="n">
-        <v>1.04033</v>
+        <v>1.07222</v>
       </c>
     </row>
     <row r="84">
@@ -12212,13 +12212,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>1.81068</v>
+        <v>1.84748</v>
       </c>
       <c r="C84" t="n">
-        <v>1.33846</v>
+        <v>1.36646</v>
       </c>
       <c r="D84" t="n">
-        <v>1.09616</v>
+        <v>1.12881</v>
       </c>
     </row>
     <row r="85">
@@ -12226,13 +12226,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>1.84542</v>
+        <v>1.8802</v>
       </c>
       <c r="C85" t="n">
-        <v>1.39972</v>
+        <v>1.42837</v>
       </c>
       <c r="D85" t="n">
-        <v>1.15419</v>
+        <v>1.18971</v>
       </c>
     </row>
     <row r="86">
@@ -12240,13 +12240,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>1.95195</v>
+        <v>1.98397</v>
       </c>
       <c r="C86" t="n">
-        <v>1.47392</v>
+        <v>1.50616</v>
       </c>
       <c r="D86" t="n">
-        <v>1.21446</v>
+        <v>1.25156</v>
       </c>
     </row>
     <row r="87">
@@ -12254,13 +12254,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>2.06838</v>
+        <v>2.09276</v>
       </c>
       <c r="C87" t="n">
-        <v>1.54833</v>
+        <v>1.57634</v>
       </c>
       <c r="D87" t="n">
-        <v>1.27617</v>
+        <v>1.31437</v>
       </c>
     </row>
     <row r="88">
@@ -12268,13 +12268,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>2.17623</v>
+        <v>2.20593</v>
       </c>
       <c r="C88" t="n">
-        <v>1.63187</v>
+        <v>1.65462</v>
       </c>
       <c r="D88" t="n">
-        <v>1.33506</v>
+        <v>1.37169</v>
       </c>
     </row>
     <row r="89">
@@ -12282,13 +12282,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>2.29991</v>
+        <v>2.32487</v>
       </c>
       <c r="C89" t="n">
-        <v>1.70872</v>
+        <v>1.73001</v>
       </c>
       <c r="D89" t="n">
-        <v>1.39606</v>
+        <v>1.43324</v>
       </c>
     </row>
     <row r="90">
@@ -12296,13 +12296,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>2.42841</v>
+        <v>2.44101</v>
       </c>
       <c r="C90" t="n">
-        <v>1.79284</v>
+        <v>1.80808</v>
       </c>
       <c r="D90" t="n">
-        <v>1.45751</v>
+        <v>1.49188</v>
       </c>
     </row>
     <row r="91">
@@ -12310,13 +12310,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>2.54916</v>
+        <v>2.576</v>
       </c>
       <c r="C91" t="n">
-        <v>1.88082</v>
+        <v>1.89679</v>
       </c>
       <c r="D91" t="n">
-        <v>1.5141</v>
+        <v>1.54993</v>
       </c>
     </row>
     <row r="92">
@@ -12324,13 +12324,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>2.6746</v>
+        <v>2.69252</v>
       </c>
       <c r="C92" t="n">
-        <v>1.96497</v>
+        <v>1.98663</v>
       </c>
       <c r="D92" t="n">
-        <v>1.56833</v>
+        <v>1.60758</v>
       </c>
     </row>
     <row r="93">
@@ -12338,13 +12338,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>2.83249</v>
+        <v>2.81913</v>
       </c>
       <c r="C93" t="n">
-        <v>2.06835</v>
+        <v>2.07609</v>
       </c>
       <c r="D93" t="n">
-        <v>1.62302</v>
+        <v>1.65897</v>
       </c>
     </row>
     <row r="94">
@@ -12352,13 +12352,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>2.97429</v>
+        <v>2.95076</v>
       </c>
       <c r="C94" t="n">
-        <v>2.15874</v>
+        <v>2.16828</v>
       </c>
       <c r="D94" t="n">
-        <v>1.67778</v>
+        <v>1.71109</v>
       </c>
     </row>
     <row r="95">
@@ -12366,13 +12366,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>3.07514</v>
+        <v>3.09664</v>
       </c>
       <c r="C95" t="n">
-        <v>2.25246</v>
+        <v>2.26456</v>
       </c>
       <c r="D95" t="n">
-        <v>1.72383</v>
+        <v>1.76455</v>
       </c>
     </row>
     <row r="96">
@@ -12380,13 +12380,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>3.22108</v>
+        <v>3.20223</v>
       </c>
       <c r="C96" t="n">
-        <v>2.3629</v>
+        <v>2.36894</v>
       </c>
       <c r="D96" t="n">
-        <v>1.77706</v>
+        <v>1.81518</v>
       </c>
     </row>
     <row r="97">
@@ -12394,13 +12394,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>3.3784</v>
+        <v>3.35647</v>
       </c>
       <c r="C97" t="n">
-        <v>2.15601</v>
+        <v>2.15531</v>
       </c>
       <c r="D97" t="n">
-        <v>1.91534</v>
+        <v>1.95316</v>
       </c>
     </row>
     <row r="98">
@@ -12408,13 +12408,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>3.49359</v>
+        <v>3.48797</v>
       </c>
       <c r="C98" t="n">
-        <v>2.22089</v>
+        <v>2.22601</v>
       </c>
       <c r="D98" t="n">
-        <v>1.9662</v>
+        <v>1.99742</v>
       </c>
     </row>
     <row r="99">
@@ -12422,13 +12422,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>3.42245</v>
+        <v>3.38073</v>
       </c>
       <c r="C99" t="n">
-        <v>2.28298</v>
+        <v>2.28616</v>
       </c>
       <c r="D99" t="n">
-        <v>2.00301</v>
+        <v>2.04164</v>
       </c>
     </row>
     <row r="100">
@@ -12436,13 +12436,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>3.51108</v>
+        <v>3.49321</v>
       </c>
       <c r="C100" t="n">
-        <v>2.35825</v>
+        <v>2.35279</v>
       </c>
       <c r="D100" t="n">
-        <v>2.05451</v>
+        <v>2.08118</v>
       </c>
     </row>
     <row r="101">
@@ -12450,13 +12450,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>3.62027</v>
+        <v>3.57891</v>
       </c>
       <c r="C101" t="n">
-        <v>2.42992</v>
+        <v>2.42813</v>
       </c>
       <c r="D101" t="n">
-        <v>2.08673</v>
+        <v>2.12249</v>
       </c>
     </row>
     <row r="102">
@@ -12464,13 +12464,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>3.7238</v>
+        <v>3.69771</v>
       </c>
       <c r="C102" t="n">
-        <v>2.50637</v>
+        <v>2.50443</v>
       </c>
       <c r="D102" t="n">
-        <v>2.12353</v>
+        <v>2.16002</v>
       </c>
     </row>
     <row r="103">
@@ -12478,13 +12478,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>3.79157</v>
+        <v>3.76781</v>
       </c>
       <c r="C103" t="n">
-        <v>2.57575</v>
+        <v>2.58028</v>
       </c>
       <c r="D103" t="n">
-        <v>2.16021</v>
+        <v>2.19461</v>
       </c>
     </row>
     <row r="104">
@@ -12492,13 +12492,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>3.88353</v>
+        <v>3.83864</v>
       </c>
       <c r="C104" t="n">
-        <v>2.65437</v>
+        <v>2.65802</v>
       </c>
       <c r="D104" t="n">
-        <v>2.20275</v>
+        <v>2.22766</v>
       </c>
     </row>
     <row r="105">
@@ -12506,13 +12506,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>4.00374</v>
+        <v>3.94772</v>
       </c>
       <c r="C105" t="n">
-        <v>2.72611</v>
+        <v>2.72984</v>
       </c>
       <c r="D105" t="n">
-        <v>2.22163</v>
+        <v>2.25054</v>
       </c>
     </row>
     <row r="106">
@@ -12520,13 +12520,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>4.11345</v>
+        <v>4.03005</v>
       </c>
       <c r="C106" t="n">
-        <v>2.8055</v>
+        <v>2.81213</v>
       </c>
       <c r="D106" t="n">
-        <v>2.2755</v>
+        <v>2.27278</v>
       </c>
     </row>
     <row r="107">
@@ -12534,13 +12534,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>4.19258</v>
+        <v>4.12182</v>
       </c>
       <c r="C107" t="n">
-        <v>2.89422</v>
+        <v>2.89588</v>
       </c>
       <c r="D107" t="n">
-        <v>2.29166</v>
+        <v>2.30965</v>
       </c>
     </row>
     <row r="108">
@@ -12548,13 +12548,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>4.3121</v>
+        <v>4.23111</v>
       </c>
       <c r="C108" t="n">
-        <v>2.97507</v>
+        <v>2.98355</v>
       </c>
       <c r="D108" t="n">
-        <v>2.31728</v>
+        <v>2.34689</v>
       </c>
     </row>
     <row r="109">
@@ -12562,13 +12562,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>4.39495</v>
+        <v>4.33464</v>
       </c>
       <c r="C109" t="n">
-        <v>3.06483</v>
+        <v>3.08195</v>
       </c>
       <c r="D109" t="n">
-        <v>2.35136</v>
+        <v>2.37191</v>
       </c>
     </row>
     <row r="110">
@@ -12576,13 +12576,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>4.48374</v>
+        <v>4.44891</v>
       </c>
       <c r="C110" t="n">
-        <v>3.14551</v>
+        <v>3.1614</v>
       </c>
       <c r="D110" t="n">
-        <v>2.37595</v>
+        <v>2.39742</v>
       </c>
     </row>
     <row r="111">
@@ -12590,13 +12590,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>4.58021</v>
+        <v>4.53467</v>
       </c>
       <c r="C111" t="n">
-        <v>2.79714</v>
+        <v>2.79055</v>
       </c>
       <c r="D111" t="n">
-        <v>2.48465</v>
+        <v>2.48927</v>
       </c>
     </row>
     <row r="112">
@@ -12604,13 +12604,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>4.71384</v>
+        <v>4.66519</v>
       </c>
       <c r="C112" t="n">
-        <v>2.86306</v>
+        <v>2.85003</v>
       </c>
       <c r="D112" t="n">
-        <v>2.51313</v>
+        <v>2.52455</v>
       </c>
     </row>
     <row r="113">
@@ -12618,13 +12618,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>4.84872</v>
+        <v>4.75377</v>
       </c>
       <c r="C113" t="n">
-        <v>2.91455</v>
+        <v>2.91857</v>
       </c>
       <c r="D113" t="n">
-        <v>2.54678</v>
+        <v>2.54589</v>
       </c>
     </row>
     <row r="114">
@@ -12632,13 +12632,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>4.48523</v>
+        <v>4.43233</v>
       </c>
       <c r="C114" t="n">
-        <v>2.98118</v>
+        <v>2.97482</v>
       </c>
       <c r="D114" t="n">
-        <v>2.56773</v>
+        <v>2.58188</v>
       </c>
     </row>
     <row r="115">
@@ -12646,13 +12646,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>4.5536</v>
+        <v>4.50931</v>
       </c>
       <c r="C115" t="n">
-        <v>3.04394</v>
+        <v>3.04806</v>
       </c>
       <c r="D115" t="n">
-        <v>2.58595</v>
+        <v>2.60365</v>
       </c>
     </row>
     <row r="116">
@@ -12660,13 +12660,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>4.6518</v>
+        <v>4.56588</v>
       </c>
       <c r="C116" t="n">
-        <v>3.10863</v>
+        <v>3.1069</v>
       </c>
       <c r="D116" t="n">
-        <v>2.60871</v>
+        <v>2.63003</v>
       </c>
     </row>
     <row r="117">
@@ -12674,13 +12674,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>4.71795</v>
+        <v>4.66381</v>
       </c>
       <c r="C117" t="n">
-        <v>3.1627</v>
+        <v>3.16846</v>
       </c>
       <c r="D117" t="n">
-        <v>2.63505</v>
+        <v>2.64517</v>
       </c>
     </row>
     <row r="118">
@@ -12688,13 +12688,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>4.7633</v>
+        <v>4.78263</v>
       </c>
       <c r="C118" t="n">
-        <v>3.22939</v>
+        <v>3.2499</v>
       </c>
       <c r="D118" t="n">
-        <v>2.65106</v>
+        <v>2.66397</v>
       </c>
     </row>
     <row r="119">
@@ -12702,13 +12702,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>4.91228</v>
+        <v>4.8786</v>
       </c>
       <c r="C119" t="n">
-        <v>3.30856</v>
+        <v>3.32887</v>
       </c>
       <c r="D119" t="n">
-        <v>2.6759</v>
+        <v>2.68964</v>
       </c>
     </row>
   </sheetData>

--- a/gcc/scattered erasure.xlsx
+++ b/gcc/scattered erasure.xlsx
@@ -7680,13 +7680,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.303168</v>
+        <v>0.319321</v>
       </c>
       <c r="C2" t="n">
-        <v>0.283479</v>
+        <v>0.18113</v>
       </c>
       <c r="D2" t="n">
-        <v>0.220108</v>
+        <v>0.244396</v>
       </c>
     </row>
     <row r="3">
@@ -7694,13 +7694,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.292831</v>
+        <v>0.300033</v>
       </c>
       <c r="C3" t="n">
-        <v>0.286075</v>
+        <v>0.185027</v>
       </c>
       <c r="D3" t="n">
-        <v>0.22764</v>
+        <v>0.24669</v>
       </c>
     </row>
     <row r="4">
@@ -7708,13 +7708,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.29401</v>
+        <v>0.310076</v>
       </c>
       <c r="C4" t="n">
-        <v>0.290932</v>
+        <v>0.186531</v>
       </c>
       <c r="D4" t="n">
-        <v>0.23688</v>
+        <v>0.253859</v>
       </c>
     </row>
     <row r="5">
@@ -7722,13 +7722,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.301984</v>
+        <v>0.31042</v>
       </c>
       <c r="C5" t="n">
-        <v>0.293845</v>
+        <v>0.19086</v>
       </c>
       <c r="D5" t="n">
-        <v>0.23929</v>
+        <v>0.257036</v>
       </c>
     </row>
     <row r="6">
@@ -7736,13 +7736,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.309367</v>
+        <v>0.314297</v>
       </c>
       <c r="C6" t="n">
-        <v>0.296241</v>
+        <v>0.194245</v>
       </c>
       <c r="D6" t="n">
-        <v>0.247333</v>
+        <v>0.27044</v>
       </c>
     </row>
     <row r="7">
@@ -7750,13 +7750,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.314449</v>
+        <v>0.328148</v>
       </c>
       <c r="C7" t="n">
-        <v>0.286859</v>
+        <v>0.180667</v>
       </c>
       <c r="D7" t="n">
-        <v>0.26196</v>
+        <v>0.27278</v>
       </c>
     </row>
     <row r="8">
@@ -7764,13 +7764,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.32406</v>
+        <v>0.332354</v>
       </c>
       <c r="C8" t="n">
-        <v>0.289699</v>
+        <v>0.182922</v>
       </c>
       <c r="D8" t="n">
-        <v>0.267899</v>
+        <v>0.278709</v>
       </c>
     </row>
     <row r="9">
@@ -7778,13 +7778,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.32982</v>
+        <v>0.336866</v>
       </c>
       <c r="C9" t="n">
-        <v>0.29072</v>
+        <v>0.185171</v>
       </c>
       <c r="D9" t="n">
-        <v>0.275559</v>
+        <v>0.284737</v>
       </c>
     </row>
     <row r="10">
@@ -7792,13 +7792,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.336513</v>
+        <v>0.344919</v>
       </c>
       <c r="C10" t="n">
-        <v>0.292636</v>
+        <v>0.187197</v>
       </c>
       <c r="D10" t="n">
-        <v>0.280627</v>
+        <v>0.29063</v>
       </c>
     </row>
     <row r="11">
@@ -7806,13 +7806,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.343734</v>
+        <v>0.351653</v>
       </c>
       <c r="C11" t="n">
-        <v>0.292961</v>
+        <v>0.189165</v>
       </c>
       <c r="D11" t="n">
-        <v>0.287298</v>
+        <v>0.301203</v>
       </c>
     </row>
     <row r="12">
@@ -7820,13 +7820,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.352042</v>
+        <v>0.362611</v>
       </c>
       <c r="C12" t="n">
-        <v>0.296141</v>
+        <v>0.190698</v>
       </c>
       <c r="D12" t="n">
-        <v>0.294615</v>
+        <v>0.301219</v>
       </c>
     </row>
     <row r="13">
@@ -7834,13 +7834,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.359706</v>
+        <v>0.363191</v>
       </c>
       <c r="C13" t="n">
-        <v>0.298456</v>
+        <v>0.193982</v>
       </c>
       <c r="D13" t="n">
-        <v>0.30135</v>
+        <v>0.309071</v>
       </c>
     </row>
     <row r="14">
@@ -7848,13 +7848,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.367521</v>
+        <v>0.372559</v>
       </c>
       <c r="C14" t="n">
-        <v>0.301068</v>
+        <v>0.196131</v>
       </c>
       <c r="D14" t="n">
-        <v>0.306371</v>
+        <v>0.314189</v>
       </c>
     </row>
     <row r="15">
@@ -7862,13 +7862,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.376961</v>
+        <v>0.38212</v>
       </c>
       <c r="C15" t="n">
-        <v>0.305096</v>
+        <v>0.200054</v>
       </c>
       <c r="D15" t="n">
-        <v>0.314339</v>
+        <v>0.324131</v>
       </c>
     </row>
     <row r="16">
@@ -7876,13 +7876,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.384689</v>
+        <v>0.391107</v>
       </c>
       <c r="C16" t="n">
-        <v>0.307056</v>
+        <v>0.20295</v>
       </c>
       <c r="D16" t="n">
-        <v>0.319774</v>
+        <v>0.325965</v>
       </c>
     </row>
     <row r="17">
@@ -7890,13 +7890,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.391201</v>
+        <v>0.396873</v>
       </c>
       <c r="C17" t="n">
-        <v>0.310545</v>
+        <v>0.204783</v>
       </c>
       <c r="D17" t="n">
-        <v>0.326968</v>
+        <v>0.332333</v>
       </c>
     </row>
     <row r="18">
@@ -7904,13 +7904,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.378067</v>
+        <v>0.379801</v>
       </c>
       <c r="C18" t="n">
-        <v>0.314153</v>
+        <v>0.207843</v>
       </c>
       <c r="D18" t="n">
-        <v>0.332534</v>
+        <v>0.337126</v>
       </c>
     </row>
     <row r="19">
@@ -7918,13 +7918,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.383025</v>
+        <v>0.385033</v>
       </c>
       <c r="C19" t="n">
-        <v>0.31743</v>
+        <v>0.211733</v>
       </c>
       <c r="D19" t="n">
-        <v>0.339463</v>
+        <v>0.342916</v>
       </c>
     </row>
     <row r="20">
@@ -7932,13 +7932,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.389749</v>
+        <v>0.390959</v>
       </c>
       <c r="C20" t="n">
-        <v>0.320886</v>
+        <v>0.213555</v>
       </c>
       <c r="D20" t="n">
-        <v>0.344611</v>
+        <v>0.347919</v>
       </c>
     </row>
     <row r="21">
@@ -7946,13 +7946,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.393977</v>
+        <v>0.396705</v>
       </c>
       <c r="C21" t="n">
-        <v>0.301831</v>
+        <v>0.1929</v>
       </c>
       <c r="D21" t="n">
-        <v>0.351352</v>
+        <v>0.355102</v>
       </c>
     </row>
     <row r="22">
@@ -7960,13 +7960,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.40056</v>
+        <v>0.403076</v>
       </c>
       <c r="C22" t="n">
-        <v>0.304143</v>
+        <v>0.195509</v>
       </c>
       <c r="D22" t="n">
-        <v>0.356046</v>
+        <v>0.359389</v>
       </c>
     </row>
     <row r="23">
@@ -7974,13 +7974,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.406253</v>
+        <v>0.408469</v>
       </c>
       <c r="C23" t="n">
-        <v>0.305273</v>
+        <v>0.196773</v>
       </c>
       <c r="D23" t="n">
-        <v>0.360277</v>
+        <v>0.364465</v>
       </c>
     </row>
     <row r="24">
@@ -7988,13 +7988,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.41164</v>
+        <v>0.414209</v>
       </c>
       <c r="C24" t="n">
-        <v>0.308595</v>
+        <v>0.199444</v>
       </c>
       <c r="D24" t="n">
-        <v>0.364186</v>
+        <v>0.367748</v>
       </c>
     </row>
     <row r="25">
@@ -8002,13 +8002,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.417355</v>
+        <v>0.419078</v>
       </c>
       <c r="C25" t="n">
-        <v>0.309582</v>
+        <v>0.200977</v>
       </c>
       <c r="D25" t="n">
-        <v>0.368633</v>
+        <v>0.371656</v>
       </c>
     </row>
     <row r="26">
@@ -8016,13 +8016,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.424104</v>
+        <v>0.425483</v>
       </c>
       <c r="C26" t="n">
-        <v>0.313258</v>
+        <v>0.203426</v>
       </c>
       <c r="D26" t="n">
-        <v>0.371985</v>
+        <v>0.375261</v>
       </c>
     </row>
     <row r="27">
@@ -8030,13 +8030,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.429313</v>
+        <v>0.431316</v>
       </c>
       <c r="C27" t="n">
-        <v>0.316555</v>
+        <v>0.205855</v>
       </c>
       <c r="D27" t="n">
-        <v>0.375882</v>
+        <v>0.378846</v>
       </c>
     </row>
     <row r="28">
@@ -8044,13 +8044,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.435388</v>
+        <v>0.436691</v>
       </c>
       <c r="C28" t="n">
-        <v>0.318483</v>
+        <v>0.207906</v>
       </c>
       <c r="D28" t="n">
-        <v>0.37929</v>
+        <v>0.382232</v>
       </c>
     </row>
     <row r="29">
@@ -8058,13 +8058,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.441835</v>
+        <v>0.442297</v>
       </c>
       <c r="C29" t="n">
-        <v>0.321436</v>
+        <v>0.210683</v>
       </c>
       <c r="D29" t="n">
-        <v>0.383956</v>
+        <v>0.385718</v>
       </c>
     </row>
     <row r="30">
@@ -8072,13 +8072,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.447033</v>
+        <v>0.447581</v>
       </c>
       <c r="C30" t="n">
-        <v>0.324131</v>
+        <v>0.213659</v>
       </c>
       <c r="D30" t="n">
-        <v>0.387167</v>
+        <v>0.388344</v>
       </c>
     </row>
     <row r="31">
@@ -8086,13 +8086,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.454965</v>
+        <v>0.453343</v>
       </c>
       <c r="C31" t="n">
-        <v>0.327379</v>
+        <v>0.215568</v>
       </c>
       <c r="D31" t="n">
-        <v>0.390892</v>
+        <v>0.391788</v>
       </c>
     </row>
     <row r="32">
@@ -8100,13 +8100,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.424814</v>
+        <v>0.425699</v>
       </c>
       <c r="C32" t="n">
-        <v>0.330611</v>
+        <v>0.218451</v>
       </c>
       <c r="D32" t="n">
-        <v>0.394194</v>
+        <v>0.395847</v>
       </c>
     </row>
     <row r="33">
@@ -8114,13 +8114,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.429425</v>
+        <v>0.429804</v>
       </c>
       <c r="C33" t="n">
-        <v>0.333572</v>
+        <v>0.22092</v>
       </c>
       <c r="D33" t="n">
-        <v>0.398253</v>
+        <v>0.399179</v>
       </c>
     </row>
     <row r="34">
@@ -8128,13 +8128,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.433015</v>
+        <v>0.433591</v>
       </c>
       <c r="C34" t="n">
-        <v>0.33713</v>
+        <v>0.224644</v>
       </c>
       <c r="D34" t="n">
-        <v>0.40133</v>
+        <v>0.402572</v>
       </c>
     </row>
     <row r="35">
@@ -8142,13 +8142,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.437408</v>
+        <v>0.438121</v>
       </c>
       <c r="C35" t="n">
-        <v>0.313904</v>
+        <v>0.199229</v>
       </c>
       <c r="D35" t="n">
-        <v>0.401048</v>
+        <v>0.401937</v>
       </c>
     </row>
     <row r="36">
@@ -8156,13 +8156,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.441107</v>
+        <v>0.441895</v>
       </c>
       <c r="C36" t="n">
-        <v>0.3163</v>
+        <v>0.200642</v>
       </c>
       <c r="D36" t="n">
-        <v>0.403063</v>
+        <v>0.404504</v>
       </c>
     </row>
     <row r="37">
@@ -8170,13 +8170,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.445109</v>
+        <v>0.445183</v>
       </c>
       <c r="C37" t="n">
-        <v>0.318492</v>
+        <v>0.202696</v>
       </c>
       <c r="D37" t="n">
-        <v>0.405165</v>
+        <v>0.40599</v>
       </c>
     </row>
     <row r="38">
@@ -8184,13 +8184,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.449642</v>
+        <v>0.449618</v>
       </c>
       <c r="C38" t="n">
-        <v>0.320059</v>
+        <v>0.204843</v>
       </c>
       <c r="D38" t="n">
-        <v>0.407453</v>
+        <v>0.408097</v>
       </c>
     </row>
     <row r="39">
@@ -8198,13 +8198,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.454711</v>
+        <v>0.453453</v>
       </c>
       <c r="C39" t="n">
-        <v>0.323665</v>
+        <v>0.205814</v>
       </c>
       <c r="D39" t="n">
-        <v>0.409704</v>
+        <v>0.410762</v>
       </c>
     </row>
     <row r="40">
@@ -8212,13 +8212,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.458142</v>
+        <v>0.45809</v>
       </c>
       <c r="C40" t="n">
-        <v>0.324926</v>
+        <v>0.208539</v>
       </c>
       <c r="D40" t="n">
-        <v>0.41148</v>
+        <v>0.412422</v>
       </c>
     </row>
     <row r="41">
@@ -8226,13 +8226,13 @@
         <v>66357</v>
       </c>
       <c r="B41" t="n">
-        <v>0.463652</v>
+        <v>0.461269</v>
       </c>
       <c r="C41" t="n">
-        <v>0.32734</v>
+        <v>0.209943</v>
       </c>
       <c r="D41" t="n">
-        <v>0.413999</v>
+        <v>0.414769</v>
       </c>
     </row>
     <row r="42">
@@ -8240,13 +8240,13 @@
         <v>69656</v>
       </c>
       <c r="B42" t="n">
-        <v>0.468271</v>
+        <v>0.468415</v>
       </c>
       <c r="C42" t="n">
-        <v>0.328549</v>
+        <v>0.212148</v>
       </c>
       <c r="D42" t="n">
-        <v>0.416092</v>
+        <v>0.416661</v>
       </c>
     </row>
     <row r="43">
@@ -8254,13 +8254,13 @@
         <v>73119</v>
       </c>
       <c r="B43" t="n">
-        <v>0.47224</v>
+        <v>0.472358</v>
       </c>
       <c r="C43" t="n">
-        <v>0.330587</v>
+        <v>0.214899</v>
       </c>
       <c r="D43" t="n">
-        <v>0.418227</v>
+        <v>0.419152</v>
       </c>
     </row>
     <row r="44">
@@ -8268,13 +8268,13 @@
         <v>76755</v>
       </c>
       <c r="B44" t="n">
-        <v>0.477198</v>
+        <v>0.477284</v>
       </c>
       <c r="C44" t="n">
-        <v>0.334404</v>
+        <v>0.217077</v>
       </c>
       <c r="D44" t="n">
-        <v>0.420786</v>
+        <v>0.421561</v>
       </c>
     </row>
     <row r="45">
@@ -8282,13 +8282,13 @@
         <v>80572</v>
       </c>
       <c r="B45" t="n">
-        <v>0.48261</v>
+        <v>0.482756</v>
       </c>
       <c r="C45" t="n">
-        <v>0.337493</v>
+        <v>0.221153</v>
       </c>
       <c r="D45" t="n">
-        <v>0.422919</v>
+        <v>0.423686</v>
       </c>
     </row>
     <row r="46">
@@ -8296,13 +8296,13 @@
         <v>84579</v>
       </c>
       <c r="B46" t="n">
-        <v>0.487525</v>
+        <v>0.487517</v>
       </c>
       <c r="C46" t="n">
-        <v>0.340317</v>
+        <v>0.223418</v>
       </c>
       <c r="D46" t="n">
-        <v>0.42502</v>
+        <v>0.425782</v>
       </c>
     </row>
     <row r="47">
@@ -8310,13 +8310,13 @@
         <v>88786</v>
       </c>
       <c r="B47" t="n">
-        <v>0.451102</v>
+        <v>0.447434</v>
       </c>
       <c r="C47" t="n">
-        <v>0.343718</v>
+        <v>0.225923</v>
       </c>
       <c r="D47" t="n">
-        <v>0.427857</v>
+        <v>0.428744</v>
       </c>
     </row>
     <row r="48">
@@ -8324,13 +8324,13 @@
         <v>93203</v>
       </c>
       <c r="B48" t="n">
-        <v>0.454316</v>
+        <v>0.45372</v>
       </c>
       <c r="C48" t="n">
-        <v>0.34724</v>
+        <v>0.229177</v>
       </c>
       <c r="D48" t="n">
-        <v>0.429549</v>
+        <v>0.430082</v>
       </c>
     </row>
     <row r="49">
@@ -8338,13 +8338,13 @@
         <v>97840</v>
       </c>
       <c r="B49" t="n">
-        <v>0.457516</v>
+        <v>0.457015</v>
       </c>
       <c r="C49" t="n">
-        <v>0.35056</v>
+        <v>0.23196</v>
       </c>
       <c r="D49" t="n">
-        <v>0.431577</v>
+        <v>0.432641</v>
       </c>
     </row>
     <row r="50">
@@ -8352,13 +8352,13 @@
         <v>102706</v>
       </c>
       <c r="B50" t="n">
-        <v>0.460816</v>
+        <v>0.459928</v>
       </c>
       <c r="C50" t="n">
-        <v>0.330703</v>
+        <v>0.20461</v>
       </c>
       <c r="D50" t="n">
-        <v>0.427567</v>
+        <v>0.428359</v>
       </c>
     </row>
     <row r="51">
@@ -8366,13 +8366,13 @@
         <v>107816</v>
       </c>
       <c r="B51" t="n">
-        <v>0.465051</v>
+        <v>0.464056</v>
       </c>
       <c r="C51" t="n">
-        <v>0.332788</v>
+        <v>0.205916</v>
       </c>
       <c r="D51" t="n">
-        <v>0.428965</v>
+        <v>0.429673</v>
       </c>
     </row>
     <row r="52">
@@ -8380,13 +8380,13 @@
         <v>113182</v>
       </c>
       <c r="B52" t="n">
-        <v>0.468646</v>
+        <v>0.468272</v>
       </c>
       <c r="C52" t="n">
-        <v>0.334362</v>
+        <v>0.209867</v>
       </c>
       <c r="D52" t="n">
-        <v>0.429851</v>
+        <v>0.430274</v>
       </c>
     </row>
     <row r="53">
@@ -8394,13 +8394,13 @@
         <v>118816</v>
       </c>
       <c r="B53" t="n">
-        <v>0.471784</v>
+        <v>0.471089</v>
       </c>
       <c r="C53" t="n">
-        <v>0.335925</v>
+        <v>0.212116</v>
       </c>
       <c r="D53" t="n">
-        <v>0.431242</v>
+        <v>0.43143</v>
       </c>
     </row>
     <row r="54">
@@ -8408,13 +8408,13 @@
         <v>124731</v>
       </c>
       <c r="B54" t="n">
-        <v>0.475777</v>
+        <v>0.475375</v>
       </c>
       <c r="C54" t="n">
-        <v>0.339994</v>
+        <v>0.214964</v>
       </c>
       <c r="D54" t="n">
-        <v>0.432516</v>
+        <v>0.433378</v>
       </c>
     </row>
     <row r="55">
@@ -8422,13 +8422,13 @@
         <v>130941</v>
       </c>
       <c r="B55" t="n">
-        <v>0.479733</v>
+        <v>0.479082</v>
       </c>
       <c r="C55" t="n">
-        <v>0.342717</v>
+        <v>0.21541</v>
       </c>
       <c r="D55" t="n">
-        <v>0.43383</v>
+        <v>0.434215</v>
       </c>
     </row>
     <row r="56">
@@ -8436,13 +8436,13 @@
         <v>137461</v>
       </c>
       <c r="B56" t="n">
-        <v>0.484086</v>
+        <v>0.483804</v>
       </c>
       <c r="C56" t="n">
-        <v>0.342856</v>
+        <v>0.220101</v>
       </c>
       <c r="D56" t="n">
-        <v>0.435858</v>
+        <v>0.437746</v>
       </c>
     </row>
     <row r="57">
@@ -8450,13 +8450,13 @@
         <v>144307</v>
       </c>
       <c r="B57" t="n">
-        <v>0.48831</v>
+        <v>0.490465</v>
       </c>
       <c r="C57" t="n">
-        <v>0.347835</v>
+        <v>0.226059</v>
       </c>
       <c r="D57" t="n">
-        <v>0.437008</v>
+        <v>0.43773</v>
       </c>
     </row>
     <row r="58">
@@ -8464,13 +8464,13 @@
         <v>151495</v>
       </c>
       <c r="B58" t="n">
-        <v>0.49241</v>
+        <v>0.492219</v>
       </c>
       <c r="C58" t="n">
-        <v>0.354329</v>
+        <v>0.23232</v>
       </c>
       <c r="D58" t="n">
-        <v>0.440972</v>
+        <v>0.440332</v>
       </c>
     </row>
     <row r="59">
@@ -8478,13 +8478,13 @@
         <v>159042</v>
       </c>
       <c r="B59" t="n">
-        <v>0.500296</v>
+        <v>0.496862</v>
       </c>
       <c r="C59" t="n">
-        <v>0.361738</v>
+        <v>0.240156</v>
       </c>
       <c r="D59" t="n">
-        <v>0.441099</v>
+        <v>0.441245</v>
       </c>
     </row>
     <row r="60">
@@ -8492,13 +8492,13 @@
         <v>166965</v>
       </c>
       <c r="B60" t="n">
-        <v>0.502363</v>
+        <v>0.5014</v>
       </c>
       <c r="C60" t="n">
-        <v>0.372133</v>
+        <v>0.241347</v>
       </c>
       <c r="D60" t="n">
-        <v>0.443429</v>
+        <v>0.447262</v>
       </c>
     </row>
     <row r="61">
@@ -8506,13 +8506,13 @@
         <v>175284</v>
       </c>
       <c r="B61" t="n">
-        <v>0.484228</v>
+        <v>0.478339</v>
       </c>
       <c r="C61" t="n">
-        <v>0.379153</v>
+        <v>0.24351</v>
       </c>
       <c r="D61" t="n">
-        <v>0.44594</v>
+        <v>0.448775</v>
       </c>
     </row>
     <row r="62">
@@ -8520,13 +8520,13 @@
         <v>184019</v>
       </c>
       <c r="B62" t="n">
-        <v>0.49432</v>
+        <v>0.491688</v>
       </c>
       <c r="C62" t="n">
-        <v>0.38945</v>
+        <v>0.251224</v>
       </c>
       <c r="D62" t="n">
-        <v>0.447974</v>
+        <v>0.45281</v>
       </c>
     </row>
     <row r="63">
@@ -8534,13 +8534,13 @@
         <v>193190</v>
       </c>
       <c r="B63" t="n">
-        <v>0.501283</v>
+        <v>0.480253</v>
       </c>
       <c r="C63" t="n">
-        <v>0.393493</v>
+        <v>0.255988</v>
       </c>
       <c r="D63" t="n">
-        <v>0.450446</v>
+        <v>0.45229</v>
       </c>
     </row>
     <row r="64">
@@ -8548,13 +8548,13 @@
         <v>202820</v>
       </c>
       <c r="B64" t="n">
-        <v>0.510931</v>
+        <v>0.481549</v>
       </c>
       <c r="C64" t="n">
-        <v>0.445642</v>
+        <v>0.291998</v>
       </c>
       <c r="D64" t="n">
-        <v>0.486377</v>
+        <v>0.482555</v>
       </c>
     </row>
     <row r="65">
@@ -8562,13 +8562,13 @@
         <v>212931</v>
       </c>
       <c r="B65" t="n">
-        <v>0.5230629999999999</v>
+        <v>0.506141</v>
       </c>
       <c r="C65" t="n">
-        <v>0.452718</v>
+        <v>0.312645</v>
       </c>
       <c r="D65" t="n">
-        <v>0.484592</v>
+        <v>0.488124</v>
       </c>
     </row>
     <row r="66">
@@ -8576,13 +8576,13 @@
         <v>223547</v>
       </c>
       <c r="B66" t="n">
-        <v>0.541354</v>
+        <v>0.533906</v>
       </c>
       <c r="C66" t="n">
-        <v>0.476029</v>
+        <v>0.329884</v>
       </c>
       <c r="D66" t="n">
-        <v>0.508942</v>
+        <v>0.506902</v>
       </c>
     </row>
     <row r="67">
@@ -8590,13 +8590,13 @@
         <v>234692</v>
       </c>
       <c r="B67" t="n">
-        <v>0.556081</v>
+        <v>0.550663</v>
       </c>
       <c r="C67" t="n">
-        <v>0.492148</v>
+        <v>0.340671</v>
       </c>
       <c r="D67" t="n">
-        <v>0.498202</v>
+        <v>0.470295</v>
       </c>
     </row>
     <row r="68">
@@ -8604,13 +8604,13 @@
         <v>246395</v>
       </c>
       <c r="B68" t="n">
-        <v>0.545841</v>
+        <v>0.511951</v>
       </c>
       <c r="C68" t="n">
-        <v>0.506338</v>
+        <v>0.352784</v>
       </c>
       <c r="D68" t="n">
-        <v>0.518561</v>
+        <v>0.5292</v>
       </c>
     </row>
     <row r="69">
@@ -8618,13 +8618,13 @@
         <v>258683</v>
       </c>
       <c r="B69" t="n">
-        <v>0.576488</v>
+        <v>0.587209</v>
       </c>
       <c r="C69" t="n">
-        <v>0.535425</v>
+        <v>0.380529</v>
       </c>
       <c r="D69" t="n">
-        <v>0.543921</v>
+        <v>0.543649</v>
       </c>
     </row>
     <row r="70">
@@ -8632,13 +8632,13 @@
         <v>271585</v>
       </c>
       <c r="B70" t="n">
-        <v>0.6056319999999999</v>
+        <v>0.605942</v>
       </c>
       <c r="C70" t="n">
-        <v>0.552084</v>
+        <v>0.400223</v>
       </c>
       <c r="D70" t="n">
-        <v>0.554498</v>
+        <v>0.561805</v>
       </c>
     </row>
     <row r="71">
@@ -8646,13 +8646,13 @@
         <v>285132</v>
       </c>
       <c r="B71" t="n">
-        <v>0.622288</v>
+        <v>0.62801</v>
       </c>
       <c r="C71" t="n">
-        <v>0.573736</v>
+        <v>0.422289</v>
       </c>
       <c r="D71" t="n">
-        <v>0.5868679999999999</v>
+        <v>0.573489</v>
       </c>
     </row>
     <row r="72">
@@ -8660,13 +8660,13 @@
         <v>299354</v>
       </c>
       <c r="B72" t="n">
-        <v>0.65686</v>
+        <v>0.6393720000000001</v>
       </c>
       <c r="C72" t="n">
-        <v>0.602589</v>
+        <v>0.443245</v>
       </c>
       <c r="D72" t="n">
-        <v>0.596276</v>
+        <v>0.618803</v>
       </c>
     </row>
     <row r="73">
@@ -8674,13 +8674,13 @@
         <v>314289</v>
       </c>
       <c r="B73" t="n">
-        <v>0.672675</v>
+        <v>0.693481</v>
       </c>
       <c r="C73" t="n">
-        <v>0.6204190000000001</v>
+        <v>0.467893</v>
       </c>
       <c r="D73" t="n">
-        <v>0.6230019999999999</v>
+        <v>0.617094</v>
       </c>
     </row>
     <row r="74">
@@ -8688,13 +8688,13 @@
         <v>329969</v>
       </c>
       <c r="B74" t="n">
-        <v>0.69874</v>
+        <v>0.704592</v>
       </c>
       <c r="C74" t="n">
-        <v>0.64591</v>
+        <v>0.489156</v>
       </c>
       <c r="D74" t="n">
-        <v>0.649118</v>
+        <v>0.632931</v>
       </c>
     </row>
     <row r="75">
@@ -8702,13 +8702,13 @@
         <v>346432</v>
       </c>
       <c r="B75" t="n">
-        <v>0.752852</v>
+        <v>0.727452</v>
       </c>
       <c r="C75" t="n">
-        <v>0.671272</v>
+        <v>0.505389</v>
       </c>
       <c r="D75" t="n">
-        <v>0.694335</v>
+        <v>0.671229</v>
       </c>
     </row>
     <row r="76">
@@ -8716,13 +8716,13 @@
         <v>363719</v>
       </c>
       <c r="B76" t="n">
-        <v>0.9602619999999999</v>
+        <v>0.956056</v>
       </c>
       <c r="C76" t="n">
-        <v>0.69334</v>
+        <v>0.525286</v>
       </c>
       <c r="D76" t="n">
-        <v>0.732171</v>
+        <v>0.708797</v>
       </c>
     </row>
     <row r="77">
@@ -8730,13 +8730,13 @@
         <v>381870</v>
       </c>
       <c r="B77" t="n">
-        <v>1.0029</v>
+        <v>1.01075</v>
       </c>
       <c r="C77" t="n">
-        <v>0.716931</v>
+        <v>0.5445140000000001</v>
       </c>
       <c r="D77" t="n">
-        <v>0.770407</v>
+        <v>0.750498</v>
       </c>
     </row>
     <row r="78">
@@ -8744,13 +8744,13 @@
         <v>400928</v>
       </c>
       <c r="B78" t="n">
-        <v>1.04977</v>
+        <v>1.05864</v>
       </c>
       <c r="C78" t="n">
-        <v>0.835075</v>
+        <v>0.645976</v>
       </c>
       <c r="D78" t="n">
-        <v>1.02002</v>
+        <v>1.02652</v>
       </c>
     </row>
     <row r="79">
@@ -8758,13 +8758,13 @@
         <v>420937</v>
       </c>
       <c r="B79" t="n">
-        <v>1.09304</v>
+        <v>1.10623</v>
       </c>
       <c r="C79" t="n">
-        <v>0.845296</v>
+        <v>0.65083</v>
       </c>
       <c r="D79" t="n">
-        <v>1.05126</v>
+        <v>1.07693</v>
       </c>
     </row>
     <row r="80">
@@ -8772,13 +8772,13 @@
         <v>441947</v>
       </c>
       <c r="B80" t="n">
-        <v>1.14456</v>
+        <v>1.16796</v>
       </c>
       <c r="C80" t="n">
-        <v>0.858284</v>
+        <v>0.665609</v>
       </c>
       <c r="D80" t="n">
-        <v>1.11662</v>
+        <v>1.13164</v>
       </c>
     </row>
     <row r="81">
@@ -8786,13 +8786,13 @@
         <v>464005</v>
       </c>
       <c r="B81" t="n">
-        <v>1.19976</v>
+        <v>1.21016</v>
       </c>
       <c r="C81" t="n">
-        <v>0.875383</v>
+        <v>0.670473</v>
       </c>
       <c r="D81" t="n">
-        <v>1.16069</v>
+        <v>1.16579</v>
       </c>
     </row>
     <row r="82">
@@ -8800,13 +8800,13 @@
         <v>487165</v>
       </c>
       <c r="B82" t="n">
-        <v>1.25378</v>
+        <v>1.25543</v>
       </c>
       <c r="C82" t="n">
-        <v>0.888979</v>
+        <v>0.683105</v>
       </c>
       <c r="D82" t="n">
-        <v>1.2214</v>
+        <v>1.23143</v>
       </c>
     </row>
     <row r="83">
@@ -8814,13 +8814,13 @@
         <v>511485</v>
       </c>
       <c r="B83" t="n">
-        <v>1.30665</v>
+        <v>1.31327</v>
       </c>
       <c r="C83" t="n">
-        <v>0.89995</v>
+        <v>0.695407</v>
       </c>
       <c r="D83" t="n">
-        <v>1.2719</v>
+        <v>1.27802</v>
       </c>
     </row>
     <row r="84">
@@ -8828,13 +8828,13 @@
         <v>537019</v>
       </c>
       <c r="B84" t="n">
-        <v>1.36132</v>
+        <v>1.36577</v>
       </c>
       <c r="C84" t="n">
-        <v>0.915697</v>
+        <v>0.70729</v>
       </c>
       <c r="D84" t="n">
-        <v>1.31711</v>
+        <v>1.32759</v>
       </c>
     </row>
     <row r="85">
@@ -8842,13 +8842,13 @@
         <v>563827</v>
       </c>
       <c r="B85" t="n">
-        <v>1.40491</v>
+        <v>1.41302</v>
       </c>
       <c r="C85" t="n">
-        <v>0.928042</v>
+        <v>0.72006</v>
       </c>
       <c r="D85" t="n">
-        <v>1.36667</v>
+        <v>1.36959</v>
       </c>
     </row>
     <row r="86">
@@ -8856,13 +8856,13 @@
         <v>591977</v>
       </c>
       <c r="B86" t="n">
-        <v>1.46206</v>
+        <v>1.46567</v>
       </c>
       <c r="C86" t="n">
-        <v>0.941431</v>
+        <v>0.735697</v>
       </c>
       <c r="D86" t="n">
-        <v>1.41163</v>
+        <v>1.42922</v>
       </c>
     </row>
     <row r="87">
@@ -8870,13 +8870,13 @@
         <v>621532</v>
       </c>
       <c r="B87" t="n">
-        <v>1.50489</v>
+        <v>1.52262</v>
       </c>
       <c r="C87" t="n">
-        <v>0.953494</v>
+        <v>0.748353</v>
       </c>
       <c r="D87" t="n">
-        <v>1.45488</v>
+        <v>1.47419</v>
       </c>
     </row>
     <row r="88">
@@ -8884,13 +8884,13 @@
         <v>652567</v>
       </c>
       <c r="B88" t="n">
-        <v>1.55266</v>
+        <v>1.57525</v>
       </c>
       <c r="C88" t="n">
-        <v>0.967328</v>
+        <v>0.762513</v>
       </c>
       <c r="D88" t="n">
-        <v>1.50247</v>
+        <v>1.53514</v>
       </c>
     </row>
     <row r="89">
@@ -8898,13 +8898,13 @@
         <v>685151</v>
       </c>
       <c r="B89" t="n">
-        <v>1.60023</v>
+        <v>1.63306</v>
       </c>
       <c r="C89" t="n">
-        <v>0.978779</v>
+        <v>0.77684</v>
       </c>
       <c r="D89" t="n">
-        <v>1.54212</v>
+        <v>1.57991</v>
       </c>
     </row>
     <row r="90">
@@ -8912,13 +8912,13 @@
         <v>719359</v>
       </c>
       <c r="B90" t="n">
-        <v>1.82708</v>
+        <v>1.86561</v>
       </c>
       <c r="C90" t="n">
-        <v>0.993103</v>
+        <v>0.787361</v>
       </c>
       <c r="D90" t="n">
-        <v>1.58417</v>
+        <v>1.75917</v>
       </c>
     </row>
     <row r="91">
@@ -8926,13 +8926,13 @@
         <v>755280</v>
       </c>
       <c r="B91" t="n">
-        <v>1.86237</v>
+        <v>2.09084</v>
       </c>
       <c r="C91" t="n">
-        <v>1.00889</v>
+        <v>0.879669</v>
       </c>
       <c r="D91" t="n">
-        <v>1.62905</v>
+        <v>1.82094</v>
       </c>
     </row>
     <row r="92">
@@ -8940,13 +8940,13 @@
         <v>792997</v>
       </c>
       <c r="B92" t="n">
-        <v>1.89606</v>
+        <v>2.13119</v>
       </c>
       <c r="C92" t="n">
-        <v>1.06709</v>
+        <v>0.886785</v>
       </c>
       <c r="D92" t="n">
-        <v>1.84211</v>
+        <v>2.07492</v>
       </c>
     </row>
     <row r="93">
@@ -8954,13 +8954,13 @@
         <v>832595</v>
       </c>
       <c r="B93" t="n">
-        <v>1.92838</v>
+        <v>2.1612</v>
       </c>
       <c r="C93" t="n">
-        <v>1.07499</v>
+        <v>0.904051</v>
       </c>
       <c r="D93" t="n">
-        <v>1.87468</v>
+        <v>2.10148</v>
       </c>
     </row>
     <row r="94">
@@ -8968,13 +8968,13 @@
         <v>874177</v>
       </c>
       <c r="B94" t="n">
-        <v>1.96312</v>
+        <v>2.19287</v>
       </c>
       <c r="C94" t="n">
-        <v>1.08375</v>
+        <v>0.901078</v>
       </c>
       <c r="D94" t="n">
-        <v>1.90496</v>
+        <v>2.13163</v>
       </c>
     </row>
     <row r="95">
@@ -8982,13 +8982,13 @@
         <v>917832</v>
       </c>
       <c r="B95" t="n">
-        <v>1.99507</v>
+        <v>2.22512</v>
       </c>
       <c r="C95" t="n">
-        <v>1.08575</v>
+        <v>0.909577</v>
       </c>
       <c r="D95" t="n">
-        <v>1.93159</v>
+        <v>2.1642</v>
       </c>
     </row>
     <row r="96">
@@ -8996,13 +8996,13 @@
         <v>963677</v>
       </c>
       <c r="B96" t="n">
-        <v>2.02806</v>
+        <v>2.27505</v>
       </c>
       <c r="C96" t="n">
-        <v>1.09666</v>
+        <v>0.925048</v>
       </c>
       <c r="D96" t="n">
-        <v>1.96798</v>
+        <v>2.21778</v>
       </c>
     </row>
     <row r="97">
@@ -9010,13 +9010,13 @@
         <v>1011813</v>
       </c>
       <c r="B97" t="n">
-        <v>2.0562</v>
+        <v>2.30761</v>
       </c>
       <c r="C97" t="n">
-        <v>1.10375</v>
+        <v>0.934115</v>
       </c>
       <c r="D97" t="n">
-        <v>1.98867</v>
+        <v>2.23893</v>
       </c>
     </row>
     <row r="98">
@@ -9024,13 +9024,13 @@
         <v>1062351</v>
       </c>
       <c r="B98" t="n">
-        <v>2.09046</v>
+        <v>2.34274</v>
       </c>
       <c r="C98" t="n">
-        <v>1.11677</v>
+        <v>0.941618</v>
       </c>
       <c r="D98" t="n">
-        <v>2.01866</v>
+        <v>2.26413</v>
       </c>
     </row>
     <row r="99">
@@ -9038,13 +9038,13 @@
         <v>1115422</v>
       </c>
       <c r="B99" t="n">
-        <v>2.11387</v>
+        <v>2.3696</v>
       </c>
       <c r="C99" t="n">
-        <v>1.11973</v>
+        <v>0.951983</v>
       </c>
       <c r="D99" t="n">
-        <v>2.04255</v>
+        <v>2.30719</v>
       </c>
     </row>
     <row r="100">
@@ -9052,13 +9052,13 @@
         <v>1171143</v>
       </c>
       <c r="B100" t="n">
-        <v>2.15227</v>
+        <v>2.40542</v>
       </c>
       <c r="C100" t="n">
-        <v>1.13345</v>
+        <v>0.9751840000000001</v>
       </c>
       <c r="D100" t="n">
-        <v>2.06624</v>
+        <v>2.32375</v>
       </c>
     </row>
     <row r="101">
@@ -9066,13 +9066,13 @@
         <v>1229634</v>
       </c>
       <c r="B101" t="n">
-        <v>2.175</v>
+        <v>2.45686</v>
       </c>
       <c r="C101" t="n">
-        <v>1.14255</v>
+        <v>0.975402</v>
       </c>
       <c r="D101" t="n">
-        <v>2.08969</v>
+        <v>2.34925</v>
       </c>
     </row>
     <row r="102">
@@ -9080,13 +9080,13 @@
         <v>1291062</v>
       </c>
       <c r="B102" t="n">
-        <v>2.2029</v>
+        <v>2.47166</v>
       </c>
       <c r="C102" t="n">
-        <v>1.14882</v>
+        <v>0.9902300000000001</v>
       </c>
       <c r="D102" t="n">
-        <v>2.11157</v>
+        <v>2.38637</v>
       </c>
     </row>
     <row r="103">
@@ -9094,13 +9094,13 @@
         <v>1355554</v>
       </c>
       <c r="B103" t="n">
-        <v>2.22549</v>
+        <v>2.51622</v>
       </c>
       <c r="C103" t="n">
-        <v>1.16398</v>
+        <v>1.00224</v>
       </c>
       <c r="D103" t="n">
-        <v>2.1343</v>
+        <v>2.41457</v>
       </c>
     </row>
     <row r="104">
@@ -9108,13 +9108,13 @@
         <v>1423274</v>
       </c>
       <c r="B104" t="n">
-        <v>2.25226</v>
+        <v>2.54902</v>
       </c>
       <c r="C104" t="n">
-        <v>1.17316</v>
+        <v>1.01454</v>
       </c>
       <c r="D104" t="n">
-        <v>2.14943</v>
+        <v>2.43785</v>
       </c>
     </row>
     <row r="105">
@@ -9122,13 +9122,13 @@
         <v>1494380</v>
       </c>
       <c r="B105" t="n">
-        <v>2.3392</v>
+        <v>2.65275</v>
       </c>
       <c r="C105" t="n">
-        <v>1.18913</v>
+        <v>1.02098</v>
       </c>
       <c r="D105" t="n">
-        <v>2.17499</v>
+        <v>2.48224</v>
       </c>
     </row>
     <row r="106">
@@ -9136,13 +9136,13 @@
         <v>1569031</v>
       </c>
       <c r="B106" t="n">
-        <v>2.35861</v>
+        <v>2.68802</v>
       </c>
       <c r="C106" t="n">
-        <v>1.20387</v>
+        <v>1.03824</v>
       </c>
       <c r="D106" t="n">
-        <v>2.20184</v>
+        <v>2.48244</v>
       </c>
     </row>
     <row r="107">
@@ -9150,13 +9150,13 @@
         <v>1647417</v>
       </c>
       <c r="B107" t="n">
-        <v>2.38001</v>
+        <v>2.71464</v>
       </c>
       <c r="C107" t="n">
-        <v>1.207</v>
+        <v>0.981677</v>
       </c>
       <c r="D107" t="n">
-        <v>2.29952</v>
+        <v>2.61034</v>
       </c>
     </row>
     <row r="108">
@@ -9164,13 +9164,13 @@
         <v>1729734</v>
       </c>
       <c r="B108" t="n">
-        <v>2.39653</v>
+        <v>2.70248</v>
       </c>
       <c r="C108" t="n">
-        <v>1.21813</v>
+        <v>0.984917</v>
       </c>
       <c r="D108" t="n">
-        <v>2.29941</v>
+        <v>2.61477</v>
       </c>
     </row>
     <row r="109">
@@ -9178,13 +9178,13 @@
         <v>1816153</v>
       </c>
       <c r="B109" t="n">
-        <v>2.42106</v>
+        <v>2.73318</v>
       </c>
       <c r="C109" t="n">
-        <v>1.2223</v>
+        <v>1.00069</v>
       </c>
       <c r="D109" t="n">
-        <v>2.3417</v>
+        <v>2.64648</v>
       </c>
     </row>
     <row r="110">
@@ -9192,13 +9192,13 @@
         <v>1906885</v>
       </c>
       <c r="B110" t="n">
-        <v>2.44357</v>
+        <v>2.7559</v>
       </c>
       <c r="C110" t="n">
-        <v>1.22992</v>
+        <v>1.0031</v>
       </c>
       <c r="D110" t="n">
-        <v>2.3557</v>
+        <v>2.68521</v>
       </c>
     </row>
     <row r="111">
@@ -9206,13 +9206,13 @@
         <v>2002164</v>
       </c>
       <c r="B111" t="n">
-        <v>2.46047</v>
+        <v>2.80029</v>
       </c>
       <c r="C111" t="n">
-        <v>1.23778</v>
+        <v>1.01605</v>
       </c>
       <c r="D111" t="n">
-        <v>2.35945</v>
+        <v>2.6987</v>
       </c>
     </row>
     <row r="112">
@@ -9220,13 +9220,13 @@
         <v>2102198</v>
       </c>
       <c r="B112" t="n">
-        <v>2.47885</v>
+        <v>2.78435</v>
       </c>
       <c r="C112" t="n">
-        <v>1.24441</v>
+        <v>1.02494</v>
       </c>
       <c r="D112" t="n">
-        <v>2.38395</v>
+        <v>2.67554</v>
       </c>
     </row>
     <row r="113">
@@ -9234,13 +9234,13 @@
         <v>2207233</v>
       </c>
       <c r="B113" t="n">
-        <v>2.49827</v>
+        <v>2.78752</v>
       </c>
       <c r="C113" t="n">
-        <v>1.25301</v>
+        <v>1.01407</v>
       </c>
       <c r="D113" t="n">
-        <v>2.38584</v>
+        <v>2.68114</v>
       </c>
     </row>
     <row r="114">
@@ -9248,13 +9248,13 @@
         <v>2317508</v>
       </c>
       <c r="B114" t="n">
-        <v>2.51414</v>
+        <v>2.80927</v>
       </c>
       <c r="C114" t="n">
-        <v>1.26096</v>
+        <v>1.03156</v>
       </c>
       <c r="D114" t="n">
-        <v>2.40037</v>
+        <v>2.68701</v>
       </c>
     </row>
     <row r="115">
@@ -9262,13 +9262,13 @@
         <v>2433290</v>
       </c>
       <c r="B115" t="n">
-        <v>2.53669</v>
+        <v>2.82972</v>
       </c>
       <c r="C115" t="n">
-        <v>1.26887</v>
+        <v>1.04165</v>
       </c>
       <c r="D115" t="n">
-        <v>2.42188</v>
+        <v>2.70228</v>
       </c>
     </row>
     <row r="116">
@@ -9276,13 +9276,13 @@
         <v>2554854</v>
       </c>
       <c r="B116" t="n">
-        <v>2.55087</v>
+        <v>2.85357</v>
       </c>
       <c r="C116" t="n">
-        <v>1.28147</v>
+        <v>1.04722</v>
       </c>
       <c r="D116" t="n">
-        <v>2.43407</v>
+        <v>2.72038</v>
       </c>
     </row>
     <row r="117">
@@ -9290,13 +9290,13 @@
         <v>2682511</v>
       </c>
       <c r="B117" t="n">
-        <v>2.5745</v>
+        <v>2.8832</v>
       </c>
       <c r="C117" t="n">
-        <v>1.29333</v>
+        <v>1.0667</v>
       </c>
       <c r="D117" t="n">
-        <v>2.44667</v>
+        <v>2.73712</v>
       </c>
     </row>
     <row r="118">
@@ -9304,13 +9304,13 @@
         <v>2816546</v>
       </c>
       <c r="B118" t="n">
-        <v>2.58786</v>
+        <v>2.90994</v>
       </c>
       <c r="C118" t="n">
-        <v>1.30081</v>
+        <v>1.07939</v>
       </c>
       <c r="D118" t="n">
-        <v>2.45534</v>
+        <v>2.7769</v>
       </c>
     </row>
     <row r="119">
@@ -9318,13 +9318,13 @@
         <v>2957287</v>
       </c>
       <c r="B119" t="n">
-        <v>2.61308</v>
+        <v>2.96717</v>
       </c>
       <c r="C119" t="n">
-        <v>1.31662</v>
+        <v>1.09897</v>
       </c>
       <c r="D119" t="n">
-        <v>2.46067</v>
+        <v>2.77956</v>
       </c>
     </row>
   </sheetData>
@@ -9372,13 +9372,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.512967</v>
+        <v>0.507731</v>
       </c>
       <c r="C2" t="n">
-        <v>0.453074</v>
+        <v>0.315847</v>
       </c>
       <c r="D2" t="n">
-        <v>0.354642</v>
+        <v>0.344126</v>
       </c>
     </row>
     <row r="3">
@@ -9386,13 +9386,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.519841</v>
+        <v>0.505116</v>
       </c>
       <c r="C3" t="n">
-        <v>0.458805</v>
+        <v>0.319944</v>
       </c>
       <c r="D3" t="n">
-        <v>0.35886</v>
+        <v>0.348281</v>
       </c>
     </row>
     <row r="4">
@@ -9400,13 +9400,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.521962</v>
+        <v>0.508441</v>
       </c>
       <c r="C4" t="n">
-        <v>0.466967</v>
+        <v>0.326383</v>
       </c>
       <c r="D4" t="n">
-        <v>0.359397</v>
+        <v>0.350054</v>
       </c>
     </row>
     <row r="5">
@@ -9414,13 +9414,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.531571</v>
+        <v>0.519528</v>
       </c>
       <c r="C5" t="n">
-        <v>0.469889</v>
+        <v>0.330229</v>
       </c>
       <c r="D5" t="n">
-        <v>0.365605</v>
+        <v>0.357252</v>
       </c>
     </row>
     <row r="6">
@@ -9428,13 +9428,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.543313</v>
+        <v>0.524995</v>
       </c>
       <c r="C6" t="n">
-        <v>0.470783</v>
+        <v>0.332721</v>
       </c>
       <c r="D6" t="n">
-        <v>0.370537</v>
+        <v>0.360184</v>
       </c>
     </row>
     <row r="7">
@@ -9442,13 +9442,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.550289</v>
+        <v>0.535875</v>
       </c>
       <c r="C7" t="n">
-        <v>0.491566</v>
+        <v>0.344795</v>
       </c>
       <c r="D7" t="n">
-        <v>0.381807</v>
+        <v>0.371966</v>
       </c>
     </row>
     <row r="8">
@@ -9456,13 +9456,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.5589190000000001</v>
+        <v>0.547217</v>
       </c>
       <c r="C8" t="n">
-        <v>0.495771</v>
+        <v>0.349571</v>
       </c>
       <c r="D8" t="n">
-        <v>0.382095</v>
+        <v>0.376893</v>
       </c>
     </row>
     <row r="9">
@@ -9470,13 +9470,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.554084</v>
+        <v>0.552427</v>
       </c>
       <c r="C9" t="n">
-        <v>0.503621</v>
+        <v>0.358058</v>
       </c>
       <c r="D9" t="n">
-        <v>0.391356</v>
+        <v>0.383027</v>
       </c>
     </row>
     <row r="10">
@@ -9484,13 +9484,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.5682700000000001</v>
+        <v>0.5657799999999999</v>
       </c>
       <c r="C10" t="n">
-        <v>0.505549</v>
+        <v>0.359747</v>
       </c>
       <c r="D10" t="n">
-        <v>0.392332</v>
+        <v>0.385671</v>
       </c>
     </row>
     <row r="11">
@@ -9498,13 +9498,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.572296</v>
+        <v>0.568392</v>
       </c>
       <c r="C11" t="n">
-        <v>0.5013570000000001</v>
+        <v>0.356812</v>
       </c>
       <c r="D11" t="n">
-        <v>0.395567</v>
+        <v>0.392383</v>
       </c>
     </row>
     <row r="12">
@@ -9512,13 +9512,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.581471</v>
+        <v>0.579827</v>
       </c>
       <c r="C12" t="n">
-        <v>0.507826</v>
+        <v>0.364521</v>
       </c>
       <c r="D12" t="n">
-        <v>0.403242</v>
+        <v>0.394239</v>
       </c>
     </row>
     <row r="13">
@@ -9526,13 +9526,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.5935</v>
+        <v>0.5873429999999999</v>
       </c>
       <c r="C13" t="n">
-        <v>0.511356</v>
+        <v>0.369732</v>
       </c>
       <c r="D13" t="n">
-        <v>0.403287</v>
+        <v>0.404938</v>
       </c>
     </row>
     <row r="14">
@@ -9540,13 +9540,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.594262</v>
+        <v>0.598047</v>
       </c>
       <c r="C14" t="n">
-        <v>0.513652</v>
+        <v>0.370253</v>
       </c>
       <c r="D14" t="n">
-        <v>0.410348</v>
+        <v>0.409262</v>
       </c>
     </row>
     <row r="15">
@@ -9554,13 +9554,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.604824</v>
+        <v>0.6055739999999999</v>
       </c>
       <c r="C15" t="n">
-        <v>0.514495</v>
+        <v>0.37506</v>
       </c>
       <c r="D15" t="n">
-        <v>0.417199</v>
+        <v>0.414125</v>
       </c>
     </row>
     <row r="16">
@@ -9568,13 +9568,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.615783</v>
+        <v>0.61539</v>
       </c>
       <c r="C16" t="n">
-        <v>0.521153</v>
+        <v>0.38122</v>
       </c>
       <c r="D16" t="n">
-        <v>0.419746</v>
+        <v>0.416538</v>
       </c>
     </row>
     <row r="17">
@@ -9582,13 +9582,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.626619</v>
+        <v>0.626493</v>
       </c>
       <c r="C17" t="n">
-        <v>0.527501</v>
+        <v>0.386245</v>
       </c>
       <c r="D17" t="n">
-        <v>0.425522</v>
+        <v>0.422847</v>
       </c>
     </row>
     <row r="18">
@@ -9596,13 +9596,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.643597</v>
+        <v>0.640902</v>
       </c>
       <c r="C18" t="n">
-        <v>0.527739</v>
+        <v>0.387571</v>
       </c>
       <c r="D18" t="n">
-        <v>0.433089</v>
+        <v>0.428123</v>
       </c>
     </row>
     <row r="19">
@@ -9610,13 +9610,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.654447</v>
+        <v>0.651624</v>
       </c>
       <c r="C19" t="n">
-        <v>0.529128</v>
+        <v>0.391547</v>
       </c>
       <c r="D19" t="n">
-        <v>0.436093</v>
+        <v>0.431443</v>
       </c>
     </row>
     <row r="20">
@@ -9624,13 +9624,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.664737</v>
+        <v>0.661888</v>
       </c>
       <c r="C20" t="n">
-        <v>0.54172</v>
+        <v>0.401802</v>
       </c>
       <c r="D20" t="n">
-        <v>0.442509</v>
+        <v>0.439901</v>
       </c>
     </row>
     <row r="21">
@@ -9638,13 +9638,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.675143</v>
+        <v>0.672972</v>
       </c>
       <c r="C21" t="n">
-        <v>0.553607</v>
+        <v>0.40294</v>
       </c>
       <c r="D21" t="n">
-        <v>0.448913</v>
+        <v>0.448243</v>
       </c>
     </row>
     <row r="22">
@@ -9652,13 +9652,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.681844</v>
+        <v>0.6805330000000001</v>
       </c>
       <c r="C22" t="n">
-        <v>0.55947</v>
+        <v>0.408448</v>
       </c>
       <c r="D22" t="n">
-        <v>0.453879</v>
+        <v>0.452216</v>
       </c>
     </row>
     <row r="23">
@@ -9666,13 +9666,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.689053</v>
+        <v>0.688141</v>
       </c>
       <c r="C23" t="n">
-        <v>0.558361</v>
+        <v>0.410068</v>
       </c>
       <c r="D23" t="n">
-        <v>0.459804</v>
+        <v>0.457337</v>
       </c>
     </row>
     <row r="24">
@@ -9680,13 +9680,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.6932970000000001</v>
+        <v>0.691939</v>
       </c>
       <c r="C24" t="n">
-        <v>0.563217</v>
+        <v>0.415289</v>
       </c>
       <c r="D24" t="n">
-        <v>0.465453</v>
+        <v>0.463002</v>
       </c>
     </row>
     <row r="25">
@@ -9694,13 +9694,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.703576</v>
+        <v>0.701495</v>
       </c>
       <c r="C25" t="n">
-        <v>0.572695</v>
+        <v>0.424637</v>
       </c>
       <c r="D25" t="n">
-        <v>0.46929</v>
+        <v>0.466254</v>
       </c>
     </row>
     <row r="26">
@@ -9708,13 +9708,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.7098139999999999</v>
+        <v>0.70629</v>
       </c>
       <c r="C26" t="n">
-        <v>0.566976</v>
+        <v>0.421153</v>
       </c>
       <c r="D26" t="n">
-        <v>0.47286</v>
+        <v>0.470944</v>
       </c>
     </row>
     <row r="27">
@@ -9722,13 +9722,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.720868</v>
+        <v>0.719183</v>
       </c>
       <c r="C27" t="n">
-        <v>0.576639</v>
+        <v>0.427914</v>
       </c>
       <c r="D27" t="n">
-        <v>0.476356</v>
+        <v>0.47514</v>
       </c>
     </row>
     <row r="28">
@@ -9736,13 +9736,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.722615</v>
+        <v>0.7219139999999999</v>
       </c>
       <c r="C28" t="n">
-        <v>0.580995</v>
+        <v>0.434594</v>
       </c>
       <c r="D28" t="n">
-        <v>0.481021</v>
+        <v>0.480395</v>
       </c>
     </row>
     <row r="29">
@@ -9750,13 +9750,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.7367899999999999</v>
+        <v>0.734434</v>
       </c>
       <c r="C29" t="n">
-        <v>0.583747</v>
+        <v>0.439191</v>
       </c>
       <c r="D29" t="n">
-        <v>0.485406</v>
+        <v>0.483438</v>
       </c>
     </row>
     <row r="30">
@@ -9764,13 +9764,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.73866</v>
+        <v>0.736604</v>
       </c>
       <c r="C30" t="n">
-        <v>0.587818</v>
+        <v>0.442704</v>
       </c>
       <c r="D30" t="n">
-        <v>0.489245</v>
+        <v>0.487674</v>
       </c>
     </row>
     <row r="31">
@@ -9778,13 +9778,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.748726</v>
+        <v>0.744113</v>
       </c>
       <c r="C31" t="n">
-        <v>0.587342</v>
+        <v>0.443061</v>
       </c>
       <c r="D31" t="n">
-        <v>0.49424</v>
+        <v>0.492462</v>
       </c>
     </row>
     <row r="32">
@@ -9792,13 +9792,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.741999</v>
+        <v>0.729864</v>
       </c>
       <c r="C32" t="n">
-        <v>0.590925</v>
+        <v>0.445769</v>
       </c>
       <c r="D32" t="n">
-        <v>0.494506</v>
+        <v>0.491359</v>
       </c>
     </row>
     <row r="33">
@@ -9806,13 +9806,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.7466120000000001</v>
+        <v>0.741825</v>
       </c>
       <c r="C33" t="n">
-        <v>0.594737</v>
+        <v>0.450338</v>
       </c>
       <c r="D33" t="n">
-        <v>0.499818</v>
+        <v>0.498653</v>
       </c>
     </row>
     <row r="34">
@@ -9820,13 +9820,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.759013</v>
+        <v>0.753451</v>
       </c>
       <c r="C34" t="n">
-        <v>0.602104</v>
+        <v>0.456703</v>
       </c>
       <c r="D34" t="n">
-        <v>0.501758</v>
+        <v>0.50053</v>
       </c>
     </row>
     <row r="35">
@@ -9834,13 +9834,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.761747</v>
+        <v>0.755508</v>
       </c>
       <c r="C35" t="n">
-        <v>0.593113</v>
+        <v>0.433691</v>
       </c>
       <c r="D35" t="n">
-        <v>0.506125</v>
+        <v>0.501904</v>
       </c>
     </row>
     <row r="36">
@@ -9848,13 +9848,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.770826</v>
+        <v>0.763055</v>
       </c>
       <c r="C36" t="n">
-        <v>0.594774</v>
+        <v>0.438845</v>
       </c>
       <c r="D36" t="n">
-        <v>0.509832</v>
+        <v>0.5062950000000001</v>
       </c>
     </row>
     <row r="37">
@@ -9862,13 +9862,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.774071</v>
+        <v>0.76831</v>
       </c>
       <c r="C37" t="n">
-        <v>0.598974</v>
+        <v>0.443386</v>
       </c>
       <c r="D37" t="n">
-        <v>0.5116849999999999</v>
+        <v>0.506509</v>
       </c>
     </row>
     <row r="38">
@@ -9876,13 +9876,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.777541</v>
+        <v>0.773497</v>
       </c>
       <c r="C38" t="n">
-        <v>0.598947</v>
+        <v>0.441394</v>
       </c>
       <c r="D38" t="n">
-        <v>0.515602</v>
+        <v>0.510066</v>
       </c>
     </row>
     <row r="39">
@@ -9890,13 +9890,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.7820780000000001</v>
+        <v>0.778367</v>
       </c>
       <c r="C39" t="n">
-        <v>0.602116</v>
+        <v>0.446831</v>
       </c>
       <c r="D39" t="n">
-        <v>0.51894</v>
+        <v>0.51447</v>
       </c>
     </row>
     <row r="40">
@@ -9904,13 +9904,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.7878309999999999</v>
+        <v>0.7859699999999999</v>
       </c>
       <c r="C40" t="n">
-        <v>0.604617</v>
+        <v>0.44928</v>
       </c>
       <c r="D40" t="n">
-        <v>0.5200129999999999</v>
+        <v>0.5174569999999999</v>
       </c>
     </row>
     <row r="41">
@@ -9918,13 +9918,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.795351</v>
+        <v>0.7922979999999999</v>
       </c>
       <c r="C41" t="n">
-        <v>0.605293</v>
+        <v>0.453041</v>
       </c>
       <c r="D41" t="n">
-        <v>0.521674</v>
+        <v>0.5182020000000001</v>
       </c>
     </row>
     <row r="42">
@@ -9932,13 +9932,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.799908</v>
+        <v>0.798032</v>
       </c>
       <c r="C42" t="n">
-        <v>0.604275</v>
+        <v>0.452776</v>
       </c>
       <c r="D42" t="n">
-        <v>0.525127</v>
+        <v>0.522587</v>
       </c>
     </row>
     <row r="43">
@@ -9946,13 +9946,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.806364</v>
+        <v>0.802755</v>
       </c>
       <c r="C43" t="n">
-        <v>0.606263</v>
+        <v>0.455744</v>
       </c>
       <c r="D43" t="n">
-        <v>0.528133</v>
+        <v>0.525217</v>
       </c>
     </row>
     <row r="44">
@@ -9960,13 +9960,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.805377</v>
+        <v>0.803222</v>
       </c>
       <c r="C44" t="n">
-        <v>0.608254</v>
+        <v>0.458318</v>
       </c>
       <c r="D44" t="n">
-        <v>0.528357</v>
+        <v>0.5253139999999999</v>
       </c>
     </row>
     <row r="45">
@@ -9974,13 +9974,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.812897</v>
+        <v>0.809777</v>
       </c>
       <c r="C45" t="n">
-        <v>0.60984</v>
+        <v>0.462416</v>
       </c>
       <c r="D45" t="n">
-        <v>0.530548</v>
+        <v>0.527516</v>
       </c>
     </row>
     <row r="46">
@@ -9988,13 +9988,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.815161</v>
+        <v>0.812971</v>
       </c>
       <c r="C46" t="n">
-        <v>0.611567</v>
+        <v>0.463033</v>
       </c>
       <c r="D46" t="n">
-        <v>0.533212</v>
+        <v>0.531411</v>
       </c>
     </row>
     <row r="47">
@@ -10002,13 +10002,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.794387</v>
+        <v>0.790562</v>
       </c>
       <c r="C47" t="n">
-        <v>0.610476</v>
+        <v>0.463567</v>
       </c>
       <c r="D47" t="n">
-        <v>0.5345490000000001</v>
+        <v>0.532923</v>
       </c>
     </row>
     <row r="48">
@@ -10016,13 +10016,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.800022</v>
+        <v>0.797249</v>
       </c>
       <c r="C48" t="n">
-        <v>0.617041</v>
+        <v>0.470017</v>
       </c>
       <c r="D48" t="n">
-        <v>0.5367150000000001</v>
+        <v>0.533883</v>
       </c>
     </row>
     <row r="49">
@@ -10030,13 +10030,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.802836</v>
+        <v>0.799601</v>
       </c>
       <c r="C49" t="n">
-        <v>0.61894</v>
+        <v>0.472349</v>
       </c>
       <c r="D49" t="n">
-        <v>0.538333</v>
+        <v>0.535849</v>
       </c>
     </row>
     <row r="50">
@@ -10044,13 +10044,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.807441</v>
+        <v>0.803814</v>
       </c>
       <c r="C50" t="n">
-        <v>0.616967</v>
+        <v>0.461232</v>
       </c>
       <c r="D50" t="n">
-        <v>0.537527</v>
+        <v>0.535406</v>
       </c>
     </row>
     <row r="51">
@@ -10058,13 +10058,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.80892</v>
+        <v>0.806723</v>
       </c>
       <c r="C51" t="n">
-        <v>0.616768</v>
+        <v>0.461674</v>
       </c>
       <c r="D51" t="n">
-        <v>0.53683</v>
+        <v>0.536759</v>
       </c>
     </row>
     <row r="52">
@@ -10072,13 +10072,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.812011</v>
+        <v>0.807598</v>
       </c>
       <c r="C52" t="n">
-        <v>0.623321</v>
+        <v>0.467646</v>
       </c>
       <c r="D52" t="n">
-        <v>0.5412940000000001</v>
+        <v>0.539777</v>
       </c>
     </row>
     <row r="53">
@@ -10086,13 +10086,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.817014</v>
+        <v>0.813585</v>
       </c>
       <c r="C53" t="n">
-        <v>0.626687</v>
+        <v>0.471505</v>
       </c>
       <c r="D53" t="n">
-        <v>0.544077</v>
+        <v>0.544161</v>
       </c>
     </row>
     <row r="54">
@@ -10100,13 +10100,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.820021</v>
+        <v>0.8167489999999999</v>
       </c>
       <c r="C54" t="n">
-        <v>0.625628</v>
+        <v>0.473371</v>
       </c>
       <c r="D54" t="n">
-        <v>0.545378</v>
+        <v>0.544731</v>
       </c>
     </row>
     <row r="55">
@@ -10114,13 +10114,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.823342</v>
+        <v>0.821642</v>
       </c>
       <c r="C55" t="n">
-        <v>0.627043</v>
+        <v>0.477344</v>
       </c>
       <c r="D55" t="n">
-        <v>0.54573</v>
+        <v>0.545992</v>
       </c>
     </row>
     <row r="56">
@@ -10128,13 +10128,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.827745</v>
+        <v>0.824758</v>
       </c>
       <c r="C56" t="n">
-        <v>0.628003</v>
+        <v>0.479223</v>
       </c>
       <c r="D56" t="n">
-        <v>0.5464909999999999</v>
+        <v>0.546524</v>
       </c>
     </row>
     <row r="57">
@@ -10142,13 +10142,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.833193</v>
+        <v>0.82868</v>
       </c>
       <c r="C57" t="n">
-        <v>0.638392</v>
+        <v>0.484688</v>
       </c>
       <c r="D57" t="n">
-        <v>0.54932</v>
+        <v>0.548341</v>
       </c>
     </row>
     <row r="58">
@@ -10156,13 +10156,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.832989</v>
+        <v>0.8298680000000001</v>
       </c>
       <c r="C58" t="n">
-        <v>0.642134</v>
+        <v>0.48867</v>
       </c>
       <c r="D58" t="n">
-        <v>0.550488</v>
+        <v>0.550002</v>
       </c>
     </row>
     <row r="59">
@@ -10170,13 +10170,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.837731</v>
+        <v>0.83636</v>
       </c>
       <c r="C59" t="n">
-        <v>0.645358</v>
+        <v>0.491743</v>
       </c>
       <c r="D59" t="n">
-        <v>0.5524019999999999</v>
+        <v>0.550396</v>
       </c>
     </row>
     <row r="60">
@@ -10184,13 +10184,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.843868</v>
+        <v>0.839767</v>
       </c>
       <c r="C60" t="n">
-        <v>0.652228</v>
+        <v>0.497648</v>
       </c>
       <c r="D60" t="n">
-        <v>0.554482</v>
+        <v>0.553552</v>
       </c>
     </row>
     <row r="61">
@@ -10198,13 +10198,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.841049</v>
+        <v>0.84026</v>
       </c>
       <c r="C61" t="n">
-        <v>0.6560049999999999</v>
+        <v>0.505157</v>
       </c>
       <c r="D61" t="n">
-        <v>0.5576179999999999</v>
+        <v>0.555442</v>
       </c>
     </row>
     <row r="62">
@@ -10212,13 +10212,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.85188</v>
+        <v>0.848426</v>
       </c>
       <c r="C62" t="n">
-        <v>0.664417</v>
+        <v>0.511729</v>
       </c>
       <c r="D62" t="n">
-        <v>0.558678</v>
+        <v>0.557393</v>
       </c>
     </row>
     <row r="63">
@@ -10226,13 +10226,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.863688</v>
+        <v>0.859708</v>
       </c>
       <c r="C63" t="n">
-        <v>0.673251</v>
+        <v>0.521288</v>
       </c>
       <c r="D63" t="n">
-        <v>0.561094</v>
+        <v>0.560082</v>
       </c>
     </row>
     <row r="64">
@@ -10240,13 +10240,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.8743379999999999</v>
+        <v>0.872685</v>
       </c>
       <c r="C64" t="n">
-        <v>0.742773</v>
+        <v>0.568549</v>
       </c>
       <c r="D64" t="n">
-        <v>0.602104</v>
+        <v>0.595539</v>
       </c>
     </row>
     <row r="65">
@@ -10254,13 +10254,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.893973</v>
+        <v>0.890118</v>
       </c>
       <c r="C65" t="n">
-        <v>0.751171</v>
+        <v>0.580335</v>
       </c>
       <c r="D65" t="n">
-        <v>0.605761</v>
+        <v>0.605019</v>
       </c>
     </row>
     <row r="66">
@@ -10268,13 +10268,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.906166</v>
+        <v>0.907876</v>
       </c>
       <c r="C66" t="n">
-        <v>0.779184</v>
+        <v>0.6059059999999999</v>
       </c>
       <c r="D66" t="n">
-        <v>0.614168</v>
+        <v>0.616669</v>
       </c>
     </row>
     <row r="67">
@@ -10282,13 +10282,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.924817</v>
+        <v>0.930624</v>
       </c>
       <c r="C67" t="n">
-        <v>0.798988</v>
+        <v>0.620938</v>
       </c>
       <c r="D67" t="n">
-        <v>0.624542</v>
+        <v>0.623878</v>
       </c>
     </row>
     <row r="68">
@@ -10296,13 +10296,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.9453819999999999</v>
+        <v>0.947837</v>
       </c>
       <c r="C68" t="n">
-        <v>0.8226869999999999</v>
+        <v>0.64537</v>
       </c>
       <c r="D68" t="n">
-        <v>0.633649</v>
+        <v>0.638001</v>
       </c>
     </row>
     <row r="69">
@@ -10310,13 +10310,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.96543</v>
+        <v>0.97167</v>
       </c>
       <c r="C69" t="n">
-        <v>0.838309</v>
+        <v>0.670695</v>
       </c>
       <c r="D69" t="n">
-        <v>0.643868</v>
+        <v>0.647867</v>
       </c>
     </row>
     <row r="70">
@@ -10324,13 +10324,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.9805739999999999</v>
+        <v>0.982358</v>
       </c>
       <c r="C70" t="n">
-        <v>0.856989</v>
+        <v>0.694264</v>
       </c>
       <c r="D70" t="n">
-        <v>0.666501</v>
+        <v>0.657709</v>
       </c>
     </row>
     <row r="71">
@@ -10338,13 +10338,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>1.01594</v>
+        <v>1.00367</v>
       </c>
       <c r="C71" t="n">
-        <v>0.902014</v>
+        <v>0.726785</v>
       </c>
       <c r="D71" t="n">
-        <v>0.6759579999999999</v>
+        <v>0.680118</v>
       </c>
     </row>
     <row r="72">
@@ -10352,13 +10352,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>1.035</v>
+        <v>1.03485</v>
       </c>
       <c r="C72" t="n">
-        <v>0.946749</v>
+        <v>0.754132</v>
       </c>
       <c r="D72" t="n">
-        <v>0.731077</v>
+        <v>0.708309</v>
       </c>
     </row>
     <row r="73">
@@ -10366,13 +10366,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>1.11516</v>
+        <v>1.08344</v>
       </c>
       <c r="C73" t="n">
-        <v>0.967188</v>
+        <v>0.786999</v>
       </c>
       <c r="D73" t="n">
-        <v>0.721106</v>
+        <v>0.728253</v>
       </c>
     </row>
     <row r="74">
@@ -10380,13 +10380,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>1.10605</v>
+        <v>1.1169</v>
       </c>
       <c r="C74" t="n">
-        <v>1.00774</v>
+        <v>0.820632</v>
       </c>
       <c r="D74" t="n">
-        <v>0.757374</v>
+        <v>0.744846</v>
       </c>
     </row>
     <row r="75">
@@ -10394,13 +10394,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>1.15857</v>
+        <v>1.14729</v>
       </c>
       <c r="C75" t="n">
-        <v>1.03416</v>
+        <v>0.860188</v>
       </c>
       <c r="D75" t="n">
-        <v>0.8339</v>
+        <v>0.783385</v>
       </c>
     </row>
     <row r="76">
@@ -10408,13 +10408,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>1.38092</v>
+        <v>1.32733</v>
       </c>
       <c r="C76" t="n">
-        <v>1.0866</v>
+        <v>0.9030860000000001</v>
       </c>
       <c r="D76" t="n">
-        <v>0.844067</v>
+        <v>0.819638</v>
       </c>
     </row>
     <row r="77">
@@ -10422,13 +10422,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>1.42281</v>
+        <v>1.40857</v>
       </c>
       <c r="C77" t="n">
-        <v>1.12551</v>
+        <v>0.940984</v>
       </c>
       <c r="D77" t="n">
-        <v>0.866847</v>
+        <v>0.859469</v>
       </c>
     </row>
     <row r="78">
@@ -10436,13 +10436,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>1.49269</v>
+        <v>1.47776</v>
       </c>
       <c r="C78" t="n">
-        <v>1.33331</v>
+        <v>1.09614</v>
       </c>
       <c r="D78" t="n">
-        <v>1.01385</v>
+        <v>1.00815</v>
       </c>
     </row>
     <row r="79">
@@ -10450,13 +10450,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>1.55375</v>
+        <v>1.55582</v>
       </c>
       <c r="C79" t="n">
-        <v>1.37122</v>
+        <v>1.13663</v>
       </c>
       <c r="D79" t="n">
-        <v>1.07305</v>
+        <v>1.05117</v>
       </c>
     </row>
     <row r="80">
@@ -10464,13 +10464,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>1.63965</v>
+        <v>1.62433</v>
       </c>
       <c r="C80" t="n">
-        <v>1.40702</v>
+        <v>1.17547</v>
       </c>
       <c r="D80" t="n">
-        <v>1.09992</v>
+        <v>1.10673</v>
       </c>
     </row>
     <row r="81">
@@ -10478,13 +10478,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>1.70454</v>
+        <v>1.72388</v>
       </c>
       <c r="C81" t="n">
-        <v>1.45024</v>
+        <v>1.218</v>
       </c>
       <c r="D81" t="n">
-        <v>1.16382</v>
+        <v>1.16443</v>
       </c>
     </row>
     <row r="82">
@@ -10492,13 +10492,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>1.81902</v>
+        <v>1.8046</v>
       </c>
       <c r="C82" t="n">
-        <v>1.48928</v>
+        <v>1.25964</v>
       </c>
       <c r="D82" t="n">
-        <v>1.22703</v>
+        <v>1.22209</v>
       </c>
     </row>
     <row r="83">
@@ -10506,13 +10506,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>1.8815</v>
+        <v>1.90469</v>
       </c>
       <c r="C83" t="n">
-        <v>1.53727</v>
+        <v>1.30293</v>
       </c>
       <c r="D83" t="n">
-        <v>1.28442</v>
+        <v>1.28306</v>
       </c>
     </row>
     <row r="84">
@@ -10520,13 +10520,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>2.01467</v>
+        <v>2.01281</v>
       </c>
       <c r="C84" t="n">
-        <v>1.57362</v>
+        <v>1.34407</v>
       </c>
       <c r="D84" t="n">
-        <v>1.33205</v>
+        <v>1.33754</v>
       </c>
     </row>
     <row r="85">
@@ -10534,13 +10534,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>2.09306</v>
+        <v>2.09411</v>
       </c>
       <c r="C85" t="n">
-        <v>1.6123</v>
+        <v>1.39365</v>
       </c>
       <c r="D85" t="n">
-        <v>1.39256</v>
+        <v>1.39894</v>
       </c>
     </row>
     <row r="86">
@@ -10548,13 +10548,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>2.20195</v>
+        <v>2.18795</v>
       </c>
       <c r="C86" t="n">
-        <v>1.65805</v>
+        <v>1.42892</v>
       </c>
       <c r="D86" t="n">
-        <v>1.45194</v>
+        <v>1.45531</v>
       </c>
     </row>
     <row r="87">
@@ -10562,13 +10562,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>2.29267</v>
+        <v>2.29087</v>
       </c>
       <c r="C87" t="n">
-        <v>1.70315</v>
+        <v>1.48179</v>
       </c>
       <c r="D87" t="n">
-        <v>1.50814</v>
+        <v>1.51463</v>
       </c>
     </row>
     <row r="88">
@@ -10576,13 +10576,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>2.37307</v>
+        <v>2.38654</v>
       </c>
       <c r="C88" t="n">
-        <v>1.73266</v>
+        <v>1.51106</v>
       </c>
       <c r="D88" t="n">
-        <v>1.56177</v>
+        <v>1.57736</v>
       </c>
     </row>
     <row r="89">
@@ -10590,13 +10590,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>2.47162</v>
+        <v>2.48586</v>
       </c>
       <c r="C89" t="n">
-        <v>1.77418</v>
+        <v>1.55354</v>
       </c>
       <c r="D89" t="n">
-        <v>1.62163</v>
+        <v>1.62206</v>
       </c>
     </row>
     <row r="90">
@@ -10604,13 +10604,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>2.67035</v>
+        <v>2.67619</v>
       </c>
       <c r="C90" t="n">
-        <v>1.81588</v>
+        <v>1.59412</v>
       </c>
       <c r="D90" t="n">
-        <v>1.67715</v>
+        <v>1.69057</v>
       </c>
     </row>
     <row r="91">
@@ -10618,13 +10618,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>2.75012</v>
+        <v>2.76044</v>
       </c>
       <c r="C91" t="n">
-        <v>1.8644</v>
+        <v>1.64516</v>
       </c>
       <c r="D91" t="n">
-        <v>1.73279</v>
+        <v>1.73036</v>
       </c>
     </row>
     <row r="92">
@@ -10632,13 +10632,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>2.83912</v>
+        <v>2.83953</v>
       </c>
       <c r="C92" t="n">
-        <v>2.04475</v>
+        <v>1.72963</v>
       </c>
       <c r="D92" t="n">
-        <v>1.85355</v>
+        <v>1.85615</v>
       </c>
     </row>
     <row r="93">
@@ -10646,13 +10646,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>2.91154</v>
+        <v>2.92352</v>
       </c>
       <c r="C93" t="n">
-        <v>2.05502</v>
+        <v>1.76062</v>
       </c>
       <c r="D93" t="n">
-        <v>1.89906</v>
+        <v>1.90265</v>
       </c>
     </row>
     <row r="94">
@@ -10660,13 +10660,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>2.99672</v>
+        <v>3.00477</v>
       </c>
       <c r="C94" t="n">
-        <v>2.0833</v>
+        <v>1.79193</v>
       </c>
       <c r="D94" t="n">
-        <v>1.94778</v>
+        <v>1.95121</v>
       </c>
     </row>
     <row r="95">
@@ -10674,13 +10674,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>3.07813</v>
+        <v>3.08146</v>
       </c>
       <c r="C95" t="n">
-        <v>2.1395</v>
+        <v>1.83201</v>
       </c>
       <c r="D95" t="n">
-        <v>1.99301</v>
+        <v>1.99772</v>
       </c>
     </row>
     <row r="96">
@@ -10688,13 +10688,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>3.15442</v>
+        <v>3.16628</v>
       </c>
       <c r="C96" t="n">
-        <v>2.16105</v>
+        <v>1.86266</v>
       </c>
       <c r="D96" t="n">
-        <v>2.03584</v>
+        <v>2.04748</v>
       </c>
     </row>
     <row r="97">
@@ -10702,13 +10702,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>3.19864</v>
+        <v>3.23817</v>
       </c>
       <c r="C97" t="n">
-        <v>2.18621</v>
+        <v>1.8948</v>
       </c>
       <c r="D97" t="n">
-        <v>2.10092</v>
+        <v>2.09459</v>
       </c>
     </row>
     <row r="98">
@@ -10716,13 +10716,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>3.31047</v>
+        <v>3.31056</v>
       </c>
       <c r="C98" t="n">
-        <v>2.23193</v>
+        <v>1.93247</v>
       </c>
       <c r="D98" t="n">
-        <v>2.14064</v>
+        <v>2.13483</v>
       </c>
     </row>
     <row r="99">
@@ -10730,13 +10730,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>3.3775</v>
+        <v>3.38474</v>
       </c>
       <c r="C99" t="n">
-        <v>2.25567</v>
+        <v>1.96161</v>
       </c>
       <c r="D99" t="n">
-        <v>2.17309</v>
+        <v>2.17582</v>
       </c>
     </row>
     <row r="100">
@@ -10744,13 +10744,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>3.44327</v>
+        <v>3.43694</v>
       </c>
       <c r="C100" t="n">
-        <v>2.29678</v>
+        <v>1.99749</v>
       </c>
       <c r="D100" t="n">
-        <v>2.20626</v>
+        <v>2.2097</v>
       </c>
     </row>
     <row r="101">
@@ -10758,13 +10758,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>3.49518</v>
+        <v>3.50435</v>
       </c>
       <c r="C101" t="n">
-        <v>2.31656</v>
+        <v>2.03067</v>
       </c>
       <c r="D101" t="n">
-        <v>2.24389</v>
+        <v>2.24155</v>
       </c>
     </row>
     <row r="102">
@@ -10772,13 +10772,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>3.56401</v>
+        <v>3.56273</v>
       </c>
       <c r="C102" t="n">
-        <v>2.34091</v>
+        <v>2.06874</v>
       </c>
       <c r="D102" t="n">
-        <v>2.28081</v>
+        <v>2.28776</v>
       </c>
     </row>
     <row r="103">
@@ -10786,13 +10786,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>3.61999</v>
+        <v>3.63863</v>
       </c>
       <c r="C103" t="n">
-        <v>2.37398</v>
+        <v>2.09899</v>
       </c>
       <c r="D103" t="n">
-        <v>2.31715</v>
+        <v>2.31454</v>
       </c>
     </row>
     <row r="104">
@@ -10800,13 +10800,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>3.69434</v>
+        <v>3.68921</v>
       </c>
       <c r="C104" t="n">
-        <v>2.40833</v>
+        <v>2.13027</v>
       </c>
       <c r="D104" t="n">
-        <v>2.3436</v>
+        <v>2.35141</v>
       </c>
     </row>
     <row r="105">
@@ -10814,13 +10814,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>3.71089</v>
+        <v>3.74958</v>
       </c>
       <c r="C105" t="n">
-        <v>2.42603</v>
+        <v>2.15675</v>
       </c>
       <c r="D105" t="n">
-        <v>2.3773</v>
+        <v>2.38635</v>
       </c>
     </row>
     <row r="106">
@@ -10828,13 +10828,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>3.77428</v>
+        <v>3.76531</v>
       </c>
       <c r="C106" t="n">
-        <v>2.46328</v>
+        <v>2.19071</v>
       </c>
       <c r="D106" t="n">
-        <v>2.40856</v>
+        <v>2.41103</v>
       </c>
     </row>
     <row r="107">
@@ -10842,13 +10842,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>3.82135</v>
+        <v>3.81844</v>
       </c>
       <c r="C107" t="n">
-        <v>2.54685</v>
+        <v>2.16194</v>
       </c>
       <c r="D107" t="n">
-        <v>2.48306</v>
+        <v>2.48142</v>
       </c>
     </row>
     <row r="108">
@@ -10856,13 +10856,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>3.86165</v>
+        <v>3.87978</v>
       </c>
       <c r="C108" t="n">
-        <v>2.5382</v>
+        <v>2.1926</v>
       </c>
       <c r="D108" t="n">
-        <v>2.49794</v>
+        <v>2.51214</v>
       </c>
     </row>
     <row r="109">
@@ -10870,13 +10870,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>3.91731</v>
+        <v>3.91687</v>
       </c>
       <c r="C109" t="n">
-        <v>2.59206</v>
+        <v>2.22851</v>
       </c>
       <c r="D109" t="n">
-        <v>2.5436</v>
+        <v>2.54161</v>
       </c>
     </row>
     <row r="110">
@@ -10884,13 +10884,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>3.96855</v>
+        <v>3.97066</v>
       </c>
       <c r="C110" t="n">
-        <v>2.61495</v>
+        <v>2.25094</v>
       </c>
       <c r="D110" t="n">
-        <v>2.56365</v>
+        <v>2.57033</v>
       </c>
     </row>
     <row r="111">
@@ -10898,13 +10898,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>4.00808</v>
+        <v>4.01803</v>
       </c>
       <c r="C111" t="n">
-        <v>2.62871</v>
+        <v>2.26442</v>
       </c>
       <c r="D111" t="n">
-        <v>2.58652</v>
+        <v>2.59803</v>
       </c>
     </row>
     <row r="112">
@@ -10912,13 +10912,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>4.04643</v>
+        <v>4.06612</v>
       </c>
       <c r="C112" t="n">
-        <v>2.66649</v>
+        <v>2.29089</v>
       </c>
       <c r="D112" t="n">
-        <v>2.62478</v>
+        <v>2.62425</v>
       </c>
     </row>
     <row r="113">
@@ -10926,13 +10926,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>4.11093</v>
+        <v>4.10559</v>
       </c>
       <c r="C113" t="n">
-        <v>2.68332</v>
+        <v>2.32829</v>
       </c>
       <c r="D113" t="n">
-        <v>2.65274</v>
+        <v>2.65869</v>
       </c>
     </row>
     <row r="114">
@@ -10940,13 +10940,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>4.16988</v>
+        <v>4.16113</v>
       </c>
       <c r="C114" t="n">
-        <v>2.70642</v>
+        <v>2.34885</v>
       </c>
       <c r="D114" t="n">
-        <v>2.67181</v>
+        <v>2.68013</v>
       </c>
     </row>
     <row r="115">
@@ -10954,13 +10954,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>4.20112</v>
+        <v>4.22327</v>
       </c>
       <c r="C115" t="n">
-        <v>2.72041</v>
+        <v>2.38546</v>
       </c>
       <c r="D115" t="n">
-        <v>2.69649</v>
+        <v>2.70328</v>
       </c>
     </row>
     <row r="116">
@@ -10968,13 +10968,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>4.25204</v>
+        <v>4.25855</v>
       </c>
       <c r="C116" t="n">
-        <v>2.75849</v>
+        <v>2.40016</v>
       </c>
       <c r="D116" t="n">
-        <v>2.71883</v>
+        <v>2.72366</v>
       </c>
     </row>
     <row r="117">
@@ -10982,13 +10982,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>4.30372</v>
+        <v>4.3171</v>
       </c>
       <c r="C117" t="n">
-        <v>2.78479</v>
+        <v>2.42179</v>
       </c>
       <c r="D117" t="n">
-        <v>2.73953</v>
+        <v>2.74906</v>
       </c>
     </row>
     <row r="118">
@@ -10996,13 +10996,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>4.34106</v>
+        <v>4.35947</v>
       </c>
       <c r="C118" t="n">
-        <v>2.80843</v>
+        <v>2.45107</v>
       </c>
       <c r="D118" t="n">
-        <v>2.76352</v>
+        <v>2.76895</v>
       </c>
     </row>
     <row r="119">
@@ -11010,13 +11010,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>4.282</v>
+        <v>4.3083</v>
       </c>
       <c r="C119" t="n">
-        <v>2.82546</v>
+        <v>2.4713</v>
       </c>
       <c r="D119" t="n">
-        <v>2.77604</v>
+        <v>2.78907</v>
       </c>
     </row>
   </sheetData>
@@ -11064,13 +11064,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.537643</v>
+        <v>0.530756</v>
       </c>
       <c r="C2" t="n">
-        <v>0.457595</v>
+        <v>0.330008</v>
       </c>
       <c r="D2" t="n">
-        <v>0.34784</v>
+        <v>0.339969</v>
       </c>
     </row>
     <row r="3">
@@ -11078,13 +11078,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.548478</v>
+        <v>0.542256</v>
       </c>
       <c r="C3" t="n">
-        <v>0.465617</v>
+        <v>0.339796</v>
       </c>
       <c r="D3" t="n">
-        <v>0.35277</v>
+        <v>0.346161</v>
       </c>
     </row>
     <row r="4">
@@ -11092,13 +11092,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.551682</v>
+        <v>0.547392</v>
       </c>
       <c r="C4" t="n">
-        <v>0.47309</v>
+        <v>0.343191</v>
       </c>
       <c r="D4" t="n">
-        <v>0.354574</v>
+        <v>0.348</v>
       </c>
     </row>
     <row r="5">
@@ -11106,13 +11106,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.5617799999999999</v>
+        <v>0.556163</v>
       </c>
       <c r="C5" t="n">
-        <v>0.474875</v>
+        <v>0.350738</v>
       </c>
       <c r="D5" t="n">
-        <v>0.357502</v>
+        <v>0.352687</v>
       </c>
     </row>
     <row r="6">
@@ -11120,13 +11120,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.570563</v>
+        <v>0.565454</v>
       </c>
       <c r="C6" t="n">
-        <v>0.478084</v>
+        <v>0.357401</v>
       </c>
       <c r="D6" t="n">
-        <v>0.360069</v>
+        <v>0.353955</v>
       </c>
     </row>
     <row r="7">
@@ -11134,13 +11134,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.581559</v>
+        <v>0.57315</v>
       </c>
       <c r="C7" t="n">
-        <v>0.490261</v>
+        <v>0.363977</v>
       </c>
       <c r="D7" t="n">
-        <v>0.368348</v>
+        <v>0.359128</v>
       </c>
     </row>
     <row r="8">
@@ -11148,13 +11148,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.590242</v>
+        <v>0.5815940000000001</v>
       </c>
       <c r="C8" t="n">
-        <v>0.492771</v>
+        <v>0.370298</v>
       </c>
       <c r="D8" t="n">
-        <v>0.370385</v>
+        <v>0.362825</v>
       </c>
     </row>
     <row r="9">
@@ -11162,13 +11162,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.59935</v>
+        <v>0.593395</v>
       </c>
       <c r="C9" t="n">
-        <v>0.503342</v>
+        <v>0.377359</v>
       </c>
       <c r="D9" t="n">
-        <v>0.374367</v>
+        <v>0.369038</v>
       </c>
     </row>
     <row r="10">
@@ -11176,13 +11176,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.611553</v>
+        <v>0.605952</v>
       </c>
       <c r="C10" t="n">
-        <v>0.513107</v>
+        <v>0.390029</v>
       </c>
       <c r="D10" t="n">
-        <v>0.377444</v>
+        <v>0.372842</v>
       </c>
     </row>
     <row r="11">
@@ -11190,13 +11190,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.620663</v>
+        <v>0.613972</v>
       </c>
       <c r="C11" t="n">
-        <v>0.505928</v>
+        <v>0.373029</v>
       </c>
       <c r="D11" t="n">
-        <v>0.383407</v>
+        <v>0.37876</v>
       </c>
     </row>
     <row r="12">
@@ -11204,13 +11204,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.601459</v>
+        <v>0.603374</v>
       </c>
       <c r="C12" t="n">
-        <v>0.507997</v>
+        <v>0.376555</v>
       </c>
       <c r="D12" t="n">
-        <v>0.389696</v>
+        <v>0.38503</v>
       </c>
     </row>
     <row r="13">
@@ -11218,13 +11218,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.611495</v>
+        <v>0.614677</v>
       </c>
       <c r="C13" t="n">
-        <v>0.512642</v>
+        <v>0.385014</v>
       </c>
       <c r="D13" t="n">
-        <v>0.391498</v>
+        <v>0.389925</v>
       </c>
     </row>
     <row r="14">
@@ -11232,13 +11232,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.622126</v>
+        <v>0.626592</v>
       </c>
       <c r="C14" t="n">
-        <v>0.522777</v>
+        <v>0.39593</v>
       </c>
       <c r="D14" t="n">
-        <v>0.397216</v>
+        <v>0.396702</v>
       </c>
     </row>
     <row r="15">
@@ -11246,13 +11246,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.635783</v>
+        <v>0.640014</v>
       </c>
       <c r="C15" t="n">
-        <v>0.527774</v>
+        <v>0.404689</v>
       </c>
       <c r="D15" t="n">
-        <v>0.403097</v>
+        <v>0.402568</v>
       </c>
     </row>
     <row r="16">
@@ -11260,13 +11260,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.64706</v>
+        <v>0.651239</v>
       </c>
       <c r="C16" t="n">
-        <v>0.534012</v>
+        <v>0.412344</v>
       </c>
       <c r="D16" t="n">
-        <v>0.408245</v>
+        <v>0.40906</v>
       </c>
     </row>
     <row r="17">
@@ -11274,13 +11274,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.658049</v>
+        <v>0.659737</v>
       </c>
       <c r="C17" t="n">
-        <v>0.542591</v>
+        <v>0.419273</v>
       </c>
       <c r="D17" t="n">
-        <v>0.413676</v>
+        <v>0.412399</v>
       </c>
     </row>
     <row r="18">
@@ -11288,13 +11288,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.673323</v>
+        <v>0.6758110000000001</v>
       </c>
       <c r="C18" t="n">
-        <v>0.543781</v>
+        <v>0.422753</v>
       </c>
       <c r="D18" t="n">
-        <v>0.421094</v>
+        <v>0.42088</v>
       </c>
     </row>
     <row r="19">
@@ -11302,13 +11302,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.687346</v>
+        <v>0.69149</v>
       </c>
       <c r="C19" t="n">
-        <v>0.563237</v>
+        <v>0.438826</v>
       </c>
       <c r="D19" t="n">
-        <v>0.42553</v>
+        <v>0.42465</v>
       </c>
     </row>
     <row r="20">
@@ -11316,13 +11316,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.7007409999999999</v>
+        <v>0.704274</v>
       </c>
       <c r="C20" t="n">
-        <v>0.565728</v>
+        <v>0.446825</v>
       </c>
       <c r="D20" t="n">
-        <v>0.431728</v>
+        <v>0.431827</v>
       </c>
     </row>
     <row r="21">
@@ -11330,13 +11330,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.712979</v>
+        <v>0.713275</v>
       </c>
       <c r="C21" t="n">
-        <v>0.5807909999999999</v>
+        <v>0.458691</v>
       </c>
       <c r="D21" t="n">
-        <v>0.437745</v>
+        <v>0.435542</v>
       </c>
     </row>
     <row r="22">
@@ -11344,13 +11344,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.721591</v>
+        <v>0.727268</v>
       </c>
       <c r="C22" t="n">
-        <v>0.586493</v>
+        <v>0.465177</v>
       </c>
       <c r="D22" t="n">
-        <v>0.442989</v>
+        <v>0.442272</v>
       </c>
     </row>
     <row r="23">
@@ -11358,13 +11358,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.743297</v>
+        <v>0.744272</v>
       </c>
       <c r="C23" t="n">
-        <v>0.5991880000000001</v>
+        <v>0.479633</v>
       </c>
       <c r="D23" t="n">
-        <v>0.447777</v>
+        <v>0.446248</v>
       </c>
     </row>
     <row r="24">
@@ -11372,13 +11372,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.756054</v>
+        <v>0.757339</v>
       </c>
       <c r="C24" t="n">
-        <v>0.603963</v>
+        <v>0.48416</v>
       </c>
       <c r="D24" t="n">
-        <v>0.453331</v>
+        <v>0.450915</v>
       </c>
     </row>
     <row r="25">
@@ -11386,13 +11386,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.775227</v>
+        <v>0.773783</v>
       </c>
       <c r="C25" t="n">
-        <v>0.621868</v>
+        <v>0.501725</v>
       </c>
       <c r="D25" t="n">
-        <v>0.458872</v>
+        <v>0.456929</v>
       </c>
     </row>
     <row r="26">
@@ -11400,13 +11400,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.793015</v>
+        <v>0.791629</v>
       </c>
       <c r="C26" t="n">
-        <v>0.5741540000000001</v>
+        <v>0.448315</v>
       </c>
       <c r="D26" t="n">
-        <v>0.465944</v>
+        <v>0.462958</v>
       </c>
     </row>
     <row r="27">
@@ -11414,13 +11414,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.7490520000000001</v>
+        <v>0.746009</v>
       </c>
       <c r="C27" t="n">
-        <v>0.576037</v>
+        <v>0.45125</v>
       </c>
       <c r="D27" t="n">
-        <v>0.468868</v>
+        <v>0.465753</v>
       </c>
     </row>
     <row r="28">
@@ -11428,13 +11428,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.759334</v>
+        <v>0.7568589999999999</v>
       </c>
       <c r="C28" t="n">
-        <v>0.5838100000000001</v>
+        <v>0.460012</v>
       </c>
       <c r="D28" t="n">
-        <v>0.475625</v>
+        <v>0.472495</v>
       </c>
     </row>
     <row r="29">
@@ -11442,13 +11442,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.768306</v>
+        <v>0.770692</v>
       </c>
       <c r="C29" t="n">
-        <v>0.588332</v>
+        <v>0.462394</v>
       </c>
       <c r="D29" t="n">
-        <v>0.479692</v>
+        <v>0.475901</v>
       </c>
     </row>
     <row r="30">
@@ -11456,13 +11456,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.780378</v>
+        <v>0.7804489999999999</v>
       </c>
       <c r="C30" t="n">
-        <v>0.596044</v>
+        <v>0.470899</v>
       </c>
       <c r="D30" t="n">
-        <v>0.484032</v>
+        <v>0.482456</v>
       </c>
     </row>
     <row r="31">
@@ -11470,13 +11470,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.793262</v>
+        <v>0.791089</v>
       </c>
       <c r="C31" t="n">
-        <v>0.603319</v>
+        <v>0.478457</v>
       </c>
       <c r="D31" t="n">
-        <v>0.487487</v>
+        <v>0.484499</v>
       </c>
     </row>
     <row r="32">
@@ -11484,13 +11484,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.807948</v>
+        <v>0.80477</v>
       </c>
       <c r="C32" t="n">
-        <v>0.609392</v>
+        <v>0.486297</v>
       </c>
       <c r="D32" t="n">
-        <v>0.489324</v>
+        <v>0.48651</v>
       </c>
     </row>
     <row r="33">
@@ -11498,13 +11498,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.819258</v>
+        <v>0.817516</v>
       </c>
       <c r="C33" t="n">
-        <v>0.617583</v>
+        <v>0.492742</v>
       </c>
       <c r="D33" t="n">
-        <v>0.493028</v>
+        <v>0.49078</v>
       </c>
     </row>
     <row r="34">
@@ -11512,13 +11512,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.831247</v>
+        <v>0.828518</v>
       </c>
       <c r="C34" t="n">
-        <v>0.628067</v>
+        <v>0.507385</v>
       </c>
       <c r="D34" t="n">
-        <v>0.49717</v>
+        <v>0.494699</v>
       </c>
     </row>
     <row r="35">
@@ -11526,13 +11526,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.8455589999999999</v>
+        <v>0.839638</v>
       </c>
       <c r="C35" t="n">
-        <v>0.636922</v>
+        <v>0.515837</v>
       </c>
       <c r="D35" t="n">
-        <v>0.501906</v>
+        <v>0.50007</v>
       </c>
     </row>
     <row r="36">
@@ -11540,13 +11540,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.857403</v>
+        <v>0.85463</v>
       </c>
       <c r="C36" t="n">
-        <v>0.646138</v>
+        <v>0.526026</v>
       </c>
       <c r="D36" t="n">
-        <v>0.504466</v>
+        <v>0.502734</v>
       </c>
     </row>
     <row r="37">
@@ -11554,13 +11554,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.864878</v>
+        <v>0.86175</v>
       </c>
       <c r="C37" t="n">
-        <v>0.656351</v>
+        <v>0.53816</v>
       </c>
       <c r="D37" t="n">
-        <v>0.507257</v>
+        <v>0.505337</v>
       </c>
     </row>
     <row r="38">
@@ -11568,13 +11568,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.878519</v>
+        <v>0.875177</v>
       </c>
       <c r="C38" t="n">
-        <v>0.667414</v>
+        <v>0.547452</v>
       </c>
       <c r="D38" t="n">
-        <v>0.511096</v>
+        <v>0.50995</v>
       </c>
     </row>
     <row r="39">
@@ -11582,13 +11582,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.896575</v>
+        <v>0.89442</v>
       </c>
       <c r="C39" t="n">
-        <v>0.67664</v>
+        <v>0.556685</v>
       </c>
       <c r="D39" t="n">
-        <v>0.512666</v>
+        <v>0.511906</v>
       </c>
     </row>
     <row r="40">
@@ -11596,13 +11596,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.902874</v>
+        <v>0.900903</v>
       </c>
       <c r="C40" t="n">
-        <v>0.637145</v>
+        <v>0.508703</v>
       </c>
       <c r="D40" t="n">
-        <v>0.517768</v>
+        <v>0.516144</v>
       </c>
     </row>
     <row r="41">
@@ -11610,13 +11610,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.858336</v>
+        <v>0.852268</v>
       </c>
       <c r="C41" t="n">
-        <v>0.6426230000000001</v>
+        <v>0.513593</v>
       </c>
       <c r="D41" t="n">
-        <v>0.520219</v>
+        <v>0.517971</v>
       </c>
     </row>
     <row r="42">
@@ -11624,13 +11624,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.866166</v>
+        <v>0.862552</v>
       </c>
       <c r="C42" t="n">
-        <v>0.649362</v>
+        <v>0.522782</v>
       </c>
       <c r="D42" t="n">
-        <v>0.523058</v>
+        <v>0.521169</v>
       </c>
     </row>
     <row r="43">
@@ -11638,13 +11638,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.872383</v>
+        <v>0.868794</v>
       </c>
       <c r="C43" t="n">
-        <v>0.653089</v>
+        <v>0.5258350000000001</v>
       </c>
       <c r="D43" t="n">
-        <v>0.52616</v>
+        <v>0.524385</v>
       </c>
     </row>
     <row r="44">
@@ -11652,13 +11652,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.878399</v>
+        <v>0.87631</v>
       </c>
       <c r="C44" t="n">
-        <v>0.66632</v>
+        <v>0.538385</v>
       </c>
       <c r="D44" t="n">
-        <v>0.5282559999999999</v>
+        <v>0.526617</v>
       </c>
     </row>
     <row r="45">
@@ -11666,13 +11666,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.893128</v>
+        <v>0.890035</v>
       </c>
       <c r="C45" t="n">
-        <v>0.668681</v>
+        <v>0.541943</v>
       </c>
       <c r="D45" t="n">
-        <v>0.5293679999999999</v>
+        <v>0.528245</v>
       </c>
     </row>
     <row r="46">
@@ -11680,13 +11680,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.900356</v>
+        <v>0.897185</v>
       </c>
       <c r="C46" t="n">
-        <v>0.678849</v>
+        <v>0.552688</v>
       </c>
       <c r="D46" t="n">
-        <v>0.533573</v>
+        <v>0.531822</v>
       </c>
     </row>
     <row r="47">
@@ -11694,13 +11694,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.9110279999999999</v>
+        <v>0.908349</v>
       </c>
       <c r="C47" t="n">
-        <v>0.686073</v>
+        <v>0.561122</v>
       </c>
       <c r="D47" t="n">
-        <v>0.534894</v>
+        <v>0.533208</v>
       </c>
     </row>
     <row r="48">
@@ -11708,13 +11708,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.9206299999999999</v>
+        <v>0.9183519999999999</v>
       </c>
       <c r="C48" t="n">
-        <v>0.69229</v>
+        <v>0.567154</v>
       </c>
       <c r="D48" t="n">
-        <v>0.536559</v>
+        <v>0.53493</v>
       </c>
     </row>
     <row r="49">
@@ -11722,13 +11722,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.928665</v>
+        <v>0.925787</v>
       </c>
       <c r="C49" t="n">
-        <v>0.701982</v>
+        <v>0.578075</v>
       </c>
       <c r="D49" t="n">
-        <v>0.54036</v>
+        <v>0.539299</v>
       </c>
     </row>
     <row r="50">
@@ -11736,13 +11736,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.942846</v>
+        <v>0.940074</v>
       </c>
       <c r="C50" t="n">
-        <v>0.709081</v>
+        <v>0.584812</v>
       </c>
       <c r="D50" t="n">
-        <v>0.542165</v>
+        <v>0.54089</v>
       </c>
     </row>
     <row r="51">
@@ -11750,13 +11750,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.952126</v>
+        <v>0.948712</v>
       </c>
       <c r="C51" t="n">
-        <v>0.718432</v>
+        <v>0.594835</v>
       </c>
       <c r="D51" t="n">
-        <v>0.543737</v>
+        <v>0.5427110000000001</v>
       </c>
     </row>
     <row r="52">
@@ -11764,13 +11764,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.964548</v>
+        <v>0.9600340000000001</v>
       </c>
       <c r="C52" t="n">
-        <v>0.730338</v>
+        <v>0.606799</v>
       </c>
       <c r="D52" t="n">
-        <v>0.545229</v>
+        <v>0.544405</v>
       </c>
     </row>
     <row r="53">
@@ -11778,13 +11778,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.973647</v>
+        <v>0.9698830000000001</v>
       </c>
       <c r="C53" t="n">
-        <v>0.73882</v>
+        <v>0.618358</v>
       </c>
       <c r="D53" t="n">
-        <v>0.547741</v>
+        <v>0.5465100000000001</v>
       </c>
     </row>
     <row r="54">
@@ -11792,13 +11792,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.985236</v>
+        <v>0.983672</v>
       </c>
       <c r="C54" t="n">
-        <v>0.6789770000000001</v>
+        <v>0.547569</v>
       </c>
       <c r="D54" t="n">
-        <v>0.548266</v>
+        <v>0.546612</v>
       </c>
     </row>
     <row r="55">
@@ -11806,13 +11806,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>1.00065</v>
+        <v>0.9962299999999999</v>
       </c>
       <c r="C55" t="n">
-        <v>0.68679</v>
+        <v>0.552385</v>
       </c>
       <c r="D55" t="n">
-        <v>0.548623</v>
+        <v>0.547231</v>
       </c>
     </row>
     <row r="56">
@@ -11820,13 +11820,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.917357</v>
+        <v>0.913059</v>
       </c>
       <c r="C56" t="n">
-        <v>0.6928339999999999</v>
+        <v>0.5623</v>
       </c>
       <c r="D56" t="n">
-        <v>0.550053</v>
+        <v>0.548905</v>
       </c>
     </row>
     <row r="57">
@@ -11834,13 +11834,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.925637</v>
+        <v>0.920122</v>
       </c>
       <c r="C57" t="n">
-        <v>0.700327</v>
+        <v>0.568549</v>
       </c>
       <c r="D57" t="n">
-        <v>0.5521740000000001</v>
+        <v>0.550639</v>
       </c>
     </row>
     <row r="58">
@@ -11848,13 +11848,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.933983</v>
+        <v>0.930484</v>
       </c>
       <c r="C58" t="n">
-        <v>0.705941</v>
+        <v>0.5765749999999999</v>
       </c>
       <c r="D58" t="n">
-        <v>0.553474</v>
+        <v>0.552503</v>
       </c>
     </row>
     <row r="59">
@@ -11862,13 +11862,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.941536</v>
+        <v>0.937636</v>
       </c>
       <c r="C59" t="n">
-        <v>0.71252</v>
+        <v>0.583109</v>
       </c>
       <c r="D59" t="n">
-        <v>0.5553709999999999</v>
+        <v>0.553337</v>
       </c>
     </row>
     <row r="60">
@@ -11876,13 +11876,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.94775</v>
+        <v>0.942737</v>
       </c>
       <c r="C60" t="n">
-        <v>0.725288</v>
+        <v>0.59467</v>
       </c>
       <c r="D60" t="n">
-        <v>0.556705</v>
+        <v>0.555893</v>
       </c>
     </row>
     <row r="61">
@@ -11890,13 +11890,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.955415</v>
+        <v>0.950879</v>
       </c>
       <c r="C61" t="n">
-        <v>0.732397</v>
+        <v>0.6032960000000001</v>
       </c>
       <c r="D61" t="n">
-        <v>0.560185</v>
+        <v>0.557907</v>
       </c>
     </row>
     <row r="62">
@@ -11904,13 +11904,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.9612270000000001</v>
+        <v>0.95991</v>
       </c>
       <c r="C62" t="n">
-        <v>0.742723</v>
+        <v>0.614023</v>
       </c>
       <c r="D62" t="n">
-        <v>0.559377</v>
+        <v>0.55753</v>
       </c>
     </row>
     <row r="63">
@@ -11918,13 +11918,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.975399</v>
+        <v>0.972263</v>
       </c>
       <c r="C63" t="n">
-        <v>0.754761</v>
+        <v>0.626383</v>
       </c>
       <c r="D63" t="n">
-        <v>0.562601</v>
+        <v>0.562007</v>
       </c>
     </row>
     <row r="64">
@@ -11932,13 +11932,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.98214</v>
+        <v>0.980976</v>
       </c>
       <c r="C64" t="n">
-        <v>0.767588</v>
+        <v>0.639644</v>
       </c>
       <c r="D64" t="n">
-        <v>0.562067</v>
+        <v>0.561926</v>
       </c>
     </row>
     <row r="65">
@@ -11946,13 +11946,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.995093</v>
+        <v>0.995106</v>
       </c>
       <c r="C65" t="n">
-        <v>0.783392</v>
+        <v>0.655046</v>
       </c>
       <c r="D65" t="n">
-        <v>0.565357</v>
+        <v>0.565703</v>
       </c>
     </row>
     <row r="66">
@@ -11960,13 +11960,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>1.0097</v>
+        <v>1.00737</v>
       </c>
       <c r="C66" t="n">
-        <v>0.795445</v>
+        <v>0.669802</v>
       </c>
       <c r="D66" t="n">
-        <v>0.565994</v>
+        <v>0.566896</v>
       </c>
     </row>
     <row r="67">
@@ -11974,13 +11974,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>1.0209</v>
+        <v>1.01923</v>
       </c>
       <c r="C67" t="n">
-        <v>0.815204</v>
+        <v>0.6883629999999999</v>
       </c>
       <c r="D67" t="n">
-        <v>0.569855</v>
+        <v>0.569729</v>
       </c>
     </row>
     <row r="68">
@@ -11988,13 +11988,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>1.03547</v>
+        <v>1.03343</v>
       </c>
       <c r="C68" t="n">
-        <v>0.7585190000000001</v>
+        <v>0.620745</v>
       </c>
       <c r="D68" t="n">
-        <v>0.586661</v>
+        <v>0.58693</v>
       </c>
     </row>
     <row r="69">
@@ -12002,13 +12002,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>1.06867</v>
+        <v>1.06869</v>
       </c>
       <c r="C69" t="n">
-        <v>0.781794</v>
+        <v>0.642298</v>
       </c>
       <c r="D69" t="n">
-        <v>0.596186</v>
+        <v>0.595643</v>
       </c>
     </row>
     <row r="70">
@@ -12016,13 +12016,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>1.01301</v>
+        <v>1.00548</v>
       </c>
       <c r="C70" t="n">
-        <v>0.812708</v>
+        <v>0.6728</v>
       </c>
       <c r="D70" t="n">
-        <v>0.612413</v>
+        <v>0.608359</v>
       </c>
     </row>
     <row r="71">
@@ -12030,13 +12030,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>1.04235</v>
+        <v>1.03249</v>
       </c>
       <c r="C71" t="n">
-        <v>0.84122</v>
+        <v>0.698329</v>
       </c>
       <c r="D71" t="n">
-        <v>0.628953</v>
+        <v>0.622301</v>
       </c>
     </row>
     <row r="72">
@@ -12044,13 +12044,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>1.07366</v>
+        <v>1.06712</v>
       </c>
       <c r="C72" t="n">
-        <v>0.872167</v>
+        <v>0.7323190000000001</v>
       </c>
       <c r="D72" t="n">
-        <v>0.642669</v>
+        <v>0.639014</v>
       </c>
     </row>
     <row r="73">
@@ -12058,13 +12058,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>1.11104</v>
+        <v>1.0997</v>
       </c>
       <c r="C73" t="n">
-        <v>0.91168</v>
+        <v>0.769114</v>
       </c>
       <c r="D73" t="n">
-        <v>0.662942</v>
+        <v>0.654691</v>
       </c>
     </row>
     <row r="74">
@@ -12072,13 +12072,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>1.14642</v>
+        <v>1.13211</v>
       </c>
       <c r="C74" t="n">
-        <v>0.9489649999999999</v>
+        <v>0.802897</v>
       </c>
       <c r="D74" t="n">
-        <v>0.681797</v>
+        <v>0.67345</v>
       </c>
     </row>
     <row r="75">
@@ -12086,13 +12086,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>1.1886</v>
+        <v>1.18101</v>
       </c>
       <c r="C75" t="n">
-        <v>0.993487</v>
+        <v>0.849396</v>
       </c>
       <c r="D75" t="n">
-        <v>0.703308</v>
+        <v>0.699004</v>
       </c>
     </row>
     <row r="76">
@@ -12100,13 +12100,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>1.2343</v>
+        <v>1.22416</v>
       </c>
       <c r="C76" t="n">
-        <v>1.03883</v>
+        <v>0.892271</v>
       </c>
       <c r="D76" t="n">
-        <v>0.727754</v>
+        <v>0.723869</v>
       </c>
     </row>
     <row r="77">
@@ -12114,13 +12114,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>1.28556</v>
+        <v>1.27972</v>
       </c>
       <c r="C77" t="n">
-        <v>1.08452</v>
+        <v>0.942307</v>
       </c>
       <c r="D77" t="n">
-        <v>0.7574650000000001</v>
+        <v>0.75536</v>
       </c>
     </row>
     <row r="78">
@@ -12128,13 +12128,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>1.34673</v>
+        <v>1.33618</v>
       </c>
       <c r="C78" t="n">
-        <v>1.13844</v>
+        <v>0.987082</v>
       </c>
       <c r="D78" t="n">
-        <v>0.792471</v>
+        <v>0.783373</v>
       </c>
     </row>
     <row r="79">
@@ -12142,13 +12142,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>1.41106</v>
+        <v>1.39929</v>
       </c>
       <c r="C79" t="n">
-        <v>1.18853</v>
+        <v>1.03672</v>
       </c>
       <c r="D79" t="n">
-        <v>0.82439</v>
+        <v>0.820277</v>
       </c>
     </row>
     <row r="80">
@@ -12156,13 +12156,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>1.48755</v>
+        <v>1.47261</v>
       </c>
       <c r="C80" t="n">
-        <v>1.24554</v>
+        <v>1.09495</v>
       </c>
       <c r="D80" t="n">
-        <v>0.866178</v>
+        <v>0.858177</v>
       </c>
     </row>
     <row r="81">
@@ -12170,13 +12170,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>1.56904</v>
+        <v>1.55486</v>
       </c>
       <c r="C81" t="n">
-        <v>1.30504</v>
+        <v>1.15539</v>
       </c>
       <c r="D81" t="n">
-        <v>0.906909</v>
+        <v>0.900759</v>
       </c>
     </row>
     <row r="82">
@@ -12184,13 +12184,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>1.64842</v>
+        <v>1.64111</v>
       </c>
       <c r="C82" t="n">
-        <v>1.3639</v>
+        <v>1.21505</v>
       </c>
       <c r="D82" t="n">
-        <v>0.950197</v>
+        <v>0.947196</v>
       </c>
     </row>
     <row r="83">
@@ -12198,13 +12198,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>1.7531</v>
+        <v>1.74093</v>
       </c>
       <c r="C83" t="n">
-        <v>1.35922</v>
+        <v>1.20122</v>
       </c>
       <c r="D83" t="n">
-        <v>1.06527</v>
+        <v>1.06453</v>
       </c>
     </row>
     <row r="84">
@@ -12212,13 +12212,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>1.86506</v>
+        <v>1.85761</v>
       </c>
       <c r="C84" t="n">
-        <v>1.4186</v>
+        <v>1.26756</v>
       </c>
       <c r="D84" t="n">
-        <v>1.12479</v>
+        <v>1.1263</v>
       </c>
     </row>
     <row r="85">
@@ -12226,13 +12226,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>1.90116</v>
+        <v>1.89526</v>
       </c>
       <c r="C85" t="n">
-        <v>1.47415</v>
+        <v>1.32395</v>
       </c>
       <c r="D85" t="n">
-        <v>1.18199</v>
+        <v>1.1905</v>
       </c>
     </row>
     <row r="86">
@@ -12240,13 +12240,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>2.0039</v>
+        <v>2.00145</v>
       </c>
       <c r="C86" t="n">
-        <v>1.54028</v>
+        <v>1.39014</v>
       </c>
       <c r="D86" t="n">
-        <v>1.23893</v>
+        <v>1.24566</v>
       </c>
     </row>
     <row r="87">
@@ -12254,13 +12254,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>2.10879</v>
+        <v>2.1116</v>
       </c>
       <c r="C87" t="n">
-        <v>1.603</v>
+        <v>1.45978</v>
       </c>
       <c r="D87" t="n">
-        <v>1.30036</v>
+        <v>1.30171</v>
       </c>
     </row>
     <row r="88">
@@ -12268,13 +12268,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>2.21848</v>
+        <v>2.2201</v>
       </c>
       <c r="C88" t="n">
-        <v>1.67848</v>
+        <v>1.5341</v>
       </c>
       <c r="D88" t="n">
-        <v>1.35642</v>
+        <v>1.36161</v>
       </c>
     </row>
     <row r="89">
@@ -12282,13 +12282,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>2.34101</v>
+        <v>2.34866</v>
       </c>
       <c r="C89" t="n">
-        <v>1.74905</v>
+        <v>1.61013</v>
       </c>
       <c r="D89" t="n">
-        <v>1.41004</v>
+        <v>1.41557</v>
       </c>
     </row>
     <row r="90">
@@ -12296,13 +12296,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>2.45239</v>
+        <v>2.4598</v>
       </c>
       <c r="C90" t="n">
-        <v>1.8261</v>
+        <v>1.68682</v>
       </c>
       <c r="D90" t="n">
-        <v>1.47403</v>
+        <v>1.47812</v>
       </c>
     </row>
     <row r="91">
@@ -12310,13 +12310,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>2.5765</v>
+        <v>2.59322</v>
       </c>
       <c r="C91" t="n">
-        <v>1.91176</v>
+        <v>1.7787</v>
       </c>
       <c r="D91" t="n">
-        <v>1.53378</v>
+        <v>1.53215</v>
       </c>
     </row>
     <row r="92">
@@ -12324,13 +12324,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>2.72049</v>
+        <v>2.70998</v>
       </c>
       <c r="C92" t="n">
-        <v>1.99177</v>
+        <v>1.85899</v>
       </c>
       <c r="D92" t="n">
-        <v>1.58825</v>
+        <v>1.58779</v>
       </c>
     </row>
     <row r="93">
@@ -12338,13 +12338,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>2.86592</v>
+        <v>2.87183</v>
       </c>
       <c r="C93" t="n">
-        <v>2.08019</v>
+        <v>1.95133</v>
       </c>
       <c r="D93" t="n">
-        <v>1.64495</v>
+        <v>1.64564</v>
       </c>
     </row>
     <row r="94">
@@ -12352,13 +12352,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>2.99343</v>
+        <v>3.00703</v>
       </c>
       <c r="C94" t="n">
-        <v>2.17102</v>
+        <v>2.04055</v>
       </c>
       <c r="D94" t="n">
-        <v>1.69431</v>
+        <v>1.69884</v>
       </c>
     </row>
     <row r="95">
@@ -12366,13 +12366,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>3.09888</v>
+        <v>3.13484</v>
       </c>
       <c r="C95" t="n">
-        <v>2.25376</v>
+        <v>2.13587</v>
       </c>
       <c r="D95" t="n">
-        <v>1.74285</v>
+        <v>1.74139</v>
       </c>
     </row>
     <row r="96">
@@ -12380,13 +12380,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>3.27937</v>
+        <v>3.28608</v>
       </c>
       <c r="C96" t="n">
-        <v>2.3622</v>
+        <v>2.24542</v>
       </c>
       <c r="D96" t="n">
-        <v>1.79216</v>
+        <v>1.79293</v>
       </c>
     </row>
     <row r="97">
@@ -12394,13 +12394,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>3.40584</v>
+        <v>3.39571</v>
       </c>
       <c r="C97" t="n">
-        <v>2.15613</v>
+        <v>1.99699</v>
       </c>
       <c r="D97" t="n">
-        <v>1.934</v>
+        <v>1.93255</v>
       </c>
     </row>
     <row r="98">
@@ -12408,13 +12408,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>3.5399</v>
+        <v>3.5413</v>
       </c>
       <c r="C98" t="n">
-        <v>2.22588</v>
+        <v>2.05071</v>
       </c>
       <c r="D98" t="n">
-        <v>1.99237</v>
+        <v>1.98304</v>
       </c>
     </row>
     <row r="99">
@@ -12422,13 +12422,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>3.40185</v>
+        <v>3.4184</v>
       </c>
       <c r="C99" t="n">
-        <v>2.28092</v>
+        <v>2.11588</v>
       </c>
       <c r="D99" t="n">
-        <v>2.02267</v>
+        <v>2.02923</v>
       </c>
     </row>
     <row r="100">
@@ -12436,13 +12436,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>3.51947</v>
+        <v>3.54569</v>
       </c>
       <c r="C100" t="n">
-        <v>2.34122</v>
+        <v>2.19684</v>
       </c>
       <c r="D100" t="n">
-        <v>2.07487</v>
+        <v>2.07472</v>
       </c>
     </row>
     <row r="101">
@@ -12450,13 +12450,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>3.62156</v>
+        <v>3.63312</v>
       </c>
       <c r="C101" t="n">
-        <v>2.40829</v>
+        <v>2.24972</v>
       </c>
       <c r="D101" t="n">
-        <v>2.10268</v>
+        <v>2.10197</v>
       </c>
     </row>
     <row r="102">
@@ -12464,13 +12464,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>3.73609</v>
+        <v>3.73135</v>
       </c>
       <c r="C102" t="n">
-        <v>2.47916</v>
+        <v>2.31617</v>
       </c>
       <c r="D102" t="n">
-        <v>2.13809</v>
+        <v>2.14822</v>
       </c>
     </row>
     <row r="103">
@@ -12478,13 +12478,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>3.83483</v>
+        <v>3.83324</v>
       </c>
       <c r="C103" t="n">
-        <v>2.55152</v>
+        <v>2.39832</v>
       </c>
       <c r="D103" t="n">
-        <v>2.18874</v>
+        <v>2.18535</v>
       </c>
     </row>
     <row r="104">
@@ -12492,13 +12492,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>3.95085</v>
+        <v>3.94982</v>
       </c>
       <c r="C104" t="n">
-        <v>2.61505</v>
+        <v>2.47032</v>
       </c>
       <c r="D104" t="n">
-        <v>2.20521</v>
+        <v>2.21567</v>
       </c>
     </row>
     <row r="105">
@@ -12506,13 +12506,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>4.02807</v>
+        <v>4.04044</v>
       </c>
       <c r="C105" t="n">
-        <v>2.68262</v>
+        <v>2.53668</v>
       </c>
       <c r="D105" t="n">
-        <v>2.2371</v>
+        <v>2.24159</v>
       </c>
     </row>
     <row r="106">
@@ -12520,13 +12520,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>4.12756</v>
+        <v>4.16134</v>
       </c>
       <c r="C106" t="n">
-        <v>2.76256</v>
+        <v>2.63616</v>
       </c>
       <c r="D106" t="n">
-        <v>2.27421</v>
+        <v>2.27562</v>
       </c>
     </row>
     <row r="107">
@@ -12534,13 +12534,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>4.21475</v>
+        <v>4.23713</v>
       </c>
       <c r="C107" t="n">
-        <v>2.84112</v>
+        <v>2.7047</v>
       </c>
       <c r="D107" t="n">
-        <v>2.30275</v>
+        <v>2.30323</v>
       </c>
     </row>
     <row r="108">
@@ -12548,13 +12548,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>4.36018</v>
+        <v>4.35419</v>
       </c>
       <c r="C108" t="n">
-        <v>2.91056</v>
+        <v>2.78185</v>
       </c>
       <c r="D108" t="n">
-        <v>2.33561</v>
+        <v>2.34852</v>
       </c>
     </row>
     <row r="109">
@@ -12562,13 +12562,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>4.47241</v>
+        <v>4.42774</v>
       </c>
       <c r="C109" t="n">
-        <v>3.00265</v>
+        <v>2.87657</v>
       </c>
       <c r="D109" t="n">
-        <v>2.3636</v>
+        <v>2.36672</v>
       </c>
     </row>
     <row r="110">
@@ -12576,13 +12576,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>4.51213</v>
+        <v>4.55743</v>
       </c>
       <c r="C110" t="n">
-        <v>3.0888</v>
+        <v>2.94601</v>
       </c>
       <c r="D110" t="n">
-        <v>2.39345</v>
+        <v>2.39563</v>
       </c>
     </row>
     <row r="111">
@@ -12590,13 +12590,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>4.68522</v>
+        <v>4.67816</v>
       </c>
       <c r="C111" t="n">
-        <v>2.75735</v>
+        <v>2.56966</v>
       </c>
       <c r="D111" t="n">
-        <v>2.50227</v>
+        <v>2.50401</v>
       </c>
     </row>
     <row r="112">
@@ -12604,13 +12604,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>4.76299</v>
+        <v>4.78188</v>
       </c>
       <c r="C112" t="n">
-        <v>2.82336</v>
+        <v>2.64213</v>
       </c>
       <c r="D112" t="n">
-        <v>2.53759</v>
+        <v>2.54011</v>
       </c>
     </row>
     <row r="113">
@@ -12618,13 +12618,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>4.89314</v>
+        <v>4.91526</v>
       </c>
       <c r="C113" t="n">
-        <v>2.88022</v>
+        <v>2.71585</v>
       </c>
       <c r="D113" t="n">
-        <v>2.57343</v>
+        <v>2.57361</v>
       </c>
     </row>
     <row r="114">
@@ -12632,13 +12632,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>4.50187</v>
+        <v>4.53904</v>
       </c>
       <c r="C114" t="n">
-        <v>2.94227</v>
+        <v>2.76016</v>
       </c>
       <c r="D114" t="n">
-        <v>2.58215</v>
+        <v>2.58798</v>
       </c>
     </row>
     <row r="115">
@@ -12646,13 +12646,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>4.59635</v>
+        <v>4.60639</v>
       </c>
       <c r="C115" t="n">
-        <v>2.99325</v>
+        <v>2.81154</v>
       </c>
       <c r="D115" t="n">
-        <v>2.60434</v>
+        <v>2.60696</v>
       </c>
     </row>
     <row r="116">
@@ -12660,13 +12660,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>4.70699</v>
+        <v>4.71606</v>
       </c>
       <c r="C116" t="n">
-        <v>3.06147</v>
+        <v>2.88328</v>
       </c>
       <c r="D116" t="n">
-        <v>2.63257</v>
+        <v>2.63652</v>
       </c>
     </row>
     <row r="117">
@@ -12674,13 +12674,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>4.73778</v>
+        <v>4.79368</v>
       </c>
       <c r="C117" t="n">
-        <v>3.12682</v>
+        <v>2.94736</v>
       </c>
       <c r="D117" t="n">
-        <v>2.65682</v>
+        <v>2.66381</v>
       </c>
     </row>
     <row r="118">
@@ -12688,13 +12688,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>4.78105</v>
+        <v>4.85222</v>
       </c>
       <c r="C118" t="n">
-        <v>3.1997</v>
+        <v>3.01154</v>
       </c>
       <c r="D118" t="n">
-        <v>2.67062</v>
+        <v>2.68707</v>
       </c>
     </row>
     <row r="119">
@@ -12702,13 +12702,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>4.94194</v>
+        <v>4.96111</v>
       </c>
       <c r="C119" t="n">
-        <v>3.27584</v>
+        <v>3.09459</v>
       </c>
       <c r="D119" t="n">
-        <v>2.70268</v>
+        <v>2.69478</v>
       </c>
     </row>
   </sheetData>

--- a/gcc/scattered erasure.xlsx
+++ b/gcc/scattered erasure.xlsx
@@ -7680,13 +7680,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.300849</v>
+        <v>0.314632</v>
       </c>
       <c r="C2" t="n">
-        <v>0.282819</v>
+        <v>0.285343</v>
       </c>
       <c r="D2" t="n">
-        <v>0.23349</v>
+        <v>0.227179</v>
       </c>
     </row>
     <row r="3">
@@ -7694,13 +7694,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.295294</v>
+        <v>0.293299</v>
       </c>
       <c r="C3" t="n">
-        <v>0.287567</v>
+        <v>0.288548</v>
       </c>
       <c r="D3" t="n">
-        <v>0.232866</v>
+        <v>0.240983</v>
       </c>
     </row>
     <row r="4">
@@ -7708,13 +7708,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.298802</v>
+        <v>0.297878</v>
       </c>
       <c r="C4" t="n">
-        <v>0.290926</v>
+        <v>0.291638</v>
       </c>
       <c r="D4" t="n">
-        <v>0.242676</v>
+        <v>0.24646</v>
       </c>
     </row>
     <row r="5">
@@ -7722,13 +7722,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.304963</v>
+        <v>0.303152</v>
       </c>
       <c r="C5" t="n">
-        <v>0.295049</v>
+        <v>0.295377</v>
       </c>
       <c r="D5" t="n">
-        <v>0.249797</v>
+        <v>0.248375</v>
       </c>
     </row>
     <row r="6">
@@ -7736,13 +7736,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.314829</v>
+        <v>0.309275</v>
       </c>
       <c r="C6" t="n">
-        <v>0.298405</v>
+        <v>0.299305</v>
       </c>
       <c r="D6" t="n">
-        <v>0.259269</v>
+        <v>0.253687</v>
       </c>
     </row>
     <row r="7">
@@ -7750,13 +7750,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.323882</v>
+        <v>0.316545</v>
       </c>
       <c r="C7" t="n">
-        <v>0.284049</v>
+        <v>0.283002</v>
       </c>
       <c r="D7" t="n">
-        <v>0.271453</v>
+        <v>0.26668</v>
       </c>
     </row>
     <row r="8">
@@ -7764,13 +7764,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.327816</v>
+        <v>0.326456</v>
       </c>
       <c r="C8" t="n">
-        <v>0.284996</v>
+        <v>0.285836</v>
       </c>
       <c r="D8" t="n">
-        <v>0.281135</v>
+        <v>0.272894</v>
       </c>
     </row>
     <row r="9">
@@ -7778,13 +7778,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.338324</v>
+        <v>0.333265</v>
       </c>
       <c r="C9" t="n">
-        <v>0.287354</v>
+        <v>0.288515</v>
       </c>
       <c r="D9" t="n">
-        <v>0.283187</v>
+        <v>0.284256</v>
       </c>
     </row>
     <row r="10">
@@ -7792,13 +7792,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.344084</v>
+        <v>0.344016</v>
       </c>
       <c r="C10" t="n">
-        <v>0.289872</v>
+        <v>0.290199</v>
       </c>
       <c r="D10" t="n">
-        <v>0.286217</v>
+        <v>0.28606</v>
       </c>
     </row>
     <row r="11">
@@ -7806,13 +7806,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.351856</v>
+        <v>0.346431</v>
       </c>
       <c r="C11" t="n">
-        <v>0.292199</v>
+        <v>0.29247</v>
       </c>
       <c r="D11" t="n">
-        <v>0.29132</v>
+        <v>0.291298</v>
       </c>
     </row>
     <row r="12">
@@ -7820,13 +7820,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.355744</v>
+        <v>0.353467</v>
       </c>
       <c r="C12" t="n">
-        <v>0.294348</v>
+        <v>0.294778</v>
       </c>
       <c r="D12" t="n">
-        <v>0.297864</v>
+        <v>0.297156</v>
       </c>
     </row>
     <row r="13">
@@ -7834,13 +7834,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.36188</v>
+        <v>0.361304</v>
       </c>
       <c r="C13" t="n">
-        <v>0.296947</v>
+        <v>0.297019</v>
       </c>
       <c r="D13" t="n">
-        <v>0.306406</v>
+        <v>0.303876</v>
       </c>
     </row>
     <row r="14">
@@ -7848,13 +7848,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.373887</v>
+        <v>0.367554</v>
       </c>
       <c r="C14" t="n">
-        <v>0.299893</v>
+        <v>0.30097</v>
       </c>
       <c r="D14" t="n">
-        <v>0.307364</v>
+        <v>0.308329</v>
       </c>
     </row>
     <row r="15">
@@ -7862,13 +7862,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.378608</v>
+        <v>0.377531</v>
       </c>
       <c r="C15" t="n">
-        <v>0.303335</v>
+        <v>0.304482</v>
       </c>
       <c r="D15" t="n">
-        <v>0.314807</v>
+        <v>0.317009</v>
       </c>
     </row>
     <row r="16">
@@ -7876,13 +7876,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.385978</v>
+        <v>0.386008</v>
       </c>
       <c r="C16" t="n">
-        <v>0.306737</v>
+        <v>0.307862</v>
       </c>
       <c r="D16" t="n">
-        <v>0.321333</v>
+        <v>0.323275</v>
       </c>
     </row>
     <row r="17">
@@ -7890,13 +7890,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.39315</v>
+        <v>0.395014</v>
       </c>
       <c r="C17" t="n">
-        <v>0.310923</v>
+        <v>0.312384</v>
       </c>
       <c r="D17" t="n">
-        <v>0.327004</v>
+        <v>0.329672</v>
       </c>
     </row>
     <row r="18">
@@ -7904,13 +7904,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.378464</v>
+        <v>0.379085</v>
       </c>
       <c r="C18" t="n">
-        <v>0.314858</v>
+        <v>0.315436</v>
       </c>
       <c r="D18" t="n">
-        <v>0.332875</v>
+        <v>0.333913</v>
       </c>
     </row>
     <row r="19">
@@ -7918,13 +7918,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.382644</v>
+        <v>0.385428</v>
       </c>
       <c r="C19" t="n">
-        <v>0.318158</v>
+        <v>0.319455</v>
       </c>
       <c r="D19" t="n">
-        <v>0.340594</v>
+        <v>0.341575</v>
       </c>
     </row>
     <row r="20">
@@ -7932,13 +7932,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.389807</v>
+        <v>0.391548</v>
       </c>
       <c r="C20" t="n">
-        <v>0.321785</v>
+        <v>0.32285</v>
       </c>
       <c r="D20" t="n">
-        <v>0.343165</v>
+        <v>0.347172</v>
       </c>
     </row>
     <row r="21">
@@ -7946,13 +7946,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.393739</v>
+        <v>0.396406</v>
       </c>
       <c r="C21" t="n">
-        <v>0.298126</v>
+        <v>0.298281</v>
       </c>
       <c r="D21" t="n">
-        <v>0.353148</v>
+        <v>0.353519</v>
       </c>
     </row>
     <row r="22">
@@ -7960,13 +7960,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.402327</v>
+        <v>0.40203</v>
       </c>
       <c r="C22" t="n">
-        <v>0.301706</v>
+        <v>0.301679</v>
       </c>
       <c r="D22" t="n">
-        <v>0.357841</v>
+        <v>0.358102</v>
       </c>
     </row>
     <row r="23">
@@ -7974,13 +7974,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.407765</v>
+        <v>0.408597</v>
       </c>
       <c r="C23" t="n">
-        <v>0.303069</v>
+        <v>0.30344</v>
       </c>
       <c r="D23" t="n">
-        <v>0.36139</v>
+        <v>0.362062</v>
       </c>
     </row>
     <row r="24">
@@ -7988,13 +7988,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.412704</v>
+        <v>0.41325</v>
       </c>
       <c r="C24" t="n">
-        <v>0.305651</v>
+        <v>0.306385</v>
       </c>
       <c r="D24" t="n">
-        <v>0.365549</v>
+        <v>0.366387</v>
       </c>
     </row>
     <row r="25">
@@ -8002,13 +8002,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.419161</v>
+        <v>0.420292</v>
       </c>
       <c r="C25" t="n">
-        <v>0.307867</v>
+        <v>0.308514</v>
       </c>
       <c r="D25" t="n">
-        <v>0.369276</v>
+        <v>0.37043</v>
       </c>
     </row>
     <row r="26">
@@ -8016,13 +8016,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.423793</v>
+        <v>0.426491</v>
       </c>
       <c r="C26" t="n">
-        <v>0.31103</v>
+        <v>0.31131</v>
       </c>
       <c r="D26" t="n">
-        <v>0.37315</v>
+        <v>0.374319</v>
       </c>
     </row>
     <row r="27">
@@ -8030,13 +8030,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.430792</v>
+        <v>0.431722</v>
       </c>
       <c r="C27" t="n">
-        <v>0.313533</v>
+        <v>0.314383</v>
       </c>
       <c r="D27" t="n">
-        <v>0.377231</v>
+        <v>0.377526</v>
       </c>
     </row>
     <row r="28">
@@ -8044,13 +8044,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.433338</v>
+        <v>0.43675</v>
       </c>
       <c r="C28" t="n">
-        <v>0.316923</v>
+        <v>0.31752</v>
       </c>
       <c r="D28" t="n">
-        <v>0.381574</v>
+        <v>0.380956</v>
       </c>
     </row>
     <row r="29">
@@ -8058,13 +8058,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.442463</v>
+        <v>0.442845</v>
       </c>
       <c r="C29" t="n">
-        <v>0.319325</v>
+        <v>0.31946</v>
       </c>
       <c r="D29" t="n">
-        <v>0.384874</v>
+        <v>0.385146</v>
       </c>
     </row>
     <row r="30">
@@ -8072,13 +8072,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.447833</v>
+        <v>0.448106</v>
       </c>
       <c r="C30" t="n">
-        <v>0.32271</v>
+        <v>0.322749</v>
       </c>
       <c r="D30" t="n">
-        <v>0.3878</v>
+        <v>0.388331</v>
       </c>
     </row>
     <row r="31">
@@ -8086,13 +8086,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.454578</v>
+        <v>0.455425</v>
       </c>
       <c r="C31" t="n">
-        <v>0.326848</v>
+        <v>0.326623</v>
       </c>
       <c r="D31" t="n">
-        <v>0.391812</v>
+        <v>0.391925</v>
       </c>
     </row>
     <row r="32">
@@ -8100,13 +8100,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.425064</v>
+        <v>0.425408</v>
       </c>
       <c r="C32" t="n">
-        <v>0.330537</v>
+        <v>0.330524</v>
       </c>
       <c r="D32" t="n">
-        <v>0.394938</v>
+        <v>0.395553</v>
       </c>
     </row>
     <row r="33">
@@ -8114,13 +8114,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.426669</v>
+        <v>0.430521</v>
       </c>
       <c r="C33" t="n">
-        <v>0.334484</v>
+        <v>0.334343</v>
       </c>
       <c r="D33" t="n">
-        <v>0.399417</v>
+        <v>0.399459</v>
       </c>
     </row>
     <row r="34">
@@ -8128,13 +8128,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.433976</v>
+        <v>0.433713</v>
       </c>
       <c r="C34" t="n">
-        <v>0.338864</v>
+        <v>0.337894</v>
       </c>
       <c r="D34" t="n">
-        <v>0.402865</v>
+        <v>0.402351</v>
       </c>
     </row>
     <row r="35">
@@ -8142,13 +8142,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.43993</v>
+        <v>0.437811</v>
       </c>
       <c r="C35" t="n">
-        <v>0.308812</v>
+        <v>0.309292</v>
       </c>
       <c r="D35" t="n">
-        <v>0.402794</v>
+        <v>0.402329</v>
       </c>
     </row>
     <row r="36">
@@ -8156,13 +8156,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.442206</v>
+        <v>0.44179</v>
       </c>
       <c r="C36" t="n">
-        <v>0.312135</v>
+        <v>0.310893</v>
       </c>
       <c r="D36" t="n">
-        <v>0.40476</v>
+        <v>0.404178</v>
       </c>
     </row>
     <row r="37">
@@ -8170,13 +8170,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.44334</v>
+        <v>0.445009</v>
       </c>
       <c r="C37" t="n">
-        <v>0.314139</v>
+        <v>0.313812</v>
       </c>
       <c r="D37" t="n">
-        <v>0.40624</v>
+        <v>0.406118</v>
       </c>
     </row>
     <row r="38">
@@ -8184,13 +8184,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.449868</v>
+        <v>0.449515</v>
       </c>
       <c r="C38" t="n">
-        <v>0.315497</v>
+        <v>0.316793</v>
       </c>
       <c r="D38" t="n">
-        <v>0.40875</v>
+        <v>0.40825</v>
       </c>
     </row>
     <row r="39">
@@ -8198,13 +8198,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.454727</v>
+        <v>0.454621</v>
       </c>
       <c r="C39" t="n">
-        <v>0.318872</v>
+        <v>0.318706</v>
       </c>
       <c r="D39" t="n">
-        <v>0.410703</v>
+        <v>0.410937</v>
       </c>
     </row>
     <row r="40">
@@ -8212,13 +8212,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.458889</v>
+        <v>0.458671</v>
       </c>
       <c r="C40" t="n">
-        <v>0.32116</v>
+        <v>0.32165</v>
       </c>
       <c r="D40" t="n">
-        <v>0.413212</v>
+        <v>0.412576</v>
       </c>
     </row>
     <row r="41">
@@ -8226,13 +8226,13 @@
         <v>66357</v>
       </c>
       <c r="B41" t="n">
-        <v>0.464153</v>
+        <v>0.463326</v>
       </c>
       <c r="C41" t="n">
-        <v>0.32315</v>
+        <v>0.323705</v>
       </c>
       <c r="D41" t="n">
-        <v>0.414627</v>
+        <v>0.414725</v>
       </c>
     </row>
     <row r="42">
@@ -8240,13 +8240,13 @@
         <v>69656</v>
       </c>
       <c r="B42" t="n">
-        <v>0.468508</v>
+        <v>0.468178</v>
       </c>
       <c r="C42" t="n">
-        <v>0.326696</v>
+        <v>0.327191</v>
       </c>
       <c r="D42" t="n">
-        <v>0.417797</v>
+        <v>0.417314</v>
       </c>
     </row>
     <row r="43">
@@ -8254,13 +8254,13 @@
         <v>73119</v>
       </c>
       <c r="B43" t="n">
-        <v>0.473852</v>
+        <v>0.472348</v>
       </c>
       <c r="C43" t="n">
-        <v>0.329685</v>
+        <v>0.329934</v>
       </c>
       <c r="D43" t="n">
-        <v>0.419851</v>
+        <v>0.41939</v>
       </c>
     </row>
     <row r="44">
@@ -8268,13 +8268,13 @@
         <v>76755</v>
       </c>
       <c r="B44" t="n">
-        <v>0.478222</v>
+        <v>0.477427</v>
       </c>
       <c r="C44" t="n">
-        <v>0.334074</v>
+        <v>0.334138</v>
       </c>
       <c r="D44" t="n">
-        <v>0.422358</v>
+        <v>0.421669</v>
       </c>
     </row>
     <row r="45">
@@ -8282,13 +8282,13 @@
         <v>80572</v>
       </c>
       <c r="B45" t="n">
-        <v>0.483568</v>
+        <v>0.482658</v>
       </c>
       <c r="C45" t="n">
-        <v>0.338328</v>
+        <v>0.338009</v>
       </c>
       <c r="D45" t="n">
-        <v>0.424322</v>
+        <v>0.423887</v>
       </c>
     </row>
     <row r="46">
@@ -8296,13 +8296,13 @@
         <v>84579</v>
       </c>
       <c r="B46" t="n">
-        <v>0.488649</v>
+        <v>0.48771</v>
       </c>
       <c r="C46" t="n">
-        <v>0.340206</v>
+        <v>0.340789</v>
       </c>
       <c r="D46" t="n">
-        <v>0.425672</v>
+        <v>0.425769</v>
       </c>
     </row>
     <row r="47">
@@ -8310,13 +8310,13 @@
         <v>88786</v>
       </c>
       <c r="B47" t="n">
-        <v>0.451692</v>
+        <v>0.449985</v>
       </c>
       <c r="C47" t="n">
-        <v>0.345832</v>
+        <v>0.34608</v>
       </c>
       <c r="D47" t="n">
-        <v>0.429088</v>
+        <v>0.429864</v>
       </c>
     </row>
     <row r="48">
@@ -8324,13 +8324,13 @@
         <v>93203</v>
       </c>
       <c r="B48" t="n">
-        <v>0.455245</v>
+        <v>0.454749</v>
       </c>
       <c r="C48" t="n">
-        <v>0.348235</v>
+        <v>0.35042</v>
       </c>
       <c r="D48" t="n">
-        <v>0.430987</v>
+        <v>0.431794</v>
       </c>
     </row>
     <row r="49">
@@ -8338,13 +8338,13 @@
         <v>97840</v>
       </c>
       <c r="B49" t="n">
-        <v>0.457976</v>
+        <v>0.458141</v>
       </c>
       <c r="C49" t="n">
-        <v>0.352282</v>
+        <v>0.35485</v>
       </c>
       <c r="D49" t="n">
-        <v>0.432984</v>
+        <v>0.433654</v>
       </c>
     </row>
     <row r="50">
@@ -8352,13 +8352,13 @@
         <v>102706</v>
       </c>
       <c r="B50" t="n">
-        <v>0.461393</v>
+        <v>0.460901</v>
       </c>
       <c r="C50" t="n">
-        <v>0.327201</v>
+        <v>0.326001</v>
       </c>
       <c r="D50" t="n">
-        <v>0.428675</v>
+        <v>0.429073</v>
       </c>
     </row>
     <row r="51">
@@ -8366,13 +8366,13 @@
         <v>107816</v>
       </c>
       <c r="B51" t="n">
-        <v>0.465063</v>
+        <v>0.46482</v>
       </c>
       <c r="C51" t="n">
-        <v>0.329675</v>
+        <v>0.328395</v>
       </c>
       <c r="D51" t="n">
-        <v>0.430141</v>
+        <v>0.430377</v>
       </c>
     </row>
     <row r="52">
@@ -8380,13 +8380,13 @@
         <v>113182</v>
       </c>
       <c r="B52" t="n">
-        <v>0.468487</v>
+        <v>0.468702</v>
       </c>
       <c r="C52" t="n">
-        <v>0.33064</v>
+        <v>0.330858</v>
       </c>
       <c r="D52" t="n">
-        <v>0.430424</v>
+        <v>0.431146</v>
       </c>
     </row>
     <row r="53">
@@ -8394,13 +8394,13 @@
         <v>118816</v>
       </c>
       <c r="B53" t="n">
-        <v>0.471325</v>
+        <v>0.471591</v>
       </c>
       <c r="C53" t="n">
-        <v>0.331541</v>
+        <v>0.332629</v>
       </c>
       <c r="D53" t="n">
-        <v>0.431851</v>
+        <v>0.4323</v>
       </c>
     </row>
     <row r="54">
@@ -8408,13 +8408,13 @@
         <v>124731</v>
       </c>
       <c r="B54" t="n">
-        <v>0.47546</v>
+        <v>0.475689</v>
       </c>
       <c r="C54" t="n">
-        <v>0.336063</v>
+        <v>0.339908</v>
       </c>
       <c r="D54" t="n">
-        <v>0.433422</v>
+        <v>0.433995</v>
       </c>
     </row>
     <row r="55">
@@ -8422,13 +8422,13 @@
         <v>130941</v>
       </c>
       <c r="B55" t="n">
-        <v>0.479028</v>
+        <v>0.47934</v>
       </c>
       <c r="C55" t="n">
-        <v>0.340365</v>
+        <v>0.342017</v>
       </c>
       <c r="D55" t="n">
-        <v>0.434854</v>
+        <v>0.43541</v>
       </c>
     </row>
     <row r="56">
@@ -8436,13 +8436,13 @@
         <v>137461</v>
       </c>
       <c r="B56" t="n">
-        <v>0.483721</v>
+        <v>0.483943</v>
       </c>
       <c r="C56" t="n">
-        <v>0.346639</v>
+        <v>0.343847</v>
       </c>
       <c r="D56" t="n">
-        <v>0.436149</v>
+        <v>0.436785</v>
       </c>
     </row>
     <row r="57">
@@ -8450,13 +8450,13 @@
         <v>144307</v>
       </c>
       <c r="B57" t="n">
-        <v>0.487538</v>
+        <v>0.487718</v>
       </c>
       <c r="C57" t="n">
-        <v>0.353142</v>
+        <v>0.347524</v>
       </c>
       <c r="D57" t="n">
-        <v>0.437893</v>
+        <v>0.4381</v>
       </c>
     </row>
     <row r="58">
@@ -8464,13 +8464,13 @@
         <v>151495</v>
       </c>
       <c r="B58" t="n">
-        <v>0.492558</v>
+        <v>0.492119</v>
       </c>
       <c r="C58" t="n">
-        <v>0.356487</v>
+        <v>0.353366</v>
       </c>
       <c r="D58" t="n">
-        <v>0.439913</v>
+        <v>0.440515</v>
       </c>
     </row>
     <row r="59">
@@ -8478,13 +8478,13 @@
         <v>159042</v>
       </c>
       <c r="B59" t="n">
-        <v>0.497034</v>
+        <v>0.49656</v>
       </c>
       <c r="C59" t="n">
-        <v>0.358935</v>
+        <v>0.359133</v>
       </c>
       <c r="D59" t="n">
-        <v>0.441251</v>
+        <v>0.441756</v>
       </c>
     </row>
     <row r="60">
@@ -8492,13 +8492,13 @@
         <v>166965</v>
       </c>
       <c r="B60" t="n">
-        <v>0.502198</v>
+        <v>0.502057</v>
       </c>
       <c r="C60" t="n">
-        <v>0.369569</v>
+        <v>0.364899</v>
       </c>
       <c r="D60" t="n">
-        <v>0.445175</v>
+        <v>0.443543</v>
       </c>
     </row>
     <row r="61">
@@ -8506,13 +8506,13 @@
         <v>175284</v>
       </c>
       <c r="B61" t="n">
-        <v>0.482459</v>
+        <v>0.478414</v>
       </c>
       <c r="C61" t="n">
-        <v>0.378613</v>
+        <v>0.367674</v>
       </c>
       <c r="D61" t="n">
-        <v>0.447446</v>
+        <v>0.445704</v>
       </c>
     </row>
     <row r="62">
@@ -8520,13 +8520,13 @@
         <v>184019</v>
       </c>
       <c r="B62" t="n">
-        <v>0.494332</v>
+        <v>0.486859</v>
       </c>
       <c r="C62" t="n">
-        <v>0.388376</v>
+        <v>0.375321</v>
       </c>
       <c r="D62" t="n">
-        <v>0.450521</v>
+        <v>0.448568</v>
       </c>
     </row>
     <row r="63">
@@ -8534,13 +8534,13 @@
         <v>193190</v>
       </c>
       <c r="B63" t="n">
-        <v>0.501921</v>
+        <v>0.496693</v>
       </c>
       <c r="C63" t="n">
-        <v>0.3927</v>
+        <v>0.38927</v>
       </c>
       <c r="D63" t="n">
-        <v>0.452755</v>
+        <v>0.450667</v>
       </c>
     </row>
     <row r="64">
@@ -8548,13 +8548,13 @@
         <v>202820</v>
       </c>
       <c r="B64" t="n">
-        <v>0.51327</v>
+        <v>0.508345</v>
       </c>
       <c r="C64" t="n">
-        <v>0.432498</v>
+        <v>0.434948</v>
       </c>
       <c r="D64" t="n">
-        <v>0.473385</v>
+        <v>0.485924</v>
       </c>
     </row>
     <row r="65">
@@ -8562,13 +8562,13 @@
         <v>212931</v>
       </c>
       <c r="B65" t="n">
-        <v>0.511139</v>
+        <v>0.526887</v>
       </c>
       <c r="C65" t="n">
-        <v>0.437126</v>
+        <v>0.445145</v>
       </c>
       <c r="D65" t="n">
-        <v>0.485711</v>
+        <v>0.492289</v>
       </c>
     </row>
     <row r="66">
@@ -8576,13 +8576,13 @@
         <v>223547</v>
       </c>
       <c r="B66" t="n">
-        <v>0.522756</v>
+        <v>0.539273</v>
       </c>
       <c r="C66" t="n">
-        <v>0.456376</v>
+        <v>0.462987</v>
       </c>
       <c r="D66" t="n">
-        <v>0.491842</v>
+        <v>0.499732</v>
       </c>
     </row>
     <row r="67">
@@ -8590,13 +8590,13 @@
         <v>234692</v>
       </c>
       <c r="B67" t="n">
-        <v>0.536841</v>
+        <v>0.552088</v>
       </c>
       <c r="C67" t="n">
-        <v>0.479153</v>
+        <v>0.481128</v>
       </c>
       <c r="D67" t="n">
-        <v>0.5047779999999999</v>
+        <v>0.514948</v>
       </c>
     </row>
     <row r="68">
@@ -8604,13 +8604,13 @@
         <v>246395</v>
       </c>
       <c r="B68" t="n">
-        <v>0.559183</v>
+        <v>0.567334</v>
       </c>
       <c r="C68" t="n">
-        <v>0.496002</v>
+        <v>0.501939</v>
       </c>
       <c r="D68" t="n">
-        <v>0.518362</v>
+        <v>0.5316419999999999</v>
       </c>
     </row>
     <row r="69">
@@ -8618,13 +8618,13 @@
         <v>258683</v>
       </c>
       <c r="B69" t="n">
-        <v>0.574245</v>
+        <v>0.588367</v>
       </c>
       <c r="C69" t="n">
-        <v>0.51928</v>
+        <v>0.5246150000000001</v>
       </c>
       <c r="D69" t="n">
-        <v>0.527</v>
+        <v>0.549421</v>
       </c>
     </row>
     <row r="70">
@@ -8632,13 +8632,13 @@
         <v>271585</v>
       </c>
       <c r="B70" t="n">
-        <v>0.587707</v>
+        <v>0.6117320000000001</v>
       </c>
       <c r="C70" t="n">
-        <v>0.544087</v>
+        <v>0.540301</v>
       </c>
       <c r="D70" t="n">
-        <v>0.54745</v>
+        <v>0.569015</v>
       </c>
     </row>
     <row r="71">
@@ -8646,13 +8646,13 @@
         <v>285132</v>
       </c>
       <c r="B71" t="n">
-        <v>0.617528</v>
+        <v>0.629952</v>
       </c>
       <c r="C71" t="n">
-        <v>0.567501</v>
+        <v>0.559362</v>
       </c>
       <c r="D71" t="n">
-        <v>0.550665</v>
+        <v>0.586545</v>
       </c>
     </row>
     <row r="72">
@@ -8660,13 +8660,13 @@
         <v>299354</v>
       </c>
       <c r="B72" t="n">
-        <v>0.615695</v>
+        <v>0.654682</v>
       </c>
       <c r="C72" t="n">
-        <v>0.576236</v>
+        <v>0.584856</v>
       </c>
       <c r="D72" t="n">
-        <v>0.570603</v>
+        <v>0.607252</v>
       </c>
     </row>
     <row r="73">
@@ -8674,13 +8674,13 @@
         <v>314289</v>
       </c>
       <c r="B73" t="n">
-        <v>0.643743</v>
+        <v>0.682111</v>
       </c>
       <c r="C73" t="n">
-        <v>0.6048829999999999</v>
+        <v>0.604606</v>
       </c>
       <c r="D73" t="n">
-        <v>0.611273</v>
+        <v>0.630356</v>
       </c>
     </row>
     <row r="74">
@@ -8688,13 +8688,13 @@
         <v>329969</v>
       </c>
       <c r="B74" t="n">
-        <v>0.692686</v>
+        <v>0.706384</v>
       </c>
       <c r="C74" t="n">
-        <v>0.631982</v>
+        <v>0.634619</v>
       </c>
       <c r="D74" t="n">
-        <v>0.647251</v>
+        <v>0.658102</v>
       </c>
     </row>
     <row r="75">
@@ -8702,13 +8702,13 @@
         <v>346432</v>
       </c>
       <c r="B75" t="n">
-        <v>0.727945</v>
+        <v>0.735862</v>
       </c>
       <c r="C75" t="n">
-        <v>0.663535</v>
+        <v>0.6566689999999999</v>
       </c>
       <c r="D75" t="n">
-        <v>0.696513</v>
+        <v>0.687643</v>
       </c>
     </row>
     <row r="76">
@@ -8716,13 +8716,13 @@
         <v>363719</v>
       </c>
       <c r="B76" t="n">
-        <v>0.965355</v>
+        <v>0.950413</v>
       </c>
       <c r="C76" t="n">
-        <v>0.689275</v>
+        <v>0.681011</v>
       </c>
       <c r="D76" t="n">
-        <v>0.731923</v>
+        <v>0.723614</v>
       </c>
     </row>
     <row r="77">
@@ -8730,13 +8730,13 @@
         <v>381870</v>
       </c>
       <c r="B77" t="n">
-        <v>1.01403</v>
+        <v>0.9957859999999999</v>
       </c>
       <c r="C77" t="n">
-        <v>0.715523</v>
+        <v>0.70927</v>
       </c>
       <c r="D77" t="n">
-        <v>0.771613</v>
+        <v>0.763612</v>
       </c>
     </row>
     <row r="78">
@@ -8744,13 +8744,13 @@
         <v>400928</v>
       </c>
       <c r="B78" t="n">
-        <v>1.06325</v>
+        <v>1.04557</v>
       </c>
       <c r="C78" t="n">
-        <v>0.830797</v>
+        <v>0.824179</v>
       </c>
       <c r="D78" t="n">
-        <v>1.03709</v>
+        <v>1.01753</v>
       </c>
     </row>
     <row r="79">
@@ -8758,13 +8758,13 @@
         <v>420937</v>
       </c>
       <c r="B79" t="n">
-        <v>1.12986</v>
+        <v>1.09361</v>
       </c>
       <c r="C79" t="n">
-        <v>0.858807</v>
+        <v>0.840739</v>
       </c>
       <c r="D79" t="n">
-        <v>1.09695</v>
+        <v>1.06316</v>
       </c>
     </row>
     <row r="80">
@@ -8772,13 +8772,13 @@
         <v>441947</v>
       </c>
       <c r="B80" t="n">
-        <v>1.17247</v>
+        <v>1.15064</v>
       </c>
       <c r="C80" t="n">
-        <v>0.870858</v>
+        <v>0.857745</v>
       </c>
       <c r="D80" t="n">
-        <v>1.13995</v>
+        <v>1.12541</v>
       </c>
     </row>
     <row r="81">
@@ -8786,13 +8786,13 @@
         <v>464005</v>
       </c>
       <c r="B81" t="n">
-        <v>1.22886</v>
+        <v>1.20932</v>
       </c>
       <c r="C81" t="n">
-        <v>0.891665</v>
+        <v>0.874132</v>
       </c>
       <c r="D81" t="n">
-        <v>1.18638</v>
+        <v>1.17644</v>
       </c>
     </row>
     <row r="82">
@@ -8800,13 +8800,13 @@
         <v>487165</v>
       </c>
       <c r="B82" t="n">
-        <v>1.26284</v>
+        <v>1.25849</v>
       </c>
       <c r="C82" t="n">
-        <v>0.901065</v>
+        <v>0.890173</v>
       </c>
       <c r="D82" t="n">
-        <v>1.2223</v>
+        <v>1.22305</v>
       </c>
     </row>
     <row r="83">
@@ -8814,13 +8814,13 @@
         <v>511485</v>
       </c>
       <c r="B83" t="n">
-        <v>1.31939</v>
+        <v>1.30953</v>
       </c>
       <c r="C83" t="n">
-        <v>0.917579</v>
+        <v>0.907656</v>
       </c>
       <c r="D83" t="n">
-        <v>1.28298</v>
+        <v>1.27335</v>
       </c>
     </row>
     <row r="84">
@@ -8828,13 +8828,13 @@
         <v>537019</v>
       </c>
       <c r="B84" t="n">
-        <v>1.38151</v>
+        <v>1.36032</v>
       </c>
       <c r="C84" t="n">
-        <v>0.937645</v>
+        <v>0.922849</v>
       </c>
       <c r="D84" t="n">
-        <v>1.3354</v>
+        <v>1.32532</v>
       </c>
     </row>
     <row r="85">
@@ -8842,13 +8842,13 @@
         <v>563827</v>
       </c>
       <c r="B85" t="n">
-        <v>1.42337</v>
+        <v>1.41311</v>
       </c>
       <c r="C85" t="n">
-        <v>0.948793</v>
+        <v>0.938542</v>
       </c>
       <c r="D85" t="n">
-        <v>1.37863</v>
+        <v>1.37041</v>
       </c>
     </row>
     <row r="86">
@@ -8856,13 +8856,13 @@
         <v>591977</v>
       </c>
       <c r="B86" t="n">
-        <v>1.46769</v>
+        <v>1.46195</v>
       </c>
       <c r="C86" t="n">
-        <v>0.962053</v>
+        <v>0.9540149999999999</v>
       </c>
       <c r="D86" t="n">
-        <v>1.42759</v>
+        <v>1.422</v>
       </c>
     </row>
     <row r="87">
@@ -8870,13 +8870,13 @@
         <v>621532</v>
       </c>
       <c r="B87" t="n">
-        <v>1.52767</v>
+        <v>1.51402</v>
       </c>
       <c r="C87" t="n">
-        <v>0.982444</v>
+        <v>0.969975</v>
       </c>
       <c r="D87" t="n">
-        <v>1.47771</v>
+        <v>1.46701</v>
       </c>
     </row>
     <row r="88">
@@ -8884,13 +8884,13 @@
         <v>652567</v>
       </c>
       <c r="B88" t="n">
-        <v>1.57519</v>
+        <v>1.55884</v>
       </c>
       <c r="C88" t="n">
-        <v>0.999431</v>
+        <v>0.985241</v>
       </c>
       <c r="D88" t="n">
-        <v>1.52564</v>
+        <v>1.51366</v>
       </c>
     </row>
     <row r="89">
@@ -8898,13 +8898,13 @@
         <v>685151</v>
       </c>
       <c r="B89" t="n">
-        <v>1.62289</v>
+        <v>1.61499</v>
       </c>
       <c r="C89" t="n">
-        <v>1.019</v>
+        <v>1.00465</v>
       </c>
       <c r="D89" t="n">
-        <v>1.57589</v>
+        <v>1.55765</v>
       </c>
     </row>
     <row r="90">
@@ -8912,13 +8912,13 @@
         <v>719359</v>
       </c>
       <c r="B90" t="n">
-        <v>1.84155</v>
+        <v>1.83151</v>
       </c>
       <c r="C90" t="n">
-        <v>1.03738</v>
+        <v>1.01844</v>
       </c>
       <c r="D90" t="n">
-        <v>1.61743</v>
+        <v>1.59617</v>
       </c>
     </row>
     <row r="91">
@@ -8926,13 +8926,13 @@
         <v>755280</v>
       </c>
       <c r="B91" t="n">
-        <v>1.88031</v>
+        <v>1.86378</v>
       </c>
       <c r="C91" t="n">
-        <v>1.05082</v>
+        <v>1.03437</v>
       </c>
       <c r="D91" t="n">
-        <v>1.64456</v>
+        <v>1.64718</v>
       </c>
     </row>
     <row r="92">
@@ -8940,13 +8940,13 @@
         <v>792997</v>
       </c>
       <c r="B92" t="n">
-        <v>1.90751</v>
+        <v>1.90682</v>
       </c>
       <c r="C92" t="n">
-        <v>1.06718</v>
+        <v>1.06628</v>
       </c>
       <c r="D92" t="n">
-        <v>1.84992</v>
+        <v>1.85303</v>
       </c>
     </row>
     <row r="93">
@@ -8954,13 +8954,13 @@
         <v>832595</v>
       </c>
       <c r="B93" t="n">
-        <v>1.93837</v>
+        <v>1.93774</v>
       </c>
       <c r="C93" t="n">
-        <v>1.07761</v>
+        <v>1.07642</v>
       </c>
       <c r="D93" t="n">
-        <v>1.88336</v>
+        <v>1.87346</v>
       </c>
     </row>
     <row r="94">
@@ -8968,13 +8968,13 @@
         <v>874177</v>
       </c>
       <c r="B94" t="n">
-        <v>1.96985</v>
+        <v>1.96861</v>
       </c>
       <c r="C94" t="n">
-        <v>1.08434</v>
+        <v>1.08366</v>
       </c>
       <c r="D94" t="n">
-        <v>1.91537</v>
+        <v>1.91284</v>
       </c>
     </row>
     <row r="95">
@@ -8982,13 +8982,13 @@
         <v>917832</v>
       </c>
       <c r="B95" t="n">
-        <v>2.00431</v>
+        <v>1.99936</v>
       </c>
       <c r="C95" t="n">
-        <v>1.09466</v>
+        <v>1.09598</v>
       </c>
       <c r="D95" t="n">
-        <v>1.94311</v>
+        <v>1.94313</v>
       </c>
     </row>
     <row r="96">
@@ -8996,13 +8996,13 @@
         <v>963677</v>
       </c>
       <c r="B96" t="n">
-        <v>2.03178</v>
+        <v>2.03179</v>
       </c>
       <c r="C96" t="n">
-        <v>1.10457</v>
+        <v>1.10357</v>
       </c>
       <c r="D96" t="n">
-        <v>1.97079</v>
+        <v>1.96797</v>
       </c>
     </row>
     <row r="97">
@@ -9010,13 +9010,13 @@
         <v>1011813</v>
       </c>
       <c r="B97" t="n">
-        <v>2.06161</v>
+        <v>2.06255</v>
       </c>
       <c r="C97" t="n">
-        <v>1.11542</v>
+        <v>1.11417</v>
       </c>
       <c r="D97" t="n">
-        <v>1.99952</v>
+        <v>1.99767</v>
       </c>
     </row>
     <row r="98">
@@ -9024,13 +9024,13 @@
         <v>1062351</v>
       </c>
       <c r="B98" t="n">
-        <v>2.09285</v>
+        <v>2.08966</v>
       </c>
       <c r="C98" t="n">
-        <v>1.12645</v>
+        <v>1.12517</v>
       </c>
       <c r="D98" t="n">
-        <v>2.02532</v>
+        <v>2.02602</v>
       </c>
     </row>
     <row r="99">
@@ -9038,13 +9038,13 @@
         <v>1115422</v>
       </c>
       <c r="B99" t="n">
-        <v>2.12204</v>
+        <v>2.12256</v>
       </c>
       <c r="C99" t="n">
-        <v>1.13632</v>
+        <v>1.13751</v>
       </c>
       <c r="D99" t="n">
-        <v>2.05107</v>
+        <v>2.04857</v>
       </c>
     </row>
     <row r="100">
@@ -9052,13 +9052,13 @@
         <v>1171143</v>
       </c>
       <c r="B100" t="n">
-        <v>2.14868</v>
+        <v>2.15233</v>
       </c>
       <c r="C100" t="n">
-        <v>1.14772</v>
+        <v>1.14837</v>
       </c>
       <c r="D100" t="n">
-        <v>2.07535</v>
+        <v>2.06431</v>
       </c>
     </row>
     <row r="101">
@@ -9066,13 +9066,13 @@
         <v>1229634</v>
       </c>
       <c r="B101" t="n">
-        <v>2.17596</v>
+        <v>2.17564</v>
       </c>
       <c r="C101" t="n">
-        <v>1.15951</v>
+        <v>1.15938</v>
       </c>
       <c r="D101" t="n">
-        <v>2.09528</v>
+        <v>2.0947</v>
       </c>
     </row>
     <row r="102">
@@ -9080,13 +9080,13 @@
         <v>1291062</v>
       </c>
       <c r="B102" t="n">
-        <v>2.20289</v>
+        <v>2.20586</v>
       </c>
       <c r="C102" t="n">
-        <v>1.17271</v>
+        <v>1.17321</v>
       </c>
       <c r="D102" t="n">
-        <v>2.1023</v>
+        <v>2.09712</v>
       </c>
     </row>
     <row r="103">
@@ -9094,13 +9094,13 @@
         <v>1355554</v>
       </c>
       <c r="B103" t="n">
-        <v>2.23344</v>
+        <v>2.23295</v>
       </c>
       <c r="C103" t="n">
-        <v>1.18594</v>
+        <v>1.1865</v>
       </c>
       <c r="D103" t="n">
-        <v>2.14427</v>
+        <v>2.14186</v>
       </c>
     </row>
     <row r="104">
@@ -9108,13 +9108,13 @@
         <v>1423274</v>
       </c>
       <c r="B104" t="n">
-        <v>2.2606</v>
+        <v>2.26161</v>
       </c>
       <c r="C104" t="n">
-        <v>1.19642</v>
+        <v>1.19981</v>
       </c>
       <c r="D104" t="n">
-        <v>2.16316</v>
+        <v>2.16637</v>
       </c>
     </row>
     <row r="105">
@@ -9122,13 +9122,13 @@
         <v>1494380</v>
       </c>
       <c r="B105" t="n">
-        <v>2.34488</v>
+        <v>2.34611</v>
       </c>
       <c r="C105" t="n">
-        <v>1.20977</v>
+        <v>1.21229</v>
       </c>
       <c r="D105" t="n">
-        <v>2.18756</v>
+        <v>2.17989</v>
       </c>
     </row>
     <row r="106">
@@ -9136,13 +9136,13 @@
         <v>1569031</v>
       </c>
       <c r="B106" t="n">
-        <v>2.36739</v>
+        <v>2.36682</v>
       </c>
       <c r="C106" t="n">
-        <v>1.22501</v>
+        <v>1.22814</v>
       </c>
       <c r="D106" t="n">
-        <v>2.20955</v>
+        <v>2.20078</v>
       </c>
     </row>
     <row r="107">
@@ -9150,13 +9150,13 @@
         <v>1647417</v>
       </c>
       <c r="B107" t="n">
-        <v>2.38541</v>
+        <v>2.38551</v>
       </c>
       <c r="C107" t="n">
-        <v>1.19268</v>
+        <v>1.19778</v>
       </c>
       <c r="D107" t="n">
-        <v>2.31723</v>
+        <v>2.32078</v>
       </c>
     </row>
     <row r="108">
@@ -9164,13 +9164,13 @@
         <v>1729734</v>
       </c>
       <c r="B108" t="n">
-        <v>2.40789</v>
+        <v>2.40896</v>
       </c>
       <c r="C108" t="n">
-        <v>1.20196</v>
+        <v>1.20554</v>
       </c>
       <c r="D108" t="n">
-        <v>2.32446</v>
+        <v>2.33663</v>
       </c>
     </row>
     <row r="109">
@@ -9178,13 +9178,13 @@
         <v>1816153</v>
       </c>
       <c r="B109" t="n">
-        <v>2.42657</v>
+        <v>2.43036</v>
       </c>
       <c r="C109" t="n">
-        <v>1.20857</v>
+        <v>1.21171</v>
       </c>
       <c r="D109" t="n">
-        <v>2.34479</v>
+        <v>2.35074</v>
       </c>
     </row>
     <row r="110">
@@ -9192,13 +9192,13 @@
         <v>1906885</v>
       </c>
       <c r="B110" t="n">
-        <v>2.44747</v>
+        <v>2.45063</v>
       </c>
       <c r="C110" t="n">
-        <v>1.21986</v>
+        <v>1.22104</v>
       </c>
       <c r="D110" t="n">
-        <v>2.35605</v>
+        <v>2.3591</v>
       </c>
     </row>
     <row r="111">
@@ -9206,13 +9206,13 @@
         <v>2002164</v>
       </c>
       <c r="B111" t="n">
-        <v>2.46484</v>
+        <v>2.47043</v>
       </c>
       <c r="C111" t="n">
-        <v>1.22903</v>
+        <v>1.23157</v>
       </c>
       <c r="D111" t="n">
-        <v>2.36377</v>
+        <v>2.37392</v>
       </c>
     </row>
     <row r="112">
@@ -9220,13 +9220,13 @@
         <v>2102198</v>
       </c>
       <c r="B112" t="n">
-        <v>2.48133</v>
+        <v>2.49162</v>
       </c>
       <c r="C112" t="n">
-        <v>1.2367</v>
+        <v>1.24354</v>
       </c>
       <c r="D112" t="n">
-        <v>2.38858</v>
+        <v>2.39532</v>
       </c>
     </row>
     <row r="113">
@@ -9234,13 +9234,13 @@
         <v>2207233</v>
       </c>
       <c r="B113" t="n">
-        <v>2.50226</v>
+        <v>2.5074</v>
       </c>
       <c r="C113" t="n">
-        <v>1.24741</v>
+        <v>1.24958</v>
       </c>
       <c r="D113" t="n">
-        <v>2.39887</v>
+        <v>2.40929</v>
       </c>
     </row>
     <row r="114">
@@ -9248,13 +9248,13 @@
         <v>2317508</v>
       </c>
       <c r="B114" t="n">
-        <v>2.52193</v>
+        <v>2.52877</v>
       </c>
       <c r="C114" t="n">
-        <v>1.26118</v>
+        <v>1.26088</v>
       </c>
       <c r="D114" t="n">
-        <v>2.41488</v>
+        <v>2.42016</v>
       </c>
     </row>
     <row r="115">
@@ -9262,13 +9262,13 @@
         <v>2433290</v>
       </c>
       <c r="B115" t="n">
-        <v>2.53624</v>
+        <v>2.54862</v>
       </c>
       <c r="C115" t="n">
-        <v>1.26596</v>
+        <v>1.27436</v>
       </c>
       <c r="D115" t="n">
-        <v>2.42803</v>
+        <v>2.42381</v>
       </c>
     </row>
     <row r="116">
@@ -9276,13 +9276,13 @@
         <v>2554854</v>
       </c>
       <c r="B116" t="n">
-        <v>2.56035</v>
+        <v>2.56462</v>
       </c>
       <c r="C116" t="n">
-        <v>1.28162</v>
+        <v>1.28527</v>
       </c>
       <c r="D116" t="n">
-        <v>2.43924</v>
+        <v>2.44624</v>
       </c>
     </row>
     <row r="117">
@@ -9290,13 +9290,13 @@
         <v>2682511</v>
       </c>
       <c r="B117" t="n">
-        <v>2.57996</v>
+        <v>2.58542</v>
       </c>
       <c r="C117" t="n">
-        <v>1.29029</v>
+        <v>1.29627</v>
       </c>
       <c r="D117" t="n">
-        <v>2.44574</v>
+        <v>2.46131</v>
       </c>
     </row>
     <row r="118">
@@ -9304,13 +9304,13 @@
         <v>2816546</v>
       </c>
       <c r="B118" t="n">
-        <v>2.59693</v>
+        <v>2.60289</v>
       </c>
       <c r="C118" t="n">
-        <v>1.30343</v>
+        <v>1.30921</v>
       </c>
       <c r="D118" t="n">
-        <v>2.46285</v>
+        <v>2.46939</v>
       </c>
     </row>
     <row r="119">
@@ -9318,13 +9318,13 @@
         <v>2957287</v>
       </c>
       <c r="B119" t="n">
-        <v>2.61807</v>
+        <v>2.62022</v>
       </c>
       <c r="C119" t="n">
-        <v>1.31889</v>
+        <v>1.32005</v>
       </c>
       <c r="D119" t="n">
-        <v>2.46848</v>
+        <v>2.4682</v>
       </c>
     </row>
   </sheetData>
@@ -9372,13 +9372,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.489815</v>
+        <v>0.477872</v>
       </c>
       <c r="C2" t="n">
-        <v>0.367712</v>
+        <v>0.365543</v>
       </c>
       <c r="D2" t="n">
-        <v>0.338199</v>
+        <v>0.331916</v>
       </c>
     </row>
     <row r="3">
@@ -9386,13 +9386,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.501517</v>
+        <v>0.498775</v>
       </c>
       <c r="C3" t="n">
-        <v>0.378558</v>
+        <v>0.371783</v>
       </c>
       <c r="D3" t="n">
-        <v>0.337508</v>
+        <v>0.336255</v>
       </c>
     </row>
     <row r="4">
@@ -9400,13 +9400,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.504437</v>
+        <v>0.497768</v>
       </c>
       <c r="C4" t="n">
-        <v>0.381578</v>
+        <v>0.377725</v>
       </c>
       <c r="D4" t="n">
-        <v>0.341912</v>
+        <v>0.342632</v>
       </c>
     </row>
     <row r="5">
@@ -9414,13 +9414,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.511876</v>
+        <v>0.502004</v>
       </c>
       <c r="C5" t="n">
-        <v>0.384885</v>
+        <v>0.382258</v>
       </c>
       <c r="D5" t="n">
-        <v>0.351355</v>
+        <v>0.345418</v>
       </c>
     </row>
     <row r="6">
@@ -9428,13 +9428,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.526582</v>
+        <v>0.51017</v>
       </c>
       <c r="C6" t="n">
-        <v>0.391281</v>
+        <v>0.389127</v>
       </c>
       <c r="D6" t="n">
-        <v>0.354917</v>
+        <v>0.355625</v>
       </c>
     </row>
     <row r="7">
@@ -9442,13 +9442,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.531075</v>
+        <v>0.518236</v>
       </c>
       <c r="C7" t="n">
-        <v>0.403636</v>
+        <v>0.403405</v>
       </c>
       <c r="D7" t="n">
-        <v>0.369501</v>
+        <v>0.365147</v>
       </c>
     </row>
     <row r="8">
@@ -9456,13 +9456,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.5397149999999999</v>
+        <v>0.530318</v>
       </c>
       <c r="C8" t="n">
-        <v>0.409731</v>
+        <v>0.409074</v>
       </c>
       <c r="D8" t="n">
-        <v>0.36916</v>
+        <v>0.363059</v>
       </c>
     </row>
     <row r="9">
@@ -9470,13 +9470,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.547829</v>
+        <v>0.540228</v>
       </c>
       <c r="C9" t="n">
-        <v>0.420556</v>
+        <v>0.418528</v>
       </c>
       <c r="D9" t="n">
-        <v>0.374571</v>
+        <v>0.376378</v>
       </c>
     </row>
     <row r="10">
@@ -9484,13 +9484,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.557024</v>
+        <v>0.557912</v>
       </c>
       <c r="C10" t="n">
-        <v>0.418849</v>
+        <v>0.419378</v>
       </c>
       <c r="D10" t="n">
-        <v>0.382232</v>
+        <v>0.379858</v>
       </c>
     </row>
     <row r="11">
@@ -9498,13 +9498,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.563748</v>
+        <v>0.561283</v>
       </c>
       <c r="C11" t="n">
-        <v>0.420477</v>
+        <v>0.41816</v>
       </c>
       <c r="D11" t="n">
-        <v>0.391238</v>
+        <v>0.386425</v>
       </c>
     </row>
     <row r="12">
@@ -9512,13 +9512,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.579564</v>
+        <v>0.573219</v>
       </c>
       <c r="C12" t="n">
-        <v>0.428603</v>
+        <v>0.426127</v>
       </c>
       <c r="D12" t="n">
-        <v>0.396776</v>
+        <v>0.39345</v>
       </c>
     </row>
     <row r="13">
@@ -9526,13 +9526,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.588645</v>
+        <v>0.5874549999999999</v>
       </c>
       <c r="C13" t="n">
-        <v>0.431259</v>
+        <v>0.429411</v>
       </c>
       <c r="D13" t="n">
-        <v>0.398971</v>
+        <v>0.39627</v>
       </c>
     </row>
     <row r="14">
@@ -9540,13 +9540,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.588298</v>
+        <v>0.5867520000000001</v>
       </c>
       <c r="C14" t="n">
-        <v>0.433018</v>
+        <v>0.433083</v>
       </c>
       <c r="D14" t="n">
-        <v>0.406546</v>
+        <v>0.403768</v>
       </c>
     </row>
     <row r="15">
@@ -9554,13 +9554,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.6039369999999999</v>
+        <v>0.601363</v>
       </c>
       <c r="C15" t="n">
-        <v>0.437138</v>
+        <v>0.43637</v>
       </c>
       <c r="D15" t="n">
-        <v>0.411368</v>
+        <v>0.410348</v>
       </c>
     </row>
     <row r="16">
@@ -9568,13 +9568,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.611128</v>
+        <v>0.609077</v>
       </c>
       <c r="C16" t="n">
-        <v>0.442691</v>
+        <v>0.441251</v>
       </c>
       <c r="D16" t="n">
-        <v>0.412636</v>
+        <v>0.415638</v>
       </c>
     </row>
     <row r="17">
@@ -9582,13 +9582,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.624876</v>
+        <v>0.620598</v>
       </c>
       <c r="C17" t="n">
-        <v>0.448174</v>
+        <v>0.447875</v>
       </c>
       <c r="D17" t="n">
-        <v>0.422361</v>
+        <v>0.419979</v>
       </c>
     </row>
     <row r="18">
@@ -9596,13 +9596,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.634383</v>
+        <v>0.635423</v>
       </c>
       <c r="C18" t="n">
-        <v>0.450173</v>
+        <v>0.4491</v>
       </c>
       <c r="D18" t="n">
-        <v>0.429243</v>
+        <v>0.426906</v>
       </c>
     </row>
     <row r="19">
@@ -9610,13 +9610,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.6494259999999999</v>
+        <v>0.649972</v>
       </c>
       <c r="C19" t="n">
-        <v>0.454164</v>
+        <v>0.454216</v>
       </c>
       <c r="D19" t="n">
-        <v>0.43418</v>
+        <v>0.430271</v>
       </c>
     </row>
     <row r="20">
@@ -9624,13 +9624,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.658945</v>
+        <v>0.6587150000000001</v>
       </c>
       <c r="C20" t="n">
-        <v>0.462764</v>
+        <v>0.463012</v>
       </c>
       <c r="D20" t="n">
-        <v>0.44034</v>
+        <v>0.437496</v>
       </c>
     </row>
     <row r="21">
@@ -9638,13 +9638,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.6717030000000001</v>
+        <v>0.670912</v>
       </c>
       <c r="C21" t="n">
-        <v>0.469102</v>
+        <v>0.47062</v>
       </c>
       <c r="D21" t="n">
-        <v>0.446928</v>
+        <v>0.444422</v>
       </c>
     </row>
     <row r="22">
@@ -9652,13 +9652,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.676353</v>
+        <v>0.677824</v>
       </c>
       <c r="C22" t="n">
-        <v>0.475025</v>
+        <v>0.477825</v>
       </c>
       <c r="D22" t="n">
-        <v>0.452415</v>
+        <v>0.450247</v>
       </c>
     </row>
     <row r="23">
@@ -9666,13 +9666,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.684416</v>
+        <v>0.68584</v>
       </c>
       <c r="C23" t="n">
-        <v>0.476578</v>
+        <v>0.477757</v>
       </c>
       <c r="D23" t="n">
-        <v>0.458196</v>
+        <v>0.455866</v>
       </c>
     </row>
     <row r="24">
@@ -9680,13 +9680,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.689044</v>
+        <v>0.691632</v>
       </c>
       <c r="C24" t="n">
-        <v>0.481553</v>
+        <v>0.484281</v>
       </c>
       <c r="D24" t="n">
-        <v>0.464295</v>
+        <v>0.460383</v>
       </c>
     </row>
     <row r="25">
@@ -9694,13 +9694,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.699022</v>
+        <v>0.697915</v>
       </c>
       <c r="C25" t="n">
-        <v>0.491519</v>
+        <v>0.493281</v>
       </c>
       <c r="D25" t="n">
-        <v>0.467042</v>
+        <v>0.464746</v>
       </c>
     </row>
     <row r="26">
@@ -9708,13 +9708,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.704006</v>
+        <v>0.7059029999999999</v>
       </c>
       <c r="C26" t="n">
-        <v>0.487309</v>
+        <v>0.49036</v>
       </c>
       <c r="D26" t="n">
-        <v>0.471551</v>
+        <v>0.469705</v>
       </c>
     </row>
     <row r="27">
@@ -9722,13 +9722,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.715371</v>
+        <v>0.716798</v>
       </c>
       <c r="C27" t="n">
-        <v>0.494666</v>
+        <v>0.497838</v>
       </c>
       <c r="D27" t="n">
-        <v>0.475849</v>
+        <v>0.473187</v>
       </c>
     </row>
     <row r="28">
@@ -9736,13 +9736,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.718756</v>
+        <v>0.719599</v>
       </c>
       <c r="C28" t="n">
-        <v>0.500903</v>
+        <v>0.501414</v>
       </c>
       <c r="D28" t="n">
-        <v>0.479435</v>
+        <v>0.478091</v>
       </c>
     </row>
     <row r="29">
@@ -9750,13 +9750,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.73019</v>
+        <v>0.732288</v>
       </c>
       <c r="C29" t="n">
-        <v>0.505213</v>
+        <v>0.5065229999999999</v>
       </c>
       <c r="D29" t="n">
-        <v>0.485827</v>
+        <v>0.483515</v>
       </c>
     </row>
     <row r="30">
@@ -9764,13 +9764,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.735517</v>
+        <v>0.7372570000000001</v>
       </c>
       <c r="C30" t="n">
-        <v>0.509484</v>
+        <v>0.50928</v>
       </c>
       <c r="D30" t="n">
-        <v>0.488872</v>
+        <v>0.487489</v>
       </c>
     </row>
     <row r="31">
@@ -9778,13 +9778,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.742009</v>
+        <v>0.745072</v>
       </c>
       <c r="C31" t="n">
-        <v>0.511218</v>
+        <v>0.511933</v>
       </c>
       <c r="D31" t="n">
-        <v>0.493848</v>
+        <v>0.491721</v>
       </c>
     </row>
     <row r="32">
@@ -9792,13 +9792,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.736773</v>
+        <v>0.738016</v>
       </c>
       <c r="C32" t="n">
-        <v>0.515722</v>
+        <v>0.517628</v>
       </c>
       <c r="D32" t="n">
-        <v>0.496162</v>
+        <v>0.494168</v>
       </c>
     </row>
     <row r="33">
@@ -9806,13 +9806,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.7429829999999999</v>
+        <v>0.7429519999999999</v>
       </c>
       <c r="C33" t="n">
-        <v>0.5205</v>
+        <v>0.52186</v>
       </c>
       <c r="D33" t="n">
-        <v>0.500898</v>
+        <v>0.49865</v>
       </c>
     </row>
     <row r="34">
@@ -9820,13 +9820,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.753336</v>
+        <v>0.75445</v>
       </c>
       <c r="C34" t="n">
-        <v>0.526512</v>
+        <v>0.527861</v>
       </c>
       <c r="D34" t="n">
-        <v>0.502732</v>
+        <v>0.500664</v>
       </c>
     </row>
     <row r="35">
@@ -9834,13 +9834,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.75476</v>
+        <v>0.756597</v>
       </c>
       <c r="C35" t="n">
-        <v>0.507869</v>
+        <v>0.5092370000000001</v>
       </c>
       <c r="D35" t="n">
-        <v>0.506121</v>
+        <v>0.5016119999999999</v>
       </c>
     </row>
     <row r="36">
@@ -9848,13 +9848,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.761496</v>
+        <v>0.763686</v>
       </c>
       <c r="C36" t="n">
-        <v>0.511315</v>
+        <v>0.513207</v>
       </c>
       <c r="D36" t="n">
-        <v>0.510595</v>
+        <v>0.508127</v>
       </c>
     </row>
     <row r="37">
@@ -9862,13 +9862,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.7695149999999999</v>
+        <v>0.77058</v>
       </c>
       <c r="C37" t="n">
-        <v>0.5156579999999999</v>
+        <v>0.516998</v>
       </c>
       <c r="D37" t="n">
-        <v>0.512091</v>
+        <v>0.510992</v>
       </c>
     </row>
     <row r="38">
@@ -9876,13 +9876,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.775007</v>
+        <v>0.774721</v>
       </c>
       <c r="C38" t="n">
-        <v>0.514962</v>
+        <v>0.516593</v>
       </c>
       <c r="D38" t="n">
-        <v>0.516146</v>
+        <v>0.510968</v>
       </c>
     </row>
     <row r="39">
@@ -9890,13 +9890,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.775664</v>
+        <v>0.775387</v>
       </c>
       <c r="C39" t="n">
-        <v>0.519989</v>
+        <v>0.522001</v>
       </c>
       <c r="D39" t="n">
-        <v>0.517846</v>
+        <v>0.517229</v>
       </c>
     </row>
     <row r="40">
@@ -9904,13 +9904,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.785534</v>
+        <v>0.786655</v>
       </c>
       <c r="C40" t="n">
-        <v>0.523311</v>
+        <v>0.5253679999999999</v>
       </c>
       <c r="D40" t="n">
-        <v>0.520299</v>
+        <v>0.518006</v>
       </c>
     </row>
     <row r="41">
@@ -9918,13 +9918,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.79144</v>
+        <v>0.7918809999999999</v>
       </c>
       <c r="C41" t="n">
-        <v>0.524379</v>
+        <v>0.526662</v>
       </c>
       <c r="D41" t="n">
-        <v>0.521904</v>
+        <v>0.519757</v>
       </c>
     </row>
     <row r="42">
@@ -9932,13 +9932,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.796905</v>
+        <v>0.798576</v>
       </c>
       <c r="C42" t="n">
-        <v>0.525799</v>
+        <v>0.526409</v>
       </c>
       <c r="D42" t="n">
-        <v>0.524891</v>
+        <v>0.522986</v>
       </c>
     </row>
     <row r="43">
@@ -9946,13 +9946,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.8015099999999999</v>
+        <v>0.80293</v>
       </c>
       <c r="C43" t="n">
-        <v>0.52776</v>
+        <v>0.527661</v>
       </c>
       <c r="D43" t="n">
-        <v>0.52751</v>
+        <v>0.526045</v>
       </c>
     </row>
     <row r="44">
@@ -9960,13 +9960,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.803138</v>
+        <v>0.802794</v>
       </c>
       <c r="C44" t="n">
-        <v>0.5296149999999999</v>
+        <v>0.531365</v>
       </c>
       <c r="D44" t="n">
-        <v>0.529193</v>
+        <v>0.526432</v>
       </c>
     </row>
     <row r="45">
@@ -9974,13 +9974,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.81076</v>
+        <v>0.810157</v>
       </c>
       <c r="C45" t="n">
-        <v>0.532122</v>
+        <v>0.532586</v>
       </c>
       <c r="D45" t="n">
-        <v>0.53128</v>
+        <v>0.52859</v>
       </c>
     </row>
     <row r="46">
@@ -9988,13 +9988,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.811987</v>
+        <v>0.813347</v>
       </c>
       <c r="C46" t="n">
-        <v>0.5335029999999999</v>
+        <v>0.5344370000000001</v>
       </c>
       <c r="D46" t="n">
-        <v>0.533749</v>
+        <v>0.531685</v>
       </c>
     </row>
     <row r="47">
@@ -10002,13 +10002,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.79098</v>
+        <v>0.790686</v>
       </c>
       <c r="C47" t="n">
-        <v>0.534147</v>
+        <v>0.535363</v>
       </c>
       <c r="D47" t="n">
-        <v>0.536121</v>
+        <v>0.533682</v>
       </c>
     </row>
     <row r="48">
@@ -10016,13 +10016,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.799181</v>
+        <v>0.797503</v>
       </c>
       <c r="C48" t="n">
-        <v>0.540458</v>
+        <v>0.54187</v>
       </c>
       <c r="D48" t="n">
-        <v>0.537673</v>
+        <v>0.534946</v>
       </c>
     </row>
     <row r="49">
@@ -10030,13 +10030,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.798959</v>
+        <v>0.800122</v>
       </c>
       <c r="C49" t="n">
-        <v>0.542232</v>
+        <v>0.544109</v>
       </c>
       <c r="D49" t="n">
-        <v>0.538647</v>
+        <v>0.536759</v>
       </c>
     </row>
     <row r="50">
@@ -10044,13 +10044,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.8032820000000001</v>
+        <v>0.804722</v>
       </c>
       <c r="C50" t="n">
-        <v>0.537524</v>
+        <v>0.539451</v>
       </c>
       <c r="D50" t="n">
-        <v>0.539453</v>
+        <v>0.536555</v>
       </c>
     </row>
     <row r="51">
@@ -10058,13 +10058,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.806797</v>
+        <v>0.807213</v>
       </c>
       <c r="C51" t="n">
-        <v>0.538134</v>
+        <v>0.540282</v>
       </c>
       <c r="D51" t="n">
-        <v>0.542776</v>
+        <v>0.539218</v>
       </c>
     </row>
     <row r="52">
@@ -10072,13 +10072,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.808542</v>
+        <v>0.808802</v>
       </c>
       <c r="C52" t="n">
-        <v>0.542826</v>
+        <v>0.544999</v>
       </c>
       <c r="D52" t="n">
-        <v>0.544183</v>
+        <v>0.540822</v>
       </c>
     </row>
     <row r="53">
@@ -10086,13 +10086,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.813446</v>
+        <v>0.814322</v>
       </c>
       <c r="C53" t="n">
-        <v>0.5462320000000001</v>
+        <v>0.546506</v>
       </c>
       <c r="D53" t="n">
-        <v>0.545333</v>
+        <v>0.543629</v>
       </c>
     </row>
     <row r="54">
@@ -10100,13 +10100,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.8161350000000001</v>
+        <v>0.81746</v>
       </c>
       <c r="C54" t="n">
-        <v>0.546875</v>
+        <v>0.549733</v>
       </c>
       <c r="D54" t="n">
-        <v>0.54675</v>
+        <v>0.544831</v>
       </c>
     </row>
     <row r="55">
@@ -10114,13 +10114,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.820304</v>
+        <v>0.82092</v>
       </c>
       <c r="C55" t="n">
-        <v>0.553215</v>
+        <v>0.5506720000000001</v>
       </c>
       <c r="D55" t="n">
-        <v>0.549078</v>
+        <v>0.546786</v>
       </c>
     </row>
     <row r="56">
@@ -10128,13 +10128,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.82437</v>
+        <v>0.825386</v>
       </c>
       <c r="C56" t="n">
-        <v>0.5535369999999999</v>
+        <v>0.556128</v>
       </c>
       <c r="D56" t="n">
-        <v>0.549549</v>
+        <v>0.547671</v>
       </c>
     </row>
     <row r="57">
@@ -10142,13 +10142,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.830084</v>
+        <v>0.829739</v>
       </c>
       <c r="C57" t="n">
-        <v>0.558548</v>
+        <v>0.561779</v>
       </c>
       <c r="D57" t="n">
-        <v>0.5506490000000001</v>
+        <v>0.549548</v>
       </c>
     </row>
     <row r="58">
@@ -10156,13 +10156,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.829454</v>
+        <v>0.829522</v>
       </c>
       <c r="C58" t="n">
-        <v>0.566639</v>
+        <v>0.56612</v>
       </c>
       <c r="D58" t="n">
-        <v>0.552462</v>
+        <v>0.550643</v>
       </c>
     </row>
     <row r="59">
@@ -10170,13 +10170,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.835492</v>
+        <v>0.837341</v>
       </c>
       <c r="C59" t="n">
-        <v>0.573946</v>
+        <v>0.57459</v>
       </c>
       <c r="D59" t="n">
-        <v>0.553834</v>
+        <v>0.551763</v>
       </c>
     </row>
     <row r="60">
@@ -10184,13 +10184,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.839274</v>
+        <v>0.840717</v>
       </c>
       <c r="C60" t="n">
-        <v>0.57703</v>
+        <v>0.576933</v>
       </c>
       <c r="D60" t="n">
-        <v>0.556675</v>
+        <v>0.555443</v>
       </c>
     </row>
     <row r="61">
@@ -10198,13 +10198,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.836105</v>
+        <v>0.841448</v>
       </c>
       <c r="C61" t="n">
-        <v>0.583888</v>
+        <v>0.585714</v>
       </c>
       <c r="D61" t="n">
-        <v>0.55844</v>
+        <v>0.558782</v>
       </c>
     </row>
     <row r="62">
@@ -10212,13 +10212,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.849747</v>
+        <v>0.851685</v>
       </c>
       <c r="C62" t="n">
-        <v>0.5908600000000001</v>
+        <v>0.592094</v>
       </c>
       <c r="D62" t="n">
-        <v>0.5602200000000001</v>
+        <v>0.5585059999999999</v>
       </c>
     </row>
     <row r="63">
@@ -10226,13 +10226,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.856339</v>
+        <v>0.858224</v>
       </c>
       <c r="C63" t="n">
-        <v>0.597499</v>
+        <v>0.598753</v>
       </c>
       <c r="D63" t="n">
-        <v>0.564069</v>
+        <v>0.561633</v>
       </c>
     </row>
     <row r="64">
@@ -10240,13 +10240,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.8683070000000001</v>
+        <v>0.871433</v>
       </c>
       <c r="C64" t="n">
-        <v>0.648197</v>
+        <v>0.650434</v>
       </c>
       <c r="D64" t="n">
-        <v>0.600294</v>
+        <v>0.599182</v>
       </c>
     </row>
     <row r="65">
@@ -10254,13 +10254,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.8841290000000001</v>
+        <v>0.886418</v>
       </c>
       <c r="C65" t="n">
-        <v>0.661245</v>
+        <v>0.660366</v>
       </c>
       <c r="D65" t="n">
-        <v>0.594313</v>
+        <v>0.6047439999999999</v>
       </c>
     </row>
     <row r="66">
@@ -10268,13 +10268,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.884145</v>
+        <v>0.90486</v>
       </c>
       <c r="C66" t="n">
-        <v>0.679569</v>
+        <v>0.676082</v>
       </c>
       <c r="D66" t="n">
-        <v>0.616556</v>
+        <v>0.607726</v>
       </c>
     </row>
     <row r="67">
@@ -10282,13 +10282,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.9317800000000001</v>
+        <v>0.914988</v>
       </c>
       <c r="C67" t="n">
-        <v>0.710806</v>
+        <v>0.696244</v>
       </c>
       <c r="D67" t="n">
-        <v>0.6164809999999999</v>
+        <v>0.615317</v>
       </c>
     </row>
     <row r="68">
@@ -10296,13 +10296,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.920397</v>
+        <v>0.930234</v>
       </c>
       <c r="C68" t="n">
-        <v>0.724232</v>
+        <v>0.718093</v>
       </c>
       <c r="D68" t="n">
-        <v>0.651636</v>
+        <v>0.629096</v>
       </c>
     </row>
     <row r="69">
@@ -10310,13 +10310,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.975945</v>
+        <v>0.95392</v>
       </c>
       <c r="C69" t="n">
-        <v>0.752224</v>
+        <v>0.747945</v>
       </c>
       <c r="D69" t="n">
-        <v>0.656765</v>
+        <v>0.644794</v>
       </c>
     </row>
     <row r="70">
@@ -10324,13 +10324,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.98937</v>
+        <v>0.980304</v>
       </c>
       <c r="C70" t="n">
-        <v>0.776832</v>
+        <v>0.7750089999999999</v>
       </c>
       <c r="D70" t="n">
-        <v>0.668495</v>
+        <v>0.6620470000000001</v>
       </c>
     </row>
     <row r="71">
@@ -10338,13 +10338,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>1.00117</v>
+        <v>1.01226</v>
       </c>
       <c r="C71" t="n">
-        <v>0.805998</v>
+        <v>0.817284</v>
       </c>
       <c r="D71" t="n">
-        <v>0.686954</v>
+        <v>0.673275</v>
       </c>
     </row>
     <row r="72">
@@ -10352,13 +10352,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>1.04051</v>
+        <v>1.03393</v>
       </c>
       <c r="C72" t="n">
-        <v>0.847301</v>
+        <v>0.836618</v>
       </c>
       <c r="D72" t="n">
-        <v>0.689752</v>
+        <v>0.697509</v>
       </c>
     </row>
     <row r="73">
@@ -10366,13 +10366,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>1.04892</v>
+        <v>1.06943</v>
       </c>
       <c r="C73" t="n">
-        <v>0.872035</v>
+        <v>0.877661</v>
       </c>
       <c r="D73" t="n">
-        <v>0.7333229999999999</v>
+        <v>0.725523</v>
       </c>
     </row>
     <row r="74">
@@ -10380,13 +10380,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>1.11599</v>
+        <v>1.10941</v>
       </c>
       <c r="C74" t="n">
-        <v>0.909998</v>
+        <v>0.910366</v>
       </c>
       <c r="D74" t="n">
-        <v>0.761053</v>
+        <v>0.756708</v>
       </c>
     </row>
     <row r="75">
@@ -10394,13 +10394,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>1.15973</v>
+        <v>1.16727</v>
       </c>
       <c r="C75" t="n">
-        <v>0.951184</v>
+        <v>0.946791</v>
       </c>
       <c r="D75" t="n">
-        <v>0.811989</v>
+        <v>0.777426</v>
       </c>
     </row>
     <row r="76">
@@ -10408,13 +10408,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>1.34114</v>
+        <v>1.33978</v>
       </c>
       <c r="C76" t="n">
-        <v>1.00028</v>
+        <v>0.985053</v>
       </c>
       <c r="D76" t="n">
-        <v>0.833579</v>
+        <v>0.811511</v>
       </c>
     </row>
     <row r="77">
@@ -10422,13 +10422,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>1.41798</v>
+        <v>1.404</v>
       </c>
       <c r="C77" t="n">
-        <v>1.04054</v>
+        <v>1.03128</v>
       </c>
       <c r="D77" t="n">
-        <v>0.8672800000000001</v>
+        <v>0.845024</v>
       </c>
     </row>
     <row r="78">
@@ -10436,13 +10436,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>1.47906</v>
+        <v>1.45718</v>
       </c>
       <c r="C78" t="n">
-        <v>1.23453</v>
+        <v>1.23193</v>
       </c>
       <c r="D78" t="n">
-        <v>0.999796</v>
+        <v>0.9885389999999999</v>
       </c>
     </row>
     <row r="79">
@@ -10450,13 +10450,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>1.53885</v>
+        <v>1.54295</v>
       </c>
       <c r="C79" t="n">
-        <v>1.26677</v>
+        <v>1.27867</v>
       </c>
       <c r="D79" t="n">
-        <v>1.05092</v>
+        <v>1.04106</v>
       </c>
     </row>
     <row r="80">
@@ -10464,13 +10464,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>1.62526</v>
+        <v>1.60863</v>
       </c>
       <c r="C80" t="n">
-        <v>1.3228</v>
+        <v>1.31774</v>
       </c>
       <c r="D80" t="n">
-        <v>1.10214</v>
+        <v>1.08648</v>
       </c>
     </row>
     <row r="81">
@@ -10478,13 +10478,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>1.70789</v>
+        <v>1.69368</v>
       </c>
       <c r="C81" t="n">
-        <v>1.3593</v>
+        <v>1.36049</v>
       </c>
       <c r="D81" t="n">
-        <v>1.15451</v>
+        <v>1.14333</v>
       </c>
     </row>
     <row r="82">
@@ -10492,13 +10492,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>1.78528</v>
+        <v>1.78205</v>
       </c>
       <c r="C82" t="n">
-        <v>1.41069</v>
+        <v>1.40864</v>
       </c>
       <c r="D82" t="n">
-        <v>1.21463</v>
+        <v>1.20009</v>
       </c>
     </row>
     <row r="83">
@@ -10506,13 +10506,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>1.88005</v>
+        <v>1.88754</v>
       </c>
       <c r="C83" t="n">
-        <v>1.4601</v>
+        <v>1.45353</v>
       </c>
       <c r="D83" t="n">
-        <v>1.2806</v>
+        <v>1.26084</v>
       </c>
     </row>
     <row r="84">
@@ -10520,13 +10520,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>1.99397</v>
+        <v>1.98266</v>
       </c>
       <c r="C84" t="n">
-        <v>1.50145</v>
+        <v>1.50184</v>
       </c>
       <c r="D84" t="n">
-        <v>1.3311</v>
+        <v>1.31968</v>
       </c>
     </row>
     <row r="85">
@@ -10534,13 +10534,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>2.08304</v>
+        <v>2.07642</v>
       </c>
       <c r="C85" t="n">
-        <v>1.54789</v>
+        <v>1.54655</v>
       </c>
       <c r="D85" t="n">
-        <v>1.39194</v>
+        <v>1.38074</v>
       </c>
     </row>
     <row r="86">
@@ -10548,13 +10548,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>2.18</v>
+        <v>2.17096</v>
       </c>
       <c r="C86" t="n">
-        <v>1.59111</v>
+        <v>1.59468</v>
       </c>
       <c r="D86" t="n">
-        <v>1.45755</v>
+        <v>1.43772</v>
       </c>
     </row>
     <row r="87">
@@ -10562,13 +10562,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>2.26658</v>
+        <v>2.26898</v>
       </c>
       <c r="C87" t="n">
-        <v>1.63957</v>
+        <v>1.64423</v>
       </c>
       <c r="D87" t="n">
-        <v>1.51605</v>
+        <v>1.50073</v>
       </c>
     </row>
     <row r="88">
@@ -10576,13 +10576,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>2.36272</v>
+        <v>2.36157</v>
       </c>
       <c r="C88" t="n">
-        <v>1.68206</v>
+        <v>1.68484</v>
       </c>
       <c r="D88" t="n">
-        <v>1.57798</v>
+        <v>1.55933</v>
       </c>
     </row>
     <row r="89">
@@ -10590,13 +10590,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>2.46214</v>
+        <v>2.47253</v>
       </c>
       <c r="C89" t="n">
-        <v>1.73014</v>
+        <v>1.73656</v>
       </c>
       <c r="D89" t="n">
-        <v>1.63231</v>
+        <v>1.61808</v>
       </c>
     </row>
     <row r="90">
@@ -10604,13 +10604,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>2.65379</v>
+        <v>2.66214</v>
       </c>
       <c r="C90" t="n">
-        <v>1.77572</v>
+        <v>1.77943</v>
       </c>
       <c r="D90" t="n">
-        <v>1.68832</v>
+        <v>1.67282</v>
       </c>
     </row>
     <row r="91">
@@ -10618,13 +10618,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>2.73506</v>
+        <v>2.74571</v>
       </c>
       <c r="C91" t="n">
-        <v>1.82317</v>
+        <v>1.82239</v>
       </c>
       <c r="D91" t="n">
-        <v>1.7421</v>
+        <v>1.72269</v>
       </c>
     </row>
     <row r="92">
@@ -10632,13 +10632,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>2.81237</v>
+        <v>2.82306</v>
       </c>
       <c r="C92" t="n">
-        <v>1.974</v>
+        <v>1.97777</v>
       </c>
       <c r="D92" t="n">
-        <v>1.86067</v>
+        <v>1.8464</v>
       </c>
     </row>
     <row r="93">
@@ -10646,13 +10646,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>2.90057</v>
+        <v>2.90648</v>
       </c>
       <c r="C93" t="n">
-        <v>2.00669</v>
+        <v>2.01307</v>
       </c>
       <c r="D93" t="n">
-        <v>1.9158</v>
+        <v>1.89951</v>
       </c>
     </row>
     <row r="94">
@@ -10660,13 +10660,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>2.98574</v>
+        <v>2.99516</v>
       </c>
       <c r="C94" t="n">
-        <v>2.0484</v>
+        <v>2.05537</v>
       </c>
       <c r="D94" t="n">
-        <v>1.94731</v>
+        <v>1.94324</v>
       </c>
     </row>
     <row r="95">
@@ -10674,13 +10674,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>3.04047</v>
+        <v>3.07402</v>
       </c>
       <c r="C95" t="n">
-        <v>2.07383</v>
+        <v>2.08399</v>
       </c>
       <c r="D95" t="n">
-        <v>1.99765</v>
+        <v>1.98728</v>
       </c>
     </row>
     <row r="96">
@@ -10688,13 +10688,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>3.10125</v>
+        <v>3.1556</v>
       </c>
       <c r="C96" t="n">
-        <v>2.09808</v>
+        <v>2.12144</v>
       </c>
       <c r="D96" t="n">
-        <v>2.05011</v>
+        <v>2.04259</v>
       </c>
     </row>
     <row r="97">
@@ -10702,13 +10702,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>3.18286</v>
+        <v>3.22626</v>
       </c>
       <c r="C97" t="n">
-        <v>2.13836</v>
+        <v>2.15178</v>
       </c>
       <c r="D97" t="n">
-        <v>2.10205</v>
+        <v>2.08354</v>
       </c>
     </row>
     <row r="98">
@@ -10716,13 +10716,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>3.28164</v>
+        <v>3.28975</v>
       </c>
       <c r="C98" t="n">
-        <v>2.18324</v>
+        <v>2.19097</v>
       </c>
       <c r="D98" t="n">
-        <v>2.14167</v>
+        <v>2.12204</v>
       </c>
     </row>
     <row r="99">
@@ -10730,13 +10730,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>3.34673</v>
+        <v>3.36092</v>
       </c>
       <c r="C99" t="n">
-        <v>2.2183</v>
+        <v>2.22471</v>
       </c>
       <c r="D99" t="n">
-        <v>2.18611</v>
+        <v>2.17102</v>
       </c>
     </row>
     <row r="100">
@@ -10744,13 +10744,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>3.43026</v>
+        <v>3.4301</v>
       </c>
       <c r="C100" t="n">
-        <v>2.25344</v>
+        <v>2.26357</v>
       </c>
       <c r="D100" t="n">
-        <v>2.20753</v>
+        <v>2.19397</v>
       </c>
     </row>
     <row r="101">
@@ -10758,13 +10758,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>3.45929</v>
+        <v>3.47212</v>
       </c>
       <c r="C101" t="n">
-        <v>2.28057</v>
+        <v>2.2936</v>
       </c>
       <c r="D101" t="n">
-        <v>2.2464</v>
+        <v>2.22862</v>
       </c>
     </row>
     <row r="102">
@@ -10772,13 +10772,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>3.53487</v>
+        <v>3.52362</v>
       </c>
       <c r="C102" t="n">
-        <v>2.321</v>
+        <v>2.32589</v>
       </c>
       <c r="D102" t="n">
-        <v>2.28764</v>
+        <v>2.2685</v>
       </c>
     </row>
     <row r="103">
@@ -10786,13 +10786,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>3.60181</v>
+        <v>3.58381</v>
       </c>
       <c r="C103" t="n">
-        <v>2.35407</v>
+        <v>2.35822</v>
       </c>
       <c r="D103" t="n">
-        <v>2.3082</v>
+        <v>2.29849</v>
       </c>
     </row>
     <row r="104">
@@ -10800,13 +10800,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>3.65958</v>
+        <v>3.65153</v>
       </c>
       <c r="C104" t="n">
-        <v>2.39039</v>
+        <v>2.39446</v>
       </c>
       <c r="D104" t="n">
-        <v>2.35913</v>
+        <v>2.33333</v>
       </c>
     </row>
     <row r="105">
@@ -10814,13 +10814,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>3.68227</v>
+        <v>3.69734</v>
       </c>
       <c r="C105" t="n">
-        <v>2.42547</v>
+        <v>2.42493</v>
       </c>
       <c r="D105" t="n">
-        <v>2.3889</v>
+        <v>2.37036</v>
       </c>
     </row>
     <row r="106">
@@ -10828,13 +10828,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>3.70009</v>
+        <v>3.75816</v>
       </c>
       <c r="C106" t="n">
-        <v>2.44433</v>
+        <v>2.46189</v>
       </c>
       <c r="D106" t="n">
-        <v>2.39698</v>
+        <v>2.39615</v>
       </c>
     </row>
     <row r="107">
@@ -10842,13 +10842,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>3.77655</v>
+        <v>3.79793</v>
       </c>
       <c r="C107" t="n">
-        <v>2.47235</v>
+        <v>2.49546</v>
       </c>
       <c r="D107" t="n">
-        <v>2.48223</v>
+        <v>2.47755</v>
       </c>
     </row>
     <row r="108">
@@ -10856,13 +10856,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>3.84497</v>
+        <v>3.85026</v>
       </c>
       <c r="C108" t="n">
-        <v>2.4975</v>
+        <v>2.52487</v>
       </c>
       <c r="D108" t="n">
-        <v>2.49961</v>
+        <v>2.50223</v>
       </c>
     </row>
     <row r="109">
@@ -10870,13 +10870,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>3.87748</v>
+        <v>3.89805</v>
       </c>
       <c r="C109" t="n">
-        <v>2.54676</v>
+        <v>2.54804</v>
       </c>
       <c r="D109" t="n">
-        <v>2.52943</v>
+        <v>2.52458</v>
       </c>
     </row>
     <row r="110">
@@ -10884,13 +10884,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>3.9319</v>
+        <v>3.95265</v>
       </c>
       <c r="C110" t="n">
-        <v>2.57643</v>
+        <v>2.57076</v>
       </c>
       <c r="D110" t="n">
-        <v>2.56682</v>
+        <v>2.57144</v>
       </c>
     </row>
     <row r="111">
@@ -10898,13 +10898,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>3.9908</v>
+        <v>3.98521</v>
       </c>
       <c r="C111" t="n">
-        <v>2.58895</v>
+        <v>2.59426</v>
       </c>
       <c r="D111" t="n">
-        <v>2.59047</v>
+        <v>2.60787</v>
       </c>
     </row>
     <row r="112">
@@ -10912,13 +10912,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>4.01677</v>
+        <v>4.06904</v>
       </c>
       <c r="C112" t="n">
-        <v>2.62242</v>
+        <v>2.67489</v>
       </c>
       <c r="D112" t="n">
-        <v>2.61479</v>
+        <v>2.65531</v>
       </c>
     </row>
     <row r="113">
@@ -10926,13 +10926,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>4.05765</v>
+        <v>4.12849</v>
       </c>
       <c r="C113" t="n">
-        <v>2.64334</v>
+        <v>2.66073</v>
       </c>
       <c r="D113" t="n">
-        <v>2.63766</v>
+        <v>2.6742</v>
       </c>
     </row>
     <row r="114">
@@ -10940,13 +10940,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>4.08335</v>
+        <v>4.15492</v>
       </c>
       <c r="C114" t="n">
-        <v>2.65282</v>
+        <v>2.66947</v>
       </c>
       <c r="D114" t="n">
-        <v>2.66304</v>
+        <v>2.70862</v>
       </c>
     </row>
     <row r="115">
@@ -10954,13 +10954,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>4.15361</v>
+        <v>4.2337</v>
       </c>
       <c r="C115" t="n">
-        <v>2.69303</v>
+        <v>2.73943</v>
       </c>
       <c r="D115" t="n">
-        <v>2.68375</v>
+        <v>2.73871</v>
       </c>
     </row>
     <row r="116">
@@ -10968,13 +10968,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>4.20322</v>
+        <v>4.31079</v>
       </c>
       <c r="C116" t="n">
-        <v>2.71073</v>
+        <v>2.77898</v>
       </c>
       <c r="D116" t="n">
-        <v>2.7042</v>
+        <v>2.78045</v>
       </c>
     </row>
     <row r="117">
@@ -10982,13 +10982,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>4.23325</v>
+        <v>4.36519</v>
       </c>
       <c r="C117" t="n">
-        <v>2.74271</v>
+        <v>2.79673</v>
       </c>
       <c r="D117" t="n">
-        <v>2.72363</v>
+        <v>2.7737</v>
       </c>
     </row>
     <row r="118">
@@ -10996,13 +10996,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>4.29725</v>
+        <v>4.34716</v>
       </c>
       <c r="C118" t="n">
-        <v>2.776</v>
+        <v>2.78816</v>
       </c>
       <c r="D118" t="n">
-        <v>2.73394</v>
+        <v>2.78009</v>
       </c>
     </row>
     <row r="119">
@@ -11010,13 +11010,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>4.24686</v>
+        <v>4.31209</v>
       </c>
       <c r="C119" t="n">
-        <v>2.7964</v>
+        <v>2.82689</v>
       </c>
       <c r="D119" t="n">
-        <v>2.76074</v>
+        <v>2.81451</v>
       </c>
     </row>
   </sheetData>
@@ -11064,13 +11064,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.522058</v>
+        <v>0.49815</v>
       </c>
       <c r="C2" t="n">
-        <v>0.384594</v>
+        <v>0.373609</v>
       </c>
       <c r="D2" t="n">
-        <v>0.334226</v>
+        <v>0.321471</v>
       </c>
     </row>
     <row r="3">
@@ -11078,13 +11078,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.530146</v>
+        <v>0.506548</v>
       </c>
       <c r="C3" t="n">
-        <v>0.393626</v>
+        <v>0.380451</v>
       </c>
       <c r="D3" t="n">
-        <v>0.336854</v>
+        <v>0.32633</v>
       </c>
     </row>
     <row r="4">
@@ -11092,13 +11092,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.535433</v>
+        <v>0.511815</v>
       </c>
       <c r="C4" t="n">
-        <v>0.401112</v>
+        <v>0.387046</v>
       </c>
       <c r="D4" t="n">
-        <v>0.340772</v>
+        <v>0.329457</v>
       </c>
     </row>
     <row r="5">
@@ -11106,13 +11106,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.546171</v>
+        <v>0.525963</v>
       </c>
       <c r="C5" t="n">
-        <v>0.409633</v>
+        <v>0.396898</v>
       </c>
       <c r="D5" t="n">
-        <v>0.347362</v>
+        <v>0.33706</v>
       </c>
     </row>
     <row r="6">
@@ -11120,13 +11120,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.558013</v>
+        <v>0.539085</v>
       </c>
       <c r="C6" t="n">
-        <v>0.414759</v>
+        <v>0.403166</v>
       </c>
       <c r="D6" t="n">
-        <v>0.349971</v>
+        <v>0.339913</v>
       </c>
     </row>
     <row r="7">
@@ -11134,13 +11134,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.568601</v>
+        <v>0.552705</v>
       </c>
       <c r="C7" t="n">
-        <v>0.421651</v>
+        <v>0.411273</v>
       </c>
       <c r="D7" t="n">
-        <v>0.358269</v>
+        <v>0.350378</v>
       </c>
     </row>
     <row r="8">
@@ -11148,13 +11148,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.578039</v>
+        <v>0.561606</v>
       </c>
       <c r="C8" t="n">
-        <v>0.431204</v>
+        <v>0.421597</v>
       </c>
       <c r="D8" t="n">
-        <v>0.362246</v>
+        <v>0.354479</v>
       </c>
     </row>
     <row r="9">
@@ -11162,13 +11162,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.591102</v>
+        <v>0.574904</v>
       </c>
       <c r="C9" t="n">
-        <v>0.441999</v>
+        <v>0.431121</v>
       </c>
       <c r="D9" t="n">
-        <v>0.368023</v>
+        <v>0.360196</v>
       </c>
     </row>
     <row r="10">
@@ -11176,13 +11176,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.601351</v>
+        <v>0.588789</v>
       </c>
       <c r="C10" t="n">
-        <v>0.453249</v>
+        <v>0.443516</v>
       </c>
       <c r="D10" t="n">
-        <v>0.372513</v>
+        <v>0.36503</v>
       </c>
     </row>
     <row r="11">
@@ -11190,13 +11190,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.611856</v>
+        <v>0.604166</v>
       </c>
       <c r="C11" t="n">
-        <v>0.436384</v>
+        <v>0.431753</v>
       </c>
       <c r="D11" t="n">
-        <v>0.38116</v>
+        <v>0.376808</v>
       </c>
     </row>
     <row r="12">
@@ -11204,13 +11204,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.600191</v>
+        <v>0.592981</v>
       </c>
       <c r="C12" t="n">
-        <v>0.44075</v>
+        <v>0.435249</v>
       </c>
       <c r="D12" t="n">
-        <v>0.387697</v>
+        <v>0.382408</v>
       </c>
     </row>
     <row r="13">
@@ -11218,13 +11218,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.609524</v>
+        <v>0.6051299999999999</v>
       </c>
       <c r="C13" t="n">
-        <v>0.448351</v>
+        <v>0.445461</v>
       </c>
       <c r="D13" t="n">
-        <v>0.389929</v>
+        <v>0.384743</v>
       </c>
     </row>
     <row r="14">
@@ -11232,13 +11232,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.619076</v>
+        <v>0.618193</v>
       </c>
       <c r="C14" t="n">
-        <v>0.455056</v>
+        <v>0.453983</v>
       </c>
       <c r="D14" t="n">
-        <v>0.395008</v>
+        <v>0.393995</v>
       </c>
     </row>
     <row r="15">
@@ -11246,13 +11246,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.630811</v>
+        <v>0.632901</v>
       </c>
       <c r="C15" t="n">
-        <v>0.464515</v>
+        <v>0.464528</v>
       </c>
       <c r="D15" t="n">
-        <v>0.400803</v>
+        <v>0.400583</v>
       </c>
     </row>
     <row r="16">
@@ -11260,13 +11260,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.642663</v>
+        <v>0.6447889999999999</v>
       </c>
       <c r="C16" t="n">
-        <v>0.473354</v>
+        <v>0.472243</v>
       </c>
       <c r="D16" t="n">
-        <v>0.405852</v>
+        <v>0.406685</v>
       </c>
     </row>
     <row r="17">
@@ -11274,13 +11274,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.653335</v>
+        <v>0.6571</v>
       </c>
       <c r="C17" t="n">
-        <v>0.480975</v>
+        <v>0.482939</v>
       </c>
       <c r="D17" t="n">
-        <v>0.41063</v>
+        <v>0.412358</v>
       </c>
     </row>
     <row r="18">
@@ -11288,13 +11288,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.666111</v>
+        <v>0.6730930000000001</v>
       </c>
       <c r="C18" t="n">
-        <v>0.485186</v>
+        <v>0.487905</v>
       </c>
       <c r="D18" t="n">
-        <v>0.41882</v>
+        <v>0.421368</v>
       </c>
     </row>
     <row r="19">
@@ -11302,13 +11302,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.684373</v>
+        <v>0.68608</v>
       </c>
       <c r="C19" t="n">
-        <v>0.503405</v>
+        <v>0.505761</v>
       </c>
       <c r="D19" t="n">
-        <v>0.423061</v>
+        <v>0.423805</v>
       </c>
     </row>
     <row r="20">
@@ -11316,13 +11316,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.698915</v>
+        <v>0.700143</v>
       </c>
       <c r="C20" t="n">
-        <v>0.510771</v>
+        <v>0.511794</v>
       </c>
       <c r="D20" t="n">
-        <v>0.430809</v>
+        <v>0.431741</v>
       </c>
     </row>
     <row r="21">
@@ -11330,13 +11330,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.708232</v>
+        <v>0.712033</v>
       </c>
       <c r="C21" t="n">
-        <v>0.525231</v>
+        <v>0.525402</v>
       </c>
       <c r="D21" t="n">
-        <v>0.433923</v>
+        <v>0.435505</v>
       </c>
     </row>
     <row r="22">
@@ -11344,13 +11344,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.719481</v>
+        <v>0.7236359999999999</v>
       </c>
       <c r="C22" t="n">
-        <v>0.531227</v>
+        <v>0.532561</v>
       </c>
       <c r="D22" t="n">
-        <v>0.441749</v>
+        <v>0.44118</v>
       </c>
     </row>
     <row r="23">
@@ -11358,13 +11358,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.7363189999999999</v>
+        <v>0.739167</v>
       </c>
       <c r="C23" t="n">
-        <v>0.545482</v>
+        <v>0.545897</v>
       </c>
       <c r="D23" t="n">
-        <v>0.445715</v>
+        <v>0.446144</v>
       </c>
     </row>
     <row r="24">
@@ -11372,13 +11372,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.752499</v>
+        <v>0.7526389999999999</v>
       </c>
       <c r="C24" t="n">
-        <v>0.553736</v>
+        <v>0.553663</v>
       </c>
       <c r="D24" t="n">
-        <v>0.451601</v>
+        <v>0.450767</v>
       </c>
     </row>
     <row r="25">
@@ -11386,13 +11386,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.770436</v>
+        <v>0.772081</v>
       </c>
       <c r="C25" t="n">
-        <v>0.571174</v>
+        <v>0.571559</v>
       </c>
       <c r="D25" t="n">
-        <v>0.458331</v>
+        <v>0.457095</v>
       </c>
     </row>
     <row r="26">
@@ -11400,13 +11400,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.786718</v>
+        <v>0.787358</v>
       </c>
       <c r="C26" t="n">
-        <v>0.511614</v>
+        <v>0.509545</v>
       </c>
       <c r="D26" t="n">
-        <v>0.465277</v>
+        <v>0.462841</v>
       </c>
     </row>
     <row r="27">
@@ -11414,13 +11414,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.745592</v>
+        <v>0.742745</v>
       </c>
       <c r="C27" t="n">
-        <v>0.517075</v>
+        <v>0.513937</v>
       </c>
       <c r="D27" t="n">
-        <v>0.469012</v>
+        <v>0.465894</v>
       </c>
     </row>
     <row r="28">
@@ -11428,13 +11428,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.757749</v>
+        <v>0.754089</v>
       </c>
       <c r="C28" t="n">
-        <v>0.524954</v>
+        <v>0.522594</v>
       </c>
       <c r="D28" t="n">
-        <v>0.476021</v>
+        <v>0.472688</v>
       </c>
     </row>
     <row r="29">
@@ -11442,13 +11442,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.767976</v>
+        <v>0.7668430000000001</v>
       </c>
       <c r="C29" t="n">
-        <v>0.529416</v>
+        <v>0.52725</v>
       </c>
       <c r="D29" t="n">
-        <v>0.476146</v>
+        <v>0.475925</v>
       </c>
     </row>
     <row r="30">
@@ -11456,13 +11456,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.776235</v>
+        <v>0.778853</v>
       </c>
       <c r="C30" t="n">
-        <v>0.537829</v>
+        <v>0.537708</v>
       </c>
       <c r="D30" t="n">
-        <v>0.48405</v>
+        <v>0.481295</v>
       </c>
     </row>
     <row r="31">
@@ -11470,13 +11470,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.789008</v>
+        <v>0.790085</v>
       </c>
       <c r="C31" t="n">
-        <v>0.544461</v>
+        <v>0.546328</v>
       </c>
       <c r="D31" t="n">
-        <v>0.48663</v>
+        <v>0.484238</v>
       </c>
     </row>
     <row r="32">
@@ -11484,13 +11484,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.799828</v>
+        <v>0.803442</v>
       </c>
       <c r="C32" t="n">
-        <v>0.555092</v>
+        <v>0.555323</v>
       </c>
       <c r="D32" t="n">
-        <v>0.491306</v>
+        <v>0.48681</v>
       </c>
     </row>
     <row r="33">
@@ -11498,13 +11498,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.812564</v>
+        <v>0.814854</v>
       </c>
       <c r="C33" t="n">
-        <v>0.559676</v>
+        <v>0.56121</v>
       </c>
       <c r="D33" t="n">
-        <v>0.495259</v>
+        <v>0.490561</v>
       </c>
     </row>
     <row r="34">
@@ -11512,13 +11512,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.824715</v>
+        <v>0.826798</v>
       </c>
       <c r="C34" t="n">
-        <v>0.573101</v>
+        <v>0.574564</v>
       </c>
       <c r="D34" t="n">
-        <v>0.497793</v>
+        <v>0.494749</v>
       </c>
     </row>
     <row r="35">
@@ -11526,13 +11526,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.842584</v>
+        <v>0.841757</v>
       </c>
       <c r="C35" t="n">
-        <v>0.582646</v>
+        <v>0.584848</v>
       </c>
       <c r="D35" t="n">
-        <v>0.5021640000000001</v>
+        <v>0.500177</v>
       </c>
     </row>
     <row r="36">
@@ -11540,13 +11540,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.8492459999999999</v>
+        <v>0.853621</v>
       </c>
       <c r="C36" t="n">
-        <v>0.5945</v>
+        <v>0.597494</v>
       </c>
       <c r="D36" t="n">
-        <v>0.506841</v>
+        <v>0.50371</v>
       </c>
     </row>
     <row r="37">
@@ -11554,13 +11554,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.857976</v>
+        <v>0.860796</v>
       </c>
       <c r="C37" t="n">
-        <v>0.603492</v>
+        <v>0.607511</v>
       </c>
       <c r="D37" t="n">
-        <v>0.507198</v>
+        <v>0.505612</v>
       </c>
     </row>
     <row r="38">
@@ -11568,13 +11568,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.868271</v>
+        <v>0.87368</v>
       </c>
       <c r="C38" t="n">
-        <v>0.6142609999999999</v>
+        <v>0.619007</v>
       </c>
       <c r="D38" t="n">
-        <v>0.512981</v>
+        <v>0.510885</v>
       </c>
     </row>
     <row r="39">
@@ -11582,13 +11582,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.888077</v>
+        <v>0.893169</v>
       </c>
       <c r="C39" t="n">
-        <v>0.625328</v>
+        <v>0.6307120000000001</v>
       </c>
       <c r="D39" t="n">
-        <v>0.51283</v>
+        <v>0.512121</v>
       </c>
     </row>
     <row r="40">
@@ -11596,13 +11596,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.891836</v>
+        <v>0.900002</v>
       </c>
       <c r="C40" t="n">
-        <v>0.572241</v>
+        <v>0.576579</v>
       </c>
       <c r="D40" t="n">
-        <v>0.518428</v>
+        <v>0.515776</v>
       </c>
     </row>
     <row r="41">
@@ -11610,13 +11610,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.845863</v>
+        <v>0.853177</v>
       </c>
       <c r="C41" t="n">
-        <v>0.577673</v>
+        <v>0.5810650000000001</v>
       </c>
       <c r="D41" t="n">
-        <v>0.520404</v>
+        <v>0.518132</v>
       </c>
     </row>
     <row r="42">
@@ -11624,13 +11624,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.857507</v>
+        <v>0.860881</v>
       </c>
       <c r="C42" t="n">
-        <v>0.58584</v>
+        <v>0.590153</v>
       </c>
       <c r="D42" t="n">
-        <v>0.522324</v>
+        <v>0.520872</v>
       </c>
     </row>
     <row r="43">
@@ -11638,13 +11638,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.862718</v>
+        <v>0.867631</v>
       </c>
       <c r="C43" t="n">
-        <v>0.59179</v>
+        <v>0.595435</v>
       </c>
       <c r="D43" t="n">
-        <v>0.525235</v>
+        <v>0.524311</v>
       </c>
     </row>
     <row r="44">
@@ -11652,13 +11652,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.8709710000000001</v>
+        <v>0.87538</v>
       </c>
       <c r="C44" t="n">
-        <v>0.604707</v>
+        <v>0.607221</v>
       </c>
       <c r="D44" t="n">
-        <v>0.529041</v>
+        <v>0.526629</v>
       </c>
     </row>
     <row r="45">
@@ -11666,13 +11666,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.887581</v>
+        <v>0.888641</v>
       </c>
       <c r="C45" t="n">
-        <v>0.608738</v>
+        <v>0.610965</v>
       </c>
       <c r="D45" t="n">
-        <v>0.53087</v>
+        <v>0.527922</v>
       </c>
     </row>
     <row r="46">
@@ -11680,13 +11680,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.886873</v>
+        <v>0.895759</v>
       </c>
       <c r="C46" t="n">
-        <v>0.619748</v>
+        <v>0.622456</v>
       </c>
       <c r="D46" t="n">
-        <v>0.533893</v>
+        <v>0.531456</v>
       </c>
     </row>
     <row r="47">
@@ -11694,13 +11694,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.904342</v>
+        <v>0.907367</v>
       </c>
       <c r="C47" t="n">
-        <v>0.628627</v>
+        <v>0.632421</v>
       </c>
       <c r="D47" t="n">
-        <v>0.534341</v>
+        <v>0.532776</v>
       </c>
     </row>
     <row r="48">
@@ -11708,13 +11708,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.910829</v>
+        <v>0.916814</v>
       </c>
       <c r="C48" t="n">
-        <v>0.635108</v>
+        <v>0.637866</v>
       </c>
       <c r="D48" t="n">
-        <v>0.537307</v>
+        <v>0.534521</v>
       </c>
     </row>
     <row r="49">
@@ -11722,13 +11722,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.919526</v>
+        <v>0.925253</v>
       </c>
       <c r="C49" t="n">
-        <v>0.645414</v>
+        <v>0.649715</v>
       </c>
       <c r="D49" t="n">
-        <v>0.5398810000000001</v>
+        <v>0.539308</v>
       </c>
     </row>
     <row r="50">
@@ -11736,13 +11736,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.9351739999999999</v>
+        <v>0.938608</v>
       </c>
       <c r="C50" t="n">
-        <v>0.653672</v>
+        <v>0.656904</v>
       </c>
       <c r="D50" t="n">
-        <v>0.541196</v>
+        <v>0.541139</v>
       </c>
     </row>
     <row r="51">
@@ -11750,13 +11750,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.9411119999999999</v>
+        <v>0.947872</v>
       </c>
       <c r="C51" t="n">
-        <v>0.66343</v>
+        <v>0.6674330000000001</v>
       </c>
       <c r="D51" t="n">
-        <v>0.54299</v>
+        <v>0.542359</v>
       </c>
     </row>
     <row r="52">
@@ -11764,13 +11764,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.955079</v>
+        <v>0.9589299999999999</v>
       </c>
       <c r="C52" t="n">
-        <v>0.67698</v>
+        <v>0.680813</v>
       </c>
       <c r="D52" t="n">
-        <v>0.546952</v>
+        <v>0.544146</v>
       </c>
     </row>
     <row r="53">
@@ -11778,13 +11778,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.963828</v>
+        <v>0.969538</v>
       </c>
       <c r="C53" t="n">
-        <v>0.687084</v>
+        <v>0.690562</v>
       </c>
       <c r="D53" t="n">
-        <v>0.5475950000000001</v>
+        <v>0.546758</v>
       </c>
     </row>
     <row r="54">
@@ -11792,13 +11792,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.976599</v>
+        <v>0.983146</v>
       </c>
       <c r="C54" t="n">
-        <v>0.616202</v>
+        <v>0.618623</v>
       </c>
       <c r="D54" t="n">
-        <v>0.547422</v>
+        <v>0.546445</v>
       </c>
     </row>
     <row r="55">
@@ -11806,13 +11806,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.991779</v>
+        <v>0.996128</v>
       </c>
       <c r="C55" t="n">
-        <v>0.623115</v>
+        <v>0.626105</v>
       </c>
       <c r="D55" t="n">
-        <v>0.549528</v>
+        <v>0.547273</v>
       </c>
     </row>
     <row r="56">
@@ -11820,13 +11820,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.9114679999999999</v>
+        <v>0.9139389999999999</v>
       </c>
       <c r="C56" t="n">
-        <v>0.63093</v>
+        <v>0.633452</v>
       </c>
       <c r="D56" t="n">
-        <v>0.5504790000000001</v>
+        <v>0.5494</v>
       </c>
     </row>
     <row r="57">
@@ -11834,13 +11834,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.916331</v>
+        <v>0.920825</v>
       </c>
       <c r="C57" t="n">
-        <v>0.638466</v>
+        <v>0.6416230000000001</v>
       </c>
       <c r="D57" t="n">
-        <v>0.552346</v>
+        <v>0.550799</v>
       </c>
     </row>
     <row r="58">
@@ -11848,13 +11848,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.9272860000000001</v>
+        <v>0.930783</v>
       </c>
       <c r="C58" t="n">
-        <v>0.646248</v>
+        <v>0.648949</v>
       </c>
       <c r="D58" t="n">
-        <v>0.554378</v>
+        <v>0.552338</v>
       </c>
     </row>
     <row r="59">
@@ -11862,13 +11862,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.934342</v>
+        <v>0.938523</v>
       </c>
       <c r="C59" t="n">
-        <v>0.655483</v>
+        <v>0.657155</v>
       </c>
       <c r="D59" t="n">
-        <v>0.556492</v>
+        <v>0.553669</v>
       </c>
     </row>
     <row r="60">
@@ -11876,13 +11876,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.941376</v>
+        <v>0.944371</v>
       </c>
       <c r="C60" t="n">
-        <v>0.665501</v>
+        <v>0.666272</v>
       </c>
       <c r="D60" t="n">
-        <v>0.556829</v>
+        <v>0.555837</v>
       </c>
     </row>
     <row r="61">
@@ -11890,13 +11890,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.948836</v>
+        <v>0.951148</v>
       </c>
       <c r="C61" t="n">
-        <v>0.675891</v>
+        <v>0.675415</v>
       </c>
       <c r="D61" t="n">
-        <v>0.558936</v>
+        <v>0.558967</v>
       </c>
     </row>
     <row r="62">
@@ -11904,13 +11904,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.959196</v>
+        <v>0.959989</v>
       </c>
       <c r="C62" t="n">
-        <v>0.685844</v>
+        <v>0.685352</v>
       </c>
       <c r="D62" t="n">
-        <v>0.560106</v>
+        <v>0.557976</v>
       </c>
     </row>
     <row r="63">
@@ -11918,13 +11918,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.969827</v>
+        <v>0.971689</v>
       </c>
       <c r="C63" t="n">
-        <v>0.699139</v>
+        <v>0.696939</v>
       </c>
       <c r="D63" t="n">
-        <v>0.561376</v>
+        <v>0.560486</v>
       </c>
     </row>
     <row r="64">
@@ -11932,13 +11932,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.9786899999999999</v>
+        <v>0.982963</v>
       </c>
       <c r="C64" t="n">
-        <v>0.713684</v>
+        <v>0.71075</v>
       </c>
       <c r="D64" t="n">
-        <v>0.563501</v>
+        <v>0.5622509999999999</v>
       </c>
     </row>
     <row r="65">
@@ -11946,13 +11946,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.991325</v>
+        <v>0.994208</v>
       </c>
       <c r="C65" t="n">
-        <v>0.729335</v>
+        <v>0.726427</v>
       </c>
       <c r="D65" t="n">
-        <v>0.565546</v>
+        <v>0.565246</v>
       </c>
     </row>
     <row r="66">
@@ -11960,13 +11960,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>1.00499</v>
+        <v>1.00718</v>
       </c>
       <c r="C66" t="n">
-        <v>0.743169</v>
+        <v>0.740274</v>
       </c>
       <c r="D66" t="n">
-        <v>0.5684360000000001</v>
+        <v>0.566372</v>
       </c>
     </row>
     <row r="67">
@@ -11974,13 +11974,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>1.01742</v>
+        <v>1.01893</v>
       </c>
       <c r="C67" t="n">
-        <v>0.759575</v>
+        <v>0.758271</v>
       </c>
       <c r="D67" t="n">
-        <v>0.570561</v>
+        <v>0.569194</v>
       </c>
     </row>
     <row r="68">
@@ -11988,13 +11988,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>1.03359</v>
+        <v>1.03054</v>
       </c>
       <c r="C68" t="n">
-        <v>0.687948</v>
+        <v>0.688447</v>
       </c>
       <c r="D68" t="n">
-        <v>0.588534</v>
+        <v>0.582548</v>
       </c>
     </row>
     <row r="69">
@@ -12002,13 +12002,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>1.07056</v>
+        <v>1.06177</v>
       </c>
       <c r="C69" t="n">
-        <v>0.71175</v>
+        <v>0.709058</v>
       </c>
       <c r="D69" t="n">
-        <v>0.5966630000000001</v>
+        <v>0.590236</v>
       </c>
     </row>
     <row r="70">
@@ -12016,13 +12016,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>1.00494</v>
+        <v>0.999559</v>
       </c>
       <c r="C70" t="n">
-        <v>0.740518</v>
+        <v>0.735452</v>
       </c>
       <c r="D70" t="n">
-        <v>0.610278</v>
+        <v>0.60425</v>
       </c>
     </row>
     <row r="71">
@@ -12030,13 +12030,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>1.03398</v>
+        <v>1.02843</v>
       </c>
       <c r="C71" t="n">
-        <v>0.768437</v>
+        <v>0.765888</v>
       </c>
       <c r="D71" t="n">
-        <v>0.624896</v>
+        <v>0.6185890000000001</v>
       </c>
     </row>
     <row r="72">
@@ -12044,13 +12044,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>1.06889</v>
+        <v>1.06002</v>
       </c>
       <c r="C72" t="n">
-        <v>0.802547</v>
+        <v>0.797351</v>
       </c>
       <c r="D72" t="n">
-        <v>0.645643</v>
+        <v>0.633338</v>
       </c>
     </row>
     <row r="73">
@@ -12058,13 +12058,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>1.1013</v>
+        <v>1.08927</v>
       </c>
       <c r="C73" t="n">
-        <v>0.836889</v>
+        <v>0.831419</v>
       </c>
       <c r="D73" t="n">
-        <v>0.6603560000000001</v>
+        <v>0.648716</v>
       </c>
     </row>
     <row r="74">
@@ -12072,13 +12072,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>1.13506</v>
+        <v>1.12117</v>
       </c>
       <c r="C74" t="n">
-        <v>0.876834</v>
+        <v>0.866781</v>
       </c>
       <c r="D74" t="n">
-        <v>0.681118</v>
+        <v>0.665277</v>
       </c>
     </row>
     <row r="75">
@@ -12086,13 +12086,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>1.17767</v>
+        <v>1.16085</v>
       </c>
       <c r="C75" t="n">
-        <v>0.921826</v>
+        <v>0.909784</v>
       </c>
       <c r="D75" t="n">
-        <v>0.703923</v>
+        <v>0.6858880000000001</v>
       </c>
     </row>
     <row r="76">
@@ -12100,13 +12100,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>1.22543</v>
+        <v>1.20469</v>
       </c>
       <c r="C76" t="n">
-        <v>0.9692269999999999</v>
+        <v>0.953825</v>
       </c>
       <c r="D76" t="n">
-        <v>0.730147</v>
+        <v>0.706726</v>
       </c>
     </row>
     <row r="77">
@@ -12114,13 +12114,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>1.2739</v>
+        <v>1.26326</v>
       </c>
       <c r="C77" t="n">
-        <v>1.01434</v>
+        <v>1.00752</v>
       </c>
       <c r="D77" t="n">
-        <v>0.755964</v>
+        <v>0.741581</v>
       </c>
     </row>
     <row r="78">
@@ -12128,13 +12128,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>1.32891</v>
+        <v>1.31633</v>
       </c>
       <c r="C78" t="n">
-        <v>1.06386</v>
+        <v>1.05606</v>
       </c>
       <c r="D78" t="n">
-        <v>0.786378</v>
+        <v>0.7699009999999999</v>
       </c>
     </row>
     <row r="79">
@@ -12142,13 +12142,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>1.39232</v>
+        <v>1.38103</v>
       </c>
       <c r="C79" t="n">
-        <v>1.11597</v>
+        <v>1.11168</v>
       </c>
       <c r="D79" t="n">
-        <v>0.819191</v>
+        <v>0.8083050000000001</v>
       </c>
     </row>
     <row r="80">
@@ -12156,13 +12156,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>1.45832</v>
+        <v>1.45465</v>
       </c>
       <c r="C80" t="n">
-        <v>1.16815</v>
+        <v>1.16994</v>
       </c>
       <c r="D80" t="n">
-        <v>0.850853</v>
+        <v>0.844853</v>
       </c>
     </row>
     <row r="81">
@@ -12170,13 +12170,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>1.54019</v>
+        <v>1.52929</v>
       </c>
       <c r="C81" t="n">
-        <v>1.23199</v>
+        <v>1.23084</v>
       </c>
       <c r="D81" t="n">
-        <v>0.898168</v>
+        <v>0.881472</v>
       </c>
     </row>
     <row r="82">
@@ -12184,13 +12184,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>1.63095</v>
+        <v>1.62782</v>
       </c>
       <c r="C82" t="n">
-        <v>1.29821</v>
+        <v>1.30035</v>
       </c>
       <c r="D82" t="n">
-        <v>0.945949</v>
+        <v>0.934103</v>
       </c>
     </row>
     <row r="83">
@@ -12198,13 +12198,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>1.73321</v>
+        <v>1.72455</v>
       </c>
       <c r="C83" t="n">
-        <v>1.30196</v>
+        <v>1.2917</v>
       </c>
       <c r="D83" t="n">
-        <v>1.07222</v>
+        <v>1.04947</v>
       </c>
     </row>
     <row r="84">
@@ -12212,13 +12212,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>1.84748</v>
+        <v>1.83876</v>
       </c>
       <c r="C84" t="n">
-        <v>1.36646</v>
+        <v>1.35452</v>
       </c>
       <c r="D84" t="n">
-        <v>1.12881</v>
+        <v>1.10398</v>
       </c>
     </row>
     <row r="85">
@@ -12226,13 +12226,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>1.8802</v>
+        <v>1.85998</v>
       </c>
       <c r="C85" t="n">
-        <v>1.42837</v>
+        <v>1.41768</v>
       </c>
       <c r="D85" t="n">
-        <v>1.18971</v>
+        <v>1.16229</v>
       </c>
     </row>
     <row r="86">
@@ -12240,13 +12240,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>1.98397</v>
+        <v>1.97024</v>
       </c>
       <c r="C86" t="n">
-        <v>1.50616</v>
+        <v>1.49278</v>
       </c>
       <c r="D86" t="n">
-        <v>1.25156</v>
+        <v>1.22287</v>
       </c>
     </row>
     <row r="87">
@@ -12254,13 +12254,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>2.09276</v>
+        <v>2.07729</v>
       </c>
       <c r="C87" t="n">
-        <v>1.57634</v>
+        <v>1.56266</v>
       </c>
       <c r="D87" t="n">
-        <v>1.31437</v>
+        <v>1.28728</v>
       </c>
     </row>
     <row r="88">
@@ -12268,13 +12268,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>2.20593</v>
+        <v>2.20567</v>
       </c>
       <c r="C88" t="n">
-        <v>1.65462</v>
+        <v>1.6492</v>
       </c>
       <c r="D88" t="n">
-        <v>1.37169</v>
+        <v>1.34865</v>
       </c>
     </row>
     <row r="89">
@@ -12282,13 +12282,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>2.32487</v>
+        <v>2.32857</v>
       </c>
       <c r="C89" t="n">
-        <v>1.73001</v>
+        <v>1.72966</v>
       </c>
       <c r="D89" t="n">
-        <v>1.43324</v>
+        <v>1.40569</v>
       </c>
     </row>
     <row r="90">
@@ -12296,13 +12296,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>2.44101</v>
+        <v>2.45411</v>
       </c>
       <c r="C90" t="n">
-        <v>1.80808</v>
+        <v>1.81334</v>
       </c>
       <c r="D90" t="n">
-        <v>1.49188</v>
+        <v>1.46725</v>
       </c>
     </row>
     <row r="91">
@@ -12310,13 +12310,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>2.576</v>
+        <v>2.5734</v>
       </c>
       <c r="C91" t="n">
-        <v>1.89679</v>
+        <v>1.90116</v>
       </c>
       <c r="D91" t="n">
-        <v>1.54993</v>
+        <v>1.5266</v>
       </c>
     </row>
     <row r="92">
@@ -12324,13 +12324,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>2.69252</v>
+        <v>2.68705</v>
       </c>
       <c r="C92" t="n">
-        <v>1.98663</v>
+        <v>1.98531</v>
       </c>
       <c r="D92" t="n">
-        <v>1.60758</v>
+        <v>1.57905</v>
       </c>
     </row>
     <row r="93">
@@ -12338,13 +12338,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>2.81913</v>
+        <v>2.8557</v>
       </c>
       <c r="C93" t="n">
-        <v>2.07609</v>
+        <v>2.0805</v>
       </c>
       <c r="D93" t="n">
-        <v>1.65897</v>
+        <v>1.64137</v>
       </c>
     </row>
     <row r="94">
@@ -12352,13 +12352,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>2.95076</v>
+        <v>2.99779</v>
       </c>
       <c r="C94" t="n">
-        <v>2.16828</v>
+        <v>2.17823</v>
       </c>
       <c r="D94" t="n">
-        <v>1.71109</v>
+        <v>1.68675</v>
       </c>
     </row>
     <row r="95">
@@ -12366,13 +12366,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>3.09664</v>
+        <v>3.10255</v>
       </c>
       <c r="C95" t="n">
-        <v>2.26456</v>
+        <v>2.2716</v>
       </c>
       <c r="D95" t="n">
-        <v>1.76455</v>
+        <v>1.74654</v>
       </c>
     </row>
     <row r="96">
@@ -12380,13 +12380,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>3.20223</v>
+        <v>3.26485</v>
       </c>
       <c r="C96" t="n">
-        <v>2.36894</v>
+        <v>2.38466</v>
       </c>
       <c r="D96" t="n">
-        <v>1.81518</v>
+        <v>1.78482</v>
       </c>
     </row>
     <row r="97">
@@ -12394,13 +12394,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>3.35647</v>
+        <v>3.37802</v>
       </c>
       <c r="C97" t="n">
-        <v>2.15531</v>
+        <v>2.1676</v>
       </c>
       <c r="D97" t="n">
-        <v>1.95316</v>
+        <v>1.92621</v>
       </c>
     </row>
     <row r="98">
@@ -12408,13 +12408,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>3.48797</v>
+        <v>3.53964</v>
       </c>
       <c r="C98" t="n">
-        <v>2.22601</v>
+        <v>2.23706</v>
       </c>
       <c r="D98" t="n">
-        <v>1.99742</v>
+        <v>1.97291</v>
       </c>
     </row>
     <row r="99">
@@ -12422,13 +12422,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>3.38073</v>
+        <v>3.43563</v>
       </c>
       <c r="C99" t="n">
-        <v>2.28616</v>
+        <v>2.30355</v>
       </c>
       <c r="D99" t="n">
-        <v>2.04164</v>
+        <v>2.02905</v>
       </c>
     </row>
     <row r="100">
@@ -12436,13 +12436,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>3.49321</v>
+        <v>3.52687</v>
       </c>
       <c r="C100" t="n">
-        <v>2.35279</v>
+        <v>2.36976</v>
       </c>
       <c r="D100" t="n">
-        <v>2.08118</v>
+        <v>2.0723</v>
       </c>
     </row>
     <row r="101">
@@ -12450,13 +12450,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>3.57891</v>
+        <v>3.63786</v>
       </c>
       <c r="C101" t="n">
-        <v>2.42813</v>
+        <v>2.44605</v>
       </c>
       <c r="D101" t="n">
-        <v>2.12249</v>
+        <v>2.10311</v>
       </c>
     </row>
     <row r="102">
@@ -12464,13 +12464,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>3.69771</v>
+        <v>3.72457</v>
       </c>
       <c r="C102" t="n">
-        <v>2.50443</v>
+        <v>2.51966</v>
       </c>
       <c r="D102" t="n">
-        <v>2.16002</v>
+        <v>2.15599</v>
       </c>
     </row>
     <row r="103">
@@ -12478,13 +12478,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>3.76781</v>
+        <v>3.80983</v>
       </c>
       <c r="C103" t="n">
-        <v>2.58028</v>
+        <v>2.59159</v>
       </c>
       <c r="D103" t="n">
-        <v>2.19461</v>
+        <v>2.17327</v>
       </c>
     </row>
     <row r="104">
@@ -12492,13 +12492,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>3.83864</v>
+        <v>3.92918</v>
       </c>
       <c r="C104" t="n">
-        <v>2.65802</v>
+        <v>2.67224</v>
       </c>
       <c r="D104" t="n">
-        <v>2.22766</v>
+        <v>2.21288</v>
       </c>
     </row>
     <row r="105">
@@ -12506,13 +12506,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>3.94772</v>
+        <v>4.01514</v>
       </c>
       <c r="C105" t="n">
-        <v>2.72984</v>
+        <v>2.7399</v>
       </c>
       <c r="D105" t="n">
-        <v>2.25054</v>
+        <v>2.23319</v>
       </c>
     </row>
     <row r="106">
@@ -12520,13 +12520,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>4.03005</v>
+        <v>4.12628</v>
       </c>
       <c r="C106" t="n">
-        <v>2.81213</v>
+        <v>2.81772</v>
       </c>
       <c r="D106" t="n">
-        <v>2.27278</v>
+        <v>2.27749</v>
       </c>
     </row>
     <row r="107">
@@ -12534,13 +12534,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>4.12182</v>
+        <v>4.23522</v>
       </c>
       <c r="C107" t="n">
-        <v>2.89588</v>
+        <v>2.90851</v>
       </c>
       <c r="D107" t="n">
-        <v>2.30965</v>
+        <v>2.30272</v>
       </c>
     </row>
     <row r="108">
@@ -12548,13 +12548,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>4.23111</v>
+        <v>4.32422</v>
       </c>
       <c r="C108" t="n">
-        <v>2.98355</v>
+        <v>2.98955</v>
       </c>
       <c r="D108" t="n">
-        <v>2.34689</v>
+        <v>2.32801</v>
       </c>
     </row>
     <row r="109">
@@ -12562,13 +12562,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>4.33464</v>
+        <v>4.43437</v>
       </c>
       <c r="C109" t="n">
-        <v>3.08195</v>
+        <v>3.08825</v>
       </c>
       <c r="D109" t="n">
-        <v>2.37191</v>
+        <v>2.36346</v>
       </c>
     </row>
     <row r="110">
@@ -12576,13 +12576,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>4.44891</v>
+        <v>4.52695</v>
       </c>
       <c r="C110" t="n">
-        <v>3.1614</v>
+        <v>3.18503</v>
       </c>
       <c r="D110" t="n">
-        <v>2.39742</v>
+        <v>2.39547</v>
       </c>
     </row>
     <row r="111">
@@ -12590,13 +12590,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>4.53467</v>
+        <v>4.63204</v>
       </c>
       <c r="C111" t="n">
-        <v>2.79055</v>
+        <v>2.81644</v>
       </c>
       <c r="D111" t="n">
-        <v>2.48927</v>
+        <v>2.49328</v>
       </c>
     </row>
     <row r="112">
@@ -12604,13 +12604,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>4.66519</v>
+        <v>4.75586</v>
       </c>
       <c r="C112" t="n">
-        <v>2.85003</v>
+        <v>2.87383</v>
       </c>
       <c r="D112" t="n">
-        <v>2.52455</v>
+        <v>2.52199</v>
       </c>
     </row>
     <row r="113">
@@ -12618,13 +12618,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>4.75377</v>
+        <v>4.86617</v>
       </c>
       <c r="C113" t="n">
-        <v>2.91857</v>
+        <v>2.94281</v>
       </c>
       <c r="D113" t="n">
-        <v>2.54589</v>
+        <v>2.55427</v>
       </c>
     </row>
     <row r="114">
@@ -12632,13 +12632,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>4.43233</v>
+        <v>4.47949</v>
       </c>
       <c r="C114" t="n">
-        <v>2.97482</v>
+        <v>2.98575</v>
       </c>
       <c r="D114" t="n">
-        <v>2.58188</v>
+        <v>2.56699</v>
       </c>
     </row>
     <row r="115">
@@ -12646,13 +12646,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>4.50931</v>
+        <v>4.56461</v>
       </c>
       <c r="C115" t="n">
-        <v>3.04806</v>
+        <v>3.03586</v>
       </c>
       <c r="D115" t="n">
-        <v>2.60365</v>
+        <v>2.5952</v>
       </c>
     </row>
     <row r="116">
@@ -12660,13 +12660,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>4.56588</v>
+        <v>4.64612</v>
       </c>
       <c r="C116" t="n">
-        <v>3.1069</v>
+        <v>3.09892</v>
       </c>
       <c r="D116" t="n">
-        <v>2.63003</v>
+        <v>2.62068</v>
       </c>
     </row>
     <row r="117">
@@ -12674,13 +12674,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>4.66381</v>
+        <v>4.7095</v>
       </c>
       <c r="C117" t="n">
-        <v>3.16846</v>
+        <v>3.171</v>
       </c>
       <c r="D117" t="n">
-        <v>2.64517</v>
+        <v>2.6369</v>
       </c>
     </row>
     <row r="118">
@@ -12688,13 +12688,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>4.78263</v>
+        <v>4.77652</v>
       </c>
       <c r="C118" t="n">
-        <v>3.2499</v>
+        <v>3.23914</v>
       </c>
       <c r="D118" t="n">
-        <v>2.66397</v>
+        <v>2.65203</v>
       </c>
     </row>
     <row r="119">
@@ -12702,13 +12702,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>4.8786</v>
+        <v>4.87127</v>
       </c>
       <c r="C119" t="n">
-        <v>3.32887</v>
+        <v>3.30994</v>
       </c>
       <c r="D119" t="n">
-        <v>2.68964</v>
+        <v>2.68506</v>
       </c>
     </row>
   </sheetData>

--- a/gcc/scattered erasure.xlsx
+++ b/gcc/scattered erasure.xlsx
@@ -7680,13 +7680,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.314632</v>
+        <v>0.320913</v>
       </c>
       <c r="C2" t="n">
-        <v>0.285343</v>
+        <v>0.269413</v>
       </c>
       <c r="D2" t="n">
-        <v>0.227179</v>
+        <v>0.236966</v>
       </c>
     </row>
     <row r="3">
@@ -7694,13 +7694,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.293299</v>
+        <v>0.300802</v>
       </c>
       <c r="C3" t="n">
-        <v>0.288548</v>
+        <v>0.272468</v>
       </c>
       <c r="D3" t="n">
-        <v>0.240983</v>
+        <v>0.241031</v>
       </c>
     </row>
     <row r="4">
@@ -7708,13 +7708,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.297878</v>
+        <v>0.304934</v>
       </c>
       <c r="C4" t="n">
-        <v>0.291638</v>
+        <v>0.276211</v>
       </c>
       <c r="D4" t="n">
-        <v>0.24646</v>
+        <v>0.254389</v>
       </c>
     </row>
     <row r="5">
@@ -7722,13 +7722,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.303152</v>
+        <v>0.314499</v>
       </c>
       <c r="C5" t="n">
-        <v>0.295377</v>
+        <v>0.281192</v>
       </c>
       <c r="D5" t="n">
-        <v>0.248375</v>
+        <v>0.253588</v>
       </c>
     </row>
     <row r="6">
@@ -7736,13 +7736,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.309275</v>
+        <v>0.317751</v>
       </c>
       <c r="C6" t="n">
-        <v>0.299305</v>
+        <v>0.284988</v>
       </c>
       <c r="D6" t="n">
-        <v>0.253687</v>
+        <v>0.26144</v>
       </c>
     </row>
     <row r="7">
@@ -7750,13 +7750,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.316545</v>
+        <v>0.324751</v>
       </c>
       <c r="C7" t="n">
-        <v>0.283002</v>
+        <v>0.268891</v>
       </c>
       <c r="D7" t="n">
-        <v>0.26668</v>
+        <v>0.272639</v>
       </c>
     </row>
     <row r="8">
@@ -7764,13 +7764,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.326456</v>
+        <v>0.331754</v>
       </c>
       <c r="C8" t="n">
-        <v>0.285836</v>
+        <v>0.271621</v>
       </c>
       <c r="D8" t="n">
-        <v>0.272894</v>
+        <v>0.279208</v>
       </c>
     </row>
     <row r="9">
@@ -7778,13 +7778,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.333265</v>
+        <v>0.334857</v>
       </c>
       <c r="C9" t="n">
-        <v>0.288515</v>
+        <v>0.273737</v>
       </c>
       <c r="D9" t="n">
-        <v>0.284256</v>
+        <v>0.28741</v>
       </c>
     </row>
     <row r="10">
@@ -7792,13 +7792,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.344016</v>
+        <v>0.343858</v>
       </c>
       <c r="C10" t="n">
-        <v>0.290199</v>
+        <v>0.276404</v>
       </c>
       <c r="D10" t="n">
-        <v>0.28606</v>
+        <v>0.289162</v>
       </c>
     </row>
     <row r="11">
@@ -7806,13 +7806,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.346431</v>
+        <v>0.347992</v>
       </c>
       <c r="C11" t="n">
-        <v>0.29247</v>
+        <v>0.277963</v>
       </c>
       <c r="D11" t="n">
-        <v>0.291298</v>
+        <v>0.299044</v>
       </c>
     </row>
     <row r="12">
@@ -7820,13 +7820,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.353467</v>
+        <v>0.360182</v>
       </c>
       <c r="C12" t="n">
-        <v>0.294778</v>
+        <v>0.281239</v>
       </c>
       <c r="D12" t="n">
-        <v>0.297156</v>
+        <v>0.298323</v>
       </c>
     </row>
     <row r="13">
@@ -7834,13 +7834,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.361304</v>
+        <v>0.359727</v>
       </c>
       <c r="C13" t="n">
-        <v>0.297019</v>
+        <v>0.284341</v>
       </c>
       <c r="D13" t="n">
-        <v>0.303876</v>
+        <v>0.307849</v>
       </c>
     </row>
     <row r="14">
@@ -7848,13 +7848,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.367554</v>
+        <v>0.371006</v>
       </c>
       <c r="C14" t="n">
-        <v>0.30097</v>
+        <v>0.28802</v>
       </c>
       <c r="D14" t="n">
-        <v>0.308329</v>
+        <v>0.310031</v>
       </c>
     </row>
     <row r="15">
@@ -7862,13 +7862,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.377531</v>
+        <v>0.377337</v>
       </c>
       <c r="C15" t="n">
-        <v>0.304482</v>
+        <v>0.291664</v>
       </c>
       <c r="D15" t="n">
-        <v>0.317009</v>
+        <v>0.319111</v>
       </c>
     </row>
     <row r="16">
@@ -7876,13 +7876,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.386008</v>
+        <v>0.384774</v>
       </c>
       <c r="C16" t="n">
-        <v>0.307862</v>
+        <v>0.294461</v>
       </c>
       <c r="D16" t="n">
-        <v>0.323275</v>
+        <v>0.324371</v>
       </c>
     </row>
     <row r="17">
@@ -7890,13 +7890,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.395014</v>
+        <v>0.392361</v>
       </c>
       <c r="C17" t="n">
-        <v>0.312384</v>
+        <v>0.298378</v>
       </c>
       <c r="D17" t="n">
-        <v>0.329672</v>
+        <v>0.331695</v>
       </c>
     </row>
     <row r="18">
@@ -7904,13 +7904,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.379085</v>
+        <v>0.37644</v>
       </c>
       <c r="C18" t="n">
-        <v>0.315436</v>
+        <v>0.301705</v>
       </c>
       <c r="D18" t="n">
-        <v>0.333913</v>
+        <v>0.334471</v>
       </c>
     </row>
     <row r="19">
@@ -7918,13 +7918,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.385428</v>
+        <v>0.381747</v>
       </c>
       <c r="C19" t="n">
-        <v>0.319455</v>
+        <v>0.306437</v>
       </c>
       <c r="D19" t="n">
-        <v>0.341575</v>
+        <v>0.34068</v>
       </c>
     </row>
     <row r="20">
@@ -7932,13 +7932,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.391548</v>
+        <v>0.387496</v>
       </c>
       <c r="C20" t="n">
-        <v>0.32285</v>
+        <v>0.310806</v>
       </c>
       <c r="D20" t="n">
-        <v>0.347172</v>
+        <v>0.345896</v>
       </c>
     </row>
     <row r="21">
@@ -7946,13 +7946,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.396406</v>
+        <v>0.393206</v>
       </c>
       <c r="C21" t="n">
-        <v>0.298281</v>
+        <v>0.2855</v>
       </c>
       <c r="D21" t="n">
-        <v>0.353519</v>
+        <v>0.352791</v>
       </c>
     </row>
     <row r="22">
@@ -7960,13 +7960,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.40203</v>
+        <v>0.398724</v>
       </c>
       <c r="C22" t="n">
-        <v>0.301679</v>
+        <v>0.288256</v>
       </c>
       <c r="D22" t="n">
-        <v>0.358102</v>
+        <v>0.357129</v>
       </c>
     </row>
     <row r="23">
@@ -7974,13 +7974,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.408597</v>
+        <v>0.404417</v>
       </c>
       <c r="C23" t="n">
-        <v>0.30344</v>
+        <v>0.289811</v>
       </c>
       <c r="D23" t="n">
-        <v>0.362062</v>
+        <v>0.360942</v>
       </c>
     </row>
     <row r="24">
@@ -7988,13 +7988,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.41325</v>
+        <v>0.409104</v>
       </c>
       <c r="C24" t="n">
-        <v>0.306385</v>
+        <v>0.293225</v>
       </c>
       <c r="D24" t="n">
-        <v>0.366387</v>
+        <v>0.364873</v>
       </c>
     </row>
     <row r="25">
@@ -8002,13 +8002,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.420292</v>
+        <v>0.41377</v>
       </c>
       <c r="C25" t="n">
-        <v>0.308514</v>
+        <v>0.295986</v>
       </c>
       <c r="D25" t="n">
-        <v>0.37043</v>
+        <v>0.36847</v>
       </c>
     </row>
     <row r="26">
@@ -8016,13 +8016,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.426491</v>
+        <v>0.419062</v>
       </c>
       <c r="C26" t="n">
-        <v>0.31131</v>
+        <v>0.299186</v>
       </c>
       <c r="D26" t="n">
-        <v>0.374319</v>
+        <v>0.372167</v>
       </c>
     </row>
     <row r="27">
@@ -8030,13 +8030,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.431722</v>
+        <v>0.425327</v>
       </c>
       <c r="C27" t="n">
-        <v>0.314383</v>
+        <v>0.302414</v>
       </c>
       <c r="D27" t="n">
-        <v>0.377526</v>
+        <v>0.376184</v>
       </c>
     </row>
     <row r="28">
@@ -8044,13 +8044,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.43675</v>
+        <v>0.430532</v>
       </c>
       <c r="C28" t="n">
-        <v>0.31752</v>
+        <v>0.305884</v>
       </c>
       <c r="D28" t="n">
-        <v>0.380956</v>
+        <v>0.380162</v>
       </c>
     </row>
     <row r="29">
@@ -8058,13 +8058,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.442845</v>
+        <v>0.439191</v>
       </c>
       <c r="C29" t="n">
-        <v>0.31946</v>
+        <v>0.308764</v>
       </c>
       <c r="D29" t="n">
-        <v>0.385146</v>
+        <v>0.383965</v>
       </c>
     </row>
     <row r="30">
@@ -8072,13 +8072,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.448106</v>
+        <v>0.443026</v>
       </c>
       <c r="C30" t="n">
-        <v>0.322749</v>
+        <v>0.312134</v>
       </c>
       <c r="D30" t="n">
-        <v>0.388331</v>
+        <v>0.386136</v>
       </c>
     </row>
     <row r="31">
@@ -8086,13 +8086,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.455425</v>
+        <v>0.447304</v>
       </c>
       <c r="C31" t="n">
-        <v>0.326623</v>
+        <v>0.315888</v>
       </c>
       <c r="D31" t="n">
-        <v>0.391925</v>
+        <v>0.390174</v>
       </c>
     </row>
     <row r="32">
@@ -8100,13 +8100,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.425408</v>
+        <v>0.420434</v>
       </c>
       <c r="C32" t="n">
-        <v>0.330524</v>
+        <v>0.319926</v>
       </c>
       <c r="D32" t="n">
-        <v>0.395553</v>
+        <v>0.392951</v>
       </c>
     </row>
     <row r="33">
@@ -8114,13 +8114,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.430521</v>
+        <v>0.424918</v>
       </c>
       <c r="C33" t="n">
-        <v>0.334343</v>
+        <v>0.323417</v>
       </c>
       <c r="D33" t="n">
-        <v>0.399459</v>
+        <v>0.397364</v>
       </c>
     </row>
     <row r="34">
@@ -8128,13 +8128,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.433713</v>
+        <v>0.429654</v>
       </c>
       <c r="C34" t="n">
-        <v>0.337894</v>
+        <v>0.327855</v>
       </c>
       <c r="D34" t="n">
-        <v>0.402351</v>
+        <v>0.399818</v>
       </c>
     </row>
     <row r="35">
@@ -8142,13 +8142,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.437811</v>
+        <v>0.432492</v>
       </c>
       <c r="C35" t="n">
-        <v>0.309292</v>
+        <v>0.296396</v>
       </c>
       <c r="D35" t="n">
-        <v>0.402329</v>
+        <v>0.399777</v>
       </c>
     </row>
     <row r="36">
@@ -8156,13 +8156,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.44179</v>
+        <v>0.437981</v>
       </c>
       <c r="C36" t="n">
-        <v>0.310893</v>
+        <v>0.298602</v>
       </c>
       <c r="D36" t="n">
-        <v>0.404178</v>
+        <v>0.401884</v>
       </c>
     </row>
     <row r="37">
@@ -8170,13 +8170,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.445009</v>
+        <v>0.4414</v>
       </c>
       <c r="C37" t="n">
-        <v>0.313812</v>
+        <v>0.301425</v>
       </c>
       <c r="D37" t="n">
-        <v>0.406118</v>
+        <v>0.403308</v>
       </c>
     </row>
     <row r="38">
@@ -8184,13 +8184,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.449515</v>
+        <v>0.444205</v>
       </c>
       <c r="C38" t="n">
-        <v>0.316793</v>
+        <v>0.303468</v>
       </c>
       <c r="D38" t="n">
-        <v>0.40825</v>
+        <v>0.405594</v>
       </c>
     </row>
     <row r="39">
@@ -8198,13 +8198,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.454621</v>
+        <v>0.447362</v>
       </c>
       <c r="C39" t="n">
-        <v>0.318706</v>
+        <v>0.306457</v>
       </c>
       <c r="D39" t="n">
-        <v>0.410937</v>
+        <v>0.408087</v>
       </c>
     </row>
     <row r="40">
@@ -8212,13 +8212,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.458671</v>
+        <v>0.452112</v>
       </c>
       <c r="C40" t="n">
-        <v>0.32165</v>
+        <v>0.309098</v>
       </c>
       <c r="D40" t="n">
-        <v>0.412576</v>
+        <v>0.409966</v>
       </c>
     </row>
     <row r="41">
@@ -8226,13 +8226,13 @@
         <v>66357</v>
       </c>
       <c r="B41" t="n">
-        <v>0.463326</v>
+        <v>0.456278</v>
       </c>
       <c r="C41" t="n">
-        <v>0.323705</v>
+        <v>0.311936</v>
       </c>
       <c r="D41" t="n">
-        <v>0.414725</v>
+        <v>0.411727</v>
       </c>
     </row>
     <row r="42">
@@ -8240,13 +8240,13 @@
         <v>69656</v>
       </c>
       <c r="B42" t="n">
-        <v>0.468178</v>
+        <v>0.460907</v>
       </c>
       <c r="C42" t="n">
-        <v>0.327191</v>
+        <v>0.314401</v>
       </c>
       <c r="D42" t="n">
-        <v>0.417314</v>
+        <v>0.414253</v>
       </c>
     </row>
     <row r="43">
@@ -8254,13 +8254,13 @@
         <v>73119</v>
       </c>
       <c r="B43" t="n">
-        <v>0.472348</v>
+        <v>0.465573</v>
       </c>
       <c r="C43" t="n">
-        <v>0.329934</v>
+        <v>0.317069</v>
       </c>
       <c r="D43" t="n">
-        <v>0.41939</v>
+        <v>0.416833</v>
       </c>
     </row>
     <row r="44">
@@ -8268,13 +8268,13 @@
         <v>76755</v>
       </c>
       <c r="B44" t="n">
-        <v>0.477427</v>
+        <v>0.47111</v>
       </c>
       <c r="C44" t="n">
-        <v>0.334138</v>
+        <v>0.321604</v>
       </c>
       <c r="D44" t="n">
-        <v>0.421669</v>
+        <v>0.419491</v>
       </c>
     </row>
     <row r="45">
@@ -8282,13 +8282,13 @@
         <v>80572</v>
       </c>
       <c r="B45" t="n">
-        <v>0.482658</v>
+        <v>0.477</v>
       </c>
       <c r="C45" t="n">
-        <v>0.338009</v>
+        <v>0.32527</v>
       </c>
       <c r="D45" t="n">
-        <v>0.423887</v>
+        <v>0.42127</v>
       </c>
     </row>
     <row r="46">
@@ -8296,13 +8296,13 @@
         <v>84579</v>
       </c>
       <c r="B46" t="n">
-        <v>0.48771</v>
+        <v>0.481519</v>
       </c>
       <c r="C46" t="n">
-        <v>0.340789</v>
+        <v>0.329401</v>
       </c>
       <c r="D46" t="n">
-        <v>0.425769</v>
+        <v>0.423477</v>
       </c>
     </row>
     <row r="47">
@@ -8310,13 +8310,13 @@
         <v>88786</v>
       </c>
       <c r="B47" t="n">
-        <v>0.449985</v>
+        <v>0.444408</v>
       </c>
       <c r="C47" t="n">
-        <v>0.34608</v>
+        <v>0.333162</v>
       </c>
       <c r="D47" t="n">
-        <v>0.429864</v>
+        <v>0.426142</v>
       </c>
     </row>
     <row r="48">
@@ -8324,13 +8324,13 @@
         <v>93203</v>
       </c>
       <c r="B48" t="n">
-        <v>0.454749</v>
+        <v>0.447496</v>
       </c>
       <c r="C48" t="n">
-        <v>0.35042</v>
+        <v>0.336144</v>
       </c>
       <c r="D48" t="n">
-        <v>0.431794</v>
+        <v>0.428348</v>
       </c>
     </row>
     <row r="49">
@@ -8338,13 +8338,13 @@
         <v>97840</v>
       </c>
       <c r="B49" t="n">
-        <v>0.458141</v>
+        <v>0.45138</v>
       </c>
       <c r="C49" t="n">
-        <v>0.35485</v>
+        <v>0.341597</v>
       </c>
       <c r="D49" t="n">
-        <v>0.433654</v>
+        <v>0.430643</v>
       </c>
     </row>
     <row r="50">
@@ -8352,13 +8352,13 @@
         <v>102706</v>
       </c>
       <c r="B50" t="n">
-        <v>0.460901</v>
+        <v>0.454308</v>
       </c>
       <c r="C50" t="n">
-        <v>0.326001</v>
+        <v>0.310476</v>
       </c>
       <c r="D50" t="n">
-        <v>0.429073</v>
+        <v>0.425627</v>
       </c>
     </row>
     <row r="51">
@@ -8366,13 +8366,13 @@
         <v>107816</v>
       </c>
       <c r="B51" t="n">
-        <v>0.46482</v>
+        <v>0.457866</v>
       </c>
       <c r="C51" t="n">
-        <v>0.328395</v>
+        <v>0.31332</v>
       </c>
       <c r="D51" t="n">
-        <v>0.430377</v>
+        <v>0.428455</v>
       </c>
     </row>
     <row r="52">
@@ -8380,13 +8380,13 @@
         <v>113182</v>
       </c>
       <c r="B52" t="n">
-        <v>0.468702</v>
+        <v>0.466583</v>
       </c>
       <c r="C52" t="n">
-        <v>0.330858</v>
+        <v>0.31489</v>
       </c>
       <c r="D52" t="n">
-        <v>0.431146</v>
+        <v>0.42997</v>
       </c>
     </row>
     <row r="53">
@@ -8394,13 +8394,13 @@
         <v>118816</v>
       </c>
       <c r="B53" t="n">
-        <v>0.471591</v>
+        <v>0.468131</v>
       </c>
       <c r="C53" t="n">
-        <v>0.332629</v>
+        <v>0.317114</v>
       </c>
       <c r="D53" t="n">
-        <v>0.4323</v>
+        <v>0.430395</v>
       </c>
     </row>
     <row r="54">
@@ -8408,13 +8408,13 @@
         <v>124731</v>
       </c>
       <c r="B54" t="n">
-        <v>0.475689</v>
+        <v>0.473489</v>
       </c>
       <c r="C54" t="n">
-        <v>0.339908</v>
+        <v>0.323519</v>
       </c>
       <c r="D54" t="n">
-        <v>0.433995</v>
+        <v>0.431475</v>
       </c>
     </row>
     <row r="55">
@@ -8422,13 +8422,13 @@
         <v>130941</v>
       </c>
       <c r="B55" t="n">
-        <v>0.47934</v>
+        <v>0.472912</v>
       </c>
       <c r="C55" t="n">
-        <v>0.342017</v>
+        <v>0.326095</v>
       </c>
       <c r="D55" t="n">
-        <v>0.43541</v>
+        <v>0.432625</v>
       </c>
     </row>
     <row r="56">
@@ -8436,13 +8436,13 @@
         <v>137461</v>
       </c>
       <c r="B56" t="n">
-        <v>0.483943</v>
+        <v>0.481999</v>
       </c>
       <c r="C56" t="n">
-        <v>0.343847</v>
+        <v>0.32928</v>
       </c>
       <c r="D56" t="n">
-        <v>0.436785</v>
+        <v>0.435085</v>
       </c>
     </row>
     <row r="57">
@@ -8450,13 +8450,13 @@
         <v>144307</v>
       </c>
       <c r="B57" t="n">
-        <v>0.487718</v>
+        <v>0.485589</v>
       </c>
       <c r="C57" t="n">
-        <v>0.347524</v>
+        <v>0.339755</v>
       </c>
       <c r="D57" t="n">
-        <v>0.4381</v>
+        <v>0.436044</v>
       </c>
     </row>
     <row r="58">
@@ -8464,13 +8464,13 @@
         <v>151495</v>
       </c>
       <c r="B58" t="n">
-        <v>0.492119</v>
+        <v>0.485337</v>
       </c>
       <c r="C58" t="n">
-        <v>0.353366</v>
+        <v>0.347573</v>
       </c>
       <c r="D58" t="n">
-        <v>0.440515</v>
+        <v>0.437496</v>
       </c>
     </row>
     <row r="59">
@@ -8478,13 +8478,13 @@
         <v>159042</v>
       </c>
       <c r="B59" t="n">
-        <v>0.49656</v>
+        <v>0.491897</v>
       </c>
       <c r="C59" t="n">
-        <v>0.359133</v>
+        <v>0.35294</v>
       </c>
       <c r="D59" t="n">
-        <v>0.441756</v>
+        <v>0.439515</v>
       </c>
     </row>
     <row r="60">
@@ -8492,13 +8492,13 @@
         <v>166965</v>
       </c>
       <c r="B60" t="n">
-        <v>0.502057</v>
+        <v>0.499661</v>
       </c>
       <c r="C60" t="n">
-        <v>0.364899</v>
+        <v>0.359433</v>
       </c>
       <c r="D60" t="n">
-        <v>0.443543</v>
+        <v>0.443248</v>
       </c>
     </row>
     <row r="61">
@@ -8506,13 +8506,13 @@
         <v>175284</v>
       </c>
       <c r="B61" t="n">
-        <v>0.478414</v>
+        <v>0.485325</v>
       </c>
       <c r="C61" t="n">
-        <v>0.367674</v>
+        <v>0.365072</v>
       </c>
       <c r="D61" t="n">
-        <v>0.445704</v>
+        <v>0.448545</v>
       </c>
     </row>
     <row r="62">
@@ -8520,13 +8520,13 @@
         <v>184019</v>
       </c>
       <c r="B62" t="n">
-        <v>0.486859</v>
+        <v>0.497615</v>
       </c>
       <c r="C62" t="n">
-        <v>0.375321</v>
+        <v>0.371846</v>
       </c>
       <c r="D62" t="n">
-        <v>0.448568</v>
+        <v>0.451329</v>
       </c>
     </row>
     <row r="63">
@@ -8534,13 +8534,13 @@
         <v>193190</v>
       </c>
       <c r="B63" t="n">
-        <v>0.496693</v>
+        <v>0.507621</v>
       </c>
       <c r="C63" t="n">
-        <v>0.38927</v>
+        <v>0.381819</v>
       </c>
       <c r="D63" t="n">
-        <v>0.450667</v>
+        <v>0.453545</v>
       </c>
     </row>
     <row r="64">
@@ -8548,13 +8548,13 @@
         <v>202820</v>
       </c>
       <c r="B64" t="n">
-        <v>0.508345</v>
+        <v>0.511333</v>
       </c>
       <c r="C64" t="n">
-        <v>0.434948</v>
+        <v>0.437003</v>
       </c>
       <c r="D64" t="n">
-        <v>0.485924</v>
+        <v>0.485584</v>
       </c>
     </row>
     <row r="65">
@@ -8562,13 +8562,13 @@
         <v>212931</v>
       </c>
       <c r="B65" t="n">
-        <v>0.526887</v>
+        <v>0.519722</v>
       </c>
       <c r="C65" t="n">
-        <v>0.445145</v>
+        <v>0.463606</v>
       </c>
       <c r="D65" t="n">
-        <v>0.492289</v>
+        <v>0.49329</v>
       </c>
     </row>
     <row r="66">
@@ -8576,13 +8576,13 @@
         <v>223547</v>
       </c>
       <c r="B66" t="n">
-        <v>0.539273</v>
+        <v>0.551519</v>
       </c>
       <c r="C66" t="n">
-        <v>0.462987</v>
+        <v>0.487226</v>
       </c>
       <c r="D66" t="n">
-        <v>0.499732</v>
+        <v>0.511192</v>
       </c>
     </row>
     <row r="67">
@@ -8590,13 +8590,13 @@
         <v>234692</v>
       </c>
       <c r="B67" t="n">
-        <v>0.552088</v>
+        <v>0.558741</v>
       </c>
       <c r="C67" t="n">
-        <v>0.481128</v>
+        <v>0.505645</v>
       </c>
       <c r="D67" t="n">
-        <v>0.514948</v>
+        <v>0.512192</v>
       </c>
     </row>
     <row r="68">
@@ -8604,13 +8604,13 @@
         <v>246395</v>
       </c>
       <c r="B68" t="n">
-        <v>0.567334</v>
+        <v>0.566336</v>
       </c>
       <c r="C68" t="n">
-        <v>0.501939</v>
+        <v>0.5236690000000001</v>
       </c>
       <c r="D68" t="n">
-        <v>0.5316419999999999</v>
+        <v>0.532205</v>
       </c>
     </row>
     <row r="69">
@@ -8618,13 +8618,13 @@
         <v>258683</v>
       </c>
       <c r="B69" t="n">
-        <v>0.588367</v>
+        <v>0.589584</v>
       </c>
       <c r="C69" t="n">
-        <v>0.5246150000000001</v>
+        <v>0.5486529999999999</v>
       </c>
       <c r="D69" t="n">
-        <v>0.549421</v>
+        <v>0.550021</v>
       </c>
     </row>
     <row r="70">
@@ -8632,13 +8632,13 @@
         <v>271585</v>
       </c>
       <c r="B70" t="n">
-        <v>0.6117320000000001</v>
+        <v>0.613109</v>
       </c>
       <c r="C70" t="n">
-        <v>0.540301</v>
+        <v>0.579353</v>
       </c>
       <c r="D70" t="n">
-        <v>0.569015</v>
+        <v>0.56118</v>
       </c>
     </row>
     <row r="71">
@@ -8646,13 +8646,13 @@
         <v>285132</v>
       </c>
       <c r="B71" t="n">
-        <v>0.629952</v>
+        <v>0.6156509999999999</v>
       </c>
       <c r="C71" t="n">
-        <v>0.559362</v>
+        <v>0.599695</v>
       </c>
       <c r="D71" t="n">
-        <v>0.586545</v>
+        <v>0.580182</v>
       </c>
     </row>
     <row r="72">
@@ -8660,13 +8660,13 @@
         <v>299354</v>
       </c>
       <c r="B72" t="n">
-        <v>0.654682</v>
+        <v>0.650582</v>
       </c>
       <c r="C72" t="n">
-        <v>0.584856</v>
+        <v>0.644543</v>
       </c>
       <c r="D72" t="n">
-        <v>0.607252</v>
+        <v>0.611408</v>
       </c>
     </row>
     <row r="73">
@@ -8674,13 +8674,13 @@
         <v>314289</v>
       </c>
       <c r="B73" t="n">
-        <v>0.682111</v>
+        <v>0.688847</v>
       </c>
       <c r="C73" t="n">
-        <v>0.604606</v>
+        <v>0.672964</v>
       </c>
       <c r="D73" t="n">
-        <v>0.630356</v>
+        <v>0.654633</v>
       </c>
     </row>
     <row r="74">
@@ -8688,13 +8688,13 @@
         <v>329969</v>
       </c>
       <c r="B74" t="n">
-        <v>0.706384</v>
+        <v>0.732063</v>
       </c>
       <c r="C74" t="n">
-        <v>0.634619</v>
+        <v>0.704171</v>
       </c>
       <c r="D74" t="n">
-        <v>0.658102</v>
+        <v>0.668139</v>
       </c>
     </row>
     <row r="75">
@@ -8702,13 +8702,13 @@
         <v>346432</v>
       </c>
       <c r="B75" t="n">
-        <v>0.735862</v>
+        <v>0.766563</v>
       </c>
       <c r="C75" t="n">
-        <v>0.6566689999999999</v>
+        <v>0.728948</v>
       </c>
       <c r="D75" t="n">
-        <v>0.687643</v>
+        <v>0.707342</v>
       </c>
     </row>
     <row r="76">
@@ -8716,13 +8716,13 @@
         <v>363719</v>
       </c>
       <c r="B76" t="n">
-        <v>0.950413</v>
+        <v>1.01248</v>
       </c>
       <c r="C76" t="n">
-        <v>0.681011</v>
+        <v>0.762672</v>
       </c>
       <c r="D76" t="n">
-        <v>0.723614</v>
+        <v>0.750951</v>
       </c>
     </row>
     <row r="77">
@@ -8730,13 +8730,13 @@
         <v>381870</v>
       </c>
       <c r="B77" t="n">
-        <v>0.9957859999999999</v>
+        <v>1.06971</v>
       </c>
       <c r="C77" t="n">
-        <v>0.70927</v>
+        <v>0.791185</v>
       </c>
       <c r="D77" t="n">
-        <v>0.763612</v>
+        <v>0.7912709999999999</v>
       </c>
     </row>
     <row r="78">
@@ -8744,13 +8744,13 @@
         <v>400928</v>
       </c>
       <c r="B78" t="n">
-        <v>1.04557</v>
+        <v>1.1301</v>
       </c>
       <c r="C78" t="n">
-        <v>0.824179</v>
+        <v>0.974361</v>
       </c>
       <c r="D78" t="n">
-        <v>1.01753</v>
+        <v>1.11889</v>
       </c>
     </row>
     <row r="79">
@@ -8758,13 +8758,13 @@
         <v>420937</v>
       </c>
       <c r="B79" t="n">
-        <v>1.09361</v>
+        <v>1.21428</v>
       </c>
       <c r="C79" t="n">
-        <v>0.840739</v>
+        <v>1.00086</v>
       </c>
       <c r="D79" t="n">
-        <v>1.06316</v>
+        <v>1.18188</v>
       </c>
     </row>
     <row r="80">
@@ -8772,13 +8772,13 @@
         <v>441947</v>
       </c>
       <c r="B80" t="n">
-        <v>1.15064</v>
+        <v>1.25844</v>
       </c>
       <c r="C80" t="n">
-        <v>0.857745</v>
+        <v>1.02123</v>
       </c>
       <c r="D80" t="n">
-        <v>1.12541</v>
+        <v>1.23096</v>
       </c>
     </row>
     <row r="81">
@@ -8786,13 +8786,13 @@
         <v>464005</v>
       </c>
       <c r="B81" t="n">
-        <v>1.20932</v>
+        <v>1.32342</v>
       </c>
       <c r="C81" t="n">
-        <v>0.874132</v>
+        <v>1.04589</v>
       </c>
       <c r="D81" t="n">
-        <v>1.17644</v>
+        <v>1.29417</v>
       </c>
     </row>
     <row r="82">
@@ -8800,13 +8800,13 @@
         <v>487165</v>
       </c>
       <c r="B82" t="n">
-        <v>1.25849</v>
+        <v>1.38024</v>
       </c>
       <c r="C82" t="n">
-        <v>0.890173</v>
+        <v>1.0694</v>
       </c>
       <c r="D82" t="n">
-        <v>1.22305</v>
+        <v>1.34225</v>
       </c>
     </row>
     <row r="83">
@@ -8814,13 +8814,13 @@
         <v>511485</v>
       </c>
       <c r="B83" t="n">
-        <v>1.30953</v>
+        <v>1.43528</v>
       </c>
       <c r="C83" t="n">
-        <v>0.907656</v>
+        <v>1.08883</v>
       </c>
       <c r="D83" t="n">
-        <v>1.27335</v>
+        <v>1.40205</v>
       </c>
     </row>
     <row r="84">
@@ -8828,13 +8828,13 @@
         <v>537019</v>
       </c>
       <c r="B84" t="n">
-        <v>1.36032</v>
+        <v>1.4989</v>
       </c>
       <c r="C84" t="n">
-        <v>0.922849</v>
+        <v>1.11505</v>
       </c>
       <c r="D84" t="n">
-        <v>1.32532</v>
+        <v>1.46811</v>
       </c>
     </row>
     <row r="85">
@@ -8842,13 +8842,13 @@
         <v>563827</v>
       </c>
       <c r="B85" t="n">
-        <v>1.41311</v>
+        <v>1.56896</v>
       </c>
       <c r="C85" t="n">
-        <v>0.938542</v>
+        <v>1.1357</v>
       </c>
       <c r="D85" t="n">
-        <v>1.37041</v>
+        <v>1.51839</v>
       </c>
     </row>
     <row r="86">
@@ -8856,13 +8856,13 @@
         <v>591977</v>
       </c>
       <c r="B86" t="n">
-        <v>1.46195</v>
+        <v>1.62243</v>
       </c>
       <c r="C86" t="n">
-        <v>0.9540149999999999</v>
+        <v>1.15655</v>
       </c>
       <c r="D86" t="n">
-        <v>1.422</v>
+        <v>1.57691</v>
       </c>
     </row>
     <row r="87">
@@ -8870,13 +8870,13 @@
         <v>621532</v>
       </c>
       <c r="B87" t="n">
-        <v>1.51402</v>
+        <v>1.67788</v>
       </c>
       <c r="C87" t="n">
-        <v>0.969975</v>
+        <v>1.17561</v>
       </c>
       <c r="D87" t="n">
-        <v>1.46701</v>
+        <v>1.63182</v>
       </c>
     </row>
     <row r="88">
@@ -8884,13 +8884,13 @@
         <v>652567</v>
       </c>
       <c r="B88" t="n">
-        <v>1.55884</v>
+        <v>1.73554</v>
       </c>
       <c r="C88" t="n">
-        <v>0.985241</v>
+        <v>1.19744</v>
       </c>
       <c r="D88" t="n">
-        <v>1.51366</v>
+        <v>1.68219</v>
       </c>
     </row>
     <row r="89">
@@ -8898,13 +8898,13 @@
         <v>685151</v>
       </c>
       <c r="B89" t="n">
-        <v>1.61499</v>
+        <v>1.79209</v>
       </c>
       <c r="C89" t="n">
-        <v>1.00465</v>
+        <v>1.21621</v>
       </c>
       <c r="D89" t="n">
-        <v>1.55765</v>
+        <v>1.73382</v>
       </c>
     </row>
     <row r="90">
@@ -8912,13 +8912,13 @@
         <v>719359</v>
       </c>
       <c r="B90" t="n">
-        <v>1.83151</v>
+        <v>2.05645</v>
       </c>
       <c r="C90" t="n">
-        <v>1.01844</v>
+        <v>1.23846</v>
       </c>
       <c r="D90" t="n">
-        <v>1.59617</v>
+        <v>1.77905</v>
       </c>
     </row>
     <row r="91">
@@ -8926,13 +8926,13 @@
         <v>755280</v>
       </c>
       <c r="B91" t="n">
-        <v>1.86378</v>
+        <v>2.09512</v>
       </c>
       <c r="C91" t="n">
-        <v>1.03437</v>
+        <v>1.25756</v>
       </c>
       <c r="D91" t="n">
-        <v>1.64718</v>
+        <v>1.82448</v>
       </c>
     </row>
     <row r="92">
@@ -8940,13 +8940,13 @@
         <v>792997</v>
       </c>
       <c r="B92" t="n">
-        <v>1.90682</v>
+        <v>2.14132</v>
       </c>
       <c r="C92" t="n">
-        <v>1.06628</v>
+        <v>1.32684</v>
       </c>
       <c r="D92" t="n">
-        <v>1.85303</v>
+        <v>2.0778</v>
       </c>
     </row>
     <row r="93">
@@ -8954,13 +8954,13 @@
         <v>832595</v>
       </c>
       <c r="B93" t="n">
-        <v>1.93774</v>
+        <v>2.17595</v>
       </c>
       <c r="C93" t="n">
-        <v>1.07642</v>
+        <v>1.33982</v>
       </c>
       <c r="D93" t="n">
-        <v>1.87346</v>
+        <v>2.11289</v>
       </c>
     </row>
     <row r="94">
@@ -8968,13 +8968,13 @@
         <v>874177</v>
       </c>
       <c r="B94" t="n">
-        <v>1.96861</v>
+        <v>2.21202</v>
       </c>
       <c r="C94" t="n">
-        <v>1.08366</v>
+        <v>1.34948</v>
       </c>
       <c r="D94" t="n">
-        <v>1.91284</v>
+        <v>2.13878</v>
       </c>
     </row>
     <row r="95">
@@ -8982,13 +8982,13 @@
         <v>917832</v>
       </c>
       <c r="B95" t="n">
-        <v>1.99936</v>
+        <v>2.24514</v>
       </c>
       <c r="C95" t="n">
-        <v>1.09598</v>
+        <v>1.36405</v>
       </c>
       <c r="D95" t="n">
-        <v>1.94313</v>
+        <v>2.18298</v>
       </c>
     </row>
     <row r="96">
@@ -8996,13 +8996,13 @@
         <v>963677</v>
       </c>
       <c r="B96" t="n">
-        <v>2.03179</v>
+        <v>2.28086</v>
       </c>
       <c r="C96" t="n">
-        <v>1.10357</v>
+        <v>1.37829</v>
       </c>
       <c r="D96" t="n">
-        <v>1.96797</v>
+        <v>2.21826</v>
       </c>
     </row>
     <row r="97">
@@ -9010,13 +9010,13 @@
         <v>1011813</v>
       </c>
       <c r="B97" t="n">
-        <v>2.06255</v>
+        <v>2.31932</v>
       </c>
       <c r="C97" t="n">
-        <v>1.11417</v>
+        <v>1.38998</v>
       </c>
       <c r="D97" t="n">
-        <v>1.99767</v>
+        <v>2.24391</v>
       </c>
     </row>
     <row r="98">
@@ -9024,13 +9024,13 @@
         <v>1062351</v>
       </c>
       <c r="B98" t="n">
-        <v>2.08966</v>
+        <v>2.35792</v>
       </c>
       <c r="C98" t="n">
-        <v>1.12517</v>
+        <v>1.40088</v>
       </c>
       <c r="D98" t="n">
-        <v>2.02602</v>
+        <v>2.28153</v>
       </c>
     </row>
     <row r="99">
@@ -9038,13 +9038,13 @@
         <v>1115422</v>
       </c>
       <c r="B99" t="n">
-        <v>2.12256</v>
+        <v>2.39371</v>
       </c>
       <c r="C99" t="n">
-        <v>1.13751</v>
+        <v>1.41497</v>
       </c>
       <c r="D99" t="n">
-        <v>2.04857</v>
+        <v>2.30839</v>
       </c>
     </row>
     <row r="100">
@@ -9052,13 +9052,13 @@
         <v>1171143</v>
       </c>
       <c r="B100" t="n">
-        <v>2.15233</v>
+        <v>2.42715</v>
       </c>
       <c r="C100" t="n">
-        <v>1.14837</v>
+        <v>1.42818</v>
       </c>
       <c r="D100" t="n">
-        <v>2.06431</v>
+        <v>2.3243</v>
       </c>
     </row>
     <row r="101">
@@ -9066,13 +9066,13 @@
         <v>1229634</v>
       </c>
       <c r="B101" t="n">
-        <v>2.17564</v>
+        <v>2.46013</v>
       </c>
       <c r="C101" t="n">
-        <v>1.15938</v>
+        <v>1.44183</v>
       </c>
       <c r="D101" t="n">
-        <v>2.0947</v>
+        <v>2.36117</v>
       </c>
     </row>
     <row r="102">
@@ -9080,13 +9080,13 @@
         <v>1291062</v>
       </c>
       <c r="B102" t="n">
-        <v>2.20586</v>
+        <v>2.49328</v>
       </c>
       <c r="C102" t="n">
-        <v>1.17321</v>
+        <v>1.45411</v>
       </c>
       <c r="D102" t="n">
-        <v>2.09712</v>
+        <v>2.3959</v>
       </c>
     </row>
     <row r="103">
@@ -9094,13 +9094,13 @@
         <v>1355554</v>
       </c>
       <c r="B103" t="n">
-        <v>2.23295</v>
+        <v>2.5301</v>
       </c>
       <c r="C103" t="n">
-        <v>1.1865</v>
+        <v>1.47024</v>
       </c>
       <c r="D103" t="n">
-        <v>2.14186</v>
+        <v>2.4173</v>
       </c>
     </row>
     <row r="104">
@@ -9108,13 +9108,13 @@
         <v>1423274</v>
       </c>
       <c r="B104" t="n">
-        <v>2.26161</v>
+        <v>2.55719</v>
       </c>
       <c r="C104" t="n">
-        <v>1.19981</v>
+        <v>1.48319</v>
       </c>
       <c r="D104" t="n">
-        <v>2.16637</v>
+        <v>2.44779</v>
       </c>
     </row>
     <row r="105">
@@ -9122,13 +9122,13 @@
         <v>1494380</v>
       </c>
       <c r="B105" t="n">
-        <v>2.34611</v>
+        <v>2.65637</v>
       </c>
       <c r="C105" t="n">
-        <v>1.21229</v>
+        <v>1.49692</v>
       </c>
       <c r="D105" t="n">
-        <v>2.17989</v>
+        <v>2.46648</v>
       </c>
     </row>
     <row r="106">
@@ -9136,13 +9136,13 @@
         <v>1569031</v>
       </c>
       <c r="B106" t="n">
-        <v>2.36682</v>
+        <v>2.6815</v>
       </c>
       <c r="C106" t="n">
-        <v>1.22814</v>
+        <v>1.51378</v>
       </c>
       <c r="D106" t="n">
-        <v>2.20078</v>
+        <v>2.49274</v>
       </c>
     </row>
     <row r="107">
@@ -9150,13 +9150,13 @@
         <v>1647417</v>
       </c>
       <c r="B107" t="n">
-        <v>2.38551</v>
+        <v>2.7058</v>
       </c>
       <c r="C107" t="n">
-        <v>1.19778</v>
+        <v>1.5026</v>
       </c>
       <c r="D107" t="n">
-        <v>2.32078</v>
+        <v>2.62634</v>
       </c>
     </row>
     <row r="108">
@@ -9164,13 +9164,13 @@
         <v>1729734</v>
       </c>
       <c r="B108" t="n">
-        <v>2.40896</v>
+        <v>2.72755</v>
       </c>
       <c r="C108" t="n">
-        <v>1.20554</v>
+        <v>1.5112</v>
       </c>
       <c r="D108" t="n">
-        <v>2.33663</v>
+        <v>2.62098</v>
       </c>
     </row>
     <row r="109">
@@ -9178,13 +9178,13 @@
         <v>1816153</v>
       </c>
       <c r="B109" t="n">
-        <v>2.43036</v>
+        <v>2.7467</v>
       </c>
       <c r="C109" t="n">
-        <v>1.21171</v>
+        <v>1.52033</v>
       </c>
       <c r="D109" t="n">
-        <v>2.35074</v>
+        <v>2.65738</v>
       </c>
     </row>
     <row r="110">
@@ -9192,13 +9192,13 @@
         <v>1906885</v>
       </c>
       <c r="B110" t="n">
-        <v>2.45063</v>
+        <v>2.77476</v>
       </c>
       <c r="C110" t="n">
-        <v>1.22104</v>
+        <v>1.52796</v>
       </c>
       <c r="D110" t="n">
-        <v>2.3591</v>
+        <v>2.65817</v>
       </c>
     </row>
     <row r="111">
@@ -9206,13 +9206,13 @@
         <v>2002164</v>
       </c>
       <c r="B111" t="n">
-        <v>2.47043</v>
+        <v>2.79313</v>
       </c>
       <c r="C111" t="n">
-        <v>1.23157</v>
+        <v>1.53915</v>
       </c>
       <c r="D111" t="n">
-        <v>2.37392</v>
+        <v>2.69206</v>
       </c>
     </row>
     <row r="112">
@@ -9220,13 +9220,13 @@
         <v>2102198</v>
       </c>
       <c r="B112" t="n">
-        <v>2.49162</v>
+        <v>2.81884</v>
       </c>
       <c r="C112" t="n">
-        <v>1.24354</v>
+        <v>1.5487</v>
       </c>
       <c r="D112" t="n">
-        <v>2.39532</v>
+        <v>2.70163</v>
       </c>
     </row>
     <row r="113">
@@ -9234,13 +9234,13 @@
         <v>2207233</v>
       </c>
       <c r="B113" t="n">
-        <v>2.5074</v>
+        <v>2.83514</v>
       </c>
       <c r="C113" t="n">
-        <v>1.24958</v>
+        <v>1.55734</v>
       </c>
       <c r="D113" t="n">
-        <v>2.40929</v>
+        <v>2.72214</v>
       </c>
     </row>
     <row r="114">
@@ -9248,13 +9248,13 @@
         <v>2317508</v>
       </c>
       <c r="B114" t="n">
-        <v>2.52877</v>
+        <v>2.85501</v>
       </c>
       <c r="C114" t="n">
-        <v>1.26088</v>
+        <v>1.5688</v>
       </c>
       <c r="D114" t="n">
-        <v>2.42016</v>
+        <v>2.73081</v>
       </c>
     </row>
     <row r="115">
@@ -9262,13 +9262,13 @@
         <v>2433290</v>
       </c>
       <c r="B115" t="n">
-        <v>2.54862</v>
+        <v>2.87809</v>
       </c>
       <c r="C115" t="n">
-        <v>1.27436</v>
+        <v>1.57876</v>
       </c>
       <c r="D115" t="n">
-        <v>2.42381</v>
+        <v>2.74945</v>
       </c>
     </row>
     <row r="116">
@@ -9276,13 +9276,13 @@
         <v>2554854</v>
       </c>
       <c r="B116" t="n">
-        <v>2.56462</v>
+        <v>2.90065</v>
       </c>
       <c r="C116" t="n">
-        <v>1.28527</v>
+        <v>1.5889</v>
       </c>
       <c r="D116" t="n">
-        <v>2.44624</v>
+        <v>2.75891</v>
       </c>
     </row>
     <row r="117">
@@ -9290,13 +9290,13 @@
         <v>2682511</v>
       </c>
       <c r="B117" t="n">
-        <v>2.58542</v>
+        <v>2.91905</v>
       </c>
       <c r="C117" t="n">
-        <v>1.29627</v>
+        <v>1.59972</v>
       </c>
       <c r="D117" t="n">
-        <v>2.46131</v>
+        <v>2.7736</v>
       </c>
     </row>
     <row r="118">
@@ -9304,13 +9304,13 @@
         <v>2816546</v>
       </c>
       <c r="B118" t="n">
-        <v>2.60289</v>
+        <v>2.94123</v>
       </c>
       <c r="C118" t="n">
-        <v>1.30921</v>
+        <v>1.61113</v>
       </c>
       <c r="D118" t="n">
-        <v>2.46939</v>
+        <v>2.78776</v>
       </c>
     </row>
     <row r="119">
@@ -9318,13 +9318,13 @@
         <v>2957287</v>
       </c>
       <c r="B119" t="n">
-        <v>2.62022</v>
+        <v>2.96148</v>
       </c>
       <c r="C119" t="n">
-        <v>1.32005</v>
+        <v>1.62344</v>
       </c>
       <c r="D119" t="n">
-        <v>2.4682</v>
+        <v>2.78624</v>
       </c>
     </row>
   </sheetData>
@@ -9372,13 +9372,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.477872</v>
+        <v>0.495425</v>
       </c>
       <c r="C2" t="n">
-        <v>0.365543</v>
+        <v>0.418319</v>
       </c>
       <c r="D2" t="n">
-        <v>0.331916</v>
+        <v>0.344493</v>
       </c>
     </row>
     <row r="3">
@@ -9386,13 +9386,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.498775</v>
+        <v>0.504259</v>
       </c>
       <c r="C3" t="n">
-        <v>0.371783</v>
+        <v>0.427208</v>
       </c>
       <c r="D3" t="n">
-        <v>0.336255</v>
+        <v>0.347857</v>
       </c>
     </row>
     <row r="4">
@@ -9400,13 +9400,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.497768</v>
+        <v>0.508302</v>
       </c>
       <c r="C4" t="n">
-        <v>0.377725</v>
+        <v>0.435758</v>
       </c>
       <c r="D4" t="n">
-        <v>0.342632</v>
+        <v>0.356686</v>
       </c>
     </row>
     <row r="5">
@@ -9414,13 +9414,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.502004</v>
+        <v>0.525343</v>
       </c>
       <c r="C5" t="n">
-        <v>0.382258</v>
+        <v>0.438049</v>
       </c>
       <c r="D5" t="n">
-        <v>0.345418</v>
+        <v>0.358597</v>
       </c>
     </row>
     <row r="6">
@@ -9428,13 +9428,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.51017</v>
+        <v>0.530254</v>
       </c>
       <c r="C6" t="n">
-        <v>0.389127</v>
+        <v>0.442988</v>
       </c>
       <c r="D6" t="n">
-        <v>0.355625</v>
+        <v>0.364426</v>
       </c>
     </row>
     <row r="7">
@@ -9442,13 +9442,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.518236</v>
+        <v>0.539114</v>
       </c>
       <c r="C7" t="n">
-        <v>0.403405</v>
+        <v>0.456553</v>
       </c>
       <c r="D7" t="n">
-        <v>0.365147</v>
+        <v>0.37347</v>
       </c>
     </row>
     <row r="8">
@@ -9456,13 +9456,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.530318</v>
+        <v>0.541548</v>
       </c>
       <c r="C8" t="n">
-        <v>0.409074</v>
+        <v>0.462599</v>
       </c>
       <c r="D8" t="n">
-        <v>0.363059</v>
+        <v>0.376232</v>
       </c>
     </row>
     <row r="9">
@@ -9470,13 +9470,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.540228</v>
+        <v>0.5498729999999999</v>
       </c>
       <c r="C9" t="n">
-        <v>0.418528</v>
+        <v>0.471543</v>
       </c>
       <c r="D9" t="n">
-        <v>0.376378</v>
+        <v>0.38588</v>
       </c>
     </row>
     <row r="10">
@@ -9484,13 +9484,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.557912</v>
+        <v>0.55625</v>
       </c>
       <c r="C10" t="n">
-        <v>0.419378</v>
+        <v>0.471608</v>
       </c>
       <c r="D10" t="n">
-        <v>0.379858</v>
+        <v>0.38771</v>
       </c>
     </row>
     <row r="11">
@@ -9498,13 +9498,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.561283</v>
+        <v>0.563837</v>
       </c>
       <c r="C11" t="n">
-        <v>0.41816</v>
+        <v>0.471965</v>
       </c>
       <c r="D11" t="n">
-        <v>0.386425</v>
+        <v>0.398901</v>
       </c>
     </row>
     <row r="12">
@@ -9512,13 +9512,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.573219</v>
+        <v>0.577572</v>
       </c>
       <c r="C12" t="n">
-        <v>0.426127</v>
+        <v>0.477111</v>
       </c>
       <c r="D12" t="n">
-        <v>0.39345</v>
+        <v>0.400157</v>
       </c>
     </row>
     <row r="13">
@@ -9526,13 +9526,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.5874549999999999</v>
+        <v>0.585152</v>
       </c>
       <c r="C13" t="n">
-        <v>0.429411</v>
+        <v>0.48125</v>
       </c>
       <c r="D13" t="n">
-        <v>0.39627</v>
+        <v>0.401612</v>
       </c>
     </row>
     <row r="14">
@@ -9540,13 +9540,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.5867520000000001</v>
+        <v>0.590183</v>
       </c>
       <c r="C14" t="n">
-        <v>0.433083</v>
+        <v>0.481697</v>
       </c>
       <c r="D14" t="n">
-        <v>0.403768</v>
+        <v>0.409562</v>
       </c>
     </row>
     <row r="15">
@@ -9554,13 +9554,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.601363</v>
+        <v>0.602078</v>
       </c>
       <c r="C15" t="n">
-        <v>0.43637</v>
+        <v>0.487447</v>
       </c>
       <c r="D15" t="n">
-        <v>0.410348</v>
+        <v>0.416187</v>
       </c>
     </row>
     <row r="16">
@@ -9568,13 +9568,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.609077</v>
+        <v>0.610834</v>
       </c>
       <c r="C16" t="n">
-        <v>0.441251</v>
+        <v>0.49428</v>
       </c>
       <c r="D16" t="n">
-        <v>0.415638</v>
+        <v>0.420337</v>
       </c>
     </row>
     <row r="17">
@@ -9582,13 +9582,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.620598</v>
+        <v>0.6293879999999999</v>
       </c>
       <c r="C17" t="n">
-        <v>0.447875</v>
+        <v>0.498192</v>
       </c>
       <c r="D17" t="n">
-        <v>0.419979</v>
+        <v>0.428364</v>
       </c>
     </row>
     <row r="18">
@@ -9596,13 +9596,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.635423</v>
+        <v>0.6228900000000001</v>
       </c>
       <c r="C18" t="n">
-        <v>0.4491</v>
+        <v>0.498535</v>
       </c>
       <c r="D18" t="n">
-        <v>0.426906</v>
+        <v>0.431873</v>
       </c>
     </row>
     <row r="19">
@@ -9610,13 +9610,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.649972</v>
+        <v>0.64995</v>
       </c>
       <c r="C19" t="n">
-        <v>0.454216</v>
+        <v>0.504948</v>
       </c>
       <c r="D19" t="n">
-        <v>0.430271</v>
+        <v>0.438149</v>
       </c>
     </row>
     <row r="20">
@@ -9624,13 +9624,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.6587150000000001</v>
+        <v>0.660075</v>
       </c>
       <c r="C20" t="n">
-        <v>0.463012</v>
+        <v>0.514174</v>
       </c>
       <c r="D20" t="n">
-        <v>0.437496</v>
+        <v>0.442572</v>
       </c>
     </row>
     <row r="21">
@@ -9638,13 +9638,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.670912</v>
+        <v>0.670386</v>
       </c>
       <c r="C21" t="n">
-        <v>0.47062</v>
+        <v>0.522805</v>
       </c>
       <c r="D21" t="n">
-        <v>0.444422</v>
+        <v>0.450598</v>
       </c>
     </row>
     <row r="22">
@@ -9652,13 +9652,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.677824</v>
+        <v>0.677308</v>
       </c>
       <c r="C22" t="n">
-        <v>0.477825</v>
+        <v>0.524581</v>
       </c>
       <c r="D22" t="n">
-        <v>0.450247</v>
+        <v>0.455411</v>
       </c>
     </row>
     <row r="23">
@@ -9666,13 +9666,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.68584</v>
+        <v>0.687196</v>
       </c>
       <c r="C23" t="n">
-        <v>0.477757</v>
+        <v>0.527177</v>
       </c>
       <c r="D23" t="n">
-        <v>0.455866</v>
+        <v>0.461419</v>
       </c>
     </row>
     <row r="24">
@@ -9680,13 +9680,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.691632</v>
+        <v>0.6913589999999999</v>
       </c>
       <c r="C24" t="n">
-        <v>0.484281</v>
+        <v>0.532107</v>
       </c>
       <c r="D24" t="n">
-        <v>0.460383</v>
+        <v>0.465988</v>
       </c>
     </row>
     <row r="25">
@@ -9694,13 +9694,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.697915</v>
+        <v>0.699835</v>
       </c>
       <c r="C25" t="n">
-        <v>0.493281</v>
+        <v>0.541316</v>
       </c>
       <c r="D25" t="n">
-        <v>0.464746</v>
+        <v>0.470009</v>
       </c>
     </row>
     <row r="26">
@@ -9708,13 +9708,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.7059029999999999</v>
+        <v>0.706355</v>
       </c>
       <c r="C26" t="n">
-        <v>0.49036</v>
+        <v>0.540508</v>
       </c>
       <c r="D26" t="n">
-        <v>0.469705</v>
+        <v>0.475397</v>
       </c>
     </row>
     <row r="27">
@@ -9722,13 +9722,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.716798</v>
+        <v>0.715997</v>
       </c>
       <c r="C27" t="n">
-        <v>0.497838</v>
+        <v>0.546737</v>
       </c>
       <c r="D27" t="n">
-        <v>0.473187</v>
+        <v>0.477996</v>
       </c>
     </row>
     <row r="28">
@@ -9736,13 +9736,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.719599</v>
+        <v>0.7195009999999999</v>
       </c>
       <c r="C28" t="n">
-        <v>0.501414</v>
+        <v>0.5523940000000001</v>
       </c>
       <c r="D28" t="n">
-        <v>0.478091</v>
+        <v>0.484275</v>
       </c>
     </row>
     <row r="29">
@@ -9750,13 +9750,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.732288</v>
+        <v>0.732646</v>
       </c>
       <c r="C29" t="n">
-        <v>0.5065229999999999</v>
+        <v>0.553631</v>
       </c>
       <c r="D29" t="n">
-        <v>0.483515</v>
+        <v>0.487819</v>
       </c>
     </row>
     <row r="30">
@@ -9764,13 +9764,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.7372570000000001</v>
+        <v>0.734969</v>
       </c>
       <c r="C30" t="n">
-        <v>0.50928</v>
+        <v>0.55758</v>
       </c>
       <c r="D30" t="n">
-        <v>0.487489</v>
+        <v>0.490801</v>
       </c>
     </row>
     <row r="31">
@@ -9778,13 +9778,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.745072</v>
+        <v>0.741688</v>
       </c>
       <c r="C31" t="n">
-        <v>0.511933</v>
+        <v>0.559702</v>
       </c>
       <c r="D31" t="n">
-        <v>0.491721</v>
+        <v>0.49651</v>
       </c>
     </row>
     <row r="32">
@@ -9792,13 +9792,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.738016</v>
+        <v>0.735846</v>
       </c>
       <c r="C32" t="n">
-        <v>0.517628</v>
+        <v>0.564132</v>
       </c>
       <c r="D32" t="n">
-        <v>0.494168</v>
+        <v>0.497132</v>
       </c>
     </row>
     <row r="33">
@@ -9806,13 +9806,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.7429519999999999</v>
+        <v>0.742355</v>
       </c>
       <c r="C33" t="n">
-        <v>0.52186</v>
+        <v>0.569791</v>
       </c>
       <c r="D33" t="n">
-        <v>0.49865</v>
+        <v>0.501785</v>
       </c>
     </row>
     <row r="34">
@@ -9820,13 +9820,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.75445</v>
+        <v>0.754095</v>
       </c>
       <c r="C34" t="n">
-        <v>0.527861</v>
+        <v>0.574339</v>
       </c>
       <c r="D34" t="n">
-        <v>0.500664</v>
+        <v>0.504038</v>
       </c>
     </row>
     <row r="35">
@@ -9834,13 +9834,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.756597</v>
+        <v>0.753202</v>
       </c>
       <c r="C35" t="n">
-        <v>0.5092370000000001</v>
+        <v>0.557015</v>
       </c>
       <c r="D35" t="n">
-        <v>0.5016119999999999</v>
+        <v>0.507246</v>
       </c>
     </row>
     <row r="36">
@@ -9848,13 +9848,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.763686</v>
+        <v>0.761163</v>
       </c>
       <c r="C36" t="n">
-        <v>0.513207</v>
+        <v>0.562755</v>
       </c>
       <c r="D36" t="n">
-        <v>0.508127</v>
+        <v>0.51237</v>
       </c>
     </row>
     <row r="37">
@@ -9862,13 +9862,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.77058</v>
+        <v>0.769935</v>
       </c>
       <c r="C37" t="n">
-        <v>0.516998</v>
+        <v>0.566212</v>
       </c>
       <c r="D37" t="n">
-        <v>0.510992</v>
+        <v>0.513846</v>
       </c>
     </row>
     <row r="38">
@@ -9876,13 +9876,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.774721</v>
+        <v>0.772504</v>
       </c>
       <c r="C38" t="n">
-        <v>0.516593</v>
+        <v>0.565249</v>
       </c>
       <c r="D38" t="n">
-        <v>0.510968</v>
+        <v>0.5169859999999999</v>
       </c>
     </row>
     <row r="39">
@@ -9890,13 +9890,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.775387</v>
+        <v>0.767898</v>
       </c>
       <c r="C39" t="n">
-        <v>0.522001</v>
+        <v>0.56998</v>
       </c>
       <c r="D39" t="n">
-        <v>0.517229</v>
+        <v>0.519369</v>
       </c>
     </row>
     <row r="40">
@@ -9904,13 +9904,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.786655</v>
+        <v>0.784487</v>
       </c>
       <c r="C40" t="n">
-        <v>0.5253679999999999</v>
+        <v>0.5691850000000001</v>
       </c>
       <c r="D40" t="n">
-        <v>0.518006</v>
+        <v>0.521215</v>
       </c>
     </row>
     <row r="41">
@@ -9918,13 +9918,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.7918809999999999</v>
+        <v>0.790602</v>
       </c>
       <c r="C41" t="n">
-        <v>0.526662</v>
+        <v>0.570287</v>
       </c>
       <c r="D41" t="n">
-        <v>0.519757</v>
+        <v>0.523007</v>
       </c>
     </row>
     <row r="42">
@@ -9932,13 +9932,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.798576</v>
+        <v>0.797553</v>
       </c>
       <c r="C42" t="n">
-        <v>0.526409</v>
+        <v>0.571632</v>
       </c>
       <c r="D42" t="n">
-        <v>0.522986</v>
+        <v>0.526682</v>
       </c>
     </row>
     <row r="43">
@@ -9946,13 +9946,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.80293</v>
+        <v>0.801914</v>
       </c>
       <c r="C43" t="n">
-        <v>0.527661</v>
+        <v>0.57568</v>
       </c>
       <c r="D43" t="n">
-        <v>0.526045</v>
+        <v>0.52826</v>
       </c>
     </row>
     <row r="44">
@@ -9960,13 +9960,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.802794</v>
+        <v>0.803478</v>
       </c>
       <c r="C44" t="n">
-        <v>0.531365</v>
+        <v>0.577022</v>
       </c>
       <c r="D44" t="n">
-        <v>0.526432</v>
+        <v>0.530196</v>
       </c>
     </row>
     <row r="45">
@@ -9974,13 +9974,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.810157</v>
+        <v>0.811376</v>
       </c>
       <c r="C45" t="n">
-        <v>0.532586</v>
+        <v>0.580106</v>
       </c>
       <c r="D45" t="n">
-        <v>0.52859</v>
+        <v>0.532343</v>
       </c>
     </row>
     <row r="46">
@@ -9988,13 +9988,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.813347</v>
+        <v>0.812341</v>
       </c>
       <c r="C46" t="n">
-        <v>0.5344370000000001</v>
+        <v>0.5826789999999999</v>
       </c>
       <c r="D46" t="n">
-        <v>0.531685</v>
+        <v>0.534962</v>
       </c>
     </row>
     <row r="47">
@@ -10002,13 +10002,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.790686</v>
+        <v>0.789652</v>
       </c>
       <c r="C47" t="n">
-        <v>0.535363</v>
+        <v>0.582851</v>
       </c>
       <c r="D47" t="n">
-        <v>0.533682</v>
+        <v>0.536426</v>
       </c>
     </row>
     <row r="48">
@@ -10016,13 +10016,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.797503</v>
+        <v>0.798184</v>
       </c>
       <c r="C48" t="n">
-        <v>0.54187</v>
+        <v>0.590434</v>
       </c>
       <c r="D48" t="n">
-        <v>0.534946</v>
+        <v>0.538252</v>
       </c>
     </row>
     <row r="49">
@@ -10030,13 +10030,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.800122</v>
+        <v>0.798021</v>
       </c>
       <c r="C49" t="n">
-        <v>0.544109</v>
+        <v>0.591004</v>
       </c>
       <c r="D49" t="n">
-        <v>0.536759</v>
+        <v>0.539116</v>
       </c>
     </row>
     <row r="50">
@@ -10044,13 +10044,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.804722</v>
+        <v>0.802048</v>
       </c>
       <c r="C50" t="n">
-        <v>0.539451</v>
+        <v>0.586166</v>
       </c>
       <c r="D50" t="n">
-        <v>0.536555</v>
+        <v>0.539501</v>
       </c>
     </row>
     <row r="51">
@@ -10058,13 +10058,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.807213</v>
+        <v>0.805604</v>
       </c>
       <c r="C51" t="n">
-        <v>0.540282</v>
+        <v>0.58503</v>
       </c>
       <c r="D51" t="n">
-        <v>0.539218</v>
+        <v>0.541054</v>
       </c>
     </row>
     <row r="52">
@@ -10072,13 +10072,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.808802</v>
+        <v>0.807713</v>
       </c>
       <c r="C52" t="n">
-        <v>0.544999</v>
+        <v>0.591948</v>
       </c>
       <c r="D52" t="n">
-        <v>0.540822</v>
+        <v>0.54372</v>
       </c>
     </row>
     <row r="53">
@@ -10086,13 +10086,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.814322</v>
+        <v>0.813186</v>
       </c>
       <c r="C53" t="n">
-        <v>0.546506</v>
+        <v>0.591346</v>
       </c>
       <c r="D53" t="n">
-        <v>0.543629</v>
+        <v>0.546227</v>
       </c>
     </row>
     <row r="54">
@@ -10100,13 +10100,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.81746</v>
+        <v>0.815997</v>
       </c>
       <c r="C54" t="n">
-        <v>0.549733</v>
+        <v>0.598403</v>
       </c>
       <c r="D54" t="n">
-        <v>0.544831</v>
+        <v>0.547045</v>
       </c>
     </row>
     <row r="55">
@@ -10114,13 +10114,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.82092</v>
+        <v>0.82026</v>
       </c>
       <c r="C55" t="n">
-        <v>0.5506720000000001</v>
+        <v>0.599166</v>
       </c>
       <c r="D55" t="n">
-        <v>0.546786</v>
+        <v>0.549637</v>
       </c>
     </row>
     <row r="56">
@@ -10128,13 +10128,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.825386</v>
+        <v>0.824669</v>
       </c>
       <c r="C56" t="n">
-        <v>0.556128</v>
+        <v>0.6031069999999999</v>
       </c>
       <c r="D56" t="n">
-        <v>0.547671</v>
+        <v>0.550573</v>
       </c>
     </row>
     <row r="57">
@@ -10142,13 +10142,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.829739</v>
+        <v>0.830173</v>
       </c>
       <c r="C57" t="n">
-        <v>0.561779</v>
+        <v>0.60946</v>
       </c>
       <c r="D57" t="n">
-        <v>0.549548</v>
+        <v>0.55175</v>
       </c>
     </row>
     <row r="58">
@@ -10156,13 +10156,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.829522</v>
+        <v>0.798284</v>
       </c>
       <c r="C58" t="n">
-        <v>0.56612</v>
+        <v>0.613378</v>
       </c>
       <c r="D58" t="n">
-        <v>0.550643</v>
+        <v>0.554632</v>
       </c>
     </row>
     <row r="59">
@@ -10170,13 +10170,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.837341</v>
+        <v>0.835288</v>
       </c>
       <c r="C59" t="n">
-        <v>0.57459</v>
+        <v>0.621287</v>
       </c>
       <c r="D59" t="n">
-        <v>0.551763</v>
+        <v>0.557702</v>
       </c>
     </row>
     <row r="60">
@@ -10184,13 +10184,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.840717</v>
+        <v>0.845432</v>
       </c>
       <c r="C60" t="n">
-        <v>0.576933</v>
+        <v>0.630238</v>
       </c>
       <c r="D60" t="n">
-        <v>0.555443</v>
+        <v>0.558137</v>
       </c>
     </row>
     <row r="61">
@@ -10198,13 +10198,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.841448</v>
+        <v>0.842899</v>
       </c>
       <c r="C61" t="n">
-        <v>0.585714</v>
+        <v>0.639446</v>
       </c>
       <c r="D61" t="n">
-        <v>0.558782</v>
+        <v>0.559857</v>
       </c>
     </row>
     <row r="62">
@@ -10212,13 +10212,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.851685</v>
+        <v>0.856312</v>
       </c>
       <c r="C62" t="n">
-        <v>0.592094</v>
+        <v>0.6433179999999999</v>
       </c>
       <c r="D62" t="n">
-        <v>0.5585059999999999</v>
+        <v>0.562543</v>
       </c>
     </row>
     <row r="63">
@@ -10226,13 +10226,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.858224</v>
+        <v>0.8634810000000001</v>
       </c>
       <c r="C63" t="n">
-        <v>0.598753</v>
+        <v>0.651399</v>
       </c>
       <c r="D63" t="n">
-        <v>0.561633</v>
+        <v>0.566488</v>
       </c>
     </row>
     <row r="64">
@@ -10240,13 +10240,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.871433</v>
+        <v>0.877643</v>
       </c>
       <c r="C64" t="n">
-        <v>0.650434</v>
+        <v>0.713437</v>
       </c>
       <c r="D64" t="n">
-        <v>0.599182</v>
+        <v>0.606055</v>
       </c>
     </row>
     <row r="65">
@@ -10254,13 +10254,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.886418</v>
+        <v>0.889523</v>
       </c>
       <c r="C65" t="n">
-        <v>0.660366</v>
+        <v>0.724488</v>
       </c>
       <c r="D65" t="n">
-        <v>0.6047439999999999</v>
+        <v>0.606289</v>
       </c>
     </row>
     <row r="66">
@@ -10268,13 +10268,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.90486</v>
+        <v>0.908524</v>
       </c>
       <c r="C66" t="n">
-        <v>0.676082</v>
+        <v>0.740537</v>
       </c>
       <c r="D66" t="n">
-        <v>0.607726</v>
+        <v>0.615438</v>
       </c>
     </row>
     <row r="67">
@@ -10282,13 +10282,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.914988</v>
+        <v>0.887342</v>
       </c>
       <c r="C67" t="n">
-        <v>0.696244</v>
+        <v>0.7610710000000001</v>
       </c>
       <c r="D67" t="n">
-        <v>0.615317</v>
+        <v>0.634615</v>
       </c>
     </row>
     <row r="68">
@@ -10296,13 +10296,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.930234</v>
+        <v>0.959114</v>
       </c>
       <c r="C68" t="n">
-        <v>0.718093</v>
+        <v>0.7909080000000001</v>
       </c>
       <c r="D68" t="n">
-        <v>0.629096</v>
+        <v>0.653039</v>
       </c>
     </row>
     <row r="69">
@@ -10310,13 +10310,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.95392</v>
+        <v>0.980654</v>
       </c>
       <c r="C69" t="n">
-        <v>0.747945</v>
+        <v>0.813196</v>
       </c>
       <c r="D69" t="n">
-        <v>0.644794</v>
+        <v>0.670665</v>
       </c>
     </row>
     <row r="70">
@@ -10324,13 +10324,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.980304</v>
+        <v>1.01173</v>
       </c>
       <c r="C70" t="n">
-        <v>0.7750089999999999</v>
+        <v>0.83434</v>
       </c>
       <c r="D70" t="n">
-        <v>0.6620470000000001</v>
+        <v>0.686042</v>
       </c>
     </row>
     <row r="71">
@@ -10338,13 +10338,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>1.01226</v>
+        <v>1.03417</v>
       </c>
       <c r="C71" t="n">
-        <v>0.817284</v>
+        <v>0.875822</v>
       </c>
       <c r="D71" t="n">
-        <v>0.673275</v>
+        <v>0.693572</v>
       </c>
     </row>
     <row r="72">
@@ -10352,13 +10352,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>1.03393</v>
+        <v>1.04993</v>
       </c>
       <c r="C72" t="n">
-        <v>0.836618</v>
+        <v>0.891953</v>
       </c>
       <c r="D72" t="n">
-        <v>0.697509</v>
+        <v>0.7126670000000001</v>
       </c>
     </row>
     <row r="73">
@@ -10366,13 +10366,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>1.06943</v>
+        <v>1.08096</v>
       </c>
       <c r="C73" t="n">
-        <v>0.877661</v>
+        <v>0.928135</v>
       </c>
       <c r="D73" t="n">
-        <v>0.725523</v>
+        <v>0.746924</v>
       </c>
     </row>
     <row r="74">
@@ -10380,13 +10380,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>1.10941</v>
+        <v>1.13536</v>
       </c>
       <c r="C74" t="n">
-        <v>0.910366</v>
+        <v>0.967548</v>
       </c>
       <c r="D74" t="n">
-        <v>0.756708</v>
+        <v>0.766235</v>
       </c>
     </row>
     <row r="75">
@@ -10394,13 +10394,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>1.16727</v>
+        <v>1.17301</v>
       </c>
       <c r="C75" t="n">
-        <v>0.946791</v>
+        <v>1.00256</v>
       </c>
       <c r="D75" t="n">
-        <v>0.777426</v>
+        <v>0.803686</v>
       </c>
     </row>
     <row r="76">
@@ -10408,13 +10408,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>1.33978</v>
+        <v>1.36336</v>
       </c>
       <c r="C76" t="n">
-        <v>0.985053</v>
+        <v>1.05021</v>
       </c>
       <c r="D76" t="n">
-        <v>0.811511</v>
+        <v>0.8454390000000001</v>
       </c>
     </row>
     <row r="77">
@@ -10422,13 +10422,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>1.404</v>
+        <v>1.43082</v>
       </c>
       <c r="C77" t="n">
-        <v>1.03128</v>
+        <v>1.09716</v>
       </c>
       <c r="D77" t="n">
-        <v>0.845024</v>
+        <v>0.881862</v>
       </c>
     </row>
     <row r="78">
@@ -10436,13 +10436,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>1.45718</v>
+        <v>1.49611</v>
       </c>
       <c r="C78" t="n">
-        <v>1.23193</v>
+        <v>1.28428</v>
       </c>
       <c r="D78" t="n">
-        <v>0.9885389999999999</v>
+        <v>1.00716</v>
       </c>
     </row>
     <row r="79">
@@ -10450,13 +10450,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>1.54295</v>
+        <v>1.55979</v>
       </c>
       <c r="C79" t="n">
-        <v>1.27867</v>
+        <v>1.318</v>
       </c>
       <c r="D79" t="n">
-        <v>1.04106</v>
+        <v>1.06265</v>
       </c>
     </row>
     <row r="80">
@@ -10464,13 +10464,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>1.60863</v>
+        <v>1.64325</v>
       </c>
       <c r="C80" t="n">
-        <v>1.31774</v>
+        <v>1.36679</v>
       </c>
       <c r="D80" t="n">
-        <v>1.08648</v>
+        <v>1.11836</v>
       </c>
     </row>
     <row r="81">
@@ -10478,13 +10478,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>1.69368</v>
+        <v>1.72141</v>
       </c>
       <c r="C81" t="n">
-        <v>1.36049</v>
+        <v>1.40678</v>
       </c>
       <c r="D81" t="n">
-        <v>1.14333</v>
+        <v>1.16172</v>
       </c>
     </row>
     <row r="82">
@@ -10492,13 +10492,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>1.78205</v>
+        <v>1.81533</v>
       </c>
       <c r="C82" t="n">
-        <v>1.40864</v>
+        <v>1.45454</v>
       </c>
       <c r="D82" t="n">
-        <v>1.20009</v>
+        <v>1.22967</v>
       </c>
     </row>
     <row r="83">
@@ -10506,13 +10506,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>1.88754</v>
+        <v>1.89308</v>
       </c>
       <c r="C83" t="n">
-        <v>1.45353</v>
+        <v>1.48623</v>
       </c>
       <c r="D83" t="n">
-        <v>1.26084</v>
+        <v>1.27638</v>
       </c>
     </row>
     <row r="84">
@@ -10520,13 +10520,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>1.98266</v>
+        <v>1.99127</v>
       </c>
       <c r="C84" t="n">
-        <v>1.50184</v>
+        <v>1.5322</v>
       </c>
       <c r="D84" t="n">
-        <v>1.31968</v>
+        <v>1.33138</v>
       </c>
     </row>
     <row r="85">
@@ -10534,13 +10534,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>2.07642</v>
+        <v>2.07645</v>
       </c>
       <c r="C85" t="n">
-        <v>1.54655</v>
+        <v>1.58129</v>
       </c>
       <c r="D85" t="n">
-        <v>1.38074</v>
+        <v>1.40094</v>
       </c>
     </row>
     <row r="86">
@@ -10548,13 +10548,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>2.17096</v>
+        <v>2.17186</v>
       </c>
       <c r="C86" t="n">
-        <v>1.59468</v>
+        <v>1.6214</v>
       </c>
       <c r="D86" t="n">
-        <v>1.43772</v>
+        <v>1.4591</v>
       </c>
     </row>
     <row r="87">
@@ -10562,13 +10562,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>2.26898</v>
+        <v>2.27385</v>
       </c>
       <c r="C87" t="n">
-        <v>1.64423</v>
+        <v>1.66723</v>
       </c>
       <c r="D87" t="n">
-        <v>1.50073</v>
+        <v>1.51747</v>
       </c>
     </row>
     <row r="88">
@@ -10576,13 +10576,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>2.36157</v>
+        <v>2.35667</v>
       </c>
       <c r="C88" t="n">
-        <v>1.68484</v>
+        <v>1.70073</v>
       </c>
       <c r="D88" t="n">
-        <v>1.55933</v>
+        <v>1.57308</v>
       </c>
     </row>
     <row r="89">
@@ -10590,13 +10590,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>2.47253</v>
+        <v>2.46227</v>
       </c>
       <c r="C89" t="n">
-        <v>1.73656</v>
+        <v>1.74973</v>
       </c>
       <c r="D89" t="n">
-        <v>1.61808</v>
+        <v>1.63715</v>
       </c>
     </row>
     <row r="90">
@@ -10604,13 +10604,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>2.66214</v>
+        <v>2.65497</v>
       </c>
       <c r="C90" t="n">
-        <v>1.77943</v>
+        <v>1.79054</v>
       </c>
       <c r="D90" t="n">
-        <v>1.67282</v>
+        <v>1.69109</v>
       </c>
     </row>
     <row r="91">
@@ -10618,13 +10618,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>2.74571</v>
+        <v>2.73523</v>
       </c>
       <c r="C91" t="n">
-        <v>1.82239</v>
+        <v>1.84294</v>
       </c>
       <c r="D91" t="n">
-        <v>1.72269</v>
+        <v>1.74849</v>
       </c>
     </row>
     <row r="92">
@@ -10632,13 +10632,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>2.82306</v>
+        <v>2.81699</v>
       </c>
       <c r="C92" t="n">
-        <v>1.97777</v>
+        <v>1.97205</v>
       </c>
       <c r="D92" t="n">
-        <v>1.8464</v>
+        <v>1.86552</v>
       </c>
     </row>
     <row r="93">
@@ -10646,13 +10646,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>2.90648</v>
+        <v>2.90252</v>
       </c>
       <c r="C93" t="n">
-        <v>2.01307</v>
+        <v>2.00639</v>
       </c>
       <c r="D93" t="n">
-        <v>1.89951</v>
+        <v>1.9176</v>
       </c>
     </row>
     <row r="94">
@@ -10660,13 +10660,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>2.99516</v>
+        <v>2.969</v>
       </c>
       <c r="C94" t="n">
-        <v>2.05537</v>
+        <v>2.03527</v>
       </c>
       <c r="D94" t="n">
-        <v>1.94324</v>
+        <v>1.96588</v>
       </c>
     </row>
     <row r="95">
@@ -10674,13 +10674,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>3.07402</v>
+        <v>3.04945</v>
       </c>
       <c r="C95" t="n">
-        <v>2.08399</v>
+        <v>2.06115</v>
       </c>
       <c r="D95" t="n">
-        <v>1.98728</v>
+        <v>2.00987</v>
       </c>
     </row>
     <row r="96">
@@ -10688,13 +10688,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>3.1556</v>
+        <v>3.116</v>
       </c>
       <c r="C96" t="n">
-        <v>2.12144</v>
+        <v>2.09281</v>
       </c>
       <c r="D96" t="n">
-        <v>2.04259</v>
+        <v>2.05874</v>
       </c>
     </row>
     <row r="97">
@@ -10702,13 +10702,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>3.22626</v>
+        <v>3.19885</v>
       </c>
       <c r="C97" t="n">
-        <v>2.15178</v>
+        <v>2.12693</v>
       </c>
       <c r="D97" t="n">
-        <v>2.08354</v>
+        <v>2.09014</v>
       </c>
     </row>
     <row r="98">
@@ -10716,13 +10716,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>3.28975</v>
+        <v>3.2857</v>
       </c>
       <c r="C98" t="n">
-        <v>2.19097</v>
+        <v>2.16221</v>
       </c>
       <c r="D98" t="n">
-        <v>2.12204</v>
+        <v>2.14498</v>
       </c>
     </row>
     <row r="99">
@@ -10730,13 +10730,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>3.36092</v>
+        <v>3.35397</v>
       </c>
       <c r="C99" t="n">
-        <v>2.22471</v>
+        <v>2.20515</v>
       </c>
       <c r="D99" t="n">
-        <v>2.17102</v>
+        <v>2.17497</v>
       </c>
     </row>
     <row r="100">
@@ -10744,13 +10744,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>3.4301</v>
+        <v>3.40699</v>
       </c>
       <c r="C100" t="n">
-        <v>2.26357</v>
+        <v>2.23484</v>
       </c>
       <c r="D100" t="n">
-        <v>2.19397</v>
+        <v>2.20593</v>
       </c>
     </row>
     <row r="101">
@@ -10758,13 +10758,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>3.47212</v>
+        <v>3.46442</v>
       </c>
       <c r="C101" t="n">
-        <v>2.2936</v>
+        <v>2.25073</v>
       </c>
       <c r="D101" t="n">
-        <v>2.22862</v>
+        <v>2.26065</v>
       </c>
     </row>
     <row r="102">
@@ -10772,13 +10772,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>3.52362</v>
+        <v>3.53932</v>
       </c>
       <c r="C102" t="n">
-        <v>2.32589</v>
+        <v>2.2975</v>
       </c>
       <c r="D102" t="n">
-        <v>2.2685</v>
+        <v>2.29356</v>
       </c>
     </row>
     <row r="103">
@@ -10786,13 +10786,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>3.58381</v>
+        <v>3.61404</v>
       </c>
       <c r="C103" t="n">
-        <v>2.35822</v>
+        <v>2.32564</v>
       </c>
       <c r="D103" t="n">
-        <v>2.29849</v>
+        <v>2.30745</v>
       </c>
     </row>
     <row r="104">
@@ -10800,13 +10800,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>3.65153</v>
+        <v>3.66916</v>
       </c>
       <c r="C104" t="n">
-        <v>2.39446</v>
+        <v>2.35471</v>
       </c>
       <c r="D104" t="n">
-        <v>2.33333</v>
+        <v>2.34908</v>
       </c>
     </row>
     <row r="105">
@@ -10814,13 +10814,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>3.69734</v>
+        <v>3.6888</v>
       </c>
       <c r="C105" t="n">
-        <v>2.42493</v>
+        <v>2.39438</v>
       </c>
       <c r="D105" t="n">
-        <v>2.37036</v>
+        <v>2.37243</v>
       </c>
     </row>
     <row r="106">
@@ -10828,13 +10828,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>3.75816</v>
+        <v>3.72546</v>
       </c>
       <c r="C106" t="n">
-        <v>2.46189</v>
+        <v>2.4145</v>
       </c>
       <c r="D106" t="n">
-        <v>2.39615</v>
+        <v>2.4106</v>
       </c>
     </row>
     <row r="107">
@@ -10842,13 +10842,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>3.79793</v>
+        <v>3.78348</v>
       </c>
       <c r="C107" t="n">
-        <v>2.49546</v>
+        <v>2.41998</v>
       </c>
       <c r="D107" t="n">
-        <v>2.47755</v>
+        <v>2.48209</v>
       </c>
     </row>
     <row r="108">
@@ -10856,13 +10856,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>3.85026</v>
+        <v>3.82163</v>
       </c>
       <c r="C108" t="n">
-        <v>2.52487</v>
+        <v>2.43128</v>
       </c>
       <c r="D108" t="n">
-        <v>2.50223</v>
+        <v>2.49819</v>
       </c>
     </row>
     <row r="109">
@@ -10870,13 +10870,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>3.89805</v>
+        <v>3.87459</v>
       </c>
       <c r="C109" t="n">
-        <v>2.54804</v>
+        <v>2.46119</v>
       </c>
       <c r="D109" t="n">
-        <v>2.52458</v>
+        <v>2.53432</v>
       </c>
     </row>
     <row r="110">
@@ -10884,13 +10884,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>3.95265</v>
+        <v>3.91309</v>
       </c>
       <c r="C110" t="n">
-        <v>2.57076</v>
+        <v>2.48124</v>
       </c>
       <c r="D110" t="n">
-        <v>2.57144</v>
+        <v>2.56523</v>
       </c>
     </row>
     <row r="111">
@@ -10898,13 +10898,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>3.98521</v>
+        <v>3.95918</v>
       </c>
       <c r="C111" t="n">
-        <v>2.59426</v>
+        <v>2.50809</v>
       </c>
       <c r="D111" t="n">
-        <v>2.60787</v>
+        <v>2.58872</v>
       </c>
     </row>
     <row r="112">
@@ -10912,13 +10912,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>4.06904</v>
+        <v>3.79045</v>
       </c>
       <c r="C112" t="n">
-        <v>2.67489</v>
+        <v>2.52105</v>
       </c>
       <c r="D112" t="n">
-        <v>2.65531</v>
+        <v>2.61425</v>
       </c>
     </row>
     <row r="113">
@@ -10926,13 +10926,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>4.12849</v>
+        <v>4.05145</v>
       </c>
       <c r="C113" t="n">
-        <v>2.66073</v>
+        <v>2.57391</v>
       </c>
       <c r="D113" t="n">
-        <v>2.6742</v>
+        <v>2.64406</v>
       </c>
     </row>
     <row r="114">
@@ -10940,13 +10940,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>4.15492</v>
+        <v>4.09722</v>
       </c>
       <c r="C114" t="n">
-        <v>2.66947</v>
+        <v>2.57265</v>
       </c>
       <c r="D114" t="n">
-        <v>2.70862</v>
+        <v>2.66738</v>
       </c>
     </row>
     <row r="115">
@@ -10954,13 +10954,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>4.2337</v>
+        <v>4.15698</v>
       </c>
       <c r="C115" t="n">
-        <v>2.73943</v>
+        <v>2.59628</v>
       </c>
       <c r="D115" t="n">
-        <v>2.73871</v>
+        <v>2.69014</v>
       </c>
     </row>
     <row r="116">
@@ -10968,13 +10968,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>4.31079</v>
+        <v>4.21264</v>
       </c>
       <c r="C116" t="n">
-        <v>2.77898</v>
+        <v>2.62596</v>
       </c>
       <c r="D116" t="n">
-        <v>2.78045</v>
+        <v>2.70972</v>
       </c>
     </row>
     <row r="117">
@@ -10982,13 +10982,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>4.36519</v>
+        <v>4.24238</v>
       </c>
       <c r="C117" t="n">
-        <v>2.79673</v>
+        <v>2.66959</v>
       </c>
       <c r="D117" t="n">
-        <v>2.7737</v>
+        <v>2.72131</v>
       </c>
     </row>
     <row r="118">
@@ -10996,13 +10996,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>4.34716</v>
+        <v>4.29513</v>
       </c>
       <c r="C118" t="n">
-        <v>2.78816</v>
+        <v>2.69752</v>
       </c>
       <c r="D118" t="n">
-        <v>2.78009</v>
+        <v>2.74837</v>
       </c>
     </row>
     <row r="119">
@@ -11010,13 +11010,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>4.31209</v>
+        <v>4.25137</v>
       </c>
       <c r="C119" t="n">
-        <v>2.82689</v>
+        <v>2.69637</v>
       </c>
       <c r="D119" t="n">
-        <v>2.81451</v>
+        <v>2.76837</v>
       </c>
     </row>
   </sheetData>
@@ -11064,13 +11064,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.49815</v>
+        <v>0.533861</v>
       </c>
       <c r="C2" t="n">
-        <v>0.373609</v>
+        <v>0.433391</v>
       </c>
       <c r="D2" t="n">
-        <v>0.321471</v>
+        <v>0.342869</v>
       </c>
     </row>
     <row r="3">
@@ -11078,13 +11078,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.506548</v>
+        <v>0.538175</v>
       </c>
       <c r="C3" t="n">
-        <v>0.380451</v>
+        <v>0.433984</v>
       </c>
       <c r="D3" t="n">
-        <v>0.32633</v>
+        <v>0.344843</v>
       </c>
     </row>
     <row r="4">
@@ -11092,13 +11092,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.511815</v>
+        <v>0.545767</v>
       </c>
       <c r="C4" t="n">
-        <v>0.387046</v>
+        <v>0.446085</v>
       </c>
       <c r="D4" t="n">
-        <v>0.329457</v>
+        <v>0.349656</v>
       </c>
     </row>
     <row r="5">
@@ -11106,13 +11106,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.525963</v>
+        <v>0.556129</v>
       </c>
       <c r="C5" t="n">
-        <v>0.396898</v>
+        <v>0.450378</v>
       </c>
       <c r="D5" t="n">
-        <v>0.33706</v>
+        <v>0.354163</v>
       </c>
     </row>
     <row r="6">
@@ -11120,13 +11120,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.539085</v>
+        <v>0.564953</v>
       </c>
       <c r="C6" t="n">
-        <v>0.403166</v>
+        <v>0.457134</v>
       </c>
       <c r="D6" t="n">
-        <v>0.339913</v>
+        <v>0.35572</v>
       </c>
     </row>
     <row r="7">
@@ -11134,13 +11134,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.552705</v>
+        <v>0.572925</v>
       </c>
       <c r="C7" t="n">
-        <v>0.411273</v>
+        <v>0.464795</v>
       </c>
       <c r="D7" t="n">
-        <v>0.350378</v>
+        <v>0.361563</v>
       </c>
     </row>
     <row r="8">
@@ -11148,13 +11148,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.561606</v>
+        <v>0.579468</v>
       </c>
       <c r="C8" t="n">
-        <v>0.421597</v>
+        <v>0.467291</v>
       </c>
       <c r="D8" t="n">
-        <v>0.354479</v>
+        <v>0.363581</v>
       </c>
     </row>
     <row r="9">
@@ -11162,13 +11162,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.574904</v>
+        <v>0.594425</v>
       </c>
       <c r="C9" t="n">
-        <v>0.431121</v>
+        <v>0.475881</v>
       </c>
       <c r="D9" t="n">
-        <v>0.360196</v>
+        <v>0.370091</v>
       </c>
     </row>
     <row r="10">
@@ -11176,13 +11176,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.588789</v>
+        <v>0.6098710000000001</v>
       </c>
       <c r="C10" t="n">
-        <v>0.443516</v>
+        <v>0.491525</v>
       </c>
       <c r="D10" t="n">
-        <v>0.36503</v>
+        <v>0.376869</v>
       </c>
     </row>
     <row r="11">
@@ -11190,13 +11190,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.604166</v>
+        <v>0.620994</v>
       </c>
       <c r="C11" t="n">
-        <v>0.431753</v>
+        <v>0.475786</v>
       </c>
       <c r="D11" t="n">
-        <v>0.376808</v>
+        <v>0.38443</v>
       </c>
     </row>
     <row r="12">
@@ -11204,13 +11204,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.592981</v>
+        <v>0.603874</v>
       </c>
       <c r="C12" t="n">
-        <v>0.435249</v>
+        <v>0.484452</v>
       </c>
       <c r="D12" t="n">
-        <v>0.382408</v>
+        <v>0.389383</v>
       </c>
     </row>
     <row r="13">
@@ -11218,13 +11218,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.6051299999999999</v>
+        <v>0.6148400000000001</v>
       </c>
       <c r="C13" t="n">
-        <v>0.445461</v>
+        <v>0.491068</v>
       </c>
       <c r="D13" t="n">
-        <v>0.384743</v>
+        <v>0.394941</v>
       </c>
     </row>
     <row r="14">
@@ -11232,13 +11232,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.618193</v>
+        <v>0.623923</v>
       </c>
       <c r="C14" t="n">
-        <v>0.453983</v>
+        <v>0.495487</v>
       </c>
       <c r="D14" t="n">
-        <v>0.393995</v>
+        <v>0.400335</v>
       </c>
     </row>
     <row r="15">
@@ -11246,13 +11246,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.632901</v>
+        <v>0.639366</v>
       </c>
       <c r="C15" t="n">
-        <v>0.464528</v>
+        <v>0.5023919999999999</v>
       </c>
       <c r="D15" t="n">
-        <v>0.400583</v>
+        <v>0.406192</v>
       </c>
     </row>
     <row r="16">
@@ -11260,13 +11260,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.6447889999999999</v>
+        <v>0.647614</v>
       </c>
       <c r="C16" t="n">
-        <v>0.472243</v>
+        <v>0.511593</v>
       </c>
       <c r="D16" t="n">
-        <v>0.406685</v>
+        <v>0.40996</v>
       </c>
     </row>
     <row r="17">
@@ -11274,13 +11274,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.6571</v>
+        <v>0.656551</v>
       </c>
       <c r="C17" t="n">
-        <v>0.482939</v>
+        <v>0.522123</v>
       </c>
       <c r="D17" t="n">
-        <v>0.412358</v>
+        <v>0.414776</v>
       </c>
     </row>
     <row r="18">
@@ -11288,13 +11288,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.6730930000000001</v>
+        <v>0.6750350000000001</v>
       </c>
       <c r="C18" t="n">
-        <v>0.487905</v>
+        <v>0.524644</v>
       </c>
       <c r="D18" t="n">
-        <v>0.421368</v>
+        <v>0.422235</v>
       </c>
     </row>
     <row r="19">
@@ -11302,13 +11302,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.68608</v>
+        <v>0.688555</v>
       </c>
       <c r="C19" t="n">
-        <v>0.505761</v>
+        <v>0.536927</v>
       </c>
       <c r="D19" t="n">
-        <v>0.423805</v>
+        <v>0.427572</v>
       </c>
     </row>
     <row r="20">
@@ -11316,13 +11316,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.700143</v>
+        <v>0.701476</v>
       </c>
       <c r="C20" t="n">
-        <v>0.511794</v>
+        <v>0.543755</v>
       </c>
       <c r="D20" t="n">
-        <v>0.431741</v>
+        <v>0.433869</v>
       </c>
     </row>
     <row r="21">
@@ -11330,13 +11330,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.712033</v>
+        <v>0.709898</v>
       </c>
       <c r="C21" t="n">
-        <v>0.525402</v>
+        <v>0.560316</v>
       </c>
       <c r="D21" t="n">
-        <v>0.435505</v>
+        <v>0.437523</v>
       </c>
     </row>
     <row r="22">
@@ -11344,13 +11344,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.7236359999999999</v>
+        <v>0.720814</v>
       </c>
       <c r="C22" t="n">
-        <v>0.532561</v>
+        <v>0.567153</v>
       </c>
       <c r="D22" t="n">
-        <v>0.44118</v>
+        <v>0.444587</v>
       </c>
     </row>
     <row r="23">
@@ -11358,13 +11358,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.739167</v>
+        <v>0.73985</v>
       </c>
       <c r="C23" t="n">
-        <v>0.545897</v>
+        <v>0.579942</v>
       </c>
       <c r="D23" t="n">
-        <v>0.446144</v>
+        <v>0.448788</v>
       </c>
     </row>
     <row r="24">
@@ -11372,13 +11372,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.7526389999999999</v>
+        <v>0.754764</v>
       </c>
       <c r="C24" t="n">
-        <v>0.553663</v>
+        <v>0.582581</v>
       </c>
       <c r="D24" t="n">
-        <v>0.450767</v>
+        <v>0.454305</v>
       </c>
     </row>
     <row r="25">
@@ -11386,13 +11386,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.772081</v>
+        <v>0.772671</v>
       </c>
       <c r="C25" t="n">
-        <v>0.571559</v>
+        <v>0.603017</v>
       </c>
       <c r="D25" t="n">
-        <v>0.457095</v>
+        <v>0.46038</v>
       </c>
     </row>
     <row r="26">
@@ -11400,13 +11400,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.787358</v>
+        <v>0.790756</v>
       </c>
       <c r="C26" t="n">
-        <v>0.509545</v>
+        <v>0.550424</v>
       </c>
       <c r="D26" t="n">
-        <v>0.462841</v>
+        <v>0.46625</v>
       </c>
     </row>
     <row r="27">
@@ -11414,13 +11414,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.742745</v>
+        <v>0.7432</v>
       </c>
       <c r="C27" t="n">
-        <v>0.513937</v>
+        <v>0.556299</v>
       </c>
       <c r="D27" t="n">
-        <v>0.465894</v>
+        <v>0.470496</v>
       </c>
     </row>
     <row r="28">
@@ -11428,13 +11428,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.754089</v>
+        <v>0.7560750000000001</v>
       </c>
       <c r="C28" t="n">
-        <v>0.522594</v>
+        <v>0.564462</v>
       </c>
       <c r="D28" t="n">
-        <v>0.472688</v>
+        <v>0.476688</v>
       </c>
     </row>
     <row r="29">
@@ -11442,13 +11442,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.7668430000000001</v>
+        <v>0.765348</v>
       </c>
       <c r="C29" t="n">
-        <v>0.52725</v>
+        <v>0.567122</v>
       </c>
       <c r="D29" t="n">
-        <v>0.475925</v>
+        <v>0.477488</v>
       </c>
     </row>
     <row r="30">
@@ -11456,13 +11456,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.778853</v>
+        <v>0.773819</v>
       </c>
       <c r="C30" t="n">
-        <v>0.537708</v>
+        <v>0.575983</v>
       </c>
       <c r="D30" t="n">
-        <v>0.481295</v>
+        <v>0.484405</v>
       </c>
     </row>
     <row r="31">
@@ -11470,13 +11470,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.790085</v>
+        <v>0.787626</v>
       </c>
       <c r="C31" t="n">
-        <v>0.546328</v>
+        <v>0.585765</v>
       </c>
       <c r="D31" t="n">
-        <v>0.484238</v>
+        <v>0.487289</v>
       </c>
     </row>
     <row r="32">
@@ -11484,13 +11484,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.803442</v>
+        <v>0.799898</v>
       </c>
       <c r="C32" t="n">
-        <v>0.555323</v>
+        <v>0.591001</v>
       </c>
       <c r="D32" t="n">
-        <v>0.48681</v>
+        <v>0.492019</v>
       </c>
     </row>
     <row r="33">
@@ -11498,13 +11498,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.814854</v>
+        <v>0.811457</v>
       </c>
       <c r="C33" t="n">
-        <v>0.56121</v>
+        <v>0.59996</v>
       </c>
       <c r="D33" t="n">
-        <v>0.490561</v>
+        <v>0.495326</v>
       </c>
     </row>
     <row r="34">
@@ -11512,13 +11512,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.826798</v>
+        <v>0.82418</v>
       </c>
       <c r="C34" t="n">
-        <v>0.574564</v>
+        <v>0.608549</v>
       </c>
       <c r="D34" t="n">
-        <v>0.494749</v>
+        <v>0.498383</v>
       </c>
     </row>
     <row r="35">
@@ -11526,13 +11526,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.841757</v>
+        <v>0.838135</v>
       </c>
       <c r="C35" t="n">
-        <v>0.584848</v>
+        <v>0.621605</v>
       </c>
       <c r="D35" t="n">
-        <v>0.500177</v>
+        <v>0.503339</v>
       </c>
     </row>
     <row r="36">
@@ -11540,13 +11540,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.853621</v>
+        <v>0.848531</v>
       </c>
       <c r="C36" t="n">
-        <v>0.597494</v>
+        <v>0.631852</v>
       </c>
       <c r="D36" t="n">
-        <v>0.50371</v>
+        <v>0.505725</v>
       </c>
     </row>
     <row r="37">
@@ -11554,13 +11554,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.860796</v>
+        <v>0.859591</v>
       </c>
       <c r="C37" t="n">
-        <v>0.607511</v>
+        <v>0.639868</v>
       </c>
       <c r="D37" t="n">
-        <v>0.505612</v>
+        <v>0.508424</v>
       </c>
     </row>
     <row r="38">
@@ -11568,13 +11568,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.87368</v>
+        <v>0.874035</v>
       </c>
       <c r="C38" t="n">
-        <v>0.619007</v>
+        <v>0.65294</v>
       </c>
       <c r="D38" t="n">
-        <v>0.510885</v>
+        <v>0.514688</v>
       </c>
     </row>
     <row r="39">
@@ -11582,13 +11582,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.893169</v>
+        <v>0.8902099999999999</v>
       </c>
       <c r="C39" t="n">
-        <v>0.6307120000000001</v>
+        <v>0.661505</v>
       </c>
       <c r="D39" t="n">
-        <v>0.512121</v>
+        <v>0.516027</v>
       </c>
     </row>
     <row r="40">
@@ -11596,13 +11596,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.900002</v>
+        <v>0.8953</v>
       </c>
       <c r="C40" t="n">
-        <v>0.576579</v>
+        <v>0.618976</v>
       </c>
       <c r="D40" t="n">
-        <v>0.515776</v>
+        <v>0.520823</v>
       </c>
     </row>
     <row r="41">
@@ -11610,13 +11610,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.853177</v>
+        <v>0.849638</v>
       </c>
       <c r="C41" t="n">
-        <v>0.5810650000000001</v>
+        <v>0.6205889999999999</v>
       </c>
       <c r="D41" t="n">
-        <v>0.518132</v>
+        <v>0.523794</v>
       </c>
     </row>
     <row r="42">
@@ -11624,13 +11624,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.860881</v>
+        <v>0.858456</v>
       </c>
       <c r="C42" t="n">
-        <v>0.590153</v>
+        <v>0.630582</v>
       </c>
       <c r="D42" t="n">
-        <v>0.520872</v>
+        <v>0.525616</v>
       </c>
     </row>
     <row r="43">
@@ -11638,13 +11638,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.867631</v>
+        <v>0.863909</v>
       </c>
       <c r="C43" t="n">
-        <v>0.595435</v>
+        <v>0.6335499999999999</v>
       </c>
       <c r="D43" t="n">
-        <v>0.524311</v>
+        <v>0.527627</v>
       </c>
     </row>
     <row r="44">
@@ -11652,13 +11652,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.87538</v>
+        <v>0.872404</v>
       </c>
       <c r="C44" t="n">
-        <v>0.607221</v>
+        <v>0.64555</v>
       </c>
       <c r="D44" t="n">
-        <v>0.526629</v>
+        <v>0.531986</v>
       </c>
     </row>
     <row r="45">
@@ -11666,13 +11666,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.888641</v>
+        <v>0.887717</v>
       </c>
       <c r="C45" t="n">
-        <v>0.610965</v>
+        <v>0.648992</v>
       </c>
       <c r="D45" t="n">
-        <v>0.527922</v>
+        <v>0.533308</v>
       </c>
     </row>
     <row r="46">
@@ -11680,13 +11680,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.895759</v>
+        <v>0.891976</v>
       </c>
       <c r="C46" t="n">
-        <v>0.622456</v>
+        <v>0.6604640000000001</v>
       </c>
       <c r="D46" t="n">
-        <v>0.531456</v>
+        <v>0.536016</v>
       </c>
     </row>
     <row r="47">
@@ -11694,13 +11694,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.907367</v>
+        <v>0.904565</v>
       </c>
       <c r="C47" t="n">
-        <v>0.632421</v>
+        <v>0.66975</v>
       </c>
       <c r="D47" t="n">
-        <v>0.532776</v>
+        <v>0.537726</v>
       </c>
     </row>
     <row r="48">
@@ -11708,13 +11708,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.916814</v>
+        <v>0.91188</v>
       </c>
       <c r="C48" t="n">
-        <v>0.637866</v>
+        <v>0.677042</v>
       </c>
       <c r="D48" t="n">
-        <v>0.534521</v>
+        <v>0.539568</v>
       </c>
     </row>
     <row r="49">
@@ -11722,13 +11722,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.925253</v>
+        <v>0.920641</v>
       </c>
       <c r="C49" t="n">
-        <v>0.649715</v>
+        <v>0.686229</v>
       </c>
       <c r="D49" t="n">
-        <v>0.539308</v>
+        <v>0.542179</v>
       </c>
     </row>
     <row r="50">
@@ -11736,13 +11736,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.938608</v>
+        <v>0.935746</v>
       </c>
       <c r="C50" t="n">
-        <v>0.656904</v>
+        <v>0.691907</v>
       </c>
       <c r="D50" t="n">
-        <v>0.541139</v>
+        <v>0.543317</v>
       </c>
     </row>
     <row r="51">
@@ -11750,13 +11750,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.947872</v>
+        <v>0.944206</v>
       </c>
       <c r="C51" t="n">
-        <v>0.6674330000000001</v>
+        <v>0.702093</v>
       </c>
       <c r="D51" t="n">
-        <v>0.542359</v>
+        <v>0.545176</v>
       </c>
     </row>
     <row r="52">
@@ -11764,13 +11764,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.9589299999999999</v>
+        <v>0.958628</v>
       </c>
       <c r="C52" t="n">
-        <v>0.680813</v>
+        <v>0.7157559999999999</v>
       </c>
       <c r="D52" t="n">
-        <v>0.544146</v>
+        <v>0.548387</v>
       </c>
     </row>
     <row r="53">
@@ -11778,13 +11778,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.969538</v>
+        <v>0.966839</v>
       </c>
       <c r="C53" t="n">
-        <v>0.690562</v>
+        <v>0.724668</v>
       </c>
       <c r="D53" t="n">
-        <v>0.546758</v>
+        <v>0.549481</v>
       </c>
     </row>
     <row r="54">
@@ -11792,13 +11792,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.983146</v>
+        <v>0.977912</v>
       </c>
       <c r="C54" t="n">
-        <v>0.618623</v>
+        <v>0.65523</v>
       </c>
       <c r="D54" t="n">
-        <v>0.546445</v>
+        <v>0.548952</v>
       </c>
     </row>
     <row r="55">
@@ -11806,13 +11806,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.996128</v>
+        <v>0.993247</v>
       </c>
       <c r="C55" t="n">
-        <v>0.626105</v>
+        <v>0.661882</v>
       </c>
       <c r="D55" t="n">
-        <v>0.547273</v>
+        <v>0.550706</v>
       </c>
     </row>
     <row r="56">
@@ -11820,13 +11820,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.9139389999999999</v>
+        <v>0.91365</v>
       </c>
       <c r="C56" t="n">
-        <v>0.633452</v>
+        <v>0.671896</v>
       </c>
       <c r="D56" t="n">
-        <v>0.5494</v>
+        <v>0.551932</v>
       </c>
     </row>
     <row r="57">
@@ -11834,13 +11834,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.920825</v>
+        <v>0.91691</v>
       </c>
       <c r="C57" t="n">
-        <v>0.6416230000000001</v>
+        <v>0.676426</v>
       </c>
       <c r="D57" t="n">
-        <v>0.550799</v>
+        <v>0.553629</v>
       </c>
     </row>
     <row r="58">
@@ -11848,13 +11848,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.930783</v>
+        <v>0.927626</v>
       </c>
       <c r="C58" t="n">
-        <v>0.648949</v>
+        <v>0.683723</v>
       </c>
       <c r="D58" t="n">
-        <v>0.552338</v>
+        <v>0.556109</v>
       </c>
     </row>
     <row r="59">
@@ -11862,13 +11862,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.938523</v>
+        <v>0.935055</v>
       </c>
       <c r="C59" t="n">
-        <v>0.657155</v>
+        <v>0.694784</v>
       </c>
       <c r="D59" t="n">
-        <v>0.553669</v>
+        <v>0.5583979999999999</v>
       </c>
     </row>
     <row r="60">
@@ -11876,13 +11876,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.944371</v>
+        <v>0.934711</v>
       </c>
       <c r="C60" t="n">
-        <v>0.666272</v>
+        <v>0.7067870000000001</v>
       </c>
       <c r="D60" t="n">
-        <v>0.555837</v>
+        <v>0.558686</v>
       </c>
     </row>
     <row r="61">
@@ -11890,13 +11890,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.951148</v>
+        <v>0.948469</v>
       </c>
       <c r="C61" t="n">
-        <v>0.675415</v>
+        <v>0.712778</v>
       </c>
       <c r="D61" t="n">
-        <v>0.558967</v>
+        <v>0.560086</v>
       </c>
     </row>
     <row r="62">
@@ -11904,13 +11904,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.959989</v>
+        <v>0.95423</v>
       </c>
       <c r="C62" t="n">
-        <v>0.685352</v>
+        <v>0.724288</v>
       </c>
       <c r="D62" t="n">
-        <v>0.557976</v>
+        <v>0.561379</v>
       </c>
     </row>
     <row r="63">
@@ -11918,13 +11918,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.971689</v>
+        <v>0.96765</v>
       </c>
       <c r="C63" t="n">
-        <v>0.696939</v>
+        <v>0.737587</v>
       </c>
       <c r="D63" t="n">
-        <v>0.560486</v>
+        <v>0.562615</v>
       </c>
     </row>
     <row r="64">
@@ -11932,13 +11932,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.982963</v>
+        <v>0.977707</v>
       </c>
       <c r="C64" t="n">
-        <v>0.71075</v>
+        <v>0.748588</v>
       </c>
       <c r="D64" t="n">
-        <v>0.5622509999999999</v>
+        <v>0.564949</v>
       </c>
     </row>
     <row r="65">
@@ -11946,13 +11946,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.994208</v>
+        <v>0.991385</v>
       </c>
       <c r="C65" t="n">
-        <v>0.726427</v>
+        <v>0.764416</v>
       </c>
       <c r="D65" t="n">
-        <v>0.565246</v>
+        <v>0.567068</v>
       </c>
     </row>
     <row r="66">
@@ -11960,13 +11960,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>1.00718</v>
+        <v>1.00404</v>
       </c>
       <c r="C66" t="n">
-        <v>0.740274</v>
+        <v>0.777746</v>
       </c>
       <c r="D66" t="n">
-        <v>0.566372</v>
+        <v>0.568944</v>
       </c>
     </row>
     <row r="67">
@@ -11974,13 +11974,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>1.01893</v>
+        <v>1.01866</v>
       </c>
       <c r="C67" t="n">
-        <v>0.758271</v>
+        <v>0.7965719999999999</v>
       </c>
       <c r="D67" t="n">
-        <v>0.569194</v>
+        <v>0.571341</v>
       </c>
     </row>
     <row r="68">
@@ -11988,13 +11988,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>1.03054</v>
+        <v>1.02853</v>
       </c>
       <c r="C68" t="n">
-        <v>0.688447</v>
+        <v>0.739993</v>
       </c>
       <c r="D68" t="n">
-        <v>0.582548</v>
+        <v>0.586076</v>
       </c>
     </row>
     <row r="69">
@@ -12002,13 +12002,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>1.06177</v>
+        <v>1.06569</v>
       </c>
       <c r="C69" t="n">
-        <v>0.709058</v>
+        <v>0.763409</v>
       </c>
       <c r="D69" t="n">
-        <v>0.590236</v>
+        <v>0.595455</v>
       </c>
     </row>
     <row r="70">
@@ -12016,13 +12016,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.999559</v>
+        <v>1.00724</v>
       </c>
       <c r="C70" t="n">
-        <v>0.735452</v>
+        <v>0.79109</v>
       </c>
       <c r="D70" t="n">
-        <v>0.60425</v>
+        <v>0.610962</v>
       </c>
     </row>
     <row r="71">
@@ -12030,13 +12030,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>1.02843</v>
+        <v>1.03191</v>
       </c>
       <c r="C71" t="n">
-        <v>0.765888</v>
+        <v>0.821427</v>
       </c>
       <c r="D71" t="n">
-        <v>0.6185890000000001</v>
+        <v>0.626505</v>
       </c>
     </row>
     <row r="72">
@@ -12044,13 +12044,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>1.06002</v>
+        <v>1.06846</v>
       </c>
       <c r="C72" t="n">
-        <v>0.797351</v>
+        <v>0.852069</v>
       </c>
       <c r="D72" t="n">
-        <v>0.633338</v>
+        <v>0.642744</v>
       </c>
     </row>
     <row r="73">
@@ -12058,13 +12058,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>1.08927</v>
+        <v>1.10468</v>
       </c>
       <c r="C73" t="n">
-        <v>0.831419</v>
+        <v>0.8864069999999999</v>
       </c>
       <c r="D73" t="n">
-        <v>0.648716</v>
+        <v>0.662798</v>
       </c>
     </row>
     <row r="74">
@@ -12072,13 +12072,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>1.12117</v>
+        <v>1.14123</v>
       </c>
       <c r="C74" t="n">
-        <v>0.866781</v>
+        <v>0.921678</v>
       </c>
       <c r="D74" t="n">
-        <v>0.665277</v>
+        <v>0.681352</v>
       </c>
     </row>
     <row r="75">
@@ -12086,13 +12086,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>1.16085</v>
+        <v>1.18107</v>
       </c>
       <c r="C75" t="n">
-        <v>0.909784</v>
+        <v>0.961909</v>
       </c>
       <c r="D75" t="n">
-        <v>0.6858880000000001</v>
+        <v>0.702792</v>
       </c>
     </row>
     <row r="76">
@@ -12100,13 +12100,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>1.20469</v>
+        <v>1.23601</v>
       </c>
       <c r="C76" t="n">
-        <v>0.953825</v>
+        <v>1.01351</v>
       </c>
       <c r="D76" t="n">
-        <v>0.706726</v>
+        <v>0.735746</v>
       </c>
     </row>
     <row r="77">
@@ -12114,13 +12114,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>1.26326</v>
+        <v>1.28663</v>
       </c>
       <c r="C77" t="n">
-        <v>1.00752</v>
+        <v>1.06137</v>
       </c>
       <c r="D77" t="n">
-        <v>0.741581</v>
+        <v>0.764003</v>
       </c>
     </row>
     <row r="78">
@@ -12128,13 +12128,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>1.31633</v>
+        <v>1.3542</v>
       </c>
       <c r="C78" t="n">
-        <v>1.05606</v>
+        <v>1.11421</v>
       </c>
       <c r="D78" t="n">
-        <v>0.7699009999999999</v>
+        <v>0.800983</v>
       </c>
     </row>
     <row r="79">
@@ -12142,13 +12142,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>1.38103</v>
+        <v>1.41287</v>
       </c>
       <c r="C79" t="n">
-        <v>1.11168</v>
+        <v>1.1646</v>
       </c>
       <c r="D79" t="n">
-        <v>0.8083050000000001</v>
+        <v>0.836642</v>
       </c>
     </row>
     <row r="80">
@@ -12156,13 +12156,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>1.45465</v>
+        <v>1.49929</v>
       </c>
       <c r="C80" t="n">
-        <v>1.16994</v>
+        <v>1.22575</v>
       </c>
       <c r="D80" t="n">
-        <v>0.844853</v>
+        <v>0.876376</v>
       </c>
     </row>
     <row r="81">
@@ -12170,13 +12170,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>1.52929</v>
+        <v>1.57875</v>
       </c>
       <c r="C81" t="n">
-        <v>1.23084</v>
+        <v>1.29173</v>
       </c>
       <c r="D81" t="n">
-        <v>0.881472</v>
+        <v>0.9263209999999999</v>
       </c>
     </row>
     <row r="82">
@@ -12184,13 +12184,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>1.62782</v>
+        <v>1.66519</v>
       </c>
       <c r="C82" t="n">
-        <v>1.30035</v>
+        <v>1.35084</v>
       </c>
       <c r="D82" t="n">
-        <v>0.934103</v>
+        <v>0.969386</v>
       </c>
     </row>
     <row r="83">
@@ -12198,13 +12198,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>1.72455</v>
+        <v>1.75646</v>
       </c>
       <c r="C83" t="n">
-        <v>1.2917</v>
+        <v>1.34021</v>
       </c>
       <c r="D83" t="n">
-        <v>1.04947</v>
+        <v>1.0866</v>
       </c>
     </row>
     <row r="84">
@@ -12212,13 +12212,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>1.83876</v>
+        <v>1.86907</v>
       </c>
       <c r="C84" t="n">
-        <v>1.35452</v>
+        <v>1.40483</v>
       </c>
       <c r="D84" t="n">
-        <v>1.10398</v>
+        <v>1.13912</v>
       </c>
     </row>
     <row r="85">
@@ -12226,13 +12226,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>1.85998</v>
+        <v>1.88263</v>
       </c>
       <c r="C85" t="n">
-        <v>1.41768</v>
+        <v>1.46354</v>
       </c>
       <c r="D85" t="n">
-        <v>1.16229</v>
+        <v>1.19329</v>
       </c>
     </row>
     <row r="86">
@@ -12240,13 +12240,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>1.97024</v>
+        <v>1.90646</v>
       </c>
       <c r="C86" t="n">
-        <v>1.49278</v>
+        <v>1.52976</v>
       </c>
       <c r="D86" t="n">
-        <v>1.22287</v>
+        <v>1.25778</v>
       </c>
     </row>
     <row r="87">
@@ -12254,13 +12254,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>2.07729</v>
+        <v>2.09506</v>
       </c>
       <c r="C87" t="n">
-        <v>1.56266</v>
+        <v>1.59339</v>
       </c>
       <c r="D87" t="n">
-        <v>1.28728</v>
+        <v>1.31656</v>
       </c>
     </row>
     <row r="88">
@@ -12268,13 +12268,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>2.20567</v>
+        <v>2.22288</v>
       </c>
       <c r="C88" t="n">
-        <v>1.6492</v>
+        <v>1.67115</v>
       </c>
       <c r="D88" t="n">
-        <v>1.34865</v>
+        <v>1.37734</v>
       </c>
     </row>
     <row r="89">
@@ -12282,13 +12282,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>2.32857</v>
+        <v>2.34337</v>
       </c>
       <c r="C89" t="n">
-        <v>1.72966</v>
+        <v>1.74965</v>
       </c>
       <c r="D89" t="n">
-        <v>1.40569</v>
+        <v>1.4347</v>
       </c>
     </row>
     <row r="90">
@@ -12296,13 +12296,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>2.45411</v>
+        <v>2.44394</v>
       </c>
       <c r="C90" t="n">
-        <v>1.81334</v>
+        <v>1.82593</v>
       </c>
       <c r="D90" t="n">
-        <v>1.46725</v>
+        <v>1.49415</v>
       </c>
     </row>
     <row r="91">
@@ -12310,13 +12310,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>2.5734</v>
+        <v>2.58136</v>
       </c>
       <c r="C91" t="n">
-        <v>1.90116</v>
+        <v>1.91579</v>
       </c>
       <c r="D91" t="n">
-        <v>1.5266</v>
+        <v>1.54084</v>
       </c>
     </row>
     <row r="92">
@@ -12324,13 +12324,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>2.68705</v>
+        <v>2.68479</v>
       </c>
       <c r="C92" t="n">
-        <v>1.98531</v>
+        <v>1.98935</v>
       </c>
       <c r="D92" t="n">
-        <v>1.57905</v>
+        <v>1.6064</v>
       </c>
     </row>
     <row r="93">
@@ -12338,13 +12338,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>2.8557</v>
+        <v>2.81247</v>
       </c>
       <c r="C93" t="n">
-        <v>2.0805</v>
+        <v>2.08118</v>
       </c>
       <c r="D93" t="n">
-        <v>1.64137</v>
+        <v>1.65838</v>
       </c>
     </row>
     <row r="94">
@@ -12352,13 +12352,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>2.99779</v>
+        <v>2.95096</v>
       </c>
       <c r="C94" t="n">
-        <v>2.17823</v>
+        <v>2.16564</v>
       </c>
       <c r="D94" t="n">
-        <v>1.68675</v>
+        <v>1.70706</v>
       </c>
     </row>
     <row r="95">
@@ -12366,13 +12366,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>3.10255</v>
+        <v>3.06608</v>
       </c>
       <c r="C95" t="n">
-        <v>2.2716</v>
+        <v>2.26107</v>
       </c>
       <c r="D95" t="n">
-        <v>1.74654</v>
+        <v>1.76344</v>
       </c>
     </row>
     <row r="96">
@@ -12380,13 +12380,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>3.26485</v>
+        <v>3.19936</v>
       </c>
       <c r="C96" t="n">
-        <v>2.38466</v>
+        <v>2.36231</v>
       </c>
       <c r="D96" t="n">
-        <v>1.78482</v>
+        <v>1.81323</v>
       </c>
     </row>
     <row r="97">
@@ -12394,13 +12394,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>3.37802</v>
+        <v>3.35593</v>
       </c>
       <c r="C97" t="n">
-        <v>2.1676</v>
+        <v>2.15426</v>
       </c>
       <c r="D97" t="n">
-        <v>1.92621</v>
+        <v>1.95376</v>
       </c>
     </row>
     <row r="98">
@@ -12408,13 +12408,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>3.53964</v>
+        <v>3.49773</v>
       </c>
       <c r="C98" t="n">
-        <v>2.23706</v>
+        <v>2.22788</v>
       </c>
       <c r="D98" t="n">
-        <v>1.97291</v>
+        <v>1.99219</v>
       </c>
     </row>
     <row r="99">
@@ -12422,13 +12422,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>3.43563</v>
+        <v>3.40742</v>
       </c>
       <c r="C99" t="n">
-        <v>2.30355</v>
+        <v>2.28185</v>
       </c>
       <c r="D99" t="n">
-        <v>2.02905</v>
+        <v>2.04121</v>
       </c>
     </row>
     <row r="100">
@@ -12436,13 +12436,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>3.52687</v>
+        <v>3.45347</v>
       </c>
       <c r="C100" t="n">
-        <v>2.36976</v>
+        <v>2.34444</v>
       </c>
       <c r="D100" t="n">
-        <v>2.0723</v>
+        <v>2.07974</v>
       </c>
     </row>
     <row r="101">
@@ -12450,13 +12450,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>3.63786</v>
+        <v>3.59395</v>
       </c>
       <c r="C101" t="n">
-        <v>2.44605</v>
+        <v>2.41532</v>
       </c>
       <c r="D101" t="n">
-        <v>2.10311</v>
+        <v>2.11306</v>
       </c>
     </row>
     <row r="102">
@@ -12464,13 +12464,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>3.72457</v>
+        <v>3.68528</v>
       </c>
       <c r="C102" t="n">
-        <v>2.51966</v>
+        <v>2.4811</v>
       </c>
       <c r="D102" t="n">
-        <v>2.15599</v>
+        <v>2.15916</v>
       </c>
     </row>
     <row r="103">
@@ -12478,13 +12478,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>3.80983</v>
+        <v>3.77406</v>
       </c>
       <c r="C103" t="n">
-        <v>2.59159</v>
+        <v>2.55615</v>
       </c>
       <c r="D103" t="n">
-        <v>2.17327</v>
+        <v>2.18884</v>
       </c>
     </row>
     <row r="104">
@@ -12492,13 +12492,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>3.92918</v>
+        <v>3.8748</v>
       </c>
       <c r="C104" t="n">
-        <v>2.67224</v>
+        <v>2.63553</v>
       </c>
       <c r="D104" t="n">
-        <v>2.21288</v>
+        <v>2.22615</v>
       </c>
     </row>
     <row r="105">
@@ -12506,13 +12506,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>4.01514</v>
+        <v>3.94828</v>
       </c>
       <c r="C105" t="n">
-        <v>2.7399</v>
+        <v>2.70411</v>
       </c>
       <c r="D105" t="n">
-        <v>2.23319</v>
+        <v>2.25564</v>
       </c>
     </row>
     <row r="106">
@@ -12520,13 +12520,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>4.12628</v>
+        <v>4.07797</v>
       </c>
       <c r="C106" t="n">
-        <v>2.81772</v>
+        <v>2.78276</v>
       </c>
       <c r="D106" t="n">
-        <v>2.27749</v>
+        <v>2.27915</v>
       </c>
     </row>
     <row r="107">
@@ -12534,13 +12534,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>4.23522</v>
+        <v>4.13332</v>
       </c>
       <c r="C107" t="n">
-        <v>2.90851</v>
+        <v>2.8534</v>
       </c>
       <c r="D107" t="n">
-        <v>2.30272</v>
+        <v>2.31107</v>
       </c>
     </row>
     <row r="108">
@@ -12548,13 +12548,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>4.32422</v>
+        <v>4.21467</v>
       </c>
       <c r="C108" t="n">
-        <v>2.98955</v>
+        <v>2.91931</v>
       </c>
       <c r="D108" t="n">
-        <v>2.32801</v>
+        <v>2.34827</v>
       </c>
     </row>
     <row r="109">
@@ -12562,13 +12562,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>4.43437</v>
+        <v>4.32459</v>
       </c>
       <c r="C109" t="n">
-        <v>3.08825</v>
+        <v>3.01815</v>
       </c>
       <c r="D109" t="n">
-        <v>2.36346</v>
+        <v>2.36597</v>
       </c>
     </row>
     <row r="110">
@@ -12576,13 +12576,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>4.52695</v>
+        <v>4.44573</v>
       </c>
       <c r="C110" t="n">
-        <v>3.18503</v>
+        <v>3.096</v>
       </c>
       <c r="D110" t="n">
-        <v>2.39547</v>
+        <v>2.40383</v>
       </c>
     </row>
     <row r="111">
@@ -12590,13 +12590,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>4.63204</v>
+        <v>4.55268</v>
       </c>
       <c r="C111" t="n">
-        <v>2.81644</v>
+        <v>2.7818</v>
       </c>
       <c r="D111" t="n">
-        <v>2.49328</v>
+        <v>2.51169</v>
       </c>
     </row>
     <row r="112">
@@ -12604,13 +12604,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>4.75586</v>
+        <v>4.65563</v>
       </c>
       <c r="C112" t="n">
-        <v>2.87383</v>
+        <v>2.80862</v>
       </c>
       <c r="D112" t="n">
-        <v>2.52199</v>
+        <v>2.53087</v>
       </c>
     </row>
     <row r="113">
@@ -12618,13 +12618,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>4.86617</v>
+        <v>4.74146</v>
       </c>
       <c r="C113" t="n">
-        <v>2.94281</v>
+        <v>2.87113</v>
       </c>
       <c r="D113" t="n">
-        <v>2.55427</v>
+        <v>2.54984</v>
       </c>
     </row>
     <row r="114">
@@ -12632,13 +12632,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>4.47949</v>
+        <v>4.43132</v>
       </c>
       <c r="C114" t="n">
-        <v>2.98575</v>
+        <v>2.92933</v>
       </c>
       <c r="D114" t="n">
-        <v>2.56699</v>
+        <v>2.57688</v>
       </c>
     </row>
     <row r="115">
@@ -12646,13 +12646,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>4.56461</v>
+        <v>4.50539</v>
       </c>
       <c r="C115" t="n">
-        <v>3.03586</v>
+        <v>2.99155</v>
       </c>
       <c r="D115" t="n">
-        <v>2.5952</v>
+        <v>2.59131</v>
       </c>
     </row>
     <row r="116">
@@ -12660,13 +12660,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>4.64612</v>
+        <v>4.56479</v>
       </c>
       <c r="C116" t="n">
-        <v>3.09892</v>
+        <v>3.04209</v>
       </c>
       <c r="D116" t="n">
-        <v>2.62068</v>
+        <v>2.61318</v>
       </c>
     </row>
     <row r="117">
@@ -12674,13 +12674,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>4.7095</v>
+        <v>4.6855</v>
       </c>
       <c r="C117" t="n">
-        <v>3.171</v>
+        <v>3.11053</v>
       </c>
       <c r="D117" t="n">
-        <v>2.6369</v>
+        <v>2.64552</v>
       </c>
     </row>
     <row r="118">
@@ -12688,13 +12688,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>4.77652</v>
+        <v>4.75634</v>
       </c>
       <c r="C118" t="n">
-        <v>3.23914</v>
+        <v>3.20191</v>
       </c>
       <c r="D118" t="n">
-        <v>2.65203</v>
+        <v>2.65832</v>
       </c>
     </row>
     <row r="119">
@@ -12702,13 +12702,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>4.87127</v>
+        <v>4.83513</v>
       </c>
       <c r="C119" t="n">
-        <v>3.30994</v>
+        <v>3.26276</v>
       </c>
       <c r="D119" t="n">
-        <v>2.68506</v>
+        <v>2.6741</v>
       </c>
     </row>
   </sheetData>

--- a/gcc/scattered erasure.xlsx
+++ b/gcc/scattered erasure.xlsx
@@ -7680,13 +7680,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.320913</v>
+        <v>0.320101</v>
       </c>
       <c r="C2" t="n">
-        <v>0.269413</v>
+        <v>0.267981</v>
       </c>
       <c r="D2" t="n">
-        <v>0.236966</v>
+        <v>0.23476</v>
       </c>
     </row>
     <row r="3">
@@ -7694,13 +7694,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.300802</v>
+        <v>0.297911</v>
       </c>
       <c r="C3" t="n">
-        <v>0.272468</v>
+        <v>0.270946</v>
       </c>
       <c r="D3" t="n">
-        <v>0.241031</v>
+        <v>0.240292</v>
       </c>
     </row>
     <row r="4">
@@ -7708,13 +7708,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.304934</v>
+        <v>0.301548</v>
       </c>
       <c r="C4" t="n">
-        <v>0.276211</v>
+        <v>0.2755</v>
       </c>
       <c r="D4" t="n">
-        <v>0.254389</v>
+        <v>0.246537</v>
       </c>
     </row>
     <row r="5">
@@ -7722,13 +7722,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.314499</v>
+        <v>0.307374</v>
       </c>
       <c r="C5" t="n">
-        <v>0.281192</v>
+        <v>0.280703</v>
       </c>
       <c r="D5" t="n">
-        <v>0.253588</v>
+        <v>0.256432</v>
       </c>
     </row>
     <row r="6">
@@ -7736,13 +7736,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.317751</v>
+        <v>0.317127</v>
       </c>
       <c r="C6" t="n">
-        <v>0.284988</v>
+        <v>0.283115</v>
       </c>
       <c r="D6" t="n">
-        <v>0.26144</v>
+        <v>0.264859</v>
       </c>
     </row>
     <row r="7">
@@ -7750,13 +7750,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.324751</v>
+        <v>0.32291</v>
       </c>
       <c r="C7" t="n">
-        <v>0.268891</v>
+        <v>0.266694</v>
       </c>
       <c r="D7" t="n">
-        <v>0.272639</v>
+        <v>0.272357</v>
       </c>
     </row>
     <row r="8">
@@ -7764,13 +7764,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.331754</v>
+        <v>0.330467</v>
       </c>
       <c r="C8" t="n">
-        <v>0.271621</v>
+        <v>0.270145</v>
       </c>
       <c r="D8" t="n">
-        <v>0.279208</v>
+        <v>0.277656</v>
       </c>
     </row>
     <row r="9">
@@ -7778,13 +7778,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.334857</v>
+        <v>0.336697</v>
       </c>
       <c r="C9" t="n">
-        <v>0.273737</v>
+        <v>0.272639</v>
       </c>
       <c r="D9" t="n">
-        <v>0.28741</v>
+        <v>0.283309</v>
       </c>
     </row>
     <row r="10">
@@ -7792,13 +7792,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.343858</v>
+        <v>0.343088</v>
       </c>
       <c r="C10" t="n">
-        <v>0.276404</v>
+        <v>0.276377</v>
       </c>
       <c r="D10" t="n">
-        <v>0.289162</v>
+        <v>0.289398</v>
       </c>
     </row>
     <row r="11">
@@ -7806,13 +7806,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.347992</v>
+        <v>0.352909</v>
       </c>
       <c r="C11" t="n">
-        <v>0.277963</v>
+        <v>0.277848</v>
       </c>
       <c r="D11" t="n">
-        <v>0.299044</v>
+        <v>0.295552</v>
       </c>
     </row>
     <row r="12">
@@ -7820,13 +7820,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.360182</v>
+        <v>0.358002</v>
       </c>
       <c r="C12" t="n">
-        <v>0.281239</v>
+        <v>0.281729</v>
       </c>
       <c r="D12" t="n">
-        <v>0.298323</v>
+        <v>0.299466</v>
       </c>
     </row>
     <row r="13">
@@ -7834,13 +7834,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.359727</v>
+        <v>0.363695</v>
       </c>
       <c r="C13" t="n">
-        <v>0.284341</v>
+        <v>0.284957</v>
       </c>
       <c r="D13" t="n">
-        <v>0.307849</v>
+        <v>0.307905</v>
       </c>
     </row>
     <row r="14">
@@ -7848,13 +7848,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.371006</v>
+        <v>0.370162</v>
       </c>
       <c r="C14" t="n">
-        <v>0.28802</v>
+        <v>0.288044</v>
       </c>
       <c r="D14" t="n">
-        <v>0.310031</v>
+        <v>0.309813</v>
       </c>
     </row>
     <row r="15">
@@ -7862,13 +7862,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.377337</v>
+        <v>0.378979</v>
       </c>
       <c r="C15" t="n">
-        <v>0.291664</v>
+        <v>0.292085</v>
       </c>
       <c r="D15" t="n">
-        <v>0.319111</v>
+        <v>0.318371</v>
       </c>
     </row>
     <row r="16">
@@ -7876,13 +7876,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.384774</v>
+        <v>0.388713</v>
       </c>
       <c r="C16" t="n">
-        <v>0.294461</v>
+        <v>0.295118</v>
       </c>
       <c r="D16" t="n">
-        <v>0.324371</v>
+        <v>0.322627</v>
       </c>
     </row>
     <row r="17">
@@ -7890,13 +7890,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.392361</v>
+        <v>0.397189</v>
       </c>
       <c r="C17" t="n">
-        <v>0.298378</v>
+        <v>0.298336</v>
       </c>
       <c r="D17" t="n">
-        <v>0.331695</v>
+        <v>0.329574</v>
       </c>
     </row>
     <row r="18">
@@ -7904,13 +7904,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.37644</v>
+        <v>0.379708</v>
       </c>
       <c r="C18" t="n">
-        <v>0.301705</v>
+        <v>0.301873</v>
       </c>
       <c r="D18" t="n">
-        <v>0.334471</v>
+        <v>0.336305</v>
       </c>
     </row>
     <row r="19">
@@ -7918,13 +7918,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.381747</v>
+        <v>0.384318</v>
       </c>
       <c r="C19" t="n">
-        <v>0.306437</v>
+        <v>0.306935</v>
       </c>
       <c r="D19" t="n">
-        <v>0.34068</v>
+        <v>0.342523</v>
       </c>
     </row>
     <row r="20">
@@ -7932,13 +7932,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.387496</v>
+        <v>0.390049</v>
       </c>
       <c r="C20" t="n">
-        <v>0.310806</v>
+        <v>0.310913</v>
       </c>
       <c r="D20" t="n">
-        <v>0.345896</v>
+        <v>0.348051</v>
       </c>
     </row>
     <row r="21">
@@ -7946,13 +7946,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.393206</v>
+        <v>0.39638</v>
       </c>
       <c r="C21" t="n">
-        <v>0.2855</v>
+        <v>0.285802</v>
       </c>
       <c r="D21" t="n">
-        <v>0.352791</v>
+        <v>0.353584</v>
       </c>
     </row>
     <row r="22">
@@ -7960,13 +7960,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.398724</v>
+        <v>0.401443</v>
       </c>
       <c r="C22" t="n">
-        <v>0.288256</v>
+        <v>0.287891</v>
       </c>
       <c r="D22" t="n">
-        <v>0.357129</v>
+        <v>0.358696</v>
       </c>
     </row>
     <row r="23">
@@ -7974,13 +7974,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.404417</v>
+        <v>0.406955</v>
       </c>
       <c r="C23" t="n">
-        <v>0.289811</v>
+        <v>0.290504</v>
       </c>
       <c r="D23" t="n">
-        <v>0.360942</v>
+        <v>0.363272</v>
       </c>
     </row>
     <row r="24">
@@ -7988,13 +7988,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.409104</v>
+        <v>0.41407</v>
       </c>
       <c r="C24" t="n">
-        <v>0.293225</v>
+        <v>0.293964</v>
       </c>
       <c r="D24" t="n">
-        <v>0.364873</v>
+        <v>0.366958</v>
       </c>
     </row>
     <row r="25">
@@ -8002,13 +8002,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.41377</v>
+        <v>0.42069</v>
       </c>
       <c r="C25" t="n">
-        <v>0.295986</v>
+        <v>0.296261</v>
       </c>
       <c r="D25" t="n">
-        <v>0.36847</v>
+        <v>0.370305</v>
       </c>
     </row>
     <row r="26">
@@ -8016,13 +8016,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.419062</v>
+        <v>0.4257</v>
       </c>
       <c r="C26" t="n">
-        <v>0.299186</v>
+        <v>0.299378</v>
       </c>
       <c r="D26" t="n">
-        <v>0.372167</v>
+        <v>0.373994</v>
       </c>
     </row>
     <row r="27">
@@ -8030,13 +8030,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.425327</v>
+        <v>0.432205</v>
       </c>
       <c r="C27" t="n">
-        <v>0.302414</v>
+        <v>0.302182</v>
       </c>
       <c r="D27" t="n">
-        <v>0.376184</v>
+        <v>0.377144</v>
       </c>
     </row>
     <row r="28">
@@ -8044,13 +8044,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.430532</v>
+        <v>0.436661</v>
       </c>
       <c r="C28" t="n">
-        <v>0.305884</v>
+        <v>0.305509</v>
       </c>
       <c r="D28" t="n">
-        <v>0.380162</v>
+        <v>0.38124</v>
       </c>
     </row>
     <row r="29">
@@ -8058,13 +8058,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.439191</v>
+        <v>0.443302</v>
       </c>
       <c r="C29" t="n">
-        <v>0.308764</v>
+        <v>0.308545</v>
       </c>
       <c r="D29" t="n">
-        <v>0.383965</v>
+        <v>0.385571</v>
       </c>
     </row>
     <row r="30">
@@ -8072,13 +8072,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.443026</v>
+        <v>0.448269</v>
       </c>
       <c r="C30" t="n">
-        <v>0.312134</v>
+        <v>0.312159</v>
       </c>
       <c r="D30" t="n">
-        <v>0.386136</v>
+        <v>0.388607</v>
       </c>
     </row>
     <row r="31">
@@ -8086,13 +8086,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.447304</v>
+        <v>0.455042</v>
       </c>
       <c r="C31" t="n">
-        <v>0.315888</v>
+        <v>0.316153</v>
       </c>
       <c r="D31" t="n">
-        <v>0.390174</v>
+        <v>0.391847</v>
       </c>
     </row>
     <row r="32">
@@ -8100,13 +8100,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.420434</v>
+        <v>0.426107</v>
       </c>
       <c r="C32" t="n">
-        <v>0.319926</v>
+        <v>0.32043</v>
       </c>
       <c r="D32" t="n">
-        <v>0.392951</v>
+        <v>0.396246</v>
       </c>
     </row>
     <row r="33">
@@ -8114,13 +8114,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.424918</v>
+        <v>0.430701</v>
       </c>
       <c r="C33" t="n">
-        <v>0.323417</v>
+        <v>0.323974</v>
       </c>
       <c r="D33" t="n">
-        <v>0.397364</v>
+        <v>0.399891</v>
       </c>
     </row>
     <row r="34">
@@ -8128,13 +8128,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.429654</v>
+        <v>0.434987</v>
       </c>
       <c r="C34" t="n">
-        <v>0.327855</v>
+        <v>0.328431</v>
       </c>
       <c r="D34" t="n">
-        <v>0.399818</v>
+        <v>0.403281</v>
       </c>
     </row>
     <row r="35">
@@ -8142,13 +8142,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.432492</v>
+        <v>0.438908</v>
       </c>
       <c r="C35" t="n">
-        <v>0.296396</v>
+        <v>0.297526</v>
       </c>
       <c r="D35" t="n">
-        <v>0.399777</v>
+        <v>0.402733</v>
       </c>
     </row>
     <row r="36">
@@ -8156,13 +8156,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.437981</v>
+        <v>0.441668</v>
       </c>
       <c r="C36" t="n">
-        <v>0.298602</v>
+        <v>0.299617</v>
       </c>
       <c r="D36" t="n">
-        <v>0.401884</v>
+        <v>0.404515</v>
       </c>
     </row>
     <row r="37">
@@ -8170,13 +8170,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.4414</v>
+        <v>0.445966</v>
       </c>
       <c r="C37" t="n">
-        <v>0.301425</v>
+        <v>0.302131</v>
       </c>
       <c r="D37" t="n">
-        <v>0.403308</v>
+        <v>0.406013</v>
       </c>
     </row>
     <row r="38">
@@ -8184,13 +8184,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.444205</v>
+        <v>0.450328</v>
       </c>
       <c r="C38" t="n">
-        <v>0.303468</v>
+        <v>0.304347</v>
       </c>
       <c r="D38" t="n">
-        <v>0.405594</v>
+        <v>0.408711</v>
       </c>
     </row>
     <row r="39">
@@ -8198,13 +8198,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.447362</v>
+        <v>0.454924</v>
       </c>
       <c r="C39" t="n">
-        <v>0.306457</v>
+        <v>0.307895</v>
       </c>
       <c r="D39" t="n">
-        <v>0.408087</v>
+        <v>0.410547</v>
       </c>
     </row>
     <row r="40">
@@ -8212,13 +8212,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.452112</v>
+        <v>0.459273</v>
       </c>
       <c r="C40" t="n">
-        <v>0.309098</v>
+        <v>0.309544</v>
       </c>
       <c r="D40" t="n">
-        <v>0.409966</v>
+        <v>0.41224</v>
       </c>
     </row>
     <row r="41">
@@ -8226,13 +8226,13 @@
         <v>66357</v>
       </c>
       <c r="B41" t="n">
-        <v>0.456278</v>
+        <v>0.463552</v>
       </c>
       <c r="C41" t="n">
-        <v>0.311936</v>
+        <v>0.312605</v>
       </c>
       <c r="D41" t="n">
-        <v>0.411727</v>
+        <v>0.414786</v>
       </c>
     </row>
     <row r="42">
@@ -8240,13 +8240,13 @@
         <v>69656</v>
       </c>
       <c r="B42" t="n">
-        <v>0.460907</v>
+        <v>0.468619</v>
       </c>
       <c r="C42" t="n">
-        <v>0.314401</v>
+        <v>0.315558</v>
       </c>
       <c r="D42" t="n">
-        <v>0.414253</v>
+        <v>0.417251</v>
       </c>
     </row>
     <row r="43">
@@ -8254,13 +8254,13 @@
         <v>73119</v>
       </c>
       <c r="B43" t="n">
-        <v>0.465573</v>
+        <v>0.473591</v>
       </c>
       <c r="C43" t="n">
-        <v>0.317069</v>
+        <v>0.318561</v>
       </c>
       <c r="D43" t="n">
-        <v>0.416833</v>
+        <v>0.419301</v>
       </c>
     </row>
     <row r="44">
@@ -8268,13 +8268,13 @@
         <v>76755</v>
       </c>
       <c r="B44" t="n">
-        <v>0.47111</v>
+        <v>0.478165</v>
       </c>
       <c r="C44" t="n">
-        <v>0.321604</v>
+        <v>0.32211</v>
       </c>
       <c r="D44" t="n">
-        <v>0.419491</v>
+        <v>0.421958</v>
       </c>
     </row>
     <row r="45">
@@ -8282,13 +8282,13 @@
         <v>80572</v>
       </c>
       <c r="B45" t="n">
-        <v>0.477</v>
+        <v>0.483812</v>
       </c>
       <c r="C45" t="n">
-        <v>0.32527</v>
+        <v>0.326212</v>
       </c>
       <c r="D45" t="n">
-        <v>0.42127</v>
+        <v>0.424108</v>
       </c>
     </row>
     <row r="46">
@@ -8296,13 +8296,13 @@
         <v>84579</v>
       </c>
       <c r="B46" t="n">
-        <v>0.481519</v>
+        <v>0.488245</v>
       </c>
       <c r="C46" t="n">
-        <v>0.329401</v>
+        <v>0.329902</v>
       </c>
       <c r="D46" t="n">
-        <v>0.423477</v>
+        <v>0.425827</v>
       </c>
     </row>
     <row r="47">
@@ -8310,13 +8310,13 @@
         <v>88786</v>
       </c>
       <c r="B47" t="n">
-        <v>0.444408</v>
+        <v>0.452013</v>
       </c>
       <c r="C47" t="n">
-        <v>0.333162</v>
+        <v>0.336417</v>
       </c>
       <c r="D47" t="n">
-        <v>0.426142</v>
+        <v>0.428731</v>
       </c>
     </row>
     <row r="48">
@@ -8324,13 +8324,13 @@
         <v>93203</v>
       </c>
       <c r="B48" t="n">
-        <v>0.447496</v>
+        <v>0.45586</v>
       </c>
       <c r="C48" t="n">
-        <v>0.336144</v>
+        <v>0.339614</v>
       </c>
       <c r="D48" t="n">
-        <v>0.428348</v>
+        <v>0.430392</v>
       </c>
     </row>
     <row r="49">
@@ -8338,13 +8338,13 @@
         <v>97840</v>
       </c>
       <c r="B49" t="n">
-        <v>0.45138</v>
+        <v>0.45785</v>
       </c>
       <c r="C49" t="n">
-        <v>0.341597</v>
+        <v>0.34197</v>
       </c>
       <c r="D49" t="n">
-        <v>0.430643</v>
+        <v>0.432513</v>
       </c>
     </row>
     <row r="50">
@@ -8352,13 +8352,13 @@
         <v>102706</v>
       </c>
       <c r="B50" t="n">
-        <v>0.454308</v>
+        <v>0.460991</v>
       </c>
       <c r="C50" t="n">
-        <v>0.310476</v>
+        <v>0.313268</v>
       </c>
       <c r="D50" t="n">
-        <v>0.425627</v>
+        <v>0.428164</v>
       </c>
     </row>
     <row r="51">
@@ -8366,13 +8366,13 @@
         <v>107816</v>
       </c>
       <c r="B51" t="n">
-        <v>0.457866</v>
+        <v>0.4649</v>
       </c>
       <c r="C51" t="n">
-        <v>0.31332</v>
+        <v>0.315502</v>
       </c>
       <c r="D51" t="n">
-        <v>0.428455</v>
+        <v>0.429588</v>
       </c>
     </row>
     <row r="52">
@@ -8380,13 +8380,13 @@
         <v>113182</v>
       </c>
       <c r="B52" t="n">
-        <v>0.466583</v>
+        <v>0.468819</v>
       </c>
       <c r="C52" t="n">
-        <v>0.31489</v>
+        <v>0.318616</v>
       </c>
       <c r="D52" t="n">
-        <v>0.42997</v>
+        <v>0.430493</v>
       </c>
     </row>
     <row r="53">
@@ -8394,13 +8394,13 @@
         <v>118816</v>
       </c>
       <c r="B53" t="n">
-        <v>0.468131</v>
+        <v>0.472084</v>
       </c>
       <c r="C53" t="n">
-        <v>0.317114</v>
+        <v>0.321049</v>
       </c>
       <c r="D53" t="n">
-        <v>0.430395</v>
+        <v>0.43177</v>
       </c>
     </row>
     <row r="54">
@@ -8408,13 +8408,13 @@
         <v>124731</v>
       </c>
       <c r="B54" t="n">
-        <v>0.473489</v>
+        <v>0.476235</v>
       </c>
       <c r="C54" t="n">
-        <v>0.323519</v>
+        <v>0.325339</v>
       </c>
       <c r="D54" t="n">
-        <v>0.431475</v>
+        <v>0.43375</v>
       </c>
     </row>
     <row r="55">
@@ -8422,13 +8422,13 @@
         <v>130941</v>
       </c>
       <c r="B55" t="n">
-        <v>0.472912</v>
+        <v>0.4804</v>
       </c>
       <c r="C55" t="n">
-        <v>0.326095</v>
+        <v>0.32896</v>
       </c>
       <c r="D55" t="n">
-        <v>0.432625</v>
+        <v>0.434677</v>
       </c>
     </row>
     <row r="56">
@@ -8436,13 +8436,13 @@
         <v>137461</v>
       </c>
       <c r="B56" t="n">
-        <v>0.481999</v>
+        <v>0.484655</v>
       </c>
       <c r="C56" t="n">
-        <v>0.32928</v>
+        <v>0.333434</v>
       </c>
       <c r="D56" t="n">
-        <v>0.435085</v>
+        <v>0.435888</v>
       </c>
     </row>
     <row r="57">
@@ -8450,13 +8450,13 @@
         <v>144307</v>
       </c>
       <c r="B57" t="n">
-        <v>0.485589</v>
+        <v>0.488294</v>
       </c>
       <c r="C57" t="n">
-        <v>0.339755</v>
+        <v>0.338289</v>
       </c>
       <c r="D57" t="n">
-        <v>0.436044</v>
+        <v>0.438041</v>
       </c>
     </row>
     <row r="58">
@@ -8464,13 +8464,13 @@
         <v>151495</v>
       </c>
       <c r="B58" t="n">
-        <v>0.485337</v>
+        <v>0.493134</v>
       </c>
       <c r="C58" t="n">
-        <v>0.347573</v>
+        <v>0.341926</v>
       </c>
       <c r="D58" t="n">
-        <v>0.437496</v>
+        <v>0.440409</v>
       </c>
     </row>
     <row r="59">
@@ -8478,13 +8478,13 @@
         <v>159042</v>
       </c>
       <c r="B59" t="n">
-        <v>0.491897</v>
+        <v>0.498166</v>
       </c>
       <c r="C59" t="n">
-        <v>0.35294</v>
+        <v>0.348826</v>
       </c>
       <c r="D59" t="n">
-        <v>0.439515</v>
+        <v>0.441008</v>
       </c>
     </row>
     <row r="60">
@@ -8492,13 +8492,13 @@
         <v>166965</v>
       </c>
       <c r="B60" t="n">
-        <v>0.499661</v>
+        <v>0.502038</v>
       </c>
       <c r="C60" t="n">
-        <v>0.359433</v>
+        <v>0.359245</v>
       </c>
       <c r="D60" t="n">
-        <v>0.443248</v>
+        <v>0.442726</v>
       </c>
     </row>
     <row r="61">
@@ -8506,13 +8506,13 @@
         <v>175284</v>
       </c>
       <c r="B61" t="n">
-        <v>0.485325</v>
+        <v>0.487034</v>
       </c>
       <c r="C61" t="n">
-        <v>0.365072</v>
+        <v>0.367424</v>
       </c>
       <c r="D61" t="n">
-        <v>0.448545</v>
+        <v>0.445393</v>
       </c>
     </row>
     <row r="62">
@@ -8520,13 +8520,13 @@
         <v>184019</v>
       </c>
       <c r="B62" t="n">
-        <v>0.497615</v>
+        <v>0.496349</v>
       </c>
       <c r="C62" t="n">
-        <v>0.371846</v>
+        <v>0.3761</v>
       </c>
       <c r="D62" t="n">
-        <v>0.451329</v>
+        <v>0.448091</v>
       </c>
     </row>
     <row r="63">
@@ -8534,13 +8534,13 @@
         <v>193190</v>
       </c>
       <c r="B63" t="n">
-        <v>0.507621</v>
+        <v>0.507776</v>
       </c>
       <c r="C63" t="n">
-        <v>0.381819</v>
+        <v>0.387449</v>
       </c>
       <c r="D63" t="n">
-        <v>0.453545</v>
+        <v>0.452564</v>
       </c>
     </row>
     <row r="64">
@@ -8548,13 +8548,13 @@
         <v>202820</v>
       </c>
       <c r="B64" t="n">
-        <v>0.511333</v>
+        <v>0.521353</v>
       </c>
       <c r="C64" t="n">
-        <v>0.437003</v>
+        <v>0.438791</v>
       </c>
       <c r="D64" t="n">
-        <v>0.485584</v>
+        <v>0.491092</v>
       </c>
     </row>
     <row r="65">
@@ -8562,13 +8562,13 @@
         <v>212931</v>
       </c>
       <c r="B65" t="n">
-        <v>0.519722</v>
+        <v>0.536718</v>
       </c>
       <c r="C65" t="n">
-        <v>0.463606</v>
+        <v>0.448294</v>
       </c>
       <c r="D65" t="n">
-        <v>0.49329</v>
+        <v>0.499439</v>
       </c>
     </row>
     <row r="66">
@@ -8576,13 +8576,13 @@
         <v>223547</v>
       </c>
       <c r="B66" t="n">
-        <v>0.551519</v>
+        <v>0.563733</v>
       </c>
       <c r="C66" t="n">
-        <v>0.487226</v>
+        <v>0.472537</v>
       </c>
       <c r="D66" t="n">
-        <v>0.511192</v>
+        <v>0.512296</v>
       </c>
     </row>
     <row r="67">
@@ -8590,13 +8590,13 @@
         <v>234692</v>
       </c>
       <c r="B67" t="n">
-        <v>0.558741</v>
+        <v>0.5628379999999999</v>
       </c>
       <c r="C67" t="n">
-        <v>0.505645</v>
+        <v>0.486809</v>
       </c>
       <c r="D67" t="n">
-        <v>0.512192</v>
+        <v>0.528047</v>
       </c>
     </row>
     <row r="68">
@@ -8604,13 +8604,13 @@
         <v>246395</v>
       </c>
       <c r="B68" t="n">
-        <v>0.566336</v>
+        <v>0.583178</v>
       </c>
       <c r="C68" t="n">
-        <v>0.5236690000000001</v>
+        <v>0.51387</v>
       </c>
       <c r="D68" t="n">
-        <v>0.532205</v>
+        <v>0.539673</v>
       </c>
     </row>
     <row r="69">
@@ -8618,13 +8618,13 @@
         <v>258683</v>
       </c>
       <c r="B69" t="n">
-        <v>0.589584</v>
+        <v>0.59938</v>
       </c>
       <c r="C69" t="n">
-        <v>0.5486529999999999</v>
+        <v>0.528075</v>
       </c>
       <c r="D69" t="n">
-        <v>0.550021</v>
+        <v>0.561738</v>
       </c>
     </row>
     <row r="70">
@@ -8632,13 +8632,13 @@
         <v>271585</v>
       </c>
       <c r="B70" t="n">
-        <v>0.613109</v>
+        <v>0.62637</v>
       </c>
       <c r="C70" t="n">
-        <v>0.579353</v>
+        <v>0.560965</v>
       </c>
       <c r="D70" t="n">
-        <v>0.56118</v>
+        <v>0.583128</v>
       </c>
     </row>
     <row r="71">
@@ -8646,13 +8646,13 @@
         <v>285132</v>
       </c>
       <c r="B71" t="n">
-        <v>0.6156509999999999</v>
+        <v>0.63629</v>
       </c>
       <c r="C71" t="n">
-        <v>0.599695</v>
+        <v>0.579366</v>
       </c>
       <c r="D71" t="n">
-        <v>0.580182</v>
+        <v>0.586247</v>
       </c>
     </row>
     <row r="72">
@@ -8660,13 +8660,13 @@
         <v>299354</v>
       </c>
       <c r="B72" t="n">
-        <v>0.650582</v>
+        <v>0.657299</v>
       </c>
       <c r="C72" t="n">
-        <v>0.644543</v>
+        <v>0.607295</v>
       </c>
       <c r="D72" t="n">
-        <v>0.611408</v>
+        <v>0.619239</v>
       </c>
     </row>
     <row r="73">
@@ -8674,13 +8674,13 @@
         <v>314289</v>
       </c>
       <c r="B73" t="n">
-        <v>0.688847</v>
+        <v>0.693865</v>
       </c>
       <c r="C73" t="n">
-        <v>0.672964</v>
+        <v>0.631602</v>
       </c>
       <c r="D73" t="n">
-        <v>0.654633</v>
+        <v>0.6297700000000001</v>
       </c>
     </row>
     <row r="74">
@@ -8688,13 +8688,13 @@
         <v>329969</v>
       </c>
       <c r="B74" t="n">
-        <v>0.732063</v>
+        <v>0.706971</v>
       </c>
       <c r="C74" t="n">
-        <v>0.704171</v>
+        <v>0.653528</v>
       </c>
       <c r="D74" t="n">
-        <v>0.668139</v>
+        <v>0.657852</v>
       </c>
     </row>
     <row r="75">
@@ -8702,13 +8702,13 @@
         <v>346432</v>
       </c>
       <c r="B75" t="n">
-        <v>0.766563</v>
+        <v>0.742128</v>
       </c>
       <c r="C75" t="n">
-        <v>0.728948</v>
+        <v>0.67691</v>
       </c>
       <c r="D75" t="n">
-        <v>0.707342</v>
+        <v>0.688719</v>
       </c>
     </row>
     <row r="76">
@@ -8716,13 +8716,13 @@
         <v>363719</v>
       </c>
       <c r="B76" t="n">
-        <v>1.01248</v>
+        <v>0.956306</v>
       </c>
       <c r="C76" t="n">
-        <v>0.762672</v>
+        <v>0.705582</v>
       </c>
       <c r="D76" t="n">
-        <v>0.750951</v>
+        <v>0.723776</v>
       </c>
     </row>
     <row r="77">
@@ -8730,13 +8730,13 @@
         <v>381870</v>
       </c>
       <c r="B77" t="n">
-        <v>1.06971</v>
+        <v>1.00696</v>
       </c>
       <c r="C77" t="n">
-        <v>0.791185</v>
+        <v>0.732872</v>
       </c>
       <c r="D77" t="n">
-        <v>0.7912709999999999</v>
+        <v>0.76084</v>
       </c>
     </row>
     <row r="78">
@@ -8744,13 +8744,13 @@
         <v>400928</v>
       </c>
       <c r="B78" t="n">
-        <v>1.1301</v>
+        <v>1.05594</v>
       </c>
       <c r="C78" t="n">
-        <v>0.974361</v>
+        <v>0.890194</v>
       </c>
       <c r="D78" t="n">
-        <v>1.11889</v>
+        <v>1.03082</v>
       </c>
     </row>
     <row r="79">
@@ -8758,13 +8758,13 @@
         <v>420937</v>
       </c>
       <c r="B79" t="n">
-        <v>1.21428</v>
+        <v>1.11344</v>
       </c>
       <c r="C79" t="n">
-        <v>1.00086</v>
+        <v>0.9081050000000001</v>
       </c>
       <c r="D79" t="n">
-        <v>1.18188</v>
+        <v>1.08008</v>
       </c>
     </row>
     <row r="80">
@@ -8772,13 +8772,13 @@
         <v>441947</v>
       </c>
       <c r="B80" t="n">
-        <v>1.25844</v>
+        <v>1.16224</v>
       </c>
       <c r="C80" t="n">
-        <v>1.02123</v>
+        <v>0.930148</v>
       </c>
       <c r="D80" t="n">
-        <v>1.23096</v>
+        <v>1.12891</v>
       </c>
     </row>
     <row r="81">
@@ -8786,13 +8786,13 @@
         <v>464005</v>
       </c>
       <c r="B81" t="n">
-        <v>1.32342</v>
+        <v>1.21355</v>
       </c>
       <c r="C81" t="n">
-        <v>1.04589</v>
+        <v>0.956758</v>
       </c>
       <c r="D81" t="n">
-        <v>1.29417</v>
+        <v>1.1795</v>
       </c>
     </row>
     <row r="82">
@@ -8800,13 +8800,13 @@
         <v>487165</v>
       </c>
       <c r="B82" t="n">
-        <v>1.38024</v>
+        <v>1.26581</v>
       </c>
       <c r="C82" t="n">
-        <v>1.0694</v>
+        <v>0.9751339999999999</v>
       </c>
       <c r="D82" t="n">
-        <v>1.34225</v>
+        <v>1.23043</v>
       </c>
     </row>
     <row r="83">
@@ -8814,13 +8814,13 @@
         <v>511485</v>
       </c>
       <c r="B83" t="n">
-        <v>1.43528</v>
+        <v>1.32101</v>
       </c>
       <c r="C83" t="n">
-        <v>1.08883</v>
+        <v>0.989276</v>
       </c>
       <c r="D83" t="n">
-        <v>1.40205</v>
+        <v>1.28184</v>
       </c>
     </row>
     <row r="84">
@@ -8828,13 +8828,13 @@
         <v>537019</v>
       </c>
       <c r="B84" t="n">
-        <v>1.4989</v>
+        <v>1.37505</v>
       </c>
       <c r="C84" t="n">
-        <v>1.11505</v>
+        <v>1.01215</v>
       </c>
       <c r="D84" t="n">
-        <v>1.46811</v>
+        <v>1.34003</v>
       </c>
     </row>
     <row r="85">
@@ -8842,13 +8842,13 @@
         <v>563827</v>
       </c>
       <c r="B85" t="n">
-        <v>1.56896</v>
+        <v>1.43313</v>
       </c>
       <c r="C85" t="n">
-        <v>1.1357</v>
+        <v>1.03011</v>
       </c>
       <c r="D85" t="n">
-        <v>1.51839</v>
+        <v>1.38568</v>
       </c>
     </row>
     <row r="86">
@@ -8856,13 +8856,13 @@
         <v>591977</v>
       </c>
       <c r="B86" t="n">
-        <v>1.62243</v>
+        <v>1.48351</v>
       </c>
       <c r="C86" t="n">
-        <v>1.15655</v>
+        <v>1.04691</v>
       </c>
       <c r="D86" t="n">
-        <v>1.57691</v>
+        <v>1.43979</v>
       </c>
     </row>
     <row r="87">
@@ -8870,13 +8870,13 @@
         <v>621532</v>
       </c>
       <c r="B87" t="n">
-        <v>1.67788</v>
+        <v>1.52985</v>
       </c>
       <c r="C87" t="n">
-        <v>1.17561</v>
+        <v>1.06647</v>
       </c>
       <c r="D87" t="n">
-        <v>1.63182</v>
+        <v>1.48046</v>
       </c>
     </row>
     <row r="88">
@@ -8884,13 +8884,13 @@
         <v>652567</v>
       </c>
       <c r="B88" t="n">
-        <v>1.73554</v>
+        <v>1.58275</v>
       </c>
       <c r="C88" t="n">
-        <v>1.19744</v>
+        <v>1.08471</v>
       </c>
       <c r="D88" t="n">
-        <v>1.68219</v>
+        <v>1.5327</v>
       </c>
     </row>
     <row r="89">
@@ -8898,13 +8898,13 @@
         <v>685151</v>
       </c>
       <c r="B89" t="n">
-        <v>1.79209</v>
+        <v>1.63947</v>
       </c>
       <c r="C89" t="n">
-        <v>1.21621</v>
+        <v>1.10563</v>
       </c>
       <c r="D89" t="n">
-        <v>1.73382</v>
+        <v>1.56995</v>
       </c>
     </row>
     <row r="90">
@@ -8912,13 +8912,13 @@
         <v>719359</v>
       </c>
       <c r="B90" t="n">
-        <v>2.05645</v>
+        <v>1.86084</v>
       </c>
       <c r="C90" t="n">
-        <v>1.23846</v>
+        <v>1.12225</v>
       </c>
       <c r="D90" t="n">
-        <v>1.77905</v>
+        <v>1.61559</v>
       </c>
     </row>
     <row r="91">
@@ -8926,13 +8926,13 @@
         <v>755280</v>
       </c>
       <c r="B91" t="n">
-        <v>2.09512</v>
+        <v>1.89768</v>
       </c>
       <c r="C91" t="n">
-        <v>1.25756</v>
+        <v>1.1407</v>
       </c>
       <c r="D91" t="n">
-        <v>1.82448</v>
+        <v>1.66238</v>
       </c>
     </row>
     <row r="92">
@@ -8940,13 +8940,13 @@
         <v>792997</v>
       </c>
       <c r="B92" t="n">
-        <v>2.14132</v>
+        <v>1.93711</v>
       </c>
       <c r="C92" t="n">
-        <v>1.32684</v>
+        <v>1.2027</v>
       </c>
       <c r="D92" t="n">
-        <v>2.0778</v>
+        <v>1.88136</v>
       </c>
     </row>
     <row r="93">
@@ -8954,13 +8954,13 @@
         <v>832595</v>
       </c>
       <c r="B93" t="n">
-        <v>2.17595</v>
+        <v>1.96687</v>
       </c>
       <c r="C93" t="n">
-        <v>1.33982</v>
+        <v>1.21373</v>
       </c>
       <c r="D93" t="n">
-        <v>2.11289</v>
+        <v>1.90916</v>
       </c>
     </row>
     <row r="94">
@@ -8968,13 +8968,13 @@
         <v>874177</v>
       </c>
       <c r="B94" t="n">
-        <v>2.21202</v>
+        <v>2.00022</v>
       </c>
       <c r="C94" t="n">
-        <v>1.34948</v>
+        <v>1.22611</v>
       </c>
       <c r="D94" t="n">
-        <v>2.13878</v>
+        <v>1.9479</v>
       </c>
     </row>
     <row r="95">
@@ -8982,13 +8982,13 @@
         <v>917832</v>
       </c>
       <c r="B95" t="n">
-        <v>2.24514</v>
+        <v>2.03605</v>
       </c>
       <c r="C95" t="n">
-        <v>1.36405</v>
+        <v>1.23698</v>
       </c>
       <c r="D95" t="n">
-        <v>2.18298</v>
+        <v>1.97684</v>
       </c>
     </row>
     <row r="96">
@@ -8996,13 +8996,13 @@
         <v>963677</v>
       </c>
       <c r="B96" t="n">
-        <v>2.28086</v>
+        <v>2.07035</v>
       </c>
       <c r="C96" t="n">
-        <v>1.37829</v>
+        <v>1.24766</v>
       </c>
       <c r="D96" t="n">
-        <v>2.21826</v>
+        <v>2.01022</v>
       </c>
     </row>
     <row r="97">
@@ -9010,13 +9010,13 @@
         <v>1011813</v>
       </c>
       <c r="B97" t="n">
-        <v>2.31932</v>
+        <v>2.10183</v>
       </c>
       <c r="C97" t="n">
-        <v>1.38998</v>
+        <v>1.25976</v>
       </c>
       <c r="D97" t="n">
-        <v>2.24391</v>
+        <v>2.03067</v>
       </c>
     </row>
     <row r="98">
@@ -9024,13 +9024,13 @@
         <v>1062351</v>
       </c>
       <c r="B98" t="n">
-        <v>2.35792</v>
+        <v>2.13736</v>
       </c>
       <c r="C98" t="n">
-        <v>1.40088</v>
+        <v>1.26949</v>
       </c>
       <c r="D98" t="n">
-        <v>2.28153</v>
+        <v>2.05152</v>
       </c>
     </row>
     <row r="99">
@@ -9038,13 +9038,13 @@
         <v>1115422</v>
       </c>
       <c r="B99" t="n">
-        <v>2.39371</v>
+        <v>2.16406</v>
       </c>
       <c r="C99" t="n">
-        <v>1.41497</v>
+        <v>1.28426</v>
       </c>
       <c r="D99" t="n">
-        <v>2.30839</v>
+        <v>2.09294</v>
       </c>
     </row>
     <row r="100">
@@ -9052,13 +9052,13 @@
         <v>1171143</v>
       </c>
       <c r="B100" t="n">
-        <v>2.42715</v>
+        <v>2.19458</v>
       </c>
       <c r="C100" t="n">
-        <v>1.42818</v>
+        <v>1.29426</v>
       </c>
       <c r="D100" t="n">
-        <v>2.3243</v>
+        <v>2.11016</v>
       </c>
     </row>
     <row r="101">
@@ -9066,13 +9066,13 @@
         <v>1229634</v>
       </c>
       <c r="B101" t="n">
-        <v>2.46013</v>
+        <v>2.22256</v>
       </c>
       <c r="C101" t="n">
-        <v>1.44183</v>
+        <v>1.30699</v>
       </c>
       <c r="D101" t="n">
-        <v>2.36117</v>
+        <v>2.14093</v>
       </c>
     </row>
     <row r="102">
@@ -9080,13 +9080,13 @@
         <v>1291062</v>
       </c>
       <c r="B102" t="n">
-        <v>2.49328</v>
+        <v>2.25134</v>
       </c>
       <c r="C102" t="n">
-        <v>1.45411</v>
+        <v>1.31664</v>
       </c>
       <c r="D102" t="n">
-        <v>2.3959</v>
+        <v>2.1617</v>
       </c>
     </row>
     <row r="103">
@@ -9094,13 +9094,13 @@
         <v>1355554</v>
       </c>
       <c r="B103" t="n">
-        <v>2.5301</v>
+        <v>2.28312</v>
       </c>
       <c r="C103" t="n">
-        <v>1.47024</v>
+        <v>1.33449</v>
       </c>
       <c r="D103" t="n">
-        <v>2.4173</v>
+        <v>2.17871</v>
       </c>
     </row>
     <row r="104">
@@ -9108,13 +9108,13 @@
         <v>1423274</v>
       </c>
       <c r="B104" t="n">
-        <v>2.55719</v>
+        <v>2.31044</v>
       </c>
       <c r="C104" t="n">
-        <v>1.48319</v>
+        <v>1.34843</v>
       </c>
       <c r="D104" t="n">
-        <v>2.44779</v>
+        <v>2.20577</v>
       </c>
     </row>
     <row r="105">
@@ -9122,13 +9122,13 @@
         <v>1494380</v>
       </c>
       <c r="B105" t="n">
-        <v>2.65637</v>
+        <v>2.40061</v>
       </c>
       <c r="C105" t="n">
-        <v>1.49692</v>
+        <v>1.36018</v>
       </c>
       <c r="D105" t="n">
-        <v>2.46648</v>
+        <v>2.23439</v>
       </c>
     </row>
     <row r="106">
@@ -9136,13 +9136,13 @@
         <v>1569031</v>
       </c>
       <c r="B106" t="n">
-        <v>2.6815</v>
+        <v>2.42481</v>
       </c>
       <c r="C106" t="n">
-        <v>1.51378</v>
+        <v>1.37361</v>
       </c>
       <c r="D106" t="n">
-        <v>2.49274</v>
+        <v>2.25721</v>
       </c>
     </row>
     <row r="107">
@@ -9150,13 +9150,13 @@
         <v>1647417</v>
       </c>
       <c r="B107" t="n">
-        <v>2.7058</v>
+        <v>2.44409</v>
       </c>
       <c r="C107" t="n">
-        <v>1.5026</v>
+        <v>1.36618</v>
       </c>
       <c r="D107" t="n">
-        <v>2.62634</v>
+        <v>2.36752</v>
       </c>
     </row>
     <row r="108">
@@ -9164,13 +9164,13 @@
         <v>1729734</v>
       </c>
       <c r="B108" t="n">
-        <v>2.72755</v>
+        <v>2.46578</v>
       </c>
       <c r="C108" t="n">
-        <v>1.5112</v>
+        <v>1.37088</v>
       </c>
       <c r="D108" t="n">
-        <v>2.62098</v>
+        <v>2.38146</v>
       </c>
     </row>
     <row r="109">
@@ -9178,13 +9178,13 @@
         <v>1816153</v>
       </c>
       <c r="B109" t="n">
-        <v>2.7467</v>
+        <v>2.48874</v>
       </c>
       <c r="C109" t="n">
-        <v>1.52033</v>
+        <v>1.38327</v>
       </c>
       <c r="D109" t="n">
-        <v>2.65738</v>
+        <v>2.40826</v>
       </c>
     </row>
     <row r="110">
@@ -9192,13 +9192,13 @@
         <v>1906885</v>
       </c>
       <c r="B110" t="n">
-        <v>2.77476</v>
+        <v>2.50689</v>
       </c>
       <c r="C110" t="n">
-        <v>1.52796</v>
+        <v>1.38924</v>
       </c>
       <c r="D110" t="n">
-        <v>2.65817</v>
+        <v>2.41945</v>
       </c>
     </row>
     <row r="111">
@@ -9206,13 +9206,13 @@
         <v>2002164</v>
       </c>
       <c r="B111" t="n">
-        <v>2.79313</v>
+        <v>2.52316</v>
       </c>
       <c r="C111" t="n">
-        <v>1.53915</v>
+        <v>1.39765</v>
       </c>
       <c r="D111" t="n">
-        <v>2.69206</v>
+        <v>2.4236</v>
       </c>
     </row>
     <row r="112">
@@ -9220,13 +9220,13 @@
         <v>2102198</v>
       </c>
       <c r="B112" t="n">
-        <v>2.81884</v>
+        <v>2.54831</v>
       </c>
       <c r="C112" t="n">
-        <v>1.5487</v>
+        <v>1.40898</v>
       </c>
       <c r="D112" t="n">
-        <v>2.70163</v>
+        <v>2.4502</v>
       </c>
     </row>
     <row r="113">
@@ -9234,13 +9234,13 @@
         <v>2207233</v>
       </c>
       <c r="B113" t="n">
-        <v>2.83514</v>
+        <v>2.56679</v>
       </c>
       <c r="C113" t="n">
-        <v>1.55734</v>
+        <v>1.41846</v>
       </c>
       <c r="D113" t="n">
-        <v>2.72214</v>
+        <v>2.45522</v>
       </c>
     </row>
     <row r="114">
@@ -9248,13 +9248,13 @@
         <v>2317508</v>
       </c>
       <c r="B114" t="n">
-        <v>2.85501</v>
+        <v>2.58569</v>
       </c>
       <c r="C114" t="n">
-        <v>1.5688</v>
+        <v>1.42615</v>
       </c>
       <c r="D114" t="n">
-        <v>2.73081</v>
+        <v>2.47619</v>
       </c>
     </row>
     <row r="115">
@@ -9262,13 +9262,13 @@
         <v>2433290</v>
       </c>
       <c r="B115" t="n">
-        <v>2.87809</v>
+        <v>2.60799</v>
       </c>
       <c r="C115" t="n">
-        <v>1.57876</v>
+        <v>1.43705</v>
       </c>
       <c r="D115" t="n">
-        <v>2.74945</v>
+        <v>2.48718</v>
       </c>
     </row>
     <row r="116">
@@ -9276,13 +9276,13 @@
         <v>2554854</v>
       </c>
       <c r="B116" t="n">
-        <v>2.90065</v>
+        <v>2.62759</v>
       </c>
       <c r="C116" t="n">
-        <v>1.5889</v>
+        <v>1.44844</v>
       </c>
       <c r="D116" t="n">
-        <v>2.75891</v>
+        <v>2.50666</v>
       </c>
     </row>
     <row r="117">
@@ -9290,13 +9290,13 @@
         <v>2682511</v>
       </c>
       <c r="B117" t="n">
-        <v>2.91905</v>
+        <v>2.64529</v>
       </c>
       <c r="C117" t="n">
-        <v>1.59972</v>
+        <v>1.46029</v>
       </c>
       <c r="D117" t="n">
-        <v>2.7736</v>
+        <v>2.52238</v>
       </c>
     </row>
     <row r="118">
@@ -9304,13 +9304,13 @@
         <v>2816546</v>
       </c>
       <c r="B118" t="n">
-        <v>2.94123</v>
+        <v>2.66806</v>
       </c>
       <c r="C118" t="n">
-        <v>1.61113</v>
+        <v>1.46999</v>
       </c>
       <c r="D118" t="n">
-        <v>2.78776</v>
+        <v>2.53045</v>
       </c>
     </row>
     <row r="119">
@@ -9318,13 +9318,13 @@
         <v>2957287</v>
       </c>
       <c r="B119" t="n">
-        <v>2.96148</v>
+        <v>2.6885</v>
       </c>
       <c r="C119" t="n">
-        <v>1.62344</v>
+        <v>1.47653</v>
       </c>
       <c r="D119" t="n">
-        <v>2.78624</v>
+        <v>2.5345</v>
       </c>
     </row>
   </sheetData>
@@ -9372,13 +9372,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.495425</v>
+        <v>0.491264</v>
       </c>
       <c r="C2" t="n">
-        <v>0.418319</v>
+        <v>0.428338</v>
       </c>
       <c r="D2" t="n">
-        <v>0.344493</v>
+        <v>0.336232</v>
       </c>
     </row>
     <row r="3">
@@ -9386,13 +9386,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.504259</v>
+        <v>0.499251</v>
       </c>
       <c r="C3" t="n">
-        <v>0.427208</v>
+        <v>0.432247</v>
       </c>
       <c r="D3" t="n">
-        <v>0.347857</v>
+        <v>0.339225</v>
       </c>
     </row>
     <row r="4">
@@ -9400,13 +9400,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.508302</v>
+        <v>0.502432</v>
       </c>
       <c r="C4" t="n">
-        <v>0.435758</v>
+        <v>0.431148</v>
       </c>
       <c r="D4" t="n">
-        <v>0.356686</v>
+        <v>0.342702</v>
       </c>
     </row>
     <row r="5">
@@ -9414,13 +9414,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.525343</v>
+        <v>0.516624</v>
       </c>
       <c r="C5" t="n">
-        <v>0.438049</v>
+        <v>0.440838</v>
       </c>
       <c r="D5" t="n">
-        <v>0.358597</v>
+        <v>0.351175</v>
       </c>
     </row>
     <row r="6">
@@ -9428,13 +9428,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.530254</v>
+        <v>0.520223</v>
       </c>
       <c r="C6" t="n">
-        <v>0.442988</v>
+        <v>0.444764</v>
       </c>
       <c r="D6" t="n">
-        <v>0.364426</v>
+        <v>0.357105</v>
       </c>
     </row>
     <row r="7">
@@ -9442,13 +9442,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.539114</v>
+        <v>0.53487</v>
       </c>
       <c r="C7" t="n">
-        <v>0.456553</v>
+        <v>0.459347</v>
       </c>
       <c r="D7" t="n">
-        <v>0.37347</v>
+        <v>0.364581</v>
       </c>
     </row>
     <row r="8">
@@ -9456,13 +9456,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.541548</v>
+        <v>0.533516</v>
       </c>
       <c r="C8" t="n">
-        <v>0.462599</v>
+        <v>0.462687</v>
       </c>
       <c r="D8" t="n">
-        <v>0.376232</v>
+        <v>0.369501</v>
       </c>
     </row>
     <row r="9">
@@ -9470,13 +9470,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.5498729999999999</v>
+        <v>0.5465719999999999</v>
       </c>
       <c r="C9" t="n">
-        <v>0.471543</v>
+        <v>0.468416</v>
       </c>
       <c r="D9" t="n">
-        <v>0.38588</v>
+        <v>0.3783</v>
       </c>
     </row>
     <row r="10">
@@ -9484,13 +9484,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.55625</v>
+        <v>0.55897</v>
       </c>
       <c r="C10" t="n">
-        <v>0.471608</v>
+        <v>0.476475</v>
       </c>
       <c r="D10" t="n">
-        <v>0.38771</v>
+        <v>0.382797</v>
       </c>
     </row>
     <row r="11">
@@ -9498,13 +9498,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.563837</v>
+        <v>0.569621</v>
       </c>
       <c r="C11" t="n">
-        <v>0.471965</v>
+        <v>0.474345</v>
       </c>
       <c r="D11" t="n">
-        <v>0.398901</v>
+        <v>0.388421</v>
       </c>
     </row>
     <row r="12">
@@ -9512,13 +9512,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.577572</v>
+        <v>0.581683</v>
       </c>
       <c r="C12" t="n">
-        <v>0.477111</v>
+        <v>0.480892</v>
       </c>
       <c r="D12" t="n">
-        <v>0.400157</v>
+        <v>0.392995</v>
       </c>
     </row>
     <row r="13">
@@ -9526,13 +9526,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.585152</v>
+        <v>0.581857</v>
       </c>
       <c r="C13" t="n">
-        <v>0.48125</v>
+        <v>0.481553</v>
       </c>
       <c r="D13" t="n">
-        <v>0.401612</v>
+        <v>0.395719</v>
       </c>
     </row>
     <row r="14">
@@ -9540,13 +9540,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.590183</v>
+        <v>0.590322</v>
       </c>
       <c r="C14" t="n">
-        <v>0.481697</v>
+        <v>0.485383</v>
       </c>
       <c r="D14" t="n">
-        <v>0.409562</v>
+        <v>0.40256</v>
       </c>
     </row>
     <row r="15">
@@ -9554,13 +9554,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.602078</v>
+        <v>0.598513</v>
       </c>
       <c r="C15" t="n">
-        <v>0.487447</v>
+        <v>0.49146</v>
       </c>
       <c r="D15" t="n">
-        <v>0.416187</v>
+        <v>0.410385</v>
       </c>
     </row>
     <row r="16">
@@ -9568,13 +9568,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.610834</v>
+        <v>0.612733</v>
       </c>
       <c r="C16" t="n">
-        <v>0.49428</v>
+        <v>0.494722</v>
       </c>
       <c r="D16" t="n">
-        <v>0.420337</v>
+        <v>0.414756</v>
       </c>
     </row>
     <row r="17">
@@ -9582,13 +9582,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.6293879999999999</v>
+        <v>0.620801</v>
       </c>
       <c r="C17" t="n">
-        <v>0.498192</v>
+        <v>0.500194</v>
       </c>
       <c r="D17" t="n">
-        <v>0.428364</v>
+        <v>0.420148</v>
       </c>
     </row>
     <row r="18">
@@ -9596,13 +9596,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.6228900000000001</v>
+        <v>0.6302</v>
       </c>
       <c r="C18" t="n">
-        <v>0.498535</v>
+        <v>0.5060519999999999</v>
       </c>
       <c r="D18" t="n">
-        <v>0.431873</v>
+        <v>0.426883</v>
       </c>
     </row>
     <row r="19">
@@ -9610,13 +9610,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.64995</v>
+        <v>0.642829</v>
       </c>
       <c r="C19" t="n">
-        <v>0.504948</v>
+        <v>0.514509</v>
       </c>
       <c r="D19" t="n">
-        <v>0.438149</v>
+        <v>0.431676</v>
       </c>
     </row>
     <row r="20">
@@ -9624,13 +9624,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.660075</v>
+        <v>0.652827</v>
       </c>
       <c r="C20" t="n">
-        <v>0.514174</v>
+        <v>0.516591</v>
       </c>
       <c r="D20" t="n">
-        <v>0.442572</v>
+        <v>0.437838</v>
       </c>
     </row>
     <row r="21">
@@ -9638,13 +9638,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.670386</v>
+        <v>0.666778</v>
       </c>
       <c r="C21" t="n">
-        <v>0.522805</v>
+        <v>0.518531</v>
       </c>
       <c r="D21" t="n">
-        <v>0.450598</v>
+        <v>0.43921</v>
       </c>
     </row>
     <row r="22">
@@ -9652,13 +9652,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.677308</v>
+        <v>0.6699889999999999</v>
       </c>
       <c r="C22" t="n">
-        <v>0.524581</v>
+        <v>0.524381</v>
       </c>
       <c r="D22" t="n">
-        <v>0.455411</v>
+        <v>0.44357</v>
       </c>
     </row>
     <row r="23">
@@ -9666,13 +9666,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.687196</v>
+        <v>0.6801199999999999</v>
       </c>
       <c r="C23" t="n">
-        <v>0.527177</v>
+        <v>0.530363</v>
       </c>
       <c r="D23" t="n">
-        <v>0.461419</v>
+        <v>0.450797</v>
       </c>
     </row>
     <row r="24">
@@ -9680,13 +9680,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.6913589999999999</v>
+        <v>0.688104</v>
       </c>
       <c r="C24" t="n">
-        <v>0.532107</v>
+        <v>0.534336</v>
       </c>
       <c r="D24" t="n">
-        <v>0.465988</v>
+        <v>0.453883</v>
       </c>
     </row>
     <row r="25">
@@ -9694,13 +9694,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.699835</v>
+        <v>0.694601</v>
       </c>
       <c r="C25" t="n">
-        <v>0.541316</v>
+        <v>0.543668</v>
       </c>
       <c r="D25" t="n">
-        <v>0.470009</v>
+        <v>0.45717</v>
       </c>
     </row>
     <row r="26">
@@ -9708,13 +9708,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.706355</v>
+        <v>0.70083</v>
       </c>
       <c r="C26" t="n">
-        <v>0.540508</v>
+        <v>0.541025</v>
       </c>
       <c r="D26" t="n">
-        <v>0.475397</v>
+        <v>0.463487</v>
       </c>
     </row>
     <row r="27">
@@ -9722,13 +9722,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.715997</v>
+        <v>0.710611</v>
       </c>
       <c r="C27" t="n">
-        <v>0.546737</v>
+        <v>0.548149</v>
       </c>
       <c r="D27" t="n">
-        <v>0.477996</v>
+        <v>0.468094</v>
       </c>
     </row>
     <row r="28">
@@ -9736,13 +9736,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.7195009999999999</v>
+        <v>0.71535</v>
       </c>
       <c r="C28" t="n">
-        <v>0.5523940000000001</v>
+        <v>0.553238</v>
       </c>
       <c r="D28" t="n">
-        <v>0.484275</v>
+        <v>0.475556</v>
       </c>
     </row>
     <row r="29">
@@ -9750,13 +9750,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.732646</v>
+        <v>0.728743</v>
       </c>
       <c r="C29" t="n">
-        <v>0.553631</v>
+        <v>0.556856</v>
       </c>
       <c r="D29" t="n">
-        <v>0.487819</v>
+        <v>0.47966</v>
       </c>
     </row>
     <row r="30">
@@ -9764,13 +9764,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.734969</v>
+        <v>0.731502</v>
       </c>
       <c r="C30" t="n">
-        <v>0.55758</v>
+        <v>0.561832</v>
       </c>
       <c r="D30" t="n">
-        <v>0.490801</v>
+        <v>0.484135</v>
       </c>
     </row>
     <row r="31">
@@ -9778,13 +9778,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.741688</v>
+        <v>0.73861</v>
       </c>
       <c r="C31" t="n">
-        <v>0.559702</v>
+        <v>0.566882</v>
       </c>
       <c r="D31" t="n">
-        <v>0.49651</v>
+        <v>0.484795</v>
       </c>
     </row>
     <row r="32">
@@ -9792,13 +9792,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.735846</v>
+        <v>0.730477</v>
       </c>
       <c r="C32" t="n">
-        <v>0.564132</v>
+        <v>0.5681389999999999</v>
       </c>
       <c r="D32" t="n">
-        <v>0.497132</v>
+        <v>0.488167</v>
       </c>
     </row>
     <row r="33">
@@ -9806,13 +9806,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.742355</v>
+        <v>0.7299600000000001</v>
       </c>
       <c r="C33" t="n">
-        <v>0.569791</v>
+        <v>0.571786</v>
       </c>
       <c r="D33" t="n">
-        <v>0.501785</v>
+        <v>0.494315</v>
       </c>
     </row>
     <row r="34">
@@ -9820,13 +9820,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.754095</v>
+        <v>0.746548</v>
       </c>
       <c r="C34" t="n">
-        <v>0.574339</v>
+        <v>0.57528</v>
       </c>
       <c r="D34" t="n">
-        <v>0.504038</v>
+        <v>0.495956</v>
       </c>
     </row>
     <row r="35">
@@ -9834,13 +9834,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.753202</v>
+        <v>0.7528820000000001</v>
       </c>
       <c r="C35" t="n">
-        <v>0.557015</v>
+        <v>0.552872</v>
       </c>
       <c r="D35" t="n">
-        <v>0.507246</v>
+        <v>0.493362</v>
       </c>
     </row>
     <row r="36">
@@ -9848,13 +9848,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.761163</v>
+        <v>0.756182</v>
       </c>
       <c r="C36" t="n">
-        <v>0.562755</v>
+        <v>0.561816</v>
       </c>
       <c r="D36" t="n">
-        <v>0.51237</v>
+        <v>0.500613</v>
       </c>
     </row>
     <row r="37">
@@ -9862,13 +9862,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.769935</v>
+        <v>0.766834</v>
       </c>
       <c r="C37" t="n">
-        <v>0.566212</v>
+        <v>0.561929</v>
       </c>
       <c r="D37" t="n">
-        <v>0.513846</v>
+        <v>0.504346</v>
       </c>
     </row>
     <row r="38">
@@ -9876,13 +9876,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.772504</v>
+        <v>0.770907</v>
       </c>
       <c r="C38" t="n">
-        <v>0.565249</v>
+        <v>0.5669380000000001</v>
       </c>
       <c r="D38" t="n">
-        <v>0.5169859999999999</v>
+        <v>0.5080209999999999</v>
       </c>
     </row>
     <row r="39">
@@ -9890,13 +9890,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.767898</v>
+        <v>0.768482</v>
       </c>
       <c r="C39" t="n">
-        <v>0.56998</v>
+        <v>0.570711</v>
       </c>
       <c r="D39" t="n">
-        <v>0.519369</v>
+        <v>0.513722</v>
       </c>
     </row>
     <row r="40">
@@ -9904,13 +9904,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.784487</v>
+        <v>0.781338</v>
       </c>
       <c r="C40" t="n">
-        <v>0.5691850000000001</v>
+        <v>0.572282</v>
       </c>
       <c r="D40" t="n">
-        <v>0.521215</v>
+        <v>0.513947</v>
       </c>
     </row>
     <row r="41">
@@ -9918,13 +9918,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.790602</v>
+        <v>0.788622</v>
       </c>
       <c r="C41" t="n">
-        <v>0.570287</v>
+        <v>0.575006</v>
       </c>
       <c r="D41" t="n">
-        <v>0.523007</v>
+        <v>0.516256</v>
       </c>
     </row>
     <row r="42">
@@ -9932,13 +9932,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.797553</v>
+        <v>0.79575</v>
       </c>
       <c r="C42" t="n">
-        <v>0.571632</v>
+        <v>0.574902</v>
       </c>
       <c r="D42" t="n">
-        <v>0.526682</v>
+        <v>0.519178</v>
       </c>
     </row>
     <row r="43">
@@ -9946,13 +9946,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.801914</v>
+        <v>0.799094</v>
       </c>
       <c r="C43" t="n">
-        <v>0.57568</v>
+        <v>0.5834240000000001</v>
       </c>
       <c r="D43" t="n">
-        <v>0.52826</v>
+        <v>0.523213</v>
       </c>
     </row>
     <row r="44">
@@ -9960,13 +9960,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.803478</v>
+        <v>0.799677</v>
       </c>
       <c r="C44" t="n">
-        <v>0.577022</v>
+        <v>0.5793509999999999</v>
       </c>
       <c r="D44" t="n">
-        <v>0.530196</v>
+        <v>0.52472</v>
       </c>
     </row>
     <row r="45">
@@ -9974,13 +9974,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.811376</v>
+        <v>0.80625</v>
       </c>
       <c r="C45" t="n">
-        <v>0.580106</v>
+        <v>0.584427</v>
       </c>
       <c r="D45" t="n">
-        <v>0.532343</v>
+        <v>0.526637</v>
       </c>
     </row>
     <row r="46">
@@ -9988,13 +9988,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.812341</v>
+        <v>0.808676</v>
       </c>
       <c r="C46" t="n">
-        <v>0.5826789999999999</v>
+        <v>0.5904199999999999</v>
       </c>
       <c r="D46" t="n">
-        <v>0.534962</v>
+        <v>0.529765</v>
       </c>
     </row>
     <row r="47">
@@ -10002,13 +10002,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.789652</v>
+        <v>0.788182</v>
       </c>
       <c r="C47" t="n">
-        <v>0.582851</v>
+        <v>0.5914</v>
       </c>
       <c r="D47" t="n">
-        <v>0.536426</v>
+        <v>0.5327730000000001</v>
       </c>
     </row>
     <row r="48">
@@ -10016,13 +10016,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.798184</v>
+        <v>0.794308</v>
       </c>
       <c r="C48" t="n">
-        <v>0.590434</v>
+        <v>0.597143</v>
       </c>
       <c r="D48" t="n">
-        <v>0.538252</v>
+        <v>0.533534</v>
       </c>
     </row>
     <row r="49">
@@ -10030,13 +10030,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.798021</v>
+        <v>0.787532</v>
       </c>
       <c r="C49" t="n">
-        <v>0.591004</v>
+        <v>0.595513</v>
       </c>
       <c r="D49" t="n">
-        <v>0.539116</v>
+        <v>0.534581</v>
       </c>
     </row>
     <row r="50">
@@ -10044,13 +10044,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.802048</v>
+        <v>0.80148</v>
       </c>
       <c r="C50" t="n">
-        <v>0.586166</v>
+        <v>0.5888679999999999</v>
       </c>
       <c r="D50" t="n">
-        <v>0.539501</v>
+        <v>0.531752</v>
       </c>
     </row>
     <row r="51">
@@ -10058,13 +10058,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.805604</v>
+        <v>0.803379</v>
       </c>
       <c r="C51" t="n">
-        <v>0.58503</v>
+        <v>0.591248</v>
       </c>
       <c r="D51" t="n">
-        <v>0.541054</v>
+        <v>0.532776</v>
       </c>
     </row>
     <row r="52">
@@ -10072,13 +10072,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.807713</v>
+        <v>0.806161</v>
       </c>
       <c r="C52" t="n">
-        <v>0.591948</v>
+        <v>0.593584</v>
       </c>
       <c r="D52" t="n">
-        <v>0.54372</v>
+        <v>0.53815</v>
       </c>
     </row>
     <row r="53">
@@ -10086,13 +10086,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.813186</v>
+        <v>0.809972</v>
       </c>
       <c r="C53" t="n">
-        <v>0.591346</v>
+        <v>0.598025</v>
       </c>
       <c r="D53" t="n">
-        <v>0.546227</v>
+        <v>0.53928</v>
       </c>
     </row>
     <row r="54">
@@ -10100,13 +10100,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.815997</v>
+        <v>0.8151080000000001</v>
       </c>
       <c r="C54" t="n">
-        <v>0.598403</v>
+        <v>0.5993270000000001</v>
       </c>
       <c r="D54" t="n">
-        <v>0.547045</v>
+        <v>0.541665</v>
       </c>
     </row>
     <row r="55">
@@ -10114,13 +10114,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.82026</v>
+        <v>0.818928</v>
       </c>
       <c r="C55" t="n">
-        <v>0.599166</v>
+        <v>0.608327</v>
       </c>
       <c r="D55" t="n">
-        <v>0.549637</v>
+        <v>0.547906</v>
       </c>
     </row>
     <row r="56">
@@ -10128,13 +10128,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.824669</v>
+        <v>0.825492</v>
       </c>
       <c r="C56" t="n">
-        <v>0.6031069999999999</v>
+        <v>0.610359</v>
       </c>
       <c r="D56" t="n">
-        <v>0.550573</v>
+        <v>0.545753</v>
       </c>
     </row>
     <row r="57">
@@ -10142,13 +10142,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.830173</v>
+        <v>0.827099</v>
       </c>
       <c r="C57" t="n">
-        <v>0.60946</v>
+        <v>0.61574</v>
       </c>
       <c r="D57" t="n">
-        <v>0.55175</v>
+        <v>0.547208</v>
       </c>
     </row>
     <row r="58">
@@ -10156,13 +10156,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.798284</v>
+        <v>0.827618</v>
       </c>
       <c r="C58" t="n">
-        <v>0.613378</v>
+        <v>0.62331</v>
       </c>
       <c r="D58" t="n">
-        <v>0.554632</v>
+        <v>0.549559</v>
       </c>
     </row>
     <row r="59">
@@ -10170,13 +10170,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.835288</v>
+        <v>0.832785</v>
       </c>
       <c r="C59" t="n">
-        <v>0.621287</v>
+        <v>0.628485</v>
       </c>
       <c r="D59" t="n">
-        <v>0.557702</v>
+        <v>0.550368</v>
       </c>
     </row>
     <row r="60">
@@ -10184,13 +10184,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.845432</v>
+        <v>0.837527</v>
       </c>
       <c r="C60" t="n">
-        <v>0.630238</v>
+        <v>0.632135</v>
       </c>
       <c r="D60" t="n">
-        <v>0.558137</v>
+        <v>0.553772</v>
       </c>
     </row>
     <row r="61">
@@ -10198,13 +10198,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.842899</v>
+        <v>0.831376</v>
       </c>
       <c r="C61" t="n">
-        <v>0.639446</v>
+        <v>0.646562</v>
       </c>
       <c r="D61" t="n">
-        <v>0.559857</v>
+        <v>0.5584440000000001</v>
       </c>
     </row>
     <row r="62">
@@ -10212,13 +10212,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.856312</v>
+        <v>0.846287</v>
       </c>
       <c r="C62" t="n">
-        <v>0.6433179999999999</v>
+        <v>0.653079</v>
       </c>
       <c r="D62" t="n">
-        <v>0.562543</v>
+        <v>0.562061</v>
       </c>
     </row>
     <row r="63">
@@ -10226,13 +10226,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.8634810000000001</v>
+        <v>0.858842</v>
       </c>
       <c r="C63" t="n">
-        <v>0.651399</v>
+        <v>0.6637150000000001</v>
       </c>
       <c r="D63" t="n">
-        <v>0.566488</v>
+        <v>0.563849</v>
       </c>
     </row>
     <row r="64">
@@ -10240,13 +10240,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.877643</v>
+        <v>0.869044</v>
       </c>
       <c r="C64" t="n">
-        <v>0.713437</v>
+        <v>0.7167480000000001</v>
       </c>
       <c r="D64" t="n">
-        <v>0.606055</v>
+        <v>0.603349</v>
       </c>
     </row>
     <row r="65">
@@ -10254,13 +10254,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.889523</v>
+        <v>0.891195</v>
       </c>
       <c r="C65" t="n">
-        <v>0.724488</v>
+        <v>0.733225</v>
       </c>
       <c r="D65" t="n">
-        <v>0.606289</v>
+        <v>0.6047670000000001</v>
       </c>
     </row>
     <row r="66">
@@ -10268,13 +10268,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.908524</v>
+        <v>0.907663</v>
       </c>
       <c r="C66" t="n">
-        <v>0.740537</v>
+        <v>0.750059</v>
       </c>
       <c r="D66" t="n">
-        <v>0.615438</v>
+        <v>0.613816</v>
       </c>
     </row>
     <row r="67">
@@ -10282,13 +10282,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.887342</v>
+        <v>0.926104</v>
       </c>
       <c r="C67" t="n">
-        <v>0.7610710000000001</v>
+        <v>0.77695</v>
       </c>
       <c r="D67" t="n">
-        <v>0.634615</v>
+        <v>0.62386</v>
       </c>
     </row>
     <row r="68">
@@ -10296,13 +10296,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.959114</v>
+        <v>0.942063</v>
       </c>
       <c r="C68" t="n">
-        <v>0.7909080000000001</v>
+        <v>0.80204</v>
       </c>
       <c r="D68" t="n">
-        <v>0.653039</v>
+        <v>0.64921</v>
       </c>
     </row>
     <row r="69">
@@ -10310,13 +10310,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.980654</v>
+        <v>0.977172</v>
       </c>
       <c r="C69" t="n">
-        <v>0.813196</v>
+        <v>0.828545</v>
       </c>
       <c r="D69" t="n">
-        <v>0.670665</v>
+        <v>0.6669310000000001</v>
       </c>
     </row>
     <row r="70">
@@ -10324,13 +10324,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>1.01173</v>
+        <v>1.00569</v>
       </c>
       <c r="C70" t="n">
-        <v>0.83434</v>
+        <v>0.867936</v>
       </c>
       <c r="D70" t="n">
-        <v>0.686042</v>
+        <v>0.676014</v>
       </c>
     </row>
     <row r="71">
@@ -10338,13 +10338,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>1.03417</v>
+        <v>1.02503</v>
       </c>
       <c r="C71" t="n">
-        <v>0.875822</v>
+        <v>0.897682</v>
       </c>
       <c r="D71" t="n">
-        <v>0.693572</v>
+        <v>0.71033</v>
       </c>
     </row>
     <row r="72">
@@ -10352,13 +10352,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>1.04993</v>
+        <v>1.07529</v>
       </c>
       <c r="C72" t="n">
-        <v>0.891953</v>
+        <v>0.9404670000000001</v>
       </c>
       <c r="D72" t="n">
-        <v>0.7126670000000001</v>
+        <v>0.7375389999999999</v>
       </c>
     </row>
     <row r="73">
@@ -10366,13 +10366,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>1.08096</v>
+        <v>1.10963</v>
       </c>
       <c r="C73" t="n">
-        <v>0.928135</v>
+        <v>0.97697</v>
       </c>
       <c r="D73" t="n">
-        <v>0.746924</v>
+        <v>0.7614610000000001</v>
       </c>
     </row>
     <row r="74">
@@ -10380,13 +10380,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>1.13536</v>
+        <v>1.15224</v>
       </c>
       <c r="C74" t="n">
-        <v>0.967548</v>
+        <v>1.02778</v>
       </c>
       <c r="D74" t="n">
-        <v>0.766235</v>
+        <v>0.792978</v>
       </c>
     </row>
     <row r="75">
@@ -10394,13 +10394,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>1.17301</v>
+        <v>1.21247</v>
       </c>
       <c r="C75" t="n">
-        <v>1.00256</v>
+        <v>1.06623</v>
       </c>
       <c r="D75" t="n">
-        <v>0.803686</v>
+        <v>0.817879</v>
       </c>
     </row>
     <row r="76">
@@ -10408,13 +10408,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>1.36336</v>
+        <v>1.40582</v>
       </c>
       <c r="C76" t="n">
-        <v>1.05021</v>
+        <v>1.10833</v>
       </c>
       <c r="D76" t="n">
-        <v>0.8454390000000001</v>
+        <v>0.854316</v>
       </c>
     </row>
     <row r="77">
@@ -10422,13 +10422,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>1.43082</v>
+        <v>1.47892</v>
       </c>
       <c r="C77" t="n">
-        <v>1.09716</v>
+        <v>1.16097</v>
       </c>
       <c r="D77" t="n">
-        <v>0.881862</v>
+        <v>0.905473</v>
       </c>
     </row>
     <row r="78">
@@ -10436,13 +10436,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>1.49611</v>
+        <v>1.55036</v>
       </c>
       <c r="C78" t="n">
-        <v>1.28428</v>
+        <v>1.3787</v>
       </c>
       <c r="D78" t="n">
-        <v>1.00716</v>
+        <v>1.06524</v>
       </c>
     </row>
     <row r="79">
@@ -10450,13 +10450,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>1.55979</v>
+        <v>1.6411</v>
       </c>
       <c r="C79" t="n">
-        <v>1.318</v>
+        <v>1.43501</v>
       </c>
       <c r="D79" t="n">
-        <v>1.06265</v>
+        <v>1.12246</v>
       </c>
     </row>
     <row r="80">
@@ -10464,13 +10464,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>1.64325</v>
+        <v>1.72033</v>
       </c>
       <c r="C80" t="n">
-        <v>1.36679</v>
+        <v>1.47835</v>
       </c>
       <c r="D80" t="n">
-        <v>1.11836</v>
+        <v>1.18973</v>
       </c>
     </row>
     <row r="81">
@@ -10478,13 +10478,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>1.72141</v>
+        <v>1.83127</v>
       </c>
       <c r="C81" t="n">
-        <v>1.40678</v>
+        <v>1.53802</v>
       </c>
       <c r="D81" t="n">
-        <v>1.16172</v>
+        <v>1.24166</v>
       </c>
     </row>
     <row r="82">
@@ -10492,13 +10492,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>1.81533</v>
+        <v>1.92122</v>
       </c>
       <c r="C82" t="n">
-        <v>1.45454</v>
+        <v>1.58604</v>
       </c>
       <c r="D82" t="n">
-        <v>1.22967</v>
+        <v>1.30966</v>
       </c>
     </row>
     <row r="83">
@@ -10506,13 +10506,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>1.89308</v>
+        <v>2.03285</v>
       </c>
       <c r="C83" t="n">
-        <v>1.48623</v>
+        <v>1.63596</v>
       </c>
       <c r="D83" t="n">
-        <v>1.27638</v>
+        <v>1.37507</v>
       </c>
     </row>
     <row r="84">
@@ -10520,13 +10520,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>1.99127</v>
+        <v>2.13888</v>
       </c>
       <c r="C84" t="n">
-        <v>1.5322</v>
+        <v>1.69429</v>
       </c>
       <c r="D84" t="n">
-        <v>1.33138</v>
+        <v>1.43279</v>
       </c>
     </row>
     <row r="85">
@@ -10534,13 +10534,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>2.07645</v>
+        <v>2.23716</v>
       </c>
       <c r="C85" t="n">
-        <v>1.58129</v>
+        <v>1.73702</v>
       </c>
       <c r="D85" t="n">
-        <v>1.40094</v>
+        <v>1.50044</v>
       </c>
     </row>
     <row r="86">
@@ -10548,13 +10548,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>2.17186</v>
+        <v>2.34528</v>
       </c>
       <c r="C86" t="n">
-        <v>1.6214</v>
+        <v>1.79068</v>
       </c>
       <c r="D86" t="n">
-        <v>1.4591</v>
+        <v>1.56614</v>
       </c>
     </row>
     <row r="87">
@@ -10562,13 +10562,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>2.27385</v>
+        <v>2.4552</v>
       </c>
       <c r="C87" t="n">
-        <v>1.66723</v>
+        <v>1.84504</v>
       </c>
       <c r="D87" t="n">
-        <v>1.51747</v>
+        <v>1.63645</v>
       </c>
     </row>
     <row r="88">
@@ -10576,13 +10576,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>2.35667</v>
+        <v>2.56669</v>
       </c>
       <c r="C88" t="n">
-        <v>1.70073</v>
+        <v>1.88695</v>
       </c>
       <c r="D88" t="n">
-        <v>1.57308</v>
+        <v>1.69998</v>
       </c>
     </row>
     <row r="89">
@@ -10590,13 +10590,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>2.46227</v>
+        <v>2.68327</v>
       </c>
       <c r="C89" t="n">
-        <v>1.74973</v>
+        <v>1.95004</v>
       </c>
       <c r="D89" t="n">
-        <v>1.63715</v>
+        <v>1.76414</v>
       </c>
     </row>
     <row r="90">
@@ -10604,13 +10604,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>2.65497</v>
+        <v>2.89707</v>
       </c>
       <c r="C90" t="n">
-        <v>1.79054</v>
+        <v>1.99794</v>
       </c>
       <c r="D90" t="n">
-        <v>1.69109</v>
+        <v>1.83049</v>
       </c>
     </row>
     <row r="91">
@@ -10618,13 +10618,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>2.73523</v>
+        <v>3.00412</v>
       </c>
       <c r="C91" t="n">
-        <v>1.84294</v>
+        <v>2.052</v>
       </c>
       <c r="D91" t="n">
-        <v>1.74849</v>
+        <v>1.89263</v>
       </c>
     </row>
     <row r="92">
@@ -10632,13 +10632,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>2.81699</v>
+        <v>3.07411</v>
       </c>
       <c r="C92" t="n">
-        <v>1.97205</v>
+        <v>2.19287</v>
       </c>
       <c r="D92" t="n">
-        <v>1.86552</v>
+        <v>2.024</v>
       </c>
     </row>
     <row r="93">
@@ -10646,13 +10646,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>2.90252</v>
+        <v>3.17098</v>
       </c>
       <c r="C93" t="n">
-        <v>2.00639</v>
+        <v>2.22794</v>
       </c>
       <c r="D93" t="n">
-        <v>1.9176</v>
+        <v>2.0862</v>
       </c>
     </row>
     <row r="94">
@@ -10660,13 +10660,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>2.969</v>
+        <v>3.25664</v>
       </c>
       <c r="C94" t="n">
-        <v>2.03527</v>
+        <v>2.27866</v>
       </c>
       <c r="D94" t="n">
-        <v>1.96588</v>
+        <v>2.13661</v>
       </c>
     </row>
     <row r="95">
@@ -10674,13 +10674,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>3.04945</v>
+        <v>3.34819</v>
       </c>
       <c r="C95" t="n">
-        <v>2.06115</v>
+        <v>2.30905</v>
       </c>
       <c r="D95" t="n">
-        <v>2.00987</v>
+        <v>2.19445</v>
       </c>
     </row>
     <row r="96">
@@ -10688,13 +10688,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>3.116</v>
+        <v>3.42205</v>
       </c>
       <c r="C96" t="n">
-        <v>2.09281</v>
+        <v>2.34197</v>
       </c>
       <c r="D96" t="n">
-        <v>2.05874</v>
+        <v>2.24197</v>
       </c>
     </row>
     <row r="97">
@@ -10702,13 +10702,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>3.19885</v>
+        <v>3.49366</v>
       </c>
       <c r="C97" t="n">
-        <v>2.12693</v>
+        <v>2.38356</v>
       </c>
       <c r="D97" t="n">
-        <v>2.09014</v>
+        <v>2.29112</v>
       </c>
     </row>
     <row r="98">
@@ -10716,13 +10716,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>3.2857</v>
+        <v>3.59083</v>
       </c>
       <c r="C98" t="n">
-        <v>2.16221</v>
+        <v>2.42894</v>
       </c>
       <c r="D98" t="n">
-        <v>2.14498</v>
+        <v>2.3444</v>
       </c>
     </row>
     <row r="99">
@@ -10730,13 +10730,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>3.35397</v>
+        <v>3.65088</v>
       </c>
       <c r="C99" t="n">
-        <v>2.20515</v>
+        <v>2.47459</v>
       </c>
       <c r="D99" t="n">
-        <v>2.17497</v>
+        <v>2.38424</v>
       </c>
     </row>
     <row r="100">
@@ -10744,13 +10744,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>3.40699</v>
+        <v>3.72785</v>
       </c>
       <c r="C100" t="n">
-        <v>2.23484</v>
+        <v>2.49985</v>
       </c>
       <c r="D100" t="n">
-        <v>2.20593</v>
+        <v>2.43279</v>
       </c>
     </row>
     <row r="101">
@@ -10758,13 +10758,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>3.46442</v>
+        <v>3.80793</v>
       </c>
       <c r="C101" t="n">
-        <v>2.25073</v>
+        <v>2.53991</v>
       </c>
       <c r="D101" t="n">
-        <v>2.26065</v>
+        <v>2.47328</v>
       </c>
     </row>
     <row r="102">
@@ -10772,13 +10772,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>3.53932</v>
+        <v>3.86043</v>
       </c>
       <c r="C102" t="n">
-        <v>2.2975</v>
+        <v>2.58091</v>
       </c>
       <c r="D102" t="n">
-        <v>2.29356</v>
+        <v>2.50958</v>
       </c>
     </row>
     <row r="103">
@@ -10786,13 +10786,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>3.61404</v>
+        <v>3.94577</v>
       </c>
       <c r="C103" t="n">
-        <v>2.32564</v>
+        <v>2.60122</v>
       </c>
       <c r="D103" t="n">
-        <v>2.30745</v>
+        <v>2.55683</v>
       </c>
     </row>
     <row r="104">
@@ -10800,13 +10800,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>3.66916</v>
+        <v>4.01537</v>
       </c>
       <c r="C104" t="n">
-        <v>2.35471</v>
+        <v>2.64459</v>
       </c>
       <c r="D104" t="n">
-        <v>2.34908</v>
+        <v>2.58958</v>
       </c>
     </row>
     <row r="105">
@@ -10814,13 +10814,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>3.6888</v>
+        <v>4.04889</v>
       </c>
       <c r="C105" t="n">
-        <v>2.39438</v>
+        <v>2.69005</v>
       </c>
       <c r="D105" t="n">
-        <v>2.37243</v>
+        <v>2.64169</v>
       </c>
     </row>
     <row r="106">
@@ -10828,13 +10828,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>3.72546</v>
+        <v>4.11052</v>
       </c>
       <c r="C106" t="n">
-        <v>2.4145</v>
+        <v>2.71067</v>
       </c>
       <c r="D106" t="n">
-        <v>2.4106</v>
+        <v>2.66452</v>
       </c>
     </row>
     <row r="107">
@@ -10842,13 +10842,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>3.78348</v>
+        <v>4.15431</v>
       </c>
       <c r="C107" t="n">
-        <v>2.41998</v>
+        <v>2.72289</v>
       </c>
       <c r="D107" t="n">
-        <v>2.48209</v>
+        <v>2.74235</v>
       </c>
     </row>
     <row r="108">
@@ -10856,13 +10856,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>3.82163</v>
+        <v>4.21745</v>
       </c>
       <c r="C108" t="n">
-        <v>2.43128</v>
+        <v>2.72446</v>
       </c>
       <c r="D108" t="n">
-        <v>2.49819</v>
+        <v>2.76748</v>
       </c>
     </row>
     <row r="109">
@@ -10870,13 +10870,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>3.87459</v>
+        <v>4.26342</v>
       </c>
       <c r="C109" t="n">
-        <v>2.46119</v>
+        <v>2.75837</v>
       </c>
       <c r="D109" t="n">
-        <v>2.53432</v>
+        <v>2.80706</v>
       </c>
     </row>
     <row r="110">
@@ -10884,13 +10884,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>3.91309</v>
+        <v>4.34002</v>
       </c>
       <c r="C110" t="n">
-        <v>2.48124</v>
+        <v>2.80041</v>
       </c>
       <c r="D110" t="n">
-        <v>2.56523</v>
+        <v>2.83144</v>
       </c>
     </row>
     <row r="111">
@@ -10898,13 +10898,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>3.95918</v>
+        <v>4.37352</v>
       </c>
       <c r="C111" t="n">
-        <v>2.50809</v>
+        <v>2.81501</v>
       </c>
       <c r="D111" t="n">
-        <v>2.58872</v>
+        <v>2.8643</v>
       </c>
     </row>
     <row r="112">
@@ -10912,13 +10912,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>3.79045</v>
+        <v>4.437</v>
       </c>
       <c r="C112" t="n">
-        <v>2.52105</v>
+        <v>2.84589</v>
       </c>
       <c r="D112" t="n">
-        <v>2.61425</v>
+        <v>2.90169</v>
       </c>
     </row>
     <row r="113">
@@ -10926,13 +10926,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>4.05145</v>
+        <v>4.48272</v>
       </c>
       <c r="C113" t="n">
-        <v>2.57391</v>
+        <v>2.8655</v>
       </c>
       <c r="D113" t="n">
-        <v>2.64406</v>
+        <v>2.92248</v>
       </c>
     </row>
     <row r="114">
@@ -10940,13 +10940,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>4.09722</v>
+        <v>4.53767</v>
       </c>
       <c r="C114" t="n">
-        <v>2.57265</v>
+        <v>2.88931</v>
       </c>
       <c r="D114" t="n">
-        <v>2.66738</v>
+        <v>2.95897</v>
       </c>
     </row>
     <row r="115">
@@ -10954,13 +10954,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>4.15698</v>
+        <v>4.58537</v>
       </c>
       <c r="C115" t="n">
-        <v>2.59628</v>
+        <v>2.92168</v>
       </c>
       <c r="D115" t="n">
-        <v>2.69014</v>
+        <v>2.97606</v>
       </c>
     </row>
     <row r="116">
@@ -10968,13 +10968,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>4.21264</v>
+        <v>4.63855</v>
       </c>
       <c r="C116" t="n">
-        <v>2.62596</v>
+        <v>2.9558</v>
       </c>
       <c r="D116" t="n">
-        <v>2.70972</v>
+        <v>3.00946</v>
       </c>
     </row>
     <row r="117">
@@ -10982,13 +10982,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>4.24238</v>
+        <v>4.69273</v>
       </c>
       <c r="C117" t="n">
-        <v>2.66959</v>
+        <v>2.97672</v>
       </c>
       <c r="D117" t="n">
-        <v>2.72131</v>
+        <v>3.02715</v>
       </c>
     </row>
     <row r="118">
@@ -10996,13 +10996,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>4.29513</v>
+        <v>4.75264</v>
       </c>
       <c r="C118" t="n">
-        <v>2.69752</v>
+        <v>3.02703</v>
       </c>
       <c r="D118" t="n">
-        <v>2.74837</v>
+        <v>3.06281</v>
       </c>
     </row>
     <row r="119">
@@ -11010,13 +11010,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>4.25137</v>
+        <v>4.67626</v>
       </c>
       <c r="C119" t="n">
-        <v>2.69637</v>
+        <v>3.04344</v>
       </c>
       <c r="D119" t="n">
-        <v>2.76837</v>
+        <v>3.06628</v>
       </c>
     </row>
   </sheetData>
@@ -11064,13 +11064,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.533861</v>
+        <v>0.517258</v>
       </c>
       <c r="C2" t="n">
-        <v>0.433391</v>
+        <v>0.440151</v>
       </c>
       <c r="D2" t="n">
-        <v>0.342869</v>
+        <v>0.335937</v>
       </c>
     </row>
     <row r="3">
@@ -11078,13 +11078,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.538175</v>
+        <v>0.52705</v>
       </c>
       <c r="C3" t="n">
-        <v>0.433984</v>
+        <v>0.444026</v>
       </c>
       <c r="D3" t="n">
-        <v>0.344843</v>
+        <v>0.338252</v>
       </c>
     </row>
     <row r="4">
@@ -11092,13 +11092,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.545767</v>
+        <v>0.53425</v>
       </c>
       <c r="C4" t="n">
-        <v>0.446085</v>
+        <v>0.451007</v>
       </c>
       <c r="D4" t="n">
-        <v>0.349656</v>
+        <v>0.341973</v>
       </c>
     </row>
     <row r="5">
@@ -11106,13 +11106,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.556129</v>
+        <v>0.5394600000000001</v>
       </c>
       <c r="C5" t="n">
-        <v>0.450378</v>
+        <v>0.45438</v>
       </c>
       <c r="D5" t="n">
-        <v>0.354163</v>
+        <v>0.345754</v>
       </c>
     </row>
     <row r="6">
@@ -11120,13 +11120,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.564953</v>
+        <v>0.5500930000000001</v>
       </c>
       <c r="C6" t="n">
-        <v>0.457134</v>
+        <v>0.459708</v>
       </c>
       <c r="D6" t="n">
-        <v>0.35572</v>
+        <v>0.347043</v>
       </c>
     </row>
     <row r="7">
@@ -11134,13 +11134,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.572925</v>
+        <v>0.560522</v>
       </c>
       <c r="C7" t="n">
-        <v>0.464795</v>
+        <v>0.474566</v>
       </c>
       <c r="D7" t="n">
-        <v>0.361563</v>
+        <v>0.355841</v>
       </c>
     </row>
     <row r="8">
@@ -11148,13 +11148,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.579468</v>
+        <v>0.568378</v>
       </c>
       <c r="C8" t="n">
-        <v>0.467291</v>
+        <v>0.477401</v>
       </c>
       <c r="D8" t="n">
-        <v>0.363581</v>
+        <v>0.357035</v>
       </c>
     </row>
     <row r="9">
@@ -11162,13 +11162,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.594425</v>
+        <v>0.580003</v>
       </c>
       <c r="C9" t="n">
-        <v>0.475881</v>
+        <v>0.48564</v>
       </c>
       <c r="D9" t="n">
-        <v>0.370091</v>
+        <v>0.363193</v>
       </c>
     </row>
     <row r="10">
@@ -11176,13 +11176,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.6098710000000001</v>
+        <v>0.588583</v>
       </c>
       <c r="C10" t="n">
-        <v>0.491525</v>
+        <v>0.50109</v>
       </c>
       <c r="D10" t="n">
-        <v>0.376869</v>
+        <v>0.363481</v>
       </c>
     </row>
     <row r="11">
@@ -11190,13 +11190,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.620994</v>
+        <v>0.603203</v>
       </c>
       <c r="C11" t="n">
-        <v>0.475786</v>
+        <v>0.485188</v>
       </c>
       <c r="D11" t="n">
-        <v>0.38443</v>
+        <v>0.373787</v>
       </c>
     </row>
     <row r="12">
@@ -11204,13 +11204,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.603874</v>
+        <v>0.587871</v>
       </c>
       <c r="C12" t="n">
-        <v>0.484452</v>
+        <v>0.49093</v>
       </c>
       <c r="D12" t="n">
-        <v>0.389383</v>
+        <v>0.380516</v>
       </c>
     </row>
     <row r="13">
@@ -11218,13 +11218,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.6148400000000001</v>
+        <v>0.599506</v>
       </c>
       <c r="C13" t="n">
-        <v>0.491068</v>
+        <v>0.502045</v>
       </c>
       <c r="D13" t="n">
-        <v>0.394941</v>
+        <v>0.382971</v>
       </c>
     </row>
     <row r="14">
@@ -11232,13 +11232,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.623923</v>
+        <v>0.612002</v>
       </c>
       <c r="C14" t="n">
-        <v>0.495487</v>
+        <v>0.507917</v>
       </c>
       <c r="D14" t="n">
-        <v>0.400335</v>
+        <v>0.391309</v>
       </c>
     </row>
     <row r="15">
@@ -11246,13 +11246,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.639366</v>
+        <v>0.628018</v>
       </c>
       <c r="C15" t="n">
-        <v>0.5023919999999999</v>
+        <v>0.516195</v>
       </c>
       <c r="D15" t="n">
-        <v>0.406192</v>
+        <v>0.398302</v>
       </c>
     </row>
     <row r="16">
@@ -11260,13 +11260,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.647614</v>
+        <v>0.644066</v>
       </c>
       <c r="C16" t="n">
-        <v>0.511593</v>
+        <v>0.528121</v>
       </c>
       <c r="D16" t="n">
-        <v>0.40996</v>
+        <v>0.405147</v>
       </c>
     </row>
     <row r="17">
@@ -11274,13 +11274,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.656551</v>
+        <v>0.658315</v>
       </c>
       <c r="C17" t="n">
-        <v>0.522123</v>
+        <v>0.536064</v>
       </c>
       <c r="D17" t="n">
-        <v>0.414776</v>
+        <v>0.411368</v>
       </c>
     </row>
     <row r="18">
@@ -11288,13 +11288,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.6750350000000001</v>
+        <v>0.6704830000000001</v>
       </c>
       <c r="C18" t="n">
-        <v>0.524644</v>
+        <v>0.542709</v>
       </c>
       <c r="D18" t="n">
-        <v>0.422235</v>
+        <v>0.42093</v>
       </c>
     </row>
     <row r="19">
@@ -11302,13 +11302,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.688555</v>
+        <v>0.689816</v>
       </c>
       <c r="C19" t="n">
-        <v>0.536927</v>
+        <v>0.555523</v>
       </c>
       <c r="D19" t="n">
-        <v>0.427572</v>
+        <v>0.425563</v>
       </c>
     </row>
     <row r="20">
@@ -11316,13 +11316,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.701476</v>
+        <v>0.706039</v>
       </c>
       <c r="C20" t="n">
-        <v>0.543755</v>
+        <v>0.568764</v>
       </c>
       <c r="D20" t="n">
-        <v>0.433869</v>
+        <v>0.431831</v>
       </c>
     </row>
     <row r="21">
@@ -11330,13 +11330,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.709898</v>
+        <v>0.7108989999999999</v>
       </c>
       <c r="C21" t="n">
-        <v>0.560316</v>
+        <v>0.575084</v>
       </c>
       <c r="D21" t="n">
-        <v>0.437523</v>
+        <v>0.436725</v>
       </c>
     </row>
     <row r="22">
@@ -11344,13 +11344,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.720814</v>
+        <v>0.7260450000000001</v>
       </c>
       <c r="C22" t="n">
-        <v>0.567153</v>
+        <v>0.5898910000000001</v>
       </c>
       <c r="D22" t="n">
-        <v>0.444587</v>
+        <v>0.442593</v>
       </c>
     </row>
     <row r="23">
@@ -11358,13 +11358,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.73985</v>
+        <v>0.73934</v>
       </c>
       <c r="C23" t="n">
-        <v>0.579942</v>
+        <v>0.601044</v>
       </c>
       <c r="D23" t="n">
-        <v>0.448788</v>
+        <v>0.446317</v>
       </c>
     </row>
     <row r="24">
@@ -11372,13 +11372,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.754764</v>
+        <v>0.753652</v>
       </c>
       <c r="C24" t="n">
-        <v>0.582581</v>
+        <v>0.608447</v>
       </c>
       <c r="D24" t="n">
-        <v>0.454305</v>
+        <v>0.451564</v>
       </c>
     </row>
     <row r="25">
@@ -11386,13 +11386,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.772671</v>
+        <v>0.770423</v>
       </c>
       <c r="C25" t="n">
-        <v>0.603017</v>
+        <v>0.6202299999999999</v>
       </c>
       <c r="D25" t="n">
-        <v>0.46038</v>
+        <v>0.456284</v>
       </c>
     </row>
     <row r="26">
@@ -11400,13 +11400,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.790756</v>
+        <v>0.791341</v>
       </c>
       <c r="C26" t="n">
-        <v>0.550424</v>
+        <v>0.565277</v>
       </c>
       <c r="D26" t="n">
-        <v>0.46625</v>
+        <v>0.462843</v>
       </c>
     </row>
     <row r="27">
@@ -11414,13 +11414,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.7432</v>
+        <v>0.742367</v>
       </c>
       <c r="C27" t="n">
-        <v>0.556299</v>
+        <v>0.572511</v>
       </c>
       <c r="D27" t="n">
-        <v>0.470496</v>
+        <v>0.466258</v>
       </c>
     </row>
     <row r="28">
@@ -11428,13 +11428,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.7560750000000001</v>
+        <v>0.75551</v>
       </c>
       <c r="C28" t="n">
-        <v>0.564462</v>
+        <v>0.583372</v>
       </c>
       <c r="D28" t="n">
-        <v>0.476688</v>
+        <v>0.47364</v>
       </c>
     </row>
     <row r="29">
@@ -11442,13 +11442,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.765348</v>
+        <v>0.763885</v>
       </c>
       <c r="C29" t="n">
-        <v>0.567122</v>
+        <v>0.586106</v>
       </c>
       <c r="D29" t="n">
-        <v>0.477488</v>
+        <v>0.474547</v>
       </c>
     </row>
     <row r="30">
@@ -11456,13 +11456,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.773819</v>
+        <v>0.776296</v>
       </c>
       <c r="C30" t="n">
-        <v>0.575983</v>
+        <v>0.593228</v>
       </c>
       <c r="D30" t="n">
-        <v>0.484405</v>
+        <v>0.482057</v>
       </c>
     </row>
     <row r="31">
@@ -11470,13 +11470,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.787626</v>
+        <v>0.7911859999999999</v>
       </c>
       <c r="C31" t="n">
-        <v>0.585765</v>
+        <v>0.601975</v>
       </c>
       <c r="D31" t="n">
-        <v>0.487289</v>
+        <v>0.485104</v>
       </c>
     </row>
     <row r="32">
@@ -11484,13 +11484,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.799898</v>
+        <v>0.805531</v>
       </c>
       <c r="C32" t="n">
-        <v>0.591001</v>
+        <v>0.61131</v>
       </c>
       <c r="D32" t="n">
-        <v>0.492019</v>
+        <v>0.486023</v>
       </c>
     </row>
     <row r="33">
@@ -11498,13 +11498,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.811457</v>
+        <v>0.81456</v>
       </c>
       <c r="C33" t="n">
-        <v>0.59996</v>
+        <v>0.6185349999999999</v>
       </c>
       <c r="D33" t="n">
-        <v>0.495326</v>
+        <v>0.490281</v>
       </c>
     </row>
     <row r="34">
@@ -11512,13 +11512,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.82418</v>
+        <v>0.831701</v>
       </c>
       <c r="C34" t="n">
-        <v>0.608549</v>
+        <v>0.631049</v>
       </c>
       <c r="D34" t="n">
-        <v>0.498383</v>
+        <v>0.496944</v>
       </c>
     </row>
     <row r="35">
@@ -11526,13 +11526,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.838135</v>
+        <v>0.840894</v>
       </c>
       <c r="C35" t="n">
-        <v>0.621605</v>
+        <v>0.638862</v>
       </c>
       <c r="D35" t="n">
-        <v>0.503339</v>
+        <v>0.500379</v>
       </c>
     </row>
     <row r="36">
@@ -11540,13 +11540,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.848531</v>
+        <v>0.8566319999999999</v>
       </c>
       <c r="C36" t="n">
-        <v>0.631852</v>
+        <v>0.651366</v>
       </c>
       <c r="D36" t="n">
-        <v>0.505725</v>
+        <v>0.502583</v>
       </c>
     </row>
     <row r="37">
@@ -11554,13 +11554,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.859591</v>
+        <v>0.864405</v>
       </c>
       <c r="C37" t="n">
-        <v>0.639868</v>
+        <v>0.657563</v>
       </c>
       <c r="D37" t="n">
-        <v>0.508424</v>
+        <v>0.504985</v>
       </c>
     </row>
     <row r="38">
@@ -11568,13 +11568,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.874035</v>
+        <v>0.876132</v>
       </c>
       <c r="C38" t="n">
-        <v>0.65294</v>
+        <v>0.672104</v>
       </c>
       <c r="D38" t="n">
-        <v>0.514688</v>
+        <v>0.509033</v>
       </c>
     </row>
     <row r="39">
@@ -11582,13 +11582,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.8902099999999999</v>
+        <v>0.896478</v>
       </c>
       <c r="C39" t="n">
-        <v>0.661505</v>
+        <v>0.685702</v>
       </c>
       <c r="D39" t="n">
-        <v>0.516027</v>
+        <v>0.511178</v>
       </c>
     </row>
     <row r="40">
@@ -11596,13 +11596,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.8953</v>
+        <v>0.899436</v>
       </c>
       <c r="C40" t="n">
-        <v>0.618976</v>
+        <v>0.632376</v>
       </c>
       <c r="D40" t="n">
-        <v>0.520823</v>
+        <v>0.515374</v>
       </c>
     </row>
     <row r="41">
@@ -11610,13 +11610,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.849638</v>
+        <v>0.852695</v>
       </c>
       <c r="C41" t="n">
-        <v>0.6205889999999999</v>
+        <v>0.6374649999999999</v>
       </c>
       <c r="D41" t="n">
-        <v>0.523794</v>
+        <v>0.517908</v>
       </c>
     </row>
     <row r="42">
@@ -11624,13 +11624,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.858456</v>
+        <v>0.863356</v>
       </c>
       <c r="C42" t="n">
-        <v>0.630582</v>
+        <v>0.64629</v>
       </c>
       <c r="D42" t="n">
-        <v>0.525616</v>
+        <v>0.522069</v>
       </c>
     </row>
     <row r="43">
@@ -11638,13 +11638,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.863909</v>
+        <v>0.868352</v>
       </c>
       <c r="C43" t="n">
-        <v>0.6335499999999999</v>
+        <v>0.653251</v>
       </c>
       <c r="D43" t="n">
-        <v>0.527627</v>
+        <v>0.525643</v>
       </c>
     </row>
     <row r="44">
@@ -11652,13 +11652,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.872404</v>
+        <v>0.875584</v>
       </c>
       <c r="C44" t="n">
-        <v>0.64555</v>
+        <v>0.665031</v>
       </c>
       <c r="D44" t="n">
-        <v>0.531986</v>
+        <v>0.527064</v>
       </c>
     </row>
     <row r="45">
@@ -11666,13 +11666,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.887717</v>
+        <v>0.889234</v>
       </c>
       <c r="C45" t="n">
-        <v>0.648992</v>
+        <v>0.670673</v>
       </c>
       <c r="D45" t="n">
-        <v>0.533308</v>
+        <v>0.528292</v>
       </c>
     </row>
     <row r="46">
@@ -11680,13 +11680,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.891976</v>
+        <v>0.896986</v>
       </c>
       <c r="C46" t="n">
-        <v>0.6604640000000001</v>
+        <v>0.677554</v>
       </c>
       <c r="D46" t="n">
-        <v>0.536016</v>
+        <v>0.531842</v>
       </c>
     </row>
     <row r="47">
@@ -11694,13 +11694,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.904565</v>
+        <v>0.909547</v>
       </c>
       <c r="C47" t="n">
-        <v>0.66975</v>
+        <v>0.68738</v>
       </c>
       <c r="D47" t="n">
-        <v>0.537726</v>
+        <v>0.53077</v>
       </c>
     </row>
     <row r="48">
@@ -11708,13 +11708,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.91188</v>
+        <v>0.911131</v>
       </c>
       <c r="C48" t="n">
-        <v>0.677042</v>
+        <v>0.6914940000000001</v>
       </c>
       <c r="D48" t="n">
-        <v>0.539568</v>
+        <v>0.534474</v>
       </c>
     </row>
     <row r="49">
@@ -11722,13 +11722,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.920641</v>
+        <v>0.920778</v>
       </c>
       <c r="C49" t="n">
-        <v>0.686229</v>
+        <v>0.695871</v>
       </c>
       <c r="D49" t="n">
-        <v>0.542179</v>
+        <v>0.5392400000000001</v>
       </c>
     </row>
     <row r="50">
@@ -11736,13 +11736,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.935746</v>
+        <v>0.928347</v>
       </c>
       <c r="C50" t="n">
-        <v>0.691907</v>
+        <v>0.711089</v>
       </c>
       <c r="D50" t="n">
-        <v>0.543317</v>
+        <v>0.541233</v>
       </c>
     </row>
     <row r="51">
@@ -11750,13 +11750,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.944206</v>
+        <v>0.9446600000000001</v>
       </c>
       <c r="C51" t="n">
-        <v>0.702093</v>
+        <v>0.720397</v>
       </c>
       <c r="D51" t="n">
-        <v>0.545176</v>
+        <v>0.540923</v>
       </c>
     </row>
     <row r="52">
@@ -11764,13 +11764,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.958628</v>
+        <v>0.95928</v>
       </c>
       <c r="C52" t="n">
-        <v>0.7157559999999999</v>
+        <v>0.735623</v>
       </c>
       <c r="D52" t="n">
-        <v>0.548387</v>
+        <v>0.543481</v>
       </c>
     </row>
     <row r="53">
@@ -11778,13 +11778,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.966839</v>
+        <v>0.969986</v>
       </c>
       <c r="C53" t="n">
-        <v>0.724668</v>
+        <v>0.74369</v>
       </c>
       <c r="D53" t="n">
-        <v>0.549481</v>
+        <v>0.545455</v>
       </c>
     </row>
     <row r="54">
@@ -11792,13 +11792,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.977912</v>
+        <v>0.982255</v>
       </c>
       <c r="C54" t="n">
-        <v>0.65523</v>
+        <v>0.672135</v>
       </c>
       <c r="D54" t="n">
-        <v>0.548952</v>
+        <v>0.543189</v>
       </c>
     </row>
     <row r="55">
@@ -11806,13 +11806,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.993247</v>
+        <v>0.994044</v>
       </c>
       <c r="C55" t="n">
-        <v>0.661882</v>
+        <v>0.678356</v>
       </c>
       <c r="D55" t="n">
-        <v>0.550706</v>
+        <v>0.546112</v>
       </c>
     </row>
     <row r="56">
@@ -11820,13 +11820,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.91365</v>
+        <v>0.905963</v>
       </c>
       <c r="C56" t="n">
-        <v>0.671896</v>
+        <v>0.6857220000000001</v>
       </c>
       <c r="D56" t="n">
-        <v>0.551932</v>
+        <v>0.545345</v>
       </c>
     </row>
     <row r="57">
@@ -11834,13 +11834,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.91691</v>
+        <v>0.918477</v>
       </c>
       <c r="C57" t="n">
-        <v>0.676426</v>
+        <v>0.693039</v>
       </c>
       <c r="D57" t="n">
-        <v>0.553629</v>
+        <v>0.547035</v>
       </c>
     </row>
     <row r="58">
@@ -11848,13 +11848,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.927626</v>
+        <v>0.9288999999999999</v>
       </c>
       <c r="C58" t="n">
-        <v>0.683723</v>
+        <v>0.7021269999999999</v>
       </c>
       <c r="D58" t="n">
-        <v>0.556109</v>
+        <v>0.551181</v>
       </c>
     </row>
     <row r="59">
@@ -11862,13 +11862,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.935055</v>
+        <v>0.928393</v>
       </c>
       <c r="C59" t="n">
-        <v>0.694784</v>
+        <v>0.712168</v>
       </c>
       <c r="D59" t="n">
-        <v>0.5583979999999999</v>
+        <v>0.55315</v>
       </c>
     </row>
     <row r="60">
@@ -11876,13 +11876,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.934711</v>
+        <v>0.93458</v>
       </c>
       <c r="C60" t="n">
-        <v>0.7067870000000001</v>
+        <v>0.722145</v>
       </c>
       <c r="D60" t="n">
-        <v>0.558686</v>
+        <v>0.551955</v>
       </c>
     </row>
     <row r="61">
@@ -11890,13 +11890,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.948469</v>
+        <v>0.940892</v>
       </c>
       <c r="C61" t="n">
-        <v>0.712778</v>
+        <v>0.72994</v>
       </c>
       <c r="D61" t="n">
-        <v>0.560086</v>
+        <v>0.556763</v>
       </c>
     </row>
     <row r="62">
@@ -11904,13 +11904,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.95423</v>
+        <v>0.952199</v>
       </c>
       <c r="C62" t="n">
-        <v>0.724288</v>
+        <v>0.740268</v>
       </c>
       <c r="D62" t="n">
-        <v>0.561379</v>
+        <v>0.553713</v>
       </c>
     </row>
     <row r="63">
@@ -11918,13 +11918,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.96765</v>
+        <v>0.963073</v>
       </c>
       <c r="C63" t="n">
-        <v>0.737587</v>
+        <v>0.755751</v>
       </c>
       <c r="D63" t="n">
-        <v>0.562615</v>
+        <v>0.559212</v>
       </c>
     </row>
     <row r="64">
@@ -11932,13 +11932,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.977707</v>
+        <v>0.972653</v>
       </c>
       <c r="C64" t="n">
-        <v>0.748588</v>
+        <v>0.768719</v>
       </c>
       <c r="D64" t="n">
-        <v>0.564949</v>
+        <v>0.558267</v>
       </c>
     </row>
     <row r="65">
@@ -11946,13 +11946,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.991385</v>
+        <v>0.987975</v>
       </c>
       <c r="C65" t="n">
-        <v>0.764416</v>
+        <v>0.786286</v>
       </c>
       <c r="D65" t="n">
-        <v>0.567068</v>
+        <v>0.565125</v>
       </c>
     </row>
     <row r="66">
@@ -11960,13 +11960,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>1.00404</v>
+        <v>1.00785</v>
       </c>
       <c r="C66" t="n">
-        <v>0.777746</v>
+        <v>0.799477</v>
       </c>
       <c r="D66" t="n">
-        <v>0.568944</v>
+        <v>0.568137</v>
       </c>
     </row>
     <row r="67">
@@ -11974,13 +11974,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>1.01866</v>
+        <v>1.0195</v>
       </c>
       <c r="C67" t="n">
-        <v>0.7965719999999999</v>
+        <v>0.8197179999999999</v>
       </c>
       <c r="D67" t="n">
-        <v>0.571341</v>
+        <v>0.572014</v>
       </c>
     </row>
     <row r="68">
@@ -11988,13 +11988,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>1.02853</v>
+        <v>1.03116</v>
       </c>
       <c r="C68" t="n">
-        <v>0.739993</v>
+        <v>0.759437</v>
       </c>
       <c r="D68" t="n">
-        <v>0.586076</v>
+        <v>0.588666</v>
       </c>
     </row>
     <row r="69">
@@ -12002,13 +12002,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>1.06569</v>
+        <v>1.06714</v>
       </c>
       <c r="C69" t="n">
-        <v>0.763409</v>
+        <v>0.783322</v>
       </c>
       <c r="D69" t="n">
-        <v>0.595455</v>
+        <v>0.599624</v>
       </c>
     </row>
     <row r="70">
@@ -12016,13 +12016,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>1.00724</v>
+        <v>1.00902</v>
       </c>
       <c r="C70" t="n">
-        <v>0.79109</v>
+        <v>0.816985</v>
       </c>
       <c r="D70" t="n">
-        <v>0.610962</v>
+        <v>0.614384</v>
       </c>
     </row>
     <row r="71">
@@ -12030,13 +12030,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>1.03191</v>
+        <v>1.03729</v>
       </c>
       <c r="C71" t="n">
-        <v>0.821427</v>
+        <v>0.8496359999999999</v>
       </c>
       <c r="D71" t="n">
-        <v>0.626505</v>
+        <v>0.62986</v>
       </c>
     </row>
     <row r="72">
@@ -12044,13 +12044,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>1.06846</v>
+        <v>1.06932</v>
       </c>
       <c r="C72" t="n">
-        <v>0.852069</v>
+        <v>0.885019</v>
       </c>
       <c r="D72" t="n">
-        <v>0.642744</v>
+        <v>0.641629</v>
       </c>
     </row>
     <row r="73">
@@ -12058,13 +12058,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>1.10468</v>
+        <v>1.10105</v>
       </c>
       <c r="C73" t="n">
-        <v>0.8864069999999999</v>
+        <v>0.922921</v>
       </c>
       <c r="D73" t="n">
-        <v>0.662798</v>
+        <v>0.658565</v>
       </c>
     </row>
     <row r="74">
@@ -12072,13 +12072,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>1.14123</v>
+        <v>1.13734</v>
       </c>
       <c r="C74" t="n">
-        <v>0.921678</v>
+        <v>0.964646</v>
       </c>
       <c r="D74" t="n">
-        <v>0.681352</v>
+        <v>0.6792899999999999</v>
       </c>
     </row>
     <row r="75">
@@ -12086,13 +12086,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>1.18107</v>
+        <v>1.1789</v>
       </c>
       <c r="C75" t="n">
-        <v>0.961909</v>
+        <v>1.01028</v>
       </c>
       <c r="D75" t="n">
-        <v>0.702792</v>
+        <v>0.701444</v>
       </c>
     </row>
     <row r="76">
@@ -12100,13 +12100,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>1.23601</v>
+        <v>1.22383</v>
       </c>
       <c r="C76" t="n">
-        <v>1.01351</v>
+        <v>1.05822</v>
       </c>
       <c r="D76" t="n">
-        <v>0.735746</v>
+        <v>0.72625</v>
       </c>
     </row>
     <row r="77">
@@ -12114,13 +12114,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>1.28663</v>
+        <v>1.28049</v>
       </c>
       <c r="C77" t="n">
-        <v>1.06137</v>
+        <v>1.11011</v>
       </c>
       <c r="D77" t="n">
-        <v>0.764003</v>
+        <v>0.758358</v>
       </c>
     </row>
     <row r="78">
@@ -12128,13 +12128,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>1.3542</v>
+        <v>1.35161</v>
       </c>
       <c r="C78" t="n">
-        <v>1.11421</v>
+        <v>1.16609</v>
       </c>
       <c r="D78" t="n">
-        <v>0.800983</v>
+        <v>0.799665</v>
       </c>
     </row>
     <row r="79">
@@ -12142,13 +12142,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>1.41287</v>
+        <v>1.42732</v>
       </c>
       <c r="C79" t="n">
-        <v>1.1646</v>
+        <v>1.22665</v>
       </c>
       <c r="D79" t="n">
-        <v>0.836642</v>
+        <v>0.840817</v>
       </c>
     </row>
     <row r="80">
@@ -12156,13 +12156,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>1.49929</v>
+        <v>1.50821</v>
       </c>
       <c r="C80" t="n">
-        <v>1.22575</v>
+        <v>1.29299</v>
       </c>
       <c r="D80" t="n">
-        <v>0.876376</v>
+        <v>0.884927</v>
       </c>
     </row>
     <row r="81">
@@ -12170,13 +12170,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>1.57875</v>
+        <v>1.60106</v>
       </c>
       <c r="C81" t="n">
-        <v>1.29173</v>
+        <v>1.36615</v>
       </c>
       <c r="D81" t="n">
-        <v>0.9263209999999999</v>
+        <v>0.934917</v>
       </c>
     </row>
     <row r="82">
@@ -12184,13 +12184,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>1.66519</v>
+        <v>1.69725</v>
       </c>
       <c r="C82" t="n">
-        <v>1.35084</v>
+        <v>1.43901</v>
       </c>
       <c r="D82" t="n">
-        <v>0.969386</v>
+        <v>0.985729</v>
       </c>
     </row>
     <row r="83">
@@ -12198,13 +12198,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>1.75646</v>
+        <v>1.81733</v>
       </c>
       <c r="C83" t="n">
-        <v>1.34021</v>
+        <v>1.45218</v>
       </c>
       <c r="D83" t="n">
-        <v>1.0866</v>
+        <v>1.13275</v>
       </c>
     </row>
     <row r="84">
@@ -12212,13 +12212,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>1.86907</v>
+        <v>1.9476</v>
       </c>
       <c r="C84" t="n">
-        <v>1.40483</v>
+        <v>1.52333</v>
       </c>
       <c r="D84" t="n">
-        <v>1.13912</v>
+        <v>1.20281</v>
       </c>
     </row>
     <row r="85">
@@ -12226,13 +12226,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>1.88263</v>
+        <v>2.00329</v>
       </c>
       <c r="C85" t="n">
-        <v>1.46354</v>
+        <v>1.59238</v>
       </c>
       <c r="D85" t="n">
-        <v>1.19329</v>
+        <v>1.26708</v>
       </c>
     </row>
     <row r="86">
@@ -12240,13 +12240,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>1.90646</v>
+        <v>2.12172</v>
       </c>
       <c r="C86" t="n">
-        <v>1.52976</v>
+        <v>1.68041</v>
       </c>
       <c r="D86" t="n">
-        <v>1.25778</v>
+        <v>1.32866</v>
       </c>
     </row>
     <row r="87">
@@ -12254,13 +12254,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>2.09506</v>
+        <v>2.25742</v>
       </c>
       <c r="C87" t="n">
-        <v>1.59339</v>
+        <v>1.75779</v>
       </c>
       <c r="D87" t="n">
-        <v>1.31656</v>
+        <v>1.39552</v>
       </c>
     </row>
     <row r="88">
@@ -12268,13 +12268,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>2.22288</v>
+        <v>2.37976</v>
       </c>
       <c r="C88" t="n">
-        <v>1.67115</v>
+        <v>1.84532</v>
       </c>
       <c r="D88" t="n">
-        <v>1.37734</v>
+        <v>1.46178</v>
       </c>
     </row>
     <row r="89">
@@ -12282,13 +12282,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>2.34337</v>
+        <v>2.51096</v>
       </c>
       <c r="C89" t="n">
-        <v>1.74965</v>
+        <v>1.94146</v>
       </c>
       <c r="D89" t="n">
-        <v>1.4347</v>
+        <v>1.52686</v>
       </c>
     </row>
     <row r="90">
@@ -12296,13 +12296,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>2.44394</v>
+        <v>2.63978</v>
       </c>
       <c r="C90" t="n">
-        <v>1.82593</v>
+        <v>2.02545</v>
       </c>
       <c r="D90" t="n">
-        <v>1.49415</v>
+        <v>1.59293</v>
       </c>
     </row>
     <row r="91">
@@ -12310,13 +12310,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>2.58136</v>
+        <v>2.77956</v>
       </c>
       <c r="C91" t="n">
-        <v>1.91579</v>
+        <v>2.13101</v>
       </c>
       <c r="D91" t="n">
-        <v>1.54084</v>
+        <v>1.66379</v>
       </c>
     </row>
     <row r="92">
@@ -12324,13 +12324,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>2.68479</v>
+        <v>2.93252</v>
       </c>
       <c r="C92" t="n">
-        <v>1.98935</v>
+        <v>2.22687</v>
       </c>
       <c r="D92" t="n">
-        <v>1.6064</v>
+        <v>1.71874</v>
       </c>
     </row>
     <row r="93">
@@ -12338,13 +12338,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>2.81247</v>
+        <v>3.0892</v>
       </c>
       <c r="C93" t="n">
-        <v>2.08118</v>
+        <v>2.33169</v>
       </c>
       <c r="D93" t="n">
-        <v>1.65838</v>
+        <v>1.78761</v>
       </c>
     </row>
     <row r="94">
@@ -12352,13 +12352,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>2.95096</v>
+        <v>3.22477</v>
       </c>
       <c r="C94" t="n">
-        <v>2.16564</v>
+        <v>2.44142</v>
       </c>
       <c r="D94" t="n">
-        <v>1.70706</v>
+        <v>1.83712</v>
       </c>
     </row>
     <row r="95">
@@ -12366,13 +12366,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>3.06608</v>
+        <v>3.37668</v>
       </c>
       <c r="C95" t="n">
-        <v>2.26107</v>
+        <v>2.53145</v>
       </c>
       <c r="D95" t="n">
-        <v>1.76344</v>
+        <v>1.89762</v>
       </c>
     </row>
     <row r="96">
@@ -12380,13 +12380,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>3.19936</v>
+        <v>3.55931</v>
       </c>
       <c r="C96" t="n">
-        <v>2.36231</v>
+        <v>2.66938</v>
       </c>
       <c r="D96" t="n">
-        <v>1.81323</v>
+        <v>1.9521</v>
       </c>
     </row>
     <row r="97">
@@ -12394,13 +12394,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>3.35593</v>
+        <v>3.70044</v>
       </c>
       <c r="C97" t="n">
-        <v>2.15426</v>
+        <v>2.44586</v>
       </c>
       <c r="D97" t="n">
-        <v>1.95376</v>
+        <v>2.11388</v>
       </c>
     </row>
     <row r="98">
@@ -12408,13 +12408,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>3.49773</v>
+        <v>3.85476</v>
       </c>
       <c r="C98" t="n">
-        <v>2.22788</v>
+        <v>2.52994</v>
       </c>
       <c r="D98" t="n">
-        <v>1.99219</v>
+        <v>2.15983</v>
       </c>
     </row>
     <row r="99">
@@ -12422,13 +12422,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>3.40742</v>
+        <v>3.75081</v>
       </c>
       <c r="C99" t="n">
-        <v>2.28185</v>
+        <v>2.58496</v>
       </c>
       <c r="D99" t="n">
-        <v>2.04121</v>
+        <v>2.23958</v>
       </c>
     </row>
     <row r="100">
@@ -12436,13 +12436,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>3.45347</v>
+        <v>3.82275</v>
       </c>
       <c r="C100" t="n">
-        <v>2.34444</v>
+        <v>2.67212</v>
       </c>
       <c r="D100" t="n">
-        <v>2.07974</v>
+        <v>2.26153</v>
       </c>
     </row>
     <row r="101">
@@ -12450,13 +12450,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>3.59395</v>
+        <v>3.91038</v>
       </c>
       <c r="C101" t="n">
-        <v>2.41532</v>
+        <v>2.73133</v>
       </c>
       <c r="D101" t="n">
-        <v>2.11306</v>
+        <v>2.3288</v>
       </c>
     </row>
     <row r="102">
@@ -12464,13 +12464,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>3.68528</v>
+        <v>4.01845</v>
       </c>
       <c r="C102" t="n">
-        <v>2.4811</v>
+        <v>2.82552</v>
       </c>
       <c r="D102" t="n">
-        <v>2.15916</v>
+        <v>2.34168</v>
       </c>
     </row>
     <row r="103">
@@ -12478,13 +12478,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>3.77406</v>
+        <v>4.14267</v>
       </c>
       <c r="C103" t="n">
-        <v>2.55615</v>
+        <v>2.90065</v>
       </c>
       <c r="D103" t="n">
-        <v>2.18884</v>
+        <v>2.382</v>
       </c>
     </row>
     <row r="104">
@@ -12492,13 +12492,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>3.8748</v>
+        <v>4.24641</v>
       </c>
       <c r="C104" t="n">
-        <v>2.63553</v>
+        <v>2.98194</v>
       </c>
       <c r="D104" t="n">
-        <v>2.22615</v>
+        <v>2.43108</v>
       </c>
     </row>
     <row r="105">
@@ -12506,13 +12506,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>3.94828</v>
+        <v>4.34177</v>
       </c>
       <c r="C105" t="n">
-        <v>2.70411</v>
+        <v>3.06832</v>
       </c>
       <c r="D105" t="n">
-        <v>2.25564</v>
+        <v>2.46182</v>
       </c>
     </row>
     <row r="106">
@@ -12520,13 +12520,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>4.07797</v>
+        <v>4.49615</v>
       </c>
       <c r="C106" t="n">
-        <v>2.78276</v>
+        <v>3.15933</v>
       </c>
       <c r="D106" t="n">
-        <v>2.27915</v>
+        <v>2.507</v>
       </c>
     </row>
     <row r="107">
@@ -12534,13 +12534,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>4.13332</v>
+        <v>4.59335</v>
       </c>
       <c r="C107" t="n">
-        <v>2.8534</v>
+        <v>3.21815</v>
       </c>
       <c r="D107" t="n">
-        <v>2.31107</v>
+        <v>2.53551</v>
       </c>
     </row>
     <row r="108">
@@ -12548,13 +12548,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>4.21467</v>
+        <v>4.72652</v>
       </c>
       <c r="C108" t="n">
-        <v>2.91931</v>
+        <v>3.33669</v>
       </c>
       <c r="D108" t="n">
-        <v>2.34827</v>
+        <v>2.57152</v>
       </c>
     </row>
     <row r="109">
@@ -12562,13 +12562,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>4.32459</v>
+        <v>4.82529</v>
       </c>
       <c r="C109" t="n">
-        <v>3.01815</v>
+        <v>3.44007</v>
       </c>
       <c r="D109" t="n">
-        <v>2.36597</v>
+        <v>2.6086</v>
       </c>
     </row>
     <row r="110">
@@ -12576,13 +12576,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>4.44573</v>
+        <v>4.93152</v>
       </c>
       <c r="C110" t="n">
-        <v>3.096</v>
+        <v>3.53071</v>
       </c>
       <c r="D110" t="n">
-        <v>2.40383</v>
+        <v>2.63652</v>
       </c>
     </row>
     <row r="111">
@@ -12590,13 +12590,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>4.55268</v>
+        <v>5.04018</v>
       </c>
       <c r="C111" t="n">
-        <v>2.7818</v>
+        <v>3.12833</v>
       </c>
       <c r="D111" t="n">
-        <v>2.51169</v>
+        <v>2.78552</v>
       </c>
     </row>
     <row r="112">
@@ -12604,13 +12604,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>4.65563</v>
+        <v>5.21909</v>
       </c>
       <c r="C112" t="n">
-        <v>2.80862</v>
+        <v>3.21399</v>
       </c>
       <c r="D112" t="n">
-        <v>2.53087</v>
+        <v>2.79958</v>
       </c>
     </row>
     <row r="113">
@@ -12618,13 +12618,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>4.74146</v>
+        <v>5.34855</v>
       </c>
       <c r="C113" t="n">
-        <v>2.87113</v>
+        <v>3.27349</v>
       </c>
       <c r="D113" t="n">
-        <v>2.54984</v>
+        <v>2.81972</v>
       </c>
     </row>
     <row r="114">
@@ -12632,13 +12632,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>4.43132</v>
+        <v>4.95689</v>
       </c>
       <c r="C114" t="n">
-        <v>2.92933</v>
+        <v>3.33597</v>
       </c>
       <c r="D114" t="n">
-        <v>2.57688</v>
+        <v>2.84809</v>
       </c>
     </row>
     <row r="115">
@@ -12646,13 +12646,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>4.50539</v>
+        <v>5.03529</v>
       </c>
       <c r="C115" t="n">
-        <v>2.99155</v>
+        <v>3.38851</v>
       </c>
       <c r="D115" t="n">
-        <v>2.59131</v>
+        <v>2.8789</v>
       </c>
     </row>
     <row r="116">
@@ -12660,13 +12660,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>4.56479</v>
+        <v>5.13996</v>
       </c>
       <c r="C116" t="n">
-        <v>3.04209</v>
+        <v>3.47277</v>
       </c>
       <c r="D116" t="n">
-        <v>2.61318</v>
+        <v>2.93198</v>
       </c>
     </row>
     <row r="117">
@@ -12674,13 +12674,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>4.6855</v>
+        <v>5.20604</v>
       </c>
       <c r="C117" t="n">
-        <v>3.11053</v>
+        <v>3.55218</v>
       </c>
       <c r="D117" t="n">
-        <v>2.64552</v>
+        <v>2.94402</v>
       </c>
     </row>
     <row r="118">
@@ -12688,13 +12688,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>4.75634</v>
+        <v>5.29118</v>
       </c>
       <c r="C118" t="n">
-        <v>3.20191</v>
+        <v>3.61393</v>
       </c>
       <c r="D118" t="n">
-        <v>2.65832</v>
+        <v>2.9498</v>
       </c>
     </row>
     <row r="119">
@@ -12702,13 +12702,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>4.83513</v>
+        <v>5.40688</v>
       </c>
       <c r="C119" t="n">
-        <v>3.26276</v>
+        <v>3.70349</v>
       </c>
       <c r="D119" t="n">
-        <v>2.6741</v>
+        <v>2.97927</v>
       </c>
     </row>
   </sheetData>

--- a/gcc/scattered erasure.xlsx
+++ b/gcc/scattered erasure.xlsx
@@ -7680,13 +7680,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.303168</v>
+        <v>0.321898</v>
       </c>
       <c r="C2" t="n">
-        <v>0.283479</v>
+        <v>0.266931</v>
       </c>
       <c r="D2" t="n">
-        <v>0.220108</v>
+        <v>0.240104</v>
       </c>
     </row>
     <row r="3">
@@ -7694,13 +7694,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.292831</v>
+        <v>0.303961</v>
       </c>
       <c r="C3" t="n">
-        <v>0.286075</v>
+        <v>0.269916</v>
       </c>
       <c r="D3" t="n">
-        <v>0.22764</v>
+        <v>0.245864</v>
       </c>
     </row>
     <row r="4">
@@ -7708,13 +7708,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.29401</v>
+        <v>0.308211</v>
       </c>
       <c r="C4" t="n">
-        <v>0.290932</v>
+        <v>0.274321</v>
       </c>
       <c r="D4" t="n">
-        <v>0.23688</v>
+        <v>0.245156</v>
       </c>
     </row>
     <row r="5">
@@ -7722,13 +7722,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.301984</v>
+        <v>0.309547</v>
       </c>
       <c r="C5" t="n">
-        <v>0.293845</v>
+        <v>0.279413</v>
       </c>
       <c r="D5" t="n">
-        <v>0.23929</v>
+        <v>0.256972</v>
       </c>
     </row>
     <row r="6">
@@ -7736,13 +7736,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.309367</v>
+        <v>0.31994</v>
       </c>
       <c r="C6" t="n">
-        <v>0.296241</v>
+        <v>0.282169</v>
       </c>
       <c r="D6" t="n">
-        <v>0.247333</v>
+        <v>0.256977</v>
       </c>
     </row>
     <row r="7">
@@ -7750,13 +7750,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.314449</v>
+        <v>0.320942</v>
       </c>
       <c r="C7" t="n">
-        <v>0.286859</v>
+        <v>0.267351</v>
       </c>
       <c r="D7" t="n">
-        <v>0.26196</v>
+        <v>0.268627</v>
       </c>
     </row>
     <row r="8">
@@ -7764,13 +7764,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.32406</v>
+        <v>0.324076</v>
       </c>
       <c r="C8" t="n">
-        <v>0.289699</v>
+        <v>0.269498</v>
       </c>
       <c r="D8" t="n">
-        <v>0.267899</v>
+        <v>0.276001</v>
       </c>
     </row>
     <row r="9">
@@ -7778,13 +7778,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.32982</v>
+        <v>0.333865</v>
       </c>
       <c r="C9" t="n">
-        <v>0.29072</v>
+        <v>0.271907</v>
       </c>
       <c r="D9" t="n">
-        <v>0.275559</v>
+        <v>0.285339</v>
       </c>
     </row>
     <row r="10">
@@ -7792,13 +7792,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.336513</v>
+        <v>0.341877</v>
       </c>
       <c r="C10" t="n">
-        <v>0.292636</v>
+        <v>0.275023</v>
       </c>
       <c r="D10" t="n">
-        <v>0.280627</v>
+        <v>0.286149</v>
       </c>
     </row>
     <row r="11">
@@ -7806,13 +7806,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.343734</v>
+        <v>0.351895</v>
       </c>
       <c r="C11" t="n">
-        <v>0.292961</v>
+        <v>0.27672</v>
       </c>
       <c r="D11" t="n">
-        <v>0.287298</v>
+        <v>0.293003</v>
       </c>
     </row>
     <row r="12">
@@ -7820,13 +7820,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.352042</v>
+        <v>0.356459</v>
       </c>
       <c r="C12" t="n">
-        <v>0.296141</v>
+        <v>0.279857</v>
       </c>
       <c r="D12" t="n">
-        <v>0.294615</v>
+        <v>0.297628</v>
       </c>
     </row>
     <row r="13">
@@ -7834,13 +7834,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.359706</v>
+        <v>0.361854</v>
       </c>
       <c r="C13" t="n">
-        <v>0.298456</v>
+        <v>0.283101</v>
       </c>
       <c r="D13" t="n">
-        <v>0.30135</v>
+        <v>0.306121</v>
       </c>
     </row>
     <row r="14">
@@ -7848,13 +7848,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.367521</v>
+        <v>0.372122</v>
       </c>
       <c r="C14" t="n">
-        <v>0.301068</v>
+        <v>0.286502</v>
       </c>
       <c r="D14" t="n">
-        <v>0.306371</v>
+        <v>0.309228</v>
       </c>
     </row>
     <row r="15">
@@ -7862,13 +7862,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.376961</v>
+        <v>0.378714</v>
       </c>
       <c r="C15" t="n">
-        <v>0.305096</v>
+        <v>0.290658</v>
       </c>
       <c r="D15" t="n">
-        <v>0.314339</v>
+        <v>0.317946</v>
       </c>
     </row>
     <row r="16">
@@ -7876,13 +7876,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.384689</v>
+        <v>0.387473</v>
       </c>
       <c r="C16" t="n">
-        <v>0.307056</v>
+        <v>0.293553</v>
       </c>
       <c r="D16" t="n">
-        <v>0.319774</v>
+        <v>0.322861</v>
       </c>
     </row>
     <row r="17">
@@ -7890,13 +7890,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.391201</v>
+        <v>0.39479</v>
       </c>
       <c r="C17" t="n">
-        <v>0.310545</v>
+        <v>0.297466</v>
       </c>
       <c r="D17" t="n">
-        <v>0.326968</v>
+        <v>0.329978</v>
       </c>
     </row>
     <row r="18">
@@ -7904,13 +7904,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.378067</v>
+        <v>0.380622</v>
       </c>
       <c r="C18" t="n">
-        <v>0.314153</v>
+        <v>0.301365</v>
       </c>
       <c r="D18" t="n">
-        <v>0.332534</v>
+        <v>0.335555</v>
       </c>
     </row>
     <row r="19">
@@ -7918,13 +7918,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.383025</v>
+        <v>0.38594</v>
       </c>
       <c r="C19" t="n">
-        <v>0.31743</v>
+        <v>0.305741</v>
       </c>
       <c r="D19" t="n">
-        <v>0.339463</v>
+        <v>0.341191</v>
       </c>
     </row>
     <row r="20">
@@ -7932,13 +7932,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.389749</v>
+        <v>0.391385</v>
       </c>
       <c r="C20" t="n">
-        <v>0.320886</v>
+        <v>0.310022</v>
       </c>
       <c r="D20" t="n">
-        <v>0.344611</v>
+        <v>0.3467</v>
       </c>
     </row>
     <row r="21">
@@ -7946,13 +7946,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.393977</v>
+        <v>0.396296</v>
       </c>
       <c r="C21" t="n">
-        <v>0.301831</v>
+        <v>0.285061</v>
       </c>
       <c r="D21" t="n">
-        <v>0.351352</v>
+        <v>0.352979</v>
       </c>
     </row>
     <row r="22">
@@ -7960,13 +7960,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.40056</v>
+        <v>0.401865</v>
       </c>
       <c r="C22" t="n">
-        <v>0.304143</v>
+        <v>0.287839</v>
       </c>
       <c r="D22" t="n">
-        <v>0.356046</v>
+        <v>0.358195</v>
       </c>
     </row>
     <row r="23">
@@ -7974,13 +7974,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.406253</v>
+        <v>0.408722</v>
       </c>
       <c r="C23" t="n">
-        <v>0.305273</v>
+        <v>0.290141</v>
       </c>
       <c r="D23" t="n">
-        <v>0.360277</v>
+        <v>0.36239</v>
       </c>
     </row>
     <row r="24">
@@ -7988,13 +7988,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.41164</v>
+        <v>0.412858</v>
       </c>
       <c r="C24" t="n">
-        <v>0.308595</v>
+        <v>0.29345</v>
       </c>
       <c r="D24" t="n">
-        <v>0.364186</v>
+        <v>0.365932</v>
       </c>
     </row>
     <row r="25">
@@ -8002,13 +8002,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.417355</v>
+        <v>0.418986</v>
       </c>
       <c r="C25" t="n">
-        <v>0.309582</v>
+        <v>0.295831</v>
       </c>
       <c r="D25" t="n">
-        <v>0.368633</v>
+        <v>0.369894</v>
       </c>
     </row>
     <row r="26">
@@ -8016,13 +8016,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.424104</v>
+        <v>0.424825</v>
       </c>
       <c r="C26" t="n">
-        <v>0.313258</v>
+        <v>0.298831</v>
       </c>
       <c r="D26" t="n">
-        <v>0.371985</v>
+        <v>0.373799</v>
       </c>
     </row>
     <row r="27">
@@ -8030,13 +8030,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.429313</v>
+        <v>0.431401</v>
       </c>
       <c r="C27" t="n">
-        <v>0.316555</v>
+        <v>0.302093</v>
       </c>
       <c r="D27" t="n">
-        <v>0.375882</v>
+        <v>0.376619</v>
       </c>
     </row>
     <row r="28">
@@ -8044,13 +8044,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.435388</v>
+        <v>0.43625</v>
       </c>
       <c r="C28" t="n">
-        <v>0.318483</v>
+        <v>0.305359</v>
       </c>
       <c r="D28" t="n">
-        <v>0.37929</v>
+        <v>0.380883</v>
       </c>
     </row>
     <row r="29">
@@ -8058,13 +8058,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.441835</v>
+        <v>0.442803</v>
       </c>
       <c r="C29" t="n">
-        <v>0.321436</v>
+        <v>0.308599</v>
       </c>
       <c r="D29" t="n">
-        <v>0.383956</v>
+        <v>0.385224</v>
       </c>
     </row>
     <row r="30">
@@ -8072,13 +8072,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.447033</v>
+        <v>0.448333</v>
       </c>
       <c r="C30" t="n">
-        <v>0.324131</v>
+        <v>0.31279</v>
       </c>
       <c r="D30" t="n">
-        <v>0.387167</v>
+        <v>0.387838</v>
       </c>
     </row>
     <row r="31">
@@ -8086,13 +8086,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.454965</v>
+        <v>0.454472</v>
       </c>
       <c r="C31" t="n">
-        <v>0.327379</v>
+        <v>0.316511</v>
       </c>
       <c r="D31" t="n">
-        <v>0.390892</v>
+        <v>0.391422</v>
       </c>
     </row>
     <row r="32">
@@ -8100,13 +8100,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.424814</v>
+        <v>0.425634</v>
       </c>
       <c r="C32" t="n">
-        <v>0.330611</v>
+        <v>0.319826</v>
       </c>
       <c r="D32" t="n">
-        <v>0.394194</v>
+        <v>0.394359</v>
       </c>
     </row>
     <row r="33">
@@ -8114,13 +8114,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.429425</v>
+        <v>0.428471</v>
       </c>
       <c r="C33" t="n">
-        <v>0.333572</v>
+        <v>0.323774</v>
       </c>
       <c r="D33" t="n">
-        <v>0.398253</v>
+        <v>0.398779</v>
       </c>
     </row>
     <row r="34">
@@ -8128,13 +8128,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.433015</v>
+        <v>0.433426</v>
       </c>
       <c r="C34" t="n">
-        <v>0.33713</v>
+        <v>0.328103</v>
       </c>
       <c r="D34" t="n">
-        <v>0.40133</v>
+        <v>0.402056</v>
       </c>
     </row>
     <row r="35">
@@ -8142,13 +8142,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.437408</v>
+        <v>0.438275</v>
       </c>
       <c r="C35" t="n">
-        <v>0.313904</v>
+        <v>0.297086</v>
       </c>
       <c r="D35" t="n">
-        <v>0.401048</v>
+        <v>0.401954</v>
       </c>
     </row>
     <row r="36">
@@ -8156,13 +8156,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.441107</v>
+        <v>0.441982</v>
       </c>
       <c r="C36" t="n">
-        <v>0.3163</v>
+        <v>0.299522</v>
       </c>
       <c r="D36" t="n">
-        <v>0.403063</v>
+        <v>0.404617</v>
       </c>
     </row>
     <row r="37">
@@ -8170,13 +8170,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.445109</v>
+        <v>0.445604</v>
       </c>
       <c r="C37" t="n">
-        <v>0.318492</v>
+        <v>0.302161</v>
       </c>
       <c r="D37" t="n">
-        <v>0.405165</v>
+        <v>0.406324</v>
       </c>
     </row>
     <row r="38">
@@ -8184,13 +8184,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.449642</v>
+        <v>0.450312</v>
       </c>
       <c r="C38" t="n">
-        <v>0.320059</v>
+        <v>0.304272</v>
       </c>
       <c r="D38" t="n">
-        <v>0.407453</v>
+        <v>0.408199</v>
       </c>
     </row>
     <row r="39">
@@ -8198,13 +8198,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.454711</v>
+        <v>0.454498</v>
       </c>
       <c r="C39" t="n">
-        <v>0.323665</v>
+        <v>0.307707</v>
       </c>
       <c r="D39" t="n">
-        <v>0.409704</v>
+        <v>0.410167</v>
       </c>
     </row>
     <row r="40">
@@ -8212,13 +8212,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.458142</v>
+        <v>0.459096</v>
       </c>
       <c r="C40" t="n">
-        <v>0.324926</v>
+        <v>0.309173</v>
       </c>
       <c r="D40" t="n">
-        <v>0.41148</v>
+        <v>0.412405</v>
       </c>
     </row>
     <row r="41">
@@ -8226,13 +8226,13 @@
         <v>66357</v>
       </c>
       <c r="B41" t="n">
-        <v>0.463652</v>
+        <v>0.463887</v>
       </c>
       <c r="C41" t="n">
-        <v>0.32734</v>
+        <v>0.313283</v>
       </c>
       <c r="D41" t="n">
-        <v>0.413999</v>
+        <v>0.415118</v>
       </c>
     </row>
     <row r="42">
@@ -8240,13 +8240,13 @@
         <v>69656</v>
       </c>
       <c r="B42" t="n">
-        <v>0.468271</v>
+        <v>0.469027</v>
       </c>
       <c r="C42" t="n">
-        <v>0.328549</v>
+        <v>0.315793</v>
       </c>
       <c r="D42" t="n">
-        <v>0.416092</v>
+        <v>0.417279</v>
       </c>
     </row>
     <row r="43">
@@ -8254,13 +8254,13 @@
         <v>73119</v>
       </c>
       <c r="B43" t="n">
-        <v>0.47224</v>
+        <v>0.472766</v>
       </c>
       <c r="C43" t="n">
-        <v>0.330587</v>
+        <v>0.318379</v>
       </c>
       <c r="D43" t="n">
-        <v>0.418227</v>
+        <v>0.419508</v>
       </c>
     </row>
     <row r="44">
@@ -8268,13 +8268,13 @@
         <v>76755</v>
       </c>
       <c r="B44" t="n">
-        <v>0.477198</v>
+        <v>0.477477</v>
       </c>
       <c r="C44" t="n">
-        <v>0.334404</v>
+        <v>0.322219</v>
       </c>
       <c r="D44" t="n">
-        <v>0.420786</v>
+        <v>0.421753</v>
       </c>
     </row>
     <row r="45">
@@ -8282,13 +8282,13 @@
         <v>80572</v>
       </c>
       <c r="B45" t="n">
-        <v>0.48261</v>
+        <v>0.483688</v>
       </c>
       <c r="C45" t="n">
-        <v>0.337493</v>
+        <v>0.325725</v>
       </c>
       <c r="D45" t="n">
-        <v>0.422919</v>
+        <v>0.423989</v>
       </c>
     </row>
     <row r="46">
@@ -8296,13 +8296,13 @@
         <v>84579</v>
       </c>
       <c r="B46" t="n">
-        <v>0.487525</v>
+        <v>0.488084</v>
       </c>
       <c r="C46" t="n">
-        <v>0.340317</v>
+        <v>0.329567</v>
       </c>
       <c r="D46" t="n">
-        <v>0.42502</v>
+        <v>0.426463</v>
       </c>
     </row>
     <row r="47">
@@ -8310,13 +8310,13 @@
         <v>88786</v>
       </c>
       <c r="B47" t="n">
-        <v>0.451102</v>
+        <v>0.450954</v>
       </c>
       <c r="C47" t="n">
-        <v>0.343718</v>
+        <v>0.334042</v>
       </c>
       <c r="D47" t="n">
-        <v>0.427857</v>
+        <v>0.42915</v>
       </c>
     </row>
     <row r="48">
@@ -8324,13 +8324,13 @@
         <v>93203</v>
       </c>
       <c r="B48" t="n">
-        <v>0.454316</v>
+        <v>0.453974</v>
       </c>
       <c r="C48" t="n">
-        <v>0.34724</v>
+        <v>0.338099</v>
       </c>
       <c r="D48" t="n">
-        <v>0.429549</v>
+        <v>0.430919</v>
       </c>
     </row>
     <row r="49">
@@ -8338,13 +8338,13 @@
         <v>97840</v>
       </c>
       <c r="B49" t="n">
-        <v>0.457516</v>
+        <v>0.458119</v>
       </c>
       <c r="C49" t="n">
-        <v>0.35056</v>
+        <v>0.342533</v>
       </c>
       <c r="D49" t="n">
-        <v>0.431577</v>
+        <v>0.433367</v>
       </c>
     </row>
     <row r="50">
@@ -8352,13 +8352,13 @@
         <v>102706</v>
       </c>
       <c r="B50" t="n">
-        <v>0.460816</v>
+        <v>0.461556</v>
       </c>
       <c r="C50" t="n">
-        <v>0.330703</v>
+        <v>0.312985</v>
       </c>
       <c r="D50" t="n">
-        <v>0.427567</v>
+        <v>0.428881</v>
       </c>
     </row>
     <row r="51">
@@ -8366,13 +8366,13 @@
         <v>107816</v>
       </c>
       <c r="B51" t="n">
-        <v>0.465051</v>
+        <v>0.465363</v>
       </c>
       <c r="C51" t="n">
-        <v>0.332788</v>
+        <v>0.315703</v>
       </c>
       <c r="D51" t="n">
-        <v>0.428965</v>
+        <v>0.430511</v>
       </c>
     </row>
     <row r="52">
@@ -8380,13 +8380,13 @@
         <v>113182</v>
       </c>
       <c r="B52" t="n">
-        <v>0.468646</v>
+        <v>0.469003</v>
       </c>
       <c r="C52" t="n">
-        <v>0.334362</v>
+        <v>0.317769</v>
       </c>
       <c r="D52" t="n">
-        <v>0.429851</v>
+        <v>0.431313</v>
       </c>
     </row>
     <row r="53">
@@ -8394,13 +8394,13 @@
         <v>118816</v>
       </c>
       <c r="B53" t="n">
-        <v>0.471784</v>
+        <v>0.472482</v>
       </c>
       <c r="C53" t="n">
-        <v>0.335925</v>
+        <v>0.32067</v>
       </c>
       <c r="D53" t="n">
-        <v>0.431242</v>
+        <v>0.432619</v>
       </c>
     </row>
     <row r="54">
@@ -8408,13 +8408,13 @@
         <v>124731</v>
       </c>
       <c r="B54" t="n">
-        <v>0.475777</v>
+        <v>0.476358</v>
       </c>
       <c r="C54" t="n">
-        <v>0.339994</v>
+        <v>0.324125</v>
       </c>
       <c r="D54" t="n">
-        <v>0.432516</v>
+        <v>0.433979</v>
       </c>
     </row>
     <row r="55">
@@ -8422,13 +8422,13 @@
         <v>130941</v>
       </c>
       <c r="B55" t="n">
-        <v>0.479733</v>
+        <v>0.480233</v>
       </c>
       <c r="C55" t="n">
-        <v>0.342717</v>
+        <v>0.327598</v>
       </c>
       <c r="D55" t="n">
-        <v>0.43383</v>
+        <v>0.435317</v>
       </c>
     </row>
     <row r="56">
@@ -8436,13 +8436,13 @@
         <v>137461</v>
       </c>
       <c r="B56" t="n">
-        <v>0.484086</v>
+        <v>0.484581</v>
       </c>
       <c r="C56" t="n">
-        <v>0.342856</v>
+        <v>0.330515</v>
       </c>
       <c r="D56" t="n">
-        <v>0.435858</v>
+        <v>0.437019</v>
       </c>
     </row>
     <row r="57">
@@ -8450,13 +8450,13 @@
         <v>144307</v>
       </c>
       <c r="B57" t="n">
-        <v>0.48831</v>
+        <v>0.48897</v>
       </c>
       <c r="C57" t="n">
-        <v>0.347835</v>
+        <v>0.33768</v>
       </c>
       <c r="D57" t="n">
-        <v>0.437008</v>
+        <v>0.438309</v>
       </c>
     </row>
     <row r="58">
@@ -8464,13 +8464,13 @@
         <v>151495</v>
       </c>
       <c r="B58" t="n">
-        <v>0.49241</v>
+        <v>0.493026</v>
       </c>
       <c r="C58" t="n">
-        <v>0.354329</v>
+        <v>0.340496</v>
       </c>
       <c r="D58" t="n">
-        <v>0.440972</v>
+        <v>0.440114</v>
       </c>
     </row>
     <row r="59">
@@ -8478,13 +8478,13 @@
         <v>159042</v>
       </c>
       <c r="B59" t="n">
-        <v>0.500296</v>
+        <v>0.497317</v>
       </c>
       <c r="C59" t="n">
-        <v>0.361738</v>
+        <v>0.347959</v>
       </c>
       <c r="D59" t="n">
-        <v>0.441099</v>
+        <v>0.443188</v>
       </c>
     </row>
     <row r="60">
@@ -8492,13 +8492,13 @@
         <v>166965</v>
       </c>
       <c r="B60" t="n">
-        <v>0.502363</v>
+        <v>0.504312</v>
       </c>
       <c r="C60" t="n">
-        <v>0.372133</v>
+        <v>0.355528</v>
       </c>
       <c r="D60" t="n">
-        <v>0.443429</v>
+        <v>0.443734</v>
       </c>
     </row>
     <row r="61">
@@ -8506,13 +8506,13 @@
         <v>175284</v>
       </c>
       <c r="B61" t="n">
-        <v>0.484228</v>
+        <v>0.482445</v>
       </c>
       <c r="C61" t="n">
-        <v>0.379153</v>
+        <v>0.363182</v>
       </c>
       <c r="D61" t="n">
-        <v>0.44594</v>
+        <v>0.445602</v>
       </c>
     </row>
     <row r="62">
@@ -8520,13 +8520,13 @@
         <v>184019</v>
       </c>
       <c r="B62" t="n">
-        <v>0.49432</v>
+        <v>0.494859</v>
       </c>
       <c r="C62" t="n">
-        <v>0.38945</v>
+        <v>0.373766</v>
       </c>
       <c r="D62" t="n">
-        <v>0.447974</v>
+        <v>0.448177</v>
       </c>
     </row>
     <row r="63">
@@ -8534,13 +8534,13 @@
         <v>193190</v>
       </c>
       <c r="B63" t="n">
-        <v>0.501283</v>
+        <v>0.507753</v>
       </c>
       <c r="C63" t="n">
-        <v>0.393493</v>
+        <v>0.390174</v>
       </c>
       <c r="D63" t="n">
-        <v>0.450446</v>
+        <v>0.454121</v>
       </c>
     </row>
     <row r="64">
@@ -8548,13 +8548,13 @@
         <v>202820</v>
       </c>
       <c r="B64" t="n">
-        <v>0.510931</v>
+        <v>0.521917</v>
       </c>
       <c r="C64" t="n">
-        <v>0.445642</v>
+        <v>0.431839</v>
       </c>
       <c r="D64" t="n">
-        <v>0.486377</v>
+        <v>0.485781</v>
       </c>
     </row>
     <row r="65">
@@ -8562,13 +8562,13 @@
         <v>212931</v>
       </c>
       <c r="B65" t="n">
-        <v>0.5230629999999999</v>
+        <v>0.52882</v>
       </c>
       <c r="C65" t="n">
-        <v>0.452718</v>
+        <v>0.44891</v>
       </c>
       <c r="D65" t="n">
-        <v>0.484592</v>
+        <v>0.492095</v>
       </c>
     </row>
     <row r="66">
@@ -8576,13 +8576,13 @@
         <v>223547</v>
       </c>
       <c r="B66" t="n">
-        <v>0.541354</v>
+        <v>0.549171</v>
       </c>
       <c r="C66" t="n">
-        <v>0.476029</v>
+        <v>0.460633</v>
       </c>
       <c r="D66" t="n">
-        <v>0.508942</v>
+        <v>0.503553</v>
       </c>
     </row>
     <row r="67">
@@ -8590,13 +8590,13 @@
         <v>234692</v>
       </c>
       <c r="B67" t="n">
-        <v>0.556081</v>
+        <v>0.561958</v>
       </c>
       <c r="C67" t="n">
-        <v>0.492148</v>
+        <v>0.490136</v>
       </c>
       <c r="D67" t="n">
-        <v>0.498202</v>
+        <v>0.517885</v>
       </c>
     </row>
     <row r="68">
@@ -8604,13 +8604,13 @@
         <v>246395</v>
       </c>
       <c r="B68" t="n">
-        <v>0.545841</v>
+        <v>0.573139</v>
       </c>
       <c r="C68" t="n">
-        <v>0.506338</v>
+        <v>0.506456</v>
       </c>
       <c r="D68" t="n">
-        <v>0.518561</v>
+        <v>0.530407</v>
       </c>
     </row>
     <row r="69">
@@ -8618,13 +8618,13 @@
         <v>258683</v>
       </c>
       <c r="B69" t="n">
-        <v>0.576488</v>
+        <v>0.588993</v>
       </c>
       <c r="C69" t="n">
-        <v>0.535425</v>
+        <v>0.530281</v>
       </c>
       <c r="D69" t="n">
-        <v>0.543921</v>
+        <v>0.550185</v>
       </c>
     </row>
     <row r="70">
@@ -8632,13 +8632,13 @@
         <v>271585</v>
       </c>
       <c r="B70" t="n">
-        <v>0.6056319999999999</v>
+        <v>0.613094</v>
       </c>
       <c r="C70" t="n">
-        <v>0.552084</v>
+        <v>0.551766</v>
       </c>
       <c r="D70" t="n">
-        <v>0.554498</v>
+        <v>0.574224</v>
       </c>
     </row>
     <row r="71">
@@ -8646,13 +8646,13 @@
         <v>285132</v>
       </c>
       <c r="B71" t="n">
-        <v>0.622288</v>
+        <v>0.631143</v>
       </c>
       <c r="C71" t="n">
-        <v>0.573736</v>
+        <v>0.569871</v>
       </c>
       <c r="D71" t="n">
-        <v>0.5868679999999999</v>
+        <v>0.58922</v>
       </c>
     </row>
     <row r="72">
@@ -8660,13 +8660,13 @@
         <v>299354</v>
       </c>
       <c r="B72" t="n">
-        <v>0.65686</v>
+        <v>0.659847</v>
       </c>
       <c r="C72" t="n">
-        <v>0.602589</v>
+        <v>0.60364</v>
       </c>
       <c r="D72" t="n">
-        <v>0.596276</v>
+        <v>0.598801</v>
       </c>
     </row>
     <row r="73">
@@ -8674,13 +8674,13 @@
         <v>314289</v>
       </c>
       <c r="B73" t="n">
-        <v>0.672675</v>
+        <v>0.672658</v>
       </c>
       <c r="C73" t="n">
-        <v>0.6204190000000001</v>
+        <v>0.630045</v>
       </c>
       <c r="D73" t="n">
-        <v>0.6230019999999999</v>
+        <v>0.647899</v>
       </c>
     </row>
     <row r="74">
@@ -8688,13 +8688,13 @@
         <v>329969</v>
       </c>
       <c r="B74" t="n">
-        <v>0.69874</v>
+        <v>0.726696</v>
       </c>
       <c r="C74" t="n">
-        <v>0.64591</v>
+        <v>0.653695</v>
       </c>
       <c r="D74" t="n">
-        <v>0.649118</v>
+        <v>0.667405</v>
       </c>
     </row>
     <row r="75">
@@ -8702,13 +8702,13 @@
         <v>346432</v>
       </c>
       <c r="B75" t="n">
-        <v>0.752852</v>
+        <v>0.762263</v>
       </c>
       <c r="C75" t="n">
-        <v>0.671272</v>
+        <v>0.684133</v>
       </c>
       <c r="D75" t="n">
-        <v>0.694335</v>
+        <v>0.704306</v>
       </c>
     </row>
     <row r="76">
@@ -8716,13 +8716,13 @@
         <v>363719</v>
       </c>
       <c r="B76" t="n">
-        <v>0.9602619999999999</v>
+        <v>0.970243</v>
       </c>
       <c r="C76" t="n">
-        <v>0.69334</v>
+        <v>0.709955</v>
       </c>
       <c r="D76" t="n">
-        <v>0.732171</v>
+        <v>0.738505</v>
       </c>
     </row>
     <row r="77">
@@ -8730,13 +8730,13 @@
         <v>381870</v>
       </c>
       <c r="B77" t="n">
-        <v>1.0029</v>
+        <v>1.01132</v>
       </c>
       <c r="C77" t="n">
-        <v>0.716931</v>
+        <v>0.7358</v>
       </c>
       <c r="D77" t="n">
-        <v>0.770407</v>
+        <v>0.776502</v>
       </c>
     </row>
     <row r="78">
@@ -8744,13 +8744,13 @@
         <v>400928</v>
       </c>
       <c r="B78" t="n">
-        <v>1.04977</v>
+        <v>1.06106</v>
       </c>
       <c r="C78" t="n">
-        <v>0.835075</v>
+        <v>0.888052</v>
       </c>
       <c r="D78" t="n">
-        <v>1.02002</v>
+        <v>1.03613</v>
       </c>
     </row>
     <row r="79">
@@ -8758,13 +8758,13 @@
         <v>420937</v>
       </c>
       <c r="B79" t="n">
-        <v>1.09304</v>
+        <v>1.10662</v>
       </c>
       <c r="C79" t="n">
-        <v>0.845296</v>
+        <v>0.899995</v>
       </c>
       <c r="D79" t="n">
-        <v>1.05126</v>
+        <v>1.07378</v>
       </c>
     </row>
     <row r="80">
@@ -8772,13 +8772,13 @@
         <v>441947</v>
       </c>
       <c r="B80" t="n">
-        <v>1.14456</v>
+        <v>1.15846</v>
       </c>
       <c r="C80" t="n">
-        <v>0.858284</v>
+        <v>0.920891</v>
       </c>
       <c r="D80" t="n">
-        <v>1.11662</v>
+        <v>1.126</v>
       </c>
     </row>
     <row r="81">
@@ -8786,13 +8786,13 @@
         <v>464005</v>
       </c>
       <c r="B81" t="n">
-        <v>1.19976</v>
+        <v>1.20844</v>
       </c>
       <c r="C81" t="n">
-        <v>0.875383</v>
+        <v>0.942118</v>
       </c>
       <c r="D81" t="n">
-        <v>1.16069</v>
+        <v>1.17434</v>
       </c>
     </row>
     <row r="82">
@@ -8800,13 +8800,13 @@
         <v>487165</v>
       </c>
       <c r="B82" t="n">
-        <v>1.25378</v>
+        <v>1.26274</v>
       </c>
       <c r="C82" t="n">
-        <v>0.888979</v>
+        <v>0.960592</v>
       </c>
       <c r="D82" t="n">
-        <v>1.2214</v>
+        <v>1.22455</v>
       </c>
     </row>
     <row r="83">
@@ -8814,13 +8814,13 @@
         <v>511485</v>
       </c>
       <c r="B83" t="n">
-        <v>1.30665</v>
+        <v>1.31016</v>
       </c>
       <c r="C83" t="n">
-        <v>0.89995</v>
+        <v>0.979002</v>
       </c>
       <c r="D83" t="n">
-        <v>1.2719</v>
+        <v>1.27192</v>
       </c>
     </row>
     <row r="84">
@@ -8828,13 +8828,13 @@
         <v>537019</v>
       </c>
       <c r="B84" t="n">
-        <v>1.36132</v>
+        <v>1.36239</v>
       </c>
       <c r="C84" t="n">
-        <v>0.915697</v>
+        <v>0.999165</v>
       </c>
       <c r="D84" t="n">
-        <v>1.31711</v>
+        <v>1.32727</v>
       </c>
     </row>
     <row r="85">
@@ -8842,13 +8842,13 @@
         <v>563827</v>
       </c>
       <c r="B85" t="n">
-        <v>1.40491</v>
+        <v>1.41761</v>
       </c>
       <c r="C85" t="n">
-        <v>0.928042</v>
+        <v>1.01738</v>
       </c>
       <c r="D85" t="n">
-        <v>1.36667</v>
+        <v>1.3675</v>
       </c>
     </row>
     <row r="86">
@@ -8856,13 +8856,13 @@
         <v>591977</v>
       </c>
       <c r="B86" t="n">
-        <v>1.46206</v>
+        <v>1.46788</v>
       </c>
       <c r="C86" t="n">
-        <v>0.941431</v>
+        <v>1.03594</v>
       </c>
       <c r="D86" t="n">
-        <v>1.41163</v>
+        <v>1.42493</v>
       </c>
     </row>
     <row r="87">
@@ -8870,13 +8870,13 @@
         <v>621532</v>
       </c>
       <c r="B87" t="n">
-        <v>1.50489</v>
+        <v>1.51617</v>
       </c>
       <c r="C87" t="n">
-        <v>0.953494</v>
+        <v>1.0552</v>
       </c>
       <c r="D87" t="n">
-        <v>1.45488</v>
+        <v>1.47074</v>
       </c>
     </row>
     <row r="88">
@@ -8884,13 +8884,13 @@
         <v>652567</v>
       </c>
       <c r="B88" t="n">
-        <v>1.55266</v>
+        <v>1.5686</v>
       </c>
       <c r="C88" t="n">
-        <v>0.967328</v>
+        <v>1.07594</v>
       </c>
       <c r="D88" t="n">
-        <v>1.50247</v>
+        <v>1.51778</v>
       </c>
     </row>
     <row r="89">
@@ -8898,13 +8898,13 @@
         <v>685151</v>
       </c>
       <c r="B89" t="n">
-        <v>1.60023</v>
+        <v>1.62167</v>
       </c>
       <c r="C89" t="n">
-        <v>0.978779</v>
+        <v>1.09184</v>
       </c>
       <c r="D89" t="n">
-        <v>1.54212</v>
+        <v>1.55707</v>
       </c>
     </row>
     <row r="90">
@@ -8912,13 +8912,13 @@
         <v>719359</v>
       </c>
       <c r="B90" t="n">
-        <v>1.82708</v>
+        <v>1.83886</v>
       </c>
       <c r="C90" t="n">
-        <v>0.993103</v>
+        <v>1.11117</v>
       </c>
       <c r="D90" t="n">
-        <v>1.58417</v>
+        <v>1.60322</v>
       </c>
     </row>
     <row r="91">
@@ -8926,13 +8926,13 @@
         <v>755280</v>
       </c>
       <c r="B91" t="n">
-        <v>1.86237</v>
+        <v>1.87357</v>
       </c>
       <c r="C91" t="n">
-        <v>1.00889</v>
+        <v>1.12852</v>
       </c>
       <c r="D91" t="n">
-        <v>1.62905</v>
+        <v>1.64089</v>
       </c>
     </row>
     <row r="92">
@@ -8940,13 +8940,13 @@
         <v>792997</v>
       </c>
       <c r="B92" t="n">
-        <v>1.89606</v>
+        <v>1.91188</v>
       </c>
       <c r="C92" t="n">
-        <v>1.06709</v>
+        <v>1.18512</v>
       </c>
       <c r="D92" t="n">
-        <v>1.84211</v>
+        <v>1.8559</v>
       </c>
     </row>
     <row r="93">
@@ -8954,13 +8954,13 @@
         <v>832595</v>
       </c>
       <c r="B93" t="n">
-        <v>1.92838</v>
+        <v>1.9457</v>
       </c>
       <c r="C93" t="n">
-        <v>1.07499</v>
+        <v>1.19816</v>
       </c>
       <c r="D93" t="n">
-        <v>1.87468</v>
+        <v>1.88341</v>
       </c>
     </row>
     <row r="94">
@@ -8968,13 +8968,13 @@
         <v>874177</v>
       </c>
       <c r="B94" t="n">
-        <v>1.96312</v>
+        <v>1.97569</v>
       </c>
       <c r="C94" t="n">
-        <v>1.08375</v>
+        <v>1.20971</v>
       </c>
       <c r="D94" t="n">
-        <v>1.90496</v>
+        <v>1.91791</v>
       </c>
     </row>
     <row r="95">
@@ -8982,13 +8982,13 @@
         <v>917832</v>
       </c>
       <c r="B95" t="n">
-        <v>1.99507</v>
+        <v>2.00446</v>
       </c>
       <c r="C95" t="n">
-        <v>1.08575</v>
+        <v>1.21953</v>
       </c>
       <c r="D95" t="n">
-        <v>1.93159</v>
+        <v>1.94717</v>
       </c>
     </row>
     <row r="96">
@@ -8996,13 +8996,13 @@
         <v>963677</v>
       </c>
       <c r="B96" t="n">
-        <v>2.02806</v>
+        <v>2.04028</v>
       </c>
       <c r="C96" t="n">
-        <v>1.09666</v>
+        <v>1.23275</v>
       </c>
       <c r="D96" t="n">
-        <v>1.96798</v>
+        <v>1.97758</v>
       </c>
     </row>
     <row r="97">
@@ -9010,13 +9010,13 @@
         <v>1011813</v>
       </c>
       <c r="B97" t="n">
-        <v>2.0562</v>
+        <v>2.07302</v>
       </c>
       <c r="C97" t="n">
-        <v>1.10375</v>
+        <v>1.24442</v>
       </c>
       <c r="D97" t="n">
-        <v>1.98867</v>
+        <v>2.00579</v>
       </c>
     </row>
     <row r="98">
@@ -9024,13 +9024,13 @@
         <v>1062351</v>
       </c>
       <c r="B98" t="n">
-        <v>2.09046</v>
+        <v>2.1035</v>
       </c>
       <c r="C98" t="n">
-        <v>1.11677</v>
+        <v>1.25466</v>
       </c>
       <c r="D98" t="n">
-        <v>2.01866</v>
+        <v>2.03305</v>
       </c>
     </row>
     <row r="99">
@@ -9038,13 +9038,13 @@
         <v>1115422</v>
       </c>
       <c r="B99" t="n">
-        <v>2.11387</v>
+        <v>2.13358</v>
       </c>
       <c r="C99" t="n">
-        <v>1.11973</v>
+        <v>1.26471</v>
       </c>
       <c r="D99" t="n">
-        <v>2.04255</v>
+        <v>2.05768</v>
       </c>
     </row>
     <row r="100">
@@ -9052,13 +9052,13 @@
         <v>1171143</v>
       </c>
       <c r="B100" t="n">
-        <v>2.15227</v>
+        <v>2.1575</v>
       </c>
       <c r="C100" t="n">
-        <v>1.13345</v>
+        <v>1.27667</v>
       </c>
       <c r="D100" t="n">
-        <v>2.06624</v>
+        <v>2.08181</v>
       </c>
     </row>
     <row r="101">
@@ -9066,13 +9066,13 @@
         <v>1229634</v>
       </c>
       <c r="B101" t="n">
-        <v>2.175</v>
+        <v>2.18764</v>
       </c>
       <c r="C101" t="n">
-        <v>1.14255</v>
+        <v>1.28928</v>
       </c>
       <c r="D101" t="n">
-        <v>2.08969</v>
+        <v>2.10578</v>
       </c>
     </row>
     <row r="102">
@@ -9080,13 +9080,13 @@
         <v>1291062</v>
       </c>
       <c r="B102" t="n">
-        <v>2.2029</v>
+        <v>2.21501</v>
       </c>
       <c r="C102" t="n">
-        <v>1.14882</v>
+        <v>1.30051</v>
       </c>
       <c r="D102" t="n">
-        <v>2.11157</v>
+        <v>2.1251</v>
       </c>
     </row>
     <row r="103">
@@ -9094,13 +9094,13 @@
         <v>1355554</v>
       </c>
       <c r="B103" t="n">
-        <v>2.22549</v>
+        <v>2.24219</v>
       </c>
       <c r="C103" t="n">
-        <v>1.16398</v>
+        <v>1.31345</v>
       </c>
       <c r="D103" t="n">
-        <v>2.1343</v>
+        <v>2.15044</v>
       </c>
     </row>
     <row r="104">
@@ -9108,13 +9108,13 @@
         <v>1423274</v>
       </c>
       <c r="B104" t="n">
-        <v>2.25226</v>
+        <v>2.27118</v>
       </c>
       <c r="C104" t="n">
-        <v>1.17316</v>
+        <v>1.32587</v>
       </c>
       <c r="D104" t="n">
-        <v>2.14943</v>
+        <v>2.17245</v>
       </c>
     </row>
     <row r="105">
@@ -9122,13 +9122,13 @@
         <v>1494380</v>
       </c>
       <c r="B105" t="n">
-        <v>2.3392</v>
+        <v>2.34987</v>
       </c>
       <c r="C105" t="n">
-        <v>1.18913</v>
+        <v>1.33846</v>
       </c>
       <c r="D105" t="n">
-        <v>2.17499</v>
+        <v>2.19543</v>
       </c>
     </row>
     <row r="106">
@@ -9136,13 +9136,13 @@
         <v>1569031</v>
       </c>
       <c r="B106" t="n">
-        <v>2.35861</v>
+        <v>2.37086</v>
       </c>
       <c r="C106" t="n">
-        <v>1.20387</v>
+        <v>1.35048</v>
       </c>
       <c r="D106" t="n">
-        <v>2.20184</v>
+        <v>2.2156</v>
       </c>
     </row>
     <row r="107">
@@ -9150,13 +9150,13 @@
         <v>1647417</v>
       </c>
       <c r="B107" t="n">
-        <v>2.38001</v>
+        <v>2.39354</v>
       </c>
       <c r="C107" t="n">
-        <v>1.207</v>
+        <v>1.34034</v>
       </c>
       <c r="D107" t="n">
-        <v>2.29952</v>
+        <v>2.32408</v>
       </c>
     </row>
     <row r="108">
@@ -9164,13 +9164,13 @@
         <v>1729734</v>
       </c>
       <c r="B108" t="n">
-        <v>2.39653</v>
+        <v>2.4156</v>
       </c>
       <c r="C108" t="n">
-        <v>1.21813</v>
+        <v>1.34918</v>
       </c>
       <c r="D108" t="n">
-        <v>2.29941</v>
+        <v>2.33344</v>
       </c>
     </row>
     <row r="109">
@@ -9178,13 +9178,13 @@
         <v>1816153</v>
       </c>
       <c r="B109" t="n">
-        <v>2.42106</v>
+        <v>2.43567</v>
       </c>
       <c r="C109" t="n">
-        <v>1.2223</v>
+        <v>1.35848</v>
       </c>
       <c r="D109" t="n">
-        <v>2.3417</v>
+        <v>2.34509</v>
       </c>
     </row>
     <row r="110">
@@ -9192,13 +9192,13 @@
         <v>1906885</v>
       </c>
       <c r="B110" t="n">
-        <v>2.44357</v>
+        <v>2.45427</v>
       </c>
       <c r="C110" t="n">
-        <v>1.22992</v>
+        <v>1.36524</v>
       </c>
       <c r="D110" t="n">
-        <v>2.3557</v>
+        <v>2.37122</v>
       </c>
     </row>
     <row r="111">
@@ -9206,13 +9206,13 @@
         <v>2002164</v>
       </c>
       <c r="B111" t="n">
-        <v>2.46047</v>
+        <v>2.47249</v>
       </c>
       <c r="C111" t="n">
-        <v>1.23778</v>
+        <v>1.37479</v>
       </c>
       <c r="D111" t="n">
-        <v>2.35945</v>
+        <v>2.37321</v>
       </c>
     </row>
     <row r="112">
@@ -9220,13 +9220,13 @@
         <v>2102198</v>
       </c>
       <c r="B112" t="n">
-        <v>2.47885</v>
+        <v>2.49217</v>
       </c>
       <c r="C112" t="n">
-        <v>1.24441</v>
+        <v>1.38158</v>
       </c>
       <c r="D112" t="n">
-        <v>2.38395</v>
+        <v>2.38598</v>
       </c>
     </row>
     <row r="113">
@@ -9234,13 +9234,13 @@
         <v>2207233</v>
       </c>
       <c r="B113" t="n">
-        <v>2.49827</v>
+        <v>2.51381</v>
       </c>
       <c r="C113" t="n">
-        <v>1.25301</v>
+        <v>1.39074</v>
       </c>
       <c r="D113" t="n">
-        <v>2.38584</v>
+        <v>2.40434</v>
       </c>
     </row>
     <row r="114">
@@ -9248,13 +9248,13 @@
         <v>2317508</v>
       </c>
       <c r="B114" t="n">
-        <v>2.51414</v>
+        <v>2.53269</v>
       </c>
       <c r="C114" t="n">
-        <v>1.26096</v>
+        <v>1.40012</v>
       </c>
       <c r="D114" t="n">
-        <v>2.40037</v>
+        <v>2.41593</v>
       </c>
     </row>
     <row r="115">
@@ -9262,13 +9262,13 @@
         <v>2433290</v>
       </c>
       <c r="B115" t="n">
-        <v>2.53669</v>
+        <v>2.55162</v>
       </c>
       <c r="C115" t="n">
-        <v>1.26887</v>
+        <v>1.41277</v>
       </c>
       <c r="D115" t="n">
-        <v>2.42188</v>
+        <v>2.43355</v>
       </c>
     </row>
     <row r="116">
@@ -9276,13 +9276,13 @@
         <v>2554854</v>
       </c>
       <c r="B116" t="n">
-        <v>2.55087</v>
+        <v>2.56927</v>
       </c>
       <c r="C116" t="n">
-        <v>1.28147</v>
+        <v>1.42092</v>
       </c>
       <c r="D116" t="n">
-        <v>2.43407</v>
+        <v>2.44575</v>
       </c>
     </row>
     <row r="117">
@@ -9290,13 +9290,13 @@
         <v>2682511</v>
       </c>
       <c r="B117" t="n">
-        <v>2.5745</v>
+        <v>2.58674</v>
       </c>
       <c r="C117" t="n">
-        <v>1.29333</v>
+        <v>1.43052</v>
       </c>
       <c r="D117" t="n">
-        <v>2.44667</v>
+        <v>2.45847</v>
       </c>
     </row>
     <row r="118">
@@ -9304,13 +9304,13 @@
         <v>2816546</v>
       </c>
       <c r="B118" t="n">
-        <v>2.58786</v>
+        <v>2.60772</v>
       </c>
       <c r="C118" t="n">
-        <v>1.30081</v>
+        <v>1.44003</v>
       </c>
       <c r="D118" t="n">
-        <v>2.45534</v>
+        <v>2.4668</v>
       </c>
     </row>
     <row r="119">
@@ -9318,13 +9318,13 @@
         <v>2957287</v>
       </c>
       <c r="B119" t="n">
-        <v>2.61308</v>
+        <v>2.62697</v>
       </c>
       <c r="C119" t="n">
-        <v>1.31662</v>
+        <v>1.45156</v>
       </c>
       <c r="D119" t="n">
-        <v>2.46067</v>
+        <v>2.48373</v>
       </c>
     </row>
   </sheetData>
@@ -9372,13 +9372,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.512967</v>
+        <v>0.490858</v>
       </c>
       <c r="C2" t="n">
-        <v>0.453074</v>
+        <v>0.417399</v>
       </c>
       <c r="D2" t="n">
-        <v>0.354642</v>
+        <v>0.337566</v>
       </c>
     </row>
     <row r="3">
@@ -9386,13 +9386,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.519841</v>
+        <v>0.495734</v>
       </c>
       <c r="C3" t="n">
-        <v>0.458805</v>
+        <v>0.422302</v>
       </c>
       <c r="D3" t="n">
-        <v>0.35886</v>
+        <v>0.340738</v>
       </c>
     </row>
     <row r="4">
@@ -9400,13 +9400,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.521962</v>
+        <v>0.497948</v>
       </c>
       <c r="C4" t="n">
-        <v>0.466967</v>
+        <v>0.426988</v>
       </c>
       <c r="D4" t="n">
-        <v>0.359397</v>
+        <v>0.344214</v>
       </c>
     </row>
     <row r="5">
@@ -9414,13 +9414,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.531571</v>
+        <v>0.507506</v>
       </c>
       <c r="C5" t="n">
-        <v>0.469889</v>
+        <v>0.432115</v>
       </c>
       <c r="D5" t="n">
-        <v>0.365605</v>
+        <v>0.347625</v>
       </c>
     </row>
     <row r="6">
@@ -9428,13 +9428,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.543313</v>
+        <v>0.515602</v>
       </c>
       <c r="C6" t="n">
-        <v>0.470783</v>
+        <v>0.435196</v>
       </c>
       <c r="D6" t="n">
-        <v>0.370537</v>
+        <v>0.353409</v>
       </c>
     </row>
     <row r="7">
@@ -9442,13 +9442,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.550289</v>
+        <v>0.524826</v>
       </c>
       <c r="C7" t="n">
-        <v>0.491566</v>
+        <v>0.453695</v>
       </c>
       <c r="D7" t="n">
-        <v>0.381807</v>
+        <v>0.368363</v>
       </c>
     </row>
     <row r="8">
@@ -9456,13 +9456,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.5589190000000001</v>
+        <v>0.532716</v>
       </c>
       <c r="C8" t="n">
-        <v>0.495771</v>
+        <v>0.45837</v>
       </c>
       <c r="D8" t="n">
-        <v>0.382095</v>
+        <v>0.372008</v>
       </c>
     </row>
     <row r="9">
@@ -9470,13 +9470,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.554084</v>
+        <v>0.5402749999999999</v>
       </c>
       <c r="C9" t="n">
-        <v>0.503621</v>
+        <v>0.467111</v>
       </c>
       <c r="D9" t="n">
-        <v>0.391356</v>
+        <v>0.376438</v>
       </c>
     </row>
     <row r="10">
@@ -9484,13 +9484,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.5682700000000001</v>
+        <v>0.553148</v>
       </c>
       <c r="C10" t="n">
-        <v>0.505549</v>
+        <v>0.470015</v>
       </c>
       <c r="D10" t="n">
-        <v>0.392332</v>
+        <v>0.383783</v>
       </c>
     </row>
     <row r="11">
@@ -9498,13 +9498,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.572296</v>
+        <v>0.560603</v>
       </c>
       <c r="C11" t="n">
-        <v>0.5013570000000001</v>
+        <v>0.46972</v>
       </c>
       <c r="D11" t="n">
-        <v>0.395567</v>
+        <v>0.38755</v>
       </c>
     </row>
     <row r="12">
@@ -9512,13 +9512,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.581471</v>
+        <v>0.570865</v>
       </c>
       <c r="C12" t="n">
-        <v>0.507826</v>
+        <v>0.475353</v>
       </c>
       <c r="D12" t="n">
-        <v>0.403242</v>
+        <v>0.39629</v>
       </c>
     </row>
     <row r="13">
@@ -9526,13 +9526,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.5935</v>
+        <v>0.584425</v>
       </c>
       <c r="C13" t="n">
-        <v>0.511356</v>
+        <v>0.480132</v>
       </c>
       <c r="D13" t="n">
-        <v>0.403287</v>
+        <v>0.399066</v>
       </c>
     </row>
     <row r="14">
@@ -9540,13 +9540,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.594262</v>
+        <v>0.58905</v>
       </c>
       <c r="C14" t="n">
-        <v>0.513652</v>
+        <v>0.482463</v>
       </c>
       <c r="D14" t="n">
-        <v>0.410348</v>
+        <v>0.405942</v>
       </c>
     </row>
     <row r="15">
@@ -9554,13 +9554,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.604824</v>
+        <v>0.596926</v>
       </c>
       <c r="C15" t="n">
-        <v>0.514495</v>
+        <v>0.487332</v>
       </c>
       <c r="D15" t="n">
-        <v>0.417199</v>
+        <v>0.413604</v>
       </c>
     </row>
     <row r="16">
@@ -9568,13 +9568,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.615783</v>
+        <v>0.610998</v>
       </c>
       <c r="C16" t="n">
-        <v>0.521153</v>
+        <v>0.494636</v>
       </c>
       <c r="D16" t="n">
-        <v>0.419746</v>
+        <v>0.418287</v>
       </c>
     </row>
     <row r="17">
@@ -9582,13 +9582,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.626619</v>
+        <v>0.62207</v>
       </c>
       <c r="C17" t="n">
-        <v>0.527501</v>
+        <v>0.497764</v>
       </c>
       <c r="D17" t="n">
-        <v>0.425522</v>
+        <v>0.424747</v>
       </c>
     </row>
     <row r="18">
@@ -9596,13 +9596,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.643597</v>
+        <v>0.622394</v>
       </c>
       <c r="C18" t="n">
-        <v>0.527739</v>
+        <v>0.498229</v>
       </c>
       <c r="D18" t="n">
-        <v>0.433089</v>
+        <v>0.428636</v>
       </c>
     </row>
     <row r="19">
@@ -9610,13 +9610,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.654447</v>
+        <v>0.649589</v>
       </c>
       <c r="C19" t="n">
-        <v>0.529128</v>
+        <v>0.503854</v>
       </c>
       <c r="D19" t="n">
-        <v>0.436093</v>
+        <v>0.434354</v>
       </c>
     </row>
     <row r="20">
@@ -9624,13 +9624,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.664737</v>
+        <v>0.66134</v>
       </c>
       <c r="C20" t="n">
-        <v>0.54172</v>
+        <v>0.513161</v>
       </c>
       <c r="D20" t="n">
-        <v>0.442509</v>
+        <v>0.440509</v>
       </c>
     </row>
     <row r="21">
@@ -9638,13 +9638,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.675143</v>
+        <v>0.672376</v>
       </c>
       <c r="C21" t="n">
-        <v>0.553607</v>
+        <v>0.521631</v>
       </c>
       <c r="D21" t="n">
-        <v>0.448913</v>
+        <v>0.448927</v>
       </c>
     </row>
     <row r="22">
@@ -9652,13 +9652,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.681844</v>
+        <v>0.678226</v>
       </c>
       <c r="C22" t="n">
-        <v>0.55947</v>
+        <v>0.527539</v>
       </c>
       <c r="D22" t="n">
-        <v>0.453879</v>
+        <v>0.454352</v>
       </c>
     </row>
     <row r="23">
@@ -9666,13 +9666,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.689053</v>
+        <v>0.68768</v>
       </c>
       <c r="C23" t="n">
-        <v>0.558361</v>
+        <v>0.53029</v>
       </c>
       <c r="D23" t="n">
-        <v>0.459804</v>
+        <v>0.459979</v>
       </c>
     </row>
     <row r="24">
@@ -9680,13 +9680,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.6932970000000001</v>
+        <v>0.6943279999999999</v>
       </c>
       <c r="C24" t="n">
-        <v>0.563217</v>
+        <v>0.5323099999999999</v>
       </c>
       <c r="D24" t="n">
-        <v>0.465453</v>
+        <v>0.463971</v>
       </c>
     </row>
     <row r="25">
@@ -9694,13 +9694,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.703576</v>
+        <v>0.699912</v>
       </c>
       <c r="C25" t="n">
-        <v>0.572695</v>
+        <v>0.5376339999999999</v>
       </c>
       <c r="D25" t="n">
-        <v>0.46929</v>
+        <v>0.468149</v>
       </c>
     </row>
     <row r="26">
@@ -9708,13 +9708,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.7098139999999999</v>
+        <v>0.707774</v>
       </c>
       <c r="C26" t="n">
-        <v>0.566976</v>
+        <v>0.533775</v>
       </c>
       <c r="D26" t="n">
-        <v>0.47286</v>
+        <v>0.471089</v>
       </c>
     </row>
     <row r="27">
@@ -9722,13 +9722,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.720868</v>
+        <v>0.716795</v>
       </c>
       <c r="C27" t="n">
-        <v>0.576639</v>
+        <v>0.542963</v>
       </c>
       <c r="D27" t="n">
-        <v>0.476356</v>
+        <v>0.474901</v>
       </c>
     </row>
     <row r="28">
@@ -9736,13 +9736,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.722615</v>
+        <v>0.721141</v>
       </c>
       <c r="C28" t="n">
-        <v>0.580995</v>
+        <v>0.550227</v>
       </c>
       <c r="D28" t="n">
-        <v>0.481021</v>
+        <v>0.482272</v>
       </c>
     </row>
     <row r="29">
@@ -9750,13 +9750,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.7367899999999999</v>
+        <v>0.7349909999999999</v>
       </c>
       <c r="C29" t="n">
-        <v>0.583747</v>
+        <v>0.549663</v>
       </c>
       <c r="D29" t="n">
-        <v>0.485406</v>
+        <v>0.482295</v>
       </c>
     </row>
     <row r="30">
@@ -9764,13 +9764,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.73866</v>
+        <v>0.738559</v>
       </c>
       <c r="C30" t="n">
-        <v>0.587818</v>
+        <v>0.5526180000000001</v>
       </c>
       <c r="D30" t="n">
-        <v>0.489245</v>
+        <v>0.488833</v>
       </c>
     </row>
     <row r="31">
@@ -9778,13 +9778,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.748726</v>
+        <v>0.7447279999999999</v>
       </c>
       <c r="C31" t="n">
-        <v>0.587342</v>
+        <v>0.559565</v>
       </c>
       <c r="D31" t="n">
-        <v>0.49424</v>
+        <v>0.494844</v>
       </c>
     </row>
     <row r="32">
@@ -9792,13 +9792,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.741999</v>
+        <v>0.738661</v>
       </c>
       <c r="C32" t="n">
-        <v>0.590925</v>
+        <v>0.557351</v>
       </c>
       <c r="D32" t="n">
-        <v>0.494506</v>
+        <v>0.491855</v>
       </c>
     </row>
     <row r="33">
@@ -9806,13 +9806,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.7466120000000001</v>
+        <v>0.744268</v>
       </c>
       <c r="C33" t="n">
-        <v>0.594737</v>
+        <v>0.566568</v>
       </c>
       <c r="D33" t="n">
-        <v>0.499818</v>
+        <v>0.499266</v>
       </c>
     </row>
     <row r="34">
@@ -9820,13 +9820,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.759013</v>
+        <v>0.755981</v>
       </c>
       <c r="C34" t="n">
-        <v>0.602104</v>
+        <v>0.572695</v>
       </c>
       <c r="D34" t="n">
-        <v>0.501758</v>
+        <v>0.501857</v>
       </c>
     </row>
     <row r="35">
@@ -9834,13 +9834,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.761747</v>
+        <v>0.7559360000000001</v>
       </c>
       <c r="C35" t="n">
-        <v>0.593113</v>
+        <v>0.550822</v>
       </c>
       <c r="D35" t="n">
-        <v>0.506125</v>
+        <v>0.495876</v>
       </c>
     </row>
     <row r="36">
@@ -9848,13 +9848,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.770826</v>
+        <v>0.76145</v>
       </c>
       <c r="C36" t="n">
-        <v>0.594774</v>
+        <v>0.557678</v>
       </c>
       <c r="D36" t="n">
-        <v>0.509832</v>
+        <v>0.501579</v>
       </c>
     </row>
     <row r="37">
@@ -9862,13 +9862,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.774071</v>
+        <v>0.770996</v>
       </c>
       <c r="C37" t="n">
-        <v>0.598974</v>
+        <v>0.559933</v>
       </c>
       <c r="D37" t="n">
-        <v>0.5116849999999999</v>
+        <v>0.510321</v>
       </c>
     </row>
     <row r="38">
@@ -9876,13 +9876,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.777541</v>
+        <v>0.774477</v>
       </c>
       <c r="C38" t="n">
-        <v>0.598947</v>
+        <v>0.559319</v>
       </c>
       <c r="D38" t="n">
-        <v>0.515602</v>
+        <v>0.514629</v>
       </c>
     </row>
     <row r="39">
@@ -9890,13 +9890,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.7820780000000001</v>
+        <v>0.751099</v>
       </c>
       <c r="C39" t="n">
-        <v>0.602116</v>
+        <v>0.5639459999999999</v>
       </c>
       <c r="D39" t="n">
-        <v>0.51894</v>
+        <v>0.518297</v>
       </c>
     </row>
     <row r="40">
@@ -9904,13 +9904,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.7878309999999999</v>
+        <v>0.786228</v>
       </c>
       <c r="C40" t="n">
-        <v>0.604617</v>
+        <v>0.567057</v>
       </c>
       <c r="D40" t="n">
-        <v>0.5200129999999999</v>
+        <v>0.519344</v>
       </c>
     </row>
     <row r="41">
@@ -9918,13 +9918,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.795351</v>
+        <v>0.792575</v>
       </c>
       <c r="C41" t="n">
-        <v>0.605293</v>
+        <v>0.57064</v>
       </c>
       <c r="D41" t="n">
-        <v>0.521674</v>
+        <v>0.519734</v>
       </c>
     </row>
     <row r="42">
@@ -9932,13 +9932,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.799908</v>
+        <v>0.798167</v>
       </c>
       <c r="C42" t="n">
-        <v>0.604275</v>
+        <v>0.5713780000000001</v>
       </c>
       <c r="D42" t="n">
-        <v>0.525127</v>
+        <v>0.524466</v>
       </c>
     </row>
     <row r="43">
@@ -9946,13 +9946,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.806364</v>
+        <v>0.802608</v>
       </c>
       <c r="C43" t="n">
-        <v>0.606263</v>
+        <v>0.57216</v>
       </c>
       <c r="D43" t="n">
-        <v>0.528133</v>
+        <v>0.527664</v>
       </c>
     </row>
     <row r="44">
@@ -9960,13 +9960,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.805377</v>
+        <v>0.802262</v>
       </c>
       <c r="C44" t="n">
-        <v>0.608254</v>
+        <v>0.575828</v>
       </c>
       <c r="D44" t="n">
-        <v>0.528357</v>
+        <v>0.527219</v>
       </c>
     </row>
     <row r="45">
@@ -9974,13 +9974,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.812897</v>
+        <v>0.810405</v>
       </c>
       <c r="C45" t="n">
-        <v>0.60984</v>
+        <v>0.580654</v>
       </c>
       <c r="D45" t="n">
-        <v>0.530548</v>
+        <v>0.529579</v>
       </c>
     </row>
     <row r="46">
@@ -9988,13 +9988,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.815161</v>
+        <v>0.81201</v>
       </c>
       <c r="C46" t="n">
-        <v>0.611567</v>
+        <v>0.582116</v>
       </c>
       <c r="D46" t="n">
-        <v>0.533212</v>
+        <v>0.533087</v>
       </c>
     </row>
     <row r="47">
@@ -10002,13 +10002,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.794387</v>
+        <v>0.791692</v>
       </c>
       <c r="C47" t="n">
-        <v>0.610476</v>
+        <v>0.58085</v>
       </c>
       <c r="D47" t="n">
-        <v>0.5345490000000001</v>
+        <v>0.534313</v>
       </c>
     </row>
     <row r="48">
@@ -10016,13 +10016,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.800022</v>
+        <v>0.798655</v>
       </c>
       <c r="C48" t="n">
-        <v>0.617041</v>
+        <v>0.5882579999999999</v>
       </c>
       <c r="D48" t="n">
-        <v>0.5367150000000001</v>
+        <v>0.5363599999999999</v>
       </c>
     </row>
     <row r="49">
@@ -10030,13 +10030,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.802836</v>
+        <v>0.795574</v>
       </c>
       <c r="C49" t="n">
-        <v>0.61894</v>
+        <v>0.5920530000000001</v>
       </c>
       <c r="D49" t="n">
-        <v>0.538333</v>
+        <v>0.53783</v>
       </c>
     </row>
     <row r="50">
@@ -10044,13 +10044,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.807441</v>
+        <v>0.804514</v>
       </c>
       <c r="C50" t="n">
-        <v>0.616967</v>
+        <v>0.589665</v>
       </c>
       <c r="D50" t="n">
-        <v>0.537527</v>
+        <v>0.537736</v>
       </c>
     </row>
     <row r="51">
@@ -10058,13 +10058,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.80892</v>
+        <v>0.8049269999999999</v>
       </c>
       <c r="C51" t="n">
-        <v>0.616768</v>
+        <v>0.587232</v>
       </c>
       <c r="D51" t="n">
-        <v>0.53683</v>
+        <v>0.5372130000000001</v>
       </c>
     </row>
     <row r="52">
@@ -10072,13 +10072,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.812011</v>
+        <v>0.808943</v>
       </c>
       <c r="C52" t="n">
-        <v>0.623321</v>
+        <v>0.592929</v>
       </c>
       <c r="D52" t="n">
-        <v>0.5412940000000001</v>
+        <v>0.542052</v>
       </c>
     </row>
     <row r="53">
@@ -10086,13 +10086,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.817014</v>
+        <v>0.813808</v>
       </c>
       <c r="C53" t="n">
-        <v>0.626687</v>
+        <v>0.595209</v>
       </c>
       <c r="D53" t="n">
-        <v>0.544077</v>
+        <v>0.54242</v>
       </c>
     </row>
     <row r="54">
@@ -10100,13 +10100,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.820021</v>
+        <v>0.818561</v>
       </c>
       <c r="C54" t="n">
-        <v>0.625628</v>
+        <v>0.600897</v>
       </c>
       <c r="D54" t="n">
-        <v>0.545378</v>
+        <v>0.545943</v>
       </c>
     </row>
     <row r="55">
@@ -10114,13 +10114,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.823342</v>
+        <v>0.821659</v>
       </c>
       <c r="C55" t="n">
-        <v>0.627043</v>
+        <v>0.600737</v>
       </c>
       <c r="D55" t="n">
-        <v>0.54573</v>
+        <v>0.548522</v>
       </c>
     </row>
     <row r="56">
@@ -10128,13 +10128,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.827745</v>
+        <v>0.826063</v>
       </c>
       <c r="C56" t="n">
-        <v>0.628003</v>
+        <v>0.607869</v>
       </c>
       <c r="D56" t="n">
-        <v>0.5464909999999999</v>
+        <v>0.548404</v>
       </c>
     </row>
     <row r="57">
@@ -10142,13 +10142,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.833193</v>
+        <v>0.831108</v>
       </c>
       <c r="C57" t="n">
-        <v>0.638392</v>
+        <v>0.609673</v>
       </c>
       <c r="D57" t="n">
-        <v>0.54932</v>
+        <v>0.551768</v>
       </c>
     </row>
     <row r="58">
@@ -10156,13 +10156,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.832989</v>
+        <v>0.830305</v>
       </c>
       <c r="C58" t="n">
-        <v>0.642134</v>
+        <v>0.615833</v>
       </c>
       <c r="D58" t="n">
-        <v>0.550488</v>
+        <v>0.555677</v>
       </c>
     </row>
     <row r="59">
@@ -10170,13 +10170,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.837731</v>
+        <v>0.84087</v>
       </c>
       <c r="C59" t="n">
-        <v>0.645358</v>
+        <v>0.624633</v>
       </c>
       <c r="D59" t="n">
-        <v>0.5524019999999999</v>
+        <v>0.5562859999999999</v>
       </c>
     </row>
     <row r="60">
@@ -10184,13 +10184,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.843868</v>
+        <v>0.844746</v>
       </c>
       <c r="C60" t="n">
-        <v>0.652228</v>
+        <v>0.634167</v>
       </c>
       <c r="D60" t="n">
-        <v>0.554482</v>
+        <v>0.555895</v>
       </c>
     </row>
     <row r="61">
@@ -10198,13 +10198,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.841049</v>
+        <v>0.841553</v>
       </c>
       <c r="C61" t="n">
-        <v>0.6560049999999999</v>
+        <v>0.634719</v>
       </c>
       <c r="D61" t="n">
-        <v>0.5576179999999999</v>
+        <v>0.556397</v>
       </c>
     </row>
     <row r="62">
@@ -10212,13 +10212,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.85188</v>
+        <v>0.85337</v>
       </c>
       <c r="C62" t="n">
-        <v>0.664417</v>
+        <v>0.640893</v>
       </c>
       <c r="D62" t="n">
-        <v>0.558678</v>
+        <v>0.557474</v>
       </c>
     </row>
     <row r="63">
@@ -10226,13 +10226,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.863688</v>
+        <v>0.85417</v>
       </c>
       <c r="C63" t="n">
-        <v>0.673251</v>
+        <v>0.645906</v>
       </c>
       <c r="D63" t="n">
-        <v>0.561094</v>
+        <v>0.560961</v>
       </c>
     </row>
     <row r="64">
@@ -10240,13 +10240,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.8743379999999999</v>
+        <v>0.871551</v>
       </c>
       <c r="C64" t="n">
-        <v>0.742773</v>
+        <v>0.6980499999999999</v>
       </c>
       <c r="D64" t="n">
-        <v>0.602104</v>
+        <v>0.596482</v>
       </c>
     </row>
     <row r="65">
@@ -10254,13 +10254,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.893973</v>
+        <v>0.890631</v>
       </c>
       <c r="C65" t="n">
-        <v>0.751171</v>
+        <v>0.71146</v>
       </c>
       <c r="D65" t="n">
-        <v>0.605761</v>
+        <v>0.603447</v>
       </c>
     </row>
     <row r="66">
@@ -10268,13 +10268,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.906166</v>
+        <v>0.911111</v>
       </c>
       <c r="C66" t="n">
-        <v>0.779184</v>
+        <v>0.730388</v>
       </c>
       <c r="D66" t="n">
-        <v>0.614168</v>
+        <v>0.616744</v>
       </c>
     </row>
     <row r="67">
@@ -10282,13 +10282,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.924817</v>
+        <v>0.891418</v>
       </c>
       <c r="C67" t="n">
-        <v>0.798988</v>
+        <v>0.75615</v>
       </c>
       <c r="D67" t="n">
-        <v>0.624542</v>
+        <v>0.626797</v>
       </c>
     </row>
     <row r="68">
@@ -10296,13 +10296,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.9453819999999999</v>
+        <v>0.949645</v>
       </c>
       <c r="C68" t="n">
-        <v>0.8226869999999999</v>
+        <v>0.775695</v>
       </c>
       <c r="D68" t="n">
-        <v>0.633649</v>
+        <v>0.645351</v>
       </c>
     </row>
     <row r="69">
@@ -10310,13 +10310,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.96543</v>
+        <v>0.976259</v>
       </c>
       <c r="C69" t="n">
-        <v>0.838309</v>
+        <v>0.803154</v>
       </c>
       <c r="D69" t="n">
-        <v>0.643868</v>
+        <v>0.655008</v>
       </c>
     </row>
     <row r="70">
@@ -10324,13 +10324,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.9805739999999999</v>
+        <v>0.988025</v>
       </c>
       <c r="C70" t="n">
-        <v>0.856989</v>
+        <v>0.825581</v>
       </c>
       <c r="D70" t="n">
-        <v>0.666501</v>
+        <v>0.675576</v>
       </c>
     </row>
     <row r="71">
@@ -10338,13 +10338,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>1.01594</v>
+        <v>1.02222</v>
       </c>
       <c r="C71" t="n">
-        <v>0.902014</v>
+        <v>0.861567</v>
       </c>
       <c r="D71" t="n">
-        <v>0.6759579999999999</v>
+        <v>0.694209</v>
       </c>
     </row>
     <row r="72">
@@ -10352,13 +10352,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>1.035</v>
+        <v>1.05496</v>
       </c>
       <c r="C72" t="n">
-        <v>0.946749</v>
+        <v>0.884301</v>
       </c>
       <c r="D72" t="n">
-        <v>0.731077</v>
+        <v>0.707418</v>
       </c>
     </row>
     <row r="73">
@@ -10366,13 +10366,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>1.11516</v>
+        <v>1.07786</v>
       </c>
       <c r="C73" t="n">
-        <v>0.967188</v>
+        <v>0.924729</v>
       </c>
       <c r="D73" t="n">
-        <v>0.721106</v>
+        <v>0.729979</v>
       </c>
     </row>
     <row r="74">
@@ -10380,13 +10380,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>1.10605</v>
+        <v>1.11319</v>
       </c>
       <c r="C74" t="n">
-        <v>1.00774</v>
+        <v>0.964723</v>
       </c>
       <c r="D74" t="n">
-        <v>0.757374</v>
+        <v>0.76792</v>
       </c>
     </row>
     <row r="75">
@@ -10394,13 +10394,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>1.15857</v>
+        <v>1.1761</v>
       </c>
       <c r="C75" t="n">
-        <v>1.03416</v>
+        <v>1.00551</v>
       </c>
       <c r="D75" t="n">
-        <v>0.8339</v>
+        <v>0.791173</v>
       </c>
     </row>
     <row r="76">
@@ -10408,13 +10408,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>1.38092</v>
+        <v>1.34321</v>
       </c>
       <c r="C76" t="n">
-        <v>1.0866</v>
+        <v>1.04277</v>
       </c>
       <c r="D76" t="n">
-        <v>0.844067</v>
+        <v>0.829233</v>
       </c>
     </row>
     <row r="77">
@@ -10422,13 +10422,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>1.42281</v>
+        <v>1.41412</v>
       </c>
       <c r="C77" t="n">
-        <v>1.12551</v>
+        <v>1.08706</v>
       </c>
       <c r="D77" t="n">
-        <v>0.866847</v>
+        <v>0.863727</v>
       </c>
     </row>
     <row r="78">
@@ -10436,13 +10436,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>1.49269</v>
+        <v>1.48472</v>
       </c>
       <c r="C78" t="n">
-        <v>1.33331</v>
+        <v>1.28247</v>
       </c>
       <c r="D78" t="n">
-        <v>1.01385</v>
+        <v>1.01049</v>
       </c>
     </row>
     <row r="79">
@@ -10450,13 +10450,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>1.55375</v>
+        <v>1.57212</v>
       </c>
       <c r="C79" t="n">
-        <v>1.37122</v>
+        <v>1.32604</v>
       </c>
       <c r="D79" t="n">
-        <v>1.07305</v>
+        <v>1.06503</v>
       </c>
     </row>
     <row r="80">
@@ -10464,13 +10464,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>1.63965</v>
+        <v>1.64656</v>
       </c>
       <c r="C80" t="n">
-        <v>1.40702</v>
+        <v>1.37146</v>
       </c>
       <c r="D80" t="n">
-        <v>1.09992</v>
+        <v>1.11754</v>
       </c>
     </row>
     <row r="81">
@@ -10478,13 +10478,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>1.70454</v>
+        <v>1.73375</v>
       </c>
       <c r="C81" t="n">
-        <v>1.45024</v>
+        <v>1.41019</v>
       </c>
       <c r="D81" t="n">
-        <v>1.16382</v>
+        <v>1.17842</v>
       </c>
     </row>
     <row r="82">
@@ -10492,13 +10492,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>1.81902</v>
+        <v>1.81156</v>
       </c>
       <c r="C82" t="n">
-        <v>1.48928</v>
+        <v>1.45283</v>
       </c>
       <c r="D82" t="n">
-        <v>1.22703</v>
+        <v>1.22423</v>
       </c>
     </row>
     <row r="83">
@@ -10506,13 +10506,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>1.8815</v>
+        <v>1.92469</v>
       </c>
       <c r="C83" t="n">
-        <v>1.53727</v>
+        <v>1.50263</v>
       </c>
       <c r="D83" t="n">
-        <v>1.28442</v>
+        <v>1.28115</v>
       </c>
     </row>
     <row r="84">
@@ -10520,13 +10520,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>2.01467</v>
+        <v>2.01201</v>
       </c>
       <c r="C84" t="n">
-        <v>1.57362</v>
+        <v>1.54939</v>
       </c>
       <c r="D84" t="n">
-        <v>1.33205</v>
+        <v>1.34307</v>
       </c>
     </row>
     <row r="85">
@@ -10534,13 +10534,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>2.09306</v>
+        <v>2.10752</v>
       </c>
       <c r="C85" t="n">
-        <v>1.6123</v>
+        <v>1.59338</v>
       </c>
       <c r="D85" t="n">
-        <v>1.39256</v>
+        <v>1.40037</v>
       </c>
     </row>
     <row r="86">
@@ -10548,13 +10548,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>2.20195</v>
+        <v>2.16926</v>
       </c>
       <c r="C86" t="n">
-        <v>1.65805</v>
+        <v>1.62991</v>
       </c>
       <c r="D86" t="n">
-        <v>1.45194</v>
+        <v>1.45408</v>
       </c>
     </row>
     <row r="87">
@@ -10562,13 +10562,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>2.29267</v>
+        <v>2.28988</v>
       </c>
       <c r="C87" t="n">
-        <v>1.70315</v>
+        <v>1.68211</v>
       </c>
       <c r="D87" t="n">
-        <v>1.50814</v>
+        <v>1.51115</v>
       </c>
     </row>
     <row r="88">
@@ -10576,13 +10576,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>2.37307</v>
+        <v>2.38022</v>
       </c>
       <c r="C88" t="n">
-        <v>1.73266</v>
+        <v>1.71612</v>
       </c>
       <c r="D88" t="n">
-        <v>1.56177</v>
+        <v>1.56946</v>
       </c>
     </row>
     <row r="89">
@@ -10590,13 +10590,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>2.47162</v>
+        <v>2.48954</v>
       </c>
       <c r="C89" t="n">
-        <v>1.77418</v>
+        <v>1.75895</v>
       </c>
       <c r="D89" t="n">
-        <v>1.62163</v>
+        <v>1.62487</v>
       </c>
     </row>
     <row r="90">
@@ -10604,13 +10604,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>2.67035</v>
+        <v>2.67913</v>
       </c>
       <c r="C90" t="n">
-        <v>1.81588</v>
+        <v>1.80161</v>
       </c>
       <c r="D90" t="n">
-        <v>1.67715</v>
+        <v>1.68061</v>
       </c>
     </row>
     <row r="91">
@@ -10618,13 +10618,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>2.75012</v>
+        <v>2.76176</v>
       </c>
       <c r="C91" t="n">
-        <v>1.8644</v>
+        <v>1.85524</v>
       </c>
       <c r="D91" t="n">
-        <v>1.73279</v>
+        <v>1.73744</v>
       </c>
     </row>
     <row r="92">
@@ -10632,13 +10632,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>2.83912</v>
+        <v>2.8442</v>
       </c>
       <c r="C92" t="n">
-        <v>2.04475</v>
+        <v>1.98084</v>
       </c>
       <c r="D92" t="n">
-        <v>1.85355</v>
+        <v>1.85795</v>
       </c>
     </row>
     <row r="93">
@@ -10646,13 +10646,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>2.91154</v>
+        <v>2.92752</v>
       </c>
       <c r="C93" t="n">
-        <v>2.05502</v>
+        <v>2.01077</v>
       </c>
       <c r="D93" t="n">
-        <v>1.89906</v>
+        <v>1.90357</v>
       </c>
     </row>
     <row r="94">
@@ -10660,13 +10660,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>2.99672</v>
+        <v>3.01029</v>
       </c>
       <c r="C94" t="n">
-        <v>2.0833</v>
+        <v>2.05132</v>
       </c>
       <c r="D94" t="n">
-        <v>1.94778</v>
+        <v>1.95152</v>
       </c>
     </row>
     <row r="95">
@@ -10674,13 +10674,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>3.07813</v>
+        <v>3.09351</v>
       </c>
       <c r="C95" t="n">
-        <v>2.1395</v>
+        <v>2.08728</v>
       </c>
       <c r="D95" t="n">
-        <v>1.99301</v>
+        <v>1.9978</v>
       </c>
     </row>
     <row r="96">
@@ -10688,13 +10688,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>3.15442</v>
+        <v>3.1726</v>
       </c>
       <c r="C96" t="n">
-        <v>2.16105</v>
+        <v>2.11794</v>
       </c>
       <c r="D96" t="n">
-        <v>2.03584</v>
+        <v>2.05462</v>
       </c>
     </row>
     <row r="97">
@@ -10702,13 +10702,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>3.19864</v>
+        <v>3.24498</v>
       </c>
       <c r="C97" t="n">
-        <v>2.18621</v>
+        <v>2.14592</v>
       </c>
       <c r="D97" t="n">
-        <v>2.10092</v>
+        <v>2.10392</v>
       </c>
     </row>
     <row r="98">
@@ -10716,13 +10716,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>3.31047</v>
+        <v>3.31196</v>
       </c>
       <c r="C98" t="n">
-        <v>2.23193</v>
+        <v>2.18638</v>
       </c>
       <c r="D98" t="n">
-        <v>2.14064</v>
+        <v>2.14211</v>
       </c>
     </row>
     <row r="99">
@@ -10730,13 +10730,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>3.3775</v>
+        <v>3.36751</v>
       </c>
       <c r="C99" t="n">
-        <v>2.25567</v>
+        <v>2.22447</v>
       </c>
       <c r="D99" t="n">
-        <v>2.17309</v>
+        <v>2.18518</v>
       </c>
     </row>
     <row r="100">
@@ -10744,13 +10744,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>3.44327</v>
+        <v>3.44482</v>
       </c>
       <c r="C100" t="n">
-        <v>2.29678</v>
+        <v>2.25859</v>
       </c>
       <c r="D100" t="n">
-        <v>2.20626</v>
+        <v>2.21598</v>
       </c>
     </row>
     <row r="101">
@@ -10758,13 +10758,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>3.49518</v>
+        <v>3.51204</v>
       </c>
       <c r="C101" t="n">
-        <v>2.31656</v>
+        <v>2.27978</v>
       </c>
       <c r="D101" t="n">
-        <v>2.24389</v>
+        <v>2.24682</v>
       </c>
     </row>
     <row r="102">
@@ -10772,13 +10772,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>3.56401</v>
+        <v>3.57488</v>
       </c>
       <c r="C102" t="n">
-        <v>2.34091</v>
+        <v>2.31197</v>
       </c>
       <c r="D102" t="n">
-        <v>2.28081</v>
+        <v>2.27154</v>
       </c>
     </row>
     <row r="103">
@@ -10786,13 +10786,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>3.61999</v>
+        <v>3.62879</v>
       </c>
       <c r="C103" t="n">
-        <v>2.37398</v>
+        <v>2.34202</v>
       </c>
       <c r="D103" t="n">
-        <v>2.31715</v>
+        <v>2.32704</v>
       </c>
     </row>
     <row r="104">
@@ -10800,13 +10800,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>3.69434</v>
+        <v>3.68084</v>
       </c>
       <c r="C104" t="n">
-        <v>2.40833</v>
+        <v>2.36209</v>
       </c>
       <c r="D104" t="n">
-        <v>2.3436</v>
+        <v>2.33822</v>
       </c>
     </row>
     <row r="105">
@@ -10814,13 +10814,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>3.71089</v>
+        <v>3.71778</v>
       </c>
       <c r="C105" t="n">
-        <v>2.42603</v>
+        <v>2.39768</v>
       </c>
       <c r="D105" t="n">
-        <v>2.3773</v>
+        <v>2.38604</v>
       </c>
     </row>
     <row r="106">
@@ -10828,13 +10828,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>3.77428</v>
+        <v>3.78021</v>
       </c>
       <c r="C106" t="n">
-        <v>2.46328</v>
+        <v>2.44404</v>
       </c>
       <c r="D106" t="n">
-        <v>2.40856</v>
+        <v>2.40866</v>
       </c>
     </row>
     <row r="107">
@@ -10842,13 +10842,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>3.82135</v>
+        <v>3.81281</v>
       </c>
       <c r="C107" t="n">
-        <v>2.54685</v>
+        <v>2.43759</v>
       </c>
       <c r="D107" t="n">
-        <v>2.48306</v>
+        <v>2.47638</v>
       </c>
     </row>
     <row r="108">
@@ -10856,13 +10856,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>3.86165</v>
+        <v>3.8602</v>
       </c>
       <c r="C108" t="n">
-        <v>2.5382</v>
+        <v>2.46073</v>
       </c>
       <c r="D108" t="n">
-        <v>2.49794</v>
+        <v>2.50565</v>
       </c>
     </row>
     <row r="109">
@@ -10870,13 +10870,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>3.91731</v>
+        <v>3.92355</v>
       </c>
       <c r="C109" t="n">
-        <v>2.59206</v>
+        <v>2.47754</v>
       </c>
       <c r="D109" t="n">
-        <v>2.5436</v>
+        <v>2.53508</v>
       </c>
     </row>
     <row r="110">
@@ -10884,13 +10884,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>3.96855</v>
+        <v>3.98459</v>
       </c>
       <c r="C110" t="n">
-        <v>2.61495</v>
+        <v>2.50515</v>
       </c>
       <c r="D110" t="n">
-        <v>2.56365</v>
+        <v>2.55743</v>
       </c>
     </row>
     <row r="111">
@@ -10898,13 +10898,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>4.00808</v>
+        <v>3.99886</v>
       </c>
       <c r="C111" t="n">
-        <v>2.62871</v>
+        <v>2.54247</v>
       </c>
       <c r="D111" t="n">
-        <v>2.58652</v>
+        <v>2.58583</v>
       </c>
     </row>
     <row r="112">
@@ -10912,13 +10912,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>4.04643</v>
+        <v>4.05037</v>
       </c>
       <c r="C112" t="n">
-        <v>2.66649</v>
+        <v>2.56269</v>
       </c>
       <c r="D112" t="n">
-        <v>2.62478</v>
+        <v>2.62199</v>
       </c>
     </row>
     <row r="113">
@@ -10926,13 +10926,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>4.11093</v>
+        <v>3.88444</v>
       </c>
       <c r="C113" t="n">
-        <v>2.68332</v>
+        <v>2.57593</v>
       </c>
       <c r="D113" t="n">
-        <v>2.65274</v>
+        <v>2.64667</v>
       </c>
     </row>
     <row r="114">
@@ -10940,13 +10940,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>4.16988</v>
+        <v>4.13339</v>
       </c>
       <c r="C114" t="n">
-        <v>2.70642</v>
+        <v>2.60482</v>
       </c>
       <c r="D114" t="n">
-        <v>2.67181</v>
+        <v>2.66649</v>
       </c>
     </row>
     <row r="115">
@@ -10954,13 +10954,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>4.20112</v>
+        <v>4.1839</v>
       </c>
       <c r="C115" t="n">
-        <v>2.72041</v>
+        <v>2.63552</v>
       </c>
       <c r="D115" t="n">
-        <v>2.69649</v>
+        <v>2.68926</v>
       </c>
     </row>
     <row r="116">
@@ -10968,13 +10968,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>4.25204</v>
+        <v>4.2242</v>
       </c>
       <c r="C116" t="n">
-        <v>2.75849</v>
+        <v>2.64169</v>
       </c>
       <c r="D116" t="n">
-        <v>2.71883</v>
+        <v>2.71489</v>
       </c>
     </row>
     <row r="117">
@@ -10982,13 +10982,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>4.30372</v>
+        <v>4.29411</v>
       </c>
       <c r="C117" t="n">
-        <v>2.78479</v>
+        <v>2.67438</v>
       </c>
       <c r="D117" t="n">
-        <v>2.73953</v>
+        <v>2.74154</v>
       </c>
     </row>
     <row r="118">
@@ -10996,13 +10996,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>4.34106</v>
+        <v>4.34572</v>
       </c>
       <c r="C118" t="n">
-        <v>2.80843</v>
+        <v>2.71589</v>
       </c>
       <c r="D118" t="n">
-        <v>2.76352</v>
+        <v>2.76665</v>
       </c>
     </row>
     <row r="119">
@@ -11010,13 +11010,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>4.282</v>
+        <v>4.27883</v>
       </c>
       <c r="C119" t="n">
-        <v>2.82546</v>
+        <v>2.73399</v>
       </c>
       <c r="D119" t="n">
-        <v>2.77604</v>
+        <v>2.77818</v>
       </c>
     </row>
   </sheetData>
@@ -11064,13 +11064,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.537643</v>
+        <v>0.5166500000000001</v>
       </c>
       <c r="C2" t="n">
-        <v>0.457595</v>
+        <v>0.420221</v>
       </c>
       <c r="D2" t="n">
-        <v>0.34784</v>
+        <v>0.332644</v>
       </c>
     </row>
     <row r="3">
@@ -11078,13 +11078,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.548478</v>
+        <v>0.5225959999999999</v>
       </c>
       <c r="C3" t="n">
-        <v>0.465617</v>
+        <v>0.425719</v>
       </c>
       <c r="D3" t="n">
-        <v>0.35277</v>
+        <v>0.334978</v>
       </c>
     </row>
     <row r="4">
@@ -11092,13 +11092,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.551682</v>
+        <v>0.527734</v>
       </c>
       <c r="C4" t="n">
-        <v>0.47309</v>
+        <v>0.433436</v>
       </c>
       <c r="D4" t="n">
-        <v>0.354574</v>
+        <v>0.338405</v>
       </c>
     </row>
     <row r="5">
@@ -11106,13 +11106,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.5617799999999999</v>
+        <v>0.540045</v>
       </c>
       <c r="C5" t="n">
-        <v>0.474875</v>
+        <v>0.439906</v>
       </c>
       <c r="D5" t="n">
-        <v>0.357502</v>
+        <v>0.343332</v>
       </c>
     </row>
     <row r="6">
@@ -11120,13 +11120,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.570563</v>
+        <v>0.549341</v>
       </c>
       <c r="C6" t="n">
-        <v>0.478084</v>
+        <v>0.447848</v>
       </c>
       <c r="D6" t="n">
-        <v>0.360069</v>
+        <v>0.345406</v>
       </c>
     </row>
     <row r="7">
@@ -11134,13 +11134,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.581559</v>
+        <v>0.560999</v>
       </c>
       <c r="C7" t="n">
-        <v>0.490261</v>
+        <v>0.456133</v>
       </c>
       <c r="D7" t="n">
-        <v>0.368348</v>
+        <v>0.353153</v>
       </c>
     </row>
     <row r="8">
@@ -11148,13 +11148,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.590242</v>
+        <v>0.568146</v>
       </c>
       <c r="C8" t="n">
-        <v>0.492771</v>
+        <v>0.463764</v>
       </c>
       <c r="D8" t="n">
-        <v>0.370385</v>
+        <v>0.356096</v>
       </c>
     </row>
     <row r="9">
@@ -11162,13 +11162,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.59935</v>
+        <v>0.578371</v>
       </c>
       <c r="C9" t="n">
-        <v>0.503342</v>
+        <v>0.47127</v>
       </c>
       <c r="D9" t="n">
-        <v>0.374367</v>
+        <v>0.360822</v>
       </c>
     </row>
     <row r="10">
@@ -11176,13 +11176,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.611553</v>
+        <v>0.592735</v>
       </c>
       <c r="C10" t="n">
-        <v>0.513107</v>
+        <v>0.481987</v>
       </c>
       <c r="D10" t="n">
-        <v>0.377444</v>
+        <v>0.365866</v>
       </c>
     </row>
     <row r="11">
@@ -11190,13 +11190,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.620663</v>
+        <v>0.605248</v>
       </c>
       <c r="C11" t="n">
-        <v>0.505928</v>
+        <v>0.472758</v>
       </c>
       <c r="D11" t="n">
-        <v>0.383407</v>
+        <v>0.377158</v>
       </c>
     </row>
     <row r="12">
@@ -11204,13 +11204,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.601459</v>
+        <v>0.596596</v>
       </c>
       <c r="C12" t="n">
-        <v>0.507997</v>
+        <v>0.480628</v>
       </c>
       <c r="D12" t="n">
-        <v>0.389696</v>
+        <v>0.382473</v>
       </c>
     </row>
     <row r="13">
@@ -11218,13 +11218,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.611495</v>
+        <v>0.606815</v>
       </c>
       <c r="C13" t="n">
-        <v>0.512642</v>
+        <v>0.487957</v>
       </c>
       <c r="D13" t="n">
-        <v>0.391498</v>
+        <v>0.387539</v>
       </c>
     </row>
     <row r="14">
@@ -11232,13 +11232,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.622126</v>
+        <v>0.620503</v>
       </c>
       <c r="C14" t="n">
-        <v>0.522777</v>
+        <v>0.495322</v>
       </c>
       <c r="D14" t="n">
-        <v>0.397216</v>
+        <v>0.395787</v>
       </c>
     </row>
     <row r="15">
@@ -11246,13 +11246,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.635783</v>
+        <v>0.635436</v>
       </c>
       <c r="C15" t="n">
-        <v>0.527774</v>
+        <v>0.502598</v>
       </c>
       <c r="D15" t="n">
-        <v>0.403097</v>
+        <v>0.401715</v>
       </c>
     </row>
     <row r="16">
@@ -11260,13 +11260,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.64706</v>
+        <v>0.646858</v>
       </c>
       <c r="C16" t="n">
-        <v>0.534012</v>
+        <v>0.5133799999999999</v>
       </c>
       <c r="D16" t="n">
-        <v>0.408245</v>
+        <v>0.408603</v>
       </c>
     </row>
     <row r="17">
@@ -11274,13 +11274,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.658049</v>
+        <v>0.6570589999999999</v>
       </c>
       <c r="C17" t="n">
-        <v>0.542591</v>
+        <v>0.522115</v>
       </c>
       <c r="D17" t="n">
-        <v>0.413676</v>
+        <v>0.413792</v>
       </c>
     </row>
     <row r="18">
@@ -11288,13 +11288,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.673323</v>
+        <v>0.661751</v>
       </c>
       <c r="C18" t="n">
-        <v>0.543781</v>
+        <v>0.525729</v>
       </c>
       <c r="D18" t="n">
-        <v>0.421094</v>
+        <v>0.421053</v>
       </c>
     </row>
     <row r="19">
@@ -11302,13 +11302,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.687346</v>
+        <v>0.685008</v>
       </c>
       <c r="C19" t="n">
-        <v>0.563237</v>
+        <v>0.537225</v>
       </c>
       <c r="D19" t="n">
-        <v>0.42553</v>
+        <v>0.423741</v>
       </c>
     </row>
     <row r="20">
@@ -11316,13 +11316,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.7007409999999999</v>
+        <v>0.700918</v>
       </c>
       <c r="C20" t="n">
-        <v>0.565728</v>
+        <v>0.5429659999999999</v>
       </c>
       <c r="D20" t="n">
-        <v>0.431728</v>
+        <v>0.430993</v>
       </c>
     </row>
     <row r="21">
@@ -11330,13 +11330,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.712979</v>
+        <v>0.71004</v>
       </c>
       <c r="C21" t="n">
-        <v>0.5807909999999999</v>
+        <v>0.558467</v>
       </c>
       <c r="D21" t="n">
-        <v>0.437745</v>
+        <v>0.435521</v>
       </c>
     </row>
     <row r="22">
@@ -11344,13 +11344,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.721591</v>
+        <v>0.721569</v>
       </c>
       <c r="C22" t="n">
-        <v>0.586493</v>
+        <v>0.567993</v>
       </c>
       <c r="D22" t="n">
-        <v>0.442989</v>
+        <v>0.441935</v>
       </c>
     </row>
     <row r="23">
@@ -11358,13 +11358,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.743297</v>
+        <v>0.74054</v>
       </c>
       <c r="C23" t="n">
-        <v>0.5991880000000001</v>
+        <v>0.584094</v>
       </c>
       <c r="D23" t="n">
-        <v>0.447777</v>
+        <v>0.446373</v>
       </c>
     </row>
     <row r="24">
@@ -11372,13 +11372,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.756054</v>
+        <v>0.7556349999999999</v>
       </c>
       <c r="C24" t="n">
-        <v>0.603963</v>
+        <v>0.587121</v>
       </c>
       <c r="D24" t="n">
-        <v>0.453331</v>
+        <v>0.451691</v>
       </c>
     </row>
     <row r="25">
@@ -11386,13 +11386,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.775227</v>
+        <v>0.773735</v>
       </c>
       <c r="C25" t="n">
-        <v>0.621868</v>
+        <v>0.605027</v>
       </c>
       <c r="D25" t="n">
-        <v>0.458872</v>
+        <v>0.458657</v>
       </c>
     </row>
     <row r="26">
@@ -11400,13 +11400,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.793015</v>
+        <v>0.794075</v>
       </c>
       <c r="C26" t="n">
-        <v>0.5741540000000001</v>
+        <v>0.5534829999999999</v>
       </c>
       <c r="D26" t="n">
-        <v>0.465944</v>
+        <v>0.465053</v>
       </c>
     </row>
     <row r="27">
@@ -11414,13 +11414,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.7490520000000001</v>
+        <v>0.7485810000000001</v>
       </c>
       <c r="C27" t="n">
-        <v>0.576037</v>
+        <v>0.560628</v>
       </c>
       <c r="D27" t="n">
-        <v>0.468868</v>
+        <v>0.468242</v>
       </c>
     </row>
     <row r="28">
@@ -11428,13 +11428,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.759334</v>
+        <v>0.760251</v>
       </c>
       <c r="C28" t="n">
-        <v>0.5838100000000001</v>
+        <v>0.570371</v>
       </c>
       <c r="D28" t="n">
-        <v>0.475625</v>
+        <v>0.474387</v>
       </c>
     </row>
     <row r="29">
@@ -11442,13 +11442,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.768306</v>
+        <v>0.772725</v>
       </c>
       <c r="C29" t="n">
-        <v>0.588332</v>
+        <v>0.571103</v>
       </c>
       <c r="D29" t="n">
-        <v>0.479692</v>
+        <v>0.477396</v>
       </c>
     </row>
     <row r="30">
@@ -11456,13 +11456,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.780378</v>
+        <v>0.7793330000000001</v>
       </c>
       <c r="C30" t="n">
-        <v>0.596044</v>
+        <v>0.578485</v>
       </c>
       <c r="D30" t="n">
-        <v>0.484032</v>
+        <v>0.483208</v>
       </c>
     </row>
     <row r="31">
@@ -11470,13 +11470,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.793262</v>
+        <v>0.792535</v>
       </c>
       <c r="C31" t="n">
-        <v>0.603319</v>
+        <v>0.588575</v>
       </c>
       <c r="D31" t="n">
-        <v>0.487487</v>
+        <v>0.486589</v>
       </c>
     </row>
     <row r="32">
@@ -11484,13 +11484,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.807948</v>
+        <v>0.805994</v>
       </c>
       <c r="C32" t="n">
-        <v>0.609392</v>
+        <v>0.591843</v>
       </c>
       <c r="D32" t="n">
-        <v>0.489324</v>
+        <v>0.48825</v>
       </c>
     </row>
     <row r="33">
@@ -11498,13 +11498,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.819258</v>
+        <v>0.8188260000000001</v>
       </c>
       <c r="C33" t="n">
-        <v>0.617583</v>
+        <v>0.602038</v>
       </c>
       <c r="D33" t="n">
-        <v>0.493028</v>
+        <v>0.491999</v>
       </c>
     </row>
     <row r="34">
@@ -11512,13 +11512,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.831247</v>
+        <v>0.8303970000000001</v>
       </c>
       <c r="C34" t="n">
-        <v>0.628067</v>
+        <v>0.613694</v>
       </c>
       <c r="D34" t="n">
-        <v>0.49717</v>
+        <v>0.495795</v>
       </c>
     </row>
     <row r="35">
@@ -11526,13 +11526,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.8455589999999999</v>
+        <v>0.8408330000000001</v>
       </c>
       <c r="C35" t="n">
-        <v>0.636922</v>
+        <v>0.623363</v>
       </c>
       <c r="D35" t="n">
-        <v>0.501906</v>
+        <v>0.501927</v>
       </c>
     </row>
     <row r="36">
@@ -11540,13 +11540,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.857403</v>
+        <v>0.855981</v>
       </c>
       <c r="C36" t="n">
-        <v>0.646138</v>
+        <v>0.633922</v>
       </c>
       <c r="D36" t="n">
-        <v>0.504466</v>
+        <v>0.504284</v>
       </c>
     </row>
     <row r="37">
@@ -11554,13 +11554,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.864878</v>
+        <v>0.863062</v>
       </c>
       <c r="C37" t="n">
-        <v>0.656351</v>
+        <v>0.644778</v>
       </c>
       <c r="D37" t="n">
-        <v>0.507257</v>
+        <v>0.506424</v>
       </c>
     </row>
     <row r="38">
@@ -11568,13 +11568,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.878519</v>
+        <v>0.876153</v>
       </c>
       <c r="C38" t="n">
-        <v>0.667414</v>
+        <v>0.654819</v>
       </c>
       <c r="D38" t="n">
-        <v>0.511096</v>
+        <v>0.511323</v>
       </c>
     </row>
     <row r="39">
@@ -11582,13 +11582,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.896575</v>
+        <v>0.89572</v>
       </c>
       <c r="C39" t="n">
-        <v>0.67664</v>
+        <v>0.664286</v>
       </c>
       <c r="D39" t="n">
-        <v>0.512666</v>
+        <v>0.51303</v>
       </c>
     </row>
     <row r="40">
@@ -11596,13 +11596,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.902874</v>
+        <v>0.902186</v>
       </c>
       <c r="C40" t="n">
-        <v>0.637145</v>
+        <v>0.615507</v>
       </c>
       <c r="D40" t="n">
-        <v>0.517768</v>
+        <v>0.518083</v>
       </c>
     </row>
     <row r="41">
@@ -11610,13 +11610,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.858336</v>
+        <v>0.855358</v>
       </c>
       <c r="C41" t="n">
-        <v>0.6426230000000001</v>
+        <v>0.622613</v>
       </c>
       <c r="D41" t="n">
-        <v>0.520219</v>
+        <v>0.520035</v>
       </c>
     </row>
     <row r="42">
@@ -11624,13 +11624,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.866166</v>
+        <v>0.8634309999999999</v>
       </c>
       <c r="C42" t="n">
-        <v>0.649362</v>
+        <v>0.634747</v>
       </c>
       <c r="D42" t="n">
-        <v>0.523058</v>
+        <v>0.523921</v>
       </c>
     </row>
     <row r="43">
@@ -11638,13 +11638,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.872383</v>
+        <v>0.870576</v>
       </c>
       <c r="C43" t="n">
-        <v>0.653089</v>
+        <v>0.6379050000000001</v>
       </c>
       <c r="D43" t="n">
-        <v>0.52616</v>
+        <v>0.52627</v>
       </c>
     </row>
     <row r="44">
@@ -11652,13 +11652,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.878399</v>
+        <v>0.877365</v>
       </c>
       <c r="C44" t="n">
-        <v>0.66632</v>
+        <v>0.648566</v>
       </c>
       <c r="D44" t="n">
-        <v>0.5282559999999999</v>
+        <v>0.529097</v>
       </c>
     </row>
     <row r="45">
@@ -11666,13 +11666,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.893128</v>
+        <v>0.890805</v>
       </c>
       <c r="C45" t="n">
-        <v>0.668681</v>
+        <v>0.651743</v>
       </c>
       <c r="D45" t="n">
-        <v>0.5293679999999999</v>
+        <v>0.529636</v>
       </c>
     </row>
     <row r="46">
@@ -11680,13 +11680,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.900356</v>
+        <v>0.897969</v>
       </c>
       <c r="C46" t="n">
-        <v>0.678849</v>
+        <v>0.662649</v>
       </c>
       <c r="D46" t="n">
-        <v>0.533573</v>
+        <v>0.532536</v>
       </c>
     </row>
     <row r="47">
@@ -11694,13 +11694,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.9110279999999999</v>
+        <v>0.908739</v>
       </c>
       <c r="C47" t="n">
-        <v>0.686073</v>
+        <v>0.670019</v>
       </c>
       <c r="D47" t="n">
-        <v>0.534894</v>
+        <v>0.535361</v>
       </c>
     </row>
     <row r="48">
@@ -11708,13 +11708,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.9206299999999999</v>
+        <v>0.919857</v>
       </c>
       <c r="C48" t="n">
-        <v>0.69229</v>
+        <v>0.67624</v>
       </c>
       <c r="D48" t="n">
-        <v>0.536559</v>
+        <v>0.536098</v>
       </c>
     </row>
     <row r="49">
@@ -11722,13 +11722,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.928665</v>
+        <v>0.927679</v>
       </c>
       <c r="C49" t="n">
-        <v>0.701982</v>
+        <v>0.6874479999999999</v>
       </c>
       <c r="D49" t="n">
-        <v>0.54036</v>
+        <v>0.540408</v>
       </c>
     </row>
     <row r="50">
@@ -11736,13 +11736,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.942846</v>
+        <v>0.941272</v>
       </c>
       <c r="C50" t="n">
-        <v>0.709081</v>
+        <v>0.692756</v>
       </c>
       <c r="D50" t="n">
-        <v>0.542165</v>
+        <v>0.542146</v>
       </c>
     </row>
     <row r="51">
@@ -11750,13 +11750,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.952126</v>
+        <v>0.9506790000000001</v>
       </c>
       <c r="C51" t="n">
-        <v>0.718432</v>
+        <v>0.70377</v>
       </c>
       <c r="D51" t="n">
-        <v>0.543737</v>
+        <v>0.544136</v>
       </c>
     </row>
     <row r="52">
@@ -11764,13 +11764,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.964548</v>
+        <v>0.963077</v>
       </c>
       <c r="C52" t="n">
-        <v>0.730338</v>
+        <v>0.71648</v>
       </c>
       <c r="D52" t="n">
-        <v>0.545229</v>
+        <v>0.544983</v>
       </c>
     </row>
     <row r="53">
@@ -11778,13 +11778,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.973647</v>
+        <v>0.972837</v>
       </c>
       <c r="C53" t="n">
-        <v>0.73882</v>
+        <v>0.727164</v>
       </c>
       <c r="D53" t="n">
-        <v>0.547741</v>
+        <v>0.547948</v>
       </c>
     </row>
     <row r="54">
@@ -11792,13 +11792,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.985236</v>
+        <v>0.984772</v>
       </c>
       <c r="C54" t="n">
-        <v>0.6789770000000001</v>
+        <v>0.659924</v>
       </c>
       <c r="D54" t="n">
-        <v>0.548266</v>
+        <v>0.547839</v>
       </c>
     </row>
     <row r="55">
@@ -11806,13 +11806,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>1.00065</v>
+        <v>0.997795</v>
       </c>
       <c r="C55" t="n">
-        <v>0.68679</v>
+        <v>0.6662979999999999</v>
       </c>
       <c r="D55" t="n">
-        <v>0.548623</v>
+        <v>0.548886</v>
       </c>
     </row>
     <row r="56">
@@ -11820,13 +11820,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.917357</v>
+        <v>0.915146</v>
       </c>
       <c r="C56" t="n">
-        <v>0.6928339999999999</v>
+        <v>0.676362</v>
       </c>
       <c r="D56" t="n">
-        <v>0.550053</v>
+        <v>0.550343</v>
       </c>
     </row>
     <row r="57">
@@ -11834,13 +11834,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.925637</v>
+        <v>0.92076</v>
       </c>
       <c r="C57" t="n">
-        <v>0.700327</v>
+        <v>0.6829190000000001</v>
       </c>
       <c r="D57" t="n">
-        <v>0.5521740000000001</v>
+        <v>0.552482</v>
       </c>
     </row>
     <row r="58">
@@ -11848,13 +11848,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.933983</v>
+        <v>0.931207</v>
       </c>
       <c r="C58" t="n">
-        <v>0.705941</v>
+        <v>0.689849</v>
       </c>
       <c r="D58" t="n">
-        <v>0.553474</v>
+        <v>0.554373</v>
       </c>
     </row>
     <row r="59">
@@ -11862,13 +11862,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.941536</v>
+        <v>0.939591</v>
       </c>
       <c r="C59" t="n">
-        <v>0.71252</v>
+        <v>0.700372</v>
       </c>
       <c r="D59" t="n">
-        <v>0.5553709999999999</v>
+        <v>0.555943</v>
       </c>
     </row>
     <row r="60">
@@ -11876,13 +11876,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.94775</v>
+        <v>0.944485</v>
       </c>
       <c r="C60" t="n">
-        <v>0.725288</v>
+        <v>0.709974</v>
       </c>
       <c r="D60" t="n">
-        <v>0.556705</v>
+        <v>0.558195</v>
       </c>
     </row>
     <row r="61">
@@ -11890,13 +11890,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.955415</v>
+        <v>0.952661</v>
       </c>
       <c r="C61" t="n">
-        <v>0.732397</v>
+        <v>0.719286</v>
       </c>
       <c r="D61" t="n">
-        <v>0.560185</v>
+        <v>0.560975</v>
       </c>
     </row>
     <row r="62">
@@ -11904,13 +11904,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.9612270000000001</v>
+        <v>0.960453</v>
       </c>
       <c r="C62" t="n">
-        <v>0.742723</v>
+        <v>0.7279949999999999</v>
       </c>
       <c r="D62" t="n">
-        <v>0.559377</v>
+        <v>0.560426</v>
       </c>
     </row>
     <row r="63">
@@ -11918,13 +11918,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.975399</v>
+        <v>0.974048</v>
       </c>
       <c r="C63" t="n">
-        <v>0.754761</v>
+        <v>0.739131</v>
       </c>
       <c r="D63" t="n">
-        <v>0.562601</v>
+        <v>0.564056</v>
       </c>
     </row>
     <row r="64">
@@ -11932,13 +11932,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.98214</v>
+        <v>0.98271</v>
       </c>
       <c r="C64" t="n">
-        <v>0.767588</v>
+        <v>0.753628</v>
       </c>
       <c r="D64" t="n">
-        <v>0.562067</v>
+        <v>0.564308</v>
       </c>
     </row>
     <row r="65">
@@ -11946,13 +11946,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.995093</v>
+        <v>0.997212</v>
       </c>
       <c r="C65" t="n">
-        <v>0.783392</v>
+        <v>0.769245</v>
       </c>
       <c r="D65" t="n">
-        <v>0.565357</v>
+        <v>0.567524</v>
       </c>
     </row>
     <row r="66">
@@ -11960,13 +11960,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>1.0097</v>
+        <v>1.01187</v>
       </c>
       <c r="C66" t="n">
-        <v>0.795445</v>
+        <v>0.783617</v>
       </c>
       <c r="D66" t="n">
-        <v>0.565994</v>
+        <v>0.570543</v>
       </c>
     </row>
     <row r="67">
@@ -11974,13 +11974,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>1.0209</v>
+        <v>1.02504</v>
       </c>
       <c r="C67" t="n">
-        <v>0.815204</v>
+        <v>0.802248</v>
       </c>
       <c r="D67" t="n">
-        <v>0.569855</v>
+        <v>0.574451</v>
       </c>
     </row>
     <row r="68">
@@ -11988,13 +11988,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>1.03547</v>
+        <v>1.03716</v>
       </c>
       <c r="C68" t="n">
-        <v>0.7585190000000001</v>
+        <v>0.743777</v>
       </c>
       <c r="D68" t="n">
-        <v>0.586661</v>
+        <v>0.592635</v>
       </c>
     </row>
     <row r="69">
@@ -12002,13 +12002,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>1.06867</v>
+        <v>1.07799</v>
       </c>
       <c r="C69" t="n">
-        <v>0.781794</v>
+        <v>0.767257</v>
       </c>
       <c r="D69" t="n">
-        <v>0.596186</v>
+        <v>0.604098</v>
       </c>
     </row>
     <row r="70">
@@ -12016,13 +12016,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>1.01301</v>
+        <v>1.01727</v>
       </c>
       <c r="C70" t="n">
-        <v>0.812708</v>
+        <v>0.7973710000000001</v>
       </c>
       <c r="D70" t="n">
-        <v>0.612413</v>
+        <v>0.621191</v>
       </c>
     </row>
     <row r="71">
@@ -12030,13 +12030,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>1.04235</v>
+        <v>1.05098</v>
       </c>
       <c r="C71" t="n">
-        <v>0.84122</v>
+        <v>0.827783</v>
       </c>
       <c r="D71" t="n">
-        <v>0.628953</v>
+        <v>0.633969</v>
       </c>
     </row>
     <row r="72">
@@ -12044,13 +12044,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>1.07366</v>
+        <v>1.08372</v>
       </c>
       <c r="C72" t="n">
-        <v>0.872167</v>
+        <v>0.862467</v>
       </c>
       <c r="D72" t="n">
-        <v>0.642669</v>
+        <v>0.653196</v>
       </c>
     </row>
     <row r="73">
@@ -12058,13 +12058,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>1.11104</v>
+        <v>1.11683</v>
       </c>
       <c r="C73" t="n">
-        <v>0.91168</v>
+        <v>0.8993</v>
       </c>
       <c r="D73" t="n">
-        <v>0.662942</v>
+        <v>0.670732</v>
       </c>
     </row>
     <row r="74">
@@ -12072,13 +12072,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>1.14642</v>
+        <v>1.15558</v>
       </c>
       <c r="C74" t="n">
-        <v>0.9489649999999999</v>
+        <v>0.935252</v>
       </c>
       <c r="D74" t="n">
-        <v>0.681797</v>
+        <v>0.690086</v>
       </c>
     </row>
     <row r="75">
@@ -12086,13 +12086,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>1.1886</v>
+        <v>1.19706</v>
       </c>
       <c r="C75" t="n">
-        <v>0.993487</v>
+        <v>0.977826</v>
       </c>
       <c r="D75" t="n">
-        <v>0.703308</v>
+        <v>0.712872</v>
       </c>
     </row>
     <row r="76">
@@ -12100,13 +12100,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>1.2343</v>
+        <v>1.2438</v>
       </c>
       <c r="C76" t="n">
-        <v>1.03883</v>
+        <v>1.02239</v>
       </c>
       <c r="D76" t="n">
-        <v>0.727754</v>
+        <v>0.738305</v>
       </c>
     </row>
     <row r="77">
@@ -12114,13 +12114,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>1.28556</v>
+        <v>1.29708</v>
       </c>
       <c r="C77" t="n">
-        <v>1.08452</v>
+        <v>1.07305</v>
       </c>
       <c r="D77" t="n">
-        <v>0.7574650000000001</v>
+        <v>0.769241</v>
       </c>
     </row>
     <row r="78">
@@ -12128,13 +12128,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>1.34673</v>
+        <v>1.36415</v>
       </c>
       <c r="C78" t="n">
-        <v>1.13844</v>
+        <v>1.12067</v>
       </c>
       <c r="D78" t="n">
-        <v>0.792471</v>
+        <v>0.801926</v>
       </c>
     </row>
     <row r="79">
@@ -12142,13 +12142,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>1.41106</v>
+        <v>1.42253</v>
       </c>
       <c r="C79" t="n">
-        <v>1.18853</v>
+        <v>1.16847</v>
       </c>
       <c r="D79" t="n">
-        <v>0.82439</v>
+        <v>0.8364</v>
       </c>
     </row>
     <row r="80">
@@ -12156,13 +12156,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>1.48755</v>
+        <v>1.5022</v>
       </c>
       <c r="C80" t="n">
-        <v>1.24554</v>
+        <v>1.22696</v>
       </c>
       <c r="D80" t="n">
-        <v>0.866178</v>
+        <v>0.874178</v>
       </c>
     </row>
     <row r="81">
@@ -12170,13 +12170,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>1.56904</v>
+        <v>1.58709</v>
       </c>
       <c r="C81" t="n">
-        <v>1.30504</v>
+        <v>1.29184</v>
       </c>
       <c r="D81" t="n">
-        <v>0.906909</v>
+        <v>0.919449</v>
       </c>
     </row>
     <row r="82">
@@ -12184,13 +12184,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>1.64842</v>
+        <v>1.68278</v>
       </c>
       <c r="C82" t="n">
-        <v>1.3639</v>
+        <v>1.3554</v>
       </c>
       <c r="D82" t="n">
-        <v>0.950197</v>
+        <v>0.966894</v>
       </c>
     </row>
     <row r="83">
@@ -12198,13 +12198,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>1.7531</v>
+        <v>1.78411</v>
       </c>
       <c r="C83" t="n">
-        <v>1.35922</v>
+        <v>1.35062</v>
       </c>
       <c r="D83" t="n">
-        <v>1.06527</v>
+        <v>1.08274</v>
       </c>
     </row>
     <row r="84">
@@ -12212,13 +12212,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>1.86506</v>
+        <v>1.88943</v>
       </c>
       <c r="C84" t="n">
-        <v>1.4186</v>
+        <v>1.41355</v>
       </c>
       <c r="D84" t="n">
-        <v>1.12479</v>
+        <v>1.13854</v>
       </c>
     </row>
     <row r="85">
@@ -12226,13 +12226,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>1.90116</v>
+        <v>1.91328</v>
       </c>
       <c r="C85" t="n">
-        <v>1.47415</v>
+        <v>1.47316</v>
       </c>
       <c r="D85" t="n">
-        <v>1.18199</v>
+        <v>1.19874</v>
       </c>
     </row>
     <row r="86">
@@ -12240,13 +12240,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>2.0039</v>
+        <v>2.02091</v>
       </c>
       <c r="C86" t="n">
-        <v>1.54028</v>
+        <v>1.54236</v>
       </c>
       <c r="D86" t="n">
-        <v>1.23893</v>
+        <v>1.25186</v>
       </c>
     </row>
     <row r="87">
@@ -12254,13 +12254,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>2.10879</v>
+        <v>2.12632</v>
       </c>
       <c r="C87" t="n">
-        <v>1.603</v>
+        <v>1.60925</v>
       </c>
       <c r="D87" t="n">
-        <v>1.30036</v>
+        <v>1.30946</v>
       </c>
     </row>
     <row r="88">
@@ -12268,13 +12268,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>2.21848</v>
+        <v>2.24029</v>
       </c>
       <c r="C88" t="n">
-        <v>1.67848</v>
+        <v>1.68566</v>
       </c>
       <c r="D88" t="n">
-        <v>1.35642</v>
+        <v>1.36977</v>
       </c>
     </row>
     <row r="89">
@@ -12282,13 +12282,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>2.34101</v>
+        <v>2.36247</v>
       </c>
       <c r="C89" t="n">
-        <v>1.74905</v>
+        <v>1.76119</v>
       </c>
       <c r="D89" t="n">
-        <v>1.41004</v>
+        <v>1.42013</v>
       </c>
     </row>
     <row r="90">
@@ -12296,13 +12296,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>2.45239</v>
+        <v>2.48906</v>
       </c>
       <c r="C90" t="n">
-        <v>1.8261</v>
+        <v>1.83505</v>
       </c>
       <c r="D90" t="n">
-        <v>1.47403</v>
+        <v>1.47893</v>
       </c>
     </row>
     <row r="91">
@@ -12310,13 +12310,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>2.5765</v>
+        <v>2.59769</v>
       </c>
       <c r="C91" t="n">
-        <v>1.91176</v>
+        <v>1.92293</v>
       </c>
       <c r="D91" t="n">
-        <v>1.53378</v>
+        <v>1.53282</v>
       </c>
     </row>
     <row r="92">
@@ -12324,13 +12324,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>2.72049</v>
+        <v>2.72523</v>
       </c>
       <c r="C92" t="n">
-        <v>1.99177</v>
+        <v>2.00589</v>
       </c>
       <c r="D92" t="n">
-        <v>1.58825</v>
+        <v>1.5886</v>
       </c>
     </row>
     <row r="93">
@@ -12338,13 +12338,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>2.86592</v>
+        <v>2.86871</v>
       </c>
       <c r="C93" t="n">
-        <v>2.08019</v>
+        <v>2.09207</v>
       </c>
       <c r="D93" t="n">
-        <v>1.64495</v>
+        <v>1.64067</v>
       </c>
     </row>
     <row r="94">
@@ -12352,13 +12352,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>2.99343</v>
+        <v>3.00889</v>
       </c>
       <c r="C94" t="n">
-        <v>2.17102</v>
+        <v>2.18175</v>
       </c>
       <c r="D94" t="n">
-        <v>1.69431</v>
+        <v>1.69391</v>
       </c>
     </row>
     <row r="95">
@@ -12366,13 +12366,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>3.09888</v>
+        <v>3.11444</v>
       </c>
       <c r="C95" t="n">
-        <v>2.25376</v>
+        <v>2.27678</v>
       </c>
       <c r="D95" t="n">
-        <v>1.74285</v>
+        <v>1.73849</v>
       </c>
     </row>
     <row r="96">
@@ -12380,13 +12380,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>3.27937</v>
+        <v>3.27723</v>
       </c>
       <c r="C96" t="n">
-        <v>2.3622</v>
+        <v>2.37691</v>
       </c>
       <c r="D96" t="n">
-        <v>1.79216</v>
+        <v>1.78922</v>
       </c>
     </row>
     <row r="97">
@@ -12394,13 +12394,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>3.40584</v>
+        <v>3.40855</v>
       </c>
       <c r="C97" t="n">
-        <v>2.15613</v>
+        <v>2.18761</v>
       </c>
       <c r="D97" t="n">
-        <v>1.934</v>
+        <v>1.92931</v>
       </c>
     </row>
     <row r="98">
@@ -12408,13 +12408,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>3.5399</v>
+        <v>3.55272</v>
       </c>
       <c r="C98" t="n">
-        <v>2.22588</v>
+        <v>2.24704</v>
       </c>
       <c r="D98" t="n">
-        <v>1.99237</v>
+        <v>1.97384</v>
       </c>
     </row>
     <row r="99">
@@ -12422,13 +12422,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>3.40185</v>
+        <v>3.43568</v>
       </c>
       <c r="C99" t="n">
-        <v>2.28092</v>
+        <v>2.29764</v>
       </c>
       <c r="D99" t="n">
-        <v>2.02267</v>
+        <v>2.01745</v>
       </c>
     </row>
     <row r="100">
@@ -12436,13 +12436,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>3.51947</v>
+        <v>3.56481</v>
       </c>
       <c r="C100" t="n">
-        <v>2.34122</v>
+        <v>2.35567</v>
       </c>
       <c r="D100" t="n">
-        <v>2.07487</v>
+        <v>2.06534</v>
       </c>
     </row>
     <row r="101">
@@ -12450,13 +12450,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>3.62156</v>
+        <v>3.65813</v>
       </c>
       <c r="C101" t="n">
-        <v>2.40829</v>
+        <v>2.42953</v>
       </c>
       <c r="D101" t="n">
-        <v>2.10268</v>
+        <v>2.10991</v>
       </c>
     </row>
     <row r="102">
@@ -12464,13 +12464,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>3.73609</v>
+        <v>3.73811</v>
       </c>
       <c r="C102" t="n">
-        <v>2.47916</v>
+        <v>2.50199</v>
       </c>
       <c r="D102" t="n">
-        <v>2.13809</v>
+        <v>2.14831</v>
       </c>
     </row>
     <row r="103">
@@ -12478,13 +12478,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>3.83483</v>
+        <v>3.86032</v>
       </c>
       <c r="C103" t="n">
-        <v>2.55152</v>
+        <v>2.57311</v>
       </c>
       <c r="D103" t="n">
-        <v>2.18874</v>
+        <v>2.18282</v>
       </c>
     </row>
     <row r="104">
@@ -12492,13 +12492,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>3.95085</v>
+        <v>3.95966</v>
       </c>
       <c r="C104" t="n">
-        <v>2.61505</v>
+        <v>2.65352</v>
       </c>
       <c r="D104" t="n">
-        <v>2.20521</v>
+        <v>2.22021</v>
       </c>
     </row>
     <row r="105">
@@ -12506,13 +12506,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>4.02807</v>
+        <v>4.04743</v>
       </c>
       <c r="C105" t="n">
-        <v>2.68262</v>
+        <v>2.7193</v>
       </c>
       <c r="D105" t="n">
-        <v>2.2371</v>
+        <v>2.23793</v>
       </c>
     </row>
     <row r="106">
@@ -12520,13 +12520,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>4.12756</v>
+        <v>4.14715</v>
       </c>
       <c r="C106" t="n">
-        <v>2.76256</v>
+        <v>2.78626</v>
       </c>
       <c r="D106" t="n">
-        <v>2.27421</v>
+        <v>2.28636</v>
       </c>
     </row>
     <row r="107">
@@ -12534,13 +12534,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>4.21475</v>
+        <v>4.26991</v>
       </c>
       <c r="C107" t="n">
-        <v>2.84112</v>
+        <v>2.87844</v>
       </c>
       <c r="D107" t="n">
-        <v>2.30275</v>
+        <v>2.3021</v>
       </c>
     </row>
     <row r="108">
@@ -12548,13 +12548,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>4.36018</v>
+        <v>4.36752</v>
       </c>
       <c r="C108" t="n">
-        <v>2.91056</v>
+        <v>2.95902</v>
       </c>
       <c r="D108" t="n">
-        <v>2.33561</v>
+        <v>2.34573</v>
       </c>
     </row>
     <row r="109">
@@ -12562,13 +12562,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>4.47241</v>
+        <v>4.45291</v>
       </c>
       <c r="C109" t="n">
-        <v>3.00265</v>
+        <v>3.04354</v>
       </c>
       <c r="D109" t="n">
-        <v>2.3636</v>
+        <v>2.36268</v>
       </c>
     </row>
     <row r="110">
@@ -12576,13 +12576,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>4.51213</v>
+        <v>4.58675</v>
       </c>
       <c r="C110" t="n">
-        <v>3.0888</v>
+        <v>3.12182</v>
       </c>
       <c r="D110" t="n">
-        <v>2.39345</v>
+        <v>2.39189</v>
       </c>
     </row>
     <row r="111">
@@ -12590,13 +12590,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>4.68522</v>
+        <v>4.68518</v>
       </c>
       <c r="C111" t="n">
-        <v>2.75735</v>
+        <v>2.78901</v>
       </c>
       <c r="D111" t="n">
-        <v>2.50227</v>
+        <v>2.50289</v>
       </c>
     </row>
     <row r="112">
@@ -12604,13 +12604,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>4.76299</v>
+        <v>4.78096</v>
       </c>
       <c r="C112" t="n">
-        <v>2.82336</v>
+        <v>2.84476</v>
       </c>
       <c r="D112" t="n">
-        <v>2.53759</v>
+        <v>2.53356</v>
       </c>
     </row>
     <row r="113">
@@ -12618,13 +12618,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>4.89314</v>
+        <v>4.89828</v>
       </c>
       <c r="C113" t="n">
-        <v>2.88022</v>
+        <v>2.913</v>
       </c>
       <c r="D113" t="n">
-        <v>2.57343</v>
+        <v>2.56558</v>
       </c>
     </row>
     <row r="114">
@@ -12632,13 +12632,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>4.50187</v>
+        <v>4.51301</v>
       </c>
       <c r="C114" t="n">
-        <v>2.94227</v>
+        <v>2.96142</v>
       </c>
       <c r="D114" t="n">
-        <v>2.58215</v>
+        <v>2.58466</v>
       </c>
     </row>
     <row r="115">
@@ -12646,13 +12646,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>4.59635</v>
+        <v>4.59514</v>
       </c>
       <c r="C115" t="n">
-        <v>2.99325</v>
+        <v>3.0199</v>
       </c>
       <c r="D115" t="n">
-        <v>2.60434</v>
+        <v>2.60519</v>
       </c>
     </row>
     <row r="116">
@@ -12660,13 +12660,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>4.70699</v>
+        <v>4.68901</v>
       </c>
       <c r="C116" t="n">
-        <v>3.06147</v>
+        <v>3.08991</v>
       </c>
       <c r="D116" t="n">
-        <v>2.63257</v>
+        <v>2.6315</v>
       </c>
     </row>
     <row r="117">
@@ -12674,13 +12674,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>4.73778</v>
+        <v>4.76293</v>
       </c>
       <c r="C117" t="n">
-        <v>3.12682</v>
+        <v>3.14294</v>
       </c>
       <c r="D117" t="n">
-        <v>2.65682</v>
+        <v>2.65438</v>
       </c>
     </row>
     <row r="118">
@@ -12688,13 +12688,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>4.78105</v>
+        <v>4.83404</v>
       </c>
       <c r="C118" t="n">
-        <v>3.1997</v>
+        <v>3.20928</v>
       </c>
       <c r="D118" t="n">
-        <v>2.67062</v>
+        <v>2.68018</v>
       </c>
     </row>
     <row r="119">
@@ -12702,13 +12702,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>4.94194</v>
+        <v>4.93888</v>
       </c>
       <c r="C119" t="n">
-        <v>3.27584</v>
+        <v>3.28368</v>
       </c>
       <c r="D119" t="n">
-        <v>2.70268</v>
+        <v>2.67922</v>
       </c>
     </row>
   </sheetData>

--- a/gcc/scattered erasure.xlsx
+++ b/gcc/scattered erasure.xlsx
@@ -7680,13 +7680,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.321898</v>
+        <v>0.306136</v>
       </c>
       <c r="C2" t="n">
-        <v>0.266931</v>
+        <v>0.256759</v>
       </c>
       <c r="D2" t="n">
-        <v>0.240104</v>
+        <v>0.218991</v>
       </c>
     </row>
     <row r="3">
@@ -7694,13 +7694,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.303961</v>
+        <v>0.289382</v>
       </c>
       <c r="C3" t="n">
-        <v>0.269916</v>
+        <v>0.259902</v>
       </c>
       <c r="D3" t="n">
-        <v>0.245864</v>
+        <v>0.231664</v>
       </c>
     </row>
     <row r="4">
@@ -7708,13 +7708,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.308211</v>
+        <v>0.292722</v>
       </c>
       <c r="C4" t="n">
-        <v>0.274321</v>
+        <v>0.26506</v>
       </c>
       <c r="D4" t="n">
-        <v>0.245156</v>
+        <v>0.231751</v>
       </c>
     </row>
     <row r="5">
@@ -7722,13 +7722,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.309547</v>
+        <v>0.304695</v>
       </c>
       <c r="C5" t="n">
-        <v>0.279413</v>
+        <v>0.268554</v>
       </c>
       <c r="D5" t="n">
-        <v>0.256972</v>
+        <v>0.247842</v>
       </c>
     </row>
     <row r="6">
@@ -7736,13 +7736,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.31994</v>
+        <v>0.308942</v>
       </c>
       <c r="C6" t="n">
-        <v>0.282169</v>
+        <v>0.27104</v>
       </c>
       <c r="D6" t="n">
-        <v>0.256977</v>
+        <v>0.252543</v>
       </c>
     </row>
     <row r="7">
@@ -7750,13 +7750,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.320942</v>
+        <v>0.315839</v>
       </c>
       <c r="C7" t="n">
-        <v>0.267351</v>
+        <v>0.261417</v>
       </c>
       <c r="D7" t="n">
-        <v>0.268627</v>
+        <v>0.264141</v>
       </c>
     </row>
     <row r="8">
@@ -7764,13 +7764,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.324076</v>
+        <v>0.324527</v>
       </c>
       <c r="C8" t="n">
-        <v>0.269498</v>
+        <v>0.264025</v>
       </c>
       <c r="D8" t="n">
-        <v>0.276001</v>
+        <v>0.269676</v>
       </c>
     </row>
     <row r="9">
@@ -7778,13 +7778,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.333865</v>
+        <v>0.333924</v>
       </c>
       <c r="C9" t="n">
-        <v>0.271907</v>
+        <v>0.266841</v>
       </c>
       <c r="D9" t="n">
-        <v>0.285339</v>
+        <v>0.280523</v>
       </c>
     </row>
     <row r="10">
@@ -7792,13 +7792,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.341877</v>
+        <v>0.342424</v>
       </c>
       <c r="C10" t="n">
-        <v>0.275023</v>
+        <v>0.268238</v>
       </c>
       <c r="D10" t="n">
-        <v>0.286149</v>
+        <v>0.280818</v>
       </c>
     </row>
     <row r="11">
@@ -7806,13 +7806,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.351895</v>
+        <v>0.346677</v>
       </c>
       <c r="C11" t="n">
-        <v>0.27672</v>
+        <v>0.269655</v>
       </c>
       <c r="D11" t="n">
-        <v>0.293003</v>
+        <v>0.287464</v>
       </c>
     </row>
     <row r="12">
@@ -7820,13 +7820,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.356459</v>
+        <v>0.35405</v>
       </c>
       <c r="C12" t="n">
-        <v>0.279857</v>
+        <v>0.272641</v>
       </c>
       <c r="D12" t="n">
-        <v>0.297628</v>
+        <v>0.295322</v>
       </c>
     </row>
     <row r="13">
@@ -7834,13 +7834,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.361854</v>
+        <v>0.362522</v>
       </c>
       <c r="C13" t="n">
-        <v>0.283101</v>
+        <v>0.275532</v>
       </c>
       <c r="D13" t="n">
-        <v>0.306121</v>
+        <v>0.300751</v>
       </c>
     </row>
     <row r="14">
@@ -7848,13 +7848,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.372122</v>
+        <v>0.368402</v>
       </c>
       <c r="C14" t="n">
-        <v>0.286502</v>
+        <v>0.278744</v>
       </c>
       <c r="D14" t="n">
-        <v>0.309228</v>
+        <v>0.306043</v>
       </c>
     </row>
     <row r="15">
@@ -7862,13 +7862,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.378714</v>
+        <v>0.375991</v>
       </c>
       <c r="C15" t="n">
-        <v>0.290658</v>
+        <v>0.282405</v>
       </c>
       <c r="D15" t="n">
-        <v>0.317946</v>
+        <v>0.31488</v>
       </c>
     </row>
     <row r="16">
@@ -7876,13 +7876,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.387473</v>
+        <v>0.384719</v>
       </c>
       <c r="C16" t="n">
-        <v>0.293553</v>
+        <v>0.285755</v>
       </c>
       <c r="D16" t="n">
-        <v>0.322861</v>
+        <v>0.321923</v>
       </c>
     </row>
     <row r="17">
@@ -7890,13 +7890,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.39479</v>
+        <v>0.396003</v>
       </c>
       <c r="C17" t="n">
-        <v>0.297466</v>
+        <v>0.28924</v>
       </c>
       <c r="D17" t="n">
-        <v>0.329978</v>
+        <v>0.327686</v>
       </c>
     </row>
     <row r="18">
@@ -7904,13 +7904,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.380622</v>
+        <v>0.378535</v>
       </c>
       <c r="C18" t="n">
-        <v>0.301365</v>
+        <v>0.292075</v>
       </c>
       <c r="D18" t="n">
-        <v>0.335555</v>
+        <v>0.331648</v>
       </c>
     </row>
     <row r="19">
@@ -7918,13 +7918,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.38594</v>
+        <v>0.384434</v>
       </c>
       <c r="C19" t="n">
-        <v>0.305741</v>
+        <v>0.295695</v>
       </c>
       <c r="D19" t="n">
-        <v>0.341191</v>
+        <v>0.340351</v>
       </c>
     </row>
     <row r="20">
@@ -7932,13 +7932,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.391385</v>
+        <v>0.390938</v>
       </c>
       <c r="C20" t="n">
-        <v>0.310022</v>
+        <v>0.299733</v>
       </c>
       <c r="D20" t="n">
-        <v>0.3467</v>
+        <v>0.344121</v>
       </c>
     </row>
     <row r="21">
@@ -7946,13 +7946,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.396296</v>
+        <v>0.394306</v>
       </c>
       <c r="C21" t="n">
-        <v>0.285061</v>
+        <v>0.278677</v>
       </c>
       <c r="D21" t="n">
-        <v>0.352979</v>
+        <v>0.352181</v>
       </c>
     </row>
     <row r="22">
@@ -7960,13 +7960,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.401865</v>
+        <v>0.401391</v>
       </c>
       <c r="C22" t="n">
-        <v>0.287839</v>
+        <v>0.281279</v>
       </c>
       <c r="D22" t="n">
-        <v>0.358195</v>
+        <v>0.357308</v>
       </c>
     </row>
     <row r="23">
@@ -7974,13 +7974,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.408722</v>
+        <v>0.406564</v>
       </c>
       <c r="C23" t="n">
-        <v>0.290141</v>
+        <v>0.282503</v>
       </c>
       <c r="D23" t="n">
-        <v>0.36239</v>
+        <v>0.360832</v>
       </c>
     </row>
     <row r="24">
@@ -7988,13 +7988,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.412858</v>
+        <v>0.41271</v>
       </c>
       <c r="C24" t="n">
-        <v>0.29345</v>
+        <v>0.286024</v>
       </c>
       <c r="D24" t="n">
-        <v>0.365932</v>
+        <v>0.365473</v>
       </c>
     </row>
     <row r="25">
@@ -8002,13 +8002,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.418986</v>
+        <v>0.419106</v>
       </c>
       <c r="C25" t="n">
-        <v>0.295831</v>
+        <v>0.287842</v>
       </c>
       <c r="D25" t="n">
-        <v>0.369894</v>
+        <v>0.368853</v>
       </c>
     </row>
     <row r="26">
@@ -8016,13 +8016,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.424825</v>
+        <v>0.425133</v>
       </c>
       <c r="C26" t="n">
-        <v>0.298831</v>
+        <v>0.290239</v>
       </c>
       <c r="D26" t="n">
-        <v>0.373799</v>
+        <v>0.372244</v>
       </c>
     </row>
     <row r="27">
@@ -8030,13 +8030,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.431401</v>
+        <v>0.431426</v>
       </c>
       <c r="C27" t="n">
-        <v>0.302093</v>
+        <v>0.292282</v>
       </c>
       <c r="D27" t="n">
-        <v>0.376619</v>
+        <v>0.375927</v>
       </c>
     </row>
     <row r="28">
@@ -8044,13 +8044,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.43625</v>
+        <v>0.43429</v>
       </c>
       <c r="C28" t="n">
-        <v>0.305359</v>
+        <v>0.295324</v>
       </c>
       <c r="D28" t="n">
-        <v>0.380883</v>
+        <v>0.380355</v>
       </c>
     </row>
     <row r="29">
@@ -8058,13 +8058,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.442803</v>
+        <v>0.442311</v>
       </c>
       <c r="C29" t="n">
-        <v>0.308599</v>
+        <v>0.297897</v>
       </c>
       <c r="D29" t="n">
-        <v>0.385224</v>
+        <v>0.384518</v>
       </c>
     </row>
     <row r="30">
@@ -8072,13 +8072,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.448333</v>
+        <v>0.448514</v>
       </c>
       <c r="C30" t="n">
-        <v>0.31279</v>
+        <v>0.301232</v>
       </c>
       <c r="D30" t="n">
-        <v>0.387838</v>
+        <v>0.386953</v>
       </c>
     </row>
     <row r="31">
@@ -8086,13 +8086,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.454472</v>
+        <v>0.454328</v>
       </c>
       <c r="C31" t="n">
-        <v>0.316511</v>
+        <v>0.304276</v>
       </c>
       <c r="D31" t="n">
-        <v>0.391422</v>
+        <v>0.39106</v>
       </c>
     </row>
     <row r="32">
@@ -8100,13 +8100,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.425634</v>
+        <v>0.425077</v>
       </c>
       <c r="C32" t="n">
-        <v>0.319826</v>
+        <v>0.307638</v>
       </c>
       <c r="D32" t="n">
-        <v>0.394359</v>
+        <v>0.394898</v>
       </c>
     </row>
     <row r="33">
@@ -8114,13 +8114,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.428471</v>
+        <v>0.430319</v>
       </c>
       <c r="C33" t="n">
-        <v>0.323774</v>
+        <v>0.311608</v>
       </c>
       <c r="D33" t="n">
-        <v>0.398779</v>
+        <v>0.39887</v>
       </c>
     </row>
     <row r="34">
@@ -8128,13 +8128,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.433426</v>
+        <v>0.434428</v>
       </c>
       <c r="C34" t="n">
-        <v>0.328103</v>
+        <v>0.31517</v>
       </c>
       <c r="D34" t="n">
-        <v>0.402056</v>
+        <v>0.401717</v>
       </c>
     </row>
     <row r="35">
@@ -8142,13 +8142,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.438275</v>
+        <v>0.438829</v>
       </c>
       <c r="C35" t="n">
-        <v>0.297086</v>
+        <v>0.289629</v>
       </c>
       <c r="D35" t="n">
-        <v>0.401954</v>
+        <v>0.401782</v>
       </c>
     </row>
     <row r="36">
@@ -8156,13 +8156,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.441982</v>
+        <v>0.442204</v>
       </c>
       <c r="C36" t="n">
-        <v>0.299522</v>
+        <v>0.29189</v>
       </c>
       <c r="D36" t="n">
-        <v>0.404617</v>
+        <v>0.40403</v>
       </c>
     </row>
     <row r="37">
@@ -8170,13 +8170,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.445604</v>
+        <v>0.445705</v>
       </c>
       <c r="C37" t="n">
-        <v>0.302161</v>
+        <v>0.293921</v>
       </c>
       <c r="D37" t="n">
-        <v>0.406324</v>
+        <v>0.406025</v>
       </c>
     </row>
     <row r="38">
@@ -8184,13 +8184,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.450312</v>
+        <v>0.450862</v>
       </c>
       <c r="C38" t="n">
-        <v>0.304272</v>
+        <v>0.296127</v>
       </c>
       <c r="D38" t="n">
-        <v>0.408199</v>
+        <v>0.408675</v>
       </c>
     </row>
     <row r="39">
@@ -8198,13 +8198,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.454498</v>
+        <v>0.456788</v>
       </c>
       <c r="C39" t="n">
-        <v>0.307707</v>
+        <v>0.298803</v>
       </c>
       <c r="D39" t="n">
-        <v>0.410167</v>
+        <v>0.41034</v>
       </c>
     </row>
     <row r="40">
@@ -8212,13 +8212,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.459096</v>
+        <v>0.459397</v>
       </c>
       <c r="C40" t="n">
-        <v>0.309173</v>
+        <v>0.301231</v>
       </c>
       <c r="D40" t="n">
-        <v>0.412405</v>
+        <v>0.412871</v>
       </c>
     </row>
     <row r="41">
@@ -8226,13 +8226,13 @@
         <v>66357</v>
       </c>
       <c r="B41" t="n">
-        <v>0.463887</v>
+        <v>0.464199</v>
       </c>
       <c r="C41" t="n">
-        <v>0.313283</v>
+        <v>0.303671</v>
       </c>
       <c r="D41" t="n">
-        <v>0.415118</v>
+        <v>0.415101</v>
       </c>
     </row>
     <row r="42">
@@ -8240,13 +8240,13 @@
         <v>69656</v>
       </c>
       <c r="B42" t="n">
-        <v>0.469027</v>
+        <v>0.468875</v>
       </c>
       <c r="C42" t="n">
-        <v>0.315793</v>
+        <v>0.30622</v>
       </c>
       <c r="D42" t="n">
-        <v>0.417279</v>
+        <v>0.417651</v>
       </c>
     </row>
     <row r="43">
@@ -8254,13 +8254,13 @@
         <v>73119</v>
       </c>
       <c r="B43" t="n">
-        <v>0.472766</v>
+        <v>0.473746</v>
       </c>
       <c r="C43" t="n">
-        <v>0.318379</v>
+        <v>0.307827</v>
       </c>
       <c r="D43" t="n">
-        <v>0.419508</v>
+        <v>0.419753</v>
       </c>
     </row>
     <row r="44">
@@ -8268,13 +8268,13 @@
         <v>76755</v>
       </c>
       <c r="B44" t="n">
-        <v>0.477477</v>
+        <v>0.478255</v>
       </c>
       <c r="C44" t="n">
-        <v>0.322219</v>
+        <v>0.311484</v>
       </c>
       <c r="D44" t="n">
-        <v>0.421753</v>
+        <v>0.421627</v>
       </c>
     </row>
     <row r="45">
@@ -8282,13 +8282,13 @@
         <v>80572</v>
       </c>
       <c r="B45" t="n">
-        <v>0.483688</v>
+        <v>0.48305</v>
       </c>
       <c r="C45" t="n">
-        <v>0.325725</v>
+        <v>0.313747</v>
       </c>
       <c r="D45" t="n">
-        <v>0.423989</v>
+        <v>0.423874</v>
       </c>
     </row>
     <row r="46">
@@ -8296,13 +8296,13 @@
         <v>84579</v>
       </c>
       <c r="B46" t="n">
-        <v>0.488084</v>
+        <v>0.488184</v>
       </c>
       <c r="C46" t="n">
-        <v>0.329567</v>
+        <v>0.316892</v>
       </c>
       <c r="D46" t="n">
-        <v>0.426463</v>
+        <v>0.426573</v>
       </c>
     </row>
     <row r="47">
@@ -8310,13 +8310,13 @@
         <v>88786</v>
       </c>
       <c r="B47" t="n">
-        <v>0.450954</v>
+        <v>0.451355</v>
       </c>
       <c r="C47" t="n">
-        <v>0.334042</v>
+        <v>0.320887</v>
       </c>
       <c r="D47" t="n">
-        <v>0.42915</v>
+        <v>0.428668</v>
       </c>
     </row>
     <row r="48">
@@ -8324,13 +8324,13 @@
         <v>93203</v>
       </c>
       <c r="B48" t="n">
-        <v>0.453974</v>
+        <v>0.455046</v>
       </c>
       <c r="C48" t="n">
-        <v>0.338099</v>
+        <v>0.322699</v>
       </c>
       <c r="D48" t="n">
-        <v>0.430919</v>
+        <v>0.43075</v>
       </c>
     </row>
     <row r="49">
@@ -8338,13 +8338,13 @@
         <v>97840</v>
       </c>
       <c r="B49" t="n">
-        <v>0.458119</v>
+        <v>0.458421</v>
       </c>
       <c r="C49" t="n">
-        <v>0.342533</v>
+        <v>0.329602</v>
       </c>
       <c r="D49" t="n">
-        <v>0.433367</v>
+        <v>0.433089</v>
       </c>
     </row>
     <row r="50">
@@ -8352,13 +8352,13 @@
         <v>102706</v>
       </c>
       <c r="B50" t="n">
-        <v>0.461556</v>
+        <v>0.461669</v>
       </c>
       <c r="C50" t="n">
-        <v>0.312985</v>
+        <v>0.30485</v>
       </c>
       <c r="D50" t="n">
-        <v>0.428881</v>
+        <v>0.428202</v>
       </c>
     </row>
     <row r="51">
@@ -8366,13 +8366,13 @@
         <v>107816</v>
       </c>
       <c r="B51" t="n">
-        <v>0.465363</v>
+        <v>0.465188</v>
       </c>
       <c r="C51" t="n">
-        <v>0.315703</v>
+        <v>0.305228</v>
       </c>
       <c r="D51" t="n">
-        <v>0.430511</v>
+        <v>0.430293</v>
       </c>
     </row>
     <row r="52">
@@ -8380,13 +8380,13 @@
         <v>113182</v>
       </c>
       <c r="B52" t="n">
-        <v>0.469003</v>
+        <v>0.469449</v>
       </c>
       <c r="C52" t="n">
-        <v>0.317769</v>
+        <v>0.309419</v>
       </c>
       <c r="D52" t="n">
-        <v>0.431313</v>
+        <v>0.431111</v>
       </c>
     </row>
     <row r="53">
@@ -8394,13 +8394,13 @@
         <v>118816</v>
       </c>
       <c r="B53" t="n">
-        <v>0.472482</v>
+        <v>0.472622</v>
       </c>
       <c r="C53" t="n">
-        <v>0.32067</v>
+        <v>0.313879</v>
       </c>
       <c r="D53" t="n">
-        <v>0.432619</v>
+        <v>0.432436</v>
       </c>
     </row>
     <row r="54">
@@ -8408,13 +8408,13 @@
         <v>124731</v>
       </c>
       <c r="B54" t="n">
-        <v>0.476358</v>
+        <v>0.476271</v>
       </c>
       <c r="C54" t="n">
-        <v>0.324125</v>
+        <v>0.312086</v>
       </c>
       <c r="D54" t="n">
-        <v>0.433979</v>
+        <v>0.433573</v>
       </c>
     </row>
     <row r="55">
@@ -8422,13 +8422,13 @@
         <v>130941</v>
       </c>
       <c r="B55" t="n">
-        <v>0.480233</v>
+        <v>0.479974</v>
       </c>
       <c r="C55" t="n">
-        <v>0.327598</v>
+        <v>0.316136</v>
       </c>
       <c r="D55" t="n">
-        <v>0.435317</v>
+        <v>0.43512</v>
       </c>
     </row>
     <row r="56">
@@ -8436,13 +8436,13 @@
         <v>137461</v>
       </c>
       <c r="B56" t="n">
-        <v>0.484581</v>
+        <v>0.484918</v>
       </c>
       <c r="C56" t="n">
-        <v>0.330515</v>
+        <v>0.323165</v>
       </c>
       <c r="D56" t="n">
-        <v>0.437019</v>
+        <v>0.436336</v>
       </c>
     </row>
     <row r="57">
@@ -8450,13 +8450,13 @@
         <v>144307</v>
       </c>
       <c r="B57" t="n">
-        <v>0.48897</v>
+        <v>0.488799</v>
       </c>
       <c r="C57" t="n">
-        <v>0.33768</v>
+        <v>0.327293</v>
       </c>
       <c r="D57" t="n">
-        <v>0.438309</v>
+        <v>0.438435</v>
       </c>
     </row>
     <row r="58">
@@ -8464,13 +8464,13 @@
         <v>151495</v>
       </c>
       <c r="B58" t="n">
-        <v>0.493026</v>
+        <v>0.49229</v>
       </c>
       <c r="C58" t="n">
-        <v>0.340496</v>
+        <v>0.330366</v>
       </c>
       <c r="D58" t="n">
-        <v>0.440114</v>
+        <v>0.440181</v>
       </c>
     </row>
     <row r="59">
@@ -8478,13 +8478,13 @@
         <v>159042</v>
       </c>
       <c r="B59" t="n">
-        <v>0.497317</v>
+        <v>0.496994</v>
       </c>
       <c r="C59" t="n">
-        <v>0.347959</v>
+        <v>0.340389</v>
       </c>
       <c r="D59" t="n">
-        <v>0.443188</v>
+        <v>0.442572</v>
       </c>
     </row>
     <row r="60">
@@ -8492,13 +8492,13 @@
         <v>166965</v>
       </c>
       <c r="B60" t="n">
-        <v>0.504312</v>
+        <v>0.503445</v>
       </c>
       <c r="C60" t="n">
-        <v>0.355528</v>
+        <v>0.347582</v>
       </c>
       <c r="D60" t="n">
-        <v>0.443734</v>
+        <v>0.448168</v>
       </c>
     </row>
     <row r="61">
@@ -8506,13 +8506,13 @@
         <v>175284</v>
       </c>
       <c r="B61" t="n">
-        <v>0.482445</v>
+        <v>0.488901</v>
       </c>
       <c r="C61" t="n">
-        <v>0.363182</v>
+        <v>0.356401</v>
       </c>
       <c r="D61" t="n">
-        <v>0.445602</v>
+        <v>0.451355</v>
       </c>
     </row>
     <row r="62">
@@ -8520,13 +8520,13 @@
         <v>184019</v>
       </c>
       <c r="B62" t="n">
-        <v>0.494859</v>
+        <v>0.499732</v>
       </c>
       <c r="C62" t="n">
-        <v>0.373766</v>
+        <v>0.363383</v>
       </c>
       <c r="D62" t="n">
-        <v>0.448177</v>
+        <v>0.453675</v>
       </c>
     </row>
     <row r="63">
@@ -8534,13 +8534,13 @@
         <v>193190</v>
       </c>
       <c r="B63" t="n">
-        <v>0.507753</v>
+        <v>0.507169</v>
       </c>
       <c r="C63" t="n">
-        <v>0.390174</v>
+        <v>0.373535</v>
       </c>
       <c r="D63" t="n">
-        <v>0.454121</v>
+        <v>0.453327</v>
       </c>
     </row>
     <row r="64">
@@ -8548,13 +8548,13 @@
         <v>202820</v>
       </c>
       <c r="B64" t="n">
-        <v>0.521917</v>
+        <v>0.516333</v>
       </c>
       <c r="C64" t="n">
-        <v>0.431839</v>
+        <v>0.430882</v>
       </c>
       <c r="D64" t="n">
-        <v>0.485781</v>
+        <v>0.499632</v>
       </c>
     </row>
     <row r="65">
@@ -8562,13 +8562,13 @@
         <v>212931</v>
       </c>
       <c r="B65" t="n">
-        <v>0.52882</v>
+        <v>0.538089</v>
       </c>
       <c r="C65" t="n">
-        <v>0.44891</v>
+        <v>0.435013</v>
       </c>
       <c r="D65" t="n">
-        <v>0.492095</v>
+        <v>0.501698</v>
       </c>
     </row>
     <row r="66">
@@ -8576,13 +8576,13 @@
         <v>223547</v>
       </c>
       <c r="B66" t="n">
-        <v>0.549171</v>
+        <v>0.542151</v>
       </c>
       <c r="C66" t="n">
-        <v>0.460633</v>
+        <v>0.454571</v>
       </c>
       <c r="D66" t="n">
-        <v>0.503553</v>
+        <v>0.507966</v>
       </c>
     </row>
     <row r="67">
@@ -8590,13 +8590,13 @@
         <v>234692</v>
       </c>
       <c r="B67" t="n">
-        <v>0.561958</v>
+        <v>0.56678</v>
       </c>
       <c r="C67" t="n">
-        <v>0.490136</v>
+        <v>0.480837</v>
       </c>
       <c r="D67" t="n">
-        <v>0.517885</v>
+        <v>0.528973</v>
       </c>
     </row>
     <row r="68">
@@ -8604,13 +8604,13 @@
         <v>246395</v>
       </c>
       <c r="B68" t="n">
-        <v>0.573139</v>
+        <v>0.584632</v>
       </c>
       <c r="C68" t="n">
-        <v>0.506456</v>
+        <v>0.497516</v>
       </c>
       <c r="D68" t="n">
-        <v>0.530407</v>
+        <v>0.535969</v>
       </c>
     </row>
     <row r="69">
@@ -8618,13 +8618,13 @@
         <v>258683</v>
       </c>
       <c r="B69" t="n">
-        <v>0.588993</v>
+        <v>0.594127</v>
       </c>
       <c r="C69" t="n">
-        <v>0.530281</v>
+        <v>0.521747</v>
       </c>
       <c r="D69" t="n">
-        <v>0.550185</v>
+        <v>0.560073</v>
       </c>
     </row>
     <row r="70">
@@ -8632,13 +8632,13 @@
         <v>271585</v>
       </c>
       <c r="B70" t="n">
-        <v>0.613094</v>
+        <v>0.623797</v>
       </c>
       <c r="C70" t="n">
-        <v>0.551766</v>
+        <v>0.539898</v>
       </c>
       <c r="D70" t="n">
-        <v>0.574224</v>
+        <v>0.574744</v>
       </c>
     </row>
     <row r="71">
@@ -8646,13 +8646,13 @@
         <v>285132</v>
       </c>
       <c r="B71" t="n">
-        <v>0.631143</v>
+        <v>0.658983</v>
       </c>
       <c r="C71" t="n">
-        <v>0.569871</v>
+        <v>0.5762620000000001</v>
       </c>
       <c r="D71" t="n">
-        <v>0.58922</v>
+        <v>0.598611</v>
       </c>
     </row>
     <row r="72">
@@ -8660,13 +8660,13 @@
         <v>299354</v>
       </c>
       <c r="B72" t="n">
-        <v>0.659847</v>
+        <v>0.670288</v>
       </c>
       <c r="C72" t="n">
-        <v>0.60364</v>
+        <v>0.597839</v>
       </c>
       <c r="D72" t="n">
-        <v>0.598801</v>
+        <v>0.634898</v>
       </c>
     </row>
     <row r="73">
@@ -8674,13 +8674,13 @@
         <v>314289</v>
       </c>
       <c r="B73" t="n">
-        <v>0.672658</v>
+        <v>0.711473</v>
       </c>
       <c r="C73" t="n">
-        <v>0.630045</v>
+        <v>0.624507</v>
       </c>
       <c r="D73" t="n">
-        <v>0.647899</v>
+        <v>0.644299</v>
       </c>
     </row>
     <row r="74">
@@ -8688,13 +8688,13 @@
         <v>329969</v>
       </c>
       <c r="B74" t="n">
-        <v>0.726696</v>
+        <v>0.723119</v>
       </c>
       <c r="C74" t="n">
-        <v>0.653695</v>
+        <v>0.649609</v>
       </c>
       <c r="D74" t="n">
-        <v>0.667405</v>
+        <v>0.674646</v>
       </c>
     </row>
     <row r="75">
@@ -8702,13 +8702,13 @@
         <v>346432</v>
       </c>
       <c r="B75" t="n">
-        <v>0.762263</v>
+        <v>0.769733</v>
       </c>
       <c r="C75" t="n">
-        <v>0.684133</v>
+        <v>0.676226</v>
       </c>
       <c r="D75" t="n">
-        <v>0.704306</v>
+        <v>0.70292</v>
       </c>
     </row>
     <row r="76">
@@ -8716,13 +8716,13 @@
         <v>363719</v>
       </c>
       <c r="B76" t="n">
-        <v>0.970243</v>
+        <v>0.9695780000000001</v>
       </c>
       <c r="C76" t="n">
-        <v>0.709955</v>
+        <v>0.703638</v>
       </c>
       <c r="D76" t="n">
-        <v>0.738505</v>
+        <v>0.738575</v>
       </c>
     </row>
     <row r="77">
@@ -8730,13 +8730,13 @@
         <v>381870</v>
       </c>
       <c r="B77" t="n">
-        <v>1.01132</v>
+        <v>1.01813</v>
       </c>
       <c r="C77" t="n">
-        <v>0.7358</v>
+        <v>0.726847</v>
       </c>
       <c r="D77" t="n">
-        <v>0.776502</v>
+        <v>0.777579</v>
       </c>
     </row>
     <row r="78">
@@ -8744,13 +8744,13 @@
         <v>400928</v>
       </c>
       <c r="B78" t="n">
-        <v>1.06106</v>
+        <v>1.06606</v>
       </c>
       <c r="C78" t="n">
-        <v>0.888052</v>
+        <v>0.882773</v>
       </c>
       <c r="D78" t="n">
-        <v>1.03613</v>
+        <v>1.03125</v>
       </c>
     </row>
     <row r="79">
@@ -8758,13 +8758,13 @@
         <v>420937</v>
       </c>
       <c r="B79" t="n">
-        <v>1.10662</v>
+        <v>1.11755</v>
       </c>
       <c r="C79" t="n">
-        <v>0.899995</v>
+        <v>0.900058</v>
       </c>
       <c r="D79" t="n">
-        <v>1.07378</v>
+        <v>1.07808</v>
       </c>
     </row>
     <row r="80">
@@ -8772,13 +8772,13 @@
         <v>441947</v>
       </c>
       <c r="B80" t="n">
-        <v>1.15846</v>
+        <v>1.16097</v>
       </c>
       <c r="C80" t="n">
-        <v>0.920891</v>
+        <v>0.9192</v>
       </c>
       <c r="D80" t="n">
-        <v>1.126</v>
+        <v>1.1302</v>
       </c>
     </row>
     <row r="81">
@@ -8786,13 +8786,13 @@
         <v>464005</v>
       </c>
       <c r="B81" t="n">
-        <v>1.20844</v>
+        <v>1.21595</v>
       </c>
       <c r="C81" t="n">
-        <v>0.942118</v>
+        <v>0.938114</v>
       </c>
       <c r="D81" t="n">
-        <v>1.17434</v>
+        <v>1.18302</v>
       </c>
     </row>
     <row r="82">
@@ -8800,13 +8800,13 @@
         <v>487165</v>
       </c>
       <c r="B82" t="n">
-        <v>1.26274</v>
+        <v>1.26608</v>
       </c>
       <c r="C82" t="n">
-        <v>0.960592</v>
+        <v>0.957788</v>
       </c>
       <c r="D82" t="n">
-        <v>1.22455</v>
+        <v>1.23696</v>
       </c>
     </row>
     <row r="83">
@@ -8814,13 +8814,13 @@
         <v>511485</v>
       </c>
       <c r="B83" t="n">
-        <v>1.31016</v>
+        <v>1.3248</v>
       </c>
       <c r="C83" t="n">
-        <v>0.979002</v>
+        <v>0.978373</v>
       </c>
       <c r="D83" t="n">
-        <v>1.27192</v>
+        <v>1.28518</v>
       </c>
     </row>
     <row r="84">
@@ -8828,13 +8828,13 @@
         <v>537019</v>
       </c>
       <c r="B84" t="n">
-        <v>1.36239</v>
+        <v>1.37599</v>
       </c>
       <c r="C84" t="n">
-        <v>0.999165</v>
+        <v>0.995685</v>
       </c>
       <c r="D84" t="n">
-        <v>1.32727</v>
+        <v>1.33471</v>
       </c>
     </row>
     <row r="85">
@@ -8842,13 +8842,13 @@
         <v>563827</v>
       </c>
       <c r="B85" t="n">
-        <v>1.41761</v>
+        <v>1.42576</v>
       </c>
       <c r="C85" t="n">
-        <v>1.01738</v>
+        <v>1.01104</v>
       </c>
       <c r="D85" t="n">
-        <v>1.3675</v>
+        <v>1.37776</v>
       </c>
     </row>
     <row r="86">
@@ -8856,13 +8856,13 @@
         <v>591977</v>
       </c>
       <c r="B86" t="n">
-        <v>1.46788</v>
+        <v>1.47318</v>
       </c>
       <c r="C86" t="n">
-        <v>1.03594</v>
+        <v>1.02996</v>
       </c>
       <c r="D86" t="n">
-        <v>1.42493</v>
+        <v>1.43332</v>
       </c>
     </row>
     <row r="87">
@@ -8870,13 +8870,13 @@
         <v>621532</v>
       </c>
       <c r="B87" t="n">
-        <v>1.51617</v>
+        <v>1.53123</v>
       </c>
       <c r="C87" t="n">
-        <v>1.0552</v>
+        <v>1.0454</v>
       </c>
       <c r="D87" t="n">
-        <v>1.47074</v>
+        <v>1.47704</v>
       </c>
     </row>
     <row r="88">
@@ -8884,13 +8884,13 @@
         <v>652567</v>
       </c>
       <c r="B88" t="n">
-        <v>1.5686</v>
+        <v>1.57507</v>
       </c>
       <c r="C88" t="n">
-        <v>1.07594</v>
+        <v>1.06527</v>
       </c>
       <c r="D88" t="n">
-        <v>1.51778</v>
+        <v>1.5199</v>
       </c>
     </row>
     <row r="89">
@@ -8898,13 +8898,13 @@
         <v>685151</v>
       </c>
       <c r="B89" t="n">
-        <v>1.62167</v>
+        <v>1.62331</v>
       </c>
       <c r="C89" t="n">
-        <v>1.09184</v>
+        <v>1.08316</v>
       </c>
       <c r="D89" t="n">
-        <v>1.55707</v>
+        <v>1.56322</v>
       </c>
     </row>
     <row r="90">
@@ -8912,13 +8912,13 @@
         <v>719359</v>
       </c>
       <c r="B90" t="n">
-        <v>1.83886</v>
+        <v>1.84004</v>
       </c>
       <c r="C90" t="n">
-        <v>1.11117</v>
+        <v>1.09711</v>
       </c>
       <c r="D90" t="n">
-        <v>1.60322</v>
+        <v>1.60254</v>
       </c>
     </row>
     <row r="91">
@@ -8926,13 +8926,13 @@
         <v>755280</v>
       </c>
       <c r="B91" t="n">
-        <v>1.87357</v>
+        <v>1.87872</v>
       </c>
       <c r="C91" t="n">
-        <v>1.12852</v>
+        <v>1.11497</v>
       </c>
       <c r="D91" t="n">
-        <v>1.64089</v>
+        <v>1.6477</v>
       </c>
     </row>
     <row r="92">
@@ -8940,13 +8940,13 @@
         <v>792997</v>
       </c>
       <c r="B92" t="n">
-        <v>1.91188</v>
+        <v>1.92083</v>
       </c>
       <c r="C92" t="n">
-        <v>1.18512</v>
+        <v>1.18173</v>
       </c>
       <c r="D92" t="n">
-        <v>1.8559</v>
+        <v>1.85878</v>
       </c>
     </row>
     <row r="93">
@@ -8954,13 +8954,13 @@
         <v>832595</v>
       </c>
       <c r="B93" t="n">
-        <v>1.9457</v>
+        <v>1.94791</v>
       </c>
       <c r="C93" t="n">
-        <v>1.19816</v>
+        <v>1.19255</v>
       </c>
       <c r="D93" t="n">
-        <v>1.88341</v>
+        <v>1.88946</v>
       </c>
     </row>
     <row r="94">
@@ -8968,13 +8968,13 @@
         <v>874177</v>
       </c>
       <c r="B94" t="n">
-        <v>1.97569</v>
+        <v>1.97653</v>
       </c>
       <c r="C94" t="n">
-        <v>1.20971</v>
+        <v>1.20219</v>
       </c>
       <c r="D94" t="n">
-        <v>1.91791</v>
+        <v>1.92095</v>
       </c>
     </row>
     <row r="95">
@@ -8982,13 +8982,13 @@
         <v>917832</v>
       </c>
       <c r="B95" t="n">
-        <v>2.00446</v>
+        <v>2.00683</v>
       </c>
       <c r="C95" t="n">
-        <v>1.21953</v>
+        <v>1.21263</v>
       </c>
       <c r="D95" t="n">
-        <v>1.94717</v>
+        <v>1.94857</v>
       </c>
     </row>
     <row r="96">
@@ -8996,13 +8996,13 @@
         <v>963677</v>
       </c>
       <c r="B96" t="n">
-        <v>2.04028</v>
+        <v>2.04298</v>
       </c>
       <c r="C96" t="n">
-        <v>1.23275</v>
+        <v>1.22261</v>
       </c>
       <c r="D96" t="n">
-        <v>1.97758</v>
+        <v>1.97999</v>
       </c>
     </row>
     <row r="97">
@@ -9010,13 +9010,13 @@
         <v>1011813</v>
       </c>
       <c r="B97" t="n">
-        <v>2.07302</v>
+        <v>2.07316</v>
       </c>
       <c r="C97" t="n">
-        <v>1.24442</v>
+        <v>1.23261</v>
       </c>
       <c r="D97" t="n">
-        <v>2.00579</v>
+        <v>2.00151</v>
       </c>
     </row>
     <row r="98">
@@ -9024,13 +9024,13 @@
         <v>1062351</v>
       </c>
       <c r="B98" t="n">
-        <v>2.1035</v>
+        <v>2.10492</v>
       </c>
       <c r="C98" t="n">
-        <v>1.25466</v>
+        <v>1.24413</v>
       </c>
       <c r="D98" t="n">
-        <v>2.03305</v>
+        <v>2.03109</v>
       </c>
     </row>
     <row r="99">
@@ -9038,13 +9038,13 @@
         <v>1115422</v>
       </c>
       <c r="B99" t="n">
-        <v>2.13358</v>
+        <v>2.13177</v>
       </c>
       <c r="C99" t="n">
-        <v>1.26471</v>
+        <v>1.25498</v>
       </c>
       <c r="D99" t="n">
-        <v>2.05768</v>
+        <v>2.05605</v>
       </c>
     </row>
     <row r="100">
@@ -9052,13 +9052,13 @@
         <v>1171143</v>
       </c>
       <c r="B100" t="n">
-        <v>2.1575</v>
+        <v>2.1606</v>
       </c>
       <c r="C100" t="n">
-        <v>1.27667</v>
+        <v>1.26569</v>
       </c>
       <c r="D100" t="n">
-        <v>2.08181</v>
+        <v>2.08194</v>
       </c>
     </row>
     <row r="101">
@@ -9066,13 +9066,13 @@
         <v>1229634</v>
       </c>
       <c r="B101" t="n">
-        <v>2.18764</v>
+        <v>2.18966</v>
       </c>
       <c r="C101" t="n">
-        <v>1.28928</v>
+        <v>1.2771</v>
       </c>
       <c r="D101" t="n">
-        <v>2.10578</v>
+        <v>2.108</v>
       </c>
     </row>
     <row r="102">
@@ -9080,13 +9080,13 @@
         <v>1291062</v>
       </c>
       <c r="B102" t="n">
-        <v>2.21501</v>
+        <v>2.2171</v>
       </c>
       <c r="C102" t="n">
-        <v>1.30051</v>
+        <v>1.28602</v>
       </c>
       <c r="D102" t="n">
-        <v>2.1251</v>
+        <v>2.12176</v>
       </c>
     </row>
     <row r="103">
@@ -9094,13 +9094,13 @@
         <v>1355554</v>
       </c>
       <c r="B103" t="n">
-        <v>2.24219</v>
+        <v>2.24762</v>
       </c>
       <c r="C103" t="n">
-        <v>1.31345</v>
+        <v>1.29863</v>
       </c>
       <c r="D103" t="n">
-        <v>2.15044</v>
+        <v>2.14975</v>
       </c>
     </row>
     <row r="104">
@@ -9108,13 +9108,13 @@
         <v>1423274</v>
       </c>
       <c r="B104" t="n">
-        <v>2.27118</v>
+        <v>2.27545</v>
       </c>
       <c r="C104" t="n">
-        <v>1.32587</v>
+        <v>1.30988</v>
       </c>
       <c r="D104" t="n">
-        <v>2.17245</v>
+        <v>2.17741</v>
       </c>
     </row>
     <row r="105">
@@ -9122,13 +9122,13 @@
         <v>1494380</v>
       </c>
       <c r="B105" t="n">
-        <v>2.34987</v>
+        <v>2.36245</v>
       </c>
       <c r="C105" t="n">
-        <v>1.33846</v>
+        <v>1.32104</v>
       </c>
       <c r="D105" t="n">
-        <v>2.19543</v>
+        <v>2.20028</v>
       </c>
     </row>
     <row r="106">
@@ -9136,13 +9136,13 @@
         <v>1569031</v>
       </c>
       <c r="B106" t="n">
-        <v>2.37086</v>
+        <v>2.38182</v>
       </c>
       <c r="C106" t="n">
-        <v>1.35048</v>
+        <v>1.33291</v>
       </c>
       <c r="D106" t="n">
-        <v>2.2156</v>
+        <v>2.21907</v>
       </c>
     </row>
     <row r="107">
@@ -9150,13 +9150,13 @@
         <v>1647417</v>
       </c>
       <c r="B107" t="n">
-        <v>2.39354</v>
+        <v>2.40224</v>
       </c>
       <c r="C107" t="n">
-        <v>1.34034</v>
+        <v>1.33308</v>
       </c>
       <c r="D107" t="n">
-        <v>2.32408</v>
+        <v>2.33239</v>
       </c>
     </row>
     <row r="108">
@@ -9164,13 +9164,13 @@
         <v>1729734</v>
       </c>
       <c r="B108" t="n">
-        <v>2.4156</v>
+        <v>2.42215</v>
       </c>
       <c r="C108" t="n">
-        <v>1.34918</v>
+        <v>1.34133</v>
       </c>
       <c r="D108" t="n">
-        <v>2.33344</v>
+        <v>2.3453</v>
       </c>
     </row>
     <row r="109">
@@ -9178,13 +9178,13 @@
         <v>1816153</v>
       </c>
       <c r="B109" t="n">
-        <v>2.43567</v>
+        <v>2.44514</v>
       </c>
       <c r="C109" t="n">
-        <v>1.35848</v>
+        <v>1.34815</v>
       </c>
       <c r="D109" t="n">
-        <v>2.34509</v>
+        <v>2.35956</v>
       </c>
     </row>
     <row r="110">
@@ -9192,13 +9192,13 @@
         <v>1906885</v>
       </c>
       <c r="B110" t="n">
-        <v>2.45427</v>
+        <v>2.46223</v>
       </c>
       <c r="C110" t="n">
-        <v>1.36524</v>
+        <v>1.35517</v>
       </c>
       <c r="D110" t="n">
-        <v>2.37122</v>
+        <v>2.37908</v>
       </c>
     </row>
     <row r="111">
@@ -9206,13 +9206,13 @@
         <v>2002164</v>
       </c>
       <c r="B111" t="n">
-        <v>2.47249</v>
+        <v>2.48146</v>
       </c>
       <c r="C111" t="n">
-        <v>1.37479</v>
+        <v>1.36277</v>
       </c>
       <c r="D111" t="n">
-        <v>2.37321</v>
+        <v>2.38579</v>
       </c>
     </row>
     <row r="112">
@@ -9220,13 +9220,13 @@
         <v>2102198</v>
       </c>
       <c r="B112" t="n">
-        <v>2.49217</v>
+        <v>2.50468</v>
       </c>
       <c r="C112" t="n">
-        <v>1.38158</v>
+        <v>1.37016</v>
       </c>
       <c r="D112" t="n">
-        <v>2.38598</v>
+        <v>2.40219</v>
       </c>
     </row>
     <row r="113">
@@ -9234,13 +9234,13 @@
         <v>2207233</v>
       </c>
       <c r="B113" t="n">
-        <v>2.51381</v>
+        <v>2.52269</v>
       </c>
       <c r="C113" t="n">
-        <v>1.39074</v>
+        <v>1.37815</v>
       </c>
       <c r="D113" t="n">
-        <v>2.40434</v>
+        <v>2.41644</v>
       </c>
     </row>
     <row r="114">
@@ -9248,13 +9248,13 @@
         <v>2317508</v>
       </c>
       <c r="B114" t="n">
-        <v>2.53269</v>
+        <v>2.54016</v>
       </c>
       <c r="C114" t="n">
-        <v>1.40012</v>
+        <v>1.38623</v>
       </c>
       <c r="D114" t="n">
-        <v>2.41593</v>
+        <v>2.42953</v>
       </c>
     </row>
     <row r="115">
@@ -9262,13 +9262,13 @@
         <v>2433290</v>
       </c>
       <c r="B115" t="n">
-        <v>2.55162</v>
+        <v>2.55985</v>
       </c>
       <c r="C115" t="n">
-        <v>1.41277</v>
+        <v>1.39397</v>
       </c>
       <c r="D115" t="n">
-        <v>2.43355</v>
+        <v>2.44646</v>
       </c>
     </row>
     <row r="116">
@@ -9276,13 +9276,13 @@
         <v>2554854</v>
       </c>
       <c r="B116" t="n">
-        <v>2.56927</v>
+        <v>2.57878</v>
       </c>
       <c r="C116" t="n">
-        <v>1.42092</v>
+        <v>1.40253</v>
       </c>
       <c r="D116" t="n">
-        <v>2.44575</v>
+        <v>2.45822</v>
       </c>
     </row>
     <row r="117">
@@ -9290,13 +9290,13 @@
         <v>2682511</v>
       </c>
       <c r="B117" t="n">
-        <v>2.58674</v>
+        <v>2.59633</v>
       </c>
       <c r="C117" t="n">
-        <v>1.43052</v>
+        <v>1.4107</v>
       </c>
       <c r="D117" t="n">
-        <v>2.45847</v>
+        <v>2.47291</v>
       </c>
     </row>
     <row r="118">
@@ -9304,13 +9304,13 @@
         <v>2816546</v>
       </c>
       <c r="B118" t="n">
-        <v>2.60772</v>
+        <v>2.6157</v>
       </c>
       <c r="C118" t="n">
-        <v>1.44003</v>
+        <v>1.42033</v>
       </c>
       <c r="D118" t="n">
-        <v>2.4668</v>
+        <v>2.47275</v>
       </c>
     </row>
     <row r="119">
@@ -9318,13 +9318,13 @@
         <v>2957287</v>
       </c>
       <c r="B119" t="n">
-        <v>2.62697</v>
+        <v>2.64066</v>
       </c>
       <c r="C119" t="n">
-        <v>1.45156</v>
+        <v>1.42914</v>
       </c>
       <c r="D119" t="n">
-        <v>2.48373</v>
+        <v>2.49172</v>
       </c>
     </row>
   </sheetData>
@@ -9372,13 +9372,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.490858</v>
+        <v>0.508307</v>
       </c>
       <c r="C2" t="n">
-        <v>0.417399</v>
+        <v>0.419226</v>
       </c>
       <c r="D2" t="n">
-        <v>0.337566</v>
+        <v>0.343971</v>
       </c>
     </row>
     <row r="3">
@@ -9386,13 +9386,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.495734</v>
+        <v>0.514389</v>
       </c>
       <c r="C3" t="n">
-        <v>0.422302</v>
+        <v>0.42386</v>
       </c>
       <c r="D3" t="n">
-        <v>0.340738</v>
+        <v>0.347402</v>
       </c>
     </row>
     <row r="4">
@@ -9400,13 +9400,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.497948</v>
+        <v>0.516404</v>
       </c>
       <c r="C4" t="n">
-        <v>0.426988</v>
+        <v>0.425698</v>
       </c>
       <c r="D4" t="n">
-        <v>0.344214</v>
+        <v>0.351265</v>
       </c>
     </row>
     <row r="5">
@@ -9414,13 +9414,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.507506</v>
+        <v>0.527515</v>
       </c>
       <c r="C5" t="n">
-        <v>0.432115</v>
+        <v>0.432815</v>
       </c>
       <c r="D5" t="n">
-        <v>0.347625</v>
+        <v>0.359082</v>
       </c>
     </row>
     <row r="6">
@@ -9428,13 +9428,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.515602</v>
+        <v>0.534637</v>
       </c>
       <c r="C6" t="n">
-        <v>0.435196</v>
+        <v>0.43713</v>
       </c>
       <c r="D6" t="n">
-        <v>0.353409</v>
+        <v>0.365004</v>
       </c>
     </row>
     <row r="7">
@@ -9442,13 +9442,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.524826</v>
+        <v>0.5407459999999999</v>
       </c>
       <c r="C7" t="n">
-        <v>0.453695</v>
+        <v>0.449796</v>
       </c>
       <c r="D7" t="n">
-        <v>0.368363</v>
+        <v>0.37479</v>
       </c>
     </row>
     <row r="8">
@@ -9456,13 +9456,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.532716</v>
+        <v>0.553229</v>
       </c>
       <c r="C8" t="n">
-        <v>0.45837</v>
+        <v>0.453316</v>
       </c>
       <c r="D8" t="n">
-        <v>0.372008</v>
+        <v>0.372939</v>
       </c>
     </row>
     <row r="9">
@@ -9470,13 +9470,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.5402749999999999</v>
+        <v>0.550011</v>
       </c>
       <c r="C9" t="n">
-        <v>0.467111</v>
+        <v>0.456657</v>
       </c>
       <c r="D9" t="n">
-        <v>0.376438</v>
+        <v>0.383593</v>
       </c>
     </row>
     <row r="10">
@@ -9484,13 +9484,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.553148</v>
+        <v>0.565374</v>
       </c>
       <c r="C10" t="n">
-        <v>0.470015</v>
+        <v>0.462691</v>
       </c>
       <c r="D10" t="n">
-        <v>0.383783</v>
+        <v>0.387187</v>
       </c>
     </row>
     <row r="11">
@@ -9498,13 +9498,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.560603</v>
+        <v>0.5749339999999999</v>
       </c>
       <c r="C11" t="n">
-        <v>0.46972</v>
+        <v>0.461249</v>
       </c>
       <c r="D11" t="n">
-        <v>0.38755</v>
+        <v>0.391199</v>
       </c>
     </row>
     <row r="12">
@@ -9512,13 +9512,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.570865</v>
+        <v>0.581678</v>
       </c>
       <c r="C12" t="n">
-        <v>0.475353</v>
+        <v>0.471187</v>
       </c>
       <c r="D12" t="n">
-        <v>0.39629</v>
+        <v>0.395118</v>
       </c>
     </row>
     <row r="13">
@@ -9526,13 +9526,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.584425</v>
+        <v>0.593067</v>
       </c>
       <c r="C13" t="n">
-        <v>0.480132</v>
+        <v>0.472546</v>
       </c>
       <c r="D13" t="n">
-        <v>0.399066</v>
+        <v>0.403656</v>
       </c>
     </row>
     <row r="14">
@@ -9540,13 +9540,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.58905</v>
+        <v>0.602095</v>
       </c>
       <c r="C14" t="n">
-        <v>0.482463</v>
+        <v>0.474414</v>
       </c>
       <c r="D14" t="n">
-        <v>0.405942</v>
+        <v>0.410243</v>
       </c>
     </row>
     <row r="15">
@@ -9554,13 +9554,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.596926</v>
+        <v>0.610286</v>
       </c>
       <c r="C15" t="n">
-        <v>0.487332</v>
+        <v>0.477742</v>
       </c>
       <c r="D15" t="n">
-        <v>0.413604</v>
+        <v>0.414034</v>
       </c>
     </row>
     <row r="16">
@@ -9568,13 +9568,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.610998</v>
+        <v>0.617833</v>
       </c>
       <c r="C16" t="n">
-        <v>0.494636</v>
+        <v>0.480803</v>
       </c>
       <c r="D16" t="n">
-        <v>0.418287</v>
+        <v>0.418436</v>
       </c>
     </row>
     <row r="17">
@@ -9582,13 +9582,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.62207</v>
+        <v>0.627331</v>
       </c>
       <c r="C17" t="n">
-        <v>0.497764</v>
+        <v>0.487728</v>
       </c>
       <c r="D17" t="n">
-        <v>0.424747</v>
+        <v>0.424299</v>
       </c>
     </row>
     <row r="18">
@@ -9596,13 +9596,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.622394</v>
+        <v>0.6451440000000001</v>
       </c>
       <c r="C18" t="n">
-        <v>0.498229</v>
+        <v>0.494789</v>
       </c>
       <c r="D18" t="n">
-        <v>0.428636</v>
+        <v>0.428874</v>
       </c>
     </row>
     <row r="19">
@@ -9610,13 +9610,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.649589</v>
+        <v>0.654409</v>
       </c>
       <c r="C19" t="n">
-        <v>0.503854</v>
+        <v>0.500856</v>
       </c>
       <c r="D19" t="n">
-        <v>0.434354</v>
+        <v>0.43307</v>
       </c>
     </row>
     <row r="20">
@@ -9624,13 +9624,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.66134</v>
+        <v>0.664405</v>
       </c>
       <c r="C20" t="n">
-        <v>0.513161</v>
+        <v>0.503766</v>
       </c>
       <c r="D20" t="n">
-        <v>0.440509</v>
+        <v>0.441677</v>
       </c>
     </row>
     <row r="21">
@@ -9638,13 +9638,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.672376</v>
+        <v>0.678639</v>
       </c>
       <c r="C21" t="n">
-        <v>0.521631</v>
+        <v>0.507198</v>
       </c>
       <c r="D21" t="n">
-        <v>0.448927</v>
+        <v>0.447719</v>
       </c>
     </row>
     <row r="22">
@@ -9652,13 +9652,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.678226</v>
+        <v>0.68298</v>
       </c>
       <c r="C22" t="n">
-        <v>0.527539</v>
+        <v>0.515327</v>
       </c>
       <c r="D22" t="n">
-        <v>0.454352</v>
+        <v>0.453202</v>
       </c>
     </row>
     <row r="23">
@@ -9666,13 +9666,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.68768</v>
+        <v>0.693598</v>
       </c>
       <c r="C23" t="n">
-        <v>0.53029</v>
+        <v>0.518684</v>
       </c>
       <c r="D23" t="n">
-        <v>0.459979</v>
+        <v>0.457876</v>
       </c>
     </row>
     <row r="24">
@@ -9680,13 +9680,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.6943279999999999</v>
+        <v>0.696872</v>
       </c>
       <c r="C24" t="n">
-        <v>0.5323099999999999</v>
+        <v>0.525114</v>
       </c>
       <c r="D24" t="n">
-        <v>0.463971</v>
+        <v>0.461408</v>
       </c>
     </row>
     <row r="25">
@@ -9694,13 +9694,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.699912</v>
+        <v>0.705802</v>
       </c>
       <c r="C25" t="n">
-        <v>0.5376339999999999</v>
+        <v>0.534044</v>
       </c>
       <c r="D25" t="n">
-        <v>0.468149</v>
+        <v>0.466164</v>
       </c>
     </row>
     <row r="26">
@@ -9708,13 +9708,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.707774</v>
+        <v>0.7119180000000001</v>
       </c>
       <c r="C26" t="n">
-        <v>0.533775</v>
+        <v>0.529681</v>
       </c>
       <c r="D26" t="n">
-        <v>0.471089</v>
+        <v>0.469697</v>
       </c>
     </row>
     <row r="27">
@@ -9722,13 +9722,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.716795</v>
+        <v>0.719884</v>
       </c>
       <c r="C27" t="n">
-        <v>0.542963</v>
+        <v>0.537663</v>
       </c>
       <c r="D27" t="n">
-        <v>0.474901</v>
+        <v>0.473624</v>
       </c>
     </row>
     <row r="28">
@@ -9736,13 +9736,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.721141</v>
+        <v>0.725198</v>
       </c>
       <c r="C28" t="n">
-        <v>0.550227</v>
+        <v>0.54209</v>
       </c>
       <c r="D28" t="n">
-        <v>0.482272</v>
+        <v>0.478934</v>
       </c>
     </row>
     <row r="29">
@@ -9750,13 +9750,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.7349909999999999</v>
+        <v>0.737587</v>
       </c>
       <c r="C29" t="n">
-        <v>0.549663</v>
+        <v>0.544978</v>
       </c>
       <c r="D29" t="n">
-        <v>0.482295</v>
+        <v>0.482866</v>
       </c>
     </row>
     <row r="30">
@@ -9764,13 +9764,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.738559</v>
+        <v>0.739618</v>
       </c>
       <c r="C30" t="n">
-        <v>0.5526180000000001</v>
+        <v>0.552778</v>
       </c>
       <c r="D30" t="n">
-        <v>0.488833</v>
+        <v>0.486212</v>
       </c>
     </row>
     <row r="31">
@@ -9778,13 +9778,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.7447279999999999</v>
+        <v>0.747746</v>
       </c>
       <c r="C31" t="n">
-        <v>0.559565</v>
+        <v>0.554025</v>
       </c>
       <c r="D31" t="n">
-        <v>0.494844</v>
+        <v>0.492397</v>
       </c>
     </row>
     <row r="32">
@@ -9792,13 +9792,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.738661</v>
+        <v>0.740443</v>
       </c>
       <c r="C32" t="n">
-        <v>0.557351</v>
+        <v>0.557319</v>
       </c>
       <c r="D32" t="n">
-        <v>0.491855</v>
+        <v>0.493161</v>
       </c>
     </row>
     <row r="33">
@@ -9806,13 +9806,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.744268</v>
+        <v>0.746459</v>
       </c>
       <c r="C33" t="n">
-        <v>0.566568</v>
+        <v>0.563491</v>
       </c>
       <c r="D33" t="n">
-        <v>0.499266</v>
+        <v>0.497287</v>
       </c>
     </row>
     <row r="34">
@@ -9820,13 +9820,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.755981</v>
+        <v>0.758842</v>
       </c>
       <c r="C34" t="n">
-        <v>0.572695</v>
+        <v>0.564843</v>
       </c>
       <c r="D34" t="n">
-        <v>0.501857</v>
+        <v>0.498812</v>
       </c>
     </row>
     <row r="35">
@@ -9834,13 +9834,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.7559360000000001</v>
+        <v>0.759216</v>
       </c>
       <c r="C35" t="n">
-        <v>0.550822</v>
+        <v>0.540411</v>
       </c>
       <c r="D35" t="n">
-        <v>0.495876</v>
+        <v>0.504611</v>
       </c>
     </row>
     <row r="36">
@@ -9848,13 +9848,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.76145</v>
+        <v>0.766642</v>
       </c>
       <c r="C36" t="n">
-        <v>0.557678</v>
+        <v>0.550612</v>
       </c>
       <c r="D36" t="n">
-        <v>0.501579</v>
+        <v>0.508028</v>
       </c>
     </row>
     <row r="37">
@@ -9862,13 +9862,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.770996</v>
+        <v>0.773683</v>
       </c>
       <c r="C37" t="n">
-        <v>0.559933</v>
+        <v>0.550695</v>
       </c>
       <c r="D37" t="n">
-        <v>0.510321</v>
+        <v>0.508958</v>
       </c>
     </row>
     <row r="38">
@@ -9876,13 +9876,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.774477</v>
+        <v>0.775659</v>
       </c>
       <c r="C38" t="n">
-        <v>0.559319</v>
+        <v>0.557055</v>
       </c>
       <c r="D38" t="n">
-        <v>0.514629</v>
+        <v>0.513462</v>
       </c>
     </row>
     <row r="39">
@@ -9890,13 +9890,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.751099</v>
+        <v>0.781948</v>
       </c>
       <c r="C39" t="n">
-        <v>0.5639459999999999</v>
+        <v>0.559302</v>
       </c>
       <c r="D39" t="n">
-        <v>0.518297</v>
+        <v>0.517612</v>
       </c>
     </row>
     <row r="40">
@@ -9904,13 +9904,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.786228</v>
+        <v>0.788304</v>
       </c>
       <c r="C40" t="n">
-        <v>0.567057</v>
+        <v>0.557662</v>
       </c>
       <c r="D40" t="n">
-        <v>0.519344</v>
+        <v>0.518306</v>
       </c>
     </row>
     <row r="41">
@@ -9918,13 +9918,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.792575</v>
+        <v>0.795425</v>
       </c>
       <c r="C41" t="n">
-        <v>0.57064</v>
+        <v>0.563605</v>
       </c>
       <c r="D41" t="n">
-        <v>0.519734</v>
+        <v>0.5198</v>
       </c>
     </row>
     <row r="42">
@@ -9932,13 +9932,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.798167</v>
+        <v>0.8018150000000001</v>
       </c>
       <c r="C42" t="n">
-        <v>0.5713780000000001</v>
+        <v>0.5630540000000001</v>
       </c>
       <c r="D42" t="n">
-        <v>0.524466</v>
+        <v>0.523667</v>
       </c>
     </row>
     <row r="43">
@@ -9946,13 +9946,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.802608</v>
+        <v>0.80621</v>
       </c>
       <c r="C43" t="n">
-        <v>0.57216</v>
+        <v>0.566493</v>
       </c>
       <c r="D43" t="n">
-        <v>0.527664</v>
+        <v>0.525356</v>
       </c>
     </row>
     <row r="44">
@@ -9960,13 +9960,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.802262</v>
+        <v>0.806357</v>
       </c>
       <c r="C44" t="n">
-        <v>0.575828</v>
+        <v>0.565486</v>
       </c>
       <c r="D44" t="n">
-        <v>0.527219</v>
+        <v>0.526905</v>
       </c>
     </row>
     <row r="45">
@@ -9974,13 +9974,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.810405</v>
+        <v>0.814791</v>
       </c>
       <c r="C45" t="n">
-        <v>0.580654</v>
+        <v>0.568427</v>
       </c>
       <c r="D45" t="n">
-        <v>0.529579</v>
+        <v>0.529397</v>
       </c>
     </row>
     <row r="46">
@@ -9988,13 +9988,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.81201</v>
+        <v>0.81588</v>
       </c>
       <c r="C46" t="n">
-        <v>0.582116</v>
+        <v>0.572993</v>
       </c>
       <c r="D46" t="n">
-        <v>0.533087</v>
+        <v>0.531758</v>
       </c>
     </row>
     <row r="47">
@@ -10002,13 +10002,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.791692</v>
+        <v>0.79489</v>
       </c>
       <c r="C47" t="n">
-        <v>0.58085</v>
+        <v>0.575245</v>
       </c>
       <c r="D47" t="n">
-        <v>0.534313</v>
+        <v>0.533868</v>
       </c>
     </row>
     <row r="48">
@@ -10016,13 +10016,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.798655</v>
+        <v>0.801987</v>
       </c>
       <c r="C48" t="n">
-        <v>0.5882579999999999</v>
+        <v>0.5791500000000001</v>
       </c>
       <c r="D48" t="n">
-        <v>0.5363599999999999</v>
+        <v>0.534783</v>
       </c>
     </row>
     <row r="49">
@@ -10030,13 +10030,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.795574</v>
+        <v>0.802243</v>
       </c>
       <c r="C49" t="n">
-        <v>0.5920530000000001</v>
+        <v>0.581335</v>
       </c>
       <c r="D49" t="n">
-        <v>0.53783</v>
+        <v>0.536812</v>
       </c>
     </row>
     <row r="50">
@@ -10044,13 +10044,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.804514</v>
+        <v>0.807829</v>
       </c>
       <c r="C50" t="n">
-        <v>0.589665</v>
+        <v>0.571944</v>
       </c>
       <c r="D50" t="n">
-        <v>0.537736</v>
+        <v>0.5370740000000001</v>
       </c>
     </row>
     <row r="51">
@@ -10058,13 +10058,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.8049269999999999</v>
+        <v>0.810211</v>
       </c>
       <c r="C51" t="n">
-        <v>0.587232</v>
+        <v>0.57348</v>
       </c>
       <c r="D51" t="n">
-        <v>0.5372130000000001</v>
+        <v>0.538407</v>
       </c>
     </row>
     <row r="52">
@@ -10072,13 +10072,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.808943</v>
+        <v>0.812633</v>
       </c>
       <c r="C52" t="n">
-        <v>0.592929</v>
+        <v>0.57809</v>
       </c>
       <c r="D52" t="n">
-        <v>0.542052</v>
+        <v>0.540699</v>
       </c>
     </row>
     <row r="53">
@@ -10086,13 +10086,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.813808</v>
+        <v>0.817286</v>
       </c>
       <c r="C53" t="n">
-        <v>0.595209</v>
+        <v>0.582418</v>
       </c>
       <c r="D53" t="n">
-        <v>0.54242</v>
+        <v>0.54301</v>
       </c>
     </row>
     <row r="54">
@@ -10100,13 +10100,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.818561</v>
+        <v>0.820457</v>
       </c>
       <c r="C54" t="n">
-        <v>0.600897</v>
+        <v>0.581829</v>
       </c>
       <c r="D54" t="n">
-        <v>0.545943</v>
+        <v>0.5446260000000001</v>
       </c>
     </row>
     <row r="55">
@@ -10114,13 +10114,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.821659</v>
+        <v>0.824666</v>
       </c>
       <c r="C55" t="n">
-        <v>0.600737</v>
+        <v>0.59029</v>
       </c>
       <c r="D55" t="n">
-        <v>0.548522</v>
+        <v>0.547733</v>
       </c>
     </row>
     <row r="56">
@@ -10128,13 +10128,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.826063</v>
+        <v>0.82895</v>
       </c>
       <c r="C56" t="n">
-        <v>0.607869</v>
+        <v>0.594896</v>
       </c>
       <c r="D56" t="n">
-        <v>0.548404</v>
+        <v>0.54845</v>
       </c>
     </row>
     <row r="57">
@@ -10142,13 +10142,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.831108</v>
+        <v>0.835144</v>
       </c>
       <c r="C57" t="n">
-        <v>0.609673</v>
+        <v>0.6023579999999999</v>
       </c>
       <c r="D57" t="n">
-        <v>0.551768</v>
+        <v>0.549119</v>
       </c>
     </row>
     <row r="58">
@@ -10156,13 +10156,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.830305</v>
+        <v>0.833522</v>
       </c>
       <c r="C58" t="n">
-        <v>0.615833</v>
+        <v>0.605708</v>
       </c>
       <c r="D58" t="n">
-        <v>0.555677</v>
+        <v>0.550071</v>
       </c>
     </row>
     <row r="59">
@@ -10170,13 +10170,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.84087</v>
+        <v>0.83915</v>
       </c>
       <c r="C59" t="n">
-        <v>0.624633</v>
+        <v>0.611276</v>
       </c>
       <c r="D59" t="n">
-        <v>0.5562859999999999</v>
+        <v>0.552674</v>
       </c>
     </row>
     <row r="60">
@@ -10184,13 +10184,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.844746</v>
+        <v>0.844823</v>
       </c>
       <c r="C60" t="n">
-        <v>0.634167</v>
+        <v>0.613896</v>
       </c>
       <c r="D60" t="n">
-        <v>0.555895</v>
+        <v>0.554071</v>
       </c>
     </row>
     <row r="61">
@@ -10198,13 +10198,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.841553</v>
+        <v>0.840773</v>
       </c>
       <c r="C61" t="n">
-        <v>0.634719</v>
+        <v>0.620548</v>
       </c>
       <c r="D61" t="n">
-        <v>0.556397</v>
+        <v>0.556317</v>
       </c>
     </row>
     <row r="62">
@@ -10212,13 +10212,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.85337</v>
+        <v>0.851687</v>
       </c>
       <c r="C62" t="n">
-        <v>0.640893</v>
+        <v>0.625768</v>
       </c>
       <c r="D62" t="n">
-        <v>0.557474</v>
+        <v>0.557337</v>
       </c>
     </row>
     <row r="63">
@@ -10226,13 +10226,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.85417</v>
+        <v>0.863253</v>
       </c>
       <c r="C63" t="n">
-        <v>0.645906</v>
+        <v>0.634279</v>
       </c>
       <c r="D63" t="n">
-        <v>0.560961</v>
+        <v>0.561202</v>
       </c>
     </row>
     <row r="64">
@@ -10240,13 +10240,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.871551</v>
+        <v>0.875174</v>
       </c>
       <c r="C64" t="n">
-        <v>0.6980499999999999</v>
+        <v>0.684855</v>
       </c>
       <c r="D64" t="n">
-        <v>0.596482</v>
+        <v>0.606658</v>
       </c>
     </row>
     <row r="65">
@@ -10254,13 +10254,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.890631</v>
+        <v>0.88913</v>
       </c>
       <c r="C65" t="n">
-        <v>0.71146</v>
+        <v>0.69897</v>
       </c>
       <c r="D65" t="n">
-        <v>0.603447</v>
+        <v>0.605168</v>
       </c>
     </row>
     <row r="66">
@@ -10268,13 +10268,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.911111</v>
+        <v>0.906206</v>
       </c>
       <c r="C66" t="n">
-        <v>0.730388</v>
+        <v>0.718708</v>
       </c>
       <c r="D66" t="n">
-        <v>0.616744</v>
+        <v>0.610785</v>
       </c>
     </row>
     <row r="67">
@@ -10282,13 +10282,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.891418</v>
+        <v>0.92078</v>
       </c>
       <c r="C67" t="n">
-        <v>0.75615</v>
+        <v>0.736057</v>
       </c>
       <c r="D67" t="n">
-        <v>0.626797</v>
+        <v>0.618057</v>
       </c>
     </row>
     <row r="68">
@@ -10296,13 +10296,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.949645</v>
+        <v>0.939783</v>
       </c>
       <c r="C68" t="n">
-        <v>0.775695</v>
+        <v>0.755291</v>
       </c>
       <c r="D68" t="n">
-        <v>0.645351</v>
+        <v>0.635276</v>
       </c>
     </row>
     <row r="69">
@@ -10310,13 +10310,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.976259</v>
+        <v>0.966932</v>
       </c>
       <c r="C69" t="n">
-        <v>0.803154</v>
+        <v>0.7838850000000001</v>
       </c>
       <c r="D69" t="n">
-        <v>0.655008</v>
+        <v>0.655184</v>
       </c>
     </row>
     <row r="70">
@@ -10324,13 +10324,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.988025</v>
+        <v>0.996838</v>
       </c>
       <c r="C70" t="n">
-        <v>0.825581</v>
+        <v>0.817256</v>
       </c>
       <c r="D70" t="n">
-        <v>0.675576</v>
+        <v>0.6757919999999999</v>
       </c>
     </row>
     <row r="71">
@@ -10338,13 +10338,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>1.02222</v>
+        <v>1.02299</v>
       </c>
       <c r="C71" t="n">
-        <v>0.861567</v>
+        <v>0.84624</v>
       </c>
       <c r="D71" t="n">
-        <v>0.694209</v>
+        <v>0.688578</v>
       </c>
     </row>
     <row r="72">
@@ -10352,13 +10352,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>1.05496</v>
+        <v>1.04954</v>
       </c>
       <c r="C72" t="n">
-        <v>0.884301</v>
+        <v>0.873837</v>
       </c>
       <c r="D72" t="n">
-        <v>0.707418</v>
+        <v>0.706311</v>
       </c>
     </row>
     <row r="73">
@@ -10366,13 +10366,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>1.07786</v>
+        <v>1.08143</v>
       </c>
       <c r="C73" t="n">
-        <v>0.924729</v>
+        <v>0.910191</v>
       </c>
       <c r="D73" t="n">
-        <v>0.729979</v>
+        <v>0.721073</v>
       </c>
     </row>
     <row r="74">
@@ -10380,13 +10380,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>1.11319</v>
+        <v>1.10643</v>
       </c>
       <c r="C74" t="n">
-        <v>0.964723</v>
+        <v>0.943433</v>
       </c>
       <c r="D74" t="n">
-        <v>0.76792</v>
+        <v>0.749034</v>
       </c>
     </row>
     <row r="75">
@@ -10394,13 +10394,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>1.1761</v>
+        <v>1.15542</v>
       </c>
       <c r="C75" t="n">
-        <v>1.00551</v>
+        <v>0.978918</v>
       </c>
       <c r="D75" t="n">
-        <v>0.791173</v>
+        <v>0.787232</v>
       </c>
     </row>
     <row r="76">
@@ -10408,13 +10408,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>1.34321</v>
+        <v>1.34203</v>
       </c>
       <c r="C76" t="n">
-        <v>1.04277</v>
+        <v>1.02487</v>
       </c>
       <c r="D76" t="n">
-        <v>0.829233</v>
+        <v>0.818821</v>
       </c>
     </row>
     <row r="77">
@@ -10422,13 +10422,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>1.41412</v>
+        <v>1.40885</v>
       </c>
       <c r="C77" t="n">
-        <v>1.08706</v>
+        <v>1.05888</v>
       </c>
       <c r="D77" t="n">
-        <v>0.863727</v>
+        <v>0.847967</v>
       </c>
     </row>
     <row r="78">
@@ -10436,13 +10436,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>1.48472</v>
+        <v>1.47634</v>
       </c>
       <c r="C78" t="n">
-        <v>1.28247</v>
+        <v>1.26651</v>
       </c>
       <c r="D78" t="n">
-        <v>1.01049</v>
+        <v>1.00875</v>
       </c>
     </row>
     <row r="79">
@@ -10450,13 +10450,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>1.57212</v>
+        <v>1.56872</v>
       </c>
       <c r="C79" t="n">
-        <v>1.32604</v>
+        <v>1.31226</v>
       </c>
       <c r="D79" t="n">
-        <v>1.06503</v>
+        <v>1.06106</v>
       </c>
     </row>
     <row r="80">
@@ -10464,13 +10464,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>1.64656</v>
+        <v>1.64135</v>
       </c>
       <c r="C80" t="n">
-        <v>1.37146</v>
+        <v>1.35249</v>
       </c>
       <c r="D80" t="n">
-        <v>1.11754</v>
+        <v>1.1072</v>
       </c>
     </row>
     <row r="81">
@@ -10478,13 +10478,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>1.73375</v>
+        <v>1.71631</v>
       </c>
       <c r="C81" t="n">
-        <v>1.41019</v>
+        <v>1.40004</v>
       </c>
       <c r="D81" t="n">
-        <v>1.17842</v>
+        <v>1.16828</v>
       </c>
     </row>
     <row r="82">
@@ -10492,13 +10492,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>1.81156</v>
+        <v>1.82652</v>
       </c>
       <c r="C82" t="n">
-        <v>1.45283</v>
+        <v>1.45009</v>
       </c>
       <c r="D82" t="n">
-        <v>1.22423</v>
+        <v>1.24053</v>
       </c>
     </row>
     <row r="83">
@@ -10506,13 +10506,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>1.92469</v>
+        <v>1.92873</v>
       </c>
       <c r="C83" t="n">
-        <v>1.50263</v>
+        <v>1.48637</v>
       </c>
       <c r="D83" t="n">
-        <v>1.28115</v>
+        <v>1.28843</v>
       </c>
     </row>
     <row r="84">
@@ -10520,13 +10520,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>2.01201</v>
+        <v>2.02541</v>
       </c>
       <c r="C84" t="n">
-        <v>1.54939</v>
+        <v>1.54042</v>
       </c>
       <c r="D84" t="n">
-        <v>1.34307</v>
+        <v>1.3405</v>
       </c>
     </row>
     <row r="85">
@@ -10534,13 +10534,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>2.10752</v>
+        <v>2.10307</v>
       </c>
       <c r="C85" t="n">
-        <v>1.59338</v>
+        <v>1.58012</v>
       </c>
       <c r="D85" t="n">
-        <v>1.40037</v>
+        <v>1.39942</v>
       </c>
     </row>
     <row r="86">
@@ -10548,13 +10548,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>2.16926</v>
+        <v>2.20955</v>
       </c>
       <c r="C86" t="n">
-        <v>1.62991</v>
+        <v>1.62659</v>
       </c>
       <c r="D86" t="n">
-        <v>1.45408</v>
+        <v>1.45607</v>
       </c>
     </row>
     <row r="87">
@@ -10562,13 +10562,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>2.28988</v>
+        <v>2.2994</v>
       </c>
       <c r="C87" t="n">
-        <v>1.68211</v>
+        <v>1.67367</v>
       </c>
       <c r="D87" t="n">
-        <v>1.51115</v>
+        <v>1.51851</v>
       </c>
     </row>
     <row r="88">
@@ -10576,13 +10576,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>2.38022</v>
+        <v>2.39224</v>
       </c>
       <c r="C88" t="n">
-        <v>1.71612</v>
+        <v>1.71611</v>
       </c>
       <c r="D88" t="n">
-        <v>1.56946</v>
+        <v>1.57942</v>
       </c>
     </row>
     <row r="89">
@@ -10590,13 +10590,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>2.48954</v>
+        <v>2.48903</v>
       </c>
       <c r="C89" t="n">
-        <v>1.75895</v>
+        <v>1.75763</v>
       </c>
       <c r="D89" t="n">
-        <v>1.62487</v>
+        <v>1.63231</v>
       </c>
     </row>
     <row r="90">
@@ -10604,13 +10604,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>2.67913</v>
+        <v>2.68757</v>
       </c>
       <c r="C90" t="n">
-        <v>1.80161</v>
+        <v>1.80864</v>
       </c>
       <c r="D90" t="n">
-        <v>1.68061</v>
+        <v>1.68627</v>
       </c>
     </row>
     <row r="91">
@@ -10618,13 +10618,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>2.76176</v>
+        <v>2.77431</v>
       </c>
       <c r="C91" t="n">
-        <v>1.85524</v>
+        <v>1.85735</v>
       </c>
       <c r="D91" t="n">
-        <v>1.73744</v>
+        <v>1.73729</v>
       </c>
     </row>
     <row r="92">
@@ -10632,13 +10632,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>2.8442</v>
+        <v>2.85423</v>
       </c>
       <c r="C92" t="n">
-        <v>1.98084</v>
+        <v>1.97872</v>
       </c>
       <c r="D92" t="n">
-        <v>1.85795</v>
+        <v>1.8657</v>
       </c>
     </row>
     <row r="93">
@@ -10646,13 +10646,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>2.92752</v>
+        <v>2.93897</v>
       </c>
       <c r="C93" t="n">
-        <v>2.01077</v>
+        <v>2.01961</v>
       </c>
       <c r="D93" t="n">
-        <v>1.90357</v>
+        <v>1.913</v>
       </c>
     </row>
     <row r="94">
@@ -10660,13 +10660,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>3.01029</v>
+        <v>3.02384</v>
       </c>
       <c r="C94" t="n">
-        <v>2.05132</v>
+        <v>2.04647</v>
       </c>
       <c r="D94" t="n">
-        <v>1.95152</v>
+        <v>1.96374</v>
       </c>
     </row>
     <row r="95">
@@ -10674,13 +10674,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>3.09351</v>
+        <v>3.10919</v>
       </c>
       <c r="C95" t="n">
-        <v>2.08728</v>
+        <v>2.08004</v>
       </c>
       <c r="D95" t="n">
-        <v>1.9978</v>
+        <v>2.0092</v>
       </c>
     </row>
     <row r="96">
@@ -10688,13 +10688,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>3.1726</v>
+        <v>3.19061</v>
       </c>
       <c r="C96" t="n">
-        <v>2.11794</v>
+        <v>2.12035</v>
       </c>
       <c r="D96" t="n">
-        <v>2.05462</v>
+        <v>2.05422</v>
       </c>
     </row>
     <row r="97">
@@ -10702,13 +10702,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>3.24498</v>
+        <v>3.25616</v>
       </c>
       <c r="C97" t="n">
-        <v>2.14592</v>
+        <v>2.15711</v>
       </c>
       <c r="D97" t="n">
-        <v>2.10392</v>
+        <v>2.09796</v>
       </c>
     </row>
     <row r="98">
@@ -10716,13 +10716,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>3.31196</v>
+        <v>3.33524</v>
       </c>
       <c r="C98" t="n">
-        <v>2.18638</v>
+        <v>2.19494</v>
       </c>
       <c r="D98" t="n">
-        <v>2.14211</v>
+        <v>2.1372</v>
       </c>
     </row>
     <row r="99">
@@ -10730,13 +10730,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>3.36751</v>
+        <v>3.39637</v>
       </c>
       <c r="C99" t="n">
-        <v>2.22447</v>
+        <v>2.22794</v>
       </c>
       <c r="D99" t="n">
-        <v>2.18518</v>
+        <v>2.17801</v>
       </c>
     </row>
     <row r="100">
@@ -10744,13 +10744,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>3.44482</v>
+        <v>3.46652</v>
       </c>
       <c r="C100" t="n">
-        <v>2.25859</v>
+        <v>2.26184</v>
       </c>
       <c r="D100" t="n">
-        <v>2.21598</v>
+        <v>2.21331</v>
       </c>
     </row>
     <row r="101">
@@ -10758,13 +10758,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>3.51204</v>
+        <v>3.51898</v>
       </c>
       <c r="C101" t="n">
-        <v>2.27978</v>
+        <v>2.29332</v>
       </c>
       <c r="D101" t="n">
-        <v>2.24682</v>
+        <v>2.25184</v>
       </c>
     </row>
     <row r="102">
@@ -10772,13 +10772,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>3.57488</v>
+        <v>3.59593</v>
       </c>
       <c r="C102" t="n">
-        <v>2.31197</v>
+        <v>2.33072</v>
       </c>
       <c r="D102" t="n">
-        <v>2.27154</v>
+        <v>2.29787</v>
       </c>
     </row>
     <row r="103">
@@ -10786,13 +10786,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>3.62879</v>
+        <v>3.67353</v>
       </c>
       <c r="C103" t="n">
-        <v>2.34202</v>
+        <v>2.36542</v>
       </c>
       <c r="D103" t="n">
-        <v>2.32704</v>
+        <v>2.31714</v>
       </c>
     </row>
     <row r="104">
@@ -10800,13 +10800,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>3.68084</v>
+        <v>3.71758</v>
       </c>
       <c r="C104" t="n">
-        <v>2.36209</v>
+        <v>2.38873</v>
       </c>
       <c r="D104" t="n">
-        <v>2.33822</v>
+        <v>2.35022</v>
       </c>
     </row>
     <row r="105">
@@ -10814,13 +10814,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>3.71778</v>
+        <v>3.76632</v>
       </c>
       <c r="C105" t="n">
-        <v>2.39768</v>
+        <v>2.42963</v>
       </c>
       <c r="D105" t="n">
-        <v>2.38604</v>
+        <v>2.38743</v>
       </c>
     </row>
     <row r="106">
@@ -10828,13 +10828,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>3.78021</v>
+        <v>3.81517</v>
       </c>
       <c r="C106" t="n">
-        <v>2.44404</v>
+        <v>2.46612</v>
       </c>
       <c r="D106" t="n">
-        <v>2.40866</v>
+        <v>2.4126</v>
       </c>
     </row>
     <row r="107">
@@ -10842,13 +10842,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>3.81281</v>
+        <v>3.85486</v>
       </c>
       <c r="C107" t="n">
-        <v>2.43759</v>
+        <v>2.45625</v>
       </c>
       <c r="D107" t="n">
-        <v>2.47638</v>
+        <v>2.49014</v>
       </c>
     </row>
     <row r="108">
@@ -10856,13 +10856,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>3.8602</v>
+        <v>3.90528</v>
       </c>
       <c r="C108" t="n">
-        <v>2.46073</v>
+        <v>2.48586</v>
       </c>
       <c r="D108" t="n">
-        <v>2.50565</v>
+        <v>2.5256</v>
       </c>
     </row>
     <row r="109">
@@ -10870,13 +10870,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>3.92355</v>
+        <v>3.94973</v>
       </c>
       <c r="C109" t="n">
-        <v>2.47754</v>
+        <v>2.50399</v>
       </c>
       <c r="D109" t="n">
-        <v>2.53508</v>
+        <v>2.55442</v>
       </c>
     </row>
     <row r="110">
@@ -10884,13 +10884,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>3.98459</v>
+        <v>4.00673</v>
       </c>
       <c r="C110" t="n">
-        <v>2.50515</v>
+        <v>2.5422</v>
       </c>
       <c r="D110" t="n">
-        <v>2.55743</v>
+        <v>2.58365</v>
       </c>
     </row>
     <row r="111">
@@ -10898,13 +10898,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>3.99886</v>
+        <v>4.05825</v>
       </c>
       <c r="C111" t="n">
-        <v>2.54247</v>
+        <v>2.55719</v>
       </c>
       <c r="D111" t="n">
-        <v>2.58583</v>
+        <v>2.6056</v>
       </c>
     </row>
     <row r="112">
@@ -10912,13 +10912,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>4.05037</v>
+        <v>4.1055</v>
       </c>
       <c r="C112" t="n">
-        <v>2.56269</v>
+        <v>2.58621</v>
       </c>
       <c r="D112" t="n">
-        <v>2.62199</v>
+        <v>2.64392</v>
       </c>
     </row>
     <row r="113">
@@ -10926,13 +10926,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>3.88444</v>
+        <v>4.14031</v>
       </c>
       <c r="C113" t="n">
-        <v>2.57593</v>
+        <v>2.61291</v>
       </c>
       <c r="D113" t="n">
-        <v>2.64667</v>
+        <v>2.6628</v>
       </c>
     </row>
     <row r="114">
@@ -10940,13 +10940,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>4.13339</v>
+        <v>4.19111</v>
       </c>
       <c r="C114" t="n">
-        <v>2.60482</v>
+        <v>2.62689</v>
       </c>
       <c r="D114" t="n">
-        <v>2.66649</v>
+        <v>2.69201</v>
       </c>
     </row>
     <row r="115">
@@ -10954,13 +10954,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>4.1839</v>
+        <v>4.23493</v>
       </c>
       <c r="C115" t="n">
-        <v>2.63552</v>
+        <v>2.65898</v>
       </c>
       <c r="D115" t="n">
-        <v>2.68926</v>
+        <v>2.71187</v>
       </c>
     </row>
     <row r="116">
@@ -10968,13 +10968,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>4.2242</v>
+        <v>4.29652</v>
       </c>
       <c r="C116" t="n">
-        <v>2.64169</v>
+        <v>2.69966</v>
       </c>
       <c r="D116" t="n">
-        <v>2.71489</v>
+        <v>2.7327</v>
       </c>
     </row>
     <row r="117">
@@ -10982,13 +10982,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>4.29411</v>
+        <v>4.33595</v>
       </c>
       <c r="C117" t="n">
-        <v>2.67438</v>
+        <v>2.72208</v>
       </c>
       <c r="D117" t="n">
-        <v>2.74154</v>
+        <v>2.76563</v>
       </c>
     </row>
     <row r="118">
@@ -10996,13 +10996,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>4.34572</v>
+        <v>4.37907</v>
       </c>
       <c r="C118" t="n">
-        <v>2.71589</v>
+        <v>2.75832</v>
       </c>
       <c r="D118" t="n">
-        <v>2.76665</v>
+        <v>2.79104</v>
       </c>
     </row>
     <row r="119">
@@ -11010,13 +11010,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>4.27883</v>
+        <v>4.34494</v>
       </c>
       <c r="C119" t="n">
-        <v>2.73399</v>
+        <v>2.77839</v>
       </c>
       <c r="D119" t="n">
-        <v>2.77818</v>
+        <v>2.79805</v>
       </c>
     </row>
   </sheetData>
@@ -11064,13 +11064,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.5166500000000001</v>
+        <v>0.53349</v>
       </c>
       <c r="C2" t="n">
-        <v>0.420221</v>
+        <v>0.437493</v>
       </c>
       <c r="D2" t="n">
-        <v>0.332644</v>
+        <v>0.340734</v>
       </c>
     </row>
     <row r="3">
@@ -11078,13 +11078,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.5225959999999999</v>
+        <v>0.5451780000000001</v>
       </c>
       <c r="C3" t="n">
-        <v>0.425719</v>
+        <v>0.447681</v>
       </c>
       <c r="D3" t="n">
-        <v>0.334978</v>
+        <v>0.346183</v>
       </c>
     </row>
     <row r="4">
@@ -11092,13 +11092,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.527734</v>
+        <v>0.557179</v>
       </c>
       <c r="C4" t="n">
-        <v>0.433436</v>
+        <v>0.45527</v>
       </c>
       <c r="D4" t="n">
-        <v>0.338405</v>
+        <v>0.356492</v>
       </c>
     </row>
     <row r="5">
@@ -11106,13 +11106,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.540045</v>
+        <v>0.573556</v>
       </c>
       <c r="C5" t="n">
-        <v>0.439906</v>
+        <v>0.463405</v>
       </c>
       <c r="D5" t="n">
-        <v>0.343332</v>
+        <v>0.363197</v>
       </c>
     </row>
     <row r="6">
@@ -11120,13 +11120,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.549341</v>
+        <v>0.584915</v>
       </c>
       <c r="C6" t="n">
-        <v>0.447848</v>
+        <v>0.466287</v>
       </c>
       <c r="D6" t="n">
-        <v>0.345406</v>
+        <v>0.365265</v>
       </c>
     </row>
     <row r="7">
@@ -11134,13 +11134,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.560999</v>
+        <v>0.595577</v>
       </c>
       <c r="C7" t="n">
-        <v>0.456133</v>
+        <v>0.482913</v>
       </c>
       <c r="D7" t="n">
-        <v>0.353153</v>
+        <v>0.375081</v>
       </c>
     </row>
     <row r="8">
@@ -11148,13 +11148,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.568146</v>
+        <v>0.608962</v>
       </c>
       <c r="C8" t="n">
-        <v>0.463764</v>
+        <v>0.488967</v>
       </c>
       <c r="D8" t="n">
-        <v>0.356096</v>
+        <v>0.378072</v>
       </c>
     </row>
     <row r="9">
@@ -11162,13 +11162,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.578371</v>
+        <v>0.617792</v>
       </c>
       <c r="C9" t="n">
-        <v>0.47127</v>
+        <v>0.496923</v>
       </c>
       <c r="D9" t="n">
-        <v>0.360822</v>
+        <v>0.381755</v>
       </c>
     </row>
     <row r="10">
@@ -11176,13 +11176,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.592735</v>
+        <v>0.626829</v>
       </c>
       <c r="C10" t="n">
-        <v>0.481987</v>
+        <v>0.509231</v>
       </c>
       <c r="D10" t="n">
-        <v>0.365866</v>
+        <v>0.382573</v>
       </c>
     </row>
     <row r="11">
@@ -11190,13 +11190,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.605248</v>
+        <v>0.635771</v>
       </c>
       <c r="C11" t="n">
-        <v>0.472758</v>
+        <v>0.484152</v>
       </c>
       <c r="D11" t="n">
-        <v>0.377158</v>
+        <v>0.387993</v>
       </c>
     </row>
     <row r="12">
@@ -11204,13 +11204,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.596596</v>
+        <v>0.609492</v>
       </c>
       <c r="C12" t="n">
-        <v>0.480628</v>
+        <v>0.486087</v>
       </c>
       <c r="D12" t="n">
-        <v>0.382473</v>
+        <v>0.392963</v>
       </c>
     </row>
     <row r="13">
@@ -11218,13 +11218,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.606815</v>
+        <v>0.6184770000000001</v>
       </c>
       <c r="C13" t="n">
-        <v>0.487957</v>
+        <v>0.49703</v>
       </c>
       <c r="D13" t="n">
-        <v>0.387539</v>
+        <v>0.394625</v>
       </c>
     </row>
     <row r="14">
@@ -11232,13 +11232,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.620503</v>
+        <v>0.628321</v>
       </c>
       <c r="C14" t="n">
-        <v>0.495322</v>
+        <v>0.502737</v>
       </c>
       <c r="D14" t="n">
-        <v>0.395787</v>
+        <v>0.399384</v>
       </c>
     </row>
     <row r="15">
@@ -11246,13 +11246,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.635436</v>
+        <v>0.645489</v>
       </c>
       <c r="C15" t="n">
-        <v>0.502598</v>
+        <v>0.50967</v>
       </c>
       <c r="D15" t="n">
-        <v>0.401715</v>
+        <v>0.405403</v>
       </c>
     </row>
     <row r="16">
@@ -11260,13 +11260,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.646858</v>
+        <v>0.653488</v>
       </c>
       <c r="C16" t="n">
-        <v>0.5133799999999999</v>
+        <v>0.51801</v>
       </c>
       <c r="D16" t="n">
-        <v>0.408603</v>
+        <v>0.408871</v>
       </c>
     </row>
     <row r="17">
@@ -11274,13 +11274,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.6570589999999999</v>
+        <v>0.666927</v>
       </c>
       <c r="C17" t="n">
-        <v>0.522115</v>
+        <v>0.5292480000000001</v>
       </c>
       <c r="D17" t="n">
-        <v>0.413792</v>
+        <v>0.415693</v>
       </c>
     </row>
     <row r="18">
@@ -11288,13 +11288,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.661751</v>
+        <v>0.681558</v>
       </c>
       <c r="C18" t="n">
-        <v>0.525729</v>
+        <v>0.532871</v>
       </c>
       <c r="D18" t="n">
-        <v>0.421053</v>
+        <v>0.424213</v>
       </c>
     </row>
     <row r="19">
@@ -11302,13 +11302,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.685008</v>
+        <v>0.69608</v>
       </c>
       <c r="C19" t="n">
-        <v>0.537225</v>
+        <v>0.547606</v>
       </c>
       <c r="D19" t="n">
-        <v>0.423741</v>
+        <v>0.426156</v>
       </c>
     </row>
     <row r="20">
@@ -11316,13 +11316,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.700918</v>
+        <v>0.709713</v>
       </c>
       <c r="C20" t="n">
-        <v>0.5429659999999999</v>
+        <v>0.560207</v>
       </c>
       <c r="D20" t="n">
-        <v>0.430993</v>
+        <v>0.434051</v>
       </c>
     </row>
     <row r="21">
@@ -11330,13 +11330,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.71004</v>
+        <v>0.718662</v>
       </c>
       <c r="C21" t="n">
-        <v>0.558467</v>
+        <v>0.565939</v>
       </c>
       <c r="D21" t="n">
-        <v>0.435521</v>
+        <v>0.437033</v>
       </c>
     </row>
     <row r="22">
@@ -11344,13 +11344,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.721569</v>
+        <v>0.730884</v>
       </c>
       <c r="C22" t="n">
-        <v>0.567993</v>
+        <v>0.580735</v>
       </c>
       <c r="D22" t="n">
-        <v>0.441935</v>
+        <v>0.443601</v>
       </c>
     </row>
     <row r="23">
@@ -11358,13 +11358,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.74054</v>
+        <v>0.748681</v>
       </c>
       <c r="C23" t="n">
-        <v>0.584094</v>
+        <v>0.593965</v>
       </c>
       <c r="D23" t="n">
-        <v>0.446373</v>
+        <v>0.448119</v>
       </c>
     </row>
     <row r="24">
@@ -11372,13 +11372,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.7556349999999999</v>
+        <v>0.7616810000000001</v>
       </c>
       <c r="C24" t="n">
-        <v>0.587121</v>
+        <v>0.601287</v>
       </c>
       <c r="D24" t="n">
-        <v>0.451691</v>
+        <v>0.453933</v>
       </c>
     </row>
     <row r="25">
@@ -11386,13 +11386,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.773735</v>
+        <v>0.779883</v>
       </c>
       <c r="C25" t="n">
-        <v>0.605027</v>
+        <v>0.615689</v>
       </c>
       <c r="D25" t="n">
-        <v>0.458657</v>
+        <v>0.459482</v>
       </c>
     </row>
     <row r="26">
@@ -11400,13 +11400,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.794075</v>
+        <v>0.797314</v>
       </c>
       <c r="C26" t="n">
-        <v>0.5534829999999999</v>
+        <v>0.553468</v>
       </c>
       <c r="D26" t="n">
-        <v>0.465053</v>
+        <v>0.465476</v>
       </c>
     </row>
     <row r="27">
@@ -11414,13 +11414,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.7485810000000001</v>
+        <v>0.747035</v>
       </c>
       <c r="C27" t="n">
-        <v>0.560628</v>
+        <v>0.558243</v>
       </c>
       <c r="D27" t="n">
-        <v>0.468242</v>
+        <v>0.468294</v>
       </c>
     </row>
     <row r="28">
@@ -11428,13 +11428,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.760251</v>
+        <v>0.761892</v>
       </c>
       <c r="C28" t="n">
-        <v>0.570371</v>
+        <v>0.567505</v>
       </c>
       <c r="D28" t="n">
-        <v>0.474387</v>
+        <v>0.47466</v>
       </c>
     </row>
     <row r="29">
@@ -11442,13 +11442,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.772725</v>
+        <v>0.7671559999999999</v>
       </c>
       <c r="C29" t="n">
-        <v>0.571103</v>
+        <v>0.571591</v>
       </c>
       <c r="D29" t="n">
-        <v>0.477396</v>
+        <v>0.477311</v>
       </c>
     </row>
     <row r="30">
@@ -11456,13 +11456,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.7793330000000001</v>
+        <v>0.7821669999999999</v>
       </c>
       <c r="C30" t="n">
-        <v>0.578485</v>
+        <v>0.58286</v>
       </c>
       <c r="D30" t="n">
-        <v>0.483208</v>
+        <v>0.484377</v>
       </c>
     </row>
     <row r="31">
@@ -11470,13 +11470,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.792535</v>
+        <v>0.796421</v>
       </c>
       <c r="C31" t="n">
-        <v>0.588575</v>
+        <v>0.586589</v>
       </c>
       <c r="D31" t="n">
-        <v>0.486589</v>
+        <v>0.486952</v>
       </c>
     </row>
     <row r="32">
@@ -11484,13 +11484,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.805994</v>
+        <v>0.809772</v>
       </c>
       <c r="C32" t="n">
-        <v>0.591843</v>
+        <v>0.596793</v>
       </c>
       <c r="D32" t="n">
-        <v>0.48825</v>
+        <v>0.489619</v>
       </c>
     </row>
     <row r="33">
@@ -11498,13 +11498,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.8188260000000001</v>
+        <v>0.820747</v>
       </c>
       <c r="C33" t="n">
-        <v>0.602038</v>
+        <v>0.603356</v>
       </c>
       <c r="D33" t="n">
-        <v>0.491999</v>
+        <v>0.493749</v>
       </c>
     </row>
     <row r="34">
@@ -11512,13 +11512,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.8303970000000001</v>
+        <v>0.833522</v>
       </c>
       <c r="C34" t="n">
-        <v>0.613694</v>
+        <v>0.614698</v>
       </c>
       <c r="D34" t="n">
-        <v>0.495795</v>
+        <v>0.497559</v>
       </c>
     </row>
     <row r="35">
@@ -11526,13 +11526,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.8408330000000001</v>
+        <v>0.84055</v>
       </c>
       <c r="C35" t="n">
-        <v>0.623363</v>
+        <v>0.625224</v>
       </c>
       <c r="D35" t="n">
-        <v>0.501927</v>
+        <v>0.501668</v>
       </c>
     </row>
     <row r="36">
@@ -11540,13 +11540,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.855981</v>
+        <v>0.860652</v>
       </c>
       <c r="C36" t="n">
-        <v>0.633922</v>
+        <v>0.637974</v>
       </c>
       <c r="D36" t="n">
-        <v>0.504284</v>
+        <v>0.504986</v>
       </c>
     </row>
     <row r="37">
@@ -11554,13 +11554,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.863062</v>
+        <v>0.866797</v>
       </c>
       <c r="C37" t="n">
-        <v>0.644778</v>
+        <v>0.647902</v>
       </c>
       <c r="D37" t="n">
-        <v>0.506424</v>
+        <v>0.506838</v>
       </c>
     </row>
     <row r="38">
@@ -11568,13 +11568,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.876153</v>
+        <v>0.879161</v>
       </c>
       <c r="C38" t="n">
-        <v>0.654819</v>
+        <v>0.6608309999999999</v>
       </c>
       <c r="D38" t="n">
-        <v>0.511323</v>
+        <v>0.511733</v>
       </c>
     </row>
     <row r="39">
@@ -11582,13 +11582,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.89572</v>
+        <v>0.897024</v>
       </c>
       <c r="C39" t="n">
-        <v>0.664286</v>
+        <v>0.673023</v>
       </c>
       <c r="D39" t="n">
-        <v>0.51303</v>
+        <v>0.513482</v>
       </c>
     </row>
     <row r="40">
@@ -11596,13 +11596,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.902186</v>
+        <v>0.903937</v>
       </c>
       <c r="C40" t="n">
-        <v>0.615507</v>
+        <v>0.617169</v>
       </c>
       <c r="D40" t="n">
-        <v>0.518083</v>
+        <v>0.5179550000000001</v>
       </c>
     </row>
     <row r="41">
@@ -11610,13 +11610,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.855358</v>
+        <v>0.858579</v>
       </c>
       <c r="C41" t="n">
-        <v>0.622613</v>
+        <v>0.623193</v>
       </c>
       <c r="D41" t="n">
-        <v>0.520035</v>
+        <v>0.519815</v>
       </c>
     </row>
     <row r="42">
@@ -11624,13 +11624,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.8634309999999999</v>
+        <v>0.866554</v>
       </c>
       <c r="C42" t="n">
-        <v>0.634747</v>
+        <v>0.630128</v>
       </c>
       <c r="D42" t="n">
-        <v>0.523921</v>
+        <v>0.523311</v>
       </c>
     </row>
     <row r="43">
@@ -11638,13 +11638,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.870576</v>
+        <v>0.8731</v>
       </c>
       <c r="C43" t="n">
-        <v>0.6379050000000001</v>
+        <v>0.638524</v>
       </c>
       <c r="D43" t="n">
-        <v>0.52627</v>
+        <v>0.52667</v>
       </c>
     </row>
     <row r="44">
@@ -11652,13 +11652,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.877365</v>
+        <v>0.879277</v>
       </c>
       <c r="C44" t="n">
-        <v>0.648566</v>
+        <v>0.648938</v>
       </c>
       <c r="D44" t="n">
-        <v>0.529097</v>
+        <v>0.528787</v>
       </c>
     </row>
     <row r="45">
@@ -11666,13 +11666,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.890805</v>
+        <v>0.893024</v>
       </c>
       <c r="C45" t="n">
-        <v>0.651743</v>
+        <v>0.655204</v>
       </c>
       <c r="D45" t="n">
-        <v>0.529636</v>
+        <v>0.530093</v>
       </c>
     </row>
     <row r="46">
@@ -11680,13 +11680,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.897969</v>
+        <v>0.902624</v>
       </c>
       <c r="C46" t="n">
-        <v>0.662649</v>
+        <v>0.664583</v>
       </c>
       <c r="D46" t="n">
-        <v>0.532536</v>
+        <v>0.533119</v>
       </c>
     </row>
     <row r="47">
@@ -11694,13 +11694,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.908739</v>
+        <v>0.913998</v>
       </c>
       <c r="C47" t="n">
-        <v>0.670019</v>
+        <v>0.6732900000000001</v>
       </c>
       <c r="D47" t="n">
-        <v>0.535361</v>
+        <v>0.535337</v>
       </c>
     </row>
     <row r="48">
@@ -11708,13 +11708,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.919857</v>
+        <v>0.922854</v>
       </c>
       <c r="C48" t="n">
-        <v>0.67624</v>
+        <v>0.681859</v>
       </c>
       <c r="D48" t="n">
-        <v>0.536098</v>
+        <v>0.536892</v>
       </c>
     </row>
     <row r="49">
@@ -11722,13 +11722,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.927679</v>
+        <v>0.929388</v>
       </c>
       <c r="C49" t="n">
-        <v>0.6874479999999999</v>
+        <v>0.689322</v>
       </c>
       <c r="D49" t="n">
-        <v>0.540408</v>
+        <v>0.5412979999999999</v>
       </c>
     </row>
     <row r="50">
@@ -11736,13 +11736,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.941272</v>
+        <v>0.9432779999999999</v>
       </c>
       <c r="C50" t="n">
-        <v>0.692756</v>
+        <v>0.70118</v>
       </c>
       <c r="D50" t="n">
-        <v>0.542146</v>
+        <v>0.54296</v>
       </c>
     </row>
     <row r="51">
@@ -11750,13 +11750,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.9506790000000001</v>
+        <v>0.953281</v>
       </c>
       <c r="C51" t="n">
-        <v>0.70377</v>
+        <v>0.708188</v>
       </c>
       <c r="D51" t="n">
-        <v>0.544136</v>
+        <v>0.5439659999999999</v>
       </c>
     </row>
     <row r="52">
@@ -11764,13 +11764,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.963077</v>
+        <v>0.963704</v>
       </c>
       <c r="C52" t="n">
-        <v>0.71648</v>
+        <v>0.723272</v>
       </c>
       <c r="D52" t="n">
-        <v>0.544983</v>
+        <v>0.546088</v>
       </c>
     </row>
     <row r="53">
@@ -11778,13 +11778,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.972837</v>
+        <v>0.975458</v>
       </c>
       <c r="C53" t="n">
-        <v>0.727164</v>
+        <v>0.732727</v>
       </c>
       <c r="D53" t="n">
-        <v>0.547948</v>
+        <v>0.549301</v>
       </c>
     </row>
     <row r="54">
@@ -11792,13 +11792,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.984772</v>
+        <v>0.987978</v>
       </c>
       <c r="C54" t="n">
-        <v>0.659924</v>
+        <v>0.6647650000000001</v>
       </c>
       <c r="D54" t="n">
-        <v>0.547839</v>
+        <v>0.548295</v>
       </c>
     </row>
     <row r="55">
@@ -11806,13 +11806,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.997795</v>
+        <v>1.00013</v>
       </c>
       <c r="C55" t="n">
-        <v>0.6662979999999999</v>
+        <v>0.670655</v>
       </c>
       <c r="D55" t="n">
-        <v>0.548886</v>
+        <v>0.549811</v>
       </c>
     </row>
     <row r="56">
@@ -11820,13 +11820,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.915146</v>
+        <v>0.916086</v>
       </c>
       <c r="C56" t="n">
-        <v>0.676362</v>
+        <v>0.678515</v>
       </c>
       <c r="D56" t="n">
-        <v>0.550343</v>
+        <v>0.55072</v>
       </c>
     </row>
     <row r="57">
@@ -11834,13 +11834,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.92076</v>
+        <v>0.924658</v>
       </c>
       <c r="C57" t="n">
-        <v>0.6829190000000001</v>
+        <v>0.687469</v>
       </c>
       <c r="D57" t="n">
-        <v>0.552482</v>
+        <v>0.552612</v>
       </c>
     </row>
     <row r="58">
@@ -11848,13 +11848,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.931207</v>
+        <v>0.933405</v>
       </c>
       <c r="C58" t="n">
-        <v>0.689849</v>
+        <v>0.694648</v>
       </c>
       <c r="D58" t="n">
-        <v>0.554373</v>
+        <v>0.5555369999999999</v>
       </c>
     </row>
     <row r="59">
@@ -11862,13 +11862,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.939591</v>
+        <v>0.943226</v>
       </c>
       <c r="C59" t="n">
-        <v>0.700372</v>
+        <v>0.703964</v>
       </c>
       <c r="D59" t="n">
-        <v>0.555943</v>
+        <v>0.55697</v>
       </c>
     </row>
     <row r="60">
@@ -11876,13 +11876,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.944485</v>
+        <v>0.9486289999999999</v>
       </c>
       <c r="C60" t="n">
-        <v>0.709974</v>
+        <v>0.7144239999999999</v>
       </c>
       <c r="D60" t="n">
-        <v>0.558195</v>
+        <v>0.559422</v>
       </c>
     </row>
     <row r="61">
@@ -11890,13 +11890,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.952661</v>
+        <v>0.957889</v>
       </c>
       <c r="C61" t="n">
-        <v>0.719286</v>
+        <v>0.72411</v>
       </c>
       <c r="D61" t="n">
-        <v>0.560975</v>
+        <v>0.56293</v>
       </c>
     </row>
     <row r="62">
@@ -11904,13 +11904,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.960453</v>
+        <v>0.96693</v>
       </c>
       <c r="C62" t="n">
-        <v>0.7279949999999999</v>
+        <v>0.734665</v>
       </c>
       <c r="D62" t="n">
-        <v>0.560426</v>
+        <v>0.562698</v>
       </c>
     </row>
     <row r="63">
@@ -11918,13 +11918,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.974048</v>
+        <v>0.981729</v>
       </c>
       <c r="C63" t="n">
-        <v>0.739131</v>
+        <v>0.751685</v>
       </c>
       <c r="D63" t="n">
-        <v>0.564056</v>
+        <v>0.568062</v>
       </c>
     </row>
     <row r="64">
@@ -11932,13 +11932,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.98271</v>
+        <v>0.990264</v>
       </c>
       <c r="C64" t="n">
-        <v>0.753628</v>
+        <v>0.762294</v>
       </c>
       <c r="D64" t="n">
-        <v>0.564308</v>
+        <v>0.569032</v>
       </c>
     </row>
     <row r="65">
@@ -11946,13 +11946,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.997212</v>
+        <v>1.00456</v>
       </c>
       <c r="C65" t="n">
-        <v>0.769245</v>
+        <v>0.780501</v>
       </c>
       <c r="D65" t="n">
-        <v>0.567524</v>
+        <v>0.5724320000000001</v>
       </c>
     </row>
     <row r="66">
@@ -11960,13 +11960,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>1.01187</v>
+        <v>1.02139</v>
       </c>
       <c r="C66" t="n">
-        <v>0.783617</v>
+        <v>0.792307</v>
       </c>
       <c r="D66" t="n">
-        <v>0.570543</v>
+        <v>0.576713</v>
       </c>
     </row>
     <row r="67">
@@ -11974,13 +11974,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>1.02504</v>
+        <v>1.03351</v>
       </c>
       <c r="C67" t="n">
-        <v>0.802248</v>
+        <v>0.8122200000000001</v>
       </c>
       <c r="D67" t="n">
-        <v>0.574451</v>
+        <v>0.5809800000000001</v>
       </c>
     </row>
     <row r="68">
@@ -11988,13 +11988,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>1.03716</v>
+        <v>1.05075</v>
       </c>
       <c r="C68" t="n">
-        <v>0.743777</v>
+        <v>0.740211</v>
       </c>
       <c r="D68" t="n">
-        <v>0.592635</v>
+        <v>0.602475</v>
       </c>
     </row>
     <row r="69">
@@ -12002,13 +12002,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>1.07799</v>
+        <v>1.09242</v>
       </c>
       <c r="C69" t="n">
-        <v>0.767257</v>
+        <v>0.7665419999999999</v>
       </c>
       <c r="D69" t="n">
-        <v>0.604098</v>
+        <v>0.614672</v>
       </c>
     </row>
     <row r="70">
@@ -12016,13 +12016,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>1.01727</v>
+        <v>1.03139</v>
       </c>
       <c r="C70" t="n">
-        <v>0.7973710000000001</v>
+        <v>0.7947109999999999</v>
       </c>
       <c r="D70" t="n">
-        <v>0.621191</v>
+        <v>0.628717</v>
       </c>
     </row>
     <row r="71">
@@ -12030,13 +12030,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>1.05098</v>
+        <v>1.06199</v>
       </c>
       <c r="C71" t="n">
-        <v>0.827783</v>
+        <v>0.828543</v>
       </c>
       <c r="D71" t="n">
-        <v>0.633969</v>
+        <v>0.645604</v>
       </c>
     </row>
     <row r="72">
@@ -12044,13 +12044,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>1.08372</v>
+        <v>1.0953</v>
       </c>
       <c r="C72" t="n">
-        <v>0.862467</v>
+        <v>0.864192</v>
       </c>
       <c r="D72" t="n">
-        <v>0.653196</v>
+        <v>0.659475</v>
       </c>
     </row>
     <row r="73">
@@ -12058,13 +12058,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>1.11683</v>
+        <v>1.12333</v>
       </c>
       <c r="C73" t="n">
-        <v>0.8993</v>
+        <v>0.898237</v>
       </c>
       <c r="D73" t="n">
-        <v>0.670732</v>
+        <v>0.675339</v>
       </c>
     </row>
     <row r="74">
@@ -12072,13 +12072,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>1.15558</v>
+        <v>1.16472</v>
       </c>
       <c r="C74" t="n">
-        <v>0.935252</v>
+        <v>0.937207</v>
       </c>
       <c r="D74" t="n">
-        <v>0.690086</v>
+        <v>0.694874</v>
       </c>
     </row>
     <row r="75">
@@ -12086,13 +12086,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>1.19706</v>
+        <v>1.20158</v>
       </c>
       <c r="C75" t="n">
-        <v>0.977826</v>
+        <v>0.979677</v>
       </c>
       <c r="D75" t="n">
-        <v>0.712872</v>
+        <v>0.718077</v>
       </c>
     </row>
     <row r="76">
@@ -12100,13 +12100,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>1.2438</v>
+        <v>1.2472</v>
       </c>
       <c r="C76" t="n">
-        <v>1.02239</v>
+        <v>1.02388</v>
       </c>
       <c r="D76" t="n">
-        <v>0.738305</v>
+        <v>0.740273</v>
       </c>
     </row>
     <row r="77">
@@ -12114,13 +12114,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>1.29708</v>
+        <v>1.29267</v>
       </c>
       <c r="C77" t="n">
-        <v>1.07305</v>
+        <v>1.07005</v>
       </c>
       <c r="D77" t="n">
-        <v>0.769241</v>
+        <v>0.764458</v>
       </c>
     </row>
     <row r="78">
@@ -12128,13 +12128,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>1.36415</v>
+        <v>1.34756</v>
       </c>
       <c r="C78" t="n">
-        <v>1.12067</v>
+        <v>1.11637</v>
       </c>
       <c r="D78" t="n">
-        <v>0.801926</v>
+        <v>0.79192</v>
       </c>
     </row>
     <row r="79">
@@ -12142,13 +12142,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>1.42253</v>
+        <v>1.41311</v>
       </c>
       <c r="C79" t="n">
-        <v>1.16847</v>
+        <v>1.16762</v>
       </c>
       <c r="D79" t="n">
-        <v>0.8364</v>
+        <v>0.825334</v>
       </c>
     </row>
     <row r="80">
@@ -12156,13 +12156,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>1.5022</v>
+        <v>1.48759</v>
       </c>
       <c r="C80" t="n">
-        <v>1.22696</v>
+        <v>1.23259</v>
       </c>
       <c r="D80" t="n">
-        <v>0.874178</v>
+        <v>0.866764</v>
       </c>
     </row>
     <row r="81">
@@ -12170,13 +12170,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>1.58709</v>
+        <v>1.57067</v>
       </c>
       <c r="C81" t="n">
-        <v>1.29184</v>
+        <v>1.29841</v>
       </c>
       <c r="D81" t="n">
-        <v>0.919449</v>
+        <v>0.907662</v>
       </c>
     </row>
     <row r="82">
@@ -12184,13 +12184,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>1.68278</v>
+        <v>1.6474</v>
       </c>
       <c r="C82" t="n">
-        <v>1.3554</v>
+        <v>1.36025</v>
       </c>
       <c r="D82" t="n">
-        <v>0.966894</v>
+        <v>0.949837</v>
       </c>
     </row>
     <row r="83">
@@ -12198,13 +12198,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>1.78411</v>
+        <v>1.75615</v>
       </c>
       <c r="C83" t="n">
-        <v>1.35062</v>
+        <v>1.34291</v>
       </c>
       <c r="D83" t="n">
-        <v>1.08274</v>
+        <v>1.06709</v>
       </c>
     </row>
     <row r="84">
@@ -12212,13 +12212,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>1.88943</v>
+        <v>1.86607</v>
       </c>
       <c r="C84" t="n">
-        <v>1.41355</v>
+        <v>1.40629</v>
       </c>
       <c r="D84" t="n">
-        <v>1.13854</v>
+        <v>1.12325</v>
       </c>
     </row>
     <row r="85">
@@ -12226,13 +12226,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>1.91328</v>
+        <v>1.88657</v>
       </c>
       <c r="C85" t="n">
-        <v>1.47316</v>
+        <v>1.46507</v>
       </c>
       <c r="D85" t="n">
-        <v>1.19874</v>
+        <v>1.17942</v>
       </c>
     </row>
     <row r="86">
@@ -12240,13 +12240,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>2.02091</v>
+        <v>2.01022</v>
       </c>
       <c r="C86" t="n">
-        <v>1.54236</v>
+        <v>1.54212</v>
       </c>
       <c r="D86" t="n">
-        <v>1.25186</v>
+        <v>1.24292</v>
       </c>
     </row>
     <row r="87">
@@ -12254,13 +12254,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>2.12632</v>
+        <v>2.11347</v>
       </c>
       <c r="C87" t="n">
-        <v>1.60925</v>
+        <v>1.61106</v>
       </c>
       <c r="D87" t="n">
-        <v>1.30946</v>
+        <v>1.30206</v>
       </c>
     </row>
     <row r="88">
@@ -12268,13 +12268,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>2.24029</v>
+        <v>2.23605</v>
       </c>
       <c r="C88" t="n">
-        <v>1.68566</v>
+        <v>1.69483</v>
       </c>
       <c r="D88" t="n">
-        <v>1.36977</v>
+        <v>1.36452</v>
       </c>
     </row>
     <row r="89">
@@ -12282,13 +12282,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>2.36247</v>
+        <v>2.35926</v>
       </c>
       <c r="C89" t="n">
-        <v>1.76119</v>
+        <v>1.77875</v>
       </c>
       <c r="D89" t="n">
-        <v>1.42013</v>
+        <v>1.41848</v>
       </c>
     </row>
     <row r="90">
@@ -12296,13 +12296,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>2.48906</v>
+        <v>2.48145</v>
       </c>
       <c r="C90" t="n">
-        <v>1.83505</v>
+        <v>1.85223</v>
       </c>
       <c r="D90" t="n">
-        <v>1.47893</v>
+        <v>1.47863</v>
       </c>
     </row>
     <row r="91">
@@ -12310,13 +12310,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>2.59769</v>
+        <v>2.6067</v>
       </c>
       <c r="C91" t="n">
-        <v>1.92293</v>
+        <v>1.94738</v>
       </c>
       <c r="D91" t="n">
-        <v>1.53282</v>
+        <v>1.5415</v>
       </c>
     </row>
     <row r="92">
@@ -12324,13 +12324,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>2.72523</v>
+        <v>2.73208</v>
       </c>
       <c r="C92" t="n">
-        <v>2.00589</v>
+        <v>2.03328</v>
       </c>
       <c r="D92" t="n">
-        <v>1.5886</v>
+        <v>1.59263</v>
       </c>
     </row>
     <row r="93">
@@ -12338,13 +12338,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>2.86871</v>
+        <v>2.88263</v>
       </c>
       <c r="C93" t="n">
-        <v>2.09207</v>
+        <v>2.12435</v>
       </c>
       <c r="D93" t="n">
-        <v>1.64067</v>
+        <v>1.65433</v>
       </c>
     </row>
     <row r="94">
@@ -12352,13 +12352,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>3.00889</v>
+        <v>2.98967</v>
       </c>
       <c r="C94" t="n">
-        <v>2.18175</v>
+        <v>2.21434</v>
       </c>
       <c r="D94" t="n">
-        <v>1.69391</v>
+        <v>1.69913</v>
       </c>
     </row>
     <row r="95">
@@ -12366,13 +12366,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>3.11444</v>
+        <v>3.14984</v>
       </c>
       <c r="C95" t="n">
-        <v>2.27678</v>
+        <v>2.31497</v>
       </c>
       <c r="D95" t="n">
-        <v>1.73849</v>
+        <v>1.74943</v>
       </c>
     </row>
     <row r="96">
@@ -12380,13 +12380,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>3.27723</v>
+        <v>3.2913</v>
       </c>
       <c r="C96" t="n">
-        <v>2.37691</v>
+        <v>2.43055</v>
       </c>
       <c r="D96" t="n">
-        <v>1.78922</v>
+        <v>1.79884</v>
       </c>
     </row>
     <row r="97">
@@ -12394,13 +12394,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>3.40855</v>
+        <v>3.43723</v>
       </c>
       <c r="C97" t="n">
-        <v>2.18761</v>
+        <v>2.20763</v>
       </c>
       <c r="D97" t="n">
-        <v>1.92931</v>
+        <v>1.93872</v>
       </c>
     </row>
     <row r="98">
@@ -12408,13 +12408,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>3.55272</v>
+        <v>3.55632</v>
       </c>
       <c r="C98" t="n">
-        <v>2.24704</v>
+        <v>2.27655</v>
       </c>
       <c r="D98" t="n">
-        <v>1.97384</v>
+        <v>1.98177</v>
       </c>
     </row>
     <row r="99">
@@ -12422,13 +12422,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>3.43568</v>
+        <v>3.43603</v>
       </c>
       <c r="C99" t="n">
-        <v>2.29764</v>
+        <v>2.34441</v>
       </c>
       <c r="D99" t="n">
-        <v>2.01745</v>
+        <v>2.03777</v>
       </c>
     </row>
     <row r="100">
@@ -12436,13 +12436,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>3.56481</v>
+        <v>3.56877</v>
       </c>
       <c r="C100" t="n">
-        <v>2.35567</v>
+        <v>2.41832</v>
       </c>
       <c r="D100" t="n">
-        <v>2.06534</v>
+        <v>2.06692</v>
       </c>
     </row>
     <row r="101">
@@ -12450,13 +12450,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>3.65813</v>
+        <v>3.66704</v>
       </c>
       <c r="C101" t="n">
-        <v>2.42953</v>
+        <v>2.48462</v>
       </c>
       <c r="D101" t="n">
-        <v>2.10991</v>
+        <v>2.10871</v>
       </c>
     </row>
     <row r="102">
@@ -12464,13 +12464,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>3.73811</v>
+        <v>3.76947</v>
       </c>
       <c r="C102" t="n">
-        <v>2.50199</v>
+        <v>2.56173</v>
       </c>
       <c r="D102" t="n">
-        <v>2.14831</v>
+        <v>2.1449</v>
       </c>
     </row>
     <row r="103">
@@ -12478,13 +12478,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>3.86032</v>
+        <v>3.86642</v>
       </c>
       <c r="C103" t="n">
-        <v>2.57311</v>
+        <v>2.63356</v>
       </c>
       <c r="D103" t="n">
-        <v>2.18282</v>
+        <v>2.19139</v>
       </c>
     </row>
     <row r="104">
@@ -12492,13 +12492,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>3.95966</v>
+        <v>3.9618</v>
       </c>
       <c r="C104" t="n">
-        <v>2.65352</v>
+        <v>2.70823</v>
       </c>
       <c r="D104" t="n">
-        <v>2.22021</v>
+        <v>2.21879</v>
       </c>
     </row>
     <row r="105">
@@ -12506,13 +12506,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>4.04743</v>
+        <v>4.04384</v>
       </c>
       <c r="C105" t="n">
-        <v>2.7193</v>
+        <v>2.7881</v>
       </c>
       <c r="D105" t="n">
-        <v>2.23793</v>
+        <v>2.24875</v>
       </c>
     </row>
     <row r="106">
@@ -12520,13 +12520,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>4.14715</v>
+        <v>4.15867</v>
       </c>
       <c r="C106" t="n">
-        <v>2.78626</v>
+        <v>2.88333</v>
       </c>
       <c r="D106" t="n">
-        <v>2.28636</v>
+        <v>2.29552</v>
       </c>
     </row>
     <row r="107">
@@ -12534,13 +12534,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>4.26991</v>
+        <v>4.28602</v>
       </c>
       <c r="C107" t="n">
-        <v>2.87844</v>
+        <v>2.94226</v>
       </c>
       <c r="D107" t="n">
-        <v>2.3021</v>
+        <v>2.31186</v>
       </c>
     </row>
     <row r="108">
@@ -12548,13 +12548,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>4.36752</v>
+        <v>4.39737</v>
       </c>
       <c r="C108" t="n">
-        <v>2.95902</v>
+        <v>3.04183</v>
       </c>
       <c r="D108" t="n">
-        <v>2.34573</v>
+        <v>2.34391</v>
       </c>
     </row>
     <row r="109">
@@ -12562,13 +12562,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>4.45291</v>
+        <v>4.49502</v>
       </c>
       <c r="C109" t="n">
-        <v>3.04354</v>
+        <v>3.13636</v>
       </c>
       <c r="D109" t="n">
-        <v>2.36268</v>
+        <v>2.37433</v>
       </c>
     </row>
     <row r="110">
@@ -12576,13 +12576,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>4.58675</v>
+        <v>4.57551</v>
       </c>
       <c r="C110" t="n">
-        <v>3.12182</v>
+        <v>3.22242</v>
       </c>
       <c r="D110" t="n">
-        <v>2.39189</v>
+        <v>2.40576</v>
       </c>
     </row>
     <row r="111">
@@ -12590,13 +12590,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>4.68518</v>
+        <v>4.68342</v>
       </c>
       <c r="C111" t="n">
-        <v>2.78901</v>
+        <v>2.85075</v>
       </c>
       <c r="D111" t="n">
-        <v>2.50289</v>
+        <v>2.51412</v>
       </c>
     </row>
     <row r="112">
@@ -12604,13 +12604,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>4.78096</v>
+        <v>4.81841</v>
       </c>
       <c r="C112" t="n">
-        <v>2.84476</v>
+        <v>2.9078</v>
       </c>
       <c r="D112" t="n">
-        <v>2.53356</v>
+        <v>2.55234</v>
       </c>
     </row>
     <row r="113">
@@ -12618,13 +12618,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>4.89828</v>
+        <v>4.92925</v>
       </c>
       <c r="C113" t="n">
-        <v>2.913</v>
+        <v>2.97391</v>
       </c>
       <c r="D113" t="n">
-        <v>2.56558</v>
+        <v>2.58448</v>
       </c>
     </row>
     <row r="114">
@@ -12632,13 +12632,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>4.51301</v>
+        <v>4.53973</v>
       </c>
       <c r="C114" t="n">
-        <v>2.96142</v>
+        <v>3.03879</v>
       </c>
       <c r="D114" t="n">
-        <v>2.58466</v>
+        <v>2.60187</v>
       </c>
     </row>
     <row r="115">
@@ -12646,13 +12646,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>4.59514</v>
+        <v>4.60244</v>
       </c>
       <c r="C115" t="n">
-        <v>3.0199</v>
+        <v>3.08778</v>
       </c>
       <c r="D115" t="n">
-        <v>2.60519</v>
+        <v>2.61991</v>
       </c>
     </row>
     <row r="116">
@@ -12660,13 +12660,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>4.68901</v>
+        <v>4.73201</v>
       </c>
       <c r="C116" t="n">
-        <v>3.08991</v>
+        <v>3.16346</v>
       </c>
       <c r="D116" t="n">
-        <v>2.6315</v>
+        <v>2.64054</v>
       </c>
     </row>
     <row r="117">
@@ -12674,13 +12674,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>4.76293</v>
+        <v>4.80175</v>
       </c>
       <c r="C117" t="n">
-        <v>3.14294</v>
+        <v>3.22631</v>
       </c>
       <c r="D117" t="n">
-        <v>2.65438</v>
+        <v>2.66536</v>
       </c>
     </row>
     <row r="118">
@@ -12688,13 +12688,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>4.83404</v>
+        <v>4.87395</v>
       </c>
       <c r="C118" t="n">
-        <v>3.20928</v>
+        <v>3.29702</v>
       </c>
       <c r="D118" t="n">
-        <v>2.68018</v>
+        <v>2.69855</v>
       </c>
     </row>
     <row r="119">
@@ -12702,13 +12702,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>4.93888</v>
+        <v>4.99109</v>
       </c>
       <c r="C119" t="n">
-        <v>3.28368</v>
+        <v>3.36543</v>
       </c>
       <c r="D119" t="n">
-        <v>2.67922</v>
+        <v>2.71537</v>
       </c>
     </row>
   </sheetData>

--- a/gcc/scattered erasure.xlsx
+++ b/gcc/scattered erasure.xlsx
@@ -7680,13 +7680,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.306136</v>
+        <v>0.314111</v>
       </c>
       <c r="C2" t="n">
-        <v>0.256759</v>
+        <v>0.260186</v>
       </c>
       <c r="D2" t="n">
-        <v>0.218991</v>
+        <v>0.242237</v>
       </c>
     </row>
     <row r="3">
@@ -7694,13 +7694,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.289382</v>
+        <v>0.301618</v>
       </c>
       <c r="C3" t="n">
-        <v>0.259902</v>
+        <v>0.262907</v>
       </c>
       <c r="D3" t="n">
-        <v>0.231664</v>
+        <v>0.244772</v>
       </c>
     </row>
     <row r="4">
@@ -7708,13 +7708,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.292722</v>
+        <v>0.311527</v>
       </c>
       <c r="C4" t="n">
-        <v>0.26506</v>
+        <v>0.268049</v>
       </c>
       <c r="D4" t="n">
-        <v>0.231751</v>
+        <v>0.258755</v>
       </c>
     </row>
     <row r="5">
@@ -7722,13 +7722,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.304695</v>
+        <v>0.311998</v>
       </c>
       <c r="C5" t="n">
-        <v>0.268554</v>
+        <v>0.270251</v>
       </c>
       <c r="D5" t="n">
-        <v>0.247842</v>
+        <v>0.252277</v>
       </c>
     </row>
     <row r="6">
@@ -7736,13 +7736,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.308942</v>
+        <v>0.318232</v>
       </c>
       <c r="C6" t="n">
-        <v>0.27104</v>
+        <v>0.27349</v>
       </c>
       <c r="D6" t="n">
-        <v>0.252543</v>
+        <v>0.268773</v>
       </c>
     </row>
     <row r="7">
@@ -7750,13 +7750,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.315839</v>
+        <v>0.32553</v>
       </c>
       <c r="C7" t="n">
-        <v>0.261417</v>
+        <v>0.262279</v>
       </c>
       <c r="D7" t="n">
-        <v>0.264141</v>
+        <v>0.273112</v>
       </c>
     </row>
     <row r="8">
@@ -7764,13 +7764,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.324527</v>
+        <v>0.329073</v>
       </c>
       <c r="C8" t="n">
-        <v>0.264025</v>
+        <v>0.264228</v>
       </c>
       <c r="D8" t="n">
-        <v>0.269676</v>
+        <v>0.279386</v>
       </c>
     </row>
     <row r="9">
@@ -7778,13 +7778,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.333924</v>
+        <v>0.337373</v>
       </c>
       <c r="C9" t="n">
-        <v>0.266841</v>
+        <v>0.266573</v>
       </c>
       <c r="D9" t="n">
-        <v>0.280523</v>
+        <v>0.28514</v>
       </c>
     </row>
     <row r="10">
@@ -7792,13 +7792,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.342424</v>
+        <v>0.344362</v>
       </c>
       <c r="C10" t="n">
-        <v>0.268238</v>
+        <v>0.268318</v>
       </c>
       <c r="D10" t="n">
-        <v>0.280818</v>
+        <v>0.289305</v>
       </c>
     </row>
     <row r="11">
@@ -7806,13 +7806,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.346677</v>
+        <v>0.356604</v>
       </c>
       <c r="C11" t="n">
-        <v>0.269655</v>
+        <v>0.26968</v>
       </c>
       <c r="D11" t="n">
-        <v>0.287464</v>
+        <v>0.293393</v>
       </c>
     </row>
     <row r="12">
@@ -7820,13 +7820,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.35405</v>
+        <v>0.357132</v>
       </c>
       <c r="C12" t="n">
-        <v>0.272641</v>
+        <v>0.273106</v>
       </c>
       <c r="D12" t="n">
-        <v>0.295322</v>
+        <v>0.307533</v>
       </c>
     </row>
     <row r="13">
@@ -7834,13 +7834,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.362522</v>
+        <v>0.372721</v>
       </c>
       <c r="C13" t="n">
-        <v>0.275532</v>
+        <v>0.275726</v>
       </c>
       <c r="D13" t="n">
-        <v>0.300751</v>
+        <v>0.311109</v>
       </c>
     </row>
     <row r="14">
@@ -7848,13 +7848,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.368402</v>
+        <v>0.377811</v>
       </c>
       <c r="C14" t="n">
-        <v>0.278744</v>
+        <v>0.278769</v>
       </c>
       <c r="D14" t="n">
-        <v>0.306043</v>
+        <v>0.311565</v>
       </c>
     </row>
     <row r="15">
@@ -7862,13 +7862,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.375991</v>
+        <v>0.382658</v>
       </c>
       <c r="C15" t="n">
-        <v>0.282405</v>
+        <v>0.282543</v>
       </c>
       <c r="D15" t="n">
-        <v>0.31488</v>
+        <v>0.318113</v>
       </c>
     </row>
     <row r="16">
@@ -7876,13 +7876,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.384719</v>
+        <v>0.388919</v>
       </c>
       <c r="C16" t="n">
-        <v>0.285755</v>
+        <v>0.284625</v>
       </c>
       <c r="D16" t="n">
-        <v>0.321923</v>
+        <v>0.324818</v>
       </c>
     </row>
     <row r="17">
@@ -7890,13 +7890,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.396003</v>
+        <v>0.397721</v>
       </c>
       <c r="C17" t="n">
-        <v>0.28924</v>
+        <v>0.288302</v>
       </c>
       <c r="D17" t="n">
-        <v>0.327686</v>
+        <v>0.332285</v>
       </c>
     </row>
     <row r="18">
@@ -7904,13 +7904,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.378535</v>
+        <v>0.380156</v>
       </c>
       <c r="C18" t="n">
-        <v>0.292075</v>
+        <v>0.292335</v>
       </c>
       <c r="D18" t="n">
-        <v>0.331648</v>
+        <v>0.335787</v>
       </c>
     </row>
     <row r="19">
@@ -7918,13 +7918,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.384434</v>
+        <v>0.384565</v>
       </c>
       <c r="C19" t="n">
-        <v>0.295695</v>
+        <v>0.295051</v>
       </c>
       <c r="D19" t="n">
-        <v>0.340351</v>
+        <v>0.342624</v>
       </c>
     </row>
     <row r="20">
@@ -7932,13 +7932,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.390938</v>
+        <v>0.39013</v>
       </c>
       <c r="C20" t="n">
-        <v>0.299733</v>
+        <v>0.298497</v>
       </c>
       <c r="D20" t="n">
-        <v>0.344121</v>
+        <v>0.347803</v>
       </c>
     </row>
     <row r="21">
@@ -7946,13 +7946,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.394306</v>
+        <v>0.395962</v>
       </c>
       <c r="C21" t="n">
-        <v>0.278677</v>
+        <v>0.278648</v>
       </c>
       <c r="D21" t="n">
-        <v>0.352181</v>
+        <v>0.354366</v>
       </c>
     </row>
     <row r="22">
@@ -7960,13 +7960,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.401391</v>
+        <v>0.404013</v>
       </c>
       <c r="C22" t="n">
-        <v>0.281279</v>
+        <v>0.280994</v>
       </c>
       <c r="D22" t="n">
-        <v>0.357308</v>
+        <v>0.358863</v>
       </c>
     </row>
     <row r="23">
@@ -7974,13 +7974,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.406564</v>
+        <v>0.407064</v>
       </c>
       <c r="C23" t="n">
-        <v>0.282503</v>
+        <v>0.282174</v>
       </c>
       <c r="D23" t="n">
-        <v>0.360832</v>
+        <v>0.36252</v>
       </c>
     </row>
     <row r="24">
@@ -7988,13 +7988,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.41271</v>
+        <v>0.412849</v>
       </c>
       <c r="C24" t="n">
-        <v>0.286024</v>
+        <v>0.285277</v>
       </c>
       <c r="D24" t="n">
-        <v>0.365473</v>
+        <v>0.366731</v>
       </c>
     </row>
     <row r="25">
@@ -8002,13 +8002,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.419106</v>
+        <v>0.419522</v>
       </c>
       <c r="C25" t="n">
-        <v>0.287842</v>
+        <v>0.28677</v>
       </c>
       <c r="D25" t="n">
-        <v>0.368853</v>
+        <v>0.370072</v>
       </c>
     </row>
     <row r="26">
@@ -8016,13 +8016,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.425133</v>
+        <v>0.425602</v>
       </c>
       <c r="C26" t="n">
-        <v>0.290239</v>
+        <v>0.289654</v>
       </c>
       <c r="D26" t="n">
-        <v>0.372244</v>
+        <v>0.373946</v>
       </c>
     </row>
     <row r="27">
@@ -8030,13 +8030,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.431426</v>
+        <v>0.432768</v>
       </c>
       <c r="C27" t="n">
-        <v>0.292282</v>
+        <v>0.292344</v>
       </c>
       <c r="D27" t="n">
-        <v>0.375927</v>
+        <v>0.377432</v>
       </c>
     </row>
     <row r="28">
@@ -8044,13 +8044,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.43429</v>
+        <v>0.43756</v>
       </c>
       <c r="C28" t="n">
-        <v>0.295324</v>
+        <v>0.295127</v>
       </c>
       <c r="D28" t="n">
-        <v>0.380355</v>
+        <v>0.381046</v>
       </c>
     </row>
     <row r="29">
@@ -8058,13 +8058,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.442311</v>
+        <v>0.443332</v>
       </c>
       <c r="C29" t="n">
-        <v>0.297897</v>
+        <v>0.297998</v>
       </c>
       <c r="D29" t="n">
-        <v>0.384518</v>
+        <v>0.385609</v>
       </c>
     </row>
     <row r="30">
@@ -8072,13 +8072,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.448514</v>
+        <v>0.449122</v>
       </c>
       <c r="C30" t="n">
-        <v>0.301232</v>
+        <v>0.301391</v>
       </c>
       <c r="D30" t="n">
-        <v>0.386953</v>
+        <v>0.388893</v>
       </c>
     </row>
     <row r="31">
@@ -8086,13 +8086,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.454328</v>
+        <v>0.456821</v>
       </c>
       <c r="C31" t="n">
-        <v>0.304276</v>
+        <v>0.30445</v>
       </c>
       <c r="D31" t="n">
-        <v>0.39106</v>
+        <v>0.392122</v>
       </c>
     </row>
     <row r="32">
@@ -8100,13 +8100,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.425077</v>
+        <v>0.426773</v>
       </c>
       <c r="C32" t="n">
-        <v>0.307638</v>
+        <v>0.307508</v>
       </c>
       <c r="D32" t="n">
-        <v>0.394898</v>
+        <v>0.395241</v>
       </c>
     </row>
     <row r="33">
@@ -8114,13 +8114,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.430319</v>
+        <v>0.431487</v>
       </c>
       <c r="C33" t="n">
-        <v>0.311608</v>
+        <v>0.311231</v>
       </c>
       <c r="D33" t="n">
-        <v>0.39887</v>
+        <v>0.399753</v>
       </c>
     </row>
     <row r="34">
@@ -8128,13 +8128,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.434428</v>
+        <v>0.43476</v>
       </c>
       <c r="C34" t="n">
-        <v>0.31517</v>
+        <v>0.314856</v>
       </c>
       <c r="D34" t="n">
-        <v>0.401717</v>
+        <v>0.402782</v>
       </c>
     </row>
     <row r="35">
@@ -8142,13 +8142,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.438829</v>
+        <v>0.439366</v>
       </c>
       <c r="C35" t="n">
-        <v>0.289629</v>
+        <v>0.290121</v>
       </c>
       <c r="D35" t="n">
-        <v>0.401782</v>
+        <v>0.402653</v>
       </c>
     </row>
     <row r="36">
@@ -8156,13 +8156,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.442204</v>
+        <v>0.442717</v>
       </c>
       <c r="C36" t="n">
-        <v>0.29189</v>
+        <v>0.291852</v>
       </c>
       <c r="D36" t="n">
-        <v>0.40403</v>
+        <v>0.404791</v>
       </c>
     </row>
     <row r="37">
@@ -8170,13 +8170,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.445705</v>
+        <v>0.44677</v>
       </c>
       <c r="C37" t="n">
-        <v>0.293921</v>
+        <v>0.293738</v>
       </c>
       <c r="D37" t="n">
-        <v>0.406025</v>
+        <v>0.407048</v>
       </c>
     </row>
     <row r="38">
@@ -8184,13 +8184,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.450862</v>
+        <v>0.451352</v>
       </c>
       <c r="C38" t="n">
-        <v>0.296127</v>
+        <v>0.295719</v>
       </c>
       <c r="D38" t="n">
-        <v>0.408675</v>
+        <v>0.408425</v>
       </c>
     </row>
     <row r="39">
@@ -8198,13 +8198,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.456788</v>
+        <v>0.455561</v>
       </c>
       <c r="C39" t="n">
-        <v>0.298803</v>
+        <v>0.298611</v>
       </c>
       <c r="D39" t="n">
-        <v>0.41034</v>
+        <v>0.410713</v>
       </c>
     </row>
     <row r="40">
@@ -8212,13 +8212,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.459397</v>
+        <v>0.459482</v>
       </c>
       <c r="C40" t="n">
-        <v>0.301231</v>
+        <v>0.300577</v>
       </c>
       <c r="D40" t="n">
-        <v>0.412871</v>
+        <v>0.412139</v>
       </c>
     </row>
     <row r="41">
@@ -8226,13 +8226,13 @@
         <v>66357</v>
       </c>
       <c r="B41" t="n">
-        <v>0.464199</v>
+        <v>0.464552</v>
       </c>
       <c r="C41" t="n">
-        <v>0.303671</v>
+        <v>0.303149</v>
       </c>
       <c r="D41" t="n">
-        <v>0.415101</v>
+        <v>0.415572</v>
       </c>
     </row>
     <row r="42">
@@ -8240,13 +8240,13 @@
         <v>69656</v>
       </c>
       <c r="B42" t="n">
-        <v>0.468875</v>
+        <v>0.469038</v>
       </c>
       <c r="C42" t="n">
-        <v>0.30622</v>
+        <v>0.305291</v>
       </c>
       <c r="D42" t="n">
-        <v>0.417651</v>
+        <v>0.417884</v>
       </c>
     </row>
     <row r="43">
@@ -8254,13 +8254,13 @@
         <v>73119</v>
       </c>
       <c r="B43" t="n">
-        <v>0.473746</v>
+        <v>0.473762</v>
       </c>
       <c r="C43" t="n">
-        <v>0.307827</v>
+        <v>0.307234</v>
       </c>
       <c r="D43" t="n">
-        <v>0.419753</v>
+        <v>0.420054</v>
       </c>
     </row>
     <row r="44">
@@ -8268,13 +8268,13 @@
         <v>76755</v>
       </c>
       <c r="B44" t="n">
-        <v>0.478255</v>
+        <v>0.478272</v>
       </c>
       <c r="C44" t="n">
-        <v>0.311484</v>
+        <v>0.311108</v>
       </c>
       <c r="D44" t="n">
-        <v>0.421627</v>
+        <v>0.422377</v>
       </c>
     </row>
     <row r="45">
@@ -8282,13 +8282,13 @@
         <v>80572</v>
       </c>
       <c r="B45" t="n">
-        <v>0.48305</v>
+        <v>0.483622</v>
       </c>
       <c r="C45" t="n">
-        <v>0.313747</v>
+        <v>0.313505</v>
       </c>
       <c r="D45" t="n">
-        <v>0.423874</v>
+        <v>0.424499</v>
       </c>
     </row>
     <row r="46">
@@ -8296,13 +8296,13 @@
         <v>84579</v>
       </c>
       <c r="B46" t="n">
-        <v>0.488184</v>
+        <v>0.488459</v>
       </c>
       <c r="C46" t="n">
-        <v>0.316892</v>
+        <v>0.316813</v>
       </c>
       <c r="D46" t="n">
-        <v>0.426573</v>
+        <v>0.426898</v>
       </c>
     </row>
     <row r="47">
@@ -8310,13 +8310,13 @@
         <v>88786</v>
       </c>
       <c r="B47" t="n">
-        <v>0.451355</v>
+        <v>0.451716</v>
       </c>
       <c r="C47" t="n">
-        <v>0.320887</v>
+        <v>0.321056</v>
       </c>
       <c r="D47" t="n">
-        <v>0.428668</v>
+        <v>0.429677</v>
       </c>
     </row>
     <row r="48">
@@ -8324,13 +8324,13 @@
         <v>93203</v>
       </c>
       <c r="B48" t="n">
-        <v>0.455046</v>
+        <v>0.455003</v>
       </c>
       <c r="C48" t="n">
-        <v>0.322699</v>
+        <v>0.322668</v>
       </c>
       <c r="D48" t="n">
-        <v>0.43075</v>
+        <v>0.431268</v>
       </c>
     </row>
     <row r="49">
@@ -8338,13 +8338,13 @@
         <v>97840</v>
       </c>
       <c r="B49" t="n">
-        <v>0.458421</v>
+        <v>0.458795</v>
       </c>
       <c r="C49" t="n">
-        <v>0.329602</v>
+        <v>0.328436</v>
       </c>
       <c r="D49" t="n">
-        <v>0.433089</v>
+        <v>0.434014</v>
       </c>
     </row>
     <row r="50">
@@ -8352,13 +8352,13 @@
         <v>102706</v>
       </c>
       <c r="B50" t="n">
-        <v>0.461669</v>
+        <v>0.461889</v>
       </c>
       <c r="C50" t="n">
-        <v>0.30485</v>
+        <v>0.305779</v>
       </c>
       <c r="D50" t="n">
-        <v>0.428202</v>
+        <v>0.429013</v>
       </c>
     </row>
     <row r="51">
@@ -8366,13 +8366,13 @@
         <v>107816</v>
       </c>
       <c r="B51" t="n">
-        <v>0.465188</v>
+        <v>0.466023</v>
       </c>
       <c r="C51" t="n">
-        <v>0.305228</v>
+        <v>0.305131</v>
       </c>
       <c r="D51" t="n">
-        <v>0.430293</v>
+        <v>0.430749</v>
       </c>
     </row>
     <row r="52">
@@ -8380,13 +8380,13 @@
         <v>113182</v>
       </c>
       <c r="B52" t="n">
-        <v>0.469449</v>
+        <v>0.469547</v>
       </c>
       <c r="C52" t="n">
-        <v>0.309419</v>
+        <v>0.309999</v>
       </c>
       <c r="D52" t="n">
-        <v>0.431111</v>
+        <v>0.430714</v>
       </c>
     </row>
     <row r="53">
@@ -8394,13 +8394,13 @@
         <v>118816</v>
       </c>
       <c r="B53" t="n">
-        <v>0.472622</v>
+        <v>0.472338</v>
       </c>
       <c r="C53" t="n">
-        <v>0.313879</v>
+        <v>0.310363</v>
       </c>
       <c r="D53" t="n">
-        <v>0.432436</v>
+        <v>0.43258</v>
       </c>
     </row>
     <row r="54">
@@ -8408,13 +8408,13 @@
         <v>124731</v>
       </c>
       <c r="B54" t="n">
-        <v>0.476271</v>
+        <v>0.476512</v>
       </c>
       <c r="C54" t="n">
-        <v>0.312086</v>
+        <v>0.315734</v>
       </c>
       <c r="D54" t="n">
-        <v>0.433573</v>
+        <v>0.433955</v>
       </c>
     </row>
     <row r="55">
@@ -8422,13 +8422,13 @@
         <v>130941</v>
       </c>
       <c r="B55" t="n">
-        <v>0.479974</v>
+        <v>0.4801</v>
       </c>
       <c r="C55" t="n">
-        <v>0.316136</v>
+        <v>0.32092</v>
       </c>
       <c r="D55" t="n">
-        <v>0.43512</v>
+        <v>0.435194</v>
       </c>
     </row>
     <row r="56">
@@ -8436,13 +8436,13 @@
         <v>137461</v>
       </c>
       <c r="B56" t="n">
-        <v>0.484918</v>
+        <v>0.484908</v>
       </c>
       <c r="C56" t="n">
-        <v>0.323165</v>
+        <v>0.321693</v>
       </c>
       <c r="D56" t="n">
-        <v>0.436336</v>
+        <v>0.436784</v>
       </c>
     </row>
     <row r="57">
@@ -8450,13 +8450,13 @@
         <v>144307</v>
       </c>
       <c r="B57" t="n">
-        <v>0.488799</v>
+        <v>0.488899</v>
       </c>
       <c r="C57" t="n">
-        <v>0.327293</v>
+        <v>0.326379</v>
       </c>
       <c r="D57" t="n">
-        <v>0.438435</v>
+        <v>0.438374</v>
       </c>
     </row>
     <row r="58">
@@ -8464,13 +8464,13 @@
         <v>151495</v>
       </c>
       <c r="B58" t="n">
-        <v>0.49229</v>
+        <v>0.493287</v>
       </c>
       <c r="C58" t="n">
-        <v>0.330366</v>
+        <v>0.327628</v>
       </c>
       <c r="D58" t="n">
-        <v>0.440181</v>
+        <v>0.440124</v>
       </c>
     </row>
     <row r="59">
@@ -8478,13 +8478,13 @@
         <v>159042</v>
       </c>
       <c r="B59" t="n">
-        <v>0.496994</v>
+        <v>0.497726</v>
       </c>
       <c r="C59" t="n">
-        <v>0.340389</v>
+        <v>0.335231</v>
       </c>
       <c r="D59" t="n">
-        <v>0.442572</v>
+        <v>0.442004</v>
       </c>
     </row>
     <row r="60">
@@ -8492,13 +8492,13 @@
         <v>166965</v>
       </c>
       <c r="B60" t="n">
-        <v>0.503445</v>
+        <v>0.502691</v>
       </c>
       <c r="C60" t="n">
-        <v>0.347582</v>
+        <v>0.342508</v>
       </c>
       <c r="D60" t="n">
-        <v>0.448168</v>
+        <v>0.443991</v>
       </c>
     </row>
     <row r="61">
@@ -8506,13 +8506,13 @@
         <v>175284</v>
       </c>
       <c r="B61" t="n">
-        <v>0.488901</v>
+        <v>0.484175</v>
       </c>
       <c r="C61" t="n">
-        <v>0.356401</v>
+        <v>0.352664</v>
       </c>
       <c r="D61" t="n">
-        <v>0.451355</v>
+        <v>0.446236</v>
       </c>
     </row>
     <row r="62">
@@ -8520,13 +8520,13 @@
         <v>184019</v>
       </c>
       <c r="B62" t="n">
-        <v>0.499732</v>
+        <v>0.495162</v>
       </c>
       <c r="C62" t="n">
-        <v>0.363383</v>
+        <v>0.359668</v>
       </c>
       <c r="D62" t="n">
-        <v>0.453675</v>
+        <v>0.448138</v>
       </c>
     </row>
     <row r="63">
@@ -8534,13 +8534,13 @@
         <v>193190</v>
       </c>
       <c r="B63" t="n">
-        <v>0.507169</v>
+        <v>0.503445</v>
       </c>
       <c r="C63" t="n">
-        <v>0.373535</v>
+        <v>0.376498</v>
       </c>
       <c r="D63" t="n">
-        <v>0.453327</v>
+        <v>0.4512</v>
       </c>
     </row>
     <row r="64">
@@ -8548,13 +8548,13 @@
         <v>202820</v>
       </c>
       <c r="B64" t="n">
-        <v>0.516333</v>
+        <v>0.517106</v>
       </c>
       <c r="C64" t="n">
-        <v>0.430882</v>
+        <v>0.425714</v>
       </c>
       <c r="D64" t="n">
-        <v>0.499632</v>
+        <v>0.485965</v>
       </c>
     </row>
     <row r="65">
@@ -8562,13 +8562,13 @@
         <v>212931</v>
       </c>
       <c r="B65" t="n">
-        <v>0.538089</v>
+        <v>0.525683</v>
       </c>
       <c r="C65" t="n">
-        <v>0.435013</v>
+        <v>0.442338</v>
       </c>
       <c r="D65" t="n">
-        <v>0.501698</v>
+        <v>0.494736</v>
       </c>
     </row>
     <row r="66">
@@ -8576,13 +8576,13 @@
         <v>223547</v>
       </c>
       <c r="B66" t="n">
-        <v>0.542151</v>
+        <v>0.534564</v>
       </c>
       <c r="C66" t="n">
-        <v>0.454571</v>
+        <v>0.447047</v>
       </c>
       <c r="D66" t="n">
-        <v>0.507966</v>
+        <v>0.499331</v>
       </c>
     </row>
     <row r="67">
@@ -8590,13 +8590,13 @@
         <v>234692</v>
       </c>
       <c r="B67" t="n">
-        <v>0.56678</v>
+        <v>0.548787</v>
       </c>
       <c r="C67" t="n">
-        <v>0.480837</v>
+        <v>0.472931</v>
       </c>
       <c r="D67" t="n">
-        <v>0.528973</v>
+        <v>0.513993</v>
       </c>
     </row>
     <row r="68">
@@ -8604,13 +8604,13 @@
         <v>246395</v>
       </c>
       <c r="B68" t="n">
-        <v>0.584632</v>
+        <v>0.56897</v>
       </c>
       <c r="C68" t="n">
-        <v>0.497516</v>
+        <v>0.49</v>
       </c>
       <c r="D68" t="n">
-        <v>0.535969</v>
+        <v>0.526979</v>
       </c>
     </row>
     <row r="69">
@@ -8618,13 +8618,13 @@
         <v>258683</v>
       </c>
       <c r="B69" t="n">
-        <v>0.594127</v>
+        <v>0.584715</v>
       </c>
       <c r="C69" t="n">
-        <v>0.521747</v>
+        <v>0.514356</v>
       </c>
       <c r="D69" t="n">
-        <v>0.560073</v>
+        <v>0.546702</v>
       </c>
     </row>
     <row r="70">
@@ -8632,13 +8632,13 @@
         <v>271585</v>
       </c>
       <c r="B70" t="n">
-        <v>0.623797</v>
+        <v>0.6081530000000001</v>
       </c>
       <c r="C70" t="n">
-        <v>0.539898</v>
+        <v>0.541893</v>
       </c>
       <c r="D70" t="n">
-        <v>0.574744</v>
+        <v>0.561963</v>
       </c>
     </row>
     <row r="71">
@@ -8646,13 +8646,13 @@
         <v>285132</v>
       </c>
       <c r="B71" t="n">
-        <v>0.658983</v>
+        <v>0.626472</v>
       </c>
       <c r="C71" t="n">
-        <v>0.5762620000000001</v>
+        <v>0.5593050000000001</v>
       </c>
       <c r="D71" t="n">
-        <v>0.598611</v>
+        <v>0.568256</v>
       </c>
     </row>
     <row r="72">
@@ -8660,13 +8660,13 @@
         <v>299354</v>
       </c>
       <c r="B72" t="n">
-        <v>0.670288</v>
+        <v>0.6686839999999999</v>
       </c>
       <c r="C72" t="n">
-        <v>0.597839</v>
+        <v>0.597515</v>
       </c>
       <c r="D72" t="n">
-        <v>0.634898</v>
+        <v>0.60859</v>
       </c>
     </row>
     <row r="73">
@@ -8674,13 +8674,13 @@
         <v>314289</v>
       </c>
       <c r="B73" t="n">
-        <v>0.711473</v>
+        <v>0.684788</v>
       </c>
       <c r="C73" t="n">
-        <v>0.624507</v>
+        <v>0.626532</v>
       </c>
       <c r="D73" t="n">
-        <v>0.644299</v>
+        <v>0.650139</v>
       </c>
     </row>
     <row r="74">
@@ -8688,13 +8688,13 @@
         <v>329969</v>
       </c>
       <c r="B74" t="n">
-        <v>0.723119</v>
+        <v>0.731352</v>
       </c>
       <c r="C74" t="n">
-        <v>0.649609</v>
+        <v>0.65304</v>
       </c>
       <c r="D74" t="n">
-        <v>0.674646</v>
+        <v>0.678552</v>
       </c>
     </row>
     <row r="75">
@@ -8702,13 +8702,13 @@
         <v>346432</v>
       </c>
       <c r="B75" t="n">
-        <v>0.769733</v>
+        <v>0.7587390000000001</v>
       </c>
       <c r="C75" t="n">
-        <v>0.676226</v>
+        <v>0.677836</v>
       </c>
       <c r="D75" t="n">
-        <v>0.70292</v>
+        <v>0.702299</v>
       </c>
     </row>
     <row r="76">
@@ -8716,13 +8716,13 @@
         <v>363719</v>
       </c>
       <c r="B76" t="n">
-        <v>0.9695780000000001</v>
+        <v>0.978488</v>
       </c>
       <c r="C76" t="n">
-        <v>0.703638</v>
+        <v>0.705425</v>
       </c>
       <c r="D76" t="n">
-        <v>0.738575</v>
+        <v>0.739633</v>
       </c>
     </row>
     <row r="77">
@@ -8730,13 +8730,13 @@
         <v>381870</v>
       </c>
       <c r="B77" t="n">
-        <v>1.01813</v>
+        <v>1.01609</v>
       </c>
       <c r="C77" t="n">
-        <v>0.726847</v>
+        <v>0.7275509999999999</v>
       </c>
       <c r="D77" t="n">
-        <v>0.777579</v>
+        <v>0.777458</v>
       </c>
     </row>
     <row r="78">
@@ -8744,13 +8744,13 @@
         <v>400928</v>
       </c>
       <c r="B78" t="n">
-        <v>1.06606</v>
+        <v>1.06515</v>
       </c>
       <c r="C78" t="n">
-        <v>0.882773</v>
+        <v>0.879578</v>
       </c>
       <c r="D78" t="n">
-        <v>1.03125</v>
+        <v>1.03201</v>
       </c>
     </row>
     <row r="79">
@@ -8758,13 +8758,13 @@
         <v>420937</v>
       </c>
       <c r="B79" t="n">
-        <v>1.11755</v>
+        <v>1.11203</v>
       </c>
       <c r="C79" t="n">
-        <v>0.900058</v>
+        <v>0.898674</v>
       </c>
       <c r="D79" t="n">
-        <v>1.07808</v>
+        <v>1.06912</v>
       </c>
     </row>
     <row r="80">
@@ -8772,13 +8772,13 @@
         <v>441947</v>
       </c>
       <c r="B80" t="n">
-        <v>1.16097</v>
+        <v>1.15919</v>
       </c>
       <c r="C80" t="n">
-        <v>0.9192</v>
+        <v>0.919659</v>
       </c>
       <c r="D80" t="n">
-        <v>1.1302</v>
+        <v>1.12829</v>
       </c>
     </row>
     <row r="81">
@@ -8786,13 +8786,13 @@
         <v>464005</v>
       </c>
       <c r="B81" t="n">
-        <v>1.21595</v>
+        <v>1.20925</v>
       </c>
       <c r="C81" t="n">
-        <v>0.938114</v>
+        <v>0.94129</v>
       </c>
       <c r="D81" t="n">
-        <v>1.18302</v>
+        <v>1.18223</v>
       </c>
     </row>
     <row r="82">
@@ -8800,13 +8800,13 @@
         <v>487165</v>
       </c>
       <c r="B82" t="n">
-        <v>1.26608</v>
+        <v>1.26852</v>
       </c>
       <c r="C82" t="n">
-        <v>0.957788</v>
+        <v>0.962612</v>
       </c>
       <c r="D82" t="n">
-        <v>1.23696</v>
+        <v>1.23108</v>
       </c>
     </row>
     <row r="83">
@@ -8814,13 +8814,13 @@
         <v>511485</v>
       </c>
       <c r="B83" t="n">
-        <v>1.3248</v>
+        <v>1.31509</v>
       </c>
       <c r="C83" t="n">
-        <v>0.978373</v>
+        <v>0.977047</v>
       </c>
       <c r="D83" t="n">
-        <v>1.28518</v>
+        <v>1.2812</v>
       </c>
     </row>
     <row r="84">
@@ -8828,13 +8828,13 @@
         <v>537019</v>
       </c>
       <c r="B84" t="n">
-        <v>1.37599</v>
+        <v>1.36999</v>
       </c>
       <c r="C84" t="n">
-        <v>0.995685</v>
+        <v>0.998777</v>
       </c>
       <c r="D84" t="n">
-        <v>1.33471</v>
+        <v>1.33682</v>
       </c>
     </row>
     <row r="85">
@@ -8842,13 +8842,13 @@
         <v>563827</v>
       </c>
       <c r="B85" t="n">
-        <v>1.42576</v>
+        <v>1.42539</v>
       </c>
       <c r="C85" t="n">
-        <v>1.01104</v>
+        <v>1.0147</v>
       </c>
       <c r="D85" t="n">
-        <v>1.37776</v>
+        <v>1.37741</v>
       </c>
     </row>
     <row r="86">
@@ -8856,13 +8856,13 @@
         <v>591977</v>
       </c>
       <c r="B86" t="n">
-        <v>1.47318</v>
+        <v>1.4786</v>
       </c>
       <c r="C86" t="n">
-        <v>1.02996</v>
+        <v>1.03029</v>
       </c>
       <c r="D86" t="n">
-        <v>1.43332</v>
+        <v>1.42114</v>
       </c>
     </row>
     <row r="87">
@@ -8870,13 +8870,13 @@
         <v>621532</v>
       </c>
       <c r="B87" t="n">
-        <v>1.53123</v>
+        <v>1.52158</v>
       </c>
       <c r="C87" t="n">
-        <v>1.0454</v>
+        <v>1.04838</v>
       </c>
       <c r="D87" t="n">
-        <v>1.47704</v>
+        <v>1.47172</v>
       </c>
     </row>
     <row r="88">
@@ -8884,13 +8884,13 @@
         <v>652567</v>
       </c>
       <c r="B88" t="n">
-        <v>1.57507</v>
+        <v>1.57164</v>
       </c>
       <c r="C88" t="n">
-        <v>1.06527</v>
+        <v>1.06657</v>
       </c>
       <c r="D88" t="n">
-        <v>1.5199</v>
+        <v>1.52073</v>
       </c>
     </row>
     <row r="89">
@@ -8898,13 +8898,13 @@
         <v>685151</v>
       </c>
       <c r="B89" t="n">
-        <v>1.62331</v>
+        <v>1.61937</v>
       </c>
       <c r="C89" t="n">
-        <v>1.08316</v>
+        <v>1.08392</v>
       </c>
       <c r="D89" t="n">
-        <v>1.56322</v>
+        <v>1.56297</v>
       </c>
     </row>
     <row r="90">
@@ -8912,13 +8912,13 @@
         <v>719359</v>
       </c>
       <c r="B90" t="n">
-        <v>1.84004</v>
+        <v>1.8398</v>
       </c>
       <c r="C90" t="n">
-        <v>1.09711</v>
+        <v>1.09794</v>
       </c>
       <c r="D90" t="n">
-        <v>1.60254</v>
+        <v>1.59916</v>
       </c>
     </row>
     <row r="91">
@@ -8926,13 +8926,13 @@
         <v>755280</v>
       </c>
       <c r="B91" t="n">
-        <v>1.87872</v>
+        <v>1.87896</v>
       </c>
       <c r="C91" t="n">
-        <v>1.11497</v>
+        <v>1.11473</v>
       </c>
       <c r="D91" t="n">
-        <v>1.6477</v>
+        <v>1.64848</v>
       </c>
     </row>
     <row r="92">
@@ -8940,13 +8940,13 @@
         <v>792997</v>
       </c>
       <c r="B92" t="n">
-        <v>1.92083</v>
+        <v>1.91834</v>
       </c>
       <c r="C92" t="n">
-        <v>1.18173</v>
+        <v>1.18335</v>
       </c>
       <c r="D92" t="n">
-        <v>1.85878</v>
+        <v>1.8578</v>
       </c>
     </row>
     <row r="93">
@@ -8954,13 +8954,13 @@
         <v>832595</v>
       </c>
       <c r="B93" t="n">
-        <v>1.94791</v>
+        <v>1.9473</v>
       </c>
       <c r="C93" t="n">
-        <v>1.19255</v>
+        <v>1.19322</v>
       </c>
       <c r="D93" t="n">
-        <v>1.88946</v>
+        <v>1.89347</v>
       </c>
     </row>
     <row r="94">
@@ -8968,13 +8968,13 @@
         <v>874177</v>
       </c>
       <c r="B94" t="n">
-        <v>1.97653</v>
+        <v>1.98239</v>
       </c>
       <c r="C94" t="n">
-        <v>1.20219</v>
+        <v>1.20461</v>
       </c>
       <c r="D94" t="n">
-        <v>1.92095</v>
+        <v>1.92698</v>
       </c>
     </row>
     <row r="95">
@@ -8982,13 +8982,13 @@
         <v>917832</v>
       </c>
       <c r="B95" t="n">
-        <v>2.00683</v>
+        <v>2.01363</v>
       </c>
       <c r="C95" t="n">
-        <v>1.21263</v>
+        <v>1.21464</v>
       </c>
       <c r="D95" t="n">
-        <v>1.94857</v>
+        <v>1.9498</v>
       </c>
     </row>
     <row r="96">
@@ -8996,13 +8996,13 @@
         <v>963677</v>
       </c>
       <c r="B96" t="n">
-        <v>2.04298</v>
+        <v>2.04576</v>
       </c>
       <c r="C96" t="n">
-        <v>1.22261</v>
+        <v>1.22644</v>
       </c>
       <c r="D96" t="n">
-        <v>1.97999</v>
+        <v>1.98408</v>
       </c>
     </row>
     <row r="97">
@@ -9010,13 +9010,13 @@
         <v>1011813</v>
       </c>
       <c r="B97" t="n">
-        <v>2.07316</v>
+        <v>2.07203</v>
       </c>
       <c r="C97" t="n">
-        <v>1.23261</v>
+        <v>1.23567</v>
       </c>
       <c r="D97" t="n">
-        <v>2.00151</v>
+        <v>2.01061</v>
       </c>
     </row>
     <row r="98">
@@ -9024,13 +9024,13 @@
         <v>1062351</v>
       </c>
       <c r="B98" t="n">
-        <v>2.10492</v>
+        <v>2.10684</v>
       </c>
       <c r="C98" t="n">
-        <v>1.24413</v>
+        <v>1.24785</v>
       </c>
       <c r="D98" t="n">
-        <v>2.03109</v>
+        <v>2.03579</v>
       </c>
     </row>
     <row r="99">
@@ -9038,13 +9038,13 @@
         <v>1115422</v>
       </c>
       <c r="B99" t="n">
-        <v>2.13177</v>
+        <v>2.1369</v>
       </c>
       <c r="C99" t="n">
-        <v>1.25498</v>
+        <v>1.25755</v>
       </c>
       <c r="D99" t="n">
-        <v>2.05605</v>
+        <v>2.06554</v>
       </c>
     </row>
     <row r="100">
@@ -9052,13 +9052,13 @@
         <v>1171143</v>
       </c>
       <c r="B100" t="n">
-        <v>2.1606</v>
+        <v>2.1674</v>
       </c>
       <c r="C100" t="n">
-        <v>1.26569</v>
+        <v>1.26901</v>
       </c>
       <c r="D100" t="n">
-        <v>2.08194</v>
+        <v>2.08511</v>
       </c>
     </row>
     <row r="101">
@@ -9066,13 +9066,13 @@
         <v>1229634</v>
       </c>
       <c r="B101" t="n">
-        <v>2.18966</v>
+        <v>2.19199</v>
       </c>
       <c r="C101" t="n">
-        <v>1.2771</v>
+        <v>1.27939</v>
       </c>
       <c r="D101" t="n">
-        <v>2.108</v>
+        <v>2.10943</v>
       </c>
     </row>
     <row r="102">
@@ -9080,13 +9080,13 @@
         <v>1291062</v>
       </c>
       <c r="B102" t="n">
-        <v>2.2171</v>
+        <v>2.2207</v>
       </c>
       <c r="C102" t="n">
-        <v>1.28602</v>
+        <v>1.29125</v>
       </c>
       <c r="D102" t="n">
-        <v>2.12176</v>
+        <v>2.13283</v>
       </c>
     </row>
     <row r="103">
@@ -9094,13 +9094,13 @@
         <v>1355554</v>
       </c>
       <c r="B103" t="n">
-        <v>2.24762</v>
+        <v>2.25287</v>
       </c>
       <c r="C103" t="n">
-        <v>1.29863</v>
+        <v>1.30373</v>
       </c>
       <c r="D103" t="n">
-        <v>2.14975</v>
+        <v>2.1629</v>
       </c>
     </row>
     <row r="104">
@@ -9108,13 +9108,13 @@
         <v>1423274</v>
       </c>
       <c r="B104" t="n">
-        <v>2.27545</v>
+        <v>2.28249</v>
       </c>
       <c r="C104" t="n">
-        <v>1.30988</v>
+        <v>1.31524</v>
       </c>
       <c r="D104" t="n">
-        <v>2.17741</v>
+        <v>2.17317</v>
       </c>
     </row>
     <row r="105">
@@ -9122,13 +9122,13 @@
         <v>1494380</v>
       </c>
       <c r="B105" t="n">
-        <v>2.36245</v>
+        <v>2.36848</v>
       </c>
       <c r="C105" t="n">
-        <v>1.32104</v>
+        <v>1.32727</v>
       </c>
       <c r="D105" t="n">
-        <v>2.20028</v>
+        <v>2.20796</v>
       </c>
     </row>
     <row r="106">
@@ -9136,13 +9136,13 @@
         <v>1569031</v>
       </c>
       <c r="B106" t="n">
-        <v>2.38182</v>
+        <v>2.38888</v>
       </c>
       <c r="C106" t="n">
-        <v>1.33291</v>
+        <v>1.33891</v>
       </c>
       <c r="D106" t="n">
-        <v>2.21907</v>
+        <v>2.22783</v>
       </c>
     </row>
     <row r="107">
@@ -9150,13 +9150,13 @@
         <v>1647417</v>
       </c>
       <c r="B107" t="n">
-        <v>2.40224</v>
+        <v>2.40864</v>
       </c>
       <c r="C107" t="n">
-        <v>1.33308</v>
+        <v>1.33676</v>
       </c>
       <c r="D107" t="n">
-        <v>2.33239</v>
+        <v>2.3353</v>
       </c>
     </row>
     <row r="108">
@@ -9164,13 +9164,13 @@
         <v>1729734</v>
       </c>
       <c r="B108" t="n">
-        <v>2.42215</v>
+        <v>2.42683</v>
       </c>
       <c r="C108" t="n">
-        <v>1.34133</v>
+        <v>1.34243</v>
       </c>
       <c r="D108" t="n">
-        <v>2.3453</v>
+        <v>2.34521</v>
       </c>
     </row>
     <row r="109">
@@ -9178,13 +9178,13 @@
         <v>1816153</v>
       </c>
       <c r="B109" t="n">
-        <v>2.44514</v>
+        <v>2.44229</v>
       </c>
       <c r="C109" t="n">
-        <v>1.34815</v>
+        <v>1.35</v>
       </c>
       <c r="D109" t="n">
-        <v>2.35956</v>
+        <v>2.35062</v>
       </c>
     </row>
     <row r="110">
@@ -9192,13 +9192,13 @@
         <v>1906885</v>
       </c>
       <c r="B110" t="n">
-        <v>2.46223</v>
+        <v>2.46412</v>
       </c>
       <c r="C110" t="n">
-        <v>1.35517</v>
+        <v>1.35714</v>
       </c>
       <c r="D110" t="n">
-        <v>2.37908</v>
+        <v>2.38122</v>
       </c>
     </row>
     <row r="111">
@@ -9206,13 +9206,13 @@
         <v>2002164</v>
       </c>
       <c r="B111" t="n">
-        <v>2.48146</v>
+        <v>2.48672</v>
       </c>
       <c r="C111" t="n">
-        <v>1.36277</v>
+        <v>1.36423</v>
       </c>
       <c r="D111" t="n">
-        <v>2.38579</v>
+        <v>2.39445</v>
       </c>
     </row>
     <row r="112">
@@ -9220,13 +9220,13 @@
         <v>2102198</v>
       </c>
       <c r="B112" t="n">
-        <v>2.50468</v>
+        <v>2.50569</v>
       </c>
       <c r="C112" t="n">
-        <v>1.37016</v>
+        <v>1.37329</v>
       </c>
       <c r="D112" t="n">
-        <v>2.40219</v>
+        <v>2.40926</v>
       </c>
     </row>
     <row r="113">
@@ -9234,13 +9234,13 @@
         <v>2207233</v>
       </c>
       <c r="B113" t="n">
-        <v>2.52269</v>
+        <v>2.52282</v>
       </c>
       <c r="C113" t="n">
-        <v>1.37815</v>
+        <v>1.38055</v>
       </c>
       <c r="D113" t="n">
-        <v>2.41644</v>
+        <v>2.42343</v>
       </c>
     </row>
     <row r="114">
@@ -9248,13 +9248,13 @@
         <v>2317508</v>
       </c>
       <c r="B114" t="n">
-        <v>2.54016</v>
+        <v>2.54171</v>
       </c>
       <c r="C114" t="n">
-        <v>1.38623</v>
+        <v>1.38775</v>
       </c>
       <c r="D114" t="n">
-        <v>2.42953</v>
+        <v>2.43221</v>
       </c>
     </row>
     <row r="115">
@@ -9262,13 +9262,13 @@
         <v>2433290</v>
       </c>
       <c r="B115" t="n">
-        <v>2.55985</v>
+        <v>2.55936</v>
       </c>
       <c r="C115" t="n">
-        <v>1.39397</v>
+        <v>1.39478</v>
       </c>
       <c r="D115" t="n">
-        <v>2.44646</v>
+        <v>2.44633</v>
       </c>
     </row>
     <row r="116">
@@ -9276,13 +9276,13 @@
         <v>2554854</v>
       </c>
       <c r="B116" t="n">
-        <v>2.57878</v>
+        <v>2.57854</v>
       </c>
       <c r="C116" t="n">
-        <v>1.40253</v>
+        <v>1.40324</v>
       </c>
       <c r="D116" t="n">
-        <v>2.45822</v>
+        <v>2.45943</v>
       </c>
     </row>
     <row r="117">
@@ -9290,13 +9290,13 @@
         <v>2682511</v>
       </c>
       <c r="B117" t="n">
-        <v>2.59633</v>
+        <v>2.60249</v>
       </c>
       <c r="C117" t="n">
-        <v>1.4107</v>
+        <v>1.41263</v>
       </c>
       <c r="D117" t="n">
-        <v>2.47291</v>
+        <v>2.47325</v>
       </c>
     </row>
     <row r="118">
@@ -9304,13 +9304,13 @@
         <v>2816546</v>
       </c>
       <c r="B118" t="n">
-        <v>2.6157</v>
+        <v>2.61866</v>
       </c>
       <c r="C118" t="n">
-        <v>1.42033</v>
+        <v>1.42154</v>
       </c>
       <c r="D118" t="n">
-        <v>2.47275</v>
+        <v>2.4833</v>
       </c>
     </row>
     <row r="119">
@@ -9318,13 +9318,13 @@
         <v>2957287</v>
       </c>
       <c r="B119" t="n">
-        <v>2.64066</v>
+        <v>2.63999</v>
       </c>
       <c r="C119" t="n">
-        <v>1.42914</v>
+        <v>1.43318</v>
       </c>
       <c r="D119" t="n">
-        <v>2.49172</v>
+        <v>2.48949</v>
       </c>
     </row>
   </sheetData>
@@ -9372,13 +9372,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.508307</v>
+        <v>0.49863</v>
       </c>
       <c r="C2" t="n">
-        <v>0.419226</v>
+        <v>0.414331</v>
       </c>
       <c r="D2" t="n">
-        <v>0.343971</v>
+        <v>0.340553</v>
       </c>
     </row>
     <row r="3">
@@ -9386,13 +9386,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.514389</v>
+        <v>0.516048</v>
       </c>
       <c r="C3" t="n">
-        <v>0.42386</v>
+        <v>0.420911</v>
       </c>
       <c r="D3" t="n">
-        <v>0.347402</v>
+        <v>0.34652</v>
       </c>
     </row>
     <row r="4">
@@ -9400,13 +9400,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.516404</v>
+        <v>0.519155</v>
       </c>
       <c r="C4" t="n">
-        <v>0.425698</v>
+        <v>0.422522</v>
       </c>
       <c r="D4" t="n">
-        <v>0.351265</v>
+        <v>0.347958</v>
       </c>
     </row>
     <row r="5">
@@ -9414,13 +9414,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.527515</v>
+        <v>0.529749</v>
       </c>
       <c r="C5" t="n">
-        <v>0.432815</v>
+        <v>0.431027</v>
       </c>
       <c r="D5" t="n">
-        <v>0.359082</v>
+        <v>0.355792</v>
       </c>
     </row>
     <row r="6">
@@ -9428,13 +9428,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.534637</v>
+        <v>0.541142</v>
       </c>
       <c r="C6" t="n">
-        <v>0.43713</v>
+        <v>0.43638</v>
       </c>
       <c r="D6" t="n">
-        <v>0.365004</v>
+        <v>0.36148</v>
       </c>
     </row>
     <row r="7">
@@ -9442,13 +9442,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.5407459999999999</v>
+        <v>0.547949</v>
       </c>
       <c r="C7" t="n">
-        <v>0.449796</v>
+        <v>0.451803</v>
       </c>
       <c r="D7" t="n">
-        <v>0.37479</v>
+        <v>0.370313</v>
       </c>
     </row>
     <row r="8">
@@ -9456,13 +9456,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.553229</v>
+        <v>0.5477300000000001</v>
       </c>
       <c r="C8" t="n">
-        <v>0.453316</v>
+        <v>0.452834</v>
       </c>
       <c r="D8" t="n">
-        <v>0.372939</v>
+        <v>0.373068</v>
       </c>
     </row>
     <row r="9">
@@ -9470,13 +9470,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.550011</v>
+        <v>0.548516</v>
       </c>
       <c r="C9" t="n">
-        <v>0.456657</v>
+        <v>0.457749</v>
       </c>
       <c r="D9" t="n">
-        <v>0.383593</v>
+        <v>0.379911</v>
       </c>
     </row>
     <row r="10">
@@ -9484,13 +9484,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.565374</v>
+        <v>0.565677</v>
       </c>
       <c r="C10" t="n">
-        <v>0.462691</v>
+        <v>0.46391</v>
       </c>
       <c r="D10" t="n">
-        <v>0.387187</v>
+        <v>0.385153</v>
       </c>
     </row>
     <row r="11">
@@ -9498,13 +9498,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.5749339999999999</v>
+        <v>0.571871</v>
       </c>
       <c r="C11" t="n">
-        <v>0.461249</v>
+        <v>0.46223</v>
       </c>
       <c r="D11" t="n">
-        <v>0.391199</v>
+        <v>0.390067</v>
       </c>
     </row>
     <row r="12">
@@ -9512,13 +9512,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.581678</v>
+        <v>0.578282</v>
       </c>
       <c r="C12" t="n">
-        <v>0.471187</v>
+        <v>0.472281</v>
       </c>
       <c r="D12" t="n">
-        <v>0.395118</v>
+        <v>0.398886</v>
       </c>
     </row>
     <row r="13">
@@ -9526,13 +9526,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.593067</v>
+        <v>0.594859</v>
       </c>
       <c r="C13" t="n">
-        <v>0.472546</v>
+        <v>0.473071</v>
       </c>
       <c r="D13" t="n">
-        <v>0.403656</v>
+        <v>0.400537</v>
       </c>
     </row>
     <row r="14">
@@ -9540,13 +9540,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.602095</v>
+        <v>0.593035</v>
       </c>
       <c r="C14" t="n">
-        <v>0.474414</v>
+        <v>0.476368</v>
       </c>
       <c r="D14" t="n">
-        <v>0.410243</v>
+        <v>0.406547</v>
       </c>
     </row>
     <row r="15">
@@ -9554,13 +9554,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.610286</v>
+        <v>0.6027940000000001</v>
       </c>
       <c r="C15" t="n">
-        <v>0.477742</v>
+        <v>0.480183</v>
       </c>
       <c r="D15" t="n">
-        <v>0.414034</v>
+        <v>0.413963</v>
       </c>
     </row>
     <row r="16">
@@ -9568,13 +9568,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.617833</v>
+        <v>0.615443</v>
       </c>
       <c r="C16" t="n">
-        <v>0.480803</v>
+        <v>0.482908</v>
       </c>
       <c r="D16" t="n">
-        <v>0.418436</v>
+        <v>0.418476</v>
       </c>
     </row>
     <row r="17">
@@ -9582,13 +9582,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.627331</v>
+        <v>0.6280019999999999</v>
       </c>
       <c r="C17" t="n">
-        <v>0.487728</v>
+        <v>0.488069</v>
       </c>
       <c r="D17" t="n">
-        <v>0.424299</v>
+        <v>0.423411</v>
       </c>
     </row>
     <row r="18">
@@ -9596,13 +9596,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.6451440000000001</v>
+        <v>0.642676</v>
       </c>
       <c r="C18" t="n">
-        <v>0.494789</v>
+        <v>0.496208</v>
       </c>
       <c r="D18" t="n">
-        <v>0.428874</v>
+        <v>0.429514</v>
       </c>
     </row>
     <row r="19">
@@ -9610,13 +9610,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.654409</v>
+        <v>0.655304</v>
       </c>
       <c r="C19" t="n">
-        <v>0.500856</v>
+        <v>0.502772</v>
       </c>
       <c r="D19" t="n">
-        <v>0.43307</v>
+        <v>0.433164</v>
       </c>
     </row>
     <row r="20">
@@ -9624,13 +9624,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.664405</v>
+        <v>0.664205</v>
       </c>
       <c r="C20" t="n">
-        <v>0.503766</v>
+        <v>0.502188</v>
       </c>
       <c r="D20" t="n">
-        <v>0.441677</v>
+        <v>0.440434</v>
       </c>
     </row>
     <row r="21">
@@ -9638,13 +9638,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.678639</v>
+        <v>0.674346</v>
       </c>
       <c r="C21" t="n">
-        <v>0.507198</v>
+        <v>0.509047</v>
       </c>
       <c r="D21" t="n">
-        <v>0.447719</v>
+        <v>0.448357</v>
       </c>
     </row>
     <row r="22">
@@ -9652,13 +9652,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.68298</v>
+        <v>0.681471</v>
       </c>
       <c r="C22" t="n">
-        <v>0.515327</v>
+        <v>0.516215</v>
       </c>
       <c r="D22" t="n">
-        <v>0.453202</v>
+        <v>0.454374</v>
       </c>
     </row>
     <row r="23">
@@ -9666,13 +9666,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.693598</v>
+        <v>0.690066</v>
       </c>
       <c r="C23" t="n">
-        <v>0.518684</v>
+        <v>0.520467</v>
       </c>
       <c r="D23" t="n">
-        <v>0.457876</v>
+        <v>0.458827</v>
       </c>
     </row>
     <row r="24">
@@ -9680,13 +9680,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.696872</v>
+        <v>0.694543</v>
       </c>
       <c r="C24" t="n">
-        <v>0.525114</v>
+        <v>0.526248</v>
       </c>
       <c r="D24" t="n">
-        <v>0.461408</v>
+        <v>0.462373</v>
       </c>
     </row>
     <row r="25">
@@ -9694,13 +9694,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.705802</v>
+        <v>0.701929</v>
       </c>
       <c r="C25" t="n">
-        <v>0.534044</v>
+        <v>0.533973</v>
       </c>
       <c r="D25" t="n">
-        <v>0.466164</v>
+        <v>0.467051</v>
       </c>
     </row>
     <row r="26">
@@ -9708,13 +9708,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.7119180000000001</v>
+        <v>0.709807</v>
       </c>
       <c r="C26" t="n">
-        <v>0.529681</v>
+        <v>0.531626</v>
       </c>
       <c r="D26" t="n">
-        <v>0.469697</v>
+        <v>0.471522</v>
       </c>
     </row>
     <row r="27">
@@ -9722,13 +9722,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.719884</v>
+        <v>0.719326</v>
       </c>
       <c r="C27" t="n">
-        <v>0.537663</v>
+        <v>0.538767</v>
       </c>
       <c r="D27" t="n">
-        <v>0.473624</v>
+        <v>0.474589</v>
       </c>
     </row>
     <row r="28">
@@ -9736,13 +9736,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.725198</v>
+        <v>0.722241</v>
       </c>
       <c r="C28" t="n">
-        <v>0.54209</v>
+        <v>0.540917</v>
       </c>
       <c r="D28" t="n">
-        <v>0.478934</v>
+        <v>0.480889</v>
       </c>
     </row>
     <row r="29">
@@ -9750,13 +9750,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.737587</v>
+        <v>0.736876</v>
       </c>
       <c r="C29" t="n">
-        <v>0.544978</v>
+        <v>0.545974</v>
       </c>
       <c r="D29" t="n">
-        <v>0.482866</v>
+        <v>0.48351</v>
       </c>
     </row>
     <row r="30">
@@ -9764,13 +9764,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.739618</v>
+        <v>0.7388749999999999</v>
       </c>
       <c r="C30" t="n">
-        <v>0.552778</v>
+        <v>0.553431</v>
       </c>
       <c r="D30" t="n">
-        <v>0.486212</v>
+        <v>0.487836</v>
       </c>
     </row>
     <row r="31">
@@ -9778,13 +9778,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.747746</v>
+        <v>0.747834</v>
       </c>
       <c r="C31" t="n">
-        <v>0.554025</v>
+        <v>0.553778</v>
       </c>
       <c r="D31" t="n">
-        <v>0.492397</v>
+        <v>0.492916</v>
       </c>
     </row>
     <row r="32">
@@ -9792,13 +9792,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.740443</v>
+        <v>0.739534</v>
       </c>
       <c r="C32" t="n">
-        <v>0.557319</v>
+        <v>0.556516</v>
       </c>
       <c r="D32" t="n">
-        <v>0.493161</v>
+        <v>0.494209</v>
       </c>
     </row>
     <row r="33">
@@ -9806,13 +9806,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.746459</v>
+        <v>0.746471</v>
       </c>
       <c r="C33" t="n">
-        <v>0.563491</v>
+        <v>0.561939</v>
       </c>
       <c r="D33" t="n">
-        <v>0.497287</v>
+        <v>0.498614</v>
       </c>
     </row>
     <row r="34">
@@ -9820,13 +9820,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.758842</v>
+        <v>0.758086</v>
       </c>
       <c r="C34" t="n">
-        <v>0.564843</v>
+        <v>0.565299</v>
       </c>
       <c r="D34" t="n">
-        <v>0.498812</v>
+        <v>0.500139</v>
       </c>
     </row>
     <row r="35">
@@ -9834,13 +9834,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.759216</v>
+        <v>0.758951</v>
       </c>
       <c r="C35" t="n">
-        <v>0.540411</v>
+        <v>0.540916</v>
       </c>
       <c r="D35" t="n">
-        <v>0.504611</v>
+        <v>0.503829</v>
       </c>
     </row>
     <row r="36">
@@ -9848,13 +9848,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.766642</v>
+        <v>0.7665419999999999</v>
       </c>
       <c r="C36" t="n">
-        <v>0.550612</v>
+        <v>0.550384</v>
       </c>
       <c r="D36" t="n">
-        <v>0.508028</v>
+        <v>0.508289</v>
       </c>
     </row>
     <row r="37">
@@ -9862,13 +9862,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.773683</v>
+        <v>0.772813</v>
       </c>
       <c r="C37" t="n">
-        <v>0.550695</v>
+        <v>0.552007</v>
       </c>
       <c r="D37" t="n">
-        <v>0.508958</v>
+        <v>0.51006</v>
       </c>
     </row>
     <row r="38">
@@ -9876,13 +9876,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.775659</v>
+        <v>0.77585</v>
       </c>
       <c r="C38" t="n">
-        <v>0.557055</v>
+        <v>0.556926</v>
       </c>
       <c r="D38" t="n">
-        <v>0.513462</v>
+        <v>0.5145</v>
       </c>
     </row>
     <row r="39">
@@ -9890,13 +9890,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.781948</v>
+        <v>0.78171</v>
       </c>
       <c r="C39" t="n">
-        <v>0.559302</v>
+        <v>0.5600039999999999</v>
       </c>
       <c r="D39" t="n">
-        <v>0.517612</v>
+        <v>0.51773</v>
       </c>
     </row>
     <row r="40">
@@ -9904,13 +9904,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.788304</v>
+        <v>0.788196</v>
       </c>
       <c r="C40" t="n">
-        <v>0.557662</v>
+        <v>0.559526</v>
       </c>
       <c r="D40" t="n">
-        <v>0.518306</v>
+        <v>0.5188199999999999</v>
       </c>
     </row>
     <row r="41">
@@ -9918,13 +9918,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.795425</v>
+        <v>0.794459</v>
       </c>
       <c r="C41" t="n">
-        <v>0.563605</v>
+        <v>0.56436</v>
       </c>
       <c r="D41" t="n">
-        <v>0.5198</v>
+        <v>0.520526</v>
       </c>
     </row>
     <row r="42">
@@ -9932,13 +9932,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.8018150000000001</v>
+        <v>0.801644</v>
       </c>
       <c r="C42" t="n">
-        <v>0.5630540000000001</v>
+        <v>0.562958</v>
       </c>
       <c r="D42" t="n">
-        <v>0.523667</v>
+        <v>0.523634</v>
       </c>
     </row>
     <row r="43">
@@ -9946,13 +9946,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.80621</v>
+        <v>0.805745</v>
       </c>
       <c r="C43" t="n">
-        <v>0.566493</v>
+        <v>0.566963</v>
       </c>
       <c r="D43" t="n">
-        <v>0.525356</v>
+        <v>0.526879</v>
       </c>
     </row>
     <row r="44">
@@ -9960,13 +9960,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.806357</v>
+        <v>0.806599</v>
       </c>
       <c r="C44" t="n">
-        <v>0.565486</v>
+        <v>0.564671</v>
       </c>
       <c r="D44" t="n">
-        <v>0.526905</v>
+        <v>0.525904</v>
       </c>
     </row>
     <row r="45">
@@ -9974,13 +9974,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.814791</v>
+        <v>0.813669</v>
       </c>
       <c r="C45" t="n">
-        <v>0.568427</v>
+        <v>0.570674</v>
       </c>
       <c r="D45" t="n">
-        <v>0.529397</v>
+        <v>0.529406</v>
       </c>
     </row>
     <row r="46">
@@ -9988,13 +9988,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.81588</v>
+        <v>0.815374</v>
       </c>
       <c r="C46" t="n">
-        <v>0.572993</v>
+        <v>0.57311</v>
       </c>
       <c r="D46" t="n">
-        <v>0.531758</v>
+        <v>0.531914</v>
       </c>
     </row>
     <row r="47">
@@ -10002,13 +10002,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.79489</v>
+        <v>0.794291</v>
       </c>
       <c r="C47" t="n">
-        <v>0.575245</v>
+        <v>0.574308</v>
       </c>
       <c r="D47" t="n">
-        <v>0.533868</v>
+        <v>0.533786</v>
       </c>
     </row>
     <row r="48">
@@ -10016,13 +10016,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.801987</v>
+        <v>0.800609</v>
       </c>
       <c r="C48" t="n">
-        <v>0.5791500000000001</v>
+        <v>0.579769</v>
       </c>
       <c r="D48" t="n">
-        <v>0.534783</v>
+        <v>0.534955</v>
       </c>
     </row>
     <row r="49">
@@ -10030,13 +10030,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.802243</v>
+        <v>0.802315</v>
       </c>
       <c r="C49" t="n">
-        <v>0.581335</v>
+        <v>0.5809609999999999</v>
       </c>
       <c r="D49" t="n">
-        <v>0.536812</v>
+        <v>0.536687</v>
       </c>
     </row>
     <row r="50">
@@ -10044,13 +10044,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.807829</v>
+        <v>0.8075599999999999</v>
       </c>
       <c r="C50" t="n">
-        <v>0.571944</v>
+        <v>0.5720730000000001</v>
       </c>
       <c r="D50" t="n">
-        <v>0.5370740000000001</v>
+        <v>0.537736</v>
       </c>
     </row>
     <row r="51">
@@ -10058,13 +10058,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.810211</v>
+        <v>0.809176</v>
       </c>
       <c r="C51" t="n">
-        <v>0.57348</v>
+        <v>0.572719</v>
       </c>
       <c r="D51" t="n">
-        <v>0.538407</v>
+        <v>0.540592</v>
       </c>
     </row>
     <row r="52">
@@ -10072,13 +10072,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.812633</v>
+        <v>0.812203</v>
       </c>
       <c r="C52" t="n">
-        <v>0.57809</v>
+        <v>0.577925</v>
       </c>
       <c r="D52" t="n">
-        <v>0.540699</v>
+        <v>0.541465</v>
       </c>
     </row>
     <row r="53">
@@ -10086,13 +10086,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.817286</v>
+        <v>0.8171349999999999</v>
       </c>
       <c r="C53" t="n">
-        <v>0.582418</v>
+        <v>0.579924</v>
       </c>
       <c r="D53" t="n">
-        <v>0.54301</v>
+        <v>0.543463</v>
       </c>
     </row>
     <row r="54">
@@ -10100,13 +10100,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.820457</v>
+        <v>0.820433</v>
       </c>
       <c r="C54" t="n">
-        <v>0.581829</v>
+        <v>0.584241</v>
       </c>
       <c r="D54" t="n">
-        <v>0.5446260000000001</v>
+        <v>0.54478</v>
       </c>
     </row>
     <row r="55">
@@ -10114,13 +10114,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.824666</v>
+        <v>0.824375</v>
       </c>
       <c r="C55" t="n">
-        <v>0.59029</v>
+        <v>0.587716</v>
       </c>
       <c r="D55" t="n">
-        <v>0.547733</v>
+        <v>0.546872</v>
       </c>
     </row>
     <row r="56">
@@ -10128,13 +10128,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.82895</v>
+        <v>0.827483</v>
       </c>
       <c r="C56" t="n">
-        <v>0.594896</v>
+        <v>0.589238</v>
       </c>
       <c r="D56" t="n">
-        <v>0.54845</v>
+        <v>0.547113</v>
       </c>
     </row>
     <row r="57">
@@ -10142,13 +10142,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.835144</v>
+        <v>0.83348</v>
       </c>
       <c r="C57" t="n">
-        <v>0.6023579999999999</v>
+        <v>0.591953</v>
       </c>
       <c r="D57" t="n">
-        <v>0.549119</v>
+        <v>0.549152</v>
       </c>
     </row>
     <row r="58">
@@ -10156,13 +10156,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.833522</v>
+        <v>0.832439</v>
       </c>
       <c r="C58" t="n">
-        <v>0.605708</v>
+        <v>0.599467</v>
       </c>
       <c r="D58" t="n">
-        <v>0.550071</v>
+        <v>0.550336</v>
       </c>
     </row>
     <row r="59">
@@ -10170,13 +10170,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.83915</v>
+        <v>0.838412</v>
       </c>
       <c r="C59" t="n">
-        <v>0.611276</v>
+        <v>0.606454</v>
       </c>
       <c r="D59" t="n">
-        <v>0.552674</v>
+        <v>0.551439</v>
       </c>
     </row>
     <row r="60">
@@ -10184,13 +10184,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.844823</v>
+        <v>0.842531</v>
       </c>
       <c r="C60" t="n">
-        <v>0.613896</v>
+        <v>0.609685</v>
       </c>
       <c r="D60" t="n">
-        <v>0.554071</v>
+        <v>0.554569</v>
       </c>
     </row>
     <row r="61">
@@ -10198,13 +10198,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.840773</v>
+        <v>0.840185</v>
       </c>
       <c r="C61" t="n">
-        <v>0.620548</v>
+        <v>0.617734</v>
       </c>
       <c r="D61" t="n">
-        <v>0.556317</v>
+        <v>0.555335</v>
       </c>
     </row>
     <row r="62">
@@ -10212,13 +10212,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.851687</v>
+        <v>0.849471</v>
       </c>
       <c r="C62" t="n">
-        <v>0.625768</v>
+        <v>0.62341</v>
       </c>
       <c r="D62" t="n">
-        <v>0.557337</v>
+        <v>0.558299</v>
       </c>
     </row>
     <row r="63">
@@ -10226,13 +10226,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.863253</v>
+        <v>0.860386</v>
       </c>
       <c r="C63" t="n">
-        <v>0.634279</v>
+        <v>0.634934</v>
       </c>
       <c r="D63" t="n">
-        <v>0.561202</v>
+        <v>0.559761</v>
       </c>
     </row>
     <row r="64">
@@ -10240,13 +10240,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.875174</v>
+        <v>0.873357</v>
       </c>
       <c r="C64" t="n">
-        <v>0.684855</v>
+        <v>0.682484</v>
       </c>
       <c r="D64" t="n">
-        <v>0.606658</v>
+        <v>0.6012999999999999</v>
       </c>
     </row>
     <row r="65">
@@ -10254,13 +10254,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.88913</v>
+        <v>0.897398</v>
       </c>
       <c r="C65" t="n">
-        <v>0.69897</v>
+        <v>0.70297</v>
       </c>
       <c r="D65" t="n">
-        <v>0.605168</v>
+        <v>0.602434</v>
       </c>
     </row>
     <row r="66">
@@ -10268,13 +10268,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.906206</v>
+        <v>0.912283</v>
       </c>
       <c r="C66" t="n">
-        <v>0.718708</v>
+        <v>0.720702</v>
       </c>
       <c r="D66" t="n">
-        <v>0.610785</v>
+        <v>0.61129</v>
       </c>
     </row>
     <row r="67">
@@ -10282,13 +10282,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.92078</v>
+        <v>0.92364</v>
       </c>
       <c r="C67" t="n">
-        <v>0.736057</v>
+        <v>0.743487</v>
       </c>
       <c r="D67" t="n">
-        <v>0.618057</v>
+        <v>0.622763</v>
       </c>
     </row>
     <row r="68">
@@ -10296,13 +10296,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.939783</v>
+        <v>0.94781</v>
       </c>
       <c r="C68" t="n">
-        <v>0.755291</v>
+        <v>0.768949</v>
       </c>
       <c r="D68" t="n">
-        <v>0.635276</v>
+        <v>0.640053</v>
       </c>
     </row>
     <row r="69">
@@ -10310,13 +10310,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.966932</v>
+        <v>0.974359</v>
       </c>
       <c r="C69" t="n">
-        <v>0.7838850000000001</v>
+        <v>0.792053</v>
       </c>
       <c r="D69" t="n">
-        <v>0.655184</v>
+        <v>0.662292</v>
       </c>
     </row>
     <row r="70">
@@ -10324,13 +10324,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.996838</v>
+        <v>1.00337</v>
       </c>
       <c r="C70" t="n">
-        <v>0.817256</v>
+        <v>0.822343</v>
       </c>
       <c r="D70" t="n">
-        <v>0.6757919999999999</v>
+        <v>0.678046</v>
       </c>
     </row>
     <row r="71">
@@ -10338,13 +10338,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>1.02299</v>
+        <v>1.03294</v>
       </c>
       <c r="C71" t="n">
-        <v>0.84624</v>
+        <v>0.851287</v>
       </c>
       <c r="D71" t="n">
-        <v>0.688578</v>
+        <v>0.691358</v>
       </c>
     </row>
     <row r="72">
@@ -10352,13 +10352,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>1.04954</v>
+        <v>1.05434</v>
       </c>
       <c r="C72" t="n">
-        <v>0.873837</v>
+        <v>0.88362</v>
       </c>
       <c r="D72" t="n">
-        <v>0.706311</v>
+        <v>0.714629</v>
       </c>
     </row>
     <row r="73">
@@ -10366,13 +10366,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>1.08143</v>
+        <v>1.09365</v>
       </c>
       <c r="C73" t="n">
-        <v>0.910191</v>
+        <v>0.919574</v>
       </c>
       <c r="D73" t="n">
-        <v>0.721073</v>
+        <v>0.731191</v>
       </c>
     </row>
     <row r="74">
@@ -10380,13 +10380,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>1.10643</v>
+        <v>1.12241</v>
       </c>
       <c r="C74" t="n">
-        <v>0.943433</v>
+        <v>0.953344</v>
       </c>
       <c r="D74" t="n">
-        <v>0.749034</v>
+        <v>0.778288</v>
       </c>
     </row>
     <row r="75">
@@ -10394,13 +10394,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>1.15542</v>
+        <v>1.19437</v>
       </c>
       <c r="C75" t="n">
-        <v>0.978918</v>
+        <v>1.00001</v>
       </c>
       <c r="D75" t="n">
-        <v>0.787232</v>
+        <v>0.798696</v>
       </c>
     </row>
     <row r="76">
@@ -10408,13 +10408,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>1.34203</v>
+        <v>1.36178</v>
       </c>
       <c r="C76" t="n">
-        <v>1.02487</v>
+        <v>1.04063</v>
       </c>
       <c r="D76" t="n">
-        <v>0.818821</v>
+        <v>0.842656</v>
       </c>
     </row>
     <row r="77">
@@ -10422,13 +10422,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>1.40885</v>
+        <v>1.42866</v>
       </c>
       <c r="C77" t="n">
-        <v>1.05888</v>
+        <v>1.06843</v>
       </c>
       <c r="D77" t="n">
-        <v>0.847967</v>
+        <v>0.861358</v>
       </c>
     </row>
     <row r="78">
@@ -10436,13 +10436,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>1.47634</v>
+        <v>1.48569</v>
       </c>
       <c r="C78" t="n">
-        <v>1.26651</v>
+        <v>1.26661</v>
       </c>
       <c r="D78" t="n">
-        <v>1.00875</v>
+        <v>1.01179</v>
       </c>
     </row>
     <row r="79">
@@ -10450,13 +10450,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>1.56872</v>
+        <v>1.56024</v>
       </c>
       <c r="C79" t="n">
-        <v>1.31226</v>
+        <v>1.30695</v>
       </c>
       <c r="D79" t="n">
-        <v>1.06106</v>
+        <v>1.06198</v>
       </c>
     </row>
     <row r="80">
@@ -10464,13 +10464,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>1.64135</v>
+        <v>1.63443</v>
       </c>
       <c r="C80" t="n">
-        <v>1.35249</v>
+        <v>1.34959</v>
       </c>
       <c r="D80" t="n">
-        <v>1.1072</v>
+        <v>1.11338</v>
       </c>
     </row>
     <row r="81">
@@ -10478,13 +10478,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>1.71631</v>
+        <v>1.73837</v>
       </c>
       <c r="C81" t="n">
-        <v>1.40004</v>
+        <v>1.40236</v>
       </c>
       <c r="D81" t="n">
-        <v>1.16828</v>
+        <v>1.18366</v>
       </c>
     </row>
     <row r="82">
@@ -10492,13 +10492,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>1.82652</v>
+        <v>1.83838</v>
       </c>
       <c r="C82" t="n">
-        <v>1.45009</v>
+        <v>1.44761</v>
       </c>
       <c r="D82" t="n">
-        <v>1.24053</v>
+        <v>1.2306</v>
       </c>
     </row>
     <row r="83">
@@ -10506,13 +10506,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>1.92873</v>
+        <v>1.92189</v>
       </c>
       <c r="C83" t="n">
-        <v>1.48637</v>
+        <v>1.49486</v>
       </c>
       <c r="D83" t="n">
-        <v>1.28843</v>
+        <v>1.28508</v>
       </c>
     </row>
     <row r="84">
@@ -10520,13 +10520,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>2.02541</v>
+        <v>2.01916</v>
       </c>
       <c r="C84" t="n">
-        <v>1.54042</v>
+        <v>1.53984</v>
       </c>
       <c r="D84" t="n">
-        <v>1.3405</v>
+        <v>1.3466</v>
       </c>
     </row>
     <row r="85">
@@ -10534,13 +10534,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>2.10307</v>
+        <v>2.1087</v>
       </c>
       <c r="C85" t="n">
-        <v>1.58012</v>
+        <v>1.57993</v>
       </c>
       <c r="D85" t="n">
-        <v>1.39942</v>
+        <v>1.40224</v>
       </c>
     </row>
     <row r="86">
@@ -10548,13 +10548,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>2.20955</v>
+        <v>2.21394</v>
       </c>
       <c r="C86" t="n">
-        <v>1.62659</v>
+        <v>1.62504</v>
       </c>
       <c r="D86" t="n">
-        <v>1.45607</v>
+        <v>1.46387</v>
       </c>
     </row>
     <row r="87">
@@ -10562,13 +10562,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>2.2994</v>
+        <v>2.30676</v>
       </c>
       <c r="C87" t="n">
-        <v>1.67367</v>
+        <v>1.67483</v>
       </c>
       <c r="D87" t="n">
-        <v>1.51851</v>
+        <v>1.5212</v>
       </c>
     </row>
     <row r="88">
@@ -10576,13 +10576,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>2.39224</v>
+        <v>2.39757</v>
       </c>
       <c r="C88" t="n">
-        <v>1.71611</v>
+        <v>1.71049</v>
       </c>
       <c r="D88" t="n">
-        <v>1.57942</v>
+        <v>1.5793</v>
       </c>
     </row>
     <row r="89">
@@ -10590,13 +10590,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>2.48903</v>
+        <v>2.49293</v>
       </c>
       <c r="C89" t="n">
-        <v>1.75763</v>
+        <v>1.76498</v>
       </c>
       <c r="D89" t="n">
-        <v>1.63231</v>
+        <v>1.63029</v>
       </c>
     </row>
     <row r="90">
@@ -10604,13 +10604,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>2.68757</v>
+        <v>2.69132</v>
       </c>
       <c r="C90" t="n">
-        <v>1.80864</v>
+        <v>1.80696</v>
       </c>
       <c r="D90" t="n">
-        <v>1.68627</v>
+        <v>1.68808</v>
       </c>
     </row>
     <row r="91">
@@ -10618,13 +10618,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>2.77431</v>
+        <v>2.77357</v>
       </c>
       <c r="C91" t="n">
-        <v>1.85735</v>
+        <v>1.85322</v>
       </c>
       <c r="D91" t="n">
-        <v>1.73729</v>
+        <v>1.73883</v>
       </c>
     </row>
     <row r="92">
@@ -10632,13 +10632,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>2.85423</v>
+        <v>2.85013</v>
       </c>
       <c r="C92" t="n">
-        <v>1.97872</v>
+        <v>1.97643</v>
       </c>
       <c r="D92" t="n">
-        <v>1.8657</v>
+        <v>1.86169</v>
       </c>
     </row>
     <row r="93">
@@ -10646,13 +10646,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>2.93897</v>
+        <v>2.93013</v>
       </c>
       <c r="C93" t="n">
-        <v>2.01961</v>
+        <v>2.00327</v>
       </c>
       <c r="D93" t="n">
-        <v>1.913</v>
+        <v>1.91587</v>
       </c>
     </row>
     <row r="94">
@@ -10660,13 +10660,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>3.02384</v>
+        <v>3.02138</v>
       </c>
       <c r="C94" t="n">
-        <v>2.04647</v>
+        <v>2.04557</v>
       </c>
       <c r="D94" t="n">
-        <v>1.96374</v>
+        <v>1.95645</v>
       </c>
     </row>
     <row r="95">
@@ -10674,13 +10674,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>3.10919</v>
+        <v>3.09644</v>
       </c>
       <c r="C95" t="n">
-        <v>2.08004</v>
+        <v>2.08071</v>
       </c>
       <c r="D95" t="n">
-        <v>2.0092</v>
+        <v>2.00346</v>
       </c>
     </row>
     <row r="96">
@@ -10688,13 +10688,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>3.19061</v>
+        <v>3.18045</v>
       </c>
       <c r="C96" t="n">
-        <v>2.12035</v>
+        <v>2.11361</v>
       </c>
       <c r="D96" t="n">
-        <v>2.05422</v>
+        <v>2.05513</v>
       </c>
     </row>
     <row r="97">
@@ -10702,13 +10702,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>3.25616</v>
+        <v>3.25392</v>
       </c>
       <c r="C97" t="n">
-        <v>2.15711</v>
+        <v>2.15531</v>
       </c>
       <c r="D97" t="n">
-        <v>2.09796</v>
+        <v>2.10666</v>
       </c>
     </row>
     <row r="98">
@@ -10716,13 +10716,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>3.33524</v>
+        <v>3.31196</v>
       </c>
       <c r="C98" t="n">
-        <v>2.19494</v>
+        <v>2.18609</v>
       </c>
       <c r="D98" t="n">
-        <v>2.1372</v>
+        <v>2.13806</v>
       </c>
     </row>
     <row r="99">
@@ -10730,13 +10730,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>3.39637</v>
+        <v>3.38867</v>
       </c>
       <c r="C99" t="n">
-        <v>2.22794</v>
+        <v>2.21795</v>
       </c>
       <c r="D99" t="n">
-        <v>2.17801</v>
+        <v>2.19211</v>
       </c>
     </row>
     <row r="100">
@@ -10744,13 +10744,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>3.46652</v>
+        <v>3.47597</v>
       </c>
       <c r="C100" t="n">
-        <v>2.26184</v>
+        <v>2.2616</v>
       </c>
       <c r="D100" t="n">
-        <v>2.21331</v>
+        <v>2.22986</v>
       </c>
     </row>
     <row r="101">
@@ -10758,13 +10758,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>3.51898</v>
+        <v>3.51996</v>
       </c>
       <c r="C101" t="n">
-        <v>2.29332</v>
+        <v>2.29395</v>
       </c>
       <c r="D101" t="n">
-        <v>2.25184</v>
+        <v>2.25269</v>
       </c>
     </row>
     <row r="102">
@@ -10772,13 +10772,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>3.59593</v>
+        <v>3.57188</v>
       </c>
       <c r="C102" t="n">
-        <v>2.33072</v>
+        <v>2.31549</v>
       </c>
       <c r="D102" t="n">
-        <v>2.29787</v>
+        <v>2.29715</v>
       </c>
     </row>
     <row r="103">
@@ -10786,13 +10786,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>3.67353</v>
+        <v>3.66637</v>
       </c>
       <c r="C103" t="n">
-        <v>2.36542</v>
+        <v>2.36208</v>
       </c>
       <c r="D103" t="n">
-        <v>2.31714</v>
+        <v>2.3305</v>
       </c>
     </row>
     <row r="104">
@@ -10800,13 +10800,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>3.71758</v>
+        <v>3.69071</v>
       </c>
       <c r="C104" t="n">
-        <v>2.38873</v>
+        <v>2.39625</v>
       </c>
       <c r="D104" t="n">
-        <v>2.35022</v>
+        <v>2.35224</v>
       </c>
     </row>
     <row r="105">
@@ -10814,13 +10814,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>3.76632</v>
+        <v>3.74491</v>
       </c>
       <c r="C105" t="n">
-        <v>2.42963</v>
+        <v>2.42978</v>
       </c>
       <c r="D105" t="n">
-        <v>2.38743</v>
+        <v>2.38418</v>
       </c>
     </row>
     <row r="106">
@@ -10828,13 +10828,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>3.81517</v>
+        <v>3.78407</v>
       </c>
       <c r="C106" t="n">
-        <v>2.46612</v>
+        <v>2.46172</v>
       </c>
       <c r="D106" t="n">
-        <v>2.4126</v>
+        <v>2.41192</v>
       </c>
     </row>
     <row r="107">
@@ -10842,13 +10842,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>3.85486</v>
+        <v>3.8281</v>
       </c>
       <c r="C107" t="n">
-        <v>2.45625</v>
+        <v>2.45441</v>
       </c>
       <c r="D107" t="n">
-        <v>2.49014</v>
+        <v>2.48208</v>
       </c>
     </row>
     <row r="108">
@@ -10856,13 +10856,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>3.90528</v>
+        <v>3.89347</v>
       </c>
       <c r="C108" t="n">
-        <v>2.48586</v>
+        <v>2.47804</v>
       </c>
       <c r="D108" t="n">
-        <v>2.5256</v>
+        <v>2.52049</v>
       </c>
     </row>
     <row r="109">
@@ -10870,13 +10870,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>3.94973</v>
+        <v>3.93399</v>
       </c>
       <c r="C109" t="n">
-        <v>2.50399</v>
+        <v>2.50557</v>
       </c>
       <c r="D109" t="n">
-        <v>2.55442</v>
+        <v>2.54343</v>
       </c>
     </row>
     <row r="110">
@@ -10884,13 +10884,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>4.00673</v>
+        <v>3.98591</v>
       </c>
       <c r="C110" t="n">
-        <v>2.5422</v>
+        <v>2.52031</v>
       </c>
       <c r="D110" t="n">
-        <v>2.58365</v>
+        <v>2.57052</v>
       </c>
     </row>
     <row r="111">
@@ -10898,13 +10898,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>4.05825</v>
+        <v>4.02839</v>
       </c>
       <c r="C111" t="n">
-        <v>2.55719</v>
+        <v>2.55436</v>
       </c>
       <c r="D111" t="n">
-        <v>2.6056</v>
+        <v>2.60295</v>
       </c>
     </row>
     <row r="112">
@@ -10912,13 +10912,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>4.1055</v>
+        <v>4.08523</v>
       </c>
       <c r="C112" t="n">
-        <v>2.58621</v>
+        <v>2.58435</v>
       </c>
       <c r="D112" t="n">
-        <v>2.64392</v>
+        <v>2.63224</v>
       </c>
     </row>
     <row r="113">
@@ -10926,13 +10926,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>4.14031</v>
+        <v>4.12919</v>
       </c>
       <c r="C113" t="n">
-        <v>2.61291</v>
+        <v>2.61066</v>
       </c>
       <c r="D113" t="n">
-        <v>2.6628</v>
+        <v>2.65825</v>
       </c>
     </row>
     <row r="114">
@@ -10940,13 +10940,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>4.19111</v>
+        <v>4.15272</v>
       </c>
       <c r="C114" t="n">
-        <v>2.62689</v>
+        <v>2.63237</v>
       </c>
       <c r="D114" t="n">
-        <v>2.69201</v>
+        <v>2.67434</v>
       </c>
     </row>
     <row r="115">
@@ -10954,13 +10954,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>4.23493</v>
+        <v>4.20642</v>
       </c>
       <c r="C115" t="n">
-        <v>2.65898</v>
+        <v>2.64853</v>
       </c>
       <c r="D115" t="n">
-        <v>2.71187</v>
+        <v>2.69995</v>
       </c>
     </row>
     <row r="116">
@@ -10968,13 +10968,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>4.29652</v>
+        <v>4.2442</v>
       </c>
       <c r="C116" t="n">
-        <v>2.69966</v>
+        <v>2.68438</v>
       </c>
       <c r="D116" t="n">
-        <v>2.7327</v>
+        <v>2.72009</v>
       </c>
     </row>
     <row r="117">
@@ -10982,13 +10982,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>4.33595</v>
+        <v>4.29191</v>
       </c>
       <c r="C117" t="n">
-        <v>2.72208</v>
+        <v>2.711</v>
       </c>
       <c r="D117" t="n">
-        <v>2.76563</v>
+        <v>2.74609</v>
       </c>
     </row>
     <row r="118">
@@ -10996,13 +10996,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>4.37907</v>
+        <v>4.34164</v>
       </c>
       <c r="C118" t="n">
-        <v>2.75832</v>
+        <v>2.73791</v>
       </c>
       <c r="D118" t="n">
-        <v>2.79104</v>
+        <v>2.76901</v>
       </c>
     </row>
     <row r="119">
@@ -11010,13 +11010,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>4.34494</v>
+        <v>4.30196</v>
       </c>
       <c r="C119" t="n">
-        <v>2.77839</v>
+        <v>2.76209</v>
       </c>
       <c r="D119" t="n">
-        <v>2.79805</v>
+        <v>2.783</v>
       </c>
     </row>
   </sheetData>
@@ -11064,13 +11064,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.53349</v>
+        <v>0.5257500000000001</v>
       </c>
       <c r="C2" t="n">
-        <v>0.437493</v>
+        <v>0.432986</v>
       </c>
       <c r="D2" t="n">
-        <v>0.340734</v>
+        <v>0.337066</v>
       </c>
     </row>
     <row r="3">
@@ -11078,13 +11078,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.5451780000000001</v>
+        <v>0.531881</v>
       </c>
       <c r="C3" t="n">
-        <v>0.447681</v>
+        <v>0.441034</v>
       </c>
       <c r="D3" t="n">
-        <v>0.346183</v>
+        <v>0.338177</v>
       </c>
     </row>
     <row r="4">
@@ -11092,13 +11092,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.557179</v>
+        <v>0.537995</v>
       </c>
       <c r="C4" t="n">
-        <v>0.45527</v>
+        <v>0.446222</v>
       </c>
       <c r="D4" t="n">
-        <v>0.356492</v>
+        <v>0.343208</v>
       </c>
     </row>
     <row r="5">
@@ -11106,13 +11106,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.573556</v>
+        <v>0.549002</v>
       </c>
       <c r="C5" t="n">
-        <v>0.463405</v>
+        <v>0.453108</v>
       </c>
       <c r="D5" t="n">
-        <v>0.363197</v>
+        <v>0.347797</v>
       </c>
     </row>
     <row r="6">
@@ -11120,13 +11120,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.584915</v>
+        <v>0.55948</v>
       </c>
       <c r="C6" t="n">
-        <v>0.466287</v>
+        <v>0.455023</v>
       </c>
       <c r="D6" t="n">
-        <v>0.365265</v>
+        <v>0.349429</v>
       </c>
     </row>
     <row r="7">
@@ -11134,13 +11134,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.595577</v>
+        <v>0.569375</v>
       </c>
       <c r="C7" t="n">
-        <v>0.482913</v>
+        <v>0.471234</v>
       </c>
       <c r="D7" t="n">
-        <v>0.375081</v>
+        <v>0.358083</v>
       </c>
     </row>
     <row r="8">
@@ -11148,13 +11148,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.608962</v>
+        <v>0.577072</v>
       </c>
       <c r="C8" t="n">
-        <v>0.488967</v>
+        <v>0.475461</v>
       </c>
       <c r="D8" t="n">
-        <v>0.378072</v>
+        <v>0.361359</v>
       </c>
     </row>
     <row r="9">
@@ -11162,13 +11162,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.617792</v>
+        <v>0.590086</v>
       </c>
       <c r="C9" t="n">
-        <v>0.496923</v>
+        <v>0.48664</v>
       </c>
       <c r="D9" t="n">
-        <v>0.381755</v>
+        <v>0.365305</v>
       </c>
     </row>
     <row r="10">
@@ -11176,13 +11176,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.626829</v>
+        <v>0.603486</v>
       </c>
       <c r="C10" t="n">
-        <v>0.509231</v>
+        <v>0.499603</v>
       </c>
       <c r="D10" t="n">
-        <v>0.382573</v>
+        <v>0.370423</v>
       </c>
     </row>
     <row r="11">
@@ -11190,13 +11190,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.635771</v>
+        <v>0.614614</v>
       </c>
       <c r="C11" t="n">
-        <v>0.484152</v>
+        <v>0.480892</v>
       </c>
       <c r="D11" t="n">
-        <v>0.387993</v>
+        <v>0.380937</v>
       </c>
     </row>
     <row r="12">
@@ -11204,13 +11204,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.609492</v>
+        <v>0.605096</v>
       </c>
       <c r="C12" t="n">
-        <v>0.486087</v>
+        <v>0.484686</v>
       </c>
       <c r="D12" t="n">
-        <v>0.392963</v>
+        <v>0.386811</v>
       </c>
     </row>
     <row r="13">
@@ -11218,13 +11218,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.6184770000000001</v>
+        <v>0.61325</v>
       </c>
       <c r="C13" t="n">
-        <v>0.49703</v>
+        <v>0.497057</v>
       </c>
       <c r="D13" t="n">
-        <v>0.394625</v>
+        <v>0.390591</v>
       </c>
     </row>
     <row r="14">
@@ -11232,13 +11232,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.628321</v>
+        <v>0.626443</v>
       </c>
       <c r="C14" t="n">
-        <v>0.502737</v>
+        <v>0.503521</v>
       </c>
       <c r="D14" t="n">
-        <v>0.399384</v>
+        <v>0.39754</v>
       </c>
     </row>
     <row r="15">
@@ -11246,13 +11246,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.645489</v>
+        <v>0.639622</v>
       </c>
       <c r="C15" t="n">
-        <v>0.50967</v>
+        <v>0.509524</v>
       </c>
       <c r="D15" t="n">
-        <v>0.405403</v>
+        <v>0.402177</v>
       </c>
     </row>
     <row r="16">
@@ -11260,13 +11260,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.653488</v>
+        <v>0.649424</v>
       </c>
       <c r="C16" t="n">
-        <v>0.51801</v>
+        <v>0.518666</v>
       </c>
       <c r="D16" t="n">
-        <v>0.408871</v>
+        <v>0.406972</v>
       </c>
     </row>
     <row r="17">
@@ -11274,13 +11274,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.666927</v>
+        <v>0.660569</v>
       </c>
       <c r="C17" t="n">
-        <v>0.5292480000000001</v>
+        <v>0.527154</v>
       </c>
       <c r="D17" t="n">
-        <v>0.415693</v>
+        <v>0.413706</v>
       </c>
     </row>
     <row r="18">
@@ -11288,13 +11288,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.681558</v>
+        <v>0.677457</v>
       </c>
       <c r="C18" t="n">
-        <v>0.532871</v>
+        <v>0.53111</v>
       </c>
       <c r="D18" t="n">
-        <v>0.424213</v>
+        <v>0.421706</v>
       </c>
     </row>
     <row r="19">
@@ -11302,13 +11302,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.69608</v>
+        <v>0.687469</v>
       </c>
       <c r="C19" t="n">
-        <v>0.547606</v>
+        <v>0.5461859999999999</v>
       </c>
       <c r="D19" t="n">
-        <v>0.426156</v>
+        <v>0.423713</v>
       </c>
     </row>
     <row r="20">
@@ -11316,13 +11316,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.709713</v>
+        <v>0.706572</v>
       </c>
       <c r="C20" t="n">
-        <v>0.560207</v>
+        <v>0.5566990000000001</v>
       </c>
       <c r="D20" t="n">
-        <v>0.434051</v>
+        <v>0.431093</v>
       </c>
     </row>
     <row r="21">
@@ -11330,13 +11330,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.718662</v>
+        <v>0.716973</v>
       </c>
       <c r="C21" t="n">
-        <v>0.565939</v>
+        <v>0.566658</v>
       </c>
       <c r="D21" t="n">
-        <v>0.437033</v>
+        <v>0.437358</v>
       </c>
     </row>
     <row r="22">
@@ -11344,13 +11344,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.730884</v>
+        <v>0.7306009999999999</v>
       </c>
       <c r="C22" t="n">
-        <v>0.580735</v>
+        <v>0.580267</v>
       </c>
       <c r="D22" t="n">
-        <v>0.443601</v>
+        <v>0.443417</v>
       </c>
     </row>
     <row r="23">
@@ -11358,13 +11358,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.748681</v>
+        <v>0.749382</v>
       </c>
       <c r="C23" t="n">
-        <v>0.593965</v>
+        <v>0.594862</v>
       </c>
       <c r="D23" t="n">
-        <v>0.448119</v>
+        <v>0.448393</v>
       </c>
     </row>
     <row r="24">
@@ -11372,13 +11372,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.7616810000000001</v>
+        <v>0.761733</v>
       </c>
       <c r="C24" t="n">
-        <v>0.601287</v>
+        <v>0.601374</v>
       </c>
       <c r="D24" t="n">
-        <v>0.453933</v>
+        <v>0.45449</v>
       </c>
     </row>
     <row r="25">
@@ -11386,13 +11386,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.779883</v>
+        <v>0.779142</v>
       </c>
       <c r="C25" t="n">
-        <v>0.615689</v>
+        <v>0.614777</v>
       </c>
       <c r="D25" t="n">
-        <v>0.459482</v>
+        <v>0.459033</v>
       </c>
     </row>
     <row r="26">
@@ -11400,13 +11400,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.797314</v>
+        <v>0.794849</v>
       </c>
       <c r="C26" t="n">
-        <v>0.553468</v>
+        <v>0.554186</v>
       </c>
       <c r="D26" t="n">
-        <v>0.465476</v>
+        <v>0.465596</v>
       </c>
     </row>
     <row r="27">
@@ -11414,13 +11414,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.747035</v>
+        <v>0.753902</v>
       </c>
       <c r="C27" t="n">
-        <v>0.558243</v>
+        <v>0.56073</v>
       </c>
       <c r="D27" t="n">
-        <v>0.468294</v>
+        <v>0.468408</v>
       </c>
     </row>
     <row r="28">
@@ -11428,13 +11428,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.761892</v>
+        <v>0.763439</v>
       </c>
       <c r="C28" t="n">
-        <v>0.567505</v>
+        <v>0.570393</v>
       </c>
       <c r="D28" t="n">
-        <v>0.47466</v>
+        <v>0.474198</v>
       </c>
     </row>
     <row r="29">
@@ -11442,13 +11442,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.7671559999999999</v>
+        <v>0.772343</v>
       </c>
       <c r="C29" t="n">
-        <v>0.571591</v>
+        <v>0.573917</v>
       </c>
       <c r="D29" t="n">
-        <v>0.477311</v>
+        <v>0.481087</v>
       </c>
     </row>
     <row r="30">
@@ -11456,13 +11456,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.7821669999999999</v>
+        <v>0.781287</v>
       </c>
       <c r="C30" t="n">
-        <v>0.58286</v>
+        <v>0.5838989999999999</v>
       </c>
       <c r="D30" t="n">
-        <v>0.484377</v>
+        <v>0.485665</v>
       </c>
     </row>
     <row r="31">
@@ -11470,13 +11470,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.796421</v>
+        <v>0.796988</v>
       </c>
       <c r="C31" t="n">
-        <v>0.586589</v>
+        <v>0.589136</v>
       </c>
       <c r="D31" t="n">
-        <v>0.486952</v>
+        <v>0.487203</v>
       </c>
     </row>
     <row r="32">
@@ -11484,13 +11484,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.809772</v>
+        <v>0.811307</v>
       </c>
       <c r="C32" t="n">
-        <v>0.596793</v>
+        <v>0.5997400000000001</v>
       </c>
       <c r="D32" t="n">
-        <v>0.489619</v>
+        <v>0.491626</v>
       </c>
     </row>
     <row r="33">
@@ -11498,13 +11498,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.820747</v>
+        <v>0.820981</v>
       </c>
       <c r="C33" t="n">
-        <v>0.603356</v>
+        <v>0.606949</v>
       </c>
       <c r="D33" t="n">
-        <v>0.493749</v>
+        <v>0.494701</v>
       </c>
     </row>
     <row r="34">
@@ -11512,13 +11512,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.833522</v>
+        <v>0.833558</v>
       </c>
       <c r="C34" t="n">
-        <v>0.614698</v>
+        <v>0.617274</v>
       </c>
       <c r="D34" t="n">
-        <v>0.497559</v>
+        <v>0.497102</v>
       </c>
     </row>
     <row r="35">
@@ -11526,13 +11526,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.84055</v>
+        <v>0.845604</v>
       </c>
       <c r="C35" t="n">
-        <v>0.625224</v>
+        <v>0.626037</v>
       </c>
       <c r="D35" t="n">
-        <v>0.501668</v>
+        <v>0.501134</v>
       </c>
     </row>
     <row r="36">
@@ -11540,13 +11540,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.860652</v>
+        <v>0.860559</v>
       </c>
       <c r="C36" t="n">
-        <v>0.637974</v>
+        <v>0.638458</v>
       </c>
       <c r="D36" t="n">
-        <v>0.504986</v>
+        <v>0.506453</v>
       </c>
     </row>
     <row r="37">
@@ -11554,13 +11554,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.866797</v>
+        <v>0.866772</v>
       </c>
       <c r="C37" t="n">
-        <v>0.647902</v>
+        <v>0.644578</v>
       </c>
       <c r="D37" t="n">
-        <v>0.506838</v>
+        <v>0.506258</v>
       </c>
     </row>
     <row r="38">
@@ -11568,13 +11568,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.879161</v>
+        <v>0.8797469999999999</v>
       </c>
       <c r="C38" t="n">
-        <v>0.6608309999999999</v>
+        <v>0.662145</v>
       </c>
       <c r="D38" t="n">
-        <v>0.511733</v>
+        <v>0.512682</v>
       </c>
     </row>
     <row r="39">
@@ -11582,13 +11582,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.897024</v>
+        <v>0.898969</v>
       </c>
       <c r="C39" t="n">
-        <v>0.673023</v>
+        <v>0.673959</v>
       </c>
       <c r="D39" t="n">
-        <v>0.513482</v>
+        <v>0.5124300000000001</v>
       </c>
     </row>
     <row r="40">
@@ -11596,13 +11596,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.903937</v>
+        <v>0.903954</v>
       </c>
       <c r="C40" t="n">
-        <v>0.617169</v>
+        <v>0.616964</v>
       </c>
       <c r="D40" t="n">
-        <v>0.5179550000000001</v>
+        <v>0.516669</v>
       </c>
     </row>
     <row r="41">
@@ -11610,13 +11610,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.858579</v>
+        <v>0.857151</v>
       </c>
       <c r="C41" t="n">
-        <v>0.623193</v>
+        <v>0.620406</v>
       </c>
       <c r="D41" t="n">
-        <v>0.519815</v>
+        <v>0.51869</v>
       </c>
     </row>
     <row r="42">
@@ -11624,13 +11624,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.866554</v>
+        <v>0.864279</v>
       </c>
       <c r="C42" t="n">
-        <v>0.630128</v>
+        <v>0.630177</v>
       </c>
       <c r="D42" t="n">
-        <v>0.523311</v>
+        <v>0.521939</v>
       </c>
     </row>
     <row r="43">
@@ -11638,13 +11638,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.8731</v>
+        <v>0.87157</v>
       </c>
       <c r="C43" t="n">
-        <v>0.638524</v>
+        <v>0.635865</v>
       </c>
       <c r="D43" t="n">
-        <v>0.52667</v>
+        <v>0.525384</v>
       </c>
     </row>
     <row r="44">
@@ -11652,13 +11652,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.879277</v>
+        <v>0.878077</v>
       </c>
       <c r="C44" t="n">
-        <v>0.648938</v>
+        <v>0.64827</v>
       </c>
       <c r="D44" t="n">
-        <v>0.528787</v>
+        <v>0.527532</v>
       </c>
     </row>
     <row r="45">
@@ -11666,13 +11666,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.893024</v>
+        <v>0.891699</v>
       </c>
       <c r="C45" t="n">
-        <v>0.655204</v>
+        <v>0.65499</v>
       </c>
       <c r="D45" t="n">
-        <v>0.530093</v>
+        <v>0.528799</v>
       </c>
     </row>
     <row r="46">
@@ -11680,13 +11680,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.902624</v>
+        <v>0.900747</v>
       </c>
       <c r="C46" t="n">
-        <v>0.664583</v>
+        <v>0.66368</v>
       </c>
       <c r="D46" t="n">
-        <v>0.533119</v>
+        <v>0.531508</v>
       </c>
     </row>
     <row r="47">
@@ -11694,13 +11694,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.913998</v>
+        <v>0.911953</v>
       </c>
       <c r="C47" t="n">
-        <v>0.6732900000000001</v>
+        <v>0.67336</v>
       </c>
       <c r="D47" t="n">
-        <v>0.535337</v>
+        <v>0.53377</v>
       </c>
     </row>
     <row r="48">
@@ -11708,13 +11708,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.922854</v>
+        <v>0.9216760000000001</v>
       </c>
       <c r="C48" t="n">
-        <v>0.681859</v>
+        <v>0.681033</v>
       </c>
       <c r="D48" t="n">
-        <v>0.536892</v>
+        <v>0.535506</v>
       </c>
     </row>
     <row r="49">
@@ -11722,13 +11722,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.929388</v>
+        <v>0.928164</v>
       </c>
       <c r="C49" t="n">
-        <v>0.689322</v>
+        <v>0.688682</v>
       </c>
       <c r="D49" t="n">
-        <v>0.5412979999999999</v>
+        <v>0.540131</v>
       </c>
     </row>
     <row r="50">
@@ -11736,13 +11736,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.9432779999999999</v>
+        <v>0.941623</v>
       </c>
       <c r="C50" t="n">
-        <v>0.70118</v>
+        <v>0.700187</v>
       </c>
       <c r="D50" t="n">
-        <v>0.54296</v>
+        <v>0.541571</v>
       </c>
     </row>
     <row r="51">
@@ -11750,13 +11750,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.953281</v>
+        <v>0.95319</v>
       </c>
       <c r="C51" t="n">
-        <v>0.708188</v>
+        <v>0.708193</v>
       </c>
       <c r="D51" t="n">
-        <v>0.5439659999999999</v>
+        <v>0.543354</v>
       </c>
     </row>
     <row r="52">
@@ -11764,13 +11764,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.963704</v>
+        <v>0.96435</v>
       </c>
       <c r="C52" t="n">
-        <v>0.723272</v>
+        <v>0.721372</v>
       </c>
       <c r="D52" t="n">
-        <v>0.546088</v>
+        <v>0.544907</v>
       </c>
     </row>
     <row r="53">
@@ -11778,13 +11778,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.975458</v>
+        <v>0.975433</v>
       </c>
       <c r="C53" t="n">
-        <v>0.732727</v>
+        <v>0.732009</v>
       </c>
       <c r="D53" t="n">
-        <v>0.549301</v>
+        <v>0.547378</v>
       </c>
     </row>
     <row r="54">
@@ -11792,13 +11792,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.987978</v>
+        <v>0.987721</v>
       </c>
       <c r="C54" t="n">
-        <v>0.6647650000000001</v>
+        <v>0.662521</v>
       </c>
       <c r="D54" t="n">
-        <v>0.548295</v>
+        <v>0.547497</v>
       </c>
     </row>
     <row r="55">
@@ -11806,13 +11806,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>1.00013</v>
+        <v>1.0006</v>
       </c>
       <c r="C55" t="n">
-        <v>0.670655</v>
+        <v>0.667717</v>
       </c>
       <c r="D55" t="n">
-        <v>0.549811</v>
+        <v>0.547843</v>
       </c>
     </row>
     <row r="56">
@@ -11820,13 +11820,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.916086</v>
+        <v>0.917843</v>
       </c>
       <c r="C56" t="n">
-        <v>0.678515</v>
+        <v>0.675625</v>
       </c>
       <c r="D56" t="n">
-        <v>0.55072</v>
+        <v>0.550031</v>
       </c>
     </row>
     <row r="57">
@@ -11834,13 +11834,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.924658</v>
+        <v>0.924388</v>
       </c>
       <c r="C57" t="n">
-        <v>0.687469</v>
+        <v>0.6832859999999999</v>
       </c>
       <c r="D57" t="n">
-        <v>0.552612</v>
+        <v>0.552165</v>
       </c>
     </row>
     <row r="58">
@@ -11848,13 +11848,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.933405</v>
+        <v>0.9343</v>
       </c>
       <c r="C58" t="n">
-        <v>0.694648</v>
+        <v>0.692389</v>
       </c>
       <c r="D58" t="n">
-        <v>0.5555369999999999</v>
+        <v>0.553848</v>
       </c>
     </row>
     <row r="59">
@@ -11862,13 +11862,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.943226</v>
+        <v>0.942268</v>
       </c>
       <c r="C59" t="n">
-        <v>0.703964</v>
+        <v>0.701613</v>
       </c>
       <c r="D59" t="n">
-        <v>0.55697</v>
+        <v>0.55544</v>
       </c>
     </row>
     <row r="60">
@@ -11876,13 +11876,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.9486289999999999</v>
+        <v>0.948634</v>
       </c>
       <c r="C60" t="n">
-        <v>0.7144239999999999</v>
+        <v>0.714454</v>
       </c>
       <c r="D60" t="n">
-        <v>0.559422</v>
+        <v>0.557066</v>
       </c>
     </row>
     <row r="61">
@@ -11890,13 +11890,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.957889</v>
+        <v>0.954701</v>
       </c>
       <c r="C61" t="n">
-        <v>0.72411</v>
+        <v>0.724928</v>
       </c>
       <c r="D61" t="n">
-        <v>0.56293</v>
+        <v>0.560839</v>
       </c>
     </row>
     <row r="62">
@@ -11904,13 +11904,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.96693</v>
+        <v>0.9647250000000001</v>
       </c>
       <c r="C62" t="n">
-        <v>0.734665</v>
+        <v>0.73542</v>
       </c>
       <c r="D62" t="n">
-        <v>0.562698</v>
+        <v>0.55936</v>
       </c>
     </row>
     <row r="63">
@@ -11918,13 +11918,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.981729</v>
+        <v>0.976328</v>
       </c>
       <c r="C63" t="n">
-        <v>0.751685</v>
+        <v>0.749831</v>
       </c>
       <c r="D63" t="n">
-        <v>0.568062</v>
+        <v>0.56276</v>
       </c>
     </row>
     <row r="64">
@@ -11932,13 +11932,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.990264</v>
+        <v>0.9854810000000001</v>
       </c>
       <c r="C64" t="n">
-        <v>0.762294</v>
+        <v>0.758955</v>
       </c>
       <c r="D64" t="n">
-        <v>0.569032</v>
+        <v>0.563638</v>
       </c>
     </row>
     <row r="65">
@@ -11946,13 +11946,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>1.00456</v>
+        <v>0.999786</v>
       </c>
       <c r="C65" t="n">
-        <v>0.780501</v>
+        <v>0.776582</v>
       </c>
       <c r="D65" t="n">
-        <v>0.5724320000000001</v>
+        <v>0.566743</v>
       </c>
     </row>
     <row r="66">
@@ -11960,13 +11960,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>1.02139</v>
+        <v>1.0155</v>
       </c>
       <c r="C66" t="n">
-        <v>0.792307</v>
+        <v>0.793519</v>
       </c>
       <c r="D66" t="n">
-        <v>0.576713</v>
+        <v>0.570388</v>
       </c>
     </row>
     <row r="67">
@@ -11974,13 +11974,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>1.03351</v>
+        <v>1.02915</v>
       </c>
       <c r="C67" t="n">
-        <v>0.8122200000000001</v>
+        <v>0.814022</v>
       </c>
       <c r="D67" t="n">
-        <v>0.5809800000000001</v>
+        <v>0.575495</v>
       </c>
     </row>
     <row r="68">
@@ -11988,13 +11988,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>1.05075</v>
+        <v>1.04178</v>
       </c>
       <c r="C68" t="n">
-        <v>0.740211</v>
+        <v>0.741269</v>
       </c>
       <c r="D68" t="n">
-        <v>0.602475</v>
+        <v>0.5944199999999999</v>
       </c>
     </row>
     <row r="69">
@@ -12002,13 +12002,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>1.09242</v>
+        <v>1.08098</v>
       </c>
       <c r="C69" t="n">
-        <v>0.7665419999999999</v>
+        <v>0.771814</v>
       </c>
       <c r="D69" t="n">
-        <v>0.614672</v>
+        <v>0.606941</v>
       </c>
     </row>
     <row r="70">
@@ -12016,13 +12016,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>1.03139</v>
+        <v>1.02177</v>
       </c>
       <c r="C70" t="n">
-        <v>0.7947109999999999</v>
+        <v>0.801844</v>
       </c>
       <c r="D70" t="n">
-        <v>0.628717</v>
+        <v>0.622909</v>
       </c>
     </row>
     <row r="71">
@@ -12030,13 +12030,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>1.06199</v>
+        <v>1.05558</v>
       </c>
       <c r="C71" t="n">
-        <v>0.828543</v>
+        <v>0.83377</v>
       </c>
       <c r="D71" t="n">
-        <v>0.645604</v>
+        <v>0.637831</v>
       </c>
     </row>
     <row r="72">
@@ -12044,13 +12044,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>1.0953</v>
+        <v>1.09127</v>
       </c>
       <c r="C72" t="n">
-        <v>0.864192</v>
+        <v>0.866193</v>
       </c>
       <c r="D72" t="n">
-        <v>0.659475</v>
+        <v>0.655213</v>
       </c>
     </row>
     <row r="73">
@@ -12058,13 +12058,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>1.12333</v>
+        <v>1.12655</v>
       </c>
       <c r="C73" t="n">
-        <v>0.898237</v>
+        <v>0.902481</v>
       </c>
       <c r="D73" t="n">
-        <v>0.675339</v>
+        <v>0.674539</v>
       </c>
     </row>
     <row r="74">
@@ -12072,13 +12072,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>1.16472</v>
+        <v>1.16156</v>
       </c>
       <c r="C74" t="n">
-        <v>0.937207</v>
+        <v>0.939947</v>
       </c>
       <c r="D74" t="n">
-        <v>0.694874</v>
+        <v>0.695253</v>
       </c>
     </row>
     <row r="75">
@@ -12086,13 +12086,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>1.20158</v>
+        <v>1.19844</v>
       </c>
       <c r="C75" t="n">
-        <v>0.979677</v>
+        <v>0.980475</v>
       </c>
       <c r="D75" t="n">
-        <v>0.718077</v>
+        <v>0.71243</v>
       </c>
     </row>
     <row r="76">
@@ -12100,13 +12100,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>1.2472</v>
+        <v>1.2454</v>
       </c>
       <c r="C76" t="n">
-        <v>1.02388</v>
+        <v>1.02462</v>
       </c>
       <c r="D76" t="n">
-        <v>0.740273</v>
+        <v>0.736232</v>
       </c>
     </row>
     <row r="77">
@@ -12114,13 +12114,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>1.29267</v>
+        <v>1.30658</v>
       </c>
       <c r="C77" t="n">
-        <v>1.07005</v>
+        <v>1.07798</v>
       </c>
       <c r="D77" t="n">
-        <v>0.764458</v>
+        <v>0.771033</v>
       </c>
     </row>
     <row r="78">
@@ -12128,13 +12128,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>1.34756</v>
+        <v>1.36997</v>
       </c>
       <c r="C78" t="n">
-        <v>1.11637</v>
+        <v>1.12996</v>
       </c>
       <c r="D78" t="n">
-        <v>0.79192</v>
+        <v>0.804764</v>
       </c>
     </row>
     <row r="79">
@@ -12142,13 +12142,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>1.41311</v>
+        <v>1.43046</v>
       </c>
       <c r="C79" t="n">
-        <v>1.16762</v>
+        <v>1.17943</v>
       </c>
       <c r="D79" t="n">
-        <v>0.825334</v>
+        <v>0.839181</v>
       </c>
     </row>
     <row r="80">
@@ -12156,13 +12156,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>1.48759</v>
+        <v>1.50061</v>
       </c>
       <c r="C80" t="n">
-        <v>1.23259</v>
+        <v>1.24053</v>
       </c>
       <c r="D80" t="n">
-        <v>0.866764</v>
+        <v>0.875131</v>
       </c>
     </row>
     <row r="81">
@@ -12170,13 +12170,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>1.57067</v>
+        <v>1.59249</v>
       </c>
       <c r="C81" t="n">
-        <v>1.29841</v>
+        <v>1.30811</v>
       </c>
       <c r="D81" t="n">
-        <v>0.907662</v>
+        <v>0.920463</v>
       </c>
     </row>
     <row r="82">
@@ -12184,13 +12184,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>1.6474</v>
+        <v>1.67628</v>
       </c>
       <c r="C82" t="n">
-        <v>1.36025</v>
+        <v>1.37413</v>
       </c>
       <c r="D82" t="n">
-        <v>0.949837</v>
+        <v>0.965845</v>
       </c>
     </row>
     <row r="83">
@@ -12198,13 +12198,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>1.75615</v>
+        <v>1.78034</v>
       </c>
       <c r="C83" t="n">
-        <v>1.34291</v>
+        <v>1.35493</v>
       </c>
       <c r="D83" t="n">
-        <v>1.06709</v>
+        <v>1.07959</v>
       </c>
     </row>
     <row r="84">
@@ -12212,13 +12212,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>1.86607</v>
+        <v>1.88731</v>
       </c>
       <c r="C84" t="n">
-        <v>1.40629</v>
+        <v>1.41673</v>
       </c>
       <c r="D84" t="n">
-        <v>1.12325</v>
+        <v>1.13742</v>
       </c>
     </row>
     <row r="85">
@@ -12226,13 +12226,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>1.88657</v>
+        <v>1.91396</v>
       </c>
       <c r="C85" t="n">
-        <v>1.46507</v>
+        <v>1.4819</v>
       </c>
       <c r="D85" t="n">
-        <v>1.17942</v>
+        <v>1.19846</v>
       </c>
     </row>
     <row r="86">
@@ -12240,13 +12240,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>2.01022</v>
+        <v>2.02123</v>
       </c>
       <c r="C86" t="n">
-        <v>1.54212</v>
+        <v>1.55543</v>
       </c>
       <c r="D86" t="n">
-        <v>1.24292</v>
+        <v>1.25221</v>
       </c>
     </row>
     <row r="87">
@@ -12254,13 +12254,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>2.11347</v>
+        <v>2.13931</v>
       </c>
       <c r="C87" t="n">
-        <v>1.61106</v>
+        <v>1.62281</v>
       </c>
       <c r="D87" t="n">
-        <v>1.30206</v>
+        <v>1.31554</v>
       </c>
     </row>
     <row r="88">
@@ -12268,13 +12268,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>2.23605</v>
+        <v>2.25503</v>
       </c>
       <c r="C88" t="n">
-        <v>1.69483</v>
+        <v>1.70692</v>
       </c>
       <c r="D88" t="n">
-        <v>1.36452</v>
+        <v>1.37211</v>
       </c>
     </row>
     <row r="89">
@@ -12282,13 +12282,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>2.35926</v>
+        <v>2.36564</v>
       </c>
       <c r="C89" t="n">
-        <v>1.77875</v>
+        <v>1.78868</v>
       </c>
       <c r="D89" t="n">
-        <v>1.41848</v>
+        <v>1.43257</v>
       </c>
     </row>
     <row r="90">
@@ -12296,13 +12296,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>2.48145</v>
+        <v>2.48706</v>
       </c>
       <c r="C90" t="n">
-        <v>1.85223</v>
+        <v>1.86002</v>
       </c>
       <c r="D90" t="n">
-        <v>1.47863</v>
+        <v>1.48407</v>
       </c>
     </row>
     <row r="91">
@@ -12310,13 +12310,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>2.6067</v>
+        <v>2.62003</v>
       </c>
       <c r="C91" t="n">
-        <v>1.94738</v>
+        <v>1.94746</v>
       </c>
       <c r="D91" t="n">
-        <v>1.5415</v>
+        <v>1.5507</v>
       </c>
     </row>
     <row r="92">
@@ -12324,13 +12324,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>2.73208</v>
+        <v>2.74698</v>
       </c>
       <c r="C92" t="n">
-        <v>2.03328</v>
+        <v>2.03622</v>
       </c>
       <c r="D92" t="n">
-        <v>1.59263</v>
+        <v>1.59557</v>
       </c>
     </row>
     <row r="93">
@@ -12338,13 +12338,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>2.88263</v>
+        <v>2.88143</v>
       </c>
       <c r="C93" t="n">
-        <v>2.12435</v>
+        <v>2.12798</v>
       </c>
       <c r="D93" t="n">
-        <v>1.65433</v>
+        <v>1.64957</v>
       </c>
     </row>
     <row r="94">
@@ -12352,13 +12352,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>2.98967</v>
+        <v>2.9986</v>
       </c>
       <c r="C94" t="n">
-        <v>2.21434</v>
+        <v>2.21885</v>
       </c>
       <c r="D94" t="n">
-        <v>1.69913</v>
+        <v>1.70291</v>
       </c>
     </row>
     <row r="95">
@@ -12366,13 +12366,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>3.14984</v>
+        <v>3.14319</v>
       </c>
       <c r="C95" t="n">
-        <v>2.31497</v>
+        <v>2.31616</v>
       </c>
       <c r="D95" t="n">
-        <v>1.74943</v>
+        <v>1.74678</v>
       </c>
     </row>
     <row r="96">
@@ -12380,13 +12380,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>3.2913</v>
+        <v>3.30321</v>
       </c>
       <c r="C96" t="n">
-        <v>2.43055</v>
+        <v>2.42378</v>
       </c>
       <c r="D96" t="n">
-        <v>1.79884</v>
+        <v>1.79573</v>
       </c>
     </row>
     <row r="97">
@@ -12394,13 +12394,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>3.43723</v>
+        <v>3.38729</v>
       </c>
       <c r="C97" t="n">
-        <v>2.20763</v>
+        <v>2.20455</v>
       </c>
       <c r="D97" t="n">
-        <v>1.93872</v>
+        <v>1.93883</v>
       </c>
     </row>
     <row r="98">
@@ -12408,13 +12408,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>3.55632</v>
+        <v>3.54777</v>
       </c>
       <c r="C98" t="n">
-        <v>2.27655</v>
+        <v>2.27091</v>
       </c>
       <c r="D98" t="n">
-        <v>1.98177</v>
+        <v>1.98577</v>
       </c>
     </row>
     <row r="99">
@@ -12422,13 +12422,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>3.43603</v>
+        <v>3.4177</v>
       </c>
       <c r="C99" t="n">
-        <v>2.34441</v>
+        <v>2.3383</v>
       </c>
       <c r="D99" t="n">
-        <v>2.03777</v>
+        <v>2.02292</v>
       </c>
     </row>
     <row r="100">
@@ -12436,13 +12436,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>3.56877</v>
+        <v>3.56348</v>
       </c>
       <c r="C100" t="n">
-        <v>2.41832</v>
+        <v>2.40999</v>
       </c>
       <c r="D100" t="n">
-        <v>2.06692</v>
+        <v>2.08102</v>
       </c>
     </row>
     <row r="101">
@@ -12450,13 +12450,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>3.66704</v>
+        <v>3.63078</v>
       </c>
       <c r="C101" t="n">
-        <v>2.48462</v>
+        <v>2.48279</v>
       </c>
       <c r="D101" t="n">
-        <v>2.10871</v>
+        <v>2.11424</v>
       </c>
     </row>
     <row r="102">
@@ -12464,13 +12464,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>3.76947</v>
+        <v>3.76407</v>
       </c>
       <c r="C102" t="n">
-        <v>2.56173</v>
+        <v>2.54673</v>
       </c>
       <c r="D102" t="n">
-        <v>2.1449</v>
+        <v>2.14299</v>
       </c>
     </row>
     <row r="103">
@@ -12478,13 +12478,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>3.86642</v>
+        <v>3.85441</v>
       </c>
       <c r="C103" t="n">
-        <v>2.63356</v>
+        <v>2.62363</v>
       </c>
       <c r="D103" t="n">
-        <v>2.19139</v>
+        <v>2.18484</v>
       </c>
     </row>
     <row r="104">
@@ -12492,13 +12492,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>3.9618</v>
+        <v>3.96789</v>
       </c>
       <c r="C104" t="n">
-        <v>2.70823</v>
+        <v>2.71131</v>
       </c>
       <c r="D104" t="n">
-        <v>2.21879</v>
+        <v>2.21308</v>
       </c>
     </row>
     <row r="105">
@@ -12506,13 +12506,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>4.04384</v>
+        <v>4.04945</v>
       </c>
       <c r="C105" t="n">
-        <v>2.7881</v>
+        <v>2.78287</v>
       </c>
       <c r="D105" t="n">
-        <v>2.24875</v>
+        <v>2.24393</v>
       </c>
     </row>
     <row r="106">
@@ -12520,13 +12520,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>4.15867</v>
+        <v>4.17853</v>
       </c>
       <c r="C106" t="n">
-        <v>2.88333</v>
+        <v>2.86737</v>
       </c>
       <c r="D106" t="n">
-        <v>2.29552</v>
+        <v>2.28575</v>
       </c>
     </row>
     <row r="107">
@@ -12534,13 +12534,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>4.28602</v>
+        <v>4.2505</v>
       </c>
       <c r="C107" t="n">
-        <v>2.94226</v>
+        <v>2.93258</v>
       </c>
       <c r="D107" t="n">
-        <v>2.31186</v>
+        <v>2.31042</v>
       </c>
     </row>
     <row r="108">
@@ -12548,13 +12548,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>4.39737</v>
+        <v>4.35866</v>
       </c>
       <c r="C108" t="n">
-        <v>3.04183</v>
+        <v>3.03126</v>
       </c>
       <c r="D108" t="n">
-        <v>2.34391</v>
+        <v>2.33827</v>
       </c>
     </row>
     <row r="109">
@@ -12562,13 +12562,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>4.49502</v>
+        <v>4.46527</v>
       </c>
       <c r="C109" t="n">
-        <v>3.13636</v>
+        <v>3.11128</v>
       </c>
       <c r="D109" t="n">
-        <v>2.37433</v>
+        <v>2.36946</v>
       </c>
     </row>
     <row r="110">
@@ -12576,13 +12576,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>4.57551</v>
+        <v>4.54229</v>
       </c>
       <c r="C110" t="n">
-        <v>3.22242</v>
+        <v>3.20756</v>
       </c>
       <c r="D110" t="n">
-        <v>2.40576</v>
+        <v>2.40379</v>
       </c>
     </row>
     <row r="111">
@@ -12590,13 +12590,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>4.68342</v>
+        <v>4.6831</v>
       </c>
       <c r="C111" t="n">
-        <v>2.85075</v>
+        <v>2.84102</v>
       </c>
       <c r="D111" t="n">
-        <v>2.51412</v>
+        <v>2.5116</v>
       </c>
     </row>
     <row r="112">
@@ -12604,13 +12604,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>4.81841</v>
+        <v>4.78152</v>
       </c>
       <c r="C112" t="n">
-        <v>2.9078</v>
+        <v>2.90892</v>
       </c>
       <c r="D112" t="n">
-        <v>2.55234</v>
+        <v>2.54677</v>
       </c>
     </row>
     <row r="113">
@@ -12618,13 +12618,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>4.92925</v>
+        <v>4.89075</v>
       </c>
       <c r="C113" t="n">
-        <v>2.97391</v>
+        <v>2.9737</v>
       </c>
       <c r="D113" t="n">
-        <v>2.58448</v>
+        <v>2.5675</v>
       </c>
     </row>
     <row r="114">
@@ -12632,13 +12632,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>4.53973</v>
+        <v>4.51284</v>
       </c>
       <c r="C114" t="n">
-        <v>3.03879</v>
+        <v>3.0213</v>
       </c>
       <c r="D114" t="n">
-        <v>2.60187</v>
+        <v>2.58576</v>
       </c>
     </row>
     <row r="115">
@@ -12646,13 +12646,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>4.60244</v>
+        <v>4.59852</v>
       </c>
       <c r="C115" t="n">
-        <v>3.08778</v>
+        <v>3.0722</v>
       </c>
       <c r="D115" t="n">
-        <v>2.61991</v>
+        <v>2.61665</v>
       </c>
     </row>
     <row r="116">
@@ -12660,13 +12660,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>4.73201</v>
+        <v>4.71118</v>
       </c>
       <c r="C116" t="n">
-        <v>3.16346</v>
+        <v>3.13372</v>
       </c>
       <c r="D116" t="n">
-        <v>2.64054</v>
+        <v>2.63759</v>
       </c>
     </row>
     <row r="117">
@@ -12674,13 +12674,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>4.80175</v>
+        <v>4.77249</v>
       </c>
       <c r="C117" t="n">
-        <v>3.22631</v>
+        <v>3.21315</v>
       </c>
       <c r="D117" t="n">
-        <v>2.66536</v>
+        <v>2.6564</v>
       </c>
     </row>
     <row r="118">
@@ -12688,13 +12688,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>4.87395</v>
+        <v>4.80407</v>
       </c>
       <c r="C118" t="n">
-        <v>3.29702</v>
+        <v>3.2785</v>
       </c>
       <c r="D118" t="n">
-        <v>2.69855</v>
+        <v>2.68672</v>
       </c>
     </row>
     <row r="119">
@@ -12702,13 +12702,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>4.99109</v>
+        <v>4.93152</v>
       </c>
       <c r="C119" t="n">
-        <v>3.36543</v>
+        <v>3.34865</v>
       </c>
       <c r="D119" t="n">
-        <v>2.71537</v>
+        <v>2.69684</v>
       </c>
     </row>
   </sheetData>

--- a/gcc/scattered erasure.xlsx
+++ b/gcc/scattered erasure.xlsx
@@ -7680,13 +7680,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.314111</v>
+        <v>0.324636</v>
       </c>
       <c r="C2" t="n">
-        <v>0.260186</v>
+        <v>0.260005</v>
       </c>
       <c r="D2" t="n">
-        <v>0.242237</v>
+        <v>0.244305</v>
       </c>
     </row>
     <row r="3">
@@ -7694,13 +7694,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.301618</v>
+        <v>0.299817</v>
       </c>
       <c r="C3" t="n">
-        <v>0.262907</v>
+        <v>0.262919</v>
       </c>
       <c r="D3" t="n">
-        <v>0.244772</v>
+        <v>0.252887</v>
       </c>
     </row>
     <row r="4">
@@ -7708,13 +7708,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.311527</v>
+        <v>0.308694</v>
       </c>
       <c r="C4" t="n">
-        <v>0.268049</v>
+        <v>0.267186</v>
       </c>
       <c r="D4" t="n">
-        <v>0.258755</v>
+        <v>0.255677</v>
       </c>
     </row>
     <row r="5">
@@ -7722,13 +7722,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.311998</v>
+        <v>0.316406</v>
       </c>
       <c r="C5" t="n">
-        <v>0.270251</v>
+        <v>0.270836</v>
       </c>
       <c r="D5" t="n">
-        <v>0.252277</v>
+        <v>0.257763</v>
       </c>
     </row>
     <row r="6">
@@ -7736,13 +7736,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.318232</v>
+        <v>0.318441</v>
       </c>
       <c r="C6" t="n">
-        <v>0.27349</v>
+        <v>0.273979</v>
       </c>
       <c r="D6" t="n">
-        <v>0.268773</v>
+        <v>0.260243</v>
       </c>
     </row>
     <row r="7">
@@ -7750,13 +7750,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.32553</v>
+        <v>0.322973</v>
       </c>
       <c r="C7" t="n">
-        <v>0.262279</v>
+        <v>0.261097</v>
       </c>
       <c r="D7" t="n">
-        <v>0.273112</v>
+        <v>0.270862</v>
       </c>
     </row>
     <row r="8">
@@ -7764,13 +7764,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.329073</v>
+        <v>0.333836</v>
       </c>
       <c r="C8" t="n">
-        <v>0.264228</v>
+        <v>0.2638</v>
       </c>
       <c r="D8" t="n">
-        <v>0.279386</v>
+        <v>0.276559</v>
       </c>
     </row>
     <row r="9">
@@ -7778,13 +7778,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.337373</v>
+        <v>0.336515</v>
       </c>
       <c r="C9" t="n">
-        <v>0.266573</v>
+        <v>0.265941</v>
       </c>
       <c r="D9" t="n">
-        <v>0.28514</v>
+        <v>0.283114</v>
       </c>
     </row>
     <row r="10">
@@ -7792,13 +7792,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.344362</v>
+        <v>0.343364</v>
       </c>
       <c r="C10" t="n">
-        <v>0.268318</v>
+        <v>0.268137</v>
       </c>
       <c r="D10" t="n">
-        <v>0.289305</v>
+        <v>0.289661</v>
       </c>
     </row>
     <row r="11">
@@ -7806,13 +7806,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.356604</v>
+        <v>0.347605</v>
       </c>
       <c r="C11" t="n">
-        <v>0.26968</v>
+        <v>0.26994</v>
       </c>
       <c r="D11" t="n">
-        <v>0.293393</v>
+        <v>0.294671</v>
       </c>
     </row>
     <row r="12">
@@ -7820,13 +7820,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.357132</v>
+        <v>0.358406</v>
       </c>
       <c r="C12" t="n">
-        <v>0.273106</v>
+        <v>0.273503</v>
       </c>
       <c r="D12" t="n">
-        <v>0.307533</v>
+        <v>0.30029</v>
       </c>
     </row>
     <row r="13">
@@ -7834,13 +7834,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.372721</v>
+        <v>0.364383</v>
       </c>
       <c r="C13" t="n">
-        <v>0.275726</v>
+        <v>0.276016</v>
       </c>
       <c r="D13" t="n">
-        <v>0.311109</v>
+        <v>0.30721</v>
       </c>
     </row>
     <row r="14">
@@ -7848,13 +7848,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.377811</v>
+        <v>0.372947</v>
       </c>
       <c r="C14" t="n">
-        <v>0.278769</v>
+        <v>0.279367</v>
       </c>
       <c r="D14" t="n">
-        <v>0.311565</v>
+        <v>0.309643</v>
       </c>
     </row>
     <row r="15">
@@ -7862,13 +7862,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.382658</v>
+        <v>0.378654</v>
       </c>
       <c r="C15" t="n">
-        <v>0.282543</v>
+        <v>0.283648</v>
       </c>
       <c r="D15" t="n">
-        <v>0.318113</v>
+        <v>0.317583</v>
       </c>
     </row>
     <row r="16">
@@ -7876,13 +7876,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.388919</v>
+        <v>0.385902</v>
       </c>
       <c r="C16" t="n">
-        <v>0.284625</v>
+        <v>0.286971</v>
       </c>
       <c r="D16" t="n">
-        <v>0.324818</v>
+        <v>0.32369</v>
       </c>
     </row>
     <row r="17">
@@ -7890,13 +7890,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.397721</v>
+        <v>0.395404</v>
       </c>
       <c r="C17" t="n">
-        <v>0.288302</v>
+        <v>0.290353</v>
       </c>
       <c r="D17" t="n">
-        <v>0.332285</v>
+        <v>0.330512</v>
       </c>
     </row>
     <row r="18">
@@ -7904,13 +7904,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.380156</v>
+        <v>0.380574</v>
       </c>
       <c r="C18" t="n">
-        <v>0.292335</v>
+        <v>0.293858</v>
       </c>
       <c r="D18" t="n">
-        <v>0.335787</v>
+        <v>0.33492</v>
       </c>
     </row>
     <row r="19">
@@ -7918,13 +7918,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.384565</v>
+        <v>0.385329</v>
       </c>
       <c r="C19" t="n">
-        <v>0.295051</v>
+        <v>0.298475</v>
       </c>
       <c r="D19" t="n">
-        <v>0.342624</v>
+        <v>0.341821</v>
       </c>
     </row>
     <row r="20">
@@ -7932,13 +7932,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.39013</v>
+        <v>0.391078</v>
       </c>
       <c r="C20" t="n">
-        <v>0.298497</v>
+        <v>0.302194</v>
       </c>
       <c r="D20" t="n">
-        <v>0.347803</v>
+        <v>0.346319</v>
       </c>
     </row>
     <row r="21">
@@ -7946,13 +7946,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.395962</v>
+        <v>0.396716</v>
       </c>
       <c r="C21" t="n">
-        <v>0.278648</v>
+        <v>0.280183</v>
       </c>
       <c r="D21" t="n">
-        <v>0.354366</v>
+        <v>0.352725</v>
       </c>
     </row>
     <row r="22">
@@ -7960,13 +7960,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.404013</v>
+        <v>0.402117</v>
       </c>
       <c r="C22" t="n">
-        <v>0.280994</v>
+        <v>0.282785</v>
       </c>
       <c r="D22" t="n">
-        <v>0.358863</v>
+        <v>0.358072</v>
       </c>
     </row>
     <row r="23">
@@ -7974,13 +7974,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.407064</v>
+        <v>0.408208</v>
       </c>
       <c r="C23" t="n">
-        <v>0.282174</v>
+        <v>0.285191</v>
       </c>
       <c r="D23" t="n">
-        <v>0.36252</v>
+        <v>0.362529</v>
       </c>
     </row>
     <row r="24">
@@ -7988,13 +7988,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.412849</v>
+        <v>0.413849</v>
       </c>
       <c r="C24" t="n">
-        <v>0.285277</v>
+        <v>0.28793</v>
       </c>
       <c r="D24" t="n">
-        <v>0.366731</v>
+        <v>0.366518</v>
       </c>
     </row>
     <row r="25">
@@ -8002,13 +8002,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.419522</v>
+        <v>0.419702</v>
       </c>
       <c r="C25" t="n">
-        <v>0.28677</v>
+        <v>0.290149</v>
       </c>
       <c r="D25" t="n">
-        <v>0.370072</v>
+        <v>0.370083</v>
       </c>
     </row>
     <row r="26">
@@ -8016,13 +8016,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.425602</v>
+        <v>0.426123</v>
       </c>
       <c r="C26" t="n">
-        <v>0.289654</v>
+        <v>0.293666</v>
       </c>
       <c r="D26" t="n">
-        <v>0.373946</v>
+        <v>0.373999</v>
       </c>
     </row>
     <row r="27">
@@ -8030,13 +8030,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.432768</v>
+        <v>0.43139</v>
       </c>
       <c r="C27" t="n">
-        <v>0.292344</v>
+        <v>0.29689</v>
       </c>
       <c r="D27" t="n">
-        <v>0.377432</v>
+        <v>0.377404</v>
       </c>
     </row>
     <row r="28">
@@ -8044,13 +8044,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.43756</v>
+        <v>0.435214</v>
       </c>
       <c r="C28" t="n">
-        <v>0.295127</v>
+        <v>0.300325</v>
       </c>
       <c r="D28" t="n">
-        <v>0.381046</v>
+        <v>0.38079</v>
       </c>
     </row>
     <row r="29">
@@ -8058,13 +8058,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.443332</v>
+        <v>0.44274</v>
       </c>
       <c r="C29" t="n">
-        <v>0.297998</v>
+        <v>0.303607</v>
       </c>
       <c r="D29" t="n">
-        <v>0.385609</v>
+        <v>0.385154</v>
       </c>
     </row>
     <row r="30">
@@ -8072,13 +8072,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.449122</v>
+        <v>0.448533</v>
       </c>
       <c r="C30" t="n">
-        <v>0.301391</v>
+        <v>0.307149</v>
       </c>
       <c r="D30" t="n">
-        <v>0.388893</v>
+        <v>0.388878</v>
       </c>
     </row>
     <row r="31">
@@ -8086,13 +8086,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.456821</v>
+        <v>0.453572</v>
       </c>
       <c r="C31" t="n">
-        <v>0.30445</v>
+        <v>0.31058</v>
       </c>
       <c r="D31" t="n">
-        <v>0.392122</v>
+        <v>0.392212</v>
       </c>
     </row>
     <row r="32">
@@ -8100,13 +8100,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.426773</v>
+        <v>0.426003</v>
       </c>
       <c r="C32" t="n">
-        <v>0.307508</v>
+        <v>0.314419</v>
       </c>
       <c r="D32" t="n">
-        <v>0.395241</v>
+        <v>0.395935</v>
       </c>
     </row>
     <row r="33">
@@ -8114,13 +8114,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.431487</v>
+        <v>0.428989</v>
       </c>
       <c r="C33" t="n">
-        <v>0.311231</v>
+        <v>0.318178</v>
       </c>
       <c r="D33" t="n">
-        <v>0.399753</v>
+        <v>0.399702</v>
       </c>
     </row>
     <row r="34">
@@ -8128,13 +8128,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.43476</v>
+        <v>0.434286</v>
       </c>
       <c r="C34" t="n">
-        <v>0.314856</v>
+        <v>0.321948</v>
       </c>
       <c r="D34" t="n">
-        <v>0.402782</v>
+        <v>0.402838</v>
       </c>
     </row>
     <row r="35">
@@ -8142,13 +8142,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.439366</v>
+        <v>0.437688</v>
       </c>
       <c r="C35" t="n">
-        <v>0.290121</v>
+        <v>0.29342</v>
       </c>
       <c r="D35" t="n">
-        <v>0.402653</v>
+        <v>0.402694</v>
       </c>
     </row>
     <row r="36">
@@ -8156,13 +8156,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.442717</v>
+        <v>0.441528</v>
       </c>
       <c r="C36" t="n">
-        <v>0.291852</v>
+        <v>0.294913</v>
       </c>
       <c r="D36" t="n">
-        <v>0.404791</v>
+        <v>0.404909</v>
       </c>
     </row>
     <row r="37">
@@ -8170,13 +8170,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.44677</v>
+        <v>0.445301</v>
       </c>
       <c r="C37" t="n">
-        <v>0.293738</v>
+        <v>0.297399</v>
       </c>
       <c r="D37" t="n">
-        <v>0.407048</v>
+        <v>0.406542</v>
       </c>
     </row>
     <row r="38">
@@ -8184,13 +8184,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.451352</v>
+        <v>0.450509</v>
       </c>
       <c r="C38" t="n">
-        <v>0.295719</v>
+        <v>0.299477</v>
       </c>
       <c r="D38" t="n">
-        <v>0.408425</v>
+        <v>0.408643</v>
       </c>
     </row>
     <row r="39">
@@ -8198,13 +8198,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.455561</v>
+        <v>0.454982</v>
       </c>
       <c r="C39" t="n">
-        <v>0.298611</v>
+        <v>0.302382</v>
       </c>
       <c r="D39" t="n">
-        <v>0.410713</v>
+        <v>0.411062</v>
       </c>
     </row>
     <row r="40">
@@ -8212,13 +8212,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.459482</v>
+        <v>0.459589</v>
       </c>
       <c r="C40" t="n">
-        <v>0.300577</v>
+        <v>0.305435</v>
       </c>
       <c r="D40" t="n">
-        <v>0.412139</v>
+        <v>0.412456</v>
       </c>
     </row>
     <row r="41">
@@ -8226,13 +8226,13 @@
         <v>66357</v>
       </c>
       <c r="B41" t="n">
-        <v>0.464552</v>
+        <v>0.464085</v>
       </c>
       <c r="C41" t="n">
-        <v>0.303149</v>
+        <v>0.306492</v>
       </c>
       <c r="D41" t="n">
-        <v>0.415572</v>
+        <v>0.414906</v>
       </c>
     </row>
     <row r="42">
@@ -8240,13 +8240,13 @@
         <v>69656</v>
       </c>
       <c r="B42" t="n">
-        <v>0.469038</v>
+        <v>0.469137</v>
       </c>
       <c r="C42" t="n">
-        <v>0.305291</v>
+        <v>0.310339</v>
       </c>
       <c r="D42" t="n">
-        <v>0.417884</v>
+        <v>0.417645</v>
       </c>
     </row>
     <row r="43">
@@ -8254,13 +8254,13 @@
         <v>73119</v>
       </c>
       <c r="B43" t="n">
-        <v>0.473762</v>
+        <v>0.473743</v>
       </c>
       <c r="C43" t="n">
-        <v>0.307234</v>
+        <v>0.312654</v>
       </c>
       <c r="D43" t="n">
-        <v>0.420054</v>
+        <v>0.419416</v>
       </c>
     </row>
     <row r="44">
@@ -8268,13 +8268,13 @@
         <v>76755</v>
       </c>
       <c r="B44" t="n">
-        <v>0.478272</v>
+        <v>0.478027</v>
       </c>
       <c r="C44" t="n">
-        <v>0.311108</v>
+        <v>0.316821</v>
       </c>
       <c r="D44" t="n">
-        <v>0.422377</v>
+        <v>0.421976</v>
       </c>
     </row>
     <row r="45">
@@ -8282,13 +8282,13 @@
         <v>80572</v>
       </c>
       <c r="B45" t="n">
-        <v>0.483622</v>
+        <v>0.483533</v>
       </c>
       <c r="C45" t="n">
-        <v>0.313505</v>
+        <v>0.320859</v>
       </c>
       <c r="D45" t="n">
-        <v>0.424499</v>
+        <v>0.424247</v>
       </c>
     </row>
     <row r="46">
@@ -8296,13 +8296,13 @@
         <v>84579</v>
       </c>
       <c r="B46" t="n">
-        <v>0.488459</v>
+        <v>0.488678</v>
       </c>
       <c r="C46" t="n">
-        <v>0.316813</v>
+        <v>0.323979</v>
       </c>
       <c r="D46" t="n">
-        <v>0.426898</v>
+        <v>0.426581</v>
       </c>
     </row>
     <row r="47">
@@ -8310,13 +8310,13 @@
         <v>88786</v>
       </c>
       <c r="B47" t="n">
-        <v>0.451716</v>
+        <v>0.450242</v>
       </c>
       <c r="C47" t="n">
-        <v>0.321056</v>
+        <v>0.327887</v>
       </c>
       <c r="D47" t="n">
-        <v>0.429677</v>
+        <v>0.429084</v>
       </c>
     </row>
     <row r="48">
@@ -8324,13 +8324,13 @@
         <v>93203</v>
       </c>
       <c r="B48" t="n">
-        <v>0.455003</v>
+        <v>0.455036</v>
       </c>
       <c r="C48" t="n">
-        <v>0.322668</v>
+        <v>0.331934</v>
       </c>
       <c r="D48" t="n">
-        <v>0.431268</v>
+        <v>0.431016</v>
       </c>
     </row>
     <row r="49">
@@ -8338,13 +8338,13 @@
         <v>97840</v>
       </c>
       <c r="B49" t="n">
-        <v>0.458795</v>
+        <v>0.458179</v>
       </c>
       <c r="C49" t="n">
-        <v>0.328436</v>
+        <v>0.336325</v>
       </c>
       <c r="D49" t="n">
-        <v>0.434014</v>
+        <v>0.433037</v>
       </c>
     </row>
     <row r="50">
@@ -8352,13 +8352,13 @@
         <v>102706</v>
       </c>
       <c r="B50" t="n">
-        <v>0.461889</v>
+        <v>0.461768</v>
       </c>
       <c r="C50" t="n">
-        <v>0.305779</v>
+        <v>0.306239</v>
       </c>
       <c r="D50" t="n">
-        <v>0.429013</v>
+        <v>0.42897</v>
       </c>
     </row>
     <row r="51">
@@ -8366,13 +8366,13 @@
         <v>107816</v>
       </c>
       <c r="B51" t="n">
-        <v>0.466023</v>
+        <v>0.465396</v>
       </c>
       <c r="C51" t="n">
-        <v>0.305131</v>
+        <v>0.308396</v>
       </c>
       <c r="D51" t="n">
-        <v>0.430749</v>
+        <v>0.430498</v>
       </c>
     </row>
     <row r="52">
@@ -8380,13 +8380,13 @@
         <v>113182</v>
       </c>
       <c r="B52" t="n">
-        <v>0.469547</v>
+        <v>0.468934</v>
       </c>
       <c r="C52" t="n">
-        <v>0.309999</v>
+        <v>0.310614</v>
       </c>
       <c r="D52" t="n">
-        <v>0.430714</v>
+        <v>0.43117</v>
       </c>
     </row>
     <row r="53">
@@ -8394,13 +8394,13 @@
         <v>118816</v>
       </c>
       <c r="B53" t="n">
-        <v>0.472338</v>
+        <v>0.472506</v>
       </c>
       <c r="C53" t="n">
-        <v>0.310363</v>
+        <v>0.314563</v>
       </c>
       <c r="D53" t="n">
-        <v>0.43258</v>
+        <v>0.432515</v>
       </c>
     </row>
     <row r="54">
@@ -8408,13 +8408,13 @@
         <v>124731</v>
       </c>
       <c r="B54" t="n">
-        <v>0.476512</v>
+        <v>0.476553</v>
       </c>
       <c r="C54" t="n">
-        <v>0.315734</v>
+        <v>0.316715</v>
       </c>
       <c r="D54" t="n">
-        <v>0.433955</v>
+        <v>0.434041</v>
       </c>
     </row>
     <row r="55">
@@ -8422,13 +8422,13 @@
         <v>130941</v>
       </c>
       <c r="B55" t="n">
-        <v>0.4801</v>
+        <v>0.480337</v>
       </c>
       <c r="C55" t="n">
-        <v>0.32092</v>
+        <v>0.31952</v>
       </c>
       <c r="D55" t="n">
-        <v>0.435194</v>
+        <v>0.435626</v>
       </c>
     </row>
     <row r="56">
@@ -8436,13 +8436,13 @@
         <v>137461</v>
       </c>
       <c r="B56" t="n">
-        <v>0.484908</v>
+        <v>0.48536</v>
       </c>
       <c r="C56" t="n">
-        <v>0.321693</v>
+        <v>0.326242</v>
       </c>
       <c r="D56" t="n">
-        <v>0.436784</v>
+        <v>0.436801</v>
       </c>
     </row>
     <row r="57">
@@ -8450,13 +8450,13 @@
         <v>144307</v>
       </c>
       <c r="B57" t="n">
-        <v>0.488899</v>
+        <v>0.488998</v>
       </c>
       <c r="C57" t="n">
-        <v>0.326379</v>
+        <v>0.330539</v>
       </c>
       <c r="D57" t="n">
-        <v>0.438374</v>
+        <v>0.438218</v>
       </c>
     </row>
     <row r="58">
@@ -8464,13 +8464,13 @@
         <v>151495</v>
       </c>
       <c r="B58" t="n">
-        <v>0.493287</v>
+        <v>0.493135</v>
       </c>
       <c r="C58" t="n">
-        <v>0.327628</v>
+        <v>0.338576</v>
       </c>
       <c r="D58" t="n">
-        <v>0.440124</v>
+        <v>0.440251</v>
       </c>
     </row>
     <row r="59">
@@ -8478,13 +8478,13 @@
         <v>159042</v>
       </c>
       <c r="B59" t="n">
-        <v>0.497726</v>
+        <v>0.496921</v>
       </c>
       <c r="C59" t="n">
-        <v>0.335231</v>
+        <v>0.3423</v>
       </c>
       <c r="D59" t="n">
-        <v>0.442004</v>
+        <v>0.442296</v>
       </c>
     </row>
     <row r="60">
@@ -8492,13 +8492,13 @@
         <v>166965</v>
       </c>
       <c r="B60" t="n">
-        <v>0.502691</v>
+        <v>0.502789</v>
       </c>
       <c r="C60" t="n">
-        <v>0.342508</v>
+        <v>0.34735</v>
       </c>
       <c r="D60" t="n">
-        <v>0.443991</v>
+        <v>0.444244</v>
       </c>
     </row>
     <row r="61">
@@ -8506,13 +8506,13 @@
         <v>175284</v>
       </c>
       <c r="B61" t="n">
-        <v>0.484175</v>
+        <v>0.481958</v>
       </c>
       <c r="C61" t="n">
-        <v>0.352664</v>
+        <v>0.351072</v>
       </c>
       <c r="D61" t="n">
-        <v>0.446236</v>
+        <v>0.446041</v>
       </c>
     </row>
     <row r="62">
@@ -8520,13 +8520,13 @@
         <v>184019</v>
       </c>
       <c r="B62" t="n">
-        <v>0.495162</v>
+        <v>0.493148</v>
       </c>
       <c r="C62" t="n">
-        <v>0.359668</v>
+        <v>0.360951</v>
       </c>
       <c r="D62" t="n">
-        <v>0.448138</v>
+        <v>0.44837</v>
       </c>
     </row>
     <row r="63">
@@ -8534,13 +8534,13 @@
         <v>193190</v>
       </c>
       <c r="B63" t="n">
-        <v>0.503445</v>
+        <v>0.501296</v>
       </c>
       <c r="C63" t="n">
-        <v>0.376498</v>
+        <v>0.371012</v>
       </c>
       <c r="D63" t="n">
-        <v>0.4512</v>
+        <v>0.451758</v>
       </c>
     </row>
     <row r="64">
@@ -8548,13 +8548,13 @@
         <v>202820</v>
       </c>
       <c r="B64" t="n">
-        <v>0.517106</v>
+        <v>0.5116849999999999</v>
       </c>
       <c r="C64" t="n">
-        <v>0.425714</v>
+        <v>0.41898</v>
       </c>
       <c r="D64" t="n">
-        <v>0.485965</v>
+        <v>0.483618</v>
       </c>
     </row>
     <row r="65">
@@ -8562,13 +8562,13 @@
         <v>212931</v>
       </c>
       <c r="B65" t="n">
-        <v>0.525683</v>
+        <v>0.535463</v>
       </c>
       <c r="C65" t="n">
-        <v>0.442338</v>
+        <v>0.438296</v>
       </c>
       <c r="D65" t="n">
-        <v>0.494736</v>
+        <v>0.499947</v>
       </c>
     </row>
     <row r="66">
@@ -8576,13 +8576,13 @@
         <v>223547</v>
       </c>
       <c r="B66" t="n">
-        <v>0.534564</v>
+        <v>0.540716</v>
       </c>
       <c r="C66" t="n">
-        <v>0.447047</v>
+        <v>0.452212</v>
       </c>
       <c r="D66" t="n">
-        <v>0.499331</v>
+        <v>0.511032</v>
       </c>
     </row>
     <row r="67">
@@ -8590,13 +8590,13 @@
         <v>234692</v>
       </c>
       <c r="B67" t="n">
-        <v>0.548787</v>
+        <v>0.558391</v>
       </c>
       <c r="C67" t="n">
-        <v>0.472931</v>
+        <v>0.473165</v>
       </c>
       <c r="D67" t="n">
-        <v>0.513993</v>
+        <v>0.5094340000000001</v>
       </c>
     </row>
     <row r="68">
@@ -8604,13 +8604,13 @@
         <v>246395</v>
       </c>
       <c r="B68" t="n">
-        <v>0.56897</v>
+        <v>0.560936</v>
       </c>
       <c r="C68" t="n">
-        <v>0.49</v>
+        <v>0.493395</v>
       </c>
       <c r="D68" t="n">
-        <v>0.526979</v>
+        <v>0.520766</v>
       </c>
     </row>
     <row r="69">
@@ -8618,13 +8618,13 @@
         <v>258683</v>
       </c>
       <c r="B69" t="n">
-        <v>0.584715</v>
+        <v>0.578332</v>
       </c>
       <c r="C69" t="n">
-        <v>0.514356</v>
+        <v>0.51637</v>
       </c>
       <c r="D69" t="n">
-        <v>0.546702</v>
+        <v>0.547574</v>
       </c>
     </row>
     <row r="70">
@@ -8632,13 +8632,13 @@
         <v>271585</v>
       </c>
       <c r="B70" t="n">
-        <v>0.6081530000000001</v>
+        <v>0.60906</v>
       </c>
       <c r="C70" t="n">
-        <v>0.541893</v>
+        <v>0.546165</v>
       </c>
       <c r="D70" t="n">
-        <v>0.561963</v>
+        <v>0.570554</v>
       </c>
     </row>
     <row r="71">
@@ -8646,13 +8646,13 @@
         <v>285132</v>
       </c>
       <c r="B71" t="n">
-        <v>0.626472</v>
+        <v>0.635124</v>
       </c>
       <c r="C71" t="n">
-        <v>0.5593050000000001</v>
+        <v>0.575557</v>
       </c>
       <c r="D71" t="n">
-        <v>0.568256</v>
+        <v>0.601607</v>
       </c>
     </row>
     <row r="72">
@@ -8660,13 +8660,13 @@
         <v>299354</v>
       </c>
       <c r="B72" t="n">
-        <v>0.6686839999999999</v>
+        <v>0.672095</v>
       </c>
       <c r="C72" t="n">
-        <v>0.597515</v>
+        <v>0.597539</v>
       </c>
       <c r="D72" t="n">
-        <v>0.60859</v>
+        <v>0.615741</v>
       </c>
     </row>
     <row r="73">
@@ -8674,13 +8674,13 @@
         <v>314289</v>
       </c>
       <c r="B73" t="n">
-        <v>0.684788</v>
+        <v>0.689874</v>
       </c>
       <c r="C73" t="n">
-        <v>0.626532</v>
+        <v>0.621149</v>
       </c>
       <c r="D73" t="n">
-        <v>0.650139</v>
+        <v>0.650925</v>
       </c>
     </row>
     <row r="74">
@@ -8688,13 +8688,13 @@
         <v>329969</v>
       </c>
       <c r="B74" t="n">
-        <v>0.731352</v>
+        <v>0.7160069999999999</v>
       </c>
       <c r="C74" t="n">
-        <v>0.65304</v>
+        <v>0.64893</v>
       </c>
       <c r="D74" t="n">
-        <v>0.678552</v>
+        <v>0.673829</v>
       </c>
     </row>
     <row r="75">
@@ -8702,13 +8702,13 @@
         <v>346432</v>
       </c>
       <c r="B75" t="n">
-        <v>0.7587390000000001</v>
+        <v>0.757505</v>
       </c>
       <c r="C75" t="n">
-        <v>0.677836</v>
+        <v>0.678405</v>
       </c>
       <c r="D75" t="n">
-        <v>0.702299</v>
+        <v>0.70148</v>
       </c>
     </row>
     <row r="76">
@@ -8716,13 +8716,13 @@
         <v>363719</v>
       </c>
       <c r="B76" t="n">
-        <v>0.978488</v>
+        <v>0.95895</v>
       </c>
       <c r="C76" t="n">
-        <v>0.705425</v>
+        <v>0.703117</v>
       </c>
       <c r="D76" t="n">
-        <v>0.739633</v>
+        <v>0.737275</v>
       </c>
     </row>
     <row r="77">
@@ -8730,13 +8730,13 @@
         <v>381870</v>
       </c>
       <c r="B77" t="n">
-        <v>1.01609</v>
+        <v>1.00622</v>
       </c>
       <c r="C77" t="n">
-        <v>0.7275509999999999</v>
+        <v>0.723561</v>
       </c>
       <c r="D77" t="n">
-        <v>0.777458</v>
+        <v>0.773794</v>
       </c>
     </row>
     <row r="78">
@@ -8744,13 +8744,13 @@
         <v>400928</v>
       </c>
       <c r="B78" t="n">
-        <v>1.06515</v>
+        <v>1.05339</v>
       </c>
       <c r="C78" t="n">
-        <v>0.879578</v>
+        <v>0.874711</v>
       </c>
       <c r="D78" t="n">
-        <v>1.03201</v>
+        <v>1.03027</v>
       </c>
     </row>
     <row r="79">
@@ -8758,13 +8758,13 @@
         <v>420937</v>
       </c>
       <c r="B79" t="n">
-        <v>1.11203</v>
+        <v>1.11934</v>
       </c>
       <c r="C79" t="n">
-        <v>0.898674</v>
+        <v>0.894167</v>
       </c>
       <c r="D79" t="n">
-        <v>1.06912</v>
+        <v>1.08159</v>
       </c>
     </row>
     <row r="80">
@@ -8772,13 +8772,13 @@
         <v>441947</v>
       </c>
       <c r="B80" t="n">
-        <v>1.15919</v>
+        <v>1.1655</v>
       </c>
       <c r="C80" t="n">
-        <v>0.919659</v>
+        <v>0.909552</v>
       </c>
       <c r="D80" t="n">
-        <v>1.12829</v>
+        <v>1.12472</v>
       </c>
     </row>
     <row r="81">
@@ -8786,13 +8786,13 @@
         <v>464005</v>
       </c>
       <c r="B81" t="n">
-        <v>1.20925</v>
+        <v>1.2154</v>
       </c>
       <c r="C81" t="n">
-        <v>0.94129</v>
+        <v>0.93174</v>
       </c>
       <c r="D81" t="n">
-        <v>1.18223</v>
+        <v>1.17718</v>
       </c>
     </row>
     <row r="82">
@@ -8800,13 +8800,13 @@
         <v>487165</v>
       </c>
       <c r="B82" t="n">
-        <v>1.26852</v>
+        <v>1.26007</v>
       </c>
       <c r="C82" t="n">
-        <v>0.962612</v>
+        <v>0.948518</v>
       </c>
       <c r="D82" t="n">
-        <v>1.23108</v>
+        <v>1.22588</v>
       </c>
     </row>
     <row r="83">
@@ -8814,13 +8814,13 @@
         <v>511485</v>
       </c>
       <c r="B83" t="n">
-        <v>1.31509</v>
+        <v>1.3142</v>
       </c>
       <c r="C83" t="n">
-        <v>0.977047</v>
+        <v>0.9662230000000001</v>
       </c>
       <c r="D83" t="n">
-        <v>1.2812</v>
+        <v>1.27466</v>
       </c>
     </row>
     <row r="84">
@@ -8828,13 +8828,13 @@
         <v>537019</v>
       </c>
       <c r="B84" t="n">
-        <v>1.36999</v>
+        <v>1.36547</v>
       </c>
       <c r="C84" t="n">
-        <v>0.998777</v>
+        <v>0.983332</v>
       </c>
       <c r="D84" t="n">
-        <v>1.33682</v>
+        <v>1.33494</v>
       </c>
     </row>
     <row r="85">
@@ -8842,13 +8842,13 @@
         <v>563827</v>
       </c>
       <c r="B85" t="n">
-        <v>1.42539</v>
+        <v>1.42765</v>
       </c>
       <c r="C85" t="n">
-        <v>1.0147</v>
+        <v>1.0021</v>
       </c>
       <c r="D85" t="n">
-        <v>1.37741</v>
+        <v>1.37302</v>
       </c>
     </row>
     <row r="86">
@@ -8856,13 +8856,13 @@
         <v>591977</v>
       </c>
       <c r="B86" t="n">
-        <v>1.4786</v>
+        <v>1.47123</v>
       </c>
       <c r="C86" t="n">
-        <v>1.03029</v>
+        <v>1.01818</v>
       </c>
       <c r="D86" t="n">
-        <v>1.42114</v>
+        <v>1.42495</v>
       </c>
     </row>
     <row r="87">
@@ -8870,13 +8870,13 @@
         <v>621532</v>
       </c>
       <c r="B87" t="n">
-        <v>1.52158</v>
+        <v>1.52197</v>
       </c>
       <c r="C87" t="n">
-        <v>1.04838</v>
+        <v>1.03609</v>
       </c>
       <c r="D87" t="n">
-        <v>1.47172</v>
+        <v>1.47224</v>
       </c>
     </row>
     <row r="88">
@@ -8884,13 +8884,13 @@
         <v>652567</v>
       </c>
       <c r="B88" t="n">
-        <v>1.57164</v>
+        <v>1.56818</v>
       </c>
       <c r="C88" t="n">
-        <v>1.06657</v>
+        <v>1.05136</v>
       </c>
       <c r="D88" t="n">
-        <v>1.52073</v>
+        <v>1.51892</v>
       </c>
     </row>
     <row r="89">
@@ -8898,13 +8898,13 @@
         <v>685151</v>
       </c>
       <c r="B89" t="n">
-        <v>1.61937</v>
+        <v>1.62145</v>
       </c>
       <c r="C89" t="n">
-        <v>1.08392</v>
+        <v>1.06796</v>
       </c>
       <c r="D89" t="n">
-        <v>1.56297</v>
+        <v>1.56375</v>
       </c>
     </row>
     <row r="90">
@@ -8912,13 +8912,13 @@
         <v>719359</v>
       </c>
       <c r="B90" t="n">
-        <v>1.8398</v>
+        <v>1.8447</v>
       </c>
       <c r="C90" t="n">
-        <v>1.09794</v>
+        <v>1.08525</v>
       </c>
       <c r="D90" t="n">
-        <v>1.59916</v>
+        <v>1.60763</v>
       </c>
     </row>
     <row r="91">
@@ -8926,13 +8926,13 @@
         <v>755280</v>
       </c>
       <c r="B91" t="n">
-        <v>1.87896</v>
+        <v>1.88309</v>
       </c>
       <c r="C91" t="n">
-        <v>1.11473</v>
+        <v>1.10214</v>
       </c>
       <c r="D91" t="n">
-        <v>1.64848</v>
+        <v>1.65035</v>
       </c>
     </row>
     <row r="92">
@@ -8940,13 +8940,13 @@
         <v>792997</v>
       </c>
       <c r="B92" t="n">
-        <v>1.91834</v>
+        <v>1.91163</v>
       </c>
       <c r="C92" t="n">
-        <v>1.18335</v>
+        <v>1.16327</v>
       </c>
       <c r="D92" t="n">
-        <v>1.8578</v>
+        <v>1.86072</v>
       </c>
     </row>
     <row r="93">
@@ -8954,13 +8954,13 @@
         <v>832595</v>
       </c>
       <c r="B93" t="n">
-        <v>1.9473</v>
+        <v>1.94849</v>
       </c>
       <c r="C93" t="n">
-        <v>1.19322</v>
+        <v>1.17199</v>
       </c>
       <c r="D93" t="n">
-        <v>1.89347</v>
+        <v>1.89726</v>
       </c>
     </row>
     <row r="94">
@@ -8968,13 +8968,13 @@
         <v>874177</v>
       </c>
       <c r="B94" t="n">
-        <v>1.98239</v>
+        <v>1.98049</v>
       </c>
       <c r="C94" t="n">
-        <v>1.20461</v>
+        <v>1.18204</v>
       </c>
       <c r="D94" t="n">
-        <v>1.92698</v>
+        <v>1.91185</v>
       </c>
     </row>
     <row r="95">
@@ -8982,13 +8982,13 @@
         <v>917832</v>
       </c>
       <c r="B95" t="n">
-        <v>2.01363</v>
+        <v>2.01298</v>
       </c>
       <c r="C95" t="n">
-        <v>1.21464</v>
+        <v>1.19304</v>
       </c>
       <c r="D95" t="n">
-        <v>1.9498</v>
+        <v>1.95431</v>
       </c>
     </row>
     <row r="96">
@@ -8996,13 +8996,13 @@
         <v>963677</v>
       </c>
       <c r="B96" t="n">
-        <v>2.04576</v>
+        <v>2.04445</v>
       </c>
       <c r="C96" t="n">
-        <v>1.22644</v>
+        <v>1.20234</v>
       </c>
       <c r="D96" t="n">
-        <v>1.98408</v>
+        <v>1.98392</v>
       </c>
     </row>
     <row r="97">
@@ -9010,13 +9010,13 @@
         <v>1011813</v>
       </c>
       <c r="B97" t="n">
-        <v>2.07203</v>
+        <v>2.07859</v>
       </c>
       <c r="C97" t="n">
-        <v>1.23567</v>
+        <v>1.21209</v>
       </c>
       <c r="D97" t="n">
-        <v>2.01061</v>
+        <v>2.00382</v>
       </c>
     </row>
     <row r="98">
@@ -9024,13 +9024,13 @@
         <v>1062351</v>
       </c>
       <c r="B98" t="n">
-        <v>2.10684</v>
+        <v>2.10825</v>
       </c>
       <c r="C98" t="n">
-        <v>1.24785</v>
+        <v>1.22255</v>
       </c>
       <c r="D98" t="n">
-        <v>2.03579</v>
+        <v>2.03751</v>
       </c>
     </row>
     <row r="99">
@@ -9038,13 +9038,13 @@
         <v>1115422</v>
       </c>
       <c r="B99" t="n">
-        <v>2.1369</v>
+        <v>2.13956</v>
       </c>
       <c r="C99" t="n">
-        <v>1.25755</v>
+        <v>1.23297</v>
       </c>
       <c r="D99" t="n">
-        <v>2.06554</v>
+        <v>2.065</v>
       </c>
     </row>
     <row r="100">
@@ -9052,13 +9052,13 @@
         <v>1171143</v>
       </c>
       <c r="B100" t="n">
-        <v>2.1674</v>
+        <v>2.16756</v>
       </c>
       <c r="C100" t="n">
-        <v>1.26901</v>
+        <v>1.24402</v>
       </c>
       <c r="D100" t="n">
-        <v>2.08511</v>
+        <v>2.08652</v>
       </c>
     </row>
     <row r="101">
@@ -9066,13 +9066,13 @@
         <v>1229634</v>
       </c>
       <c r="B101" t="n">
-        <v>2.19199</v>
+        <v>2.19149</v>
       </c>
       <c r="C101" t="n">
-        <v>1.27939</v>
+        <v>1.25519</v>
       </c>
       <c r="D101" t="n">
-        <v>2.10943</v>
+        <v>2.10867</v>
       </c>
     </row>
     <row r="102">
@@ -9080,13 +9080,13 @@
         <v>1291062</v>
       </c>
       <c r="B102" t="n">
-        <v>2.2207</v>
+        <v>2.22188</v>
       </c>
       <c r="C102" t="n">
-        <v>1.29125</v>
+        <v>1.26531</v>
       </c>
       <c r="D102" t="n">
-        <v>2.13283</v>
+        <v>2.13204</v>
       </c>
     </row>
     <row r="103">
@@ -9094,13 +9094,13 @@
         <v>1355554</v>
       </c>
       <c r="B103" t="n">
-        <v>2.25287</v>
+        <v>2.25266</v>
       </c>
       <c r="C103" t="n">
-        <v>1.30373</v>
+        <v>1.27799</v>
       </c>
       <c r="D103" t="n">
-        <v>2.1629</v>
+        <v>2.1603</v>
       </c>
     </row>
     <row r="104">
@@ -9108,13 +9108,13 @@
         <v>1423274</v>
       </c>
       <c r="B104" t="n">
-        <v>2.28249</v>
+        <v>2.28065</v>
       </c>
       <c r="C104" t="n">
-        <v>1.31524</v>
+        <v>1.28885</v>
       </c>
       <c r="D104" t="n">
-        <v>2.17317</v>
+        <v>2.18004</v>
       </c>
     </row>
     <row r="105">
@@ -9122,13 +9122,13 @@
         <v>1494380</v>
       </c>
       <c r="B105" t="n">
-        <v>2.36848</v>
+        <v>2.36667</v>
       </c>
       <c r="C105" t="n">
-        <v>1.32727</v>
+        <v>1.3004</v>
       </c>
       <c r="D105" t="n">
-        <v>2.20796</v>
+        <v>2.2</v>
       </c>
     </row>
     <row r="106">
@@ -9136,13 +9136,13 @@
         <v>1569031</v>
       </c>
       <c r="B106" t="n">
-        <v>2.38888</v>
+        <v>2.38773</v>
       </c>
       <c r="C106" t="n">
-        <v>1.33891</v>
+        <v>1.31256</v>
       </c>
       <c r="D106" t="n">
-        <v>2.22783</v>
+        <v>2.22409</v>
       </c>
     </row>
     <row r="107">
@@ -9150,13 +9150,13 @@
         <v>1647417</v>
       </c>
       <c r="B107" t="n">
-        <v>2.40864</v>
+        <v>2.40774</v>
       </c>
       <c r="C107" t="n">
-        <v>1.33676</v>
+        <v>1.31051</v>
       </c>
       <c r="D107" t="n">
-        <v>2.3353</v>
+        <v>2.32093</v>
       </c>
     </row>
     <row r="108">
@@ -9164,13 +9164,13 @@
         <v>1729734</v>
       </c>
       <c r="B108" t="n">
-        <v>2.42683</v>
+        <v>2.42537</v>
       </c>
       <c r="C108" t="n">
-        <v>1.34243</v>
+        <v>1.31791</v>
       </c>
       <c r="D108" t="n">
-        <v>2.34521</v>
+        <v>2.35256</v>
       </c>
     </row>
     <row r="109">
@@ -9178,13 +9178,13 @@
         <v>1816153</v>
       </c>
       <c r="B109" t="n">
-        <v>2.44229</v>
+        <v>2.44823</v>
       </c>
       <c r="C109" t="n">
-        <v>1.35</v>
+        <v>1.32497</v>
       </c>
       <c r="D109" t="n">
-        <v>2.35062</v>
+        <v>2.35808</v>
       </c>
     </row>
     <row r="110">
@@ -9192,13 +9192,13 @@
         <v>1906885</v>
       </c>
       <c r="B110" t="n">
-        <v>2.46412</v>
+        <v>2.46496</v>
       </c>
       <c r="C110" t="n">
-        <v>1.35714</v>
+        <v>1.33029</v>
       </c>
       <c r="D110" t="n">
-        <v>2.38122</v>
+        <v>2.38263</v>
       </c>
     </row>
     <row r="111">
@@ -9206,13 +9206,13 @@
         <v>2002164</v>
       </c>
       <c r="B111" t="n">
-        <v>2.48672</v>
+        <v>2.48039</v>
       </c>
       <c r="C111" t="n">
-        <v>1.36423</v>
+        <v>1.33669</v>
       </c>
       <c r="D111" t="n">
-        <v>2.39445</v>
+        <v>2.38747</v>
       </c>
     </row>
     <row r="112">
@@ -9220,13 +9220,13 @@
         <v>2102198</v>
       </c>
       <c r="B112" t="n">
-        <v>2.50569</v>
+        <v>2.49984</v>
       </c>
       <c r="C112" t="n">
-        <v>1.37329</v>
+        <v>1.34403</v>
       </c>
       <c r="D112" t="n">
-        <v>2.40926</v>
+        <v>2.39332</v>
       </c>
     </row>
     <row r="113">
@@ -9234,13 +9234,13 @@
         <v>2207233</v>
       </c>
       <c r="B113" t="n">
-        <v>2.52282</v>
+        <v>2.51759</v>
       </c>
       <c r="C113" t="n">
-        <v>1.38055</v>
+        <v>1.3501</v>
       </c>
       <c r="D113" t="n">
-        <v>2.42343</v>
+        <v>2.42132</v>
       </c>
     </row>
     <row r="114">
@@ -9248,13 +9248,13 @@
         <v>2317508</v>
       </c>
       <c r="B114" t="n">
-        <v>2.54171</v>
+        <v>2.53638</v>
       </c>
       <c r="C114" t="n">
-        <v>1.38775</v>
+        <v>1.36304</v>
       </c>
       <c r="D114" t="n">
-        <v>2.43221</v>
+        <v>2.43357</v>
       </c>
     </row>
     <row r="115">
@@ -9262,13 +9262,13 @@
         <v>2433290</v>
       </c>
       <c r="B115" t="n">
-        <v>2.55936</v>
+        <v>2.56117</v>
       </c>
       <c r="C115" t="n">
-        <v>1.39478</v>
+        <v>1.37107</v>
       </c>
       <c r="D115" t="n">
-        <v>2.44633</v>
+        <v>2.4456</v>
       </c>
     </row>
     <row r="116">
@@ -9276,13 +9276,13 @@
         <v>2554854</v>
       </c>
       <c r="B116" t="n">
-        <v>2.57854</v>
+        <v>2.57843</v>
       </c>
       <c r="C116" t="n">
-        <v>1.40324</v>
+        <v>1.38033</v>
       </c>
       <c r="D116" t="n">
-        <v>2.45943</v>
+        <v>2.45748</v>
       </c>
     </row>
     <row r="117">
@@ -9290,13 +9290,13 @@
         <v>2682511</v>
       </c>
       <c r="B117" t="n">
-        <v>2.60249</v>
+        <v>2.60071</v>
       </c>
       <c r="C117" t="n">
-        <v>1.41263</v>
+        <v>1.38865</v>
       </c>
       <c r="D117" t="n">
-        <v>2.47325</v>
+        <v>2.46525</v>
       </c>
     </row>
     <row r="118">
@@ -9304,13 +9304,13 @@
         <v>2816546</v>
       </c>
       <c r="B118" t="n">
-        <v>2.61866</v>
+        <v>2.618</v>
       </c>
       <c r="C118" t="n">
-        <v>1.42154</v>
+        <v>1.3997</v>
       </c>
       <c r="D118" t="n">
-        <v>2.4833</v>
+        <v>2.47981</v>
       </c>
     </row>
     <row r="119">
@@ -9318,13 +9318,13 @@
         <v>2957287</v>
       </c>
       <c r="B119" t="n">
-        <v>2.63999</v>
+        <v>2.63732</v>
       </c>
       <c r="C119" t="n">
-        <v>1.43318</v>
+        <v>1.4069</v>
       </c>
       <c r="D119" t="n">
-        <v>2.48949</v>
+        <v>2.47587</v>
       </c>
     </row>
   </sheetData>
@@ -9372,13 +9372,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.49863</v>
+        <v>0.460298</v>
       </c>
       <c r="C2" t="n">
-        <v>0.414331</v>
+        <v>0.41098</v>
       </c>
       <c r="D2" t="n">
-        <v>0.340553</v>
+        <v>0.319839</v>
       </c>
     </row>
     <row r="3">
@@ -9386,13 +9386,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.516048</v>
+        <v>0.483431</v>
       </c>
       <c r="C3" t="n">
-        <v>0.420911</v>
+        <v>0.416224</v>
       </c>
       <c r="D3" t="n">
-        <v>0.34652</v>
+        <v>0.326876</v>
       </c>
     </row>
     <row r="4">
@@ -9400,13 +9400,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.519155</v>
+        <v>0.488051</v>
       </c>
       <c r="C4" t="n">
-        <v>0.422522</v>
+        <v>0.415284</v>
       </c>
       <c r="D4" t="n">
-        <v>0.347958</v>
+        <v>0.329977</v>
       </c>
     </row>
     <row r="5">
@@ -9414,13 +9414,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.529749</v>
+        <v>0.499785</v>
       </c>
       <c r="C5" t="n">
-        <v>0.431027</v>
+        <v>0.424317</v>
       </c>
       <c r="D5" t="n">
-        <v>0.355792</v>
+        <v>0.336639</v>
       </c>
     </row>
     <row r="6">
@@ -9428,13 +9428,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.541142</v>
+        <v>0.506006</v>
       </c>
       <c r="C6" t="n">
-        <v>0.43638</v>
+        <v>0.429887</v>
       </c>
       <c r="D6" t="n">
-        <v>0.36148</v>
+        <v>0.343495</v>
       </c>
     </row>
     <row r="7">
@@ -9442,13 +9442,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.547949</v>
+        <v>0.515042</v>
       </c>
       <c r="C7" t="n">
-        <v>0.451803</v>
+        <v>0.455321</v>
       </c>
       <c r="D7" t="n">
-        <v>0.370313</v>
+        <v>0.359594</v>
       </c>
     </row>
     <row r="8">
@@ -9456,13 +9456,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.5477300000000001</v>
+        <v>0.519975</v>
       </c>
       <c r="C8" t="n">
-        <v>0.452834</v>
+        <v>0.456565</v>
       </c>
       <c r="D8" t="n">
-        <v>0.373068</v>
+        <v>0.361819</v>
       </c>
     </row>
     <row r="9">
@@ -9470,13 +9470,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.548516</v>
+        <v>0.532242</v>
       </c>
       <c r="C9" t="n">
-        <v>0.457749</v>
+        <v>0.462066</v>
       </c>
       <c r="D9" t="n">
-        <v>0.379911</v>
+        <v>0.369559</v>
       </c>
     </row>
     <row r="10">
@@ -9484,13 +9484,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.565677</v>
+        <v>0.543427</v>
       </c>
       <c r="C10" t="n">
-        <v>0.46391</v>
+        <v>0.469434</v>
       </c>
       <c r="D10" t="n">
-        <v>0.385153</v>
+        <v>0.372833</v>
       </c>
     </row>
     <row r="11">
@@ -9498,13 +9498,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.571871</v>
+        <v>0.552827</v>
       </c>
       <c r="C11" t="n">
-        <v>0.46223</v>
+        <v>0.468065</v>
       </c>
       <c r="D11" t="n">
-        <v>0.390067</v>
+        <v>0.379095</v>
       </c>
     </row>
     <row r="12">
@@ -9512,13 +9512,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.578282</v>
+        <v>0.567518</v>
       </c>
       <c r="C12" t="n">
-        <v>0.472281</v>
+        <v>0.47654</v>
       </c>
       <c r="D12" t="n">
-        <v>0.398886</v>
+        <v>0.388628</v>
       </c>
     </row>
     <row r="13">
@@ -9526,13 +9526,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.594859</v>
+        <v>0.579062</v>
       </c>
       <c r="C13" t="n">
-        <v>0.473071</v>
+        <v>0.47709</v>
       </c>
       <c r="D13" t="n">
-        <v>0.400537</v>
+        <v>0.396449</v>
       </c>
     </row>
     <row r="14">
@@ -9540,13 +9540,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.593035</v>
+        <v>0.589348</v>
       </c>
       <c r="C14" t="n">
-        <v>0.476368</v>
+        <v>0.481084</v>
       </c>
       <c r="D14" t="n">
-        <v>0.406547</v>
+        <v>0.399942</v>
       </c>
     </row>
     <row r="15">
@@ -9554,13 +9554,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.6027940000000001</v>
+        <v>0.5975200000000001</v>
       </c>
       <c r="C15" t="n">
-        <v>0.480183</v>
+        <v>0.487565</v>
       </c>
       <c r="D15" t="n">
-        <v>0.413963</v>
+        <v>0.4069</v>
       </c>
     </row>
     <row r="16">
@@ -9568,13 +9568,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.615443</v>
+        <v>0.607754</v>
       </c>
       <c r="C16" t="n">
-        <v>0.482908</v>
+        <v>0.4892</v>
       </c>
       <c r="D16" t="n">
-        <v>0.418476</v>
+        <v>0.41143</v>
       </c>
     </row>
     <row r="17">
@@ -9582,13 +9582,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.6280019999999999</v>
+        <v>0.62052</v>
       </c>
       <c r="C17" t="n">
-        <v>0.488069</v>
+        <v>0.497049</v>
       </c>
       <c r="D17" t="n">
-        <v>0.423411</v>
+        <v>0.420879</v>
       </c>
     </row>
     <row r="18">
@@ -9596,13 +9596,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.642676</v>
+        <v>0.629522</v>
       </c>
       <c r="C18" t="n">
-        <v>0.496208</v>
+        <v>0.5015849999999999</v>
       </c>
       <c r="D18" t="n">
-        <v>0.429514</v>
+        <v>0.426682</v>
       </c>
     </row>
     <row r="19">
@@ -9610,13 +9610,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.655304</v>
+        <v>0.647444</v>
       </c>
       <c r="C19" t="n">
-        <v>0.502772</v>
+        <v>0.512872</v>
       </c>
       <c r="D19" t="n">
-        <v>0.433164</v>
+        <v>0.433092</v>
       </c>
     </row>
     <row r="20">
@@ -9624,13 +9624,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.664205</v>
+        <v>0.656079</v>
       </c>
       <c r="C20" t="n">
-        <v>0.502188</v>
+        <v>0.513165</v>
       </c>
       <c r="D20" t="n">
-        <v>0.440434</v>
+        <v>0.438644</v>
       </c>
     </row>
     <row r="21">
@@ -9638,13 +9638,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.674346</v>
+        <v>0.671826</v>
       </c>
       <c r="C21" t="n">
-        <v>0.509047</v>
+        <v>0.519086</v>
       </c>
       <c r="D21" t="n">
-        <v>0.448357</v>
+        <v>0.444953</v>
       </c>
     </row>
     <row r="22">
@@ -9652,13 +9652,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.681471</v>
+        <v>0.67671</v>
       </c>
       <c r="C22" t="n">
-        <v>0.516215</v>
+        <v>0.525973</v>
       </c>
       <c r="D22" t="n">
-        <v>0.454374</v>
+        <v>0.451421</v>
       </c>
     </row>
     <row r="23">
@@ -9666,13 +9666,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.690066</v>
+        <v>0.683482</v>
       </c>
       <c r="C23" t="n">
-        <v>0.520467</v>
+        <v>0.531328</v>
       </c>
       <c r="D23" t="n">
-        <v>0.458827</v>
+        <v>0.457483</v>
       </c>
     </row>
     <row r="24">
@@ -9680,13 +9680,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.694543</v>
+        <v>0.688017</v>
       </c>
       <c r="C24" t="n">
-        <v>0.526248</v>
+        <v>0.5369660000000001</v>
       </c>
       <c r="D24" t="n">
-        <v>0.462373</v>
+        <v>0.462683</v>
       </c>
     </row>
     <row r="25">
@@ -9694,13 +9694,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.701929</v>
+        <v>0.698817</v>
       </c>
       <c r="C25" t="n">
-        <v>0.533973</v>
+        <v>0.548268</v>
       </c>
       <c r="D25" t="n">
-        <v>0.467051</v>
+        <v>0.467605</v>
       </c>
     </row>
     <row r="26">
@@ -9708,13 +9708,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.709807</v>
+        <v>0.707379</v>
       </c>
       <c r="C26" t="n">
-        <v>0.531626</v>
+        <v>0.544366</v>
       </c>
       <c r="D26" t="n">
-        <v>0.471522</v>
+        <v>0.471392</v>
       </c>
     </row>
     <row r="27">
@@ -9722,13 +9722,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.719326</v>
+        <v>0.717967</v>
       </c>
       <c r="C27" t="n">
-        <v>0.538767</v>
+        <v>0.551277</v>
       </c>
       <c r="D27" t="n">
-        <v>0.474589</v>
+        <v>0.475752</v>
       </c>
     </row>
     <row r="28">
@@ -9736,13 +9736,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.722241</v>
+        <v>0.719655</v>
       </c>
       <c r="C28" t="n">
-        <v>0.540917</v>
+        <v>0.556194</v>
       </c>
       <c r="D28" t="n">
-        <v>0.480889</v>
+        <v>0.48119</v>
       </c>
     </row>
     <row r="29">
@@ -9750,13 +9750,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.736876</v>
+        <v>0.73332</v>
       </c>
       <c r="C29" t="n">
-        <v>0.545974</v>
+        <v>0.557897</v>
       </c>
       <c r="D29" t="n">
-        <v>0.48351</v>
+        <v>0.485898</v>
       </c>
     </row>
     <row r="30">
@@ -9764,13 +9764,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.7388749999999999</v>
+        <v>0.735622</v>
       </c>
       <c r="C30" t="n">
-        <v>0.553431</v>
+        <v>0.564656</v>
       </c>
       <c r="D30" t="n">
-        <v>0.487836</v>
+        <v>0.489834</v>
       </c>
     </row>
     <row r="31">
@@ -9778,13 +9778,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.747834</v>
+        <v>0.744788</v>
       </c>
       <c r="C31" t="n">
-        <v>0.553778</v>
+        <v>0.570725</v>
       </c>
       <c r="D31" t="n">
-        <v>0.492916</v>
+        <v>0.495629</v>
       </c>
     </row>
     <row r="32">
@@ -9792,13 +9792,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.739534</v>
+        <v>0.736094</v>
       </c>
       <c r="C32" t="n">
-        <v>0.556516</v>
+        <v>0.5692430000000001</v>
       </c>
       <c r="D32" t="n">
-        <v>0.494209</v>
+        <v>0.496631</v>
       </c>
     </row>
     <row r="33">
@@ -9806,13 +9806,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.746471</v>
+        <v>0.749058</v>
       </c>
       <c r="C33" t="n">
-        <v>0.561939</v>
+        <v>0.574895</v>
       </c>
       <c r="D33" t="n">
-        <v>0.498614</v>
+        <v>0.501325</v>
       </c>
     </row>
     <row r="34">
@@ -9820,13 +9820,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.758086</v>
+        <v>0.7583760000000001</v>
       </c>
       <c r="C34" t="n">
-        <v>0.565299</v>
+        <v>0.579302</v>
       </c>
       <c r="D34" t="n">
-        <v>0.500139</v>
+        <v>0.502633</v>
       </c>
     </row>
     <row r="35">
@@ -9834,13 +9834,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.758951</v>
+        <v>0.760664</v>
       </c>
       <c r="C35" t="n">
-        <v>0.540916</v>
+        <v>0.555701</v>
       </c>
       <c r="D35" t="n">
-        <v>0.503829</v>
+        <v>0.505636</v>
       </c>
     </row>
     <row r="36">
@@ -9848,13 +9848,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.7665419999999999</v>
+        <v>0.761883</v>
       </c>
       <c r="C36" t="n">
-        <v>0.550384</v>
+        <v>0.561962</v>
       </c>
       <c r="D36" t="n">
-        <v>0.508289</v>
+        <v>0.510281</v>
       </c>
     </row>
     <row r="37">
@@ -9862,13 +9862,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.772813</v>
+        <v>0.775825</v>
       </c>
       <c r="C37" t="n">
-        <v>0.552007</v>
+        <v>0.5653280000000001</v>
       </c>
       <c r="D37" t="n">
-        <v>0.51006</v>
+        <v>0.512394</v>
       </c>
     </row>
     <row r="38">
@@ -9876,13 +9876,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.77585</v>
+        <v>0.7745649999999999</v>
       </c>
       <c r="C38" t="n">
-        <v>0.556926</v>
+        <v>0.570919</v>
       </c>
       <c r="D38" t="n">
-        <v>0.5145</v>
+        <v>0.516803</v>
       </c>
     </row>
     <row r="39">
@@ -9890,13 +9890,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.78171</v>
+        <v>0.774736</v>
       </c>
       <c r="C39" t="n">
-        <v>0.5600039999999999</v>
+        <v>0.574946</v>
       </c>
       <c r="D39" t="n">
-        <v>0.51773</v>
+        <v>0.51936</v>
       </c>
     </row>
     <row r="40">
@@ -9904,13 +9904,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.788196</v>
+        <v>0.791994</v>
       </c>
       <c r="C40" t="n">
-        <v>0.559526</v>
+        <v>0.572832</v>
       </c>
       <c r="D40" t="n">
-        <v>0.5188199999999999</v>
+        <v>0.521154</v>
       </c>
     </row>
     <row r="41">
@@ -9918,13 +9918,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.794459</v>
+        <v>0.792448</v>
       </c>
       <c r="C41" t="n">
-        <v>0.56436</v>
+        <v>0.576676</v>
       </c>
       <c r="D41" t="n">
-        <v>0.520526</v>
+        <v>0.522973</v>
       </c>
     </row>
     <row r="42">
@@ -9932,13 +9932,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.801644</v>
+        <v>0.799865</v>
       </c>
       <c r="C42" t="n">
-        <v>0.562958</v>
+        <v>0.5793779999999999</v>
       </c>
       <c r="D42" t="n">
-        <v>0.523634</v>
+        <v>0.52644</v>
       </c>
     </row>
     <row r="43">
@@ -9946,13 +9946,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.805745</v>
+        <v>0.8062009999999999</v>
       </c>
       <c r="C43" t="n">
-        <v>0.566963</v>
+        <v>0.582975</v>
       </c>
       <c r="D43" t="n">
-        <v>0.526879</v>
+        <v>0.529051</v>
       </c>
     </row>
     <row r="44">
@@ -9960,13 +9960,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.806599</v>
+        <v>0.803612</v>
       </c>
       <c r="C44" t="n">
-        <v>0.564671</v>
+        <v>0.582881</v>
       </c>
       <c r="D44" t="n">
-        <v>0.525904</v>
+        <v>0.529925</v>
       </c>
     </row>
     <row r="45">
@@ -9974,13 +9974,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.813669</v>
+        <v>0.813423</v>
       </c>
       <c r="C45" t="n">
-        <v>0.570674</v>
+        <v>0.585987</v>
       </c>
       <c r="D45" t="n">
-        <v>0.529406</v>
+        <v>0.532121</v>
       </c>
     </row>
     <row r="46">
@@ -9988,13 +9988,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.815374</v>
+        <v>0.813028</v>
       </c>
       <c r="C46" t="n">
-        <v>0.57311</v>
+        <v>0.590455</v>
       </c>
       <c r="D46" t="n">
-        <v>0.531914</v>
+        <v>0.5351129999999999</v>
       </c>
     </row>
     <row r="47">
@@ -10002,13 +10002,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.794291</v>
+        <v>0.797789</v>
       </c>
       <c r="C47" t="n">
-        <v>0.574308</v>
+        <v>0.591933</v>
       </c>
       <c r="D47" t="n">
-        <v>0.533786</v>
+        <v>0.536949</v>
       </c>
     </row>
     <row r="48">
@@ -10016,13 +10016,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.800609</v>
+        <v>0.801583</v>
       </c>
       <c r="C48" t="n">
-        <v>0.579769</v>
+        <v>0.597359</v>
       </c>
       <c r="D48" t="n">
-        <v>0.534955</v>
+        <v>0.538424</v>
       </c>
     </row>
     <row r="49">
@@ -10030,13 +10030,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.802315</v>
+        <v>0.796474</v>
       </c>
       <c r="C49" t="n">
-        <v>0.5809609999999999</v>
+        <v>0.598276</v>
       </c>
       <c r="D49" t="n">
-        <v>0.536687</v>
+        <v>0.540157</v>
       </c>
     </row>
     <row r="50">
@@ -10044,13 +10044,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.8075599999999999</v>
+        <v>0.8045949999999999</v>
       </c>
       <c r="C50" t="n">
-        <v>0.5720730000000001</v>
+        <v>0.58961</v>
       </c>
       <c r="D50" t="n">
-        <v>0.537736</v>
+        <v>0.541422</v>
       </c>
     </row>
     <row r="51">
@@ -10058,13 +10058,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.809176</v>
+        <v>0.810643</v>
       </c>
       <c r="C51" t="n">
-        <v>0.572719</v>
+        <v>0.590489</v>
       </c>
       <c r="D51" t="n">
-        <v>0.540592</v>
+        <v>0.54295</v>
       </c>
     </row>
     <row r="52">
@@ -10072,13 +10072,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.812203</v>
+        <v>0.80877</v>
       </c>
       <c r="C52" t="n">
-        <v>0.577925</v>
+        <v>0.594527</v>
       </c>
       <c r="D52" t="n">
-        <v>0.541465</v>
+        <v>0.545383</v>
       </c>
     </row>
     <row r="53">
@@ -10086,13 +10086,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.8171349999999999</v>
+        <v>0.814612</v>
       </c>
       <c r="C53" t="n">
-        <v>0.579924</v>
+        <v>0.600383</v>
       </c>
       <c r="D53" t="n">
-        <v>0.543463</v>
+        <v>0.546977</v>
       </c>
     </row>
     <row r="54">
@@ -10100,13 +10100,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.820433</v>
+        <v>0.818134</v>
       </c>
       <c r="C54" t="n">
-        <v>0.584241</v>
+        <v>0.603298</v>
       </c>
       <c r="D54" t="n">
-        <v>0.54478</v>
+        <v>0.548369</v>
       </c>
     </row>
     <row r="55">
@@ -10114,13 +10114,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.824375</v>
+        <v>0.821947</v>
       </c>
       <c r="C55" t="n">
-        <v>0.587716</v>
+        <v>0.608345</v>
       </c>
       <c r="D55" t="n">
-        <v>0.546872</v>
+        <v>0.550686</v>
       </c>
     </row>
     <row r="56">
@@ -10128,13 +10128,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.827483</v>
+        <v>0.827007</v>
       </c>
       <c r="C56" t="n">
-        <v>0.589238</v>
+        <v>0.609753</v>
       </c>
       <c r="D56" t="n">
-        <v>0.547113</v>
+        <v>0.551583</v>
       </c>
     </row>
     <row r="57">
@@ -10142,13 +10142,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.83348</v>
+        <v>0.829788</v>
       </c>
       <c r="C57" t="n">
-        <v>0.591953</v>
+        <v>0.615625</v>
       </c>
       <c r="D57" t="n">
-        <v>0.549152</v>
+        <v>0.552608</v>
       </c>
     </row>
     <row r="58">
@@ -10156,13 +10156,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.832439</v>
+        <v>0.835633</v>
       </c>
       <c r="C58" t="n">
-        <v>0.599467</v>
+        <v>0.624852</v>
       </c>
       <c r="D58" t="n">
-        <v>0.550336</v>
+        <v>0.556962</v>
       </c>
     </row>
     <row r="59">
@@ -10170,13 +10170,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.838412</v>
+        <v>0.842259</v>
       </c>
       <c r="C59" t="n">
-        <v>0.606454</v>
+        <v>0.635806</v>
       </c>
       <c r="D59" t="n">
-        <v>0.551439</v>
+        <v>0.557167</v>
       </c>
     </row>
     <row r="60">
@@ -10184,13 +10184,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.842531</v>
+        <v>0.845462</v>
       </c>
       <c r="C60" t="n">
-        <v>0.609685</v>
+        <v>0.638219</v>
       </c>
       <c r="D60" t="n">
-        <v>0.554569</v>
+        <v>0.562175</v>
       </c>
     </row>
     <row r="61">
@@ -10198,13 +10198,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.840185</v>
+        <v>0.84524</v>
       </c>
       <c r="C61" t="n">
-        <v>0.617734</v>
+        <v>0.647553</v>
       </c>
       <c r="D61" t="n">
-        <v>0.555335</v>
+        <v>0.565702</v>
       </c>
     </row>
     <row r="62">
@@ -10212,13 +10212,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.849471</v>
+        <v>0.858761</v>
       </c>
       <c r="C62" t="n">
-        <v>0.62341</v>
+        <v>0.657122</v>
       </c>
       <c r="D62" t="n">
-        <v>0.558299</v>
+        <v>0.569586</v>
       </c>
     </row>
     <row r="63">
@@ -10226,13 +10226,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.860386</v>
+        <v>0.871741</v>
       </c>
       <c r="C63" t="n">
-        <v>0.634934</v>
+        <v>0.664215</v>
       </c>
       <c r="D63" t="n">
-        <v>0.559761</v>
+        <v>0.571866</v>
       </c>
     </row>
     <row r="64">
@@ -10240,13 +10240,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.873357</v>
+        <v>0.886593</v>
       </c>
       <c r="C64" t="n">
-        <v>0.682484</v>
+        <v>0.716584</v>
       </c>
       <c r="D64" t="n">
-        <v>0.6012999999999999</v>
+        <v>0.609123</v>
       </c>
     </row>
     <row r="65">
@@ -10254,13 +10254,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.897398</v>
+        <v>0.896411</v>
       </c>
       <c r="C65" t="n">
-        <v>0.70297</v>
+        <v>0.72953</v>
       </c>
       <c r="D65" t="n">
-        <v>0.602434</v>
+        <v>0.610013</v>
       </c>
     </row>
     <row r="66">
@@ -10268,13 +10268,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.912283</v>
+        <v>0.910793</v>
       </c>
       <c r="C66" t="n">
-        <v>0.720702</v>
+        <v>0.7514729999999999</v>
       </c>
       <c r="D66" t="n">
-        <v>0.61129</v>
+        <v>0.6249400000000001</v>
       </c>
     </row>
     <row r="67">
@@ -10282,13 +10282,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.92364</v>
+        <v>0.936923</v>
       </c>
       <c r="C67" t="n">
-        <v>0.743487</v>
+        <v>0.7719</v>
       </c>
       <c r="D67" t="n">
-        <v>0.622763</v>
+        <v>0.62701</v>
       </c>
     </row>
     <row r="68">
@@ -10296,13 +10296,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.94781</v>
+        <v>0.943245</v>
       </c>
       <c r="C68" t="n">
-        <v>0.768949</v>
+        <v>0.794784</v>
       </c>
       <c r="D68" t="n">
-        <v>0.640053</v>
+        <v>0.6504450000000001</v>
       </c>
     </row>
     <row r="69">
@@ -10310,13 +10310,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.974359</v>
+        <v>0.983662</v>
       </c>
       <c r="C69" t="n">
-        <v>0.792053</v>
+        <v>0.8150230000000001</v>
       </c>
       <c r="D69" t="n">
-        <v>0.662292</v>
+        <v>0.662426</v>
       </c>
     </row>
     <row r="70">
@@ -10324,13 +10324,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>1.00337</v>
+        <v>1.00648</v>
       </c>
       <c r="C70" t="n">
-        <v>0.822343</v>
+        <v>0.847209</v>
       </c>
       <c r="D70" t="n">
-        <v>0.678046</v>
+        <v>0.685592</v>
       </c>
     </row>
     <row r="71">
@@ -10338,13 +10338,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>1.03294</v>
+        <v>1.03705</v>
       </c>
       <c r="C71" t="n">
-        <v>0.851287</v>
+        <v>0.8763919999999999</v>
       </c>
       <c r="D71" t="n">
-        <v>0.691358</v>
+        <v>0.692302</v>
       </c>
     </row>
     <row r="72">
@@ -10352,13 +10352,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>1.05434</v>
+        <v>1.04617</v>
       </c>
       <c r="C72" t="n">
-        <v>0.88362</v>
+        <v>0.905514</v>
       </c>
       <c r="D72" t="n">
-        <v>0.714629</v>
+        <v>0.713186</v>
       </c>
     </row>
     <row r="73">
@@ -10366,13 +10366,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>1.09365</v>
+        <v>1.08973</v>
       </c>
       <c r="C73" t="n">
-        <v>0.919574</v>
+        <v>0.942493</v>
       </c>
       <c r="D73" t="n">
-        <v>0.731191</v>
+        <v>0.7398940000000001</v>
       </c>
     </row>
     <row r="74">
@@ -10380,13 +10380,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>1.12241</v>
+        <v>1.12926</v>
       </c>
       <c r="C74" t="n">
-        <v>0.953344</v>
+        <v>0.985218</v>
       </c>
       <c r="D74" t="n">
-        <v>0.778288</v>
+        <v>0.770375</v>
       </c>
     </row>
     <row r="75">
@@ -10394,13 +10394,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>1.19437</v>
+        <v>1.17792</v>
       </c>
       <c r="C75" t="n">
-        <v>1.00001</v>
+        <v>1.01921</v>
       </c>
       <c r="D75" t="n">
-        <v>0.798696</v>
+        <v>0.79978</v>
       </c>
     </row>
     <row r="76">
@@ -10408,13 +10408,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>1.36178</v>
+        <v>1.35363</v>
       </c>
       <c r="C76" t="n">
-        <v>1.04063</v>
+        <v>1.0619</v>
       </c>
       <c r="D76" t="n">
-        <v>0.842656</v>
+        <v>0.839128</v>
       </c>
     </row>
     <row r="77">
@@ -10422,13 +10422,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>1.42866</v>
+        <v>1.4198</v>
       </c>
       <c r="C77" t="n">
-        <v>1.06843</v>
+        <v>1.10578</v>
       </c>
       <c r="D77" t="n">
-        <v>0.861358</v>
+        <v>0.876503</v>
       </c>
     </row>
     <row r="78">
@@ -10436,13 +10436,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>1.48569</v>
+        <v>1.49144</v>
       </c>
       <c r="C78" t="n">
-        <v>1.26661</v>
+        <v>1.30218</v>
       </c>
       <c r="D78" t="n">
-        <v>1.01179</v>
+        <v>1.01808</v>
       </c>
     </row>
     <row r="79">
@@ -10450,13 +10450,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>1.56024</v>
+        <v>1.56547</v>
       </c>
       <c r="C79" t="n">
-        <v>1.30695</v>
+        <v>1.34489</v>
       </c>
       <c r="D79" t="n">
-        <v>1.06198</v>
+        <v>1.06258</v>
       </c>
     </row>
     <row r="80">
@@ -10464,13 +10464,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>1.63443</v>
+        <v>1.64645</v>
       </c>
       <c r="C80" t="n">
-        <v>1.34959</v>
+        <v>1.38323</v>
       </c>
       <c r="D80" t="n">
-        <v>1.11338</v>
+        <v>1.11356</v>
       </c>
     </row>
     <row r="81">
@@ -10478,13 +10478,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>1.73837</v>
+        <v>1.73205</v>
       </c>
       <c r="C81" t="n">
-        <v>1.40236</v>
+        <v>1.43377</v>
       </c>
       <c r="D81" t="n">
-        <v>1.18366</v>
+        <v>1.18101</v>
       </c>
     </row>
     <row r="82">
@@ -10492,13 +10492,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>1.83838</v>
+        <v>1.8208</v>
       </c>
       <c r="C82" t="n">
-        <v>1.44761</v>
+        <v>1.47894</v>
       </c>
       <c r="D82" t="n">
-        <v>1.2306</v>
+        <v>1.23864</v>
       </c>
     </row>
     <row r="83">
@@ -10506,13 +10506,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>1.92189</v>
+        <v>1.90257</v>
       </c>
       <c r="C83" t="n">
-        <v>1.49486</v>
+        <v>1.51771</v>
       </c>
       <c r="D83" t="n">
-        <v>1.28508</v>
+        <v>1.28931</v>
       </c>
     </row>
     <row r="84">
@@ -10520,13 +10520,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>2.01916</v>
+        <v>2.00266</v>
       </c>
       <c r="C84" t="n">
-        <v>1.53984</v>
+        <v>1.56885</v>
       </c>
       <c r="D84" t="n">
-        <v>1.3466</v>
+        <v>1.34556</v>
       </c>
     </row>
     <row r="85">
@@ -10534,13 +10534,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>2.1087</v>
+        <v>2.09571</v>
       </c>
       <c r="C85" t="n">
-        <v>1.57993</v>
+        <v>1.61399</v>
       </c>
       <c r="D85" t="n">
-        <v>1.40224</v>
+        <v>1.41048</v>
       </c>
     </row>
     <row r="86">
@@ -10548,13 +10548,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>2.21394</v>
+        <v>2.19508</v>
       </c>
       <c r="C86" t="n">
-        <v>1.62504</v>
+        <v>1.65862</v>
       </c>
       <c r="D86" t="n">
-        <v>1.46387</v>
+        <v>1.46819</v>
       </c>
     </row>
     <row r="87">
@@ -10562,13 +10562,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>2.30676</v>
+        <v>2.29165</v>
       </c>
       <c r="C87" t="n">
-        <v>1.67483</v>
+        <v>1.70635</v>
       </c>
       <c r="D87" t="n">
-        <v>1.5212</v>
+        <v>1.53331</v>
       </c>
     </row>
     <row r="88">
@@ -10576,13 +10576,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>2.39757</v>
+        <v>2.39197</v>
       </c>
       <c r="C88" t="n">
-        <v>1.71049</v>
+        <v>1.75899</v>
       </c>
       <c r="D88" t="n">
-        <v>1.5793</v>
+        <v>1.58881</v>
       </c>
     </row>
     <row r="89">
@@ -10590,13 +10590,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>2.49293</v>
+        <v>2.49721</v>
       </c>
       <c r="C89" t="n">
-        <v>1.76498</v>
+        <v>1.7978</v>
       </c>
       <c r="D89" t="n">
-        <v>1.63029</v>
+        <v>1.64851</v>
       </c>
     </row>
     <row r="90">
@@ -10604,13 +10604,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>2.69132</v>
+        <v>2.67964</v>
       </c>
       <c r="C90" t="n">
-        <v>1.80696</v>
+        <v>1.84267</v>
       </c>
       <c r="D90" t="n">
-        <v>1.68808</v>
+        <v>1.70526</v>
       </c>
     </row>
     <row r="91">
@@ -10618,13 +10618,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>2.77357</v>
+        <v>2.76624</v>
       </c>
       <c r="C91" t="n">
-        <v>1.85322</v>
+        <v>1.89522</v>
       </c>
       <c r="D91" t="n">
-        <v>1.73883</v>
+        <v>1.76086</v>
       </c>
     </row>
     <row r="92">
@@ -10632,13 +10632,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>2.85013</v>
+        <v>2.83439</v>
       </c>
       <c r="C92" t="n">
-        <v>1.97643</v>
+        <v>2.01317</v>
       </c>
       <c r="D92" t="n">
-        <v>1.86169</v>
+        <v>1.88164</v>
       </c>
     </row>
     <row r="93">
@@ -10646,13 +10646,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>2.93013</v>
+        <v>2.92632</v>
       </c>
       <c r="C93" t="n">
-        <v>2.00327</v>
+        <v>2.04837</v>
       </c>
       <c r="D93" t="n">
-        <v>1.91587</v>
+        <v>1.93386</v>
       </c>
     </row>
     <row r="94">
@@ -10660,13 +10660,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>3.02138</v>
+        <v>3.0077</v>
       </c>
       <c r="C94" t="n">
-        <v>2.04557</v>
+        <v>2.08212</v>
       </c>
       <c r="D94" t="n">
-        <v>1.95645</v>
+        <v>1.98256</v>
       </c>
     </row>
     <row r="95">
@@ -10674,13 +10674,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>3.09644</v>
+        <v>3.0882</v>
       </c>
       <c r="C95" t="n">
-        <v>2.08071</v>
+        <v>2.1212</v>
       </c>
       <c r="D95" t="n">
-        <v>2.00346</v>
+        <v>2.02762</v>
       </c>
     </row>
     <row r="96">
@@ -10688,13 +10688,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>3.18045</v>
+        <v>3.15805</v>
       </c>
       <c r="C96" t="n">
-        <v>2.11361</v>
+        <v>2.15172</v>
       </c>
       <c r="D96" t="n">
-        <v>2.05513</v>
+        <v>2.07585</v>
       </c>
     </row>
     <row r="97">
@@ -10702,13 +10702,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>3.25392</v>
+        <v>3.23918</v>
       </c>
       <c r="C97" t="n">
-        <v>2.15531</v>
+        <v>2.18323</v>
       </c>
       <c r="D97" t="n">
-        <v>2.10666</v>
+        <v>2.1194</v>
       </c>
     </row>
     <row r="98">
@@ -10716,13 +10716,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>3.31196</v>
+        <v>3.31692</v>
       </c>
       <c r="C98" t="n">
-        <v>2.18609</v>
+        <v>2.22624</v>
       </c>
       <c r="D98" t="n">
-        <v>2.13806</v>
+        <v>2.16871</v>
       </c>
     </row>
     <row r="99">
@@ -10730,13 +10730,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>3.38867</v>
+        <v>3.36784</v>
       </c>
       <c r="C99" t="n">
-        <v>2.21795</v>
+        <v>2.26376</v>
       </c>
       <c r="D99" t="n">
-        <v>2.19211</v>
+        <v>2.20695</v>
       </c>
     </row>
     <row r="100">
@@ -10744,13 +10744,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>3.47597</v>
+        <v>3.45621</v>
       </c>
       <c r="C100" t="n">
-        <v>2.2616</v>
+        <v>2.29374</v>
       </c>
       <c r="D100" t="n">
-        <v>2.22986</v>
+        <v>2.24044</v>
       </c>
     </row>
     <row r="101">
@@ -10758,13 +10758,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>3.51996</v>
+        <v>3.49858</v>
       </c>
       <c r="C101" t="n">
-        <v>2.29395</v>
+        <v>2.32043</v>
       </c>
       <c r="D101" t="n">
-        <v>2.25269</v>
+        <v>2.27548</v>
       </c>
     </row>
     <row r="102">
@@ -10772,13 +10772,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>3.57188</v>
+        <v>3.54895</v>
       </c>
       <c r="C102" t="n">
-        <v>2.31549</v>
+        <v>2.35846</v>
       </c>
       <c r="D102" t="n">
-        <v>2.29715</v>
+        <v>2.28954</v>
       </c>
     </row>
     <row r="103">
@@ -10786,13 +10786,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>3.66637</v>
+        <v>3.6219</v>
       </c>
       <c r="C103" t="n">
-        <v>2.36208</v>
+        <v>2.39225</v>
       </c>
       <c r="D103" t="n">
-        <v>2.3305</v>
+        <v>2.33818</v>
       </c>
     </row>
     <row r="104">
@@ -10800,13 +10800,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>3.69071</v>
+        <v>3.67893</v>
       </c>
       <c r="C104" t="n">
-        <v>2.39625</v>
+        <v>2.43434</v>
       </c>
       <c r="D104" t="n">
-        <v>2.35224</v>
+        <v>2.37381</v>
       </c>
     </row>
     <row r="105">
@@ -10814,13 +10814,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>3.74491</v>
+        <v>3.71254</v>
       </c>
       <c r="C105" t="n">
-        <v>2.42978</v>
+        <v>2.46906</v>
       </c>
       <c r="D105" t="n">
-        <v>2.38418</v>
+        <v>2.40847</v>
       </c>
     </row>
     <row r="106">
@@ -10828,13 +10828,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>3.78407</v>
+        <v>3.75808</v>
       </c>
       <c r="C106" t="n">
-        <v>2.46172</v>
+        <v>2.50671</v>
       </c>
       <c r="D106" t="n">
-        <v>2.41192</v>
+        <v>2.43624</v>
       </c>
     </row>
     <row r="107">
@@ -10842,13 +10842,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>3.8281</v>
+        <v>3.82256</v>
       </c>
       <c r="C107" t="n">
-        <v>2.45441</v>
+        <v>2.49088</v>
       </c>
       <c r="D107" t="n">
-        <v>2.48208</v>
+        <v>2.50132</v>
       </c>
     </row>
     <row r="108">
@@ -10856,13 +10856,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>3.89347</v>
+        <v>3.86727</v>
       </c>
       <c r="C108" t="n">
-        <v>2.47804</v>
+        <v>2.51892</v>
       </c>
       <c r="D108" t="n">
-        <v>2.52049</v>
+        <v>2.52153</v>
       </c>
     </row>
     <row r="109">
@@ -10870,13 +10870,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>3.93399</v>
+        <v>3.92855</v>
       </c>
       <c r="C109" t="n">
-        <v>2.50557</v>
+        <v>2.53909</v>
       </c>
       <c r="D109" t="n">
-        <v>2.54343</v>
+        <v>2.56157</v>
       </c>
     </row>
     <row r="110">
@@ -10884,13 +10884,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>3.98591</v>
+        <v>3.9619</v>
       </c>
       <c r="C110" t="n">
-        <v>2.52031</v>
+        <v>2.57597</v>
       </c>
       <c r="D110" t="n">
-        <v>2.57052</v>
+        <v>2.58772</v>
       </c>
     </row>
     <row r="111">
@@ -10898,13 +10898,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>4.02839</v>
+        <v>4.00616</v>
       </c>
       <c r="C111" t="n">
-        <v>2.55436</v>
+        <v>2.58468</v>
       </c>
       <c r="D111" t="n">
-        <v>2.60295</v>
+        <v>2.61716</v>
       </c>
     </row>
     <row r="112">
@@ -10912,13 +10912,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>4.08523</v>
+        <v>4.06367</v>
       </c>
       <c r="C112" t="n">
-        <v>2.58435</v>
+        <v>2.61046</v>
       </c>
       <c r="D112" t="n">
-        <v>2.63224</v>
+        <v>2.63821</v>
       </c>
     </row>
     <row r="113">
@@ -10926,13 +10926,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>4.12919</v>
+        <v>4.10646</v>
       </c>
       <c r="C113" t="n">
-        <v>2.61066</v>
+        <v>2.64935</v>
       </c>
       <c r="D113" t="n">
-        <v>2.65825</v>
+        <v>2.65676</v>
       </c>
     </row>
     <row r="114">
@@ -10940,13 +10940,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>4.15272</v>
+        <v>4.16815</v>
       </c>
       <c r="C114" t="n">
-        <v>2.63237</v>
+        <v>2.64598</v>
       </c>
       <c r="D114" t="n">
-        <v>2.67434</v>
+        <v>2.6844</v>
       </c>
     </row>
     <row r="115">
@@ -10954,13 +10954,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>4.20642</v>
+        <v>4.21024</v>
       </c>
       <c r="C115" t="n">
-        <v>2.64853</v>
+        <v>2.70625</v>
       </c>
       <c r="D115" t="n">
-        <v>2.69995</v>
+        <v>2.71217</v>
       </c>
     </row>
     <row r="116">
@@ -10968,13 +10968,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>4.2442</v>
+        <v>4.25494</v>
       </c>
       <c r="C116" t="n">
-        <v>2.68438</v>
+        <v>2.71779</v>
       </c>
       <c r="D116" t="n">
-        <v>2.72009</v>
+        <v>2.73473</v>
       </c>
     </row>
     <row r="117">
@@ -10982,13 +10982,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>4.29191</v>
+        <v>4.30128</v>
       </c>
       <c r="C117" t="n">
-        <v>2.711</v>
+        <v>2.75294</v>
       </c>
       <c r="D117" t="n">
-        <v>2.74609</v>
+        <v>2.75311</v>
       </c>
     </row>
     <row r="118">
@@ -10996,13 +10996,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>4.34164</v>
+        <v>4.34889</v>
       </c>
       <c r="C118" t="n">
-        <v>2.73791</v>
+        <v>2.76922</v>
       </c>
       <c r="D118" t="n">
-        <v>2.76901</v>
+        <v>2.7702</v>
       </c>
     </row>
     <row r="119">
@@ -11010,13 +11010,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>4.30196</v>
+        <v>4.28432</v>
       </c>
       <c r="C119" t="n">
-        <v>2.76209</v>
+        <v>2.80281</v>
       </c>
       <c r="D119" t="n">
-        <v>2.783</v>
+        <v>2.79586</v>
       </c>
     </row>
   </sheetData>
@@ -11064,13 +11064,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.5257500000000001</v>
+        <v>0.488174</v>
       </c>
       <c r="C2" t="n">
-        <v>0.432986</v>
+        <v>0.417942</v>
       </c>
       <c r="D2" t="n">
-        <v>0.337066</v>
+        <v>0.315352</v>
       </c>
     </row>
     <row r="3">
@@ -11078,13 +11078,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.531881</v>
+        <v>0.495782</v>
       </c>
       <c r="C3" t="n">
-        <v>0.441034</v>
+        <v>0.422127</v>
       </c>
       <c r="D3" t="n">
-        <v>0.338177</v>
+        <v>0.317048</v>
       </c>
     </row>
     <row r="4">
@@ -11092,13 +11092,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.537995</v>
+        <v>0.502987</v>
       </c>
       <c r="C4" t="n">
-        <v>0.446222</v>
+        <v>0.428958</v>
       </c>
       <c r="D4" t="n">
-        <v>0.343208</v>
+        <v>0.32065</v>
       </c>
     </row>
     <row r="5">
@@ -11106,13 +11106,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.549002</v>
+        <v>0.512365</v>
       </c>
       <c r="C5" t="n">
-        <v>0.453108</v>
+        <v>0.435713</v>
       </c>
       <c r="D5" t="n">
-        <v>0.347797</v>
+        <v>0.326767</v>
       </c>
     </row>
     <row r="6">
@@ -11120,13 +11120,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.55948</v>
+        <v>0.518896</v>
       </c>
       <c r="C6" t="n">
-        <v>0.455023</v>
+        <v>0.441533</v>
       </c>
       <c r="D6" t="n">
-        <v>0.349429</v>
+        <v>0.328152</v>
       </c>
     </row>
     <row r="7">
@@ -11134,13 +11134,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.569375</v>
+        <v>0.530976</v>
       </c>
       <c r="C7" t="n">
-        <v>0.471234</v>
+        <v>0.455555</v>
       </c>
       <c r="D7" t="n">
-        <v>0.358083</v>
+        <v>0.335477</v>
       </c>
     </row>
     <row r="8">
@@ -11148,13 +11148,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.577072</v>
+        <v>0.537651</v>
       </c>
       <c r="C8" t="n">
-        <v>0.475461</v>
+        <v>0.460383</v>
       </c>
       <c r="D8" t="n">
-        <v>0.361359</v>
+        <v>0.338764</v>
       </c>
     </row>
     <row r="9">
@@ -11162,13 +11162,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.590086</v>
+        <v>0.556267</v>
       </c>
       <c r="C9" t="n">
-        <v>0.48664</v>
+        <v>0.47053</v>
       </c>
       <c r="D9" t="n">
-        <v>0.365305</v>
+        <v>0.346499</v>
       </c>
     </row>
     <row r="10">
@@ -11176,13 +11176,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.603486</v>
+        <v>0.56937</v>
       </c>
       <c r="C10" t="n">
-        <v>0.499603</v>
+        <v>0.483064</v>
       </c>
       <c r="D10" t="n">
-        <v>0.370423</v>
+        <v>0.35045</v>
       </c>
     </row>
     <row r="11">
@@ -11190,13 +11190,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.614614</v>
+        <v>0.582508</v>
       </c>
       <c r="C11" t="n">
-        <v>0.480892</v>
+        <v>0.472624</v>
       </c>
       <c r="D11" t="n">
-        <v>0.380937</v>
+        <v>0.363659</v>
       </c>
     </row>
     <row r="12">
@@ -11204,13 +11204,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.605096</v>
+        <v>0.5806210000000001</v>
       </c>
       <c r="C12" t="n">
-        <v>0.484686</v>
+        <v>0.47787</v>
       </c>
       <c r="D12" t="n">
-        <v>0.386811</v>
+        <v>0.369637</v>
       </c>
     </row>
     <row r="13">
@@ -11218,13 +11218,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.61325</v>
+        <v>0.59112</v>
       </c>
       <c r="C13" t="n">
-        <v>0.497057</v>
+        <v>0.491572</v>
       </c>
       <c r="D13" t="n">
-        <v>0.390591</v>
+        <v>0.373951</v>
       </c>
     </row>
     <row r="14">
@@ -11232,13 +11232,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.626443</v>
+        <v>0.607793</v>
       </c>
       <c r="C14" t="n">
-        <v>0.503521</v>
+        <v>0.497203</v>
       </c>
       <c r="D14" t="n">
-        <v>0.39754</v>
+        <v>0.383499</v>
       </c>
     </row>
     <row r="15">
@@ -11246,13 +11246,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.639622</v>
+        <v>0.623038</v>
       </c>
       <c r="C15" t="n">
-        <v>0.509524</v>
+        <v>0.505642</v>
       </c>
       <c r="D15" t="n">
-        <v>0.402177</v>
+        <v>0.390412</v>
       </c>
     </row>
     <row r="16">
@@ -11260,13 +11260,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.649424</v>
+        <v>0.6348510000000001</v>
       </c>
       <c r="C16" t="n">
-        <v>0.518666</v>
+        <v>0.515637</v>
       </c>
       <c r="D16" t="n">
-        <v>0.406972</v>
+        <v>0.397578</v>
       </c>
     </row>
     <row r="17">
@@ -11274,13 +11274,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.660569</v>
+        <v>0.648333</v>
       </c>
       <c r="C17" t="n">
-        <v>0.527154</v>
+        <v>0.525894</v>
       </c>
       <c r="D17" t="n">
-        <v>0.413706</v>
+        <v>0.403946</v>
       </c>
     </row>
     <row r="18">
@@ -11288,13 +11288,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.677457</v>
+        <v>0.661564</v>
       </c>
       <c r="C18" t="n">
-        <v>0.53111</v>
+        <v>0.527769</v>
       </c>
       <c r="D18" t="n">
-        <v>0.421706</v>
+        <v>0.413103</v>
       </c>
     </row>
     <row r="19">
@@ -11302,13 +11302,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.687469</v>
+        <v>0.677142</v>
       </c>
       <c r="C19" t="n">
-        <v>0.5461859999999999</v>
+        <v>0.542538</v>
       </c>
       <c r="D19" t="n">
-        <v>0.423713</v>
+        <v>0.416854</v>
       </c>
     </row>
     <row r="20">
@@ -11316,13 +11316,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.706572</v>
+        <v>0.693311</v>
       </c>
       <c r="C20" t="n">
-        <v>0.5566990000000001</v>
+        <v>0.557325</v>
       </c>
       <c r="D20" t="n">
-        <v>0.431093</v>
+        <v>0.424408</v>
       </c>
     </row>
     <row r="21">
@@ -11330,13 +11330,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.716973</v>
+        <v>0.700967</v>
       </c>
       <c r="C21" t="n">
-        <v>0.566658</v>
+        <v>0.56402</v>
       </c>
       <c r="D21" t="n">
-        <v>0.437358</v>
+        <v>0.430996</v>
       </c>
     </row>
     <row r="22">
@@ -11344,13 +11344,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.7306009999999999</v>
+        <v>0.718401</v>
       </c>
       <c r="C22" t="n">
-        <v>0.580267</v>
+        <v>0.580788</v>
       </c>
       <c r="D22" t="n">
-        <v>0.443417</v>
+        <v>0.43781</v>
       </c>
     </row>
     <row r="23">
@@ -11358,13 +11358,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.749382</v>
+        <v>0.736971</v>
       </c>
       <c r="C23" t="n">
-        <v>0.594862</v>
+        <v>0.590037</v>
       </c>
       <c r="D23" t="n">
-        <v>0.448393</v>
+        <v>0.442978</v>
       </c>
     </row>
     <row r="24">
@@ -11372,13 +11372,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.761733</v>
+        <v>0.7515579999999999</v>
       </c>
       <c r="C24" t="n">
-        <v>0.601374</v>
+        <v>0.600062</v>
       </c>
       <c r="D24" t="n">
-        <v>0.45449</v>
+        <v>0.449572</v>
       </c>
     </row>
     <row r="25">
@@ -11386,13 +11386,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.779142</v>
+        <v>0.76606</v>
       </c>
       <c r="C25" t="n">
-        <v>0.614777</v>
+        <v>0.612908</v>
       </c>
       <c r="D25" t="n">
-        <v>0.459033</v>
+        <v>0.454093</v>
       </c>
     </row>
     <row r="26">
@@ -11400,13 +11400,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.794849</v>
+        <v>0.783321</v>
       </c>
       <c r="C26" t="n">
-        <v>0.554186</v>
+        <v>0.557304</v>
       </c>
       <c r="D26" t="n">
-        <v>0.465596</v>
+        <v>0.462099</v>
       </c>
     </row>
     <row r="27">
@@ -11414,13 +11414,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.753902</v>
+        <v>0.747094</v>
       </c>
       <c r="C27" t="n">
-        <v>0.56073</v>
+        <v>0.566557</v>
       </c>
       <c r="D27" t="n">
-        <v>0.468408</v>
+        <v>0.467585</v>
       </c>
     </row>
     <row r="28">
@@ -11428,13 +11428,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.763439</v>
+        <v>0.7567199999999999</v>
       </c>
       <c r="C28" t="n">
-        <v>0.570393</v>
+        <v>0.576613</v>
       </c>
       <c r="D28" t="n">
-        <v>0.474198</v>
+        <v>0.47477</v>
       </c>
     </row>
     <row r="29">
@@ -11442,13 +11442,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.772343</v>
+        <v>0.770799</v>
       </c>
       <c r="C29" t="n">
-        <v>0.573917</v>
+        <v>0.580414</v>
       </c>
       <c r="D29" t="n">
-        <v>0.481087</v>
+        <v>0.477255</v>
       </c>
     </row>
     <row r="30">
@@ -11456,13 +11456,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.781287</v>
+        <v>0.774014</v>
       </c>
       <c r="C30" t="n">
-        <v>0.5838989999999999</v>
+        <v>0.5892810000000001</v>
       </c>
       <c r="D30" t="n">
-        <v>0.485665</v>
+        <v>0.482887</v>
       </c>
     </row>
     <row r="31">
@@ -11470,13 +11470,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.796988</v>
+        <v>0.78904</v>
       </c>
       <c r="C31" t="n">
-        <v>0.589136</v>
+        <v>0.597938</v>
       </c>
       <c r="D31" t="n">
-        <v>0.487203</v>
+        <v>0.486207</v>
       </c>
     </row>
     <row r="32">
@@ -11484,13 +11484,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.811307</v>
+        <v>0.803854</v>
       </c>
       <c r="C32" t="n">
-        <v>0.5997400000000001</v>
+        <v>0.607522</v>
       </c>
       <c r="D32" t="n">
-        <v>0.491626</v>
+        <v>0.49113</v>
       </c>
     </row>
     <row r="33">
@@ -11498,13 +11498,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.820981</v>
+        <v>0.8119</v>
       </c>
       <c r="C33" t="n">
-        <v>0.606949</v>
+        <v>0.615195</v>
       </c>
       <c r="D33" t="n">
-        <v>0.494701</v>
+        <v>0.495168</v>
       </c>
     </row>
     <row r="34">
@@ -11512,13 +11512,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.833558</v>
+        <v>0.828542</v>
       </c>
       <c r="C34" t="n">
-        <v>0.617274</v>
+        <v>0.62735</v>
       </c>
       <c r="D34" t="n">
-        <v>0.497102</v>
+        <v>0.498115</v>
       </c>
     </row>
     <row r="35">
@@ -11526,13 +11526,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.845604</v>
+        <v>0.84197</v>
       </c>
       <c r="C35" t="n">
-        <v>0.626037</v>
+        <v>0.635598</v>
       </c>
       <c r="D35" t="n">
-        <v>0.501134</v>
+        <v>0.502449</v>
       </c>
     </row>
     <row r="36">
@@ -11540,13 +11540,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.860559</v>
+        <v>0.853988</v>
       </c>
       <c r="C36" t="n">
-        <v>0.638458</v>
+        <v>0.647645</v>
       </c>
       <c r="D36" t="n">
-        <v>0.506453</v>
+        <v>0.506606</v>
       </c>
     </row>
     <row r="37">
@@ -11554,13 +11554,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.866772</v>
+        <v>0.861695</v>
       </c>
       <c r="C37" t="n">
-        <v>0.644578</v>
+        <v>0.65972</v>
       </c>
       <c r="D37" t="n">
-        <v>0.506258</v>
+        <v>0.507853</v>
       </c>
     </row>
     <row r="38">
@@ -11568,13 +11568,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.8797469999999999</v>
+        <v>0.873456</v>
       </c>
       <c r="C38" t="n">
-        <v>0.662145</v>
+        <v>0.668579</v>
       </c>
       <c r="D38" t="n">
-        <v>0.512682</v>
+        <v>0.514608</v>
       </c>
     </row>
     <row r="39">
@@ -11582,13 +11582,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.898969</v>
+        <v>0.896016</v>
       </c>
       <c r="C39" t="n">
-        <v>0.673959</v>
+        <v>0.680038</v>
       </c>
       <c r="D39" t="n">
-        <v>0.5124300000000001</v>
+        <v>0.51557</v>
       </c>
     </row>
     <row r="40">
@@ -11596,13 +11596,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.903954</v>
+        <v>0.897165</v>
       </c>
       <c r="C40" t="n">
-        <v>0.616964</v>
+        <v>0.628819</v>
       </c>
       <c r="D40" t="n">
-        <v>0.516669</v>
+        <v>0.520099</v>
       </c>
     </row>
     <row r="41">
@@ -11610,13 +11610,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.857151</v>
+        <v>0.851904</v>
       </c>
       <c r="C41" t="n">
-        <v>0.620406</v>
+        <v>0.633888</v>
       </c>
       <c r="D41" t="n">
-        <v>0.51869</v>
+        <v>0.523031</v>
       </c>
     </row>
     <row r="42">
@@ -11624,13 +11624,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.864279</v>
+        <v>0.859718</v>
       </c>
       <c r="C42" t="n">
-        <v>0.630177</v>
+        <v>0.643082</v>
       </c>
       <c r="D42" t="n">
-        <v>0.521939</v>
+        <v>0.524141</v>
       </c>
     </row>
     <row r="43">
@@ -11638,13 +11638,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.87157</v>
+        <v>0.866217</v>
       </c>
       <c r="C43" t="n">
-        <v>0.635865</v>
+        <v>0.649583</v>
       </c>
       <c r="D43" t="n">
-        <v>0.525384</v>
+        <v>0.527353</v>
       </c>
     </row>
     <row r="44">
@@ -11652,13 +11652,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.878077</v>
+        <v>0.87349</v>
       </c>
       <c r="C44" t="n">
-        <v>0.64827</v>
+        <v>0.6619119999999999</v>
       </c>
       <c r="D44" t="n">
-        <v>0.527532</v>
+        <v>0.5312170000000001</v>
       </c>
     </row>
     <row r="45">
@@ -11666,13 +11666,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.891699</v>
+        <v>0.89283</v>
       </c>
       <c r="C45" t="n">
-        <v>0.65499</v>
+        <v>0.668075</v>
       </c>
       <c r="D45" t="n">
-        <v>0.528799</v>
+        <v>0.532961</v>
       </c>
     </row>
     <row r="46">
@@ -11680,13 +11680,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.900747</v>
+        <v>0.894171</v>
       </c>
       <c r="C46" t="n">
-        <v>0.66368</v>
+        <v>0.6752320000000001</v>
       </c>
       <c r="D46" t="n">
-        <v>0.531508</v>
+        <v>0.535706</v>
       </c>
     </row>
     <row r="47">
@@ -11694,13 +11694,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.911953</v>
+        <v>0.908508</v>
       </c>
       <c r="C47" t="n">
-        <v>0.67336</v>
+        <v>0.686426</v>
       </c>
       <c r="D47" t="n">
-        <v>0.53377</v>
+        <v>0.537571</v>
       </c>
     </row>
     <row r="48">
@@ -11708,13 +11708,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.9216760000000001</v>
+        <v>0.916134</v>
       </c>
       <c r="C48" t="n">
-        <v>0.681033</v>
+        <v>0.694431</v>
       </c>
       <c r="D48" t="n">
-        <v>0.535506</v>
+        <v>0.539928</v>
       </c>
     </row>
     <row r="49">
@@ -11722,13 +11722,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.928164</v>
+        <v>0.922224</v>
       </c>
       <c r="C49" t="n">
-        <v>0.688682</v>
+        <v>0.70217</v>
       </c>
       <c r="D49" t="n">
-        <v>0.540131</v>
+        <v>0.542654</v>
       </c>
     </row>
     <row r="50">
@@ -11736,13 +11736,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.941623</v>
+        <v>0.936508</v>
       </c>
       <c r="C50" t="n">
-        <v>0.700187</v>
+        <v>0.712893</v>
       </c>
       <c r="D50" t="n">
-        <v>0.541571</v>
+        <v>0.543723</v>
       </c>
     </row>
     <row r="51">
@@ -11750,13 +11750,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.95319</v>
+        <v>0.944813</v>
       </c>
       <c r="C51" t="n">
-        <v>0.708193</v>
+        <v>0.721209</v>
       </c>
       <c r="D51" t="n">
-        <v>0.543354</v>
+        <v>0.544863</v>
       </c>
     </row>
     <row r="52">
@@ -11764,13 +11764,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.96435</v>
+        <v>0.959201</v>
       </c>
       <c r="C52" t="n">
-        <v>0.721372</v>
+        <v>0.735354</v>
       </c>
       <c r="D52" t="n">
-        <v>0.544907</v>
+        <v>0.548774</v>
       </c>
     </row>
     <row r="53">
@@ -11778,13 +11778,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.975433</v>
+        <v>0.969436</v>
       </c>
       <c r="C53" t="n">
-        <v>0.732009</v>
+        <v>0.744218</v>
       </c>
       <c r="D53" t="n">
-        <v>0.547378</v>
+        <v>0.5499270000000001</v>
       </c>
     </row>
     <row r="54">
@@ -11792,13 +11792,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.987721</v>
+        <v>0.981778</v>
       </c>
       <c r="C54" t="n">
-        <v>0.662521</v>
+        <v>0.677157</v>
       </c>
       <c r="D54" t="n">
-        <v>0.547497</v>
+        <v>0.549975</v>
       </c>
     </row>
     <row r="55">
@@ -11806,13 +11806,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>1.0006</v>
+        <v>0.9938669999999999</v>
       </c>
       <c r="C55" t="n">
-        <v>0.667717</v>
+        <v>0.683222</v>
       </c>
       <c r="D55" t="n">
-        <v>0.547843</v>
+        <v>0.551756</v>
       </c>
     </row>
     <row r="56">
@@ -11820,13 +11820,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.917843</v>
+        <v>0.913471</v>
       </c>
       <c r="C56" t="n">
-        <v>0.675625</v>
+        <v>0.69008</v>
       </c>
       <c r="D56" t="n">
-        <v>0.550031</v>
+        <v>0.553552</v>
       </c>
     </row>
     <row r="57">
@@ -11834,13 +11834,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.924388</v>
+        <v>0.919462</v>
       </c>
       <c r="C57" t="n">
-        <v>0.6832859999999999</v>
+        <v>0.696474</v>
       </c>
       <c r="D57" t="n">
-        <v>0.552165</v>
+        <v>0.555182</v>
       </c>
     </row>
     <row r="58">
@@ -11848,13 +11848,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.9343</v>
+        <v>0.931226</v>
       </c>
       <c r="C58" t="n">
-        <v>0.692389</v>
+        <v>0.70526</v>
       </c>
       <c r="D58" t="n">
-        <v>0.553848</v>
+        <v>0.55728</v>
       </c>
     </row>
     <row r="59">
@@ -11862,13 +11862,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.942268</v>
+        <v>0.935751</v>
       </c>
       <c r="C59" t="n">
-        <v>0.701613</v>
+        <v>0.713858</v>
       </c>
       <c r="D59" t="n">
-        <v>0.55544</v>
+        <v>0.559787</v>
       </c>
     </row>
     <row r="60">
@@ -11876,13 +11876,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.948634</v>
+        <v>0.946527</v>
       </c>
       <c r="C60" t="n">
-        <v>0.714454</v>
+        <v>0.723448</v>
       </c>
       <c r="D60" t="n">
-        <v>0.557066</v>
+        <v>0.560052</v>
       </c>
     </row>
     <row r="61">
@@ -11890,13 +11890,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.954701</v>
+        <v>0.951149</v>
       </c>
       <c r="C61" t="n">
-        <v>0.724928</v>
+        <v>0.733897</v>
       </c>
       <c r="D61" t="n">
-        <v>0.560839</v>
+        <v>0.562526</v>
       </c>
     </row>
     <row r="62">
@@ -11904,13 +11904,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.9647250000000001</v>
+        <v>0.9618910000000001</v>
       </c>
       <c r="C62" t="n">
-        <v>0.73542</v>
+        <v>0.744077</v>
       </c>
       <c r="D62" t="n">
-        <v>0.55936</v>
+        <v>0.563546</v>
       </c>
     </row>
     <row r="63">
@@ -11918,13 +11918,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.976328</v>
+        <v>0.972823</v>
       </c>
       <c r="C63" t="n">
-        <v>0.749831</v>
+        <v>0.757139</v>
       </c>
       <c r="D63" t="n">
-        <v>0.56276</v>
+        <v>0.564778</v>
       </c>
     </row>
     <row r="64">
@@ -11932,13 +11932,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.9854810000000001</v>
+        <v>0.984118</v>
       </c>
       <c r="C64" t="n">
-        <v>0.758955</v>
+        <v>0.772301</v>
       </c>
       <c r="D64" t="n">
-        <v>0.563638</v>
+        <v>0.568563</v>
       </c>
     </row>
     <row r="65">
@@ -11946,13 +11946,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.999786</v>
+        <v>0.999149</v>
       </c>
       <c r="C65" t="n">
-        <v>0.776582</v>
+        <v>0.790191</v>
       </c>
       <c r="D65" t="n">
-        <v>0.566743</v>
+        <v>0.570643</v>
       </c>
     </row>
     <row r="66">
@@ -11960,13 +11960,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>1.0155</v>
+        <v>1.01249</v>
       </c>
       <c r="C66" t="n">
-        <v>0.793519</v>
+        <v>0.801393</v>
       </c>
       <c r="D66" t="n">
-        <v>0.570388</v>
+        <v>0.57292</v>
       </c>
     </row>
     <row r="67">
@@ -11974,13 +11974,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>1.02915</v>
+        <v>1.02164</v>
       </c>
       <c r="C67" t="n">
-        <v>0.814022</v>
+        <v>0.821655</v>
       </c>
       <c r="D67" t="n">
-        <v>0.575495</v>
+        <v>0.575775</v>
       </c>
     </row>
     <row r="68">
@@ -11988,13 +11988,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>1.04178</v>
+        <v>1.03486</v>
       </c>
       <c r="C68" t="n">
-        <v>0.741269</v>
+        <v>0.75356</v>
       </c>
       <c r="D68" t="n">
-        <v>0.5944199999999999</v>
+        <v>0.587475</v>
       </c>
     </row>
     <row r="69">
@@ -12002,13 +12002,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>1.08098</v>
+        <v>1.06388</v>
       </c>
       <c r="C69" t="n">
-        <v>0.771814</v>
+        <v>0.781303</v>
       </c>
       <c r="D69" t="n">
-        <v>0.606941</v>
+        <v>0.596993</v>
       </c>
     </row>
     <row r="70">
@@ -12016,13 +12016,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>1.02177</v>
+        <v>1.00618</v>
       </c>
       <c r="C70" t="n">
-        <v>0.801844</v>
+        <v>0.810473</v>
       </c>
       <c r="D70" t="n">
-        <v>0.622909</v>
+        <v>0.6151529999999999</v>
       </c>
     </row>
     <row r="71">
@@ -12030,13 +12030,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>1.05558</v>
+        <v>1.03475</v>
       </c>
       <c r="C71" t="n">
-        <v>0.83377</v>
+        <v>0.838633</v>
       </c>
       <c r="D71" t="n">
-        <v>0.637831</v>
+        <v>0.626263</v>
       </c>
     </row>
     <row r="72">
@@ -12044,13 +12044,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>1.09127</v>
+        <v>1.07561</v>
       </c>
       <c r="C72" t="n">
-        <v>0.866193</v>
+        <v>0.873169</v>
       </c>
       <c r="D72" t="n">
-        <v>0.655213</v>
+        <v>0.6475649999999999</v>
       </c>
     </row>
     <row r="73">
@@ -12058,13 +12058,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>1.12655</v>
+        <v>1.10571</v>
       </c>
       <c r="C73" t="n">
-        <v>0.902481</v>
+        <v>0.907618</v>
       </c>
       <c r="D73" t="n">
-        <v>0.674539</v>
+        <v>0.663928</v>
       </c>
     </row>
     <row r="74">
@@ -12072,13 +12072,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>1.16156</v>
+        <v>1.14376</v>
       </c>
       <c r="C74" t="n">
-        <v>0.939947</v>
+        <v>0.949123</v>
       </c>
       <c r="D74" t="n">
-        <v>0.695253</v>
+        <v>0.683132</v>
       </c>
     </row>
     <row r="75">
@@ -12086,13 +12086,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>1.19844</v>
+        <v>1.18284</v>
       </c>
       <c r="C75" t="n">
-        <v>0.980475</v>
+        <v>0.991874</v>
       </c>
       <c r="D75" t="n">
-        <v>0.71243</v>
+        <v>0.7078100000000001</v>
       </c>
     </row>
     <row r="76">
@@ -12100,13 +12100,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>1.2454</v>
+        <v>1.23129</v>
       </c>
       <c r="C76" t="n">
-        <v>1.02462</v>
+        <v>1.03711</v>
       </c>
       <c r="D76" t="n">
-        <v>0.736232</v>
+        <v>0.735701</v>
       </c>
     </row>
     <row r="77">
@@ -12114,13 +12114,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>1.30658</v>
+        <v>1.28795</v>
       </c>
       <c r="C77" t="n">
-        <v>1.07798</v>
+        <v>1.08558</v>
       </c>
       <c r="D77" t="n">
-        <v>0.771033</v>
+        <v>0.764278</v>
       </c>
     </row>
     <row r="78">
@@ -12128,13 +12128,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>1.36997</v>
+        <v>1.34932</v>
       </c>
       <c r="C78" t="n">
-        <v>1.12996</v>
+        <v>1.1406</v>
       </c>
       <c r="D78" t="n">
-        <v>0.804764</v>
+        <v>0.797505</v>
       </c>
     </row>
     <row r="79">
@@ -12142,13 +12142,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>1.43046</v>
+        <v>1.41035</v>
       </c>
       <c r="C79" t="n">
-        <v>1.17943</v>
+        <v>1.18754</v>
       </c>
       <c r="D79" t="n">
-        <v>0.839181</v>
+        <v>0.832767</v>
       </c>
     </row>
     <row r="80">
@@ -12156,13 +12156,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>1.50061</v>
+        <v>1.48265</v>
       </c>
       <c r="C80" t="n">
-        <v>1.24053</v>
+        <v>1.25</v>
       </c>
       <c r="D80" t="n">
-        <v>0.875131</v>
+        <v>0.866629</v>
       </c>
     </row>
     <row r="81">
@@ -12170,13 +12170,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>1.59249</v>
+        <v>1.57292</v>
       </c>
       <c r="C81" t="n">
-        <v>1.30811</v>
+        <v>1.32019</v>
       </c>
       <c r="D81" t="n">
-        <v>0.920463</v>
+        <v>0.919963</v>
       </c>
     </row>
     <row r="82">
@@ -12184,13 +12184,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>1.67628</v>
+        <v>1.65934</v>
       </c>
       <c r="C82" t="n">
-        <v>1.37413</v>
+        <v>1.39368</v>
       </c>
       <c r="D82" t="n">
-        <v>0.965845</v>
+        <v>0.969929</v>
       </c>
     </row>
     <row r="83">
@@ -12198,13 +12198,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>1.78034</v>
+        <v>1.76026</v>
       </c>
       <c r="C83" t="n">
-        <v>1.35493</v>
+        <v>1.38018</v>
       </c>
       <c r="D83" t="n">
-        <v>1.07959</v>
+        <v>1.08843</v>
       </c>
     </row>
     <row r="84">
@@ -12212,13 +12212,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>1.88731</v>
+        <v>1.87367</v>
       </c>
       <c r="C84" t="n">
-        <v>1.41673</v>
+        <v>1.44163</v>
       </c>
       <c r="D84" t="n">
-        <v>1.13742</v>
+        <v>1.13918</v>
       </c>
     </row>
     <row r="85">
@@ -12226,13 +12226,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>1.91396</v>
+        <v>1.89671</v>
       </c>
       <c r="C85" t="n">
-        <v>1.4819</v>
+        <v>1.50455</v>
       </c>
       <c r="D85" t="n">
-        <v>1.19846</v>
+        <v>1.19747</v>
       </c>
     </row>
     <row r="86">
@@ -12240,13 +12240,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>2.02123</v>
+        <v>1.99882</v>
       </c>
       <c r="C86" t="n">
-        <v>1.55543</v>
+        <v>1.57961</v>
       </c>
       <c r="D86" t="n">
-        <v>1.25221</v>
+        <v>1.26033</v>
       </c>
     </row>
     <row r="87">
@@ -12254,13 +12254,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>2.13931</v>
+        <v>2.1095</v>
       </c>
       <c r="C87" t="n">
-        <v>1.62281</v>
+        <v>1.65164</v>
       </c>
       <c r="D87" t="n">
-        <v>1.31554</v>
+        <v>1.32246</v>
       </c>
     </row>
     <row r="88">
@@ -12268,13 +12268,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>2.25503</v>
+        <v>2.22239</v>
       </c>
       <c r="C88" t="n">
-        <v>1.70692</v>
+        <v>1.72932</v>
       </c>
       <c r="D88" t="n">
-        <v>1.37211</v>
+        <v>1.38594</v>
       </c>
     </row>
     <row r="89">
@@ -12282,13 +12282,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>2.36564</v>
+        <v>2.3492</v>
       </c>
       <c r="C89" t="n">
-        <v>1.78868</v>
+        <v>1.81517</v>
       </c>
       <c r="D89" t="n">
-        <v>1.43257</v>
+        <v>1.44417</v>
       </c>
     </row>
     <row r="90">
@@ -12296,13 +12296,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>2.48706</v>
+        <v>2.46703</v>
       </c>
       <c r="C90" t="n">
-        <v>1.86002</v>
+        <v>1.89273</v>
       </c>
       <c r="D90" t="n">
-        <v>1.48407</v>
+        <v>1.50587</v>
       </c>
     </row>
     <row r="91">
@@ -12310,13 +12310,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>2.62003</v>
+        <v>2.60207</v>
       </c>
       <c r="C91" t="n">
-        <v>1.94746</v>
+        <v>1.98242</v>
       </c>
       <c r="D91" t="n">
-        <v>1.5507</v>
+        <v>1.55462</v>
       </c>
     </row>
     <row r="92">
@@ -12324,13 +12324,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>2.74698</v>
+        <v>2.7071</v>
       </c>
       <c r="C92" t="n">
-        <v>2.03622</v>
+        <v>2.06331</v>
       </c>
       <c r="D92" t="n">
-        <v>1.59557</v>
+        <v>1.61744</v>
       </c>
     </row>
     <row r="93">
@@ -12338,13 +12338,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>2.88143</v>
+        <v>2.85182</v>
       </c>
       <c r="C93" t="n">
-        <v>2.12798</v>
+        <v>2.16315</v>
       </c>
       <c r="D93" t="n">
-        <v>1.64957</v>
+        <v>1.6771</v>
       </c>
     </row>
     <row r="94">
@@ -12352,13 +12352,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>2.9986</v>
+        <v>2.98835</v>
       </c>
       <c r="C94" t="n">
-        <v>2.21885</v>
+        <v>2.25805</v>
       </c>
       <c r="D94" t="n">
-        <v>1.70291</v>
+        <v>1.72111</v>
       </c>
     </row>
     <row r="95">
@@ -12366,13 +12366,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>3.14319</v>
+        <v>3.11837</v>
       </c>
       <c r="C95" t="n">
-        <v>2.31616</v>
+        <v>2.34818</v>
       </c>
       <c r="D95" t="n">
-        <v>1.74678</v>
+        <v>1.77898</v>
       </c>
     </row>
     <row r="96">
@@ -12380,13 +12380,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>3.30321</v>
+        <v>3.23477</v>
       </c>
       <c r="C96" t="n">
-        <v>2.42378</v>
+        <v>2.46394</v>
       </c>
       <c r="D96" t="n">
-        <v>1.79573</v>
+        <v>1.82844</v>
       </c>
     </row>
     <row r="97">
@@ -12394,13 +12394,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>3.38729</v>
+        <v>3.40444</v>
       </c>
       <c r="C97" t="n">
-        <v>2.20455</v>
+        <v>2.25004</v>
       </c>
       <c r="D97" t="n">
-        <v>1.93883</v>
+        <v>1.96767</v>
       </c>
     </row>
     <row r="98">
@@ -12408,13 +12408,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>3.54777</v>
+        <v>3.50896</v>
       </c>
       <c r="C98" t="n">
-        <v>2.27091</v>
+        <v>2.32061</v>
       </c>
       <c r="D98" t="n">
-        <v>1.98577</v>
+        <v>2.01437</v>
       </c>
     </row>
     <row r="99">
@@ -12422,13 +12422,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>3.4177</v>
+        <v>3.42795</v>
       </c>
       <c r="C99" t="n">
-        <v>2.3383</v>
+        <v>2.37688</v>
       </c>
       <c r="D99" t="n">
-        <v>2.02292</v>
+        <v>2.06083</v>
       </c>
     </row>
     <row r="100">
@@ -12436,13 +12436,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>3.56348</v>
+        <v>3.54529</v>
       </c>
       <c r="C100" t="n">
-        <v>2.40999</v>
+        <v>2.45781</v>
       </c>
       <c r="D100" t="n">
-        <v>2.08102</v>
+        <v>2.09884</v>
       </c>
     </row>
     <row r="101">
@@ -12450,13 +12450,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>3.63078</v>
+        <v>3.61572</v>
       </c>
       <c r="C101" t="n">
-        <v>2.48279</v>
+        <v>2.53641</v>
       </c>
       <c r="D101" t="n">
-        <v>2.11424</v>
+        <v>2.12887</v>
       </c>
     </row>
     <row r="102">
@@ -12464,13 +12464,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>3.76407</v>
+        <v>3.71184</v>
       </c>
       <c r="C102" t="n">
-        <v>2.54673</v>
+        <v>2.60078</v>
       </c>
       <c r="D102" t="n">
-        <v>2.14299</v>
+        <v>2.16964</v>
       </c>
     </row>
     <row r="103">
@@ -12478,13 +12478,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>3.85441</v>
+        <v>3.83872</v>
       </c>
       <c r="C103" t="n">
-        <v>2.62363</v>
+        <v>2.67792</v>
       </c>
       <c r="D103" t="n">
-        <v>2.18484</v>
+        <v>2.21099</v>
       </c>
     </row>
     <row r="104">
@@ -12492,13 +12492,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>3.96789</v>
+        <v>3.92913</v>
       </c>
       <c r="C104" t="n">
-        <v>2.71131</v>
+        <v>2.75558</v>
       </c>
       <c r="D104" t="n">
-        <v>2.21308</v>
+        <v>2.24107</v>
       </c>
     </row>
     <row r="105">
@@ -12506,13 +12506,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>4.04945</v>
+        <v>4.05224</v>
       </c>
       <c r="C105" t="n">
-        <v>2.78287</v>
+        <v>2.84054</v>
       </c>
       <c r="D105" t="n">
-        <v>2.24393</v>
+        <v>2.27689</v>
       </c>
     </row>
     <row r="106">
@@ -12520,13 +12520,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>4.17853</v>
+        <v>4.10106</v>
       </c>
       <c r="C106" t="n">
-        <v>2.86737</v>
+        <v>2.91569</v>
       </c>
       <c r="D106" t="n">
-        <v>2.28575</v>
+        <v>2.30634</v>
       </c>
     </row>
     <row r="107">
@@ -12534,13 +12534,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>4.2505</v>
+        <v>4.17334</v>
       </c>
       <c r="C107" t="n">
-        <v>2.93258</v>
+        <v>2.99388</v>
       </c>
       <c r="D107" t="n">
-        <v>2.31042</v>
+        <v>2.33743</v>
       </c>
     </row>
     <row r="108">
@@ -12548,13 +12548,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>4.35866</v>
+        <v>4.2464</v>
       </c>
       <c r="C108" t="n">
-        <v>3.03126</v>
+        <v>3.07716</v>
       </c>
       <c r="D108" t="n">
-        <v>2.33827</v>
+        <v>2.35531</v>
       </c>
     </row>
     <row r="109">
@@ -12562,13 +12562,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>4.46527</v>
+        <v>4.37143</v>
       </c>
       <c r="C109" t="n">
-        <v>3.11128</v>
+        <v>3.17688</v>
       </c>
       <c r="D109" t="n">
-        <v>2.36946</v>
+        <v>2.39636</v>
       </c>
     </row>
     <row r="110">
@@ -12576,13 +12576,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>4.54229</v>
+        <v>4.47487</v>
       </c>
       <c r="C110" t="n">
-        <v>3.20756</v>
+        <v>3.26189</v>
       </c>
       <c r="D110" t="n">
-        <v>2.40379</v>
+        <v>2.42321</v>
       </c>
     </row>
     <row r="111">
@@ -12590,13 +12590,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>4.6831</v>
+        <v>4.60499</v>
       </c>
       <c r="C111" t="n">
-        <v>2.84102</v>
+        <v>2.87932</v>
       </c>
       <c r="D111" t="n">
-        <v>2.5116</v>
+        <v>2.52715</v>
       </c>
     </row>
     <row r="112">
@@ -12604,13 +12604,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>4.78152</v>
+        <v>4.75656</v>
       </c>
       <c r="C112" t="n">
-        <v>2.90892</v>
+        <v>2.95864</v>
       </c>
       <c r="D112" t="n">
-        <v>2.54677</v>
+        <v>2.55104</v>
       </c>
     </row>
     <row r="113">
@@ -12618,13 +12618,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>4.89075</v>
+        <v>4.81787</v>
       </c>
       <c r="C113" t="n">
-        <v>2.9737</v>
+        <v>3.01167</v>
       </c>
       <c r="D113" t="n">
-        <v>2.5675</v>
+        <v>2.58024</v>
       </c>
     </row>
     <row r="114">
@@ -12632,13 +12632,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>4.51284</v>
+        <v>4.48685</v>
       </c>
       <c r="C114" t="n">
-        <v>3.0213</v>
+        <v>3.05744</v>
       </c>
       <c r="D114" t="n">
-        <v>2.58576</v>
+        <v>2.60897</v>
       </c>
     </row>
     <row r="115">
@@ -12646,13 +12646,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>4.59852</v>
+        <v>4.5609</v>
       </c>
       <c r="C115" t="n">
-        <v>3.0722</v>
+        <v>3.12468</v>
       </c>
       <c r="D115" t="n">
-        <v>2.61665</v>
+        <v>2.62837</v>
       </c>
     </row>
     <row r="116">
@@ -12660,13 +12660,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>4.71118</v>
+        <v>4.6192</v>
       </c>
       <c r="C116" t="n">
-        <v>3.13372</v>
+        <v>3.1739</v>
       </c>
       <c r="D116" t="n">
-        <v>2.63759</v>
+        <v>2.65155</v>
       </c>
     </row>
     <row r="117">
@@ -12674,13 +12674,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>4.77249</v>
+        <v>4.74409</v>
       </c>
       <c r="C117" t="n">
-        <v>3.21315</v>
+        <v>3.24864</v>
       </c>
       <c r="D117" t="n">
-        <v>2.6564</v>
+        <v>2.67123</v>
       </c>
     </row>
     <row r="118">
@@ -12688,13 +12688,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>4.80407</v>
+        <v>4.83983</v>
       </c>
       <c r="C118" t="n">
-        <v>3.2785</v>
+        <v>3.32525</v>
       </c>
       <c r="D118" t="n">
-        <v>2.68672</v>
+        <v>2.69038</v>
       </c>
     </row>
     <row r="119">
@@ -12702,13 +12702,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>4.93152</v>
+        <v>4.9104</v>
       </c>
       <c r="C119" t="n">
-        <v>3.34865</v>
+        <v>3.40615</v>
       </c>
       <c r="D119" t="n">
-        <v>2.69684</v>
+        <v>2.71589</v>
       </c>
     </row>
   </sheetData>
